--- a/code/shabdakala/resource/sbwords.xlsx
+++ b/code/shabdakala/resource/sbwords.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hrishinene/github/shabdakala/shabdakala/code/shabdakala/resource/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35F54C13-0FDC-E748-8222-46672311602D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D24367EE-5B6C-4642-8CB0-5C60A74DA2DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1540" yWindow="880" windowWidth="28040" windowHeight="17440" xr2:uid="{9F74AEE5-EB85-4044-AC84-8761A591B5C1}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="379">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="447">
   <si>
     <t>word0</t>
   </si>
@@ -260,9 +260,6 @@
     <t>संग्रहालय</t>
   </si>
   <si>
-    <t>कारावास</t>
-  </si>
-  <si>
     <t>आगा खान पॅलेस</t>
   </si>
   <si>
@@ -1170,6 +1167,213 @@
   </si>
   <si>
     <t>चीनचे प्राचीन शोध</t>
+  </si>
+  <si>
+    <t>स्थानबद्ध</t>
+  </si>
+  <si>
+    <t>मशाल</t>
+  </si>
+  <si>
+    <t>इंजिन</t>
+  </si>
+  <si>
+    <t>कमळ</t>
+  </si>
+  <si>
+    <t>घड्याळ</t>
+  </si>
+  <si>
+    <t>महाराष्ट्रातील पक्षांची निवडणूक चिन्हे</t>
+  </si>
+  <si>
+    <t>झोप</t>
+  </si>
+  <si>
+    <t>ठेच</t>
+  </si>
+  <si>
+    <t>बस</t>
+  </si>
+  <si>
+    <t>वाट</t>
+  </si>
+  <si>
+    <t>ही “लागते” :-)</t>
+  </si>
+  <si>
+    <t>संधी</t>
+  </si>
+  <si>
+    <t>जागा</t>
+  </si>
+  <si>
+    <t>ही “मिळते” :-)</t>
+  </si>
+  <si>
+    <t>तलफ</t>
+  </si>
+  <si>
+    <t>मंदी</t>
+  </si>
+  <si>
+    <t>जाग</t>
+  </si>
+  <si>
+    <t>शिंक</t>
+  </si>
+  <si>
+    <t>बहार</t>
+  </si>
+  <si>
+    <t>नंद</t>
+  </si>
+  <si>
+    <t>शिव</t>
+  </si>
+  <si>
+    <t>चार</t>
+  </si>
+  <si>
+    <t>दोन</t>
+  </si>
+  <si>
+    <t>तीन</t>
+  </si>
+  <si>
+    <t>पाच</t>
+  </si>
+  <si>
+    <t>सात</t>
+  </si>
+  <si>
+    <t>पहिल्या ४ मूळ संख्या</t>
+  </si>
+  <si>
+    <t>किरण</t>
+  </si>
+  <si>
+    <t>सुहास</t>
+  </si>
+  <si>
+    <t>चारु</t>
+  </si>
+  <si>
+    <t>शीतल</t>
+  </si>
+  <si>
+    <t>मराठी “यूनिसेक्स्” नावं</t>
+  </si>
+  <si>
+    <t>नंदा</t>
+  </si>
+  <si>
+    <t>नाथा</t>
+  </si>
+  <si>
+    <t>लखू</t>
+  </si>
+  <si>
+    <t>गजा</t>
+  </si>
+  <si>
+    <t>केदार</t>
+  </si>
+  <si>
+    <t>सारंग</t>
+  </si>
+  <si>
+    <t>कल्याण</t>
+  </si>
+  <si>
+    <t>मूळ</t>
+  </si>
+  <si>
+    <t>स्वाती</t>
+  </si>
+  <si>
+    <t>हस्त</t>
+  </si>
+  <si>
+    <t>चित्रा</t>
+  </si>
+  <si>
+    <t>नक्षत्रं</t>
+  </si>
+  <si>
+    <t>नंदी</t>
+  </si>
+  <si>
+    <t>रेडा</t>
+  </si>
+  <si>
+    <t>उंदीर</t>
+  </si>
+  <si>
+    <t>गरुड</t>
+  </si>
+  <si>
+    <t>भर</t>
+  </si>
+  <si>
+    <t>ओढ</t>
+  </si>
+  <si>
+    <t>ठेव</t>
+  </si>
+  <si>
+    <t>नामरुपे आणि क्रियेची आज्ञार्थ रुपे</t>
+  </si>
+  <si>
+    <t>उत्प्रेक्षा</t>
+  </si>
+  <si>
+    <t>यमक</t>
+  </si>
+  <si>
+    <t>रूपक</t>
+  </si>
+  <si>
+    <t>उपमा</t>
+  </si>
+  <si>
+    <t>'सदा' हा उपसर्ग लावून अर्थपूर्ण शब्द</t>
+  </si>
+  <si>
+    <t>नोकरी</t>
+  </si>
+  <si>
+    <t>सागरा धरणी</t>
+  </si>
+  <si>
+    <t xml:space="preserve">व्यक्ती आणि वल्ली' मधील काही व्यक्तिरेखा </t>
+  </si>
+  <si>
+    <t>आसावरी</t>
+  </si>
+  <si>
+    <t xml:space="preserve">काही देवांची वाहने </t>
+  </si>
+  <si>
+    <t>मराठी भाषालंकार</t>
+  </si>
+  <si>
+    <t>maths</t>
+  </si>
+  <si>
+    <t>music</t>
+  </si>
+  <si>
+    <t>काही राग</t>
+  </si>
+  <si>
+    <t>astro</t>
+  </si>
+  <si>
+    <t>mythology</t>
+  </si>
+  <si>
+    <t>ही “येते” :-)</t>
   </si>
 </sst>
 </file>
@@ -1688,7 +1892,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1696,6 +1900,7 @@
     <xf numFmtId="15" fontId="18" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="19" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="15" fontId="19" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1741,7 +1946,29 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -2083,10 +2310,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEA1707B-2FB7-B84C-9F84-E9F074F3056C}">
-  <dimension ref="A1:L75"/>
+  <dimension ref="A1:L89"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="M50" sqref="M50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2127,13 +2354,13 @@
         <v>6</v>
       </c>
       <c r="H1" s="5" t="s">
+        <v>353</v>
+      </c>
+      <c r="I1" s="5" t="s">
         <v>354</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>355</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>356</v>
       </c>
       <c r="L1" s="4">
         <v>45626</v>
@@ -2141,25 +2368,25 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B2" t="s">
         <v>107</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>108</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>109</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>110</v>
       </c>
-      <c r="E2" t="s">
-        <v>111</v>
-      </c>
       <c r="F2" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H2">
         <f>INT(J2/3)</f>
@@ -2174,7 +2401,7 @@
       </c>
       <c r="L2" s="6">
         <f ca="1">TODAY()</f>
-        <v>45629</v>
+        <v>45631</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -2191,13 +2418,13 @@
         <v>64</v>
       </c>
       <c r="E3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>94</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>95</v>
       </c>
       <c r="H3">
         <f t="shared" ref="H3:H11" si="1">INT(J3/3)</f>
@@ -2215,25 +2442,25 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>143</v>
+      </c>
+      <c r="B4" t="s">
         <v>144</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>145</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>146</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>147</v>
       </c>
-      <c r="E4" t="s">
-        <v>148</v>
-      </c>
       <c r="F4" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H4">
         <f t="shared" si="1"/>
@@ -2251,25 +2478,25 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>267</v>
+      </c>
+      <c r="B5" t="s">
         <v>268</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>269</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>270</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>271</v>
       </c>
-      <c r="E5" t="s">
-        <v>272</v>
-      </c>
       <c r="F5" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H5">
         <f t="shared" si="1"/>
@@ -2287,25 +2514,25 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>81</v>
+      </c>
+      <c r="B6" t="s">
         <v>82</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>83</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>84</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>85</v>
       </c>
-      <c r="E6" t="s">
-        <v>86</v>
-      </c>
       <c r="F6" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H6">
         <f t="shared" si="1"/>
@@ -2323,25 +2550,25 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B7" t="s">
+        <v>121</v>
+      </c>
+      <c r="C7" t="s">
         <v>122</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>123</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>124</v>
       </c>
-      <c r="E7" t="s">
-        <v>125</v>
-      </c>
       <c r="F7" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H7">
         <f t="shared" si="1"/>
@@ -2359,25 +2586,25 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>346</v>
+      </c>
+      <c r="B8" t="s">
         <v>347</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>348</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>349</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>350</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>351</v>
       </c>
-      <c r="F8" t="s">
-        <v>352</v>
-      </c>
       <c r="G8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H8">
         <f t="shared" si="1"/>
@@ -2394,32 +2621,32 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>336</v>
+      </c>
+      <c r="B9" t="s">
         <v>337</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>338</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>339</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>340</v>
       </c>
-      <c r="E9" t="s">
-        <v>341</v>
-      </c>
       <c r="F9" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H9">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="I9" s="3">
-        <f t="shared" ref="I9:I71" si="3">$L$1+H9</f>
+        <f t="shared" ref="I9:I84" si="3">$L$1+H9</f>
         <v>45628</v>
       </c>
       <c r="J9">
@@ -2429,25 +2656,25 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>341</v>
+      </c>
+      <c r="B10" t="s">
         <v>342</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>343</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>344</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>345</v>
       </c>
-      <c r="E10" t="s">
-        <v>346</v>
-      </c>
       <c r="F10" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H10">
         <f t="shared" si="1"/>
@@ -2464,25 +2691,25 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B11" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C11" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D11" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E11" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H11">
         <f t="shared" si="1"/>
@@ -2499,28 +2726,28 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
+        <v>360</v>
+      </c>
+      <c r="B12" t="s">
         <v>361</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
+        <v>368</v>
+      </c>
+      <c r="D12" t="s">
         <v>362</v>
       </c>
-      <c r="C12" t="s">
-        <v>369</v>
-      </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>363</v>
       </c>
-      <c r="E12" t="s">
-        <v>364</v>
-      </c>
       <c r="F12" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H12">
-        <f t="shared" ref="H12:H74" si="5">INT(J12/3)</f>
+        <f t="shared" ref="H12:H87" si="5">INT(J12/3)</f>
         <v>3</v>
       </c>
       <c r="I12" s="3">
@@ -2528,31 +2755,31 @@
         <v>45629</v>
       </c>
       <c r="J12">
-        <f t="shared" ref="J12:J74" si="6">J11+1</f>
+        <f t="shared" ref="J12:J87" si="6">J11+1</f>
         <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
+        <v>364</v>
+      </c>
+      <c r="B13" t="s">
+        <v>237</v>
+      </c>
+      <c r="C13" t="s">
         <v>365</v>
       </c>
-      <c r="B13" t="s">
-        <v>238</v>
-      </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>366</v>
       </c>
-      <c r="D13" t="s">
-        <v>367</v>
-      </c>
       <c r="E13" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H13">
         <f t="shared" si="5"/>
@@ -2569,25 +2796,25 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>138</v>
+      </c>
+      <c r="B14" t="s">
         <v>139</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>140</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>141</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>142</v>
       </c>
-      <c r="E14" t="s">
-        <v>143</v>
-      </c>
       <c r="F14" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H14">
         <f t="shared" si="5"/>
@@ -2604,25 +2831,25 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
+        <v>96</v>
+      </c>
+      <c r="B15" t="s">
         <v>97</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>98</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>99</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
         <v>100</v>
       </c>
-      <c r="E15" t="s">
-        <v>101</v>
-      </c>
       <c r="F15" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H15">
         <f t="shared" si="5"/>
@@ -2651,13 +2878,13 @@
         <v>67</v>
       </c>
       <c r="E16" t="s">
+        <v>92</v>
+      </c>
+      <c r="F16" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="G16" s="1" t="s">
         <v>94</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>95</v>
       </c>
       <c r="H16">
         <f t="shared" si="5"/>
@@ -2686,10 +2913,10 @@
         <v>49</v>
       </c>
       <c r="E17" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>53</v>
@@ -2709,25 +2936,25 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B18" t="s">
+        <v>125</v>
+      </c>
+      <c r="C18" t="s">
         <v>126</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
         <v>127</v>
       </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
         <v>128</v>
       </c>
-      <c r="E18" t="s">
-        <v>129</v>
-      </c>
       <c r="F18" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H18">
         <f t="shared" si="5"/>
@@ -2759,7 +2986,7 @@
         <v>17</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>12</v>
@@ -2779,25 +3006,25 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
+        <v>164</v>
+      </c>
+      <c r="B20" t="s">
         <v>165</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" t="s">
         <v>166</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D20" t="s">
         <v>167</v>
       </c>
-      <c r="D20" t="s">
+      <c r="E20" t="s">
         <v>168</v>
       </c>
-      <c r="E20" t="s">
-        <v>169</v>
-      </c>
       <c r="F20" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H20">
         <f t="shared" si="5"/>
@@ -2814,25 +3041,25 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B21" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C21" t="s">
+        <v>108</v>
+      </c>
+      <c r="D21" t="s">
         <v>109</v>
       </c>
-      <c r="D21" t="s">
+      <c r="E21" t="s">
         <v>110</v>
       </c>
-      <c r="E21" t="s">
-        <v>111</v>
-      </c>
       <c r="F21" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H21">
         <f t="shared" si="5"/>
@@ -2849,25 +3076,25 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
+        <v>143</v>
+      </c>
+      <c r="B22" t="s">
         <v>144</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C22" t="s">
         <v>145</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D22" t="s">
         <v>146</v>
       </c>
-      <c r="D22" t="s">
+      <c r="E22" t="s">
         <v>147</v>
       </c>
-      <c r="E22" t="s">
-        <v>148</v>
-      </c>
       <c r="F22" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H22">
         <f t="shared" ref="H22:H23" si="7">INT(J22/3)</f>
@@ -2899,17 +3126,17 @@
         <v>48</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="G23" s="1" t="s">
         <v>12</v>
       </c>
       <c r="H23">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="H23:H86" si="9">INT(J23/3)</f>
         <v>7</v>
       </c>
       <c r="I23" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="I23:I86" si="10">$L$1+H23</f>
         <v>45633</v>
       </c>
       <c r="J23">
@@ -2934,17 +3161,17 @@
         <v>41</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="G24" s="1" t="s">
         <v>52</v>
       </c>
       <c r="H24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>7</v>
       </c>
       <c r="I24" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>45633</v>
       </c>
       <c r="J24">
@@ -2954,32 +3181,32 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>134</v>
+        <v>379</v>
       </c>
       <c r="B25" t="s">
-        <v>135</v>
+        <v>380</v>
       </c>
       <c r="C25" t="s">
-        <v>136</v>
+        <v>381</v>
       </c>
       <c r="D25" t="s">
-        <v>137</v>
+        <v>382</v>
       </c>
       <c r="E25" t="s">
-        <v>138</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>94</v>
+        <v>383</v>
+      </c>
+      <c r="F25" t="s">
+        <v>414</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>151</v>
+        <v>195</v>
       </c>
       <c r="H25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>7</v>
       </c>
       <c r="I25" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>45633</v>
       </c>
       <c r="J25">
@@ -2989,32 +3216,32 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>263</v>
+        <v>133</v>
       </c>
       <c r="B26" t="s">
-        <v>264</v>
+        <v>134</v>
       </c>
       <c r="C26" t="s">
-        <v>265</v>
+        <v>135</v>
       </c>
       <c r="D26" t="s">
-        <v>266</v>
+        <v>136</v>
       </c>
       <c r="E26" t="s">
-        <v>267</v>
+        <v>137</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>12</v>
+        <v>150</v>
       </c>
       <c r="H26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>8</v>
       </c>
       <c r="I26" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>45634</v>
       </c>
       <c r="J26">
@@ -3024,32 +3251,32 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>102</v>
+        <v>262</v>
       </c>
       <c r="B27" t="s">
-        <v>103</v>
+        <v>263</v>
       </c>
       <c r="C27" t="s">
-        <v>104</v>
+        <v>264</v>
       </c>
       <c r="D27" t="s">
-        <v>105</v>
+        <v>265</v>
       </c>
       <c r="E27" t="s">
-        <v>106</v>
+        <v>266</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="H27">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>8</v>
       </c>
       <c r="I27" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>45634</v>
       </c>
       <c r="J27">
@@ -3059,32 +3286,32 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>112</v>
+        <v>422</v>
       </c>
       <c r="B28" t="s">
-        <v>113</v>
+        <v>423</v>
       </c>
       <c r="C28" t="s">
-        <v>114</v>
+        <v>424</v>
       </c>
       <c r="D28" t="s">
-        <v>115</v>
+        <v>425</v>
       </c>
       <c r="E28" t="s">
-        <v>116</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>94</v>
+        <v>439</v>
+      </c>
+      <c r="F28" t="s">
+        <v>414</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>150</v>
+        <v>445</v>
       </c>
       <c r="H28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>8</v>
       </c>
       <c r="I28" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>45634</v>
       </c>
       <c r="J28">
@@ -3094,32 +3321,32 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>277</v>
+        <v>101</v>
       </c>
       <c r="B29" t="s">
-        <v>278</v>
+        <v>102</v>
       </c>
       <c r="C29" t="s">
-        <v>279</v>
+        <v>103</v>
       </c>
       <c r="D29" t="s">
-        <v>280</v>
+        <v>104</v>
       </c>
       <c r="E29" t="s">
-        <v>281</v>
+        <v>105</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="H29">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>9</v>
       </c>
       <c r="I29" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>45635</v>
       </c>
       <c r="J29">
@@ -3129,32 +3356,32 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>68</v>
+        <v>111</v>
       </c>
       <c r="B30" t="s">
-        <v>69</v>
+        <v>112</v>
       </c>
       <c r="C30" t="s">
-        <v>70</v>
+        <v>113</v>
       </c>
       <c r="D30" t="s">
-        <v>71</v>
+        <v>114</v>
       </c>
       <c r="E30" t="s">
-        <v>372</v>
+        <v>115</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>54</v>
+        <v>149</v>
       </c>
       <c r="H30">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>9</v>
       </c>
       <c r="I30" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>45635</v>
       </c>
       <c r="J30">
@@ -3164,32 +3391,32 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>18</v>
+        <v>276</v>
       </c>
       <c r="B31" t="s">
-        <v>19</v>
+        <v>277</v>
       </c>
       <c r="C31" t="s">
-        <v>20</v>
+        <v>278</v>
       </c>
       <c r="D31" t="s">
-        <v>38</v>
+        <v>279</v>
       </c>
       <c r="E31" t="s">
-        <v>39</v>
+        <v>280</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>353</v>
+        <v>93</v>
       </c>
       <c r="G31" s="1" t="s">
         <v>12</v>
       </c>
       <c r="H31">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>9</v>
       </c>
       <c r="I31" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>45635</v>
       </c>
       <c r="J31">
@@ -3199,32 +3426,32 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>117</v>
+        <v>68</v>
       </c>
       <c r="B32" t="s">
-        <v>118</v>
+        <v>69</v>
       </c>
       <c r="C32" t="s">
-        <v>119</v>
+        <v>70</v>
       </c>
       <c r="D32" t="s">
-        <v>120</v>
+        <v>71</v>
       </c>
       <c r="E32" t="s">
-        <v>121</v>
+        <v>371</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>152</v>
+        <v>54</v>
       </c>
       <c r="H32">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="I32" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>45636</v>
       </c>
       <c r="J32">
@@ -3234,32 +3461,32 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>214</v>
+        <v>384</v>
       </c>
       <c r="B33" t="s">
-        <v>215</v>
+        <v>385</v>
       </c>
       <c r="C33" t="s">
-        <v>216</v>
+        <v>386</v>
       </c>
       <c r="D33" t="s">
-        <v>217</v>
+        <v>387</v>
       </c>
       <c r="E33" t="s">
-        <v>218</v>
+        <v>388</v>
       </c>
       <c r="F33" t="s">
-        <v>262</v>
+        <v>414</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>154</v>
+        <v>286</v>
       </c>
       <c r="H33">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="I33" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>45636</v>
       </c>
       <c r="J33">
@@ -3269,32 +3496,32 @@
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>87</v>
+        <v>18</v>
       </c>
       <c r="B34" t="s">
-        <v>88</v>
+        <v>19</v>
       </c>
       <c r="C34" t="s">
-        <v>89</v>
+        <v>20</v>
       </c>
       <c r="D34" t="s">
-        <v>90</v>
+        <v>38</v>
       </c>
       <c r="E34" t="s">
-        <v>91</v>
+        <v>39</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>94</v>
+        <v>352</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>96</v>
+        <v>12</v>
       </c>
       <c r="H34">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="I34" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>45636</v>
       </c>
       <c r="J34">
@@ -3304,32 +3531,32 @@
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>204</v>
+        <v>116</v>
       </c>
       <c r="B35" t="s">
-        <v>205</v>
+        <v>117</v>
       </c>
       <c r="C35" t="s">
-        <v>206</v>
+        <v>118</v>
       </c>
       <c r="D35" t="s">
-        <v>207</v>
+        <v>119</v>
       </c>
       <c r="E35" t="s">
-        <v>208</v>
-      </c>
-      <c r="F35" t="s">
-        <v>262</v>
+        <v>120</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>93</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>53</v>
+        <v>151</v>
       </c>
       <c r="H35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>11</v>
       </c>
       <c r="I35" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>45637</v>
       </c>
       <c r="J35">
@@ -3339,32 +3566,32 @@
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>72</v>
+        <v>213</v>
       </c>
       <c r="B36" t="s">
-        <v>73</v>
+        <v>214</v>
       </c>
       <c r="C36" t="s">
-        <v>74</v>
+        <v>215</v>
       </c>
       <c r="D36" t="s">
-        <v>75</v>
+        <v>216</v>
       </c>
       <c r="E36" t="s">
-        <v>76</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>94</v>
+        <v>217</v>
+      </c>
+      <c r="F36" t="s">
+        <v>261</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>54</v>
+        <v>153</v>
       </c>
       <c r="H36">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>11</v>
       </c>
       <c r="I36" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>45637</v>
       </c>
       <c r="J36">
@@ -3374,32 +3601,32 @@
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>199</v>
+        <v>86</v>
       </c>
       <c r="B37" t="s">
-        <v>200</v>
+        <v>87</v>
       </c>
       <c r="C37" t="s">
-        <v>201</v>
+        <v>88</v>
       </c>
       <c r="D37" t="s">
-        <v>202</v>
+        <v>89</v>
       </c>
       <c r="E37" t="s">
-        <v>203</v>
-      </c>
-      <c r="F37" t="s">
-        <v>262</v>
+        <v>90</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>93</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H37">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>11</v>
       </c>
       <c r="I37" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>45637</v>
       </c>
       <c r="J37">
@@ -3408,33 +3635,33 @@
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A38" s="2">
-        <v>42.195</v>
+      <c r="A38" t="s">
+        <v>436</v>
       </c>
       <c r="B38" t="s">
-        <v>130</v>
+        <v>389</v>
       </c>
       <c r="C38" t="s">
-        <v>131</v>
+        <v>390</v>
       </c>
       <c r="D38" t="s">
-        <v>132</v>
+        <v>435</v>
       </c>
       <c r="E38" t="s">
-        <v>133</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>94</v>
+        <v>391</v>
+      </c>
+      <c r="F38" t="s">
+        <v>414</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>153</v>
+        <v>286</v>
       </c>
       <c r="H38">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>12</v>
       </c>
       <c r="I38" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>45638</v>
       </c>
       <c r="J38">
@@ -3444,32 +3671,32 @@
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>42</v>
+        <v>203</v>
       </c>
       <c r="B39" t="s">
-        <v>43</v>
+        <v>204</v>
       </c>
       <c r="C39" t="s">
-        <v>44</v>
+        <v>205</v>
       </c>
       <c r="D39" t="s">
-        <v>45</v>
+        <v>206</v>
       </c>
       <c r="E39" t="s">
-        <v>46</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>353</v>
+        <v>207</v>
+      </c>
+      <c r="F39" t="s">
+        <v>261</v>
       </c>
       <c r="G39" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H39">
+        <f t="shared" si="9"/>
         <v>12</v>
       </c>
-      <c r="H39">
-        <f t="shared" si="5"/>
-        <v>12</v>
-      </c>
       <c r="I39" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>45638</v>
       </c>
       <c r="J39">
@@ -3479,32 +3706,32 @@
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>175</v>
+        <v>72</v>
       </c>
       <c r="B40" t="s">
-        <v>176</v>
+        <v>73</v>
       </c>
       <c r="C40" t="s">
-        <v>177</v>
+        <v>74</v>
       </c>
       <c r="D40" t="s">
-        <v>178</v>
+        <v>378</v>
       </c>
       <c r="E40" t="s">
-        <v>179</v>
-      </c>
-      <c r="F40" t="s">
-        <v>195</v>
+        <v>75</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>93</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>198</v>
+        <v>54</v>
       </c>
       <c r="H40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>12</v>
       </c>
       <c r="I40" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>45638</v>
       </c>
       <c r="J40">
@@ -3514,32 +3741,32 @@
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>223</v>
+        <v>198</v>
       </c>
       <c r="B41" t="s">
-        <v>224</v>
+        <v>199</v>
       </c>
       <c r="C41" t="s">
-        <v>225</v>
+        <v>200</v>
       </c>
       <c r="D41" t="s">
-        <v>226</v>
+        <v>201</v>
       </c>
       <c r="E41" t="s">
-        <v>227</v>
+        <v>202</v>
       </c>
       <c r="F41" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>288</v>
+        <v>95</v>
       </c>
       <c r="H41">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>13</v>
       </c>
       <c r="I41" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>45639</v>
       </c>
       <c r="J41">
@@ -3549,32 +3776,32 @@
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>243</v>
+        <v>426</v>
       </c>
       <c r="B42" t="s">
-        <v>244</v>
+        <v>427</v>
       </c>
       <c r="C42" t="s">
-        <v>245</v>
+        <v>428</v>
       </c>
       <c r="D42" t="s">
-        <v>246</v>
+        <v>386</v>
       </c>
       <c r="E42" t="s">
-        <v>247</v>
+        <v>429</v>
       </c>
       <c r="F42" t="s">
-        <v>262</v>
+        <v>414</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>150</v>
+        <v>286</v>
       </c>
       <c r="H42">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>13</v>
       </c>
       <c r="I42" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>45639</v>
       </c>
       <c r="J42">
@@ -3583,33 +3810,33 @@
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>35</v>
+      <c r="A43" s="2">
+        <v>42.195</v>
       </c>
       <c r="B43" t="s">
-        <v>36</v>
+        <v>129</v>
       </c>
       <c r="C43" t="s">
-        <v>51</v>
+        <v>130</v>
       </c>
       <c r="D43" t="s">
-        <v>50</v>
+        <v>131</v>
       </c>
       <c r="E43" t="s">
-        <v>37</v>
+        <v>132</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>353</v>
+        <v>93</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>55</v>
+        <v>152</v>
       </c>
       <c r="H43">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>13</v>
       </c>
       <c r="I43" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>45639</v>
       </c>
       <c r="J43">
@@ -3619,32 +3846,32 @@
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>219</v>
+        <v>43</v>
       </c>
       <c r="C44" t="s">
-        <v>220</v>
+        <v>44</v>
       </c>
       <c r="D44" t="s">
-        <v>221</v>
+        <v>45</v>
       </c>
       <c r="E44" t="s">
-        <v>222</v>
-      </c>
-      <c r="F44" t="s">
-        <v>262</v>
+        <v>46</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>352</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>287</v>
+        <v>12</v>
       </c>
       <c r="H44">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>14</v>
       </c>
       <c r="I44" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>45640</v>
       </c>
       <c r="J44">
@@ -3654,32 +3881,32 @@
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>322</v>
+        <v>174</v>
       </c>
       <c r="B45" t="s">
-        <v>323</v>
+        <v>175</v>
       </c>
       <c r="C45" t="s">
-        <v>324</v>
+        <v>176</v>
       </c>
       <c r="D45" t="s">
-        <v>325</v>
+        <v>177</v>
       </c>
       <c r="E45" t="s">
-        <v>330</v>
+        <v>178</v>
       </c>
       <c r="F45" t="s">
-        <v>331</v>
+        <v>194</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>149</v>
+        <v>197</v>
       </c>
       <c r="H45">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>14</v>
       </c>
       <c r="I45" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>45640</v>
       </c>
       <c r="J45">
@@ -3689,32 +3916,32 @@
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>160</v>
+        <v>222</v>
       </c>
       <c r="B46" t="s">
-        <v>161</v>
+        <v>223</v>
       </c>
       <c r="C46" t="s">
-        <v>162</v>
+        <v>224</v>
       </c>
       <c r="D46" t="s">
-        <v>163</v>
+        <v>225</v>
       </c>
       <c r="E46" t="s">
-        <v>164</v>
+        <v>226</v>
       </c>
       <c r="F46" t="s">
-        <v>195</v>
+        <v>261</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>197</v>
+        <v>287</v>
       </c>
       <c r="H46">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>14</v>
       </c>
       <c r="I46" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>45640</v>
       </c>
       <c r="J46">
@@ -3723,33 +3950,33 @@
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A47" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>353</v>
+      <c r="A47" t="s">
+        <v>392</v>
+      </c>
+      <c r="B47" t="s">
+        <v>393</v>
+      </c>
+      <c r="C47" t="s">
+        <v>394</v>
+      </c>
+      <c r="D47" t="s">
+        <v>395</v>
+      </c>
+      <c r="E47" t="s">
+        <v>446</v>
+      </c>
+      <c r="F47" t="s">
+        <v>414</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>12</v>
+        <v>286</v>
       </c>
       <c r="H47">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>15</v>
       </c>
       <c r="I47" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>45641</v>
       </c>
       <c r="J47">
@@ -3759,32 +3986,32 @@
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>257</v>
+        <v>242</v>
       </c>
       <c r="B48" t="s">
-        <v>258</v>
+        <v>243</v>
       </c>
       <c r="C48" t="s">
-        <v>259</v>
+        <v>244</v>
       </c>
       <c r="D48" t="s">
-        <v>260</v>
+        <v>245</v>
       </c>
       <c r="E48" t="s">
+        <v>246</v>
+      </c>
+      <c r="F48" t="s">
         <v>261</v>
       </c>
-      <c r="F48" t="s">
-        <v>262</v>
-      </c>
       <c r="G48" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="H48">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>15</v>
       </c>
       <c r="I48" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>45641</v>
       </c>
       <c r="J48">
@@ -3794,32 +4021,32 @@
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>290</v>
+        <v>35</v>
       </c>
       <c r="B49" t="s">
-        <v>291</v>
+        <v>36</v>
       </c>
       <c r="C49" t="s">
-        <v>292</v>
+        <v>51</v>
       </c>
       <c r="D49" t="s">
-        <v>293</v>
+        <v>50</v>
       </c>
       <c r="E49" t="s">
-        <v>330</v>
-      </c>
-      <c r="F49" t="s">
-        <v>331</v>
+        <v>37</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>352</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>149</v>
+        <v>55</v>
       </c>
       <c r="H49">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>15</v>
       </c>
       <c r="I49" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>45641</v>
       </c>
       <c r="J49">
@@ -3829,32 +4056,32 @@
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>305</v>
+        <v>56</v>
       </c>
       <c r="B50" t="s">
-        <v>306</v>
+        <v>218</v>
       </c>
       <c r="C50" t="s">
-        <v>307</v>
+        <v>219</v>
       </c>
       <c r="D50" t="s">
-        <v>308</v>
+        <v>220</v>
       </c>
       <c r="E50" t="s">
-        <v>309</v>
+        <v>221</v>
       </c>
       <c r="F50" t="s">
-        <v>331</v>
+        <v>261</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>53</v>
+        <v>286</v>
       </c>
       <c r="H50">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>16</v>
       </c>
       <c r="I50" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>45642</v>
       </c>
       <c r="J50">
@@ -3864,32 +4091,32 @@
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>301</v>
+        <v>321</v>
       </c>
       <c r="B51" t="s">
-        <v>302</v>
+        <v>322</v>
       </c>
       <c r="C51" t="s">
-        <v>303</v>
+        <v>323</v>
       </c>
       <c r="D51" t="s">
-        <v>304</v>
+        <v>324</v>
       </c>
       <c r="E51" t="s">
+        <v>329</v>
+      </c>
+      <c r="F51" t="s">
         <v>330</v>
       </c>
-      <c r="F51" t="s">
-        <v>331</v>
-      </c>
       <c r="G51" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H51">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>16</v>
       </c>
       <c r="I51" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>45642</v>
       </c>
       <c r="J51">
@@ -3899,32 +4126,32 @@
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>332</v>
+        <v>159</v>
       </c>
       <c r="B52" t="s">
-        <v>333</v>
+        <v>160</v>
       </c>
       <c r="C52" t="s">
-        <v>334</v>
+        <v>161</v>
       </c>
       <c r="D52" t="s">
-        <v>335</v>
+        <v>162</v>
       </c>
       <c r="E52" t="s">
-        <v>336</v>
+        <v>163</v>
       </c>
       <c r="F52" t="s">
-        <v>331</v>
+        <v>194</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>149</v>
+        <v>196</v>
       </c>
       <c r="H52">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>16</v>
       </c>
       <c r="I52" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>45642</v>
       </c>
       <c r="J52">
@@ -3934,32 +4161,32 @@
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>56</v>
+        <v>396</v>
       </c>
       <c r="B53" t="s">
-        <v>294</v>
+        <v>397</v>
       </c>
       <c r="C53" t="s">
-        <v>295</v>
+        <v>398</v>
       </c>
       <c r="D53" t="s">
-        <v>296</v>
+        <v>399</v>
       </c>
       <c r="E53" t="s">
-        <v>330</v>
+        <v>434</v>
       </c>
       <c r="F53" t="s">
-        <v>331</v>
+        <v>414</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>149</v>
+        <v>286</v>
       </c>
       <c r="H53">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>17</v>
       </c>
       <c r="I53" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>45643</v>
       </c>
       <c r="J53">
@@ -3969,32 +4196,32 @@
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>233</v>
+        <v>417</v>
       </c>
       <c r="B54" t="s">
-        <v>234</v>
+        <v>418</v>
       </c>
       <c r="C54" t="s">
-        <v>235</v>
+        <v>419</v>
       </c>
       <c r="D54" t="s">
-        <v>236</v>
+        <v>420</v>
       </c>
       <c r="E54" t="s">
-        <v>237</v>
+        <v>421</v>
       </c>
       <c r="F54" t="s">
-        <v>262</v>
+        <v>414</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>149</v>
+        <v>444</v>
       </c>
       <c r="H54">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>17</v>
       </c>
       <c r="I54" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>45643</v>
       </c>
       <c r="J54">
@@ -4003,33 +4230,33 @@
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
-        <v>326</v>
-      </c>
-      <c r="B55" t="s">
-        <v>327</v>
-      </c>
-      <c r="C55" t="s">
-        <v>328</v>
-      </c>
-      <c r="D55" t="s">
-        <v>329</v>
-      </c>
-      <c r="E55" t="s">
-        <v>330</v>
-      </c>
-      <c r="F55" t="s">
-        <v>331</v>
+      <c r="A55" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>352</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>149</v>
+        <v>12</v>
       </c>
       <c r="H55">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>17</v>
       </c>
       <c r="I55" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>45643</v>
       </c>
       <c r="J55">
@@ -4039,32 +4266,32 @@
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>170</v>
+        <v>256</v>
       </c>
       <c r="B56" t="s">
-        <v>171</v>
+        <v>257</v>
       </c>
       <c r="C56" t="s">
-        <v>172</v>
+        <v>258</v>
       </c>
       <c r="D56" t="s">
-        <v>173</v>
+        <v>259</v>
       </c>
       <c r="E56" t="s">
-        <v>174</v>
+        <v>260</v>
       </c>
       <c r="F56" t="s">
-        <v>195</v>
+        <v>261</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="H56">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>18</v>
       </c>
       <c r="I56" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>45644</v>
       </c>
       <c r="J56">
@@ -4074,32 +4301,32 @@
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>180</v>
+        <v>430</v>
       </c>
       <c r="B57" t="s">
-        <v>181</v>
+        <v>431</v>
       </c>
       <c r="C57" t="s">
-        <v>182</v>
+        <v>432</v>
       </c>
       <c r="D57" t="s">
-        <v>183</v>
+        <v>433</v>
       </c>
       <c r="E57" t="s">
-        <v>184</v>
+        <v>440</v>
       </c>
       <c r="F57" t="s">
-        <v>195</v>
+        <v>414</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>149</v>
+        <v>286</v>
       </c>
       <c r="H57">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>18</v>
       </c>
       <c r="I57" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>45644</v>
       </c>
       <c r="J57">
@@ -4109,32 +4336,32 @@
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>209</v>
+        <v>289</v>
       </c>
       <c r="B58" t="s">
-        <v>210</v>
+        <v>290</v>
       </c>
       <c r="C58" t="s">
-        <v>211</v>
+        <v>291</v>
       </c>
       <c r="D58" t="s">
-        <v>212</v>
+        <v>292</v>
       </c>
       <c r="E58" t="s">
-        <v>213</v>
+        <v>329</v>
       </c>
       <c r="F58" t="s">
-        <v>262</v>
+        <v>330</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H58">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>18</v>
       </c>
       <c r="I58" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>45644</v>
       </c>
       <c r="J58">
@@ -4144,32 +4371,32 @@
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
       <c r="B59" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="C59" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c r="D59" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="E59" t="s">
+        <v>308</v>
+      </c>
+      <c r="F59" t="s">
         <v>330</v>
       </c>
-      <c r="F59" t="s">
-        <v>331</v>
-      </c>
       <c r="G59" s="1" t="s">
-        <v>149</v>
+        <v>53</v>
       </c>
       <c r="H59">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>19</v>
       </c>
       <c r="I59" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>45645</v>
       </c>
       <c r="J59">
@@ -4179,32 +4406,32 @@
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>30</v>
+        <v>300</v>
       </c>
       <c r="B60" t="s">
-        <v>31</v>
+        <v>301</v>
       </c>
       <c r="C60" t="s">
-        <v>32</v>
+        <v>302</v>
       </c>
       <c r="D60" t="s">
-        <v>33</v>
+        <v>303</v>
       </c>
       <c r="E60" t="s">
-        <v>34</v>
-      </c>
-      <c r="F60" s="1" t="s">
-        <v>353</v>
+        <v>329</v>
+      </c>
+      <c r="F60" t="s">
+        <v>330</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>54</v>
+        <v>148</v>
       </c>
       <c r="H60">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>19</v>
       </c>
       <c r="I60" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>45645</v>
       </c>
       <c r="J60">
@@ -4214,32 +4441,32 @@
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>190</v>
+        <v>331</v>
       </c>
       <c r="B61" t="s">
-        <v>191</v>
+        <v>332</v>
       </c>
       <c r="C61" t="s">
-        <v>192</v>
+        <v>333</v>
       </c>
       <c r="D61" t="s">
-        <v>193</v>
+        <v>334</v>
       </c>
       <c r="E61" t="s">
-        <v>194</v>
+        <v>335</v>
       </c>
       <c r="F61" t="s">
-        <v>195</v>
+        <v>330</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>196</v>
+        <v>148</v>
       </c>
       <c r="H61">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>19</v>
       </c>
       <c r="I61" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>45645</v>
       </c>
       <c r="J61">
@@ -4252,29 +4479,29 @@
         <v>56</v>
       </c>
       <c r="B62" t="s">
-        <v>57</v>
+        <v>293</v>
       </c>
       <c r="C62" t="s">
-        <v>58</v>
+        <v>294</v>
       </c>
       <c r="D62" t="s">
-        <v>59</v>
+        <v>295</v>
       </c>
       <c r="E62" t="s">
-        <v>60</v>
-      </c>
-      <c r="F62" s="1" t="s">
-        <v>94</v>
+        <v>329</v>
+      </c>
+      <c r="F62" t="s">
+        <v>330</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>95</v>
+        <v>148</v>
       </c>
       <c r="H62">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>20</v>
       </c>
       <c r="I62" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>45646</v>
       </c>
       <c r="J62">
@@ -4284,32 +4511,32 @@
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>238</v>
+        <v>400</v>
       </c>
       <c r="B63" t="s">
-        <v>239</v>
+        <v>401</v>
       </c>
       <c r="C63" t="s">
-        <v>240</v>
+        <v>402</v>
       </c>
       <c r="D63" t="s">
-        <v>241</v>
+        <v>403</v>
       </c>
       <c r="E63" t="s">
-        <v>242</v>
+        <v>404</v>
       </c>
       <c r="F63" t="s">
-        <v>262</v>
+        <v>414</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>289</v>
+        <v>441</v>
       </c>
       <c r="H63">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>20</v>
       </c>
       <c r="I63" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>45646</v>
       </c>
       <c r="J63">
@@ -4319,32 +4546,32 @@
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>185</v>
+        <v>232</v>
       </c>
       <c r="B64" t="s">
-        <v>186</v>
+        <v>233</v>
       </c>
       <c r="C64" t="s">
-        <v>187</v>
+        <v>234</v>
       </c>
       <c r="D64" t="s">
-        <v>188</v>
+        <v>235</v>
       </c>
       <c r="E64" t="s">
-        <v>189</v>
+        <v>236</v>
       </c>
       <c r="F64" t="s">
-        <v>195</v>
+        <v>261</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>196</v>
+        <v>148</v>
       </c>
       <c r="H64">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>20</v>
       </c>
       <c r="I64" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>45646</v>
       </c>
       <c r="J64">
@@ -4354,32 +4581,32 @@
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>282</v>
+        <v>325</v>
       </c>
       <c r="B65" t="s">
-        <v>283</v>
+        <v>326</v>
       </c>
       <c r="C65" t="s">
-        <v>284</v>
+        <v>327</v>
       </c>
       <c r="D65" t="s">
-        <v>285</v>
+        <v>328</v>
       </c>
       <c r="E65" t="s">
-        <v>286</v>
-      </c>
-      <c r="F65" s="1" t="s">
-        <v>94</v>
+        <v>329</v>
+      </c>
+      <c r="F65" t="s">
+        <v>330</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>12</v>
+        <v>148</v>
       </c>
       <c r="H65">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>21</v>
       </c>
       <c r="I65" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>45647</v>
       </c>
       <c r="J65">
@@ -4389,32 +4616,32 @@
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>248</v>
+        <v>169</v>
       </c>
       <c r="B66" t="s">
-        <v>249</v>
+        <v>170</v>
       </c>
       <c r="C66" t="s">
-        <v>250</v>
+        <v>171</v>
       </c>
       <c r="D66" t="s">
-        <v>251</v>
+        <v>172</v>
       </c>
       <c r="E66" t="s">
-        <v>252</v>
+        <v>173</v>
       </c>
       <c r="F66" t="s">
-        <v>262</v>
+        <v>194</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>12</v>
+        <v>153</v>
       </c>
       <c r="H66">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>21</v>
       </c>
       <c r="I66" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>45647</v>
       </c>
       <c r="J66">
@@ -4424,32 +4651,32 @@
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>318</v>
+        <v>179</v>
       </c>
       <c r="B67" t="s">
-        <v>319</v>
+        <v>180</v>
       </c>
       <c r="C67" t="s">
-        <v>320</v>
+        <v>181</v>
       </c>
       <c r="D67" t="s">
-        <v>321</v>
+        <v>182</v>
       </c>
       <c r="E67" t="s">
-        <v>330</v>
+        <v>183</v>
       </c>
       <c r="F67" t="s">
-        <v>331</v>
+        <v>194</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H67">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>21</v>
       </c>
       <c r="I67" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>45647</v>
       </c>
       <c r="J67">
@@ -4459,32 +4686,32 @@
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>373</v>
+        <v>208</v>
       </c>
       <c r="B68" t="s">
-        <v>374</v>
+        <v>209</v>
       </c>
       <c r="C68" t="s">
-        <v>297</v>
+        <v>210</v>
       </c>
       <c r="D68" t="s">
-        <v>298</v>
+        <v>211</v>
       </c>
       <c r="E68" t="s">
-        <v>330</v>
+        <v>212</v>
       </c>
       <c r="F68" t="s">
-        <v>331</v>
+        <v>261</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H68">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>22</v>
       </c>
       <c r="I68" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>45648</v>
       </c>
       <c r="J68">
@@ -4494,32 +4721,32 @@
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>273</v>
+        <v>313</v>
       </c>
       <c r="B69" t="s">
-        <v>274</v>
+        <v>314</v>
       </c>
       <c r="C69" t="s">
-        <v>275</v>
+        <v>315</v>
       </c>
       <c r="D69" t="s">
-        <v>255</v>
+        <v>316</v>
       </c>
       <c r="E69" t="s">
-        <v>276</v>
-      </c>
-      <c r="F69" s="1" t="s">
-        <v>94</v>
+        <v>329</v>
+      </c>
+      <c r="F69" t="s">
+        <v>330</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="H69">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>22</v>
       </c>
       <c r="I69" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>45648</v>
       </c>
       <c r="J69">
@@ -4529,32 +4756,32 @@
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>214</v>
+        <v>405</v>
       </c>
       <c r="B70" t="s">
-        <v>253</v>
+        <v>406</v>
       </c>
       <c r="C70" t="s">
-        <v>254</v>
+        <v>407</v>
       </c>
       <c r="D70" t="s">
-        <v>255</v>
+        <v>408</v>
       </c>
       <c r="E70" t="s">
-        <v>256</v>
+        <v>409</v>
       </c>
       <c r="F70" t="s">
-        <v>262</v>
+        <v>414</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>152</v>
+        <v>286</v>
       </c>
       <c r="H70">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>22</v>
       </c>
       <c r="I70" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>45648</v>
       </c>
       <c r="J70">
@@ -4564,32 +4791,32 @@
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>299</v>
+        <v>30</v>
       </c>
       <c r="B71" t="s">
-        <v>375</v>
+        <v>31</v>
       </c>
       <c r="C71" t="s">
-        <v>300</v>
+        <v>32</v>
       </c>
       <c r="D71" t="s">
-        <v>376</v>
+        <v>33</v>
       </c>
       <c r="E71" t="s">
-        <v>330</v>
-      </c>
-      <c r="F71" t="s">
-        <v>331</v>
+        <v>34</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>352</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>149</v>
+        <v>54</v>
       </c>
       <c r="H71">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>23</v>
       </c>
       <c r="I71" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>45649</v>
       </c>
       <c r="J71">
@@ -4599,32 +4826,32 @@
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>310</v>
+        <v>189</v>
       </c>
       <c r="B72" t="s">
-        <v>311</v>
+        <v>190</v>
       </c>
       <c r="C72" t="s">
-        <v>312</v>
+        <v>191</v>
       </c>
       <c r="D72" t="s">
-        <v>313</v>
+        <v>192</v>
       </c>
       <c r="E72" t="s">
-        <v>330</v>
+        <v>193</v>
       </c>
       <c r="F72" t="s">
-        <v>331</v>
+        <v>194</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>149</v>
+        <v>195</v>
       </c>
       <c r="H72">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>23</v>
       </c>
       <c r="I72" s="3">
-        <f t="shared" ref="I72:I75" si="9">$L$1+H72</f>
+        <f t="shared" si="10"/>
         <v>45649</v>
       </c>
       <c r="J72">
@@ -4634,32 +4861,32 @@
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>228</v>
+        <v>56</v>
       </c>
       <c r="B73" t="s">
-        <v>229</v>
+        <v>57</v>
       </c>
       <c r="C73" t="s">
-        <v>230</v>
+        <v>58</v>
       </c>
       <c r="D73" t="s">
-        <v>231</v>
+        <v>59</v>
       </c>
       <c r="E73" t="s">
-        <v>232</v>
-      </c>
-      <c r="F73" t="s">
-        <v>262</v>
+        <v>60</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>93</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>12</v>
+        <v>94</v>
       </c>
       <c r="H73">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>23</v>
       </c>
       <c r="I73" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>45649</v>
       </c>
       <c r="J73">
@@ -4669,32 +4896,32 @@
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>155</v>
+        <v>237</v>
       </c>
       <c r="B74" t="s">
-        <v>156</v>
+        <v>238</v>
       </c>
       <c r="C74" t="s">
-        <v>157</v>
+        <v>239</v>
       </c>
       <c r="D74" t="s">
-        <v>158</v>
+        <v>240</v>
       </c>
       <c r="E74" t="s">
-        <v>159</v>
+        <v>241</v>
       </c>
       <c r="F74" t="s">
-        <v>195</v>
+        <v>261</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>196</v>
+        <v>288</v>
       </c>
       <c r="H74">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>24</v>
       </c>
       <c r="I74" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>45650</v>
       </c>
       <c r="J74">
@@ -4704,46 +4931,509 @@
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
+        <v>184</v>
+      </c>
+      <c r="B75" t="s">
+        <v>185</v>
+      </c>
+      <c r="C75" t="s">
+        <v>186</v>
+      </c>
+      <c r="D75" t="s">
+        <v>187</v>
+      </c>
+      <c r="E75" t="s">
+        <v>188</v>
+      </c>
+      <c r="F75" t="s">
+        <v>194</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="H75">
+        <f t="shared" si="9"/>
+        <v>24</v>
+      </c>
+      <c r="I75" s="3">
+        <f t="shared" si="10"/>
+        <v>45650</v>
+      </c>
+      <c r="J75">
+        <f t="shared" si="6"/>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>410</v>
+      </c>
+      <c r="B76" t="s">
+        <v>411</v>
+      </c>
+      <c r="C76" t="s">
+        <v>412</v>
+      </c>
+      <c r="D76" t="s">
+        <v>413</v>
+      </c>
+      <c r="E76" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="F76" t="s">
+        <v>414</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="H76">
+        <f t="shared" si="9"/>
+        <v>24</v>
+      </c>
+      <c r="I76" s="3">
+        <f t="shared" si="10"/>
+        <v>45650</v>
+      </c>
+      <c r="J76">
+        <f t="shared" si="6"/>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>281</v>
+      </c>
+      <c r="B77" t="s">
+        <v>282</v>
+      </c>
+      <c r="C77" t="s">
+        <v>283</v>
+      </c>
+      <c r="D77" t="s">
+        <v>284</v>
+      </c>
+      <c r="E77" t="s">
+        <v>285</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G77" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H77">
+        <f t="shared" si="9"/>
+        <v>25</v>
+      </c>
+      <c r="I77" s="3">
+        <f t="shared" si="10"/>
+        <v>45651</v>
+      </c>
+      <c r="J77">
+        <f t="shared" si="6"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>247</v>
+      </c>
+      <c r="B78" t="s">
+        <v>248</v>
+      </c>
+      <c r="C78" t="s">
+        <v>249</v>
+      </c>
+      <c r="D78" t="s">
+        <v>250</v>
+      </c>
+      <c r="E78" t="s">
+        <v>251</v>
+      </c>
+      <c r="F78" t="s">
+        <v>261</v>
+      </c>
+      <c r="G78" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H78">
+        <f t="shared" si="9"/>
+        <v>25</v>
+      </c>
+      <c r="I78" s="3">
+        <f t="shared" si="10"/>
+        <v>45651</v>
+      </c>
+      <c r="J78">
+        <f t="shared" si="6"/>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>317</v>
+      </c>
+      <c r="B79" t="s">
+        <v>318</v>
+      </c>
+      <c r="C79" t="s">
+        <v>319</v>
+      </c>
+      <c r="D79" t="s">
+        <v>320</v>
+      </c>
+      <c r="E79" t="s">
+        <v>329</v>
+      </c>
+      <c r="F79" t="s">
+        <v>330</v>
+      </c>
+      <c r="G79" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="H79">
+        <f t="shared" si="9"/>
+        <v>25</v>
+      </c>
+      <c r="I79" s="3">
+        <f t="shared" si="10"/>
+        <v>45651</v>
+      </c>
+      <c r="J79">
+        <f t="shared" si="6"/>
         <v>77</v>
       </c>
-      <c r="B75" t="s">
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>372</v>
+      </c>
+      <c r="B80" t="s">
+        <v>373</v>
+      </c>
+      <c r="C80" t="s">
+        <v>296</v>
+      </c>
+      <c r="D80" t="s">
+        <v>297</v>
+      </c>
+      <c r="E80" t="s">
+        <v>329</v>
+      </c>
+      <c r="F80" t="s">
+        <v>330</v>
+      </c>
+      <c r="G80" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="H80">
+        <f t="shared" si="9"/>
+        <v>26</v>
+      </c>
+      <c r="I80" s="3">
+        <f t="shared" si="10"/>
+        <v>45652</v>
+      </c>
+      <c r="J80">
+        <f t="shared" si="6"/>
         <v>78</v>
       </c>
-      <c r="C75" t="s">
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>414</v>
+      </c>
+      <c r="B81" t="s">
+        <v>438</v>
+      </c>
+      <c r="C81" t="s">
+        <v>415</v>
+      </c>
+      <c r="D81" t="s">
+        <v>416</v>
+      </c>
+      <c r="E81" t="s">
+        <v>443</v>
+      </c>
+      <c r="F81" t="s">
+        <v>414</v>
+      </c>
+      <c r="G81" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="H81">
+        <f t="shared" si="9"/>
+        <v>26</v>
+      </c>
+      <c r="I81" s="3">
+        <f t="shared" si="10"/>
+        <v>45652</v>
+      </c>
+      <c r="J81">
+        <f t="shared" si="6"/>
         <v>79</v>
       </c>
-      <c r="D75" t="s">
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>272</v>
+      </c>
+      <c r="B82" t="s">
+        <v>273</v>
+      </c>
+      <c r="C82" t="s">
+        <v>274</v>
+      </c>
+      <c r="D82" t="s">
+        <v>254</v>
+      </c>
+      <c r="E82" t="s">
+        <v>275</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G82" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="H82">
+        <f t="shared" si="9"/>
+        <v>26</v>
+      </c>
+      <c r="I82" s="3">
+        <f t="shared" si="10"/>
+        <v>45652</v>
+      </c>
+      <c r="J82">
+        <f t="shared" si="6"/>
         <v>80</v>
       </c>
-      <c r="E75" t="s">
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>213</v>
+      </c>
+      <c r="B83" t="s">
+        <v>252</v>
+      </c>
+      <c r="C83" t="s">
+        <v>253</v>
+      </c>
+      <c r="D83" t="s">
+        <v>254</v>
+      </c>
+      <c r="E83" t="s">
+        <v>255</v>
+      </c>
+      <c r="F83" t="s">
+        <v>261</v>
+      </c>
+      <c r="G83" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="H83">
+        <f t="shared" si="9"/>
+        <v>27</v>
+      </c>
+      <c r="I83" s="3">
+        <f t="shared" si="10"/>
+        <v>45653</v>
+      </c>
+      <c r="J83">
+        <f t="shared" si="6"/>
         <v>81</v>
       </c>
-      <c r="F75" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="G75" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="H75">
-        <f t="shared" ref="H75" si="10">INT(J75/3)</f>
-        <v>24</v>
-      </c>
-      <c r="I75" s="3">
-        <f t="shared" si="9"/>
-        <v>45650</v>
-      </c>
-      <c r="J75">
-        <f t="shared" ref="J75" si="11">J74+1</f>
-        <v>73</v>
-      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>298</v>
+      </c>
+      <c r="B84" t="s">
+        <v>374</v>
+      </c>
+      <c r="C84" t="s">
+        <v>299</v>
+      </c>
+      <c r="D84" t="s">
+        <v>375</v>
+      </c>
+      <c r="E84" t="s">
+        <v>329</v>
+      </c>
+      <c r="F84" t="s">
+        <v>330</v>
+      </c>
+      <c r="G84" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="H84">
+        <f t="shared" si="9"/>
+        <v>27</v>
+      </c>
+      <c r="I84" s="3">
+        <f t="shared" si="10"/>
+        <v>45653</v>
+      </c>
+      <c r="J84">
+        <f t="shared" si="6"/>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>309</v>
+      </c>
+      <c r="B85" t="s">
+        <v>310</v>
+      </c>
+      <c r="C85" t="s">
+        <v>311</v>
+      </c>
+      <c r="D85" t="s">
+        <v>312</v>
+      </c>
+      <c r="E85" t="s">
+        <v>329</v>
+      </c>
+      <c r="F85" t="s">
+        <v>330</v>
+      </c>
+      <c r="G85" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="H85">
+        <f t="shared" si="9"/>
+        <v>27</v>
+      </c>
+      <c r="I85" s="3">
+        <f t="shared" si="10"/>
+        <v>45653</v>
+      </c>
+      <c r="J85">
+        <f t="shared" si="6"/>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>227</v>
+      </c>
+      <c r="B86" t="s">
+        <v>228</v>
+      </c>
+      <c r="C86" t="s">
+        <v>229</v>
+      </c>
+      <c r="D86" t="s">
+        <v>230</v>
+      </c>
+      <c r="E86" t="s">
+        <v>231</v>
+      </c>
+      <c r="F86" t="s">
+        <v>261</v>
+      </c>
+      <c r="G86" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H86">
+        <f t="shared" si="9"/>
+        <v>28</v>
+      </c>
+      <c r="I86" s="3">
+        <f t="shared" si="10"/>
+        <v>45654</v>
+      </c>
+      <c r="J86">
+        <f t="shared" si="6"/>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>154</v>
+      </c>
+      <c r="B87" t="s">
+        <v>155</v>
+      </c>
+      <c r="C87" t="s">
+        <v>156</v>
+      </c>
+      <c r="D87" t="s">
+        <v>157</v>
+      </c>
+      <c r="E87" t="s">
+        <v>158</v>
+      </c>
+      <c r="F87" t="s">
+        <v>194</v>
+      </c>
+      <c r="G87" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="H87">
+        <f t="shared" ref="H87:H88" si="11">INT(J87/3)</f>
+        <v>28</v>
+      </c>
+      <c r="I87" s="3">
+        <f t="shared" ref="I87:I88" si="12">$L$1+H87</f>
+        <v>45654</v>
+      </c>
+      <c r="J87">
+        <f t="shared" si="6"/>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>76</v>
+      </c>
+      <c r="B88" t="s">
+        <v>77</v>
+      </c>
+      <c r="C88" t="s">
+        <v>78</v>
+      </c>
+      <c r="D88" t="s">
+        <v>79</v>
+      </c>
+      <c r="E88" t="s">
+        <v>80</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G88" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="H88">
+        <f t="shared" si="11"/>
+        <v>28</v>
+      </c>
+      <c r="I88" s="3">
+        <f t="shared" si="12"/>
+        <v>45654</v>
+      </c>
+      <c r="J88">
+        <f t="shared" ref="J88" si="13">J87+1</f>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="F89" s="1"/>
+      <c r="G89" s="1"/>
+      <c r="I89" s="3"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A8:H78">
-    <sortCondition ref="H8:H78"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A8:H91">
+    <sortCondition ref="H8:H91"/>
   </sortState>
-  <conditionalFormatting sqref="I1:I1048576">
-    <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="I99:I1048576 I1:I89">
+    <cfRule type="cellIs" dxfId="1" priority="1" stopIfTrue="1" operator="equal">
       <formula>$L$2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="2" stopIfTrue="1" operator="equal">
+      <formula>$L$2+1</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/code/shabdakala/resource/sbwords.xlsx
+++ b/code/shabdakala/resource/sbwords.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hrishinene/github/shabdakala/shabdakala/code/shabdakala/resource/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D24367EE-5B6C-4642-8CB0-5C60A74DA2DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F760B97E-ECF7-6F48-8146-D04B1066D2C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1540" yWindow="880" windowWidth="28040" windowHeight="17440" xr2:uid="{9F74AEE5-EB85-4044-AC84-8761A591B5C1}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{9F74AEE5-EB85-4044-AC84-8761A591B5C1}"/>
   </bookViews>
   <sheets>
     <sheet name="sbwords" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="447">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="903" uniqueCount="664">
   <si>
     <t>word0</t>
   </si>
@@ -56,21 +56,9 @@
     <t>category</t>
   </si>
   <si>
-    <t>दूध</t>
-  </si>
-  <si>
-    <t>बगळा</t>
-  </si>
-  <si>
     <t>मीठ</t>
   </si>
   <si>
-    <t>ढग</t>
-  </si>
-  <si>
-    <t>पांढऱ्या गोष्टी</t>
-  </si>
-  <si>
     <t>things</t>
   </si>
   <si>
@@ -1250,6 +1238,9 @@
     <t>पहिल्या ४ मूळ संख्या</t>
   </si>
   <si>
+    <t>यम</t>
+  </si>
+  <si>
     <t>किरण</t>
   </si>
   <si>
@@ -1374,6 +1365,666 @@
   </si>
   <si>
     <t>ही “येते” :-)</t>
+  </si>
+  <si>
+    <t>चाखणे</t>
+  </si>
+  <si>
+    <t>चावणे</t>
+  </si>
+  <si>
+    <t>गिळणे</t>
+  </si>
+  <si>
+    <t>खाणे</t>
+  </si>
+  <si>
+    <t>खाण्याशी संबंधित क्रिया</t>
+  </si>
+  <si>
+    <t>AI प्रणाली</t>
+  </si>
+  <si>
+    <t>मिरवणूक</t>
+  </si>
+  <si>
+    <t>भाद्रपद</t>
+  </si>
+  <si>
+    <t>आरती</t>
+  </si>
+  <si>
+    <t>गणेशोत्सव</t>
+  </si>
+  <si>
+    <t>HVN Unplugged</t>
+  </si>
+  <si>
+    <t>ग्वाल्हेर</t>
+  </si>
+  <si>
+    <t>जयपूर</t>
+  </si>
+  <si>
+    <t>मेवाती</t>
+  </si>
+  <si>
+    <t>भेंडी बाजार</t>
+  </si>
+  <si>
+    <t>हिंदुस्थानी शास्त्रीय संगीतातली घराणी</t>
+  </si>
+  <si>
+    <t>नांगरणी</t>
+  </si>
+  <si>
+    <t>रब्बी</t>
+  </si>
+  <si>
+    <t>खरीप</t>
+  </si>
+  <si>
+    <t>पेरणी</t>
+  </si>
+  <si>
+    <t>कृषीशी निगडित संज्ञा</t>
+  </si>
+  <si>
+    <t>agriculture</t>
+  </si>
+  <si>
+    <t>बोट</t>
+  </si>
+  <si>
+    <t>माड</t>
+  </si>
+  <si>
+    <t>क्षितिज</t>
+  </si>
+  <si>
+    <t>शिंपला</t>
+  </si>
+  <si>
+    <t>समुद्र किनाऱ्यावर वर दिसणार्‍या गोष्टी</t>
+  </si>
+  <si>
+    <t>शह</t>
+  </si>
+  <si>
+    <t>मात</t>
+  </si>
+  <si>
+    <t>चाल</t>
+  </si>
+  <si>
+    <t>मारणे</t>
+  </si>
+  <si>
+    <t>बुद्धिबळाच्या चाली</t>
+  </si>
+  <si>
+    <t>मोहरा</t>
+  </si>
+  <si>
+    <t>राणी</t>
+  </si>
+  <si>
+    <t>घर</t>
+  </si>
+  <si>
+    <t>बुद्धिबळाच्या पटावर सापडणाऱ्या गोष्टी</t>
+  </si>
+  <si>
+    <t>बहर</t>
+  </si>
+  <si>
+    <t>पालवी</t>
+  </si>
+  <si>
+    <t>मोड</t>
+  </si>
+  <si>
+    <t>कळी</t>
+  </si>
+  <si>
+    <t>वनस्पतीं वर येणार्‍या नव्या गोष्टी</t>
+  </si>
+  <si>
+    <t>नाणी</t>
+  </si>
+  <si>
+    <t>सुटे</t>
+  </si>
+  <si>
+    <t>चिल्लर</t>
+  </si>
+  <si>
+    <t>आणे</t>
+  </si>
+  <si>
+    <t>सुट्या पैशांचे प्रकार</t>
+  </si>
+  <si>
+    <t>विकत</t>
+  </si>
+  <si>
+    <t>श्याम</t>
+  </si>
+  <si>
+    <t>कवडी</t>
+  </si>
+  <si>
+    <t>दाम</t>
+  </si>
+  <si>
+    <t>"विकत घेतला श्याम" गाण्यातले शब्द</t>
+  </si>
+  <si>
+    <t>देव</t>
+  </si>
+  <si>
+    <t>सराफ</t>
+  </si>
+  <si>
+    <t>फुले</t>
+  </si>
+  <si>
+    <t>लागु</t>
+  </si>
+  <si>
+    <t>जुन्या मराठी चित्रपटातल्या अभिनेत्यांची आडनावे</t>
+  </si>
+  <si>
+    <t>स्क्रीन</t>
+  </si>
+  <si>
+    <t>खिडकी</t>
+  </si>
+  <si>
+    <t>भिंगं</t>
+  </si>
+  <si>
+    <t>बाटली</t>
+  </si>
+  <si>
+    <t>काचेच्या वस्तु</t>
+  </si>
+  <si>
+    <t>विद्युत</t>
+  </si>
+  <si>
+    <t>संथ</t>
+  </si>
+  <si>
+    <t>फेस</t>
+  </si>
+  <si>
+    <t>तुषार</t>
+  </si>
+  <si>
+    <t>समुद्राच्या लाटां बाबत</t>
+  </si>
+  <si>
+    <t>तिरंगा</t>
+  </si>
+  <si>
+    <t>फडकणे</t>
+  </si>
+  <si>
+    <t>स्तंभ</t>
+  </si>
+  <si>
+    <t>वंदना</t>
+  </si>
+  <si>
+    <t>झेंड्या बाबत</t>
+  </si>
+  <si>
+    <t>भोवरा</t>
+  </si>
+  <si>
+    <t>आकाशगंगा</t>
+  </si>
+  <si>
+    <t>पंखा</t>
+  </si>
+  <si>
+    <t>वावटळ</t>
+  </si>
+  <si>
+    <t>फिरणाऱ्या गोष्टी</t>
+  </si>
+  <si>
+    <t>भूलभुलैया</t>
+  </si>
+  <si>
+    <t>माया</t>
+  </si>
+  <si>
+    <t>चकवा</t>
+  </si>
+  <si>
+    <t>शोभादर्शक</t>
+  </si>
+  <si>
+    <t>ज्यानी फसवणूक होते</t>
+  </si>
+  <si>
+    <t>कप</t>
+  </si>
+  <si>
+    <t>करंडक</t>
+  </si>
+  <si>
+    <t>मेडल</t>
+  </si>
+  <si>
+    <t>चक्र</t>
+  </si>
+  <si>
+    <t>पारितोषिके</t>
+  </si>
+  <si>
+    <t>काळजी</t>
+  </si>
+  <si>
+    <t>विश्रांती</t>
+  </si>
+  <si>
+    <t>झेप</t>
+  </si>
+  <si>
+    <t>श्वास</t>
+  </si>
+  <si>
+    <t>ज्या गोष्टी घेता येतात</t>
+  </si>
+  <si>
+    <t>चित्रं</t>
+  </si>
+  <si>
+    <t>काम</t>
+  </si>
+  <si>
+    <t>ज्या गोष्टी काढता येतात</t>
+  </si>
+  <si>
+    <t>शोध</t>
+  </si>
+  <si>
+    <t>ज्या गोष्टी लावता येतात</t>
+  </si>
+  <si>
+    <t>मेण</t>
+  </si>
+  <si>
+    <t>आइस्क्रीम</t>
+  </si>
+  <si>
+    <t>हृदय</t>
+  </si>
+  <si>
+    <t>परदेश</t>
+  </si>
+  <si>
+    <t>आनंद</t>
+  </si>
+  <si>
+    <t>माहेर</t>
+  </si>
+  <si>
+    <t>ज्याच्यात राहता येतं अश्या गोष्टी</t>
+  </si>
+  <si>
+    <t>नदी</t>
+  </si>
+  <si>
+    <t>वीज</t>
+  </si>
+  <si>
+    <t>वारा</t>
+  </si>
+  <si>
+    <t>नाव</t>
+  </si>
+  <si>
+    <t>वाहणार्‍या गोष्टी</t>
+  </si>
+  <si>
+    <t>काच</t>
+  </si>
+  <si>
+    <t>हवा</t>
+  </si>
+  <si>
+    <t>पोकळी</t>
+  </si>
+  <si>
+    <t>पारदर्शक गोष्टी</t>
+  </si>
+  <si>
+    <t>विविध</t>
+  </si>
+  <si>
+    <t>नाना</t>
+  </si>
+  <si>
+    <t>अनेक</t>
+  </si>
+  <si>
+    <t>निरनिराळे</t>
+  </si>
+  <si>
+    <t>बरेच, खूप या अर्थी</t>
+  </si>
+  <si>
+    <t>वाघ</t>
+  </si>
+  <si>
+    <t>देवतांची वाहने</t>
+  </si>
+  <si>
+    <t>तांबड</t>
+  </si>
+  <si>
+    <t>झुंजुमुंजु</t>
+  </si>
+  <si>
+    <t>किलबिल</t>
+  </si>
+  <si>
+    <t>भूपाळी</t>
+  </si>
+  <si>
+    <t>पहाट</t>
+  </si>
+  <si>
+    <t>मेघ</t>
+  </si>
+  <si>
+    <t>राम</t>
+  </si>
+  <si>
+    <t>ज्यांना "दूत" जोडलेले शब्द आहेत (मेघदूत, ...)</t>
+  </si>
+  <si>
+    <t>अशोक स्तंभ</t>
+  </si>
+  <si>
+    <t>तवा</t>
+  </si>
+  <si>
+    <t>ऐरण</t>
+  </si>
+  <si>
+    <t>घण</t>
+  </si>
+  <si>
+    <t>लोह</t>
+  </si>
+  <si>
+    <t>वीट</t>
+  </si>
+  <si>
+    <t>मडकं</t>
+  </si>
+  <si>
+    <t>देशी दारू</t>
+  </si>
+  <si>
+    <t>कोळसा</t>
+  </si>
+  <si>
+    <t>भट्टी</t>
+  </si>
+  <si>
+    <t>वानर</t>
+  </si>
+  <si>
+    <t>अस्वल</t>
+  </si>
+  <si>
+    <t>मृग</t>
+  </si>
+  <si>
+    <t>झेब्रा</t>
+  </si>
+  <si>
+    <t>जिराफ</t>
+  </si>
+  <si>
+    <t>चित्ता</t>
+  </si>
+  <si>
+    <t>तरस</t>
+  </si>
+  <si>
+    <t>आफ्रिकेतले प्राणी</t>
+  </si>
+  <si>
+    <t>मगर</t>
+  </si>
+  <si>
+    <t>कासव</t>
+  </si>
+  <si>
+    <t>हिप्पो</t>
+  </si>
+  <si>
+    <t>बेडूक</t>
+  </si>
+  <si>
+    <t>वरूण</t>
+  </si>
+  <si>
+    <t>कोसळणे</t>
+  </si>
+  <si>
+    <t>उल्का</t>
+  </si>
+  <si>
+    <t>गारा</t>
+  </si>
+  <si>
+    <t>आकाशातून पडणार्‍या गोष्टी</t>
+  </si>
+  <si>
+    <t>क्वार्टझ</t>
+  </si>
+  <si>
+    <t>स्विस</t>
+  </si>
+  <si>
+    <t>पट्टा</t>
+  </si>
+  <si>
+    <t>वॉच</t>
+  </si>
+  <si>
+    <t>हात</t>
+  </si>
+  <si>
+    <t>चौकट</t>
+  </si>
+  <si>
+    <t>पीस</t>
+  </si>
+  <si>
+    <t>विदुषक</t>
+  </si>
+  <si>
+    <t>पत्ते</t>
+  </si>
+  <si>
+    <t>गटणे</t>
+  </si>
+  <si>
+    <t>पौष्टिक</t>
+  </si>
+  <si>
+    <t>वरात</t>
+  </si>
+  <si>
+    <t>चक्राकार</t>
+  </si>
+  <si>
+    <t>खमंग</t>
+  </si>
+  <si>
+    <t>भाजणी</t>
+  </si>
+  <si>
+    <t>कुरकुरीत</t>
+  </si>
+  <si>
+    <t>चकली</t>
+  </si>
+  <si>
+    <t>गाऊन</t>
+  </si>
+  <si>
+    <t>तराजू</t>
+  </si>
+  <si>
+    <t>सर्वोच्च</t>
+  </si>
+  <si>
+    <t>कायदा</t>
+  </si>
+  <si>
+    <t>न्यायालय</t>
+  </si>
+  <si>
+    <t>साहेब</t>
+  </si>
+  <si>
+    <t>जी</t>
+  </si>
+  <si>
+    <t>राव</t>
+  </si>
+  <si>
+    <t>पंत</t>
+  </si>
+  <si>
+    <t>नावाला आदरार्थी जोडलेले</t>
+  </si>
+  <si>
+    <t>अंक</t>
+  </si>
+  <si>
+    <t>फराळ</t>
+  </si>
+  <si>
+    <t>उटणं</t>
+  </si>
+  <si>
+    <t>लक्ष्मी</t>
+  </si>
+  <si>
+    <t>दिवाळी</t>
+  </si>
+  <si>
+    <t>चातुर्दशी</t>
+  </si>
+  <si>
+    <t>बिज</t>
+  </si>
+  <si>
+    <t>बारस</t>
+  </si>
+  <si>
+    <t>पूजन</t>
+  </si>
+  <si>
+    <t>दिवाळीच्या दिवसांचे दुसरे शब्द</t>
+  </si>
+  <si>
+    <t>सकाळ</t>
+  </si>
+  <si>
+    <t>हिंदू</t>
+  </si>
+  <si>
+    <t>एक्सप्रेस</t>
+  </si>
+  <si>
+    <t>सामना</t>
+  </si>
+  <si>
+    <t>वृत्तपत्रे ज्यांच्या नावाचा दुसरा अर्थही होतो</t>
+  </si>
+  <si>
+    <t>दही</t>
+  </si>
+  <si>
+    <t>ताडी</t>
+  </si>
+  <si>
+    <t>पाव</t>
+  </si>
+  <si>
+    <t>इडली</t>
+  </si>
+  <si>
+    <t>आंबवलेले पदार्थ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">संदीप सोवनी </t>
+  </si>
+  <si>
+    <t xml:space="preserve">पु लं च्या लिखाणातून </t>
+  </si>
+  <si>
+    <t>कारणं</t>
+  </si>
+  <si>
+    <t>झाड</t>
+  </si>
+  <si>
+    <t>अर्थ</t>
+  </si>
+  <si>
+    <t>दव</t>
+  </si>
+  <si>
+    <t>भोजन</t>
+  </si>
+  <si>
+    <t>पानावर सापडणाऱ्या गोष्टी</t>
+  </si>
+  <si>
+    <t>विष</t>
+  </si>
+  <si>
+    <t>खवले</t>
+  </si>
+  <si>
+    <t>काटेरी जीभ</t>
+  </si>
+  <si>
+    <t>सापाच्या शरीराचे भाग</t>
+  </si>
+  <si>
+    <t>वर्तुळाकार</t>
+  </si>
+  <si>
+    <t>ब्राऊनिअन</t>
+  </si>
+  <si>
+    <t>गती/हालचाली चे प्रकार</t>
+  </si>
+  <si>
+    <t>तरंग</t>
+  </si>
+  <si>
+    <t>विरघळणार्या / पाघळणाऱ्या गोष्टी</t>
+  </si>
+  <si>
+    <t>उभयचर प्राणी</t>
+  </si>
+  <si>
+    <t>रामायणातील प्राणी</t>
   </si>
 </sst>
 </file>
@@ -2310,10 +2961,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEA1707B-2FB7-B84C-9F84-E9F074F3056C}">
-  <dimension ref="A1:L89"/>
+  <dimension ref="A1:L135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="M50" sqref="M50"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2354,39 +3005,39 @@
         <v>6</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="L1" s="4">
-        <v>45626</v>
+        <v>45625</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E2" t="s">
         <v>106</v>
       </c>
-      <c r="B2" t="s">
-        <v>107</v>
-      </c>
-      <c r="C2" t="s">
-        <v>108</v>
-      </c>
-      <c r="D2" t="s">
-        <v>109</v>
-      </c>
-      <c r="E2" t="s">
-        <v>110</v>
-      </c>
       <c r="F2" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="H2">
         <f>INT(J2/3)</f>
@@ -2394,37 +3045,37 @@
       </c>
       <c r="I2" s="3">
         <f t="shared" ref="I2:I7" si="0">$L$1+H2</f>
-        <v>45626</v>
+        <v>45625</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="L2" s="6">
         <f ca="1">TODAY()</f>
-        <v>45631</v>
+        <v>45633</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B3" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C3" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D3" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E3" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="H3">
         <f t="shared" ref="H3:H11" si="1">INT(J3/3)</f>
@@ -2432,7 +3083,7 @@
       </c>
       <c r="I3" s="3">
         <f t="shared" si="0"/>
-        <v>45626</v>
+        <v>45625</v>
       </c>
       <c r="J3">
         <f>J2+1</f>
@@ -2442,25 +3093,25 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>139</v>
+      </c>
+      <c r="B4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C4" t="s">
+        <v>141</v>
+      </c>
+      <c r="D4" t="s">
+        <v>142</v>
+      </c>
+      <c r="E4" t="s">
         <v>143</v>
       </c>
-      <c r="B4" t="s">
-        <v>144</v>
-      </c>
-      <c r="C4" t="s">
-        <v>145</v>
-      </c>
-      <c r="D4" t="s">
-        <v>146</v>
-      </c>
-      <c r="E4" t="s">
-        <v>147</v>
-      </c>
       <c r="F4" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="H4">
         <f t="shared" si="1"/>
@@ -2468,7 +3119,7 @@
       </c>
       <c r="I4" s="3">
         <f t="shared" si="0"/>
-        <v>45626</v>
+        <v>45625</v>
       </c>
       <c r="J4">
         <f t="shared" ref="J4:J10" si="2">J3+1</f>
@@ -2478,25 +3129,25 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>263</v>
+      </c>
+      <c r="B5" t="s">
+        <v>264</v>
+      </c>
+      <c r="C5" t="s">
+        <v>265</v>
+      </c>
+      <c r="D5" t="s">
+        <v>266</v>
+      </c>
+      <c r="E5" t="s">
         <v>267</v>
       </c>
-      <c r="B5" t="s">
-        <v>268</v>
-      </c>
-      <c r="C5" t="s">
-        <v>269</v>
-      </c>
-      <c r="D5" t="s">
-        <v>270</v>
-      </c>
-      <c r="E5" t="s">
-        <v>271</v>
-      </c>
       <c r="F5" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="H5">
         <f t="shared" si="1"/>
@@ -2504,7 +3155,7 @@
       </c>
       <c r="I5" s="3">
         <f t="shared" si="0"/>
-        <v>45627</v>
+        <v>45626</v>
       </c>
       <c r="J5">
         <f t="shared" si="2"/>
@@ -2514,25 +3165,25 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C6" t="s">
+        <v>79</v>
+      </c>
+      <c r="D6" t="s">
+        <v>80</v>
+      </c>
+      <c r="E6" t="s">
         <v>81</v>
       </c>
-      <c r="B6" t="s">
-        <v>82</v>
-      </c>
-      <c r="C6" t="s">
-        <v>83</v>
-      </c>
-      <c r="D6" t="s">
-        <v>84</v>
-      </c>
-      <c r="E6" t="s">
-        <v>85</v>
-      </c>
       <c r="F6" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="H6">
         <f t="shared" si="1"/>
@@ -2540,7 +3191,7 @@
       </c>
       <c r="I6" s="3">
         <f t="shared" si="0"/>
-        <v>45627</v>
+        <v>45626</v>
       </c>
       <c r="J6">
         <f t="shared" si="2"/>
@@ -2550,25 +3201,25 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B7" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C7" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D7" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="E7" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="H7">
         <f t="shared" si="1"/>
@@ -2576,7 +3227,7 @@
       </c>
       <c r="I7" s="3">
         <f t="shared" si="0"/>
-        <v>45627</v>
+        <v>45626</v>
       </c>
       <c r="J7">
         <f t="shared" si="2"/>
@@ -2586,25 +3237,25 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>342</v>
+      </c>
+      <c r="B8" t="s">
+        <v>343</v>
+      </c>
+      <c r="C8" t="s">
+        <v>344</v>
+      </c>
+      <c r="D8" t="s">
+        <v>345</v>
+      </c>
+      <c r="E8" t="s">
         <v>346</v>
       </c>
-      <c r="B8" t="s">
+      <c r="F8" t="s">
         <v>347</v>
       </c>
-      <c r="C8" t="s">
-        <v>348</v>
-      </c>
-      <c r="D8" t="s">
-        <v>349</v>
-      </c>
-      <c r="E8" t="s">
-        <v>350</v>
-      </c>
-      <c r="F8" t="s">
-        <v>351</v>
-      </c>
       <c r="G8" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="H8">
         <f t="shared" si="1"/>
@@ -2612,7 +3263,7 @@
       </c>
       <c r="I8" s="3">
         <f>$L$1+H8</f>
-        <v>45628</v>
+        <v>45627</v>
       </c>
       <c r="J8">
         <f t="shared" si="2"/>
@@ -2621,33 +3272,33 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>332</v>
+      </c>
+      <c r="B9" t="s">
+        <v>333</v>
+      </c>
+      <c r="C9" t="s">
+        <v>334</v>
+      </c>
+      <c r="D9" t="s">
+        <v>335</v>
+      </c>
+      <c r="E9" t="s">
         <v>336</v>
       </c>
-      <c r="B9" t="s">
-        <v>337</v>
-      </c>
-      <c r="C9" t="s">
-        <v>338</v>
-      </c>
-      <c r="D9" t="s">
-        <v>339</v>
-      </c>
-      <c r="E9" t="s">
-        <v>340</v>
-      </c>
       <c r="F9" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="G9" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="H9">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="I9" s="3">
-        <f t="shared" ref="I9:I84" si="3">$L$1+H9</f>
-        <v>45628</v>
+        <f t="shared" ref="I9:I21" si="3">$L$1+H9</f>
+        <v>45627</v>
       </c>
       <c r="J9">
         <f t="shared" si="2"/>
@@ -2656,25 +3307,25 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>337</v>
+      </c>
+      <c r="B10" t="s">
+        <v>338</v>
+      </c>
+      <c r="C10" t="s">
+        <v>339</v>
+      </c>
+      <c r="D10" t="s">
+        <v>340</v>
+      </c>
+      <c r="E10" t="s">
         <v>341</v>
       </c>
-      <c r="B10" t="s">
-        <v>342</v>
-      </c>
-      <c r="C10" t="s">
-        <v>343</v>
-      </c>
-      <c r="D10" t="s">
-        <v>344</v>
-      </c>
-      <c r="E10" t="s">
-        <v>345</v>
-      </c>
       <c r="F10" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="G10" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="H10">
         <f t="shared" si="1"/>
@@ -2682,7 +3333,7 @@
       </c>
       <c r="I10" s="3">
         <f t="shared" si="3"/>
-        <v>45628</v>
+        <v>45627</v>
       </c>
       <c r="J10">
         <f t="shared" si="2"/>
@@ -2691,25 +3342,25 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="B11" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="C11" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="D11" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="E11" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="H11">
         <f t="shared" si="1"/>
@@ -2717,7 +3368,7 @@
       </c>
       <c r="I11" s="3">
         <f t="shared" si="3"/>
-        <v>45629</v>
+        <v>45628</v>
       </c>
       <c r="J11">
         <f t="shared" ref="J11" si="4">J10+1</f>
@@ -2726,60 +3377,60 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="B12" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="C12" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="D12" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="E12" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="H12">
-        <f t="shared" ref="H12:H87" si="5">INT(J12/3)</f>
+        <f t="shared" ref="H12:H21" si="5">INT(J12/3)</f>
         <v>3</v>
       </c>
       <c r="I12" s="3">
         <f t="shared" si="3"/>
-        <v>45629</v>
+        <v>45628</v>
       </c>
       <c r="J12">
-        <f t="shared" ref="J12:J87" si="6">J11+1</f>
+        <f t="shared" ref="J12:J91" si="6">J11+1</f>
         <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="B13" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="C13" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="D13" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="E13" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="H13">
         <f t="shared" si="5"/>
@@ -2787,7 +3438,7 @@
       </c>
       <c r="I13" s="3">
         <f t="shared" si="3"/>
-        <v>45629</v>
+        <v>45628</v>
       </c>
       <c r="J13">
         <f t="shared" si="6"/>
@@ -2796,25 +3447,25 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>134</v>
+      </c>
+      <c r="B14" t="s">
+        <v>135</v>
+      </c>
+      <c r="C14" t="s">
+        <v>136</v>
+      </c>
+      <c r="D14" t="s">
+        <v>137</v>
+      </c>
+      <c r="E14" t="s">
         <v>138</v>
       </c>
-      <c r="B14" t="s">
-        <v>139</v>
-      </c>
-      <c r="C14" t="s">
-        <v>140</v>
-      </c>
-      <c r="D14" t="s">
-        <v>141</v>
-      </c>
-      <c r="E14" t="s">
-        <v>142</v>
-      </c>
       <c r="F14" s="1" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="H14">
         <f t="shared" si="5"/>
@@ -2822,7 +3473,7 @@
       </c>
       <c r="I14" s="3">
         <f t="shared" si="3"/>
-        <v>45630</v>
+        <v>45629</v>
       </c>
       <c r="J14">
         <f t="shared" si="6"/>
@@ -2831,25 +3482,25 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
+        <v>92</v>
+      </c>
+      <c r="B15" t="s">
+        <v>93</v>
+      </c>
+      <c r="C15" t="s">
+        <v>94</v>
+      </c>
+      <c r="D15" t="s">
+        <v>95</v>
+      </c>
+      <c r="E15" t="s">
         <v>96</v>
       </c>
-      <c r="B15" t="s">
-        <v>97</v>
-      </c>
-      <c r="C15" t="s">
-        <v>98</v>
-      </c>
-      <c r="D15" t="s">
-        <v>99</v>
-      </c>
-      <c r="E15" t="s">
-        <v>100</v>
-      </c>
       <c r="F15" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="H15">
         <f t="shared" si="5"/>
@@ -2857,7 +3508,7 @@
       </c>
       <c r="I15" s="3">
         <f t="shared" si="3"/>
-        <v>45630</v>
+        <v>45629</v>
       </c>
       <c r="J15">
         <f t="shared" si="6"/>
@@ -2866,25 +3517,25 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B16" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C16" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D16" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E16" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="H16">
         <f t="shared" si="5"/>
@@ -2892,7 +3543,7 @@
       </c>
       <c r="I16" s="3">
         <f t="shared" si="3"/>
-        <v>45630</v>
+        <v>45629</v>
       </c>
       <c r="J16">
         <f t="shared" si="6"/>
@@ -2901,25 +3552,25 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D17" t="s">
+        <v>45</v>
+      </c>
+      <c r="E17" t="s">
+        <v>372</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="G17" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="E17" t="s">
-        <v>376</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>53</v>
       </c>
       <c r="H17">
         <f t="shared" si="5"/>
@@ -2927,7 +3578,7 @@
       </c>
       <c r="I17" s="3">
         <f t="shared" si="3"/>
-        <v>45631</v>
+        <v>45630</v>
       </c>
       <c r="J17">
         <f t="shared" si="6"/>
@@ -2936,25 +3587,25 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="B18" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C18" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="D18" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="E18" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="H18">
         <f t="shared" si="5"/>
@@ -2962,7 +3613,7 @@
       </c>
       <c r="I18" s="3">
         <f t="shared" si="3"/>
-        <v>45631</v>
+        <v>45630</v>
       </c>
       <c r="J18">
         <f t="shared" si="6"/>
@@ -2971,25 +3622,25 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" t="s">
         <v>13</v>
       </c>
-      <c r="B19" t="s">
-        <v>14</v>
-      </c>
-      <c r="C19" t="s">
-        <v>15</v>
-      </c>
-      <c r="D19" t="s">
-        <v>16</v>
-      </c>
-      <c r="E19" t="s">
-        <v>17</v>
-      </c>
       <c r="F19" s="1" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H19">
         <f t="shared" si="5"/>
@@ -2997,7 +3648,7 @@
       </c>
       <c r="I19" s="3">
         <f t="shared" si="3"/>
-        <v>45631</v>
+        <v>45630</v>
       </c>
       <c r="J19">
         <f t="shared" si="6"/>
@@ -3006,25 +3657,25 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
+        <v>160</v>
+      </c>
+      <c r="B20" t="s">
+        <v>161</v>
+      </c>
+      <c r="C20" t="s">
+        <v>162</v>
+      </c>
+      <c r="D20" t="s">
+        <v>163</v>
+      </c>
+      <c r="E20" t="s">
         <v>164</v>
       </c>
-      <c r="B20" t="s">
-        <v>165</v>
-      </c>
-      <c r="C20" t="s">
-        <v>166</v>
-      </c>
-      <c r="D20" t="s">
-        <v>167</v>
-      </c>
-      <c r="E20" t="s">
-        <v>168</v>
-      </c>
       <c r="F20" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="H20">
         <f t="shared" si="5"/>
@@ -3032,7 +3683,7 @@
       </c>
       <c r="I20" s="3">
         <f t="shared" si="3"/>
-        <v>45632</v>
+        <v>45631</v>
       </c>
       <c r="J20">
         <f t="shared" si="6"/>
@@ -3041,25 +3692,25 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
+        <v>102</v>
+      </c>
+      <c r="B21" t="s">
+        <v>366</v>
+      </c>
+      <c r="C21" t="s">
+        <v>104</v>
+      </c>
+      <c r="D21" t="s">
+        <v>105</v>
+      </c>
+      <c r="E21" t="s">
         <v>106</v>
       </c>
-      <c r="B21" t="s">
-        <v>370</v>
-      </c>
-      <c r="C21" t="s">
-        <v>108</v>
-      </c>
-      <c r="D21" t="s">
-        <v>109</v>
-      </c>
-      <c r="E21" t="s">
-        <v>110</v>
-      </c>
       <c r="F21" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="H21">
         <f t="shared" si="5"/>
@@ -3067,7 +3718,7 @@
       </c>
       <c r="I21" s="3">
         <f t="shared" si="3"/>
-        <v>45632</v>
+        <v>45631</v>
       </c>
       <c r="J21">
         <f t="shared" si="6"/>
@@ -3076,33 +3727,33 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
+        <v>139</v>
+      </c>
+      <c r="B22" t="s">
+        <v>140</v>
+      </c>
+      <c r="C22" t="s">
+        <v>141</v>
+      </c>
+      <c r="D22" t="s">
+        <v>142</v>
+      </c>
+      <c r="E22" t="s">
         <v>143</v>
       </c>
-      <c r="B22" t="s">
-        <v>144</v>
-      </c>
-      <c r="C22" t="s">
-        <v>145</v>
-      </c>
-      <c r="D22" t="s">
-        <v>146</v>
-      </c>
-      <c r="E22" t="s">
-        <v>147</v>
-      </c>
       <c r="F22" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="H22">
-        <f t="shared" ref="H22:H23" si="7">INT(J22/3)</f>
+        <f t="shared" ref="H22" si="7">INT(J22/3)</f>
         <v>6</v>
       </c>
       <c r="I22" s="3">
-        <f t="shared" ref="I22:I23" si="8">$L$1+H22</f>
-        <v>45632</v>
+        <f t="shared" ref="I22" si="8">$L$1+H22</f>
+        <v>45631</v>
       </c>
       <c r="J22">
         <f t="shared" si="6"/>
@@ -3111,33 +3762,33 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C23" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D23" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E23" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H23">
-        <f t="shared" ref="H23:H86" si="9">INT(J23/3)</f>
+        <f t="shared" ref="H23:H29" si="9">INT(J23/3)</f>
         <v>7</v>
       </c>
       <c r="I23" s="3">
-        <f t="shared" ref="I23:I86" si="10">$L$1+H23</f>
-        <v>45633</v>
+        <f t="shared" ref="I23:I29" si="10">$L$1+H23</f>
+        <v>45632</v>
       </c>
       <c r="J23">
         <f t="shared" si="6"/>
@@ -3146,25 +3797,25 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B24" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C24" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D24" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E24" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="H24">
         <f t="shared" si="9"/>
@@ -3172,7 +3823,7 @@
       </c>
       <c r="I24" s="3">
         <f t="shared" si="10"/>
-        <v>45633</v>
+        <v>45632</v>
       </c>
       <c r="J24">
         <f t="shared" si="6"/>
@@ -3181,25 +3832,25 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
+        <v>375</v>
+      </c>
+      <c r="B25" t="s">
+        <v>376</v>
+      </c>
+      <c r="C25" t="s">
+        <v>377</v>
+      </c>
+      <c r="D25" t="s">
+        <v>378</v>
+      </c>
+      <c r="E25" t="s">
         <v>379</v>
       </c>
-      <c r="B25" t="s">
-        <v>380</v>
-      </c>
-      <c r="C25" t="s">
-        <v>381</v>
-      </c>
-      <c r="D25" t="s">
-        <v>382</v>
-      </c>
-      <c r="E25" t="s">
-        <v>383</v>
-      </c>
       <c r="F25" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="H25">
         <f t="shared" si="9"/>
@@ -3207,7 +3858,7 @@
       </c>
       <c r="I25" s="3">
         <f t="shared" si="10"/>
-        <v>45633</v>
+        <v>45632</v>
       </c>
       <c r="J25">
         <f t="shared" si="6"/>
@@ -3216,25 +3867,25 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
+        <v>129</v>
+      </c>
+      <c r="B26" t="s">
+        <v>130</v>
+      </c>
+      <c r="C26" t="s">
+        <v>131</v>
+      </c>
+      <c r="D26" t="s">
+        <v>132</v>
+      </c>
+      <c r="E26" t="s">
         <v>133</v>
       </c>
-      <c r="B26" t="s">
-        <v>134</v>
-      </c>
-      <c r="C26" t="s">
-        <v>135</v>
-      </c>
-      <c r="D26" t="s">
-        <v>136</v>
-      </c>
-      <c r="E26" t="s">
-        <v>137</v>
-      </c>
       <c r="F26" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="H26">
         <f t="shared" si="9"/>
@@ -3242,7 +3893,7 @@
       </c>
       <c r="I26" s="3">
         <f t="shared" si="10"/>
-        <v>45634</v>
+        <v>45633</v>
       </c>
       <c r="J26">
         <f t="shared" si="6"/>
@@ -3251,25 +3902,25 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
+        <v>258</v>
+      </c>
+      <c r="B27" t="s">
+        <v>259</v>
+      </c>
+      <c r="C27" t="s">
+        <v>260</v>
+      </c>
+      <c r="D27" t="s">
+        <v>261</v>
+      </c>
+      <c r="E27" t="s">
         <v>262</v>
       </c>
-      <c r="B27" t="s">
-        <v>263</v>
-      </c>
-      <c r="C27" t="s">
-        <v>264</v>
-      </c>
-      <c r="D27" t="s">
-        <v>265</v>
-      </c>
-      <c r="E27" t="s">
-        <v>266</v>
-      </c>
       <c r="F27" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H27">
         <f t="shared" si="9"/>
@@ -3277,7 +3928,7 @@
       </c>
       <c r="I27" s="3">
         <f t="shared" si="10"/>
-        <v>45634</v>
+        <v>45633</v>
       </c>
       <c r="J27">
         <f t="shared" si="6"/>
@@ -3286,25 +3937,25 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
+        <v>419</v>
+      </c>
+      <c r="B28" t="s">
+        <v>420</v>
+      </c>
+      <c r="C28" t="s">
+        <v>421</v>
+      </c>
+      <c r="D28" t="s">
         <v>422</v>
       </c>
-      <c r="B28" t="s">
-        <v>423</v>
-      </c>
-      <c r="C28" t="s">
-        <v>424</v>
-      </c>
-      <c r="D28" t="s">
-        <v>425</v>
-      </c>
       <c r="E28" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="F28" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="H28">
         <f t="shared" si="9"/>
@@ -3312,7 +3963,7 @@
       </c>
       <c r="I28" s="3">
         <f t="shared" si="10"/>
-        <v>45634</v>
+        <v>45633</v>
       </c>
       <c r="J28">
         <f t="shared" si="6"/>
@@ -3321,25 +3972,25 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
+        <v>97</v>
+      </c>
+      <c r="B29" t="s">
+        <v>98</v>
+      </c>
+      <c r="C29" t="s">
+        <v>99</v>
+      </c>
+      <c r="D29" t="s">
+        <v>100</v>
+      </c>
+      <c r="E29" t="s">
         <v>101</v>
       </c>
-      <c r="B29" t="s">
-        <v>102</v>
-      </c>
-      <c r="C29" t="s">
-        <v>103</v>
-      </c>
-      <c r="D29" t="s">
-        <v>104</v>
-      </c>
-      <c r="E29" t="s">
-        <v>105</v>
-      </c>
       <c r="F29" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="H29">
         <f t="shared" si="9"/>
@@ -3347,7 +3998,7 @@
       </c>
       <c r="I29" s="3">
         <f t="shared" si="10"/>
-        <v>45635</v>
+        <v>45634</v>
       </c>
       <c r="J29">
         <f t="shared" si="6"/>
@@ -3356,33 +4007,33 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
+        <v>107</v>
+      </c>
+      <c r="B30" t="s">
+        <v>108</v>
+      </c>
+      <c r="C30" t="s">
+        <v>109</v>
+      </c>
+      <c r="D30" t="s">
+        <v>110</v>
+      </c>
+      <c r="E30" t="s">
         <v>111</v>
       </c>
-      <c r="B30" t="s">
-        <v>112</v>
-      </c>
-      <c r="C30" t="s">
-        <v>113</v>
-      </c>
-      <c r="D30" t="s">
-        <v>114</v>
-      </c>
-      <c r="E30" t="s">
-        <v>115</v>
-      </c>
       <c r="F30" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="H30">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="H30:H93" si="11">INT(J30/3)</f>
         <v>9</v>
       </c>
       <c r="I30" s="3">
-        <f t="shared" si="10"/>
-        <v>45635</v>
+        <f t="shared" ref="I30:I93" si="12">$L$1+H30</f>
+        <v>45634</v>
       </c>
       <c r="J30">
         <f t="shared" si="6"/>
@@ -3391,33 +4042,33 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
+        <v>272</v>
+      </c>
+      <c r="B31" t="s">
+        <v>273</v>
+      </c>
+      <c r="C31" t="s">
+        <v>274</v>
+      </c>
+      <c r="D31" t="s">
+        <v>275</v>
+      </c>
+      <c r="E31" t="s">
         <v>276</v>
       </c>
-      <c r="B31" t="s">
-        <v>277</v>
-      </c>
-      <c r="C31" t="s">
-        <v>278</v>
-      </c>
-      <c r="D31" t="s">
-        <v>279</v>
-      </c>
-      <c r="E31" t="s">
-        <v>280</v>
-      </c>
       <c r="F31" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H31">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>9</v>
       </c>
       <c r="I31" s="3">
-        <f t="shared" si="10"/>
-        <v>45635</v>
+        <f t="shared" si="12"/>
+        <v>45634</v>
       </c>
       <c r="J31">
         <f t="shared" si="6"/>
@@ -3426,33 +4077,30 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>68</v>
+        <v>530</v>
       </c>
       <c r="B32" t="s">
-        <v>69</v>
+        <v>531</v>
       </c>
       <c r="C32" t="s">
-        <v>70</v>
+        <v>532</v>
       </c>
       <c r="D32" t="s">
-        <v>71</v>
+        <v>533</v>
       </c>
       <c r="E32" t="s">
-        <v>371</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>54</v>
+        <v>534</v>
+      </c>
+      <c r="F32" t="s">
+        <v>645</v>
       </c>
       <c r="H32">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>10</v>
       </c>
       <c r="I32" s="3">
-        <f t="shared" si="10"/>
-        <v>45636</v>
+        <f t="shared" si="12"/>
+        <v>45635</v>
       </c>
       <c r="J32">
         <f t="shared" si="6"/>
@@ -3461,33 +4109,30 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>384</v>
+        <v>535</v>
       </c>
       <c r="B33" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="C33" t="s">
-        <v>386</v>
+        <v>647</v>
       </c>
       <c r="D33" t="s">
-        <v>387</v>
+        <v>536</v>
       </c>
       <c r="E33" t="s">
-        <v>388</v>
+        <v>537</v>
       </c>
       <c r="F33" t="s">
-        <v>414</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>286</v>
+        <v>645</v>
       </c>
       <c r="H33">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>10</v>
       </c>
       <c r="I33" s="3">
-        <f t="shared" si="10"/>
-        <v>45636</v>
+        <f t="shared" si="12"/>
+        <v>45635</v>
       </c>
       <c r="J33">
         <f t="shared" si="6"/>
@@ -3496,33 +4141,30 @@
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>18</v>
+        <v>538</v>
       </c>
       <c r="B34" t="s">
-        <v>19</v>
+        <v>649</v>
       </c>
       <c r="C34" t="s">
-        <v>20</v>
+        <v>648</v>
       </c>
       <c r="D34" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="E34" t="s">
-        <v>39</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>12</v>
+        <v>539</v>
+      </c>
+      <c r="F34" t="s">
+        <v>645</v>
       </c>
       <c r="H34">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>10</v>
       </c>
       <c r="I34" s="3">
-        <f t="shared" si="10"/>
-        <v>45636</v>
+        <f t="shared" si="12"/>
+        <v>45635</v>
       </c>
       <c r="J34">
         <f t="shared" si="6"/>
@@ -3531,33 +4173,33 @@
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>116</v>
+        <v>64</v>
       </c>
       <c r="B35" t="s">
-        <v>117</v>
+        <v>65</v>
       </c>
       <c r="C35" t="s">
-        <v>118</v>
+        <v>66</v>
       </c>
       <c r="D35" t="s">
-        <v>119</v>
+        <v>67</v>
       </c>
       <c r="E35" t="s">
-        <v>120</v>
+        <v>367</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>151</v>
+        <v>50</v>
       </c>
       <c r="H35">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>11</v>
       </c>
       <c r="I35" s="3">
-        <f t="shared" si="10"/>
-        <v>45637</v>
+        <f t="shared" si="12"/>
+        <v>45636</v>
       </c>
       <c r="J35">
         <f t="shared" si="6"/>
@@ -3566,33 +4208,33 @@
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>213</v>
+        <v>380</v>
       </c>
       <c r="B36" t="s">
-        <v>214</v>
+        <v>381</v>
       </c>
       <c r="C36" t="s">
-        <v>215</v>
+        <v>382</v>
       </c>
       <c r="D36" t="s">
-        <v>216</v>
+        <v>383</v>
       </c>
       <c r="E36" t="s">
-        <v>217</v>
+        <v>384</v>
       </c>
       <c r="F36" t="s">
-        <v>261</v>
+        <v>411</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>153</v>
+        <v>282</v>
       </c>
       <c r="H36">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>11</v>
       </c>
       <c r="I36" s="3">
-        <f t="shared" si="10"/>
-        <v>45637</v>
+        <f t="shared" si="12"/>
+        <v>45636</v>
       </c>
       <c r="J36">
         <f t="shared" si="6"/>
@@ -3601,33 +4243,33 @@
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>86</v>
+        <v>14</v>
       </c>
       <c r="B37" t="s">
-        <v>87</v>
+        <v>15</v>
       </c>
       <c r="C37" t="s">
-        <v>88</v>
+        <v>16</v>
       </c>
       <c r="D37" t="s">
-        <v>89</v>
+        <v>34</v>
       </c>
       <c r="E37" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>93</v>
+        <v>348</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>95</v>
+        <v>8</v>
       </c>
       <c r="H37">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>11</v>
       </c>
       <c r="I37" s="3">
-        <f t="shared" si="10"/>
-        <v>45637</v>
+        <f t="shared" si="12"/>
+        <v>45636</v>
       </c>
       <c r="J37">
         <f t="shared" si="6"/>
@@ -3636,33 +4278,33 @@
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>436</v>
+        <v>112</v>
       </c>
       <c r="B38" t="s">
-        <v>389</v>
+        <v>113</v>
       </c>
       <c r="C38" t="s">
-        <v>390</v>
+        <v>114</v>
       </c>
       <c r="D38" t="s">
-        <v>435</v>
+        <v>115</v>
       </c>
       <c r="E38" t="s">
-        <v>391</v>
-      </c>
-      <c r="F38" t="s">
-        <v>414</v>
+        <v>116</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>89</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>286</v>
+        <v>147</v>
       </c>
       <c r="H38">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>12</v>
       </c>
       <c r="I38" s="3">
-        <f t="shared" si="10"/>
-        <v>45638</v>
+        <f t="shared" si="12"/>
+        <v>45637</v>
       </c>
       <c r="J38">
         <f t="shared" si="6"/>
@@ -3671,33 +4313,30 @@
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>203</v>
+        <v>525</v>
       </c>
       <c r="B39" t="s">
-        <v>204</v>
+        <v>526</v>
       </c>
       <c r="C39" t="s">
-        <v>205</v>
+        <v>527</v>
       </c>
       <c r="D39" t="s">
-        <v>206</v>
+        <v>528</v>
       </c>
       <c r="E39" t="s">
-        <v>207</v>
+        <v>529</v>
       </c>
       <c r="F39" t="s">
-        <v>261</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>53</v>
+        <v>645</v>
       </c>
       <c r="H39">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>12</v>
       </c>
       <c r="I39" s="3">
-        <f t="shared" si="10"/>
-        <v>45638</v>
+        <f t="shared" si="12"/>
+        <v>45637</v>
       </c>
       <c r="J39">
         <f t="shared" si="6"/>
@@ -3706,33 +4345,30 @@
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>72</v>
+        <v>540</v>
       </c>
       <c r="B40" t="s">
-        <v>73</v>
+        <v>541</v>
       </c>
       <c r="C40" t="s">
-        <v>74</v>
+        <v>7</v>
       </c>
       <c r="D40" t="s">
-        <v>378</v>
+        <v>542</v>
       </c>
       <c r="E40" t="s">
-        <v>75</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>54</v>
+        <v>661</v>
+      </c>
+      <c r="F40" t="s">
+        <v>645</v>
       </c>
       <c r="H40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>12</v>
       </c>
       <c r="I40" s="3">
-        <f t="shared" si="10"/>
-        <v>45638</v>
+        <f t="shared" si="12"/>
+        <v>45637</v>
       </c>
       <c r="J40">
         <f t="shared" si="6"/>
@@ -3741,33 +4377,33 @@
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>198</v>
+        <v>209</v>
       </c>
       <c r="B41" t="s">
-        <v>199</v>
+        <v>210</v>
       </c>
       <c r="C41" t="s">
-        <v>200</v>
+        <v>211</v>
       </c>
       <c r="D41" t="s">
-        <v>201</v>
+        <v>212</v>
       </c>
       <c r="E41" t="s">
-        <v>202</v>
+        <v>213</v>
       </c>
       <c r="F41" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>95</v>
+        <v>149</v>
       </c>
       <c r="H41">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>13</v>
       </c>
       <c r="I41" s="3">
-        <f t="shared" si="10"/>
-        <v>45639</v>
+        <f t="shared" si="12"/>
+        <v>45638</v>
       </c>
       <c r="J41">
         <f t="shared" si="6"/>
@@ -3776,33 +4412,33 @@
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>426</v>
+        <v>82</v>
       </c>
       <c r="B42" t="s">
-        <v>427</v>
+        <v>83</v>
       </c>
       <c r="C42" t="s">
-        <v>428</v>
+        <v>84</v>
       </c>
       <c r="D42" t="s">
-        <v>386</v>
+        <v>85</v>
       </c>
       <c r="E42" t="s">
-        <v>429</v>
-      </c>
-      <c r="F42" t="s">
-        <v>414</v>
+        <v>86</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>89</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>286</v>
+        <v>91</v>
       </c>
       <c r="H42">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>13</v>
       </c>
       <c r="I42" s="3">
-        <f t="shared" si="10"/>
-        <v>45639</v>
+        <f t="shared" si="12"/>
+        <v>45638</v>
       </c>
       <c r="J42">
         <f t="shared" si="6"/>
@@ -3810,34 +4446,31 @@
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A43" s="2">
-        <v>42.195</v>
+      <c r="A43" t="s">
+        <v>602</v>
       </c>
       <c r="B43" t="s">
-        <v>129</v>
+        <v>603</v>
       </c>
       <c r="C43" t="s">
-        <v>130</v>
+        <v>604</v>
       </c>
       <c r="D43" t="s">
-        <v>131</v>
+        <v>605</v>
       </c>
       <c r="E43" t="s">
-        <v>132</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>152</v>
+        <v>606</v>
+      </c>
+      <c r="F43" t="s">
+        <v>645</v>
       </c>
       <c r="H43">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>13</v>
       </c>
       <c r="I43" s="3">
-        <f t="shared" si="10"/>
-        <v>45639</v>
+        <f t="shared" si="12"/>
+        <v>45638</v>
       </c>
       <c r="J43">
         <f t="shared" si="6"/>
@@ -3846,33 +4479,30 @@
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>42</v>
+        <v>615</v>
       </c>
       <c r="B44" t="s">
-        <v>43</v>
+        <v>616</v>
       </c>
       <c r="C44" t="s">
-        <v>44</v>
+        <v>617</v>
       </c>
       <c r="D44" t="s">
-        <v>45</v>
+        <v>618</v>
       </c>
       <c r="E44" t="s">
-        <v>46</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="G44" s="1" t="s">
-        <v>12</v>
+        <v>619</v>
+      </c>
+      <c r="F44" t="s">
+        <v>645</v>
       </c>
       <c r="H44">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>14</v>
       </c>
       <c r="I44" s="3">
-        <f t="shared" si="10"/>
-        <v>45640</v>
+        <f t="shared" si="12"/>
+        <v>45639</v>
       </c>
       <c r="J44">
         <f t="shared" si="6"/>
@@ -3881,33 +4511,33 @@
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>174</v>
+        <v>433</v>
       </c>
       <c r="B45" t="s">
-        <v>175</v>
+        <v>385</v>
       </c>
       <c r="C45" t="s">
-        <v>176</v>
+        <v>386</v>
       </c>
       <c r="D45" t="s">
-        <v>177</v>
+        <v>432</v>
       </c>
       <c r="E45" t="s">
-        <v>178</v>
+        <v>387</v>
       </c>
       <c r="F45" t="s">
-        <v>194</v>
+        <v>411</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>197</v>
+        <v>282</v>
       </c>
       <c r="H45">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>14</v>
       </c>
       <c r="I45" s="3">
-        <f t="shared" si="10"/>
-        <v>45640</v>
+        <f t="shared" si="12"/>
+        <v>45639</v>
       </c>
       <c r="J45">
         <f t="shared" si="6"/>
@@ -3916,33 +4546,33 @@
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>222</v>
+        <v>199</v>
       </c>
       <c r="B46" t="s">
-        <v>223</v>
+        <v>200</v>
       </c>
       <c r="C46" t="s">
-        <v>224</v>
+        <v>201</v>
       </c>
       <c r="D46" t="s">
-        <v>225</v>
+        <v>202</v>
       </c>
       <c r="E46" t="s">
-        <v>226</v>
+        <v>203</v>
       </c>
       <c r="F46" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>287</v>
+        <v>49</v>
       </c>
       <c r="H46">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>14</v>
       </c>
       <c r="I46" s="3">
-        <f t="shared" si="10"/>
-        <v>45640</v>
+        <f t="shared" si="12"/>
+        <v>45639</v>
       </c>
       <c r="J46">
         <f t="shared" si="6"/>
@@ -3951,33 +4581,30 @@
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>392</v>
+        <v>547</v>
       </c>
       <c r="B47" t="s">
-        <v>393</v>
+        <v>548</v>
       </c>
       <c r="C47" t="s">
-        <v>394</v>
+        <v>549</v>
       </c>
       <c r="D47" t="s">
-        <v>395</v>
+        <v>550</v>
       </c>
       <c r="E47" t="s">
-        <v>446</v>
+        <v>551</v>
       </c>
       <c r="F47" t="s">
-        <v>414</v>
-      </c>
-      <c r="G47" s="1" t="s">
-        <v>286</v>
+        <v>645</v>
       </c>
       <c r="H47">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>15</v>
       </c>
       <c r="I47" s="3">
-        <f t="shared" si="10"/>
-        <v>45641</v>
+        <f t="shared" si="12"/>
+        <v>45640</v>
       </c>
       <c r="J47">
         <f t="shared" si="6"/>
@@ -3986,33 +4613,30 @@
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="B48" t="s">
-        <v>243</v>
+        <v>552</v>
       </c>
       <c r="C48" t="s">
-        <v>244</v>
+        <v>553</v>
       </c>
       <c r="D48" t="s">
-        <v>245</v>
+        <v>554</v>
       </c>
       <c r="E48" t="s">
-        <v>246</v>
+        <v>555</v>
       </c>
       <c r="F48" t="s">
-        <v>261</v>
-      </c>
-      <c r="G48" s="1" t="s">
-        <v>149</v>
+        <v>645</v>
       </c>
       <c r="H48">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>15</v>
       </c>
       <c r="I48" s="3">
-        <f t="shared" si="10"/>
-        <v>45641</v>
+        <f t="shared" si="12"/>
+        <v>45640</v>
       </c>
       <c r="J48">
         <f t="shared" si="6"/>
@@ -4021,33 +4645,30 @@
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>35</v>
+        <v>556</v>
       </c>
       <c r="B49" t="s">
-        <v>36</v>
+        <v>557</v>
       </c>
       <c r="C49" t="s">
-        <v>51</v>
+        <v>558</v>
       </c>
       <c r="D49" t="s">
-        <v>50</v>
+        <v>559</v>
       </c>
       <c r="E49" t="s">
-        <v>37</v>
-      </c>
-      <c r="F49" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="G49" s="1" t="s">
-        <v>55</v>
+        <v>560</v>
+      </c>
+      <c r="F49" t="s">
+        <v>645</v>
       </c>
       <c r="H49">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>15</v>
       </c>
       <c r="I49" s="3">
-        <f t="shared" si="10"/>
-        <v>45641</v>
+        <f t="shared" si="12"/>
+        <v>45640</v>
       </c>
       <c r="J49">
         <f t="shared" si="6"/>
@@ -4056,33 +4677,33 @@
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>56</v>
+        <v>194</v>
       </c>
       <c r="B50" t="s">
-        <v>218</v>
+        <v>195</v>
       </c>
       <c r="C50" t="s">
-        <v>219</v>
+        <v>196</v>
       </c>
       <c r="D50" t="s">
-        <v>220</v>
+        <v>197</v>
       </c>
       <c r="E50" t="s">
-        <v>221</v>
+        <v>198</v>
       </c>
       <c r="F50" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>286</v>
+        <v>91</v>
       </c>
       <c r="H50">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>16</v>
       </c>
       <c r="I50" s="3">
-        <f t="shared" si="10"/>
-        <v>45642</v>
+        <f t="shared" si="12"/>
+        <v>45641</v>
       </c>
       <c r="J50">
         <f t="shared" si="6"/>
@@ -4091,68 +4712,68 @@
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>321</v>
+        <v>423</v>
       </c>
       <c r="B51" t="s">
-        <v>322</v>
+        <v>424</v>
       </c>
       <c r="C51" t="s">
-        <v>323</v>
+        <v>425</v>
       </c>
       <c r="D51" t="s">
-        <v>324</v>
+        <v>382</v>
       </c>
       <c r="E51" t="s">
-        <v>329</v>
+        <v>426</v>
       </c>
       <c r="F51" t="s">
-        <v>330</v>
+        <v>411</v>
       </c>
       <c r="G51" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="H51">
+        <f t="shared" si="11"/>
+        <v>16</v>
+      </c>
+      <c r="I51" s="3">
+        <f t="shared" si="12"/>
+        <v>45641</v>
+      </c>
+      <c r="J51">
+        <f t="shared" si="6"/>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A52" s="2">
+        <v>42.195</v>
+      </c>
+      <c r="B52" t="s">
+        <v>125</v>
+      </c>
+      <c r="C52" t="s">
+        <v>126</v>
+      </c>
+      <c r="D52" t="s">
+        <v>127</v>
+      </c>
+      <c r="E52" t="s">
+        <v>128</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="G52" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="H51">
-        <f t="shared" si="9"/>
+      <c r="H52">
+        <f t="shared" si="11"/>
         <v>16</v>
       </c>
-      <c r="I51" s="3">
-        <f t="shared" si="10"/>
-        <v>45642</v>
-      </c>
-      <c r="J51">
-        <f t="shared" si="6"/>
-        <v>49</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
-        <v>159</v>
-      </c>
-      <c r="B52" t="s">
-        <v>160</v>
-      </c>
-      <c r="C52" t="s">
-        <v>161</v>
-      </c>
-      <c r="D52" t="s">
-        <v>162</v>
-      </c>
-      <c r="E52" t="s">
-        <v>163</v>
-      </c>
-      <c r="F52" t="s">
-        <v>194</v>
-      </c>
-      <c r="G52" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="H52">
-        <f t="shared" si="9"/>
-        <v>16</v>
-      </c>
       <c r="I52" s="3">
-        <f t="shared" si="10"/>
-        <v>45642</v>
+        <f t="shared" si="12"/>
+        <v>45641</v>
       </c>
       <c r="J52">
         <f t="shared" si="6"/>
@@ -4161,33 +4782,33 @@
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>396</v>
+        <v>38</v>
       </c>
       <c r="B53" t="s">
-        <v>397</v>
+        <v>39</v>
       </c>
       <c r="C53" t="s">
-        <v>398</v>
+        <v>40</v>
       </c>
       <c r="D53" t="s">
-        <v>399</v>
+        <v>41</v>
       </c>
       <c r="E53" t="s">
-        <v>434</v>
-      </c>
-      <c r="F53" t="s">
-        <v>414</v>
+        <v>42</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>348</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>286</v>
+        <v>8</v>
       </c>
       <c r="H53">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>17</v>
       </c>
       <c r="I53" s="3">
-        <f t="shared" si="10"/>
-        <v>45643</v>
+        <f t="shared" si="12"/>
+        <v>45642</v>
       </c>
       <c r="J53">
         <f t="shared" si="6"/>
@@ -4196,33 +4817,33 @@
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>417</v>
+        <v>170</v>
       </c>
       <c r="B54" t="s">
-        <v>418</v>
+        <v>171</v>
       </c>
       <c r="C54" t="s">
-        <v>419</v>
+        <v>172</v>
       </c>
       <c r="D54" t="s">
-        <v>420</v>
+        <v>173</v>
       </c>
       <c r="E54" t="s">
-        <v>421</v>
+        <v>174</v>
       </c>
       <c r="F54" t="s">
-        <v>414</v>
+        <v>190</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>444</v>
+        <v>193</v>
       </c>
       <c r="H54">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>17</v>
       </c>
       <c r="I54" s="3">
-        <f t="shared" si="10"/>
-        <v>45643</v>
+        <f t="shared" si="12"/>
+        <v>45642</v>
       </c>
       <c r="J54">
         <f t="shared" si="6"/>
@@ -4230,34 +4851,34 @@
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A55" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F55" s="1" t="s">
-        <v>352</v>
+      <c r="A55" t="s">
+        <v>218</v>
+      </c>
+      <c r="B55" t="s">
+        <v>219</v>
+      </c>
+      <c r="C55" t="s">
+        <v>220</v>
+      </c>
+      <c r="D55" t="s">
+        <v>221</v>
+      </c>
+      <c r="E55" t="s">
+        <v>222</v>
+      </c>
+      <c r="F55" t="s">
+        <v>257</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>12</v>
+        <v>283</v>
       </c>
       <c r="H55">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>17</v>
       </c>
       <c r="I55" s="3">
-        <f t="shared" si="10"/>
-        <v>45643</v>
+        <f t="shared" si="12"/>
+        <v>45642</v>
       </c>
       <c r="J55">
         <f t="shared" si="6"/>
@@ -4266,33 +4887,33 @@
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>256</v>
+        <v>388</v>
       </c>
       <c r="B56" t="s">
-        <v>257</v>
+        <v>389</v>
       </c>
       <c r="C56" t="s">
-        <v>258</v>
+        <v>390</v>
       </c>
       <c r="D56" t="s">
-        <v>259</v>
+        <v>391</v>
       </c>
       <c r="E56" t="s">
-        <v>260</v>
+        <v>443</v>
       </c>
       <c r="F56" t="s">
-        <v>261</v>
+        <v>411</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>151</v>
+        <v>282</v>
       </c>
       <c r="H56">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>18</v>
       </c>
       <c r="I56" s="3">
-        <f t="shared" si="10"/>
-        <v>45644</v>
+        <f t="shared" si="12"/>
+        <v>45643</v>
       </c>
       <c r="J56">
         <f t="shared" si="6"/>
@@ -4301,33 +4922,33 @@
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>430</v>
+        <v>238</v>
       </c>
       <c r="B57" t="s">
-        <v>431</v>
+        <v>239</v>
       </c>
       <c r="C57" t="s">
-        <v>432</v>
+        <v>240</v>
       </c>
       <c r="D57" t="s">
-        <v>433</v>
+        <v>241</v>
       </c>
       <c r="E57" t="s">
-        <v>440</v>
+        <v>242</v>
       </c>
       <c r="F57" t="s">
-        <v>414</v>
+        <v>257</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>286</v>
+        <v>145</v>
       </c>
       <c r="H57">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>18</v>
       </c>
       <c r="I57" s="3">
-        <f t="shared" si="10"/>
-        <v>45644</v>
+        <f t="shared" si="12"/>
+        <v>45643</v>
       </c>
       <c r="J57">
         <f t="shared" si="6"/>
@@ -4336,33 +4957,33 @@
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>289</v>
+        <v>31</v>
       </c>
       <c r="B58" t="s">
-        <v>290</v>
+        <v>32</v>
       </c>
       <c r="C58" t="s">
-        <v>291</v>
+        <v>47</v>
       </c>
       <c r="D58" t="s">
-        <v>292</v>
+        <v>46</v>
       </c>
       <c r="E58" t="s">
-        <v>329</v>
-      </c>
-      <c r="F58" t="s">
-        <v>330</v>
+        <v>33</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>348</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>148</v>
+        <v>51</v>
       </c>
       <c r="H58">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>18</v>
       </c>
       <c r="I58" s="3">
-        <f t="shared" si="10"/>
-        <v>45644</v>
+        <f t="shared" si="12"/>
+        <v>45643</v>
       </c>
       <c r="J58">
         <f t="shared" si="6"/>
@@ -4371,33 +4992,30 @@
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>304</v>
+        <v>480</v>
       </c>
       <c r="B59" t="s">
-        <v>305</v>
+        <v>481</v>
       </c>
       <c r="C59" t="s">
-        <v>306</v>
+        <v>482</v>
       </c>
       <c r="D59" t="s">
-        <v>307</v>
+        <v>483</v>
       </c>
       <c r="E59" t="s">
-        <v>308</v>
+        <v>484</v>
       </c>
       <c r="F59" t="s">
-        <v>330</v>
-      </c>
-      <c r="G59" s="1" t="s">
-        <v>53</v>
+        <v>645</v>
       </c>
       <c r="H59">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>19</v>
       </c>
       <c r="I59" s="3">
-        <f t="shared" si="10"/>
-        <v>45645</v>
+        <f t="shared" si="12"/>
+        <v>45644</v>
       </c>
       <c r="J59">
         <f t="shared" si="6"/>
@@ -4406,33 +5024,30 @@
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>300</v>
+        <v>485</v>
       </c>
       <c r="B60" t="s">
-        <v>301</v>
+        <v>486</v>
       </c>
       <c r="C60" t="s">
-        <v>302</v>
+        <v>487</v>
       </c>
       <c r="D60" t="s">
-        <v>303</v>
+        <v>488</v>
       </c>
       <c r="E60" t="s">
-        <v>329</v>
+        <v>489</v>
       </c>
       <c r="F60" t="s">
-        <v>330</v>
-      </c>
-      <c r="G60" s="1" t="s">
-        <v>148</v>
+        <v>645</v>
       </c>
       <c r="H60">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>19</v>
       </c>
       <c r="I60" s="3">
-        <f t="shared" si="10"/>
-        <v>45645</v>
+        <f t="shared" si="12"/>
+        <v>45644</v>
       </c>
       <c r="J60">
         <f t="shared" si="6"/>
@@ -4441,33 +5056,30 @@
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>331</v>
+        <v>490</v>
       </c>
       <c r="B61" t="s">
-        <v>332</v>
+        <v>491</v>
       </c>
       <c r="C61" t="s">
-        <v>333</v>
+        <v>492</v>
       </c>
       <c r="D61" t="s">
-        <v>334</v>
+        <v>493</v>
       </c>
       <c r="E61" t="s">
-        <v>335</v>
+        <v>494</v>
       </c>
       <c r="F61" t="s">
-        <v>330</v>
-      </c>
-      <c r="G61" s="1" t="s">
-        <v>148</v>
+        <v>645</v>
       </c>
       <c r="H61">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>19</v>
       </c>
       <c r="I61" s="3">
-        <f t="shared" si="10"/>
-        <v>45645</v>
+        <f t="shared" si="12"/>
+        <v>45644</v>
       </c>
       <c r="J61">
         <f t="shared" si="6"/>
@@ -4476,33 +5088,33 @@
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B62" t="s">
-        <v>293</v>
+        <v>214</v>
       </c>
       <c r="C62" t="s">
-        <v>294</v>
+        <v>215</v>
       </c>
       <c r="D62" t="s">
-        <v>295</v>
+        <v>216</v>
       </c>
       <c r="E62" t="s">
-        <v>329</v>
+        <v>217</v>
       </c>
       <c r="F62" t="s">
-        <v>330</v>
+        <v>257</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>148</v>
+        <v>282</v>
       </c>
       <c r="H62">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>20</v>
       </c>
       <c r="I62" s="3">
-        <f t="shared" si="10"/>
-        <v>45646</v>
+        <f t="shared" si="12"/>
+        <v>45645</v>
       </c>
       <c r="J62">
         <f t="shared" si="6"/>
@@ -4511,33 +5123,33 @@
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>400</v>
+        <v>317</v>
       </c>
       <c r="B63" t="s">
-        <v>401</v>
+        <v>318</v>
       </c>
       <c r="C63" t="s">
-        <v>402</v>
+        <v>319</v>
       </c>
       <c r="D63" t="s">
-        <v>403</v>
+        <v>320</v>
       </c>
       <c r="E63" t="s">
-        <v>404</v>
+        <v>325</v>
       </c>
       <c r="F63" t="s">
-        <v>414</v>
+        <v>326</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>441</v>
+        <v>144</v>
       </c>
       <c r="H63">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>20</v>
       </c>
       <c r="I63" s="3">
-        <f t="shared" si="10"/>
-        <v>45646</v>
+        <f t="shared" si="12"/>
+        <v>45645</v>
       </c>
       <c r="J63">
         <f t="shared" si="6"/>
@@ -4546,33 +5158,33 @@
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>232</v>
+        <v>155</v>
       </c>
       <c r="B64" t="s">
-        <v>233</v>
+        <v>156</v>
       </c>
       <c r="C64" t="s">
-        <v>234</v>
+        <v>157</v>
       </c>
       <c r="D64" t="s">
-        <v>235</v>
+        <v>158</v>
       </c>
       <c r="E64" t="s">
-        <v>236</v>
+        <v>159</v>
       </c>
       <c r="F64" t="s">
-        <v>261</v>
+        <v>190</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>148</v>
+        <v>192</v>
       </c>
       <c r="H64">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>20</v>
       </c>
       <c r="I64" s="3">
-        <f t="shared" si="10"/>
-        <v>45646</v>
+        <f t="shared" si="12"/>
+        <v>45645</v>
       </c>
       <c r="J64">
         <f t="shared" si="6"/>
@@ -4581,33 +5193,33 @@
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>325</v>
+        <v>392</v>
       </c>
       <c r="B65" t="s">
-        <v>326</v>
+        <v>393</v>
       </c>
       <c r="C65" t="s">
-        <v>327</v>
+        <v>394</v>
       </c>
       <c r="D65" t="s">
-        <v>328</v>
+        <v>395</v>
       </c>
       <c r="E65" t="s">
-        <v>329</v>
+        <v>431</v>
       </c>
       <c r="F65" t="s">
-        <v>330</v>
+        <v>411</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>148</v>
+        <v>282</v>
       </c>
       <c r="H65">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>21</v>
       </c>
       <c r="I65" s="3">
-        <f t="shared" si="10"/>
-        <v>45647</v>
+        <f t="shared" si="12"/>
+        <v>45646</v>
       </c>
       <c r="J65">
         <f t="shared" si="6"/>
@@ -4616,33 +5228,33 @@
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>169</v>
+        <v>414</v>
       </c>
       <c r="B66" t="s">
-        <v>170</v>
+        <v>415</v>
       </c>
       <c r="C66" t="s">
-        <v>171</v>
+        <v>416</v>
       </c>
       <c r="D66" t="s">
-        <v>172</v>
+        <v>417</v>
       </c>
       <c r="E66" t="s">
-        <v>173</v>
+        <v>418</v>
       </c>
       <c r="F66" t="s">
-        <v>194</v>
+        <v>411</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>153</v>
+        <v>441</v>
       </c>
       <c r="H66">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>21</v>
       </c>
       <c r="I66" s="3">
-        <f t="shared" si="10"/>
-        <v>45647</v>
+        <f t="shared" si="12"/>
+        <v>45646</v>
       </c>
       <c r="J66">
         <f t="shared" si="6"/>
@@ -4651,33 +5263,30 @@
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>179</v>
+        <v>476</v>
       </c>
       <c r="B67" t="s">
-        <v>180</v>
+        <v>477</v>
       </c>
       <c r="C67" t="s">
-        <v>181</v>
+        <v>216</v>
       </c>
       <c r="D67" t="s">
-        <v>182</v>
+        <v>478</v>
       </c>
       <c r="E67" t="s">
-        <v>183</v>
+        <v>479</v>
       </c>
       <c r="F67" t="s">
-        <v>194</v>
-      </c>
-      <c r="G67" s="1" t="s">
-        <v>148</v>
+        <v>645</v>
       </c>
       <c r="H67">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>21</v>
       </c>
       <c r="I67" s="3">
-        <f t="shared" si="10"/>
-        <v>45647</v>
+        <f t="shared" si="12"/>
+        <v>45646</v>
       </c>
       <c r="J67">
         <f t="shared" si="6"/>
@@ -4686,33 +5295,33 @@
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>208</v>
+        <v>252</v>
       </c>
       <c r="B68" t="s">
-        <v>209</v>
+        <v>253</v>
       </c>
       <c r="C68" t="s">
-        <v>210</v>
+        <v>254</v>
       </c>
       <c r="D68" t="s">
-        <v>211</v>
+        <v>255</v>
       </c>
       <c r="E68" t="s">
-        <v>212</v>
+        <v>256</v>
       </c>
       <c r="F68" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H68">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>22</v>
       </c>
       <c r="I68" s="3">
-        <f t="shared" si="10"/>
-        <v>45648</v>
+        <f t="shared" si="12"/>
+        <v>45647</v>
       </c>
       <c r="J68">
         <f t="shared" si="6"/>
@@ -4721,33 +5330,30 @@
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>313</v>
+        <v>220</v>
       </c>
       <c r="B69" t="s">
-        <v>314</v>
+        <v>607</v>
       </c>
       <c r="C69" t="s">
-        <v>315</v>
+        <v>608</v>
       </c>
       <c r="D69" t="s">
-        <v>316</v>
+        <v>609</v>
       </c>
       <c r="E69" t="s">
-        <v>329</v>
+        <v>646</v>
       </c>
       <c r="F69" t="s">
-        <v>330</v>
-      </c>
-      <c r="G69" s="1" t="s">
-        <v>148</v>
+        <v>645</v>
       </c>
       <c r="H69">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>22</v>
       </c>
       <c r="I69" s="3">
-        <f t="shared" si="10"/>
-        <v>45648</v>
+        <f t="shared" si="12"/>
+        <v>45647</v>
       </c>
       <c r="J69">
         <f t="shared" si="6"/>
@@ -4756,33 +5362,30 @@
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>405</v>
+        <v>610</v>
       </c>
       <c r="B70" t="s">
-        <v>406</v>
+        <v>611</v>
       </c>
       <c r="C70" t="s">
-        <v>407</v>
+        <v>612</v>
       </c>
       <c r="D70" t="s">
-        <v>408</v>
+        <v>613</v>
       </c>
       <c r="E70" t="s">
-        <v>409</v>
+        <v>614</v>
       </c>
       <c r="F70" t="s">
-        <v>414</v>
-      </c>
-      <c r="G70" s="1" t="s">
-        <v>286</v>
+        <v>645</v>
       </c>
       <c r="H70">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>22</v>
       </c>
       <c r="I70" s="3">
-        <f t="shared" si="10"/>
-        <v>45648</v>
+        <f t="shared" si="12"/>
+        <v>45647</v>
       </c>
       <c r="J70">
         <f t="shared" si="6"/>
@@ -4791,33 +5394,33 @@
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>30</v>
+        <v>427</v>
       </c>
       <c r="B71" t="s">
-        <v>31</v>
+        <v>428</v>
       </c>
       <c r="C71" t="s">
-        <v>32</v>
+        <v>429</v>
       </c>
       <c r="D71" t="s">
-        <v>33</v>
+        <v>430</v>
       </c>
       <c r="E71" t="s">
-        <v>34</v>
-      </c>
-      <c r="F71" s="1" t="s">
-        <v>352</v>
+        <v>437</v>
+      </c>
+      <c r="F71" t="s">
+        <v>411</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>54</v>
+        <v>282</v>
       </c>
       <c r="H71">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>23</v>
       </c>
       <c r="I71" s="3">
-        <f t="shared" si="10"/>
-        <v>45649</v>
+        <f t="shared" si="12"/>
+        <v>45648</v>
       </c>
       <c r="J71">
         <f t="shared" si="6"/>
@@ -4826,33 +5429,33 @@
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>189</v>
+        <v>285</v>
       </c>
       <c r="B72" t="s">
-        <v>190</v>
+        <v>286</v>
       </c>
       <c r="C72" t="s">
-        <v>191</v>
+        <v>287</v>
       </c>
       <c r="D72" t="s">
-        <v>192</v>
+        <v>288</v>
       </c>
       <c r="E72" t="s">
-        <v>193</v>
+        <v>325</v>
       </c>
       <c r="F72" t="s">
-        <v>194</v>
+        <v>326</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>195</v>
+        <v>144</v>
       </c>
       <c r="H72">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>23</v>
       </c>
       <c r="I72" s="3">
-        <f t="shared" si="10"/>
-        <v>45649</v>
+        <f t="shared" si="12"/>
+        <v>45648</v>
       </c>
       <c r="J72">
         <f t="shared" si="6"/>
@@ -4861,33 +5464,33 @@
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>56</v>
+        <v>300</v>
       </c>
       <c r="B73" t="s">
-        <v>57</v>
+        <v>301</v>
       </c>
       <c r="C73" t="s">
-        <v>58</v>
+        <v>302</v>
       </c>
       <c r="D73" t="s">
-        <v>59</v>
+        <v>303</v>
       </c>
       <c r="E73" t="s">
-        <v>60</v>
-      </c>
-      <c r="F73" s="1" t="s">
-        <v>93</v>
+        <v>304</v>
+      </c>
+      <c r="F73" t="s">
+        <v>326</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>94</v>
+        <v>49</v>
       </c>
       <c r="H73">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>23</v>
       </c>
       <c r="I73" s="3">
-        <f t="shared" si="10"/>
-        <v>45649</v>
+        <f t="shared" si="12"/>
+        <v>45648</v>
       </c>
       <c r="J73">
         <f t="shared" si="6"/>
@@ -4896,33 +5499,33 @@
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>237</v>
+        <v>296</v>
       </c>
       <c r="B74" t="s">
-        <v>238</v>
+        <v>297</v>
       </c>
       <c r="C74" t="s">
-        <v>239</v>
+        <v>298</v>
       </c>
       <c r="D74" t="s">
-        <v>240</v>
+        <v>299</v>
       </c>
       <c r="E74" t="s">
-        <v>241</v>
+        <v>325</v>
       </c>
       <c r="F74" t="s">
-        <v>261</v>
+        <v>326</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>288</v>
+        <v>144</v>
       </c>
       <c r="H74">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>24</v>
       </c>
       <c r="I74" s="3">
-        <f t="shared" si="10"/>
-        <v>45650</v>
+        <f t="shared" si="12"/>
+        <v>45649</v>
       </c>
       <c r="J74">
         <f t="shared" si="6"/>
@@ -4931,33 +5534,30 @@
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>184</v>
+        <v>505</v>
       </c>
       <c r="B75" t="s">
-        <v>185</v>
+        <v>506</v>
       </c>
       <c r="C75" t="s">
-        <v>186</v>
+        <v>657</v>
       </c>
       <c r="D75" t="s">
-        <v>187</v>
+        <v>658</v>
       </c>
       <c r="E75" t="s">
-        <v>188</v>
+        <v>659</v>
       </c>
       <c r="F75" t="s">
-        <v>194</v>
-      </c>
-      <c r="G75" s="1" t="s">
-        <v>195</v>
+        <v>645</v>
       </c>
       <c r="H75">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>24</v>
       </c>
       <c r="I75" s="3">
-        <f t="shared" si="10"/>
-        <v>45650</v>
+        <f t="shared" si="12"/>
+        <v>45649</v>
       </c>
       <c r="J75">
         <f t="shared" si="6"/>
@@ -4966,33 +5566,30 @@
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>410</v>
+        <v>507</v>
       </c>
       <c r="B76" t="s">
-        <v>411</v>
+        <v>508</v>
       </c>
       <c r="C76" t="s">
-        <v>412</v>
+        <v>311</v>
       </c>
       <c r="D76" t="s">
-        <v>413</v>
-      </c>
-      <c r="E76" s="7" t="s">
-        <v>437</v>
+        <v>660</v>
+      </c>
+      <c r="E76" t="s">
+        <v>509</v>
       </c>
       <c r="F76" t="s">
-        <v>414</v>
-      </c>
-      <c r="G76" s="1" t="s">
-        <v>95</v>
+        <v>645</v>
       </c>
       <c r="H76">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>24</v>
       </c>
       <c r="I76" s="3">
-        <f t="shared" si="10"/>
-        <v>45650</v>
+        <f t="shared" si="12"/>
+        <v>45649</v>
       </c>
       <c r="J76">
         <f t="shared" si="6"/>
@@ -5001,33 +5598,33 @@
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>281</v>
+        <v>327</v>
       </c>
       <c r="B77" t="s">
-        <v>282</v>
+        <v>328</v>
       </c>
       <c r="C77" t="s">
-        <v>283</v>
+        <v>329</v>
       </c>
       <c r="D77" t="s">
-        <v>284</v>
+        <v>330</v>
       </c>
       <c r="E77" t="s">
-        <v>285</v>
-      </c>
-      <c r="F77" s="1" t="s">
-        <v>93</v>
+        <v>331</v>
+      </c>
+      <c r="F77" t="s">
+        <v>326</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>12</v>
+        <v>144</v>
       </c>
       <c r="H77">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>25</v>
       </c>
       <c r="I77" s="3">
-        <f t="shared" si="10"/>
-        <v>45651</v>
+        <f t="shared" si="12"/>
+        <v>45650</v>
       </c>
       <c r="J77">
         <f t="shared" si="6"/>
@@ -5036,33 +5633,33 @@
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>247</v>
+        <v>52</v>
       </c>
       <c r="B78" t="s">
-        <v>248</v>
+        <v>289</v>
       </c>
       <c r="C78" t="s">
-        <v>249</v>
+        <v>290</v>
       </c>
       <c r="D78" t="s">
-        <v>250</v>
+        <v>291</v>
       </c>
       <c r="E78" t="s">
-        <v>251</v>
+        <v>325</v>
       </c>
       <c r="F78" t="s">
-        <v>261</v>
+        <v>326</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>12</v>
+        <v>144</v>
       </c>
       <c r="H78">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>25</v>
       </c>
       <c r="I78" s="3">
-        <f t="shared" si="10"/>
-        <v>45651</v>
+        <f t="shared" si="12"/>
+        <v>45650</v>
       </c>
       <c r="J78">
         <f t="shared" si="6"/>
@@ -5071,33 +5668,30 @@
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>317</v>
+        <v>466</v>
       </c>
       <c r="B79" t="s">
-        <v>318</v>
+        <v>467</v>
       </c>
       <c r="C79" t="s">
-        <v>319</v>
+        <v>468</v>
       </c>
       <c r="D79" t="s">
-        <v>320</v>
+        <v>469</v>
       </c>
       <c r="E79" t="s">
-        <v>329</v>
+        <v>470</v>
       </c>
       <c r="F79" t="s">
-        <v>330</v>
-      </c>
-      <c r="G79" s="1" t="s">
-        <v>148</v>
+        <v>645</v>
       </c>
       <c r="H79">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>25</v>
       </c>
       <c r="I79" s="3">
-        <f t="shared" si="10"/>
-        <v>45651</v>
+        <f t="shared" si="12"/>
+        <v>45650</v>
       </c>
       <c r="J79">
         <f t="shared" si="6"/>
@@ -5106,33 +5700,30 @@
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>372</v>
+        <v>471</v>
       </c>
       <c r="B80" t="s">
-        <v>373</v>
+        <v>472</v>
       </c>
       <c r="C80" t="s">
-        <v>296</v>
+        <v>473</v>
       </c>
       <c r="D80" t="s">
-        <v>297</v>
+        <v>474</v>
       </c>
       <c r="E80" t="s">
-        <v>329</v>
+        <v>475</v>
       </c>
       <c r="F80" t="s">
-        <v>330</v>
-      </c>
-      <c r="G80" s="1" t="s">
-        <v>148</v>
+        <v>645</v>
       </c>
       <c r="H80">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>26</v>
       </c>
       <c r="I80" s="3">
-        <f t="shared" si="10"/>
-        <v>45652</v>
+        <f t="shared" si="12"/>
+        <v>45651</v>
       </c>
       <c r="J80">
         <f t="shared" si="6"/>
@@ -5141,33 +5732,33 @@
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>414</v>
+        <v>396</v>
       </c>
       <c r="B81" t="s">
+        <v>397</v>
+      </c>
+      <c r="C81" t="s">
+        <v>398</v>
+      </c>
+      <c r="D81" t="s">
+        <v>399</v>
+      </c>
+      <c r="E81" t="s">
+        <v>400</v>
+      </c>
+      <c r="F81" t="s">
+        <v>411</v>
+      </c>
+      <c r="G81" s="1" t="s">
         <v>438</v>
       </c>
-      <c r="C81" t="s">
-        <v>415</v>
-      </c>
-      <c r="D81" t="s">
-        <v>416</v>
-      </c>
-      <c r="E81" t="s">
-        <v>443</v>
-      </c>
-      <c r="F81" t="s">
-        <v>414</v>
-      </c>
-      <c r="G81" s="1" t="s">
-        <v>442</v>
-      </c>
       <c r="H81">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>26</v>
       </c>
       <c r="I81" s="3">
-        <f t="shared" si="10"/>
-        <v>45652</v>
+        <f t="shared" si="12"/>
+        <v>45651</v>
       </c>
       <c r="J81">
         <f t="shared" si="6"/>
@@ -5176,33 +5767,33 @@
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>272</v>
+        <v>228</v>
       </c>
       <c r="B82" t="s">
-        <v>273</v>
+        <v>229</v>
       </c>
       <c r="C82" t="s">
-        <v>274</v>
+        <v>230</v>
       </c>
       <c r="D82" t="s">
-        <v>254</v>
+        <v>231</v>
       </c>
       <c r="E82" t="s">
-        <v>275</v>
-      </c>
-      <c r="F82" s="1" t="s">
-        <v>93</v>
+        <v>232</v>
+      </c>
+      <c r="F82" t="s">
+        <v>257</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="H82">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>26</v>
       </c>
       <c r="I82" s="3">
-        <f t="shared" si="10"/>
-        <v>45652</v>
+        <f t="shared" si="12"/>
+        <v>45651</v>
       </c>
       <c r="J82">
         <f t="shared" si="6"/>
@@ -5211,33 +5802,30 @@
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>213</v>
+        <v>495</v>
       </c>
       <c r="B83" t="s">
-        <v>252</v>
+        <v>496</v>
       </c>
       <c r="C83" t="s">
-        <v>253</v>
+        <v>497</v>
       </c>
       <c r="D83" t="s">
-        <v>254</v>
+        <v>498</v>
       </c>
       <c r="E83" t="s">
-        <v>255</v>
+        <v>499</v>
       </c>
       <c r="F83" t="s">
-        <v>261</v>
-      </c>
-      <c r="G83" s="1" t="s">
-        <v>151</v>
+        <v>645</v>
       </c>
       <c r="H83">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>27</v>
       </c>
       <c r="I83" s="3">
-        <f t="shared" si="10"/>
-        <v>45653</v>
+        <f t="shared" si="12"/>
+        <v>45652</v>
       </c>
       <c r="J83">
         <f t="shared" si="6"/>
@@ -5246,33 +5834,30 @@
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>298</v>
+        <v>500</v>
       </c>
       <c r="B84" t="s">
-        <v>374</v>
+        <v>501</v>
       </c>
       <c r="C84" t="s">
-        <v>299</v>
+        <v>502</v>
       </c>
       <c r="D84" t="s">
-        <v>375</v>
+        <v>503</v>
       </c>
       <c r="E84" t="s">
-        <v>329</v>
+        <v>504</v>
       </c>
       <c r="F84" t="s">
-        <v>330</v>
-      </c>
-      <c r="G84" s="1" t="s">
-        <v>148</v>
+        <v>645</v>
       </c>
       <c r="H84">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>27</v>
       </c>
       <c r="I84" s="3">
-        <f t="shared" si="10"/>
-        <v>45653</v>
+        <f t="shared" si="12"/>
+        <v>45652</v>
       </c>
       <c r="J84">
         <f t="shared" si="6"/>
@@ -5281,33 +5866,33 @@
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>309</v>
+        <v>321</v>
       </c>
       <c r="B85" t="s">
-        <v>310</v>
+        <v>322</v>
       </c>
       <c r="C85" t="s">
-        <v>311</v>
+        <v>323</v>
       </c>
       <c r="D85" t="s">
-        <v>312</v>
+        <v>324</v>
       </c>
       <c r="E85" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="F85" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="H85">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>27</v>
       </c>
       <c r="I85" s="3">
-        <f t="shared" si="10"/>
-        <v>45653</v>
+        <f t="shared" si="12"/>
+        <v>45652</v>
       </c>
       <c r="J85">
         <f t="shared" si="6"/>
@@ -5316,33 +5901,33 @@
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>227</v>
+        <v>165</v>
       </c>
       <c r="B86" t="s">
-        <v>228</v>
+        <v>166</v>
       </c>
       <c r="C86" t="s">
-        <v>229</v>
+        <v>167</v>
       </c>
       <c r="D86" t="s">
-        <v>230</v>
+        <v>168</v>
       </c>
       <c r="E86" t="s">
-        <v>231</v>
+        <v>169</v>
       </c>
       <c r="F86" t="s">
-        <v>261</v>
+        <v>190</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>12</v>
+        <v>149</v>
       </c>
       <c r="H86">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>28</v>
       </c>
       <c r="I86" s="3">
-        <f t="shared" si="10"/>
-        <v>45654</v>
+        <f t="shared" si="12"/>
+        <v>45653</v>
       </c>
       <c r="J86">
         <f t="shared" si="6"/>
@@ -5351,33 +5936,30 @@
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>154</v>
+        <v>510</v>
       </c>
       <c r="B87" t="s">
-        <v>155</v>
+        <v>511</v>
       </c>
       <c r="C87" t="s">
-        <v>156</v>
+        <v>512</v>
       </c>
       <c r="D87" t="s">
-        <v>157</v>
+        <v>513</v>
       </c>
       <c r="E87" t="s">
-        <v>158</v>
+        <v>514</v>
       </c>
       <c r="F87" t="s">
-        <v>194</v>
-      </c>
-      <c r="G87" s="1" t="s">
-        <v>195</v>
+        <v>645</v>
       </c>
       <c r="H87">
-        <f t="shared" ref="H87:H88" si="11">INT(J87/3)</f>
+        <f t="shared" si="11"/>
         <v>28</v>
       </c>
       <c r="I87" s="3">
-        <f t="shared" ref="I87:I88" si="12">$L$1+H87</f>
-        <v>45654</v>
+        <f t="shared" si="12"/>
+        <v>45653</v>
       </c>
       <c r="J87">
         <f t="shared" si="6"/>
@@ -5386,25 +5968,22 @@
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>76</v>
+        <v>515</v>
       </c>
       <c r="B88" t="s">
-        <v>77</v>
+        <v>516</v>
       </c>
       <c r="C88" t="s">
-        <v>78</v>
+        <v>517</v>
       </c>
       <c r="D88" t="s">
-        <v>79</v>
+        <v>518</v>
       </c>
       <c r="E88" t="s">
-        <v>80</v>
-      </c>
-      <c r="F88" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="G88" s="1" t="s">
-        <v>95</v>
+        <v>519</v>
+      </c>
+      <c r="F88" t="s">
+        <v>645</v>
       </c>
       <c r="H88">
         <f t="shared" si="11"/>
@@ -5412,28 +5991,1605 @@
       </c>
       <c r="I88" s="3">
         <f t="shared" si="12"/>
+        <v>45653</v>
+      </c>
+      <c r="J88">
+        <f t="shared" si="6"/>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>520</v>
+      </c>
+      <c r="B89" t="s">
+        <v>521</v>
+      </c>
+      <c r="C89" t="s">
+        <v>522</v>
+      </c>
+      <c r="D89" t="s">
+        <v>523</v>
+      </c>
+      <c r="E89" t="s">
+        <v>524</v>
+      </c>
+      <c r="F89" t="s">
+        <v>645</v>
+      </c>
+      <c r="H89">
+        <f t="shared" si="11"/>
+        <v>29</v>
+      </c>
+      <c r="I89" s="3">
+        <f t="shared" si="12"/>
         <v>45654</v>
       </c>
-      <c r="J88">
-        <f t="shared" ref="J88" si="13">J87+1</f>
-        <v>86</v>
-      </c>
-    </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="F89" s="1"/>
-      <c r="G89" s="1"/>
-      <c r="I89" s="3"/>
+      <c r="J89">
+        <f t="shared" si="6"/>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>175</v>
+      </c>
+      <c r="B90" t="s">
+        <v>176</v>
+      </c>
+      <c r="C90" t="s">
+        <v>177</v>
+      </c>
+      <c r="D90" t="s">
+        <v>178</v>
+      </c>
+      <c r="E90" t="s">
+        <v>179</v>
+      </c>
+      <c r="F90" t="s">
+        <v>190</v>
+      </c>
+      <c r="G90" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="H90">
+        <f t="shared" si="11"/>
+        <v>29</v>
+      </c>
+      <c r="I90" s="3">
+        <f t="shared" si="12"/>
+        <v>45654</v>
+      </c>
+      <c r="J90">
+        <f t="shared" si="6"/>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>204</v>
+      </c>
+      <c r="B91" t="s">
+        <v>205</v>
+      </c>
+      <c r="C91" t="s">
+        <v>206</v>
+      </c>
+      <c r="D91" t="s">
+        <v>207</v>
+      </c>
+      <c r="E91" t="s">
+        <v>208</v>
+      </c>
+      <c r="F91" t="s">
+        <v>257</v>
+      </c>
+      <c r="G91" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="H91">
+        <f t="shared" si="11"/>
+        <v>29</v>
+      </c>
+      <c r="I91" s="3">
+        <f t="shared" si="12"/>
+        <v>45654</v>
+      </c>
+      <c r="J91">
+        <f t="shared" si="6"/>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>309</v>
+      </c>
+      <c r="B92" t="s">
+        <v>310</v>
+      </c>
+      <c r="C92" t="s">
+        <v>311</v>
+      </c>
+      <c r="D92" t="s">
+        <v>312</v>
+      </c>
+      <c r="E92" t="s">
+        <v>325</v>
+      </c>
+      <c r="F92" t="s">
+        <v>326</v>
+      </c>
+      <c r="G92" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="H92">
+        <f t="shared" si="11"/>
+        <v>30</v>
+      </c>
+      <c r="I92" s="3">
+        <f t="shared" si="12"/>
+        <v>45655</v>
+      </c>
+      <c r="J92">
+        <f t="shared" ref="J92:J135" si="13">J91+1</f>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>593</v>
+      </c>
+      <c r="B93" t="s">
+        <v>594</v>
+      </c>
+      <c r="C93" t="s">
+        <v>568</v>
+      </c>
+      <c r="D93" t="s">
+        <v>548</v>
+      </c>
+      <c r="E93" t="s">
+        <v>168</v>
+      </c>
+      <c r="F93" t="s">
+        <v>645</v>
+      </c>
+      <c r="H93">
+        <f t="shared" si="11"/>
+        <v>30</v>
+      </c>
+      <c r="I93" s="3">
+        <f t="shared" si="12"/>
+        <v>45655</v>
+      </c>
+      <c r="J93">
+        <f t="shared" si="13"/>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>168</v>
+      </c>
+      <c r="B94" t="s">
+        <v>548</v>
+      </c>
+      <c r="C94" t="s">
+        <v>595</v>
+      </c>
+      <c r="D94" t="s">
+        <v>596</v>
+      </c>
+      <c r="E94" t="s">
+        <v>597</v>
+      </c>
+      <c r="F94" t="s">
+        <v>645</v>
+      </c>
+      <c r="H94">
+        <f t="shared" ref="H94:H135" si="14">INT(J94/3)</f>
+        <v>30</v>
+      </c>
+      <c r="I94" s="3">
+        <f t="shared" ref="I94:I135" si="15">$L$1+H94</f>
+        <v>45655</v>
+      </c>
+      <c r="J94">
+        <f t="shared" si="13"/>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>598</v>
+      </c>
+      <c r="B95" t="s">
+        <v>599</v>
+      </c>
+      <c r="C95" t="s">
+        <v>600</v>
+      </c>
+      <c r="D95" t="s">
+        <v>157</v>
+      </c>
+      <c r="E95" t="s">
+        <v>601</v>
+      </c>
+      <c r="F95" t="s">
+        <v>645</v>
+      </c>
+      <c r="H95">
+        <f t="shared" si="14"/>
+        <v>31</v>
+      </c>
+      <c r="I95" s="3">
+        <f t="shared" si="15"/>
+        <v>45656</v>
+      </c>
+      <c r="J95">
+        <f t="shared" si="13"/>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>402</v>
+      </c>
+      <c r="B96" t="s">
+        <v>403</v>
+      </c>
+      <c r="C96" t="s">
+        <v>404</v>
+      </c>
+      <c r="D96" t="s">
+        <v>405</v>
+      </c>
+      <c r="E96" t="s">
+        <v>406</v>
+      </c>
+      <c r="F96" t="s">
+        <v>411</v>
+      </c>
+      <c r="G96" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="H96">
+        <f t="shared" si="14"/>
+        <v>31</v>
+      </c>
+      <c r="I96" s="3">
+        <f t="shared" si="15"/>
+        <v>45656</v>
+      </c>
+      <c r="J96">
+        <f t="shared" si="13"/>
+        <v>94</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>26</v>
+      </c>
+      <c r="B97" t="s">
+        <v>27</v>
+      </c>
+      <c r="C97" t="s">
+        <v>28</v>
+      </c>
+      <c r="D97" t="s">
+        <v>29</v>
+      </c>
+      <c r="E97" t="s">
+        <v>30</v>
+      </c>
+      <c r="F97" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="G97" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H97">
+        <f t="shared" si="14"/>
+        <v>31</v>
+      </c>
+      <c r="I97" s="3">
+        <f t="shared" si="15"/>
+        <v>45656</v>
+      </c>
+      <c r="J97">
+        <f t="shared" si="13"/>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>68</v>
+      </c>
+      <c r="B98" t="s">
+        <v>69</v>
+      </c>
+      <c r="C98" t="s">
+        <v>70</v>
+      </c>
+      <c r="D98" t="s">
+        <v>374</v>
+      </c>
+      <c r="E98" t="s">
+        <v>71</v>
+      </c>
+      <c r="F98" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G98" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H98">
+        <f t="shared" si="14"/>
+        <v>32</v>
+      </c>
+      <c r="I98" s="3">
+        <f t="shared" si="15"/>
+        <v>45657</v>
+      </c>
+      <c r="J98">
+        <f t="shared" si="13"/>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>421</v>
+      </c>
+      <c r="B99" t="s">
+        <v>561</v>
+      </c>
+      <c r="C99" t="s">
+        <v>420</v>
+      </c>
+      <c r="D99" t="s">
+        <v>422</v>
+      </c>
+      <c r="E99" t="s">
+        <v>562</v>
+      </c>
+      <c r="F99" t="s">
+        <v>645</v>
+      </c>
+      <c r="H99">
+        <f t="shared" si="14"/>
+        <v>32</v>
+      </c>
+      <c r="I99" s="3">
+        <f t="shared" si="15"/>
+        <v>45657</v>
+      </c>
+      <c r="J99">
+        <f t="shared" si="13"/>
+        <v>97</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>563</v>
+      </c>
+      <c r="B100" t="s">
+        <v>564</v>
+      </c>
+      <c r="C100" t="s">
+        <v>565</v>
+      </c>
+      <c r="D100" t="s">
+        <v>566</v>
+      </c>
+      <c r="E100" t="s">
+        <v>567</v>
+      </c>
+      <c r="F100" t="s">
+        <v>645</v>
+      </c>
+      <c r="H100">
+        <f t="shared" si="14"/>
+        <v>32</v>
+      </c>
+      <c r="I100" s="3">
+        <f t="shared" si="15"/>
+        <v>45657</v>
+      </c>
+      <c r="J100">
+        <f t="shared" si="13"/>
+        <v>98</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>495</v>
+      </c>
+      <c r="B101" t="s">
+        <v>401</v>
+      </c>
+      <c r="C101" t="s">
+        <v>568</v>
+      </c>
+      <c r="D101" t="s">
+        <v>569</v>
+      </c>
+      <c r="E101" t="s">
+        <v>570</v>
+      </c>
+      <c r="F101" t="s">
+        <v>645</v>
+      </c>
+      <c r="H101">
+        <f t="shared" si="14"/>
+        <v>33</v>
+      </c>
+      <c r="I101" s="3">
+        <f t="shared" si="15"/>
+        <v>45658</v>
+      </c>
+      <c r="J101">
+        <f t="shared" si="13"/>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>571</v>
+      </c>
+      <c r="B102" t="s">
+        <v>572</v>
+      </c>
+      <c r="C102" t="s">
+        <v>573</v>
+      </c>
+      <c r="D102" t="s">
+        <v>574</v>
+      </c>
+      <c r="E102" t="s">
+        <v>575</v>
+      </c>
+      <c r="F102" t="s">
+        <v>645</v>
+      </c>
+      <c r="H102">
+        <f t="shared" si="14"/>
+        <v>33</v>
+      </c>
+      <c r="I102" s="3">
+        <f t="shared" si="15"/>
+        <v>45658</v>
+      </c>
+      <c r="J102">
+        <f t="shared" si="13"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>576</v>
+      </c>
+      <c r="B103" t="s">
+        <v>577</v>
+      </c>
+      <c r="C103" t="s">
+        <v>578</v>
+      </c>
+      <c r="D103" t="s">
+        <v>579</v>
+      </c>
+      <c r="E103" t="s">
+        <v>580</v>
+      </c>
+      <c r="F103" t="s">
+        <v>645</v>
+      </c>
+      <c r="H103">
+        <f t="shared" si="14"/>
+        <v>33</v>
+      </c>
+      <c r="I103" s="3">
+        <f t="shared" si="15"/>
+        <v>45658</v>
+      </c>
+      <c r="J103">
+        <f t="shared" si="13"/>
+        <v>101</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>185</v>
+      </c>
+      <c r="B104" t="s">
+        <v>186</v>
+      </c>
+      <c r="C104" t="s">
+        <v>187</v>
+      </c>
+      <c r="D104" t="s">
+        <v>188</v>
+      </c>
+      <c r="E104" t="s">
+        <v>189</v>
+      </c>
+      <c r="F104" t="s">
+        <v>190</v>
+      </c>
+      <c r="G104" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="H104">
+        <f t="shared" si="14"/>
+        <v>34</v>
+      </c>
+      <c r="I104" s="3">
+        <f t="shared" si="15"/>
+        <v>45659</v>
+      </c>
+      <c r="J104">
+        <f t="shared" si="13"/>
+        <v>102</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>52</v>
+      </c>
+      <c r="B105" t="s">
+        <v>53</v>
+      </c>
+      <c r="C105" t="s">
+        <v>54</v>
+      </c>
+      <c r="D105" t="s">
+        <v>55</v>
+      </c>
+      <c r="E105" t="s">
+        <v>56</v>
+      </c>
+      <c r="F105" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G105" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="H105">
+        <f t="shared" si="14"/>
+        <v>34</v>
+      </c>
+      <c r="I105" s="3">
+        <f t="shared" si="15"/>
+        <v>45659</v>
+      </c>
+      <c r="J105">
+        <f t="shared" si="13"/>
+        <v>103</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>233</v>
+      </c>
+      <c r="B106" t="s">
+        <v>234</v>
+      </c>
+      <c r="C106" t="s">
+        <v>235</v>
+      </c>
+      <c r="D106" t="s">
+        <v>236</v>
+      </c>
+      <c r="E106" t="s">
+        <v>237</v>
+      </c>
+      <c r="F106" t="s">
+        <v>257</v>
+      </c>
+      <c r="G106" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="H106">
+        <f t="shared" si="14"/>
+        <v>34</v>
+      </c>
+      <c r="I106" s="3">
+        <f t="shared" si="15"/>
+        <v>45659</v>
+      </c>
+      <c r="J106">
+        <f t="shared" si="13"/>
+        <v>104</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>180</v>
+      </c>
+      <c r="B107" t="s">
+        <v>181</v>
+      </c>
+      <c r="C107" t="s">
+        <v>182</v>
+      </c>
+      <c r="D107" t="s">
+        <v>183</v>
+      </c>
+      <c r="E107" t="s">
+        <v>184</v>
+      </c>
+      <c r="F107" t="s">
+        <v>190</v>
+      </c>
+      <c r="G107" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="H107">
+        <f t="shared" si="14"/>
+        <v>35</v>
+      </c>
+      <c r="I107" s="3">
+        <f t="shared" si="15"/>
+        <v>45660</v>
+      </c>
+      <c r="J107">
+        <f t="shared" si="13"/>
+        <v>105</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>635</v>
+      </c>
+      <c r="B108" t="s">
+        <v>636</v>
+      </c>
+      <c r="C108" t="s">
+        <v>637</v>
+      </c>
+      <c r="D108" t="s">
+        <v>638</v>
+      </c>
+      <c r="E108" t="s">
+        <v>639</v>
+      </c>
+      <c r="F108" t="s">
+        <v>645</v>
+      </c>
+      <c r="H108">
+        <f t="shared" si="14"/>
+        <v>35</v>
+      </c>
+      <c r="I108" s="3">
+        <f t="shared" si="15"/>
+        <v>45660</v>
+      </c>
+      <c r="J108">
+        <f t="shared" si="13"/>
+        <v>106</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>543</v>
+      </c>
+      <c r="B109" t="s">
+        <v>478</v>
+      </c>
+      <c r="C109" t="s">
+        <v>544</v>
+      </c>
+      <c r="D109" t="s">
+        <v>545</v>
+      </c>
+      <c r="E109" t="s">
+        <v>546</v>
+      </c>
+      <c r="F109" t="s">
+        <v>645</v>
+      </c>
+      <c r="H109">
+        <f t="shared" si="14"/>
+        <v>35</v>
+      </c>
+      <c r="I109" s="3">
+        <f t="shared" si="15"/>
+        <v>45660</v>
+      </c>
+      <c r="J109">
+        <f t="shared" si="13"/>
+        <v>107</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>640</v>
+      </c>
+      <c r="B110" t="s">
+        <v>641</v>
+      </c>
+      <c r="C110" t="s">
+        <v>642</v>
+      </c>
+      <c r="D110" t="s">
+        <v>643</v>
+      </c>
+      <c r="E110" t="s">
+        <v>644</v>
+      </c>
+      <c r="F110" t="s">
+        <v>645</v>
+      </c>
+      <c r="H110">
+        <f t="shared" si="14"/>
+        <v>36</v>
+      </c>
+      <c r="I110" s="3">
+        <f t="shared" si="15"/>
+        <v>45661</v>
+      </c>
+      <c r="J110">
+        <f t="shared" si="13"/>
+        <v>108</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>407</v>
+      </c>
+      <c r="B111" t="s">
+        <v>408</v>
+      </c>
+      <c r="C111" t="s">
+        <v>409</v>
+      </c>
+      <c r="D111" t="s">
+        <v>410</v>
+      </c>
+      <c r="E111" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="F111" t="s">
+        <v>411</v>
+      </c>
+      <c r="G111" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="H111">
+        <f t="shared" si="14"/>
+        <v>36</v>
+      </c>
+      <c r="I111" s="3">
+        <f t="shared" si="15"/>
+        <v>45661</v>
+      </c>
+      <c r="J111">
+        <f t="shared" si="13"/>
+        <v>109</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>581</v>
+      </c>
+      <c r="B112" t="s">
+        <v>582</v>
+      </c>
+      <c r="C112" t="s">
+        <v>422</v>
+      </c>
+      <c r="D112" t="s">
+        <v>583</v>
+      </c>
+      <c r="E112" t="s">
+        <v>663</v>
+      </c>
+      <c r="F112" t="s">
+        <v>645</v>
+      </c>
+      <c r="H112">
+        <f t="shared" si="14"/>
+        <v>36</v>
+      </c>
+      <c r="I112" s="3">
+        <f t="shared" si="15"/>
+        <v>45661</v>
+      </c>
+      <c r="J112">
+        <f t="shared" si="13"/>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>584</v>
+      </c>
+      <c r="B113" t="s">
+        <v>585</v>
+      </c>
+      <c r="C113" t="s">
+        <v>586</v>
+      </c>
+      <c r="D113" t="s">
+        <v>587</v>
+      </c>
+      <c r="E113" t="s">
+        <v>588</v>
+      </c>
+      <c r="F113" t="s">
+        <v>645</v>
+      </c>
+      <c r="H113">
+        <f t="shared" si="14"/>
+        <v>37</v>
+      </c>
+      <c r="I113" s="3">
+        <f t="shared" si="15"/>
+        <v>45662</v>
+      </c>
+      <c r="J113">
+        <f t="shared" si="13"/>
+        <v>111</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>589</v>
+      </c>
+      <c r="B114" t="s">
+        <v>590</v>
+      </c>
+      <c r="C114" t="s">
+        <v>591</v>
+      </c>
+      <c r="D114" t="s">
+        <v>592</v>
+      </c>
+      <c r="E114" t="s">
+        <v>662</v>
+      </c>
+      <c r="F114" t="s">
+        <v>645</v>
+      </c>
+      <c r="H114">
+        <f t="shared" si="14"/>
+        <v>37</v>
+      </c>
+      <c r="I114" s="3">
+        <f t="shared" si="15"/>
+        <v>45662</v>
+      </c>
+      <c r="J114">
+        <f t="shared" si="13"/>
+        <v>112</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>277</v>
+      </c>
+      <c r="B115" t="s">
+        <v>278</v>
+      </c>
+      <c r="C115" t="s">
+        <v>279</v>
+      </c>
+      <c r="D115" t="s">
+        <v>280</v>
+      </c>
+      <c r="E115" t="s">
+        <v>281</v>
+      </c>
+      <c r="F115" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G115" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H115">
+        <f t="shared" si="14"/>
+        <v>37</v>
+      </c>
+      <c r="I115" s="3">
+        <f t="shared" si="15"/>
+        <v>45662</v>
+      </c>
+      <c r="J115">
+        <f t="shared" si="13"/>
+        <v>113</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>243</v>
+      </c>
+      <c r="B116" t="s">
+        <v>244</v>
+      </c>
+      <c r="C116" t="s">
+        <v>245</v>
+      </c>
+      <c r="D116" t="s">
+        <v>246</v>
+      </c>
+      <c r="E116" t="s">
+        <v>247</v>
+      </c>
+      <c r="F116" t="s">
+        <v>257</v>
+      </c>
+      <c r="G116" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H116">
+        <f t="shared" si="14"/>
+        <v>38</v>
+      </c>
+      <c r="I116" s="3">
+        <f t="shared" si="15"/>
+        <v>45663</v>
+      </c>
+      <c r="J116">
+        <f t="shared" si="13"/>
+        <v>114</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>313</v>
+      </c>
+      <c r="B117" t="s">
+        <v>314</v>
+      </c>
+      <c r="C117" t="s">
+        <v>315</v>
+      </c>
+      <c r="D117" t="s">
+        <v>316</v>
+      </c>
+      <c r="E117" t="s">
+        <v>325</v>
+      </c>
+      <c r="F117" t="s">
+        <v>326</v>
+      </c>
+      <c r="G117" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="H117">
+        <f t="shared" si="14"/>
+        <v>38</v>
+      </c>
+      <c r="I117" s="3">
+        <f t="shared" si="15"/>
+        <v>45663</v>
+      </c>
+      <c r="J117">
+        <f t="shared" si="13"/>
+        <v>115</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>620</v>
+      </c>
+      <c r="B118" t="s">
+        <v>621</v>
+      </c>
+      <c r="C118" t="s">
+        <v>622</v>
+      </c>
+      <c r="D118" t="s">
+        <v>623</v>
+      </c>
+      <c r="E118" t="s">
+        <v>624</v>
+      </c>
+      <c r="F118" t="s">
+        <v>645</v>
+      </c>
+      <c r="H118">
+        <f t="shared" si="14"/>
+        <v>38</v>
+      </c>
+      <c r="I118" s="3">
+        <f t="shared" si="15"/>
+        <v>45663</v>
+      </c>
+      <c r="J118">
+        <f t="shared" si="13"/>
+        <v>116</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>625</v>
+      </c>
+      <c r="B119" t="s">
+        <v>626</v>
+      </c>
+      <c r="C119" t="s">
+        <v>627</v>
+      </c>
+      <c r="D119" t="s">
+        <v>628</v>
+      </c>
+      <c r="E119" t="s">
+        <v>629</v>
+      </c>
+      <c r="F119" t="s">
+        <v>645</v>
+      </c>
+      <c r="H119">
+        <f t="shared" si="14"/>
+        <v>39</v>
+      </c>
+      <c r="I119" s="3">
+        <f t="shared" si="15"/>
+        <v>45664</v>
+      </c>
+      <c r="J119">
+        <f t="shared" si="13"/>
+        <v>117</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>368</v>
+      </c>
+      <c r="B120" t="s">
+        <v>369</v>
+      </c>
+      <c r="C120" t="s">
+        <v>292</v>
+      </c>
+      <c r="D120" t="s">
+        <v>293</v>
+      </c>
+      <c r="E120" t="s">
+        <v>325</v>
+      </c>
+      <c r="F120" t="s">
+        <v>326</v>
+      </c>
+      <c r="G120" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="H120">
+        <f t="shared" si="14"/>
+        <v>39</v>
+      </c>
+      <c r="I120" s="3">
+        <f t="shared" si="15"/>
+        <v>45664</v>
+      </c>
+      <c r="J120">
+        <f t="shared" si="13"/>
+        <v>118</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>411</v>
+      </c>
+      <c r="B121" t="s">
+        <v>435</v>
+      </c>
+      <c r="C121" t="s">
+        <v>412</v>
+      </c>
+      <c r="D121" t="s">
+        <v>413</v>
+      </c>
+      <c r="E121" t="s">
+        <v>440</v>
+      </c>
+      <c r="F121" t="s">
+        <v>411</v>
+      </c>
+      <c r="G121" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="H121">
+        <f t="shared" si="14"/>
+        <v>39</v>
+      </c>
+      <c r="I121" s="3">
+        <f t="shared" si="15"/>
+        <v>45664</v>
+      </c>
+      <c r="J121">
+        <f t="shared" si="13"/>
+        <v>119</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>268</v>
+      </c>
+      <c r="B122" t="s">
+        <v>269</v>
+      </c>
+      <c r="C122" t="s">
+        <v>270</v>
+      </c>
+      <c r="D122" t="s">
+        <v>250</v>
+      </c>
+      <c r="E122" t="s">
+        <v>271</v>
+      </c>
+      <c r="F122" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G122" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="H122">
+        <f t="shared" si="14"/>
+        <v>40</v>
+      </c>
+      <c r="I122" s="3">
+        <f t="shared" si="15"/>
+        <v>45665</v>
+      </c>
+      <c r="J122">
+        <f t="shared" si="13"/>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>209</v>
+      </c>
+      <c r="B123" t="s">
+        <v>248</v>
+      </c>
+      <c r="C123" t="s">
+        <v>249</v>
+      </c>
+      <c r="D123" t="s">
+        <v>250</v>
+      </c>
+      <c r="E123" t="s">
+        <v>251</v>
+      </c>
+      <c r="F123" t="s">
+        <v>257</v>
+      </c>
+      <c r="G123" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="H123">
+        <f t="shared" si="14"/>
+        <v>40</v>
+      </c>
+      <c r="I123" s="3">
+        <f t="shared" si="15"/>
+        <v>45665</v>
+      </c>
+      <c r="J123">
+        <f t="shared" si="13"/>
+        <v>121</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>630</v>
+      </c>
+      <c r="B124" t="s">
+        <v>631</v>
+      </c>
+      <c r="C124" t="s">
+        <v>632</v>
+      </c>
+      <c r="D124" t="s">
+        <v>633</v>
+      </c>
+      <c r="E124" t="s">
+        <v>634</v>
+      </c>
+      <c r="F124" t="s">
+        <v>645</v>
+      </c>
+      <c r="H124">
+        <f t="shared" si="14"/>
+        <v>40</v>
+      </c>
+      <c r="I124" s="3">
+        <f t="shared" si="15"/>
+        <v>45665</v>
+      </c>
+      <c r="J124">
+        <f t="shared" si="13"/>
+        <v>122</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>294</v>
+      </c>
+      <c r="B125" t="s">
+        <v>370</v>
+      </c>
+      <c r="C125" t="s">
+        <v>295</v>
+      </c>
+      <c r="D125" t="s">
+        <v>371</v>
+      </c>
+      <c r="E125" t="s">
+        <v>325</v>
+      </c>
+      <c r="F125" t="s">
+        <v>326</v>
+      </c>
+      <c r="G125" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="H125">
+        <f t="shared" si="14"/>
+        <v>41</v>
+      </c>
+      <c r="I125" s="3">
+        <f t="shared" si="15"/>
+        <v>45666</v>
+      </c>
+      <c r="J125">
+        <f t="shared" si="13"/>
+        <v>123</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>305</v>
+      </c>
+      <c r="B126" t="s">
+        <v>306</v>
+      </c>
+      <c r="C126" t="s">
+        <v>307</v>
+      </c>
+      <c r="D126" t="s">
+        <v>308</v>
+      </c>
+      <c r="E126" t="s">
+        <v>325</v>
+      </c>
+      <c r="F126" t="s">
+        <v>326</v>
+      </c>
+      <c r="G126" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="H126">
+        <f t="shared" si="14"/>
+        <v>41</v>
+      </c>
+      <c r="I126" s="3">
+        <f t="shared" si="15"/>
+        <v>45666</v>
+      </c>
+      <c r="J126">
+        <f t="shared" si="13"/>
+        <v>124</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>223</v>
+      </c>
+      <c r="B127" t="s">
+        <v>224</v>
+      </c>
+      <c r="C127" t="s">
+        <v>225</v>
+      </c>
+      <c r="D127" t="s">
+        <v>226</v>
+      </c>
+      <c r="E127" t="s">
+        <v>227</v>
+      </c>
+      <c r="F127" t="s">
+        <v>257</v>
+      </c>
+      <c r="G127" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H127">
+        <f t="shared" si="14"/>
+        <v>41</v>
+      </c>
+      <c r="I127" s="3">
+        <f t="shared" si="15"/>
+        <v>45666</v>
+      </c>
+      <c r="J127">
+        <f t="shared" si="13"/>
+        <v>125</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>150</v>
+      </c>
+      <c r="B128" t="s">
+        <v>151</v>
+      </c>
+      <c r="C128" t="s">
+        <v>152</v>
+      </c>
+      <c r="D128" t="s">
+        <v>153</v>
+      </c>
+      <c r="E128" t="s">
+        <v>154</v>
+      </c>
+      <c r="F128" t="s">
+        <v>190</v>
+      </c>
+      <c r="G128" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="H128">
+        <f t="shared" si="14"/>
+        <v>42</v>
+      </c>
+      <c r="I128" s="3">
+        <f t="shared" si="15"/>
+        <v>45667</v>
+      </c>
+      <c r="J128">
+        <f t="shared" si="13"/>
+        <v>126</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>72</v>
+      </c>
+      <c r="B129" t="s">
+        <v>73</v>
+      </c>
+      <c r="C129" t="s">
+        <v>74</v>
+      </c>
+      <c r="D129" t="s">
+        <v>75</v>
+      </c>
+      <c r="E129" t="s">
+        <v>76</v>
+      </c>
+      <c r="F129" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G129" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="H129">
+        <f t="shared" si="14"/>
+        <v>42</v>
+      </c>
+      <c r="I129" s="3">
+        <f t="shared" si="15"/>
+        <v>45667</v>
+      </c>
+      <c r="J129">
+        <f t="shared" si="13"/>
+        <v>127</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
+        <v>444</v>
+      </c>
+      <c r="B130" t="s">
+        <v>445</v>
+      </c>
+      <c r="C130" t="s">
+        <v>446</v>
+      </c>
+      <c r="D130" t="s">
+        <v>447</v>
+      </c>
+      <c r="E130" t="s">
+        <v>448</v>
+      </c>
+      <c r="F130" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="G130" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="H130">
+        <f t="shared" si="14"/>
+        <v>42</v>
+      </c>
+      <c r="I130" s="3">
+        <f t="shared" si="15"/>
+        <v>45667</v>
+      </c>
+      <c r="J130">
+        <f t="shared" si="13"/>
+        <v>128</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
+        <v>204</v>
+      </c>
+      <c r="B131" t="s">
+        <v>450</v>
+      </c>
+      <c r="C131" t="s">
+        <v>451</v>
+      </c>
+      <c r="D131" t="s">
+        <v>452</v>
+      </c>
+      <c r="E131" t="s">
+        <v>453</v>
+      </c>
+      <c r="F131" t="s">
+        <v>454</v>
+      </c>
+      <c r="G131" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="H131">
+        <f t="shared" si="14"/>
+        <v>43</v>
+      </c>
+      <c r="I131" s="3">
+        <f t="shared" si="15"/>
+        <v>45668</v>
+      </c>
+      <c r="J131">
+        <f t="shared" si="13"/>
+        <v>129</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
+        <v>455</v>
+      </c>
+      <c r="B132" t="s">
+        <v>456</v>
+      </c>
+      <c r="C132" t="s">
+        <v>457</v>
+      </c>
+      <c r="D132" t="s">
+        <v>458</v>
+      </c>
+      <c r="E132" t="s">
+        <v>459</v>
+      </c>
+      <c r="F132" t="s">
+        <v>454</v>
+      </c>
+      <c r="G132" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="H132">
+        <f t="shared" si="14"/>
+        <v>43</v>
+      </c>
+      <c r="I132" s="3">
+        <f t="shared" si="15"/>
+        <v>45668</v>
+      </c>
+      <c r="J132">
+        <f t="shared" si="13"/>
+        <v>130</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
+        <v>460</v>
+      </c>
+      <c r="B133" t="s">
+        <v>461</v>
+      </c>
+      <c r="C133" t="s">
+        <v>462</v>
+      </c>
+      <c r="D133" t="s">
+        <v>463</v>
+      </c>
+      <c r="E133" t="s">
+        <v>464</v>
+      </c>
+      <c r="F133" t="s">
+        <v>449</v>
+      </c>
+      <c r="G133" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="H133">
+        <f t="shared" si="14"/>
+        <v>43</v>
+      </c>
+      <c r="I133" s="3">
+        <f t="shared" si="15"/>
+        <v>45668</v>
+      </c>
+      <c r="J133">
+        <f t="shared" si="13"/>
+        <v>131</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
+        <v>650</v>
+      </c>
+      <c r="B134" t="s">
+        <v>239</v>
+      </c>
+      <c r="C134" t="s">
+        <v>651</v>
+      </c>
+      <c r="D134" t="s">
+        <v>238</v>
+      </c>
+      <c r="E134" t="s">
+        <v>652</v>
+      </c>
+      <c r="F134" t="s">
+        <v>645</v>
+      </c>
+      <c r="H134">
+        <f t="shared" si="14"/>
+        <v>44</v>
+      </c>
+      <c r="I134" s="3">
+        <f t="shared" si="15"/>
+        <v>45669</v>
+      </c>
+      <c r="J134">
+        <f t="shared" si="13"/>
+        <v>132</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
+        <v>240</v>
+      </c>
+      <c r="B135" t="s">
+        <v>653</v>
+      </c>
+      <c r="C135" t="s">
+        <v>654</v>
+      </c>
+      <c r="D135" t="s">
+        <v>655</v>
+      </c>
+      <c r="E135" t="s">
+        <v>656</v>
+      </c>
+      <c r="F135" t="s">
+        <v>645</v>
+      </c>
+      <c r="H135">
+        <f t="shared" si="14"/>
+        <v>44</v>
+      </c>
+      <c r="I135" s="3">
+        <f t="shared" si="15"/>
+        <v>45669</v>
+      </c>
+      <c r="J135">
+        <f t="shared" si="13"/>
+        <v>133</v>
+      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A8:H91">
-    <sortCondition ref="H8:H91"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A8:H132">
+    <sortCondition ref="H8:H132"/>
   </sortState>
-  <conditionalFormatting sqref="I99:I1048576 I1:I89">
-    <cfRule type="cellIs" dxfId="1" priority="1" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="I1:I1048576">
+    <cfRule type="cellIs" dxfId="2" priority="1" stopIfTrue="1" operator="equal">
       <formula>$L$2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" stopIfTrue="1" operator="equal">
-      <formula>$L$2+1</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/code/shabdakala/resource/sbwords.xlsx
+++ b/code/shabdakala/resource/sbwords.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hrishinene/github/shabdakala/shabdakala/code/shabdakala/resource/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F760B97E-ECF7-6F48-8146-D04B1066D2C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77E7B66F-4B50-024A-83AC-D815008F3D42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{9F74AEE5-EB85-4044-AC84-8761A591B5C1}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="903" uniqueCount="664">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="903" uniqueCount="663">
   <si>
     <t>word0</t>
   </si>
@@ -140,9 +140,6 @@
     <t xml:space="preserve"> सफरचंद</t>
   </si>
   <si>
-    <t>लाल वस्तू</t>
-  </si>
-  <si>
     <t xml:space="preserve"> बंदर</t>
   </si>
   <si>
@@ -383,9 +380,6 @@
     <t xml:space="preserve"> हॉकी</t>
   </si>
   <si>
-    <t xml:space="preserve"> पंजाब आणि पंजाबी</t>
-  </si>
-  <si>
     <t xml:space="preserve"> गरबा</t>
   </si>
   <si>
@@ -1268,9 +1262,6 @@
     <t>गजा</t>
   </si>
   <si>
-    <t>केदार</t>
-  </si>
-  <si>
     <t>सारंग</t>
   </si>
   <si>
@@ -1610,9 +1601,6 @@
     <t>ज्यानी फसवणूक होते</t>
   </si>
   <si>
-    <t>कप</t>
-  </si>
-  <si>
     <t>करंडक</t>
   </si>
   <si>
@@ -1643,9 +1631,6 @@
     <t>चित्रं</t>
   </si>
   <si>
-    <t>काम</t>
-  </si>
-  <si>
     <t>ज्या गोष्टी काढता येतात</t>
   </si>
   <si>
@@ -1847,9 +1832,6 @@
     <t>चौकट</t>
   </si>
   <si>
-    <t>पीस</t>
-  </si>
-  <si>
     <t>विदुषक</t>
   </si>
   <si>
@@ -1976,15 +1958,9 @@
     <t xml:space="preserve">पु लं च्या लिखाणातून </t>
   </si>
   <si>
-    <t>कारणं</t>
-  </si>
-  <si>
     <t>झाड</t>
   </si>
   <si>
-    <t>अर्थ</t>
-  </si>
-  <si>
     <t>दव</t>
   </si>
   <si>
@@ -2025,6 +2001,27 @@
   </si>
   <si>
     <t>रामायणातील प्राणी</t>
+  </si>
+  <si>
+    <t>खोडी</t>
+  </si>
+  <si>
+    <t>विरजण</t>
+  </si>
+  <si>
+    <t>लाल रंगाच्या वस्तू</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> पंजाबशी संबंधित </t>
+  </si>
+  <si>
+    <t>ढाल</t>
+  </si>
+  <si>
+    <t>हुकूम</t>
+  </si>
+  <si>
+    <t>केदार म्हसवडे</t>
   </si>
 </sst>
 </file>
@@ -2597,7 +2594,17 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="16">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -2605,7 +2612,121 @@
       </font>
       <fill>
         <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2963,8 +3084,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEA1707B-2FB7-B84C-9F84-E9F074F3056C}">
   <dimension ref="A1:L135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3005,13 +3126,13 @@
         <v>6</v>
       </c>
       <c r="H1" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>348</v>
+      </c>
+      <c r="J1" s="5" t="s">
         <v>349</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>350</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>351</v>
       </c>
       <c r="L1" s="4">
         <v>45625</v>
@@ -3019,25 +3140,25 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B2" t="s">
         <v>102</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>103</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>104</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>105</v>
       </c>
-      <c r="E2" t="s">
-        <v>106</v>
-      </c>
       <c r="F2" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H2">
         <f>INT(J2/3)</f>
@@ -3052,30 +3173,30 @@
       </c>
       <c r="L2" s="6">
         <f ca="1">TODAY()</f>
-        <v>45633</v>
+        <v>45634</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B3" t="s">
         <v>57</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>58</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>59</v>
       </c>
-      <c r="D3" t="s">
-        <v>60</v>
-      </c>
       <c r="E3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>89</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>90</v>
       </c>
       <c r="H3">
         <f t="shared" ref="H3:H11" si="1">INT(J3/3)</f>
@@ -3093,25 +3214,25 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>137</v>
+      </c>
+      <c r="B4" t="s">
+        <v>138</v>
+      </c>
+      <c r="C4" t="s">
         <v>139</v>
       </c>
-      <c r="B4" t="s">
+      <c r="D4" t="s">
         <v>140</v>
       </c>
-      <c r="C4" t="s">
+      <c r="E4" t="s">
         <v>141</v>
       </c>
-      <c r="D4" t="s">
-        <v>142</v>
-      </c>
-      <c r="E4" t="s">
-        <v>143</v>
-      </c>
       <c r="F4" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="H4">
         <f t="shared" si="1"/>
@@ -3129,25 +3250,25 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>261</v>
+      </c>
+      <c r="B5" t="s">
+        <v>262</v>
+      </c>
+      <c r="C5" t="s">
         <v>263</v>
       </c>
-      <c r="B5" t="s">
+      <c r="D5" t="s">
         <v>264</v>
       </c>
-      <c r="C5" t="s">
+      <c r="E5" t="s">
         <v>265</v>
       </c>
-      <c r="D5" t="s">
-        <v>266</v>
-      </c>
-      <c r="E5" t="s">
-        <v>267</v>
-      </c>
       <c r="F5" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="H5">
         <f t="shared" si="1"/>
@@ -3165,25 +3286,25 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B6" t="s">
         <v>77</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>78</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>79</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>80</v>
       </c>
-      <c r="E6" t="s">
-        <v>81</v>
-      </c>
       <c r="F6" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H6">
         <f t="shared" si="1"/>
@@ -3201,25 +3322,25 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B7" t="s">
+        <v>115</v>
+      </c>
+      <c r="C7" t="s">
+        <v>116</v>
+      </c>
+      <c r="D7" t="s">
         <v>117</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E7" t="s">
         <v>118</v>
       </c>
-      <c r="D7" t="s">
-        <v>119</v>
-      </c>
-      <c r="E7" t="s">
-        <v>120</v>
-      </c>
       <c r="F7" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H7">
         <f t="shared" si="1"/>
@@ -3237,25 +3358,25 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>340</v>
+      </c>
+      <c r="B8" t="s">
+        <v>341</v>
+      </c>
+      <c r="C8" t="s">
         <v>342</v>
       </c>
-      <c r="B8" t="s">
+      <c r="D8" t="s">
         <v>343</v>
       </c>
-      <c r="C8" t="s">
+      <c r="E8" t="s">
         <v>344</v>
       </c>
-      <c r="D8" t="s">
+      <c r="F8" t="s">
         <v>345</v>
       </c>
-      <c r="E8" t="s">
-        <v>346</v>
-      </c>
-      <c r="F8" t="s">
-        <v>347</v>
-      </c>
       <c r="G8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H8">
         <f t="shared" si="1"/>
@@ -3272,25 +3393,25 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>330</v>
+      </c>
+      <c r="B9" t="s">
+        <v>331</v>
+      </c>
+      <c r="C9" t="s">
         <v>332</v>
       </c>
-      <c r="B9" t="s">
+      <c r="D9" t="s">
         <v>333</v>
       </c>
-      <c r="C9" t="s">
+      <c r="E9" t="s">
         <v>334</v>
       </c>
-      <c r="D9" t="s">
-        <v>335</v>
-      </c>
-      <c r="E9" t="s">
-        <v>336</v>
-      </c>
       <c r="F9" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="G9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H9">
         <f t="shared" si="1"/>
@@ -3307,25 +3428,25 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>335</v>
+      </c>
+      <c r="B10" t="s">
+        <v>336</v>
+      </c>
+      <c r="C10" t="s">
         <v>337</v>
       </c>
-      <c r="B10" t="s">
+      <c r="D10" t="s">
         <v>338</v>
       </c>
-      <c r="C10" t="s">
+      <c r="E10" t="s">
         <v>339</v>
       </c>
-      <c r="D10" t="s">
-        <v>340</v>
-      </c>
-      <c r="E10" t="s">
-        <v>341</v>
-      </c>
       <c r="F10" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="G10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H10">
         <f t="shared" si="1"/>
@@ -3342,25 +3463,25 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B11" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C11" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="D11" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="E11" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H11">
         <f t="shared" si="1"/>
@@ -3377,25 +3498,25 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
+        <v>354</v>
+      </c>
+      <c r="B12" t="s">
+        <v>355</v>
+      </c>
+      <c r="C12" t="s">
+        <v>362</v>
+      </c>
+      <c r="D12" t="s">
         <v>356</v>
       </c>
-      <c r="B12" t="s">
+      <c r="E12" t="s">
         <v>357</v>
       </c>
-      <c r="C12" t="s">
-        <v>364</v>
-      </c>
-      <c r="D12" t="s">
-        <v>358</v>
-      </c>
-      <c r="E12" t="s">
-        <v>359</v>
-      </c>
       <c r="F12" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H12">
         <f t="shared" ref="H12:H21" si="5">INT(J12/3)</f>
@@ -3412,25 +3533,25 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
+        <v>358</v>
+      </c>
+      <c r="B13" t="s">
+        <v>231</v>
+      </c>
+      <c r="C13" t="s">
+        <v>359</v>
+      </c>
+      <c r="D13" t="s">
         <v>360</v>
       </c>
-      <c r="B13" t="s">
-        <v>233</v>
-      </c>
-      <c r="C13" t="s">
-        <v>361</v>
-      </c>
-      <c r="D13" t="s">
-        <v>362</v>
-      </c>
       <c r="E13" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H13">
         <f t="shared" si="5"/>
@@ -3447,25 +3568,25 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>132</v>
+      </c>
+      <c r="B14" t="s">
+        <v>133</v>
+      </c>
+      <c r="C14" t="s">
         <v>134</v>
       </c>
-      <c r="B14" t="s">
+      <c r="D14" t="s">
         <v>135</v>
       </c>
-      <c r="C14" t="s">
+      <c r="E14" t="s">
         <v>136</v>
       </c>
-      <c r="D14" t="s">
-        <v>137</v>
-      </c>
-      <c r="E14" t="s">
-        <v>138</v>
-      </c>
       <c r="F14" s="1" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H14">
         <f t="shared" si="5"/>
@@ -3482,25 +3603,25 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
+        <v>91</v>
+      </c>
+      <c r="B15" t="s">
         <v>92</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>93</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>94</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
         <v>95</v>
       </c>
-      <c r="E15" t="s">
-        <v>96</v>
-      </c>
       <c r="F15" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H15">
         <f t="shared" si="5"/>
@@ -3517,25 +3638,25 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
+        <v>60</v>
+      </c>
+      <c r="B16" t="s">
+        <v>59</v>
+      </c>
+      <c r="C16" t="s">
         <v>61</v>
       </c>
-      <c r="B16" t="s">
-        <v>60</v>
-      </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>62</v>
       </c>
-      <c r="D16" t="s">
-        <v>63</v>
-      </c>
       <c r="E16" t="s">
+        <v>87</v>
+      </c>
+      <c r="F16" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="G16" s="1" t="s">
         <v>89</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>90</v>
       </c>
       <c r="H16">
         <f t="shared" si="5"/>
@@ -3561,16 +3682,16 @@
         <v>25</v>
       </c>
       <c r="D17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E17" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H17">
         <f t="shared" si="5"/>
@@ -3587,25 +3708,25 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B18" t="s">
+        <v>119</v>
+      </c>
+      <c r="C18" t="s">
+        <v>120</v>
+      </c>
+      <c r="D18" t="s">
         <v>121</v>
       </c>
-      <c r="C18" t="s">
+      <c r="E18" t="s">
         <v>122</v>
       </c>
-      <c r="D18" t="s">
-        <v>123</v>
-      </c>
-      <c r="E18" t="s">
-        <v>124</v>
-      </c>
       <c r="F18" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H18">
         <f t="shared" si="5"/>
@@ -3637,7 +3758,7 @@
         <v>13</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>8</v>
@@ -3657,25 +3778,25 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
+        <v>158</v>
+      </c>
+      <c r="B20" t="s">
+        <v>159</v>
+      </c>
+      <c r="C20" t="s">
         <v>160</v>
       </c>
-      <c r="B20" t="s">
+      <c r="D20" t="s">
         <v>161</v>
       </c>
-      <c r="C20" t="s">
+      <c r="E20" t="s">
         <v>162</v>
       </c>
-      <c r="D20" t="s">
-        <v>163</v>
-      </c>
-      <c r="E20" t="s">
-        <v>164</v>
-      </c>
       <c r="F20" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="H20">
         <f t="shared" si="5"/>
@@ -3692,25 +3813,25 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B21" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C21" t="s">
+        <v>103</v>
+      </c>
+      <c r="D21" t="s">
         <v>104</v>
       </c>
-      <c r="D21" t="s">
+      <c r="E21" t="s">
         <v>105</v>
       </c>
-      <c r="E21" t="s">
-        <v>106</v>
-      </c>
       <c r="F21" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H21">
         <f t="shared" si="5"/>
@@ -3727,25 +3848,25 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
+        <v>137</v>
+      </c>
+      <c r="B22" t="s">
+        <v>138</v>
+      </c>
+      <c r="C22" t="s">
         <v>139</v>
       </c>
-      <c r="B22" t="s">
+      <c r="D22" t="s">
         <v>140</v>
       </c>
-      <c r="C22" t="s">
+      <c r="E22" t="s">
         <v>141</v>
       </c>
-      <c r="D22" t="s">
-        <v>142</v>
-      </c>
-      <c r="E22" t="s">
-        <v>143</v>
-      </c>
       <c r="F22" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="H22">
         <f t="shared" ref="H22" si="7">INT(J22/3)</f>
@@ -3771,13 +3892,13 @@
         <v>22</v>
       </c>
       <c r="D23" t="s">
+        <v>42</v>
+      </c>
+      <c r="E23" t="s">
         <v>43</v>
       </c>
-      <c r="E23" t="s">
-        <v>44</v>
-      </c>
       <c r="F23" s="1" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="G23" s="1" t="s">
         <v>8</v>
@@ -3806,16 +3927,16 @@
         <v>19</v>
       </c>
       <c r="D24" t="s">
+        <v>35</v>
+      </c>
+      <c r="E24" t="s">
         <v>36</v>
       </c>
-      <c r="E24" t="s">
-        <v>37</v>
-      </c>
       <c r="F24" s="1" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H24">
         <f t="shared" si="9"/>
@@ -3832,25 +3953,25 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
+        <v>373</v>
+      </c>
+      <c r="B25" t="s">
+        <v>374</v>
+      </c>
+      <c r="C25" t="s">
         <v>375</v>
       </c>
-      <c r="B25" t="s">
+      <c r="D25" t="s">
         <v>376</v>
       </c>
-      <c r="C25" t="s">
+      <c r="E25" t="s">
         <v>377</v>
       </c>
-      <c r="D25" t="s">
-        <v>378</v>
-      </c>
-      <c r="E25" t="s">
-        <v>379</v>
-      </c>
       <c r="F25" t="s">
-        <v>411</v>
+        <v>662</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="H25">
         <f t="shared" si="9"/>
@@ -3867,25 +3988,25 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
+        <v>127</v>
+      </c>
+      <c r="B26" t="s">
+        <v>128</v>
+      </c>
+      <c r="C26" t="s">
         <v>129</v>
       </c>
-      <c r="B26" t="s">
+      <c r="D26" t="s">
         <v>130</v>
       </c>
-      <c r="C26" t="s">
+      <c r="E26" t="s">
         <v>131</v>
       </c>
-      <c r="D26" t="s">
-        <v>132</v>
-      </c>
-      <c r="E26" t="s">
-        <v>133</v>
-      </c>
       <c r="F26" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H26">
         <f t="shared" si="9"/>
@@ -3902,22 +4023,22 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
+        <v>256</v>
+      </c>
+      <c r="B27" t="s">
+        <v>257</v>
+      </c>
+      <c r="C27" t="s">
         <v>258</v>
       </c>
-      <c r="B27" t="s">
+      <c r="D27" t="s">
         <v>259</v>
       </c>
-      <c r="C27" t="s">
+      <c r="E27" t="s">
         <v>260</v>
       </c>
-      <c r="D27" t="s">
-        <v>261</v>
-      </c>
-      <c r="E27" t="s">
-        <v>262</v>
-      </c>
       <c r="F27" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G27" s="1" t="s">
         <v>8</v>
@@ -3937,32 +4058,32 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
+        <v>416</v>
+      </c>
+      <c r="B28" t="s">
+        <v>417</v>
+      </c>
+      <c r="C28" t="s">
+        <v>418</v>
+      </c>
+      <c r="D28" t="s">
         <v>419</v>
       </c>
-      <c r="B28" t="s">
-        <v>420</v>
-      </c>
-      <c r="C28" t="s">
-        <v>421</v>
-      </c>
-      <c r="D28" t="s">
-        <v>422</v>
-      </c>
       <c r="E28" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="F28" t="s">
-        <v>411</v>
+        <v>662</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="H28">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="H28:H91" si="11">INT(J28/3)</f>
         <v>8</v>
       </c>
       <c r="I28" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" ref="I28:I91" si="12">$L$1+H28</f>
         <v>45633</v>
       </c>
       <c r="J28">
@@ -3972,32 +4093,32 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
+        <v>96</v>
+      </c>
+      <c r="B29" t="s">
         <v>97</v>
       </c>
-      <c r="B29" t="s">
+      <c r="C29" t="s">
         <v>98</v>
       </c>
-      <c r="C29" t="s">
+      <c r="D29" t="s">
         <v>99</v>
       </c>
-      <c r="D29" t="s">
+      <c r="E29" t="s">
         <v>100</v>
       </c>
-      <c r="E29" t="s">
-        <v>101</v>
-      </c>
       <c r="F29" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H29">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>9</v>
       </c>
       <c r="I29" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>45634</v>
       </c>
       <c r="J29">
@@ -4007,32 +4128,32 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
+        <v>106</v>
+      </c>
+      <c r="B30" t="s">
         <v>107</v>
       </c>
-      <c r="B30" t="s">
+      <c r="C30" t="s">
         <v>108</v>
       </c>
-      <c r="C30" t="s">
+      <c r="D30" t="s">
         <v>109</v>
       </c>
-      <c r="D30" t="s">
+      <c r="E30" t="s">
         <v>110</v>
       </c>
-      <c r="E30" t="s">
-        <v>111</v>
-      </c>
       <c r="F30" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H30">
-        <f t="shared" ref="H30:H93" si="11">INT(J30/3)</f>
+        <f t="shared" si="11"/>
         <v>9</v>
       </c>
       <c r="I30" s="3">
-        <f t="shared" ref="I30:I93" si="12">$L$1+H30</f>
+        <f t="shared" si="12"/>
         <v>45634</v>
       </c>
       <c r="J30">
@@ -4042,22 +4163,22 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
+        <v>270</v>
+      </c>
+      <c r="B31" t="s">
+        <v>271</v>
+      </c>
+      <c r="C31" t="s">
         <v>272</v>
       </c>
-      <c r="B31" t="s">
+      <c r="D31" t="s">
         <v>273</v>
       </c>
-      <c r="C31" t="s">
+      <c r="E31" t="s">
         <v>274</v>
       </c>
-      <c r="D31" t="s">
-        <v>275</v>
-      </c>
-      <c r="E31" t="s">
-        <v>276</v>
-      </c>
       <c r="F31" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G31" s="1" t="s">
         <v>8</v>
@@ -4077,22 +4198,22 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
+        <v>526</v>
+      </c>
+      <c r="B32" t="s">
+        <v>527</v>
+      </c>
+      <c r="C32" t="s">
+        <v>528</v>
+      </c>
+      <c r="D32" t="s">
+        <v>529</v>
+      </c>
+      <c r="E32" t="s">
         <v>530</v>
       </c>
-      <c r="B32" t="s">
-        <v>531</v>
-      </c>
-      <c r="C32" t="s">
-        <v>532</v>
-      </c>
-      <c r="D32" t="s">
-        <v>533</v>
-      </c>
-      <c r="E32" t="s">
-        <v>534</v>
-      </c>
       <c r="F32" t="s">
-        <v>645</v>
+        <v>639</v>
       </c>
       <c r="H32">
         <f t="shared" si="11"/>
@@ -4109,22 +4230,22 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="B33" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C33" t="s">
-        <v>647</v>
+        <v>656</v>
       </c>
       <c r="D33" t="s">
-        <v>536</v>
+        <v>233</v>
       </c>
       <c r="E33" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="F33" t="s">
-        <v>645</v>
+        <v>639</v>
       </c>
       <c r="H33">
         <f t="shared" si="11"/>
@@ -4141,22 +4262,22 @@
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="B34" t="s">
-        <v>649</v>
+        <v>657</v>
       </c>
       <c r="C34" t="s">
-        <v>648</v>
+        <v>641</v>
       </c>
       <c r="D34" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E34" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="F34" t="s">
-        <v>645</v>
+        <v>639</v>
       </c>
       <c r="H34">
         <f t="shared" si="11"/>
@@ -4173,25 +4294,25 @@
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
+        <v>63</v>
+      </c>
+      <c r="B35" t="s">
         <v>64</v>
       </c>
-      <c r="B35" t="s">
+      <c r="C35" t="s">
         <v>65</v>
       </c>
-      <c r="C35" t="s">
+      <c r="D35" t="s">
         <v>66</v>
       </c>
-      <c r="D35" t="s">
-        <v>67</v>
-      </c>
       <c r="E35" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H35">
         <f t="shared" si="11"/>
@@ -4208,25 +4329,25 @@
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>380</v>
+        <v>14</v>
       </c>
       <c r="B36" t="s">
-        <v>381</v>
+        <v>15</v>
       </c>
       <c r="C36" t="s">
-        <v>382</v>
+        <v>16</v>
       </c>
       <c r="D36" t="s">
-        <v>383</v>
+        <v>34</v>
       </c>
       <c r="E36" t="s">
-        <v>384</v>
-      </c>
-      <c r="F36" t="s">
-        <v>411</v>
+        <v>658</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>346</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>282</v>
+        <v>8</v>
       </c>
       <c r="H36">
         <f t="shared" si="11"/>
@@ -4243,25 +4364,25 @@
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>14</v>
+        <v>111</v>
       </c>
       <c r="B37" t="s">
-        <v>15</v>
+        <v>112</v>
       </c>
       <c r="C37" t="s">
-        <v>16</v>
+        <v>113</v>
       </c>
       <c r="D37" t="s">
-        <v>34</v>
+        <v>114</v>
       </c>
       <c r="E37" t="s">
-        <v>35</v>
+        <v>659</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>348</v>
+        <v>88</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>8</v>
+        <v>145</v>
       </c>
       <c r="H37">
         <f t="shared" si="11"/>
@@ -4278,25 +4399,22 @@
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>112</v>
+        <v>660</v>
       </c>
       <c r="B38" t="s">
-        <v>113</v>
+        <v>522</v>
       </c>
       <c r="C38" t="s">
-        <v>114</v>
+        <v>523</v>
       </c>
       <c r="D38" t="s">
-        <v>115</v>
+        <v>524</v>
       </c>
       <c r="E38" t="s">
-        <v>116</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>147</v>
+        <v>525</v>
+      </c>
+      <c r="F38" t="s">
+        <v>639</v>
       </c>
       <c r="H38">
         <f t="shared" si="11"/>
@@ -4313,22 +4431,22 @@
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>525</v>
+        <v>535</v>
       </c>
       <c r="B39" t="s">
-        <v>526</v>
+        <v>536</v>
       </c>
       <c r="C39" t="s">
-        <v>527</v>
+        <v>7</v>
       </c>
       <c r="D39" t="s">
-        <v>528</v>
+        <v>537</v>
       </c>
       <c r="E39" t="s">
-        <v>529</v>
+        <v>653</v>
       </c>
       <c r="F39" t="s">
-        <v>645</v>
+        <v>639</v>
       </c>
       <c r="H39">
         <f t="shared" si="11"/>
@@ -4345,22 +4463,25 @@
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>540</v>
+        <v>207</v>
       </c>
       <c r="B40" t="s">
-        <v>541</v>
+        <v>208</v>
       </c>
       <c r="C40" t="s">
-        <v>7</v>
+        <v>209</v>
       </c>
       <c r="D40" t="s">
-        <v>542</v>
+        <v>210</v>
       </c>
       <c r="E40" t="s">
-        <v>661</v>
+        <v>211</v>
       </c>
       <c r="F40" t="s">
-        <v>645</v>
+        <v>255</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>147</v>
       </c>
       <c r="H40">
         <f t="shared" si="11"/>
@@ -4377,25 +4498,25 @@
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>209</v>
+        <v>81</v>
       </c>
       <c r="B41" t="s">
-        <v>210</v>
+        <v>82</v>
       </c>
       <c r="C41" t="s">
-        <v>211</v>
+        <v>83</v>
       </c>
       <c r="D41" t="s">
-        <v>212</v>
+        <v>84</v>
       </c>
       <c r="E41" t="s">
-        <v>213</v>
-      </c>
-      <c r="F41" t="s">
-        <v>257</v>
+        <v>85</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>88</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>149</v>
+        <v>90</v>
       </c>
       <c r="H41">
         <f t="shared" si="11"/>
@@ -4412,25 +4533,22 @@
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>82</v>
+        <v>597</v>
       </c>
       <c r="B42" t="s">
-        <v>83</v>
+        <v>598</v>
       </c>
       <c r="C42" t="s">
-        <v>84</v>
+        <v>661</v>
       </c>
       <c r="D42" t="s">
-        <v>85</v>
+        <v>599</v>
       </c>
       <c r="E42" t="s">
-        <v>86</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="G42" s="1" t="s">
-        <v>91</v>
+        <v>600</v>
+      </c>
+      <c r="F42" t="s">
+        <v>639</v>
       </c>
       <c r="H42">
         <f t="shared" si="11"/>
@@ -4447,22 +4565,22 @@
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>602</v>
+        <v>609</v>
       </c>
       <c r="B43" t="s">
-        <v>603</v>
+        <v>610</v>
       </c>
       <c r="C43" t="s">
-        <v>604</v>
+        <v>611</v>
       </c>
       <c r="D43" t="s">
-        <v>605</v>
+        <v>612</v>
       </c>
       <c r="E43" t="s">
-        <v>606</v>
+        <v>613</v>
       </c>
       <c r="F43" t="s">
-        <v>645</v>
+        <v>639</v>
       </c>
       <c r="H43">
         <f t="shared" si="11"/>
@@ -4479,22 +4597,25 @@
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>615</v>
+        <v>430</v>
       </c>
       <c r="B44" t="s">
-        <v>616</v>
+        <v>383</v>
       </c>
       <c r="C44" t="s">
-        <v>617</v>
+        <v>384</v>
       </c>
       <c r="D44" t="s">
-        <v>618</v>
+        <v>429</v>
       </c>
       <c r="E44" t="s">
-        <v>619</v>
+        <v>385</v>
       </c>
       <c r="F44" t="s">
-        <v>645</v>
+        <v>662</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>280</v>
       </c>
       <c r="H44">
         <f t="shared" si="11"/>
@@ -4511,25 +4632,25 @@
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>433</v>
+        <v>197</v>
       </c>
       <c r="B45" t="s">
-        <v>385</v>
+        <v>198</v>
       </c>
       <c r="C45" t="s">
-        <v>386</v>
+        <v>199</v>
       </c>
       <c r="D45" t="s">
-        <v>432</v>
+        <v>200</v>
       </c>
       <c r="E45" t="s">
-        <v>387</v>
+        <v>201</v>
       </c>
       <c r="F45" t="s">
-        <v>411</v>
+        <v>255</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>282</v>
+        <v>48</v>
       </c>
       <c r="H45">
         <f t="shared" si="11"/>
@@ -4546,25 +4667,22 @@
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>199</v>
+        <v>542</v>
       </c>
       <c r="B46" t="s">
-        <v>200</v>
+        <v>543</v>
       </c>
       <c r="C46" t="s">
-        <v>201</v>
+        <v>544</v>
       </c>
       <c r="D46" t="s">
-        <v>202</v>
+        <v>545</v>
       </c>
       <c r="E46" t="s">
-        <v>203</v>
+        <v>546</v>
       </c>
       <c r="F46" t="s">
-        <v>257</v>
-      </c>
-      <c r="G46" s="1" t="s">
-        <v>49</v>
+        <v>639</v>
       </c>
       <c r="H46">
         <f t="shared" si="11"/>
@@ -4581,22 +4699,22 @@
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
+        <v>233</v>
+      </c>
+      <c r="B47" t="s">
         <v>547</v>
       </c>
-      <c r="B47" t="s">
+      <c r="C47" t="s">
         <v>548</v>
       </c>
-      <c r="C47" t="s">
+      <c r="D47" t="s">
         <v>549</v>
       </c>
-      <c r="D47" t="s">
+      <c r="E47" t="s">
         <v>550</v>
       </c>
-      <c r="E47" t="s">
-        <v>551</v>
-      </c>
       <c r="F47" t="s">
-        <v>645</v>
+        <v>639</v>
       </c>
       <c r="H47">
         <f t="shared" si="11"/>
@@ -4613,7 +4731,7 @@
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>235</v>
+        <v>551</v>
       </c>
       <c r="B48" t="s">
         <v>552</v>
@@ -4628,7 +4746,7 @@
         <v>555</v>
       </c>
       <c r="F48" t="s">
-        <v>645</v>
+        <v>639</v>
       </c>
       <c r="H48">
         <f t="shared" si="11"/>
@@ -4645,22 +4763,25 @@
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>556</v>
+        <v>192</v>
       </c>
       <c r="B49" t="s">
-        <v>557</v>
+        <v>193</v>
       </c>
       <c r="C49" t="s">
-        <v>558</v>
+        <v>194</v>
       </c>
       <c r="D49" t="s">
-        <v>559</v>
+        <v>195</v>
       </c>
       <c r="E49" t="s">
-        <v>560</v>
+        <v>196</v>
       </c>
       <c r="F49" t="s">
-        <v>645</v>
+        <v>255</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>90</v>
       </c>
       <c r="H49">
         <f t="shared" si="11"/>
@@ -4677,25 +4798,25 @@
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>194</v>
+        <v>420</v>
       </c>
       <c r="B50" t="s">
-        <v>195</v>
+        <v>421</v>
       </c>
       <c r="C50" t="s">
-        <v>196</v>
+        <v>422</v>
       </c>
       <c r="D50" t="s">
-        <v>197</v>
+        <v>380</v>
       </c>
       <c r="E50" t="s">
-        <v>198</v>
+        <v>423</v>
       </c>
       <c r="F50" t="s">
-        <v>257</v>
+        <v>662</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>91</v>
+        <v>280</v>
       </c>
       <c r="H50">
         <f t="shared" si="11"/>
@@ -4711,26 +4832,26 @@
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
-        <v>423</v>
+      <c r="A51" s="2">
+        <v>42.195</v>
       </c>
       <c r="B51" t="s">
-        <v>424</v>
+        <v>123</v>
       </c>
       <c r="C51" t="s">
-        <v>425</v>
+        <v>124</v>
       </c>
       <c r="D51" t="s">
-        <v>382</v>
+        <v>125</v>
       </c>
       <c r="E51" t="s">
-        <v>426</v>
-      </c>
-      <c r="F51" t="s">
-        <v>411</v>
+        <v>126</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>451</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>282</v>
+        <v>146</v>
       </c>
       <c r="H51">
         <f t="shared" si="11"/>
@@ -4746,26 +4867,26 @@
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A52" s="2">
-        <v>42.195</v>
+      <c r="A52" t="s">
+        <v>37</v>
       </c>
       <c r="B52" t="s">
-        <v>125</v>
+        <v>38</v>
       </c>
       <c r="C52" t="s">
-        <v>126</v>
+        <v>39</v>
       </c>
       <c r="D52" t="s">
-        <v>127</v>
+        <v>40</v>
       </c>
       <c r="E52" t="s">
-        <v>128</v>
+        <v>41</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>454</v>
+        <v>346</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>148</v>
+        <v>8</v>
       </c>
       <c r="H52">
         <f t="shared" si="11"/>
@@ -4782,25 +4903,25 @@
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>38</v>
+        <v>168</v>
       </c>
       <c r="B53" t="s">
-        <v>39</v>
+        <v>169</v>
       </c>
       <c r="C53" t="s">
-        <v>40</v>
+        <v>170</v>
       </c>
       <c r="D53" t="s">
-        <v>41</v>
+        <v>171</v>
       </c>
       <c r="E53" t="s">
-        <v>42</v>
-      </c>
-      <c r="F53" s="1" t="s">
-        <v>348</v>
+        <v>172</v>
+      </c>
+      <c r="F53" t="s">
+        <v>188</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>8</v>
+        <v>191</v>
       </c>
       <c r="H53">
         <f t="shared" si="11"/>
@@ -4817,25 +4938,25 @@
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>170</v>
+        <v>216</v>
       </c>
       <c r="B54" t="s">
-        <v>171</v>
+        <v>217</v>
       </c>
       <c r="C54" t="s">
-        <v>172</v>
+        <v>218</v>
       </c>
       <c r="D54" t="s">
-        <v>173</v>
+        <v>219</v>
       </c>
       <c r="E54" t="s">
-        <v>174</v>
+        <v>220</v>
       </c>
       <c r="F54" t="s">
-        <v>190</v>
+        <v>255</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>193</v>
+        <v>281</v>
       </c>
       <c r="H54">
         <f t="shared" si="11"/>
@@ -4852,25 +4973,25 @@
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>218</v>
+        <v>386</v>
       </c>
       <c r="B55" t="s">
-        <v>219</v>
+        <v>387</v>
       </c>
       <c r="C55" t="s">
-        <v>220</v>
+        <v>388</v>
       </c>
       <c r="D55" t="s">
-        <v>221</v>
+        <v>389</v>
       </c>
       <c r="E55" t="s">
-        <v>222</v>
+        <v>440</v>
       </c>
       <c r="F55" t="s">
-        <v>257</v>
+        <v>662</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="H55">
         <f t="shared" si="11"/>
@@ -4887,25 +5008,25 @@
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>388</v>
+        <v>236</v>
       </c>
       <c r="B56" t="s">
-        <v>389</v>
+        <v>237</v>
       </c>
       <c r="C56" t="s">
-        <v>390</v>
+        <v>238</v>
       </c>
       <c r="D56" t="s">
-        <v>391</v>
+        <v>239</v>
       </c>
       <c r="E56" t="s">
-        <v>443</v>
+        <v>240</v>
       </c>
       <c r="F56" t="s">
-        <v>411</v>
+        <v>255</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>282</v>
+        <v>143</v>
       </c>
       <c r="H56">
         <f t="shared" si="11"/>
@@ -4922,25 +5043,25 @@
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>238</v>
+        <v>31</v>
       </c>
       <c r="B57" t="s">
-        <v>239</v>
+        <v>32</v>
       </c>
       <c r="C57" t="s">
-        <v>240</v>
+        <v>46</v>
       </c>
       <c r="D57" t="s">
-        <v>241</v>
+        <v>45</v>
       </c>
       <c r="E57" t="s">
-        <v>242</v>
-      </c>
-      <c r="F57" t="s">
-        <v>257</v>
+        <v>33</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>346</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>145</v>
+        <v>50</v>
       </c>
       <c r="H57">
         <f t="shared" si="11"/>
@@ -4957,25 +5078,22 @@
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>31</v>
+        <v>477</v>
       </c>
       <c r="B58" t="s">
-        <v>32</v>
+        <v>478</v>
       </c>
       <c r="C58" t="s">
-        <v>47</v>
+        <v>479</v>
       </c>
       <c r="D58" t="s">
-        <v>46</v>
+        <v>480</v>
       </c>
       <c r="E58" t="s">
-        <v>33</v>
-      </c>
-      <c r="F58" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="G58" s="1" t="s">
-        <v>51</v>
+        <v>481</v>
+      </c>
+      <c r="F58" t="s">
+        <v>639</v>
       </c>
       <c r="H58">
         <f t="shared" si="11"/>
@@ -4992,22 +5110,22 @@
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="B59" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="C59" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="D59" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="E59" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="F59" t="s">
-        <v>645</v>
+        <v>639</v>
       </c>
       <c r="H59">
         <f t="shared" si="11"/>
@@ -5024,22 +5142,22 @@
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="B60" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="C60" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="D60" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="E60" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="F60" t="s">
-        <v>645</v>
+        <v>639</v>
       </c>
       <c r="H60">
         <f t="shared" si="11"/>
@@ -5056,22 +5174,25 @@
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>490</v>
+        <v>378</v>
       </c>
       <c r="B61" t="s">
-        <v>491</v>
+        <v>379</v>
       </c>
       <c r="C61" t="s">
-        <v>492</v>
+        <v>380</v>
       </c>
       <c r="D61" t="s">
-        <v>493</v>
+        <v>381</v>
       </c>
       <c r="E61" t="s">
-        <v>494</v>
+        <v>382</v>
       </c>
       <c r="F61" t="s">
-        <v>645</v>
+        <v>662</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>280</v>
       </c>
       <c r="H61">
         <f t="shared" si="11"/>
@@ -5088,25 +5209,25 @@
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B62" t="s">
+        <v>212</v>
+      </c>
+      <c r="C62" t="s">
+        <v>213</v>
+      </c>
+      <c r="D62" t="s">
         <v>214</v>
       </c>
-      <c r="C62" t="s">
+      <c r="E62" t="s">
         <v>215</v>
       </c>
-      <c r="D62" t="s">
-        <v>216</v>
-      </c>
-      <c r="E62" t="s">
-        <v>217</v>
-      </c>
       <c r="F62" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="H62">
         <f t="shared" si="11"/>
@@ -5123,25 +5244,25 @@
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
+        <v>315</v>
+      </c>
+      <c r="B63" t="s">
+        <v>316</v>
+      </c>
+      <c r="C63" t="s">
         <v>317</v>
       </c>
-      <c r="B63" t="s">
+      <c r="D63" t="s">
         <v>318</v>
       </c>
-      <c r="C63" t="s">
-        <v>319</v>
-      </c>
-      <c r="D63" t="s">
-        <v>320</v>
-      </c>
       <c r="E63" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="F63" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H63">
         <f t="shared" si="11"/>
@@ -5158,25 +5279,25 @@
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
+        <v>153</v>
+      </c>
+      <c r="B64" t="s">
+        <v>154</v>
+      </c>
+      <c r="C64" t="s">
         <v>155</v>
       </c>
-      <c r="B64" t="s">
+      <c r="D64" t="s">
         <v>156</v>
       </c>
-      <c r="C64" t="s">
+      <c r="E64" t="s">
         <v>157</v>
       </c>
-      <c r="D64" t="s">
-        <v>158</v>
-      </c>
-      <c r="E64" t="s">
-        <v>159</v>
-      </c>
       <c r="F64" t="s">
+        <v>188</v>
+      </c>
+      <c r="G64" s="1" t="s">
         <v>190</v>
-      </c>
-      <c r="G64" s="1" t="s">
-        <v>192</v>
       </c>
       <c r="H64">
         <f t="shared" si="11"/>
@@ -5193,25 +5314,25 @@
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
+        <v>390</v>
+      </c>
+      <c r="B65" t="s">
+        <v>391</v>
+      </c>
+      <c r="C65" t="s">
         <v>392</v>
       </c>
-      <c r="B65" t="s">
+      <c r="D65" t="s">
         <v>393</v>
       </c>
-      <c r="C65" t="s">
-        <v>394</v>
-      </c>
-      <c r="D65" t="s">
-        <v>395</v>
-      </c>
       <c r="E65" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="F65" t="s">
-        <v>411</v>
+        <v>662</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="H65">
         <f t="shared" si="11"/>
@@ -5228,25 +5349,25 @@
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
+        <v>411</v>
+      </c>
+      <c r="B66" t="s">
+        <v>412</v>
+      </c>
+      <c r="C66" t="s">
+        <v>413</v>
+      </c>
+      <c r="D66" t="s">
         <v>414</v>
       </c>
-      <c r="B66" t="s">
+      <c r="E66" t="s">
         <v>415</v>
       </c>
-      <c r="C66" t="s">
-        <v>416</v>
-      </c>
-      <c r="D66" t="s">
-        <v>417</v>
-      </c>
-      <c r="E66" t="s">
-        <v>418</v>
-      </c>
       <c r="F66" t="s">
-        <v>411</v>
+        <v>662</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="H66">
         <f t="shared" si="11"/>
@@ -5263,22 +5384,22 @@
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
+        <v>473</v>
+      </c>
+      <c r="B67" t="s">
+        <v>474</v>
+      </c>
+      <c r="C67" t="s">
+        <v>214</v>
+      </c>
+      <c r="D67" t="s">
+        <v>475</v>
+      </c>
+      <c r="E67" t="s">
         <v>476</v>
       </c>
-      <c r="B67" t="s">
-        <v>477</v>
-      </c>
-      <c r="C67" t="s">
-        <v>216</v>
-      </c>
-      <c r="D67" t="s">
-        <v>478</v>
-      </c>
-      <c r="E67" t="s">
-        <v>479</v>
-      </c>
       <c r="F67" t="s">
-        <v>645</v>
+        <v>639</v>
       </c>
       <c r="H67">
         <f t="shared" si="11"/>
@@ -5295,25 +5416,25 @@
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
+        <v>250</v>
+      </c>
+      <c r="B68" t="s">
+        <v>251</v>
+      </c>
+      <c r="C68" t="s">
         <v>252</v>
       </c>
-      <c r="B68" t="s">
+      <c r="D68" t="s">
         <v>253</v>
       </c>
-      <c r="C68" t="s">
+      <c r="E68" t="s">
         <v>254</v>
       </c>
-      <c r="D68" t="s">
+      <c r="F68" t="s">
         <v>255</v>
       </c>
-      <c r="E68" t="s">
-        <v>256</v>
-      </c>
-      <c r="F68" t="s">
-        <v>257</v>
-      </c>
       <c r="G68" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="H68">
         <f t="shared" si="11"/>
@@ -5330,22 +5451,22 @@
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B69" t="s">
-        <v>607</v>
+        <v>601</v>
       </c>
       <c r="C69" t="s">
-        <v>608</v>
+        <v>602</v>
       </c>
       <c r="D69" t="s">
-        <v>609</v>
+        <v>603</v>
       </c>
       <c r="E69" t="s">
-        <v>646</v>
+        <v>640</v>
       </c>
       <c r="F69" t="s">
-        <v>645</v>
+        <v>639</v>
       </c>
       <c r="H69">
         <f t="shared" si="11"/>
@@ -5362,22 +5483,22 @@
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>610</v>
+        <v>604</v>
       </c>
       <c r="B70" t="s">
-        <v>611</v>
+        <v>605</v>
       </c>
       <c r="C70" t="s">
-        <v>612</v>
+        <v>606</v>
       </c>
       <c r="D70" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
       <c r="E70" t="s">
-        <v>614</v>
+        <v>608</v>
       </c>
       <c r="F70" t="s">
-        <v>645</v>
+        <v>639</v>
       </c>
       <c r="H70">
         <f t="shared" si="11"/>
@@ -5394,25 +5515,25 @@
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
+        <v>424</v>
+      </c>
+      <c r="B71" t="s">
+        <v>425</v>
+      </c>
+      <c r="C71" t="s">
+        <v>426</v>
+      </c>
+      <c r="D71" t="s">
         <v>427</v>
       </c>
-      <c r="B71" t="s">
-        <v>428</v>
-      </c>
-      <c r="C71" t="s">
-        <v>429</v>
-      </c>
-      <c r="D71" t="s">
-        <v>430</v>
-      </c>
       <c r="E71" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="F71" t="s">
-        <v>411</v>
+        <v>662</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="H71">
         <f t="shared" si="11"/>
@@ -5429,25 +5550,25 @@
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
+        <v>283</v>
+      </c>
+      <c r="B72" t="s">
+        <v>284</v>
+      </c>
+      <c r="C72" t="s">
         <v>285</v>
       </c>
-      <c r="B72" t="s">
+      <c r="D72" t="s">
         <v>286</v>
       </c>
-      <c r="C72" t="s">
-        <v>287</v>
-      </c>
-      <c r="D72" t="s">
-        <v>288</v>
-      </c>
       <c r="E72" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="F72" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H72">
         <f t="shared" si="11"/>
@@ -5464,25 +5585,25 @@
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
+        <v>298</v>
+      </c>
+      <c r="B73" t="s">
+        <v>299</v>
+      </c>
+      <c r="C73" t="s">
         <v>300</v>
       </c>
-      <c r="B73" t="s">
+      <c r="D73" t="s">
         <v>301</v>
       </c>
-      <c r="C73" t="s">
+      <c r="E73" t="s">
         <v>302</v>
       </c>
-      <c r="D73" t="s">
-        <v>303</v>
-      </c>
-      <c r="E73" t="s">
-        <v>304</v>
-      </c>
       <c r="F73" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H73">
         <f t="shared" si="11"/>
@@ -5499,25 +5620,25 @@
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
+        <v>294</v>
+      </c>
+      <c r="B74" t="s">
+        <v>295</v>
+      </c>
+      <c r="C74" t="s">
         <v>296</v>
       </c>
-      <c r="B74" t="s">
+      <c r="D74" t="s">
         <v>297</v>
       </c>
-      <c r="C74" t="s">
-        <v>298</v>
-      </c>
-      <c r="D74" t="s">
-        <v>299</v>
-      </c>
       <c r="E74" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="F74" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H74">
         <f t="shared" si="11"/>
@@ -5534,22 +5655,22 @@
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="B75" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="C75" t="s">
-        <v>657</v>
+        <v>649</v>
       </c>
       <c r="D75" t="s">
-        <v>658</v>
+        <v>650</v>
       </c>
       <c r="E75" t="s">
-        <v>659</v>
+        <v>651</v>
       </c>
       <c r="F75" t="s">
-        <v>645</v>
+        <v>639</v>
       </c>
       <c r="H75">
         <f t="shared" si="11"/>
@@ -5566,22 +5687,22 @@
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="B76" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="C76" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D76" t="s">
-        <v>660</v>
+        <v>652</v>
       </c>
       <c r="E76" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="F76" t="s">
-        <v>645</v>
+        <v>639</v>
       </c>
       <c r="H76">
         <f t="shared" si="11"/>
@@ -5598,25 +5719,25 @@
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
+        <v>325</v>
+      </c>
+      <c r="B77" t="s">
+        <v>326</v>
+      </c>
+      <c r="C77" t="s">
         <v>327</v>
       </c>
-      <c r="B77" t="s">
+      <c r="D77" t="s">
         <v>328</v>
       </c>
-      <c r="C77" t="s">
+      <c r="E77" t="s">
         <v>329</v>
       </c>
-      <c r="D77" t="s">
-        <v>330</v>
-      </c>
-      <c r="E77" t="s">
-        <v>331</v>
-      </c>
       <c r="F77" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H77">
         <f t="shared" si="11"/>
@@ -5633,25 +5754,25 @@
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B78" t="s">
+        <v>287</v>
+      </c>
+      <c r="C78" t="s">
+        <v>288</v>
+      </c>
+      <c r="D78" t="s">
         <v>289</v>
       </c>
-      <c r="C78" t="s">
-        <v>290</v>
-      </c>
-      <c r="D78" t="s">
-        <v>291</v>
-      </c>
       <c r="E78" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="F78" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H78">
         <f t="shared" si="11"/>
@@ -5668,22 +5789,22 @@
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
+        <v>463</v>
+      </c>
+      <c r="B79" t="s">
+        <v>464</v>
+      </c>
+      <c r="C79" t="s">
+        <v>465</v>
+      </c>
+      <c r="D79" t="s">
         <v>466</v>
       </c>
-      <c r="B79" t="s">
+      <c r="E79" t="s">
         <v>467</v>
       </c>
-      <c r="C79" t="s">
-        <v>468</v>
-      </c>
-      <c r="D79" t="s">
-        <v>469</v>
-      </c>
-      <c r="E79" t="s">
-        <v>470</v>
-      </c>
       <c r="F79" t="s">
-        <v>645</v>
+        <v>639</v>
       </c>
       <c r="H79">
         <f t="shared" si="11"/>
@@ -5700,22 +5821,22 @@
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
+        <v>468</v>
+      </c>
+      <c r="B80" t="s">
+        <v>469</v>
+      </c>
+      <c r="C80" t="s">
+        <v>470</v>
+      </c>
+      <c r="D80" t="s">
         <v>471</v>
       </c>
-      <c r="B80" t="s">
+      <c r="E80" t="s">
         <v>472</v>
       </c>
-      <c r="C80" t="s">
-        <v>473</v>
-      </c>
-      <c r="D80" t="s">
-        <v>474</v>
-      </c>
-      <c r="E80" t="s">
-        <v>475</v>
-      </c>
       <c r="F80" t="s">
-        <v>645</v>
+        <v>639</v>
       </c>
       <c r="H80">
         <f t="shared" si="11"/>
@@ -5732,25 +5853,25 @@
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
+        <v>394</v>
+      </c>
+      <c r="B81" t="s">
+        <v>395</v>
+      </c>
+      <c r="C81" t="s">
         <v>396</v>
       </c>
-      <c r="B81" t="s">
+      <c r="D81" t="s">
         <v>397</v>
       </c>
-      <c r="C81" t="s">
+      <c r="E81" t="s">
         <v>398</v>
       </c>
-      <c r="D81" t="s">
-        <v>399</v>
-      </c>
-      <c r="E81" t="s">
-        <v>400</v>
-      </c>
       <c r="F81" t="s">
-        <v>411</v>
+        <v>662</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="H81">
         <f t="shared" si="11"/>
@@ -5767,25 +5888,25 @@
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
+        <v>226</v>
+      </c>
+      <c r="B82" t="s">
+        <v>227</v>
+      </c>
+      <c r="C82" t="s">
         <v>228</v>
       </c>
-      <c r="B82" t="s">
+      <c r="D82" t="s">
         <v>229</v>
       </c>
-      <c r="C82" t="s">
+      <c r="E82" t="s">
         <v>230</v>
       </c>
-      <c r="D82" t="s">
-        <v>231</v>
-      </c>
-      <c r="E82" t="s">
-        <v>232</v>
-      </c>
       <c r="F82" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H82">
         <f t="shared" si="11"/>
@@ -5802,22 +5923,22 @@
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
+        <v>492</v>
+      </c>
+      <c r="B83" t="s">
+        <v>493</v>
+      </c>
+      <c r="C83" t="s">
+        <v>494</v>
+      </c>
+      <c r="D83" t="s">
         <v>495</v>
       </c>
-      <c r="B83" t="s">
+      <c r="E83" t="s">
         <v>496</v>
       </c>
-      <c r="C83" t="s">
-        <v>497</v>
-      </c>
-      <c r="D83" t="s">
-        <v>498</v>
-      </c>
-      <c r="E83" t="s">
-        <v>499</v>
-      </c>
       <c r="F83" t="s">
-        <v>645</v>
+        <v>639</v>
       </c>
       <c r="H83">
         <f t="shared" si="11"/>
@@ -5834,22 +5955,22 @@
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
+        <v>497</v>
+      </c>
+      <c r="B84" t="s">
+        <v>498</v>
+      </c>
+      <c r="C84" t="s">
+        <v>499</v>
+      </c>
+      <c r="D84" t="s">
         <v>500</v>
       </c>
-      <c r="B84" t="s">
+      <c r="E84" t="s">
         <v>501</v>
       </c>
-      <c r="C84" t="s">
-        <v>502</v>
-      </c>
-      <c r="D84" t="s">
-        <v>503</v>
-      </c>
-      <c r="E84" t="s">
-        <v>504</v>
-      </c>
       <c r="F84" t="s">
-        <v>645</v>
+        <v>639</v>
       </c>
       <c r="H84">
         <f t="shared" si="11"/>
@@ -5866,25 +5987,25 @@
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
+        <v>319</v>
+      </c>
+      <c r="B85" t="s">
+        <v>320</v>
+      </c>
+      <c r="C85" t="s">
         <v>321</v>
       </c>
-      <c r="B85" t="s">
+      <c r="D85" t="s">
         <v>322</v>
       </c>
-      <c r="C85" t="s">
+      <c r="E85" t="s">
         <v>323</v>
       </c>
-      <c r="D85" t="s">
+      <c r="F85" t="s">
         <v>324</v>
       </c>
-      <c r="E85" t="s">
-        <v>325</v>
-      </c>
-      <c r="F85" t="s">
-        <v>326</v>
-      </c>
       <c r="G85" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H85">
         <f t="shared" si="11"/>
@@ -5901,25 +6022,25 @@
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
+        <v>163</v>
+      </c>
+      <c r="B86" t="s">
+        <v>164</v>
+      </c>
+      <c r="C86" t="s">
         <v>165</v>
       </c>
-      <c r="B86" t="s">
+      <c r="D86" t="s">
         <v>166</v>
       </c>
-      <c r="C86" t="s">
+      <c r="E86" t="s">
         <v>167</v>
       </c>
-      <c r="D86" t="s">
-        <v>168</v>
-      </c>
-      <c r="E86" t="s">
-        <v>169</v>
-      </c>
       <c r="F86" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="H86">
         <f t="shared" si="11"/>
@@ -5936,22 +6057,22 @@
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
+        <v>507</v>
+      </c>
+      <c r="B87" t="s">
+        <v>508</v>
+      </c>
+      <c r="C87" t="s">
+        <v>509</v>
+      </c>
+      <c r="D87" t="s">
         <v>510</v>
       </c>
-      <c r="B87" t="s">
+      <c r="E87" t="s">
         <v>511</v>
       </c>
-      <c r="C87" t="s">
-        <v>512</v>
-      </c>
-      <c r="D87" t="s">
-        <v>513</v>
-      </c>
-      <c r="E87" t="s">
-        <v>514</v>
-      </c>
       <c r="F87" t="s">
-        <v>645</v>
+        <v>639</v>
       </c>
       <c r="H87">
         <f t="shared" si="11"/>
@@ -5968,22 +6089,22 @@
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
+        <v>512</v>
+      </c>
+      <c r="B88" t="s">
+        <v>513</v>
+      </c>
+      <c r="C88" t="s">
+        <v>514</v>
+      </c>
+      <c r="D88" t="s">
         <v>515</v>
       </c>
-      <c r="B88" t="s">
+      <c r="E88" t="s">
         <v>516</v>
       </c>
-      <c r="C88" t="s">
-        <v>517</v>
-      </c>
-      <c r="D88" t="s">
-        <v>518</v>
-      </c>
-      <c r="E88" t="s">
-        <v>519</v>
-      </c>
       <c r="F88" t="s">
-        <v>645</v>
+        <v>639</v>
       </c>
       <c r="H88">
         <f t="shared" si="11"/>
@@ -6000,22 +6121,22 @@
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
+        <v>517</v>
+      </c>
+      <c r="B89" t="s">
+        <v>518</v>
+      </c>
+      <c r="C89" t="s">
+        <v>519</v>
+      </c>
+      <c r="D89" t="s">
         <v>520</v>
       </c>
-      <c r="B89" t="s">
+      <c r="E89" t="s">
         <v>521</v>
       </c>
-      <c r="C89" t="s">
-        <v>522</v>
-      </c>
-      <c r="D89" t="s">
-        <v>523</v>
-      </c>
-      <c r="E89" t="s">
-        <v>524</v>
-      </c>
       <c r="F89" t="s">
-        <v>645</v>
+        <v>639</v>
       </c>
       <c r="H89">
         <f t="shared" si="11"/>
@@ -6032,25 +6153,25 @@
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
+        <v>173</v>
+      </c>
+      <c r="B90" t="s">
+        <v>174</v>
+      </c>
+      <c r="C90" t="s">
         <v>175</v>
       </c>
-      <c r="B90" t="s">
+      <c r="D90" t="s">
         <v>176</v>
       </c>
-      <c r="C90" t="s">
+      <c r="E90" t="s">
         <v>177</v>
       </c>
-      <c r="D90" t="s">
-        <v>178</v>
-      </c>
-      <c r="E90" t="s">
-        <v>179</v>
-      </c>
       <c r="F90" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H90">
         <f t="shared" si="11"/>
@@ -6067,25 +6188,25 @@
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
+        <v>202</v>
+      </c>
+      <c r="B91" t="s">
+        <v>203</v>
+      </c>
+      <c r="C91" t="s">
         <v>204</v>
       </c>
-      <c r="B91" t="s">
+      <c r="D91" t="s">
         <v>205</v>
       </c>
-      <c r="C91" t="s">
+      <c r="E91" t="s">
         <v>206</v>
       </c>
-      <c r="D91" t="s">
-        <v>207</v>
-      </c>
-      <c r="E91" t="s">
-        <v>208</v>
-      </c>
       <c r="F91" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H91">
         <f t="shared" si="11"/>
@@ -6102,167 +6223,167 @@
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
+        <v>307</v>
+      </c>
+      <c r="B92" t="s">
+        <v>308</v>
+      </c>
+      <c r="C92" t="s">
         <v>309</v>
       </c>
-      <c r="B92" t="s">
+      <c r="D92" t="s">
         <v>310</v>
       </c>
-      <c r="C92" t="s">
-        <v>311</v>
-      </c>
-      <c r="D92" t="s">
-        <v>312</v>
-      </c>
       <c r="E92" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="F92" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H92">
-        <f t="shared" si="11"/>
+        <f t="shared" ref="H92:H135" si="13">INT(J92/3)</f>
         <v>30</v>
       </c>
       <c r="I92" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" ref="I92:I135" si="14">$L$1+H92</f>
         <v>45655</v>
       </c>
       <c r="J92">
-        <f t="shared" ref="J92:J135" si="13">J91+1</f>
+        <f t="shared" ref="J92:J135" si="15">J91+1</f>
         <v>90</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
       <c r="B93" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="C93" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
       <c r="D93" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="E93" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F93" t="s">
-        <v>645</v>
+        <v>639</v>
       </c>
       <c r="H93">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>30</v>
       </c>
       <c r="I93" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>45655</v>
       </c>
       <c r="J93">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>91</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B94" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="C94" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
       <c r="D94" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
       <c r="E94" t="s">
-        <v>597</v>
+        <v>592</v>
       </c>
       <c r="F94" t="s">
-        <v>645</v>
+        <v>639</v>
       </c>
       <c r="H94">
-        <f t="shared" ref="H94:H135" si="14">INT(J94/3)</f>
+        <f t="shared" si="13"/>
         <v>30</v>
       </c>
       <c r="I94" s="3">
-        <f t="shared" ref="I94:I135" si="15">$L$1+H94</f>
+        <f t="shared" si="14"/>
         <v>45655</v>
       </c>
       <c r="J94">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>92</v>
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>598</v>
+        <v>593</v>
       </c>
       <c r="B95" t="s">
-        <v>599</v>
+        <v>594</v>
       </c>
       <c r="C95" t="s">
-        <v>600</v>
+        <v>595</v>
       </c>
       <c r="D95" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E95" t="s">
-        <v>601</v>
+        <v>596</v>
       </c>
       <c r="F95" t="s">
-        <v>645</v>
+        <v>639</v>
       </c>
       <c r="H95">
+        <f t="shared" si="13"/>
+        <v>31</v>
+      </c>
+      <c r="I95" s="3">
         <f t="shared" si="14"/>
-        <v>31</v>
-      </c>
-      <c r="I95" s="3">
+        <v>45656</v>
+      </c>
+      <c r="J95">
         <f t="shared" si="15"/>
-        <v>45656</v>
-      </c>
-      <c r="J95">
-        <f t="shared" si="13"/>
         <v>93</v>
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
+        <v>400</v>
+      </c>
+      <c r="B96" t="s">
+        <v>401</v>
+      </c>
+      <c r="C96" t="s">
         <v>402</v>
       </c>
-      <c r="B96" t="s">
+      <c r="D96" t="s">
         <v>403</v>
       </c>
-      <c r="C96" t="s">
+      <c r="E96" t="s">
         <v>404</v>
       </c>
-      <c r="D96" t="s">
-        <v>405</v>
-      </c>
-      <c r="E96" t="s">
-        <v>406</v>
-      </c>
       <c r="F96" t="s">
-        <v>411</v>
+        <v>662</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="H96">
+        <f t="shared" si="13"/>
+        <v>31</v>
+      </c>
+      <c r="I96" s="3">
         <f t="shared" si="14"/>
-        <v>31</v>
-      </c>
-      <c r="I96" s="3">
+        <v>45656</v>
+      </c>
+      <c r="J96">
         <f t="shared" si="15"/>
-        <v>45656</v>
-      </c>
-      <c r="J96">
-        <f t="shared" si="13"/>
         <v>94</v>
       </c>
     </row>
@@ -6283,1303 +6404,1303 @@
         <v>30</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H97">
+        <f t="shared" si="13"/>
+        <v>31</v>
+      </c>
+      <c r="I97" s="3">
         <f t="shared" si="14"/>
-        <v>31</v>
-      </c>
-      <c r="I97" s="3">
+        <v>45656</v>
+      </c>
+      <c r="J97">
         <f t="shared" si="15"/>
-        <v>45656</v>
-      </c>
-      <c r="J97">
-        <f t="shared" si="13"/>
         <v>95</v>
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
+        <v>67</v>
+      </c>
+      <c r="B98" t="s">
         <v>68</v>
       </c>
-      <c r="B98" t="s">
+      <c r="C98" t="s">
         <v>69</v>
       </c>
-      <c r="C98" t="s">
+      <c r="D98" t="s">
+        <v>372</v>
+      </c>
+      <c r="E98" t="s">
         <v>70</v>
       </c>
-      <c r="D98" t="s">
-        <v>374</v>
-      </c>
-      <c r="E98" t="s">
-        <v>71</v>
-      </c>
       <c r="F98" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H98">
+        <f t="shared" si="13"/>
+        <v>32</v>
+      </c>
+      <c r="I98" s="3">
         <f t="shared" si="14"/>
-        <v>32</v>
-      </c>
-      <c r="I98" s="3">
+        <v>45657</v>
+      </c>
+      <c r="J98">
         <f t="shared" si="15"/>
-        <v>45657</v>
-      </c>
-      <c r="J98">
-        <f t="shared" si="13"/>
         <v>96</v>
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="B99" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="C99" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="D99" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="E99" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="F99" t="s">
-        <v>645</v>
+        <v>639</v>
       </c>
       <c r="H99">
+        <f t="shared" si="13"/>
+        <v>32</v>
+      </c>
+      <c r="I99" s="3">
         <f t="shared" si="14"/>
-        <v>32</v>
-      </c>
-      <c r="I99" s="3">
+        <v>45657</v>
+      </c>
+      <c r="J99">
         <f t="shared" si="15"/>
-        <v>45657</v>
-      </c>
-      <c r="J99">
-        <f t="shared" si="13"/>
         <v>97</v>
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="B100" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="C100" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="D100" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
       <c r="E100" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
       <c r="F100" t="s">
-        <v>645</v>
+        <v>639</v>
       </c>
       <c r="H100">
+        <f t="shared" si="13"/>
+        <v>32</v>
+      </c>
+      <c r="I100" s="3">
         <f t="shared" si="14"/>
-        <v>32</v>
-      </c>
-      <c r="I100" s="3">
+        <v>45657</v>
+      </c>
+      <c r="J100">
         <f t="shared" si="15"/>
-        <v>45657</v>
-      </c>
-      <c r="J100">
-        <f t="shared" si="13"/>
         <v>98</v>
       </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="B101" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C101" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
       <c r="D101" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
       <c r="E101" t="s">
-        <v>570</v>
+        <v>565</v>
       </c>
       <c r="F101" t="s">
-        <v>645</v>
+        <v>639</v>
       </c>
       <c r="H101">
+        <f t="shared" si="13"/>
+        <v>33</v>
+      </c>
+      <c r="I101" s="3">
         <f t="shared" si="14"/>
-        <v>33</v>
-      </c>
-      <c r="I101" s="3">
+        <v>45658</v>
+      </c>
+      <c r="J101">
         <f t="shared" si="15"/>
-        <v>45658</v>
-      </c>
-      <c r="J101">
-        <f t="shared" si="13"/>
         <v>99</v>
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
       <c r="B102" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
       <c r="C102" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="D102" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
       <c r="E102" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="F102" t="s">
-        <v>645</v>
+        <v>639</v>
       </c>
       <c r="H102">
+        <f t="shared" si="13"/>
+        <v>33</v>
+      </c>
+      <c r="I102" s="3">
         <f t="shared" si="14"/>
-        <v>33</v>
-      </c>
-      <c r="I102" s="3">
+        <v>45658</v>
+      </c>
+      <c r="J102">
         <f t="shared" si="15"/>
-        <v>45658</v>
-      </c>
-      <c r="J102">
-        <f t="shared" si="13"/>
         <v>100</v>
       </c>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="B103" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="C103" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
       <c r="D103" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="E103" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
       <c r="F103" t="s">
-        <v>645</v>
+        <v>639</v>
       </c>
       <c r="H103">
+        <f t="shared" si="13"/>
+        <v>33</v>
+      </c>
+      <c r="I103" s="3">
         <f t="shared" si="14"/>
-        <v>33</v>
-      </c>
-      <c r="I103" s="3">
+        <v>45658</v>
+      </c>
+      <c r="J103">
         <f t="shared" si="15"/>
-        <v>45658</v>
-      </c>
-      <c r="J103">
-        <f t="shared" si="13"/>
         <v>101</v>
       </c>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
+        <v>183</v>
+      </c>
+      <c r="B104" t="s">
+        <v>184</v>
+      </c>
+      <c r="C104" t="s">
         <v>185</v>
       </c>
-      <c r="B104" t="s">
+      <c r="D104" t="s">
         <v>186</v>
       </c>
-      <c r="C104" t="s">
+      <c r="E104" t="s">
         <v>187</v>
       </c>
-      <c r="D104" t="s">
+      <c r="F104" t="s">
         <v>188</v>
       </c>
-      <c r="E104" t="s">
+      <c r="G104" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="F104" t="s">
-        <v>190</v>
-      </c>
-      <c r="G104" s="1" t="s">
-        <v>191</v>
-      </c>
       <c r="H104">
+        <f t="shared" si="13"/>
+        <v>34</v>
+      </c>
+      <c r="I104" s="3">
         <f t="shared" si="14"/>
-        <v>34</v>
-      </c>
-      <c r="I104" s="3">
+        <v>45659</v>
+      </c>
+      <c r="J104">
         <f t="shared" si="15"/>
-        <v>45659</v>
-      </c>
-      <c r="J104">
-        <f t="shared" si="13"/>
         <v>102</v>
       </c>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
+        <v>51</v>
+      </c>
+      <c r="B105" t="s">
         <v>52</v>
       </c>
-      <c r="B105" t="s">
+      <c r="C105" t="s">
         <v>53</v>
       </c>
-      <c r="C105" t="s">
+      <c r="D105" t="s">
         <v>54</v>
       </c>
-      <c r="D105" t="s">
+      <c r="E105" t="s">
         <v>55</v>
       </c>
-      <c r="E105" t="s">
-        <v>56</v>
-      </c>
       <c r="F105" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="G105" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="G105" s="1" t="s">
-        <v>90</v>
-      </c>
       <c r="H105">
+        <f t="shared" si="13"/>
+        <v>34</v>
+      </c>
+      <c r="I105" s="3">
         <f t="shared" si="14"/>
-        <v>34</v>
-      </c>
-      <c r="I105" s="3">
+        <v>45659</v>
+      </c>
+      <c r="J105">
         <f t="shared" si="15"/>
-        <v>45659</v>
-      </c>
-      <c r="J105">
-        <f t="shared" si="13"/>
         <v>103</v>
       </c>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
+        <v>231</v>
+      </c>
+      <c r="B106" t="s">
+        <v>232</v>
+      </c>
+      <c r="C106" t="s">
         <v>233</v>
       </c>
-      <c r="B106" t="s">
+      <c r="D106" t="s">
         <v>234</v>
       </c>
-      <c r="C106" t="s">
+      <c r="E106" t="s">
         <v>235</v>
       </c>
-      <c r="D106" t="s">
-        <v>236</v>
-      </c>
-      <c r="E106" t="s">
-        <v>237</v>
-      </c>
       <c r="F106" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="H106">
+        <f t="shared" si="13"/>
+        <v>34</v>
+      </c>
+      <c r="I106" s="3">
         <f t="shared" si="14"/>
-        <v>34</v>
-      </c>
-      <c r="I106" s="3">
+        <v>45659</v>
+      </c>
+      <c r="J106">
         <f t="shared" si="15"/>
-        <v>45659</v>
-      </c>
-      <c r="J106">
-        <f t="shared" si="13"/>
         <v>104</v>
       </c>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
+        <v>178</v>
+      </c>
+      <c r="B107" t="s">
+        <v>179</v>
+      </c>
+      <c r="C107" t="s">
         <v>180</v>
       </c>
-      <c r="B107" t="s">
+      <c r="D107" t="s">
         <v>181</v>
       </c>
-      <c r="C107" t="s">
+      <c r="E107" t="s">
         <v>182</v>
       </c>
-      <c r="D107" t="s">
-        <v>183</v>
-      </c>
-      <c r="E107" t="s">
-        <v>184</v>
-      </c>
       <c r="F107" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="H107">
+        <f t="shared" si="13"/>
+        <v>35</v>
+      </c>
+      <c r="I107" s="3">
         <f t="shared" si="14"/>
-        <v>35</v>
-      </c>
-      <c r="I107" s="3">
+        <v>45660</v>
+      </c>
+      <c r="J107">
         <f t="shared" si="15"/>
-        <v>45660</v>
-      </c>
-      <c r="J107">
-        <f t="shared" si="13"/>
         <v>105</v>
       </c>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>635</v>
+        <v>629</v>
       </c>
       <c r="B108" t="s">
-        <v>636</v>
+        <v>630</v>
       </c>
       <c r="C108" t="s">
-        <v>637</v>
+        <v>631</v>
       </c>
       <c r="D108" t="s">
-        <v>638</v>
+        <v>632</v>
       </c>
       <c r="E108" t="s">
+        <v>633</v>
+      </c>
+      <c r="F108" t="s">
         <v>639</v>
       </c>
-      <c r="F108" t="s">
-        <v>645</v>
-      </c>
       <c r="H108">
+        <f t="shared" si="13"/>
+        <v>35</v>
+      </c>
+      <c r="I108" s="3">
         <f t="shared" si="14"/>
-        <v>35</v>
-      </c>
-      <c r="I108" s="3">
+        <v>45660</v>
+      </c>
+      <c r="J108">
         <f t="shared" si="15"/>
-        <v>45660</v>
-      </c>
-      <c r="J108">
-        <f t="shared" si="13"/>
         <v>106</v>
       </c>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="B109" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="C109" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="D109" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="E109" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="F109" t="s">
-        <v>645</v>
+        <v>639</v>
       </c>
       <c r="H109">
+        <f t="shared" si="13"/>
+        <v>35</v>
+      </c>
+      <c r="I109" s="3">
         <f t="shared" si="14"/>
-        <v>35</v>
-      </c>
-      <c r="I109" s="3">
+        <v>45660</v>
+      </c>
+      <c r="J109">
         <f t="shared" si="15"/>
-        <v>45660</v>
-      </c>
-      <c r="J109">
-        <f t="shared" si="13"/>
         <v>107</v>
       </c>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>640</v>
+        <v>634</v>
       </c>
       <c r="B110" t="s">
-        <v>641</v>
+        <v>635</v>
       </c>
       <c r="C110" t="s">
-        <v>642</v>
+        <v>636</v>
       </c>
       <c r="D110" t="s">
-        <v>643</v>
+        <v>637</v>
       </c>
       <c r="E110" t="s">
-        <v>644</v>
+        <v>638</v>
       </c>
       <c r="F110" t="s">
-        <v>645</v>
+        <v>639</v>
       </c>
       <c r="H110">
+        <f t="shared" si="13"/>
+        <v>36</v>
+      </c>
+      <c r="I110" s="3">
         <f t="shared" si="14"/>
-        <v>36</v>
-      </c>
-      <c r="I110" s="3">
+        <v>45661</v>
+      </c>
+      <c r="J110">
         <f t="shared" si="15"/>
-        <v>45661</v>
-      </c>
-      <c r="J110">
-        <f t="shared" si="13"/>
         <v>108</v>
       </c>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
+        <v>405</v>
+      </c>
+      <c r="B111" t="s">
+        <v>406</v>
+      </c>
+      <c r="C111" t="s">
         <v>407</v>
       </c>
-      <c r="B111" t="s">
+      <c r="D111" t="s">
         <v>408</v>
       </c>
-      <c r="C111" t="s">
-        <v>409</v>
-      </c>
-      <c r="D111" t="s">
-        <v>410</v>
-      </c>
       <c r="E111" s="7" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="F111" t="s">
-        <v>411</v>
+        <v>662</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H111">
+        <f t="shared" si="13"/>
+        <v>36</v>
+      </c>
+      <c r="I111" s="3">
         <f t="shared" si="14"/>
-        <v>36</v>
-      </c>
-      <c r="I111" s="3">
+        <v>45661</v>
+      </c>
+      <c r="J111">
         <f t="shared" si="15"/>
-        <v>45661</v>
-      </c>
-      <c r="J111">
-        <f t="shared" si="13"/>
         <v>109</v>
       </c>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="B112" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
       <c r="C112" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="D112" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="E112" t="s">
-        <v>663</v>
+        <v>655</v>
       </c>
       <c r="F112" t="s">
-        <v>645</v>
+        <v>639</v>
       </c>
       <c r="H112">
+        <f t="shared" si="13"/>
+        <v>36</v>
+      </c>
+      <c r="I112" s="3">
         <f t="shared" si="14"/>
-        <v>36</v>
-      </c>
-      <c r="I112" s="3">
+        <v>45661</v>
+      </c>
+      <c r="J112">
         <f t="shared" si="15"/>
-        <v>45661</v>
-      </c>
-      <c r="J112">
-        <f t="shared" si="13"/>
         <v>110</v>
       </c>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
       <c r="B113" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
       <c r="C113" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="D113" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="E113" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="F113" t="s">
-        <v>645</v>
+        <v>639</v>
       </c>
       <c r="H113">
+        <f t="shared" si="13"/>
+        <v>37</v>
+      </c>
+      <c r="I113" s="3">
         <f t="shared" si="14"/>
-        <v>37</v>
-      </c>
-      <c r="I113" s="3">
+        <v>45662</v>
+      </c>
+      <c r="J113">
         <f t="shared" si="15"/>
-        <v>45662</v>
-      </c>
-      <c r="J113">
-        <f t="shared" si="13"/>
         <v>111</v>
       </c>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
       <c r="B114" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="C114" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="D114" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
       <c r="E114" t="s">
-        <v>662</v>
+        <v>654</v>
       </c>
       <c r="F114" t="s">
-        <v>645</v>
+        <v>639</v>
       </c>
       <c r="H114">
+        <f t="shared" si="13"/>
+        <v>37</v>
+      </c>
+      <c r="I114" s="3">
         <f t="shared" si="14"/>
-        <v>37</v>
-      </c>
-      <c r="I114" s="3">
+        <v>45662</v>
+      </c>
+      <c r="J114">
         <f t="shared" si="15"/>
-        <v>45662</v>
-      </c>
-      <c r="J114">
-        <f t="shared" si="13"/>
         <v>112</v>
       </c>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
+        <v>275</v>
+      </c>
+      <c r="B115" t="s">
+        <v>276</v>
+      </c>
+      <c r="C115" t="s">
         <v>277</v>
       </c>
-      <c r="B115" t="s">
+      <c r="D115" t="s">
         <v>278</v>
       </c>
-      <c r="C115" t="s">
+      <c r="E115" t="s">
         <v>279</v>
       </c>
-      <c r="D115" t="s">
-        <v>280</v>
-      </c>
-      <c r="E115" t="s">
-        <v>281</v>
-      </c>
       <c r="F115" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G115" s="1" t="s">
         <v>8</v>
       </c>
       <c r="H115">
+        <f t="shared" si="13"/>
+        <v>37</v>
+      </c>
+      <c r="I115" s="3">
         <f t="shared" si="14"/>
-        <v>37</v>
-      </c>
-      <c r="I115" s="3">
+        <v>45662</v>
+      </c>
+      <c r="J115">
         <f t="shared" si="15"/>
-        <v>45662</v>
-      </c>
-      <c r="J115">
-        <f t="shared" si="13"/>
         <v>113</v>
       </c>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
+        <v>241</v>
+      </c>
+      <c r="B116" t="s">
+        <v>242</v>
+      </c>
+      <c r="C116" t="s">
         <v>243</v>
       </c>
-      <c r="B116" t="s">
+      <c r="D116" t="s">
         <v>244</v>
       </c>
-      <c r="C116" t="s">
+      <c r="E116" t="s">
         <v>245</v>
       </c>
-      <c r="D116" t="s">
-        <v>246</v>
-      </c>
-      <c r="E116" t="s">
-        <v>247</v>
-      </c>
       <c r="F116" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="G116" s="1" t="s">
         <v>8</v>
       </c>
       <c r="H116">
+        <f t="shared" si="13"/>
+        <v>38</v>
+      </c>
+      <c r="I116" s="3">
         <f t="shared" si="14"/>
-        <v>38</v>
-      </c>
-      <c r="I116" s="3">
+        <v>45663</v>
+      </c>
+      <c r="J116">
         <f t="shared" si="15"/>
-        <v>45663</v>
-      </c>
-      <c r="J116">
-        <f t="shared" si="13"/>
         <v>114</v>
       </c>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
+        <v>311</v>
+      </c>
+      <c r="B117" t="s">
+        <v>312</v>
+      </c>
+      <c r="C117" t="s">
         <v>313</v>
       </c>
-      <c r="B117" t="s">
+      <c r="D117" t="s">
         <v>314</v>
       </c>
-      <c r="C117" t="s">
-        <v>315</v>
-      </c>
-      <c r="D117" t="s">
-        <v>316</v>
-      </c>
       <c r="E117" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="F117" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G117" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H117">
+        <f t="shared" si="13"/>
+        <v>38</v>
+      </c>
+      <c r="I117" s="3">
         <f t="shared" si="14"/>
-        <v>38</v>
-      </c>
-      <c r="I117" s="3">
+        <v>45663</v>
+      </c>
+      <c r="J117">
         <f t="shared" si="15"/>
-        <v>45663</v>
-      </c>
-      <c r="J117">
-        <f t="shared" si="13"/>
         <v>115</v>
       </c>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>620</v>
+        <v>614</v>
       </c>
       <c r="B118" t="s">
-        <v>621</v>
+        <v>615</v>
       </c>
       <c r="C118" t="s">
-        <v>622</v>
+        <v>616</v>
       </c>
       <c r="D118" t="s">
-        <v>623</v>
+        <v>617</v>
       </c>
       <c r="E118" t="s">
-        <v>624</v>
+        <v>618</v>
       </c>
       <c r="F118" t="s">
-        <v>645</v>
+        <v>639</v>
       </c>
       <c r="H118">
+        <f t="shared" si="13"/>
+        <v>38</v>
+      </c>
+      <c r="I118" s="3">
         <f t="shared" si="14"/>
-        <v>38</v>
-      </c>
-      <c r="I118" s="3">
+        <v>45663</v>
+      </c>
+      <c r="J118">
         <f t="shared" si="15"/>
-        <v>45663</v>
-      </c>
-      <c r="J118">
-        <f t="shared" si="13"/>
         <v>116</v>
       </c>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>625</v>
+        <v>619</v>
       </c>
       <c r="B119" t="s">
-        <v>626</v>
+        <v>620</v>
       </c>
       <c r="C119" t="s">
-        <v>627</v>
+        <v>621</v>
       </c>
       <c r="D119" t="s">
-        <v>628</v>
+        <v>622</v>
       </c>
       <c r="E119" t="s">
-        <v>629</v>
+        <v>623</v>
       </c>
       <c r="F119" t="s">
-        <v>645</v>
+        <v>639</v>
       </c>
       <c r="H119">
+        <f t="shared" si="13"/>
+        <v>39</v>
+      </c>
+      <c r="I119" s="3">
         <f t="shared" si="14"/>
-        <v>39</v>
-      </c>
-      <c r="I119" s="3">
+        <v>45664</v>
+      </c>
+      <c r="J119">
         <f t="shared" si="15"/>
-        <v>45664</v>
-      </c>
-      <c r="J119">
-        <f t="shared" si="13"/>
         <v>117</v>
       </c>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B120" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="C120" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D120" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="E120" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="F120" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G120" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H120">
+        <f t="shared" si="13"/>
+        <v>39</v>
+      </c>
+      <c r="I120" s="3">
         <f t="shared" si="14"/>
-        <v>39</v>
-      </c>
-      <c r="I120" s="3">
+        <v>45664</v>
+      </c>
+      <c r="J120">
         <f t="shared" si="15"/>
-        <v>45664</v>
-      </c>
-      <c r="J120">
-        <f t="shared" si="13"/>
         <v>118</v>
       </c>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>411</v>
+        <v>662</v>
       </c>
       <c r="B121" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="C121" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="D121" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="E121" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="F121" t="s">
-        <v>411</v>
+        <v>662</v>
       </c>
       <c r="G121" s="1" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="H121">
+        <f t="shared" si="13"/>
+        <v>39</v>
+      </c>
+      <c r="I121" s="3">
         <f t="shared" si="14"/>
-        <v>39</v>
-      </c>
-      <c r="I121" s="3">
+        <v>45664</v>
+      </c>
+      <c r="J121">
         <f t="shared" si="15"/>
-        <v>45664</v>
-      </c>
-      <c r="J121">
-        <f t="shared" si="13"/>
         <v>119</v>
       </c>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
+        <v>266</v>
+      </c>
+      <c r="B122" t="s">
+        <v>267</v>
+      </c>
+      <c r="C122" t="s">
         <v>268</v>
       </c>
-      <c r="B122" t="s">
+      <c r="D122" t="s">
+        <v>248</v>
+      </c>
+      <c r="E122" t="s">
         <v>269</v>
       </c>
-      <c r="C122" t="s">
-        <v>270</v>
-      </c>
-      <c r="D122" t="s">
-        <v>250</v>
-      </c>
-      <c r="E122" t="s">
-        <v>271</v>
-      </c>
       <c r="F122" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G122" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="H122">
+        <f t="shared" si="13"/>
+        <v>40</v>
+      </c>
+      <c r="I122" s="3">
         <f t="shared" si="14"/>
-        <v>40</v>
-      </c>
-      <c r="I122" s="3">
+        <v>45665</v>
+      </c>
+      <c r="J122">
         <f t="shared" si="15"/>
-        <v>45665</v>
-      </c>
-      <c r="J122">
-        <f t="shared" si="13"/>
         <v>120</v>
       </c>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B123" t="s">
+        <v>246</v>
+      </c>
+      <c r="C123" t="s">
+        <v>247</v>
+      </c>
+      <c r="D123" t="s">
         <v>248</v>
       </c>
-      <c r="C123" t="s">
+      <c r="E123" t="s">
         <v>249</v>
       </c>
-      <c r="D123" t="s">
-        <v>250</v>
-      </c>
-      <c r="E123" t="s">
-        <v>251</v>
-      </c>
       <c r="F123" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="G123" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="H123">
+        <f t="shared" si="13"/>
+        <v>40</v>
+      </c>
+      <c r="I123" s="3">
         <f t="shared" si="14"/>
-        <v>40</v>
-      </c>
-      <c r="I123" s="3">
+        <v>45665</v>
+      </c>
+      <c r="J123">
         <f t="shared" si="15"/>
-        <v>45665</v>
-      </c>
-      <c r="J123">
-        <f t="shared" si="13"/>
         <v>121</v>
       </c>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>630</v>
+        <v>624</v>
       </c>
       <c r="B124" t="s">
-        <v>631</v>
+        <v>625</v>
       </c>
       <c r="C124" t="s">
-        <v>632</v>
+        <v>626</v>
       </c>
       <c r="D124" t="s">
-        <v>633</v>
+        <v>627</v>
       </c>
       <c r="E124" t="s">
-        <v>634</v>
+        <v>628</v>
       </c>
       <c r="F124" t="s">
-        <v>645</v>
+        <v>639</v>
       </c>
       <c r="H124">
+        <f t="shared" si="13"/>
+        <v>40</v>
+      </c>
+      <c r="I124" s="3">
         <f t="shared" si="14"/>
-        <v>40</v>
-      </c>
-      <c r="I124" s="3">
+        <v>45665</v>
+      </c>
+      <c r="J124">
         <f t="shared" si="15"/>
-        <v>45665</v>
-      </c>
-      <c r="J124">
-        <f t="shared" si="13"/>
         <v>122</v>
       </c>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B125" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C125" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D125" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="E125" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="F125" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G125" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H125">
+        <f t="shared" si="13"/>
+        <v>41</v>
+      </c>
+      <c r="I125" s="3">
         <f t="shared" si="14"/>
-        <v>41</v>
-      </c>
-      <c r="I125" s="3">
+        <v>45666</v>
+      </c>
+      <c r="J125">
         <f t="shared" si="15"/>
-        <v>45666</v>
-      </c>
-      <c r="J125">
-        <f t="shared" si="13"/>
         <v>123</v>
       </c>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
+        <v>303</v>
+      </c>
+      <c r="B126" t="s">
+        <v>304</v>
+      </c>
+      <c r="C126" t="s">
         <v>305</v>
       </c>
-      <c r="B126" t="s">
+      <c r="D126" t="s">
         <v>306</v>
       </c>
-      <c r="C126" t="s">
-        <v>307</v>
-      </c>
-      <c r="D126" t="s">
-        <v>308</v>
-      </c>
       <c r="E126" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="F126" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G126" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H126">
+        <f t="shared" si="13"/>
+        <v>41</v>
+      </c>
+      <c r="I126" s="3">
         <f t="shared" si="14"/>
-        <v>41</v>
-      </c>
-      <c r="I126" s="3">
+        <v>45666</v>
+      </c>
+      <c r="J126">
         <f t="shared" si="15"/>
-        <v>45666</v>
-      </c>
-      <c r="J126">
-        <f t="shared" si="13"/>
         <v>124</v>
       </c>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
+        <v>221</v>
+      </c>
+      <c r="B127" t="s">
+        <v>222</v>
+      </c>
+      <c r="C127" t="s">
         <v>223</v>
       </c>
-      <c r="B127" t="s">
+      <c r="D127" t="s">
         <v>224</v>
       </c>
-      <c r="C127" t="s">
+      <c r="E127" t="s">
         <v>225</v>
       </c>
-      <c r="D127" t="s">
-        <v>226</v>
-      </c>
-      <c r="E127" t="s">
-        <v>227</v>
-      </c>
       <c r="F127" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="G127" s="1" t="s">
         <v>8</v>
       </c>
       <c r="H127">
+        <f t="shared" si="13"/>
+        <v>41</v>
+      </c>
+      <c r="I127" s="3">
         <f t="shared" si="14"/>
-        <v>41</v>
-      </c>
-      <c r="I127" s="3">
+        <v>45666</v>
+      </c>
+      <c r="J127">
         <f t="shared" si="15"/>
-        <v>45666</v>
-      </c>
-      <c r="J127">
-        <f t="shared" si="13"/>
         <v>125</v>
       </c>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
+        <v>148</v>
+      </c>
+      <c r="B128" t="s">
+        <v>149</v>
+      </c>
+      <c r="C128" t="s">
         <v>150</v>
       </c>
-      <c r="B128" t="s">
+      <c r="D128" t="s">
         <v>151</v>
       </c>
-      <c r="C128" t="s">
+      <c r="E128" t="s">
         <v>152</v>
       </c>
-      <c r="D128" t="s">
-        <v>153</v>
-      </c>
-      <c r="E128" t="s">
-        <v>154</v>
-      </c>
       <c r="F128" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G128" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="H128">
+        <f t="shared" si="13"/>
+        <v>42</v>
+      </c>
+      <c r="I128" s="3">
         <f t="shared" si="14"/>
-        <v>42</v>
-      </c>
-      <c r="I128" s="3">
+        <v>45667</v>
+      </c>
+      <c r="J128">
         <f t="shared" si="15"/>
-        <v>45667</v>
-      </c>
-      <c r="J128">
-        <f t="shared" si="13"/>
         <v>126</v>
       </c>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
+        <v>71</v>
+      </c>
+      <c r="B129" t="s">
         <v>72</v>
       </c>
-      <c r="B129" t="s">
+      <c r="C129" t="s">
         <v>73</v>
       </c>
-      <c r="C129" t="s">
+      <c r="D129" t="s">
         <v>74</v>
       </c>
-      <c r="D129" t="s">
+      <c r="E129" t="s">
         <v>75</v>
       </c>
-      <c r="E129" t="s">
-        <v>76</v>
-      </c>
       <c r="F129" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G129" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H129">
+        <f t="shared" si="13"/>
+        <v>42</v>
+      </c>
+      <c r="I129" s="3">
         <f t="shared" si="14"/>
-        <v>42</v>
-      </c>
-      <c r="I129" s="3">
+        <v>45667</v>
+      </c>
+      <c r="J129">
         <f t="shared" si="15"/>
-        <v>45667</v>
-      </c>
-      <c r="J129">
-        <f t="shared" si="13"/>
         <v>127</v>
       </c>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
+        <v>441</v>
+      </c>
+      <c r="B130" t="s">
+        <v>442</v>
+      </c>
+      <c r="C130" t="s">
+        <v>443</v>
+      </c>
+      <c r="D130" t="s">
         <v>444</v>
       </c>
-      <c r="B130" t="s">
+      <c r="E130" t="s">
         <v>445</v>
       </c>
-      <c r="C130" t="s">
+      <c r="F130" s="1" t="s">
         <v>446</v>
       </c>
-      <c r="D130" t="s">
-        <v>447</v>
-      </c>
-      <c r="E130" t="s">
-        <v>448</v>
-      </c>
-      <c r="F130" s="1" t="s">
-        <v>449</v>
-      </c>
       <c r="G130" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="H130">
+        <f t="shared" si="13"/>
+        <v>42</v>
+      </c>
+      <c r="I130" s="3">
         <f t="shared" si="14"/>
-        <v>42</v>
-      </c>
-      <c r="I130" s="3">
+        <v>45667</v>
+      </c>
+      <c r="J130">
         <f t="shared" si="15"/>
-        <v>45667</v>
-      </c>
-      <c r="J130">
-        <f t="shared" si="13"/>
         <v>128</v>
       </c>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B131" t="s">
+        <v>447</v>
+      </c>
+      <c r="C131" t="s">
+        <v>448</v>
+      </c>
+      <c r="D131" t="s">
+        <v>449</v>
+      </c>
+      <c r="E131" t="s">
         <v>450</v>
       </c>
-      <c r="C131" t="s">
+      <c r="F131" t="s">
         <v>451</v>
       </c>
-      <c r="D131" t="s">
-        <v>452</v>
-      </c>
-      <c r="E131" t="s">
-        <v>453</v>
-      </c>
-      <c r="F131" t="s">
-        <v>454</v>
-      </c>
       <c r="G131" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H131">
+        <f t="shared" si="13"/>
+        <v>43</v>
+      </c>
+      <c r="I131" s="3">
         <f t="shared" si="14"/>
-        <v>43</v>
-      </c>
-      <c r="I131" s="3">
+        <v>45668</v>
+      </c>
+      <c r="J131">
         <f t="shared" si="15"/>
-        <v>45668</v>
-      </c>
-      <c r="J131">
-        <f t="shared" si="13"/>
         <v>129</v>
       </c>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
+        <v>452</v>
+      </c>
+      <c r="B132" t="s">
+        <v>453</v>
+      </c>
+      <c r="C132" t="s">
+        <v>454</v>
+      </c>
+      <c r="D132" t="s">
         <v>455</v>
       </c>
-      <c r="B132" t="s">
+      <c r="E132" t="s">
         <v>456</v>
       </c>
-      <c r="C132" t="s">
-        <v>457</v>
-      </c>
-      <c r="D132" t="s">
-        <v>458</v>
-      </c>
-      <c r="E132" t="s">
-        <v>459</v>
-      </c>
       <c r="F132" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="G132" s="1" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="H132">
+        <f t="shared" si="13"/>
+        <v>43</v>
+      </c>
+      <c r="I132" s="3">
         <f t="shared" si="14"/>
-        <v>43</v>
-      </c>
-      <c r="I132" s="3">
+        <v>45668</v>
+      </c>
+      <c r="J132">
         <f t="shared" si="15"/>
-        <v>45668</v>
-      </c>
-      <c r="J132">
-        <f t="shared" si="13"/>
         <v>130</v>
       </c>
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
+        <v>457</v>
+      </c>
+      <c r="B133" t="s">
+        <v>458</v>
+      </c>
+      <c r="C133" t="s">
+        <v>459</v>
+      </c>
+      <c r="D133" t="s">
         <v>460</v>
       </c>
-      <c r="B133" t="s">
+      <c r="E133" t="s">
         <v>461</v>
       </c>
-      <c r="C133" t="s">
+      <c r="F133" t="s">
+        <v>446</v>
+      </c>
+      <c r="G133" s="1" t="s">
         <v>462</v>
       </c>
-      <c r="D133" t="s">
-        <v>463</v>
-      </c>
-      <c r="E133" t="s">
-        <v>464</v>
-      </c>
-      <c r="F133" t="s">
-        <v>449</v>
-      </c>
-      <c r="G133" s="1" t="s">
-        <v>465</v>
-      </c>
       <c r="H133">
+        <f t="shared" si="13"/>
+        <v>43</v>
+      </c>
+      <c r="I133" s="3">
         <f t="shared" si="14"/>
-        <v>43</v>
-      </c>
-      <c r="I133" s="3">
+        <v>45668</v>
+      </c>
+      <c r="J133">
         <f t="shared" si="15"/>
-        <v>45668</v>
-      </c>
-      <c r="J133">
-        <f t="shared" si="13"/>
         <v>131</v>
       </c>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>650</v>
+        <v>642</v>
       </c>
       <c r="B134" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C134" t="s">
-        <v>651</v>
+        <v>643</v>
       </c>
       <c r="D134" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E134" t="s">
-        <v>652</v>
+        <v>644</v>
       </c>
       <c r="F134" t="s">
-        <v>645</v>
+        <v>639</v>
       </c>
       <c r="H134">
+        <f t="shared" si="13"/>
+        <v>44</v>
+      </c>
+      <c r="I134" s="3">
         <f t="shared" si="14"/>
-        <v>44</v>
-      </c>
-      <c r="I134" s="3">
+        <v>45669</v>
+      </c>
+      <c r="J134">
         <f t="shared" si="15"/>
-        <v>45669</v>
-      </c>
-      <c r="J134">
-        <f t="shared" si="13"/>
         <v>132</v>
       </c>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B135" t="s">
-        <v>653</v>
+        <v>645</v>
       </c>
       <c r="C135" t="s">
-        <v>654</v>
+        <v>646</v>
       </c>
       <c r="D135" t="s">
-        <v>655</v>
+        <v>647</v>
       </c>
       <c r="E135" t="s">
-        <v>656</v>
+        <v>648</v>
       </c>
       <c r="F135" t="s">
-        <v>645</v>
+        <v>639</v>
       </c>
       <c r="H135">
+        <f t="shared" si="13"/>
+        <v>44</v>
+      </c>
+      <c r="I135" s="3">
         <f t="shared" si="14"/>
-        <v>44</v>
-      </c>
-      <c r="I135" s="3">
+        <v>45669</v>
+      </c>
+      <c r="J135">
         <f t="shared" si="15"/>
-        <v>45669</v>
-      </c>
-      <c r="J135">
-        <f t="shared" si="13"/>
         <v>133</v>
       </c>
     </row>
@@ -7588,8 +7709,13 @@
     <sortCondition ref="H8:H132"/>
   </sortState>
   <conditionalFormatting sqref="I1:I1048576">
-    <cfRule type="cellIs" dxfId="2" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="3" stopIfTrue="1" operator="equal">
       <formula>$L$2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E1:E1048576">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>MOD(H1,2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/code/shabdakala/resource/sbwords.xlsx
+++ b/code/shabdakala/resource/sbwords.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hrishinene/github/shabdakala/shabdakala/code/shabdakala/resource/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77E7B66F-4B50-024A-83AC-D815008F3D42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3144147D-7A04-F74F-8A87-68483379358F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{9F74AEE5-EB85-4044-AC84-8761A591B5C1}"/>
   </bookViews>
@@ -1604,9 +1604,6 @@
     <t>करंडक</t>
   </si>
   <si>
-    <t>मेडल</t>
-  </si>
-  <si>
     <t>चक्र</t>
   </si>
   <si>
@@ -2022,6 +2019,9 @@
   </si>
   <si>
     <t>केदार म्हसवडे</t>
+  </si>
+  <si>
+    <t>पदक</t>
   </si>
 </sst>
 </file>
@@ -2594,17 +2594,7 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="16">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <font>
         <b/>
@@ -2623,132 +2613,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3084,8 +2948,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEA1707B-2FB7-B84C-9F84-E9F074F3056C}">
   <dimension ref="A1:L135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3173,7 +3037,7 @@
       </c>
       <c r="L2" s="6">
         <f ca="1">TODAY()</f>
-        <v>45634</v>
+        <v>45636</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -3904,11 +3768,11 @@
         <v>8</v>
       </c>
       <c r="H23">
-        <f t="shared" ref="H23:H29" si="9">INT(J23/3)</f>
+        <f t="shared" ref="H23:H27" si="9">INT(J23/3)</f>
         <v>7</v>
       </c>
       <c r="I23" s="3">
-        <f t="shared" ref="I23:I29" si="10">$L$1+H23</f>
+        <f t="shared" ref="I23:I27" si="10">$L$1+H23</f>
         <v>45632</v>
       </c>
       <c r="J23">
@@ -3968,7 +3832,7 @@
         <v>377</v>
       </c>
       <c r="F25" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>189</v>
@@ -4073,7 +3937,7 @@
         <v>433</v>
       </c>
       <c r="F28" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="G28" s="1" t="s">
         <v>439</v>
@@ -4198,22 +4062,22 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
+        <v>525</v>
+      </c>
+      <c r="B32" t="s">
         <v>526</v>
       </c>
-      <c r="B32" t="s">
+      <c r="C32" t="s">
         <v>527</v>
       </c>
-      <c r="C32" t="s">
+      <c r="D32" t="s">
         <v>528</v>
       </c>
-      <c r="D32" t="s">
+      <c r="E32" t="s">
         <v>529</v>
       </c>
-      <c r="E32" t="s">
-        <v>530</v>
-      </c>
       <c r="F32" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="H32">
         <f t="shared" si="11"/>
@@ -4230,22 +4094,22 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B33" t="s">
         <v>378</v>
       </c>
       <c r="C33" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="D33" t="s">
         <v>233</v>
       </c>
       <c r="E33" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="F33" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="H33">
         <f t="shared" si="11"/>
@@ -4262,22 +4126,22 @@
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B34" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="C34" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="D34" t="s">
         <v>51</v>
       </c>
       <c r="E34" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="F34" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="H34">
         <f t="shared" si="11"/>
@@ -4341,7 +4205,7 @@
         <v>34</v>
       </c>
       <c r="E36" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>346</v>
@@ -4376,7 +4240,7 @@
         <v>114</v>
       </c>
       <c r="E37" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>88</v>
@@ -4399,22 +4263,22 @@
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="B38" t="s">
         <v>522</v>
       </c>
       <c r="C38" t="s">
+        <v>662</v>
+      </c>
+      <c r="D38" t="s">
         <v>523</v>
       </c>
-      <c r="D38" t="s">
+      <c r="E38" t="s">
         <v>524</v>
       </c>
-      <c r="E38" t="s">
-        <v>525</v>
-      </c>
       <c r="F38" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="H38">
         <f t="shared" si="11"/>
@@ -4431,22 +4295,22 @@
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
+        <v>534</v>
+      </c>
+      <c r="B39" t="s">
         <v>535</v>
-      </c>
-      <c r="B39" t="s">
-        <v>536</v>
       </c>
       <c r="C39" t="s">
         <v>7</v>
       </c>
       <c r="D39" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E39" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="F39" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="H39">
         <f t="shared" si="11"/>
@@ -4533,22 +4397,22 @@
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
+        <v>596</v>
+      </c>
+      <c r="B42" t="s">
         <v>597</v>
       </c>
-      <c r="B42" t="s">
+      <c r="C42" t="s">
+        <v>660</v>
+      </c>
+      <c r="D42" t="s">
         <v>598</v>
       </c>
-      <c r="C42" t="s">
-        <v>661</v>
-      </c>
-      <c r="D42" t="s">
+      <c r="E42" t="s">
         <v>599</v>
       </c>
-      <c r="E42" t="s">
-        <v>600</v>
-      </c>
       <c r="F42" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="H42">
         <f t="shared" si="11"/>
@@ -4565,22 +4429,22 @@
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
+        <v>608</v>
+      </c>
+      <c r="B43" t="s">
         <v>609</v>
       </c>
-      <c r="B43" t="s">
+      <c r="C43" t="s">
         <v>610</v>
       </c>
-      <c r="C43" t="s">
+      <c r="D43" t="s">
         <v>611</v>
       </c>
-      <c r="D43" t="s">
+      <c r="E43" t="s">
         <v>612</v>
       </c>
-      <c r="E43" t="s">
-        <v>613</v>
-      </c>
       <c r="F43" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="H43">
         <f t="shared" si="11"/>
@@ -4612,7 +4476,7 @@
         <v>385</v>
       </c>
       <c r="F44" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="G44" s="1" t="s">
         <v>280</v>
@@ -4667,22 +4531,22 @@
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
+        <v>541</v>
+      </c>
+      <c r="B46" t="s">
         <v>542</v>
       </c>
-      <c r="B46" t="s">
+      <c r="C46" t="s">
         <v>543</v>
       </c>
-      <c r="C46" t="s">
+      <c r="D46" t="s">
         <v>544</v>
       </c>
-      <c r="D46" t="s">
+      <c r="E46" t="s">
         <v>545</v>
       </c>
-      <c r="E46" t="s">
-        <v>546</v>
-      </c>
       <c r="F46" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="H46">
         <f t="shared" si="11"/>
@@ -4702,19 +4566,19 @@
         <v>233</v>
       </c>
       <c r="B47" t="s">
+        <v>546</v>
+      </c>
+      <c r="C47" t="s">
         <v>547</v>
       </c>
-      <c r="C47" t="s">
+      <c r="D47" t="s">
         <v>548</v>
       </c>
-      <c r="D47" t="s">
+      <c r="E47" t="s">
         <v>549</v>
       </c>
-      <c r="E47" t="s">
-        <v>550</v>
-      </c>
       <c r="F47" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="H47">
         <f t="shared" si="11"/>
@@ -4731,22 +4595,22 @@
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
+        <v>550</v>
+      </c>
+      <c r="B48" t="s">
         <v>551</v>
       </c>
-      <c r="B48" t="s">
+      <c r="C48" t="s">
         <v>552</v>
       </c>
-      <c r="C48" t="s">
+      <c r="D48" t="s">
         <v>553</v>
       </c>
-      <c r="D48" t="s">
+      <c r="E48" t="s">
         <v>554</v>
       </c>
-      <c r="E48" t="s">
-        <v>555</v>
-      </c>
       <c r="F48" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="H48">
         <f t="shared" si="11"/>
@@ -4813,7 +4677,7 @@
         <v>423</v>
       </c>
       <c r="F50" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="G50" s="1" t="s">
         <v>280</v>
@@ -4988,7 +4852,7 @@
         <v>440</v>
       </c>
       <c r="F55" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="G55" s="1" t="s">
         <v>280</v>
@@ -5093,7 +4957,7 @@
         <v>481</v>
       </c>
       <c r="F58" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="H58">
         <f t="shared" si="11"/>
@@ -5125,7 +4989,7 @@
         <v>486</v>
       </c>
       <c r="F59" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="H59">
         <f t="shared" si="11"/>
@@ -5157,7 +5021,7 @@
         <v>491</v>
       </c>
       <c r="F60" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="H60">
         <f t="shared" si="11"/>
@@ -5189,7 +5053,7 @@
         <v>382</v>
       </c>
       <c r="F61" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="G61" s="1" t="s">
         <v>280</v>
@@ -5329,7 +5193,7 @@
         <v>428</v>
       </c>
       <c r="F65" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="G65" s="1" t="s">
         <v>280</v>
@@ -5364,7 +5228,7 @@
         <v>415</v>
       </c>
       <c r="F66" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="G66" s="1" t="s">
         <v>438</v>
@@ -5399,7 +5263,7 @@
         <v>476</v>
       </c>
       <c r="F67" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="H67">
         <f t="shared" si="11"/>
@@ -5454,19 +5318,19 @@
         <v>218</v>
       </c>
       <c r="B69" t="s">
+        <v>600</v>
+      </c>
+      <c r="C69" t="s">
         <v>601</v>
       </c>
-      <c r="C69" t="s">
+      <c r="D69" t="s">
         <v>602</v>
       </c>
-      <c r="D69" t="s">
-        <v>603</v>
-      </c>
       <c r="E69" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="F69" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="H69">
         <f t="shared" si="11"/>
@@ -5483,22 +5347,22 @@
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
+        <v>603</v>
+      </c>
+      <c r="B70" t="s">
         <v>604</v>
       </c>
-      <c r="B70" t="s">
+      <c r="C70" t="s">
         <v>605</v>
       </c>
-      <c r="C70" t="s">
+      <c r="D70" t="s">
         <v>606</v>
       </c>
-      <c r="D70" t="s">
+      <c r="E70" t="s">
         <v>607</v>
       </c>
-      <c r="E70" t="s">
-        <v>608</v>
-      </c>
       <c r="F70" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="H70">
         <f t="shared" si="11"/>
@@ -5530,7 +5394,7 @@
         <v>434</v>
       </c>
       <c r="F71" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="G71" s="1" t="s">
         <v>280</v>
@@ -5661,16 +5525,16 @@
         <v>503</v>
       </c>
       <c r="C75" t="s">
+        <v>648</v>
+      </c>
+      <c r="D75" t="s">
         <v>649</v>
       </c>
-      <c r="D75" t="s">
+      <c r="E75" t="s">
         <v>650</v>
       </c>
-      <c r="E75" t="s">
-        <v>651</v>
-      </c>
       <c r="F75" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="H75">
         <f t="shared" si="11"/>
@@ -5696,13 +5560,13 @@
         <v>309</v>
       </c>
       <c r="D76" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="E76" t="s">
         <v>506</v>
       </c>
       <c r="F76" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="H76">
         <f t="shared" si="11"/>
@@ -5804,7 +5668,7 @@
         <v>467</v>
       </c>
       <c r="F79" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="H79">
         <f t="shared" si="11"/>
@@ -5836,7 +5700,7 @@
         <v>472</v>
       </c>
       <c r="F80" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="H80">
         <f t="shared" si="11"/>
@@ -5868,7 +5732,7 @@
         <v>398</v>
       </c>
       <c r="F81" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="G81" s="1" t="s">
         <v>435</v>
@@ -5938,7 +5802,7 @@
         <v>496</v>
       </c>
       <c r="F83" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="H83">
         <f t="shared" si="11"/>
@@ -5970,7 +5834,7 @@
         <v>501</v>
       </c>
       <c r="F84" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="H84">
         <f t="shared" si="11"/>
@@ -6072,7 +5936,7 @@
         <v>511</v>
       </c>
       <c r="F87" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="H87">
         <f t="shared" si="11"/>
@@ -6104,7 +5968,7 @@
         <v>516</v>
       </c>
       <c r="F88" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="H88">
         <f t="shared" si="11"/>
@@ -6136,7 +6000,7 @@
         <v>521</v>
       </c>
       <c r="F89" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="H89">
         <f t="shared" si="11"/>
@@ -6258,22 +6122,22 @@
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
+        <v>587</v>
+      </c>
+      <c r="B93" t="s">
         <v>588</v>
       </c>
-      <c r="B93" t="s">
-        <v>589</v>
-      </c>
       <c r="C93" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="D93" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="E93" t="s">
         <v>166</v>
       </c>
       <c r="F93" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="H93">
         <f t="shared" si="13"/>
@@ -6293,19 +6157,19 @@
         <v>166</v>
       </c>
       <c r="B94" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C94" t="s">
+        <v>589</v>
+      </c>
+      <c r="D94" t="s">
         <v>590</v>
       </c>
-      <c r="D94" t="s">
+      <c r="E94" t="s">
         <v>591</v>
       </c>
-      <c r="E94" t="s">
-        <v>592</v>
-      </c>
       <c r="F94" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="H94">
         <f t="shared" si="13"/>
@@ -6322,22 +6186,22 @@
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
+        <v>592</v>
+      </c>
+      <c r="B95" t="s">
         <v>593</v>
       </c>
-      <c r="B95" t="s">
+      <c r="C95" t="s">
         <v>594</v>
-      </c>
-      <c r="C95" t="s">
-        <v>595</v>
       </c>
       <c r="D95" t="s">
         <v>155</v>
       </c>
       <c r="E95" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="F95" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="H95">
         <f t="shared" si="13"/>
@@ -6369,7 +6233,7 @@
         <v>404</v>
       </c>
       <c r="F96" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="G96" s="1" t="s">
         <v>280</v>
@@ -6462,7 +6326,7 @@
         <v>418</v>
       </c>
       <c r="B99" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C99" t="s">
         <v>417</v>
@@ -6471,10 +6335,10 @@
         <v>419</v>
       </c>
       <c r="E99" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F99" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="H99">
         <f t="shared" si="13"/>
@@ -6491,22 +6355,22 @@
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
+        <v>557</v>
+      </c>
+      <c r="B100" t="s">
         <v>558</v>
       </c>
-      <c r="B100" t="s">
+      <c r="C100" t="s">
         <v>559</v>
       </c>
-      <c r="C100" t="s">
+      <c r="D100" t="s">
         <v>560</v>
       </c>
-      <c r="D100" t="s">
+      <c r="E100" t="s">
         <v>561</v>
       </c>
-      <c r="E100" t="s">
-        <v>562</v>
-      </c>
       <c r="F100" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="H100">
         <f t="shared" si="13"/>
@@ -6529,16 +6393,16 @@
         <v>399</v>
       </c>
       <c r="C101" t="s">
+        <v>562</v>
+      </c>
+      <c r="D101" t="s">
         <v>563</v>
       </c>
-      <c r="D101" t="s">
+      <c r="E101" t="s">
         <v>564</v>
       </c>
-      <c r="E101" t="s">
-        <v>565</v>
-      </c>
       <c r="F101" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="H101">
         <f t="shared" si="13"/>
@@ -6555,22 +6419,22 @@
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
+        <v>565</v>
+      </c>
+      <c r="B102" t="s">
         <v>566</v>
       </c>
-      <c r="B102" t="s">
+      <c r="C102" t="s">
         <v>567</v>
       </c>
-      <c r="C102" t="s">
+      <c r="D102" t="s">
         <v>568</v>
       </c>
-      <c r="D102" t="s">
+      <c r="E102" t="s">
         <v>569</v>
       </c>
-      <c r="E102" t="s">
-        <v>570</v>
-      </c>
       <c r="F102" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="H102">
         <f t="shared" si="13"/>
@@ -6587,22 +6451,22 @@
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
+        <v>570</v>
+      </c>
+      <c r="B103" t="s">
         <v>571</v>
       </c>
-      <c r="B103" t="s">
+      <c r="C103" t="s">
         <v>572</v>
       </c>
-      <c r="C103" t="s">
+      <c r="D103" t="s">
         <v>573</v>
       </c>
-      <c r="D103" t="s">
+      <c r="E103" t="s">
         <v>574</v>
       </c>
-      <c r="E103" t="s">
-        <v>575</v>
-      </c>
       <c r="F103" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="H103">
         <f t="shared" si="13"/>
@@ -6759,22 +6623,22 @@
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
+        <v>628</v>
+      </c>
+      <c r="B108" t="s">
         <v>629</v>
       </c>
-      <c r="B108" t="s">
+      <c r="C108" t="s">
         <v>630</v>
       </c>
-      <c r="C108" t="s">
+      <c r="D108" t="s">
         <v>631</v>
       </c>
-      <c r="D108" t="s">
+      <c r="E108" t="s">
         <v>632</v>
       </c>
-      <c r="E108" t="s">
-        <v>633</v>
-      </c>
       <c r="F108" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="H108">
         <f t="shared" si="13"/>
@@ -6791,22 +6655,22 @@
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B109" t="s">
         <v>475</v>
       </c>
       <c r="C109" t="s">
+        <v>538</v>
+      </c>
+      <c r="D109" t="s">
         <v>539</v>
       </c>
-      <c r="D109" t="s">
+      <c r="E109" t="s">
         <v>540</v>
       </c>
-      <c r="E109" t="s">
-        <v>541</v>
-      </c>
       <c r="F109" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="H109">
         <f t="shared" si="13"/>
@@ -6823,22 +6687,22 @@
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
+        <v>633</v>
+      </c>
+      <c r="B110" t="s">
         <v>634</v>
       </c>
-      <c r="B110" t="s">
+      <c r="C110" t="s">
         <v>635</v>
       </c>
-      <c r="C110" t="s">
+      <c r="D110" t="s">
         <v>636</v>
       </c>
-      <c r="D110" t="s">
+      <c r="E110" t="s">
         <v>637</v>
       </c>
-      <c r="E110" t="s">
+      <c r="F110" t="s">
         <v>638</v>
-      </c>
-      <c r="F110" t="s">
-        <v>639</v>
       </c>
       <c r="H110">
         <f t="shared" si="13"/>
@@ -6870,7 +6734,7 @@
         <v>431</v>
       </c>
       <c r="F111" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="G111" s="1" t="s">
         <v>90</v>
@@ -6890,22 +6754,22 @@
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
+        <v>575</v>
+      </c>
+      <c r="B112" t="s">
         <v>576</v>
-      </c>
-      <c r="B112" t="s">
-        <v>577</v>
       </c>
       <c r="C112" t="s">
         <v>419</v>
       </c>
       <c r="D112" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="E112" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="F112" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="H112">
         <f t="shared" si="13"/>
@@ -6922,22 +6786,22 @@
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
+        <v>578</v>
+      </c>
+      <c r="B113" t="s">
         <v>579</v>
       </c>
-      <c r="B113" t="s">
+      <c r="C113" t="s">
         <v>580</v>
       </c>
-      <c r="C113" t="s">
+      <c r="D113" t="s">
         <v>581</v>
       </c>
-      <c r="D113" t="s">
+      <c r="E113" t="s">
         <v>582</v>
       </c>
-      <c r="E113" t="s">
-        <v>583</v>
-      </c>
       <c r="F113" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="H113">
         <f t="shared" si="13"/>
@@ -6954,22 +6818,22 @@
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
+        <v>583</v>
+      </c>
+      <c r="B114" t="s">
         <v>584</v>
       </c>
-      <c r="B114" t="s">
+      <c r="C114" t="s">
         <v>585</v>
       </c>
-      <c r="C114" t="s">
+      <c r="D114" t="s">
         <v>586</v>
       </c>
-      <c r="D114" t="s">
-        <v>587</v>
-      </c>
       <c r="E114" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="F114" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="H114">
         <f t="shared" si="13"/>
@@ -7091,22 +6955,22 @@
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
+        <v>613</v>
+      </c>
+      <c r="B118" t="s">
         <v>614</v>
       </c>
-      <c r="B118" t="s">
+      <c r="C118" t="s">
         <v>615</v>
       </c>
-      <c r="C118" t="s">
+      <c r="D118" t="s">
         <v>616</v>
       </c>
-      <c r="D118" t="s">
+      <c r="E118" t="s">
         <v>617</v>
       </c>
-      <c r="E118" t="s">
-        <v>618</v>
-      </c>
       <c r="F118" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="H118">
         <f t="shared" si="13"/>
@@ -7123,22 +6987,22 @@
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
+        <v>618</v>
+      </c>
+      <c r="B119" t="s">
         <v>619</v>
       </c>
-      <c r="B119" t="s">
+      <c r="C119" t="s">
         <v>620</v>
       </c>
-      <c r="C119" t="s">
+      <c r="D119" t="s">
         <v>621</v>
       </c>
-      <c r="D119" t="s">
+      <c r="E119" t="s">
         <v>622</v>
       </c>
-      <c r="E119" t="s">
-        <v>623</v>
-      </c>
       <c r="F119" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="H119">
         <f t="shared" si="13"/>
@@ -7190,7 +7054,7 @@
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="B121" t="s">
         <v>432</v>
@@ -7205,7 +7069,7 @@
         <v>437</v>
       </c>
       <c r="F121" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="G121" s="1" t="s">
         <v>436</v>
@@ -7295,22 +7159,22 @@
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
+        <v>623</v>
+      </c>
+      <c r="B124" t="s">
         <v>624</v>
       </c>
-      <c r="B124" t="s">
+      <c r="C124" t="s">
         <v>625</v>
       </c>
-      <c r="C124" t="s">
+      <c r="D124" t="s">
         <v>626</v>
       </c>
-      <c r="D124" t="s">
+      <c r="E124" t="s">
         <v>627</v>
       </c>
-      <c r="E124" t="s">
-        <v>628</v>
-      </c>
       <c r="F124" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="H124">
         <f t="shared" si="13"/>
@@ -7642,22 +7506,22 @@
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="B134" t="s">
         <v>237</v>
       </c>
       <c r="C134" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D134" t="s">
         <v>236</v>
       </c>
       <c r="E134" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="F134" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="H134">
         <f t="shared" si="13"/>
@@ -7677,19 +7541,19 @@
         <v>238</v>
       </c>
       <c r="B135" t="s">
+        <v>644</v>
+      </c>
+      <c r="C135" t="s">
         <v>645</v>
       </c>
-      <c r="C135" t="s">
+      <c r="D135" t="s">
         <v>646</v>
       </c>
-      <c r="D135" t="s">
+      <c r="E135" t="s">
         <v>647</v>
       </c>
-      <c r="E135" t="s">
-        <v>648</v>
-      </c>
       <c r="F135" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="H135">
         <f t="shared" si="13"/>
@@ -7708,14 +7572,14 @@
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A8:H132">
     <sortCondition ref="H8:H132"/>
   </sortState>
-  <conditionalFormatting sqref="I1:I1048576">
-    <cfRule type="cellIs" dxfId="1" priority="3" stopIfTrue="1" operator="equal">
-      <formula>$L$2</formula>
+  <conditionalFormatting sqref="E1:E1048576">
+    <cfRule type="expression" dxfId="1" priority="1">
+      <formula>MOD(H1,2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E1:E1048576">
-    <cfRule type="expression" dxfId="0" priority="1">
-      <formula>MOD(H1,2)=0</formula>
+  <conditionalFormatting sqref="I1:I1048576">
+    <cfRule type="cellIs" dxfId="0" priority="3" stopIfTrue="1" operator="equal">
+      <formula>$L$2</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/code/shabdakala/resource/sbwords.xlsx
+++ b/code/shabdakala/resource/sbwords.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hrishinene/github/shabdakala/shabdakala/code/shabdakala/resource/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3144147D-7A04-F74F-8A87-68483379358F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD68B72C-FD4A-144E-BDA5-D17FB9AFD52D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{9F74AEE5-EB85-4044-AC84-8761A591B5C1}"/>
   </bookViews>
@@ -1667,9 +1667,6 @@
     <t>वारा</t>
   </si>
   <si>
-    <t>नाव</t>
-  </si>
-  <si>
     <t>वाहणार्‍या गोष्टी</t>
   </si>
   <si>
@@ -2022,6 +2019,9 @@
   </si>
   <si>
     <t>पदक</t>
+  </si>
+  <si>
+    <t>रस्ता</t>
   </si>
 </sst>
 </file>
@@ -2948,8 +2948,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEA1707B-2FB7-B84C-9F84-E9F074F3056C}">
   <dimension ref="A1:L135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3037,7 +3037,7 @@
       </c>
       <c r="L2" s="6">
         <f ca="1">TODAY()</f>
-        <v>45636</v>
+        <v>45638</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -3832,7 +3832,7 @@
         <v>377</v>
       </c>
       <c r="F25" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>189</v>
@@ -3937,7 +3937,7 @@
         <v>433</v>
       </c>
       <c r="F28" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="G28" s="1" t="s">
         <v>439</v>
@@ -4077,7 +4077,7 @@
         <v>529</v>
       </c>
       <c r="F32" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="H32">
         <f t="shared" si="11"/>
@@ -4100,7 +4100,7 @@
         <v>378</v>
       </c>
       <c r="C33" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="D33" t="s">
         <v>233</v>
@@ -4109,7 +4109,7 @@
         <v>531</v>
       </c>
       <c r="F33" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="H33">
         <f t="shared" si="11"/>
@@ -4129,10 +4129,10 @@
         <v>532</v>
       </c>
       <c r="B34" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="C34" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="D34" t="s">
         <v>51</v>
@@ -4141,7 +4141,7 @@
         <v>533</v>
       </c>
       <c r="F34" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="H34">
         <f t="shared" si="11"/>
@@ -4205,7 +4205,7 @@
         <v>34</v>
       </c>
       <c r="E36" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>346</v>
@@ -4240,7 +4240,7 @@
         <v>114</v>
       </c>
       <c r="E37" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>88</v>
@@ -4263,13 +4263,13 @@
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="B38" t="s">
         <v>522</v>
       </c>
       <c r="C38" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="D38" t="s">
         <v>523</v>
@@ -4278,7 +4278,7 @@
         <v>524</v>
       </c>
       <c r="F38" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="H38">
         <f t="shared" si="11"/>
@@ -4307,10 +4307,10 @@
         <v>536</v>
       </c>
       <c r="E39" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="F39" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="H39">
         <f t="shared" si="11"/>
@@ -4397,22 +4397,22 @@
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
+        <v>595</v>
+      </c>
+      <c r="B42" t="s">
         <v>596</v>
       </c>
-      <c r="B42" t="s">
+      <c r="C42" t="s">
+        <v>659</v>
+      </c>
+      <c r="D42" t="s">
         <v>597</v>
       </c>
-      <c r="C42" t="s">
-        <v>660</v>
-      </c>
-      <c r="D42" t="s">
+      <c r="E42" t="s">
         <v>598</v>
       </c>
-      <c r="E42" t="s">
-        <v>599</v>
-      </c>
       <c r="F42" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="H42">
         <f t="shared" si="11"/>
@@ -4429,22 +4429,22 @@
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
+        <v>607</v>
+      </c>
+      <c r="B43" t="s">
         <v>608</v>
       </c>
-      <c r="B43" t="s">
+      <c r="C43" t="s">
         <v>609</v>
       </c>
-      <c r="C43" t="s">
+      <c r="D43" t="s">
         <v>610</v>
       </c>
-      <c r="D43" t="s">
+      <c r="E43" t="s">
         <v>611</v>
       </c>
-      <c r="E43" t="s">
-        <v>612</v>
-      </c>
       <c r="F43" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="H43">
         <f t="shared" si="11"/>
@@ -4476,7 +4476,7 @@
         <v>385</v>
       </c>
       <c r="F44" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="G44" s="1" t="s">
         <v>280</v>
@@ -4540,13 +4540,13 @@
         <v>543</v>
       </c>
       <c r="D46" t="s">
+        <v>662</v>
+      </c>
+      <c r="E46" t="s">
         <v>544</v>
       </c>
-      <c r="E46" t="s">
-        <v>545</v>
-      </c>
       <c r="F46" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="H46">
         <f t="shared" si="11"/>
@@ -4566,19 +4566,19 @@
         <v>233</v>
       </c>
       <c r="B47" t="s">
+        <v>545</v>
+      </c>
+      <c r="C47" t="s">
         <v>546</v>
       </c>
-      <c r="C47" t="s">
+      <c r="D47" t="s">
         <v>547</v>
       </c>
-      <c r="D47" t="s">
+      <c r="E47" t="s">
         <v>548</v>
       </c>
-      <c r="E47" t="s">
-        <v>549</v>
-      </c>
       <c r="F47" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="H47">
         <f t="shared" si="11"/>
@@ -4595,22 +4595,22 @@
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
+        <v>549</v>
+      </c>
+      <c r="B48" t="s">
         <v>550</v>
       </c>
-      <c r="B48" t="s">
+      <c r="C48" t="s">
         <v>551</v>
       </c>
-      <c r="C48" t="s">
+      <c r="D48" t="s">
         <v>552</v>
       </c>
-      <c r="D48" t="s">
+      <c r="E48" t="s">
         <v>553</v>
       </c>
-      <c r="E48" t="s">
-        <v>554</v>
-      </c>
       <c r="F48" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="H48">
         <f t="shared" si="11"/>
@@ -4677,7 +4677,7 @@
         <v>423</v>
       </c>
       <c r="F50" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="G50" s="1" t="s">
         <v>280</v>
@@ -4852,7 +4852,7 @@
         <v>440</v>
       </c>
       <c r="F55" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="G55" s="1" t="s">
         <v>280</v>
@@ -4957,7 +4957,7 @@
         <v>481</v>
       </c>
       <c r="F58" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="H58">
         <f t="shared" si="11"/>
@@ -4989,7 +4989,7 @@
         <v>486</v>
       </c>
       <c r="F59" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="H59">
         <f t="shared" si="11"/>
@@ -5021,7 +5021,7 @@
         <v>491</v>
       </c>
       <c r="F60" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="H60">
         <f t="shared" si="11"/>
@@ -5053,7 +5053,7 @@
         <v>382</v>
       </c>
       <c r="F61" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="G61" s="1" t="s">
         <v>280</v>
@@ -5193,7 +5193,7 @@
         <v>428</v>
       </c>
       <c r="F65" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="G65" s="1" t="s">
         <v>280</v>
@@ -5228,7 +5228,7 @@
         <v>415</v>
       </c>
       <c r="F66" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="G66" s="1" t="s">
         <v>438</v>
@@ -5263,7 +5263,7 @@
         <v>476</v>
       </c>
       <c r="F67" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="H67">
         <f t="shared" si="11"/>
@@ -5318,19 +5318,19 @@
         <v>218</v>
       </c>
       <c r="B69" t="s">
+        <v>599</v>
+      </c>
+      <c r="C69" t="s">
         <v>600</v>
       </c>
-      <c r="C69" t="s">
+      <c r="D69" t="s">
         <v>601</v>
       </c>
-      <c r="D69" t="s">
-        <v>602</v>
-      </c>
       <c r="E69" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="F69" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="H69">
         <f t="shared" si="11"/>
@@ -5347,22 +5347,22 @@
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
+        <v>602</v>
+      </c>
+      <c r="B70" t="s">
         <v>603</v>
       </c>
-      <c r="B70" t="s">
+      <c r="C70" t="s">
         <v>604</v>
       </c>
-      <c r="C70" t="s">
+      <c r="D70" t="s">
         <v>605</v>
       </c>
-      <c r="D70" t="s">
+      <c r="E70" t="s">
         <v>606</v>
       </c>
-      <c r="E70" t="s">
-        <v>607</v>
-      </c>
       <c r="F70" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="H70">
         <f t="shared" si="11"/>
@@ -5394,7 +5394,7 @@
         <v>434</v>
       </c>
       <c r="F71" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="G71" s="1" t="s">
         <v>280</v>
@@ -5525,16 +5525,16 @@
         <v>503</v>
       </c>
       <c r="C75" t="s">
+        <v>647</v>
+      </c>
+      <c r="D75" t="s">
         <v>648</v>
       </c>
-      <c r="D75" t="s">
+      <c r="E75" t="s">
         <v>649</v>
       </c>
-      <c r="E75" t="s">
-        <v>650</v>
-      </c>
       <c r="F75" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="H75">
         <f t="shared" si="11"/>
@@ -5560,13 +5560,13 @@
         <v>309</v>
       </c>
       <c r="D76" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="E76" t="s">
         <v>506</v>
       </c>
       <c r="F76" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="H76">
         <f t="shared" si="11"/>
@@ -5668,7 +5668,7 @@
         <v>467</v>
       </c>
       <c r="F79" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="H79">
         <f t="shared" si="11"/>
@@ -5700,7 +5700,7 @@
         <v>472</v>
       </c>
       <c r="F80" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="H80">
         <f t="shared" si="11"/>
@@ -5732,7 +5732,7 @@
         <v>398</v>
       </c>
       <c r="F81" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="G81" s="1" t="s">
         <v>435</v>
@@ -5802,7 +5802,7 @@
         <v>496</v>
       </c>
       <c r="F83" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="H83">
         <f t="shared" si="11"/>
@@ -5834,7 +5834,7 @@
         <v>501</v>
       </c>
       <c r="F84" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="H84">
         <f t="shared" si="11"/>
@@ -5936,7 +5936,7 @@
         <v>511</v>
       </c>
       <c r="F87" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="H87">
         <f t="shared" si="11"/>
@@ -5968,7 +5968,7 @@
         <v>516</v>
       </c>
       <c r="F88" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="H88">
         <f t="shared" si="11"/>
@@ -6000,7 +6000,7 @@
         <v>521</v>
       </c>
       <c r="F89" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="H89">
         <f t="shared" si="11"/>
@@ -6122,13 +6122,13 @@
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
+        <v>586</v>
+      </c>
+      <c r="B93" t="s">
         <v>587</v>
       </c>
-      <c r="B93" t="s">
-        <v>588</v>
-      </c>
       <c r="C93" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="D93" t="s">
         <v>542</v>
@@ -6137,7 +6137,7 @@
         <v>166</v>
       </c>
       <c r="F93" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="H93">
         <f t="shared" si="13"/>
@@ -6160,16 +6160,16 @@
         <v>542</v>
       </c>
       <c r="C94" t="s">
+        <v>588</v>
+      </c>
+      <c r="D94" t="s">
         <v>589</v>
       </c>
-      <c r="D94" t="s">
+      <c r="E94" t="s">
         <v>590</v>
       </c>
-      <c r="E94" t="s">
-        <v>591</v>
-      </c>
       <c r="F94" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="H94">
         <f t="shared" si="13"/>
@@ -6186,22 +6186,22 @@
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
+        <v>591</v>
+      </c>
+      <c r="B95" t="s">
         <v>592</v>
       </c>
-      <c r="B95" t="s">
+      <c r="C95" t="s">
         <v>593</v>
-      </c>
-      <c r="C95" t="s">
-        <v>594</v>
       </c>
       <c r="D95" t="s">
         <v>155</v>
       </c>
       <c r="E95" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="F95" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="H95">
         <f t="shared" si="13"/>
@@ -6233,7 +6233,7 @@
         <v>404</v>
       </c>
       <c r="F96" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="G96" s="1" t="s">
         <v>280</v>
@@ -6326,7 +6326,7 @@
         <v>418</v>
       </c>
       <c r="B99" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C99" t="s">
         <v>417</v>
@@ -6335,10 +6335,10 @@
         <v>419</v>
       </c>
       <c r="E99" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="F99" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="H99">
         <f t="shared" si="13"/>
@@ -6355,22 +6355,22 @@
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
+        <v>556</v>
+      </c>
+      <c r="B100" t="s">
         <v>557</v>
       </c>
-      <c r="B100" t="s">
+      <c r="C100" t="s">
         <v>558</v>
       </c>
-      <c r="C100" t="s">
+      <c r="D100" t="s">
         <v>559</v>
       </c>
-      <c r="D100" t="s">
+      <c r="E100" t="s">
         <v>560</v>
       </c>
-      <c r="E100" t="s">
-        <v>561</v>
-      </c>
       <c r="F100" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="H100">
         <f t="shared" si="13"/>
@@ -6393,16 +6393,16 @@
         <v>399</v>
       </c>
       <c r="C101" t="s">
+        <v>561</v>
+      </c>
+      <c r="D101" t="s">
         <v>562</v>
       </c>
-      <c r="D101" t="s">
+      <c r="E101" t="s">
         <v>563</v>
       </c>
-      <c r="E101" t="s">
-        <v>564</v>
-      </c>
       <c r="F101" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="H101">
         <f t="shared" si="13"/>
@@ -6419,22 +6419,22 @@
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
+        <v>564</v>
+      </c>
+      <c r="B102" t="s">
         <v>565</v>
       </c>
-      <c r="B102" t="s">
+      <c r="C102" t="s">
         <v>566</v>
       </c>
-      <c r="C102" t="s">
+      <c r="D102" t="s">
         <v>567</v>
       </c>
-      <c r="D102" t="s">
+      <c r="E102" t="s">
         <v>568</v>
       </c>
-      <c r="E102" t="s">
-        <v>569</v>
-      </c>
       <c r="F102" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="H102">
         <f t="shared" si="13"/>
@@ -6451,22 +6451,22 @@
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
+        <v>569</v>
+      </c>
+      <c r="B103" t="s">
         <v>570</v>
       </c>
-      <c r="B103" t="s">
+      <c r="C103" t="s">
         <v>571</v>
       </c>
-      <c r="C103" t="s">
+      <c r="D103" t="s">
         <v>572</v>
       </c>
-      <c r="D103" t="s">
+      <c r="E103" t="s">
         <v>573</v>
       </c>
-      <c r="E103" t="s">
-        <v>574</v>
-      </c>
       <c r="F103" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="H103">
         <f t="shared" si="13"/>
@@ -6623,22 +6623,22 @@
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
+        <v>627</v>
+      </c>
+      <c r="B108" t="s">
         <v>628</v>
       </c>
-      <c r="B108" t="s">
+      <c r="C108" t="s">
         <v>629</v>
       </c>
-      <c r="C108" t="s">
+      <c r="D108" t="s">
         <v>630</v>
       </c>
-      <c r="D108" t="s">
+      <c r="E108" t="s">
         <v>631</v>
       </c>
-      <c r="E108" t="s">
-        <v>632</v>
-      </c>
       <c r="F108" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="H108">
         <f t="shared" si="13"/>
@@ -6670,7 +6670,7 @@
         <v>540</v>
       </c>
       <c r="F109" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="H109">
         <f t="shared" si="13"/>
@@ -6687,22 +6687,22 @@
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
+        <v>632</v>
+      </c>
+      <c r="B110" t="s">
         <v>633</v>
       </c>
-      <c r="B110" t="s">
+      <c r="C110" t="s">
         <v>634</v>
       </c>
-      <c r="C110" t="s">
+      <c r="D110" t="s">
         <v>635</v>
       </c>
-      <c r="D110" t="s">
+      <c r="E110" t="s">
         <v>636</v>
       </c>
-      <c r="E110" t="s">
+      <c r="F110" t="s">
         <v>637</v>
-      </c>
-      <c r="F110" t="s">
-        <v>638</v>
       </c>
       <c r="H110">
         <f t="shared" si="13"/>
@@ -6734,7 +6734,7 @@
         <v>431</v>
       </c>
       <c r="F111" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="G111" s="1" t="s">
         <v>90</v>
@@ -6754,22 +6754,22 @@
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
+        <v>574</v>
+      </c>
+      <c r="B112" t="s">
         <v>575</v>
-      </c>
-      <c r="B112" t="s">
-        <v>576</v>
       </c>
       <c r="C112" t="s">
         <v>419</v>
       </c>
       <c r="D112" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="E112" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="F112" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="H112">
         <f t="shared" si="13"/>
@@ -6786,22 +6786,22 @@
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
+        <v>577</v>
+      </c>
+      <c r="B113" t="s">
         <v>578</v>
       </c>
-      <c r="B113" t="s">
+      <c r="C113" t="s">
         <v>579</v>
       </c>
-      <c r="C113" t="s">
+      <c r="D113" t="s">
         <v>580</v>
       </c>
-      <c r="D113" t="s">
+      <c r="E113" t="s">
         <v>581</v>
       </c>
-      <c r="E113" t="s">
-        <v>582</v>
-      </c>
       <c r="F113" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="H113">
         <f t="shared" si="13"/>
@@ -6818,22 +6818,22 @@
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
+        <v>582</v>
+      </c>
+      <c r="B114" t="s">
         <v>583</v>
       </c>
-      <c r="B114" t="s">
+      <c r="C114" t="s">
         <v>584</v>
       </c>
-      <c r="C114" t="s">
+      <c r="D114" t="s">
         <v>585</v>
       </c>
-      <c r="D114" t="s">
-        <v>586</v>
-      </c>
       <c r="E114" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="F114" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="H114">
         <f t="shared" si="13"/>
@@ -6955,22 +6955,22 @@
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
+        <v>612</v>
+      </c>
+      <c r="B118" t="s">
         <v>613</v>
       </c>
-      <c r="B118" t="s">
+      <c r="C118" t="s">
         <v>614</v>
       </c>
-      <c r="C118" t="s">
+      <c r="D118" t="s">
         <v>615</v>
       </c>
-      <c r="D118" t="s">
+      <c r="E118" t="s">
         <v>616</v>
       </c>
-      <c r="E118" t="s">
-        <v>617</v>
-      </c>
       <c r="F118" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="H118">
         <f t="shared" si="13"/>
@@ -6987,22 +6987,22 @@
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
+        <v>617</v>
+      </c>
+      <c r="B119" t="s">
         <v>618</v>
       </c>
-      <c r="B119" t="s">
+      <c r="C119" t="s">
         <v>619</v>
       </c>
-      <c r="C119" t="s">
+      <c r="D119" t="s">
         <v>620</v>
       </c>
-      <c r="D119" t="s">
+      <c r="E119" t="s">
         <v>621</v>
       </c>
-      <c r="E119" t="s">
-        <v>622</v>
-      </c>
       <c r="F119" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="H119">
         <f t="shared" si="13"/>
@@ -7054,7 +7054,7 @@
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="B121" t="s">
         <v>432</v>
@@ -7069,7 +7069,7 @@
         <v>437</v>
       </c>
       <c r="F121" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="G121" s="1" t="s">
         <v>436</v>
@@ -7159,22 +7159,22 @@
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
+        <v>622</v>
+      </c>
+      <c r="B124" t="s">
         <v>623</v>
       </c>
-      <c r="B124" t="s">
+      <c r="C124" t="s">
         <v>624</v>
       </c>
-      <c r="C124" t="s">
+      <c r="D124" t="s">
         <v>625</v>
       </c>
-      <c r="D124" t="s">
+      <c r="E124" t="s">
         <v>626</v>
       </c>
-      <c r="E124" t="s">
-        <v>627</v>
-      </c>
       <c r="F124" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="H124">
         <f t="shared" si="13"/>
@@ -7506,22 +7506,22 @@
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="B134" t="s">
         <v>237</v>
       </c>
       <c r="C134" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="D134" t="s">
         <v>236</v>
       </c>
       <c r="E134" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="F134" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="H134">
         <f t="shared" si="13"/>
@@ -7541,19 +7541,19 @@
         <v>238</v>
       </c>
       <c r="B135" t="s">
+        <v>643</v>
+      </c>
+      <c r="C135" t="s">
         <v>644</v>
       </c>
-      <c r="C135" t="s">
+      <c r="D135" t="s">
         <v>645</v>
       </c>
-      <c r="D135" t="s">
+      <c r="E135" t="s">
         <v>646</v>
       </c>
-      <c r="E135" t="s">
-        <v>647</v>
-      </c>
       <c r="F135" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="H135">
         <f t="shared" si="13"/>

--- a/code/shabdakala/resource/sbwords.xlsx
+++ b/code/shabdakala/resource/sbwords.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hrishinene/github/shabdakala/shabdakala/code/shabdakala/resource/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD68B72C-FD4A-144E-BDA5-D17FB9AFD52D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17FB145A-9BAA-C64C-85BA-EDF72D9798A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{9F74AEE5-EB85-4044-AC84-8761A591B5C1}"/>
   </bookViews>
@@ -146,9 +146,6 @@
     <t>मुंबई</t>
   </si>
   <si>
-    <t>दोरी</t>
-  </si>
-  <si>
     <t xml:space="preserve"> सुळका</t>
   </si>
   <si>
@@ -407,9 +404,6 @@
     <t xml:space="preserve"> अथेन्स</t>
   </si>
   <si>
-    <t xml:space="preserve"> धावक</t>
-  </si>
-  <si>
     <t>कीपटूम</t>
   </si>
   <si>
@@ -686,9 +680,6 @@
     <t>अमूल</t>
   </si>
   <si>
-    <t>कात्रज</t>
-  </si>
-  <si>
     <t>म्हैस</t>
   </si>
   <si>
@@ -2022,6 +2013,15 @@
   </si>
   <si>
     <t>रस्ता</t>
+  </si>
+  <si>
+    <t>केनिया</t>
+  </si>
+  <si>
+    <t>दोर</t>
+  </si>
+  <si>
+    <t>गवळी</t>
   </si>
 </sst>
 </file>
@@ -2948,8 +2948,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEA1707B-2FB7-B84C-9F84-E9F074F3056C}">
   <dimension ref="A1:L135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="D50" sqref="D50"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="D61" sqref="D61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2990,13 +2990,13 @@
         <v>6</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="L1" s="4">
         <v>45625</v>
@@ -3004,25 +3004,25 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B2" t="s">
         <v>101</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>102</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>103</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>104</v>
       </c>
-      <c r="E2" t="s">
-        <v>105</v>
-      </c>
       <c r="F2" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H2">
         <f>INT(J2/3)</f>
@@ -3037,30 +3037,30 @@
       </c>
       <c r="L2" s="6">
         <f ca="1">TODAY()</f>
-        <v>45638</v>
+        <v>45640</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" t="s">
         <v>56</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>57</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>58</v>
       </c>
-      <c r="D3" t="s">
-        <v>59</v>
-      </c>
       <c r="E3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>88</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>89</v>
       </c>
       <c r="H3">
         <f t="shared" ref="H3:H11" si="1">INT(J3/3)</f>
@@ -3078,25 +3078,25 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>135</v>
+      </c>
+      <c r="B4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C4" t="s">
         <v>137</v>
       </c>
-      <c r="B4" t="s">
+      <c r="D4" t="s">
         <v>138</v>
       </c>
-      <c r="C4" t="s">
+      <c r="E4" t="s">
         <v>139</v>
       </c>
-      <c r="D4" t="s">
-        <v>140</v>
-      </c>
-      <c r="E4" t="s">
-        <v>141</v>
-      </c>
       <c r="F4" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="H4">
         <f t="shared" si="1"/>
@@ -3114,25 +3114,25 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>258</v>
+      </c>
+      <c r="B5" t="s">
+        <v>259</v>
+      </c>
+      <c r="C5" t="s">
+        <v>260</v>
+      </c>
+      <c r="D5" t="s">
         <v>261</v>
       </c>
-      <c r="B5" t="s">
+      <c r="E5" t="s">
         <v>262</v>
       </c>
-      <c r="C5" t="s">
-        <v>263</v>
-      </c>
-      <c r="D5" t="s">
-        <v>264</v>
-      </c>
-      <c r="E5" t="s">
-        <v>265</v>
-      </c>
       <c r="F5" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H5">
         <f t="shared" si="1"/>
@@ -3150,25 +3150,25 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>75</v>
+      </c>
+      <c r="B6" t="s">
         <v>76</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>77</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>78</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>79</v>
       </c>
-      <c r="E6" t="s">
-        <v>80</v>
-      </c>
       <c r="F6" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H6">
         <f t="shared" si="1"/>
@@ -3186,25 +3186,25 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B7" t="s">
+        <v>114</v>
+      </c>
+      <c r="C7" t="s">
         <v>115</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>116</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>117</v>
       </c>
-      <c r="E7" t="s">
-        <v>118</v>
-      </c>
       <c r="F7" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="H7">
         <f t="shared" si="1"/>
@@ -3222,25 +3222,25 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>337</v>
+      </c>
+      <c r="B8" t="s">
+        <v>338</v>
+      </c>
+      <c r="C8" t="s">
+        <v>339</v>
+      </c>
+      <c r="D8" t="s">
         <v>340</v>
       </c>
-      <c r="B8" t="s">
+      <c r="E8" t="s">
         <v>341</v>
       </c>
-      <c r="C8" t="s">
+      <c r="F8" t="s">
         <v>342</v>
       </c>
-      <c r="D8" t="s">
-        <v>343</v>
-      </c>
-      <c r="E8" t="s">
-        <v>344</v>
-      </c>
-      <c r="F8" t="s">
-        <v>345</v>
-      </c>
       <c r="G8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H8">
         <f t="shared" si="1"/>
@@ -3257,25 +3257,25 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>327</v>
+      </c>
+      <c r="B9" t="s">
+        <v>328</v>
+      </c>
+      <c r="C9" t="s">
+        <v>329</v>
+      </c>
+      <c r="D9" t="s">
         <v>330</v>
       </c>
-      <c r="B9" t="s">
+      <c r="E9" t="s">
         <v>331</v>
       </c>
-      <c r="C9" t="s">
-        <v>332</v>
-      </c>
-      <c r="D9" t="s">
-        <v>333</v>
-      </c>
-      <c r="E9" t="s">
-        <v>334</v>
-      </c>
       <c r="F9" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="G9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H9">
         <f t="shared" si="1"/>
@@ -3292,25 +3292,25 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>332</v>
+      </c>
+      <c r="B10" t="s">
+        <v>333</v>
+      </c>
+      <c r="C10" t="s">
+        <v>334</v>
+      </c>
+      <c r="D10" t="s">
         <v>335</v>
       </c>
-      <c r="B10" t="s">
+      <c r="E10" t="s">
         <v>336</v>
       </c>
-      <c r="C10" t="s">
-        <v>337</v>
-      </c>
-      <c r="D10" t="s">
-        <v>338</v>
-      </c>
-      <c r="E10" t="s">
-        <v>339</v>
-      </c>
       <c r="F10" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="G10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H10">
         <f t="shared" si="1"/>
@@ -3327,25 +3327,25 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="B11" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="C11" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="D11" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="E11" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H11">
         <f t="shared" si="1"/>
@@ -3362,25 +3362,25 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
+        <v>351</v>
+      </c>
+      <c r="B12" t="s">
+        <v>352</v>
+      </c>
+      <c r="C12" t="s">
+        <v>359</v>
+      </c>
+      <c r="D12" t="s">
+        <v>353</v>
+      </c>
+      <c r="E12" t="s">
         <v>354</v>
       </c>
-      <c r="B12" t="s">
-        <v>355</v>
-      </c>
-      <c r="C12" t="s">
-        <v>362</v>
-      </c>
-      <c r="D12" t="s">
-        <v>356</v>
-      </c>
-      <c r="E12" t="s">
-        <v>357</v>
-      </c>
       <c r="F12" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H12">
         <f t="shared" ref="H12:H21" si="5">INT(J12/3)</f>
@@ -3397,25 +3397,25 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="B13" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C13" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="D13" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="E13" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H13">
         <f t="shared" si="5"/>
@@ -3432,25 +3432,25 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>130</v>
+      </c>
+      <c r="B14" t="s">
+        <v>131</v>
+      </c>
+      <c r="C14" t="s">
         <v>132</v>
       </c>
-      <c r="B14" t="s">
+      <c r="D14" t="s">
         <v>133</v>
       </c>
-      <c r="C14" t="s">
+      <c r="E14" t="s">
         <v>134</v>
       </c>
-      <c r="D14" t="s">
-        <v>135</v>
-      </c>
-      <c r="E14" t="s">
-        <v>136</v>
-      </c>
       <c r="F14" s="1" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H14">
         <f t="shared" si="5"/>
@@ -3467,25 +3467,25 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
+        <v>90</v>
+      </c>
+      <c r="B15" t="s">
         <v>91</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>92</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>93</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
         <v>94</v>
       </c>
-      <c r="E15" t="s">
-        <v>95</v>
-      </c>
       <c r="F15" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="H15">
         <f t="shared" si="5"/>
@@ -3502,25 +3502,25 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
+        <v>59</v>
+      </c>
+      <c r="B16" t="s">
+        <v>58</v>
+      </c>
+      <c r="C16" t="s">
         <v>60</v>
       </c>
-      <c r="B16" t="s">
-        <v>59</v>
-      </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>61</v>
       </c>
-      <c r="D16" t="s">
-        <v>62</v>
-      </c>
       <c r="E16" t="s">
+        <v>86</v>
+      </c>
+      <c r="F16" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="G16" s="1" t="s">
         <v>88</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>89</v>
       </c>
       <c r="H16">
         <f t="shared" si="5"/>
@@ -3546,16 +3546,16 @@
         <v>25</v>
       </c>
       <c r="D17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E17" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H17">
         <f t="shared" si="5"/>
@@ -3572,25 +3572,25 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="B18" t="s">
+        <v>118</v>
+      </c>
+      <c r="C18" t="s">
         <v>119</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
         <v>120</v>
       </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
         <v>121</v>
       </c>
-      <c r="E18" t="s">
-        <v>122</v>
-      </c>
       <c r="F18" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="H18">
         <f t="shared" si="5"/>
@@ -3622,7 +3622,7 @@
         <v>13</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>8</v>
@@ -3642,25 +3642,25 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
+        <v>156</v>
+      </c>
+      <c r="B20" t="s">
+        <v>157</v>
+      </c>
+      <c r="C20" t="s">
         <v>158</v>
       </c>
-      <c r="B20" t="s">
+      <c r="D20" t="s">
         <v>159</v>
       </c>
-      <c r="C20" t="s">
+      <c r="E20" t="s">
         <v>160</v>
       </c>
-      <c r="D20" t="s">
-        <v>161</v>
-      </c>
-      <c r="E20" t="s">
-        <v>162</v>
-      </c>
       <c r="F20" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H20">
         <f t="shared" si="5"/>
@@ -3677,25 +3677,25 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B21" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C21" t="s">
+        <v>102</v>
+      </c>
+      <c r="D21" t="s">
         <v>103</v>
       </c>
-      <c r="D21" t="s">
+      <c r="E21" t="s">
         <v>104</v>
       </c>
-      <c r="E21" t="s">
-        <v>105</v>
-      </c>
       <c r="F21" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H21">
         <f t="shared" si="5"/>
@@ -3712,25 +3712,25 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
+        <v>135</v>
+      </c>
+      <c r="B22" t="s">
+        <v>136</v>
+      </c>
+      <c r="C22" t="s">
         <v>137</v>
       </c>
-      <c r="B22" t="s">
+      <c r="D22" t="s">
         <v>138</v>
       </c>
-      <c r="C22" t="s">
+      <c r="E22" t="s">
         <v>139</v>
       </c>
-      <c r="D22" t="s">
-        <v>140</v>
-      </c>
-      <c r="E22" t="s">
-        <v>141</v>
-      </c>
       <c r="F22" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="H22">
         <f t="shared" ref="H22" si="7">INT(J22/3)</f>
@@ -3756,13 +3756,13 @@
         <v>22</v>
       </c>
       <c r="D23" t="s">
+        <v>41</v>
+      </c>
+      <c r="E23" t="s">
         <v>42</v>
       </c>
-      <c r="E23" t="s">
-        <v>43</v>
-      </c>
       <c r="F23" s="1" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="G23" s="1" t="s">
         <v>8</v>
@@ -3797,10 +3797,10 @@
         <v>36</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H24">
         <f t="shared" si="9"/>
@@ -3817,25 +3817,25 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
+        <v>370</v>
+      </c>
+      <c r="B25" t="s">
+        <v>371</v>
+      </c>
+      <c r="C25" t="s">
+        <v>372</v>
+      </c>
+      <c r="D25" t="s">
         <v>373</v>
       </c>
-      <c r="B25" t="s">
+      <c r="E25" t="s">
         <v>374</v>
       </c>
-      <c r="C25" t="s">
-        <v>375</v>
-      </c>
-      <c r="D25" t="s">
-        <v>376</v>
-      </c>
-      <c r="E25" t="s">
-        <v>377</v>
-      </c>
       <c r="F25" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H25">
         <f t="shared" si="9"/>
@@ -3852,25 +3852,25 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
+        <v>125</v>
+      </c>
+      <c r="B26" t="s">
+        <v>126</v>
+      </c>
+      <c r="C26" t="s">
         <v>127</v>
       </c>
-      <c r="B26" t="s">
+      <c r="D26" t="s">
         <v>128</v>
       </c>
-      <c r="C26" t="s">
+      <c r="E26" t="s">
         <v>129</v>
       </c>
-      <c r="D26" t="s">
-        <v>130</v>
-      </c>
-      <c r="E26" t="s">
-        <v>131</v>
-      </c>
       <c r="F26" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H26">
         <f t="shared" si="9"/>
@@ -3887,22 +3887,22 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
+        <v>253</v>
+      </c>
+      <c r="B27" t="s">
+        <v>254</v>
+      </c>
+      <c r="C27" t="s">
+        <v>255</v>
+      </c>
+      <c r="D27" t="s">
         <v>256</v>
       </c>
-      <c r="B27" t="s">
+      <c r="E27" t="s">
         <v>257</v>
       </c>
-      <c r="C27" t="s">
-        <v>258</v>
-      </c>
-      <c r="D27" t="s">
-        <v>259</v>
-      </c>
-      <c r="E27" t="s">
-        <v>260</v>
-      </c>
       <c r="F27" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G27" s="1" t="s">
         <v>8</v>
@@ -3922,25 +3922,25 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
+        <v>413</v>
+      </c>
+      <c r="B28" t="s">
+        <v>414</v>
+      </c>
+      <c r="C28" t="s">
+        <v>415</v>
+      </c>
+      <c r="D28" t="s">
         <v>416</v>
       </c>
-      <c r="B28" t="s">
-        <v>417</v>
-      </c>
-      <c r="C28" t="s">
-        <v>418</v>
-      </c>
-      <c r="D28" t="s">
-        <v>419</v>
-      </c>
       <c r="E28" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="F28" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="H28">
         <f t="shared" ref="H28:H91" si="11">INT(J28/3)</f>
@@ -3957,25 +3957,25 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
+        <v>95</v>
+      </c>
+      <c r="B29" t="s">
         <v>96</v>
       </c>
-      <c r="B29" t="s">
+      <c r="C29" t="s">
         <v>97</v>
       </c>
-      <c r="C29" t="s">
+      <c r="D29" t="s">
         <v>98</v>
       </c>
-      <c r="D29" t="s">
+      <c r="E29" t="s">
         <v>99</v>
       </c>
-      <c r="E29" t="s">
-        <v>100</v>
-      </c>
       <c r="F29" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H29">
         <f t="shared" si="11"/>
@@ -3992,25 +3992,25 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
+        <v>105</v>
+      </c>
+      <c r="B30" t="s">
         <v>106</v>
       </c>
-      <c r="B30" t="s">
+      <c r="C30" t="s">
         <v>107</v>
       </c>
-      <c r="C30" t="s">
+      <c r="D30" t="s">
         <v>108</v>
       </c>
-      <c r="D30" t="s">
+      <c r="E30" t="s">
         <v>109</v>
       </c>
-      <c r="E30" t="s">
-        <v>110</v>
-      </c>
       <c r="F30" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H30">
         <f t="shared" si="11"/>
@@ -4027,22 +4027,22 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
+        <v>267</v>
+      </c>
+      <c r="B31" t="s">
+        <v>268</v>
+      </c>
+      <c r="C31" t="s">
+        <v>269</v>
+      </c>
+      <c r="D31" t="s">
         <v>270</v>
       </c>
-      <c r="B31" t="s">
+      <c r="E31" t="s">
         <v>271</v>
       </c>
-      <c r="C31" t="s">
-        <v>272</v>
-      </c>
-      <c r="D31" t="s">
-        <v>273</v>
-      </c>
-      <c r="E31" t="s">
-        <v>274</v>
-      </c>
       <c r="F31" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G31" s="1" t="s">
         <v>8</v>
@@ -4062,22 +4062,22 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
+        <v>522</v>
+      </c>
+      <c r="B32" t="s">
+        <v>523</v>
+      </c>
+      <c r="C32" t="s">
+        <v>524</v>
+      </c>
+      <c r="D32" t="s">
         <v>525</v>
       </c>
-      <c r="B32" t="s">
+      <c r="E32" t="s">
         <v>526</v>
       </c>
-      <c r="C32" t="s">
-        <v>527</v>
-      </c>
-      <c r="D32" t="s">
-        <v>528</v>
-      </c>
-      <c r="E32" t="s">
-        <v>529</v>
-      </c>
       <c r="F32" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="H32">
         <f t="shared" si="11"/>
@@ -4094,22 +4094,22 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="B33" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="C33" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="D33" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="E33" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="F33" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="H33">
         <f t="shared" si="11"/>
@@ -4126,22 +4126,22 @@
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="B34" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="C34" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="D34" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E34" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="F34" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="H34">
         <f t="shared" si="11"/>
@@ -4158,25 +4158,25 @@
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
+        <v>62</v>
+      </c>
+      <c r="B35" t="s">
         <v>63</v>
       </c>
-      <c r="B35" t="s">
+      <c r="C35" t="s">
         <v>64</v>
       </c>
-      <c r="C35" t="s">
+      <c r="D35" t="s">
         <v>65</v>
       </c>
-      <c r="D35" t="s">
-        <v>66</v>
-      </c>
       <c r="E35" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H35">
         <f t="shared" si="11"/>
@@ -4205,10 +4205,10 @@
         <v>34</v>
       </c>
       <c r="E36" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="G36" s="1" t="s">
         <v>8</v>
@@ -4228,25 +4228,25 @@
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
+        <v>110</v>
+      </c>
+      <c r="B37" t="s">
         <v>111</v>
       </c>
-      <c r="B37" t="s">
+      <c r="C37" t="s">
         <v>112</v>
       </c>
-      <c r="C37" t="s">
+      <c r="D37" t="s">
         <v>113</v>
       </c>
-      <c r="D37" t="s">
-        <v>114</v>
-      </c>
       <c r="E37" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H37">
         <f t="shared" si="11"/>
@@ -4263,22 +4263,22 @@
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
+        <v>655</v>
+      </c>
+      <c r="B38" t="s">
+        <v>519</v>
+      </c>
+      <c r="C38" t="s">
         <v>658</v>
       </c>
-      <c r="B38" t="s">
-        <v>522</v>
-      </c>
-      <c r="C38" t="s">
-        <v>661</v>
-      </c>
       <c r="D38" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="E38" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="F38" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="H38">
         <f t="shared" si="11"/>
@@ -4295,22 +4295,22 @@
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="B39" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="C39" t="s">
         <v>7</v>
       </c>
       <c r="D39" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="E39" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="F39" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="H39">
         <f t="shared" si="11"/>
@@ -4327,25 +4327,25 @@
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
+        <v>205</v>
+      </c>
+      <c r="B40" t="s">
+        <v>206</v>
+      </c>
+      <c r="C40" t="s">
         <v>207</v>
       </c>
-      <c r="B40" t="s">
+      <c r="D40" t="s">
         <v>208</v>
       </c>
-      <c r="C40" t="s">
+      <c r="E40" t="s">
         <v>209</v>
       </c>
-      <c r="D40" t="s">
-        <v>210</v>
-      </c>
-      <c r="E40" t="s">
-        <v>211</v>
-      </c>
       <c r="F40" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="H40">
         <f t="shared" si="11"/>
@@ -4362,25 +4362,25 @@
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
+        <v>80</v>
+      </c>
+      <c r="B41" t="s">
         <v>81</v>
       </c>
-      <c r="B41" t="s">
+      <c r="C41" t="s">
         <v>82</v>
       </c>
-      <c r="C41" t="s">
+      <c r="D41" t="s">
         <v>83</v>
       </c>
-      <c r="D41" t="s">
+      <c r="E41" t="s">
         <v>84</v>
       </c>
-      <c r="E41" t="s">
-        <v>85</v>
-      </c>
       <c r="F41" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H41">
         <f t="shared" si="11"/>
@@ -4397,22 +4397,22 @@
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
+        <v>592</v>
+      </c>
+      <c r="B42" t="s">
+        <v>593</v>
+      </c>
+      <c r="C42" t="s">
+        <v>656</v>
+      </c>
+      <c r="D42" t="s">
+        <v>594</v>
+      </c>
+      <c r="E42" t="s">
         <v>595</v>
       </c>
-      <c r="B42" t="s">
-        <v>596</v>
-      </c>
-      <c r="C42" t="s">
-        <v>659</v>
-      </c>
-      <c r="D42" t="s">
-        <v>597</v>
-      </c>
-      <c r="E42" t="s">
-        <v>598</v>
-      </c>
       <c r="F42" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="H42">
         <f t="shared" si="11"/>
@@ -4429,22 +4429,22 @@
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
+        <v>604</v>
+      </c>
+      <c r="B43" t="s">
+        <v>605</v>
+      </c>
+      <c r="C43" t="s">
+        <v>606</v>
+      </c>
+      <c r="D43" t="s">
         <v>607</v>
       </c>
-      <c r="B43" t="s">
+      <c r="E43" t="s">
         <v>608</v>
       </c>
-      <c r="C43" t="s">
-        <v>609</v>
-      </c>
-      <c r="D43" t="s">
-        <v>610</v>
-      </c>
-      <c r="E43" t="s">
-        <v>611</v>
-      </c>
       <c r="F43" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="H43">
         <f t="shared" si="11"/>
@@ -4461,25 +4461,25 @@
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="B44" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="C44" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="D44" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="E44" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="F44" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="H44">
         <f t="shared" si="11"/>
@@ -4496,25 +4496,25 @@
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
+        <v>195</v>
+      </c>
+      <c r="B45" t="s">
+        <v>196</v>
+      </c>
+      <c r="C45" t="s">
         <v>197</v>
       </c>
-      <c r="B45" t="s">
+      <c r="D45" t="s">
         <v>198</v>
       </c>
-      <c r="C45" t="s">
+      <c r="E45" t="s">
         <v>199</v>
       </c>
-      <c r="D45" t="s">
-        <v>200</v>
-      </c>
-      <c r="E45" t="s">
-        <v>201</v>
-      </c>
       <c r="F45" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H45">
         <f t="shared" si="11"/>
@@ -4531,22 +4531,22 @@
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
+        <v>538</v>
+      </c>
+      <c r="B46" t="s">
+        <v>539</v>
+      </c>
+      <c r="C46" t="s">
+        <v>540</v>
+      </c>
+      <c r="D46" t="s">
+        <v>659</v>
+      </c>
+      <c r="E46" t="s">
         <v>541</v>
       </c>
-      <c r="B46" t="s">
-        <v>542</v>
-      </c>
-      <c r="C46" t="s">
-        <v>543</v>
-      </c>
-      <c r="D46" t="s">
-        <v>662</v>
-      </c>
-      <c r="E46" t="s">
-        <v>544</v>
-      </c>
       <c r="F46" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="H46">
         <f t="shared" si="11"/>
@@ -4563,22 +4563,22 @@
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B47" t="s">
+        <v>542</v>
+      </c>
+      <c r="C47" t="s">
+        <v>543</v>
+      </c>
+      <c r="D47" t="s">
+        <v>544</v>
+      </c>
+      <c r="E47" t="s">
         <v>545</v>
       </c>
-      <c r="C47" t="s">
-        <v>546</v>
-      </c>
-      <c r="D47" t="s">
-        <v>547</v>
-      </c>
-      <c r="E47" t="s">
-        <v>548</v>
-      </c>
       <c r="F47" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="H47">
         <f t="shared" si="11"/>
@@ -4595,22 +4595,22 @@
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
+        <v>546</v>
+      </c>
+      <c r="B48" t="s">
+        <v>547</v>
+      </c>
+      <c r="C48" t="s">
+        <v>548</v>
+      </c>
+      <c r="D48" t="s">
         <v>549</v>
       </c>
-      <c r="B48" t="s">
+      <c r="E48" t="s">
         <v>550</v>
       </c>
-      <c r="C48" t="s">
-        <v>551</v>
-      </c>
-      <c r="D48" t="s">
-        <v>552</v>
-      </c>
-      <c r="E48" t="s">
-        <v>553</v>
-      </c>
       <c r="F48" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="H48">
         <f t="shared" si="11"/>
@@ -4627,25 +4627,25 @@
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
+        <v>190</v>
+      </c>
+      <c r="B49" t="s">
+        <v>191</v>
+      </c>
+      <c r="C49" t="s">
         <v>192</v>
       </c>
-      <c r="B49" t="s">
+      <c r="D49" t="s">
         <v>193</v>
       </c>
-      <c r="C49" t="s">
+      <c r="E49" t="s">
         <v>194</v>
       </c>
-      <c r="D49" t="s">
-        <v>195</v>
-      </c>
-      <c r="E49" t="s">
-        <v>196</v>
-      </c>
       <c r="F49" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H49">
         <f t="shared" si="11"/>
@@ -4662,25 +4662,25 @@
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
+        <v>417</v>
+      </c>
+      <c r="B50" t="s">
+        <v>418</v>
+      </c>
+      <c r="C50" t="s">
+        <v>419</v>
+      </c>
+      <c r="D50" t="s">
+        <v>377</v>
+      </c>
+      <c r="E50" t="s">
         <v>420</v>
       </c>
-      <c r="B50" t="s">
-        <v>421</v>
-      </c>
-      <c r="C50" t="s">
-        <v>422</v>
-      </c>
-      <c r="D50" t="s">
-        <v>380</v>
-      </c>
-      <c r="E50" t="s">
-        <v>423</v>
-      </c>
       <c r="F50" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="H50">
         <f t="shared" si="11"/>
@@ -4700,22 +4700,22 @@
         <v>42.195</v>
       </c>
       <c r="B51" t="s">
+        <v>122</v>
+      </c>
+      <c r="C51" t="s">
+        <v>660</v>
+      </c>
+      <c r="D51" t="s">
         <v>123</v>
       </c>
-      <c r="C51" t="s">
+      <c r="E51" t="s">
         <v>124</v>
       </c>
-      <c r="D51" t="s">
-        <v>125</v>
-      </c>
-      <c r="E51" t="s">
-        <v>126</v>
-      </c>
       <c r="F51" s="1" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H51">
         <f t="shared" si="11"/>
@@ -4732,22 +4732,22 @@
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
+        <v>661</v>
+      </c>
+      <c r="B52" t="s">
         <v>37</v>
       </c>
-      <c r="B52" t="s">
+      <c r="C52" t="s">
         <v>38</v>
       </c>
-      <c r="C52" t="s">
+      <c r="D52" t="s">
         <v>39</v>
       </c>
-      <c r="D52" t="s">
+      <c r="E52" t="s">
         <v>40</v>
       </c>
-      <c r="E52" t="s">
-        <v>41</v>
-      </c>
       <c r="F52" s="1" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="G52" s="1" t="s">
         <v>8</v>
@@ -4767,25 +4767,25 @@
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
+        <v>166</v>
+      </c>
+      <c r="B53" t="s">
+        <v>167</v>
+      </c>
+      <c r="C53" t="s">
         <v>168</v>
       </c>
-      <c r="B53" t="s">
+      <c r="D53" t="s">
         <v>169</v>
       </c>
-      <c r="C53" t="s">
+      <c r="E53" t="s">
         <v>170</v>
       </c>
-      <c r="D53" t="s">
-        <v>171</v>
-      </c>
-      <c r="E53" t="s">
-        <v>172</v>
-      </c>
       <c r="F53" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="H53">
         <f t="shared" si="11"/>
@@ -4802,25 +4802,25 @@
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
+        <v>214</v>
+      </c>
+      <c r="B54" t="s">
+        <v>662</v>
+      </c>
+      <c r="C54" t="s">
+        <v>215</v>
+      </c>
+      <c r="D54" t="s">
         <v>216</v>
       </c>
-      <c r="B54" t="s">
+      <c r="E54" t="s">
         <v>217</v>
       </c>
-      <c r="C54" t="s">
-        <v>218</v>
-      </c>
-      <c r="D54" t="s">
-        <v>219</v>
-      </c>
-      <c r="E54" t="s">
-        <v>220</v>
-      </c>
       <c r="F54" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="H54">
         <f t="shared" si="11"/>
@@ -4837,25 +4837,25 @@
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
+        <v>383</v>
+      </c>
+      <c r="B55" t="s">
+        <v>384</v>
+      </c>
+      <c r="C55" t="s">
+        <v>385</v>
+      </c>
+      <c r="D55" t="s">
         <v>386</v>
       </c>
-      <c r="B55" t="s">
-        <v>387</v>
-      </c>
-      <c r="C55" t="s">
-        <v>388</v>
-      </c>
-      <c r="D55" t="s">
-        <v>389</v>
-      </c>
       <c r="E55" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="F55" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="H55">
         <f t="shared" si="11"/>
@@ -4872,25 +4872,25 @@
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
+        <v>233</v>
+      </c>
+      <c r="B56" t="s">
+        <v>234</v>
+      </c>
+      <c r="C56" t="s">
+        <v>235</v>
+      </c>
+      <c r="D56" t="s">
         <v>236</v>
       </c>
-      <c r="B56" t="s">
+      <c r="E56" t="s">
         <v>237</v>
       </c>
-      <c r="C56" t="s">
-        <v>238</v>
-      </c>
-      <c r="D56" t="s">
-        <v>239</v>
-      </c>
-      <c r="E56" t="s">
-        <v>240</v>
-      </c>
       <c r="F56" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H56">
         <f t="shared" si="11"/>
@@ -4913,19 +4913,19 @@
         <v>32</v>
       </c>
       <c r="C57" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D57" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E57" t="s">
         <v>33</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H57">
         <f t="shared" si="11"/>
@@ -4942,22 +4942,22 @@
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
+        <v>474</v>
+      </c>
+      <c r="B58" t="s">
+        <v>475</v>
+      </c>
+      <c r="C58" t="s">
+        <v>476</v>
+      </c>
+      <c r="D58" t="s">
         <v>477</v>
       </c>
-      <c r="B58" t="s">
+      <c r="E58" t="s">
         <v>478</v>
       </c>
-      <c r="C58" t="s">
-        <v>479</v>
-      </c>
-      <c r="D58" t="s">
-        <v>480</v>
-      </c>
-      <c r="E58" t="s">
-        <v>481</v>
-      </c>
       <c r="F58" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="H58">
         <f t="shared" si="11"/>
@@ -4974,22 +4974,22 @@
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
+        <v>479</v>
+      </c>
+      <c r="B59" t="s">
+        <v>480</v>
+      </c>
+      <c r="C59" t="s">
+        <v>481</v>
+      </c>
+      <c r="D59" t="s">
         <v>482</v>
       </c>
-      <c r="B59" t="s">
+      <c r="E59" t="s">
         <v>483</v>
       </c>
-      <c r="C59" t="s">
-        <v>484</v>
-      </c>
-      <c r="D59" t="s">
-        <v>485</v>
-      </c>
-      <c r="E59" t="s">
-        <v>486</v>
-      </c>
       <c r="F59" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="H59">
         <f t="shared" si="11"/>
@@ -5006,22 +5006,22 @@
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
+        <v>484</v>
+      </c>
+      <c r="B60" t="s">
+        <v>485</v>
+      </c>
+      <c r="C60" t="s">
+        <v>486</v>
+      </c>
+      <c r="D60" t="s">
         <v>487</v>
       </c>
-      <c r="B60" t="s">
+      <c r="E60" t="s">
         <v>488</v>
       </c>
-      <c r="C60" t="s">
-        <v>489</v>
-      </c>
-      <c r="D60" t="s">
-        <v>490</v>
-      </c>
-      <c r="E60" t="s">
-        <v>491</v>
-      </c>
       <c r="F60" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="H60">
         <f t="shared" si="11"/>
@@ -5038,25 +5038,25 @@
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
+        <v>375</v>
+      </c>
+      <c r="B61" t="s">
+        <v>376</v>
+      </c>
+      <c r="C61" t="s">
+        <v>377</v>
+      </c>
+      <c r="D61" t="s">
         <v>378</v>
       </c>
-      <c r="B61" t="s">
+      <c r="E61" t="s">
         <v>379</v>
       </c>
-      <c r="C61" t="s">
-        <v>380</v>
-      </c>
-      <c r="D61" t="s">
-        <v>381</v>
-      </c>
-      <c r="E61" t="s">
-        <v>382</v>
-      </c>
       <c r="F61" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="H61">
         <f t="shared" si="11"/>
@@ -5073,25 +5073,25 @@
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B62" t="s">
+        <v>210</v>
+      </c>
+      <c r="C62" t="s">
+        <v>211</v>
+      </c>
+      <c r="D62" t="s">
         <v>212</v>
       </c>
-      <c r="C62" t="s">
+      <c r="E62" t="s">
         <v>213</v>
       </c>
-      <c r="D62" t="s">
-        <v>214</v>
-      </c>
-      <c r="E62" t="s">
-        <v>215</v>
-      </c>
       <c r="F62" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="H62">
         <f t="shared" si="11"/>
@@ -5108,25 +5108,25 @@
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
+        <v>312</v>
+      </c>
+      <c r="B63" t="s">
+        <v>313</v>
+      </c>
+      <c r="C63" t="s">
+        <v>314</v>
+      </c>
+      <c r="D63" t="s">
         <v>315</v>
       </c>
-      <c r="B63" t="s">
-        <v>316</v>
-      </c>
-      <c r="C63" t="s">
-        <v>317</v>
-      </c>
-      <c r="D63" t="s">
-        <v>318</v>
-      </c>
       <c r="E63" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="F63" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="H63">
         <f t="shared" si="11"/>
@@ -5143,25 +5143,25 @@
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
+        <v>151</v>
+      </c>
+      <c r="B64" t="s">
+        <v>152</v>
+      </c>
+      <c r="C64" t="s">
         <v>153</v>
       </c>
-      <c r="B64" t="s">
+      <c r="D64" t="s">
         <v>154</v>
       </c>
-      <c r="C64" t="s">
+      <c r="E64" t="s">
         <v>155</v>
       </c>
-      <c r="D64" t="s">
-        <v>156</v>
-      </c>
-      <c r="E64" t="s">
-        <v>157</v>
-      </c>
       <c r="F64" t="s">
+        <v>186</v>
+      </c>
+      <c r="G64" s="1" t="s">
         <v>188</v>
-      </c>
-      <c r="G64" s="1" t="s">
-        <v>190</v>
       </c>
       <c r="H64">
         <f t="shared" si="11"/>
@@ -5178,25 +5178,25 @@
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
+        <v>387</v>
+      </c>
+      <c r="B65" t="s">
+        <v>388</v>
+      </c>
+      <c r="C65" t="s">
+        <v>389</v>
+      </c>
+      <c r="D65" t="s">
         <v>390</v>
       </c>
-      <c r="B65" t="s">
-        <v>391</v>
-      </c>
-      <c r="C65" t="s">
-        <v>392</v>
-      </c>
-      <c r="D65" t="s">
-        <v>393</v>
-      </c>
       <c r="E65" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="F65" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="H65">
         <f t="shared" si="11"/>
@@ -5213,25 +5213,25 @@
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
+        <v>408</v>
+      </c>
+      <c r="B66" t="s">
+        <v>409</v>
+      </c>
+      <c r="C66" t="s">
+        <v>410</v>
+      </c>
+      <c r="D66" t="s">
         <v>411</v>
       </c>
-      <c r="B66" t="s">
+      <c r="E66" t="s">
         <v>412</v>
       </c>
-      <c r="C66" t="s">
-        <v>413</v>
-      </c>
-      <c r="D66" t="s">
-        <v>414</v>
-      </c>
-      <c r="E66" t="s">
-        <v>415</v>
-      </c>
       <c r="F66" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="H66">
         <f t="shared" si="11"/>
@@ -5248,22 +5248,22 @@
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
+        <v>470</v>
+      </c>
+      <c r="B67" t="s">
+        <v>471</v>
+      </c>
+      <c r="C67" t="s">
+        <v>212</v>
+      </c>
+      <c r="D67" t="s">
+        <v>472</v>
+      </c>
+      <c r="E67" t="s">
         <v>473</v>
       </c>
-      <c r="B67" t="s">
-        <v>474</v>
-      </c>
-      <c r="C67" t="s">
-        <v>214</v>
-      </c>
-      <c r="D67" t="s">
-        <v>475</v>
-      </c>
-      <c r="E67" t="s">
-        <v>476</v>
-      </c>
       <c r="F67" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="H67">
         <f t="shared" si="11"/>
@@ -5280,25 +5280,25 @@
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
+        <v>247</v>
+      </c>
+      <c r="B68" t="s">
+        <v>248</v>
+      </c>
+      <c r="C68" t="s">
+        <v>249</v>
+      </c>
+      <c r="D68" t="s">
         <v>250</v>
       </c>
-      <c r="B68" t="s">
+      <c r="E68" t="s">
         <v>251</v>
       </c>
-      <c r="C68" t="s">
+      <c r="F68" t="s">
         <v>252</v>
       </c>
-      <c r="D68" t="s">
-        <v>253</v>
-      </c>
-      <c r="E68" t="s">
-        <v>254</v>
-      </c>
-      <c r="F68" t="s">
-        <v>255</v>
-      </c>
       <c r="G68" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H68">
         <f t="shared" si="11"/>
@@ -5315,22 +5315,22 @@
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B69" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="C69" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="D69" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="E69" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="F69" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="H69">
         <f t="shared" si="11"/>
@@ -5347,22 +5347,22 @@
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
+        <v>599</v>
+      </c>
+      <c r="B70" t="s">
+        <v>600</v>
+      </c>
+      <c r="C70" t="s">
+        <v>601</v>
+      </c>
+      <c r="D70" t="s">
         <v>602</v>
       </c>
-      <c r="B70" t="s">
+      <c r="E70" t="s">
         <v>603</v>
       </c>
-      <c r="C70" t="s">
-        <v>604</v>
-      </c>
-      <c r="D70" t="s">
-        <v>605</v>
-      </c>
-      <c r="E70" t="s">
-        <v>606</v>
-      </c>
       <c r="F70" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="H70">
         <f t="shared" si="11"/>
@@ -5379,25 +5379,25 @@
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
+        <v>421</v>
+      </c>
+      <c r="B71" t="s">
+        <v>422</v>
+      </c>
+      <c r="C71" t="s">
+        <v>423</v>
+      </c>
+      <c r="D71" t="s">
         <v>424</v>
       </c>
-      <c r="B71" t="s">
-        <v>425</v>
-      </c>
-      <c r="C71" t="s">
-        <v>426</v>
-      </c>
-      <c r="D71" t="s">
-        <v>427</v>
-      </c>
       <c r="E71" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="F71" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="H71">
         <f t="shared" si="11"/>
@@ -5414,25 +5414,25 @@
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
+        <v>280</v>
+      </c>
+      <c r="B72" t="s">
+        <v>281</v>
+      </c>
+      <c r="C72" t="s">
+        <v>282</v>
+      </c>
+      <c r="D72" t="s">
         <v>283</v>
       </c>
-      <c r="B72" t="s">
-        <v>284</v>
-      </c>
-      <c r="C72" t="s">
-        <v>285</v>
-      </c>
-      <c r="D72" t="s">
-        <v>286</v>
-      </c>
       <c r="E72" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="F72" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="H72">
         <f t="shared" si="11"/>
@@ -5449,25 +5449,25 @@
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
+        <v>295</v>
+      </c>
+      <c r="B73" t="s">
+        <v>296</v>
+      </c>
+      <c r="C73" t="s">
+        <v>297</v>
+      </c>
+      <c r="D73" t="s">
         <v>298</v>
       </c>
-      <c r="B73" t="s">
+      <c r="E73" t="s">
         <v>299</v>
       </c>
-      <c r="C73" t="s">
-        <v>300</v>
-      </c>
-      <c r="D73" t="s">
-        <v>301</v>
-      </c>
-      <c r="E73" t="s">
-        <v>302</v>
-      </c>
       <c r="F73" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H73">
         <f t="shared" si="11"/>
@@ -5484,25 +5484,25 @@
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
+        <v>291</v>
+      </c>
+      <c r="B74" t="s">
+        <v>292</v>
+      </c>
+      <c r="C74" t="s">
+        <v>293</v>
+      </c>
+      <c r="D74" t="s">
         <v>294</v>
       </c>
-      <c r="B74" t="s">
-        <v>295</v>
-      </c>
-      <c r="C74" t="s">
-        <v>296</v>
-      </c>
-      <c r="D74" t="s">
-        <v>297</v>
-      </c>
       <c r="E74" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="F74" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="H74">
         <f t="shared" si="11"/>
@@ -5519,22 +5519,22 @@
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="B75" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="C75" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="D75" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="E75" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="F75" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="H75">
         <f t="shared" si="11"/>
@@ -5551,22 +5551,22 @@
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="B76" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="C76" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="D76" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="E76" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="F76" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="H76">
         <f t="shared" si="11"/>
@@ -5583,25 +5583,25 @@
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
+        <v>322</v>
+      </c>
+      <c r="B77" t="s">
+        <v>323</v>
+      </c>
+      <c r="C77" t="s">
+        <v>324</v>
+      </c>
+      <c r="D77" t="s">
         <v>325</v>
       </c>
-      <c r="B77" t="s">
+      <c r="E77" t="s">
         <v>326</v>
       </c>
-      <c r="C77" t="s">
-        <v>327</v>
-      </c>
-      <c r="D77" t="s">
-        <v>328</v>
-      </c>
-      <c r="E77" t="s">
-        <v>329</v>
-      </c>
       <c r="F77" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="H77">
         <f t="shared" si="11"/>
@@ -5618,25 +5618,25 @@
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B78" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C78" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="D78" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="E78" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="F78" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="H78">
         <f t="shared" si="11"/>
@@ -5653,22 +5653,22 @@
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
+        <v>460</v>
+      </c>
+      <c r="B79" t="s">
+        <v>461</v>
+      </c>
+      <c r="C79" t="s">
+        <v>462</v>
+      </c>
+      <c r="D79" t="s">
         <v>463</v>
       </c>
-      <c r="B79" t="s">
+      <c r="E79" t="s">
         <v>464</v>
       </c>
-      <c r="C79" t="s">
-        <v>465</v>
-      </c>
-      <c r="D79" t="s">
-        <v>466</v>
-      </c>
-      <c r="E79" t="s">
-        <v>467</v>
-      </c>
       <c r="F79" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="H79">
         <f t="shared" si="11"/>
@@ -5685,22 +5685,22 @@
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
+        <v>465</v>
+      </c>
+      <c r="B80" t="s">
+        <v>466</v>
+      </c>
+      <c r="C80" t="s">
+        <v>467</v>
+      </c>
+      <c r="D80" t="s">
         <v>468</v>
       </c>
-      <c r="B80" t="s">
+      <c r="E80" t="s">
         <v>469</v>
       </c>
-      <c r="C80" t="s">
-        <v>470</v>
-      </c>
-      <c r="D80" t="s">
-        <v>471</v>
-      </c>
-      <c r="E80" t="s">
-        <v>472</v>
-      </c>
       <c r="F80" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="H80">
         <f t="shared" si="11"/>
@@ -5717,25 +5717,25 @@
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
+        <v>391</v>
+      </c>
+      <c r="B81" t="s">
+        <v>392</v>
+      </c>
+      <c r="C81" t="s">
+        <v>393</v>
+      </c>
+      <c r="D81" t="s">
         <v>394</v>
       </c>
-      <c r="B81" t="s">
+      <c r="E81" t="s">
         <v>395</v>
       </c>
-      <c r="C81" t="s">
-        <v>396</v>
-      </c>
-      <c r="D81" t="s">
-        <v>397</v>
-      </c>
-      <c r="E81" t="s">
-        <v>398</v>
-      </c>
       <c r="F81" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="H81">
         <f t="shared" si="11"/>
@@ -5752,25 +5752,25 @@
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
+        <v>223</v>
+      </c>
+      <c r="B82" t="s">
+        <v>224</v>
+      </c>
+      <c r="C82" t="s">
+        <v>225</v>
+      </c>
+      <c r="D82" t="s">
         <v>226</v>
       </c>
-      <c r="B82" t="s">
+      <c r="E82" t="s">
         <v>227</v>
       </c>
-      <c r="C82" t="s">
-        <v>228</v>
-      </c>
-      <c r="D82" t="s">
-        <v>229</v>
-      </c>
-      <c r="E82" t="s">
-        <v>230</v>
-      </c>
       <c r="F82" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="H82">
         <f t="shared" si="11"/>
@@ -5787,22 +5787,22 @@
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
+        <v>489</v>
+      </c>
+      <c r="B83" t="s">
+        <v>490</v>
+      </c>
+      <c r="C83" t="s">
+        <v>491</v>
+      </c>
+      <c r="D83" t="s">
         <v>492</v>
       </c>
-      <c r="B83" t="s">
+      <c r="E83" t="s">
         <v>493</v>
       </c>
-      <c r="C83" t="s">
-        <v>494</v>
-      </c>
-      <c r="D83" t="s">
-        <v>495</v>
-      </c>
-      <c r="E83" t="s">
-        <v>496</v>
-      </c>
       <c r="F83" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="H83">
         <f t="shared" si="11"/>
@@ -5819,22 +5819,22 @@
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
+        <v>494</v>
+      </c>
+      <c r="B84" t="s">
+        <v>495</v>
+      </c>
+      <c r="C84" t="s">
+        <v>496</v>
+      </c>
+      <c r="D84" t="s">
         <v>497</v>
       </c>
-      <c r="B84" t="s">
+      <c r="E84" t="s">
         <v>498</v>
       </c>
-      <c r="C84" t="s">
-        <v>499</v>
-      </c>
-      <c r="D84" t="s">
-        <v>500</v>
-      </c>
-      <c r="E84" t="s">
-        <v>501</v>
-      </c>
       <c r="F84" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="H84">
         <f t="shared" si="11"/>
@@ -5851,25 +5851,25 @@
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
+        <v>316</v>
+      </c>
+      <c r="B85" t="s">
+        <v>317</v>
+      </c>
+      <c r="C85" t="s">
+        <v>318</v>
+      </c>
+      <c r="D85" t="s">
         <v>319</v>
       </c>
-      <c r="B85" t="s">
+      <c r="E85" t="s">
         <v>320</v>
       </c>
-      <c r="C85" t="s">
+      <c r="F85" t="s">
         <v>321</v>
       </c>
-      <c r="D85" t="s">
-        <v>322</v>
-      </c>
-      <c r="E85" t="s">
-        <v>323</v>
-      </c>
-      <c r="F85" t="s">
-        <v>324</v>
-      </c>
       <c r="G85" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="H85">
         <f t="shared" si="11"/>
@@ -5886,25 +5886,25 @@
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
+        <v>161</v>
+      </c>
+      <c r="B86" t="s">
+        <v>162</v>
+      </c>
+      <c r="C86" t="s">
         <v>163</v>
       </c>
-      <c r="B86" t="s">
+      <c r="D86" t="s">
         <v>164</v>
       </c>
-      <c r="C86" t="s">
+      <c r="E86" t="s">
         <v>165</v>
       </c>
-      <c r="D86" t="s">
-        <v>166</v>
-      </c>
-      <c r="E86" t="s">
-        <v>167</v>
-      </c>
       <c r="F86" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="H86">
         <f t="shared" si="11"/>
@@ -5921,22 +5921,22 @@
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
+        <v>504</v>
+      </c>
+      <c r="B87" t="s">
+        <v>505</v>
+      </c>
+      <c r="C87" t="s">
+        <v>506</v>
+      </c>
+      <c r="D87" t="s">
         <v>507</v>
       </c>
-      <c r="B87" t="s">
+      <c r="E87" t="s">
         <v>508</v>
       </c>
-      <c r="C87" t="s">
-        <v>509</v>
-      </c>
-      <c r="D87" t="s">
-        <v>510</v>
-      </c>
-      <c r="E87" t="s">
-        <v>511</v>
-      </c>
       <c r="F87" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="H87">
         <f t="shared" si="11"/>
@@ -5953,22 +5953,22 @@
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
+        <v>509</v>
+      </c>
+      <c r="B88" t="s">
+        <v>510</v>
+      </c>
+      <c r="C88" t="s">
+        <v>511</v>
+      </c>
+      <c r="D88" t="s">
         <v>512</v>
       </c>
-      <c r="B88" t="s">
+      <c r="E88" t="s">
         <v>513</v>
       </c>
-      <c r="C88" t="s">
-        <v>514</v>
-      </c>
-      <c r="D88" t="s">
-        <v>515</v>
-      </c>
-      <c r="E88" t="s">
-        <v>516</v>
-      </c>
       <c r="F88" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="H88">
         <f t="shared" si="11"/>
@@ -5985,22 +5985,22 @@
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
+        <v>514</v>
+      </c>
+      <c r="B89" t="s">
+        <v>515</v>
+      </c>
+      <c r="C89" t="s">
+        <v>516</v>
+      </c>
+      <c r="D89" t="s">
         <v>517</v>
       </c>
-      <c r="B89" t="s">
+      <c r="E89" t="s">
         <v>518</v>
       </c>
-      <c r="C89" t="s">
-        <v>519</v>
-      </c>
-      <c r="D89" t="s">
-        <v>520</v>
-      </c>
-      <c r="E89" t="s">
-        <v>521</v>
-      </c>
       <c r="F89" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="H89">
         <f t="shared" si="11"/>
@@ -6017,25 +6017,25 @@
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
+        <v>171</v>
+      </c>
+      <c r="B90" t="s">
+        <v>172</v>
+      </c>
+      <c r="C90" t="s">
         <v>173</v>
       </c>
-      <c r="B90" t="s">
+      <c r="D90" t="s">
         <v>174</v>
       </c>
-      <c r="C90" t="s">
+      <c r="E90" t="s">
         <v>175</v>
       </c>
-      <c r="D90" t="s">
-        <v>176</v>
-      </c>
-      <c r="E90" t="s">
-        <v>177</v>
-      </c>
       <c r="F90" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="H90">
         <f t="shared" si="11"/>
@@ -6052,25 +6052,25 @@
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
+        <v>200</v>
+      </c>
+      <c r="B91" t="s">
+        <v>201</v>
+      </c>
+      <c r="C91" t="s">
         <v>202</v>
       </c>
-      <c r="B91" t="s">
+      <c r="D91" t="s">
         <v>203</v>
       </c>
-      <c r="C91" t="s">
+      <c r="E91" t="s">
         <v>204</v>
       </c>
-      <c r="D91" t="s">
-        <v>205</v>
-      </c>
-      <c r="E91" t="s">
-        <v>206</v>
-      </c>
       <c r="F91" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="H91">
         <f t="shared" si="11"/>
@@ -6087,25 +6087,25 @@
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
+        <v>304</v>
+      </c>
+      <c r="B92" t="s">
+        <v>305</v>
+      </c>
+      <c r="C92" t="s">
+        <v>306</v>
+      </c>
+      <c r="D92" t="s">
         <v>307</v>
       </c>
-      <c r="B92" t="s">
-        <v>308</v>
-      </c>
-      <c r="C92" t="s">
-        <v>309</v>
-      </c>
-      <c r="D92" t="s">
-        <v>310</v>
-      </c>
       <c r="E92" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="F92" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="H92">
         <f t="shared" ref="H92:H135" si="13">INT(J92/3)</f>
@@ -6122,22 +6122,22 @@
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="B93" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="C93" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="D93" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="E93" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F93" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="H93">
         <f t="shared" si="13"/>
@@ -6154,22 +6154,22 @@
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B94" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="C94" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="D94" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="E94" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="F94" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="H94">
         <f t="shared" si="13"/>
@@ -6186,22 +6186,22 @@
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
+        <v>588</v>
+      </c>
+      <c r="B95" t="s">
+        <v>589</v>
+      </c>
+      <c r="C95" t="s">
+        <v>590</v>
+      </c>
+      <c r="D95" t="s">
+        <v>153</v>
+      </c>
+      <c r="E95" t="s">
         <v>591</v>
       </c>
-      <c r="B95" t="s">
-        <v>592</v>
-      </c>
-      <c r="C95" t="s">
-        <v>593</v>
-      </c>
-      <c r="D95" t="s">
-        <v>155</v>
-      </c>
-      <c r="E95" t="s">
-        <v>594</v>
-      </c>
       <c r="F95" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="H95">
         <f t="shared" si="13"/>
@@ -6218,25 +6218,25 @@
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
+        <v>397</v>
+      </c>
+      <c r="B96" t="s">
+        <v>398</v>
+      </c>
+      <c r="C96" t="s">
+        <v>399</v>
+      </c>
+      <c r="D96" t="s">
         <v>400</v>
       </c>
-      <c r="B96" t="s">
+      <c r="E96" t="s">
         <v>401</v>
       </c>
-      <c r="C96" t="s">
-        <v>402</v>
-      </c>
-      <c r="D96" t="s">
-        <v>403</v>
-      </c>
-      <c r="E96" t="s">
-        <v>404</v>
-      </c>
       <c r="F96" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="H96">
         <f t="shared" si="13"/>
@@ -6268,10 +6268,10 @@
         <v>30</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H97">
         <f t="shared" si="13"/>
@@ -6288,25 +6288,25 @@
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
+        <v>66</v>
+      </c>
+      <c r="B98" t="s">
         <v>67</v>
       </c>
-      <c r="B98" t="s">
+      <c r="C98" t="s">
         <v>68</v>
       </c>
-      <c r="C98" t="s">
+      <c r="D98" t="s">
+        <v>369</v>
+      </c>
+      <c r="E98" t="s">
         <v>69</v>
       </c>
-      <c r="D98" t="s">
-        <v>372</v>
-      </c>
-      <c r="E98" t="s">
-        <v>70</v>
-      </c>
       <c r="F98" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H98">
         <f t="shared" si="13"/>
@@ -6323,22 +6323,22 @@
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="B99" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="C99" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="D99" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="E99" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="F99" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="H99">
         <f t="shared" si="13"/>
@@ -6355,22 +6355,22 @@
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
+        <v>553</v>
+      </c>
+      <c r="B100" t="s">
+        <v>554</v>
+      </c>
+      <c r="C100" t="s">
+        <v>555</v>
+      </c>
+      <c r="D100" t="s">
         <v>556</v>
       </c>
-      <c r="B100" t="s">
+      <c r="E100" t="s">
         <v>557</v>
       </c>
-      <c r="C100" t="s">
-        <v>558</v>
-      </c>
-      <c r="D100" t="s">
-        <v>559</v>
-      </c>
-      <c r="E100" t="s">
-        <v>560</v>
-      </c>
       <c r="F100" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="H100">
         <f t="shared" si="13"/>
@@ -6387,22 +6387,22 @@
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="B101" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="C101" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="D101" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="E101" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="F101" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="H101">
         <f t="shared" si="13"/>
@@ -6419,22 +6419,22 @@
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
+        <v>561</v>
+      </c>
+      <c r="B102" t="s">
+        <v>562</v>
+      </c>
+      <c r="C102" t="s">
+        <v>563</v>
+      </c>
+      <c r="D102" t="s">
         <v>564</v>
       </c>
-      <c r="B102" t="s">
+      <c r="E102" t="s">
         <v>565</v>
       </c>
-      <c r="C102" t="s">
-        <v>566</v>
-      </c>
-      <c r="D102" t="s">
-        <v>567</v>
-      </c>
-      <c r="E102" t="s">
-        <v>568</v>
-      </c>
       <c r="F102" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="H102">
         <f t="shared" si="13"/>
@@ -6451,22 +6451,22 @@
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
+        <v>566</v>
+      </c>
+      <c r="B103" t="s">
+        <v>567</v>
+      </c>
+      <c r="C103" t="s">
+        <v>568</v>
+      </c>
+      <c r="D103" t="s">
         <v>569</v>
       </c>
-      <c r="B103" t="s">
+      <c r="E103" t="s">
         <v>570</v>
       </c>
-      <c r="C103" t="s">
-        <v>571</v>
-      </c>
-      <c r="D103" t="s">
-        <v>572</v>
-      </c>
-      <c r="E103" t="s">
-        <v>573</v>
-      </c>
       <c r="F103" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="H103">
         <f t="shared" si="13"/>
@@ -6483,25 +6483,25 @@
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
+        <v>181</v>
+      </c>
+      <c r="B104" t="s">
+        <v>182</v>
+      </c>
+      <c r="C104" t="s">
         <v>183</v>
       </c>
-      <c r="B104" t="s">
+      <c r="D104" t="s">
         <v>184</v>
       </c>
-      <c r="C104" t="s">
+      <c r="E104" t="s">
         <v>185</v>
       </c>
-      <c r="D104" t="s">
+      <c r="F104" t="s">
         <v>186</v>
       </c>
-      <c r="E104" t="s">
+      <c r="G104" s="1" t="s">
         <v>187</v>
-      </c>
-      <c r="F104" t="s">
-        <v>188</v>
-      </c>
-      <c r="G104" s="1" t="s">
-        <v>189</v>
       </c>
       <c r="H104">
         <f t="shared" si="13"/>
@@ -6518,25 +6518,25 @@
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
+        <v>50</v>
+      </c>
+      <c r="B105" t="s">
         <v>51</v>
       </c>
-      <c r="B105" t="s">
+      <c r="C105" t="s">
         <v>52</v>
       </c>
-      <c r="C105" t="s">
+      <c r="D105" t="s">
         <v>53</v>
       </c>
-      <c r="D105" t="s">
+      <c r="E105" t="s">
         <v>54</v>
       </c>
-      <c r="E105" t="s">
-        <v>55</v>
-      </c>
       <c r="F105" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G105" s="1" t="s">
         <v>88</v>
-      </c>
-      <c r="G105" s="1" t="s">
-        <v>89</v>
       </c>
       <c r="H105">
         <f t="shared" si="13"/>
@@ -6553,25 +6553,25 @@
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
+        <v>228</v>
+      </c>
+      <c r="B106" t="s">
+        <v>229</v>
+      </c>
+      <c r="C106" t="s">
+        <v>230</v>
+      </c>
+      <c r="D106" t="s">
         <v>231</v>
       </c>
-      <c r="B106" t="s">
+      <c r="E106" t="s">
         <v>232</v>
       </c>
-      <c r="C106" t="s">
-        <v>233</v>
-      </c>
-      <c r="D106" t="s">
-        <v>234</v>
-      </c>
-      <c r="E106" t="s">
-        <v>235</v>
-      </c>
       <c r="F106" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="H106">
         <f t="shared" si="13"/>
@@ -6588,25 +6588,25 @@
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
+        <v>176</v>
+      </c>
+      <c r="B107" t="s">
+        <v>177</v>
+      </c>
+      <c r="C107" t="s">
         <v>178</v>
       </c>
-      <c r="B107" t="s">
+      <c r="D107" t="s">
         <v>179</v>
       </c>
-      <c r="C107" t="s">
+      <c r="E107" t="s">
         <v>180</v>
       </c>
-      <c r="D107" t="s">
-        <v>181</v>
-      </c>
-      <c r="E107" t="s">
-        <v>182</v>
-      </c>
       <c r="F107" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H107">
         <f t="shared" si="13"/>
@@ -6623,22 +6623,22 @@
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
+        <v>624</v>
+      </c>
+      <c r="B108" t="s">
+        <v>625</v>
+      </c>
+      <c r="C108" t="s">
+        <v>626</v>
+      </c>
+      <c r="D108" t="s">
         <v>627</v>
       </c>
-      <c r="B108" t="s">
+      <c r="E108" t="s">
         <v>628</v>
       </c>
-      <c r="C108" t="s">
-        <v>629</v>
-      </c>
-      <c r="D108" t="s">
-        <v>630</v>
-      </c>
-      <c r="E108" t="s">
-        <v>631</v>
-      </c>
       <c r="F108" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="H108">
         <f t="shared" si="13"/>
@@ -6655,22 +6655,22 @@
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
+        <v>534</v>
+      </c>
+      <c r="B109" t="s">
+        <v>472</v>
+      </c>
+      <c r="C109" t="s">
+        <v>535</v>
+      </c>
+      <c r="D109" t="s">
+        <v>536</v>
+      </c>
+      <c r="E109" t="s">
         <v>537</v>
       </c>
-      <c r="B109" t="s">
-        <v>475</v>
-      </c>
-      <c r="C109" t="s">
-        <v>538</v>
-      </c>
-      <c r="D109" t="s">
-        <v>539</v>
-      </c>
-      <c r="E109" t="s">
-        <v>540</v>
-      </c>
       <c r="F109" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="H109">
         <f t="shared" si="13"/>
@@ -6687,22 +6687,22 @@
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
+        <v>629</v>
+      </c>
+      <c r="B110" t="s">
+        <v>630</v>
+      </c>
+      <c r="C110" t="s">
+        <v>631</v>
+      </c>
+      <c r="D110" t="s">
         <v>632</v>
       </c>
-      <c r="B110" t="s">
+      <c r="E110" t="s">
         <v>633</v>
       </c>
-      <c r="C110" t="s">
+      <c r="F110" t="s">
         <v>634</v>
-      </c>
-      <c r="D110" t="s">
-        <v>635</v>
-      </c>
-      <c r="E110" t="s">
-        <v>636</v>
-      </c>
-      <c r="F110" t="s">
-        <v>637</v>
       </c>
       <c r="H110">
         <f t="shared" si="13"/>
@@ -6719,25 +6719,25 @@
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
+        <v>402</v>
+      </c>
+      <c r="B111" t="s">
+        <v>403</v>
+      </c>
+      <c r="C111" t="s">
+        <v>404</v>
+      </c>
+      <c r="D111" t="s">
         <v>405</v>
       </c>
-      <c r="B111" t="s">
-        <v>406</v>
-      </c>
-      <c r="C111" t="s">
-        <v>407</v>
-      </c>
-      <c r="D111" t="s">
-        <v>408</v>
-      </c>
       <c r="E111" s="7" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="F111" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H111">
         <f t="shared" si="13"/>
@@ -6754,22 +6754,22 @@
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="B112" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="C112" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="D112" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="E112" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="F112" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="H112">
         <f t="shared" si="13"/>
@@ -6786,22 +6786,22 @@
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
+        <v>574</v>
+      </c>
+      <c r="B113" t="s">
+        <v>575</v>
+      </c>
+      <c r="C113" t="s">
+        <v>576</v>
+      </c>
+      <c r="D113" t="s">
         <v>577</v>
       </c>
-      <c r="B113" t="s">
+      <c r="E113" t="s">
         <v>578</v>
       </c>
-      <c r="C113" t="s">
-        <v>579</v>
-      </c>
-      <c r="D113" t="s">
-        <v>580</v>
-      </c>
-      <c r="E113" t="s">
-        <v>581</v>
-      </c>
       <c r="F113" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="H113">
         <f t="shared" si="13"/>
@@ -6818,22 +6818,22 @@
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
+        <v>579</v>
+      </c>
+      <c r="B114" t="s">
+        <v>580</v>
+      </c>
+      <c r="C114" t="s">
+        <v>581</v>
+      </c>
+      <c r="D114" t="s">
         <v>582</v>
       </c>
-      <c r="B114" t="s">
-        <v>583</v>
-      </c>
-      <c r="C114" t="s">
-        <v>584</v>
-      </c>
-      <c r="D114" t="s">
-        <v>585</v>
-      </c>
       <c r="E114" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="F114" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="H114">
         <f t="shared" si="13"/>
@@ -6850,22 +6850,22 @@
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
+        <v>272</v>
+      </c>
+      <c r="B115" t="s">
+        <v>273</v>
+      </c>
+      <c r="C115" t="s">
+        <v>274</v>
+      </c>
+      <c r="D115" t="s">
         <v>275</v>
       </c>
-      <c r="B115" t="s">
+      <c r="E115" t="s">
         <v>276</v>
       </c>
-      <c r="C115" t="s">
-        <v>277</v>
-      </c>
-      <c r="D115" t="s">
-        <v>278</v>
-      </c>
-      <c r="E115" t="s">
-        <v>279</v>
-      </c>
       <c r="F115" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G115" s="1" t="s">
         <v>8</v>
@@ -6885,22 +6885,22 @@
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
+        <v>238</v>
+      </c>
+      <c r="B116" t="s">
+        <v>239</v>
+      </c>
+      <c r="C116" t="s">
+        <v>240</v>
+      </c>
+      <c r="D116" t="s">
         <v>241</v>
       </c>
-      <c r="B116" t="s">
+      <c r="E116" t="s">
         <v>242</v>
       </c>
-      <c r="C116" t="s">
-        <v>243</v>
-      </c>
-      <c r="D116" t="s">
-        <v>244</v>
-      </c>
-      <c r="E116" t="s">
-        <v>245</v>
-      </c>
       <c r="F116" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="G116" s="1" t="s">
         <v>8</v>
@@ -6920,25 +6920,25 @@
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
+        <v>308</v>
+      </c>
+      <c r="B117" t="s">
+        <v>309</v>
+      </c>
+      <c r="C117" t="s">
+        <v>310</v>
+      </c>
+      <c r="D117" t="s">
         <v>311</v>
       </c>
-      <c r="B117" t="s">
-        <v>312</v>
-      </c>
-      <c r="C117" t="s">
-        <v>313</v>
-      </c>
-      <c r="D117" t="s">
-        <v>314</v>
-      </c>
       <c r="E117" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="F117" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="G117" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="H117">
         <f t="shared" si="13"/>
@@ -6955,22 +6955,22 @@
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
+        <v>609</v>
+      </c>
+      <c r="B118" t="s">
+        <v>610</v>
+      </c>
+      <c r="C118" t="s">
+        <v>611</v>
+      </c>
+      <c r="D118" t="s">
         <v>612</v>
       </c>
-      <c r="B118" t="s">
+      <c r="E118" t="s">
         <v>613</v>
       </c>
-      <c r="C118" t="s">
-        <v>614</v>
-      </c>
-      <c r="D118" t="s">
-        <v>615</v>
-      </c>
-      <c r="E118" t="s">
-        <v>616</v>
-      </c>
       <c r="F118" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="H118">
         <f t="shared" si="13"/>
@@ -6987,22 +6987,22 @@
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
+        <v>614</v>
+      </c>
+      <c r="B119" t="s">
+        <v>615</v>
+      </c>
+      <c r="C119" t="s">
+        <v>616</v>
+      </c>
+      <c r="D119" t="s">
         <v>617</v>
       </c>
-      <c r="B119" t="s">
+      <c r="E119" t="s">
         <v>618</v>
       </c>
-      <c r="C119" t="s">
-        <v>619</v>
-      </c>
-      <c r="D119" t="s">
-        <v>620</v>
-      </c>
-      <c r="E119" t="s">
-        <v>621</v>
-      </c>
       <c r="F119" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="H119">
         <f t="shared" si="13"/>
@@ -7019,25 +7019,25 @@
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="B120" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="C120" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="D120" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="E120" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="F120" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="G120" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="H120">
         <f t="shared" si="13"/>
@@ -7054,25 +7054,25 @@
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="B121" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="C121" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="D121" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="E121" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="F121" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="G121" s="1" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="H121">
         <f t="shared" si="13"/>
@@ -7089,25 +7089,25 @@
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
+        <v>263</v>
+      </c>
+      <c r="B122" t="s">
+        <v>264</v>
+      </c>
+      <c r="C122" t="s">
+        <v>265</v>
+      </c>
+      <c r="D122" t="s">
+        <v>245</v>
+      </c>
+      <c r="E122" t="s">
         <v>266</v>
       </c>
-      <c r="B122" t="s">
-        <v>267</v>
-      </c>
-      <c r="C122" t="s">
-        <v>268</v>
-      </c>
-      <c r="D122" t="s">
-        <v>248</v>
-      </c>
-      <c r="E122" t="s">
-        <v>269</v>
-      </c>
       <c r="F122" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G122" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="H122">
         <f t="shared" si="13"/>
@@ -7124,25 +7124,25 @@
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B123" t="s">
+        <v>243</v>
+      </c>
+      <c r="C123" t="s">
+        <v>244</v>
+      </c>
+      <c r="D123" t="s">
+        <v>245</v>
+      </c>
+      <c r="E123" t="s">
         <v>246</v>
       </c>
-      <c r="C123" t="s">
-        <v>247</v>
-      </c>
-      <c r="D123" t="s">
-        <v>248</v>
-      </c>
-      <c r="E123" t="s">
-        <v>249</v>
-      </c>
       <c r="F123" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="G123" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H123">
         <f t="shared" si="13"/>
@@ -7159,22 +7159,22 @@
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
+        <v>619</v>
+      </c>
+      <c r="B124" t="s">
+        <v>620</v>
+      </c>
+      <c r="C124" t="s">
+        <v>621</v>
+      </c>
+      <c r="D124" t="s">
         <v>622</v>
       </c>
-      <c r="B124" t="s">
+      <c r="E124" t="s">
         <v>623</v>
       </c>
-      <c r="C124" t="s">
-        <v>624</v>
-      </c>
-      <c r="D124" t="s">
-        <v>625</v>
-      </c>
-      <c r="E124" t="s">
-        <v>626</v>
-      </c>
       <c r="F124" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="H124">
         <f t="shared" si="13"/>
@@ -7191,25 +7191,25 @@
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="B125" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="C125" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="D125" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="E125" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="F125" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="G125" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="H125">
         <f t="shared" si="13"/>
@@ -7226,25 +7226,25 @@
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
+        <v>300</v>
+      </c>
+      <c r="B126" t="s">
+        <v>301</v>
+      </c>
+      <c r="C126" t="s">
+        <v>302</v>
+      </c>
+      <c r="D126" t="s">
         <v>303</v>
       </c>
-      <c r="B126" t="s">
-        <v>304</v>
-      </c>
-      <c r="C126" t="s">
-        <v>305</v>
-      </c>
-      <c r="D126" t="s">
-        <v>306</v>
-      </c>
       <c r="E126" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="F126" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="G126" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="H126">
         <f t="shared" si="13"/>
@@ -7261,22 +7261,22 @@
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
+        <v>218</v>
+      </c>
+      <c r="B127" t="s">
+        <v>219</v>
+      </c>
+      <c r="C127" t="s">
+        <v>220</v>
+      </c>
+      <c r="D127" t="s">
         <v>221</v>
       </c>
-      <c r="B127" t="s">
+      <c r="E127" t="s">
         <v>222</v>
       </c>
-      <c r="C127" t="s">
-        <v>223</v>
-      </c>
-      <c r="D127" t="s">
-        <v>224</v>
-      </c>
-      <c r="E127" t="s">
-        <v>225</v>
-      </c>
       <c r="F127" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="G127" s="1" t="s">
         <v>8</v>
@@ -7296,25 +7296,25 @@
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
+        <v>146</v>
+      </c>
+      <c r="B128" t="s">
+        <v>147</v>
+      </c>
+      <c r="C128" t="s">
         <v>148</v>
       </c>
-      <c r="B128" t="s">
+      <c r="D128" t="s">
         <v>149</v>
       </c>
-      <c r="C128" t="s">
+      <c r="E128" t="s">
         <v>150</v>
       </c>
-      <c r="D128" t="s">
-        <v>151</v>
-      </c>
-      <c r="E128" t="s">
-        <v>152</v>
-      </c>
       <c r="F128" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G128" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H128">
         <f t="shared" si="13"/>
@@ -7331,25 +7331,25 @@
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
+        <v>70</v>
+      </c>
+      <c r="B129" t="s">
         <v>71</v>
       </c>
-      <c r="B129" t="s">
+      <c r="C129" t="s">
         <v>72</v>
       </c>
-      <c r="C129" t="s">
+      <c r="D129" t="s">
         <v>73</v>
       </c>
-      <c r="D129" t="s">
+      <c r="E129" t="s">
         <v>74</v>
       </c>
-      <c r="E129" t="s">
-        <v>75</v>
-      </c>
       <c r="F129" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G129" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H129">
         <f t="shared" si="13"/>
@@ -7366,25 +7366,25 @@
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
+        <v>438</v>
+      </c>
+      <c r="B130" t="s">
+        <v>439</v>
+      </c>
+      <c r="C130" t="s">
+        <v>440</v>
+      </c>
+      <c r="D130" t="s">
         <v>441</v>
       </c>
-      <c r="B130" t="s">
+      <c r="E130" t="s">
         <v>442</v>
       </c>
-      <c r="C130" t="s">
+      <c r="F130" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="D130" t="s">
-        <v>444</v>
-      </c>
-      <c r="E130" t="s">
-        <v>445</v>
-      </c>
-      <c r="F130" s="1" t="s">
-        <v>446</v>
-      </c>
       <c r="G130" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="H130">
         <f t="shared" si="13"/>
@@ -7401,25 +7401,25 @@
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B131" t="s">
+        <v>444</v>
+      </c>
+      <c r="C131" t="s">
+        <v>445</v>
+      </c>
+      <c r="D131" t="s">
+        <v>446</v>
+      </c>
+      <c r="E131" t="s">
         <v>447</v>
       </c>
-      <c r="C131" t="s">
+      <c r="F131" t="s">
         <v>448</v>
       </c>
-      <c r="D131" t="s">
-        <v>449</v>
-      </c>
-      <c r="E131" t="s">
-        <v>450</v>
-      </c>
-      <c r="F131" t="s">
-        <v>451</v>
-      </c>
       <c r="G131" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="H131">
         <f t="shared" si="13"/>
@@ -7436,25 +7436,25 @@
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
+        <v>449</v>
+      </c>
+      <c r="B132" t="s">
+        <v>450</v>
+      </c>
+      <c r="C132" t="s">
+        <v>451</v>
+      </c>
+      <c r="D132" t="s">
         <v>452</v>
       </c>
-      <c r="B132" t="s">
+      <c r="E132" t="s">
         <v>453</v>
       </c>
-      <c r="C132" t="s">
-        <v>454</v>
-      </c>
-      <c r="D132" t="s">
-        <v>455</v>
-      </c>
-      <c r="E132" t="s">
-        <v>456</v>
-      </c>
       <c r="F132" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="G132" s="1" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="H132">
         <f t="shared" si="13"/>
@@ -7471,25 +7471,25 @@
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
+        <v>454</v>
+      </c>
+      <c r="B133" t="s">
+        <v>455</v>
+      </c>
+      <c r="C133" t="s">
+        <v>456</v>
+      </c>
+      <c r="D133" t="s">
         <v>457</v>
       </c>
-      <c r="B133" t="s">
+      <c r="E133" t="s">
         <v>458</v>
       </c>
-      <c r="C133" t="s">
+      <c r="F133" t="s">
+        <v>443</v>
+      </c>
+      <c r="G133" s="1" t="s">
         <v>459</v>
-      </c>
-      <c r="D133" t="s">
-        <v>460</v>
-      </c>
-      <c r="E133" t="s">
-        <v>461</v>
-      </c>
-      <c r="F133" t="s">
-        <v>446</v>
-      </c>
-      <c r="G133" s="1" t="s">
-        <v>462</v>
       </c>
       <c r="H133">
         <f t="shared" si="13"/>
@@ -7506,22 +7506,22 @@
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="B134" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C134" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="D134" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="E134" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="F134" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="H134">
         <f t="shared" si="13"/>
@@ -7538,22 +7538,22 @@
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="B135" t="s">
+        <v>640</v>
+      </c>
+      <c r="C135" t="s">
+        <v>641</v>
+      </c>
+      <c r="D135" t="s">
+        <v>642</v>
+      </c>
+      <c r="E135" t="s">
         <v>643</v>
       </c>
-      <c r="C135" t="s">
-        <v>644</v>
-      </c>
-      <c r="D135" t="s">
-        <v>645</v>
-      </c>
-      <c r="E135" t="s">
-        <v>646</v>
-      </c>
       <c r="F135" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="H135">
         <f t="shared" si="13"/>

--- a/code/shabdakala/resource/sbwords.xlsx
+++ b/code/shabdakala/resource/sbwords.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hrishinene/github/shabdakala/shabdakala/code/shabdakala/resource/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17FB145A-9BAA-C64C-85BA-EDF72D9798A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88CC53C5-8045-6E45-B7C7-D2898CCAEA06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{9F74AEE5-EB85-4044-AC84-8761A591B5C1}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="903" uniqueCount="663">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="915" uniqueCount="673">
   <si>
     <t>word0</t>
   </si>
@@ -134,9 +134,6 @@
     <t>ममता</t>
   </si>
   <si>
-    <t xml:space="preserve">पांढरी वस्त्रे परिधान करणारे लोक </t>
-  </si>
-  <si>
     <t xml:space="preserve"> सफरचंद</t>
   </si>
   <si>
@@ -170,9 +167,6 @@
     <t>गुलजार</t>
   </si>
   <si>
-    <t>अब्बास-मस्तान</t>
-  </si>
-  <si>
     <t>town</t>
   </si>
   <si>
@@ -1469,9 +1463,6 @@
     <t>कळी</t>
   </si>
   <si>
-    <t>वनस्पतीं वर येणार्‍या नव्या गोष्टी</t>
-  </si>
-  <si>
     <t>नाणी</t>
   </si>
   <si>
@@ -1955,18 +1946,12 @@
     <t>पानावर सापडणाऱ्या गोष्टी</t>
   </si>
   <si>
-    <t>विष</t>
-  </si>
-  <si>
     <t>खवले</t>
   </si>
   <si>
     <t>काटेरी जीभ</t>
   </si>
   <si>
-    <t>सापाच्या शरीराचे भाग</t>
-  </si>
-  <si>
     <t>वर्तुळाकार</t>
   </si>
   <si>
@@ -2022,6 +2007,51 @@
   </si>
   <si>
     <t>गवळी</t>
+  </si>
+  <si>
+    <t>फणा</t>
+  </si>
+  <si>
+    <t>पंचमी</t>
+  </si>
+  <si>
+    <t>पुंगी</t>
+  </si>
+  <si>
+    <t>गारुडी</t>
+  </si>
+  <si>
+    <t xml:space="preserve">'नाग' या विषयाचा शब्दबंध </t>
+  </si>
+  <si>
+    <t>वासुकी</t>
+  </si>
+  <si>
+    <t>तक्षक</t>
+  </si>
+  <si>
+    <t>कालिया</t>
+  </si>
+  <si>
+    <t>कर्कोटक</t>
+  </si>
+  <si>
+    <t xml:space="preserve">पुराणातील काही नागांची नावे </t>
+  </si>
+  <si>
+    <t xml:space="preserve">वनस्पतींच्या जीवनातील आनंददायक घटना </t>
+  </si>
+  <si>
+    <t xml:space="preserve">नेहेमी पांढरी वस्त्रे परिधान करणारे लोक </t>
+  </si>
+  <si>
+    <t>बडीशेप</t>
+  </si>
+  <si>
+    <t>शिडी</t>
+  </si>
+  <si>
+    <t>'साप' या विषयाचा शब्दबंध</t>
   </si>
 </sst>
 </file>
@@ -2946,10 +2976,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEA1707B-2FB7-B84C-9F84-E9F074F3056C}">
-  <dimension ref="A1:L135"/>
+  <dimension ref="A1:L137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="D61" sqref="D61"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="108" zoomScaleNormal="108" workbookViewId="0">
+      <selection activeCell="E56" sqref="E56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2990,13 +3020,13 @@
         <v>6</v>
       </c>
       <c r="H1" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>343</v>
+      </c>
+      <c r="J1" s="5" t="s">
         <v>344</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>345</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>346</v>
       </c>
       <c r="L1" s="4">
         <v>45625</v>
@@ -3004,25 +3034,25 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C2" t="s">
         <v>100</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" t="s">
         <v>101</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>102</v>
       </c>
-      <c r="D2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E2" t="s">
-        <v>104</v>
-      </c>
       <c r="F2" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H2">
         <f>INT(J2/3)</f>
@@ -3037,30 +3067,30 @@
       </c>
       <c r="L2" s="6">
         <f ca="1">TODAY()</f>
-        <v>45640</v>
+        <v>45642</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" t="s">
         <v>55</v>
       </c>
-      <c r="B3" t="s">
+      <c r="D3" t="s">
         <v>56</v>
       </c>
-      <c r="C3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D3" t="s">
-        <v>58</v>
-      </c>
       <c r="E3" t="s">
+        <v>83</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>87</v>
-      </c>
       <c r="G3" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H3">
         <f t="shared" ref="H3:H11" si="1">INT(J3/3)</f>
@@ -3078,25 +3108,25 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>133</v>
+      </c>
+      <c r="B4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C4" t="s">
         <v>135</v>
       </c>
-      <c r="B4" t="s">
+      <c r="D4" t="s">
         <v>136</v>
       </c>
-      <c r="C4" t="s">
+      <c r="E4" t="s">
         <v>137</v>
       </c>
-      <c r="D4" t="s">
-        <v>138</v>
-      </c>
-      <c r="E4" t="s">
-        <v>139</v>
-      </c>
       <c r="F4" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H4">
         <f t="shared" si="1"/>
@@ -3114,25 +3144,25 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>256</v>
+      </c>
+      <c r="B5" t="s">
+        <v>257</v>
+      </c>
+      <c r="C5" t="s">
         <v>258</v>
       </c>
-      <c r="B5" t="s">
+      <c r="D5" t="s">
         <v>259</v>
       </c>
-      <c r="C5" t="s">
+      <c r="E5" t="s">
         <v>260</v>
       </c>
-      <c r="D5" t="s">
-        <v>261</v>
-      </c>
-      <c r="E5" t="s">
-        <v>262</v>
-      </c>
       <c r="F5" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H5">
         <f t="shared" si="1"/>
@@ -3150,25 +3180,25 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>73</v>
+      </c>
+      <c r="B6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C6" t="s">
         <v>75</v>
       </c>
-      <c r="B6" t="s">
+      <c r="D6" t="s">
         <v>76</v>
       </c>
-      <c r="C6" t="s">
+      <c r="E6" t="s">
         <v>77</v>
       </c>
-      <c r="D6" t="s">
-        <v>78</v>
-      </c>
-      <c r="E6" t="s">
-        <v>79</v>
-      </c>
       <c r="F6" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>89</v>
       </c>
       <c r="H6">
         <f t="shared" si="1"/>
@@ -3186,25 +3216,25 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B7" t="s">
+        <v>112</v>
+      </c>
+      <c r="C7" t="s">
+        <v>113</v>
+      </c>
+      <c r="D7" t="s">
         <v>114</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E7" t="s">
         <v>115</v>
       </c>
-      <c r="D7" t="s">
-        <v>116</v>
-      </c>
-      <c r="E7" t="s">
-        <v>117</v>
-      </c>
       <c r="F7" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H7">
         <f t="shared" si="1"/>
@@ -3222,25 +3252,25 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>335</v>
+      </c>
+      <c r="B8" t="s">
+        <v>336</v>
+      </c>
+      <c r="C8" t="s">
         <v>337</v>
       </c>
-      <c r="B8" t="s">
+      <c r="D8" t="s">
         <v>338</v>
       </c>
-      <c r="C8" t="s">
+      <c r="E8" t="s">
         <v>339</v>
       </c>
-      <c r="D8" t="s">
+      <c r="F8" t="s">
         <v>340</v>
       </c>
-      <c r="E8" t="s">
-        <v>341</v>
-      </c>
-      <c r="F8" t="s">
-        <v>342</v>
-      </c>
       <c r="G8" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="H8">
         <f t="shared" si="1"/>
@@ -3257,25 +3287,25 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>325</v>
+      </c>
+      <c r="B9" t="s">
+        <v>326</v>
+      </c>
+      <c r="C9" t="s">
         <v>327</v>
       </c>
-      <c r="B9" t="s">
+      <c r="D9" t="s">
         <v>328</v>
       </c>
-      <c r="C9" t="s">
+      <c r="E9" t="s">
         <v>329</v>
       </c>
-      <c r="D9" t="s">
-        <v>330</v>
-      </c>
-      <c r="E9" t="s">
-        <v>331</v>
-      </c>
       <c r="F9" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="G9" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="H9">
         <f t="shared" si="1"/>
@@ -3292,25 +3322,25 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>330</v>
+      </c>
+      <c r="B10" t="s">
+        <v>331</v>
+      </c>
+      <c r="C10" t="s">
         <v>332</v>
       </c>
-      <c r="B10" t="s">
+      <c r="D10" t="s">
         <v>333</v>
       </c>
-      <c r="C10" t="s">
+      <c r="E10" t="s">
         <v>334</v>
       </c>
-      <c r="D10" t="s">
-        <v>335</v>
-      </c>
-      <c r="E10" t="s">
-        <v>336</v>
-      </c>
       <c r="F10" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="G10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="H10">
         <f t="shared" si="1"/>
@@ -3327,25 +3357,25 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B11" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C11" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="D11" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="E11" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H11">
         <f t="shared" si="1"/>
@@ -3362,25 +3392,25 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
+        <v>349</v>
+      </c>
+      <c r="B12" t="s">
+        <v>350</v>
+      </c>
+      <c r="C12" t="s">
+        <v>357</v>
+      </c>
+      <c r="D12" t="s">
         <v>351</v>
       </c>
-      <c r="B12" t="s">
+      <c r="E12" t="s">
         <v>352</v>
       </c>
-      <c r="C12" t="s">
-        <v>359</v>
-      </c>
-      <c r="D12" t="s">
-        <v>353</v>
-      </c>
-      <c r="E12" t="s">
-        <v>354</v>
-      </c>
       <c r="F12" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H12">
         <f t="shared" ref="H12:H21" si="5">INT(J12/3)</f>
@@ -3391,31 +3421,31 @@
         <v>45628</v>
       </c>
       <c r="J12">
-        <f t="shared" ref="J12:J91" si="6">J11+1</f>
+        <f t="shared" ref="J12:J93" si="6">J11+1</f>
         <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
+        <v>353</v>
+      </c>
+      <c r="B13" t="s">
+        <v>226</v>
+      </c>
+      <c r="C13" t="s">
+        <v>354</v>
+      </c>
+      <c r="D13" t="s">
         <v>355</v>
       </c>
-      <c r="B13" t="s">
-        <v>228</v>
-      </c>
-      <c r="C13" t="s">
-        <v>356</v>
-      </c>
-      <c r="D13" t="s">
-        <v>357</v>
-      </c>
       <c r="E13" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="H13">
         <f t="shared" si="5"/>
@@ -3432,25 +3462,25 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>128</v>
+      </c>
+      <c r="B14" t="s">
+        <v>129</v>
+      </c>
+      <c r="C14" t="s">
         <v>130</v>
       </c>
-      <c r="B14" t="s">
+      <c r="D14" t="s">
         <v>131</v>
       </c>
-      <c r="C14" t="s">
+      <c r="E14" t="s">
         <v>132</v>
       </c>
-      <c r="D14" t="s">
-        <v>133</v>
-      </c>
-      <c r="E14" t="s">
-        <v>134</v>
-      </c>
       <c r="F14" s="1" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="H14">
         <f t="shared" si="5"/>
@@ -3467,25 +3497,25 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
+        <v>88</v>
+      </c>
+      <c r="B15" t="s">
+        <v>89</v>
+      </c>
+      <c r="C15" t="s">
         <v>90</v>
       </c>
-      <c r="B15" t="s">
+      <c r="D15" t="s">
         <v>91</v>
       </c>
-      <c r="C15" t="s">
+      <c r="E15" t="s">
         <v>92</v>
       </c>
-      <c r="D15" t="s">
-        <v>93</v>
-      </c>
-      <c r="E15" t="s">
-        <v>94</v>
-      </c>
       <c r="F15" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H15">
         <f t="shared" si="5"/>
@@ -3502,25 +3532,25 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
+        <v>57</v>
+      </c>
+      <c r="B16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C16" t="s">
+        <v>58</v>
+      </c>
+      <c r="D16" t="s">
         <v>59</v>
       </c>
-      <c r="B16" t="s">
-        <v>58</v>
-      </c>
-      <c r="C16" t="s">
-        <v>60</v>
-      </c>
-      <c r="D16" t="s">
-        <v>61</v>
-      </c>
       <c r="E16" t="s">
+        <v>84</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G16" s="1" t="s">
         <v>86</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>88</v>
       </c>
       <c r="H16">
         <f t="shared" si="5"/>
@@ -3546,16 +3576,16 @@
         <v>25</v>
       </c>
       <c r="D17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E17" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H17">
         <f t="shared" si="5"/>
@@ -3572,25 +3602,25 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B18" t="s">
+        <v>116</v>
+      </c>
+      <c r="C18" t="s">
+        <v>117</v>
+      </c>
+      <c r="D18" t="s">
         <v>118</v>
       </c>
-      <c r="C18" t="s">
+      <c r="E18" t="s">
         <v>119</v>
       </c>
-      <c r="D18" t="s">
-        <v>120</v>
-      </c>
-      <c r="E18" t="s">
-        <v>121</v>
-      </c>
       <c r="F18" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H18">
         <f t="shared" si="5"/>
@@ -3622,7 +3652,7 @@
         <v>13</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>8</v>
@@ -3642,25 +3672,25 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
+        <v>154</v>
+      </c>
+      <c r="B20" t="s">
+        <v>155</v>
+      </c>
+      <c r="C20" t="s">
         <v>156</v>
       </c>
-      <c r="B20" t="s">
+      <c r="D20" t="s">
         <v>157</v>
       </c>
-      <c r="C20" t="s">
+      <c r="E20" t="s">
         <v>158</v>
       </c>
-      <c r="D20" t="s">
-        <v>159</v>
-      </c>
-      <c r="E20" t="s">
-        <v>160</v>
-      </c>
       <c r="F20" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H20">
         <f t="shared" si="5"/>
@@ -3677,25 +3707,25 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
+        <v>98</v>
+      </c>
+      <c r="B21" t="s">
+        <v>359</v>
+      </c>
+      <c r="C21" t="s">
         <v>100</v>
       </c>
-      <c r="B21" t="s">
-        <v>361</v>
-      </c>
-      <c r="C21" t="s">
+      <c r="D21" t="s">
+        <v>101</v>
+      </c>
+      <c r="E21" t="s">
         <v>102</v>
       </c>
-      <c r="D21" t="s">
-        <v>103</v>
-      </c>
-      <c r="E21" t="s">
-        <v>104</v>
-      </c>
       <c r="F21" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H21">
         <f t="shared" si="5"/>
@@ -3712,25 +3742,25 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
+        <v>133</v>
+      </c>
+      <c r="B22" t="s">
+        <v>134</v>
+      </c>
+      <c r="C22" t="s">
         <v>135</v>
       </c>
-      <c r="B22" t="s">
+      <c r="D22" t="s">
         <v>136</v>
       </c>
-      <c r="C22" t="s">
+      <c r="E22" t="s">
         <v>137</v>
       </c>
-      <c r="D22" t="s">
-        <v>138</v>
-      </c>
-      <c r="E22" t="s">
-        <v>139</v>
-      </c>
       <c r="F22" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H22">
         <f t="shared" ref="H22" si="7">INT(J22/3)</f>
@@ -3756,13 +3786,13 @@
         <v>22</v>
       </c>
       <c r="D23" t="s">
+        <v>40</v>
+      </c>
+      <c r="E23" t="s">
         <v>41</v>
       </c>
-      <c r="E23" t="s">
-        <v>42</v>
-      </c>
       <c r="F23" s="1" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="G23" s="1" t="s">
         <v>8</v>
@@ -3791,16 +3821,16 @@
         <v>19</v>
       </c>
       <c r="D24" t="s">
+        <v>34</v>
+      </c>
+      <c r="E24" t="s">
         <v>35</v>
       </c>
-      <c r="E24" t="s">
-        <v>36</v>
-      </c>
       <c r="F24" s="1" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H24">
         <f t="shared" si="9"/>
@@ -3817,25 +3847,25 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
+        <v>368</v>
+      </c>
+      <c r="B25" t="s">
+        <v>369</v>
+      </c>
+      <c r="C25" t="s">
         <v>370</v>
       </c>
-      <c r="B25" t="s">
+      <c r="D25" t="s">
         <v>371</v>
       </c>
-      <c r="C25" t="s">
+      <c r="E25" t="s">
         <v>372</v>
       </c>
-      <c r="D25" t="s">
-        <v>373</v>
-      </c>
-      <c r="E25" t="s">
-        <v>374</v>
-      </c>
       <c r="F25" t="s">
-        <v>657</v>
+        <v>652</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="H25">
         <f t="shared" si="9"/>
@@ -3852,25 +3882,25 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
+        <v>123</v>
+      </c>
+      <c r="B26" t="s">
+        <v>124</v>
+      </c>
+      <c r="C26" t="s">
         <v>125</v>
       </c>
-      <c r="B26" t="s">
+      <c r="D26" t="s">
         <v>126</v>
       </c>
-      <c r="C26" t="s">
+      <c r="E26" t="s">
         <v>127</v>
       </c>
-      <c r="D26" t="s">
-        <v>128</v>
-      </c>
-      <c r="E26" t="s">
-        <v>129</v>
-      </c>
       <c r="F26" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="H26">
         <f t="shared" si="9"/>
@@ -3887,22 +3917,22 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
+        <v>251</v>
+      </c>
+      <c r="B27" t="s">
+        <v>252</v>
+      </c>
+      <c r="C27" t="s">
         <v>253</v>
       </c>
-      <c r="B27" t="s">
+      <c r="D27" t="s">
         <v>254</v>
       </c>
-      <c r="C27" t="s">
+      <c r="E27" t="s">
         <v>255</v>
       </c>
-      <c r="D27" t="s">
-        <v>256</v>
-      </c>
-      <c r="E27" t="s">
-        <v>257</v>
-      </c>
       <c r="F27" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G27" s="1" t="s">
         <v>8</v>
@@ -3922,32 +3952,32 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
+        <v>411</v>
+      </c>
+      <c r="B28" t="s">
+        <v>412</v>
+      </c>
+      <c r="C28" t="s">
         <v>413</v>
       </c>
-      <c r="B28" t="s">
+      <c r="D28" t="s">
         <v>414</v>
       </c>
-      <c r="C28" t="s">
-        <v>415</v>
-      </c>
-      <c r="D28" t="s">
-        <v>416</v>
-      </c>
       <c r="E28" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="F28" t="s">
-        <v>657</v>
+        <v>652</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="H28">
-        <f t="shared" ref="H28:H91" si="11">INT(J28/3)</f>
+        <f t="shared" ref="H28:H52" si="11">INT(J28/3)</f>
         <v>8</v>
       </c>
       <c r="I28" s="3">
-        <f t="shared" ref="I28:I91" si="12">$L$1+H28</f>
+        <f t="shared" ref="I28:I52" si="12">$L$1+H28</f>
         <v>45633</v>
       </c>
       <c r="J28">
@@ -3957,25 +3987,25 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
+        <v>93</v>
+      </c>
+      <c r="B29" t="s">
+        <v>94</v>
+      </c>
+      <c r="C29" t="s">
         <v>95</v>
       </c>
-      <c r="B29" t="s">
+      <c r="D29" t="s">
         <v>96</v>
       </c>
-      <c r="C29" t="s">
+      <c r="E29" t="s">
         <v>97</v>
       </c>
-      <c r="D29" t="s">
-        <v>98</v>
-      </c>
-      <c r="E29" t="s">
-        <v>99</v>
-      </c>
       <c r="F29" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H29">
         <f t="shared" si="11"/>
@@ -3992,25 +4022,25 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
+        <v>103</v>
+      </c>
+      <c r="B30" t="s">
+        <v>104</v>
+      </c>
+      <c r="C30" t="s">
         <v>105</v>
       </c>
-      <c r="B30" t="s">
+      <c r="D30" t="s">
         <v>106</v>
       </c>
-      <c r="C30" t="s">
+      <c r="E30" t="s">
         <v>107</v>
       </c>
-      <c r="D30" t="s">
-        <v>108</v>
-      </c>
-      <c r="E30" t="s">
-        <v>109</v>
-      </c>
       <c r="F30" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H30">
         <f t="shared" si="11"/>
@@ -4027,22 +4057,22 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
+        <v>265</v>
+      </c>
+      <c r="B31" t="s">
+        <v>266</v>
+      </c>
+      <c r="C31" t="s">
         <v>267</v>
       </c>
-      <c r="B31" t="s">
+      <c r="D31" t="s">
         <v>268</v>
       </c>
-      <c r="C31" t="s">
+      <c r="E31" t="s">
         <v>269</v>
       </c>
-      <c r="D31" t="s">
-        <v>270</v>
-      </c>
-      <c r="E31" t="s">
-        <v>271</v>
-      </c>
       <c r="F31" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G31" s="1" t="s">
         <v>8</v>
@@ -4062,22 +4092,22 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
+        <v>519</v>
+      </c>
+      <c r="B32" t="s">
+        <v>520</v>
+      </c>
+      <c r="C32" t="s">
+        <v>521</v>
+      </c>
+      <c r="D32" t="s">
         <v>522</v>
       </c>
-      <c r="B32" t="s">
+      <c r="E32" t="s">
         <v>523</v>
       </c>
-      <c r="C32" t="s">
-        <v>524</v>
-      </c>
-      <c r="D32" t="s">
-        <v>525</v>
-      </c>
-      <c r="E32" t="s">
-        <v>526</v>
-      </c>
       <c r="F32" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="H32">
         <f t="shared" si="11"/>
@@ -4094,22 +4124,22 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="B33" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C33" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="D33" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E33" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="F33" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="H33">
         <f t="shared" si="11"/>
@@ -4126,22 +4156,22 @@
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="B34" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="C34" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="D34" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E34" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="F34" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="H34">
         <f t="shared" si="11"/>
@@ -4158,25 +4188,25 @@
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
+        <v>60</v>
+      </c>
+      <c r="B35" t="s">
+        <v>61</v>
+      </c>
+      <c r="C35" t="s">
         <v>62</v>
       </c>
-      <c r="B35" t="s">
+      <c r="D35" t="s">
         <v>63</v>
       </c>
-      <c r="C35" t="s">
-        <v>64</v>
-      </c>
-      <c r="D35" t="s">
-        <v>65</v>
-      </c>
       <c r="E35" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H35">
         <f t="shared" si="11"/>
@@ -4202,13 +4232,13 @@
         <v>16</v>
       </c>
       <c r="D36" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E36" t="s">
-        <v>653</v>
+        <v>648</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="G36" s="1" t="s">
         <v>8</v>
@@ -4228,25 +4258,25 @@
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
+        <v>108</v>
+      </c>
+      <c r="B37" t="s">
+        <v>109</v>
+      </c>
+      <c r="C37" t="s">
         <v>110</v>
       </c>
-      <c r="B37" t="s">
+      <c r="D37" t="s">
         <v>111</v>
       </c>
-      <c r="C37" t="s">
-        <v>112</v>
-      </c>
-      <c r="D37" t="s">
-        <v>113</v>
-      </c>
       <c r="E37" t="s">
-        <v>654</v>
+        <v>649</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H37">
         <f t="shared" si="11"/>
@@ -4263,22 +4293,22 @@
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>655</v>
+        <v>650</v>
       </c>
       <c r="B38" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="C38" t="s">
-        <v>658</v>
+        <v>653</v>
       </c>
       <c r="D38" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="E38" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="F38" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="H38">
         <f t="shared" si="11"/>
@@ -4295,22 +4325,22 @@
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="B39" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="C39" t="s">
         <v>7</v>
       </c>
       <c r="D39" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="E39" t="s">
-        <v>648</v>
+        <v>643</v>
       </c>
       <c r="F39" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="H39">
         <f t="shared" si="11"/>
@@ -4327,25 +4357,25 @@
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
+        <v>203</v>
+      </c>
+      <c r="B40" t="s">
+        <v>204</v>
+      </c>
+      <c r="C40" t="s">
         <v>205</v>
       </c>
-      <c r="B40" t="s">
+      <c r="D40" t="s">
         <v>206</v>
       </c>
-      <c r="C40" t="s">
+      <c r="E40" t="s">
         <v>207</v>
       </c>
-      <c r="D40" t="s">
-        <v>208</v>
-      </c>
-      <c r="E40" t="s">
-        <v>209</v>
-      </c>
       <c r="F40" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H40">
         <f t="shared" si="11"/>
@@ -4362,25 +4392,25 @@
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
+        <v>78</v>
+      </c>
+      <c r="B41" t="s">
+        <v>79</v>
+      </c>
+      <c r="C41" t="s">
         <v>80</v>
       </c>
-      <c r="B41" t="s">
+      <c r="D41" t="s">
         <v>81</v>
       </c>
-      <c r="C41" t="s">
+      <c r="E41" t="s">
         <v>82</v>
       </c>
-      <c r="D41" t="s">
-        <v>83</v>
-      </c>
-      <c r="E41" t="s">
-        <v>84</v>
-      </c>
       <c r="F41" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G41" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="G41" s="1" t="s">
-        <v>89</v>
       </c>
       <c r="H41">
         <f t="shared" si="11"/>
@@ -4397,22 +4427,22 @@
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
+        <v>589</v>
+      </c>
+      <c r="B42" t="s">
+        <v>590</v>
+      </c>
+      <c r="C42" t="s">
+        <v>651</v>
+      </c>
+      <c r="D42" t="s">
+        <v>591</v>
+      </c>
+      <c r="E42" t="s">
         <v>592</v>
       </c>
-      <c r="B42" t="s">
-        <v>593</v>
-      </c>
-      <c r="C42" t="s">
-        <v>656</v>
-      </c>
-      <c r="D42" t="s">
-        <v>594</v>
-      </c>
-      <c r="E42" t="s">
-        <v>595</v>
-      </c>
       <c r="F42" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="H42">
         <f t="shared" si="11"/>
@@ -4429,22 +4459,22 @@
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
+        <v>601</v>
+      </c>
+      <c r="B43" t="s">
+        <v>602</v>
+      </c>
+      <c r="C43" t="s">
+        <v>603</v>
+      </c>
+      <c r="D43" t="s">
         <v>604</v>
       </c>
-      <c r="B43" t="s">
+      <c r="E43" t="s">
         <v>605</v>
       </c>
-      <c r="C43" t="s">
-        <v>606</v>
-      </c>
-      <c r="D43" t="s">
-        <v>607</v>
-      </c>
-      <c r="E43" t="s">
-        <v>608</v>
-      </c>
       <c r="F43" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="H43">
         <f t="shared" si="11"/>
@@ -4461,25 +4491,25 @@
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B44" t="s">
+        <v>378</v>
+      </c>
+      <c r="C44" t="s">
+        <v>379</v>
+      </c>
+      <c r="D44" t="s">
+        <v>424</v>
+      </c>
+      <c r="E44" t="s">
         <v>380</v>
       </c>
-      <c r="C44" t="s">
-        <v>381</v>
-      </c>
-      <c r="D44" t="s">
-        <v>426</v>
-      </c>
-      <c r="E44" t="s">
-        <v>382</v>
-      </c>
       <c r="F44" t="s">
-        <v>657</v>
+        <v>652</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="H44">
         <f t="shared" si="11"/>
@@ -4496,25 +4526,25 @@
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
+        <v>193</v>
+      </c>
+      <c r="B45" t="s">
+        <v>194</v>
+      </c>
+      <c r="C45" t="s">
         <v>195</v>
       </c>
-      <c r="B45" t="s">
+      <c r="D45" t="s">
         <v>196</v>
       </c>
-      <c r="C45" t="s">
+      <c r="E45" t="s">
         <v>197</v>
       </c>
-      <c r="D45" t="s">
-        <v>198</v>
-      </c>
-      <c r="E45" t="s">
-        <v>199</v>
-      </c>
       <c r="F45" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H45">
         <f t="shared" si="11"/>
@@ -4531,22 +4561,22 @@
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
+        <v>535</v>
+      </c>
+      <c r="B46" t="s">
+        <v>536</v>
+      </c>
+      <c r="C46" t="s">
+        <v>537</v>
+      </c>
+      <c r="D46" t="s">
+        <v>654</v>
+      </c>
+      <c r="E46" t="s">
         <v>538</v>
       </c>
-      <c r="B46" t="s">
-        <v>539</v>
-      </c>
-      <c r="C46" t="s">
-        <v>540</v>
-      </c>
-      <c r="D46" t="s">
-        <v>659</v>
-      </c>
-      <c r="E46" t="s">
-        <v>541</v>
-      </c>
       <c r="F46" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="H46">
         <f t="shared" si="11"/>
@@ -4563,22 +4593,22 @@
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B47" t="s">
+        <v>539</v>
+      </c>
+      <c r="C47" t="s">
+        <v>540</v>
+      </c>
+      <c r="D47" t="s">
+        <v>541</v>
+      </c>
+      <c r="E47" t="s">
         <v>542</v>
       </c>
-      <c r="C47" t="s">
-        <v>543</v>
-      </c>
-      <c r="D47" t="s">
-        <v>544</v>
-      </c>
-      <c r="E47" t="s">
-        <v>545</v>
-      </c>
       <c r="F47" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="H47">
         <f t="shared" si="11"/>
@@ -4595,22 +4625,22 @@
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
+        <v>543</v>
+      </c>
+      <c r="B48" t="s">
+        <v>544</v>
+      </c>
+      <c r="C48" t="s">
+        <v>545</v>
+      </c>
+      <c r="D48" t="s">
         <v>546</v>
       </c>
-      <c r="B48" t="s">
+      <c r="E48" t="s">
         <v>547</v>
       </c>
-      <c r="C48" t="s">
-        <v>548</v>
-      </c>
-      <c r="D48" t="s">
-        <v>549</v>
-      </c>
-      <c r="E48" t="s">
-        <v>550</v>
-      </c>
       <c r="F48" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="H48">
         <f t="shared" si="11"/>
@@ -4627,25 +4657,25 @@
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
+        <v>188</v>
+      </c>
+      <c r="B49" t="s">
+        <v>189</v>
+      </c>
+      <c r="C49" t="s">
         <v>190</v>
       </c>
-      <c r="B49" t="s">
+      <c r="D49" t="s">
         <v>191</v>
       </c>
-      <c r="C49" t="s">
+      <c r="E49" t="s">
         <v>192</v>
       </c>
-      <c r="D49" t="s">
-        <v>193</v>
-      </c>
-      <c r="E49" t="s">
-        <v>194</v>
-      </c>
       <c r="F49" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="H49">
         <f t="shared" si="11"/>
@@ -4662,25 +4692,25 @@
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
+        <v>415</v>
+      </c>
+      <c r="B50" t="s">
+        <v>416</v>
+      </c>
+      <c r="C50" t="s">
         <v>417</v>
       </c>
-      <c r="B50" t="s">
+      <c r="D50" t="s">
+        <v>375</v>
+      </c>
+      <c r="E50" t="s">
         <v>418</v>
       </c>
-      <c r="C50" t="s">
-        <v>419</v>
-      </c>
-      <c r="D50" t="s">
-        <v>377</v>
-      </c>
-      <c r="E50" t="s">
-        <v>420</v>
-      </c>
       <c r="F50" t="s">
-        <v>657</v>
+        <v>652</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="H50">
         <f t="shared" si="11"/>
@@ -4700,22 +4730,22 @@
         <v>42.195</v>
       </c>
       <c r="B51" t="s">
+        <v>120</v>
+      </c>
+      <c r="C51" t="s">
+        <v>655</v>
+      </c>
+      <c r="D51" t="s">
+        <v>121</v>
+      </c>
+      <c r="E51" t="s">
         <v>122</v>
       </c>
-      <c r="C51" t="s">
-        <v>660</v>
-      </c>
-      <c r="D51" t="s">
-        <v>123</v>
-      </c>
-      <c r="E51" t="s">
-        <v>124</v>
-      </c>
       <c r="F51" s="1" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H51">
         <f t="shared" si="11"/>
@@ -4732,22 +4762,22 @@
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>661</v>
+        <v>656</v>
       </c>
       <c r="B52" t="s">
+        <v>36</v>
+      </c>
+      <c r="C52" t="s">
         <v>37</v>
       </c>
-      <c r="C52" t="s">
+      <c r="D52" t="s">
         <v>38</v>
       </c>
-      <c r="D52" t="s">
+      <c r="E52" t="s">
         <v>39</v>
       </c>
-      <c r="E52" t="s">
-        <v>40</v>
-      </c>
       <c r="F52" s="1" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="G52" s="1" t="s">
         <v>8</v>
@@ -4767,32 +4797,32 @@
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
+        <v>164</v>
+      </c>
+      <c r="B53" t="s">
+        <v>165</v>
+      </c>
+      <c r="C53" t="s">
         <v>166</v>
       </c>
-      <c r="B53" t="s">
+      <c r="D53" t="s">
         <v>167</v>
       </c>
-      <c r="C53" t="s">
+      <c r="E53" t="s">
         <v>168</v>
       </c>
-      <c r="D53" t="s">
-        <v>169</v>
-      </c>
-      <c r="E53" t="s">
-        <v>170</v>
-      </c>
       <c r="F53" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H53">
-        <f t="shared" si="11"/>
+        <f t="shared" ref="H53:H66" si="13">INT(J53/3)</f>
         <v>17</v>
       </c>
       <c r="I53" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" ref="I53:I66" si="14">$L$1+H53</f>
         <v>45642</v>
       </c>
       <c r="J53">
@@ -4802,32 +4832,32 @@
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
+        <v>212</v>
+      </c>
+      <c r="B54" t="s">
+        <v>657</v>
+      </c>
+      <c r="C54" t="s">
+        <v>213</v>
+      </c>
+      <c r="D54" t="s">
         <v>214</v>
       </c>
-      <c r="B54" t="s">
-        <v>662</v>
-      </c>
-      <c r="C54" t="s">
+      <c r="E54" t="s">
         <v>215</v>
       </c>
-      <c r="D54" t="s">
-        <v>216</v>
-      </c>
-      <c r="E54" t="s">
-        <v>217</v>
-      </c>
       <c r="F54" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="H54">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>17</v>
       </c>
       <c r="I54" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>45642</v>
       </c>
       <c r="J54">
@@ -4837,32 +4867,32 @@
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
+        <v>381</v>
+      </c>
+      <c r="B55" t="s">
+        <v>382</v>
+      </c>
+      <c r="C55" t="s">
         <v>383</v>
       </c>
-      <c r="B55" t="s">
+      <c r="D55" t="s">
         <v>384</v>
       </c>
-      <c r="C55" t="s">
-        <v>385</v>
-      </c>
-      <c r="D55" t="s">
-        <v>386</v>
-      </c>
       <c r="E55" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="F55" t="s">
-        <v>657</v>
+        <v>652</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="H55">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>17</v>
       </c>
       <c r="I55" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>45642</v>
       </c>
       <c r="J55">
@@ -4875,29 +4905,26 @@
         <v>233</v>
       </c>
       <c r="B56" t="s">
-        <v>234</v>
+        <v>671</v>
       </c>
       <c r="C56" t="s">
-        <v>235</v>
+        <v>637</v>
       </c>
       <c r="D56" t="s">
-        <v>236</v>
+        <v>638</v>
       </c>
       <c r="E56" t="s">
-        <v>237</v>
+        <v>672</v>
       </c>
       <c r="F56" t="s">
-        <v>252</v>
-      </c>
-      <c r="G56" s="1" t="s">
-        <v>141</v>
+        <v>631</v>
       </c>
       <c r="H56">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>18</v>
       </c>
       <c r="I56" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>45643</v>
       </c>
       <c r="J56">
@@ -4907,32 +4934,32 @@
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>31</v>
+        <v>231</v>
       </c>
       <c r="B57" t="s">
-        <v>32</v>
+        <v>232</v>
       </c>
       <c r="C57" t="s">
-        <v>45</v>
+        <v>670</v>
       </c>
       <c r="D57" t="s">
-        <v>44</v>
+        <v>234</v>
       </c>
       <c r="E57" t="s">
-        <v>33</v>
-      </c>
-      <c r="F57" s="1" t="s">
-        <v>343</v>
+        <v>235</v>
+      </c>
+      <c r="F57" t="s">
+        <v>250</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>49</v>
+        <v>139</v>
       </c>
       <c r="H57">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>18</v>
       </c>
       <c r="I57" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>45643</v>
       </c>
       <c r="J57">
@@ -4942,29 +4969,29 @@
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>474</v>
+        <v>663</v>
       </c>
       <c r="B58" t="s">
-        <v>475</v>
+        <v>664</v>
       </c>
       <c r="C58" t="s">
-        <v>476</v>
+        <v>665</v>
       </c>
       <c r="D58" t="s">
-        <v>477</v>
+        <v>666</v>
       </c>
       <c r="E58" t="s">
-        <v>478</v>
+        <v>667</v>
       </c>
       <c r="F58" t="s">
-        <v>634</v>
+        <v>446</v>
       </c>
       <c r="H58">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>18</v>
       </c>
       <c r="I58" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>45643</v>
       </c>
       <c r="J58">
@@ -4974,29 +5001,30 @@
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>479</v>
+        <v>661</v>
       </c>
       <c r="B59" t="s">
-        <v>480</v>
+        <v>658</v>
       </c>
       <c r="C59" t="s">
-        <v>481</v>
+        <v>659</v>
       </c>
       <c r="D59" t="s">
-        <v>482</v>
+        <v>660</v>
       </c>
       <c r="E59" t="s">
-        <v>483</v>
-      </c>
-      <c r="F59" t="s">
-        <v>634</v>
-      </c>
+        <v>662</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="G59" s="1"/>
       <c r="H59">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>19</v>
       </c>
       <c r="I59" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>45644</v>
       </c>
       <c r="J59">
@@ -5006,29 +5034,29 @@
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>484</v>
+        <v>472</v>
       </c>
       <c r="B60" t="s">
-        <v>485</v>
+        <v>473</v>
       </c>
       <c r="C60" t="s">
-        <v>486</v>
+        <v>474</v>
       </c>
       <c r="D60" t="s">
-        <v>487</v>
+        <v>475</v>
       </c>
       <c r="E60" t="s">
-        <v>488</v>
+        <v>668</v>
       </c>
       <c r="F60" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="H60">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>19</v>
       </c>
       <c r="I60" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>45644</v>
       </c>
       <c r="J60">
@@ -5038,32 +5066,29 @@
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>375</v>
+        <v>476</v>
       </c>
       <c r="B61" t="s">
-        <v>376</v>
+        <v>477</v>
       </c>
       <c r="C61" t="s">
-        <v>377</v>
+        <v>478</v>
       </c>
       <c r="D61" t="s">
-        <v>378</v>
+        <v>479</v>
       </c>
       <c r="E61" t="s">
-        <v>379</v>
+        <v>480</v>
       </c>
       <c r="F61" t="s">
-        <v>657</v>
-      </c>
-      <c r="G61" s="1" t="s">
-        <v>277</v>
+        <v>631</v>
       </c>
       <c r="H61">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>19</v>
       </c>
       <c r="I61" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>45644</v>
       </c>
       <c r="J61">
@@ -5073,32 +5098,29 @@
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>50</v>
+        <v>481</v>
       </c>
       <c r="B62" t="s">
-        <v>210</v>
+        <v>482</v>
       </c>
       <c r="C62" t="s">
-        <v>211</v>
+        <v>483</v>
       </c>
       <c r="D62" t="s">
-        <v>212</v>
+        <v>484</v>
       </c>
       <c r="E62" t="s">
-        <v>213</v>
+        <v>485</v>
       </c>
       <c r="F62" t="s">
-        <v>252</v>
-      </c>
-      <c r="G62" s="1" t="s">
-        <v>277</v>
+        <v>631</v>
       </c>
       <c r="H62">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>20</v>
       </c>
       <c r="I62" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>45645</v>
       </c>
       <c r="J62">
@@ -5108,32 +5130,32 @@
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>312</v>
+        <v>373</v>
       </c>
       <c r="B63" t="s">
-        <v>313</v>
+        <v>374</v>
       </c>
       <c r="C63" t="s">
-        <v>314</v>
+        <v>375</v>
       </c>
       <c r="D63" t="s">
-        <v>315</v>
+        <v>376</v>
       </c>
       <c r="E63" t="s">
-        <v>320</v>
+        <v>377</v>
       </c>
       <c r="F63" t="s">
-        <v>321</v>
+        <v>652</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>140</v>
+        <v>275</v>
       </c>
       <c r="H63">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>20</v>
       </c>
       <c r="I63" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>45645</v>
       </c>
       <c r="J63">
@@ -5143,32 +5165,32 @@
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>151</v>
+        <v>48</v>
       </c>
       <c r="B64" t="s">
-        <v>152</v>
+        <v>208</v>
       </c>
       <c r="C64" t="s">
-        <v>153</v>
+        <v>209</v>
       </c>
       <c r="D64" t="s">
-        <v>154</v>
+        <v>210</v>
       </c>
       <c r="E64" t="s">
-        <v>155</v>
+        <v>211</v>
       </c>
       <c r="F64" t="s">
-        <v>186</v>
+        <v>250</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>188</v>
+        <v>275</v>
       </c>
       <c r="H64">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>20</v>
       </c>
       <c r="I64" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>45645</v>
       </c>
       <c r="J64">
@@ -5178,32 +5200,32 @@
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>387</v>
+        <v>310</v>
       </c>
       <c r="B65" t="s">
-        <v>388</v>
+        <v>311</v>
       </c>
       <c r="C65" t="s">
-        <v>389</v>
+        <v>312</v>
       </c>
       <c r="D65" t="s">
-        <v>390</v>
+        <v>313</v>
       </c>
       <c r="E65" t="s">
-        <v>425</v>
+        <v>318</v>
       </c>
       <c r="F65" t="s">
-        <v>657</v>
+        <v>319</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>277</v>
+        <v>138</v>
       </c>
       <c r="H65">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>21</v>
       </c>
       <c r="I65" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>45646</v>
       </c>
       <c r="J65">
@@ -5213,32 +5235,32 @@
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>408</v>
+        <v>149</v>
       </c>
       <c r="B66" t="s">
-        <v>409</v>
+        <v>150</v>
       </c>
       <c r="C66" t="s">
-        <v>410</v>
+        <v>151</v>
       </c>
       <c r="D66" t="s">
-        <v>411</v>
+        <v>152</v>
       </c>
       <c r="E66" t="s">
-        <v>412</v>
+        <v>153</v>
       </c>
       <c r="F66" t="s">
-        <v>657</v>
+        <v>184</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>435</v>
+        <v>186</v>
       </c>
       <c r="H66">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>21</v>
       </c>
       <c r="I66" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>45646</v>
       </c>
       <c r="J66">
@@ -5248,29 +5270,32 @@
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>470</v>
+        <v>385</v>
       </c>
       <c r="B67" t="s">
-        <v>471</v>
+        <v>386</v>
       </c>
       <c r="C67" t="s">
-        <v>212</v>
+        <v>387</v>
       </c>
       <c r="D67" t="s">
-        <v>472</v>
+        <v>388</v>
       </c>
       <c r="E67" t="s">
-        <v>473</v>
+        <v>423</v>
       </c>
       <c r="F67" t="s">
-        <v>634</v>
+        <v>652</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>275</v>
       </c>
       <c r="H67">
-        <f t="shared" si="11"/>
+        <f t="shared" ref="H55:H118" si="15">INT(J67/3)</f>
         <v>21</v>
       </c>
       <c r="I67" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" ref="I55:I118" si="16">$L$1+H67</f>
         <v>45646</v>
       </c>
       <c r="J67">
@@ -5280,32 +5305,32 @@
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>247</v>
+        <v>406</v>
       </c>
       <c r="B68" t="s">
-        <v>248</v>
+        <v>407</v>
       </c>
       <c r="C68" t="s">
-        <v>249</v>
+        <v>408</v>
       </c>
       <c r="D68" t="s">
-        <v>250</v>
+        <v>409</v>
       </c>
       <c r="E68" t="s">
-        <v>251</v>
+        <v>410</v>
       </c>
       <c r="F68" t="s">
-        <v>252</v>
+        <v>652</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>143</v>
+        <v>433</v>
       </c>
       <c r="H68">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>22</v>
       </c>
       <c r="I68" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>45647</v>
       </c>
       <c r="J68">
@@ -5315,29 +5340,29 @@
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>215</v>
+        <v>468</v>
       </c>
       <c r="B69" t="s">
-        <v>596</v>
+        <v>469</v>
       </c>
       <c r="C69" t="s">
-        <v>597</v>
+        <v>210</v>
       </c>
       <c r="D69" t="s">
-        <v>598</v>
+        <v>470</v>
       </c>
       <c r="E69" t="s">
-        <v>635</v>
+        <v>471</v>
       </c>
       <c r="F69" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="H69">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>22</v>
       </c>
       <c r="I69" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>45647</v>
       </c>
       <c r="J69">
@@ -5347,29 +5372,32 @@
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>599</v>
+        <v>245</v>
       </c>
       <c r="B70" t="s">
-        <v>600</v>
+        <v>246</v>
       </c>
       <c r="C70" t="s">
-        <v>601</v>
+        <v>247</v>
       </c>
       <c r="D70" t="s">
-        <v>602</v>
+        <v>248</v>
       </c>
       <c r="E70" t="s">
-        <v>603</v>
+        <v>249</v>
       </c>
       <c r="F70" t="s">
-        <v>634</v>
+        <v>250</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>141</v>
       </c>
       <c r="H70">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>22</v>
       </c>
       <c r="I70" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>45647</v>
       </c>
       <c r="J70">
@@ -5379,32 +5407,29 @@
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>421</v>
+        <v>213</v>
       </c>
       <c r="B71" t="s">
-        <v>422</v>
+        <v>593</v>
       </c>
       <c r="C71" t="s">
-        <v>423</v>
+        <v>594</v>
       </c>
       <c r="D71" t="s">
-        <v>424</v>
+        <v>595</v>
       </c>
       <c r="E71" t="s">
-        <v>431</v>
+        <v>632</v>
       </c>
       <c r="F71" t="s">
-        <v>657</v>
-      </c>
-      <c r="G71" s="1" t="s">
-        <v>277</v>
+        <v>631</v>
       </c>
       <c r="H71">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>23</v>
       </c>
       <c r="I71" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>45648</v>
       </c>
       <c r="J71">
@@ -5414,32 +5439,29 @@
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>280</v>
+        <v>596</v>
       </c>
       <c r="B72" t="s">
-        <v>281</v>
+        <v>597</v>
       </c>
       <c r="C72" t="s">
-        <v>282</v>
+        <v>598</v>
       </c>
       <c r="D72" t="s">
-        <v>283</v>
+        <v>599</v>
       </c>
       <c r="E72" t="s">
-        <v>320</v>
+        <v>600</v>
       </c>
       <c r="F72" t="s">
-        <v>321</v>
-      </c>
-      <c r="G72" s="1" t="s">
-        <v>140</v>
+        <v>631</v>
       </c>
       <c r="H72">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>23</v>
       </c>
       <c r="I72" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>45648</v>
       </c>
       <c r="J72">
@@ -5449,32 +5471,32 @@
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>295</v>
+        <v>419</v>
       </c>
       <c r="B73" t="s">
-        <v>296</v>
+        <v>420</v>
       </c>
       <c r="C73" t="s">
-        <v>297</v>
+        <v>421</v>
       </c>
       <c r="D73" t="s">
-        <v>298</v>
+        <v>422</v>
       </c>
       <c r="E73" t="s">
-        <v>299</v>
+        <v>429</v>
       </c>
       <c r="F73" t="s">
-        <v>321</v>
+        <v>652</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>47</v>
+        <v>275</v>
       </c>
       <c r="H73">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>23</v>
       </c>
       <c r="I73" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>45648</v>
       </c>
       <c r="J73">
@@ -5484,32 +5506,32 @@
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>291</v>
+        <v>278</v>
       </c>
       <c r="B74" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="C74" t="s">
-        <v>293</v>
+        <v>280</v>
       </c>
       <c r="D74" t="s">
-        <v>294</v>
+        <v>281</v>
       </c>
       <c r="E74" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="F74" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H74">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>24</v>
       </c>
       <c r="I74" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>45649</v>
       </c>
       <c r="J74">
@@ -5519,29 +5541,32 @@
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>499</v>
+        <v>293</v>
       </c>
       <c r="B75" t="s">
-        <v>500</v>
+        <v>294</v>
       </c>
       <c r="C75" t="s">
-        <v>644</v>
+        <v>295</v>
       </c>
       <c r="D75" t="s">
-        <v>645</v>
+        <v>296</v>
       </c>
       <c r="E75" t="s">
-        <v>646</v>
+        <v>297</v>
       </c>
       <c r="F75" t="s">
-        <v>634</v>
+        <v>319</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="H75">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>24</v>
       </c>
       <c r="I75" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>45649</v>
       </c>
       <c r="J75">
@@ -5551,29 +5576,32 @@
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>501</v>
+        <v>289</v>
       </c>
       <c r="B76" t="s">
-        <v>502</v>
+        <v>290</v>
       </c>
       <c r="C76" t="s">
-        <v>306</v>
+        <v>291</v>
       </c>
       <c r="D76" t="s">
-        <v>647</v>
+        <v>292</v>
       </c>
       <c r="E76" t="s">
-        <v>503</v>
+        <v>318</v>
       </c>
       <c r="F76" t="s">
-        <v>634</v>
+        <v>319</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>138</v>
       </c>
       <c r="H76">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>24</v>
       </c>
       <c r="I76" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>45649</v>
       </c>
       <c r="J76">
@@ -5583,32 +5611,29 @@
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>322</v>
+        <v>496</v>
       </c>
       <c r="B77" t="s">
-        <v>323</v>
+        <v>497</v>
       </c>
       <c r="C77" t="s">
-        <v>324</v>
+        <v>639</v>
       </c>
       <c r="D77" t="s">
-        <v>325</v>
+        <v>640</v>
       </c>
       <c r="E77" t="s">
-        <v>326</v>
+        <v>641</v>
       </c>
       <c r="F77" t="s">
-        <v>321</v>
-      </c>
-      <c r="G77" s="1" t="s">
-        <v>140</v>
+        <v>631</v>
       </c>
       <c r="H77">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>25</v>
       </c>
       <c r="I77" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>45650</v>
       </c>
       <c r="J77">
@@ -5618,32 +5643,29 @@
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>50</v>
+        <v>498</v>
       </c>
       <c r="B78" t="s">
-        <v>284</v>
+        <v>499</v>
       </c>
       <c r="C78" t="s">
-        <v>285</v>
+        <v>304</v>
       </c>
       <c r="D78" t="s">
-        <v>286</v>
+        <v>642</v>
       </c>
       <c r="E78" t="s">
-        <v>320</v>
+        <v>500</v>
       </c>
       <c r="F78" t="s">
-        <v>321</v>
-      </c>
-      <c r="G78" s="1" t="s">
-        <v>140</v>
+        <v>631</v>
       </c>
       <c r="H78">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>25</v>
       </c>
       <c r="I78" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>45650</v>
       </c>
       <c r="J78">
@@ -5653,29 +5675,32 @@
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>460</v>
+        <v>320</v>
       </c>
       <c r="B79" t="s">
-        <v>461</v>
+        <v>321</v>
       </c>
       <c r="C79" t="s">
-        <v>462</v>
+        <v>322</v>
       </c>
       <c r="D79" t="s">
-        <v>463</v>
+        <v>323</v>
       </c>
       <c r="E79" t="s">
-        <v>464</v>
+        <v>324</v>
       </c>
       <c r="F79" t="s">
-        <v>634</v>
+        <v>319</v>
+      </c>
+      <c r="G79" s="1" t="s">
+        <v>138</v>
       </c>
       <c r="H79">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>25</v>
       </c>
       <c r="I79" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>45650</v>
       </c>
       <c r="J79">
@@ -5685,29 +5710,32 @@
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>465</v>
+        <v>48</v>
       </c>
       <c r="B80" t="s">
-        <v>466</v>
+        <v>282</v>
       </c>
       <c r="C80" t="s">
-        <v>467</v>
+        <v>283</v>
       </c>
       <c r="D80" t="s">
-        <v>468</v>
+        <v>284</v>
       </c>
       <c r="E80" t="s">
-        <v>469</v>
+        <v>318</v>
       </c>
       <c r="F80" t="s">
-        <v>634</v>
+        <v>319</v>
+      </c>
+      <c r="G80" s="1" t="s">
+        <v>138</v>
       </c>
       <c r="H80">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>26</v>
       </c>
       <c r="I80" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>45651</v>
       </c>
       <c r="J80">
@@ -5717,32 +5745,29 @@
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>391</v>
+        <v>458</v>
       </c>
       <c r="B81" t="s">
-        <v>392</v>
+        <v>459</v>
       </c>
       <c r="C81" t="s">
-        <v>393</v>
+        <v>460</v>
       </c>
       <c r="D81" t="s">
-        <v>394</v>
+        <v>461</v>
       </c>
       <c r="E81" t="s">
-        <v>395</v>
+        <v>462</v>
       </c>
       <c r="F81" t="s">
-        <v>657</v>
-      </c>
-      <c r="G81" s="1" t="s">
-        <v>432</v>
+        <v>631</v>
       </c>
       <c r="H81">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>26</v>
       </c>
       <c r="I81" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>45651</v>
       </c>
       <c r="J81">
@@ -5752,32 +5777,29 @@
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>223</v>
+        <v>463</v>
       </c>
       <c r="B82" t="s">
-        <v>224</v>
+        <v>464</v>
       </c>
       <c r="C82" t="s">
-        <v>225</v>
+        <v>465</v>
       </c>
       <c r="D82" t="s">
-        <v>226</v>
+        <v>466</v>
       </c>
       <c r="E82" t="s">
-        <v>227</v>
+        <v>467</v>
       </c>
       <c r="F82" t="s">
-        <v>252</v>
-      </c>
-      <c r="G82" s="1" t="s">
-        <v>140</v>
+        <v>631</v>
       </c>
       <c r="H82">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>26</v>
       </c>
       <c r="I82" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>45651</v>
       </c>
       <c r="J82">
@@ -5787,29 +5809,32 @@
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>489</v>
+        <v>389</v>
       </c>
       <c r="B83" t="s">
-        <v>490</v>
+        <v>390</v>
       </c>
       <c r="C83" t="s">
-        <v>491</v>
+        <v>391</v>
       </c>
       <c r="D83" t="s">
-        <v>492</v>
+        <v>392</v>
       </c>
       <c r="E83" t="s">
-        <v>493</v>
+        <v>393</v>
       </c>
       <c r="F83" t="s">
-        <v>634</v>
+        <v>652</v>
+      </c>
+      <c r="G83" s="1" t="s">
+        <v>430</v>
       </c>
       <c r="H83">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>27</v>
       </c>
       <c r="I83" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>45652</v>
       </c>
       <c r="J83">
@@ -5819,29 +5844,32 @@
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>494</v>
+        <v>221</v>
       </c>
       <c r="B84" t="s">
-        <v>495</v>
+        <v>222</v>
       </c>
       <c r="C84" t="s">
-        <v>496</v>
+        <v>223</v>
       </c>
       <c r="D84" t="s">
-        <v>497</v>
+        <v>224</v>
       </c>
       <c r="E84" t="s">
-        <v>498</v>
+        <v>225</v>
       </c>
       <c r="F84" t="s">
-        <v>634</v>
+        <v>250</v>
+      </c>
+      <c r="G84" s="1" t="s">
+        <v>138</v>
       </c>
       <c r="H84">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>27</v>
       </c>
       <c r="I84" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>45652</v>
       </c>
       <c r="J84">
@@ -5851,32 +5879,29 @@
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>316</v>
+        <v>486</v>
       </c>
       <c r="B85" t="s">
-        <v>317</v>
+        <v>487</v>
       </c>
       <c r="C85" t="s">
-        <v>318</v>
+        <v>488</v>
       </c>
       <c r="D85" t="s">
-        <v>319</v>
+        <v>489</v>
       </c>
       <c r="E85" t="s">
-        <v>320</v>
+        <v>490</v>
       </c>
       <c r="F85" t="s">
-        <v>321</v>
-      </c>
-      <c r="G85" s="1" t="s">
-        <v>140</v>
+        <v>631</v>
       </c>
       <c r="H85">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>27</v>
       </c>
       <c r="I85" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>45652</v>
       </c>
       <c r="J85">
@@ -5886,32 +5911,29 @@
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>161</v>
+        <v>491</v>
       </c>
       <c r="B86" t="s">
-        <v>162</v>
+        <v>492</v>
       </c>
       <c r="C86" t="s">
-        <v>163</v>
+        <v>493</v>
       </c>
       <c r="D86" t="s">
-        <v>164</v>
+        <v>494</v>
       </c>
       <c r="E86" t="s">
-        <v>165</v>
+        <v>495</v>
       </c>
       <c r="F86" t="s">
-        <v>186</v>
-      </c>
-      <c r="G86" s="1" t="s">
-        <v>145</v>
+        <v>631</v>
       </c>
       <c r="H86">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>28</v>
       </c>
       <c r="I86" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>45653</v>
       </c>
       <c r="J86">
@@ -5921,29 +5943,32 @@
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>504</v>
+        <v>314</v>
       </c>
       <c r="B87" t="s">
-        <v>505</v>
+        <v>315</v>
       </c>
       <c r="C87" t="s">
-        <v>506</v>
+        <v>316</v>
       </c>
       <c r="D87" t="s">
-        <v>507</v>
+        <v>317</v>
       </c>
       <c r="E87" t="s">
-        <v>508</v>
+        <v>318</v>
       </c>
       <c r="F87" t="s">
-        <v>634</v>
+        <v>319</v>
+      </c>
+      <c r="G87" s="1" t="s">
+        <v>138</v>
       </c>
       <c r="H87">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>28</v>
       </c>
       <c r="I87" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>45653</v>
       </c>
       <c r="J87">
@@ -5953,29 +5978,32 @@
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>509</v>
+        <v>159</v>
       </c>
       <c r="B88" t="s">
-        <v>510</v>
+        <v>160</v>
       </c>
       <c r="C88" t="s">
-        <v>511</v>
+        <v>161</v>
       </c>
       <c r="D88" t="s">
-        <v>512</v>
+        <v>162</v>
       </c>
       <c r="E88" t="s">
-        <v>513</v>
+        <v>163</v>
       </c>
       <c r="F88" t="s">
-        <v>634</v>
+        <v>184</v>
+      </c>
+      <c r="G88" s="1" t="s">
+        <v>143</v>
       </c>
       <c r="H88">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>28</v>
       </c>
       <c r="I88" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>45653</v>
       </c>
       <c r="J88">
@@ -5985,29 +6013,29 @@
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>514</v>
+        <v>501</v>
       </c>
       <c r="B89" t="s">
-        <v>515</v>
+        <v>502</v>
       </c>
       <c r="C89" t="s">
-        <v>516</v>
+        <v>503</v>
       </c>
       <c r="D89" t="s">
-        <v>517</v>
+        <v>504</v>
       </c>
       <c r="E89" t="s">
-        <v>518</v>
+        <v>505</v>
       </c>
       <c r="F89" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="H89">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>29</v>
       </c>
       <c r="I89" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>45654</v>
       </c>
       <c r="J89">
@@ -6017,32 +6045,29 @@
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>171</v>
+        <v>506</v>
       </c>
       <c r="B90" t="s">
-        <v>172</v>
+        <v>507</v>
       </c>
       <c r="C90" t="s">
-        <v>173</v>
+        <v>508</v>
       </c>
       <c r="D90" t="s">
-        <v>174</v>
+        <v>509</v>
       </c>
       <c r="E90" t="s">
-        <v>175</v>
+        <v>510</v>
       </c>
       <c r="F90" t="s">
-        <v>186</v>
-      </c>
-      <c r="G90" s="1" t="s">
-        <v>140</v>
+        <v>631</v>
       </c>
       <c r="H90">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>29</v>
       </c>
       <c r="I90" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>45654</v>
       </c>
       <c r="J90">
@@ -6052,32 +6077,29 @@
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>200</v>
+        <v>511</v>
       </c>
       <c r="B91" t="s">
-        <v>201</v>
+        <v>512</v>
       </c>
       <c r="C91" t="s">
-        <v>202</v>
+        <v>513</v>
       </c>
       <c r="D91" t="s">
-        <v>203</v>
+        <v>514</v>
       </c>
       <c r="E91" t="s">
-        <v>204</v>
+        <v>515</v>
       </c>
       <c r="F91" t="s">
-        <v>252</v>
-      </c>
-      <c r="G91" s="1" t="s">
-        <v>140</v>
+        <v>631</v>
       </c>
       <c r="H91">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>29</v>
       </c>
       <c r="I91" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>45654</v>
       </c>
       <c r="J91">
@@ -6087,1490 +6109,1563 @@
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>304</v>
+        <v>169</v>
       </c>
       <c r="B92" t="s">
-        <v>305</v>
+        <v>170</v>
       </c>
       <c r="C92" t="s">
-        <v>306</v>
+        <v>171</v>
       </c>
       <c r="D92" t="s">
-        <v>307</v>
+        <v>172</v>
       </c>
       <c r="E92" t="s">
-        <v>320</v>
+        <v>173</v>
       </c>
       <c r="F92" t="s">
-        <v>321</v>
+        <v>184</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H92">
-        <f t="shared" ref="H92:H135" si="13">INT(J92/3)</f>
+        <f t="shared" si="15"/>
         <v>30</v>
       </c>
       <c r="I92" s="3">
-        <f t="shared" ref="I92:I135" si="14">$L$1+H92</f>
+        <f t="shared" si="16"/>
         <v>45655</v>
       </c>
       <c r="J92">
-        <f t="shared" ref="J92:J135" si="15">J91+1</f>
+        <f t="shared" si="6"/>
         <v>90</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>583</v>
+        <v>198</v>
       </c>
       <c r="B93" t="s">
-        <v>584</v>
+        <v>199</v>
       </c>
       <c r="C93" t="s">
-        <v>558</v>
+        <v>200</v>
       </c>
       <c r="D93" t="s">
-        <v>539</v>
+        <v>201</v>
       </c>
       <c r="E93" t="s">
-        <v>164</v>
+        <v>202</v>
       </c>
       <c r="F93" t="s">
-        <v>634</v>
+        <v>250</v>
+      </c>
+      <c r="G93" s="1" t="s">
+        <v>138</v>
       </c>
       <c r="H93">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>30</v>
       </c>
       <c r="I93" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>45655</v>
       </c>
       <c r="J93">
-        <f t="shared" si="15"/>
+        <f t="shared" si="6"/>
         <v>91</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>164</v>
+        <v>302</v>
       </c>
       <c r="B94" t="s">
-        <v>539</v>
+        <v>303</v>
       </c>
       <c r="C94" t="s">
-        <v>585</v>
+        <v>304</v>
       </c>
       <c r="D94" t="s">
-        <v>586</v>
+        <v>305</v>
       </c>
       <c r="E94" t="s">
-        <v>587</v>
+        <v>318</v>
       </c>
       <c r="F94" t="s">
-        <v>634</v>
+        <v>319</v>
+      </c>
+      <c r="G94" s="1" t="s">
+        <v>138</v>
       </c>
       <c r="H94">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>30</v>
       </c>
       <c r="I94" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>45655</v>
       </c>
       <c r="J94">
-        <f t="shared" si="15"/>
+        <f t="shared" ref="J94:J137" si="17">J93+1</f>
         <v>92</v>
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>588</v>
+        <v>580</v>
       </c>
       <c r="B95" t="s">
-        <v>589</v>
+        <v>581</v>
       </c>
       <c r="C95" t="s">
-        <v>590</v>
+        <v>555</v>
       </c>
       <c r="D95" t="s">
-        <v>153</v>
+        <v>536</v>
       </c>
       <c r="E95" t="s">
-        <v>591</v>
+        <v>162</v>
       </c>
       <c r="F95" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="H95">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>31</v>
       </c>
       <c r="I95" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>45656</v>
       </c>
       <c r="J95">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>93</v>
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>397</v>
+        <v>162</v>
       </c>
       <c r="B96" t="s">
-        <v>398</v>
+        <v>536</v>
       </c>
       <c r="C96" t="s">
-        <v>399</v>
+        <v>582</v>
       </c>
       <c r="D96" t="s">
-        <v>400</v>
+        <v>583</v>
       </c>
       <c r="E96" t="s">
-        <v>401</v>
+        <v>584</v>
       </c>
       <c r="F96" t="s">
-        <v>657</v>
-      </c>
-      <c r="G96" s="1" t="s">
-        <v>277</v>
+        <v>631</v>
       </c>
       <c r="H96">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>31</v>
       </c>
       <c r="I96" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>45656</v>
       </c>
       <c r="J96">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>94</v>
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>26</v>
+        <v>585</v>
       </c>
       <c r="B97" t="s">
-        <v>27</v>
+        <v>586</v>
       </c>
       <c r="C97" t="s">
-        <v>28</v>
+        <v>587</v>
       </c>
       <c r="D97" t="s">
-        <v>29</v>
+        <v>151</v>
       </c>
       <c r="E97" t="s">
-        <v>30</v>
-      </c>
-      <c r="F97" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="G97" s="1" t="s">
-        <v>48</v>
+        <v>588</v>
+      </c>
+      <c r="F97" t="s">
+        <v>631</v>
       </c>
       <c r="H97">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>31</v>
       </c>
       <c r="I97" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>45656</v>
       </c>
       <c r="J97">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>95</v>
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>66</v>
+        <v>395</v>
       </c>
       <c r="B98" t="s">
-        <v>67</v>
+        <v>396</v>
       </c>
       <c r="C98" t="s">
-        <v>68</v>
+        <v>397</v>
       </c>
       <c r="D98" t="s">
-        <v>369</v>
+        <v>398</v>
       </c>
       <c r="E98" t="s">
-        <v>69</v>
-      </c>
-      <c r="F98" s="1" t="s">
-        <v>87</v>
+        <v>399</v>
+      </c>
+      <c r="F98" t="s">
+        <v>652</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>48</v>
+        <v>275</v>
       </c>
       <c r="H98">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>32</v>
       </c>
       <c r="I98" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>45657</v>
       </c>
       <c r="J98">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>96</v>
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>415</v>
+        <v>26</v>
       </c>
       <c r="B99" t="s">
-        <v>551</v>
+        <v>27</v>
       </c>
       <c r="C99" t="s">
-        <v>414</v>
+        <v>28</v>
       </c>
       <c r="D99" t="s">
-        <v>416</v>
+        <v>29</v>
       </c>
       <c r="E99" t="s">
-        <v>552</v>
-      </c>
-      <c r="F99" t="s">
-        <v>634</v>
+        <v>30</v>
+      </c>
+      <c r="F99" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="G99" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="H99">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>32</v>
       </c>
       <c r="I99" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>45657</v>
       </c>
       <c r="J99">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>97</v>
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>553</v>
+        <v>64</v>
       </c>
       <c r="B100" t="s">
-        <v>554</v>
+        <v>65</v>
       </c>
       <c r="C100" t="s">
-        <v>555</v>
+        <v>66</v>
       </c>
       <c r="D100" t="s">
-        <v>556</v>
+        <v>367</v>
       </c>
       <c r="E100" t="s">
-        <v>557</v>
-      </c>
-      <c r="F100" t="s">
-        <v>634</v>
+        <v>67</v>
+      </c>
+      <c r="F100" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G100" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="H100">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>32</v>
       </c>
       <c r="I100" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>45657</v>
       </c>
       <c r="J100">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>98</v>
       </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>489</v>
+        <v>413</v>
       </c>
       <c r="B101" t="s">
-        <v>396</v>
+        <v>548</v>
       </c>
       <c r="C101" t="s">
-        <v>558</v>
+        <v>412</v>
       </c>
       <c r="D101" t="s">
-        <v>559</v>
+        <v>414</v>
       </c>
       <c r="E101" t="s">
-        <v>560</v>
+        <v>549</v>
       </c>
       <c r="F101" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="H101">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>33</v>
       </c>
       <c r="I101" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>45658</v>
       </c>
       <c r="J101">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>99</v>
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>561</v>
+        <v>550</v>
       </c>
       <c r="B102" t="s">
-        <v>562</v>
+        <v>551</v>
       </c>
       <c r="C102" t="s">
-        <v>563</v>
+        <v>552</v>
       </c>
       <c r="D102" t="s">
-        <v>564</v>
+        <v>553</v>
       </c>
       <c r="E102" t="s">
-        <v>565</v>
+        <v>554</v>
       </c>
       <c r="F102" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="H102">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>33</v>
       </c>
       <c r="I102" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>45658</v>
       </c>
       <c r="J102">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>100</v>
       </c>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>566</v>
+        <v>486</v>
       </c>
       <c r="B103" t="s">
-        <v>567</v>
+        <v>394</v>
       </c>
       <c r="C103" t="s">
-        <v>568</v>
+        <v>555</v>
       </c>
       <c r="D103" t="s">
-        <v>569</v>
+        <v>556</v>
       </c>
       <c r="E103" t="s">
-        <v>570</v>
+        <v>557</v>
       </c>
       <c r="F103" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="H103">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>33</v>
       </c>
       <c r="I103" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>45658</v>
       </c>
       <c r="J103">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>101</v>
       </c>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>181</v>
+        <v>558</v>
       </c>
       <c r="B104" t="s">
-        <v>182</v>
+        <v>559</v>
       </c>
       <c r="C104" t="s">
-        <v>183</v>
+        <v>560</v>
       </c>
       <c r="D104" t="s">
-        <v>184</v>
+        <v>561</v>
       </c>
       <c r="E104" t="s">
-        <v>185</v>
+        <v>562</v>
       </c>
       <c r="F104" t="s">
-        <v>186</v>
-      </c>
-      <c r="G104" s="1" t="s">
-        <v>187</v>
+        <v>631</v>
       </c>
       <c r="H104">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>34</v>
       </c>
       <c r="I104" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>45659</v>
       </c>
       <c r="J104">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>102</v>
       </c>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>50</v>
+        <v>563</v>
       </c>
       <c r="B105" t="s">
-        <v>51</v>
+        <v>564</v>
       </c>
       <c r="C105" t="s">
-        <v>52</v>
+        <v>565</v>
       </c>
       <c r="D105" t="s">
-        <v>53</v>
+        <v>566</v>
       </c>
       <c r="E105" t="s">
-        <v>54</v>
-      </c>
-      <c r="F105" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="G105" s="1" t="s">
-        <v>88</v>
+        <v>567</v>
+      </c>
+      <c r="F105" t="s">
+        <v>631</v>
       </c>
       <c r="H105">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>34</v>
       </c>
       <c r="I105" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>45659</v>
       </c>
       <c r="J105">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>103</v>
       </c>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>228</v>
+        <v>179</v>
       </c>
       <c r="B106" t="s">
-        <v>229</v>
+        <v>180</v>
       </c>
       <c r="C106" t="s">
-        <v>230</v>
+        <v>181</v>
       </c>
       <c r="D106" t="s">
-        <v>231</v>
+        <v>182</v>
       </c>
       <c r="E106" t="s">
-        <v>232</v>
+        <v>183</v>
       </c>
       <c r="F106" t="s">
-        <v>252</v>
+        <v>184</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>279</v>
+        <v>185</v>
       </c>
       <c r="H106">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>34</v>
       </c>
       <c r="I106" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>45659</v>
       </c>
       <c r="J106">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>104</v>
       </c>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>176</v>
+        <v>48</v>
       </c>
       <c r="B107" t="s">
-        <v>177</v>
+        <v>49</v>
       </c>
       <c r="C107" t="s">
-        <v>178</v>
+        <v>50</v>
       </c>
       <c r="D107" t="s">
-        <v>179</v>
+        <v>51</v>
       </c>
       <c r="E107" t="s">
-        <v>180</v>
-      </c>
-      <c r="F107" t="s">
-        <v>186</v>
+        <v>52</v>
+      </c>
+      <c r="F107" s="1" t="s">
+        <v>85</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>187</v>
+        <v>86</v>
       </c>
       <c r="H107">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>35</v>
       </c>
       <c r="I107" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>45660</v>
       </c>
       <c r="J107">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>105</v>
       </c>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>624</v>
+        <v>226</v>
       </c>
       <c r="B108" t="s">
-        <v>625</v>
+        <v>227</v>
       </c>
       <c r="C108" t="s">
-        <v>626</v>
+        <v>228</v>
       </c>
       <c r="D108" t="s">
-        <v>627</v>
+        <v>229</v>
       </c>
       <c r="E108" t="s">
-        <v>628</v>
+        <v>230</v>
       </c>
       <c r="F108" t="s">
-        <v>634</v>
+        <v>250</v>
+      </c>
+      <c r="G108" s="1" t="s">
+        <v>277</v>
       </c>
       <c r="H108">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>35</v>
       </c>
       <c r="I108" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>45660</v>
       </c>
       <c r="J108">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>106</v>
       </c>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>534</v>
+        <v>174</v>
       </c>
       <c r="B109" t="s">
-        <v>472</v>
+        <v>175</v>
       </c>
       <c r="C109" t="s">
-        <v>535</v>
+        <v>176</v>
       </c>
       <c r="D109" t="s">
-        <v>536</v>
+        <v>177</v>
       </c>
       <c r="E109" t="s">
-        <v>537</v>
+        <v>178</v>
       </c>
       <c r="F109" t="s">
-        <v>634</v>
+        <v>184</v>
+      </c>
+      <c r="G109" s="1" t="s">
+        <v>185</v>
       </c>
       <c r="H109">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>35</v>
       </c>
       <c r="I109" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>45660</v>
       </c>
       <c r="J109">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>107</v>
       </c>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>629</v>
+        <v>621</v>
       </c>
       <c r="B110" t="s">
-        <v>630</v>
+        <v>622</v>
       </c>
       <c r="C110" t="s">
+        <v>623</v>
+      </c>
+      <c r="D110" t="s">
+        <v>624</v>
+      </c>
+      <c r="E110" t="s">
+        <v>625</v>
+      </c>
+      <c r="F110" t="s">
         <v>631</v>
       </c>
-      <c r="D110" t="s">
-        <v>632</v>
-      </c>
-      <c r="E110" t="s">
-        <v>633</v>
-      </c>
-      <c r="F110" t="s">
-        <v>634</v>
-      </c>
       <c r="H110">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>36</v>
       </c>
       <c r="I110" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>45661</v>
       </c>
       <c r="J110">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>108</v>
       </c>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>402</v>
+        <v>531</v>
       </c>
       <c r="B111" t="s">
-        <v>403</v>
+        <v>470</v>
       </c>
       <c r="C111" t="s">
-        <v>404</v>
+        <v>532</v>
       </c>
       <c r="D111" t="s">
-        <v>405</v>
-      </c>
-      <c r="E111" s="7" t="s">
-        <v>428</v>
+        <v>533</v>
+      </c>
+      <c r="E111" t="s">
+        <v>534</v>
       </c>
       <c r="F111" t="s">
-        <v>657</v>
-      </c>
-      <c r="G111" s="1" t="s">
-        <v>89</v>
+        <v>631</v>
       </c>
       <c r="H111">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>36</v>
       </c>
       <c r="I111" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>45661</v>
       </c>
       <c r="J111">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>109</v>
       </c>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>571</v>
+        <v>626</v>
       </c>
       <c r="B112" t="s">
-        <v>572</v>
+        <v>627</v>
       </c>
       <c r="C112" t="s">
-        <v>416</v>
+        <v>628</v>
       </c>
       <c r="D112" t="s">
-        <v>573</v>
+        <v>629</v>
       </c>
       <c r="E112" t="s">
-        <v>650</v>
+        <v>630</v>
       </c>
       <c r="F112" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="H112">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>36</v>
       </c>
       <c r="I112" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>45661</v>
       </c>
       <c r="J112">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>110</v>
       </c>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>574</v>
+        <v>400</v>
       </c>
       <c r="B113" t="s">
-        <v>575</v>
+        <v>401</v>
       </c>
       <c r="C113" t="s">
-        <v>576</v>
+        <v>402</v>
       </c>
       <c r="D113" t="s">
-        <v>577</v>
-      </c>
-      <c r="E113" t="s">
-        <v>578</v>
+        <v>403</v>
+      </c>
+      <c r="E113" s="7" t="s">
+        <v>426</v>
       </c>
       <c r="F113" t="s">
-        <v>634</v>
+        <v>652</v>
+      </c>
+      <c r="G113" s="1" t="s">
+        <v>87</v>
       </c>
       <c r="H113">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>37</v>
       </c>
       <c r="I113" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>45662</v>
       </c>
       <c r="J113">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>111</v>
       </c>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>579</v>
+        <v>568</v>
       </c>
       <c r="B114" t="s">
-        <v>580</v>
+        <v>569</v>
       </c>
       <c r="C114" t="s">
-        <v>581</v>
+        <v>414</v>
       </c>
       <c r="D114" t="s">
-        <v>582</v>
+        <v>570</v>
       </c>
       <c r="E114" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="F114" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="H114">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>37</v>
       </c>
       <c r="I114" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>45662</v>
       </c>
       <c r="J114">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>112</v>
       </c>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>272</v>
+        <v>571</v>
       </c>
       <c r="B115" t="s">
-        <v>273</v>
+        <v>572</v>
       </c>
       <c r="C115" t="s">
-        <v>274</v>
+        <v>573</v>
       </c>
       <c r="D115" t="s">
-        <v>275</v>
+        <v>574</v>
       </c>
       <c r="E115" t="s">
-        <v>276</v>
-      </c>
-      <c r="F115" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="G115" s="1" t="s">
-        <v>8</v>
+        <v>575</v>
+      </c>
+      <c r="F115" t="s">
+        <v>631</v>
       </c>
       <c r="H115">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>37</v>
       </c>
       <c r="I115" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>45662</v>
       </c>
       <c r="J115">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>113</v>
       </c>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>238</v>
+        <v>576</v>
       </c>
       <c r="B116" t="s">
-        <v>239</v>
+        <v>577</v>
       </c>
       <c r="C116" t="s">
-        <v>240</v>
+        <v>578</v>
       </c>
       <c r="D116" t="s">
-        <v>241</v>
+        <v>579</v>
       </c>
       <c r="E116" t="s">
-        <v>242</v>
+        <v>644</v>
       </c>
       <c r="F116" t="s">
-        <v>252</v>
-      </c>
-      <c r="G116" s="1" t="s">
-        <v>8</v>
+        <v>631</v>
       </c>
       <c r="H116">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>38</v>
       </c>
       <c r="I116" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>45663</v>
       </c>
       <c r="J116">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>114</v>
       </c>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>308</v>
+        <v>270</v>
       </c>
       <c r="B117" t="s">
-        <v>309</v>
+        <v>271</v>
       </c>
       <c r="C117" t="s">
-        <v>310</v>
+        <v>272</v>
       </c>
       <c r="D117" t="s">
-        <v>311</v>
+        <v>273</v>
       </c>
       <c r="E117" t="s">
-        <v>320</v>
-      </c>
-      <c r="F117" t="s">
-        <v>321</v>
+        <v>274</v>
+      </c>
+      <c r="F117" s="1" t="s">
+        <v>85</v>
       </c>
       <c r="G117" s="1" t="s">
-        <v>140</v>
+        <v>8</v>
       </c>
       <c r="H117">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>38</v>
       </c>
       <c r="I117" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>45663</v>
       </c>
       <c r="J117">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>115</v>
       </c>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>609</v>
+        <v>236</v>
       </c>
       <c r="B118" t="s">
-        <v>610</v>
+        <v>237</v>
       </c>
       <c r="C118" t="s">
-        <v>611</v>
+        <v>238</v>
       </c>
       <c r="D118" t="s">
-        <v>612</v>
+        <v>239</v>
       </c>
       <c r="E118" t="s">
-        <v>613</v>
+        <v>240</v>
       </c>
       <c r="F118" t="s">
-        <v>634</v>
+        <v>250</v>
+      </c>
+      <c r="G118" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="H118">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>38</v>
       </c>
       <c r="I118" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>45663</v>
       </c>
       <c r="J118">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>116</v>
       </c>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>614</v>
+        <v>306</v>
       </c>
       <c r="B119" t="s">
-        <v>615</v>
+        <v>307</v>
       </c>
       <c r="C119" t="s">
-        <v>616</v>
+        <v>308</v>
       </c>
       <c r="D119" t="s">
-        <v>617</v>
+        <v>309</v>
       </c>
       <c r="E119" t="s">
-        <v>618</v>
+        <v>318</v>
       </c>
       <c r="F119" t="s">
-        <v>634</v>
+        <v>319</v>
+      </c>
+      <c r="G119" s="1" t="s">
+        <v>138</v>
       </c>
       <c r="H119">
-        <f t="shared" si="13"/>
+        <f t="shared" ref="H119:H137" si="18">INT(J119/3)</f>
         <v>39</v>
       </c>
       <c r="I119" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" ref="I119:I137" si="19">$L$1+H119</f>
         <v>45664</v>
       </c>
       <c r="J119">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>117</v>
       </c>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>363</v>
+        <v>606</v>
       </c>
       <c r="B120" t="s">
-        <v>364</v>
+        <v>607</v>
       </c>
       <c r="C120" t="s">
-        <v>287</v>
+        <v>608</v>
       </c>
       <c r="D120" t="s">
-        <v>288</v>
+        <v>609</v>
       </c>
       <c r="E120" t="s">
-        <v>320</v>
+        <v>610</v>
       </c>
       <c r="F120" t="s">
-        <v>321</v>
-      </c>
-      <c r="G120" s="1" t="s">
-        <v>140</v>
+        <v>631</v>
       </c>
       <c r="H120">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>39</v>
       </c>
       <c r="I120" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>45664</v>
       </c>
       <c r="J120">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>118</v>
       </c>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>657</v>
+        <v>611</v>
       </c>
       <c r="B121" t="s">
-        <v>429</v>
+        <v>612</v>
       </c>
       <c r="C121" t="s">
-        <v>406</v>
+        <v>613</v>
       </c>
       <c r="D121" t="s">
-        <v>407</v>
+        <v>614</v>
       </c>
       <c r="E121" t="s">
-        <v>434</v>
+        <v>615</v>
       </c>
       <c r="F121" t="s">
-        <v>657</v>
-      </c>
-      <c r="G121" s="1" t="s">
-        <v>433</v>
+        <v>631</v>
       </c>
       <c r="H121">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>39</v>
       </c>
       <c r="I121" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>45664</v>
       </c>
       <c r="J121">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>119</v>
       </c>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>263</v>
+        <v>361</v>
       </c>
       <c r="B122" t="s">
-        <v>264</v>
+        <v>362</v>
       </c>
       <c r="C122" t="s">
-        <v>265</v>
+        <v>285</v>
       </c>
       <c r="D122" t="s">
-        <v>245</v>
+        <v>286</v>
       </c>
       <c r="E122" t="s">
-        <v>266</v>
-      </c>
-      <c r="F122" s="1" t="s">
-        <v>87</v>
+        <v>318</v>
+      </c>
+      <c r="F122" t="s">
+        <v>319</v>
       </c>
       <c r="G122" s="1" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="H122">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>40</v>
       </c>
       <c r="I122" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>45665</v>
       </c>
       <c r="J122">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>120</v>
       </c>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>205</v>
+        <v>652</v>
       </c>
       <c r="B123" t="s">
-        <v>243</v>
+        <v>427</v>
       </c>
       <c r="C123" t="s">
-        <v>244</v>
+        <v>404</v>
       </c>
       <c r="D123" t="s">
-        <v>245</v>
+        <v>405</v>
       </c>
       <c r="E123" t="s">
-        <v>246</v>
+        <v>432</v>
       </c>
       <c r="F123" t="s">
-        <v>252</v>
+        <v>652</v>
       </c>
       <c r="G123" s="1" t="s">
-        <v>143</v>
+        <v>431</v>
       </c>
       <c r="H123">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>40</v>
       </c>
       <c r="I123" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>45665</v>
       </c>
       <c r="J123">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>121</v>
       </c>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>619</v>
+        <v>261</v>
       </c>
       <c r="B124" t="s">
-        <v>620</v>
+        <v>262</v>
       </c>
       <c r="C124" t="s">
-        <v>621</v>
+        <v>263</v>
       </c>
       <c r="D124" t="s">
-        <v>622</v>
+        <v>243</v>
       </c>
       <c r="E124" t="s">
-        <v>623</v>
-      </c>
-      <c r="F124" t="s">
-        <v>634</v>
+        <v>264</v>
+      </c>
+      <c r="F124" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G124" s="1" t="s">
+        <v>143</v>
       </c>
       <c r="H124">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>40</v>
       </c>
       <c r="I124" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>45665</v>
       </c>
       <c r="J124">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>122</v>
       </c>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>289</v>
+        <v>203</v>
       </c>
       <c r="B125" t="s">
-        <v>365</v>
+        <v>241</v>
       </c>
       <c r="C125" t="s">
-        <v>290</v>
+        <v>242</v>
       </c>
       <c r="D125" t="s">
-        <v>366</v>
+        <v>243</v>
       </c>
       <c r="E125" t="s">
-        <v>320</v>
+        <v>244</v>
       </c>
       <c r="F125" t="s">
-        <v>321</v>
+        <v>250</v>
       </c>
       <c r="G125" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H125">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>41</v>
       </c>
       <c r="I125" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>45666</v>
       </c>
       <c r="J125">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>123</v>
       </c>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>300</v>
+        <v>616</v>
       </c>
       <c r="B126" t="s">
-        <v>301</v>
+        <v>617</v>
       </c>
       <c r="C126" t="s">
-        <v>302</v>
+        <v>618</v>
       </c>
       <c r="D126" t="s">
-        <v>303</v>
+        <v>619</v>
       </c>
       <c r="E126" t="s">
-        <v>320</v>
+        <v>620</v>
       </c>
       <c r="F126" t="s">
-        <v>321</v>
-      </c>
-      <c r="G126" s="1" t="s">
-        <v>140</v>
+        <v>631</v>
       </c>
       <c r="H126">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>41</v>
       </c>
       <c r="I126" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>45666</v>
       </c>
       <c r="J126">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>124</v>
       </c>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>218</v>
+        <v>287</v>
       </c>
       <c r="B127" t="s">
-        <v>219</v>
+        <v>363</v>
       </c>
       <c r="C127" t="s">
-        <v>220</v>
+        <v>288</v>
       </c>
       <c r="D127" t="s">
-        <v>221</v>
+        <v>364</v>
       </c>
       <c r="E127" t="s">
-        <v>222</v>
+        <v>318</v>
       </c>
       <c r="F127" t="s">
-        <v>252</v>
+        <v>319</v>
       </c>
       <c r="G127" s="1" t="s">
-        <v>8</v>
+        <v>138</v>
       </c>
       <c r="H127">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>41</v>
       </c>
       <c r="I127" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>45666</v>
       </c>
       <c r="J127">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>125</v>
       </c>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>146</v>
+        <v>298</v>
       </c>
       <c r="B128" t="s">
-        <v>147</v>
+        <v>299</v>
       </c>
       <c r="C128" t="s">
-        <v>148</v>
+        <v>300</v>
       </c>
       <c r="D128" t="s">
-        <v>149</v>
+        <v>301</v>
       </c>
       <c r="E128" t="s">
-        <v>150</v>
+        <v>318</v>
       </c>
       <c r="F128" t="s">
-        <v>186</v>
+        <v>319</v>
       </c>
       <c r="G128" s="1" t="s">
-        <v>187</v>
+        <v>138</v>
       </c>
       <c r="H128">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>42</v>
       </c>
       <c r="I128" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>45667</v>
       </c>
       <c r="J128">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>126</v>
       </c>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>70</v>
+        <v>216</v>
       </c>
       <c r="B129" t="s">
-        <v>71</v>
+        <v>217</v>
       </c>
       <c r="C129" t="s">
-        <v>72</v>
+        <v>218</v>
       </c>
       <c r="D129" t="s">
-        <v>73</v>
+        <v>219</v>
       </c>
       <c r="E129" t="s">
-        <v>74</v>
-      </c>
-      <c r="F129" s="1" t="s">
-        <v>87</v>
+        <v>220</v>
+      </c>
+      <c r="F129" t="s">
+        <v>250</v>
       </c>
       <c r="G129" s="1" t="s">
-        <v>89</v>
+        <v>8</v>
       </c>
       <c r="H129">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>42</v>
       </c>
       <c r="I129" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>45667</v>
       </c>
       <c r="J129">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>127</v>
       </c>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>438</v>
+        <v>144</v>
       </c>
       <c r="B130" t="s">
-        <v>439</v>
+        <v>145</v>
       </c>
       <c r="C130" t="s">
-        <v>440</v>
+        <v>146</v>
       </c>
       <c r="D130" t="s">
-        <v>441</v>
+        <v>147</v>
       </c>
       <c r="E130" t="s">
-        <v>442</v>
-      </c>
-      <c r="F130" s="1" t="s">
-        <v>443</v>
+        <v>148</v>
+      </c>
+      <c r="F130" t="s">
+        <v>184</v>
       </c>
       <c r="G130" s="1" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="H130">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>42</v>
       </c>
       <c r="I130" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>45667</v>
       </c>
       <c r="J130">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>128</v>
       </c>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>200</v>
+        <v>68</v>
       </c>
       <c r="B131" t="s">
-        <v>444</v>
+        <v>69</v>
       </c>
       <c r="C131" t="s">
-        <v>445</v>
+        <v>70</v>
       </c>
       <c r="D131" t="s">
-        <v>446</v>
+        <v>71</v>
       </c>
       <c r="E131" t="s">
-        <v>447</v>
-      </c>
-      <c r="F131" t="s">
-        <v>448</v>
+        <v>72</v>
+      </c>
+      <c r="F131" s="1" t="s">
+        <v>85</v>
       </c>
       <c r="G131" s="1" t="s">
-        <v>140</v>
+        <v>87</v>
       </c>
       <c r="H131">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>43</v>
       </c>
       <c r="I131" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>45668</v>
       </c>
       <c r="J131">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>129</v>
       </c>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>449</v>
+        <v>436</v>
       </c>
       <c r="B132" t="s">
-        <v>450</v>
+        <v>437</v>
       </c>
       <c r="C132" t="s">
-        <v>451</v>
+        <v>438</v>
       </c>
       <c r="D132" t="s">
-        <v>452</v>
+        <v>439</v>
       </c>
       <c r="E132" t="s">
-        <v>453</v>
-      </c>
-      <c r="F132" t="s">
-        <v>448</v>
+        <v>440</v>
+      </c>
+      <c r="F132" s="1" t="s">
+        <v>441</v>
       </c>
       <c r="G132" s="1" t="s">
-        <v>433</v>
+        <v>186</v>
       </c>
       <c r="H132">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>43</v>
       </c>
       <c r="I132" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>45668</v>
       </c>
       <c r="J132">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>130</v>
       </c>
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>454</v>
+        <v>198</v>
       </c>
       <c r="B133" t="s">
-        <v>455</v>
+        <v>442</v>
       </c>
       <c r="C133" t="s">
-        <v>456</v>
+        <v>443</v>
       </c>
       <c r="D133" t="s">
-        <v>457</v>
+        <v>444</v>
       </c>
       <c r="E133" t="s">
-        <v>458</v>
+        <v>445</v>
       </c>
       <c r="F133" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="G133" s="1" t="s">
-        <v>459</v>
+        <v>138</v>
       </c>
       <c r="H133">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>43</v>
       </c>
       <c r="I133" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>45668</v>
       </c>
       <c r="J133">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>131</v>
       </c>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>637</v>
+        <v>447</v>
       </c>
       <c r="B134" t="s">
-        <v>234</v>
+        <v>448</v>
       </c>
       <c r="C134" t="s">
-        <v>638</v>
+        <v>449</v>
       </c>
       <c r="D134" t="s">
-        <v>233</v>
+        <v>450</v>
       </c>
       <c r="E134" t="s">
-        <v>639</v>
+        <v>451</v>
       </c>
       <c r="F134" t="s">
-        <v>634</v>
+        <v>446</v>
+      </c>
+      <c r="G134" s="1" t="s">
+        <v>431</v>
       </c>
       <c r="H134">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>44</v>
       </c>
       <c r="I134" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>45669</v>
       </c>
       <c r="J134">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>132</v>
       </c>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>235</v>
+        <v>452</v>
       </c>
       <c r="B135" t="s">
-        <v>640</v>
+        <v>453</v>
       </c>
       <c r="C135" t="s">
-        <v>641</v>
+        <v>454</v>
       </c>
       <c r="D135" t="s">
-        <v>642</v>
+        <v>455</v>
       </c>
       <c r="E135" t="s">
-        <v>643</v>
+        <v>456</v>
       </c>
       <c r="F135" t="s">
+        <v>441</v>
+      </c>
+      <c r="G135" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="H135">
+        <f t="shared" si="18"/>
+        <v>44</v>
+      </c>
+      <c r="I135" s="3">
+        <f t="shared" si="19"/>
+        <v>45669</v>
+      </c>
+      <c r="J135">
+        <f t="shared" si="17"/>
+        <v>133</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
         <v>634</v>
       </c>
-      <c r="H135">
-        <f t="shared" si="13"/>
+      <c r="B136" t="s">
+        <v>232</v>
+      </c>
+      <c r="C136" t="s">
+        <v>635</v>
+      </c>
+      <c r="D136" t="s">
+        <v>231</v>
+      </c>
+      <c r="E136" t="s">
+        <v>636</v>
+      </c>
+      <c r="F136" t="s">
+        <v>631</v>
+      </c>
+      <c r="H136">
+        <f t="shared" si="18"/>
         <v>44</v>
       </c>
-      <c r="I135" s="3">
-        <f t="shared" si="14"/>
+      <c r="I136" s="3">
+        <f t="shared" si="19"/>
         <v>45669</v>
       </c>
-      <c r="J135">
-        <f t="shared" si="15"/>
-        <v>133</v>
+      <c r="J136">
+        <f t="shared" si="17"/>
+        <v>134</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
+        <v>31</v>
+      </c>
+      <c r="B137" t="s">
+        <v>32</v>
+      </c>
+      <c r="C137" t="s">
+        <v>64</v>
+      </c>
+      <c r="D137" t="s">
+        <v>43</v>
+      </c>
+      <c r="E137" t="s">
+        <v>669</v>
+      </c>
+      <c r="F137" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="G137" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H137">
+        <f t="shared" si="18"/>
+        <v>45</v>
+      </c>
+      <c r="I137" s="3">
+        <f t="shared" si="19"/>
+        <v>45670</v>
+      </c>
+      <c r="J137">
+        <f t="shared" si="17"/>
+        <v>135</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A8:H132">
-    <sortCondition ref="H8:H132"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A8:H134">
+    <sortCondition ref="H8:H134"/>
   </sortState>
   <conditionalFormatting sqref="E1:E1048576">
     <cfRule type="expression" dxfId="1" priority="1">

--- a/code/shabdakala/resource/sbwords.xlsx
+++ b/code/shabdakala/resource/sbwords.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hrishinene/github/shabdakala/shabdakala/code/shabdakala/resource/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88CC53C5-8045-6E45-B7C7-D2898CCAEA06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD5704D1-F50C-A24A-B48B-AEF9F127B2DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{9F74AEE5-EB85-4044-AC84-8761A591B5C1}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="915" uniqueCount="673">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1431" uniqueCount="1047">
   <si>
     <t>word0</t>
   </si>
@@ -1439,18 +1439,12 @@
     <t>बुद्धिबळाच्या चाली</t>
   </si>
   <si>
-    <t>मोहरा</t>
-  </si>
-  <si>
     <t>राणी</t>
   </si>
   <si>
     <t>घर</t>
   </si>
   <si>
-    <t>बुद्धिबळाच्या पटावर सापडणाऱ्या गोष्टी</t>
-  </si>
-  <si>
     <t>बहर</t>
   </si>
   <si>
@@ -1463,21 +1457,9 @@
     <t>कळी</t>
   </si>
   <si>
-    <t>नाणी</t>
-  </si>
-  <si>
-    <t>सुटे</t>
-  </si>
-  <si>
     <t>चिल्लर</t>
   </si>
   <si>
-    <t>आणे</t>
-  </si>
-  <si>
-    <t>सुट्या पैशांचे प्रकार</t>
-  </si>
-  <si>
     <t>विकत</t>
   </si>
   <si>
@@ -1853,21 +1835,6 @@
     <t>न्यायालय</t>
   </si>
   <si>
-    <t>साहेब</t>
-  </si>
-  <si>
-    <t>जी</t>
-  </si>
-  <si>
-    <t>राव</t>
-  </si>
-  <si>
-    <t>पंत</t>
-  </si>
-  <si>
-    <t>नावाला आदरार्थी जोडलेले</t>
-  </si>
-  <si>
     <t>अंक</t>
   </si>
   <si>
@@ -2039,9 +2006,6 @@
     <t xml:space="preserve">पुराणातील काही नागांची नावे </t>
   </si>
   <si>
-    <t xml:space="preserve">वनस्पतींच्या जीवनातील आनंददायक घटना </t>
-  </si>
-  <si>
     <t xml:space="preserve">नेहेमी पांढरी वस्त्रे परिधान करणारे लोक </t>
   </si>
   <si>
@@ -2052,6 +2016,1164 @@
   </si>
   <si>
     <t>'साप' या विषयाचा शब्दबंध</t>
+  </si>
+  <si>
+    <t>वनस्पतीं वर येणार्‍या नव्या गोष्टी</t>
+  </si>
+  <si>
+    <t>छापा</t>
+  </si>
+  <si>
+    <t>टाकसाळ</t>
+  </si>
+  <si>
+    <t>पावली</t>
+  </si>
+  <si>
+    <t xml:space="preserve">चलनी नाणी या विषयावरील शब्दबंध </t>
+  </si>
+  <si>
+    <t>बाई</t>
+  </si>
+  <si>
+    <t>रियो</t>
+  </si>
+  <si>
+    <t>ॲमेझॉन</t>
+  </si>
+  <si>
+    <t>पोर्तुगिज</t>
+  </si>
+  <si>
+    <t>फुटबॉल</t>
+  </si>
+  <si>
+    <t>ब्राझील</t>
+  </si>
+  <si>
+    <t>पिझ्झा</t>
+  </si>
+  <si>
+    <t>गॅलेलियो</t>
+  </si>
+  <si>
+    <t>फेरारी</t>
+  </si>
+  <si>
+    <t>व्हेनीस</t>
+  </si>
+  <si>
+    <t>ईटली</t>
+  </si>
+  <si>
+    <t>सुशी</t>
+  </si>
+  <si>
+    <t>फ्युजी</t>
+  </si>
+  <si>
+    <t>टोयोटा</t>
+  </si>
+  <si>
+    <t>बुलेट ट्रेन</t>
+  </si>
+  <si>
+    <t>जपान</t>
+  </si>
+  <si>
+    <t>वामकुक्षी</t>
+  </si>
+  <si>
+    <t>पेन्शन</t>
+  </si>
+  <si>
+    <t>नातवंडं</t>
+  </si>
+  <si>
+    <t>निवृत्ती</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ज्येष्ठ नागरिक </t>
+  </si>
+  <si>
+    <t>काडेपेटी</t>
+  </si>
+  <si>
+    <t>भिंग</t>
+  </si>
+  <si>
+    <t>गारगोट्या</t>
+  </si>
+  <si>
+    <t>घर्षण</t>
+  </si>
+  <si>
+    <t>ज्या गोष्टींनी आग लावता येते</t>
+  </si>
+  <si>
+    <t>घोंगडं</t>
+  </si>
+  <si>
+    <t>माती</t>
+  </si>
+  <si>
+    <t>अग्नीरोधक</t>
+  </si>
+  <si>
+    <t>ज्या गोष्टींनी आग विजवता येते</t>
+  </si>
+  <si>
+    <t>स्वयंपाक</t>
+  </si>
+  <si>
+    <t>समयी</t>
+  </si>
+  <si>
+    <t>इंजीन</t>
+  </si>
+  <si>
+    <t>रॉकेट</t>
+  </si>
+  <si>
+    <t>अग्नीचे ऊपयोग</t>
+  </si>
+  <si>
+    <t>उद्घाटनाची रिबिन</t>
+  </si>
+  <si>
+    <t>कलिंगड</t>
+  </si>
+  <si>
+    <t>भाताचं पिक</t>
+  </si>
+  <si>
+    <t>केस</t>
+  </si>
+  <si>
+    <t>ज्या गोष्टी कापल्या जातात</t>
+  </si>
+  <si>
+    <t>चाकू</t>
+  </si>
+  <si>
+    <t>करवत</t>
+  </si>
+  <si>
+    <t>खुर्पं</t>
+  </si>
+  <si>
+    <t>ज्या गोष्टी कापतात</t>
+  </si>
+  <si>
+    <t>सर्जन</t>
+  </si>
+  <si>
+    <t>शिंपी</t>
+  </si>
+  <si>
+    <t>न्हावी</t>
+  </si>
+  <si>
+    <t>शेफ</t>
+  </si>
+  <si>
+    <t>ज्यांच्या व्यवसायांत कापावे लागते</t>
+  </si>
+  <si>
+    <t>तोरण</t>
+  </si>
+  <si>
+    <t>राखी</t>
+  </si>
+  <si>
+    <t>मुंडावळ्या</t>
+  </si>
+  <si>
+    <t>नाडी</t>
+  </si>
+  <si>
+    <t>गाठ घालून बांध्याच्या गोष्टी</t>
+  </si>
+  <si>
+    <t>हार</t>
+  </si>
+  <si>
+    <t>टायर</t>
+  </si>
+  <si>
+    <t>मेदूवडा</t>
+  </si>
+  <si>
+    <t>बांगडी</t>
+  </si>
+  <si>
+    <t>लुप</t>
+  </si>
+  <si>
+    <t>चष्मा</t>
+  </si>
+  <si>
+    <t>टक्कल</t>
+  </si>
+  <si>
+    <t>हातमाग</t>
+  </si>
+  <si>
+    <t>पांढरे धोतर</t>
+  </si>
+  <si>
+    <t>महात्मा गांधी</t>
+  </si>
+  <si>
+    <t>ध्रुव</t>
+  </si>
+  <si>
+    <t>गंगोत्री</t>
+  </si>
+  <si>
+    <t>दक्षिण</t>
+  </si>
+  <si>
+    <t>पेंगविन</t>
+  </si>
+  <si>
+    <t>Antarctica</t>
+  </si>
+  <si>
+    <t>व्याध</t>
+  </si>
+  <si>
+    <t>अभिजित</t>
+  </si>
+  <si>
+    <t>सूर्य</t>
+  </si>
+  <si>
+    <t>अरुंधती</t>
+  </si>
+  <si>
+    <t>सिंह</t>
+  </si>
+  <si>
+    <t>मासे</t>
+  </si>
+  <si>
+    <t>जोडपे</t>
+  </si>
+  <si>
+    <t>राशी चिन्हे</t>
+  </si>
+  <si>
+    <t>पार्टी</t>
+  </si>
+  <si>
+    <t>आतिषबाजी</t>
+  </si>
+  <si>
+    <t>लाईटींग</t>
+  </si>
+  <si>
+    <t>सोहळा</t>
+  </si>
+  <si>
+    <t>सेलिब्रेशन</t>
+  </si>
+  <si>
+    <t>स्पेशल</t>
+  </si>
+  <si>
+    <t>प्रजासत्ताक दिन</t>
+  </si>
+  <si>
+    <t>पुढले वर्ष</t>
+  </si>
+  <si>
+    <t>मॅराथॉन</t>
+  </si>
+  <si>
+    <t>26 (post this after Jan 1 !!)</t>
+  </si>
+  <si>
+    <t>ॲटलास</t>
+  </si>
+  <si>
+    <t>क्रेन</t>
+  </si>
+  <si>
+    <t>मल्लेश्वरी</t>
+  </si>
+  <si>
+    <t>जॅक</t>
+  </si>
+  <si>
+    <t>जड गोष्टी उचलणारे</t>
+  </si>
+  <si>
+    <t>नवीन</t>
+  </si>
+  <si>
+    <t>मलम</t>
+  </si>
+  <si>
+    <t>सरस</t>
+  </si>
+  <si>
+    <t>सामोसा</t>
+  </si>
+  <si>
+    <t>Palindromes, of course! (विलोमपदॆ)</t>
+  </si>
+  <si>
+    <t>नवजीवन</t>
+  </si>
+  <si>
+    <t>सकस</t>
+  </si>
+  <si>
+    <t>कडक</t>
+  </si>
+  <si>
+    <t>समास</t>
+  </si>
+  <si>
+    <t>बारामती</t>
+  </si>
+  <si>
+    <t>सुलक्षणी</t>
+  </si>
+  <si>
+    <t>पराकोटी</t>
+  </si>
+  <si>
+    <t>कासावीस</t>
+  </si>
+  <si>
+    <t>"संख्याशाली" शब्द!</t>
+  </si>
+  <si>
+    <t>टाचणी</t>
+  </si>
+  <si>
+    <t>नांगर</t>
+  </si>
+  <si>
+    <t>सरळ नाक</t>
+  </si>
+  <si>
+    <t>स्कृ</t>
+  </si>
+  <si>
+    <t>टोकदार गोष्टी</t>
+  </si>
+  <si>
+    <t>तिमिर</t>
+  </si>
+  <si>
+    <t>मॆत्र</t>
+  </si>
+  <si>
+    <t>सोयरे</t>
+  </si>
+  <si>
+    <t>चेतना</t>
+  </si>
+  <si>
+    <t>अजरामर "पसायदाना"तले शब्द</t>
+  </si>
+  <si>
+    <t>देव/हिम</t>
+  </si>
+  <si>
+    <t>कार्य</t>
+  </si>
+  <si>
+    <t>रुग्ण</t>
+  </si>
+  <si>
+    <t>यांची घरे (आलये) आहेत</t>
+  </si>
+  <si>
+    <t>रात्र</t>
+  </si>
+  <si>
+    <t>राजा</t>
+  </si>
+  <si>
+    <t>राग</t>
+  </si>
+  <si>
+    <t>राहू</t>
+  </si>
+  <si>
+    <t>रा' ने सुरू होणारे शब्द</t>
+  </si>
+  <si>
+    <t>पॆसा</t>
+  </si>
+  <si>
+    <t>तथ्य</t>
+  </si>
+  <si>
+    <t>हेतू</t>
+  </si>
+  <si>
+    <t>"अर्था"चे अनेक पर्यायी शब्द</t>
+  </si>
+  <si>
+    <t>बांधवगड</t>
+  </si>
+  <si>
+    <t>काॅर्बेट</t>
+  </si>
+  <si>
+    <t>पेरियार</t>
+  </si>
+  <si>
+    <t>काझिरंगा</t>
+  </si>
+  <si>
+    <t>नॅशनल पार्क</t>
+  </si>
+  <si>
+    <t>कांचीपुरम</t>
+  </si>
+  <si>
+    <t>रामेश्वर</t>
+  </si>
+  <si>
+    <t>मीनाक्षी</t>
+  </si>
+  <si>
+    <t>कावेरी</t>
+  </si>
+  <si>
+    <t>तामिळनाडू</t>
+  </si>
+  <si>
+    <t>सुरत</t>
+  </si>
+  <si>
+    <t>दांडी</t>
+  </si>
+  <si>
+    <t>मोरबी</t>
+  </si>
+  <si>
+    <t>गुजरात मधली गावे</t>
+  </si>
+  <si>
+    <t>संक्षिप्त</t>
+  </si>
+  <si>
+    <t>आकुंचन</t>
+  </si>
+  <si>
+    <t>शुष्क</t>
+  </si>
+  <si>
+    <t>केंद्रित</t>
+  </si>
+  <si>
+    <t>कमी होणे</t>
+  </si>
+  <si>
+    <t>शांती श्लोक</t>
+  </si>
+  <si>
+    <t>डेझर्ट खाणे</t>
+  </si>
+  <si>
+    <t>रात्रीची झोप</t>
+  </si>
+  <si>
+    <t>विसर्जन</t>
+  </si>
+  <si>
+    <t>एखाद्या गोष्टीच्या शेवटी करायच्या गोष्टी</t>
+  </si>
+  <si>
+    <t>हलवा</t>
+  </si>
+  <si>
+    <t>ससा</t>
+  </si>
+  <si>
+    <t>लाल</t>
+  </si>
+  <si>
+    <t>ईश्वर</t>
+  </si>
+  <si>
+    <t>आत्मा</t>
+  </si>
+  <si>
+    <t>वीर</t>
+  </si>
+  <si>
+    <t>अणू</t>
+  </si>
+  <si>
+    <t>ज्यांच्या आधी "परम" जोडलेले शब्द आहेत</t>
+  </si>
+  <si>
+    <t>अंडं</t>
+  </si>
+  <si>
+    <t>नारळ</t>
+  </si>
+  <si>
+    <t>फुगा</t>
+  </si>
+  <si>
+    <t>अमेरिकन फुटबॉल</t>
+  </si>
+  <si>
+    <t>अंडाकृती गोष्टी</t>
+  </si>
+  <si>
+    <t>दोरखंड</t>
+  </si>
+  <si>
+    <t>जॅकेट</t>
+  </si>
+  <si>
+    <t>काटेरी बूट</t>
+  </si>
+  <si>
+    <t>धाडसीपणा</t>
+  </si>
+  <si>
+    <t>ऐस माऊंटेनीयरींग ला लागणार्‍या गोष्टी</t>
+  </si>
+  <si>
+    <t>भुयार</t>
+  </si>
+  <si>
+    <t>तळघर</t>
+  </si>
+  <si>
+    <t>खाण</t>
+  </si>
+  <si>
+    <t>जमिनीत खोदून केलेल्या गोष्टी</t>
+  </si>
+  <si>
+    <t>वाईन</t>
+  </si>
+  <si>
+    <t>जंतुनाशक</t>
+  </si>
+  <si>
+    <t>विद्रावक</t>
+  </si>
+  <si>
+    <t>ज्वलंत</t>
+  </si>
+  <si>
+    <t>अल्कोहोल</t>
+  </si>
+  <si>
+    <t>मानस</t>
+  </si>
+  <si>
+    <t>दाल</t>
+  </si>
+  <si>
+    <t>पिचोला</t>
+  </si>
+  <si>
+    <t>वेण्णा</t>
+  </si>
+  <si>
+    <t>तलाव</t>
+  </si>
+  <si>
+    <t>ढोल</t>
+  </si>
+  <si>
+    <t>सायरन</t>
+  </si>
+  <si>
+    <t>फटका</t>
+  </si>
+  <si>
+    <t>मोठा आवाज करणार्‍या गोष्टी</t>
+  </si>
+  <si>
+    <t>काथ्या</t>
+  </si>
+  <si>
+    <t>खराटा</t>
+  </si>
+  <si>
+    <t>करवंटी</t>
+  </si>
+  <si>
+    <t>कोयर</t>
+  </si>
+  <si>
+    <t>नारळाच्या झाडापासून बनवलेल्या गोष्टी</t>
+  </si>
+  <si>
+    <t>लखोबा</t>
+  </si>
+  <si>
+    <t>राधेश्शाम</t>
+  </si>
+  <si>
+    <t>दिवाकर</t>
+  </si>
+  <si>
+    <t>अशोक</t>
+  </si>
+  <si>
+    <t>लोखंडे, महाराज, दातार, परांजपे -- छे, छे, तो मी नव्हेच!</t>
+  </si>
+  <si>
+    <t>प्रस्थ</t>
+  </si>
+  <si>
+    <t>स्वप्न</t>
+  </si>
+  <si>
+    <t>क्रुद्ध</t>
+  </si>
+  <si>
+    <t>व्रात्य</t>
+  </si>
+  <si>
+    <t>दोन जोडाक्षरांचे शब्द</t>
+  </si>
+  <si>
+    <t>ओतप्रोत</t>
+  </si>
+  <si>
+    <t>उदंड</t>
+  </si>
+  <si>
+    <t>ओसंडून</t>
+  </si>
+  <si>
+    <t>तुडुंब</t>
+  </si>
+  <si>
+    <t>अति</t>
+  </si>
+  <si>
+    <t>डॉन</t>
+  </si>
+  <si>
+    <t>राहीन</t>
+  </si>
+  <si>
+    <t>सीन</t>
+  </si>
+  <si>
+    <t>थेम्स</t>
+  </si>
+  <si>
+    <t>युरोपियन नद्या</t>
+  </si>
+  <si>
+    <t>महफिल</t>
+  </si>
+  <si>
+    <t>मेंदी</t>
+  </si>
+  <si>
+    <t>स्वप्नं</t>
+  </si>
+  <si>
+    <t>संध्याकाळचं आकाश</t>
+  </si>
+  <si>
+    <t>ज्या गोष्टी रंगतात</t>
+  </si>
+  <si>
+    <t>ततकार</t>
+  </si>
+  <si>
+    <t>तोडा</t>
+  </si>
+  <si>
+    <t>मुद्रा</t>
+  </si>
+  <si>
+    <t>चक्कर</t>
+  </si>
+  <si>
+    <t>कथ्थक</t>
+  </si>
+  <si>
+    <t>बुजगावणं</t>
+  </si>
+  <si>
+    <t>पीक</t>
+  </si>
+  <si>
+    <t>पाटाचं पाणी</t>
+  </si>
+  <si>
+    <t>ट्रॅक्टर</t>
+  </si>
+  <si>
+    <t>शेत</t>
+  </si>
+  <si>
+    <t>हिमालय</t>
+  </si>
+  <si>
+    <t>तप</t>
+  </si>
+  <si>
+    <t>विरक्ती</t>
+  </si>
+  <si>
+    <t>लांब दाढी</t>
+  </si>
+  <si>
+    <t>साधू</t>
+  </si>
+  <si>
+    <t>भाव</t>
+  </si>
+  <si>
+    <t>राष्ट्र</t>
+  </si>
+  <si>
+    <t>अंगाई</t>
+  </si>
+  <si>
+    <t>ज्यांना "गीत" जोडता येतं</t>
+  </si>
+  <si>
+    <t>नाणे</t>
+  </si>
+  <si>
+    <t>दिवे</t>
+  </si>
+  <si>
+    <t>कात्रज</t>
+  </si>
+  <si>
+    <t>खंडाळा</t>
+  </si>
+  <si>
+    <t>घाट</t>
+  </si>
+  <si>
+    <t>स्पंज</t>
+  </si>
+  <si>
+    <t>कापुस</t>
+  </si>
+  <si>
+    <t>ज्याच्यात पाणी मुरते</t>
+  </si>
+  <si>
+    <t>शारदा</t>
+  </si>
+  <si>
+    <t>आरंभ</t>
+  </si>
+  <si>
+    <t>चत्वार</t>
+  </si>
+  <si>
+    <t>आनंत</t>
+  </si>
+  <si>
+    <t>पहिल्या "मनाचे श्लोका"तील शब्द</t>
+  </si>
+  <si>
+    <t>सिम</t>
+  </si>
+  <si>
+    <t>रेशन</t>
+  </si>
+  <si>
+    <t>आधार</t>
+  </si>
+  <si>
+    <t>आय</t>
+  </si>
+  <si>
+    <t>कार्ड</t>
+  </si>
+  <si>
+    <t>नदीचा प्रवाह</t>
+  </si>
+  <si>
+    <t>साप</t>
+  </si>
+  <si>
+    <t>डबल्यु</t>
+  </si>
+  <si>
+    <t>नागमोडी गोष्टी</t>
+  </si>
+  <si>
+    <t>बंब</t>
+  </si>
+  <si>
+    <t>भस्म</t>
+  </si>
+  <si>
+    <t>तेल</t>
+  </si>
+  <si>
+    <t>लाकूड</t>
+  </si>
+  <si>
+    <t>यांचा आगीशी खेळ!</t>
+  </si>
+  <si>
+    <t>लक्ष्मण</t>
+  </si>
+  <si>
+    <t>फडणीस</t>
+  </si>
+  <si>
+    <t>मिरांडा</t>
+  </si>
+  <si>
+    <t>ठाकरे</t>
+  </si>
+  <si>
+    <t>व्यंगचित्रकार</t>
+  </si>
+  <si>
+    <t>कल्पना</t>
+  </si>
+  <si>
+    <t>भूत</t>
+  </si>
+  <si>
+    <t>सँताक्लॉज</t>
+  </si>
+  <si>
+    <t>वास्तवात नसलेल्या गोष्टी</t>
+  </si>
+  <si>
+    <t>बबल रॅप</t>
+  </si>
+  <si>
+    <t>ज्यात बहुतांशी पोकळी असते</t>
+  </si>
+  <si>
+    <t>कांत</t>
+  </si>
+  <si>
+    <t>संत</t>
+  </si>
+  <si>
+    <t>गोळे</t>
+  </si>
+  <si>
+    <t>सुर्वे</t>
+  </si>
+  <si>
+    <t>काही मराठी साहित्यिकांची आडनावे</t>
+  </si>
+  <si>
+    <t>ज्योतिर्लिंग</t>
+  </si>
+  <si>
+    <t>रास</t>
+  </si>
+  <si>
+    <t>महिना</t>
+  </si>
+  <si>
+    <t>इयत्ता</t>
+  </si>
+  <si>
+    <t>बाराच्या संखेने असलेल्या गोष्टी</t>
+  </si>
+  <si>
+    <t>रास्ता</t>
+  </si>
+  <si>
+    <t>नवी</t>
+  </si>
+  <si>
+    <t>कसबा</t>
+  </si>
+  <si>
+    <t>रविवार</t>
+  </si>
+  <si>
+    <t>पेठ</t>
+  </si>
+  <si>
+    <t>खाद्य</t>
+  </si>
+  <si>
+    <t>संगीत</t>
+  </si>
+  <si>
+    <t>मद्य</t>
+  </si>
+  <si>
+    <t>श्रमपरिहाराची साधने</t>
+  </si>
+  <si>
+    <t>मेधा</t>
+  </si>
+  <si>
+    <t>स्मृति</t>
+  </si>
+  <si>
+    <t>आठवण</t>
+  </si>
+  <si>
+    <t>स्मरण</t>
+  </si>
+  <si>
+    <t>मेमरी</t>
+  </si>
+  <si>
+    <t>दशा</t>
+  </si>
+  <si>
+    <t>व्यथा</t>
+  </si>
+  <si>
+    <t>परिस्थिती</t>
+  </si>
+  <si>
+    <t>अवस्था</t>
+  </si>
+  <si>
+    <t>सिच्युएशन</t>
+  </si>
+  <si>
+    <t>मोहरी</t>
+  </si>
+  <si>
+    <t>हिंग</t>
+  </si>
+  <si>
+    <t>हळद</t>
+  </si>
+  <si>
+    <t>फोडणी</t>
+  </si>
+  <si>
+    <t>कथा</t>
+  </si>
+  <si>
+    <t>नचिकेत</t>
+  </si>
+  <si>
+    <t>मोक्ष</t>
+  </si>
+  <si>
+    <t>कठोपनिषद्</t>
+  </si>
+  <si>
+    <t>अभ्यास</t>
+  </si>
+  <si>
+    <t>रियाज</t>
+  </si>
+  <si>
+    <t>सराव</t>
+  </si>
+  <si>
+    <t>मेहनत</t>
+  </si>
+  <si>
+    <t>शिकणे</t>
+  </si>
+  <si>
+    <t>लेझर</t>
+  </si>
+  <si>
+    <t>दीपस्तंभ</t>
+  </si>
+  <si>
+    <t>ट्यूबलाईट</t>
+  </si>
+  <si>
+    <t>प्रखर गोष्टी</t>
+  </si>
+  <si>
+    <t>निर्या</t>
+  </si>
+  <si>
+    <t>जर</t>
+  </si>
+  <si>
+    <t>घडी</t>
+  </si>
+  <si>
+    <t>साडी</t>
+  </si>
+  <si>
+    <t>सोनं</t>
+  </si>
+  <si>
+    <t>मणि</t>
+  </si>
+  <si>
+    <t>गोल</t>
+  </si>
+  <si>
+    <t>अंगठी</t>
+  </si>
+  <si>
+    <t>ढीग</t>
+  </si>
+  <si>
+    <t>मनोरा</t>
+  </si>
+  <si>
+    <t>लगोरी</t>
+  </si>
+  <si>
+    <t>ज्या गोष्टी रचता येतात</t>
+  </si>
+  <si>
+    <t>बाळ</t>
+  </si>
+  <si>
+    <t>प्रेक्षक</t>
+  </si>
+  <si>
+    <t>चांभार</t>
+  </si>
+  <si>
+    <t>पर्यटक</t>
+  </si>
+  <si>
+    <t>ज्यांना कुतूहल असते</t>
+  </si>
+  <si>
+    <t>घनिष्ठ</t>
+  </si>
+  <si>
+    <t>सांगत</t>
+  </si>
+  <si>
+    <t>यार</t>
+  </si>
+  <si>
+    <t>गट्टी</t>
+  </si>
+  <si>
+    <t>मैत्री</t>
+  </si>
+  <si>
+    <t>वेताळ</t>
+  </si>
+  <si>
+    <t>वाघुळ</t>
+  </si>
+  <si>
+    <t>टारझन</t>
+  </si>
+  <si>
+    <t>झाडाला लोंबकळणाऱे</t>
+  </si>
+  <si>
+    <t>गोबी</t>
+  </si>
+  <si>
+    <t>थार</t>
+  </si>
+  <si>
+    <t>कालाहरी</t>
+  </si>
+  <si>
+    <t>मोहावी</t>
+  </si>
+  <si>
+    <t>वाळवंटं</t>
+  </si>
+  <si>
+    <t>आरोह</t>
+  </si>
+  <si>
+    <t>गिर्यारोहक</t>
+  </si>
+  <si>
+    <t>ताप</t>
+  </si>
+  <si>
+    <t>चढणार्‍या गोष्टी</t>
+  </si>
+  <si>
+    <t>अमर्त्य</t>
+  </si>
+  <si>
+    <t>रवींद्र</t>
+  </si>
+  <si>
+    <t>कॆलाश</t>
+  </si>
+  <si>
+    <t>भारतीय नोबेल विजेत्यांची पहिली नावे</t>
+  </si>
+  <si>
+    <t>विदुर</t>
+  </si>
+  <si>
+    <t>विश्वेश्वर</t>
+  </si>
+  <si>
+    <t>"महात्मा" पदवी असलेले</t>
+  </si>
+  <si>
+    <t>सुदर्शन</t>
+  </si>
+  <si>
+    <t>परमवीर</t>
+  </si>
+  <si>
+    <t>मूलाधार</t>
+  </si>
+  <si>
+    <t>बिड</t>
+  </si>
+  <si>
+    <t>बिम</t>
+  </si>
+  <si>
+    <t>बित</t>
+  </si>
+  <si>
+    <t>बिर</t>
+  </si>
+  <si>
+    <t>अर्थहीन पहिले, पण अर्थपूर्ण दुसरे शब्द (हाड-, काम-, हात-, घर-)</t>
+  </si>
+  <si>
+    <t>माध्यस्त</t>
+  </si>
+  <si>
+    <t>पुल</t>
+  </si>
+  <si>
+    <t>लग्न</t>
+  </si>
+  <si>
+    <t>फोन कॉल</t>
+  </si>
+  <si>
+    <t>दोन घटकांना जोडणारे</t>
+  </si>
+  <si>
+    <t>कुंकू</t>
+  </si>
+  <si>
+    <t>जास्वंद</t>
+  </si>
+  <si>
+    <t>थांबा</t>
+  </si>
+  <si>
+    <t>बुद्धिबळाच्या पटावर</t>
   </si>
 </sst>
 </file>
@@ -2624,7 +3746,28 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="4">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -2976,10 +4119,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEA1707B-2FB7-B84C-9F84-E9F074F3056C}">
-  <dimension ref="A1:L137"/>
+  <dimension ref="A1:L223"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="108" zoomScaleNormal="108" workbookViewId="0">
-      <selection activeCell="E56" sqref="E56"/>
+    <sheetView tabSelected="1" topLeftCell="A45" zoomScale="108" zoomScaleNormal="108" workbookViewId="0">
+      <selection activeCell="E59" sqref="E59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3067,7 +4210,7 @@
       </c>
       <c r="L2" s="6">
         <f ca="1">TODAY()</f>
-        <v>45642</v>
+        <v>45643</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -3421,7 +4564,7 @@
         <v>45628</v>
       </c>
       <c r="J12">
-        <f t="shared" ref="J12:J93" si="6">J11+1</f>
+        <f t="shared" ref="J12:J95" si="6">J11+1</f>
         <v>10</v>
       </c>
     </row>
@@ -3553,11 +4696,11 @@
         <v>86</v>
       </c>
       <c r="H16">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="H16:H79" si="7">INT(J16/3)</f>
         <v>4</v>
       </c>
       <c r="I16" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="I16:I79" si="8">$L$1+H16</f>
         <v>45629</v>
       </c>
       <c r="J16">
@@ -3588,11 +4731,11 @@
         <v>45</v>
       </c>
       <c r="H17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="I17" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>45630</v>
       </c>
       <c r="J17">
@@ -3623,11 +4766,11 @@
         <v>138</v>
       </c>
       <c r="H18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="I18" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>45630</v>
       </c>
       <c r="J18">
@@ -3658,11 +4801,11 @@
         <v>8</v>
       </c>
       <c r="H19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="I19" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>45630</v>
       </c>
       <c r="J19">
@@ -3693,11 +4836,11 @@
         <v>142</v>
       </c>
       <c r="H20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="I20" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>45631</v>
       </c>
       <c r="J20">
@@ -3728,11 +4871,11 @@
         <v>139</v>
       </c>
       <c r="H21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="I21" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>45631</v>
       </c>
       <c r="J21">
@@ -3763,11 +4906,11 @@
         <v>143</v>
       </c>
       <c r="H22">
-        <f t="shared" ref="H22" si="7">INT(J22/3)</f>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="I22" s="3">
-        <f t="shared" ref="I22" si="8">$L$1+H22</f>
+        <f t="shared" si="8"/>
         <v>45631</v>
       </c>
       <c r="J22">
@@ -3798,11 +4941,11 @@
         <v>8</v>
       </c>
       <c r="H23">
-        <f t="shared" ref="H23:H27" si="9">INT(J23/3)</f>
+        <f t="shared" si="7"/>
         <v>7</v>
       </c>
       <c r="I23" s="3">
-        <f t="shared" ref="I23:I27" si="10">$L$1+H23</f>
+        <f t="shared" si="8"/>
         <v>45632</v>
       </c>
       <c r="J23">
@@ -3833,11 +4976,11 @@
         <v>44</v>
       </c>
       <c r="H24">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>7</v>
       </c>
       <c r="I24" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>45632</v>
       </c>
       <c r="J24">
@@ -3862,17 +5005,17 @@
         <v>372</v>
       </c>
       <c r="F25" t="s">
-        <v>652</v>
+        <v>641</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>185</v>
       </c>
       <c r="H25">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>7</v>
       </c>
       <c r="I25" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>45632</v>
       </c>
       <c r="J25">
@@ -3903,11 +5046,11 @@
         <v>140</v>
       </c>
       <c r="H26">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
       <c r="I26" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>45633</v>
       </c>
       <c r="J26">
@@ -3938,11 +5081,11 @@
         <v>8</v>
       </c>
       <c r="H27">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
       <c r="I27" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>45633</v>
       </c>
       <c r="J27">
@@ -3967,17 +5110,17 @@
         <v>428</v>
       </c>
       <c r="F28" t="s">
-        <v>652</v>
+        <v>641</v>
       </c>
       <c r="G28" s="1" t="s">
         <v>434</v>
       </c>
       <c r="H28">
-        <f t="shared" ref="H28:H52" si="11">INT(J28/3)</f>
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
       <c r="I28" s="3">
-        <f t="shared" ref="I28:I52" si="12">$L$1+H28</f>
+        <f t="shared" si="8"/>
         <v>45633</v>
       </c>
       <c r="J28">
@@ -4008,11 +5151,11 @@
         <v>46</v>
       </c>
       <c r="H29">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>9</v>
       </c>
       <c r="I29" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>45634</v>
       </c>
       <c r="J29">
@@ -4043,11 +5186,11 @@
         <v>139</v>
       </c>
       <c r="H30">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>9</v>
       </c>
       <c r="I30" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>45634</v>
       </c>
       <c r="J30">
@@ -4078,11 +5221,11 @@
         <v>8</v>
       </c>
       <c r="H31">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>9</v>
       </c>
       <c r="I31" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>45634</v>
       </c>
       <c r="J31">
@@ -4092,29 +5235,29 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="B32" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="C32" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
       <c r="D32" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="E32" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="F32" t="s">
-        <v>631</v>
+        <v>620</v>
       </c>
       <c r="H32">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="I32" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>45635</v>
       </c>
       <c r="J32">
@@ -4124,29 +5267,29 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
       <c r="B33" t="s">
         <v>373</v>
       </c>
       <c r="C33" t="s">
-        <v>646</v>
+        <v>635</v>
       </c>
       <c r="D33" t="s">
         <v>228</v>
       </c>
       <c r="E33" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="F33" t="s">
-        <v>631</v>
+        <v>620</v>
       </c>
       <c r="H33">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="I33" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>45635</v>
       </c>
       <c r="J33">
@@ -4156,29 +5299,29 @@
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="B34" t="s">
-        <v>647</v>
+        <v>636</v>
       </c>
       <c r="C34" t="s">
-        <v>633</v>
+        <v>622</v>
       </c>
       <c r="D34" t="s">
         <v>48</v>
       </c>
       <c r="E34" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="F34" t="s">
-        <v>631</v>
+        <v>620</v>
       </c>
       <c r="H34">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="I34" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>45635</v>
       </c>
       <c r="J34">
@@ -4209,11 +5352,11 @@
         <v>46</v>
       </c>
       <c r="H35">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>11</v>
       </c>
       <c r="I35" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>45636</v>
       </c>
       <c r="J35">
@@ -4235,7 +5378,7 @@
         <v>33</v>
       </c>
       <c r="E36" t="s">
-        <v>648</v>
+        <v>637</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>341</v>
@@ -4244,11 +5387,11 @@
         <v>8</v>
       </c>
       <c r="H36">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>11</v>
       </c>
       <c r="I36" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>45636</v>
       </c>
       <c r="J36">
@@ -4270,7 +5413,7 @@
         <v>111</v>
       </c>
       <c r="E37" t="s">
-        <v>649</v>
+        <v>638</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>85</v>
@@ -4279,11 +5422,11 @@
         <v>141</v>
       </c>
       <c r="H37">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>11</v>
       </c>
       <c r="I37" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>45636</v>
       </c>
       <c r="J37">
@@ -4293,29 +5436,29 @@
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>650</v>
+        <v>639</v>
       </c>
       <c r="B38" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="C38" t="s">
-        <v>653</v>
+        <v>642</v>
       </c>
       <c r="D38" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="E38" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="F38" t="s">
-        <v>631</v>
+        <v>620</v>
       </c>
       <c r="H38">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>12</v>
       </c>
       <c r="I38" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>45637</v>
       </c>
       <c r="J38">
@@ -4325,29 +5468,29 @@
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="B39" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="C39" t="s">
         <v>7</v>
       </c>
       <c r="D39" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="E39" t="s">
-        <v>643</v>
+        <v>632</v>
       </c>
       <c r="F39" t="s">
-        <v>631</v>
+        <v>620</v>
       </c>
       <c r="H39">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>12</v>
       </c>
       <c r="I39" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>45637</v>
       </c>
       <c r="J39">
@@ -4378,11 +5521,11 @@
         <v>143</v>
       </c>
       <c r="H40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>12</v>
       </c>
       <c r="I40" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>45637</v>
       </c>
       <c r="J40">
@@ -4413,11 +5556,11 @@
         <v>87</v>
       </c>
       <c r="H41">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>13</v>
       </c>
       <c r="I41" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>45638</v>
       </c>
       <c r="J41">
@@ -4427,29 +5570,29 @@
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>589</v>
+        <v>583</v>
       </c>
       <c r="B42" t="s">
-        <v>590</v>
+        <v>584</v>
       </c>
       <c r="C42" t="s">
-        <v>651</v>
+        <v>640</v>
       </c>
       <c r="D42" t="s">
-        <v>591</v>
+        <v>585</v>
       </c>
       <c r="E42" t="s">
-        <v>592</v>
+        <v>586</v>
       </c>
       <c r="F42" t="s">
-        <v>631</v>
+        <v>620</v>
       </c>
       <c r="H42">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>13</v>
       </c>
       <c r="I42" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>45638</v>
       </c>
       <c r="J42">
@@ -4459,29 +5602,29 @@
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>601</v>
+        <v>595</v>
       </c>
       <c r="B43" t="s">
-        <v>602</v>
+        <v>596</v>
       </c>
       <c r="C43" t="s">
-        <v>603</v>
+        <v>597</v>
       </c>
       <c r="D43" t="s">
-        <v>604</v>
+        <v>598</v>
       </c>
       <c r="E43" t="s">
-        <v>605</v>
+        <v>599</v>
       </c>
       <c r="F43" t="s">
-        <v>631</v>
+        <v>620</v>
       </c>
       <c r="H43">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>13</v>
       </c>
       <c r="I43" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>45638</v>
       </c>
       <c r="J43">
@@ -4506,17 +5649,17 @@
         <v>380</v>
       </c>
       <c r="F44" t="s">
-        <v>652</v>
+        <v>641</v>
       </c>
       <c r="G44" s="1" t="s">
         <v>275</v>
       </c>
       <c r="H44">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>14</v>
       </c>
       <c r="I44" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>45639</v>
       </c>
       <c r="J44">
@@ -4547,11 +5690,11 @@
         <v>45</v>
       </c>
       <c r="H45">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>14</v>
       </c>
       <c r="I45" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>45639</v>
       </c>
       <c r="J45">
@@ -4561,29 +5704,29 @@
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="B46" t="s">
-        <v>536</v>
+        <v>530</v>
       </c>
       <c r="C46" t="s">
-        <v>537</v>
+        <v>531</v>
       </c>
       <c r="D46" t="s">
-        <v>654</v>
+        <v>643</v>
       </c>
       <c r="E46" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="F46" t="s">
-        <v>631</v>
+        <v>620</v>
       </c>
       <c r="H46">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>14</v>
       </c>
       <c r="I46" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>45639</v>
       </c>
       <c r="J46">
@@ -4596,26 +5739,26 @@
         <v>228</v>
       </c>
       <c r="B47" t="s">
-        <v>539</v>
+        <v>533</v>
       </c>
       <c r="C47" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="D47" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
       <c r="E47" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
       <c r="F47" t="s">
-        <v>631</v>
+        <v>620</v>
       </c>
       <c r="H47">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>15</v>
       </c>
       <c r="I47" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>45640</v>
       </c>
       <c r="J47">
@@ -4625,29 +5768,29 @@
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
       <c r="B48" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
       <c r="C48" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
       <c r="D48" t="s">
-        <v>546</v>
+        <v>540</v>
       </c>
       <c r="E48" t="s">
-        <v>547</v>
+        <v>541</v>
       </c>
       <c r="F48" t="s">
-        <v>631</v>
+        <v>620</v>
       </c>
       <c r="H48">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>15</v>
       </c>
       <c r="I48" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>45640</v>
       </c>
       <c r="J48">
@@ -4678,11 +5821,11 @@
         <v>87</v>
       </c>
       <c r="H49">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>15</v>
       </c>
       <c r="I49" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>45640</v>
       </c>
       <c r="J49">
@@ -4707,17 +5850,17 @@
         <v>418</v>
       </c>
       <c r="F50" t="s">
-        <v>652</v>
+        <v>641</v>
       </c>
       <c r="G50" s="1" t="s">
         <v>275</v>
       </c>
       <c r="H50">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>16</v>
       </c>
       <c r="I50" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>45641</v>
       </c>
       <c r="J50">
@@ -4733,7 +5876,7 @@
         <v>120</v>
       </c>
       <c r="C51" t="s">
-        <v>655</v>
+        <v>644</v>
       </c>
       <c r="D51" t="s">
         <v>121</v>
@@ -4748,11 +5891,11 @@
         <v>142</v>
       </c>
       <c r="H51">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>16</v>
       </c>
       <c r="I51" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>45641</v>
       </c>
       <c r="J51">
@@ -4762,7 +5905,7 @@
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>656</v>
+        <v>645</v>
       </c>
       <c r="B52" t="s">
         <v>36</v>
@@ -4783,11 +5926,11 @@
         <v>8</v>
       </c>
       <c r="H52">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>16</v>
       </c>
       <c r="I52" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>45641</v>
       </c>
       <c r="J52">
@@ -4818,11 +5961,11 @@
         <v>187</v>
       </c>
       <c r="H53">
-        <f t="shared" ref="H53:H66" si="13">INT(J53/3)</f>
+        <f t="shared" si="7"/>
         <v>17</v>
       </c>
       <c r="I53" s="3">
-        <f t="shared" ref="I53:I66" si="14">$L$1+H53</f>
+        <f t="shared" si="8"/>
         <v>45642</v>
       </c>
       <c r="J53">
@@ -4835,7 +5978,7 @@
         <v>212</v>
       </c>
       <c r="B54" t="s">
-        <v>657</v>
+        <v>646</v>
       </c>
       <c r="C54" t="s">
         <v>213</v>
@@ -4853,11 +5996,11 @@
         <v>276</v>
       </c>
       <c r="H54">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>17</v>
       </c>
       <c r="I54" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="8"/>
         <v>45642</v>
       </c>
       <c r="J54">
@@ -4882,17 +6025,17 @@
         <v>435</v>
       </c>
       <c r="F55" t="s">
-        <v>652</v>
+        <v>641</v>
       </c>
       <c r="G55" s="1" t="s">
         <v>275</v>
       </c>
       <c r="H55">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>17</v>
       </c>
       <c r="I55" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="8"/>
         <v>45642</v>
       </c>
       <c r="J55">
@@ -4905,26 +6048,26 @@
         <v>233</v>
       </c>
       <c r="B56" t="s">
-        <v>671</v>
+        <v>659</v>
       </c>
       <c r="C56" t="s">
-        <v>637</v>
+        <v>626</v>
       </c>
       <c r="D56" t="s">
-        <v>638</v>
+        <v>627</v>
       </c>
       <c r="E56" t="s">
-        <v>672</v>
+        <v>660</v>
       </c>
       <c r="F56" t="s">
-        <v>631</v>
+        <v>620</v>
       </c>
       <c r="H56">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>18</v>
       </c>
       <c r="I56" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="8"/>
         <v>45643</v>
       </c>
       <c r="J56">
@@ -4940,7 +6083,7 @@
         <v>232</v>
       </c>
       <c r="C57" t="s">
-        <v>670</v>
+        <v>658</v>
       </c>
       <c r="D57" t="s">
         <v>234</v>
@@ -4955,11 +6098,11 @@
         <v>139</v>
       </c>
       <c r="H57">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>18</v>
       </c>
       <c r="I57" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="8"/>
         <v>45643</v>
       </c>
       <c r="J57">
@@ -4969,29 +6112,29 @@
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>663</v>
+        <v>652</v>
       </c>
       <c r="B58" t="s">
-        <v>664</v>
+        <v>653</v>
       </c>
       <c r="C58" t="s">
-        <v>665</v>
+        <v>654</v>
       </c>
       <c r="D58" t="s">
-        <v>666</v>
+        <v>655</v>
       </c>
       <c r="E58" t="s">
-        <v>667</v>
+        <v>656</v>
       </c>
       <c r="F58" t="s">
         <v>446</v>
       </c>
       <c r="H58">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>18</v>
       </c>
       <c r="I58" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="8"/>
         <v>45643</v>
       </c>
       <c r="J58">
@@ -5001,30 +6144,29 @@
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
+        <v>470</v>
+      </c>
+      <c r="B59" t="s">
+        <v>471</v>
+      </c>
+      <c r="C59" t="s">
+        <v>472</v>
+      </c>
+      <c r="D59" t="s">
+        <v>473</v>
+      </c>
+      <c r="E59" t="s">
         <v>661</v>
       </c>
-      <c r="B59" t="s">
-        <v>658</v>
-      </c>
-      <c r="C59" t="s">
-        <v>659</v>
-      </c>
-      <c r="D59" t="s">
-        <v>660</v>
-      </c>
-      <c r="E59" t="s">
-        <v>662</v>
-      </c>
-      <c r="F59" s="1" t="s">
-        <v>446</v>
-      </c>
-      <c r="G59" s="1"/>
+      <c r="F59" t="s">
+        <v>620</v>
+      </c>
       <c r="H59">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>19</v>
       </c>
       <c r="I59" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="8"/>
         <v>45644</v>
       </c>
       <c r="J59">
@@ -5034,29 +6176,29 @@
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>472</v>
+        <v>662</v>
       </c>
       <c r="B60" t="s">
-        <v>473</v>
+        <v>663</v>
       </c>
       <c r="C60" t="s">
         <v>474</v>
       </c>
       <c r="D60" t="s">
-        <v>475</v>
+        <v>664</v>
       </c>
       <c r="E60" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="F60" t="s">
-        <v>631</v>
+        <v>620</v>
       </c>
       <c r="H60">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>19</v>
       </c>
       <c r="I60" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="8"/>
         <v>45644</v>
       </c>
       <c r="J60">
@@ -5066,29 +6208,29 @@
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
+        <v>666</v>
+      </c>
+      <c r="B61" t="s">
         <v>476</v>
       </c>
-      <c r="B61" t="s">
+      <c r="C61" t="s">
         <v>477</v>
       </c>
-      <c r="C61" t="s">
+      <c r="D61" t="s">
         <v>478</v>
       </c>
-      <c r="D61" t="s">
+      <c r="E61" t="s">
         <v>479</v>
       </c>
-      <c r="E61" t="s">
-        <v>480</v>
-      </c>
       <c r="F61" t="s">
-        <v>631</v>
+        <v>620</v>
       </c>
       <c r="H61">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>19</v>
       </c>
       <c r="I61" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="8"/>
         <v>45644</v>
       </c>
       <c r="J61">
@@ -5098,29 +6240,30 @@
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>481</v>
+        <v>650</v>
       </c>
       <c r="B62" t="s">
-        <v>482</v>
+        <v>647</v>
       </c>
       <c r="C62" t="s">
-        <v>483</v>
+        <v>648</v>
       </c>
       <c r="D62" t="s">
-        <v>484</v>
+        <v>649</v>
       </c>
       <c r="E62" t="s">
-        <v>485</v>
-      </c>
-      <c r="F62" t="s">
-        <v>631</v>
-      </c>
+        <v>651</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="G62" s="1"/>
       <c r="H62">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>20</v>
       </c>
       <c r="I62" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="8"/>
         <v>45645</v>
       </c>
       <c r="J62">
@@ -5130,32 +6273,29 @@
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>373</v>
+        <v>475</v>
       </c>
       <c r="B63" t="s">
-        <v>374</v>
+        <v>476</v>
       </c>
       <c r="C63" t="s">
-        <v>375</v>
+        <v>477</v>
       </c>
       <c r="D63" t="s">
-        <v>376</v>
+        <v>478</v>
       </c>
       <c r="E63" t="s">
-        <v>377</v>
+        <v>479</v>
       </c>
       <c r="F63" t="s">
-        <v>652</v>
-      </c>
-      <c r="G63" s="1" t="s">
-        <v>275</v>
+        <v>620</v>
       </c>
       <c r="H63">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>20</v>
       </c>
       <c r="I63" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="8"/>
         <v>45645</v>
       </c>
       <c r="J63">
@@ -5165,32 +6305,32 @@
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>48</v>
+        <v>373</v>
       </c>
       <c r="B64" t="s">
-        <v>208</v>
+        <v>374</v>
       </c>
       <c r="C64" t="s">
-        <v>209</v>
+        <v>375</v>
       </c>
       <c r="D64" t="s">
-        <v>210</v>
+        <v>376</v>
       </c>
       <c r="E64" t="s">
-        <v>211</v>
+        <v>377</v>
       </c>
       <c r="F64" t="s">
-        <v>250</v>
+        <v>641</v>
       </c>
       <c r="G64" s="1" t="s">
         <v>275</v>
       </c>
       <c r="H64">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>20</v>
       </c>
       <c r="I64" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="8"/>
         <v>45645</v>
       </c>
       <c r="J64">
@@ -5200,32 +6340,32 @@
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>310</v>
+        <v>48</v>
       </c>
       <c r="B65" t="s">
-        <v>311</v>
+        <v>208</v>
       </c>
       <c r="C65" t="s">
-        <v>312</v>
+        <v>209</v>
       </c>
       <c r="D65" t="s">
-        <v>313</v>
+        <v>210</v>
       </c>
       <c r="E65" t="s">
-        <v>318</v>
+        <v>211</v>
       </c>
       <c r="F65" t="s">
-        <v>319</v>
+        <v>250</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>138</v>
+        <v>275</v>
       </c>
       <c r="H65">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>21</v>
       </c>
       <c r="I65" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="8"/>
         <v>45646</v>
       </c>
       <c r="J65">
@@ -5235,32 +6375,32 @@
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>149</v>
+        <v>310</v>
       </c>
       <c r="B66" t="s">
-        <v>150</v>
+        <v>311</v>
       </c>
       <c r="C66" t="s">
-        <v>151</v>
+        <v>312</v>
       </c>
       <c r="D66" t="s">
-        <v>152</v>
+        <v>313</v>
       </c>
       <c r="E66" t="s">
-        <v>153</v>
+        <v>318</v>
       </c>
       <c r="F66" t="s">
-        <v>184</v>
+        <v>319</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>186</v>
+        <v>138</v>
       </c>
       <c r="H66">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>21</v>
       </c>
       <c r="I66" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="8"/>
         <v>45646</v>
       </c>
       <c r="J66">
@@ -5270,32 +6410,32 @@
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>385</v>
+        <v>149</v>
       </c>
       <c r="B67" t="s">
-        <v>386</v>
+        <v>150</v>
       </c>
       <c r="C67" t="s">
-        <v>387</v>
+        <v>151</v>
       </c>
       <c r="D67" t="s">
-        <v>388</v>
+        <v>152</v>
       </c>
       <c r="E67" t="s">
-        <v>423</v>
+        <v>153</v>
       </c>
       <c r="F67" t="s">
-        <v>652</v>
+        <v>184</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>275</v>
+        <v>186</v>
       </c>
       <c r="H67">
-        <f t="shared" ref="H55:H118" si="15">INT(J67/3)</f>
+        <f t="shared" si="7"/>
         <v>21</v>
       </c>
       <c r="I67" s="3">
-        <f t="shared" ref="I55:I118" si="16">$L$1+H67</f>
+        <f t="shared" si="8"/>
         <v>45646</v>
       </c>
       <c r="J67">
@@ -5305,32 +6445,32 @@
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>406</v>
+        <v>385</v>
       </c>
       <c r="B68" t="s">
-        <v>407</v>
+        <v>386</v>
       </c>
       <c r="C68" t="s">
-        <v>408</v>
+        <v>387</v>
       </c>
       <c r="D68" t="s">
-        <v>409</v>
+        <v>388</v>
       </c>
       <c r="E68" t="s">
-        <v>410</v>
+        <v>423</v>
       </c>
       <c r="F68" t="s">
-        <v>652</v>
+        <v>641</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>433</v>
+        <v>275</v>
       </c>
       <c r="H68">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>22</v>
       </c>
       <c r="I68" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>45647</v>
       </c>
       <c r="J68">
@@ -5340,29 +6480,32 @@
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>468</v>
+        <v>406</v>
       </c>
       <c r="B69" t="s">
-        <v>469</v>
+        <v>407</v>
       </c>
       <c r="C69" t="s">
-        <v>210</v>
+        <v>408</v>
       </c>
       <c r="D69" t="s">
-        <v>470</v>
+        <v>409</v>
       </c>
       <c r="E69" t="s">
-        <v>471</v>
+        <v>410</v>
       </c>
       <c r="F69" t="s">
-        <v>631</v>
+        <v>641</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>433</v>
       </c>
       <c r="H69">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>22</v>
       </c>
       <c r="I69" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>45647</v>
       </c>
       <c r="J69">
@@ -5372,32 +6515,29 @@
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>245</v>
+        <v>463</v>
       </c>
       <c r="B70" t="s">
-        <v>246</v>
+        <v>468</v>
       </c>
       <c r="C70" t="s">
-        <v>247</v>
+        <v>210</v>
       </c>
       <c r="D70" t="s">
-        <v>248</v>
+        <v>464</v>
       </c>
       <c r="E70" t="s">
-        <v>249</v>
+        <v>1046</v>
       </c>
       <c r="F70" t="s">
-        <v>250</v>
-      </c>
-      <c r="G70" s="1" t="s">
-        <v>141</v>
+        <v>620</v>
       </c>
       <c r="H70">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>22</v>
       </c>
       <c r="I70" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>45647</v>
       </c>
       <c r="J70">
@@ -5407,29 +6547,32 @@
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>213</v>
+        <v>245</v>
       </c>
       <c r="B71" t="s">
-        <v>593</v>
+        <v>246</v>
       </c>
       <c r="C71" t="s">
-        <v>594</v>
+        <v>247</v>
       </c>
       <c r="D71" t="s">
-        <v>595</v>
+        <v>248</v>
       </c>
       <c r="E71" t="s">
-        <v>632</v>
+        <v>249</v>
       </c>
       <c r="F71" t="s">
-        <v>631</v>
+        <v>250</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>141</v>
       </c>
       <c r="H71">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>23</v>
       </c>
       <c r="I71" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>45648</v>
       </c>
       <c r="J71">
@@ -5439,29 +6582,29 @@
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>596</v>
+        <v>213</v>
       </c>
       <c r="B72" t="s">
-        <v>597</v>
+        <v>587</v>
       </c>
       <c r="C72" t="s">
-        <v>598</v>
+        <v>588</v>
       </c>
       <c r="D72" t="s">
-        <v>599</v>
+        <v>589</v>
       </c>
       <c r="E72" t="s">
-        <v>600</v>
+        <v>621</v>
       </c>
       <c r="F72" t="s">
-        <v>631</v>
+        <v>620</v>
       </c>
       <c r="H72">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>23</v>
       </c>
       <c r="I72" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>45648</v>
       </c>
       <c r="J72">
@@ -5471,32 +6614,29 @@
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>419</v>
+        <v>590</v>
       </c>
       <c r="B73" t="s">
-        <v>420</v>
+        <v>591</v>
       </c>
       <c r="C73" t="s">
-        <v>421</v>
+        <v>592</v>
       </c>
       <c r="D73" t="s">
-        <v>422</v>
+        <v>593</v>
       </c>
       <c r="E73" t="s">
-        <v>429</v>
+        <v>594</v>
       </c>
       <c r="F73" t="s">
-        <v>652</v>
-      </c>
-      <c r="G73" s="1" t="s">
-        <v>275</v>
+        <v>620</v>
       </c>
       <c r="H73">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>23</v>
       </c>
       <c r="I73" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>45648</v>
       </c>
       <c r="J73">
@@ -5506,32 +6646,29 @@
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>278</v>
+        <v>846</v>
       </c>
       <c r="B74" t="s">
-        <v>279</v>
+        <v>847</v>
       </c>
       <c r="C74" t="s">
-        <v>280</v>
+        <v>848</v>
       </c>
       <c r="D74" t="s">
-        <v>281</v>
+        <v>849</v>
       </c>
       <c r="E74" t="s">
-        <v>318</v>
+        <v>850</v>
       </c>
       <c r="F74" t="s">
-        <v>319</v>
-      </c>
-      <c r="G74" s="1" t="s">
-        <v>138</v>
+        <v>620</v>
       </c>
       <c r="H74">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>24</v>
       </c>
       <c r="I74" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>45649</v>
       </c>
       <c r="J74">
@@ -5541,32 +6678,32 @@
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>293</v>
+        <v>419</v>
       </c>
       <c r="B75" t="s">
-        <v>294</v>
+        <v>420</v>
       </c>
       <c r="C75" t="s">
-        <v>295</v>
+        <v>421</v>
       </c>
       <c r="D75" t="s">
-        <v>296</v>
+        <v>422</v>
       </c>
       <c r="E75" t="s">
-        <v>297</v>
+        <v>429</v>
       </c>
       <c r="F75" t="s">
-        <v>319</v>
+        <v>641</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>45</v>
+        <v>275</v>
       </c>
       <c r="H75">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>24</v>
       </c>
       <c r="I75" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>45649</v>
       </c>
       <c r="J75">
@@ -5576,16 +6713,16 @@
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>289</v>
+        <v>278</v>
       </c>
       <c r="B76" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
       <c r="C76" t="s">
-        <v>291</v>
+        <v>280</v>
       </c>
       <c r="D76" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="E76" t="s">
         <v>318</v>
@@ -5597,11 +6734,11 @@
         <v>138</v>
       </c>
       <c r="H76">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>24</v>
       </c>
       <c r="I76" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>45649</v>
       </c>
       <c r="J76">
@@ -5611,29 +6748,32 @@
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>496</v>
+        <v>293</v>
       </c>
       <c r="B77" t="s">
-        <v>497</v>
+        <v>294</v>
       </c>
       <c r="C77" t="s">
-        <v>639</v>
+        <v>295</v>
       </c>
       <c r="D77" t="s">
-        <v>640</v>
+        <v>296</v>
       </c>
       <c r="E77" t="s">
-        <v>641</v>
+        <v>297</v>
       </c>
       <c r="F77" t="s">
-        <v>631</v>
+        <v>319</v>
+      </c>
+      <c r="G77" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="H77">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>25</v>
       </c>
       <c r="I77" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>45650</v>
       </c>
       <c r="J77">
@@ -5643,29 +6783,32 @@
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>498</v>
+        <v>289</v>
       </c>
       <c r="B78" t="s">
-        <v>499</v>
+        <v>290</v>
       </c>
       <c r="C78" t="s">
-        <v>304</v>
+        <v>291</v>
       </c>
       <c r="D78" t="s">
-        <v>642</v>
+        <v>292</v>
       </c>
       <c r="E78" t="s">
-        <v>500</v>
+        <v>318</v>
       </c>
       <c r="F78" t="s">
-        <v>631</v>
+        <v>319</v>
+      </c>
+      <c r="G78" s="1" t="s">
+        <v>138</v>
       </c>
       <c r="H78">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>25</v>
       </c>
       <c r="I78" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>45650</v>
       </c>
       <c r="J78">
@@ -5675,32 +6818,29 @@
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>320</v>
+        <v>490</v>
       </c>
       <c r="B79" t="s">
-        <v>321</v>
+        <v>491</v>
       </c>
       <c r="C79" t="s">
-        <v>322</v>
+        <v>628</v>
       </c>
       <c r="D79" t="s">
-        <v>323</v>
+        <v>629</v>
       </c>
       <c r="E79" t="s">
-        <v>324</v>
+        <v>630</v>
       </c>
       <c r="F79" t="s">
-        <v>319</v>
-      </c>
-      <c r="G79" s="1" t="s">
-        <v>138</v>
+        <v>620</v>
       </c>
       <c r="H79">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>25</v>
       </c>
       <c r="I79" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>45650</v>
       </c>
       <c r="J79">
@@ -5710,32 +6850,29 @@
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>48</v>
+        <v>492</v>
       </c>
       <c r="B80" t="s">
-        <v>282</v>
+        <v>493</v>
       </c>
       <c r="C80" t="s">
-        <v>283</v>
+        <v>304</v>
       </c>
       <c r="D80" t="s">
-        <v>284</v>
+        <v>631</v>
       </c>
       <c r="E80" t="s">
-        <v>318</v>
+        <v>494</v>
       </c>
       <c r="F80" t="s">
-        <v>319</v>
-      </c>
-      <c r="G80" s="1" t="s">
-        <v>138</v>
+        <v>620</v>
       </c>
       <c r="H80">
-        <f t="shared" si="15"/>
+        <f t="shared" ref="H80:H143" si="9">INT(J80/3)</f>
         <v>26</v>
       </c>
       <c r="I80" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" ref="I80:I143" si="10">$L$1+H80</f>
         <v>45651</v>
       </c>
       <c r="J80">
@@ -5745,29 +6882,32 @@
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>458</v>
+        <v>320</v>
       </c>
       <c r="B81" t="s">
-        <v>459</v>
+        <v>321</v>
       </c>
       <c r="C81" t="s">
-        <v>460</v>
+        <v>322</v>
       </c>
       <c r="D81" t="s">
-        <v>461</v>
+        <v>323</v>
       </c>
       <c r="E81" t="s">
-        <v>462</v>
+        <v>324</v>
       </c>
       <c r="F81" t="s">
-        <v>631</v>
+        <v>319</v>
+      </c>
+      <c r="G81" s="1" t="s">
+        <v>138</v>
       </c>
       <c r="H81">
-        <f t="shared" si="15"/>
+        <f t="shared" si="9"/>
         <v>26</v>
       </c>
       <c r="I81" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v>45651</v>
       </c>
       <c r="J81">
@@ -5777,29 +6917,32 @@
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>463</v>
+        <v>48</v>
       </c>
       <c r="B82" t="s">
-        <v>464</v>
+        <v>282</v>
       </c>
       <c r="C82" t="s">
-        <v>465</v>
+        <v>283</v>
       </c>
       <c r="D82" t="s">
-        <v>466</v>
+        <v>284</v>
       </c>
       <c r="E82" t="s">
-        <v>467</v>
+        <v>318</v>
       </c>
       <c r="F82" t="s">
-        <v>631</v>
+        <v>319</v>
+      </c>
+      <c r="G82" s="1" t="s">
+        <v>138</v>
       </c>
       <c r="H82">
-        <f t="shared" si="15"/>
+        <f t="shared" si="9"/>
         <v>26</v>
       </c>
       <c r="I82" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v>45651</v>
       </c>
       <c r="J82">
@@ -5809,32 +6952,29 @@
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>389</v>
+        <v>458</v>
       </c>
       <c r="B83" t="s">
-        <v>390</v>
+        <v>459</v>
       </c>
       <c r="C83" t="s">
-        <v>391</v>
+        <v>460</v>
       </c>
       <c r="D83" t="s">
-        <v>392</v>
+        <v>461</v>
       </c>
       <c r="E83" t="s">
-        <v>393</v>
+        <v>462</v>
       </c>
       <c r="F83" t="s">
-        <v>652</v>
-      </c>
-      <c r="G83" s="1" t="s">
-        <v>430</v>
+        <v>620</v>
       </c>
       <c r="H83">
-        <f t="shared" si="15"/>
+        <f t="shared" si="9"/>
         <v>27</v>
       </c>
       <c r="I83" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v>45652</v>
       </c>
       <c r="J83">
@@ -5844,32 +6984,29 @@
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>221</v>
+        <v>463</v>
       </c>
       <c r="B84" t="s">
-        <v>222</v>
+        <v>464</v>
       </c>
       <c r="C84" t="s">
-        <v>223</v>
+        <v>465</v>
       </c>
       <c r="D84" t="s">
-        <v>224</v>
+        <v>466</v>
       </c>
       <c r="E84" t="s">
-        <v>225</v>
+        <v>467</v>
       </c>
       <c r="F84" t="s">
-        <v>250</v>
-      </c>
-      <c r="G84" s="1" t="s">
-        <v>138</v>
+        <v>620</v>
       </c>
       <c r="H84">
-        <f t="shared" si="15"/>
+        <f t="shared" si="9"/>
         <v>27</v>
       </c>
       <c r="I84" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v>45652</v>
       </c>
       <c r="J84">
@@ -5879,29 +7016,32 @@
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>486</v>
+        <v>389</v>
       </c>
       <c r="B85" t="s">
-        <v>487</v>
+        <v>390</v>
       </c>
       <c r="C85" t="s">
-        <v>488</v>
+        <v>391</v>
       </c>
       <c r="D85" t="s">
-        <v>489</v>
+        <v>392</v>
       </c>
       <c r="E85" t="s">
-        <v>490</v>
+        <v>393</v>
       </c>
       <c r="F85" t="s">
-        <v>631</v>
+        <v>641</v>
+      </c>
+      <c r="G85" s="1" t="s">
+        <v>430</v>
       </c>
       <c r="H85">
-        <f t="shared" si="15"/>
+        <f t="shared" si="9"/>
         <v>27</v>
       </c>
       <c r="I85" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v>45652</v>
       </c>
       <c r="J85">
@@ -5911,29 +7051,32 @@
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>491</v>
+        <v>221</v>
       </c>
       <c r="B86" t="s">
-        <v>492</v>
+        <v>222</v>
       </c>
       <c r="C86" t="s">
-        <v>493</v>
+        <v>223</v>
       </c>
       <c r="D86" t="s">
-        <v>494</v>
+        <v>224</v>
       </c>
       <c r="E86" t="s">
-        <v>495</v>
+        <v>225</v>
       </c>
       <c r="F86" t="s">
-        <v>631</v>
+        <v>250</v>
+      </c>
+      <c r="G86" s="1" t="s">
+        <v>138</v>
       </c>
       <c r="H86">
-        <f t="shared" si="15"/>
+        <f t="shared" si="9"/>
         <v>28</v>
       </c>
       <c r="I86" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v>45653</v>
       </c>
       <c r="J86">
@@ -5943,32 +7086,29 @@
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>314</v>
+        <v>480</v>
       </c>
       <c r="B87" t="s">
-        <v>315</v>
+        <v>481</v>
       </c>
       <c r="C87" t="s">
-        <v>316</v>
+        <v>482</v>
       </c>
       <c r="D87" t="s">
-        <v>317</v>
+        <v>483</v>
       </c>
       <c r="E87" t="s">
-        <v>318</v>
+        <v>484</v>
       </c>
       <c r="F87" t="s">
-        <v>319</v>
-      </c>
-      <c r="G87" s="1" t="s">
-        <v>138</v>
+        <v>620</v>
       </c>
       <c r="H87">
-        <f t="shared" si="15"/>
+        <f t="shared" si="9"/>
         <v>28</v>
       </c>
       <c r="I87" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v>45653</v>
       </c>
       <c r="J87">
@@ -5978,32 +7118,29 @@
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>159</v>
+        <v>485</v>
       </c>
       <c r="B88" t="s">
-        <v>160</v>
+        <v>486</v>
       </c>
       <c r="C88" t="s">
-        <v>161</v>
+        <v>487</v>
       </c>
       <c r="D88" t="s">
-        <v>162</v>
+        <v>488</v>
       </c>
       <c r="E88" t="s">
-        <v>163</v>
+        <v>489</v>
       </c>
       <c r="F88" t="s">
-        <v>184</v>
-      </c>
-      <c r="G88" s="1" t="s">
-        <v>143</v>
+        <v>620</v>
       </c>
       <c r="H88">
-        <f t="shared" si="15"/>
+        <f t="shared" si="9"/>
         <v>28</v>
       </c>
       <c r="I88" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v>45653</v>
       </c>
       <c r="J88">
@@ -6013,29 +7150,32 @@
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>501</v>
+        <v>314</v>
       </c>
       <c r="B89" t="s">
-        <v>502</v>
+        <v>315</v>
       </c>
       <c r="C89" t="s">
-        <v>503</v>
+        <v>316</v>
       </c>
       <c r="D89" t="s">
-        <v>504</v>
+        <v>317</v>
       </c>
       <c r="E89" t="s">
-        <v>505</v>
+        <v>318</v>
       </c>
       <c r="F89" t="s">
-        <v>631</v>
+        <v>319</v>
+      </c>
+      <c r="G89" s="1" t="s">
+        <v>138</v>
       </c>
       <c r="H89">
-        <f t="shared" si="15"/>
+        <f t="shared" si="9"/>
         <v>29</v>
       </c>
       <c r="I89" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v>45654</v>
       </c>
       <c r="J89">
@@ -6045,29 +7185,32 @@
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>506</v>
+        <v>159</v>
       </c>
       <c r="B90" t="s">
-        <v>507</v>
+        <v>160</v>
       </c>
       <c r="C90" t="s">
-        <v>508</v>
+        <v>161</v>
       </c>
       <c r="D90" t="s">
-        <v>509</v>
+        <v>162</v>
       </c>
       <c r="E90" t="s">
-        <v>510</v>
+        <v>163</v>
       </c>
       <c r="F90" t="s">
-        <v>631</v>
+        <v>184</v>
+      </c>
+      <c r="G90" s="1" t="s">
+        <v>143</v>
       </c>
       <c r="H90">
-        <f t="shared" si="15"/>
+        <f t="shared" si="9"/>
         <v>29</v>
       </c>
       <c r="I90" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v>45654</v>
       </c>
       <c r="J90">
@@ -6077,29 +7220,29 @@
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>511</v>
+        <v>495</v>
       </c>
       <c r="B91" t="s">
-        <v>512</v>
+        <v>496</v>
       </c>
       <c r="C91" t="s">
-        <v>513</v>
+        <v>497</v>
       </c>
       <c r="D91" t="s">
-        <v>514</v>
+        <v>498</v>
       </c>
       <c r="E91" t="s">
-        <v>515</v>
+        <v>499</v>
       </c>
       <c r="F91" t="s">
-        <v>631</v>
+        <v>620</v>
       </c>
       <c r="H91">
-        <f t="shared" si="15"/>
+        <f t="shared" si="9"/>
         <v>29</v>
       </c>
       <c r="I91" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v>45654</v>
       </c>
       <c r="J91">
@@ -6109,32 +7252,29 @@
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>169</v>
+        <v>500</v>
       </c>
       <c r="B92" t="s">
-        <v>170</v>
+        <v>501</v>
       </c>
       <c r="C92" t="s">
-        <v>171</v>
+        <v>502</v>
       </c>
       <c r="D92" t="s">
-        <v>172</v>
+        <v>503</v>
       </c>
       <c r="E92" t="s">
-        <v>173</v>
+        <v>504</v>
       </c>
       <c r="F92" t="s">
-        <v>184</v>
-      </c>
-      <c r="G92" s="1" t="s">
-        <v>138</v>
+        <v>620</v>
       </c>
       <c r="H92">
-        <f t="shared" si="15"/>
+        <f t="shared" si="9"/>
         <v>30</v>
       </c>
       <c r="I92" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v>45655</v>
       </c>
       <c r="J92">
@@ -6144,32 +7284,29 @@
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>198</v>
+        <v>505</v>
       </c>
       <c r="B93" t="s">
-        <v>199</v>
+        <v>506</v>
       </c>
       <c r="C93" t="s">
-        <v>200</v>
+        <v>507</v>
       </c>
       <c r="D93" t="s">
-        <v>201</v>
+        <v>508</v>
       </c>
       <c r="E93" t="s">
-        <v>202</v>
+        <v>509</v>
       </c>
       <c r="F93" t="s">
-        <v>250</v>
-      </c>
-      <c r="G93" s="1" t="s">
-        <v>138</v>
+        <v>620</v>
       </c>
       <c r="H93">
-        <f t="shared" si="15"/>
+        <f t="shared" si="9"/>
         <v>30</v>
       </c>
       <c r="I93" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v>45655</v>
       </c>
       <c r="J93">
@@ -6179,1155 +7316,1158 @@
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>302</v>
+        <v>169</v>
       </c>
       <c r="B94" t="s">
-        <v>303</v>
+        <v>170</v>
       </c>
       <c r="C94" t="s">
-        <v>304</v>
+        <v>171</v>
       </c>
       <c r="D94" t="s">
-        <v>305</v>
+        <v>172</v>
       </c>
       <c r="E94" t="s">
-        <v>318</v>
+        <v>173</v>
       </c>
       <c r="F94" t="s">
-        <v>319</v>
+        <v>184</v>
       </c>
       <c r="G94" s="1" t="s">
         <v>138</v>
       </c>
       <c r="H94">
-        <f t="shared" si="15"/>
+        <f t="shared" si="9"/>
         <v>30</v>
       </c>
       <c r="I94" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v>45655</v>
       </c>
       <c r="J94">
-        <f t="shared" ref="J94:J137" si="17">J93+1</f>
+        <f t="shared" ref="J94:J157" si="11">J93+1</f>
         <v>92</v>
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>580</v>
+        <v>198</v>
       </c>
       <c r="B95" t="s">
-        <v>581</v>
+        <v>199</v>
       </c>
       <c r="C95" t="s">
-        <v>555</v>
+        <v>200</v>
       </c>
       <c r="D95" t="s">
-        <v>536</v>
+        <v>201</v>
       </c>
       <c r="E95" t="s">
-        <v>162</v>
+        <v>202</v>
       </c>
       <c r="F95" t="s">
-        <v>631</v>
+        <v>250</v>
+      </c>
+      <c r="G95" s="1" t="s">
+        <v>138</v>
       </c>
       <c r="H95">
-        <f t="shared" si="15"/>
+        <f t="shared" si="9"/>
         <v>31</v>
       </c>
       <c r="I95" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v>45656</v>
       </c>
       <c r="J95">
-        <f t="shared" si="17"/>
+        <f t="shared" si="11"/>
         <v>93</v>
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>162</v>
+        <v>302</v>
       </c>
       <c r="B96" t="s">
-        <v>536</v>
+        <v>303</v>
       </c>
       <c r="C96" t="s">
-        <v>582</v>
+        <v>304</v>
       </c>
       <c r="D96" t="s">
-        <v>583</v>
+        <v>305</v>
       </c>
       <c r="E96" t="s">
-        <v>584</v>
+        <v>318</v>
       </c>
       <c r="F96" t="s">
-        <v>631</v>
+        <v>319</v>
+      </c>
+      <c r="G96" s="1" t="s">
+        <v>138</v>
       </c>
       <c r="H96">
-        <f t="shared" si="15"/>
+        <f t="shared" si="9"/>
         <v>31</v>
       </c>
       <c r="I96" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v>45656</v>
       </c>
       <c r="J96">
-        <f t="shared" si="17"/>
+        <f t="shared" si="11"/>
         <v>94</v>
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>585</v>
+        <v>574</v>
       </c>
       <c r="B97" t="s">
-        <v>586</v>
+        <v>575</v>
       </c>
       <c r="C97" t="s">
-        <v>587</v>
+        <v>549</v>
       </c>
       <c r="D97" t="s">
-        <v>151</v>
+        <v>530</v>
       </c>
       <c r="E97" t="s">
-        <v>588</v>
+        <v>162</v>
       </c>
       <c r="F97" t="s">
-        <v>631</v>
+        <v>620</v>
       </c>
       <c r="H97">
-        <f t="shared" si="15"/>
+        <f t="shared" si="9"/>
         <v>31</v>
       </c>
       <c r="I97" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v>45656</v>
       </c>
       <c r="J97">
-        <f t="shared" si="17"/>
+        <f t="shared" si="11"/>
         <v>95</v>
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>395</v>
+        <v>162</v>
       </c>
       <c r="B98" t="s">
-        <v>396</v>
+        <v>530</v>
       </c>
       <c r="C98" t="s">
-        <v>397</v>
+        <v>576</v>
       </c>
       <c r="D98" t="s">
-        <v>398</v>
+        <v>577</v>
       </c>
       <c r="E98" t="s">
-        <v>399</v>
+        <v>578</v>
       </c>
       <c r="F98" t="s">
-        <v>652</v>
-      </c>
-      <c r="G98" s="1" t="s">
-        <v>275</v>
+        <v>620</v>
       </c>
       <c r="H98">
-        <f t="shared" si="15"/>
+        <f t="shared" si="9"/>
         <v>32</v>
       </c>
       <c r="I98" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v>45657</v>
       </c>
       <c r="J98">
-        <f t="shared" si="17"/>
+        <f t="shared" si="11"/>
         <v>96</v>
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>26</v>
+        <v>579</v>
       </c>
       <c r="B99" t="s">
-        <v>27</v>
+        <v>580</v>
       </c>
       <c r="C99" t="s">
-        <v>28</v>
+        <v>581</v>
       </c>
       <c r="D99" t="s">
-        <v>29</v>
+        <v>151</v>
       </c>
       <c r="E99" t="s">
-        <v>30</v>
-      </c>
-      <c r="F99" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="G99" s="1" t="s">
-        <v>46</v>
+        <v>582</v>
+      </c>
+      <c r="F99" t="s">
+        <v>620</v>
       </c>
       <c r="H99">
-        <f t="shared" si="15"/>
+        <f t="shared" si="9"/>
         <v>32</v>
       </c>
       <c r="I99" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v>45657</v>
       </c>
       <c r="J99">
-        <f t="shared" si="17"/>
+        <f t="shared" si="11"/>
         <v>97</v>
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>64</v>
+        <v>395</v>
       </c>
       <c r="B100" t="s">
-        <v>65</v>
+        <v>396</v>
       </c>
       <c r="C100" t="s">
-        <v>66</v>
+        <v>397</v>
       </c>
       <c r="D100" t="s">
-        <v>367</v>
+        <v>398</v>
       </c>
       <c r="E100" t="s">
-        <v>67</v>
-      </c>
-      <c r="F100" s="1" t="s">
-        <v>85</v>
+        <v>399</v>
+      </c>
+      <c r="F100" t="s">
+        <v>641</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>46</v>
+        <v>275</v>
       </c>
       <c r="H100">
-        <f t="shared" si="15"/>
+        <f t="shared" si="9"/>
         <v>32</v>
       </c>
       <c r="I100" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v>45657</v>
       </c>
       <c r="J100">
-        <f t="shared" si="17"/>
+        <f t="shared" si="11"/>
         <v>98</v>
       </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>413</v>
+        <v>26</v>
       </c>
       <c r="B101" t="s">
-        <v>548</v>
+        <v>27</v>
       </c>
       <c r="C101" t="s">
-        <v>412</v>
+        <v>28</v>
       </c>
       <c r="D101" t="s">
-        <v>414</v>
+        <v>29</v>
       </c>
       <c r="E101" t="s">
-        <v>549</v>
-      </c>
-      <c r="F101" t="s">
-        <v>631</v>
+        <v>30</v>
+      </c>
+      <c r="F101" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="G101" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="H101">
-        <f t="shared" si="15"/>
+        <f t="shared" si="9"/>
         <v>33</v>
       </c>
       <c r="I101" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v>45658</v>
       </c>
       <c r="J101">
-        <f t="shared" si="17"/>
+        <f t="shared" si="11"/>
         <v>99</v>
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>550</v>
+        <v>64</v>
       </c>
       <c r="B102" t="s">
-        <v>551</v>
+        <v>65</v>
       </c>
       <c r="C102" t="s">
-        <v>552</v>
+        <v>66</v>
       </c>
       <c r="D102" t="s">
-        <v>553</v>
+        <v>367</v>
       </c>
       <c r="E102" t="s">
-        <v>554</v>
-      </c>
-      <c r="F102" t="s">
-        <v>631</v>
+        <v>67</v>
+      </c>
+      <c r="F102" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G102" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="H102">
-        <f t="shared" si="15"/>
+        <f t="shared" si="9"/>
         <v>33</v>
       </c>
       <c r="I102" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v>45658</v>
       </c>
       <c r="J102">
-        <f t="shared" si="17"/>
+        <f t="shared" si="11"/>
         <v>100</v>
       </c>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>486</v>
+        <v>413</v>
       </c>
       <c r="B103" t="s">
-        <v>394</v>
+        <v>542</v>
       </c>
       <c r="C103" t="s">
-        <v>555</v>
+        <v>412</v>
       </c>
       <c r="D103" t="s">
-        <v>556</v>
+        <v>414</v>
       </c>
       <c r="E103" t="s">
-        <v>557</v>
+        <v>543</v>
       </c>
       <c r="F103" t="s">
-        <v>631</v>
+        <v>620</v>
       </c>
       <c r="H103">
-        <f t="shared" si="15"/>
+        <f t="shared" si="9"/>
         <v>33</v>
       </c>
       <c r="I103" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v>45658</v>
       </c>
       <c r="J103">
-        <f t="shared" si="17"/>
+        <f t="shared" si="11"/>
         <v>101</v>
       </c>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>558</v>
+        <v>544</v>
       </c>
       <c r="B104" t="s">
-        <v>559</v>
+        <v>545</v>
       </c>
       <c r="C104" t="s">
-        <v>560</v>
+        <v>546</v>
       </c>
       <c r="D104" t="s">
-        <v>561</v>
+        <v>547</v>
       </c>
       <c r="E104" t="s">
-        <v>562</v>
+        <v>548</v>
       </c>
       <c r="F104" t="s">
-        <v>631</v>
+        <v>620</v>
       </c>
       <c r="H104">
-        <f t="shared" si="15"/>
+        <f t="shared" si="9"/>
         <v>34</v>
       </c>
       <c r="I104" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v>45659</v>
       </c>
       <c r="J104">
-        <f t="shared" si="17"/>
+        <f t="shared" si="11"/>
         <v>102</v>
       </c>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>563</v>
+        <v>480</v>
       </c>
       <c r="B105" t="s">
-        <v>564</v>
+        <v>394</v>
       </c>
       <c r="C105" t="s">
-        <v>565</v>
+        <v>549</v>
       </c>
       <c r="D105" t="s">
-        <v>566</v>
+        <v>550</v>
       </c>
       <c r="E105" t="s">
-        <v>567</v>
+        <v>551</v>
       </c>
       <c r="F105" t="s">
-        <v>631</v>
+        <v>620</v>
       </c>
       <c r="H105">
-        <f t="shared" si="15"/>
+        <f t="shared" si="9"/>
         <v>34</v>
       </c>
       <c r="I105" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v>45659</v>
       </c>
       <c r="J105">
-        <f t="shared" si="17"/>
+        <f t="shared" si="11"/>
         <v>103</v>
       </c>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>179</v>
+        <v>552</v>
       </c>
       <c r="B106" t="s">
-        <v>180</v>
+        <v>553</v>
       </c>
       <c r="C106" t="s">
-        <v>181</v>
+        <v>554</v>
       </c>
       <c r="D106" t="s">
-        <v>182</v>
+        <v>555</v>
       </c>
       <c r="E106" t="s">
-        <v>183</v>
+        <v>556</v>
       </c>
       <c r="F106" t="s">
-        <v>184</v>
-      </c>
-      <c r="G106" s="1" t="s">
-        <v>185</v>
+        <v>620</v>
       </c>
       <c r="H106">
-        <f t="shared" si="15"/>
+        <f t="shared" si="9"/>
         <v>34</v>
       </c>
       <c r="I106" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v>45659</v>
       </c>
       <c r="J106">
-        <f t="shared" si="17"/>
+        <f t="shared" si="11"/>
         <v>104</v>
       </c>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>48</v>
+        <v>557</v>
       </c>
       <c r="B107" t="s">
-        <v>49</v>
+        <v>558</v>
       </c>
       <c r="C107" t="s">
-        <v>50</v>
+        <v>559</v>
       </c>
       <c r="D107" t="s">
-        <v>51</v>
+        <v>560</v>
       </c>
       <c r="E107" t="s">
-        <v>52</v>
-      </c>
-      <c r="F107" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="G107" s="1" t="s">
-        <v>86</v>
+        <v>561</v>
+      </c>
+      <c r="F107" t="s">
+        <v>620</v>
       </c>
       <c r="H107">
-        <f t="shared" si="15"/>
+        <f t="shared" si="9"/>
         <v>35</v>
       </c>
       <c r="I107" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v>45660</v>
       </c>
       <c r="J107">
-        <f t="shared" si="17"/>
+        <f t="shared" si="11"/>
         <v>105</v>
       </c>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>226</v>
+        <v>179</v>
       </c>
       <c r="B108" t="s">
-        <v>227</v>
+        <v>180</v>
       </c>
       <c r="C108" t="s">
-        <v>228</v>
+        <v>181</v>
       </c>
       <c r="D108" t="s">
-        <v>229</v>
+        <v>182</v>
       </c>
       <c r="E108" t="s">
-        <v>230</v>
+        <v>183</v>
       </c>
       <c r="F108" t="s">
-        <v>250</v>
+        <v>184</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>277</v>
+        <v>185</v>
       </c>
       <c r="H108">
-        <f t="shared" si="15"/>
+        <f t="shared" si="9"/>
         <v>35</v>
       </c>
       <c r="I108" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v>45660</v>
       </c>
       <c r="J108">
-        <f t="shared" si="17"/>
+        <f t="shared" si="11"/>
         <v>106</v>
       </c>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>174</v>
+        <v>48</v>
       </c>
       <c r="B109" t="s">
-        <v>175</v>
+        <v>49</v>
       </c>
       <c r="C109" t="s">
-        <v>176</v>
+        <v>50</v>
       </c>
       <c r="D109" t="s">
-        <v>177</v>
+        <v>51</v>
       </c>
       <c r="E109" t="s">
-        <v>178</v>
-      </c>
-      <c r="F109" t="s">
-        <v>184</v>
+        <v>52</v>
+      </c>
+      <c r="F109" s="1" t="s">
+        <v>85</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>185</v>
+        <v>86</v>
       </c>
       <c r="H109">
-        <f t="shared" si="15"/>
+        <f t="shared" si="9"/>
         <v>35</v>
       </c>
       <c r="I109" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v>45660</v>
       </c>
       <c r="J109">
-        <f t="shared" si="17"/>
+        <f t="shared" si="11"/>
         <v>107</v>
       </c>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>621</v>
+        <v>226</v>
       </c>
       <c r="B110" t="s">
-        <v>622</v>
+        <v>227</v>
       </c>
       <c r="C110" t="s">
-        <v>623</v>
+        <v>228</v>
       </c>
       <c r="D110" t="s">
-        <v>624</v>
+        <v>229</v>
       </c>
       <c r="E110" t="s">
-        <v>625</v>
+        <v>230</v>
       </c>
       <c r="F110" t="s">
-        <v>631</v>
+        <v>250</v>
+      </c>
+      <c r="G110" s="1" t="s">
+        <v>277</v>
       </c>
       <c r="H110">
-        <f t="shared" si="15"/>
+        <f t="shared" si="9"/>
         <v>36</v>
       </c>
       <c r="I110" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v>45661</v>
       </c>
       <c r="J110">
-        <f t="shared" si="17"/>
+        <f t="shared" si="11"/>
         <v>108</v>
       </c>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>531</v>
+        <v>174</v>
       </c>
       <c r="B111" t="s">
-        <v>470</v>
+        <v>175</v>
       </c>
       <c r="C111" t="s">
-        <v>532</v>
+        <v>176</v>
       </c>
       <c r="D111" t="s">
-        <v>533</v>
+        <v>177</v>
       </c>
       <c r="E111" t="s">
-        <v>534</v>
+        <v>178</v>
       </c>
       <c r="F111" t="s">
-        <v>631</v>
+        <v>184</v>
+      </c>
+      <c r="G111" s="1" t="s">
+        <v>185</v>
       </c>
       <c r="H111">
-        <f t="shared" si="15"/>
+        <f t="shared" si="9"/>
         <v>36</v>
       </c>
       <c r="I111" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v>45661</v>
       </c>
       <c r="J111">
-        <f t="shared" si="17"/>
+        <f t="shared" si="11"/>
         <v>109</v>
       </c>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>626</v>
+        <v>610</v>
       </c>
       <c r="B112" t="s">
-        <v>627</v>
+        <v>611</v>
       </c>
       <c r="C112" t="s">
-        <v>628</v>
+        <v>612</v>
       </c>
       <c r="D112" t="s">
-        <v>629</v>
+        <v>613</v>
       </c>
       <c r="E112" t="s">
-        <v>630</v>
+        <v>614</v>
       </c>
       <c r="F112" t="s">
-        <v>631</v>
+        <v>620</v>
       </c>
       <c r="H112">
-        <f t="shared" si="15"/>
+        <f t="shared" si="9"/>
         <v>36</v>
       </c>
       <c r="I112" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v>45661</v>
       </c>
       <c r="J112">
-        <f t="shared" si="17"/>
+        <f t="shared" si="11"/>
         <v>110</v>
       </c>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>400</v>
+        <v>525</v>
       </c>
       <c r="B113" t="s">
-        <v>401</v>
+        <v>469</v>
       </c>
       <c r="C113" t="s">
-        <v>402</v>
+        <v>526</v>
       </c>
       <c r="D113" t="s">
-        <v>403</v>
-      </c>
-      <c r="E113" s="7" t="s">
-        <v>426</v>
+        <v>527</v>
+      </c>
+      <c r="E113" t="s">
+        <v>528</v>
       </c>
       <c r="F113" t="s">
-        <v>652</v>
-      </c>
-      <c r="G113" s="1" t="s">
-        <v>87</v>
+        <v>620</v>
       </c>
       <c r="H113">
-        <f t="shared" si="15"/>
+        <f t="shared" si="9"/>
         <v>37</v>
       </c>
       <c r="I113" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v>45662</v>
       </c>
       <c r="J113">
-        <f t="shared" si="17"/>
+        <f t="shared" si="11"/>
         <v>111</v>
       </c>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>568</v>
+        <v>615</v>
       </c>
       <c r="B114" t="s">
-        <v>569</v>
+        <v>616</v>
       </c>
       <c r="C114" t="s">
-        <v>414</v>
+        <v>617</v>
       </c>
       <c r="D114" t="s">
-        <v>570</v>
+        <v>618</v>
       </c>
       <c r="E114" t="s">
-        <v>645</v>
+        <v>619</v>
       </c>
       <c r="F114" t="s">
-        <v>631</v>
+        <v>620</v>
       </c>
       <c r="H114">
-        <f t="shared" si="15"/>
+        <f t="shared" si="9"/>
         <v>37</v>
       </c>
       <c r="I114" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v>45662</v>
       </c>
       <c r="J114">
-        <f t="shared" si="17"/>
+        <f t="shared" si="11"/>
         <v>112</v>
       </c>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>571</v>
+        <v>400</v>
       </c>
       <c r="B115" t="s">
-        <v>572</v>
+        <v>401</v>
       </c>
       <c r="C115" t="s">
-        <v>573</v>
+        <v>402</v>
       </c>
       <c r="D115" t="s">
-        <v>574</v>
-      </c>
-      <c r="E115" t="s">
-        <v>575</v>
+        <v>403</v>
+      </c>
+      <c r="E115" s="7" t="s">
+        <v>426</v>
       </c>
       <c r="F115" t="s">
-        <v>631</v>
+        <v>641</v>
+      </c>
+      <c r="G115" s="1" t="s">
+        <v>87</v>
       </c>
       <c r="H115">
-        <f t="shared" si="15"/>
+        <f t="shared" si="9"/>
         <v>37</v>
       </c>
       <c r="I115" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v>45662</v>
       </c>
       <c r="J115">
-        <f t="shared" si="17"/>
+        <f t="shared" si="11"/>
         <v>113</v>
       </c>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>576</v>
+        <v>562</v>
       </c>
       <c r="B116" t="s">
-        <v>577</v>
+        <v>563</v>
       </c>
       <c r="C116" t="s">
-        <v>578</v>
+        <v>414</v>
       </c>
       <c r="D116" t="s">
-        <v>579</v>
+        <v>564</v>
       </c>
       <c r="E116" t="s">
-        <v>644</v>
+        <v>634</v>
       </c>
       <c r="F116" t="s">
-        <v>631</v>
+        <v>620</v>
       </c>
       <c r="H116">
-        <f t="shared" si="15"/>
+        <f t="shared" si="9"/>
         <v>38</v>
       </c>
       <c r="I116" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v>45663</v>
       </c>
       <c r="J116">
-        <f t="shared" si="17"/>
+        <f t="shared" si="11"/>
         <v>114</v>
       </c>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>270</v>
+        <v>565</v>
       </c>
       <c r="B117" t="s">
-        <v>271</v>
+        <v>566</v>
       </c>
       <c r="C117" t="s">
-        <v>272</v>
+        <v>567</v>
       </c>
       <c r="D117" t="s">
-        <v>273</v>
+        <v>568</v>
       </c>
       <c r="E117" t="s">
-        <v>274</v>
-      </c>
-      <c r="F117" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="G117" s="1" t="s">
-        <v>8</v>
+        <v>569</v>
+      </c>
+      <c r="F117" t="s">
+        <v>620</v>
       </c>
       <c r="H117">
-        <f t="shared" si="15"/>
+        <f t="shared" si="9"/>
         <v>38</v>
       </c>
       <c r="I117" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v>45663</v>
       </c>
       <c r="J117">
-        <f t="shared" si="17"/>
+        <f t="shared" si="11"/>
         <v>115</v>
       </c>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>236</v>
+        <v>570</v>
       </c>
       <c r="B118" t="s">
-        <v>237</v>
+        <v>571</v>
       </c>
       <c r="C118" t="s">
-        <v>238</v>
+        <v>572</v>
       </c>
       <c r="D118" t="s">
-        <v>239</v>
+        <v>573</v>
       </c>
       <c r="E118" t="s">
-        <v>240</v>
+        <v>633</v>
       </c>
       <c r="F118" t="s">
-        <v>250</v>
-      </c>
-      <c r="G118" s="1" t="s">
-        <v>8</v>
+        <v>620</v>
       </c>
       <c r="H118">
-        <f t="shared" si="15"/>
+        <f t="shared" si="9"/>
         <v>38</v>
       </c>
       <c r="I118" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v>45663</v>
       </c>
       <c r="J118">
-        <f t="shared" si="17"/>
+        <f t="shared" si="11"/>
         <v>116</v>
       </c>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>306</v>
+        <v>270</v>
       </c>
       <c r="B119" t="s">
-        <v>307</v>
+        <v>271</v>
       </c>
       <c r="C119" t="s">
-        <v>308</v>
+        <v>272</v>
       </c>
       <c r="D119" t="s">
-        <v>309</v>
+        <v>273</v>
       </c>
       <c r="E119" t="s">
-        <v>318</v>
-      </c>
-      <c r="F119" t="s">
-        <v>319</v>
+        <v>274</v>
+      </c>
+      <c r="F119" s="1" t="s">
+        <v>85</v>
       </c>
       <c r="G119" s="1" t="s">
-        <v>138</v>
+        <v>8</v>
       </c>
       <c r="H119">
-        <f t="shared" ref="H119:H137" si="18">INT(J119/3)</f>
+        <f t="shared" si="9"/>
         <v>39</v>
       </c>
       <c r="I119" s="3">
-        <f t="shared" ref="I119:I137" si="19">$L$1+H119</f>
+        <f t="shared" si="10"/>
         <v>45664</v>
       </c>
       <c r="J119">
-        <f t="shared" si="17"/>
+        <f t="shared" si="11"/>
         <v>117</v>
       </c>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>606</v>
+        <v>236</v>
       </c>
       <c r="B120" t="s">
-        <v>607</v>
+        <v>237</v>
       </c>
       <c r="C120" t="s">
-        <v>608</v>
+        <v>238</v>
       </c>
       <c r="D120" t="s">
-        <v>609</v>
+        <v>239</v>
       </c>
       <c r="E120" t="s">
-        <v>610</v>
+        <v>240</v>
       </c>
       <c r="F120" t="s">
-        <v>631</v>
+        <v>250</v>
+      </c>
+      <c r="G120" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="H120">
-        <f t="shared" si="18"/>
+        <f t="shared" si="9"/>
         <v>39</v>
       </c>
       <c r="I120" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="10"/>
         <v>45664</v>
       </c>
       <c r="J120">
-        <f t="shared" si="17"/>
+        <f t="shared" si="11"/>
         <v>118</v>
       </c>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>611</v>
+        <v>306</v>
       </c>
       <c r="B121" t="s">
-        <v>612</v>
+        <v>307</v>
       </c>
       <c r="C121" t="s">
-        <v>613</v>
+        <v>308</v>
       </c>
       <c r="D121" t="s">
-        <v>614</v>
+        <v>309</v>
       </c>
       <c r="E121" t="s">
-        <v>615</v>
+        <v>318</v>
       </c>
       <c r="F121" t="s">
-        <v>631</v>
+        <v>319</v>
+      </c>
+      <c r="G121" s="1" t="s">
+        <v>138</v>
       </c>
       <c r="H121">
-        <f t="shared" si="18"/>
+        <f t="shared" si="9"/>
         <v>39</v>
       </c>
       <c r="I121" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="10"/>
         <v>45664</v>
       </c>
       <c r="J121">
-        <f t="shared" si="17"/>
+        <f t="shared" si="11"/>
         <v>119</v>
       </c>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>361</v>
+        <v>600</v>
       </c>
       <c r="B122" t="s">
-        <v>362</v>
+        <v>601</v>
       </c>
       <c r="C122" t="s">
-        <v>285</v>
+        <v>602</v>
       </c>
       <c r="D122" t="s">
-        <v>286</v>
+        <v>603</v>
       </c>
       <c r="E122" t="s">
-        <v>318</v>
+        <v>604</v>
       </c>
       <c r="F122" t="s">
-        <v>319</v>
-      </c>
-      <c r="G122" s="1" t="s">
-        <v>138</v>
+        <v>620</v>
       </c>
       <c r="H122">
-        <f t="shared" si="18"/>
+        <f t="shared" si="9"/>
         <v>40</v>
       </c>
       <c r="I122" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="10"/>
         <v>45665</v>
       </c>
       <c r="J122">
-        <f t="shared" si="17"/>
+        <f t="shared" si="11"/>
         <v>120</v>
       </c>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>652</v>
+        <v>361</v>
       </c>
       <c r="B123" t="s">
-        <v>427</v>
+        <v>362</v>
       </c>
       <c r="C123" t="s">
-        <v>404</v>
+        <v>285</v>
       </c>
       <c r="D123" t="s">
-        <v>405</v>
+        <v>286</v>
       </c>
       <c r="E123" t="s">
-        <v>432</v>
+        <v>318</v>
       </c>
       <c r="F123" t="s">
-        <v>652</v>
+        <v>319</v>
       </c>
       <c r="G123" s="1" t="s">
-        <v>431</v>
+        <v>138</v>
       </c>
       <c r="H123">
-        <f t="shared" si="18"/>
+        <f t="shared" si="9"/>
         <v>40</v>
       </c>
       <c r="I123" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="10"/>
         <v>45665</v>
       </c>
       <c r="J123">
-        <f t="shared" si="17"/>
+        <f t="shared" si="11"/>
         <v>121</v>
       </c>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>261</v>
+        <v>641</v>
       </c>
       <c r="B124" t="s">
-        <v>262</v>
+        <v>427</v>
       </c>
       <c r="C124" t="s">
-        <v>263</v>
+        <v>404</v>
       </c>
       <c r="D124" t="s">
-        <v>243</v>
+        <v>405</v>
       </c>
       <c r="E124" t="s">
-        <v>264</v>
-      </c>
-      <c r="F124" s="1" t="s">
-        <v>85</v>
+        <v>432</v>
+      </c>
+      <c r="F124" t="s">
+        <v>641</v>
       </c>
       <c r="G124" s="1" t="s">
-        <v>143</v>
+        <v>431</v>
       </c>
       <c r="H124">
-        <f t="shared" si="18"/>
+        <f t="shared" si="9"/>
         <v>40</v>
       </c>
       <c r="I124" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="10"/>
         <v>45665</v>
       </c>
       <c r="J124">
-        <f t="shared" si="17"/>
+        <f t="shared" si="11"/>
         <v>122</v>
       </c>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>203</v>
+        <v>261</v>
       </c>
       <c r="B125" t="s">
-        <v>241</v>
+        <v>262</v>
       </c>
       <c r="C125" t="s">
-        <v>242</v>
+        <v>263</v>
       </c>
       <c r="D125" t="s">
         <v>243</v>
       </c>
       <c r="E125" t="s">
-        <v>244</v>
-      </c>
-      <c r="F125" t="s">
-        <v>250</v>
+        <v>264</v>
+      </c>
+      <c r="F125" s="1" t="s">
+        <v>85</v>
       </c>
       <c r="G125" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="H125">
-        <f t="shared" si="18"/>
+        <f t="shared" si="9"/>
         <v>41</v>
       </c>
       <c r="I125" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="10"/>
         <v>45666</v>
       </c>
       <c r="J125">
-        <f t="shared" si="17"/>
+        <f t="shared" si="11"/>
         <v>123</v>
       </c>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>616</v>
+        <v>203</v>
       </c>
       <c r="B126" t="s">
-        <v>617</v>
+        <v>241</v>
       </c>
       <c r="C126" t="s">
-        <v>618</v>
+        <v>242</v>
       </c>
       <c r="D126" t="s">
-        <v>619</v>
+        <v>243</v>
       </c>
       <c r="E126" t="s">
-        <v>620</v>
+        <v>244</v>
       </c>
       <c r="F126" t="s">
-        <v>631</v>
+        <v>250</v>
+      </c>
+      <c r="G126" s="1" t="s">
+        <v>141</v>
       </c>
       <c r="H126">
-        <f t="shared" si="18"/>
+        <f t="shared" si="9"/>
         <v>41</v>
       </c>
       <c r="I126" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="10"/>
         <v>45666</v>
       </c>
       <c r="J126">
-        <f t="shared" si="17"/>
+        <f t="shared" si="11"/>
         <v>124</v>
       </c>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>287</v>
+        <v>605</v>
       </c>
       <c r="B127" t="s">
-        <v>363</v>
+        <v>606</v>
       </c>
       <c r="C127" t="s">
-        <v>288</v>
+        <v>607</v>
       </c>
       <c r="D127" t="s">
-        <v>364</v>
+        <v>608</v>
       </c>
       <c r="E127" t="s">
-        <v>318</v>
+        <v>609</v>
       </c>
       <c r="F127" t="s">
-        <v>319</v>
-      </c>
-      <c r="G127" s="1" t="s">
-        <v>138</v>
+        <v>620</v>
       </c>
       <c r="H127">
-        <f t="shared" si="18"/>
+        <f t="shared" si="9"/>
         <v>41</v>
       </c>
       <c r="I127" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="10"/>
         <v>45666</v>
       </c>
       <c r="J127">
-        <f t="shared" si="17"/>
+        <f t="shared" si="11"/>
         <v>125</v>
       </c>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>298</v>
+        <v>287</v>
       </c>
       <c r="B128" t="s">
-        <v>299</v>
+        <v>363</v>
       </c>
       <c r="C128" t="s">
-        <v>300</v>
+        <v>288</v>
       </c>
       <c r="D128" t="s">
-        <v>301</v>
+        <v>364</v>
       </c>
       <c r="E128" t="s">
         <v>318</v>
@@ -7339,333 +8479,3089 @@
         <v>138</v>
       </c>
       <c r="H128">
-        <f t="shared" si="18"/>
+        <f t="shared" si="9"/>
         <v>42</v>
       </c>
       <c r="I128" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="10"/>
         <v>45667</v>
       </c>
       <c r="J128">
-        <f t="shared" si="17"/>
+        <f t="shared" si="11"/>
         <v>126</v>
       </c>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>216</v>
+        <v>298</v>
       </c>
       <c r="B129" t="s">
-        <v>217</v>
+        <v>299</v>
       </c>
       <c r="C129" t="s">
-        <v>218</v>
+        <v>300</v>
       </c>
       <c r="D129" t="s">
-        <v>219</v>
+        <v>301</v>
       </c>
       <c r="E129" t="s">
-        <v>220</v>
+        <v>318</v>
       </c>
       <c r="F129" t="s">
-        <v>250</v>
+        <v>319</v>
       </c>
       <c r="G129" s="1" t="s">
-        <v>8</v>
+        <v>138</v>
       </c>
       <c r="H129">
-        <f t="shared" si="18"/>
+        <f t="shared" si="9"/>
         <v>42</v>
       </c>
       <c r="I129" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="10"/>
         <v>45667</v>
       </c>
       <c r="J129">
-        <f t="shared" si="17"/>
+        <f t="shared" si="11"/>
         <v>127</v>
       </c>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>144</v>
+        <v>216</v>
       </c>
       <c r="B130" t="s">
-        <v>145</v>
+        <v>217</v>
       </c>
       <c r="C130" t="s">
-        <v>146</v>
+        <v>218</v>
       </c>
       <c r="D130" t="s">
-        <v>147</v>
+        <v>219</v>
       </c>
       <c r="E130" t="s">
-        <v>148</v>
+        <v>220</v>
       </c>
       <c r="F130" t="s">
-        <v>184</v>
+        <v>250</v>
       </c>
       <c r="G130" s="1" t="s">
-        <v>185</v>
+        <v>8</v>
       </c>
       <c r="H130">
-        <f t="shared" si="18"/>
+        <f t="shared" si="9"/>
         <v>42</v>
       </c>
       <c r="I130" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="10"/>
         <v>45667</v>
       </c>
       <c r="J130">
-        <f t="shared" si="17"/>
+        <f t="shared" si="11"/>
         <v>128</v>
       </c>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>68</v>
+        <v>144</v>
       </c>
       <c r="B131" t="s">
-        <v>69</v>
+        <v>145</v>
       </c>
       <c r="C131" t="s">
-        <v>70</v>
+        <v>146</v>
       </c>
       <c r="D131" t="s">
-        <v>71</v>
+        <v>147</v>
       </c>
       <c r="E131" t="s">
-        <v>72</v>
-      </c>
-      <c r="F131" s="1" t="s">
-        <v>85</v>
+        <v>148</v>
+      </c>
+      <c r="F131" t="s">
+        <v>184</v>
       </c>
       <c r="G131" s="1" t="s">
-        <v>87</v>
+        <v>185</v>
       </c>
       <c r="H131">
-        <f t="shared" si="18"/>
+        <f t="shared" si="9"/>
         <v>43</v>
       </c>
       <c r="I131" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="10"/>
         <v>45668</v>
       </c>
       <c r="J131">
-        <f t="shared" si="17"/>
+        <f t="shared" si="11"/>
         <v>129</v>
       </c>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>436</v>
+        <v>68</v>
       </c>
       <c r="B132" t="s">
-        <v>437</v>
+        <v>69</v>
       </c>
       <c r="C132" t="s">
-        <v>438</v>
+        <v>70</v>
       </c>
       <c r="D132" t="s">
-        <v>439</v>
+        <v>71</v>
       </c>
       <c r="E132" t="s">
-        <v>440</v>
+        <v>72</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>441</v>
+        <v>85</v>
       </c>
       <c r="G132" s="1" t="s">
-        <v>186</v>
+        <v>87</v>
       </c>
       <c r="H132">
-        <f t="shared" si="18"/>
+        <f t="shared" si="9"/>
         <v>43</v>
       </c>
       <c r="I132" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="10"/>
         <v>45668</v>
       </c>
       <c r="J132">
-        <f t="shared" si="17"/>
+        <f t="shared" si="11"/>
         <v>130</v>
       </c>
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>198</v>
+        <v>436</v>
       </c>
       <c r="B133" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="C133" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="D133" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="E133" t="s">
-        <v>445</v>
-      </c>
-      <c r="F133" t="s">
-        <v>446</v>
+        <v>440</v>
+      </c>
+      <c r="F133" s="1" t="s">
+        <v>441</v>
       </c>
       <c r="G133" s="1" t="s">
-        <v>138</v>
+        <v>186</v>
       </c>
       <c r="H133">
-        <f t="shared" si="18"/>
+        <f t="shared" si="9"/>
         <v>43</v>
       </c>
       <c r="I133" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="10"/>
         <v>45668</v>
       </c>
       <c r="J133">
-        <f t="shared" si="17"/>
+        <f t="shared" si="11"/>
         <v>131</v>
       </c>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>447</v>
+        <v>198</v>
       </c>
       <c r="B134" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="C134" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="D134" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="E134" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="F134" t="s">
         <v>446</v>
       </c>
       <c r="G134" s="1" t="s">
-        <v>431</v>
+        <v>138</v>
       </c>
       <c r="H134">
-        <f t="shared" si="18"/>
+        <f t="shared" si="9"/>
         <v>44</v>
       </c>
       <c r="I134" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="10"/>
         <v>45669</v>
       </c>
       <c r="J134">
-        <f t="shared" si="17"/>
+        <f t="shared" si="11"/>
         <v>132</v>
       </c>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="B135" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="C135" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="D135" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="E135" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="F135" t="s">
-        <v>441</v>
+        <v>446</v>
       </c>
       <c r="G135" s="1" t="s">
-        <v>457</v>
+        <v>431</v>
       </c>
       <c r="H135">
-        <f t="shared" si="18"/>
+        <f t="shared" si="9"/>
         <v>44</v>
       </c>
       <c r="I135" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="10"/>
         <v>45669</v>
       </c>
       <c r="J135">
-        <f t="shared" si="17"/>
+        <f t="shared" si="11"/>
         <v>133</v>
       </c>
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>634</v>
+        <v>452</v>
       </c>
       <c r="B136" t="s">
-        <v>232</v>
+        <v>453</v>
       </c>
       <c r="C136" t="s">
-        <v>635</v>
+        <v>454</v>
       </c>
       <c r="D136" t="s">
-        <v>231</v>
+        <v>455</v>
       </c>
       <c r="E136" t="s">
-        <v>636</v>
+        <v>456</v>
       </c>
       <c r="F136" t="s">
-        <v>631</v>
+        <v>441</v>
+      </c>
+      <c r="G136" s="1" t="s">
+        <v>457</v>
       </c>
       <c r="H136">
-        <f t="shared" si="18"/>
+        <f t="shared" si="9"/>
         <v>44</v>
       </c>
       <c r="I136" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="10"/>
         <v>45669</v>
       </c>
       <c r="J136">
-        <f t="shared" si="17"/>
+        <f t="shared" si="11"/>
         <v>134</v>
       </c>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
+        <v>623</v>
+      </c>
+      <c r="B137" t="s">
+        <v>232</v>
+      </c>
+      <c r="C137" t="s">
+        <v>624</v>
+      </c>
+      <c r="D137" t="s">
+        <v>231</v>
+      </c>
+      <c r="E137" t="s">
+        <v>625</v>
+      </c>
+      <c r="F137" t="s">
+        <v>620</v>
+      </c>
+      <c r="H137">
+        <f t="shared" si="9"/>
+        <v>45</v>
+      </c>
+      <c r="I137" s="3">
+        <f t="shared" si="10"/>
+        <v>45670</v>
+      </c>
+      <c r="J137">
+        <f t="shared" si="11"/>
+        <v>135</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
         <v>31</v>
       </c>
-      <c r="B137" t="s">
+      <c r="B138" t="s">
         <v>32</v>
       </c>
-      <c r="C137" t="s">
+      <c r="C138" t="s">
         <v>64</v>
       </c>
-      <c r="D137" t="s">
+      <c r="D138" t="s">
         <v>43</v>
       </c>
-      <c r="E137" t="s">
+      <c r="E138" t="s">
+        <v>657</v>
+      </c>
+      <c r="F138" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="G138" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H138">
+        <f t="shared" si="9"/>
+        <v>45</v>
+      </c>
+      <c r="I138" s="3">
+        <f t="shared" si="10"/>
+        <v>45670</v>
+      </c>
+      <c r="J138">
+        <f t="shared" si="11"/>
+        <v>136</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
+        <v>682</v>
+      </c>
+      <c r="B139" t="s">
+        <v>683</v>
+      </c>
+      <c r="C139" t="s">
+        <v>684</v>
+      </c>
+      <c r="D139" t="s">
+        <v>685</v>
+      </c>
+      <c r="E139" t="s">
+        <v>686</v>
+      </c>
+      <c r="F139" t="s">
+        <v>620</v>
+      </c>
+      <c r="G139" s="1"/>
+      <c r="H139">
+        <f t="shared" si="9"/>
+        <v>45</v>
+      </c>
+      <c r="I139" s="3">
+        <f t="shared" si="10"/>
+        <v>45670</v>
+      </c>
+      <c r="J139">
+        <f t="shared" si="11"/>
+        <v>137</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
+        <v>667</v>
+      </c>
+      <c r="B140" t="s">
+        <v>668</v>
+      </c>
+      <c r="C140" t="s">
         <v>669</v>
       </c>
-      <c r="F137" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="G137" s="1" t="s">
+      <c r="D140" t="s">
+        <v>670</v>
+      </c>
+      <c r="E140" t="s">
+        <v>671</v>
+      </c>
+      <c r="F140" t="s">
+        <v>620</v>
+      </c>
+      <c r="H140">
+        <f t="shared" si="9"/>
+        <v>46</v>
+      </c>
+      <c r="I140" s="3">
+        <f t="shared" si="10"/>
+        <v>45671</v>
+      </c>
+      <c r="J140">
+        <f t="shared" si="11"/>
+        <v>138</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A141" t="s">
+        <v>672</v>
+      </c>
+      <c r="B141" t="s">
+        <v>673</v>
+      </c>
+      <c r="C141" t="s">
+        <v>674</v>
+      </c>
+      <c r="D141" t="s">
+        <v>675</v>
+      </c>
+      <c r="E141" t="s">
+        <v>676</v>
+      </c>
+      <c r="F141" t="s">
+        <v>620</v>
+      </c>
+      <c r="H141">
+        <f t="shared" si="9"/>
+        <v>46</v>
+      </c>
+      <c r="I141" s="3">
+        <f t="shared" si="10"/>
+        <v>45671</v>
+      </c>
+      <c r="J141">
+        <f t="shared" si="11"/>
+        <v>139</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A142" t="s">
+        <v>677</v>
+      </c>
+      <c r="B142" t="s">
+        <v>678</v>
+      </c>
+      <c r="C142" t="s">
+        <v>679</v>
+      </c>
+      <c r="D142" t="s">
+        <v>680</v>
+      </c>
+      <c r="E142" t="s">
+        <v>681</v>
+      </c>
+      <c r="F142" t="s">
+        <v>620</v>
+      </c>
+      <c r="H142">
+        <f t="shared" si="9"/>
+        <v>46</v>
+      </c>
+      <c r="I142" s="3">
+        <f t="shared" si="10"/>
+        <v>45671</v>
+      </c>
+      <c r="J142">
+        <f t="shared" si="11"/>
+        <v>140</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A143" t="s">
+        <v>687</v>
+      </c>
+      <c r="B143" t="s">
+        <v>688</v>
+      </c>
+      <c r="C143" t="s">
+        <v>689</v>
+      </c>
+      <c r="D143" t="s">
+        <v>690</v>
+      </c>
+      <c r="E143" t="s">
+        <v>691</v>
+      </c>
+      <c r="F143" t="s">
+        <v>620</v>
+      </c>
+      <c r="H143">
+        <f t="shared" si="9"/>
         <v>47</v>
       </c>
-      <c r="H137">
-        <f t="shared" si="18"/>
-        <v>45</v>
-      </c>
-      <c r="I137" s="3">
-        <f t="shared" si="19"/>
-        <v>45670</v>
-      </c>
-      <c r="J137">
+      <c r="I143" s="3">
+        <f t="shared" si="10"/>
+        <v>45672</v>
+      </c>
+      <c r="J143">
+        <f t="shared" si="11"/>
+        <v>141</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A144" t="s">
+        <v>692</v>
+      </c>
+      <c r="B144" t="s">
+        <v>228</v>
+      </c>
+      <c r="C144" t="s">
+        <v>693</v>
+      </c>
+      <c r="D144" t="s">
+        <v>694</v>
+      </c>
+      <c r="E144" t="s">
+        <v>695</v>
+      </c>
+      <c r="F144" t="s">
+        <v>620</v>
+      </c>
+      <c r="H144">
+        <f t="shared" ref="H144:H207" si="12">INT(J144/3)</f>
+        <v>47</v>
+      </c>
+      <c r="I144" s="3">
+        <f t="shared" ref="I144:I207" si="13">$L$1+H144</f>
+        <v>45672</v>
+      </c>
+      <c r="J144">
+        <f t="shared" si="11"/>
+        <v>142</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A145" t="s">
+        <v>696</v>
+      </c>
+      <c r="B145" t="s">
+        <v>697</v>
+      </c>
+      <c r="C145" t="s">
+        <v>698</v>
+      </c>
+      <c r="D145" t="s">
+        <v>699</v>
+      </c>
+      <c r="E145" t="s">
+        <v>700</v>
+      </c>
+      <c r="F145" t="s">
+        <v>620</v>
+      </c>
+      <c r="H145">
+        <f t="shared" si="12"/>
+        <v>47</v>
+      </c>
+      <c r="I145" s="3">
+        <f t="shared" si="13"/>
+        <v>45672</v>
+      </c>
+      <c r="J145">
+        <f t="shared" si="11"/>
+        <v>143</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A146" t="s">
+        <v>701</v>
+      </c>
+      <c r="B146" t="s">
+        <v>702</v>
+      </c>
+      <c r="C146" t="s">
+        <v>703</v>
+      </c>
+      <c r="D146" t="s">
+        <v>704</v>
+      </c>
+      <c r="E146" t="s">
+        <v>705</v>
+      </c>
+      <c r="F146" t="s">
+        <v>620</v>
+      </c>
+      <c r="H146">
+        <f t="shared" si="12"/>
+        <v>48</v>
+      </c>
+      <c r="I146" s="3">
+        <f t="shared" si="13"/>
+        <v>45673</v>
+      </c>
+      <c r="J146">
+        <f t="shared" si="11"/>
+        <v>144</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A147" t="s">
+        <v>706</v>
+      </c>
+      <c r="B147" t="s">
+        <v>640</v>
+      </c>
+      <c r="C147" t="s">
+        <v>707</v>
+      </c>
+      <c r="D147" t="s">
+        <v>708</v>
+      </c>
+      <c r="E147" t="s">
+        <v>709</v>
+      </c>
+      <c r="F147" t="s">
+        <v>620</v>
+      </c>
+      <c r="H147">
+        <f t="shared" si="12"/>
+        <v>48</v>
+      </c>
+      <c r="I147" s="3">
+        <f t="shared" si="13"/>
+        <v>45673</v>
+      </c>
+      <c r="J147">
+        <f t="shared" si="11"/>
+        <v>145</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A148" t="s">
+        <v>710</v>
+      </c>
+      <c r="B148" t="s">
+        <v>711</v>
+      </c>
+      <c r="C148" t="s">
+        <v>712</v>
+      </c>
+      <c r="D148" t="s">
+        <v>713</v>
+      </c>
+      <c r="E148" t="s">
+        <v>714</v>
+      </c>
+      <c r="F148" t="s">
+        <v>620</v>
+      </c>
+      <c r="H148">
+        <f t="shared" si="12"/>
+        <v>48</v>
+      </c>
+      <c r="I148" s="3">
+        <f t="shared" si="13"/>
+        <v>45673</v>
+      </c>
+      <c r="J148">
+        <f t="shared" si="11"/>
+        <v>146</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A149" t="s">
+        <v>715</v>
+      </c>
+      <c r="B149" t="s">
+        <v>716</v>
+      </c>
+      <c r="C149" t="s">
+        <v>717</v>
+      </c>
+      <c r="D149" t="s">
+        <v>718</v>
+      </c>
+      <c r="E149" t="s">
+        <v>719</v>
+      </c>
+      <c r="F149" t="s">
+        <v>620</v>
+      </c>
+      <c r="H149">
+        <f t="shared" si="12"/>
+        <v>49</v>
+      </c>
+      <c r="I149" s="3">
+        <f t="shared" si="13"/>
+        <v>45674</v>
+      </c>
+      <c r="J149">
+        <f t="shared" si="11"/>
+        <v>147</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A150" t="s">
+        <v>720</v>
+      </c>
+      <c r="B150" t="s">
+        <v>721</v>
+      </c>
+      <c r="C150" t="s">
+        <v>722</v>
+      </c>
+      <c r="D150" t="s">
+        <v>723</v>
+      </c>
+      <c r="E150" t="s">
+        <v>724</v>
+      </c>
+      <c r="F150" t="s">
+        <v>620</v>
+      </c>
+      <c r="H150">
+        <f t="shared" si="12"/>
+        <v>49</v>
+      </c>
+      <c r="I150" s="3">
+        <f t="shared" si="13"/>
+        <v>45674</v>
+      </c>
+      <c r="J150">
+        <f t="shared" si="11"/>
+        <v>148</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A151" t="s">
+        <v>725</v>
+      </c>
+      <c r="B151" t="s">
+        <v>726</v>
+      </c>
+      <c r="C151" t="s">
+        <v>727</v>
+      </c>
+      <c r="D151" t="s">
+        <v>728</v>
+      </c>
+      <c r="E151" t="s">
+        <v>729</v>
+      </c>
+      <c r="F151" t="s">
+        <v>620</v>
+      </c>
+      <c r="H151">
+        <f t="shared" si="12"/>
+        <v>49</v>
+      </c>
+      <c r="I151" s="3">
+        <f t="shared" si="13"/>
+        <v>45674</v>
+      </c>
+      <c r="J151">
+        <f t="shared" si="11"/>
+        <v>149</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A152" t="s">
+        <v>730</v>
+      </c>
+      <c r="B152" t="s">
+        <v>731</v>
+      </c>
+      <c r="C152" t="s">
+        <v>732</v>
+      </c>
+      <c r="D152" t="s">
+        <v>733</v>
+      </c>
+      <c r="E152" t="s">
+        <v>734</v>
+      </c>
+      <c r="F152" t="s">
+        <v>620</v>
+      </c>
+      <c r="H152">
+        <f t="shared" si="12"/>
+        <v>50</v>
+      </c>
+      <c r="I152" s="3">
+        <f t="shared" si="13"/>
+        <v>45675</v>
+      </c>
+      <c r="J152">
+        <f t="shared" si="11"/>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A153" t="s">
+        <v>735</v>
+      </c>
+      <c r="B153" t="s">
+        <v>736</v>
+      </c>
+      <c r="C153" t="s">
+        <v>737</v>
+      </c>
+      <c r="D153" t="s">
+        <v>738</v>
+      </c>
+      <c r="E153" t="s">
+        <v>246</v>
+      </c>
+      <c r="F153" t="s">
+        <v>620</v>
+      </c>
+      <c r="H153">
+        <f t="shared" si="12"/>
+        <v>50</v>
+      </c>
+      <c r="I153" s="3">
+        <f t="shared" si="13"/>
+        <v>45675</v>
+      </c>
+      <c r="J153">
+        <f t="shared" si="11"/>
+        <v>151</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A154" t="s">
+        <v>739</v>
+      </c>
+      <c r="B154" t="s">
+        <v>740</v>
+      </c>
+      <c r="C154" t="s">
+        <v>596</v>
+      </c>
+      <c r="D154" t="s">
+        <v>741</v>
+      </c>
+      <c r="E154" t="s">
+        <v>742</v>
+      </c>
+      <c r="F154" t="s">
+        <v>620</v>
+      </c>
+      <c r="H154">
+        <f t="shared" si="12"/>
+        <v>50</v>
+      </c>
+      <c r="I154" s="3">
+        <f t="shared" si="13"/>
+        <v>45675</v>
+      </c>
+      <c r="J154">
+        <f t="shared" si="11"/>
+        <v>152</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A155" t="s">
+        <v>743</v>
+      </c>
+      <c r="B155" t="s">
+        <v>744</v>
+      </c>
+      <c r="C155" t="s">
+        <v>745</v>
+      </c>
+      <c r="D155" t="s">
+        <v>746</v>
+      </c>
+      <c r="E155" t="s">
+        <v>747</v>
+      </c>
+      <c r="F155" t="s">
+        <v>620</v>
+      </c>
+      <c r="H155">
+        <f t="shared" si="12"/>
+        <v>51</v>
+      </c>
+      <c r="I155" s="3">
+        <f t="shared" si="13"/>
+        <v>45676</v>
+      </c>
+      <c r="J155">
+        <f t="shared" si="11"/>
+        <v>153</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A156" t="s">
+        <v>748</v>
+      </c>
+      <c r="B156" t="s">
+        <v>749</v>
+      </c>
+      <c r="C156" t="s">
+        <v>750</v>
+      </c>
+      <c r="D156" t="s">
+        <v>751</v>
+      </c>
+      <c r="E156" t="s">
+        <v>752</v>
+      </c>
+      <c r="F156" t="s">
+        <v>620</v>
+      </c>
+      <c r="H156">
+        <f t="shared" si="12"/>
+        <v>51</v>
+      </c>
+      <c r="I156" s="3">
+        <f t="shared" si="13"/>
+        <v>45676</v>
+      </c>
+      <c r="J156">
+        <f t="shared" si="11"/>
+        <v>154</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A157" t="s">
+        <v>753</v>
+      </c>
+      <c r="B157" t="s">
+        <v>754</v>
+      </c>
+      <c r="C157" t="s">
+        <v>755</v>
+      </c>
+      <c r="D157" t="s">
+        <v>756</v>
+      </c>
+      <c r="E157" t="s">
+        <v>757</v>
+      </c>
+      <c r="F157" t="s">
+        <v>620</v>
+      </c>
+      <c r="H157">
+        <f t="shared" si="12"/>
+        <v>51</v>
+      </c>
+      <c r="I157" s="3">
+        <f t="shared" si="13"/>
+        <v>45676</v>
+      </c>
+      <c r="J157">
+        <f t="shared" si="11"/>
+        <v>155</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A158" t="s">
+        <v>758</v>
+      </c>
+      <c r="B158" t="s">
+        <v>759</v>
+      </c>
+      <c r="C158" t="s">
+        <v>760</v>
+      </c>
+      <c r="D158" t="s">
+        <v>761</v>
+      </c>
+      <c r="E158" t="s">
+        <v>762</v>
+      </c>
+      <c r="F158" t="s">
+        <v>641</v>
+      </c>
+      <c r="H158">
+        <f t="shared" si="12"/>
+        <v>52</v>
+      </c>
+      <c r="I158" s="3">
+        <f t="shared" si="13"/>
+        <v>45677</v>
+      </c>
+      <c r="J158">
+        <f t="shared" ref="J158:J221" si="14">J157+1</f>
+        <v>156</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A159" t="s">
+        <v>763</v>
+      </c>
+      <c r="B159" t="s">
+        <v>764</v>
+      </c>
+      <c r="C159" t="s">
+        <v>765</v>
+      </c>
+      <c r="D159" t="s">
+        <v>766</v>
+      </c>
+      <c r="E159" t="s">
+        <v>762</v>
+      </c>
+      <c r="F159" t="s">
+        <v>641</v>
+      </c>
+      <c r="H159">
+        <f t="shared" si="12"/>
+        <v>52</v>
+      </c>
+      <c r="I159" s="3">
+        <f t="shared" si="13"/>
+        <v>45677</v>
+      </c>
+      <c r="J159">
+        <f t="shared" si="14"/>
+        <v>157</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A160" t="s">
+        <v>767</v>
+      </c>
+      <c r="B160" t="s">
+        <v>768</v>
+      </c>
+      <c r="C160" t="s">
+        <v>769</v>
+      </c>
+      <c r="D160" t="s">
+        <v>770</v>
+      </c>
+      <c r="E160" t="s">
+        <v>771</v>
+      </c>
+      <c r="F160" t="s">
+        <v>641</v>
+      </c>
+      <c r="H160">
+        <f t="shared" si="12"/>
+        <v>52</v>
+      </c>
+      <c r="I160" s="3">
+        <f t="shared" si="13"/>
+        <v>45677</v>
+      </c>
+      <c r="J160">
+        <f t="shared" si="14"/>
+        <v>158</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A161" t="s">
+        <v>772</v>
+      </c>
+      <c r="B161" t="s">
+        <v>773</v>
+      </c>
+      <c r="C161" t="s">
+        <v>774</v>
+      </c>
+      <c r="D161" t="s">
+        <v>775</v>
+      </c>
+      <c r="E161" t="s">
+        <v>776</v>
+      </c>
+      <c r="F161" t="s">
+        <v>620</v>
+      </c>
+      <c r="H161">
+        <f t="shared" si="12"/>
+        <v>53</v>
+      </c>
+      <c r="I161" s="3">
+        <f t="shared" si="13"/>
+        <v>45678</v>
+      </c>
+      <c r="J161">
+        <f t="shared" si="14"/>
+        <v>159</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A162" t="s">
+        <v>777</v>
+      </c>
+      <c r="B162" t="s">
+        <v>778</v>
+      </c>
+      <c r="C162" t="s">
+        <v>779</v>
+      </c>
+      <c r="D162" t="s">
+        <v>780</v>
+      </c>
+      <c r="E162" t="s">
+        <v>781</v>
+      </c>
+      <c r="F162" t="s">
+        <v>641</v>
+      </c>
+      <c r="H162">
+        <f t="shared" si="12"/>
+        <v>53</v>
+      </c>
+      <c r="I162" s="3">
+        <f t="shared" si="13"/>
+        <v>45678</v>
+      </c>
+      <c r="J162">
+        <f t="shared" si="14"/>
+        <v>160</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A163" t="s">
+        <v>782</v>
+      </c>
+      <c r="B163" t="s">
+        <v>783</v>
+      </c>
+      <c r="C163" t="s">
+        <v>293</v>
+      </c>
+      <c r="D163" t="s">
+        <v>784</v>
+      </c>
+      <c r="E163" t="s">
+        <v>785</v>
+      </c>
+      <c r="F163" t="s">
+        <v>641</v>
+      </c>
+      <c r="H163">
+        <f t="shared" si="12"/>
+        <v>53</v>
+      </c>
+      <c r="I163" s="3">
+        <f t="shared" si="13"/>
+        <v>45678</v>
+      </c>
+      <c r="J163">
+        <f t="shared" si="14"/>
+        <v>161</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A164" t="s">
+        <v>767</v>
+      </c>
+      <c r="B164" t="s">
+        <v>768</v>
+      </c>
+      <c r="C164" t="s">
+        <v>769</v>
+      </c>
+      <c r="D164" t="s">
+        <v>770</v>
+      </c>
+      <c r="E164" t="s">
+        <v>771</v>
+      </c>
+      <c r="F164" t="s">
+        <v>641</v>
+      </c>
+      <c r="H164">
+        <f t="shared" si="12"/>
+        <v>54</v>
+      </c>
+      <c r="I164" s="3">
+        <f t="shared" si="13"/>
+        <v>45679</v>
+      </c>
+      <c r="J164">
+        <f t="shared" si="14"/>
+        <v>162</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A165" t="s">
+        <v>786</v>
+      </c>
+      <c r="B165" t="s">
+        <v>787</v>
+      </c>
+      <c r="C165" t="s">
+        <v>788</v>
+      </c>
+      <c r="D165" t="s">
+        <v>789</v>
+      </c>
+      <c r="E165" t="s">
+        <v>790</v>
+      </c>
+      <c r="F165" t="s">
+        <v>641</v>
+      </c>
+      <c r="H165">
+        <f t="shared" si="12"/>
+        <v>54</v>
+      </c>
+      <c r="I165" s="3">
+        <f t="shared" si="13"/>
+        <v>45679</v>
+      </c>
+      <c r="J165">
+        <f t="shared" si="14"/>
+        <v>163</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A166" t="s">
+        <v>550</v>
+      </c>
+      <c r="B166" t="s">
+        <v>791</v>
+      </c>
+      <c r="C166" t="s">
+        <v>792</v>
+      </c>
+      <c r="D166" t="s">
+        <v>793</v>
+      </c>
+      <c r="E166" t="s">
+        <v>794</v>
+      </c>
+      <c r="F166" t="s">
+        <v>641</v>
+      </c>
+      <c r="H166">
+        <f t="shared" si="12"/>
+        <v>54</v>
+      </c>
+      <c r="I166" s="3">
+        <f t="shared" si="13"/>
+        <v>45679</v>
+      </c>
+      <c r="J166">
+        <f t="shared" si="14"/>
+        <v>164</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A167" t="s">
+        <v>795</v>
+      </c>
+      <c r="B167" t="s">
+        <v>796</v>
+      </c>
+      <c r="C167" t="s">
+        <v>797</v>
+      </c>
+      <c r="D167" t="s">
+        <v>798</v>
+      </c>
+      <c r="E167" t="s">
+        <v>799</v>
+      </c>
+      <c r="F167" t="s">
+        <v>620</v>
+      </c>
+      <c r="H167">
+        <f t="shared" si="12"/>
+        <v>55</v>
+      </c>
+      <c r="I167" s="3">
+        <f t="shared" si="13"/>
+        <v>45680</v>
+      </c>
+      <c r="J167">
+        <f t="shared" si="14"/>
+        <v>165</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A168" t="s">
+        <v>800</v>
+      </c>
+      <c r="B168" t="s">
+        <v>801</v>
+      </c>
+      <c r="C168" t="s">
+        <v>802</v>
+      </c>
+      <c r="D168" t="s">
+        <v>803</v>
+      </c>
+      <c r="E168" t="s">
+        <v>804</v>
+      </c>
+      <c r="F168" t="s">
+        <v>620</v>
+      </c>
+      <c r="H168">
+        <f t="shared" si="12"/>
+        <v>55</v>
+      </c>
+      <c r="I168" s="3">
+        <f t="shared" si="13"/>
+        <v>45680</v>
+      </c>
+      <c r="J168">
+        <f t="shared" si="14"/>
+        <v>166</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A169" t="s">
+        <v>805</v>
+      </c>
+      <c r="B169" t="s">
+        <v>526</v>
+      </c>
+      <c r="C169" t="s">
+        <v>806</v>
+      </c>
+      <c r="D169" t="s">
+        <v>807</v>
+      </c>
+      <c r="E169" t="s">
+        <v>808</v>
+      </c>
+      <c r="F169" t="s">
+        <v>620</v>
+      </c>
+      <c r="H169">
+        <f t="shared" si="12"/>
+        <v>55</v>
+      </c>
+      <c r="I169" s="3">
+        <f t="shared" si="13"/>
+        <v>45680</v>
+      </c>
+      <c r="J169">
+        <f t="shared" si="14"/>
+        <v>167</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A170" t="s">
+        <v>809</v>
+      </c>
+      <c r="B170" t="s">
+        <v>810</v>
+      </c>
+      <c r="C170" t="s">
+        <v>811</v>
+      </c>
+      <c r="D170" t="s">
+        <v>812</v>
+      </c>
+      <c r="E170" t="s">
+        <v>813</v>
+      </c>
+      <c r="F170" t="s">
+        <v>620</v>
+      </c>
+      <c r="H170">
+        <f t="shared" si="12"/>
+        <v>56</v>
+      </c>
+      <c r="I170" s="3">
+        <f t="shared" si="13"/>
+        <v>45681</v>
+      </c>
+      <c r="J170">
+        <f t="shared" si="14"/>
+        <v>168</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A171" t="s">
+        <v>814</v>
+      </c>
+      <c r="B171" t="s">
+        <v>815</v>
+      </c>
+      <c r="C171" t="s">
+        <v>816</v>
+      </c>
+      <c r="D171" t="s">
+        <v>817</v>
+      </c>
+      <c r="E171" t="s">
+        <v>818</v>
+      </c>
+      <c r="F171" t="s">
+        <v>620</v>
+      </c>
+      <c r="H171">
+        <f t="shared" si="12"/>
+        <v>56</v>
+      </c>
+      <c r="I171" s="3">
+        <f t="shared" si="13"/>
+        <v>45681</v>
+      </c>
+      <c r="J171">
+        <f t="shared" si="14"/>
+        <v>169</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A172" t="s">
+        <v>406</v>
+      </c>
+      <c r="B172" t="s">
+        <v>819</v>
+      </c>
+      <c r="C172" t="s">
+        <v>820</v>
+      </c>
+      <c r="D172" t="s">
+        <v>821</v>
+      </c>
+      <c r="E172" t="s">
+        <v>103</v>
+      </c>
+      <c r="F172" t="s">
+        <v>620</v>
+      </c>
+      <c r="H172">
+        <f t="shared" si="12"/>
+        <v>56</v>
+      </c>
+      <c r="I172" s="3">
+        <f t="shared" si="13"/>
+        <v>45681</v>
+      </c>
+      <c r="J172">
+        <f t="shared" si="14"/>
+        <v>170</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A173" t="s">
+        <v>822</v>
+      </c>
+      <c r="B173" t="s">
+        <v>823</v>
+      </c>
+      <c r="C173" t="s">
+        <v>824</v>
+      </c>
+      <c r="D173" t="s">
+        <v>825</v>
+      </c>
+      <c r="E173" t="s">
+        <v>826</v>
+      </c>
+      <c r="F173" t="s">
+        <v>620</v>
+      </c>
+      <c r="H173">
+        <f t="shared" si="12"/>
+        <v>57</v>
+      </c>
+      <c r="I173" s="3">
+        <f t="shared" si="13"/>
+        <v>45682</v>
+      </c>
+      <c r="J173">
+        <f t="shared" si="14"/>
+        <v>171</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A174" t="s">
+        <v>827</v>
+      </c>
+      <c r="B174" t="s">
+        <v>828</v>
+      </c>
+      <c r="C174" t="s">
+        <v>829</v>
+      </c>
+      <c r="D174" t="s">
+        <v>830</v>
+      </c>
+      <c r="E174" t="s">
+        <v>831</v>
+      </c>
+      <c r="F174" t="s">
+        <v>620</v>
+      </c>
+      <c r="H174">
+        <f t="shared" si="12"/>
+        <v>57</v>
+      </c>
+      <c r="I174" s="3">
+        <f t="shared" si="13"/>
+        <v>45682</v>
+      </c>
+      <c r="J174">
+        <f t="shared" si="14"/>
+        <v>172</v>
+      </c>
+    </row>
+    <row r="175" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A175" t="s">
+        <v>832</v>
+      </c>
+      <c r="B175" t="s">
+        <v>833</v>
+      </c>
+      <c r="C175" t="s">
+        <v>834</v>
+      </c>
+      <c r="D175" t="s">
+        <v>835</v>
+      </c>
+      <c r="E175" t="s">
+        <v>836</v>
+      </c>
+      <c r="F175" t="s">
+        <v>620</v>
+      </c>
+      <c r="H175">
+        <f t="shared" si="12"/>
+        <v>57</v>
+      </c>
+      <c r="I175" s="3">
+        <f t="shared" si="13"/>
+        <v>45682</v>
+      </c>
+      <c r="J175">
+        <f t="shared" si="14"/>
+        <v>173</v>
+      </c>
+    </row>
+    <row r="176" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A176" t="s">
+        <v>837</v>
+      </c>
+      <c r="B176" t="s">
+        <v>301</v>
+      </c>
+      <c r="C176" t="s">
+        <v>838</v>
+      </c>
+      <c r="D176" t="s">
+        <v>839</v>
+      </c>
+      <c r="E176" t="s">
+        <v>840</v>
+      </c>
+      <c r="F176" t="s">
+        <v>620</v>
+      </c>
+      <c r="H176">
+        <f t="shared" si="12"/>
+        <v>58</v>
+      </c>
+      <c r="I176" s="3">
+        <f t="shared" si="13"/>
+        <v>45683</v>
+      </c>
+      <c r="J176">
+        <f t="shared" si="14"/>
+        <v>174</v>
+      </c>
+    </row>
+    <row r="177" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A177" t="s">
+        <v>841</v>
+      </c>
+      <c r="B177" t="s">
+        <v>842</v>
+      </c>
+      <c r="C177" t="s">
+        <v>843</v>
+      </c>
+      <c r="D177" t="s">
+        <v>844</v>
+      </c>
+      <c r="E177" t="s">
+        <v>845</v>
+      </c>
+      <c r="F177" t="s">
+        <v>620</v>
+      </c>
+      <c r="H177">
+        <f t="shared" si="12"/>
+        <v>58</v>
+      </c>
+      <c r="I177" s="3">
+        <f t="shared" si="13"/>
+        <v>45683</v>
+      </c>
+      <c r="J177">
+        <f t="shared" si="14"/>
+        <v>175</v>
+      </c>
+    </row>
+    <row r="178" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A178" t="s">
+        <v>851</v>
+      </c>
+      <c r="B178" t="s">
+        <v>530</v>
+      </c>
+      <c r="C178" t="s">
+        <v>852</v>
+      </c>
+      <c r="D178" t="s">
+        <v>853</v>
+      </c>
+      <c r="E178" t="s">
+        <v>854</v>
+      </c>
+      <c r="F178" t="s">
+        <v>620</v>
+      </c>
+      <c r="H178">
+        <f t="shared" si="12"/>
+        <v>58</v>
+      </c>
+      <c r="I178" s="3">
+        <f t="shared" si="13"/>
+        <v>45683</v>
+      </c>
+      <c r="J178">
+        <f t="shared" si="14"/>
+        <v>176</v>
+      </c>
+    </row>
+    <row r="179" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A179" t="s">
+        <v>855</v>
+      </c>
+      <c r="B179" t="s">
+        <v>856</v>
+      </c>
+      <c r="C179" t="s">
+        <v>857</v>
+      </c>
+      <c r="D179" t="s">
+        <v>858</v>
+      </c>
+      <c r="E179" t="s">
+        <v>859</v>
+      </c>
+      <c r="F179" t="s">
+        <v>620</v>
+      </c>
+      <c r="H179">
+        <f t="shared" si="12"/>
+        <v>59</v>
+      </c>
+      <c r="I179" s="3">
+        <f t="shared" si="13"/>
+        <v>45684</v>
+      </c>
+      <c r="J179">
+        <f t="shared" si="14"/>
+        <v>177</v>
+      </c>
+    </row>
+    <row r="180" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A180" t="s">
+        <v>860</v>
+      </c>
+      <c r="B180" t="s">
+        <v>861</v>
+      </c>
+      <c r="C180" t="s">
+        <v>862</v>
+      </c>
+      <c r="D180" t="s">
+        <v>863</v>
+      </c>
+      <c r="E180" t="s">
+        <v>864</v>
+      </c>
+      <c r="F180" t="s">
+        <v>641</v>
+      </c>
+      <c r="H180">
+        <f t="shared" si="12"/>
+        <v>59</v>
+      </c>
+      <c r="I180" s="3">
+        <f t="shared" si="13"/>
+        <v>45684</v>
+      </c>
+      <c r="J180">
+        <f t="shared" si="14"/>
+        <v>178</v>
+      </c>
+    </row>
+    <row r="181" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A181" t="s">
+        <v>865</v>
+      </c>
+      <c r="B181" t="s">
+        <v>866</v>
+      </c>
+      <c r="C181" t="s">
+        <v>867</v>
+      </c>
+      <c r="D181" t="s">
+        <v>868</v>
+      </c>
+      <c r="E181" t="s">
+        <v>869</v>
+      </c>
+      <c r="F181" t="s">
+        <v>641</v>
+      </c>
+      <c r="H181">
+        <f t="shared" si="12"/>
+        <v>59</v>
+      </c>
+      <c r="I181" s="3">
+        <f t="shared" si="13"/>
+        <v>45684</v>
+      </c>
+      <c r="J181">
+        <f t="shared" si="14"/>
+        <v>179</v>
+      </c>
+    </row>
+    <row r="182" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A182" t="s">
+        <v>763</v>
+      </c>
+      <c r="B182" t="s">
+        <v>764</v>
+      </c>
+      <c r="C182" t="s">
+        <v>765</v>
+      </c>
+      <c r="D182" t="s">
+        <v>766</v>
+      </c>
+      <c r="E182" t="s">
+        <v>762</v>
+      </c>
+      <c r="F182" t="s">
+        <v>641</v>
+      </c>
+      <c r="H182">
+        <f t="shared" si="12"/>
+        <v>60</v>
+      </c>
+      <c r="I182" s="3">
+        <f t="shared" si="13"/>
+        <v>45685</v>
+      </c>
+      <c r="J182">
+        <f t="shared" si="14"/>
+        <v>180</v>
+      </c>
+    </row>
+    <row r="183" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A183" t="s">
+        <v>870</v>
+      </c>
+      <c r="B183" t="s">
+        <v>871</v>
+      </c>
+      <c r="C183" t="s">
+        <v>872</v>
+      </c>
+      <c r="D183" t="s">
+        <v>873</v>
+      </c>
+      <c r="E183" t="s">
+        <v>874</v>
+      </c>
+      <c r="F183" t="s">
+        <v>620</v>
+      </c>
+      <c r="H183">
+        <f t="shared" si="12"/>
+        <v>60</v>
+      </c>
+      <c r="I183" s="3">
+        <f t="shared" si="13"/>
+        <v>45685</v>
+      </c>
+      <c r="J183">
+        <f t="shared" si="14"/>
+        <v>181</v>
+      </c>
+    </row>
+    <row r="184" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A184" t="s">
+        <v>875</v>
+      </c>
+      <c r="B184" t="s">
+        <v>876</v>
+      </c>
+      <c r="C184" t="s">
+        <v>877</v>
+      </c>
+      <c r="D184" t="s">
+        <v>878</v>
+      </c>
+      <c r="E184" t="s">
+        <v>879</v>
+      </c>
+      <c r="F184" t="s">
+        <v>620</v>
+      </c>
+      <c r="H184">
+        <f t="shared" si="12"/>
+        <v>60</v>
+      </c>
+      <c r="I184" s="3">
+        <f t="shared" si="13"/>
+        <v>45685</v>
+      </c>
+      <c r="J184">
+        <f t="shared" si="14"/>
+        <v>182</v>
+      </c>
+    </row>
+    <row r="185" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A185" t="s">
+        <v>880</v>
+      </c>
+      <c r="B185" t="s">
+        <v>881</v>
+      </c>
+      <c r="C185" t="s">
+        <v>882</v>
+      </c>
+      <c r="D185" t="s">
+        <v>883</v>
+      </c>
+      <c r="E185" t="s">
+        <v>884</v>
+      </c>
+      <c r="F185" t="s">
+        <v>620</v>
+      </c>
+      <c r="H185">
+        <f t="shared" si="12"/>
+        <v>61</v>
+      </c>
+      <c r="I185" s="3">
+        <f t="shared" si="13"/>
+        <v>45686</v>
+      </c>
+      <c r="J185">
+        <f t="shared" si="14"/>
+        <v>183</v>
+      </c>
+    </row>
+    <row r="186" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A186" t="s">
+        <v>885</v>
+      </c>
+      <c r="B186" t="s">
+        <v>886</v>
+      </c>
+      <c r="C186" t="s">
+        <v>887</v>
+      </c>
+      <c r="D186" t="s">
+        <v>888</v>
+      </c>
+      <c r="E186" t="s">
+        <v>889</v>
+      </c>
+      <c r="F186" t="s">
+        <v>620</v>
+      </c>
+      <c r="H186">
+        <f t="shared" si="12"/>
+        <v>61</v>
+      </c>
+      <c r="I186" s="3">
+        <f t="shared" si="13"/>
+        <v>45686</v>
+      </c>
+      <c r="J186">
+        <f t="shared" si="14"/>
+        <v>184</v>
+      </c>
+    </row>
+    <row r="187" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A187" t="s">
+        <v>890</v>
+      </c>
+      <c r="B187" t="s">
+        <v>891</v>
+      </c>
+      <c r="C187" t="s">
+        <v>892</v>
+      </c>
+      <c r="D187" t="s">
+        <v>893</v>
+      </c>
+      <c r="E187" t="s">
+        <v>894</v>
+      </c>
+      <c r="F187" t="s">
+        <v>620</v>
+      </c>
+      <c r="H187">
+        <f t="shared" si="12"/>
+        <v>61</v>
+      </c>
+      <c r="I187" s="3">
+        <f t="shared" si="13"/>
+        <v>45686</v>
+      </c>
+      <c r="J187">
+        <f t="shared" si="14"/>
+        <v>185</v>
+      </c>
+    </row>
+    <row r="188" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A188" t="s">
+        <v>895</v>
+      </c>
+      <c r="B188" t="s">
+        <v>896</v>
+      </c>
+      <c r="C188" t="s">
+        <v>897</v>
+      </c>
+      <c r="D188" t="s">
+        <v>898</v>
+      </c>
+      <c r="E188" t="s">
+        <v>899</v>
+      </c>
+      <c r="F188" t="s">
+        <v>620</v>
+      </c>
+      <c r="H188">
+        <f t="shared" si="12"/>
+        <v>62</v>
+      </c>
+      <c r="I188" s="3">
+        <f t="shared" si="13"/>
+        <v>45687</v>
+      </c>
+      <c r="J188">
+        <f t="shared" si="14"/>
+        <v>186</v>
+      </c>
+    </row>
+    <row r="189" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A189" t="s">
+        <v>900</v>
+      </c>
+      <c r="B189" t="s">
+        <v>169</v>
+      </c>
+      <c r="C189" t="s">
+        <v>901</v>
+      </c>
+      <c r="D189" t="s">
+        <v>902</v>
+      </c>
+      <c r="E189" t="s">
+        <v>903</v>
+      </c>
+      <c r="F189" t="s">
+        <v>620</v>
+      </c>
+      <c r="H189">
+        <f t="shared" si="12"/>
+        <v>62</v>
+      </c>
+      <c r="I189" s="3">
+        <f t="shared" si="13"/>
+        <v>45687</v>
+      </c>
+      <c r="J189">
+        <f t="shared" si="14"/>
+        <v>187</v>
+      </c>
+    </row>
+    <row r="190" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A190" t="s">
+        <v>904</v>
+      </c>
+      <c r="B190" t="s">
+        <v>905</v>
+      </c>
+      <c r="C190" t="s">
+        <v>906</v>
+      </c>
+      <c r="D190" t="s">
+        <v>907</v>
+      </c>
+      <c r="E190" t="s">
+        <v>908</v>
+      </c>
+      <c r="F190" t="s">
+        <v>620</v>
+      </c>
+      <c r="H190">
+        <f t="shared" si="12"/>
+        <v>62</v>
+      </c>
+      <c r="I190" s="3">
+        <f t="shared" si="13"/>
+        <v>45687</v>
+      </c>
+      <c r="J190">
+        <f t="shared" si="14"/>
+        <v>188</v>
+      </c>
+    </row>
+    <row r="191" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A191" t="s">
+        <v>693</v>
+      </c>
+      <c r="B191" t="s">
+        <v>909</v>
+      </c>
+      <c r="C191" t="s">
+        <v>557</v>
+      </c>
+      <c r="D191" t="s">
+        <v>910</v>
+      </c>
+      <c r="E191" t="s">
+        <v>911</v>
+      </c>
+      <c r="F191" t="s">
+        <v>620</v>
+      </c>
+      <c r="H191">
+        <f t="shared" si="12"/>
+        <v>63</v>
+      </c>
+      <c r="I191" s="3">
+        <f t="shared" si="13"/>
+        <v>45688</v>
+      </c>
+      <c r="J191">
+        <f t="shared" si="14"/>
+        <v>189</v>
+      </c>
+    </row>
+    <row r="192" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A192" t="s">
+        <v>758</v>
+      </c>
+      <c r="B192" t="s">
+        <v>759</v>
+      </c>
+      <c r="C192" t="s">
+        <v>760</v>
+      </c>
+      <c r="D192" t="s">
+        <v>761</v>
+      </c>
+      <c r="E192" t="s">
+        <v>762</v>
+      </c>
+      <c r="F192" t="s">
+        <v>641</v>
+      </c>
+      <c r="H192">
+        <f t="shared" si="12"/>
+        <v>63</v>
+      </c>
+      <c r="I192" s="3">
+        <f t="shared" si="13"/>
+        <v>45688</v>
+      </c>
+      <c r="J192">
+        <f t="shared" si="14"/>
+        <v>190</v>
+      </c>
+    </row>
+    <row r="193" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A193" t="s">
+        <v>912</v>
+      </c>
+      <c r="B193" t="s">
+        <v>913</v>
+      </c>
+      <c r="C193" t="s">
+        <v>914</v>
+      </c>
+      <c r="D193" t="s">
+        <v>915</v>
+      </c>
+      <c r="E193" t="s">
+        <v>916</v>
+      </c>
+      <c r="F193" t="s">
+        <v>641</v>
+      </c>
+      <c r="H193">
+        <f t="shared" si="12"/>
+        <v>63</v>
+      </c>
+      <c r="I193" s="3">
+        <f t="shared" si="13"/>
+        <v>45688</v>
+      </c>
+      <c r="J193">
+        <f t="shared" si="14"/>
+        <v>191</v>
+      </c>
+    </row>
+    <row r="194" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A194" t="s">
+        <v>917</v>
+      </c>
+      <c r="B194" t="s">
+        <v>918</v>
+      </c>
+      <c r="C194" t="s">
+        <v>919</v>
+      </c>
+      <c r="D194" t="s">
+        <v>920</v>
+      </c>
+      <c r="E194" t="s">
+        <v>921</v>
+      </c>
+      <c r="F194" t="s">
+        <v>620</v>
+      </c>
+      <c r="H194">
+        <f t="shared" si="12"/>
+        <v>64</v>
+      </c>
+      <c r="I194" s="3">
+        <f t="shared" si="13"/>
+        <v>45689</v>
+      </c>
+      <c r="J194">
+        <f t="shared" si="14"/>
+        <v>192</v>
+      </c>
+    </row>
+    <row r="195" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A195" t="s">
+        <v>922</v>
+      </c>
+      <c r="B195" t="s">
+        <v>908</v>
+      </c>
+      <c r="C195" t="s">
+        <v>923</v>
+      </c>
+      <c r="D195" t="s">
+        <v>924</v>
+      </c>
+      <c r="E195" t="s">
+        <v>925</v>
+      </c>
+      <c r="F195" t="s">
+        <v>620</v>
+      </c>
+      <c r="H195">
+        <f t="shared" si="12"/>
+        <v>64</v>
+      </c>
+      <c r="I195" s="3">
+        <f t="shared" si="13"/>
+        <v>45689</v>
+      </c>
+      <c r="J195">
+        <f t="shared" si="14"/>
+        <v>193</v>
+      </c>
+    </row>
+    <row r="196" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A196" t="s">
+        <v>926</v>
+      </c>
+      <c r="B196" t="s">
+        <v>927</v>
+      </c>
+      <c r="C196" t="s">
+        <v>928</v>
+      </c>
+      <c r="D196" t="s">
+        <v>929</v>
+      </c>
+      <c r="E196" t="s">
+        <v>930</v>
+      </c>
+      <c r="F196" t="s">
+        <v>641</v>
+      </c>
+      <c r="H196">
+        <f t="shared" si="12"/>
+        <v>64</v>
+      </c>
+      <c r="I196" s="3">
+        <f t="shared" si="13"/>
+        <v>45689</v>
+      </c>
+      <c r="J196">
+        <f t="shared" si="14"/>
+        <v>194</v>
+      </c>
+    </row>
+    <row r="197" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A197" t="s">
+        <v>931</v>
+      </c>
+      <c r="B197" t="s">
+        <v>932</v>
+      </c>
+      <c r="C197" t="s">
+        <v>933</v>
+      </c>
+      <c r="D197" t="s">
+        <v>934</v>
+      </c>
+      <c r="E197" t="s">
+        <v>935</v>
+      </c>
+      <c r="F197" t="s">
+        <v>620</v>
+      </c>
+      <c r="H197">
+        <f t="shared" si="12"/>
+        <v>65</v>
+      </c>
+      <c r="I197" s="3">
+        <f t="shared" si="13"/>
+        <v>45690</v>
+      </c>
+      <c r="J197">
+        <f t="shared" si="14"/>
+        <v>195</v>
+      </c>
+    </row>
+    <row r="198" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A198" t="s">
+        <v>882</v>
+      </c>
+      <c r="B198" t="s">
+        <v>936</v>
+      </c>
+      <c r="C198" t="s">
+        <v>937</v>
+      </c>
+      <c r="D198" t="s">
+        <v>938</v>
+      </c>
+      <c r="E198" t="s">
+        <v>939</v>
+      </c>
+      <c r="F198" t="s">
+        <v>620</v>
+      </c>
+      <c r="H198">
+        <f t="shared" si="12"/>
+        <v>65</v>
+      </c>
+      <c r="I198" s="3">
+        <f t="shared" si="13"/>
+        <v>45690</v>
+      </c>
+      <c r="J198">
+        <f t="shared" si="14"/>
+        <v>196</v>
+      </c>
+    </row>
+    <row r="199" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A199" t="s">
+        <v>825</v>
+      </c>
+      <c r="B199" t="s">
+        <v>492</v>
+      </c>
+      <c r="C199" t="s">
+        <v>501</v>
+      </c>
+      <c r="D199" t="s">
+        <v>940</v>
+      </c>
+      <c r="E199" t="s">
+        <v>941</v>
+      </c>
+      <c r="F199" t="s">
+        <v>620</v>
+      </c>
+      <c r="H199">
+        <f t="shared" si="12"/>
+        <v>65</v>
+      </c>
+      <c r="I199" s="3">
+        <f t="shared" si="13"/>
+        <v>45690</v>
+      </c>
+      <c r="J199">
+        <f t="shared" si="14"/>
+        <v>197</v>
+      </c>
+    </row>
+    <row r="200" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A200" t="s">
+        <v>942</v>
+      </c>
+      <c r="B200" t="s">
+        <v>943</v>
+      </c>
+      <c r="C200" t="s">
+        <v>944</v>
+      </c>
+      <c r="D200" t="s">
+        <v>945</v>
+      </c>
+      <c r="E200" t="s">
+        <v>946</v>
+      </c>
+      <c r="F200" t="s">
+        <v>641</v>
+      </c>
+      <c r="H200">
+        <f t="shared" si="12"/>
+        <v>66</v>
+      </c>
+      <c r="I200" s="3">
+        <f t="shared" si="13"/>
+        <v>45691</v>
+      </c>
+      <c r="J200">
+        <f t="shared" si="14"/>
+        <v>198</v>
+      </c>
+    </row>
+    <row r="201" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A201" t="s">
+        <v>947</v>
+      </c>
+      <c r="B201" t="s">
+        <v>948</v>
+      </c>
+      <c r="C201" t="s">
+        <v>949</v>
+      </c>
+      <c r="D201" t="s">
+        <v>950</v>
+      </c>
+      <c r="E201" t="s">
+        <v>951</v>
+      </c>
+      <c r="F201" t="s">
+        <v>620</v>
+      </c>
+      <c r="H201">
+        <f t="shared" si="12"/>
+        <v>66</v>
+      </c>
+      <c r="I201" s="3">
+        <f t="shared" si="13"/>
+        <v>45691</v>
+      </c>
+      <c r="J201">
+        <f t="shared" si="14"/>
+        <v>199</v>
+      </c>
+    </row>
+    <row r="202" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A202" t="s">
+        <v>952</v>
+      </c>
+      <c r="B202" t="s">
+        <v>953</v>
+      </c>
+      <c r="C202" t="s">
+        <v>954</v>
+      </c>
+      <c r="D202" t="s">
+        <v>955</v>
+      </c>
+      <c r="E202" t="s">
+        <v>956</v>
+      </c>
+      <c r="F202" t="s">
+        <v>620</v>
+      </c>
+      <c r="H202">
+        <f t="shared" si="12"/>
+        <v>66</v>
+      </c>
+      <c r="I202" s="3">
+        <f t="shared" si="13"/>
+        <v>45691</v>
+      </c>
+      <c r="J202">
+        <f t="shared" si="14"/>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="203" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A203" t="s">
+        <v>373</v>
+      </c>
+      <c r="B203" t="s">
+        <v>957</v>
+      </c>
+      <c r="C203" t="s">
+        <v>958</v>
+      </c>
+      <c r="D203" t="s">
+        <v>959</v>
+      </c>
+      <c r="E203" t="s">
+        <v>960</v>
+      </c>
+      <c r="F203" t="s">
+        <v>641</v>
+      </c>
+      <c r="H203">
+        <f t="shared" si="12"/>
+        <v>67</v>
+      </c>
+      <c r="I203" s="3">
+        <f t="shared" si="13"/>
+        <v>45692</v>
+      </c>
+      <c r="J203">
+        <f t="shared" si="14"/>
+        <v>201</v>
+      </c>
+    </row>
+    <row r="204" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A204" t="s">
+        <v>961</v>
+      </c>
+      <c r="B204" t="s">
+        <v>962</v>
+      </c>
+      <c r="C204" t="s">
+        <v>963</v>
+      </c>
+      <c r="D204" t="s">
+        <v>964</v>
+      </c>
+      <c r="E204" t="s">
+        <v>965</v>
+      </c>
+      <c r="F204" t="s">
+        <v>620</v>
+      </c>
+      <c r="H204">
+        <f t="shared" si="12"/>
+        <v>67</v>
+      </c>
+      <c r="I204" s="3">
+        <f t="shared" si="13"/>
+        <v>45692</v>
+      </c>
+      <c r="J204">
+        <f t="shared" si="14"/>
+        <v>202</v>
+      </c>
+    </row>
+    <row r="205" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A205" t="s">
+        <v>966</v>
+      </c>
+      <c r="B205" t="s">
+        <v>967</v>
+      </c>
+      <c r="C205" t="s">
+        <v>968</v>
+      </c>
+      <c r="D205" t="s">
+        <v>969</v>
+      </c>
+      <c r="E205" t="s">
+        <v>970</v>
+      </c>
+      <c r="F205" t="s">
+        <v>620</v>
+      </c>
+      <c r="H205">
+        <f t="shared" si="12"/>
+        <v>67</v>
+      </c>
+      <c r="I205" s="3">
+        <f t="shared" si="13"/>
+        <v>45692</v>
+      </c>
+      <c r="J205">
+        <f t="shared" si="14"/>
+        <v>203</v>
+      </c>
+    </row>
+    <row r="206" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A206" t="s">
+        <v>971</v>
+      </c>
+      <c r="B206" t="s">
+        <v>928</v>
+      </c>
+      <c r="C206" t="s">
+        <v>972</v>
+      </c>
+      <c r="D206" t="s">
+        <v>973</v>
+      </c>
+      <c r="E206" t="s">
+        <v>974</v>
+      </c>
+      <c r="F206" t="s">
+        <v>620</v>
+      </c>
+      <c r="H206">
+        <f t="shared" si="12"/>
+        <v>68</v>
+      </c>
+      <c r="I206" s="3">
+        <f t="shared" si="13"/>
+        <v>45693</v>
+      </c>
+      <c r="J206">
+        <f t="shared" si="14"/>
+        <v>204</v>
+      </c>
+    </row>
+    <row r="207" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A207" t="s">
+        <v>975</v>
+      </c>
+      <c r="B207" t="s">
+        <v>976</v>
+      </c>
+      <c r="C207" t="s">
+        <v>394</v>
+      </c>
+      <c r="D207" t="s">
+        <v>977</v>
+      </c>
+      <c r="E207" t="s">
+        <v>978</v>
+      </c>
+      <c r="F207" t="s">
+        <v>620</v>
+      </c>
+      <c r="H207">
+        <f t="shared" si="12"/>
+        <v>68</v>
+      </c>
+      <c r="I207" s="3">
+        <f t="shared" si="13"/>
+        <v>45693</v>
+      </c>
+      <c r="J207">
+        <f t="shared" si="14"/>
+        <v>205</v>
+      </c>
+    </row>
+    <row r="208" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A208" t="s">
+        <v>979</v>
+      </c>
+      <c r="B208" t="s">
+        <v>980</v>
+      </c>
+      <c r="C208" t="s">
+        <v>981</v>
+      </c>
+      <c r="D208" t="s">
+        <v>982</v>
+      </c>
+      <c r="E208" t="s">
+        <v>983</v>
+      </c>
+      <c r="F208" t="s">
+        <v>620</v>
+      </c>
+      <c r="H208">
+        <f t="shared" ref="H208:H223" si="15">INT(J208/3)</f>
+        <v>68</v>
+      </c>
+      <c r="I208" s="3">
+        <f t="shared" ref="I208:I223" si="16">$L$1+H208</f>
+        <v>45693</v>
+      </c>
+      <c r="J208">
+        <f t="shared" si="14"/>
+        <v>206</v>
+      </c>
+    </row>
+    <row r="209" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A209" t="s">
+        <v>737</v>
+      </c>
+      <c r="B209" t="s">
+        <v>984</v>
+      </c>
+      <c r="C209" t="s">
+        <v>985</v>
+      </c>
+      <c r="D209" t="s">
+        <v>986</v>
+      </c>
+      <c r="E209" t="s">
+        <v>987</v>
+      </c>
+      <c r="F209" t="s">
+        <v>620</v>
+      </c>
+      <c r="H209">
+        <f t="shared" si="15"/>
+        <v>69</v>
+      </c>
+      <c r="I209" s="3">
+        <f t="shared" si="16"/>
+        <v>45694</v>
+      </c>
+      <c r="J209">
+        <f t="shared" si="14"/>
+        <v>207</v>
+      </c>
+    </row>
+    <row r="210" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A210" t="s">
+        <v>988</v>
+      </c>
+      <c r="B210" t="s">
+        <v>989</v>
+      </c>
+      <c r="C210" t="s">
+        <v>990</v>
+      </c>
+      <c r="D210" t="s">
+        <v>800</v>
+      </c>
+      <c r="E210" t="s">
+        <v>991</v>
+      </c>
+      <c r="F210" t="s">
+        <v>620</v>
+      </c>
+      <c r="H210">
+        <f t="shared" si="15"/>
+        <v>69</v>
+      </c>
+      <c r="I210" s="3">
+        <f t="shared" si="16"/>
+        <v>45694</v>
+      </c>
+      <c r="J210">
+        <f t="shared" si="14"/>
+        <v>208</v>
+      </c>
+    </row>
+    <row r="211" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A211" t="s">
+        <v>992</v>
+      </c>
+      <c r="B211" t="s">
+        <v>993</v>
+      </c>
+      <c r="C211" t="s">
+        <v>994</v>
+      </c>
+      <c r="D211" t="s">
+        <v>458</v>
+      </c>
+      <c r="E211" t="s">
+        <v>995</v>
+      </c>
+      <c r="F211" t="s">
+        <v>620</v>
+      </c>
+      <c r="H211">
+        <f t="shared" si="15"/>
+        <v>69</v>
+      </c>
+      <c r="I211" s="3">
+        <f t="shared" si="16"/>
+        <v>45694</v>
+      </c>
+      <c r="J211">
+        <f t="shared" si="14"/>
+        <v>209</v>
+      </c>
+    </row>
+    <row r="212" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A212" t="s">
+        <v>996</v>
+      </c>
+      <c r="B212" t="s">
+        <v>78</v>
+      </c>
+      <c r="C212" t="s">
+        <v>997</v>
+      </c>
+      <c r="D212" t="s">
+        <v>998</v>
+      </c>
+      <c r="E212" t="s">
+        <v>999</v>
+      </c>
+      <c r="F212" t="s">
+        <v>620</v>
+      </c>
+      <c r="H212">
+        <f t="shared" si="15"/>
+        <v>70</v>
+      </c>
+      <c r="I212" s="3">
+        <f t="shared" si="16"/>
+        <v>45695</v>
+      </c>
+      <c r="J212">
+        <f t="shared" si="14"/>
+        <v>210</v>
+      </c>
+    </row>
+    <row r="213" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A213" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B213" t="s">
+        <v>1001</v>
+      </c>
+      <c r="C213" t="s">
+        <v>1002</v>
+      </c>
+      <c r="D213" t="s">
+        <v>1003</v>
+      </c>
+      <c r="E213" t="s">
+        <v>1004</v>
+      </c>
+      <c r="F213" t="s">
+        <v>620</v>
+      </c>
+      <c r="H213">
+        <f t="shared" si="15"/>
+        <v>70</v>
+      </c>
+      <c r="I213" s="3">
+        <f t="shared" si="16"/>
+        <v>45695</v>
+      </c>
+      <c r="J213">
+        <f t="shared" si="14"/>
+        <v>211</v>
+      </c>
+    </row>
+    <row r="214" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A214" t="s">
+        <v>1005</v>
+      </c>
+      <c r="B214" t="s">
+        <v>1006</v>
+      </c>
+      <c r="C214" t="s">
+        <v>1007</v>
+      </c>
+      <c r="D214" t="s">
+        <v>1008</v>
+      </c>
+      <c r="E214" t="s">
+        <v>1009</v>
+      </c>
+      <c r="F214" t="s">
+        <v>620</v>
+      </c>
+      <c r="H214">
+        <f t="shared" si="15"/>
+        <v>70</v>
+      </c>
+      <c r="I214" s="3">
+        <f t="shared" si="16"/>
+        <v>45695</v>
+      </c>
+      <c r="J214">
+        <f t="shared" si="14"/>
+        <v>212</v>
+      </c>
+    </row>
+    <row r="215" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A215" t="s">
+        <v>562</v>
+      </c>
+      <c r="B215" t="s">
+        <v>1010</v>
+      </c>
+      <c r="C215" t="s">
+        <v>1011</v>
+      </c>
+      <c r="D215" t="s">
+        <v>1012</v>
+      </c>
+      <c r="E215" t="s">
+        <v>1013</v>
+      </c>
+      <c r="F215" t="s">
+        <v>620</v>
+      </c>
+      <c r="H215">
+        <f t="shared" si="15"/>
+        <v>71</v>
+      </c>
+      <c r="I215" s="3">
+        <f t="shared" si="16"/>
+        <v>45696</v>
+      </c>
+      <c r="J215">
+        <f t="shared" si="14"/>
+        <v>213</v>
+      </c>
+    </row>
+    <row r="216" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A216" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B216" t="s">
+        <v>1015</v>
+      </c>
+      <c r="C216" t="s">
+        <v>1016</v>
+      </c>
+      <c r="D216" t="s">
+        <v>1017</v>
+      </c>
+      <c r="E216" t="s">
+        <v>1018</v>
+      </c>
+      <c r="F216" t="s">
+        <v>620</v>
+      </c>
+      <c r="H216">
+        <f t="shared" si="15"/>
+        <v>71</v>
+      </c>
+      <c r="I216" s="3">
+        <f t="shared" si="16"/>
+        <v>45696</v>
+      </c>
+      <c r="J216">
+        <f t="shared" si="14"/>
+        <v>214</v>
+      </c>
+    </row>
+    <row r="217" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A217" t="s">
+        <v>1019</v>
+      </c>
+      <c r="B217" t="s">
+        <v>1020</v>
+      </c>
+      <c r="C217" t="s">
+        <v>959</v>
+      </c>
+      <c r="D217" t="s">
+        <v>1021</v>
+      </c>
+      <c r="E217" t="s">
+        <v>1022</v>
+      </c>
+      <c r="F217" t="s">
+        <v>620</v>
+      </c>
+      <c r="H217">
+        <f t="shared" si="15"/>
+        <v>71</v>
+      </c>
+      <c r="I217" s="3">
+        <f t="shared" si="16"/>
+        <v>45696</v>
+      </c>
+      <c r="J217">
+        <f t="shared" si="14"/>
+        <v>215</v>
+      </c>
+    </row>
+    <row r="218" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A218" t="s">
+        <v>736</v>
+      </c>
+      <c r="B218" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C218" t="s">
+        <v>1024</v>
+      </c>
+      <c r="D218" t="s">
+        <v>1025</v>
+      </c>
+      <c r="E218" t="s">
+        <v>1026</v>
+      </c>
+      <c r="F218" t="s">
+        <v>641</v>
+      </c>
+      <c r="H218">
+        <f t="shared" si="15"/>
+        <v>72</v>
+      </c>
+      <c r="I218" s="3">
+        <f t="shared" si="16"/>
+        <v>45697</v>
+      </c>
+      <c r="J218">
+        <f t="shared" si="14"/>
+        <v>216</v>
+      </c>
+    </row>
+    <row r="219" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A219" t="s">
+        <v>64</v>
+      </c>
+      <c r="B219" t="s">
+        <v>482</v>
+      </c>
+      <c r="C219" t="s">
+        <v>1027</v>
+      </c>
+      <c r="D219" t="s">
+        <v>1028</v>
+      </c>
+      <c r="E219" t="s">
+        <v>1029</v>
+      </c>
+      <c r="F219" t="s">
+        <v>620</v>
+      </c>
+      <c r="H219">
+        <f t="shared" si="15"/>
+        <v>72</v>
+      </c>
+      <c r="I219" s="3">
+        <f t="shared" si="16"/>
+        <v>45697</v>
+      </c>
+      <c r="J219">
+        <f t="shared" si="14"/>
+        <v>217</v>
+      </c>
+    </row>
+    <row r="220" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A220" t="s">
+        <v>1030</v>
+      </c>
+      <c r="B220" t="s">
+        <v>1031</v>
+      </c>
+      <c r="C220" t="s">
+        <v>863</v>
+      </c>
+      <c r="D220" t="s">
+        <v>1032</v>
+      </c>
+      <c r="E220" t="s">
+        <v>511</v>
+      </c>
+      <c r="F220" t="s">
+        <v>620</v>
+      </c>
+      <c r="H220">
+        <f t="shared" si="15"/>
+        <v>72</v>
+      </c>
+      <c r="I220" s="3">
+        <f t="shared" si="16"/>
+        <v>45697</v>
+      </c>
+      <c r="J220">
+        <f t="shared" si="14"/>
+        <v>218</v>
+      </c>
+    </row>
+    <row r="221" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A221" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B221" t="s">
+        <v>1034</v>
+      </c>
+      <c r="C221" t="s">
+        <v>1035</v>
+      </c>
+      <c r="D221" t="s">
+        <v>1036</v>
+      </c>
+      <c r="E221" t="s">
+        <v>1037</v>
+      </c>
+      <c r="F221" t="s">
+        <v>641</v>
+      </c>
+      <c r="H221">
+        <f t="shared" si="15"/>
+        <v>73</v>
+      </c>
+      <c r="I221" s="3">
+        <f t="shared" si="16"/>
+        <v>45698</v>
+      </c>
+      <c r="J221">
+        <f t="shared" si="14"/>
+        <v>219</v>
+      </c>
+    </row>
+    <row r="222" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A222" t="s">
+        <v>1038</v>
+      </c>
+      <c r="B222" t="s">
+        <v>1039</v>
+      </c>
+      <c r="C222" t="s">
+        <v>1040</v>
+      </c>
+      <c r="D222" t="s">
+        <v>1041</v>
+      </c>
+      <c r="E222" t="s">
+        <v>1042</v>
+      </c>
+      <c r="F222" t="s">
+        <v>620</v>
+      </c>
+      <c r="H222">
+        <f t="shared" si="15"/>
+        <v>73</v>
+      </c>
+      <c r="I222" s="3">
+        <f t="shared" si="16"/>
+        <v>45698</v>
+      </c>
+      <c r="J222">
+        <f t="shared" ref="J222:J223" si="17">J221+1</f>
+        <v>220</v>
+      </c>
+    </row>
+    <row r="223" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A223" t="s">
+        <v>14</v>
+      </c>
+      <c r="B223" t="s">
+        <v>1043</v>
+      </c>
+      <c r="C223" t="s">
+        <v>1044</v>
+      </c>
+      <c r="D223" t="s">
+        <v>1045</v>
+      </c>
+      <c r="E223" t="s">
+        <v>821</v>
+      </c>
+      <c r="F223" t="s">
+        <v>620</v>
+      </c>
+      <c r="H223">
+        <f t="shared" si="15"/>
+        <v>73</v>
+      </c>
+      <c r="I223" s="3">
+        <f t="shared" si="16"/>
+        <v>45698</v>
+      </c>
+      <c r="J223">
         <f t="shared" si="17"/>
-        <v>135</v>
+        <v>221</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A8:H134">
-    <sortCondition ref="H8:H134"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A8:H135">
+    <sortCondition ref="H8:H135"/>
   </sortState>
   <conditionalFormatting sqref="E1:E1048576">
     <cfRule type="expression" dxfId="1" priority="1">

--- a/code/shabdakala/resource/sbwords.xlsx
+++ b/code/shabdakala/resource/sbwords.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hrishinene/github/shabdakala/shabdakala/code/shabdakala/resource/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD5704D1-F50C-A24A-B48B-AEF9F127B2DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{916DF3AB-15E0-E94F-8366-9A5D9F87DAAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{9F74AEE5-EB85-4044-AC84-8761A591B5C1}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1431" uniqueCount="1047">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1425" uniqueCount="1046">
   <si>
     <t>word0</t>
   </si>
@@ -1458,9 +1458,6 @@
   </si>
   <si>
     <t>चिल्लर</t>
-  </si>
-  <si>
-    <t>विकत</t>
   </si>
   <si>
     <t>श्याम</t>
@@ -3746,28 +3743,7 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="4">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <font>
         <b/>
@@ -4119,10 +4095,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEA1707B-2FB7-B84C-9F84-E9F074F3056C}">
-  <dimension ref="A1:L223"/>
+  <dimension ref="A1:L222"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" zoomScale="108" zoomScaleNormal="108" workbookViewId="0">
-      <selection activeCell="E59" sqref="E59"/>
+    <sheetView tabSelected="1" topLeftCell="A50" zoomScale="108" zoomScaleNormal="108" workbookViewId="0">
+      <selection activeCell="E62" sqref="E62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4210,7 +4186,7 @@
       </c>
       <c r="L2" s="6">
         <f ca="1">TODAY()</f>
-        <v>45643</v>
+        <v>45644</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -4455,7 +4431,7 @@
         <v>2</v>
       </c>
       <c r="I9" s="3">
-        <f t="shared" ref="I9:I21" si="3">$L$1+H9</f>
+        <f t="shared" ref="I9:I15" si="3">$L$1+H9</f>
         <v>45627</v>
       </c>
       <c r="J9">
@@ -4556,7 +4532,7 @@
         <v>139</v>
       </c>
       <c r="H12">
-        <f t="shared" ref="H12:H21" si="5">INT(J12/3)</f>
+        <f t="shared" ref="H12:H15" si="5">INT(J12/3)</f>
         <v>3</v>
       </c>
       <c r="I12" s="3">
@@ -4564,7 +4540,7 @@
         <v>45628</v>
       </c>
       <c r="J12">
-        <f t="shared" ref="J12:J95" si="6">J11+1</f>
+        <f t="shared" ref="J12:J93" si="6">J11+1</f>
         <v>10</v>
       </c>
     </row>
@@ -5005,7 +4981,7 @@
         <v>372</v>
       </c>
       <c r="F25" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>185</v>
@@ -5110,7 +5086,7 @@
         <v>428</v>
       </c>
       <c r="F28" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="G28" s="1" t="s">
         <v>434</v>
@@ -5235,22 +5211,22 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
+        <v>512</v>
+      </c>
+      <c r="B32" t="s">
         <v>513</v>
       </c>
-      <c r="B32" t="s">
+      <c r="C32" t="s">
         <v>514</v>
       </c>
-      <c r="C32" t="s">
+      <c r="D32" t="s">
         <v>515</v>
       </c>
-      <c r="D32" t="s">
+      <c r="E32" t="s">
         <v>516</v>
       </c>
-      <c r="E32" t="s">
-        <v>517</v>
-      </c>
       <c r="F32" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H32">
         <f t="shared" si="7"/>
@@ -5267,22 +5243,22 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B33" t="s">
         <v>373</v>
       </c>
       <c r="C33" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="D33" t="s">
         <v>228</v>
       </c>
       <c r="E33" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="F33" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H33">
         <f t="shared" si="7"/>
@@ -5299,22 +5275,22 @@
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B34" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="C34" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="D34" t="s">
         <v>48</v>
       </c>
       <c r="E34" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="F34" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H34">
         <f t="shared" si="7"/>
@@ -5378,7 +5354,7 @@
         <v>33</v>
       </c>
       <c r="E36" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>341</v>
@@ -5413,7 +5389,7 @@
         <v>111</v>
       </c>
       <c r="E37" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>85</v>
@@ -5436,22 +5412,22 @@
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B38" t="s">
+        <v>509</v>
+      </c>
+      <c r="C38" t="s">
+        <v>641</v>
+      </c>
+      <c r="D38" t="s">
         <v>510</v>
       </c>
-      <c r="C38" t="s">
-        <v>642</v>
-      </c>
-      <c r="D38" t="s">
+      <c r="E38" t="s">
         <v>511</v>
       </c>
-      <c r="E38" t="s">
-        <v>512</v>
-      </c>
       <c r="F38" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H38">
         <f t="shared" si="7"/>
@@ -5468,22 +5444,22 @@
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
+        <v>521</v>
+      </c>
+      <c r="B39" t="s">
         <v>522</v>
-      </c>
-      <c r="B39" t="s">
-        <v>523</v>
       </c>
       <c r="C39" t="s">
         <v>7</v>
       </c>
       <c r="D39" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="E39" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="F39" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H39">
         <f t="shared" si="7"/>
@@ -5570,22 +5546,22 @@
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
+        <v>582</v>
+      </c>
+      <c r="B42" t="s">
         <v>583</v>
       </c>
-      <c r="B42" t="s">
+      <c r="C42" t="s">
+        <v>639</v>
+      </c>
+      <c r="D42" t="s">
         <v>584</v>
       </c>
-      <c r="C42" t="s">
-        <v>640</v>
-      </c>
-      <c r="D42" t="s">
+      <c r="E42" t="s">
         <v>585</v>
       </c>
-      <c r="E42" t="s">
-        <v>586</v>
-      </c>
       <c r="F42" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H42">
         <f t="shared" si="7"/>
@@ -5602,22 +5578,22 @@
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
+        <v>594</v>
+      </c>
+      <c r="B43" t="s">
         <v>595</v>
       </c>
-      <c r="B43" t="s">
+      <c r="C43" t="s">
         <v>596</v>
       </c>
-      <c r="C43" t="s">
+      <c r="D43" t="s">
         <v>597</v>
       </c>
-      <c r="D43" t="s">
+      <c r="E43" t="s">
         <v>598</v>
       </c>
-      <c r="E43" t="s">
-        <v>599</v>
-      </c>
       <c r="F43" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H43">
         <f t="shared" si="7"/>
@@ -5649,7 +5625,7 @@
         <v>380</v>
       </c>
       <c r="F44" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="G44" s="1" t="s">
         <v>275</v>
@@ -5704,22 +5680,22 @@
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
+        <v>528</v>
+      </c>
+      <c r="B46" t="s">
         <v>529</v>
       </c>
-      <c r="B46" t="s">
+      <c r="C46" t="s">
         <v>530</v>
       </c>
-      <c r="C46" t="s">
+      <c r="D46" t="s">
+        <v>642</v>
+      </c>
+      <c r="E46" t="s">
         <v>531</v>
       </c>
-      <c r="D46" t="s">
-        <v>643</v>
-      </c>
-      <c r="E46" t="s">
-        <v>532</v>
-      </c>
       <c r="F46" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H46">
         <f t="shared" si="7"/>
@@ -5739,19 +5715,19 @@
         <v>228</v>
       </c>
       <c r="B47" t="s">
+        <v>532</v>
+      </c>
+      <c r="C47" t="s">
         <v>533</v>
       </c>
-      <c r="C47" t="s">
+      <c r="D47" t="s">
         <v>534</v>
       </c>
-      <c r="D47" t="s">
+      <c r="E47" t="s">
         <v>535</v>
       </c>
-      <c r="E47" t="s">
-        <v>536</v>
-      </c>
       <c r="F47" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H47">
         <f t="shared" si="7"/>
@@ -5768,22 +5744,22 @@
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
+        <v>536</v>
+      </c>
+      <c r="B48" t="s">
         <v>537</v>
       </c>
-      <c r="B48" t="s">
+      <c r="C48" t="s">
         <v>538</v>
       </c>
-      <c r="C48" t="s">
+      <c r="D48" t="s">
         <v>539</v>
       </c>
-      <c r="D48" t="s">
+      <c r="E48" t="s">
         <v>540</v>
       </c>
-      <c r="E48" t="s">
-        <v>541</v>
-      </c>
       <c r="F48" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H48">
         <f t="shared" si="7"/>
@@ -5850,7 +5826,7 @@
         <v>418</v>
       </c>
       <c r="F50" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="G50" s="1" t="s">
         <v>275</v>
@@ -5876,7 +5852,7 @@
         <v>120</v>
       </c>
       <c r="C51" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D51" t="s">
         <v>121</v>
@@ -5905,7 +5881,7 @@
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="B52" t="s">
         <v>36</v>
@@ -5978,7 +5954,7 @@
         <v>212</v>
       </c>
       <c r="B54" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="C54" t="s">
         <v>213</v>
@@ -6025,7 +6001,7 @@
         <v>435</v>
       </c>
       <c r="F55" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="G55" s="1" t="s">
         <v>275</v>
@@ -6048,19 +6024,19 @@
         <v>233</v>
       </c>
       <c r="B56" t="s">
+        <v>658</v>
+      </c>
+      <c r="C56" t="s">
+        <v>625</v>
+      </c>
+      <c r="D56" t="s">
+        <v>626</v>
+      </c>
+      <c r="E56" t="s">
         <v>659</v>
       </c>
-      <c r="C56" t="s">
-        <v>626</v>
-      </c>
-      <c r="D56" t="s">
-        <v>627</v>
-      </c>
-      <c r="E56" t="s">
-        <v>660</v>
-      </c>
       <c r="F56" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H56">
         <f t="shared" si="7"/>
@@ -6083,7 +6059,7 @@
         <v>232</v>
       </c>
       <c r="C57" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="D57" t="s">
         <v>234</v>
@@ -6112,19 +6088,19 @@
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
+        <v>651</v>
+      </c>
+      <c r="B58" t="s">
         <v>652</v>
       </c>
-      <c r="B58" t="s">
+      <c r="C58" t="s">
         <v>653</v>
       </c>
-      <c r="C58" t="s">
+      <c r="D58" t="s">
         <v>654</v>
       </c>
-      <c r="D58" t="s">
+      <c r="E58" t="s">
         <v>655</v>
-      </c>
-      <c r="E58" t="s">
-        <v>656</v>
       </c>
       <c r="F58" t="s">
         <v>446</v>
@@ -6156,10 +6132,10 @@
         <v>473</v>
       </c>
       <c r="E59" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="F59" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H59">
         <f t="shared" si="7"/>
@@ -6176,29 +6152,29 @@
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
+        <v>661</v>
+      </c>
+      <c r="B60" t="s">
         <v>662</v>
-      </c>
-      <c r="B60" t="s">
-        <v>663</v>
       </c>
       <c r="C60" t="s">
         <v>474</v>
       </c>
       <c r="D60" t="s">
+        <v>663</v>
+      </c>
+      <c r="E60" t="s">
         <v>664</v>
       </c>
-      <c r="E60" t="s">
-        <v>665</v>
-      </c>
       <c r="F60" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H60">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="H60:H123" si="9">INT(J60/3)</f>
         <v>19</v>
       </c>
       <c r="I60" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="I60:I123" si="10">$L$1+H60</f>
         <v>45644</v>
       </c>
       <c r="J60">
@@ -6208,29 +6184,29 @@
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="B61" t="s">
+        <v>475</v>
+      </c>
+      <c r="C61" t="s">
         <v>476</v>
       </c>
-      <c r="C61" t="s">
+      <c r="D61" t="s">
         <v>477</v>
       </c>
-      <c r="D61" t="s">
+      <c r="E61" t="s">
         <v>478</v>
       </c>
-      <c r="E61" t="s">
-        <v>479</v>
-      </c>
       <c r="F61" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H61">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>19</v>
       </c>
       <c r="I61" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>45644</v>
       </c>
       <c r="J61">
@@ -6240,30 +6216,29 @@
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>650</v>
+        <v>1029</v>
       </c>
       <c r="B62" t="s">
-        <v>647</v>
+        <v>1030</v>
       </c>
       <c r="C62" t="s">
-        <v>648</v>
+        <v>862</v>
       </c>
       <c r="D62" t="s">
-        <v>649</v>
+        <v>1031</v>
       </c>
       <c r="E62" t="s">
-        <v>651</v>
-      </c>
-      <c r="F62" s="1" t="s">
-        <v>446</v>
-      </c>
-      <c r="G62" s="1"/>
+        <v>510</v>
+      </c>
+      <c r="F62" t="s">
+        <v>619</v>
+      </c>
       <c r="H62">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>20</v>
       </c>
       <c r="I62" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>45645</v>
       </c>
       <c r="J62">
@@ -6273,29 +6248,30 @@
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>475</v>
+        <v>649</v>
       </c>
       <c r="B63" t="s">
-        <v>476</v>
+        <v>646</v>
       </c>
       <c r="C63" t="s">
-        <v>477</v>
+        <v>647</v>
       </c>
       <c r="D63" t="s">
-        <v>478</v>
+        <v>648</v>
       </c>
       <c r="E63" t="s">
-        <v>479</v>
-      </c>
-      <c r="F63" t="s">
-        <v>620</v>
-      </c>
+        <v>650</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="G63" s="1"/>
       <c r="H63">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>20</v>
       </c>
       <c r="I63" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>45645</v>
       </c>
       <c r="J63">
@@ -6320,17 +6296,17 @@
         <v>377</v>
       </c>
       <c r="F64" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="G64" s="1" t="s">
         <v>275</v>
       </c>
       <c r="H64">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>20</v>
       </c>
       <c r="I64" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>45645</v>
       </c>
       <c r="J64">
@@ -6361,11 +6337,11 @@
         <v>275</v>
       </c>
       <c r="H65">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>21</v>
       </c>
       <c r="I65" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>45646</v>
       </c>
       <c r="J65">
@@ -6396,11 +6372,11 @@
         <v>138</v>
       </c>
       <c r="H66">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>21</v>
       </c>
       <c r="I66" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>45646</v>
       </c>
       <c r="J66">
@@ -6431,11 +6407,11 @@
         <v>186</v>
       </c>
       <c r="H67">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>21</v>
       </c>
       <c r="I67" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>45646</v>
       </c>
       <c r="J67">
@@ -6460,17 +6436,17 @@
         <v>423</v>
       </c>
       <c r="F68" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="G68" s="1" t="s">
         <v>275</v>
       </c>
       <c r="H68">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>22</v>
       </c>
       <c r="I68" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>45647</v>
       </c>
       <c r="J68">
@@ -6495,17 +6471,17 @@
         <v>410</v>
       </c>
       <c r="F69" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="G69" s="1" t="s">
         <v>433</v>
       </c>
       <c r="H69">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>22</v>
       </c>
       <c r="I69" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>45647</v>
       </c>
       <c r="J69">
@@ -6527,17 +6503,17 @@
         <v>464</v>
       </c>
       <c r="E70" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="F70" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H70">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>22</v>
       </c>
       <c r="I70" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>45647</v>
       </c>
       <c r="J70">
@@ -6568,11 +6544,11 @@
         <v>141</v>
       </c>
       <c r="H71">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>23</v>
       </c>
       <c r="I71" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>45648</v>
       </c>
       <c r="J71">
@@ -6585,26 +6561,26 @@
         <v>213</v>
       </c>
       <c r="B72" t="s">
+        <v>586</v>
+      </c>
+      <c r="C72" t="s">
         <v>587</v>
       </c>
-      <c r="C72" t="s">
+      <c r="D72" t="s">
         <v>588</v>
       </c>
-      <c r="D72" t="s">
-        <v>589</v>
-      </c>
       <c r="E72" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="F72" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H72">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>23</v>
       </c>
       <c r="I72" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>45648</v>
       </c>
       <c r="J72">
@@ -6614,29 +6590,29 @@
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
+        <v>589</v>
+      </c>
+      <c r="B73" t="s">
         <v>590</v>
       </c>
-      <c r="B73" t="s">
+      <c r="C73" t="s">
         <v>591</v>
       </c>
-      <c r="C73" t="s">
+      <c r="D73" t="s">
         <v>592</v>
       </c>
-      <c r="D73" t="s">
+      <c r="E73" t="s">
         <v>593</v>
       </c>
-      <c r="E73" t="s">
-        <v>594</v>
-      </c>
       <c r="F73" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H73">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>23</v>
       </c>
       <c r="I73" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>45648</v>
       </c>
       <c r="J73">
@@ -6646,29 +6622,29 @@
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
+        <v>845</v>
+      </c>
+      <c r="B74" t="s">
         <v>846</v>
       </c>
-      <c r="B74" t="s">
+      <c r="C74" t="s">
         <v>847</v>
       </c>
-      <c r="C74" t="s">
+      <c r="D74" t="s">
         <v>848</v>
       </c>
-      <c r="D74" t="s">
+      <c r="E74" t="s">
         <v>849</v>
       </c>
-      <c r="E74" t="s">
-        <v>850</v>
-      </c>
       <c r="F74" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H74">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>24</v>
       </c>
       <c r="I74" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>45649</v>
       </c>
       <c r="J74">
@@ -6693,17 +6669,17 @@
         <v>429</v>
       </c>
       <c r="F75" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="G75" s="1" t="s">
         <v>275</v>
       </c>
       <c r="H75">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>24</v>
       </c>
       <c r="I75" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>45649</v>
       </c>
       <c r="J75">
@@ -6734,11 +6710,11 @@
         <v>138</v>
       </c>
       <c r="H76">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>24</v>
       </c>
       <c r="I76" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>45649</v>
       </c>
       <c r="J76">
@@ -6769,11 +6745,11 @@
         <v>45</v>
       </c>
       <c r="H77">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>25</v>
       </c>
       <c r="I77" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>45650</v>
       </c>
       <c r="J77">
@@ -6804,11 +6780,11 @@
         <v>138</v>
       </c>
       <c r="H78">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>25</v>
       </c>
       <c r="I78" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>45650</v>
       </c>
       <c r="J78">
@@ -6818,29 +6794,29 @@
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
+        <v>489</v>
+      </c>
+      <c r="B79" t="s">
         <v>490</v>
       </c>
-      <c r="B79" t="s">
-        <v>491</v>
-      </c>
       <c r="C79" t="s">
+        <v>627</v>
+      </c>
+      <c r="D79" t="s">
         <v>628</v>
       </c>
-      <c r="D79" t="s">
+      <c r="E79" t="s">
         <v>629</v>
       </c>
-      <c r="E79" t="s">
-        <v>630</v>
-      </c>
       <c r="F79" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H79">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>25</v>
       </c>
       <c r="I79" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>45650</v>
       </c>
       <c r="J79">
@@ -6850,29 +6826,29 @@
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
+        <v>491</v>
+      </c>
+      <c r="B80" t="s">
         <v>492</v>
-      </c>
-      <c r="B80" t="s">
-        <v>493</v>
       </c>
       <c r="C80" t="s">
         <v>304</v>
       </c>
       <c r="D80" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="E80" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="F80" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H80">
-        <f t="shared" ref="H80:H143" si="9">INT(J80/3)</f>
+        <f t="shared" si="9"/>
         <v>26</v>
       </c>
       <c r="I80" s="3">
-        <f t="shared" ref="I80:I143" si="10">$L$1+H80</f>
+        <f t="shared" si="10"/>
         <v>45651</v>
       </c>
       <c r="J80">
@@ -6967,7 +6943,7 @@
         <v>462</v>
       </c>
       <c r="F83" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H83">
         <f t="shared" si="9"/>
@@ -6999,7 +6975,7 @@
         <v>467</v>
       </c>
       <c r="F84" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H84">
         <f t="shared" si="9"/>
@@ -7031,7 +7007,7 @@
         <v>393</v>
       </c>
       <c r="F85" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="G85" s="1" t="s">
         <v>430</v>
@@ -7086,22 +7062,22 @@
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
+        <v>479</v>
+      </c>
+      <c r="B87" t="s">
         <v>480</v>
       </c>
-      <c r="B87" t="s">
+      <c r="C87" t="s">
         <v>481</v>
       </c>
-      <c r="C87" t="s">
+      <c r="D87" t="s">
         <v>482</v>
       </c>
-      <c r="D87" t="s">
+      <c r="E87" t="s">
         <v>483</v>
       </c>
-      <c r="E87" t="s">
-        <v>484</v>
-      </c>
       <c r="F87" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H87">
         <f t="shared" si="9"/>
@@ -7118,22 +7094,22 @@
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
+        <v>484</v>
+      </c>
+      <c r="B88" t="s">
         <v>485</v>
       </c>
-      <c r="B88" t="s">
+      <c r="C88" t="s">
         <v>486</v>
       </c>
-      <c r="C88" t="s">
+      <c r="D88" t="s">
         <v>487</v>
       </c>
-      <c r="D88" t="s">
+      <c r="E88" t="s">
         <v>488</v>
       </c>
-      <c r="E88" t="s">
-        <v>489</v>
-      </c>
       <c r="F88" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H88">
         <f t="shared" si="9"/>
@@ -7220,22 +7196,22 @@
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
+        <v>494</v>
+      </c>
+      <c r="B91" t="s">
         <v>495</v>
       </c>
-      <c r="B91" t="s">
+      <c r="C91" t="s">
         <v>496</v>
       </c>
-      <c r="C91" t="s">
+      <c r="D91" t="s">
         <v>497</v>
       </c>
-      <c r="D91" t="s">
+      <c r="E91" t="s">
         <v>498</v>
       </c>
-      <c r="E91" t="s">
-        <v>499</v>
-      </c>
       <c r="F91" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H91">
         <f t="shared" si="9"/>
@@ -7252,22 +7228,22 @@
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
+        <v>499</v>
+      </c>
+      <c r="B92" t="s">
         <v>500</v>
       </c>
-      <c r="B92" t="s">
+      <c r="C92" t="s">
         <v>501</v>
       </c>
-      <c r="C92" t="s">
+      <c r="D92" t="s">
         <v>502</v>
       </c>
-      <c r="D92" t="s">
+      <c r="E92" t="s">
         <v>503</v>
       </c>
-      <c r="E92" t="s">
-        <v>504</v>
-      </c>
       <c r="F92" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H92">
         <f t="shared" si="9"/>
@@ -7284,22 +7260,22 @@
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
+        <v>504</v>
+      </c>
+      <c r="B93" t="s">
         <v>505</v>
       </c>
-      <c r="B93" t="s">
+      <c r="C93" t="s">
         <v>506</v>
       </c>
-      <c r="C93" t="s">
+      <c r="D93" t="s">
         <v>507</v>
       </c>
-      <c r="D93" t="s">
+      <c r="E93" t="s">
         <v>508</v>
       </c>
-      <c r="E93" t="s">
-        <v>509</v>
-      </c>
       <c r="F93" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H93">
         <f t="shared" si="9"/>
@@ -7421,22 +7397,22 @@
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
+        <v>573</v>
+      </c>
+      <c r="B97" t="s">
         <v>574</v>
       </c>
-      <c r="B97" t="s">
-        <v>575</v>
-      </c>
       <c r="C97" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="D97" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="E97" t="s">
         <v>162</v>
       </c>
       <c r="F97" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H97">
         <f t="shared" si="9"/>
@@ -7456,19 +7432,19 @@
         <v>162</v>
       </c>
       <c r="B98" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C98" t="s">
+        <v>575</v>
+      </c>
+      <c r="D98" t="s">
         <v>576</v>
       </c>
-      <c r="D98" t="s">
+      <c r="E98" t="s">
         <v>577</v>
       </c>
-      <c r="E98" t="s">
-        <v>578</v>
-      </c>
       <c r="F98" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H98">
         <f t="shared" si="9"/>
@@ -7485,22 +7461,22 @@
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
+        <v>578</v>
+      </c>
+      <c r="B99" t="s">
         <v>579</v>
       </c>
-      <c r="B99" t="s">
+      <c r="C99" t="s">
         <v>580</v>
-      </c>
-      <c r="C99" t="s">
-        <v>581</v>
       </c>
       <c r="D99" t="s">
         <v>151</v>
       </c>
       <c r="E99" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="F99" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H99">
         <f t="shared" si="9"/>
@@ -7532,7 +7508,7 @@
         <v>399</v>
       </c>
       <c r="F100" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="G100" s="1" t="s">
         <v>275</v>
@@ -7625,7 +7601,7 @@
         <v>413</v>
       </c>
       <c r="B103" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C103" t="s">
         <v>412</v>
@@ -7634,10 +7610,10 @@
         <v>414</v>
       </c>
       <c r="E103" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="F103" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H103">
         <f t="shared" si="9"/>
@@ -7654,22 +7630,22 @@
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
+        <v>543</v>
+      </c>
+      <c r="B104" t="s">
         <v>544</v>
       </c>
-      <c r="B104" t="s">
+      <c r="C104" t="s">
         <v>545</v>
       </c>
-      <c r="C104" t="s">
+      <c r="D104" t="s">
         <v>546</v>
       </c>
-      <c r="D104" t="s">
+      <c r="E104" t="s">
         <v>547</v>
       </c>
-      <c r="E104" t="s">
-        <v>548</v>
-      </c>
       <c r="F104" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H104">
         <f t="shared" si="9"/>
@@ -7686,22 +7662,22 @@
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B105" t="s">
         <v>394</v>
       </c>
       <c r="C105" t="s">
+        <v>548</v>
+      </c>
+      <c r="D105" t="s">
         <v>549</v>
       </c>
-      <c r="D105" t="s">
+      <c r="E105" t="s">
         <v>550</v>
       </c>
-      <c r="E105" t="s">
-        <v>551</v>
-      </c>
       <c r="F105" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H105">
         <f t="shared" si="9"/>
@@ -7718,22 +7694,22 @@
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
+        <v>551</v>
+      </c>
+      <c r="B106" t="s">
         <v>552</v>
       </c>
-      <c r="B106" t="s">
+      <c r="C106" t="s">
         <v>553</v>
       </c>
-      <c r="C106" t="s">
+      <c r="D106" t="s">
         <v>554</v>
       </c>
-      <c r="D106" t="s">
+      <c r="E106" t="s">
         <v>555</v>
       </c>
-      <c r="E106" t="s">
-        <v>556</v>
-      </c>
       <c r="F106" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H106">
         <f t="shared" si="9"/>
@@ -7750,22 +7726,22 @@
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
+        <v>556</v>
+      </c>
+      <c r="B107" t="s">
         <v>557</v>
       </c>
-      <c r="B107" t="s">
+      <c r="C107" t="s">
         <v>558</v>
       </c>
-      <c r="C107" t="s">
+      <c r="D107" t="s">
         <v>559</v>
       </c>
-      <c r="D107" t="s">
+      <c r="E107" t="s">
         <v>560</v>
       </c>
-      <c r="E107" t="s">
-        <v>561</v>
-      </c>
       <c r="F107" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H107">
         <f t="shared" si="9"/>
@@ -7922,22 +7898,22 @@
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
+        <v>609</v>
+      </c>
+      <c r="B112" t="s">
         <v>610</v>
       </c>
-      <c r="B112" t="s">
+      <c r="C112" t="s">
         <v>611</v>
       </c>
-      <c r="C112" t="s">
+      <c r="D112" t="s">
         <v>612</v>
       </c>
-      <c r="D112" t="s">
+      <c r="E112" t="s">
         <v>613</v>
       </c>
-      <c r="E112" t="s">
-        <v>614</v>
-      </c>
       <c r="F112" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H112">
         <f t="shared" si="9"/>
@@ -7954,22 +7930,22 @@
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B113" t="s">
         <v>469</v>
       </c>
       <c r="C113" t="s">
+        <v>525</v>
+      </c>
+      <c r="D113" t="s">
         <v>526</v>
       </c>
-      <c r="D113" t="s">
+      <c r="E113" t="s">
         <v>527</v>
       </c>
-      <c r="E113" t="s">
-        <v>528</v>
-      </c>
       <c r="F113" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H113">
         <f t="shared" si="9"/>
@@ -7986,22 +7962,22 @@
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
+        <v>614</v>
+      </c>
+      <c r="B114" t="s">
         <v>615</v>
       </c>
-      <c r="B114" t="s">
+      <c r="C114" t="s">
         <v>616</v>
       </c>
-      <c r="C114" t="s">
+      <c r="D114" t="s">
         <v>617</v>
       </c>
-      <c r="D114" t="s">
+      <c r="E114" t="s">
         <v>618</v>
       </c>
-      <c r="E114" t="s">
+      <c r="F114" t="s">
         <v>619</v>
-      </c>
-      <c r="F114" t="s">
-        <v>620</v>
       </c>
       <c r="H114">
         <f t="shared" si="9"/>
@@ -8033,7 +8009,7 @@
         <v>426</v>
       </c>
       <c r="F115" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="G115" s="1" t="s">
         <v>87</v>
@@ -8053,22 +8029,22 @@
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
+        <v>561</v>
+      </c>
+      <c r="B116" t="s">
         <v>562</v>
-      </c>
-      <c r="B116" t="s">
-        <v>563</v>
       </c>
       <c r="C116" t="s">
         <v>414</v>
       </c>
       <c r="D116" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="E116" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="F116" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H116">
         <f t="shared" si="9"/>
@@ -8085,22 +8061,22 @@
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
+        <v>564</v>
+      </c>
+      <c r="B117" t="s">
         <v>565</v>
       </c>
-      <c r="B117" t="s">
+      <c r="C117" t="s">
         <v>566</v>
       </c>
-      <c r="C117" t="s">
+      <c r="D117" t="s">
         <v>567</v>
       </c>
-      <c r="D117" t="s">
+      <c r="E117" t="s">
         <v>568</v>
       </c>
-      <c r="E117" t="s">
-        <v>569</v>
-      </c>
       <c r="F117" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H117">
         <f t="shared" si="9"/>
@@ -8117,22 +8093,22 @@
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
+        <v>569</v>
+      </c>
+      <c r="B118" t="s">
         <v>570</v>
       </c>
-      <c r="B118" t="s">
+      <c r="C118" t="s">
         <v>571</v>
       </c>
-      <c r="C118" t="s">
+      <c r="D118" t="s">
         <v>572</v>
       </c>
-      <c r="D118" t="s">
-        <v>573</v>
-      </c>
       <c r="E118" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="F118" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H118">
         <f t="shared" si="9"/>
@@ -8254,22 +8230,22 @@
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
+        <v>599</v>
+      </c>
+      <c r="B122" t="s">
         <v>600</v>
       </c>
-      <c r="B122" t="s">
+      <c r="C122" t="s">
         <v>601</v>
       </c>
-      <c r="C122" t="s">
+      <c r="D122" t="s">
         <v>602</v>
       </c>
-      <c r="D122" t="s">
+      <c r="E122" t="s">
         <v>603</v>
       </c>
-      <c r="E122" t="s">
-        <v>604</v>
-      </c>
       <c r="F122" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H122">
         <f t="shared" si="9"/>
@@ -8321,7 +8297,7 @@
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="B124" t="s">
         <v>427</v>
@@ -8336,17 +8312,17 @@
         <v>432</v>
       </c>
       <c r="F124" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="G124" s="1" t="s">
         <v>431</v>
       </c>
       <c r="H124">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="H124:H187" si="12">INT(J124/3)</f>
         <v>40</v>
       </c>
       <c r="I124" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" ref="I124:I187" si="13">$L$1+H124</f>
         <v>45665</v>
       </c>
       <c r="J124">
@@ -8377,11 +8353,11 @@
         <v>143</v>
       </c>
       <c r="H125">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>41</v>
       </c>
       <c r="I125" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>45666</v>
       </c>
       <c r="J125">
@@ -8412,11 +8388,11 @@
         <v>141</v>
       </c>
       <c r="H126">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>41</v>
       </c>
       <c r="I126" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>45666</v>
       </c>
       <c r="J126">
@@ -8426,29 +8402,29 @@
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
+        <v>604</v>
+      </c>
+      <c r="B127" t="s">
         <v>605</v>
       </c>
-      <c r="B127" t="s">
+      <c r="C127" t="s">
         <v>606</v>
       </c>
-      <c r="C127" t="s">
+      <c r="D127" t="s">
         <v>607</v>
       </c>
-      <c r="D127" t="s">
+      <c r="E127" t="s">
         <v>608</v>
       </c>
-      <c r="E127" t="s">
-        <v>609</v>
-      </c>
       <c r="F127" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H127">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>41</v>
       </c>
       <c r="I127" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>45666</v>
       </c>
       <c r="J127">
@@ -8479,11 +8455,11 @@
         <v>138</v>
       </c>
       <c r="H128">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>42</v>
       </c>
       <c r="I128" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>45667</v>
       </c>
       <c r="J128">
@@ -8514,11 +8490,11 @@
         <v>138</v>
       </c>
       <c r="H129">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>42</v>
       </c>
       <c r="I129" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>45667</v>
       </c>
       <c r="J129">
@@ -8549,11 +8525,11 @@
         <v>8</v>
       </c>
       <c r="H130">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>42</v>
       </c>
       <c r="I130" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>45667</v>
       </c>
       <c r="J130">
@@ -8584,11 +8560,11 @@
         <v>185</v>
       </c>
       <c r="H131">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>43</v>
       </c>
       <c r="I131" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>45668</v>
       </c>
       <c r="J131">
@@ -8619,11 +8595,11 @@
         <v>87</v>
       </c>
       <c r="H132">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>43</v>
       </c>
       <c r="I132" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>45668</v>
       </c>
       <c r="J132">
@@ -8654,11 +8630,11 @@
         <v>186</v>
       </c>
       <c r="H133">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>43</v>
       </c>
       <c r="I133" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>45668</v>
       </c>
       <c r="J133">
@@ -8689,11 +8665,11 @@
         <v>138</v>
       </c>
       <c r="H134">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>44</v>
       </c>
       <c r="I134" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>45669</v>
       </c>
       <c r="J134">
@@ -8724,11 +8700,11 @@
         <v>431</v>
       </c>
       <c r="H135">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>44</v>
       </c>
       <c r="I135" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>45669</v>
       </c>
       <c r="J135">
@@ -8759,11 +8735,11 @@
         <v>457</v>
       </c>
       <c r="H136">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>44</v>
       </c>
       <c r="I136" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>45669</v>
       </c>
       <c r="J136">
@@ -8773,29 +8749,29 @@
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B137" t="s">
         <v>232</v>
       </c>
       <c r="C137" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="D137" t="s">
         <v>231</v>
       </c>
       <c r="E137" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="F137" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H137">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>45</v>
       </c>
       <c r="I137" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>45670</v>
       </c>
       <c r="J137">
@@ -8817,7 +8793,7 @@
         <v>43</v>
       </c>
       <c r="E138" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="F138" s="1" t="s">
         <v>341</v>
@@ -8826,11 +8802,11 @@
         <v>47</v>
       </c>
       <c r="H138">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>45</v>
       </c>
       <c r="I138" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>45670</v>
       </c>
       <c r="J138">
@@ -8840,30 +8816,30 @@
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
+        <v>681</v>
+      </c>
+      <c r="B139" t="s">
         <v>682</v>
       </c>
-      <c r="B139" t="s">
+      <c r="C139" t="s">
         <v>683</v>
       </c>
-      <c r="C139" t="s">
+      <c r="D139" t="s">
         <v>684</v>
       </c>
-      <c r="D139" t="s">
+      <c r="E139" t="s">
         <v>685</v>
       </c>
-      <c r="E139" t="s">
-        <v>686</v>
-      </c>
       <c r="F139" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="G139" s="1"/>
       <c r="H139">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>45</v>
       </c>
       <c r="I139" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>45670</v>
       </c>
       <c r="J139">
@@ -8873,29 +8849,29 @@
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
+        <v>666</v>
+      </c>
+      <c r="B140" t="s">
         <v>667</v>
       </c>
-      <c r="B140" t="s">
+      <c r="C140" t="s">
         <v>668</v>
       </c>
-      <c r="C140" t="s">
+      <c r="D140" t="s">
         <v>669</v>
       </c>
-      <c r="D140" t="s">
+      <c r="E140" t="s">
         <v>670</v>
       </c>
-      <c r="E140" t="s">
-        <v>671</v>
-      </c>
       <c r="F140" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H140">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>46</v>
       </c>
       <c r="I140" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>45671</v>
       </c>
       <c r="J140">
@@ -8905,29 +8881,29 @@
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
+        <v>671</v>
+      </c>
+      <c r="B141" t="s">
         <v>672</v>
       </c>
-      <c r="B141" t="s">
+      <c r="C141" t="s">
         <v>673</v>
       </c>
-      <c r="C141" t="s">
+      <c r="D141" t="s">
         <v>674</v>
       </c>
-      <c r="D141" t="s">
+      <c r="E141" t="s">
         <v>675</v>
       </c>
-      <c r="E141" t="s">
-        <v>676</v>
-      </c>
       <c r="F141" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H141">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>46</v>
       </c>
       <c r="I141" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>45671</v>
       </c>
       <c r="J141">
@@ -8937,29 +8913,29 @@
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
+        <v>676</v>
+      </c>
+      <c r="B142" t="s">
         <v>677</v>
       </c>
-      <c r="B142" t="s">
+      <c r="C142" t="s">
         <v>678</v>
       </c>
-      <c r="C142" t="s">
+      <c r="D142" t="s">
         <v>679</v>
       </c>
-      <c r="D142" t="s">
+      <c r="E142" t="s">
         <v>680</v>
       </c>
-      <c r="E142" t="s">
-        <v>681</v>
-      </c>
       <c r="F142" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H142">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>46</v>
       </c>
       <c r="I142" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>45671</v>
       </c>
       <c r="J142">
@@ -8969,29 +8945,29 @@
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
+        <v>686</v>
+      </c>
+      <c r="B143" t="s">
         <v>687</v>
       </c>
-      <c r="B143" t="s">
+      <c r="C143" t="s">
         <v>688</v>
       </c>
-      <c r="C143" t="s">
+      <c r="D143" t="s">
         <v>689</v>
       </c>
-      <c r="D143" t="s">
+      <c r="E143" t="s">
         <v>690</v>
       </c>
-      <c r="E143" t="s">
-        <v>691</v>
-      </c>
       <c r="F143" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H143">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>47</v>
       </c>
       <c r="I143" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>45672</v>
       </c>
       <c r="J143">
@@ -9001,29 +8977,29 @@
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="B144" t="s">
         <v>228</v>
       </c>
       <c r="C144" t="s">
+        <v>692</v>
+      </c>
+      <c r="D144" t="s">
         <v>693</v>
       </c>
-      <c r="D144" t="s">
+      <c r="E144" t="s">
         <v>694</v>
       </c>
-      <c r="E144" t="s">
-        <v>695</v>
-      </c>
       <c r="F144" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H144">
-        <f t="shared" ref="H144:H207" si="12">INT(J144/3)</f>
+        <f t="shared" si="12"/>
         <v>47</v>
       </c>
       <c r="I144" s="3">
-        <f t="shared" ref="I144:I207" si="13">$L$1+H144</f>
+        <f t="shared" si="13"/>
         <v>45672</v>
       </c>
       <c r="J144">
@@ -9033,22 +9009,22 @@
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
+        <v>695</v>
+      </c>
+      <c r="B145" t="s">
         <v>696</v>
       </c>
-      <c r="B145" t="s">
+      <c r="C145" t="s">
         <v>697</v>
       </c>
-      <c r="C145" t="s">
+      <c r="D145" t="s">
         <v>698</v>
       </c>
-      <c r="D145" t="s">
+      <c r="E145" t="s">
         <v>699</v>
       </c>
-      <c r="E145" t="s">
-        <v>700</v>
-      </c>
       <c r="F145" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H145">
         <f t="shared" si="12"/>
@@ -9065,22 +9041,22 @@
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
+        <v>700</v>
+      </c>
+      <c r="B146" t="s">
         <v>701</v>
       </c>
-      <c r="B146" t="s">
+      <c r="C146" t="s">
         <v>702</v>
       </c>
-      <c r="C146" t="s">
+      <c r="D146" t="s">
         <v>703</v>
       </c>
-      <c r="D146" t="s">
+      <c r="E146" t="s">
         <v>704</v>
       </c>
-      <c r="E146" t="s">
-        <v>705</v>
-      </c>
       <c r="F146" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H146">
         <f t="shared" si="12"/>
@@ -9097,22 +9073,22 @@
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
+        <v>705</v>
+      </c>
+      <c r="B147" t="s">
+        <v>639</v>
+      </c>
+      <c r="C147" t="s">
         <v>706</v>
       </c>
-      <c r="B147" t="s">
-        <v>640</v>
-      </c>
-      <c r="C147" t="s">
+      <c r="D147" t="s">
         <v>707</v>
       </c>
-      <c r="D147" t="s">
+      <c r="E147" t="s">
         <v>708</v>
       </c>
-      <c r="E147" t="s">
-        <v>709</v>
-      </c>
       <c r="F147" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H147">
         <f t="shared" si="12"/>
@@ -9129,22 +9105,22 @@
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
+        <v>709</v>
+      </c>
+      <c r="B148" t="s">
         <v>710</v>
       </c>
-      <c r="B148" t="s">
+      <c r="C148" t="s">
         <v>711</v>
       </c>
-      <c r="C148" t="s">
+      <c r="D148" t="s">
         <v>712</v>
       </c>
-      <c r="D148" t="s">
+      <c r="E148" t="s">
         <v>713</v>
       </c>
-      <c r="E148" t="s">
-        <v>714</v>
-      </c>
       <c r="F148" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H148">
         <f t="shared" si="12"/>
@@ -9161,22 +9137,22 @@
     </row>
     <row r="149" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
+        <v>714</v>
+      </c>
+      <c r="B149" t="s">
         <v>715</v>
       </c>
-      <c r="B149" t="s">
+      <c r="C149" t="s">
         <v>716</v>
       </c>
-      <c r="C149" t="s">
+      <c r="D149" t="s">
         <v>717</v>
       </c>
-      <c r="D149" t="s">
+      <c r="E149" t="s">
         <v>718</v>
       </c>
-      <c r="E149" t="s">
-        <v>719</v>
-      </c>
       <c r="F149" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H149">
         <f t="shared" si="12"/>
@@ -9193,22 +9169,22 @@
     </row>
     <row r="150" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
+        <v>719</v>
+      </c>
+      <c r="B150" t="s">
         <v>720</v>
       </c>
-      <c r="B150" t="s">
+      <c r="C150" t="s">
         <v>721</v>
       </c>
-      <c r="C150" t="s">
+      <c r="D150" t="s">
         <v>722</v>
       </c>
-      <c r="D150" t="s">
+      <c r="E150" t="s">
         <v>723</v>
       </c>
-      <c r="E150" t="s">
-        <v>724</v>
-      </c>
       <c r="F150" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H150">
         <f t="shared" si="12"/>
@@ -9225,22 +9201,22 @@
     </row>
     <row r="151" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
+        <v>724</v>
+      </c>
+      <c r="B151" t="s">
         <v>725</v>
       </c>
-      <c r="B151" t="s">
+      <c r="C151" t="s">
         <v>726</v>
       </c>
-      <c r="C151" t="s">
+      <c r="D151" t="s">
         <v>727</v>
       </c>
-      <c r="D151" t="s">
+      <c r="E151" t="s">
         <v>728</v>
       </c>
-      <c r="E151" t="s">
-        <v>729</v>
-      </c>
       <c r="F151" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H151">
         <f t="shared" si="12"/>
@@ -9257,22 +9233,22 @@
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
+        <v>729</v>
+      </c>
+      <c r="B152" t="s">
         <v>730</v>
       </c>
-      <c r="B152" t="s">
+      <c r="C152" t="s">
         <v>731</v>
       </c>
-      <c r="C152" t="s">
+      <c r="D152" t="s">
         <v>732</v>
       </c>
-      <c r="D152" t="s">
+      <c r="E152" t="s">
         <v>733</v>
       </c>
-      <c r="E152" t="s">
-        <v>734</v>
-      </c>
       <c r="F152" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H152">
         <f t="shared" si="12"/>
@@ -9289,22 +9265,22 @@
     </row>
     <row r="153" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
+        <v>734</v>
+      </c>
+      <c r="B153" t="s">
         <v>735</v>
       </c>
-      <c r="B153" t="s">
+      <c r="C153" t="s">
         <v>736</v>
       </c>
-      <c r="C153" t="s">
+      <c r="D153" t="s">
         <v>737</v>
-      </c>
-      <c r="D153" t="s">
-        <v>738</v>
       </c>
       <c r="E153" t="s">
         <v>246</v>
       </c>
       <c r="F153" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H153">
         <f t="shared" si="12"/>
@@ -9321,22 +9297,22 @@
     </row>
     <row r="154" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
+        <v>738</v>
+      </c>
+      <c r="B154" t="s">
         <v>739</v>
       </c>
-      <c r="B154" t="s">
+      <c r="C154" t="s">
+        <v>595</v>
+      </c>
+      <c r="D154" t="s">
         <v>740</v>
       </c>
-      <c r="C154" t="s">
-        <v>596</v>
-      </c>
-      <c r="D154" t="s">
+      <c r="E154" t="s">
         <v>741</v>
       </c>
-      <c r="E154" t="s">
-        <v>742</v>
-      </c>
       <c r="F154" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H154">
         <f t="shared" si="12"/>
@@ -9353,22 +9329,22 @@
     </row>
     <row r="155" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
+        <v>742</v>
+      </c>
+      <c r="B155" t="s">
         <v>743</v>
       </c>
-      <c r="B155" t="s">
+      <c r="C155" t="s">
         <v>744</v>
       </c>
-      <c r="C155" t="s">
+      <c r="D155" t="s">
         <v>745</v>
       </c>
-      <c r="D155" t="s">
+      <c r="E155" t="s">
         <v>746</v>
       </c>
-      <c r="E155" t="s">
-        <v>747</v>
-      </c>
       <c r="F155" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H155">
         <f t="shared" si="12"/>
@@ -9385,22 +9361,22 @@
     </row>
     <row r="156" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
+        <v>747</v>
+      </c>
+      <c r="B156" t="s">
         <v>748</v>
       </c>
-      <c r="B156" t="s">
+      <c r="C156" t="s">
         <v>749</v>
       </c>
-      <c r="C156" t="s">
+      <c r="D156" t="s">
         <v>750</v>
       </c>
-      <c r="D156" t="s">
+      <c r="E156" t="s">
         <v>751</v>
       </c>
-      <c r="E156" t="s">
-        <v>752</v>
-      </c>
       <c r="F156" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H156">
         <f t="shared" si="12"/>
@@ -9417,22 +9393,22 @@
     </row>
     <row r="157" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
+        <v>752</v>
+      </c>
+      <c r="B157" t="s">
         <v>753</v>
       </c>
-      <c r="B157" t="s">
+      <c r="C157" t="s">
         <v>754</v>
       </c>
-      <c r="C157" t="s">
+      <c r="D157" t="s">
         <v>755</v>
       </c>
-      <c r="D157" t="s">
+      <c r="E157" t="s">
         <v>756</v>
       </c>
-      <c r="E157" t="s">
-        <v>757</v>
-      </c>
       <c r="F157" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H157">
         <f t="shared" si="12"/>
@@ -9449,22 +9425,22 @@
     </row>
     <row r="158" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
+        <v>757</v>
+      </c>
+      <c r="B158" t="s">
         <v>758</v>
       </c>
-      <c r="B158" t="s">
+      <c r="C158" t="s">
         <v>759</v>
       </c>
-      <c r="C158" t="s">
+      <c r="D158" t="s">
         <v>760</v>
       </c>
-      <c r="D158" t="s">
+      <c r="E158" t="s">
         <v>761</v>
       </c>
-      <c r="E158" t="s">
-        <v>762</v>
-      </c>
       <c r="F158" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="H158">
         <f t="shared" si="12"/>
@@ -9481,22 +9457,22 @@
     </row>
     <row r="159" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
+        <v>762</v>
+      </c>
+      <c r="B159" t="s">
         <v>763</v>
       </c>
-      <c r="B159" t="s">
+      <c r="C159" t="s">
         <v>764</v>
       </c>
-      <c r="C159" t="s">
+      <c r="D159" t="s">
         <v>765</v>
       </c>
-      <c r="D159" t="s">
-        <v>766</v>
-      </c>
       <c r="E159" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="F159" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="H159">
         <f t="shared" si="12"/>
@@ -9513,22 +9489,22 @@
     </row>
     <row r="160" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
+        <v>766</v>
+      </c>
+      <c r="B160" t="s">
         <v>767</v>
       </c>
-      <c r="B160" t="s">
+      <c r="C160" t="s">
         <v>768</v>
       </c>
-      <c r="C160" t="s">
+      <c r="D160" t="s">
         <v>769</v>
       </c>
-      <c r="D160" t="s">
+      <c r="E160" t="s">
         <v>770</v>
       </c>
-      <c r="E160" t="s">
-        <v>771</v>
-      </c>
       <c r="F160" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="H160">
         <f t="shared" si="12"/>
@@ -9545,22 +9521,22 @@
     </row>
     <row r="161" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
+        <v>771</v>
+      </c>
+      <c r="B161" t="s">
         <v>772</v>
       </c>
-      <c r="B161" t="s">
+      <c r="C161" t="s">
         <v>773</v>
       </c>
-      <c r="C161" t="s">
+      <c r="D161" t="s">
         <v>774</v>
       </c>
-      <c r="D161" t="s">
+      <c r="E161" t="s">
         <v>775</v>
       </c>
-      <c r="E161" t="s">
-        <v>776</v>
-      </c>
       <c r="F161" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H161">
         <f t="shared" si="12"/>
@@ -9577,22 +9553,22 @@
     </row>
     <row r="162" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
+        <v>776</v>
+      </c>
+      <c r="B162" t="s">
         <v>777</v>
       </c>
-      <c r="B162" t="s">
+      <c r="C162" t="s">
         <v>778</v>
       </c>
-      <c r="C162" t="s">
+      <c r="D162" t="s">
         <v>779</v>
       </c>
-      <c r="D162" t="s">
+      <c r="E162" t="s">
         <v>780</v>
       </c>
-      <c r="E162" t="s">
-        <v>781</v>
-      </c>
       <c r="F162" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="H162">
         <f t="shared" si="12"/>
@@ -9609,22 +9585,22 @@
     </row>
     <row r="163" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
+        <v>781</v>
+      </c>
+      <c r="B163" t="s">
         <v>782</v>
-      </c>
-      <c r="B163" t="s">
-        <v>783</v>
       </c>
       <c r="C163" t="s">
         <v>293</v>
       </c>
       <c r="D163" t="s">
+        <v>783</v>
+      </c>
+      <c r="E163" t="s">
         <v>784</v>
       </c>
-      <c r="E163" t="s">
-        <v>785</v>
-      </c>
       <c r="F163" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="H163">
         <f t="shared" si="12"/>
@@ -9641,22 +9617,22 @@
     </row>
     <row r="164" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
+        <v>766</v>
+      </c>
+      <c r="B164" t="s">
         <v>767</v>
       </c>
-      <c r="B164" t="s">
+      <c r="C164" t="s">
         <v>768</v>
       </c>
-      <c r="C164" t="s">
+      <c r="D164" t="s">
         <v>769</v>
       </c>
-      <c r="D164" t="s">
+      <c r="E164" t="s">
         <v>770</v>
       </c>
-      <c r="E164" t="s">
-        <v>771</v>
-      </c>
       <c r="F164" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="H164">
         <f t="shared" si="12"/>
@@ -9673,22 +9649,22 @@
     </row>
     <row r="165" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
+        <v>785</v>
+      </c>
+      <c r="B165" t="s">
         <v>786</v>
       </c>
-      <c r="B165" t="s">
+      <c r="C165" t="s">
         <v>787</v>
       </c>
-      <c r="C165" t="s">
+      <c r="D165" t="s">
         <v>788</v>
       </c>
-      <c r="D165" t="s">
+      <c r="E165" t="s">
         <v>789</v>
       </c>
-      <c r="E165" t="s">
-        <v>790</v>
-      </c>
       <c r="F165" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="H165">
         <f t="shared" si="12"/>
@@ -9705,22 +9681,22 @@
     </row>
     <row r="166" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B166" t="s">
+        <v>790</v>
+      </c>
+      <c r="C166" t="s">
         <v>791</v>
       </c>
-      <c r="C166" t="s">
+      <c r="D166" t="s">
         <v>792</v>
       </c>
-      <c r="D166" t="s">
+      <c r="E166" t="s">
         <v>793</v>
       </c>
-      <c r="E166" t="s">
-        <v>794</v>
-      </c>
       <c r="F166" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="H166">
         <f t="shared" si="12"/>
@@ -9737,22 +9713,22 @@
     </row>
     <row r="167" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
+        <v>794</v>
+      </c>
+      <c r="B167" t="s">
         <v>795</v>
       </c>
-      <c r="B167" t="s">
+      <c r="C167" t="s">
         <v>796</v>
       </c>
-      <c r="C167" t="s">
+      <c r="D167" t="s">
         <v>797</v>
       </c>
-      <c r="D167" t="s">
+      <c r="E167" t="s">
         <v>798</v>
       </c>
-      <c r="E167" t="s">
-        <v>799</v>
-      </c>
       <c r="F167" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H167">
         <f t="shared" si="12"/>
@@ -9769,22 +9745,22 @@
     </row>
     <row r="168" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
+        <v>799</v>
+      </c>
+      <c r="B168" t="s">
         <v>800</v>
       </c>
-      <c r="B168" t="s">
+      <c r="C168" t="s">
         <v>801</v>
       </c>
-      <c r="C168" t="s">
+      <c r="D168" t="s">
         <v>802</v>
       </c>
-      <c r="D168" t="s">
+      <c r="E168" t="s">
         <v>803</v>
       </c>
-      <c r="E168" t="s">
-        <v>804</v>
-      </c>
       <c r="F168" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H168">
         <f t="shared" si="12"/>
@@ -9801,22 +9777,22 @@
     </row>
     <row r="169" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
+        <v>804</v>
+      </c>
+      <c r="B169" t="s">
+        <v>525</v>
+      </c>
+      <c r="C169" t="s">
         <v>805</v>
       </c>
-      <c r="B169" t="s">
-        <v>526</v>
-      </c>
-      <c r="C169" t="s">
+      <c r="D169" t="s">
         <v>806</v>
       </c>
-      <c r="D169" t="s">
+      <c r="E169" t="s">
         <v>807</v>
       </c>
-      <c r="E169" t="s">
-        <v>808</v>
-      </c>
       <c r="F169" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H169">
         <f t="shared" si="12"/>
@@ -9833,22 +9809,22 @@
     </row>
     <row r="170" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
+        <v>808</v>
+      </c>
+      <c r="B170" t="s">
         <v>809</v>
       </c>
-      <c r="B170" t="s">
+      <c r="C170" t="s">
         <v>810</v>
       </c>
-      <c r="C170" t="s">
+      <c r="D170" t="s">
         <v>811</v>
       </c>
-      <c r="D170" t="s">
+      <c r="E170" t="s">
         <v>812</v>
       </c>
-      <c r="E170" t="s">
-        <v>813</v>
-      </c>
       <c r="F170" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H170">
         <f t="shared" si="12"/>
@@ -9865,22 +9841,22 @@
     </row>
     <row r="171" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
+        <v>813</v>
+      </c>
+      <c r="B171" t="s">
         <v>814</v>
       </c>
-      <c r="B171" t="s">
+      <c r="C171" t="s">
         <v>815</v>
       </c>
-      <c r="C171" t="s">
+      <c r="D171" t="s">
         <v>816</v>
       </c>
-      <c r="D171" t="s">
+      <c r="E171" t="s">
         <v>817</v>
       </c>
-      <c r="E171" t="s">
-        <v>818</v>
-      </c>
       <c r="F171" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H171">
         <f t="shared" si="12"/>
@@ -9900,19 +9876,19 @@
         <v>406</v>
       </c>
       <c r="B172" t="s">
+        <v>818</v>
+      </c>
+      <c r="C172" t="s">
         <v>819</v>
       </c>
-      <c r="C172" t="s">
+      <c r="D172" t="s">
         <v>820</v>
-      </c>
-      <c r="D172" t="s">
-        <v>821</v>
       </c>
       <c r="E172" t="s">
         <v>103</v>
       </c>
       <c r="F172" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H172">
         <f t="shared" si="12"/>
@@ -9929,22 +9905,22 @@
     </row>
     <row r="173" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
+        <v>821</v>
+      </c>
+      <c r="B173" t="s">
         <v>822</v>
       </c>
-      <c r="B173" t="s">
+      <c r="C173" t="s">
         <v>823</v>
       </c>
-      <c r="C173" t="s">
+      <c r="D173" t="s">
         <v>824</v>
       </c>
-      <c r="D173" t="s">
+      <c r="E173" t="s">
         <v>825</v>
       </c>
-      <c r="E173" t="s">
-        <v>826</v>
-      </c>
       <c r="F173" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H173">
         <f t="shared" si="12"/>
@@ -9961,22 +9937,22 @@
     </row>
     <row r="174" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
+        <v>826</v>
+      </c>
+      <c r="B174" t="s">
         <v>827</v>
       </c>
-      <c r="B174" t="s">
+      <c r="C174" t="s">
         <v>828</v>
       </c>
-      <c r="C174" t="s">
+      <c r="D174" t="s">
         <v>829</v>
       </c>
-      <c r="D174" t="s">
+      <c r="E174" t="s">
         <v>830</v>
       </c>
-      <c r="E174" t="s">
-        <v>831</v>
-      </c>
       <c r="F174" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H174">
         <f t="shared" si="12"/>
@@ -9993,22 +9969,22 @@
     </row>
     <row r="175" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
+        <v>831</v>
+      </c>
+      <c r="B175" t="s">
         <v>832</v>
       </c>
-      <c r="B175" t="s">
+      <c r="C175" t="s">
         <v>833</v>
       </c>
-      <c r="C175" t="s">
+      <c r="D175" t="s">
         <v>834</v>
       </c>
-      <c r="D175" t="s">
+      <c r="E175" t="s">
         <v>835</v>
       </c>
-      <c r="E175" t="s">
-        <v>836</v>
-      </c>
       <c r="F175" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H175">
         <f t="shared" si="12"/>
@@ -10025,22 +10001,22 @@
     </row>
     <row r="176" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="B176" t="s">
         <v>301</v>
       </c>
       <c r="C176" t="s">
+        <v>837</v>
+      </c>
+      <c r="D176" t="s">
         <v>838</v>
       </c>
-      <c r="D176" t="s">
+      <c r="E176" t="s">
         <v>839</v>
       </c>
-      <c r="E176" t="s">
-        <v>840</v>
-      </c>
       <c r="F176" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H176">
         <f t="shared" si="12"/>
@@ -10057,22 +10033,22 @@
     </row>
     <row r="177" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
+        <v>840</v>
+      </c>
+      <c r="B177" t="s">
         <v>841</v>
       </c>
-      <c r="B177" t="s">
+      <c r="C177" t="s">
         <v>842</v>
       </c>
-      <c r="C177" t="s">
+      <c r="D177" t="s">
         <v>843</v>
       </c>
-      <c r="D177" t="s">
+      <c r="E177" t="s">
         <v>844</v>
       </c>
-      <c r="E177" t="s">
-        <v>845</v>
-      </c>
       <c r="F177" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H177">
         <f t="shared" si="12"/>
@@ -10089,22 +10065,22 @@
     </row>
     <row r="178" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
+        <v>850</v>
+      </c>
+      <c r="B178" t="s">
+        <v>529</v>
+      </c>
+      <c r="C178" t="s">
         <v>851</v>
       </c>
-      <c r="B178" t="s">
-        <v>530</v>
-      </c>
-      <c r="C178" t="s">
+      <c r="D178" t="s">
         <v>852</v>
       </c>
-      <c r="D178" t="s">
+      <c r="E178" t="s">
         <v>853</v>
       </c>
-      <c r="E178" t="s">
-        <v>854</v>
-      </c>
       <c r="F178" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H178">
         <f t="shared" si="12"/>
@@ -10121,22 +10097,22 @@
     </row>
     <row r="179" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
+        <v>854</v>
+      </c>
+      <c r="B179" t="s">
         <v>855</v>
       </c>
-      <c r="B179" t="s">
+      <c r="C179" t="s">
         <v>856</v>
       </c>
-      <c r="C179" t="s">
+      <c r="D179" t="s">
         <v>857</v>
       </c>
-      <c r="D179" t="s">
+      <c r="E179" t="s">
         <v>858</v>
       </c>
-      <c r="E179" t="s">
-        <v>859</v>
-      </c>
       <c r="F179" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H179">
         <f t="shared" si="12"/>
@@ -10153,22 +10129,22 @@
     </row>
     <row r="180" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
+        <v>859</v>
+      </c>
+      <c r="B180" t="s">
         <v>860</v>
       </c>
-      <c r="B180" t="s">
+      <c r="C180" t="s">
         <v>861</v>
       </c>
-      <c r="C180" t="s">
+      <c r="D180" t="s">
         <v>862</v>
       </c>
-      <c r="D180" t="s">
+      <c r="E180" t="s">
         <v>863</v>
       </c>
-      <c r="E180" t="s">
-        <v>864</v>
-      </c>
       <c r="F180" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="H180">
         <f t="shared" si="12"/>
@@ -10185,22 +10161,22 @@
     </row>
     <row r="181" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
+        <v>864</v>
+      </c>
+      <c r="B181" t="s">
         <v>865</v>
       </c>
-      <c r="B181" t="s">
+      <c r="C181" t="s">
         <v>866</v>
       </c>
-      <c r="C181" t="s">
+      <c r="D181" t="s">
         <v>867</v>
       </c>
-      <c r="D181" t="s">
+      <c r="E181" t="s">
         <v>868</v>
       </c>
-      <c r="E181" t="s">
-        <v>869</v>
-      </c>
       <c r="F181" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="H181">
         <f t="shared" si="12"/>
@@ -10217,22 +10193,22 @@
     </row>
     <row r="182" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
+        <v>762</v>
+      </c>
+      <c r="B182" t="s">
         <v>763</v>
       </c>
-      <c r="B182" t="s">
+      <c r="C182" t="s">
         <v>764</v>
       </c>
-      <c r="C182" t="s">
+      <c r="D182" t="s">
         <v>765</v>
       </c>
-      <c r="D182" t="s">
-        <v>766</v>
-      </c>
       <c r="E182" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="F182" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="H182">
         <f t="shared" si="12"/>
@@ -10249,22 +10225,22 @@
     </row>
     <row r="183" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
+        <v>869</v>
+      </c>
+      <c r="B183" t="s">
         <v>870</v>
       </c>
-      <c r="B183" t="s">
+      <c r="C183" t="s">
         <v>871</v>
       </c>
-      <c r="C183" t="s">
+      <c r="D183" t="s">
         <v>872</v>
       </c>
-      <c r="D183" t="s">
+      <c r="E183" t="s">
         <v>873</v>
       </c>
-      <c r="E183" t="s">
-        <v>874</v>
-      </c>
       <c r="F183" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H183">
         <f t="shared" si="12"/>
@@ -10281,22 +10257,22 @@
     </row>
     <row r="184" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
+        <v>874</v>
+      </c>
+      <c r="B184" t="s">
         <v>875</v>
       </c>
-      <c r="B184" t="s">
+      <c r="C184" t="s">
         <v>876</v>
       </c>
-      <c r="C184" t="s">
+      <c r="D184" t="s">
         <v>877</v>
       </c>
-      <c r="D184" t="s">
+      <c r="E184" t="s">
         <v>878</v>
       </c>
-      <c r="E184" t="s">
-        <v>879</v>
-      </c>
       <c r="F184" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H184">
         <f t="shared" si="12"/>
@@ -10313,22 +10289,22 @@
     </row>
     <row r="185" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
+        <v>879</v>
+      </c>
+      <c r="B185" t="s">
         <v>880</v>
       </c>
-      <c r="B185" t="s">
+      <c r="C185" t="s">
         <v>881</v>
       </c>
-      <c r="C185" t="s">
+      <c r="D185" t="s">
         <v>882</v>
       </c>
-      <c r="D185" t="s">
+      <c r="E185" t="s">
         <v>883</v>
       </c>
-      <c r="E185" t="s">
-        <v>884</v>
-      </c>
       <c r="F185" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H185">
         <f t="shared" si="12"/>
@@ -10345,22 +10321,22 @@
     </row>
     <row r="186" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
+        <v>884</v>
+      </c>
+      <c r="B186" t="s">
         <v>885</v>
       </c>
-      <c r="B186" t="s">
+      <c r="C186" t="s">
         <v>886</v>
       </c>
-      <c r="C186" t="s">
+      <c r="D186" t="s">
         <v>887</v>
       </c>
-      <c r="D186" t="s">
+      <c r="E186" t="s">
         <v>888</v>
       </c>
-      <c r="E186" t="s">
-        <v>889</v>
-      </c>
       <c r="F186" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H186">
         <f t="shared" si="12"/>
@@ -10377,22 +10353,22 @@
     </row>
     <row r="187" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
+        <v>889</v>
+      </c>
+      <c r="B187" t="s">
         <v>890</v>
       </c>
-      <c r="B187" t="s">
+      <c r="C187" t="s">
         <v>891</v>
       </c>
-      <c r="C187" t="s">
+      <c r="D187" t="s">
         <v>892</v>
       </c>
-      <c r="D187" t="s">
+      <c r="E187" t="s">
         <v>893</v>
       </c>
-      <c r="E187" t="s">
-        <v>894</v>
-      </c>
       <c r="F187" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H187">
         <f t="shared" si="12"/>
@@ -10409,29 +10385,29 @@
     </row>
     <row r="188" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
+        <v>894</v>
+      </c>
+      <c r="B188" t="s">
         <v>895</v>
       </c>
-      <c r="B188" t="s">
+      <c r="C188" t="s">
         <v>896</v>
       </c>
-      <c r="C188" t="s">
+      <c r="D188" t="s">
         <v>897</v>
       </c>
-      <c r="D188" t="s">
+      <c r="E188" t="s">
         <v>898</v>
       </c>
-      <c r="E188" t="s">
-        <v>899</v>
-      </c>
       <c r="F188" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H188">
-        <f t="shared" si="12"/>
+        <f t="shared" ref="H188:H222" si="15">INT(J188/3)</f>
         <v>62</v>
       </c>
       <c r="I188" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" ref="I188:I222" si="16">$L$1+H188</f>
         <v>45687</v>
       </c>
       <c r="J188">
@@ -10441,29 +10417,29 @@
     </row>
     <row r="189" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="B189" t="s">
         <v>169</v>
       </c>
       <c r="C189" t="s">
+        <v>900</v>
+      </c>
+      <c r="D189" t="s">
         <v>901</v>
       </c>
-      <c r="D189" t="s">
+      <c r="E189" t="s">
         <v>902</v>
       </c>
-      <c r="E189" t="s">
-        <v>903</v>
-      </c>
       <c r="F189" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H189">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>62</v>
       </c>
       <c r="I189" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>45687</v>
       </c>
       <c r="J189">
@@ -10473,29 +10449,29 @@
     </row>
     <row r="190" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
+        <v>903</v>
+      </c>
+      <c r="B190" t="s">
         <v>904</v>
       </c>
-      <c r="B190" t="s">
+      <c r="C190" t="s">
         <v>905</v>
       </c>
-      <c r="C190" t="s">
+      <c r="D190" t="s">
         <v>906</v>
       </c>
-      <c r="D190" t="s">
+      <c r="E190" t="s">
         <v>907</v>
       </c>
-      <c r="E190" t="s">
-        <v>908</v>
-      </c>
       <c r="F190" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H190">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>62</v>
       </c>
       <c r="I190" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>45687</v>
       </c>
       <c r="J190">
@@ -10505,29 +10481,29 @@
     </row>
     <row r="191" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B191" t="s">
+        <v>908</v>
+      </c>
+      <c r="C191" t="s">
+        <v>556</v>
+      </c>
+      <c r="D191" t="s">
         <v>909</v>
       </c>
-      <c r="C191" t="s">
-        <v>557</v>
-      </c>
-      <c r="D191" t="s">
+      <c r="E191" t="s">
         <v>910</v>
       </c>
-      <c r="E191" t="s">
-        <v>911</v>
-      </c>
       <c r="F191" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H191">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>63</v>
       </c>
       <c r="I191" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>45688</v>
       </c>
       <c r="J191">
@@ -10537,29 +10513,29 @@
     </row>
     <row r="192" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
+        <v>757</v>
+      </c>
+      <c r="B192" t="s">
         <v>758</v>
       </c>
-      <c r="B192" t="s">
+      <c r="C192" t="s">
         <v>759</v>
       </c>
-      <c r="C192" t="s">
+      <c r="D192" t="s">
         <v>760</v>
       </c>
-      <c r="D192" t="s">
+      <c r="E192" t="s">
         <v>761</v>
       </c>
-      <c r="E192" t="s">
-        <v>762</v>
-      </c>
       <c r="F192" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="H192">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>63</v>
       </c>
       <c r="I192" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>45688</v>
       </c>
       <c r="J192">
@@ -10569,29 +10545,29 @@
     </row>
     <row r="193" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
+        <v>911</v>
+      </c>
+      <c r="B193" t="s">
         <v>912</v>
       </c>
-      <c r="B193" t="s">
+      <c r="C193" t="s">
         <v>913</v>
       </c>
-      <c r="C193" t="s">
+      <c r="D193" t="s">
         <v>914</v>
       </c>
-      <c r="D193" t="s">
+      <c r="E193" t="s">
         <v>915</v>
       </c>
-      <c r="E193" t="s">
-        <v>916</v>
-      </c>
       <c r="F193" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="H193">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>63</v>
       </c>
       <c r="I193" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>45688</v>
       </c>
       <c r="J193">
@@ -10601,29 +10577,29 @@
     </row>
     <row r="194" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
+        <v>916</v>
+      </c>
+      <c r="B194" t="s">
         <v>917</v>
       </c>
-      <c r="B194" t="s">
+      <c r="C194" t="s">
         <v>918</v>
       </c>
-      <c r="C194" t="s">
+      <c r="D194" t="s">
         <v>919</v>
       </c>
-      <c r="D194" t="s">
+      <c r="E194" t="s">
         <v>920</v>
       </c>
-      <c r="E194" t="s">
-        <v>921</v>
-      </c>
       <c r="F194" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H194">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>64</v>
       </c>
       <c r="I194" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>45689</v>
       </c>
       <c r="J194">
@@ -10633,29 +10609,29 @@
     </row>
     <row r="195" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
+        <v>921</v>
+      </c>
+      <c r="B195" t="s">
+        <v>907</v>
+      </c>
+      <c r="C195" t="s">
         <v>922</v>
       </c>
-      <c r="B195" t="s">
-        <v>908</v>
-      </c>
-      <c r="C195" t="s">
+      <c r="D195" t="s">
         <v>923</v>
       </c>
-      <c r="D195" t="s">
+      <c r="E195" t="s">
         <v>924</v>
       </c>
-      <c r="E195" t="s">
-        <v>925</v>
-      </c>
       <c r="F195" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H195">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>64</v>
       </c>
       <c r="I195" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>45689</v>
       </c>
       <c r="J195">
@@ -10665,29 +10641,29 @@
     </row>
     <row r="196" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
+        <v>925</v>
+      </c>
+      <c r="B196" t="s">
         <v>926</v>
       </c>
-      <c r="B196" t="s">
+      <c r="C196" t="s">
         <v>927</v>
       </c>
-      <c r="C196" t="s">
+      <c r="D196" t="s">
         <v>928</v>
       </c>
-      <c r="D196" t="s">
+      <c r="E196" t="s">
         <v>929</v>
       </c>
-      <c r="E196" t="s">
-        <v>930</v>
-      </c>
       <c r="F196" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="H196">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>64</v>
       </c>
       <c r="I196" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>45689</v>
       </c>
       <c r="J196">
@@ -10697,29 +10673,29 @@
     </row>
     <row r="197" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
+        <v>930</v>
+      </c>
+      <c r="B197" t="s">
         <v>931</v>
       </c>
-      <c r="B197" t="s">
+      <c r="C197" t="s">
         <v>932</v>
       </c>
-      <c r="C197" t="s">
+      <c r="D197" t="s">
         <v>933</v>
       </c>
-      <c r="D197" t="s">
+      <c r="E197" t="s">
         <v>934</v>
       </c>
-      <c r="E197" t="s">
-        <v>935</v>
-      </c>
       <c r="F197" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H197">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>65</v>
       </c>
       <c r="I197" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>45690</v>
       </c>
       <c r="J197">
@@ -10729,29 +10705,29 @@
     </row>
     <row r="198" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="B198" t="s">
+        <v>935</v>
+      </c>
+      <c r="C198" t="s">
         <v>936</v>
       </c>
-      <c r="C198" t="s">
+      <c r="D198" t="s">
         <v>937</v>
       </c>
-      <c r="D198" t="s">
+      <c r="E198" t="s">
         <v>938</v>
       </c>
-      <c r="E198" t="s">
-        <v>939</v>
-      </c>
       <c r="F198" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H198">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>65</v>
       </c>
       <c r="I198" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>45690</v>
       </c>
       <c r="J198">
@@ -10761,29 +10737,29 @@
     </row>
     <row r="199" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="B199" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C199" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="D199" t="s">
+        <v>939</v>
+      </c>
+      <c r="E199" t="s">
         <v>940</v>
       </c>
-      <c r="E199" t="s">
-        <v>941</v>
-      </c>
       <c r="F199" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H199">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>65</v>
       </c>
       <c r="I199" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>45690</v>
       </c>
       <c r="J199">
@@ -10793,29 +10769,29 @@
     </row>
     <row r="200" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
+        <v>941</v>
+      </c>
+      <c r="B200" t="s">
         <v>942</v>
       </c>
-      <c r="B200" t="s">
+      <c r="C200" t="s">
         <v>943</v>
       </c>
-      <c r="C200" t="s">
+      <c r="D200" t="s">
         <v>944</v>
       </c>
-      <c r="D200" t="s">
+      <c r="E200" t="s">
         <v>945</v>
       </c>
-      <c r="E200" t="s">
-        <v>946</v>
-      </c>
       <c r="F200" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="H200">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>66</v>
       </c>
       <c r="I200" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>45691</v>
       </c>
       <c r="J200">
@@ -10825,29 +10801,29 @@
     </row>
     <row r="201" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
+        <v>946</v>
+      </c>
+      <c r="B201" t="s">
         <v>947</v>
       </c>
-      <c r="B201" t="s">
+      <c r="C201" t="s">
         <v>948</v>
       </c>
-      <c r="C201" t="s">
+      <c r="D201" t="s">
         <v>949</v>
       </c>
-      <c r="D201" t="s">
+      <c r="E201" t="s">
         <v>950</v>
       </c>
-      <c r="E201" t="s">
-        <v>951</v>
-      </c>
       <c r="F201" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H201">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>66</v>
       </c>
       <c r="I201" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>45691</v>
       </c>
       <c r="J201">
@@ -10857,29 +10833,29 @@
     </row>
     <row r="202" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
+        <v>951</v>
+      </c>
+      <c r="B202" t="s">
         <v>952</v>
       </c>
-      <c r="B202" t="s">
+      <c r="C202" t="s">
         <v>953</v>
       </c>
-      <c r="C202" t="s">
+      <c r="D202" t="s">
         <v>954</v>
       </c>
-      <c r="D202" t="s">
+      <c r="E202" t="s">
         <v>955</v>
       </c>
-      <c r="E202" t="s">
-        <v>956</v>
-      </c>
       <c r="F202" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H202">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>66</v>
       </c>
       <c r="I202" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>45691</v>
       </c>
       <c r="J202">
@@ -10892,26 +10868,26 @@
         <v>373</v>
       </c>
       <c r="B203" t="s">
+        <v>956</v>
+      </c>
+      <c r="C203" t="s">
         <v>957</v>
       </c>
-      <c r="C203" t="s">
+      <c r="D203" t="s">
         <v>958</v>
       </c>
-      <c r="D203" t="s">
+      <c r="E203" t="s">
         <v>959</v>
       </c>
-      <c r="E203" t="s">
-        <v>960</v>
-      </c>
       <c r="F203" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="H203">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>67</v>
       </c>
       <c r="I203" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>45692</v>
       </c>
       <c r="J203">
@@ -10921,29 +10897,29 @@
     </row>
     <row r="204" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
+        <v>960</v>
+      </c>
+      <c r="B204" t="s">
         <v>961</v>
       </c>
-      <c r="B204" t="s">
+      <c r="C204" t="s">
         <v>962</v>
       </c>
-      <c r="C204" t="s">
+      <c r="D204" t="s">
         <v>963</v>
       </c>
-      <c r="D204" t="s">
+      <c r="E204" t="s">
         <v>964</v>
       </c>
-      <c r="E204" t="s">
-        <v>965</v>
-      </c>
       <c r="F204" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H204">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>67</v>
       </c>
       <c r="I204" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>45692</v>
       </c>
       <c r="J204">
@@ -10953,29 +10929,29 @@
     </row>
     <row r="205" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
+        <v>965</v>
+      </c>
+      <c r="B205" t="s">
         <v>966</v>
       </c>
-      <c r="B205" t="s">
+      <c r="C205" t="s">
         <v>967</v>
       </c>
-      <c r="C205" t="s">
+      <c r="D205" t="s">
         <v>968</v>
       </c>
-      <c r="D205" t="s">
+      <c r="E205" t="s">
         <v>969</v>
       </c>
-      <c r="E205" t="s">
-        <v>970</v>
-      </c>
       <c r="F205" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H205">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>67</v>
       </c>
       <c r="I205" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>45692</v>
       </c>
       <c r="J205">
@@ -10985,29 +10961,29 @@
     </row>
     <row r="206" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
+        <v>970</v>
+      </c>
+      <c r="B206" t="s">
+        <v>927</v>
+      </c>
+      <c r="C206" t="s">
         <v>971</v>
       </c>
-      <c r="B206" t="s">
-        <v>928</v>
-      </c>
-      <c r="C206" t="s">
+      <c r="D206" t="s">
         <v>972</v>
       </c>
-      <c r="D206" t="s">
+      <c r="E206" t="s">
         <v>973</v>
       </c>
-      <c r="E206" t="s">
-        <v>974</v>
-      </c>
       <c r="F206" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H206">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>68</v>
       </c>
       <c r="I206" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>45693</v>
       </c>
       <c r="J206">
@@ -11017,29 +10993,29 @@
     </row>
     <row r="207" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
+        <v>974</v>
+      </c>
+      <c r="B207" t="s">
         <v>975</v>
-      </c>
-      <c r="B207" t="s">
-        <v>976</v>
       </c>
       <c r="C207" t="s">
         <v>394</v>
       </c>
       <c r="D207" t="s">
+        <v>976</v>
+      </c>
+      <c r="E207" t="s">
         <v>977</v>
       </c>
-      <c r="E207" t="s">
-        <v>978</v>
-      </c>
       <c r="F207" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H207">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>68</v>
       </c>
       <c r="I207" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>45693</v>
       </c>
       <c r="J207">
@@ -11049,29 +11025,29 @@
     </row>
     <row r="208" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
+        <v>978</v>
+      </c>
+      <c r="B208" t="s">
         <v>979</v>
       </c>
-      <c r="B208" t="s">
+      <c r="C208" t="s">
         <v>980</v>
       </c>
-      <c r="C208" t="s">
+      <c r="D208" t="s">
         <v>981</v>
       </c>
-      <c r="D208" t="s">
+      <c r="E208" t="s">
         <v>982</v>
       </c>
-      <c r="E208" t="s">
-        <v>983</v>
-      </c>
       <c r="F208" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H208">
-        <f t="shared" ref="H208:H223" si="15">INT(J208/3)</f>
+        <f t="shared" si="15"/>
         <v>68</v>
       </c>
       <c r="I208" s="3">
-        <f t="shared" ref="I208:I223" si="16">$L$1+H208</f>
+        <f t="shared" si="16"/>
         <v>45693</v>
       </c>
       <c r="J208">
@@ -11081,22 +11057,22 @@
     </row>
     <row r="209" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="B209" t="s">
+        <v>983</v>
+      </c>
+      <c r="C209" t="s">
         <v>984</v>
       </c>
-      <c r="C209" t="s">
+      <c r="D209" t="s">
         <v>985</v>
       </c>
-      <c r="D209" t="s">
+      <c r="E209" t="s">
         <v>986</v>
       </c>
-      <c r="E209" t="s">
-        <v>987</v>
-      </c>
       <c r="F209" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H209">
         <f t="shared" si="15"/>
@@ -11113,22 +11089,22 @@
     </row>
     <row r="210" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
+        <v>987</v>
+      </c>
+      <c r="B210" t="s">
         <v>988</v>
       </c>
-      <c r="B210" t="s">
+      <c r="C210" t="s">
         <v>989</v>
       </c>
-      <c r="C210" t="s">
+      <c r="D210" t="s">
+        <v>799</v>
+      </c>
+      <c r="E210" t="s">
         <v>990</v>
       </c>
-      <c r="D210" t="s">
-        <v>800</v>
-      </c>
-      <c r="E210" t="s">
-        <v>991</v>
-      </c>
       <c r="F210" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H210">
         <f t="shared" si="15"/>
@@ -11145,22 +11121,22 @@
     </row>
     <row r="211" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
+        <v>991</v>
+      </c>
+      <c r="B211" t="s">
         <v>992</v>
       </c>
-      <c r="B211" t="s">
+      <c r="C211" t="s">
         <v>993</v>
-      </c>
-      <c r="C211" t="s">
-        <v>994</v>
       </c>
       <c r="D211" t="s">
         <v>458</v>
       </c>
       <c r="E211" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="F211" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H211">
         <f t="shared" si="15"/>
@@ -11177,22 +11153,22 @@
     </row>
     <row r="212" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="B212" t="s">
         <v>78</v>
       </c>
       <c r="C212" t="s">
+        <v>996</v>
+      </c>
+      <c r="D212" t="s">
         <v>997</v>
       </c>
-      <c r="D212" t="s">
+      <c r="E212" t="s">
         <v>998</v>
       </c>
-      <c r="E212" t="s">
-        <v>999</v>
-      </c>
       <c r="F212" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H212">
         <f t="shared" si="15"/>
@@ -11209,22 +11185,22 @@
     </row>
     <row r="213" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
+        <v>999</v>
+      </c>
+      <c r="B213" t="s">
         <v>1000</v>
       </c>
-      <c r="B213" t="s">
+      <c r="C213" t="s">
         <v>1001</v>
       </c>
-      <c r="C213" t="s">
+      <c r="D213" t="s">
         <v>1002</v>
       </c>
-      <c r="D213" t="s">
+      <c r="E213" t="s">
         <v>1003</v>
       </c>
-      <c r="E213" t="s">
-        <v>1004</v>
-      </c>
       <c r="F213" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H213">
         <f t="shared" si="15"/>
@@ -11241,22 +11217,22 @@
     </row>
     <row r="214" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
+        <v>1004</v>
+      </c>
+      <c r="B214" t="s">
         <v>1005</v>
       </c>
-      <c r="B214" t="s">
+      <c r="C214" t="s">
         <v>1006</v>
       </c>
-      <c r="C214" t="s">
+      <c r="D214" t="s">
         <v>1007</v>
       </c>
-      <c r="D214" t="s">
+      <c r="E214" t="s">
         <v>1008</v>
       </c>
-      <c r="E214" t="s">
-        <v>1009</v>
-      </c>
       <c r="F214" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H214">
         <f t="shared" si="15"/>
@@ -11273,22 +11249,22 @@
     </row>
     <row r="215" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B215" t="s">
+        <v>1009</v>
+      </c>
+      <c r="C215" t="s">
         <v>1010</v>
       </c>
-      <c r="C215" t="s">
+      <c r="D215" t="s">
         <v>1011</v>
       </c>
-      <c r="D215" t="s">
+      <c r="E215" t="s">
         <v>1012</v>
       </c>
-      <c r="E215" t="s">
-        <v>1013</v>
-      </c>
       <c r="F215" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H215">
         <f t="shared" si="15"/>
@@ -11305,22 +11281,22 @@
     </row>
     <row r="216" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
+        <v>1013</v>
+      </c>
+      <c r="B216" t="s">
         <v>1014</v>
       </c>
-      <c r="B216" t="s">
+      <c r="C216" t="s">
         <v>1015</v>
       </c>
-      <c r="C216" t="s">
+      <c r="D216" t="s">
         <v>1016</v>
       </c>
-      <c r="D216" t="s">
+      <c r="E216" t="s">
         <v>1017</v>
       </c>
-      <c r="E216" t="s">
-        <v>1018</v>
-      </c>
       <c r="F216" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H216">
         <f t="shared" si="15"/>
@@ -11337,22 +11313,22 @@
     </row>
     <row r="217" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
+        <v>1018</v>
+      </c>
+      <c r="B217" t="s">
         <v>1019</v>
       </c>
-      <c r="B217" t="s">
+      <c r="C217" t="s">
+        <v>958</v>
+      </c>
+      <c r="D217" t="s">
         <v>1020</v>
       </c>
-      <c r="C217" t="s">
-        <v>959</v>
-      </c>
-      <c r="D217" t="s">
+      <c r="E217" t="s">
         <v>1021</v>
       </c>
-      <c r="E217" t="s">
-        <v>1022</v>
-      </c>
       <c r="F217" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H217">
         <f t="shared" si="15"/>
@@ -11369,22 +11345,22 @@
     </row>
     <row r="218" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="B218" t="s">
+        <v>1022</v>
+      </c>
+      <c r="C218" t="s">
         <v>1023</v>
       </c>
-      <c r="C218" t="s">
+      <c r="D218" t="s">
         <v>1024</v>
       </c>
-      <c r="D218" t="s">
+      <c r="E218" t="s">
         <v>1025</v>
       </c>
-      <c r="E218" t="s">
-        <v>1026</v>
-      </c>
       <c r="F218" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="H218">
         <f t="shared" si="15"/>
@@ -11404,19 +11380,19 @@
         <v>64</v>
       </c>
       <c r="B219" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C219" t="s">
+        <v>1026</v>
+      </c>
+      <c r="D219" t="s">
         <v>1027</v>
       </c>
-      <c r="D219" t="s">
+      <c r="E219" t="s">
         <v>1028</v>
       </c>
-      <c r="E219" t="s">
-        <v>1029</v>
-      </c>
       <c r="F219" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H219">
         <f t="shared" si="15"/>
@@ -11433,22 +11409,22 @@
     </row>
     <row r="220" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
-        <v>1030</v>
+        <v>1032</v>
       </c>
       <c r="B220" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="C220" t="s">
-        <v>863</v>
+        <v>1034</v>
       </c>
       <c r="D220" t="s">
-        <v>1032</v>
+        <v>1035</v>
       </c>
       <c r="E220" t="s">
-        <v>511</v>
+        <v>1036</v>
       </c>
       <c r="F220" t="s">
-        <v>620</v>
+        <v>640</v>
       </c>
       <c r="H220">
         <f t="shared" si="15"/>
@@ -11465,22 +11441,22 @@
     </row>
     <row r="221" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
-        <v>1033</v>
+        <v>1037</v>
       </c>
       <c r="B221" t="s">
-        <v>1034</v>
+        <v>1038</v>
       </c>
       <c r="C221" t="s">
-        <v>1035</v>
+        <v>1039</v>
       </c>
       <c r="D221" t="s">
-        <v>1036</v>
+        <v>1040</v>
       </c>
       <c r="E221" t="s">
-        <v>1037</v>
+        <v>1041</v>
       </c>
       <c r="F221" t="s">
-        <v>641</v>
+        <v>619</v>
       </c>
       <c r="H221">
         <f t="shared" si="15"/>
@@ -11497,22 +11473,22 @@
     </row>
     <row r="222" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
-        <v>1038</v>
+        <v>14</v>
       </c>
       <c r="B222" t="s">
-        <v>1039</v>
+        <v>1042</v>
       </c>
       <c r="C222" t="s">
-        <v>1040</v>
+        <v>1043</v>
       </c>
       <c r="D222" t="s">
-        <v>1041</v>
+        <v>1044</v>
       </c>
       <c r="E222" t="s">
-        <v>1042</v>
+        <v>820</v>
       </c>
       <c r="F222" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H222">
         <f t="shared" si="15"/>
@@ -11523,40 +11499,8 @@
         <v>45698</v>
       </c>
       <c r="J222">
-        <f t="shared" ref="J222:J223" si="17">J221+1</f>
+        <f t="shared" ref="J222" si="17">J221+1</f>
         <v>220</v>
-      </c>
-    </row>
-    <row r="223" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A223" t="s">
-        <v>14</v>
-      </c>
-      <c r="B223" t="s">
-        <v>1043</v>
-      </c>
-      <c r="C223" t="s">
-        <v>1044</v>
-      </c>
-      <c r="D223" t="s">
-        <v>1045</v>
-      </c>
-      <c r="E223" t="s">
-        <v>821</v>
-      </c>
-      <c r="F223" t="s">
-        <v>620</v>
-      </c>
-      <c r="H223">
-        <f t="shared" si="15"/>
-        <v>73</v>
-      </c>
-      <c r="I223" s="3">
-        <f t="shared" si="16"/>
-        <v>45698</v>
-      </c>
-      <c r="J223">
-        <f t="shared" si="17"/>
-        <v>221</v>
       </c>
     </row>
   </sheetData>

--- a/code/shabdakala/resource/sbwords.xlsx
+++ b/code/shabdakala/resource/sbwords.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hrishinene/github/shabdakala/shabdakala/code/shabdakala/resource/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{916DF3AB-15E0-E94F-8366-9A5D9F87DAAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37FB0CC4-3365-794C-A317-3B6DEA471A0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{9F74AEE5-EB85-4044-AC84-8761A591B5C1}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1425" uniqueCount="1046">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1425" uniqueCount="1045">
   <si>
     <t>word0</t>
   </si>
@@ -881,15 +881,9 @@
     <t>नेते</t>
   </si>
   <si>
-    <t>रामेश्वरी</t>
-  </si>
-  <si>
     <t xml:space="preserve">बंब </t>
   </si>
   <si>
-    <t>सोमेश्वरी</t>
-  </si>
-  <si>
     <t>अंगण</t>
   </si>
   <si>
@@ -3171,6 +3165,9 @@
   </si>
   <si>
     <t>बुद्धिबळाच्या पटावर</t>
+  </si>
+  <si>
+    <t>सोमेश्वर</t>
   </si>
 </sst>
 </file>
@@ -4097,8 +4094,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEA1707B-2FB7-B84C-9F84-E9F074F3056C}">
   <dimension ref="A1:L222"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" zoomScale="108" zoomScaleNormal="108" workbookViewId="0">
-      <selection activeCell="E62" sqref="E62"/>
+    <sheetView tabSelected="1" topLeftCell="A53" zoomScale="108" zoomScaleNormal="108" workbookViewId="0">
+      <selection activeCell="D82" sqref="D82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4139,13 +4136,13 @@
         <v>6</v>
       </c>
       <c r="H1" s="5" t="s">
+        <v>340</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="J1" s="5" t="s">
         <v>342</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>343</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>344</v>
       </c>
       <c r="L1" s="4">
         <v>45625</v>
@@ -4186,7 +4183,7 @@
       </c>
       <c r="L2" s="6">
         <f ca="1">TODAY()</f>
-        <v>45644</v>
+        <v>45650</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -4371,22 +4368,22 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>333</v>
+      </c>
+      <c r="B8" t="s">
+        <v>334</v>
+      </c>
+      <c r="C8" t="s">
         <v>335</v>
       </c>
-      <c r="B8" t="s">
+      <c r="D8" t="s">
         <v>336</v>
       </c>
-      <c r="C8" t="s">
+      <c r="E8" t="s">
         <v>337</v>
       </c>
-      <c r="D8" t="s">
+      <c r="F8" t="s">
         <v>338</v>
-      </c>
-      <c r="E8" t="s">
-        <v>339</v>
-      </c>
-      <c r="F8" t="s">
-        <v>340</v>
       </c>
       <c r="G8" t="s">
         <v>87</v>
@@ -4406,22 +4403,22 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>323</v>
+      </c>
+      <c r="B9" t="s">
+        <v>324</v>
+      </c>
+      <c r="C9" t="s">
         <v>325</v>
       </c>
-      <c r="B9" t="s">
+      <c r="D9" t="s">
         <v>326</v>
       </c>
-      <c r="C9" t="s">
+      <c r="E9" t="s">
         <v>327</v>
       </c>
-      <c r="D9" t="s">
-        <v>328</v>
-      </c>
-      <c r="E9" t="s">
-        <v>329</v>
-      </c>
       <c r="F9" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="G9" t="s">
         <v>87</v>
@@ -4441,22 +4438,22 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>328</v>
+      </c>
+      <c r="B10" t="s">
+        <v>329</v>
+      </c>
+      <c r="C10" t="s">
         <v>330</v>
       </c>
-      <c r="B10" t="s">
+      <c r="D10" t="s">
         <v>331</v>
       </c>
-      <c r="C10" t="s">
+      <c r="E10" t="s">
         <v>332</v>
       </c>
-      <c r="D10" t="s">
-        <v>333</v>
-      </c>
-      <c r="E10" t="s">
-        <v>334</v>
-      </c>
       <c r="F10" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="G10" t="s">
         <v>87</v>
@@ -4476,22 +4473,22 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B11" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C11" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="D11" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="E11" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>139</v>
@@ -4511,19 +4508,19 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
+        <v>347</v>
+      </c>
+      <c r="B12" t="s">
+        <v>348</v>
+      </c>
+      <c r="C12" t="s">
+        <v>355</v>
+      </c>
+      <c r="D12" t="s">
         <v>349</v>
       </c>
-      <c r="B12" t="s">
+      <c r="E12" t="s">
         <v>350</v>
-      </c>
-      <c r="C12" t="s">
-        <v>357</v>
-      </c>
-      <c r="D12" t="s">
-        <v>351</v>
-      </c>
-      <c r="E12" t="s">
-        <v>352</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>85</v>
@@ -4546,22 +4543,22 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B13" t="s">
         <v>226</v>
       </c>
       <c r="C13" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="D13" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="E13" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>140</v>
@@ -4596,7 +4593,7 @@
         <v>132</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>87</v>
@@ -4672,11 +4669,11 @@
         <v>86</v>
       </c>
       <c r="H16">
-        <f t="shared" ref="H16:H79" si="7">INT(J16/3)</f>
+        <f t="shared" ref="H16:H59" si="7">INT(J16/3)</f>
         <v>4</v>
       </c>
       <c r="I16" s="3">
-        <f t="shared" ref="I16:I79" si="8">$L$1+H16</f>
+        <f t="shared" ref="I16:I59" si="8">$L$1+H16</f>
         <v>45629</v>
       </c>
       <c r="J16">
@@ -4698,10 +4695,10 @@
         <v>42</v>
       </c>
       <c r="E17" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>45</v>
@@ -4721,7 +4718,7 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B18" t="s">
         <v>116</v>
@@ -4771,7 +4768,7 @@
         <v>13</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>8</v>
@@ -4829,7 +4826,7 @@
         <v>98</v>
       </c>
       <c r="B21" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C21" t="s">
         <v>100</v>
@@ -4911,7 +4908,7 @@
         <v>41</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="G23" s="1" t="s">
         <v>8</v>
@@ -4946,7 +4943,7 @@
         <v>35</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="G24" s="1" t="s">
         <v>44</v>
@@ -4966,22 +4963,22 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
+        <v>366</v>
+      </c>
+      <c r="B25" t="s">
+        <v>367</v>
+      </c>
+      <c r="C25" t="s">
         <v>368</v>
       </c>
-      <c r="B25" t="s">
+      <c r="D25" t="s">
         <v>369</v>
       </c>
-      <c r="C25" t="s">
+      <c r="E25" t="s">
         <v>370</v>
       </c>
-      <c r="D25" t="s">
-        <v>371</v>
-      </c>
-      <c r="E25" t="s">
-        <v>372</v>
-      </c>
       <c r="F25" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>185</v>
@@ -5071,25 +5068,25 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
+        <v>409</v>
+      </c>
+      <c r="B28" t="s">
+        <v>410</v>
+      </c>
+      <c r="C28" t="s">
         <v>411</v>
       </c>
-      <c r="B28" t="s">
+      <c r="D28" t="s">
         <v>412</v>
       </c>
-      <c r="C28" t="s">
-        <v>413</v>
-      </c>
-      <c r="D28" t="s">
-        <v>414</v>
-      </c>
       <c r="E28" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="F28" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="H28">
         <f t="shared" si="7"/>
@@ -5211,22 +5208,22 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
+        <v>510</v>
+      </c>
+      <c r="B32" t="s">
+        <v>511</v>
+      </c>
+      <c r="C32" t="s">
         <v>512</v>
       </c>
-      <c r="B32" t="s">
+      <c r="D32" t="s">
         <v>513</v>
       </c>
-      <c r="C32" t="s">
+      <c r="E32" t="s">
         <v>514</v>
       </c>
-      <c r="D32" t="s">
-        <v>515</v>
-      </c>
-      <c r="E32" t="s">
-        <v>516</v>
-      </c>
       <c r="F32" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="H32">
         <f t="shared" si="7"/>
@@ -5243,22 +5240,22 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="B33" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C33" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="D33" t="s">
         <v>228</v>
       </c>
       <c r="E33" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="F33" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="H33">
         <f t="shared" si="7"/>
@@ -5275,22 +5272,22 @@
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="B34" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="C34" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="D34" t="s">
         <v>48</v>
       </c>
       <c r="E34" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="F34" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="H34">
         <f t="shared" si="7"/>
@@ -5319,7 +5316,7 @@
         <v>63</v>
       </c>
       <c r="E35" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>85</v>
@@ -5354,10 +5351,10 @@
         <v>33</v>
       </c>
       <c r="E36" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="G36" s="1" t="s">
         <v>8</v>
@@ -5389,7 +5386,7 @@
         <v>111</v>
       </c>
       <c r="E37" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>85</v>
@@ -5412,22 +5409,22 @@
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="B38" t="s">
+        <v>507</v>
+      </c>
+      <c r="C38" t="s">
+        <v>639</v>
+      </c>
+      <c r="D38" t="s">
+        <v>508</v>
+      </c>
+      <c r="E38" t="s">
         <v>509</v>
       </c>
-      <c r="C38" t="s">
-        <v>641</v>
-      </c>
-      <c r="D38" t="s">
-        <v>510</v>
-      </c>
-      <c r="E38" t="s">
-        <v>511</v>
-      </c>
       <c r="F38" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="H38">
         <f t="shared" si="7"/>
@@ -5444,22 +5441,22 @@
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="B39" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="C39" t="s">
         <v>7</v>
       </c>
       <c r="D39" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="E39" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="F39" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="H39">
         <f t="shared" si="7"/>
@@ -5546,22 +5543,22 @@
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
+        <v>580</v>
+      </c>
+      <c r="B42" t="s">
+        <v>581</v>
+      </c>
+      <c r="C42" t="s">
+        <v>637</v>
+      </c>
+      <c r="D42" t="s">
         <v>582</v>
       </c>
-      <c r="B42" t="s">
+      <c r="E42" t="s">
         <v>583</v>
       </c>
-      <c r="C42" t="s">
-        <v>639</v>
-      </c>
-      <c r="D42" t="s">
-        <v>584</v>
-      </c>
-      <c r="E42" t="s">
-        <v>585</v>
-      </c>
       <c r="F42" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="H42">
         <f t="shared" si="7"/>
@@ -5578,22 +5575,22 @@
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
+        <v>592</v>
+      </c>
+      <c r="B43" t="s">
+        <v>593</v>
+      </c>
+      <c r="C43" t="s">
         <v>594</v>
       </c>
-      <c r="B43" t="s">
+      <c r="D43" t="s">
         <v>595</v>
       </c>
-      <c r="C43" t="s">
+      <c r="E43" t="s">
         <v>596</v>
       </c>
-      <c r="D43" t="s">
-        <v>597</v>
-      </c>
-      <c r="E43" t="s">
-        <v>598</v>
-      </c>
       <c r="F43" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="H43">
         <f t="shared" si="7"/>
@@ -5610,22 +5607,22 @@
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B44" t="s">
+        <v>376</v>
+      </c>
+      <c r="C44" t="s">
+        <v>377</v>
+      </c>
+      <c r="D44" t="s">
+        <v>422</v>
+      </c>
+      <c r="E44" t="s">
         <v>378</v>
       </c>
-      <c r="C44" t="s">
-        <v>379</v>
-      </c>
-      <c r="D44" t="s">
-        <v>424</v>
-      </c>
-      <c r="E44" t="s">
-        <v>380</v>
-      </c>
       <c r="F44" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="G44" s="1" t="s">
         <v>275</v>
@@ -5680,22 +5677,22 @@
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
+        <v>526</v>
+      </c>
+      <c r="B46" t="s">
+        <v>527</v>
+      </c>
+      <c r="C46" t="s">
         <v>528</v>
       </c>
-      <c r="B46" t="s">
+      <c r="D46" t="s">
+        <v>640</v>
+      </c>
+      <c r="E46" t="s">
         <v>529</v>
       </c>
-      <c r="C46" t="s">
-        <v>530</v>
-      </c>
-      <c r="D46" t="s">
-        <v>642</v>
-      </c>
-      <c r="E46" t="s">
-        <v>531</v>
-      </c>
       <c r="F46" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="H46">
         <f t="shared" si="7"/>
@@ -5715,19 +5712,19 @@
         <v>228</v>
       </c>
       <c r="B47" t="s">
+        <v>530</v>
+      </c>
+      <c r="C47" t="s">
+        <v>531</v>
+      </c>
+      <c r="D47" t="s">
         <v>532</v>
       </c>
-      <c r="C47" t="s">
+      <c r="E47" t="s">
         <v>533</v>
       </c>
-      <c r="D47" t="s">
-        <v>534</v>
-      </c>
-      <c r="E47" t="s">
-        <v>535</v>
-      </c>
       <c r="F47" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="H47">
         <f t="shared" si="7"/>
@@ -5744,22 +5741,22 @@
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
+        <v>534</v>
+      </c>
+      <c r="B48" t="s">
+        <v>535</v>
+      </c>
+      <c r="C48" t="s">
         <v>536</v>
       </c>
-      <c r="B48" t="s">
+      <c r="D48" t="s">
         <v>537</v>
       </c>
-      <c r="C48" t="s">
+      <c r="E48" t="s">
         <v>538</v>
       </c>
-      <c r="D48" t="s">
-        <v>539</v>
-      </c>
-      <c r="E48" t="s">
-        <v>540</v>
-      </c>
       <c r="F48" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="H48">
         <f t="shared" si="7"/>
@@ -5811,22 +5808,22 @@
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
+        <v>413</v>
+      </c>
+      <c r="B50" t="s">
+        <v>414</v>
+      </c>
+      <c r="C50" t="s">
         <v>415</v>
       </c>
-      <c r="B50" t="s">
+      <c r="D50" t="s">
+        <v>373</v>
+      </c>
+      <c r="E50" t="s">
         <v>416</v>
       </c>
-      <c r="C50" t="s">
-        <v>417</v>
-      </c>
-      <c r="D50" t="s">
-        <v>375</v>
-      </c>
-      <c r="E50" t="s">
-        <v>418</v>
-      </c>
       <c r="F50" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="G50" s="1" t="s">
         <v>275</v>
@@ -5852,7 +5849,7 @@
         <v>120</v>
       </c>
       <c r="C51" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="D51" t="s">
         <v>121</v>
@@ -5861,7 +5858,7 @@
         <v>122</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="G51" s="1" t="s">
         <v>142</v>
@@ -5881,7 +5878,7 @@
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="B52" t="s">
         <v>36</v>
@@ -5896,7 +5893,7 @@
         <v>39</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="G52" s="1" t="s">
         <v>8</v>
@@ -5954,7 +5951,7 @@
         <v>212</v>
       </c>
       <c r="B54" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="C54" t="s">
         <v>213</v>
@@ -5986,22 +5983,22 @@
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
+        <v>379</v>
+      </c>
+      <c r="B55" t="s">
+        <v>380</v>
+      </c>
+      <c r="C55" t="s">
         <v>381</v>
       </c>
-      <c r="B55" t="s">
+      <c r="D55" t="s">
         <v>382</v>
       </c>
-      <c r="C55" t="s">
-        <v>383</v>
-      </c>
-      <c r="D55" t="s">
-        <v>384</v>
-      </c>
       <c r="E55" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="F55" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="G55" s="1" t="s">
         <v>275</v>
@@ -6024,19 +6021,19 @@
         <v>233</v>
       </c>
       <c r="B56" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="C56" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="D56" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="E56" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F56" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="H56">
         <f t="shared" si="7"/>
@@ -6059,7 +6056,7 @@
         <v>232</v>
       </c>
       <c r="C57" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="D57" t="s">
         <v>234</v>
@@ -6088,22 +6085,22 @@
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
+        <v>649</v>
+      </c>
+      <c r="B58" t="s">
+        <v>650</v>
+      </c>
+      <c r="C58" t="s">
         <v>651</v>
       </c>
-      <c r="B58" t="s">
+      <c r="D58" t="s">
         <v>652</v>
       </c>
-      <c r="C58" t="s">
+      <c r="E58" t="s">
         <v>653</v>
       </c>
-      <c r="D58" t="s">
-        <v>654</v>
-      </c>
-      <c r="E58" t="s">
-        <v>655</v>
-      </c>
       <c r="F58" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="H58">
         <f t="shared" si="7"/>
@@ -6120,22 +6117,22 @@
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
+        <v>468</v>
+      </c>
+      <c r="B59" t="s">
+        <v>469</v>
+      </c>
+      <c r="C59" t="s">
         <v>470</v>
       </c>
-      <c r="B59" t="s">
+      <c r="D59" t="s">
         <v>471</v>
       </c>
-      <c r="C59" t="s">
-        <v>472</v>
-      </c>
-      <c r="D59" t="s">
-        <v>473</v>
-      </c>
       <c r="E59" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="F59" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="H59">
         <f t="shared" si="7"/>
@@ -6152,22 +6149,22 @@
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
+        <v>659</v>
+      </c>
+      <c r="B60" t="s">
+        <v>660</v>
+      </c>
+      <c r="C60" t="s">
+        <v>472</v>
+      </c>
+      <c r="D60" t="s">
         <v>661</v>
       </c>
-      <c r="B60" t="s">
+      <c r="E60" t="s">
         <v>662</v>
       </c>
-      <c r="C60" t="s">
-        <v>474</v>
-      </c>
-      <c r="D60" t="s">
-        <v>663</v>
-      </c>
-      <c r="E60" t="s">
-        <v>664</v>
-      </c>
       <c r="F60" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="H60">
         <f t="shared" ref="H60:H123" si="9">INT(J60/3)</f>
@@ -6184,22 +6181,22 @@
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="B61" t="s">
+        <v>473</v>
+      </c>
+      <c r="C61" t="s">
+        <v>474</v>
+      </c>
+      <c r="D61" t="s">
         <v>475</v>
       </c>
-      <c r="C61" t="s">
+      <c r="E61" t="s">
         <v>476</v>
       </c>
-      <c r="D61" t="s">
-        <v>477</v>
-      </c>
-      <c r="E61" t="s">
-        <v>478</v>
-      </c>
       <c r="F61" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="H61">
         <f t="shared" si="9"/>
@@ -6216,22 +6213,22 @@
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
+        <v>1027</v>
+      </c>
+      <c r="B62" t="s">
+        <v>1028</v>
+      </c>
+      <c r="C62" t="s">
+        <v>860</v>
+      </c>
+      <c r="D62" t="s">
         <v>1029</v>
       </c>
-      <c r="B62" t="s">
-        <v>1030</v>
-      </c>
-      <c r="C62" t="s">
-        <v>862</v>
-      </c>
-      <c r="D62" t="s">
-        <v>1031</v>
-      </c>
       <c r="E62" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="F62" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="H62">
         <f t="shared" si="9"/>
@@ -6248,22 +6245,22 @@
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="B63" t="s">
+        <v>644</v>
+      </c>
+      <c r="C63" t="s">
+        <v>645</v>
+      </c>
+      <c r="D63" t="s">
         <v>646</v>
       </c>
-      <c r="C63" t="s">
-        <v>647</v>
-      </c>
-      <c r="D63" t="s">
+      <c r="E63" t="s">
         <v>648</v>
       </c>
-      <c r="E63" t="s">
-        <v>650</v>
-      </c>
       <c r="F63" s="1" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="G63" s="1"/>
       <c r="H63">
@@ -6281,22 +6278,22 @@
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
+        <v>371</v>
+      </c>
+      <c r="B64" t="s">
+        <v>372</v>
+      </c>
+      <c r="C64" t="s">
         <v>373</v>
       </c>
-      <c r="B64" t="s">
+      <c r="D64" t="s">
         <v>374</v>
       </c>
-      <c r="C64" t="s">
+      <c r="E64" t="s">
         <v>375</v>
       </c>
-      <c r="D64" t="s">
-        <v>376</v>
-      </c>
-      <c r="E64" t="s">
-        <v>377</v>
-      </c>
       <c r="F64" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="G64" s="1" t="s">
         <v>275</v>
@@ -6351,22 +6348,22 @@
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
+        <v>308</v>
+      </c>
+      <c r="B66" t="s">
+        <v>309</v>
+      </c>
+      <c r="C66" t="s">
         <v>310</v>
       </c>
-      <c r="B66" t="s">
+      <c r="D66" t="s">
         <v>311</v>
       </c>
-      <c r="C66" t="s">
-        <v>312</v>
-      </c>
-      <c r="D66" t="s">
-        <v>313</v>
-      </c>
       <c r="E66" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="F66" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="G66" s="1" t="s">
         <v>138</v>
@@ -6421,22 +6418,22 @@
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
+        <v>383</v>
+      </c>
+      <c r="B68" t="s">
+        <v>384</v>
+      </c>
+      <c r="C68" t="s">
         <v>385</v>
       </c>
-      <c r="B68" t="s">
+      <c r="D68" t="s">
         <v>386</v>
       </c>
-      <c r="C68" t="s">
-        <v>387</v>
-      </c>
-      <c r="D68" t="s">
-        <v>388</v>
-      </c>
       <c r="E68" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="F68" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="G68" s="1" t="s">
         <v>275</v>
@@ -6456,25 +6453,25 @@
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
+        <v>404</v>
+      </c>
+      <c r="B69" t="s">
+        <v>405</v>
+      </c>
+      <c r="C69" t="s">
         <v>406</v>
       </c>
-      <c r="B69" t="s">
+      <c r="D69" t="s">
         <v>407</v>
       </c>
-      <c r="C69" t="s">
+      <c r="E69" t="s">
         <v>408</v>
       </c>
-      <c r="D69" t="s">
-        <v>409</v>
-      </c>
-      <c r="E69" t="s">
-        <v>410</v>
-      </c>
       <c r="F69" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="H69">
         <f t="shared" si="9"/>
@@ -6491,22 +6488,22 @@
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="B70" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="C70" t="s">
         <v>210</v>
       </c>
       <c r="D70" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="E70" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
       <c r="F70" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="H70">
         <f t="shared" si="9"/>
@@ -6561,19 +6558,19 @@
         <v>213</v>
       </c>
       <c r="B72" t="s">
+        <v>584</v>
+      </c>
+      <c r="C72" t="s">
+        <v>585</v>
+      </c>
+      <c r="D72" t="s">
         <v>586</v>
       </c>
-      <c r="C72" t="s">
-        <v>587</v>
-      </c>
-      <c r="D72" t="s">
-        <v>588</v>
-      </c>
       <c r="E72" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="F72" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="H72">
         <f t="shared" si="9"/>
@@ -6590,22 +6587,22 @@
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
+        <v>587</v>
+      </c>
+      <c r="B73" t="s">
+        <v>588</v>
+      </c>
+      <c r="C73" t="s">
         <v>589</v>
       </c>
-      <c r="B73" t="s">
+      <c r="D73" t="s">
         <v>590</v>
       </c>
-      <c r="C73" t="s">
+      <c r="E73" t="s">
         <v>591</v>
       </c>
-      <c r="D73" t="s">
-        <v>592</v>
-      </c>
-      <c r="E73" t="s">
-        <v>593</v>
-      </c>
       <c r="F73" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="H73">
         <f t="shared" si="9"/>
@@ -6622,22 +6619,22 @@
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
+        <v>843</v>
+      </c>
+      <c r="B74" t="s">
+        <v>844</v>
+      </c>
+      <c r="C74" t="s">
         <v>845</v>
       </c>
-      <c r="B74" t="s">
+      <c r="D74" t="s">
         <v>846</v>
       </c>
-      <c r="C74" t="s">
+      <c r="E74" t="s">
         <v>847</v>
       </c>
-      <c r="D74" t="s">
-        <v>848</v>
-      </c>
-      <c r="E74" t="s">
-        <v>849</v>
-      </c>
       <c r="F74" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="H74">
         <f t="shared" si="9"/>
@@ -6654,22 +6651,22 @@
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
+        <v>417</v>
+      </c>
+      <c r="B75" t="s">
+        <v>418</v>
+      </c>
+      <c r="C75" t="s">
         <v>419</v>
       </c>
-      <c r="B75" t="s">
+      <c r="D75" t="s">
         <v>420</v>
       </c>
-      <c r="C75" t="s">
-        <v>421</v>
-      </c>
-      <c r="D75" t="s">
-        <v>422</v>
-      </c>
       <c r="E75" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="F75" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="G75" s="1" t="s">
         <v>275</v>
@@ -6701,10 +6698,10 @@
         <v>281</v>
       </c>
       <c r="E76" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="F76" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="G76" s="1" t="s">
         <v>138</v>
@@ -6724,22 +6721,22 @@
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
+        <v>291</v>
+      </c>
+      <c r="B77" t="s">
+        <v>292</v>
+      </c>
+      <c r="C77" t="s">
         <v>293</v>
       </c>
-      <c r="B77" t="s">
+      <c r="D77" t="s">
         <v>294</v>
       </c>
-      <c r="C77" t="s">
+      <c r="E77" t="s">
         <v>295</v>
       </c>
-      <c r="D77" t="s">
-        <v>296</v>
-      </c>
-      <c r="E77" t="s">
-        <v>297</v>
-      </c>
       <c r="F77" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="G77" s="1" t="s">
         <v>45</v>
@@ -6759,22 +6756,22 @@
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
+        <v>287</v>
+      </c>
+      <c r="B78" t="s">
+        <v>288</v>
+      </c>
+      <c r="C78" t="s">
         <v>289</v>
       </c>
-      <c r="B78" t="s">
+      <c r="D78" t="s">
         <v>290</v>
       </c>
-      <c r="C78" t="s">
-        <v>291</v>
-      </c>
-      <c r="D78" t="s">
-        <v>292</v>
-      </c>
       <c r="E78" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="F78" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="G78" s="1" t="s">
         <v>138</v>
@@ -6794,22 +6791,22 @@
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="B79" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="C79" t="s">
+        <v>625</v>
+      </c>
+      <c r="D79" t="s">
+        <v>626</v>
+      </c>
+      <c r="E79" t="s">
         <v>627</v>
       </c>
-      <c r="D79" t="s">
-        <v>628</v>
-      </c>
-      <c r="E79" t="s">
-        <v>629</v>
-      </c>
       <c r="F79" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="H79">
         <f t="shared" si="9"/>
@@ -6826,22 +6823,22 @@
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
+        <v>489</v>
+      </c>
+      <c r="B80" t="s">
+        <v>490</v>
+      </c>
+      <c r="C80" t="s">
+        <v>302</v>
+      </c>
+      <c r="D80" t="s">
+        <v>628</v>
+      </c>
+      <c r="E80" t="s">
         <v>491</v>
       </c>
-      <c r="B80" t="s">
-        <v>492</v>
-      </c>
-      <c r="C80" t="s">
-        <v>304</v>
-      </c>
-      <c r="D80" t="s">
-        <v>630</v>
-      </c>
-      <c r="E80" t="s">
-        <v>493</v>
-      </c>
       <c r="F80" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="H80">
         <f t="shared" si="9"/>
@@ -6858,22 +6855,22 @@
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
+        <v>318</v>
+      </c>
+      <c r="B81" t="s">
+        <v>319</v>
+      </c>
+      <c r="C81" t="s">
         <v>320</v>
       </c>
-      <c r="B81" t="s">
+      <c r="D81" t="s">
         <v>321</v>
       </c>
-      <c r="C81" t="s">
+      <c r="E81" t="s">
         <v>322</v>
       </c>
-      <c r="D81" t="s">
-        <v>323</v>
-      </c>
-      <c r="E81" t="s">
-        <v>324</v>
-      </c>
       <c r="F81" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="G81" s="1" t="s">
         <v>138</v>
@@ -6896,19 +6893,19 @@
         <v>48</v>
       </c>
       <c r="B82" t="s">
+        <v>798</v>
+      </c>
+      <c r="C82" t="s">
         <v>282</v>
       </c>
-      <c r="C82" t="s">
-        <v>283</v>
-      </c>
       <c r="D82" t="s">
-        <v>284</v>
+        <v>1044</v>
       </c>
       <c r="E82" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="F82" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="G82" s="1" t="s">
         <v>138</v>
@@ -6928,22 +6925,22 @@
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
+        <v>456</v>
+      </c>
+      <c r="B83" t="s">
+        <v>457</v>
+      </c>
+      <c r="C83" t="s">
         <v>458</v>
       </c>
-      <c r="B83" t="s">
+      <c r="D83" t="s">
         <v>459</v>
       </c>
-      <c r="C83" t="s">
+      <c r="E83" t="s">
         <v>460</v>
       </c>
-      <c r="D83" t="s">
-        <v>461</v>
-      </c>
-      <c r="E83" t="s">
-        <v>462</v>
-      </c>
       <c r="F83" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="H83">
         <f t="shared" si="9"/>
@@ -6960,22 +6957,22 @@
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
+        <v>461</v>
+      </c>
+      <c r="B84" t="s">
+        <v>462</v>
+      </c>
+      <c r="C84" t="s">
         <v>463</v>
       </c>
-      <c r="B84" t="s">
+      <c r="D84" t="s">
         <v>464</v>
       </c>
-      <c r="C84" t="s">
+      <c r="E84" t="s">
         <v>465</v>
       </c>
-      <c r="D84" t="s">
-        <v>466</v>
-      </c>
-      <c r="E84" t="s">
-        <v>467</v>
-      </c>
       <c r="F84" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="H84">
         <f t="shared" si="9"/>
@@ -6992,25 +6989,25 @@
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
+        <v>387</v>
+      </c>
+      <c r="B85" t="s">
+        <v>388</v>
+      </c>
+      <c r="C85" t="s">
         <v>389</v>
       </c>
-      <c r="B85" t="s">
+      <c r="D85" t="s">
         <v>390</v>
       </c>
-      <c r="C85" t="s">
+      <c r="E85" t="s">
         <v>391</v>
       </c>
-      <c r="D85" t="s">
-        <v>392</v>
-      </c>
-      <c r="E85" t="s">
-        <v>393</v>
-      </c>
       <c r="F85" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="H85">
         <f t="shared" si="9"/>
@@ -7062,22 +7059,22 @@
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
+        <v>477</v>
+      </c>
+      <c r="B87" t="s">
+        <v>478</v>
+      </c>
+      <c r="C87" t="s">
         <v>479</v>
       </c>
-      <c r="B87" t="s">
+      <c r="D87" t="s">
         <v>480</v>
       </c>
-      <c r="C87" t="s">
+      <c r="E87" t="s">
         <v>481</v>
       </c>
-      <c r="D87" t="s">
-        <v>482</v>
-      </c>
-      <c r="E87" t="s">
-        <v>483</v>
-      </c>
       <c r="F87" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="H87">
         <f t="shared" si="9"/>
@@ -7094,22 +7091,22 @@
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
+        <v>482</v>
+      </c>
+      <c r="B88" t="s">
+        <v>483</v>
+      </c>
+      <c r="C88" t="s">
         <v>484</v>
       </c>
-      <c r="B88" t="s">
+      <c r="D88" t="s">
         <v>485</v>
       </c>
-      <c r="C88" t="s">
+      <c r="E88" t="s">
         <v>486</v>
       </c>
-      <c r="D88" t="s">
-        <v>487</v>
-      </c>
-      <c r="E88" t="s">
-        <v>488</v>
-      </c>
       <c r="F88" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="H88">
         <f t="shared" si="9"/>
@@ -7126,22 +7123,22 @@
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
+        <v>312</v>
+      </c>
+      <c r="B89" t="s">
+        <v>313</v>
+      </c>
+      <c r="C89" t="s">
         <v>314</v>
       </c>
-      <c r="B89" t="s">
+      <c r="D89" t="s">
         <v>315</v>
       </c>
-      <c r="C89" t="s">
+      <c r="E89" t="s">
         <v>316</v>
       </c>
-      <c r="D89" t="s">
+      <c r="F89" t="s">
         <v>317</v>
-      </c>
-      <c r="E89" t="s">
-        <v>318</v>
-      </c>
-      <c r="F89" t="s">
-        <v>319</v>
       </c>
       <c r="G89" s="1" t="s">
         <v>138</v>
@@ -7196,22 +7193,22 @@
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
+        <v>492</v>
+      </c>
+      <c r="B91" t="s">
+        <v>493</v>
+      </c>
+      <c r="C91" t="s">
         <v>494</v>
       </c>
-      <c r="B91" t="s">
+      <c r="D91" t="s">
         <v>495</v>
       </c>
-      <c r="C91" t="s">
+      <c r="E91" t="s">
         <v>496</v>
       </c>
-      <c r="D91" t="s">
-        <v>497</v>
-      </c>
-      <c r="E91" t="s">
-        <v>498</v>
-      </c>
       <c r="F91" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="H91">
         <f t="shared" si="9"/>
@@ -7228,22 +7225,22 @@
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
+        <v>497</v>
+      </c>
+      <c r="B92" t="s">
+        <v>498</v>
+      </c>
+      <c r="C92" t="s">
         <v>499</v>
       </c>
-      <c r="B92" t="s">
+      <c r="D92" t="s">
         <v>500</v>
       </c>
-      <c r="C92" t="s">
+      <c r="E92" t="s">
         <v>501</v>
       </c>
-      <c r="D92" t="s">
-        <v>502</v>
-      </c>
-      <c r="E92" t="s">
-        <v>503</v>
-      </c>
       <c r="F92" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="H92">
         <f t="shared" si="9"/>
@@ -7260,22 +7257,22 @@
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
+        <v>502</v>
+      </c>
+      <c r="B93" t="s">
+        <v>503</v>
+      </c>
+      <c r="C93" t="s">
         <v>504</v>
       </c>
-      <c r="B93" t="s">
+      <c r="D93" t="s">
         <v>505</v>
       </c>
-      <c r="C93" t="s">
+      <c r="E93" t="s">
         <v>506</v>
       </c>
-      <c r="D93" t="s">
-        <v>507</v>
-      </c>
-      <c r="E93" t="s">
-        <v>508</v>
-      </c>
       <c r="F93" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="H93">
         <f t="shared" si="9"/>
@@ -7362,22 +7359,22 @@
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
+        <v>300</v>
+      </c>
+      <c r="B96" t="s">
+        <v>301</v>
+      </c>
+      <c r="C96" t="s">
         <v>302</v>
       </c>
-      <c r="B96" t="s">
+      <c r="D96" t="s">
         <v>303</v>
       </c>
-      <c r="C96" t="s">
-        <v>304</v>
-      </c>
-      <c r="D96" t="s">
-        <v>305</v>
-      </c>
       <c r="E96" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="F96" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="G96" s="1" t="s">
         <v>138</v>
@@ -7397,22 +7394,22 @@
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="B97" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="C97" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="D97" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="E97" t="s">
         <v>162</v>
       </c>
       <c r="F97" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="H97">
         <f t="shared" si="9"/>
@@ -7432,19 +7429,19 @@
         <v>162</v>
       </c>
       <c r="B98" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="C98" t="s">
+        <v>573</v>
+      </c>
+      <c r="D98" t="s">
+        <v>574</v>
+      </c>
+      <c r="E98" t="s">
         <v>575</v>
       </c>
-      <c r="D98" t="s">
-        <v>576</v>
-      </c>
-      <c r="E98" t="s">
-        <v>577</v>
-      </c>
       <c r="F98" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="H98">
         <f t="shared" si="9"/>
@@ -7461,22 +7458,22 @@
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
+        <v>576</v>
+      </c>
+      <c r="B99" t="s">
+        <v>577</v>
+      </c>
+      <c r="C99" t="s">
         <v>578</v>
-      </c>
-      <c r="B99" t="s">
-        <v>579</v>
-      </c>
-      <c r="C99" t="s">
-        <v>580</v>
       </c>
       <c r="D99" t="s">
         <v>151</v>
       </c>
       <c r="E99" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="F99" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="H99">
         <f t="shared" si="9"/>
@@ -7493,22 +7490,22 @@
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
+        <v>393</v>
+      </c>
+      <c r="B100" t="s">
+        <v>394</v>
+      </c>
+      <c r="C100" t="s">
         <v>395</v>
       </c>
-      <c r="B100" t="s">
+      <c r="D100" t="s">
         <v>396</v>
       </c>
-      <c r="C100" t="s">
+      <c r="E100" t="s">
         <v>397</v>
       </c>
-      <c r="D100" t="s">
-        <v>398</v>
-      </c>
-      <c r="E100" t="s">
-        <v>399</v>
-      </c>
       <c r="F100" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="G100" s="1" t="s">
         <v>275</v>
@@ -7543,7 +7540,7 @@
         <v>30</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="G101" s="1" t="s">
         <v>46</v>
@@ -7572,7 +7569,7 @@
         <v>66</v>
       </c>
       <c r="D102" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="E102" t="s">
         <v>67</v>
@@ -7598,22 +7595,22 @@
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B103" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="C103" t="s">
+        <v>410</v>
+      </c>
+      <c r="D103" t="s">
         <v>412</v>
       </c>
-      <c r="D103" t="s">
-        <v>414</v>
-      </c>
       <c r="E103" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="F103" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="H103">
         <f t="shared" si="9"/>
@@ -7630,22 +7627,22 @@
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
+        <v>541</v>
+      </c>
+      <c r="B104" t="s">
+        <v>542</v>
+      </c>
+      <c r="C104" t="s">
         <v>543</v>
       </c>
-      <c r="B104" t="s">
+      <c r="D104" t="s">
         <v>544</v>
       </c>
-      <c r="C104" t="s">
+      <c r="E104" t="s">
         <v>545</v>
       </c>
-      <c r="D104" t="s">
-        <v>546</v>
-      </c>
-      <c r="E104" t="s">
-        <v>547</v>
-      </c>
       <c r="F104" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="H104">
         <f t="shared" si="9"/>
@@ -7662,22 +7659,22 @@
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="B105" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C105" t="s">
+        <v>546</v>
+      </c>
+      <c r="D105" t="s">
+        <v>547</v>
+      </c>
+      <c r="E105" t="s">
         <v>548</v>
       </c>
-      <c r="D105" t="s">
-        <v>549</v>
-      </c>
-      <c r="E105" t="s">
-        <v>550</v>
-      </c>
       <c r="F105" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="H105">
         <f t="shared" si="9"/>
@@ -7694,22 +7691,22 @@
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
+        <v>549</v>
+      </c>
+      <c r="B106" t="s">
+        <v>550</v>
+      </c>
+      <c r="C106" t="s">
         <v>551</v>
       </c>
-      <c r="B106" t="s">
+      <c r="D106" t="s">
         <v>552</v>
       </c>
-      <c r="C106" t="s">
+      <c r="E106" t="s">
         <v>553</v>
       </c>
-      <c r="D106" t="s">
-        <v>554</v>
-      </c>
-      <c r="E106" t="s">
-        <v>555</v>
-      </c>
       <c r="F106" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="H106">
         <f t="shared" si="9"/>
@@ -7726,22 +7723,22 @@
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
+        <v>554</v>
+      </c>
+      <c r="B107" t="s">
+        <v>555</v>
+      </c>
+      <c r="C107" t="s">
         <v>556</v>
       </c>
-      <c r="B107" t="s">
+      <c r="D107" t="s">
         <v>557</v>
       </c>
-      <c r="C107" t="s">
+      <c r="E107" t="s">
         <v>558</v>
       </c>
-      <c r="D107" t="s">
-        <v>559</v>
-      </c>
-      <c r="E107" t="s">
-        <v>560</v>
-      </c>
       <c r="F107" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="H107">
         <f t="shared" si="9"/>
@@ -7898,22 +7895,22 @@
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
+        <v>607</v>
+      </c>
+      <c r="B112" t="s">
+        <v>608</v>
+      </c>
+      <c r="C112" t="s">
         <v>609</v>
       </c>
-      <c r="B112" t="s">
+      <c r="D112" t="s">
         <v>610</v>
       </c>
-      <c r="C112" t="s">
+      <c r="E112" t="s">
         <v>611</v>
       </c>
-      <c r="D112" t="s">
-        <v>612</v>
-      </c>
-      <c r="E112" t="s">
-        <v>613</v>
-      </c>
       <c r="F112" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="H112">
         <f t="shared" si="9"/>
@@ -7930,22 +7927,22 @@
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
+        <v>522</v>
+      </c>
+      <c r="B113" t="s">
+        <v>467</v>
+      </c>
+      <c r="C113" t="s">
+        <v>523</v>
+      </c>
+      <c r="D113" t="s">
         <v>524</v>
       </c>
-      <c r="B113" t="s">
-        <v>469</v>
-      </c>
-      <c r="C113" t="s">
+      <c r="E113" t="s">
         <v>525</v>
       </c>
-      <c r="D113" t="s">
-        <v>526</v>
-      </c>
-      <c r="E113" t="s">
-        <v>527</v>
-      </c>
       <c r="F113" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="H113">
         <f t="shared" si="9"/>
@@ -7962,22 +7959,22 @@
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
+        <v>612</v>
+      </c>
+      <c r="B114" t="s">
+        <v>613</v>
+      </c>
+      <c r="C114" t="s">
         <v>614</v>
       </c>
-      <c r="B114" t="s">
+      <c r="D114" t="s">
         <v>615</v>
       </c>
-      <c r="C114" t="s">
+      <c r="E114" t="s">
         <v>616</v>
       </c>
-      <c r="D114" t="s">
+      <c r="F114" t="s">
         <v>617</v>
-      </c>
-      <c r="E114" t="s">
-        <v>618</v>
-      </c>
-      <c r="F114" t="s">
-        <v>619</v>
       </c>
       <c r="H114">
         <f t="shared" si="9"/>
@@ -7994,22 +7991,22 @@
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
+        <v>398</v>
+      </c>
+      <c r="B115" t="s">
+        <v>399</v>
+      </c>
+      <c r="C115" t="s">
         <v>400</v>
       </c>
-      <c r="B115" t="s">
+      <c r="D115" t="s">
         <v>401</v>
       </c>
-      <c r="C115" t="s">
-        <v>402</v>
-      </c>
-      <c r="D115" t="s">
-        <v>403</v>
-      </c>
       <c r="E115" s="7" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="F115" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="G115" s="1" t="s">
         <v>87</v>
@@ -8029,22 +8026,22 @@
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
+        <v>559</v>
+      </c>
+      <c r="B116" t="s">
+        <v>560</v>
+      </c>
+      <c r="C116" t="s">
+        <v>412</v>
+      </c>
+      <c r="D116" t="s">
         <v>561</v>
       </c>
-      <c r="B116" t="s">
-        <v>562</v>
-      </c>
-      <c r="C116" t="s">
-        <v>414</v>
-      </c>
-      <c r="D116" t="s">
-        <v>563</v>
-      </c>
       <c r="E116" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="F116" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="H116">
         <f t="shared" si="9"/>
@@ -8061,22 +8058,22 @@
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
+        <v>562</v>
+      </c>
+      <c r="B117" t="s">
+        <v>563</v>
+      </c>
+      <c r="C117" t="s">
         <v>564</v>
       </c>
-      <c r="B117" t="s">
+      <c r="D117" t="s">
         <v>565</v>
       </c>
-      <c r="C117" t="s">
+      <c r="E117" t="s">
         <v>566</v>
       </c>
-      <c r="D117" t="s">
-        <v>567</v>
-      </c>
-      <c r="E117" t="s">
-        <v>568</v>
-      </c>
       <c r="F117" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="H117">
         <f t="shared" si="9"/>
@@ -8093,22 +8090,22 @@
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
+        <v>567</v>
+      </c>
+      <c r="B118" t="s">
+        <v>568</v>
+      </c>
+      <c r="C118" t="s">
         <v>569</v>
       </c>
-      <c r="B118" t="s">
+      <c r="D118" t="s">
         <v>570</v>
       </c>
-      <c r="C118" t="s">
-        <v>571</v>
-      </c>
-      <c r="D118" t="s">
-        <v>572</v>
-      </c>
       <c r="E118" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="F118" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="H118">
         <f t="shared" si="9"/>
@@ -8195,22 +8192,22 @@
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
+        <v>304</v>
+      </c>
+      <c r="B121" t="s">
+        <v>305</v>
+      </c>
+      <c r="C121" t="s">
         <v>306</v>
       </c>
-      <c r="B121" t="s">
+      <c r="D121" t="s">
         <v>307</v>
       </c>
-      <c r="C121" t="s">
-        <v>308</v>
-      </c>
-      <c r="D121" t="s">
-        <v>309</v>
-      </c>
       <c r="E121" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="F121" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="G121" s="1" t="s">
         <v>138</v>
@@ -8230,22 +8227,22 @@
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
+        <v>597</v>
+      </c>
+      <c r="B122" t="s">
+        <v>598</v>
+      </c>
+      <c r="C122" t="s">
         <v>599</v>
       </c>
-      <c r="B122" t="s">
+      <c r="D122" t="s">
         <v>600</v>
       </c>
-      <c r="C122" t="s">
+      <c r="E122" t="s">
         <v>601</v>
       </c>
-      <c r="D122" t="s">
-        <v>602</v>
-      </c>
-      <c r="E122" t="s">
-        <v>603</v>
-      </c>
       <c r="F122" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="H122">
         <f t="shared" si="9"/>
@@ -8262,22 +8259,22 @@
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B123" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C123" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D123" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E123" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="F123" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="G123" s="1" t="s">
         <v>138</v>
@@ -8297,25 +8294,25 @@
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="B124" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C124" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="D124" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="E124" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="F124" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="G124" s="1" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="H124">
         <f t="shared" ref="H124:H187" si="12">INT(J124/3)</f>
@@ -8402,22 +8399,22 @@
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
+        <v>602</v>
+      </c>
+      <c r="B127" t="s">
+        <v>603</v>
+      </c>
+      <c r="C127" t="s">
         <v>604</v>
       </c>
-      <c r="B127" t="s">
+      <c r="D127" t="s">
         <v>605</v>
       </c>
-      <c r="C127" t="s">
+      <c r="E127" t="s">
         <v>606</v>
       </c>
-      <c r="D127" t="s">
-        <v>607</v>
-      </c>
-      <c r="E127" t="s">
-        <v>608</v>
-      </c>
       <c r="F127" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="H127">
         <f t="shared" si="12"/>
@@ -8434,22 +8431,22 @@
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B128" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C128" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D128" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="E128" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="F128" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="G128" s="1" t="s">
         <v>138</v>
@@ -8469,22 +8466,22 @@
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
+        <v>296</v>
+      </c>
+      <c r="B129" t="s">
+        <v>297</v>
+      </c>
+      <c r="C129" t="s">
         <v>298</v>
       </c>
-      <c r="B129" t="s">
+      <c r="D129" t="s">
         <v>299</v>
       </c>
-      <c r="C129" t="s">
-        <v>300</v>
-      </c>
-      <c r="D129" t="s">
-        <v>301</v>
-      </c>
       <c r="E129" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="F129" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="G129" s="1" t="s">
         <v>138</v>
@@ -8609,22 +8606,22 @@
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
+        <v>434</v>
+      </c>
+      <c r="B133" t="s">
+        <v>435</v>
+      </c>
+      <c r="C133" t="s">
         <v>436</v>
       </c>
-      <c r="B133" t="s">
+      <c r="D133" t="s">
         <v>437</v>
       </c>
-      <c r="C133" t="s">
+      <c r="E133" t="s">
         <v>438</v>
       </c>
-      <c r="D133" t="s">
+      <c r="F133" s="1" t="s">
         <v>439</v>
-      </c>
-      <c r="E133" t="s">
-        <v>440</v>
-      </c>
-      <c r="F133" s="1" t="s">
-        <v>441</v>
       </c>
       <c r="G133" s="1" t="s">
         <v>186</v>
@@ -8647,19 +8644,19 @@
         <v>198</v>
       </c>
       <c r="B134" t="s">
+        <v>440</v>
+      </c>
+      <c r="C134" t="s">
+        <v>441</v>
+      </c>
+      <c r="D134" t="s">
         <v>442</v>
       </c>
-      <c r="C134" t="s">
+      <c r="E134" t="s">
         <v>443</v>
       </c>
-      <c r="D134" t="s">
+      <c r="F134" t="s">
         <v>444</v>
-      </c>
-      <c r="E134" t="s">
-        <v>445</v>
-      </c>
-      <c r="F134" t="s">
-        <v>446</v>
       </c>
       <c r="G134" s="1" t="s">
         <v>138</v>
@@ -8679,25 +8676,25 @@
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
+        <v>445</v>
+      </c>
+      <c r="B135" t="s">
+        <v>446</v>
+      </c>
+      <c r="C135" t="s">
         <v>447</v>
       </c>
-      <c r="B135" t="s">
+      <c r="D135" t="s">
         <v>448</v>
       </c>
-      <c r="C135" t="s">
+      <c r="E135" t="s">
         <v>449</v>
       </c>
-      <c r="D135" t="s">
-        <v>450</v>
-      </c>
-      <c r="E135" t="s">
-        <v>451</v>
-      </c>
       <c r="F135" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="G135" s="1" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="H135">
         <f t="shared" si="12"/>
@@ -8714,25 +8711,25 @@
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
+        <v>450</v>
+      </c>
+      <c r="B136" t="s">
+        <v>451</v>
+      </c>
+      <c r="C136" t="s">
         <v>452</v>
       </c>
-      <c r="B136" t="s">
+      <c r="D136" t="s">
         <v>453</v>
       </c>
-      <c r="C136" t="s">
+      <c r="E136" t="s">
         <v>454</v>
       </c>
-      <c r="D136" t="s">
+      <c r="F136" t="s">
+        <v>439</v>
+      </c>
+      <c r="G136" s="1" t="s">
         <v>455</v>
-      </c>
-      <c r="E136" t="s">
-        <v>456</v>
-      </c>
-      <c r="F136" t="s">
-        <v>441</v>
-      </c>
-      <c r="G136" s="1" t="s">
-        <v>457</v>
       </c>
       <c r="H136">
         <f t="shared" si="12"/>
@@ -8749,22 +8746,22 @@
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="B137" t="s">
         <v>232</v>
       </c>
       <c r="C137" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="D137" t="s">
         <v>231</v>
       </c>
       <c r="E137" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="F137" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="H137">
         <f t="shared" si="12"/>
@@ -8793,10 +8790,10 @@
         <v>43</v>
       </c>
       <c r="E138" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="G138" s="1" t="s">
         <v>47</v>
@@ -8816,22 +8813,22 @@
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
+        <v>679</v>
+      </c>
+      <c r="B139" t="s">
+        <v>680</v>
+      </c>
+      <c r="C139" t="s">
         <v>681</v>
       </c>
-      <c r="B139" t="s">
+      <c r="D139" t="s">
         <v>682</v>
       </c>
-      <c r="C139" t="s">
+      <c r="E139" t="s">
         <v>683</v>
       </c>
-      <c r="D139" t="s">
-        <v>684</v>
-      </c>
-      <c r="E139" t="s">
-        <v>685</v>
-      </c>
       <c r="F139" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="G139" s="1"/>
       <c r="H139">
@@ -8849,22 +8846,22 @@
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
+        <v>664</v>
+      </c>
+      <c r="B140" t="s">
+        <v>665</v>
+      </c>
+      <c r="C140" t="s">
         <v>666</v>
       </c>
-      <c r="B140" t="s">
+      <c r="D140" t="s">
         <v>667</v>
       </c>
-      <c r="C140" t="s">
+      <c r="E140" t="s">
         <v>668</v>
       </c>
-      <c r="D140" t="s">
-        <v>669</v>
-      </c>
-      <c r="E140" t="s">
-        <v>670</v>
-      </c>
       <c r="F140" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="H140">
         <f t="shared" si="12"/>
@@ -8881,22 +8878,22 @@
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
+        <v>669</v>
+      </c>
+      <c r="B141" t="s">
+        <v>670</v>
+      </c>
+      <c r="C141" t="s">
         <v>671</v>
       </c>
-      <c r="B141" t="s">
+      <c r="D141" t="s">
         <v>672</v>
       </c>
-      <c r="C141" t="s">
+      <c r="E141" t="s">
         <v>673</v>
       </c>
-      <c r="D141" t="s">
-        <v>674</v>
-      </c>
-      <c r="E141" t="s">
-        <v>675</v>
-      </c>
       <c r="F141" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="H141">
         <f t="shared" si="12"/>
@@ -8913,22 +8910,22 @@
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
+        <v>674</v>
+      </c>
+      <c r="B142" t="s">
+        <v>675</v>
+      </c>
+      <c r="C142" t="s">
         <v>676</v>
       </c>
-      <c r="B142" t="s">
+      <c r="D142" t="s">
         <v>677</v>
       </c>
-      <c r="C142" t="s">
+      <c r="E142" t="s">
         <v>678</v>
       </c>
-      <c r="D142" t="s">
-        <v>679</v>
-      </c>
-      <c r="E142" t="s">
-        <v>680</v>
-      </c>
       <c r="F142" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="H142">
         <f t="shared" si="12"/>
@@ -8945,22 +8942,22 @@
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
+        <v>684</v>
+      </c>
+      <c r="B143" t="s">
+        <v>685</v>
+      </c>
+      <c r="C143" t="s">
         <v>686</v>
       </c>
-      <c r="B143" t="s">
+      <c r="D143" t="s">
         <v>687</v>
       </c>
-      <c r="C143" t="s">
+      <c r="E143" t="s">
         <v>688</v>
       </c>
-      <c r="D143" t="s">
-        <v>689</v>
-      </c>
-      <c r="E143" t="s">
-        <v>690</v>
-      </c>
       <c r="F143" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="H143">
         <f t="shared" si="12"/>
@@ -8977,22 +8974,22 @@
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="B144" t="s">
         <v>228</v>
       </c>
       <c r="C144" t="s">
+        <v>690</v>
+      </c>
+      <c r="D144" t="s">
+        <v>691</v>
+      </c>
+      <c r="E144" t="s">
         <v>692</v>
       </c>
-      <c r="D144" t="s">
-        <v>693</v>
-      </c>
-      <c r="E144" t="s">
-        <v>694</v>
-      </c>
       <c r="F144" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="H144">
         <f t="shared" si="12"/>
@@ -9009,22 +9006,22 @@
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
+        <v>693</v>
+      </c>
+      <c r="B145" t="s">
+        <v>694</v>
+      </c>
+      <c r="C145" t="s">
         <v>695</v>
       </c>
-      <c r="B145" t="s">
+      <c r="D145" t="s">
         <v>696</v>
       </c>
-      <c r="C145" t="s">
+      <c r="E145" t="s">
         <v>697</v>
       </c>
-      <c r="D145" t="s">
-        <v>698</v>
-      </c>
-      <c r="E145" t="s">
-        <v>699</v>
-      </c>
       <c r="F145" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="H145">
         <f t="shared" si="12"/>
@@ -9041,22 +9038,22 @@
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
+        <v>698</v>
+      </c>
+      <c r="B146" t="s">
+        <v>699</v>
+      </c>
+      <c r="C146" t="s">
         <v>700</v>
       </c>
-      <c r="B146" t="s">
+      <c r="D146" t="s">
         <v>701</v>
       </c>
-      <c r="C146" t="s">
+      <c r="E146" t="s">
         <v>702</v>
       </c>
-      <c r="D146" t="s">
-        <v>703</v>
-      </c>
-      <c r="E146" t="s">
-        <v>704</v>
-      </c>
       <c r="F146" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="H146">
         <f t="shared" si="12"/>
@@ -9073,22 +9070,22 @@
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
+        <v>703</v>
+      </c>
+      <c r="B147" t="s">
+        <v>637</v>
+      </c>
+      <c r="C147" t="s">
+        <v>704</v>
+      </c>
+      <c r="D147" t="s">
         <v>705</v>
       </c>
-      <c r="B147" t="s">
-        <v>639</v>
-      </c>
-      <c r="C147" t="s">
+      <c r="E147" t="s">
         <v>706</v>
       </c>
-      <c r="D147" t="s">
-        <v>707</v>
-      </c>
-      <c r="E147" t="s">
-        <v>708</v>
-      </c>
       <c r="F147" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="H147">
         <f t="shared" si="12"/>
@@ -9105,22 +9102,22 @@
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
+        <v>707</v>
+      </c>
+      <c r="B148" t="s">
+        <v>708</v>
+      </c>
+      <c r="C148" t="s">
         <v>709</v>
       </c>
-      <c r="B148" t="s">
+      <c r="D148" t="s">
         <v>710</v>
       </c>
-      <c r="C148" t="s">
+      <c r="E148" t="s">
         <v>711</v>
       </c>
-      <c r="D148" t="s">
-        <v>712</v>
-      </c>
-      <c r="E148" t="s">
-        <v>713</v>
-      </c>
       <c r="F148" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="H148">
         <f t="shared" si="12"/>
@@ -9137,22 +9134,22 @@
     </row>
     <row r="149" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
+        <v>712</v>
+      </c>
+      <c r="B149" t="s">
+        <v>713</v>
+      </c>
+      <c r="C149" t="s">
         <v>714</v>
       </c>
-      <c r="B149" t="s">
+      <c r="D149" t="s">
         <v>715</v>
       </c>
-      <c r="C149" t="s">
+      <c r="E149" t="s">
         <v>716</v>
       </c>
-      <c r="D149" t="s">
-        <v>717</v>
-      </c>
-      <c r="E149" t="s">
-        <v>718</v>
-      </c>
       <c r="F149" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="H149">
         <f t="shared" si="12"/>
@@ -9169,22 +9166,22 @@
     </row>
     <row r="150" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
+        <v>717</v>
+      </c>
+      <c r="B150" t="s">
+        <v>718</v>
+      </c>
+      <c r="C150" t="s">
         <v>719</v>
       </c>
-      <c r="B150" t="s">
+      <c r="D150" t="s">
         <v>720</v>
       </c>
-      <c r="C150" t="s">
+      <c r="E150" t="s">
         <v>721</v>
       </c>
-      <c r="D150" t="s">
-        <v>722</v>
-      </c>
-      <c r="E150" t="s">
-        <v>723</v>
-      </c>
       <c r="F150" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="H150">
         <f t="shared" si="12"/>
@@ -9201,22 +9198,22 @@
     </row>
     <row r="151" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
+        <v>722</v>
+      </c>
+      <c r="B151" t="s">
+        <v>723</v>
+      </c>
+      <c r="C151" t="s">
         <v>724</v>
       </c>
-      <c r="B151" t="s">
+      <c r="D151" t="s">
         <v>725</v>
       </c>
-      <c r="C151" t="s">
+      <c r="E151" t="s">
         <v>726</v>
       </c>
-      <c r="D151" t="s">
-        <v>727</v>
-      </c>
-      <c r="E151" t="s">
-        <v>728</v>
-      </c>
       <c r="F151" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="H151">
         <f t="shared" si="12"/>
@@ -9233,22 +9230,22 @@
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
+        <v>727</v>
+      </c>
+      <c r="B152" t="s">
+        <v>728</v>
+      </c>
+      <c r="C152" t="s">
         <v>729</v>
       </c>
-      <c r="B152" t="s">
+      <c r="D152" t="s">
         <v>730</v>
       </c>
-      <c r="C152" t="s">
+      <c r="E152" t="s">
         <v>731</v>
       </c>
-      <c r="D152" t="s">
-        <v>732</v>
-      </c>
-      <c r="E152" t="s">
-        <v>733</v>
-      </c>
       <c r="F152" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="H152">
         <f t="shared" si="12"/>
@@ -9265,22 +9262,22 @@
     </row>
     <row r="153" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
+        <v>732</v>
+      </c>
+      <c r="B153" t="s">
+        <v>733</v>
+      </c>
+      <c r="C153" t="s">
         <v>734</v>
       </c>
-      <c r="B153" t="s">
+      <c r="D153" t="s">
         <v>735</v>
-      </c>
-      <c r="C153" t="s">
-        <v>736</v>
-      </c>
-      <c r="D153" t="s">
-        <v>737</v>
       </c>
       <c r="E153" t="s">
         <v>246</v>
       </c>
       <c r="F153" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="H153">
         <f t="shared" si="12"/>
@@ -9297,22 +9294,22 @@
     </row>
     <row r="154" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
+        <v>736</v>
+      </c>
+      <c r="B154" t="s">
+        <v>737</v>
+      </c>
+      <c r="C154" t="s">
+        <v>593</v>
+      </c>
+      <c r="D154" t="s">
         <v>738</v>
       </c>
-      <c r="B154" t="s">
+      <c r="E154" t="s">
         <v>739</v>
       </c>
-      <c r="C154" t="s">
-        <v>595</v>
-      </c>
-      <c r="D154" t="s">
-        <v>740</v>
-      </c>
-      <c r="E154" t="s">
-        <v>741</v>
-      </c>
       <c r="F154" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="H154">
         <f t="shared" si="12"/>
@@ -9329,22 +9326,22 @@
     </row>
     <row r="155" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
+        <v>740</v>
+      </c>
+      <c r="B155" t="s">
+        <v>741</v>
+      </c>
+      <c r="C155" t="s">
         <v>742</v>
       </c>
-      <c r="B155" t="s">
+      <c r="D155" t="s">
         <v>743</v>
       </c>
-      <c r="C155" t="s">
+      <c r="E155" t="s">
         <v>744</v>
       </c>
-      <c r="D155" t="s">
-        <v>745</v>
-      </c>
-      <c r="E155" t="s">
-        <v>746</v>
-      </c>
       <c r="F155" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="H155">
         <f t="shared" si="12"/>
@@ -9361,22 +9358,22 @@
     </row>
     <row r="156" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
+        <v>745</v>
+      </c>
+      <c r="B156" t="s">
+        <v>746</v>
+      </c>
+      <c r="C156" t="s">
         <v>747</v>
       </c>
-      <c r="B156" t="s">
+      <c r="D156" t="s">
         <v>748</v>
       </c>
-      <c r="C156" t="s">
+      <c r="E156" t="s">
         <v>749</v>
       </c>
-      <c r="D156" t="s">
-        <v>750</v>
-      </c>
-      <c r="E156" t="s">
-        <v>751</v>
-      </c>
       <c r="F156" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="H156">
         <f t="shared" si="12"/>
@@ -9393,22 +9390,22 @@
     </row>
     <row r="157" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
+        <v>750</v>
+      </c>
+      <c r="B157" t="s">
+        <v>751</v>
+      </c>
+      <c r="C157" t="s">
         <v>752</v>
       </c>
-      <c r="B157" t="s">
+      <c r="D157" t="s">
         <v>753</v>
       </c>
-      <c r="C157" t="s">
+      <c r="E157" t="s">
         <v>754</v>
       </c>
-      <c r="D157" t="s">
-        <v>755</v>
-      </c>
-      <c r="E157" t="s">
-        <v>756</v>
-      </c>
       <c r="F157" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="H157">
         <f t="shared" si="12"/>
@@ -9425,22 +9422,22 @@
     </row>
     <row r="158" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
+        <v>755</v>
+      </c>
+      <c r="B158" t="s">
+        <v>756</v>
+      </c>
+      <c r="C158" t="s">
         <v>757</v>
       </c>
-      <c r="B158" t="s">
+      <c r="D158" t="s">
         <v>758</v>
       </c>
-      <c r="C158" t="s">
+      <c r="E158" t="s">
         <v>759</v>
       </c>
-      <c r="D158" t="s">
-        <v>760</v>
-      </c>
-      <c r="E158" t="s">
-        <v>761</v>
-      </c>
       <c r="F158" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="H158">
         <f t="shared" si="12"/>
@@ -9457,22 +9454,22 @@
     </row>
     <row r="159" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
+        <v>760</v>
+      </c>
+      <c r="B159" t="s">
+        <v>761</v>
+      </c>
+      <c r="C159" t="s">
         <v>762</v>
       </c>
-      <c r="B159" t="s">
+      <c r="D159" t="s">
         <v>763</v>
       </c>
-      <c r="C159" t="s">
-        <v>764</v>
-      </c>
-      <c r="D159" t="s">
-        <v>765</v>
-      </c>
       <c r="E159" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="F159" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="H159">
         <f t="shared" si="12"/>
@@ -9489,22 +9486,22 @@
     </row>
     <row r="160" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
+        <v>764</v>
+      </c>
+      <c r="B160" t="s">
+        <v>765</v>
+      </c>
+      <c r="C160" t="s">
         <v>766</v>
       </c>
-      <c r="B160" t="s">
+      <c r="D160" t="s">
         <v>767</v>
       </c>
-      <c r="C160" t="s">
+      <c r="E160" t="s">
         <v>768</v>
       </c>
-      <c r="D160" t="s">
-        <v>769</v>
-      </c>
-      <c r="E160" t="s">
-        <v>770</v>
-      </c>
       <c r="F160" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="H160">
         <f t="shared" si="12"/>
@@ -9521,22 +9518,22 @@
     </row>
     <row r="161" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
+        <v>769</v>
+      </c>
+      <c r="B161" t="s">
+        <v>770</v>
+      </c>
+      <c r="C161" t="s">
         <v>771</v>
       </c>
-      <c r="B161" t="s">
+      <c r="D161" t="s">
         <v>772</v>
       </c>
-      <c r="C161" t="s">
+      <c r="E161" t="s">
         <v>773</v>
       </c>
-      <c r="D161" t="s">
-        <v>774</v>
-      </c>
-      <c r="E161" t="s">
-        <v>775</v>
-      </c>
       <c r="F161" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="H161">
         <f t="shared" si="12"/>
@@ -9553,22 +9550,22 @@
     </row>
     <row r="162" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
+        <v>774</v>
+      </c>
+      <c r="B162" t="s">
+        <v>775</v>
+      </c>
+      <c r="C162" t="s">
         <v>776</v>
       </c>
-      <c r="B162" t="s">
+      <c r="D162" t="s">
         <v>777</v>
       </c>
-      <c r="C162" t="s">
+      <c r="E162" t="s">
         <v>778</v>
       </c>
-      <c r="D162" t="s">
-        <v>779</v>
-      </c>
-      <c r="E162" t="s">
-        <v>780</v>
-      </c>
       <c r="F162" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="H162">
         <f t="shared" si="12"/>
@@ -9585,22 +9582,22 @@
     </row>
     <row r="163" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
+        <v>779</v>
+      </c>
+      <c r="B163" t="s">
+        <v>780</v>
+      </c>
+      <c r="C163" t="s">
+        <v>291</v>
+      </c>
+      <c r="D163" t="s">
         <v>781</v>
       </c>
-      <c r="B163" t="s">
+      <c r="E163" t="s">
         <v>782</v>
       </c>
-      <c r="C163" t="s">
-        <v>293</v>
-      </c>
-      <c r="D163" t="s">
-        <v>783</v>
-      </c>
-      <c r="E163" t="s">
-        <v>784</v>
-      </c>
       <c r="F163" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="H163">
         <f t="shared" si="12"/>
@@ -9617,22 +9614,22 @@
     </row>
     <row r="164" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
+        <v>764</v>
+      </c>
+      <c r="B164" t="s">
+        <v>765</v>
+      </c>
+      <c r="C164" t="s">
         <v>766</v>
       </c>
-      <c r="B164" t="s">
+      <c r="D164" t="s">
         <v>767</v>
       </c>
-      <c r="C164" t="s">
+      <c r="E164" t="s">
         <v>768</v>
       </c>
-      <c r="D164" t="s">
-        <v>769</v>
-      </c>
-      <c r="E164" t="s">
-        <v>770</v>
-      </c>
       <c r="F164" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="H164">
         <f t="shared" si="12"/>
@@ -9649,22 +9646,22 @@
     </row>
     <row r="165" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
+        <v>783</v>
+      </c>
+      <c r="B165" t="s">
+        <v>784</v>
+      </c>
+      <c r="C165" t="s">
         <v>785</v>
       </c>
-      <c r="B165" t="s">
+      <c r="D165" t="s">
         <v>786</v>
       </c>
-      <c r="C165" t="s">
+      <c r="E165" t="s">
         <v>787</v>
       </c>
-      <c r="D165" t="s">
-        <v>788</v>
-      </c>
-      <c r="E165" t="s">
-        <v>789</v>
-      </c>
       <c r="F165" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="H165">
         <f t="shared" si="12"/>
@@ -9681,22 +9678,22 @@
     </row>
     <row r="166" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="B166" t="s">
+        <v>788</v>
+      </c>
+      <c r="C166" t="s">
+        <v>789</v>
+      </c>
+      <c r="D166" t="s">
         <v>790</v>
       </c>
-      <c r="C166" t="s">
+      <c r="E166" t="s">
         <v>791</v>
       </c>
-      <c r="D166" t="s">
-        <v>792</v>
-      </c>
-      <c r="E166" t="s">
-        <v>793</v>
-      </c>
       <c r="F166" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="H166">
         <f t="shared" si="12"/>
@@ -9713,22 +9710,22 @@
     </row>
     <row r="167" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
+        <v>792</v>
+      </c>
+      <c r="B167" t="s">
+        <v>793</v>
+      </c>
+      <c r="C167" t="s">
         <v>794</v>
       </c>
-      <c r="B167" t="s">
+      <c r="D167" t="s">
         <v>795</v>
       </c>
-      <c r="C167" t="s">
+      <c r="E167" t="s">
         <v>796</v>
       </c>
-      <c r="D167" t="s">
-        <v>797</v>
-      </c>
-      <c r="E167" t="s">
-        <v>798</v>
-      </c>
       <c r="F167" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="H167">
         <f t="shared" si="12"/>
@@ -9745,22 +9742,22 @@
     </row>
     <row r="168" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
+        <v>797</v>
+      </c>
+      <c r="B168" t="s">
+        <v>798</v>
+      </c>
+      <c r="C168" t="s">
         <v>799</v>
       </c>
-      <c r="B168" t="s">
+      <c r="D168" t="s">
         <v>800</v>
       </c>
-      <c r="C168" t="s">
+      <c r="E168" t="s">
         <v>801</v>
       </c>
-      <c r="D168" t="s">
-        <v>802</v>
-      </c>
-      <c r="E168" t="s">
-        <v>803</v>
-      </c>
       <c r="F168" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="H168">
         <f t="shared" si="12"/>
@@ -9777,22 +9774,22 @@
     </row>
     <row r="169" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
+        <v>802</v>
+      </c>
+      <c r="B169" t="s">
+        <v>523</v>
+      </c>
+      <c r="C169" t="s">
+        <v>803</v>
+      </c>
+      <c r="D169" t="s">
         <v>804</v>
       </c>
-      <c r="B169" t="s">
-        <v>525</v>
-      </c>
-      <c r="C169" t="s">
+      <c r="E169" t="s">
         <v>805</v>
       </c>
-      <c r="D169" t="s">
-        <v>806</v>
-      </c>
-      <c r="E169" t="s">
-        <v>807</v>
-      </c>
       <c r="F169" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="H169">
         <f t="shared" si="12"/>
@@ -9809,22 +9806,22 @@
     </row>
     <row r="170" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
+        <v>806</v>
+      </c>
+      <c r="B170" t="s">
+        <v>807</v>
+      </c>
+      <c r="C170" t="s">
         <v>808</v>
       </c>
-      <c r="B170" t="s">
+      <c r="D170" t="s">
         <v>809</v>
       </c>
-      <c r="C170" t="s">
+      <c r="E170" t="s">
         <v>810</v>
       </c>
-      <c r="D170" t="s">
-        <v>811</v>
-      </c>
-      <c r="E170" t="s">
-        <v>812</v>
-      </c>
       <c r="F170" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="H170">
         <f t="shared" si="12"/>
@@ -9841,22 +9838,22 @@
     </row>
     <row r="171" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
+        <v>811</v>
+      </c>
+      <c r="B171" t="s">
+        <v>812</v>
+      </c>
+      <c r="C171" t="s">
         <v>813</v>
       </c>
-      <c r="B171" t="s">
+      <c r="D171" t="s">
         <v>814</v>
       </c>
-      <c r="C171" t="s">
+      <c r="E171" t="s">
         <v>815</v>
       </c>
-      <c r="D171" t="s">
-        <v>816</v>
-      </c>
-      <c r="E171" t="s">
-        <v>817</v>
-      </c>
       <c r="F171" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="H171">
         <f t="shared" si="12"/>
@@ -9873,22 +9870,22 @@
     </row>
     <row r="172" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B172" t="s">
+        <v>816</v>
+      </c>
+      <c r="C172" t="s">
+        <v>817</v>
+      </c>
+      <c r="D172" t="s">
         <v>818</v>
-      </c>
-      <c r="C172" t="s">
-        <v>819</v>
-      </c>
-      <c r="D172" t="s">
-        <v>820</v>
       </c>
       <c r="E172" t="s">
         <v>103</v>
       </c>
       <c r="F172" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="H172">
         <f t="shared" si="12"/>
@@ -9905,22 +9902,22 @@
     </row>
     <row r="173" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
+        <v>819</v>
+      </c>
+      <c r="B173" t="s">
+        <v>820</v>
+      </c>
+      <c r="C173" t="s">
         <v>821</v>
       </c>
-      <c r="B173" t="s">
+      <c r="D173" t="s">
         <v>822</v>
       </c>
-      <c r="C173" t="s">
+      <c r="E173" t="s">
         <v>823</v>
       </c>
-      <c r="D173" t="s">
-        <v>824</v>
-      </c>
-      <c r="E173" t="s">
-        <v>825</v>
-      </c>
       <c r="F173" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="H173">
         <f t="shared" si="12"/>
@@ -9937,22 +9934,22 @@
     </row>
     <row r="174" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
+        <v>824</v>
+      </c>
+      <c r="B174" t="s">
+        <v>825</v>
+      </c>
+      <c r="C174" t="s">
         <v>826</v>
       </c>
-      <c r="B174" t="s">
+      <c r="D174" t="s">
         <v>827</v>
       </c>
-      <c r="C174" t="s">
+      <c r="E174" t="s">
         <v>828</v>
       </c>
-      <c r="D174" t="s">
-        <v>829</v>
-      </c>
-      <c r="E174" t="s">
-        <v>830</v>
-      </c>
       <c r="F174" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="H174">
         <f t="shared" si="12"/>
@@ -9969,22 +9966,22 @@
     </row>
     <row r="175" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
+        <v>829</v>
+      </c>
+      <c r="B175" t="s">
+        <v>830</v>
+      </c>
+      <c r="C175" t="s">
         <v>831</v>
       </c>
-      <c r="B175" t="s">
+      <c r="D175" t="s">
         <v>832</v>
       </c>
-      <c r="C175" t="s">
+      <c r="E175" t="s">
         <v>833</v>
       </c>
-      <c r="D175" t="s">
-        <v>834</v>
-      </c>
-      <c r="E175" t="s">
-        <v>835</v>
-      </c>
       <c r="F175" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="H175">
         <f t="shared" si="12"/>
@@ -10001,22 +9998,22 @@
     </row>
     <row r="176" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
+        <v>834</v>
+      </c>
+      <c r="B176" t="s">
+        <v>299</v>
+      </c>
+      <c r="C176" t="s">
+        <v>835</v>
+      </c>
+      <c r="D176" t="s">
         <v>836</v>
       </c>
-      <c r="B176" t="s">
-        <v>301</v>
-      </c>
-      <c r="C176" t="s">
+      <c r="E176" t="s">
         <v>837</v>
       </c>
-      <c r="D176" t="s">
-        <v>838</v>
-      </c>
-      <c r="E176" t="s">
-        <v>839</v>
-      </c>
       <c r="F176" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="H176">
         <f t="shared" si="12"/>
@@ -10033,22 +10030,22 @@
     </row>
     <row r="177" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
+        <v>838</v>
+      </c>
+      <c r="B177" t="s">
+        <v>839</v>
+      </c>
+      <c r="C177" t="s">
         <v>840</v>
       </c>
-      <c r="B177" t="s">
+      <c r="D177" t="s">
         <v>841</v>
       </c>
-      <c r="C177" t="s">
+      <c r="E177" t="s">
         <v>842</v>
       </c>
-      <c r="D177" t="s">
-        <v>843</v>
-      </c>
-      <c r="E177" t="s">
-        <v>844</v>
-      </c>
       <c r="F177" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="H177">
         <f t="shared" si="12"/>
@@ -10065,22 +10062,22 @@
     </row>
     <row r="178" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
+        <v>848</v>
+      </c>
+      <c r="B178" t="s">
+        <v>527</v>
+      </c>
+      <c r="C178" t="s">
+        <v>849</v>
+      </c>
+      <c r="D178" t="s">
         <v>850</v>
       </c>
-      <c r="B178" t="s">
-        <v>529</v>
-      </c>
-      <c r="C178" t="s">
+      <c r="E178" t="s">
         <v>851</v>
       </c>
-      <c r="D178" t="s">
-        <v>852</v>
-      </c>
-      <c r="E178" t="s">
-        <v>853</v>
-      </c>
       <c r="F178" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="H178">
         <f t="shared" si="12"/>
@@ -10097,22 +10094,22 @@
     </row>
     <row r="179" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
+        <v>852</v>
+      </c>
+      <c r="B179" t="s">
+        <v>853</v>
+      </c>
+      <c r="C179" t="s">
         <v>854</v>
       </c>
-      <c r="B179" t="s">
+      <c r="D179" t="s">
         <v>855</v>
       </c>
-      <c r="C179" t="s">
+      <c r="E179" t="s">
         <v>856</v>
       </c>
-      <c r="D179" t="s">
-        <v>857</v>
-      </c>
-      <c r="E179" t="s">
-        <v>858</v>
-      </c>
       <c r="F179" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="H179">
         <f t="shared" si="12"/>
@@ -10129,22 +10126,22 @@
     </row>
     <row r="180" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
+        <v>857</v>
+      </c>
+      <c r="B180" t="s">
+        <v>858</v>
+      </c>
+      <c r="C180" t="s">
         <v>859</v>
       </c>
-      <c r="B180" t="s">
+      <c r="D180" t="s">
         <v>860</v>
       </c>
-      <c r="C180" t="s">
+      <c r="E180" t="s">
         <v>861</v>
       </c>
-      <c r="D180" t="s">
-        <v>862</v>
-      </c>
-      <c r="E180" t="s">
-        <v>863</v>
-      </c>
       <c r="F180" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="H180">
         <f t="shared" si="12"/>
@@ -10161,22 +10158,22 @@
     </row>
     <row r="181" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
+        <v>862</v>
+      </c>
+      <c r="B181" t="s">
+        <v>863</v>
+      </c>
+      <c r="C181" t="s">
         <v>864</v>
       </c>
-      <c r="B181" t="s">
+      <c r="D181" t="s">
         <v>865</v>
       </c>
-      <c r="C181" t="s">
+      <c r="E181" t="s">
         <v>866</v>
       </c>
-      <c r="D181" t="s">
-        <v>867</v>
-      </c>
-      <c r="E181" t="s">
-        <v>868</v>
-      </c>
       <c r="F181" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="H181">
         <f t="shared" si="12"/>
@@ -10193,22 +10190,22 @@
     </row>
     <row r="182" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
+        <v>760</v>
+      </c>
+      <c r="B182" t="s">
+        <v>761</v>
+      </c>
+      <c r="C182" t="s">
         <v>762</v>
       </c>
-      <c r="B182" t="s">
+      <c r="D182" t="s">
         <v>763</v>
       </c>
-      <c r="C182" t="s">
-        <v>764</v>
-      </c>
-      <c r="D182" t="s">
-        <v>765</v>
-      </c>
       <c r="E182" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="F182" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="H182">
         <f t="shared" si="12"/>
@@ -10225,22 +10222,22 @@
     </row>
     <row r="183" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
+        <v>867</v>
+      </c>
+      <c r="B183" t="s">
+        <v>868</v>
+      </c>
+      <c r="C183" t="s">
         <v>869</v>
       </c>
-      <c r="B183" t="s">
+      <c r="D183" t="s">
         <v>870</v>
       </c>
-      <c r="C183" t="s">
+      <c r="E183" t="s">
         <v>871</v>
       </c>
-      <c r="D183" t="s">
-        <v>872</v>
-      </c>
-      <c r="E183" t="s">
-        <v>873</v>
-      </c>
       <c r="F183" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="H183">
         <f t="shared" si="12"/>
@@ -10257,22 +10254,22 @@
     </row>
     <row r="184" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
+        <v>872</v>
+      </c>
+      <c r="B184" t="s">
+        <v>873</v>
+      </c>
+      <c r="C184" t="s">
         <v>874</v>
       </c>
-      <c r="B184" t="s">
+      <c r="D184" t="s">
         <v>875</v>
       </c>
-      <c r="C184" t="s">
+      <c r="E184" t="s">
         <v>876</v>
       </c>
-      <c r="D184" t="s">
-        <v>877</v>
-      </c>
-      <c r="E184" t="s">
-        <v>878</v>
-      </c>
       <c r="F184" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="H184">
         <f t="shared" si="12"/>
@@ -10289,22 +10286,22 @@
     </row>
     <row r="185" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
+        <v>877</v>
+      </c>
+      <c r="B185" t="s">
+        <v>878</v>
+      </c>
+      <c r="C185" t="s">
         <v>879</v>
       </c>
-      <c r="B185" t="s">
+      <c r="D185" t="s">
         <v>880</v>
       </c>
-      <c r="C185" t="s">
+      <c r="E185" t="s">
         <v>881</v>
       </c>
-      <c r="D185" t="s">
-        <v>882</v>
-      </c>
-      <c r="E185" t="s">
-        <v>883</v>
-      </c>
       <c r="F185" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="H185">
         <f t="shared" si="12"/>
@@ -10321,22 +10318,22 @@
     </row>
     <row r="186" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
+        <v>882</v>
+      </c>
+      <c r="B186" t="s">
+        <v>883</v>
+      </c>
+      <c r="C186" t="s">
         <v>884</v>
       </c>
-      <c r="B186" t="s">
+      <c r="D186" t="s">
         <v>885</v>
       </c>
-      <c r="C186" t="s">
+      <c r="E186" t="s">
         <v>886</v>
       </c>
-      <c r="D186" t="s">
-        <v>887</v>
-      </c>
-      <c r="E186" t="s">
-        <v>888</v>
-      </c>
       <c r="F186" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="H186">
         <f t="shared" si="12"/>
@@ -10353,22 +10350,22 @@
     </row>
     <row r="187" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
+        <v>887</v>
+      </c>
+      <c r="B187" t="s">
+        <v>888</v>
+      </c>
+      <c r="C187" t="s">
         <v>889</v>
       </c>
-      <c r="B187" t="s">
+      <c r="D187" t="s">
         <v>890</v>
       </c>
-      <c r="C187" t="s">
+      <c r="E187" t="s">
         <v>891</v>
       </c>
-      <c r="D187" t="s">
-        <v>892</v>
-      </c>
-      <c r="E187" t="s">
-        <v>893</v>
-      </c>
       <c r="F187" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="H187">
         <f t="shared" si="12"/>
@@ -10385,22 +10382,22 @@
     </row>
     <row r="188" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
+        <v>892</v>
+      </c>
+      <c r="B188" t="s">
+        <v>893</v>
+      </c>
+      <c r="C188" t="s">
         <v>894</v>
       </c>
-      <c r="B188" t="s">
+      <c r="D188" t="s">
         <v>895</v>
       </c>
-      <c r="C188" t="s">
+      <c r="E188" t="s">
         <v>896</v>
       </c>
-      <c r="D188" t="s">
-        <v>897</v>
-      </c>
-      <c r="E188" t="s">
-        <v>898</v>
-      </c>
       <c r="F188" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="H188">
         <f t="shared" ref="H188:H222" si="15">INT(J188/3)</f>
@@ -10417,22 +10414,22 @@
     </row>
     <row r="189" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="B189" t="s">
         <v>169</v>
       </c>
       <c r="C189" t="s">
+        <v>898</v>
+      </c>
+      <c r="D189" t="s">
+        <v>899</v>
+      </c>
+      <c r="E189" t="s">
         <v>900</v>
       </c>
-      <c r="D189" t="s">
-        <v>901</v>
-      </c>
-      <c r="E189" t="s">
-        <v>902</v>
-      </c>
       <c r="F189" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="H189">
         <f t="shared" si="15"/>
@@ -10449,22 +10446,22 @@
     </row>
     <row r="190" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
+        <v>901</v>
+      </c>
+      <c r="B190" t="s">
+        <v>902</v>
+      </c>
+      <c r="C190" t="s">
         <v>903</v>
       </c>
-      <c r="B190" t="s">
+      <c r="D190" t="s">
         <v>904</v>
       </c>
-      <c r="C190" t="s">
+      <c r="E190" t="s">
         <v>905</v>
       </c>
-      <c r="D190" t="s">
-        <v>906</v>
-      </c>
-      <c r="E190" t="s">
-        <v>907</v>
-      </c>
       <c r="F190" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="H190">
         <f t="shared" si="15"/>
@@ -10481,22 +10478,22 @@
     </row>
     <row r="191" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="B191" t="s">
+        <v>906</v>
+      </c>
+      <c r="C191" t="s">
+        <v>554</v>
+      </c>
+      <c r="D191" t="s">
+        <v>907</v>
+      </c>
+      <c r="E191" t="s">
         <v>908</v>
       </c>
-      <c r="C191" t="s">
-        <v>556</v>
-      </c>
-      <c r="D191" t="s">
-        <v>909</v>
-      </c>
-      <c r="E191" t="s">
-        <v>910</v>
-      </c>
       <c r="F191" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="H191">
         <f t="shared" si="15"/>
@@ -10513,22 +10510,22 @@
     </row>
     <row r="192" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
+        <v>755</v>
+      </c>
+      <c r="B192" t="s">
+        <v>756</v>
+      </c>
+      <c r="C192" t="s">
         <v>757</v>
       </c>
-      <c r="B192" t="s">
+      <c r="D192" t="s">
         <v>758</v>
       </c>
-      <c r="C192" t="s">
+      <c r="E192" t="s">
         <v>759</v>
       </c>
-      <c r="D192" t="s">
-        <v>760</v>
-      </c>
-      <c r="E192" t="s">
-        <v>761</v>
-      </c>
       <c r="F192" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="H192">
         <f t="shared" si="15"/>
@@ -10545,22 +10542,22 @@
     </row>
     <row r="193" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
+        <v>909</v>
+      </c>
+      <c r="B193" t="s">
+        <v>910</v>
+      </c>
+      <c r="C193" t="s">
         <v>911</v>
       </c>
-      <c r="B193" t="s">
+      <c r="D193" t="s">
         <v>912</v>
       </c>
-      <c r="C193" t="s">
+      <c r="E193" t="s">
         <v>913</v>
       </c>
-      <c r="D193" t="s">
-        <v>914</v>
-      </c>
-      <c r="E193" t="s">
-        <v>915</v>
-      </c>
       <c r="F193" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="H193">
         <f t="shared" si="15"/>
@@ -10577,22 +10574,22 @@
     </row>
     <row r="194" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
+        <v>914</v>
+      </c>
+      <c r="B194" t="s">
+        <v>915</v>
+      </c>
+      <c r="C194" t="s">
         <v>916</v>
       </c>
-      <c r="B194" t="s">
+      <c r="D194" t="s">
         <v>917</v>
       </c>
-      <c r="C194" t="s">
+      <c r="E194" t="s">
         <v>918</v>
       </c>
-      <c r="D194" t="s">
-        <v>919</v>
-      </c>
-      <c r="E194" t="s">
-        <v>920</v>
-      </c>
       <c r="F194" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="H194">
         <f t="shared" si="15"/>
@@ -10609,22 +10606,22 @@
     </row>
     <row r="195" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
+        <v>919</v>
+      </c>
+      <c r="B195" t="s">
+        <v>905</v>
+      </c>
+      <c r="C195" t="s">
+        <v>920</v>
+      </c>
+      <c r="D195" t="s">
         <v>921</v>
       </c>
-      <c r="B195" t="s">
-        <v>907</v>
-      </c>
-      <c r="C195" t="s">
+      <c r="E195" t="s">
         <v>922</v>
       </c>
-      <c r="D195" t="s">
-        <v>923</v>
-      </c>
-      <c r="E195" t="s">
-        <v>924</v>
-      </c>
       <c r="F195" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="H195">
         <f t="shared" si="15"/>
@@ -10641,22 +10638,22 @@
     </row>
     <row r="196" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
+        <v>923</v>
+      </c>
+      <c r="B196" t="s">
+        <v>924</v>
+      </c>
+      <c r="C196" t="s">
         <v>925</v>
       </c>
-      <c r="B196" t="s">
+      <c r="D196" t="s">
         <v>926</v>
       </c>
-      <c r="C196" t="s">
+      <c r="E196" t="s">
         <v>927</v>
       </c>
-      <c r="D196" t="s">
-        <v>928</v>
-      </c>
-      <c r="E196" t="s">
-        <v>929</v>
-      </c>
       <c r="F196" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="H196">
         <f t="shared" si="15"/>
@@ -10673,22 +10670,22 @@
     </row>
     <row r="197" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
+        <v>928</v>
+      </c>
+      <c r="B197" t="s">
+        <v>929</v>
+      </c>
+      <c r="C197" t="s">
         <v>930</v>
       </c>
-      <c r="B197" t="s">
+      <c r="D197" t="s">
         <v>931</v>
       </c>
-      <c r="C197" t="s">
+      <c r="E197" t="s">
         <v>932</v>
       </c>
-      <c r="D197" t="s">
-        <v>933</v>
-      </c>
-      <c r="E197" t="s">
-        <v>934</v>
-      </c>
       <c r="F197" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="H197">
         <f t="shared" si="15"/>
@@ -10705,22 +10702,22 @@
     </row>
     <row r="198" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="B198" t="s">
+        <v>933</v>
+      </c>
+      <c r="C198" t="s">
+        <v>934</v>
+      </c>
+      <c r="D198" t="s">
         <v>935</v>
       </c>
-      <c r="C198" t="s">
+      <c r="E198" t="s">
         <v>936</v>
       </c>
-      <c r="D198" t="s">
-        <v>937</v>
-      </c>
-      <c r="E198" t="s">
-        <v>938</v>
-      </c>
       <c r="F198" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="H198">
         <f t="shared" si="15"/>
@@ -10737,22 +10734,22 @@
     </row>
     <row r="199" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="B199" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="C199" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="D199" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="E199" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="F199" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="H199">
         <f t="shared" si="15"/>
@@ -10769,22 +10766,22 @@
     </row>
     <row r="200" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
+        <v>939</v>
+      </c>
+      <c r="B200" t="s">
+        <v>940</v>
+      </c>
+      <c r="C200" t="s">
         <v>941</v>
       </c>
-      <c r="B200" t="s">
+      <c r="D200" t="s">
         <v>942</v>
       </c>
-      <c r="C200" t="s">
+      <c r="E200" t="s">
         <v>943</v>
       </c>
-      <c r="D200" t="s">
-        <v>944</v>
-      </c>
-      <c r="E200" t="s">
-        <v>945</v>
-      </c>
       <c r="F200" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="H200">
         <f t="shared" si="15"/>
@@ -10801,22 +10798,22 @@
     </row>
     <row r="201" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
+        <v>944</v>
+      </c>
+      <c r="B201" t="s">
+        <v>945</v>
+      </c>
+      <c r="C201" t="s">
         <v>946</v>
       </c>
-      <c r="B201" t="s">
+      <c r="D201" t="s">
         <v>947</v>
       </c>
-      <c r="C201" t="s">
+      <c r="E201" t="s">
         <v>948</v>
       </c>
-      <c r="D201" t="s">
-        <v>949</v>
-      </c>
-      <c r="E201" t="s">
-        <v>950</v>
-      </c>
       <c r="F201" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="H201">
         <f t="shared" si="15"/>
@@ -10833,22 +10830,22 @@
     </row>
     <row r="202" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
+        <v>949</v>
+      </c>
+      <c r="B202" t="s">
+        <v>950</v>
+      </c>
+      <c r="C202" t="s">
         <v>951</v>
       </c>
-      <c r="B202" t="s">
+      <c r="D202" t="s">
         <v>952</v>
       </c>
-      <c r="C202" t="s">
+      <c r="E202" t="s">
         <v>953</v>
       </c>
-      <c r="D202" t="s">
-        <v>954</v>
-      </c>
-      <c r="E202" t="s">
-        <v>955</v>
-      </c>
       <c r="F202" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="H202">
         <f t="shared" si="15"/>
@@ -10865,22 +10862,22 @@
     </row>
     <row r="203" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B203" t="s">
+        <v>954</v>
+      </c>
+      <c r="C203" t="s">
+        <v>955</v>
+      </c>
+      <c r="D203" t="s">
         <v>956</v>
       </c>
-      <c r="C203" t="s">
+      <c r="E203" t="s">
         <v>957</v>
       </c>
-      <c r="D203" t="s">
-        <v>958</v>
-      </c>
-      <c r="E203" t="s">
-        <v>959</v>
-      </c>
       <c r="F203" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="H203">
         <f t="shared" si="15"/>
@@ -10897,22 +10894,22 @@
     </row>
     <row r="204" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
+        <v>958</v>
+      </c>
+      <c r="B204" t="s">
+        <v>959</v>
+      </c>
+      <c r="C204" t="s">
         <v>960</v>
       </c>
-      <c r="B204" t="s">
+      <c r="D204" t="s">
         <v>961</v>
       </c>
-      <c r="C204" t="s">
+      <c r="E204" t="s">
         <v>962</v>
       </c>
-      <c r="D204" t="s">
-        <v>963</v>
-      </c>
-      <c r="E204" t="s">
-        <v>964</v>
-      </c>
       <c r="F204" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="H204">
         <f t="shared" si="15"/>
@@ -10929,22 +10926,22 @@
     </row>
     <row r="205" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
+        <v>963</v>
+      </c>
+      <c r="B205" t="s">
+        <v>964</v>
+      </c>
+      <c r="C205" t="s">
         <v>965</v>
       </c>
-      <c r="B205" t="s">
+      <c r="D205" t="s">
         <v>966</v>
       </c>
-      <c r="C205" t="s">
+      <c r="E205" t="s">
         <v>967</v>
       </c>
-      <c r="D205" t="s">
-        <v>968</v>
-      </c>
-      <c r="E205" t="s">
-        <v>969</v>
-      </c>
       <c r="F205" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="H205">
         <f t="shared" si="15"/>
@@ -10961,22 +10958,22 @@
     </row>
     <row r="206" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
+        <v>968</v>
+      </c>
+      <c r="B206" t="s">
+        <v>925</v>
+      </c>
+      <c r="C206" t="s">
+        <v>969</v>
+      </c>
+      <c r="D206" t="s">
         <v>970</v>
       </c>
-      <c r="B206" t="s">
-        <v>927</v>
-      </c>
-      <c r="C206" t="s">
+      <c r="E206" t="s">
         <v>971</v>
       </c>
-      <c r="D206" t="s">
-        <v>972</v>
-      </c>
-      <c r="E206" t="s">
-        <v>973</v>
-      </c>
       <c r="F206" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="H206">
         <f t="shared" si="15"/>
@@ -10993,22 +10990,22 @@
     </row>
     <row r="207" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
+        <v>972</v>
+      </c>
+      <c r="B207" t="s">
+        <v>973</v>
+      </c>
+      <c r="C207" t="s">
+        <v>392</v>
+      </c>
+      <c r="D207" t="s">
         <v>974</v>
       </c>
-      <c r="B207" t="s">
+      <c r="E207" t="s">
         <v>975</v>
       </c>
-      <c r="C207" t="s">
-        <v>394</v>
-      </c>
-      <c r="D207" t="s">
-        <v>976</v>
-      </c>
-      <c r="E207" t="s">
-        <v>977</v>
-      </c>
       <c r="F207" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="H207">
         <f t="shared" si="15"/>
@@ -11025,22 +11022,22 @@
     </row>
     <row r="208" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
+        <v>976</v>
+      </c>
+      <c r="B208" t="s">
+        <v>977</v>
+      </c>
+      <c r="C208" t="s">
         <v>978</v>
       </c>
-      <c r="B208" t="s">
+      <c r="D208" t="s">
         <v>979</v>
       </c>
-      <c r="C208" t="s">
+      <c r="E208" t="s">
         <v>980</v>
       </c>
-      <c r="D208" t="s">
-        <v>981</v>
-      </c>
-      <c r="E208" t="s">
-        <v>982</v>
-      </c>
       <c r="F208" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="H208">
         <f t="shared" si="15"/>
@@ -11057,22 +11054,22 @@
     </row>
     <row r="209" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="B209" t="s">
+        <v>981</v>
+      </c>
+      <c r="C209" t="s">
+        <v>982</v>
+      </c>
+      <c r="D209" t="s">
         <v>983</v>
       </c>
-      <c r="C209" t="s">
+      <c r="E209" t="s">
         <v>984</v>
       </c>
-      <c r="D209" t="s">
-        <v>985</v>
-      </c>
-      <c r="E209" t="s">
-        <v>986</v>
-      </c>
       <c r="F209" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="H209">
         <f t="shared" si="15"/>
@@ -11089,22 +11086,22 @@
     </row>
     <row r="210" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
+        <v>985</v>
+      </c>
+      <c r="B210" t="s">
+        <v>986</v>
+      </c>
+      <c r="C210" t="s">
         <v>987</v>
       </c>
-      <c r="B210" t="s">
+      <c r="D210" t="s">
+        <v>797</v>
+      </c>
+      <c r="E210" t="s">
         <v>988</v>
       </c>
-      <c r="C210" t="s">
-        <v>989</v>
-      </c>
-      <c r="D210" t="s">
-        <v>799</v>
-      </c>
-      <c r="E210" t="s">
-        <v>990</v>
-      </c>
       <c r="F210" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="H210">
         <f t="shared" si="15"/>
@@ -11121,22 +11118,22 @@
     </row>
     <row r="211" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
+        <v>989</v>
+      </c>
+      <c r="B211" t="s">
+        <v>990</v>
+      </c>
+      <c r="C211" t="s">
         <v>991</v>
       </c>
-      <c r="B211" t="s">
+      <c r="D211" t="s">
+        <v>456</v>
+      </c>
+      <c r="E211" t="s">
         <v>992</v>
       </c>
-      <c r="C211" t="s">
-        <v>993</v>
-      </c>
-      <c r="D211" t="s">
-        <v>458</v>
-      </c>
-      <c r="E211" t="s">
-        <v>994</v>
-      </c>
       <c r="F211" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="H211">
         <f t="shared" si="15"/>
@@ -11153,22 +11150,22 @@
     </row>
     <row r="212" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
       <c r="B212" t="s">
         <v>78</v>
       </c>
       <c r="C212" t="s">
+        <v>994</v>
+      </c>
+      <c r="D212" t="s">
+        <v>995</v>
+      </c>
+      <c r="E212" t="s">
         <v>996</v>
       </c>
-      <c r="D212" t="s">
-        <v>997</v>
-      </c>
-      <c r="E212" t="s">
-        <v>998</v>
-      </c>
       <c r="F212" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="H212">
         <f t="shared" si="15"/>
@@ -11185,22 +11182,22 @@
     </row>
     <row r="213" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
+        <v>997</v>
+      </c>
+      <c r="B213" t="s">
+        <v>998</v>
+      </c>
+      <c r="C213" t="s">
         <v>999</v>
       </c>
-      <c r="B213" t="s">
+      <c r="D213" t="s">
         <v>1000</v>
       </c>
-      <c r="C213" t="s">
+      <c r="E213" t="s">
         <v>1001</v>
       </c>
-      <c r="D213" t="s">
-        <v>1002</v>
-      </c>
-      <c r="E213" t="s">
-        <v>1003</v>
-      </c>
       <c r="F213" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="H213">
         <f t="shared" si="15"/>
@@ -11217,22 +11214,22 @@
     </row>
     <row r="214" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
+        <v>1002</v>
+      </c>
+      <c r="B214" t="s">
+        <v>1003</v>
+      </c>
+      <c r="C214" t="s">
         <v>1004</v>
       </c>
-      <c r="B214" t="s">
+      <c r="D214" t="s">
         <v>1005</v>
       </c>
-      <c r="C214" t="s">
+      <c r="E214" t="s">
         <v>1006</v>
       </c>
-      <c r="D214" t="s">
-        <v>1007</v>
-      </c>
-      <c r="E214" t="s">
-        <v>1008</v>
-      </c>
       <c r="F214" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="H214">
         <f t="shared" si="15"/>
@@ -11249,22 +11246,22 @@
     </row>
     <row r="215" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="B215" t="s">
+        <v>1007</v>
+      </c>
+      <c r="C215" t="s">
+        <v>1008</v>
+      </c>
+      <c r="D215" t="s">
         <v>1009</v>
       </c>
-      <c r="C215" t="s">
+      <c r="E215" t="s">
         <v>1010</v>
       </c>
-      <c r="D215" t="s">
-        <v>1011</v>
-      </c>
-      <c r="E215" t="s">
-        <v>1012</v>
-      </c>
       <c r="F215" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="H215">
         <f t="shared" si="15"/>
@@ -11281,22 +11278,22 @@
     </row>
     <row r="216" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B216" t="s">
+        <v>1012</v>
+      </c>
+      <c r="C216" t="s">
         <v>1013</v>
       </c>
-      <c r="B216" t="s">
+      <c r="D216" t="s">
         <v>1014</v>
       </c>
-      <c r="C216" t="s">
+      <c r="E216" t="s">
         <v>1015</v>
       </c>
-      <c r="D216" t="s">
-        <v>1016</v>
-      </c>
-      <c r="E216" t="s">
-        <v>1017</v>
-      </c>
       <c r="F216" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="H216">
         <f t="shared" si="15"/>
@@ -11313,22 +11310,22 @@
     </row>
     <row r="217" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
+        <v>1016</v>
+      </c>
+      <c r="B217" t="s">
+        <v>1017</v>
+      </c>
+      <c r="C217" t="s">
+        <v>956</v>
+      </c>
+      <c r="D217" t="s">
         <v>1018</v>
       </c>
-      <c r="B217" t="s">
+      <c r="E217" t="s">
         <v>1019</v>
       </c>
-      <c r="C217" t="s">
-        <v>958</v>
-      </c>
-      <c r="D217" t="s">
-        <v>1020</v>
-      </c>
-      <c r="E217" t="s">
-        <v>1021</v>
-      </c>
       <c r="F217" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="H217">
         <f t="shared" si="15"/>
@@ -11345,22 +11342,22 @@
     </row>
     <row r="218" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="B218" t="s">
+        <v>1020</v>
+      </c>
+      <c r="C218" t="s">
+        <v>1021</v>
+      </c>
+      <c r="D218" t="s">
         <v>1022</v>
       </c>
-      <c r="C218" t="s">
+      <c r="E218" t="s">
         <v>1023</v>
       </c>
-      <c r="D218" t="s">
-        <v>1024</v>
-      </c>
-      <c r="E218" t="s">
-        <v>1025</v>
-      </c>
       <c r="F218" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="H218">
         <f t="shared" si="15"/>
@@ -11380,19 +11377,19 @@
         <v>64</v>
       </c>
       <c r="B219" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="C219" t="s">
+        <v>1024</v>
+      </c>
+      <c r="D219" t="s">
+        <v>1025</v>
+      </c>
+      <c r="E219" t="s">
         <v>1026</v>
       </c>
-      <c r="D219" t="s">
-        <v>1027</v>
-      </c>
-      <c r="E219" t="s">
-        <v>1028</v>
-      </c>
       <c r="F219" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="H219">
         <f t="shared" si="15"/>
@@ -11409,22 +11406,22 @@
     </row>
     <row r="220" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
+        <v>1030</v>
+      </c>
+      <c r="B220" t="s">
+        <v>1031</v>
+      </c>
+      <c r="C220" t="s">
         <v>1032</v>
       </c>
-      <c r="B220" t="s">
+      <c r="D220" t="s">
         <v>1033</v>
       </c>
-      <c r="C220" t="s">
+      <c r="E220" t="s">
         <v>1034</v>
       </c>
-      <c r="D220" t="s">
-        <v>1035</v>
-      </c>
-      <c r="E220" t="s">
-        <v>1036</v>
-      </c>
       <c r="F220" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="H220">
         <f t="shared" si="15"/>
@@ -11441,22 +11438,22 @@
     </row>
     <row r="221" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B221" t="s">
+        <v>1036</v>
+      </c>
+      <c r="C221" t="s">
         <v>1037</v>
       </c>
-      <c r="B221" t="s">
+      <c r="D221" t="s">
         <v>1038</v>
       </c>
-      <c r="C221" t="s">
+      <c r="E221" t="s">
         <v>1039</v>
       </c>
-      <c r="D221" t="s">
-        <v>1040</v>
-      </c>
-      <c r="E221" t="s">
-        <v>1041</v>
-      </c>
       <c r="F221" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="H221">
         <f t="shared" si="15"/>
@@ -11476,19 +11473,19 @@
         <v>14</v>
       </c>
       <c r="B222" t="s">
+        <v>1040</v>
+      </c>
+      <c r="C222" t="s">
+        <v>1041</v>
+      </c>
+      <c r="D222" t="s">
         <v>1042</v>
       </c>
-      <c r="C222" t="s">
-        <v>1043</v>
-      </c>
-      <c r="D222" t="s">
-        <v>1044</v>
-      </c>
       <c r="E222" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="F222" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="H222">
         <f t="shared" si="15"/>

--- a/code/shabdakala/resource/sbwords.xlsx
+++ b/code/shabdakala/resource/sbwords.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hrishinene/github/shabdakala/shabdakala/code/shabdakala/resource/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hrishinene/shabdak_github/sbbd/shabdakala/code/shabdakala/resource/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37FB0CC4-3365-794C-A317-3B6DEA471A0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E61C43C-072A-4245-A288-61F46AAE511D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{9F74AEE5-EB85-4044-AC84-8761A591B5C1}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1425" uniqueCount="1045">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1425" uniqueCount="1046">
   <si>
     <t>word0</t>
   </si>
@@ -1409,9 +1409,6 @@
     <t>माड</t>
   </si>
   <si>
-    <t>क्षितिज</t>
-  </si>
-  <si>
     <t>शिंपला</t>
   </si>
   <si>
@@ -1424,15 +1421,6 @@
     <t>मात</t>
   </si>
   <si>
-    <t>चाल</t>
-  </si>
-  <si>
-    <t>मारणे</t>
-  </si>
-  <si>
-    <t>बुद्धिबळाच्या चाली</t>
-  </si>
-  <si>
     <t>राणी</t>
   </si>
   <si>
@@ -3168,6 +3156,21 @@
   </si>
   <si>
     <t>सोमेश्वर</t>
+  </si>
+  <si>
+    <t>कॅसलिंग</t>
+  </si>
+  <si>
+    <t>लाटा</t>
+  </si>
+  <si>
+    <t>एन पासंट</t>
+  </si>
+  <si>
+    <t>चौसष्ट</t>
+  </si>
+  <si>
+    <t>अडीच</t>
   </si>
 </sst>
 </file>
@@ -4094,8 +4097,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEA1707B-2FB7-B84C-9F84-E9F074F3056C}">
   <dimension ref="A1:L222"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" zoomScale="108" zoomScaleNormal="108" workbookViewId="0">
-      <selection activeCell="D82" sqref="D82"/>
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="108" zoomScaleNormal="108" workbookViewId="0">
+      <selection activeCell="E87" sqref="E87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4183,7 +4186,7 @@
       </c>
       <c r="L2" s="6">
         <f ca="1">TODAY()</f>
-        <v>45650</v>
+        <v>45651</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -4978,7 +4981,7 @@
         <v>370</v>
       </c>
       <c r="F25" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>185</v>
@@ -5083,7 +5086,7 @@
         <v>426</v>
       </c>
       <c r="F28" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="G28" s="1" t="s">
         <v>432</v>
@@ -5208,22 +5211,22 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
+        <v>506</v>
+      </c>
+      <c r="B32" t="s">
+        <v>507</v>
+      </c>
+      <c r="C32" t="s">
+        <v>508</v>
+      </c>
+      <c r="D32" t="s">
+        <v>509</v>
+      </c>
+      <c r="E32" t="s">
         <v>510</v>
       </c>
-      <c r="B32" t="s">
-        <v>511</v>
-      </c>
-      <c r="C32" t="s">
-        <v>512</v>
-      </c>
-      <c r="D32" t="s">
-        <v>513</v>
-      </c>
-      <c r="E32" t="s">
-        <v>514</v>
-      </c>
       <c r="F32" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="H32">
         <f t="shared" si="7"/>
@@ -5240,22 +5243,22 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="B33" t="s">
         <v>371</v>
       </c>
       <c r="C33" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="D33" t="s">
         <v>228</v>
       </c>
       <c r="E33" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="F33" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="H33">
         <f t="shared" si="7"/>
@@ -5272,22 +5275,22 @@
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="B34" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="C34" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="D34" t="s">
         <v>48</v>
       </c>
       <c r="E34" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="F34" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="H34">
         <f t="shared" si="7"/>
@@ -5351,7 +5354,7 @@
         <v>33</v>
       </c>
       <c r="E36" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>339</v>
@@ -5386,7 +5389,7 @@
         <v>111</v>
       </c>
       <c r="E37" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>85</v>
@@ -5409,22 +5412,22 @@
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="B38" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="C38" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="D38" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="E38" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="F38" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="H38">
         <f t="shared" si="7"/>
@@ -5441,22 +5444,22 @@
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="B39" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="C39" t="s">
         <v>7</v>
       </c>
       <c r="D39" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="E39" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="F39" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="H39">
         <f t="shared" si="7"/>
@@ -5543,22 +5546,22 @@
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="B42" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="C42" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="D42" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="E42" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="F42" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="H42">
         <f t="shared" si="7"/>
@@ -5575,22 +5578,22 @@
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
+        <v>588</v>
+      </c>
+      <c r="B43" t="s">
+        <v>589</v>
+      </c>
+      <c r="C43" t="s">
+        <v>590</v>
+      </c>
+      <c r="D43" t="s">
+        <v>591</v>
+      </c>
+      <c r="E43" t="s">
         <v>592</v>
       </c>
-      <c r="B43" t="s">
-        <v>593</v>
-      </c>
-      <c r="C43" t="s">
-        <v>594</v>
-      </c>
-      <c r="D43" t="s">
-        <v>595</v>
-      </c>
-      <c r="E43" t="s">
-        <v>596</v>
-      </c>
       <c r="F43" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="H43">
         <f t="shared" si="7"/>
@@ -5622,7 +5625,7 @@
         <v>378</v>
       </c>
       <c r="F44" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="G44" s="1" t="s">
         <v>275</v>
@@ -5677,22 +5680,22 @@
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="B46" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="C46" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="D46" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="E46" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="F46" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="H46">
         <f t="shared" si="7"/>
@@ -5712,19 +5715,19 @@
         <v>228</v>
       </c>
       <c r="B47" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="C47" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="D47" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="E47" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="F47" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="H47">
         <f t="shared" si="7"/>
@@ -5741,22 +5744,22 @@
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
+        <v>530</v>
+      </c>
+      <c r="B48" t="s">
+        <v>531</v>
+      </c>
+      <c r="C48" t="s">
+        <v>532</v>
+      </c>
+      <c r="D48" t="s">
+        <v>533</v>
+      </c>
+      <c r="E48" t="s">
         <v>534</v>
       </c>
-      <c r="B48" t="s">
-        <v>535</v>
-      </c>
-      <c r="C48" t="s">
-        <v>536</v>
-      </c>
-      <c r="D48" t="s">
-        <v>537</v>
-      </c>
-      <c r="E48" t="s">
-        <v>538</v>
-      </c>
       <c r="F48" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="H48">
         <f t="shared" si="7"/>
@@ -5823,7 +5826,7 @@
         <v>416</v>
       </c>
       <c r="F50" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="G50" s="1" t="s">
         <v>275</v>
@@ -5849,7 +5852,7 @@
         <v>120</v>
       </c>
       <c r="C51" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="D51" t="s">
         <v>121</v>
@@ -5878,7 +5881,7 @@
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="B52" t="s">
         <v>36</v>
@@ -5951,7 +5954,7 @@
         <v>212</v>
       </c>
       <c r="B54" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="C54" t="s">
         <v>213</v>
@@ -5998,7 +6001,7 @@
         <v>433</v>
       </c>
       <c r="F55" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="G55" s="1" t="s">
         <v>275</v>
@@ -6021,19 +6024,19 @@
         <v>233</v>
       </c>
       <c r="B56" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="C56" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="D56" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="E56" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="F56" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="H56">
         <f t="shared" si="7"/>
@@ -6056,7 +6059,7 @@
         <v>232</v>
       </c>
       <c r="C57" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="D57" t="s">
         <v>234</v>
@@ -6085,19 +6088,19 @@
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
+        <v>645</v>
+      </c>
+      <c r="B58" t="s">
+        <v>646</v>
+      </c>
+      <c r="C58" t="s">
+        <v>647</v>
+      </c>
+      <c r="D58" t="s">
+        <v>648</v>
+      </c>
+      <c r="E58" t="s">
         <v>649</v>
-      </c>
-      <c r="B58" t="s">
-        <v>650</v>
-      </c>
-      <c r="C58" t="s">
-        <v>651</v>
-      </c>
-      <c r="D58" t="s">
-        <v>652</v>
-      </c>
-      <c r="E58" t="s">
-        <v>653</v>
       </c>
       <c r="F58" t="s">
         <v>444</v>
@@ -6117,22 +6120,22 @@
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="B59" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="C59" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="D59" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="E59" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="F59" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="H59">
         <f t="shared" si="7"/>
@@ -6149,22 +6152,22 @@
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="B60" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="C60" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="D60" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="E60" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="F60" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="H60">
         <f t="shared" ref="H60:H123" si="9">INT(J60/3)</f>
@@ -6181,22 +6184,22 @@
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="B61" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="C61" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="D61" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="E61" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="F61" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="H61">
         <f t="shared" si="9"/>
@@ -6213,22 +6216,22 @@
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>1027</v>
+        <v>1023</v>
       </c>
       <c r="B62" t="s">
-        <v>1028</v>
+        <v>1024</v>
       </c>
       <c r="C62" t="s">
-        <v>860</v>
+        <v>856</v>
       </c>
       <c r="D62" t="s">
-        <v>1029</v>
+        <v>1025</v>
       </c>
       <c r="E62" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="F62" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="H62">
         <f t="shared" si="9"/>
@@ -6245,19 +6248,19 @@
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="B63" t="s">
+        <v>640</v>
+      </c>
+      <c r="C63" t="s">
+        <v>641</v>
+      </c>
+      <c r="D63" t="s">
+        <v>642</v>
+      </c>
+      <c r="E63" t="s">
         <v>644</v>
-      </c>
-      <c r="C63" t="s">
-        <v>645</v>
-      </c>
-      <c r="D63" t="s">
-        <v>646</v>
-      </c>
-      <c r="E63" t="s">
-        <v>648</v>
       </c>
       <c r="F63" s="1" t="s">
         <v>444</v>
@@ -6293,7 +6296,7 @@
         <v>375</v>
       </c>
       <c r="F64" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="G64" s="1" t="s">
         <v>275</v>
@@ -6433,7 +6436,7 @@
         <v>421</v>
       </c>
       <c r="F68" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="G68" s="1" t="s">
         <v>275</v>
@@ -6468,7 +6471,7 @@
         <v>408</v>
       </c>
       <c r="F69" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="G69" s="1" t="s">
         <v>431</v>
@@ -6488,22 +6491,22 @@
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B70" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="C70" t="s">
         <v>210</v>
       </c>
       <c r="D70" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E70" t="s">
-        <v>1043</v>
+        <v>1039</v>
       </c>
       <c r="F70" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="H70">
         <f t="shared" si="9"/>
@@ -6558,19 +6561,19 @@
         <v>213</v>
       </c>
       <c r="B72" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="C72" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="D72" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="E72" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="F72" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="H72">
         <f t="shared" si="9"/>
@@ -6587,22 +6590,22 @@
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
+        <v>583</v>
+      </c>
+      <c r="B73" t="s">
+        <v>584</v>
+      </c>
+      <c r="C73" t="s">
+        <v>585</v>
+      </c>
+      <c r="D73" t="s">
+        <v>586</v>
+      </c>
+      <c r="E73" t="s">
         <v>587</v>
       </c>
-      <c r="B73" t="s">
-        <v>588</v>
-      </c>
-      <c r="C73" t="s">
-        <v>589</v>
-      </c>
-      <c r="D73" t="s">
-        <v>590</v>
-      </c>
-      <c r="E73" t="s">
-        <v>591</v>
-      </c>
       <c r="F73" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="H73">
         <f t="shared" si="9"/>
@@ -6619,22 +6622,22 @@
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
+        <v>839</v>
+      </c>
+      <c r="B74" t="s">
+        <v>840</v>
+      </c>
+      <c r="C74" t="s">
+        <v>841</v>
+      </c>
+      <c r="D74" t="s">
+        <v>842</v>
+      </c>
+      <c r="E74" t="s">
         <v>843</v>
       </c>
-      <c r="B74" t="s">
-        <v>844</v>
-      </c>
-      <c r="C74" t="s">
-        <v>845</v>
-      </c>
-      <c r="D74" t="s">
-        <v>846</v>
-      </c>
-      <c r="E74" t="s">
-        <v>847</v>
-      </c>
       <c r="F74" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="H74">
         <f t="shared" si="9"/>
@@ -6666,7 +6669,7 @@
         <v>427</v>
       </c>
       <c r="F75" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="G75" s="1" t="s">
         <v>275</v>
@@ -6791,22 +6794,22 @@
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="B79" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="C79" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="D79" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="E79" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="F79" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="H79">
         <f t="shared" si="9"/>
@@ -6823,22 +6826,22 @@
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="B80" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="C80" t="s">
         <v>302</v>
       </c>
       <c r="D80" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="E80" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="F80" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="H80">
         <f t="shared" si="9"/>
@@ -6893,13 +6896,13 @@
         <v>48</v>
       </c>
       <c r="B82" t="s">
-        <v>798</v>
+        <v>794</v>
       </c>
       <c r="C82" t="s">
         <v>282</v>
       </c>
       <c r="D82" t="s">
-        <v>1044</v>
+        <v>1040</v>
       </c>
       <c r="E82" t="s">
         <v>316</v>
@@ -6931,16 +6934,16 @@
         <v>457</v>
       </c>
       <c r="C83" t="s">
+        <v>1042</v>
+      </c>
+      <c r="D83" t="s">
         <v>458</v>
       </c>
-      <c r="D83" t="s">
+      <c r="E83" t="s">
         <v>459</v>
       </c>
-      <c r="E83" t="s">
-        <v>460</v>
-      </c>
       <c r="F83" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="H83">
         <f t="shared" si="9"/>
@@ -6957,22 +6960,22 @@
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>461</v>
+        <v>1045</v>
       </c>
       <c r="B84" t="s">
-        <v>462</v>
+        <v>1044</v>
       </c>
       <c r="C84" t="s">
-        <v>463</v>
+        <v>1041</v>
       </c>
       <c r="D84" t="s">
-        <v>464</v>
+        <v>1043</v>
       </c>
       <c r="E84" t="s">
-        <v>465</v>
+        <v>1039</v>
       </c>
       <c r="F84" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="H84">
         <f t="shared" si="9"/>
@@ -7004,7 +7007,7 @@
         <v>391</v>
       </c>
       <c r="F85" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="G85" s="1" t="s">
         <v>428</v>
@@ -7059,22 +7062,22 @@
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
+        <v>473</v>
+      </c>
+      <c r="B87" t="s">
+        <v>474</v>
+      </c>
+      <c r="C87" t="s">
+        <v>475</v>
+      </c>
+      <c r="D87" t="s">
+        <v>476</v>
+      </c>
+      <c r="E87" t="s">
         <v>477</v>
       </c>
-      <c r="B87" t="s">
-        <v>478</v>
-      </c>
-      <c r="C87" t="s">
-        <v>479</v>
-      </c>
-      <c r="D87" t="s">
-        <v>480</v>
-      </c>
-      <c r="E87" t="s">
-        <v>481</v>
-      </c>
       <c r="F87" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="H87">
         <f t="shared" si="9"/>
@@ -7091,22 +7094,22 @@
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
+        <v>478</v>
+      </c>
+      <c r="B88" t="s">
+        <v>479</v>
+      </c>
+      <c r="C88" t="s">
+        <v>480</v>
+      </c>
+      <c r="D88" t="s">
+        <v>481</v>
+      </c>
+      <c r="E88" t="s">
         <v>482</v>
       </c>
-      <c r="B88" t="s">
-        <v>483</v>
-      </c>
-      <c r="C88" t="s">
-        <v>484</v>
-      </c>
-      <c r="D88" t="s">
-        <v>485</v>
-      </c>
-      <c r="E88" t="s">
-        <v>486</v>
-      </c>
       <c r="F88" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="H88">
         <f t="shared" si="9"/>
@@ -7193,22 +7196,22 @@
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
+        <v>488</v>
+      </c>
+      <c r="B91" t="s">
+        <v>489</v>
+      </c>
+      <c r="C91" t="s">
+        <v>490</v>
+      </c>
+      <c r="D91" t="s">
+        <v>491</v>
+      </c>
+      <c r="E91" t="s">
         <v>492</v>
       </c>
-      <c r="B91" t="s">
-        <v>493</v>
-      </c>
-      <c r="C91" t="s">
-        <v>494</v>
-      </c>
-      <c r="D91" t="s">
-        <v>495</v>
-      </c>
-      <c r="E91" t="s">
-        <v>496</v>
-      </c>
       <c r="F91" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="H91">
         <f t="shared" si="9"/>
@@ -7225,22 +7228,22 @@
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
+        <v>493</v>
+      </c>
+      <c r="B92" t="s">
+        <v>494</v>
+      </c>
+      <c r="C92" t="s">
+        <v>495</v>
+      </c>
+      <c r="D92" t="s">
+        <v>496</v>
+      </c>
+      <c r="E92" t="s">
         <v>497</v>
       </c>
-      <c r="B92" t="s">
-        <v>498</v>
-      </c>
-      <c r="C92" t="s">
-        <v>499</v>
-      </c>
-      <c r="D92" t="s">
-        <v>500</v>
-      </c>
-      <c r="E92" t="s">
-        <v>501</v>
-      </c>
       <c r="F92" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="H92">
         <f t="shared" si="9"/>
@@ -7257,22 +7260,22 @@
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
+        <v>498</v>
+      </c>
+      <c r="B93" t="s">
+        <v>499</v>
+      </c>
+      <c r="C93" t="s">
+        <v>500</v>
+      </c>
+      <c r="D93" t="s">
+        <v>501</v>
+      </c>
+      <c r="E93" t="s">
         <v>502</v>
       </c>
-      <c r="B93" t="s">
-        <v>503</v>
-      </c>
-      <c r="C93" t="s">
-        <v>504</v>
-      </c>
-      <c r="D93" t="s">
-        <v>505</v>
-      </c>
-      <c r="E93" t="s">
-        <v>506</v>
-      </c>
       <c r="F93" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="H93">
         <f t="shared" si="9"/>
@@ -7394,22 +7397,22 @@
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="B97" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="C97" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="D97" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="E97" t="s">
         <v>162</v>
       </c>
       <c r="F97" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="H97">
         <f t="shared" si="9"/>
@@ -7429,19 +7432,19 @@
         <v>162</v>
       </c>
       <c r="B98" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="C98" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="D98" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="E98" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="F98" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="H98">
         <f t="shared" si="9"/>
@@ -7458,22 +7461,22 @@
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="B99" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="C99" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="D99" t="s">
         <v>151</v>
       </c>
       <c r="E99" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="F99" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="H99">
         <f t="shared" si="9"/>
@@ -7505,7 +7508,7 @@
         <v>397</v>
       </c>
       <c r="F100" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="G100" s="1" t="s">
         <v>275</v>
@@ -7598,7 +7601,7 @@
         <v>411</v>
       </c>
       <c r="B103" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="C103" t="s">
         <v>410</v>
@@ -7607,10 +7610,10 @@
         <v>412</v>
       </c>
       <c r="E103" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="F103" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="H103">
         <f t="shared" si="9"/>
@@ -7627,22 +7630,22 @@
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
+        <v>537</v>
+      </c>
+      <c r="B104" t="s">
+        <v>538</v>
+      </c>
+      <c r="C104" t="s">
+        <v>539</v>
+      </c>
+      <c r="D104" t="s">
+        <v>540</v>
+      </c>
+      <c r="E104" t="s">
         <v>541</v>
       </c>
-      <c r="B104" t="s">
-        <v>542</v>
-      </c>
-      <c r="C104" t="s">
-        <v>543</v>
-      </c>
-      <c r="D104" t="s">
-        <v>544</v>
-      </c>
-      <c r="E104" t="s">
-        <v>545</v>
-      </c>
       <c r="F104" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="H104">
         <f t="shared" si="9"/>
@@ -7659,22 +7662,22 @@
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="B105" t="s">
         <v>392</v>
       </c>
       <c r="C105" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="D105" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="E105" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="F105" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="H105">
         <f t="shared" si="9"/>
@@ -7691,22 +7694,22 @@
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
+        <v>545</v>
+      </c>
+      <c r="B106" t="s">
+        <v>546</v>
+      </c>
+      <c r="C106" t="s">
+        <v>547</v>
+      </c>
+      <c r="D106" t="s">
+        <v>548</v>
+      </c>
+      <c r="E106" t="s">
         <v>549</v>
       </c>
-      <c r="B106" t="s">
-        <v>550</v>
-      </c>
-      <c r="C106" t="s">
-        <v>551</v>
-      </c>
-      <c r="D106" t="s">
-        <v>552</v>
-      </c>
-      <c r="E106" t="s">
-        <v>553</v>
-      </c>
       <c r="F106" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="H106">
         <f t="shared" si="9"/>
@@ -7723,22 +7726,22 @@
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
+        <v>550</v>
+      </c>
+      <c r="B107" t="s">
+        <v>551</v>
+      </c>
+      <c r="C107" t="s">
+        <v>552</v>
+      </c>
+      <c r="D107" t="s">
+        <v>553</v>
+      </c>
+      <c r="E107" t="s">
         <v>554</v>
       </c>
-      <c r="B107" t="s">
-        <v>555</v>
-      </c>
-      <c r="C107" t="s">
-        <v>556</v>
-      </c>
-      <c r="D107" t="s">
-        <v>557</v>
-      </c>
-      <c r="E107" t="s">
-        <v>558</v>
-      </c>
       <c r="F107" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="H107">
         <f t="shared" si="9"/>
@@ -7895,22 +7898,22 @@
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
+        <v>603</v>
+      </c>
+      <c r="B112" t="s">
+        <v>604</v>
+      </c>
+      <c r="C112" t="s">
+        <v>605</v>
+      </c>
+      <c r="D112" t="s">
+        <v>606</v>
+      </c>
+      <c r="E112" t="s">
         <v>607</v>
       </c>
-      <c r="B112" t="s">
-        <v>608</v>
-      </c>
-      <c r="C112" t="s">
-        <v>609</v>
-      </c>
-      <c r="D112" t="s">
-        <v>610</v>
-      </c>
-      <c r="E112" t="s">
-        <v>611</v>
-      </c>
       <c r="F112" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="H112">
         <f t="shared" si="9"/>
@@ -7927,22 +7930,22 @@
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="B113" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="C113" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="D113" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="E113" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="F113" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="H113">
         <f t="shared" si="9"/>
@@ -7959,22 +7962,22 @@
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
+        <v>608</v>
+      </c>
+      <c r="B114" t="s">
+        <v>609</v>
+      </c>
+      <c r="C114" t="s">
+        <v>610</v>
+      </c>
+      <c r="D114" t="s">
+        <v>611</v>
+      </c>
+      <c r="E114" t="s">
         <v>612</v>
       </c>
-      <c r="B114" t="s">
+      <c r="F114" t="s">
         <v>613</v>
-      </c>
-      <c r="C114" t="s">
-        <v>614</v>
-      </c>
-      <c r="D114" t="s">
-        <v>615</v>
-      </c>
-      <c r="E114" t="s">
-        <v>616</v>
-      </c>
-      <c r="F114" t="s">
-        <v>617</v>
       </c>
       <c r="H114">
         <f t="shared" si="9"/>
@@ -8006,7 +8009,7 @@
         <v>424</v>
       </c>
       <c r="F115" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="G115" s="1" t="s">
         <v>87</v>
@@ -8026,22 +8029,22 @@
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="B116" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="C116" t="s">
         <v>412</v>
       </c>
       <c r="D116" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="E116" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="F116" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="H116">
         <f t="shared" si="9"/>
@@ -8058,22 +8061,22 @@
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
+        <v>558</v>
+      </c>
+      <c r="B117" t="s">
+        <v>559</v>
+      </c>
+      <c r="C117" t="s">
+        <v>560</v>
+      </c>
+      <c r="D117" t="s">
+        <v>561</v>
+      </c>
+      <c r="E117" t="s">
         <v>562</v>
       </c>
-      <c r="B117" t="s">
-        <v>563</v>
-      </c>
-      <c r="C117" t="s">
-        <v>564</v>
-      </c>
-      <c r="D117" t="s">
-        <v>565</v>
-      </c>
-      <c r="E117" t="s">
-        <v>566</v>
-      </c>
       <c r="F117" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="H117">
         <f t="shared" si="9"/>
@@ -8090,22 +8093,22 @@
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="B118" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="C118" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="D118" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="E118" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="F118" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="H118">
         <f t="shared" si="9"/>
@@ -8227,22 +8230,22 @@
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
+        <v>593</v>
+      </c>
+      <c r="B122" t="s">
+        <v>594</v>
+      </c>
+      <c r="C122" t="s">
+        <v>595</v>
+      </c>
+      <c r="D122" t="s">
+        <v>596</v>
+      </c>
+      <c r="E122" t="s">
         <v>597</v>
       </c>
-      <c r="B122" t="s">
-        <v>598</v>
-      </c>
-      <c r="C122" t="s">
-        <v>599</v>
-      </c>
-      <c r="D122" t="s">
-        <v>600</v>
-      </c>
-      <c r="E122" t="s">
-        <v>601</v>
-      </c>
       <c r="F122" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="H122">
         <f t="shared" si="9"/>
@@ -8294,7 +8297,7 @@
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="B124" t="s">
         <v>425</v>
@@ -8309,7 +8312,7 @@
         <v>430</v>
       </c>
       <c r="F124" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="G124" s="1" t="s">
         <v>429</v>
@@ -8399,22 +8402,22 @@
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
+        <v>598</v>
+      </c>
+      <c r="B127" t="s">
+        <v>599</v>
+      </c>
+      <c r="C127" t="s">
+        <v>600</v>
+      </c>
+      <c r="D127" t="s">
+        <v>601</v>
+      </c>
+      <c r="E127" t="s">
         <v>602</v>
       </c>
-      <c r="B127" t="s">
-        <v>603</v>
-      </c>
-      <c r="C127" t="s">
-        <v>604</v>
-      </c>
-      <c r="D127" t="s">
-        <v>605</v>
-      </c>
-      <c r="E127" t="s">
-        <v>606</v>
-      </c>
       <c r="F127" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="H127">
         <f t="shared" si="12"/>
@@ -8746,22 +8749,22 @@
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="B137" t="s">
         <v>232</v>
       </c>
       <c r="C137" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="D137" t="s">
         <v>231</v>
       </c>
       <c r="E137" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="F137" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="H137">
         <f t="shared" si="12"/>
@@ -8790,7 +8793,7 @@
         <v>43</v>
       </c>
       <c r="E138" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="F138" s="1" t="s">
         <v>339</v>
@@ -8813,22 +8816,22 @@
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
+        <v>675</v>
+      </c>
+      <c r="B139" t="s">
+        <v>676</v>
+      </c>
+      <c r="C139" t="s">
+        <v>677</v>
+      </c>
+      <c r="D139" t="s">
+        <v>678</v>
+      </c>
+      <c r="E139" t="s">
         <v>679</v>
       </c>
-      <c r="B139" t="s">
-        <v>680</v>
-      </c>
-      <c r="C139" t="s">
-        <v>681</v>
-      </c>
-      <c r="D139" t="s">
-        <v>682</v>
-      </c>
-      <c r="E139" t="s">
-        <v>683</v>
-      </c>
       <c r="F139" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="G139" s="1"/>
       <c r="H139">
@@ -8846,22 +8849,22 @@
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
+        <v>660</v>
+      </c>
+      <c r="B140" t="s">
+        <v>661</v>
+      </c>
+      <c r="C140" t="s">
+        <v>662</v>
+      </c>
+      <c r="D140" t="s">
+        <v>663</v>
+      </c>
+      <c r="E140" t="s">
         <v>664</v>
       </c>
-      <c r="B140" t="s">
-        <v>665</v>
-      </c>
-      <c r="C140" t="s">
-        <v>666</v>
-      </c>
-      <c r="D140" t="s">
-        <v>667</v>
-      </c>
-      <c r="E140" t="s">
-        <v>668</v>
-      </c>
       <c r="F140" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="H140">
         <f t="shared" si="12"/>
@@ -8878,22 +8881,22 @@
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
+        <v>665</v>
+      </c>
+      <c r="B141" t="s">
+        <v>666</v>
+      </c>
+      <c r="C141" t="s">
+        <v>667</v>
+      </c>
+      <c r="D141" t="s">
+        <v>668</v>
+      </c>
+      <c r="E141" t="s">
         <v>669</v>
       </c>
-      <c r="B141" t="s">
-        <v>670</v>
-      </c>
-      <c r="C141" t="s">
-        <v>671</v>
-      </c>
-      <c r="D141" t="s">
-        <v>672</v>
-      </c>
-      <c r="E141" t="s">
-        <v>673</v>
-      </c>
       <c r="F141" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="H141">
         <f t="shared" si="12"/>
@@ -8910,22 +8913,22 @@
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
+        <v>670</v>
+      </c>
+      <c r="B142" t="s">
+        <v>671</v>
+      </c>
+      <c r="C142" t="s">
+        <v>672</v>
+      </c>
+      <c r="D142" t="s">
+        <v>673</v>
+      </c>
+      <c r="E142" t="s">
         <v>674</v>
       </c>
-      <c r="B142" t="s">
-        <v>675</v>
-      </c>
-      <c r="C142" t="s">
-        <v>676</v>
-      </c>
-      <c r="D142" t="s">
-        <v>677</v>
-      </c>
-      <c r="E142" t="s">
-        <v>678</v>
-      </c>
       <c r="F142" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="H142">
         <f t="shared" si="12"/>
@@ -8942,22 +8945,22 @@
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
+        <v>680</v>
+      </c>
+      <c r="B143" t="s">
+        <v>681</v>
+      </c>
+      <c r="C143" t="s">
+        <v>682</v>
+      </c>
+      <c r="D143" t="s">
+        <v>683</v>
+      </c>
+      <c r="E143" t="s">
         <v>684</v>
       </c>
-      <c r="B143" t="s">
-        <v>685</v>
-      </c>
-      <c r="C143" t="s">
-        <v>686</v>
-      </c>
-      <c r="D143" t="s">
-        <v>687</v>
-      </c>
-      <c r="E143" t="s">
-        <v>688</v>
-      </c>
       <c r="F143" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="H143">
         <f t="shared" si="12"/>
@@ -8974,22 +8977,22 @@
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
       <c r="B144" t="s">
         <v>228</v>
       </c>
       <c r="C144" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="D144" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="E144" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="F144" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="H144">
         <f t="shared" si="12"/>
@@ -9006,22 +9009,22 @@
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
+        <v>689</v>
+      </c>
+      <c r="B145" t="s">
+        <v>690</v>
+      </c>
+      <c r="C145" t="s">
+        <v>691</v>
+      </c>
+      <c r="D145" t="s">
+        <v>692</v>
+      </c>
+      <c r="E145" t="s">
         <v>693</v>
       </c>
-      <c r="B145" t="s">
-        <v>694</v>
-      </c>
-      <c r="C145" t="s">
-        <v>695</v>
-      </c>
-      <c r="D145" t="s">
-        <v>696</v>
-      </c>
-      <c r="E145" t="s">
-        <v>697</v>
-      </c>
       <c r="F145" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="H145">
         <f t="shared" si="12"/>
@@ -9038,22 +9041,22 @@
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
+        <v>694</v>
+      </c>
+      <c r="B146" t="s">
+        <v>695</v>
+      </c>
+      <c r="C146" t="s">
+        <v>696</v>
+      </c>
+      <c r="D146" t="s">
+        <v>697</v>
+      </c>
+      <c r="E146" t="s">
         <v>698</v>
       </c>
-      <c r="B146" t="s">
-        <v>699</v>
-      </c>
-      <c r="C146" t="s">
-        <v>700</v>
-      </c>
-      <c r="D146" t="s">
-        <v>701</v>
-      </c>
-      <c r="E146" t="s">
-        <v>702</v>
-      </c>
       <c r="F146" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="H146">
         <f t="shared" si="12"/>
@@ -9070,22 +9073,22 @@
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
       <c r="B147" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="C147" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
       <c r="D147" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
       <c r="E147" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="F147" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="H147">
         <f t="shared" si="12"/>
@@ -9102,22 +9105,22 @@
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
+        <v>703</v>
+      </c>
+      <c r="B148" t="s">
+        <v>704</v>
+      </c>
+      <c r="C148" t="s">
+        <v>705</v>
+      </c>
+      <c r="D148" t="s">
+        <v>706</v>
+      </c>
+      <c r="E148" t="s">
         <v>707</v>
       </c>
-      <c r="B148" t="s">
-        <v>708</v>
-      </c>
-      <c r="C148" t="s">
-        <v>709</v>
-      </c>
-      <c r="D148" t="s">
-        <v>710</v>
-      </c>
-      <c r="E148" t="s">
-        <v>711</v>
-      </c>
       <c r="F148" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="H148">
         <f t="shared" si="12"/>
@@ -9134,22 +9137,22 @@
     </row>
     <row r="149" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
+        <v>708</v>
+      </c>
+      <c r="B149" t="s">
+        <v>709</v>
+      </c>
+      <c r="C149" t="s">
+        <v>710</v>
+      </c>
+      <c r="D149" t="s">
+        <v>711</v>
+      </c>
+      <c r="E149" t="s">
         <v>712</v>
       </c>
-      <c r="B149" t="s">
-        <v>713</v>
-      </c>
-      <c r="C149" t="s">
-        <v>714</v>
-      </c>
-      <c r="D149" t="s">
-        <v>715</v>
-      </c>
-      <c r="E149" t="s">
-        <v>716</v>
-      </c>
       <c r="F149" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="H149">
         <f t="shared" si="12"/>
@@ -9166,22 +9169,22 @@
     </row>
     <row r="150" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
+        <v>713</v>
+      </c>
+      <c r="B150" t="s">
+        <v>714</v>
+      </c>
+      <c r="C150" t="s">
+        <v>715</v>
+      </c>
+      <c r="D150" t="s">
+        <v>716</v>
+      </c>
+      <c r="E150" t="s">
         <v>717</v>
       </c>
-      <c r="B150" t="s">
-        <v>718</v>
-      </c>
-      <c r="C150" t="s">
-        <v>719</v>
-      </c>
-      <c r="D150" t="s">
-        <v>720</v>
-      </c>
-      <c r="E150" t="s">
-        <v>721</v>
-      </c>
       <c r="F150" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="H150">
         <f t="shared" si="12"/>
@@ -9198,22 +9201,22 @@
     </row>
     <row r="151" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
+        <v>718</v>
+      </c>
+      <c r="B151" t="s">
+        <v>719</v>
+      </c>
+      <c r="C151" t="s">
+        <v>720</v>
+      </c>
+      <c r="D151" t="s">
+        <v>721</v>
+      </c>
+      <c r="E151" t="s">
         <v>722</v>
       </c>
-      <c r="B151" t="s">
-        <v>723</v>
-      </c>
-      <c r="C151" t="s">
-        <v>724</v>
-      </c>
-      <c r="D151" t="s">
-        <v>725</v>
-      </c>
-      <c r="E151" t="s">
-        <v>726</v>
-      </c>
       <c r="F151" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="H151">
         <f t="shared" si="12"/>
@@ -9230,22 +9233,22 @@
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
+        <v>723</v>
+      </c>
+      <c r="B152" t="s">
+        <v>724</v>
+      </c>
+      <c r="C152" t="s">
+        <v>725</v>
+      </c>
+      <c r="D152" t="s">
+        <v>726</v>
+      </c>
+      <c r="E152" t="s">
         <v>727</v>
       </c>
-      <c r="B152" t="s">
-        <v>728</v>
-      </c>
-      <c r="C152" t="s">
-        <v>729</v>
-      </c>
-      <c r="D152" t="s">
-        <v>730</v>
-      </c>
-      <c r="E152" t="s">
-        <v>731</v>
-      </c>
       <c r="F152" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="H152">
         <f t="shared" si="12"/>
@@ -9262,22 +9265,22 @@
     </row>
     <row r="153" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="B153" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="C153" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="D153" t="s">
-        <v>735</v>
+        <v>731</v>
       </c>
       <c r="E153" t="s">
         <v>246</v>
       </c>
       <c r="F153" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="H153">
         <f t="shared" si="12"/>
@@ -9294,22 +9297,22 @@
     </row>
     <row r="154" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>736</v>
+        <v>732</v>
       </c>
       <c r="B154" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="C154" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="D154" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="E154" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="F154" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="H154">
         <f t="shared" si="12"/>
@@ -9326,22 +9329,22 @@
     </row>
     <row r="155" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
+        <v>736</v>
+      </c>
+      <c r="B155" t="s">
+        <v>737</v>
+      </c>
+      <c r="C155" t="s">
+        <v>738</v>
+      </c>
+      <c r="D155" t="s">
+        <v>739</v>
+      </c>
+      <c r="E155" t="s">
         <v>740</v>
       </c>
-      <c r="B155" t="s">
-        <v>741</v>
-      </c>
-      <c r="C155" t="s">
-        <v>742</v>
-      </c>
-      <c r="D155" t="s">
-        <v>743</v>
-      </c>
-      <c r="E155" t="s">
-        <v>744</v>
-      </c>
       <c r="F155" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="H155">
         <f t="shared" si="12"/>
@@ -9358,22 +9361,22 @@
     </row>
     <row r="156" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
+        <v>741</v>
+      </c>
+      <c r="B156" t="s">
+        <v>742</v>
+      </c>
+      <c r="C156" t="s">
+        <v>743</v>
+      </c>
+      <c r="D156" t="s">
+        <v>744</v>
+      </c>
+      <c r="E156" t="s">
         <v>745</v>
       </c>
-      <c r="B156" t="s">
-        <v>746</v>
-      </c>
-      <c r="C156" t="s">
-        <v>747</v>
-      </c>
-      <c r="D156" t="s">
-        <v>748</v>
-      </c>
-      <c r="E156" t="s">
-        <v>749</v>
-      </c>
       <c r="F156" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="H156">
         <f t="shared" si="12"/>
@@ -9390,22 +9393,22 @@
     </row>
     <row r="157" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
+        <v>746</v>
+      </c>
+      <c r="B157" t="s">
+        <v>747</v>
+      </c>
+      <c r="C157" t="s">
+        <v>748</v>
+      </c>
+      <c r="D157" t="s">
+        <v>749</v>
+      </c>
+      <c r="E157" t="s">
         <v>750</v>
       </c>
-      <c r="B157" t="s">
-        <v>751</v>
-      </c>
-      <c r="C157" t="s">
-        <v>752</v>
-      </c>
-      <c r="D157" t="s">
-        <v>753</v>
-      </c>
-      <c r="E157" t="s">
-        <v>754</v>
-      </c>
       <c r="F157" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="H157">
         <f t="shared" si="12"/>
@@ -9422,22 +9425,22 @@
     </row>
     <row r="158" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
+        <v>751</v>
+      </c>
+      <c r="B158" t="s">
+        <v>752</v>
+      </c>
+      <c r="C158" t="s">
+        <v>753</v>
+      </c>
+      <c r="D158" t="s">
+        <v>754</v>
+      </c>
+      <c r="E158" t="s">
         <v>755</v>
       </c>
-      <c r="B158" t="s">
-        <v>756</v>
-      </c>
-      <c r="C158" t="s">
-        <v>757</v>
-      </c>
-      <c r="D158" t="s">
-        <v>758</v>
-      </c>
-      <c r="E158" t="s">
-        <v>759</v>
-      </c>
       <c r="F158" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="H158">
         <f t="shared" si="12"/>
@@ -9454,22 +9457,22 @@
     </row>
     <row r="159" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>760</v>
+        <v>756</v>
       </c>
       <c r="B159" t="s">
-        <v>761</v>
+        <v>757</v>
       </c>
       <c r="C159" t="s">
-        <v>762</v>
+        <v>758</v>
       </c>
       <c r="D159" t="s">
-        <v>763</v>
+        <v>759</v>
       </c>
       <c r="E159" t="s">
-        <v>759</v>
+        <v>755</v>
       </c>
       <c r="F159" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="H159">
         <f t="shared" si="12"/>
@@ -9486,22 +9489,22 @@
     </row>
     <row r="160" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
+        <v>760</v>
+      </c>
+      <c r="B160" t="s">
+        <v>761</v>
+      </c>
+      <c r="C160" t="s">
+        <v>762</v>
+      </c>
+      <c r="D160" t="s">
+        <v>763</v>
+      </c>
+      <c r="E160" t="s">
         <v>764</v>
       </c>
-      <c r="B160" t="s">
-        <v>765</v>
-      </c>
-      <c r="C160" t="s">
-        <v>766</v>
-      </c>
-      <c r="D160" t="s">
-        <v>767</v>
-      </c>
-      <c r="E160" t="s">
-        <v>768</v>
-      </c>
       <c r="F160" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="H160">
         <f t="shared" si="12"/>
@@ -9518,22 +9521,22 @@
     </row>
     <row r="161" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
+        <v>765</v>
+      </c>
+      <c r="B161" t="s">
+        <v>766</v>
+      </c>
+      <c r="C161" t="s">
+        <v>767</v>
+      </c>
+      <c r="D161" t="s">
+        <v>768</v>
+      </c>
+      <c r="E161" t="s">
         <v>769</v>
       </c>
-      <c r="B161" t="s">
-        <v>770</v>
-      </c>
-      <c r="C161" t="s">
-        <v>771</v>
-      </c>
-      <c r="D161" t="s">
-        <v>772</v>
-      </c>
-      <c r="E161" t="s">
-        <v>773</v>
-      </c>
       <c r="F161" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="H161">
         <f t="shared" si="12"/>
@@ -9550,22 +9553,22 @@
     </row>
     <row r="162" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
+        <v>770</v>
+      </c>
+      <c r="B162" t="s">
+        <v>771</v>
+      </c>
+      <c r="C162" t="s">
+        <v>772</v>
+      </c>
+      <c r="D162" t="s">
+        <v>773</v>
+      </c>
+      <c r="E162" t="s">
         <v>774</v>
       </c>
-      <c r="B162" t="s">
-        <v>775</v>
-      </c>
-      <c r="C162" t="s">
-        <v>776</v>
-      </c>
-      <c r="D162" t="s">
-        <v>777</v>
-      </c>
-      <c r="E162" t="s">
-        <v>778</v>
-      </c>
       <c r="F162" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="H162">
         <f t="shared" si="12"/>
@@ -9582,22 +9585,22 @@
     </row>
     <row r="163" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>779</v>
+        <v>775</v>
       </c>
       <c r="B163" t="s">
-        <v>780</v>
+        <v>776</v>
       </c>
       <c r="C163" t="s">
         <v>291</v>
       </c>
       <c r="D163" t="s">
-        <v>781</v>
+        <v>777</v>
       </c>
       <c r="E163" t="s">
-        <v>782</v>
+        <v>778</v>
       </c>
       <c r="F163" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="H163">
         <f t="shared" si="12"/>
@@ -9614,22 +9617,22 @@
     </row>
     <row r="164" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
+        <v>760</v>
+      </c>
+      <c r="B164" t="s">
+        <v>761</v>
+      </c>
+      <c r="C164" t="s">
+        <v>762</v>
+      </c>
+      <c r="D164" t="s">
+        <v>763</v>
+      </c>
+      <c r="E164" t="s">
         <v>764</v>
       </c>
-      <c r="B164" t="s">
-        <v>765</v>
-      </c>
-      <c r="C164" t="s">
-        <v>766</v>
-      </c>
-      <c r="D164" t="s">
-        <v>767</v>
-      </c>
-      <c r="E164" t="s">
-        <v>768</v>
-      </c>
       <c r="F164" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="H164">
         <f t="shared" si="12"/>
@@ -9646,22 +9649,22 @@
     </row>
     <row r="165" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
+        <v>779</v>
+      </c>
+      <c r="B165" t="s">
+        <v>780</v>
+      </c>
+      <c r="C165" t="s">
+        <v>781</v>
+      </c>
+      <c r="D165" t="s">
+        <v>782</v>
+      </c>
+      <c r="E165" t="s">
         <v>783</v>
       </c>
-      <c r="B165" t="s">
-        <v>784</v>
-      </c>
-      <c r="C165" t="s">
-        <v>785</v>
-      </c>
-      <c r="D165" t="s">
-        <v>786</v>
-      </c>
-      <c r="E165" t="s">
-        <v>787</v>
-      </c>
       <c r="F165" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="H165">
         <f t="shared" si="12"/>
@@ -9678,22 +9681,22 @@
     </row>
     <row r="166" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="B166" t="s">
-        <v>788</v>
+        <v>784</v>
       </c>
       <c r="C166" t="s">
-        <v>789</v>
+        <v>785</v>
       </c>
       <c r="D166" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="E166" t="s">
-        <v>791</v>
+        <v>787</v>
       </c>
       <c r="F166" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="H166">
         <f t="shared" si="12"/>
@@ -9710,22 +9713,22 @@
     </row>
     <row r="167" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
+        <v>788</v>
+      </c>
+      <c r="B167" t="s">
+        <v>789</v>
+      </c>
+      <c r="C167" t="s">
+        <v>790</v>
+      </c>
+      <c r="D167" t="s">
+        <v>791</v>
+      </c>
+      <c r="E167" t="s">
         <v>792</v>
       </c>
-      <c r="B167" t="s">
-        <v>793</v>
-      </c>
-      <c r="C167" t="s">
-        <v>794</v>
-      </c>
-      <c r="D167" t="s">
-        <v>795</v>
-      </c>
-      <c r="E167" t="s">
-        <v>796</v>
-      </c>
       <c r="F167" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="H167">
         <f t="shared" si="12"/>
@@ -9742,22 +9745,22 @@
     </row>
     <row r="168" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
+        <v>793</v>
+      </c>
+      <c r="B168" t="s">
+        <v>794</v>
+      </c>
+      <c r="C168" t="s">
+        <v>795</v>
+      </c>
+      <c r="D168" t="s">
+        <v>796</v>
+      </c>
+      <c r="E168" t="s">
         <v>797</v>
       </c>
-      <c r="B168" t="s">
-        <v>798</v>
-      </c>
-      <c r="C168" t="s">
-        <v>799</v>
-      </c>
-      <c r="D168" t="s">
-        <v>800</v>
-      </c>
-      <c r="E168" t="s">
-        <v>801</v>
-      </c>
       <c r="F168" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="H168">
         <f t="shared" si="12"/>
@@ -9774,22 +9777,22 @@
     </row>
     <row r="169" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>802</v>
+        <v>798</v>
       </c>
       <c r="B169" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="C169" t="s">
-        <v>803</v>
+        <v>799</v>
       </c>
       <c r="D169" t="s">
-        <v>804</v>
+        <v>800</v>
       </c>
       <c r="E169" t="s">
-        <v>805</v>
+        <v>801</v>
       </c>
       <c r="F169" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="H169">
         <f t="shared" si="12"/>
@@ -9806,22 +9809,22 @@
     </row>
     <row r="170" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
+        <v>802</v>
+      </c>
+      <c r="B170" t="s">
+        <v>803</v>
+      </c>
+      <c r="C170" t="s">
+        <v>804</v>
+      </c>
+      <c r="D170" t="s">
+        <v>805</v>
+      </c>
+      <c r="E170" t="s">
         <v>806</v>
       </c>
-      <c r="B170" t="s">
-        <v>807</v>
-      </c>
-      <c r="C170" t="s">
-        <v>808</v>
-      </c>
-      <c r="D170" t="s">
-        <v>809</v>
-      </c>
-      <c r="E170" t="s">
-        <v>810</v>
-      </c>
       <c r="F170" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="H170">
         <f t="shared" si="12"/>
@@ -9838,22 +9841,22 @@
     </row>
     <row r="171" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
+        <v>807</v>
+      </c>
+      <c r="B171" t="s">
+        <v>808</v>
+      </c>
+      <c r="C171" t="s">
+        <v>809</v>
+      </c>
+      <c r="D171" t="s">
+        <v>810</v>
+      </c>
+      <c r="E171" t="s">
         <v>811</v>
       </c>
-      <c r="B171" t="s">
-        <v>812</v>
-      </c>
-      <c r="C171" t="s">
-        <v>813</v>
-      </c>
-      <c r="D171" t="s">
-        <v>814</v>
-      </c>
-      <c r="E171" t="s">
-        <v>815</v>
-      </c>
       <c r="F171" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="H171">
         <f t="shared" si="12"/>
@@ -9873,19 +9876,19 @@
         <v>404</v>
       </c>
       <c r="B172" t="s">
-        <v>816</v>
+        <v>812</v>
       </c>
       <c r="C172" t="s">
-        <v>817</v>
+        <v>813</v>
       </c>
       <c r="D172" t="s">
-        <v>818</v>
+        <v>814</v>
       </c>
       <c r="E172" t="s">
         <v>103</v>
       </c>
       <c r="F172" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="H172">
         <f t="shared" si="12"/>
@@ -9902,22 +9905,22 @@
     </row>
     <row r="173" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
+        <v>815</v>
+      </c>
+      <c r="B173" t="s">
+        <v>816</v>
+      </c>
+      <c r="C173" t="s">
+        <v>817</v>
+      </c>
+      <c r="D173" t="s">
+        <v>818</v>
+      </c>
+      <c r="E173" t="s">
         <v>819</v>
       </c>
-      <c r="B173" t="s">
-        <v>820</v>
-      </c>
-      <c r="C173" t="s">
-        <v>821</v>
-      </c>
-      <c r="D173" t="s">
-        <v>822</v>
-      </c>
-      <c r="E173" t="s">
-        <v>823</v>
-      </c>
       <c r="F173" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="H173">
         <f t="shared" si="12"/>
@@ -9934,22 +9937,22 @@
     </row>
     <row r="174" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
+        <v>820</v>
+      </c>
+      <c r="B174" t="s">
+        <v>821</v>
+      </c>
+      <c r="C174" t="s">
+        <v>822</v>
+      </c>
+      <c r="D174" t="s">
+        <v>823</v>
+      </c>
+      <c r="E174" t="s">
         <v>824</v>
       </c>
-      <c r="B174" t="s">
-        <v>825</v>
-      </c>
-      <c r="C174" t="s">
-        <v>826</v>
-      </c>
-      <c r="D174" t="s">
-        <v>827</v>
-      </c>
-      <c r="E174" t="s">
-        <v>828</v>
-      </c>
       <c r="F174" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="H174">
         <f t="shared" si="12"/>
@@ -9966,22 +9969,22 @@
     </row>
     <row r="175" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
+        <v>825</v>
+      </c>
+      <c r="B175" t="s">
+        <v>826</v>
+      </c>
+      <c r="C175" t="s">
+        <v>827</v>
+      </c>
+      <c r="D175" t="s">
+        <v>828</v>
+      </c>
+      <c r="E175" t="s">
         <v>829</v>
       </c>
-      <c r="B175" t="s">
-        <v>830</v>
-      </c>
-      <c r="C175" t="s">
-        <v>831</v>
-      </c>
-      <c r="D175" t="s">
-        <v>832</v>
-      </c>
-      <c r="E175" t="s">
-        <v>833</v>
-      </c>
       <c r="F175" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="H175">
         <f t="shared" si="12"/>
@@ -9998,22 +10001,22 @@
     </row>
     <row r="176" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>834</v>
+        <v>830</v>
       </c>
       <c r="B176" t="s">
         <v>299</v>
       </c>
       <c r="C176" t="s">
-        <v>835</v>
+        <v>831</v>
       </c>
       <c r="D176" t="s">
-        <v>836</v>
+        <v>832</v>
       </c>
       <c r="E176" t="s">
-        <v>837</v>
+        <v>833</v>
       </c>
       <c r="F176" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="H176">
         <f t="shared" si="12"/>
@@ -10030,22 +10033,22 @@
     </row>
     <row r="177" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
+        <v>834</v>
+      </c>
+      <c r="B177" t="s">
+        <v>835</v>
+      </c>
+      <c r="C177" t="s">
+        <v>836</v>
+      </c>
+      <c r="D177" t="s">
+        <v>837</v>
+      </c>
+      <c r="E177" t="s">
         <v>838</v>
       </c>
-      <c r="B177" t="s">
-        <v>839</v>
-      </c>
-      <c r="C177" t="s">
-        <v>840</v>
-      </c>
-      <c r="D177" t="s">
-        <v>841</v>
-      </c>
-      <c r="E177" t="s">
-        <v>842</v>
-      </c>
       <c r="F177" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="H177">
         <f t="shared" si="12"/>
@@ -10062,22 +10065,22 @@
     </row>
     <row r="178" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>848</v>
+        <v>844</v>
       </c>
       <c r="B178" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="C178" t="s">
-        <v>849</v>
+        <v>845</v>
       </c>
       <c r="D178" t="s">
-        <v>850</v>
+        <v>846</v>
       </c>
       <c r="E178" t="s">
-        <v>851</v>
+        <v>847</v>
       </c>
       <c r="F178" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="H178">
         <f t="shared" si="12"/>
@@ -10094,22 +10097,22 @@
     </row>
     <row r="179" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
+        <v>848</v>
+      </c>
+      <c r="B179" t="s">
+        <v>849</v>
+      </c>
+      <c r="C179" t="s">
+        <v>850</v>
+      </c>
+      <c r="D179" t="s">
+        <v>851</v>
+      </c>
+      <c r="E179" t="s">
         <v>852</v>
       </c>
-      <c r="B179" t="s">
-        <v>853</v>
-      </c>
-      <c r="C179" t="s">
-        <v>854</v>
-      </c>
-      <c r="D179" t="s">
-        <v>855</v>
-      </c>
-      <c r="E179" t="s">
-        <v>856</v>
-      </c>
       <c r="F179" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="H179">
         <f t="shared" si="12"/>
@@ -10126,22 +10129,22 @@
     </row>
     <row r="180" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
+        <v>853</v>
+      </c>
+      <c r="B180" t="s">
+        <v>854</v>
+      </c>
+      <c r="C180" t="s">
+        <v>855</v>
+      </c>
+      <c r="D180" t="s">
+        <v>856</v>
+      </c>
+      <c r="E180" t="s">
         <v>857</v>
       </c>
-      <c r="B180" t="s">
-        <v>858</v>
-      </c>
-      <c r="C180" t="s">
-        <v>859</v>
-      </c>
-      <c r="D180" t="s">
-        <v>860</v>
-      </c>
-      <c r="E180" t="s">
-        <v>861</v>
-      </c>
       <c r="F180" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="H180">
         <f t="shared" si="12"/>
@@ -10158,22 +10161,22 @@
     </row>
     <row r="181" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
+        <v>858</v>
+      </c>
+      <c r="B181" t="s">
+        <v>859</v>
+      </c>
+      <c r="C181" t="s">
+        <v>860</v>
+      </c>
+      <c r="D181" t="s">
+        <v>861</v>
+      </c>
+      <c r="E181" t="s">
         <v>862</v>
       </c>
-      <c r="B181" t="s">
-        <v>863</v>
-      </c>
-      <c r="C181" t="s">
-        <v>864</v>
-      </c>
-      <c r="D181" t="s">
-        <v>865</v>
-      </c>
-      <c r="E181" t="s">
-        <v>866</v>
-      </c>
       <c r="F181" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="H181">
         <f t="shared" si="12"/>
@@ -10190,22 +10193,22 @@
     </row>
     <row r="182" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>760</v>
+        <v>756</v>
       </c>
       <c r="B182" t="s">
-        <v>761</v>
+        <v>757</v>
       </c>
       <c r="C182" t="s">
-        <v>762</v>
+        <v>758</v>
       </c>
       <c r="D182" t="s">
-        <v>763</v>
+        <v>759</v>
       </c>
       <c r="E182" t="s">
-        <v>759</v>
+        <v>755</v>
       </c>
       <c r="F182" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="H182">
         <f t="shared" si="12"/>
@@ -10222,22 +10225,22 @@
     </row>
     <row r="183" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
+        <v>863</v>
+      </c>
+      <c r="B183" t="s">
+        <v>864</v>
+      </c>
+      <c r="C183" t="s">
+        <v>865</v>
+      </c>
+      <c r="D183" t="s">
+        <v>866</v>
+      </c>
+      <c r="E183" t="s">
         <v>867</v>
       </c>
-      <c r="B183" t="s">
-        <v>868</v>
-      </c>
-      <c r="C183" t="s">
-        <v>869</v>
-      </c>
-      <c r="D183" t="s">
-        <v>870</v>
-      </c>
-      <c r="E183" t="s">
-        <v>871</v>
-      </c>
       <c r="F183" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="H183">
         <f t="shared" si="12"/>
@@ -10254,22 +10257,22 @@
     </row>
     <row r="184" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
+        <v>868</v>
+      </c>
+      <c r="B184" t="s">
+        <v>869</v>
+      </c>
+      <c r="C184" t="s">
+        <v>870</v>
+      </c>
+      <c r="D184" t="s">
+        <v>871</v>
+      </c>
+      <c r="E184" t="s">
         <v>872</v>
       </c>
-      <c r="B184" t="s">
-        <v>873</v>
-      </c>
-      <c r="C184" t="s">
-        <v>874</v>
-      </c>
-      <c r="D184" t="s">
-        <v>875</v>
-      </c>
-      <c r="E184" t="s">
-        <v>876</v>
-      </c>
       <c r="F184" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="H184">
         <f t="shared" si="12"/>
@@ -10286,22 +10289,22 @@
     </row>
     <row r="185" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
+        <v>873</v>
+      </c>
+      <c r="B185" t="s">
+        <v>874</v>
+      </c>
+      <c r="C185" t="s">
+        <v>875</v>
+      </c>
+      <c r="D185" t="s">
+        <v>876</v>
+      </c>
+      <c r="E185" t="s">
         <v>877</v>
       </c>
-      <c r="B185" t="s">
-        <v>878</v>
-      </c>
-      <c r="C185" t="s">
-        <v>879</v>
-      </c>
-      <c r="D185" t="s">
-        <v>880</v>
-      </c>
-      <c r="E185" t="s">
-        <v>881</v>
-      </c>
       <c r="F185" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="H185">
         <f t="shared" si="12"/>
@@ -10318,22 +10321,22 @@
     </row>
     <row r="186" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
+        <v>878</v>
+      </c>
+      <c r="B186" t="s">
+        <v>879</v>
+      </c>
+      <c r="C186" t="s">
+        <v>880</v>
+      </c>
+      <c r="D186" t="s">
+        <v>881</v>
+      </c>
+      <c r="E186" t="s">
         <v>882</v>
       </c>
-      <c r="B186" t="s">
-        <v>883</v>
-      </c>
-      <c r="C186" t="s">
-        <v>884</v>
-      </c>
-      <c r="D186" t="s">
-        <v>885</v>
-      </c>
-      <c r="E186" t="s">
-        <v>886</v>
-      </c>
       <c r="F186" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="H186">
         <f t="shared" si="12"/>
@@ -10350,22 +10353,22 @@
     </row>
     <row r="187" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
+        <v>883</v>
+      </c>
+      <c r="B187" t="s">
+        <v>884</v>
+      </c>
+      <c r="C187" t="s">
+        <v>885</v>
+      </c>
+      <c r="D187" t="s">
+        <v>886</v>
+      </c>
+      <c r="E187" t="s">
         <v>887</v>
       </c>
-      <c r="B187" t="s">
-        <v>888</v>
-      </c>
-      <c r="C187" t="s">
-        <v>889</v>
-      </c>
-      <c r="D187" t="s">
-        <v>890</v>
-      </c>
-      <c r="E187" t="s">
-        <v>891</v>
-      </c>
       <c r="F187" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="H187">
         <f t="shared" si="12"/>
@@ -10382,22 +10385,22 @@
     </row>
     <row r="188" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
+        <v>888</v>
+      </c>
+      <c r="B188" t="s">
+        <v>889</v>
+      </c>
+      <c r="C188" t="s">
+        <v>890</v>
+      </c>
+      <c r="D188" t="s">
+        <v>891</v>
+      </c>
+      <c r="E188" t="s">
         <v>892</v>
       </c>
-      <c r="B188" t="s">
-        <v>893</v>
-      </c>
-      <c r="C188" t="s">
-        <v>894</v>
-      </c>
-      <c r="D188" t="s">
-        <v>895</v>
-      </c>
-      <c r="E188" t="s">
-        <v>896</v>
-      </c>
       <c r="F188" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="H188">
         <f t="shared" ref="H188:H222" si="15">INT(J188/3)</f>
@@ -10414,22 +10417,22 @@
     </row>
     <row r="189" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>897</v>
+        <v>893</v>
       </c>
       <c r="B189" t="s">
         <v>169</v>
       </c>
       <c r="C189" t="s">
-        <v>898</v>
+        <v>894</v>
       </c>
       <c r="D189" t="s">
-        <v>899</v>
+        <v>895</v>
       </c>
       <c r="E189" t="s">
-        <v>900</v>
+        <v>896</v>
       </c>
       <c r="F189" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="H189">
         <f t="shared" si="15"/>
@@ -10446,22 +10449,22 @@
     </row>
     <row r="190" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
+        <v>897</v>
+      </c>
+      <c r="B190" t="s">
+        <v>898</v>
+      </c>
+      <c r="C190" t="s">
+        <v>899</v>
+      </c>
+      <c r="D190" t="s">
+        <v>900</v>
+      </c>
+      <c r="E190" t="s">
         <v>901</v>
       </c>
-      <c r="B190" t="s">
-        <v>902</v>
-      </c>
-      <c r="C190" t="s">
-        <v>903</v>
-      </c>
-      <c r="D190" t="s">
-        <v>904</v>
-      </c>
-      <c r="E190" t="s">
-        <v>905</v>
-      </c>
       <c r="F190" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="H190">
         <f t="shared" si="15"/>
@@ -10478,22 +10481,22 @@
     </row>
     <row r="191" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="B191" t="s">
-        <v>906</v>
+        <v>902</v>
       </c>
       <c r="C191" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="D191" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
       <c r="E191" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
       <c r="F191" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="H191">
         <f t="shared" si="15"/>
@@ -10510,22 +10513,22 @@
     </row>
     <row r="192" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
+        <v>751</v>
+      </c>
+      <c r="B192" t="s">
+        <v>752</v>
+      </c>
+      <c r="C192" t="s">
+        <v>753</v>
+      </c>
+      <c r="D192" t="s">
+        <v>754</v>
+      </c>
+      <c r="E192" t="s">
         <v>755</v>
       </c>
-      <c r="B192" t="s">
-        <v>756</v>
-      </c>
-      <c r="C192" t="s">
-        <v>757</v>
-      </c>
-      <c r="D192" t="s">
-        <v>758</v>
-      </c>
-      <c r="E192" t="s">
-        <v>759</v>
-      </c>
       <c r="F192" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="H192">
         <f t="shared" si="15"/>
@@ -10542,22 +10545,22 @@
     </row>
     <row r="193" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
+        <v>905</v>
+      </c>
+      <c r="B193" t="s">
+        <v>906</v>
+      </c>
+      <c r="C193" t="s">
+        <v>907</v>
+      </c>
+      <c r="D193" t="s">
+        <v>908</v>
+      </c>
+      <c r="E193" t="s">
         <v>909</v>
       </c>
-      <c r="B193" t="s">
-        <v>910</v>
-      </c>
-      <c r="C193" t="s">
-        <v>911</v>
-      </c>
-      <c r="D193" t="s">
-        <v>912</v>
-      </c>
-      <c r="E193" t="s">
-        <v>913</v>
-      </c>
       <c r="F193" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="H193">
         <f t="shared" si="15"/>
@@ -10574,22 +10577,22 @@
     </row>
     <row r="194" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
+        <v>910</v>
+      </c>
+      <c r="B194" t="s">
+        <v>911</v>
+      </c>
+      <c r="C194" t="s">
+        <v>912</v>
+      </c>
+      <c r="D194" t="s">
+        <v>913</v>
+      </c>
+      <c r="E194" t="s">
         <v>914</v>
       </c>
-      <c r="B194" t="s">
-        <v>915</v>
-      </c>
-      <c r="C194" t="s">
-        <v>916</v>
-      </c>
-      <c r="D194" t="s">
-        <v>917</v>
-      </c>
-      <c r="E194" t="s">
-        <v>918</v>
-      </c>
       <c r="F194" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="H194">
         <f t="shared" si="15"/>
@@ -10606,22 +10609,22 @@
     </row>
     <row r="195" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>919</v>
+        <v>915</v>
       </c>
       <c r="B195" t="s">
-        <v>905</v>
+        <v>901</v>
       </c>
       <c r="C195" t="s">
-        <v>920</v>
+        <v>916</v>
       </c>
       <c r="D195" t="s">
-        <v>921</v>
+        <v>917</v>
       </c>
       <c r="E195" t="s">
-        <v>922</v>
+        <v>918</v>
       </c>
       <c r="F195" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="H195">
         <f t="shared" si="15"/>
@@ -10638,22 +10641,22 @@
     </row>
     <row r="196" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
+        <v>919</v>
+      </c>
+      <c r="B196" t="s">
+        <v>920</v>
+      </c>
+      <c r="C196" t="s">
+        <v>921</v>
+      </c>
+      <c r="D196" t="s">
+        <v>922</v>
+      </c>
+      <c r="E196" t="s">
         <v>923</v>
       </c>
-      <c r="B196" t="s">
-        <v>924</v>
-      </c>
-      <c r="C196" t="s">
-        <v>925</v>
-      </c>
-      <c r="D196" t="s">
-        <v>926</v>
-      </c>
-      <c r="E196" t="s">
-        <v>927</v>
-      </c>
       <c r="F196" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="H196">
         <f t="shared" si="15"/>
@@ -10670,22 +10673,22 @@
     </row>
     <row r="197" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
+        <v>924</v>
+      </c>
+      <c r="B197" t="s">
+        <v>925</v>
+      </c>
+      <c r="C197" t="s">
+        <v>926</v>
+      </c>
+      <c r="D197" t="s">
+        <v>927</v>
+      </c>
+      <c r="E197" t="s">
         <v>928</v>
       </c>
-      <c r="B197" t="s">
-        <v>929</v>
-      </c>
-      <c r="C197" t="s">
-        <v>930</v>
-      </c>
-      <c r="D197" t="s">
-        <v>931</v>
-      </c>
-      <c r="E197" t="s">
-        <v>932</v>
-      </c>
       <c r="F197" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="H197">
         <f t="shared" si="15"/>
@@ -10702,22 +10705,22 @@
     </row>
     <row r="198" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>879</v>
+        <v>875</v>
       </c>
       <c r="B198" t="s">
-        <v>933</v>
+        <v>929</v>
       </c>
       <c r="C198" t="s">
-        <v>934</v>
+        <v>930</v>
       </c>
       <c r="D198" t="s">
-        <v>935</v>
+        <v>931</v>
       </c>
       <c r="E198" t="s">
-        <v>936</v>
+        <v>932</v>
       </c>
       <c r="F198" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="H198">
         <f t="shared" si="15"/>
@@ -10734,22 +10737,22 @@
     </row>
     <row r="199" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>822</v>
+        <v>818</v>
       </c>
       <c r="B199" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="C199" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="D199" t="s">
-        <v>937</v>
+        <v>933</v>
       </c>
       <c r="E199" t="s">
-        <v>938</v>
+        <v>934</v>
       </c>
       <c r="F199" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="H199">
         <f t="shared" si="15"/>
@@ -10766,22 +10769,22 @@
     </row>
     <row r="200" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
+        <v>935</v>
+      </c>
+      <c r="B200" t="s">
+        <v>936</v>
+      </c>
+      <c r="C200" t="s">
+        <v>937</v>
+      </c>
+      <c r="D200" t="s">
+        <v>938</v>
+      </c>
+      <c r="E200" t="s">
         <v>939</v>
       </c>
-      <c r="B200" t="s">
-        <v>940</v>
-      </c>
-      <c r="C200" t="s">
-        <v>941</v>
-      </c>
-      <c r="D200" t="s">
-        <v>942</v>
-      </c>
-      <c r="E200" t="s">
-        <v>943</v>
-      </c>
       <c r="F200" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="H200">
         <f t="shared" si="15"/>
@@ -10798,22 +10801,22 @@
     </row>
     <row r="201" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
+        <v>940</v>
+      </c>
+      <c r="B201" t="s">
+        <v>941</v>
+      </c>
+      <c r="C201" t="s">
+        <v>942</v>
+      </c>
+      <c r="D201" t="s">
+        <v>943</v>
+      </c>
+      <c r="E201" t="s">
         <v>944</v>
       </c>
-      <c r="B201" t="s">
-        <v>945</v>
-      </c>
-      <c r="C201" t="s">
-        <v>946</v>
-      </c>
-      <c r="D201" t="s">
-        <v>947</v>
-      </c>
-      <c r="E201" t="s">
-        <v>948</v>
-      </c>
       <c r="F201" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="H201">
         <f t="shared" si="15"/>
@@ -10830,22 +10833,22 @@
     </row>
     <row r="202" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
+        <v>945</v>
+      </c>
+      <c r="B202" t="s">
+        <v>946</v>
+      </c>
+      <c r="C202" t="s">
+        <v>947</v>
+      </c>
+      <c r="D202" t="s">
+        <v>948</v>
+      </c>
+      <c r="E202" t="s">
         <v>949</v>
       </c>
-      <c r="B202" t="s">
-        <v>950</v>
-      </c>
-      <c r="C202" t="s">
-        <v>951</v>
-      </c>
-      <c r="D202" t="s">
-        <v>952</v>
-      </c>
-      <c r="E202" t="s">
-        <v>953</v>
-      </c>
       <c r="F202" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="H202">
         <f t="shared" si="15"/>
@@ -10865,19 +10868,19 @@
         <v>371</v>
       </c>
       <c r="B203" t="s">
-        <v>954</v>
+        <v>950</v>
       </c>
       <c r="C203" t="s">
-        <v>955</v>
+        <v>951</v>
       </c>
       <c r="D203" t="s">
-        <v>956</v>
+        <v>952</v>
       </c>
       <c r="E203" t="s">
-        <v>957</v>
+        <v>953</v>
       </c>
       <c r="F203" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="H203">
         <f t="shared" si="15"/>
@@ -10894,22 +10897,22 @@
     </row>
     <row r="204" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
+        <v>954</v>
+      </c>
+      <c r="B204" t="s">
+        <v>955</v>
+      </c>
+      <c r="C204" t="s">
+        <v>956</v>
+      </c>
+      <c r="D204" t="s">
+        <v>957</v>
+      </c>
+      <c r="E204" t="s">
         <v>958</v>
       </c>
-      <c r="B204" t="s">
-        <v>959</v>
-      </c>
-      <c r="C204" t="s">
-        <v>960</v>
-      </c>
-      <c r="D204" t="s">
-        <v>961</v>
-      </c>
-      <c r="E204" t="s">
-        <v>962</v>
-      </c>
       <c r="F204" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="H204">
         <f t="shared" si="15"/>
@@ -10926,22 +10929,22 @@
     </row>
     <row r="205" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
+        <v>959</v>
+      </c>
+      <c r="B205" t="s">
+        <v>960</v>
+      </c>
+      <c r="C205" t="s">
+        <v>961</v>
+      </c>
+      <c r="D205" t="s">
+        <v>962</v>
+      </c>
+      <c r="E205" t="s">
         <v>963</v>
       </c>
-      <c r="B205" t="s">
-        <v>964</v>
-      </c>
-      <c r="C205" t="s">
-        <v>965</v>
-      </c>
-      <c r="D205" t="s">
-        <v>966</v>
-      </c>
-      <c r="E205" t="s">
-        <v>967</v>
-      </c>
       <c r="F205" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="H205">
         <f t="shared" si="15"/>
@@ -10958,22 +10961,22 @@
     </row>
     <row r="206" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>968</v>
+        <v>964</v>
       </c>
       <c r="B206" t="s">
-        <v>925</v>
+        <v>921</v>
       </c>
       <c r="C206" t="s">
-        <v>969</v>
+        <v>965</v>
       </c>
       <c r="D206" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
       <c r="E206" t="s">
-        <v>971</v>
+        <v>967</v>
       </c>
       <c r="F206" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="H206">
         <f t="shared" si="15"/>
@@ -10990,22 +10993,22 @@
     </row>
     <row r="207" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>972</v>
+        <v>968</v>
       </c>
       <c r="B207" t="s">
-        <v>973</v>
+        <v>969</v>
       </c>
       <c r="C207" t="s">
         <v>392</v>
       </c>
       <c r="D207" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
       <c r="E207" t="s">
-        <v>975</v>
+        <v>971</v>
       </c>
       <c r="F207" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="H207">
         <f t="shared" si="15"/>
@@ -11022,22 +11025,22 @@
     </row>
     <row r="208" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
+        <v>972</v>
+      </c>
+      <c r="B208" t="s">
+        <v>973</v>
+      </c>
+      <c r="C208" t="s">
+        <v>974</v>
+      </c>
+      <c r="D208" t="s">
+        <v>975</v>
+      </c>
+      <c r="E208" t="s">
         <v>976</v>
       </c>
-      <c r="B208" t="s">
-        <v>977</v>
-      </c>
-      <c r="C208" t="s">
-        <v>978</v>
-      </c>
-      <c r="D208" t="s">
-        <v>979</v>
-      </c>
-      <c r="E208" t="s">
-        <v>980</v>
-      </c>
       <c r="F208" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="H208">
         <f t="shared" si="15"/>
@@ -11054,22 +11057,22 @@
     </row>
     <row r="209" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="B209" t="s">
-        <v>981</v>
+        <v>977</v>
       </c>
       <c r="C209" t="s">
-        <v>982</v>
+        <v>978</v>
       </c>
       <c r="D209" t="s">
-        <v>983</v>
+        <v>979</v>
       </c>
       <c r="E209" t="s">
-        <v>984</v>
+        <v>980</v>
       </c>
       <c r="F209" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="H209">
         <f t="shared" si="15"/>
@@ -11086,22 +11089,22 @@
     </row>
     <row r="210" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
-        <v>985</v>
+        <v>981</v>
       </c>
       <c r="B210" t="s">
-        <v>986</v>
+        <v>982</v>
       </c>
       <c r="C210" t="s">
-        <v>987</v>
+        <v>983</v>
       </c>
       <c r="D210" t="s">
-        <v>797</v>
+        <v>793</v>
       </c>
       <c r="E210" t="s">
-        <v>988</v>
+        <v>984</v>
       </c>
       <c r="F210" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="H210">
         <f t="shared" si="15"/>
@@ -11118,22 +11121,22 @@
     </row>
     <row r="211" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>989</v>
+        <v>985</v>
       </c>
       <c r="B211" t="s">
-        <v>990</v>
+        <v>986</v>
       </c>
       <c r="C211" t="s">
-        <v>991</v>
+        <v>987</v>
       </c>
       <c r="D211" t="s">
         <v>456</v>
       </c>
       <c r="E211" t="s">
-        <v>992</v>
+        <v>988</v>
       </c>
       <c r="F211" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="H211">
         <f t="shared" si="15"/>
@@ -11150,22 +11153,22 @@
     </row>
     <row r="212" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>993</v>
+        <v>989</v>
       </c>
       <c r="B212" t="s">
         <v>78</v>
       </c>
       <c r="C212" t="s">
-        <v>994</v>
+        <v>990</v>
       </c>
       <c r="D212" t="s">
-        <v>995</v>
+        <v>991</v>
       </c>
       <c r="E212" t="s">
-        <v>996</v>
+        <v>992</v>
       </c>
       <c r="F212" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="H212">
         <f t="shared" si="15"/>
@@ -11182,22 +11185,22 @@
     </row>
     <row r="213" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
+        <v>993</v>
+      </c>
+      <c r="B213" t="s">
+        <v>994</v>
+      </c>
+      <c r="C213" t="s">
+        <v>995</v>
+      </c>
+      <c r="D213" t="s">
+        <v>996</v>
+      </c>
+      <c r="E213" t="s">
         <v>997</v>
       </c>
-      <c r="B213" t="s">
-        <v>998</v>
-      </c>
-      <c r="C213" t="s">
-        <v>999</v>
-      </c>
-      <c r="D213" t="s">
-        <v>1000</v>
-      </c>
-      <c r="E213" t="s">
-        <v>1001</v>
-      </c>
       <c r="F213" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="H213">
         <f t="shared" si="15"/>
@@ -11214,22 +11217,22 @@
     </row>
     <row r="214" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
+        <v>998</v>
+      </c>
+      <c r="B214" t="s">
+        <v>999</v>
+      </c>
+      <c r="C214" t="s">
+        <v>1000</v>
+      </c>
+      <c r="D214" t="s">
+        <v>1001</v>
+      </c>
+      <c r="E214" t="s">
         <v>1002</v>
       </c>
-      <c r="B214" t="s">
-        <v>1003</v>
-      </c>
-      <c r="C214" t="s">
-        <v>1004</v>
-      </c>
-      <c r="D214" t="s">
-        <v>1005</v>
-      </c>
-      <c r="E214" t="s">
-        <v>1006</v>
-      </c>
       <c r="F214" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="H214">
         <f t="shared" si="15"/>
@@ -11246,22 +11249,22 @@
     </row>
     <row r="215" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="B215" t="s">
-        <v>1007</v>
+        <v>1003</v>
       </c>
       <c r="C215" t="s">
-        <v>1008</v>
+        <v>1004</v>
       </c>
       <c r="D215" t="s">
-        <v>1009</v>
+        <v>1005</v>
       </c>
       <c r="E215" t="s">
-        <v>1010</v>
+        <v>1006</v>
       </c>
       <c r="F215" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="H215">
         <f t="shared" si="15"/>
@@ -11278,22 +11281,22 @@
     </row>
     <row r="216" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
+        <v>1007</v>
+      </c>
+      <c r="B216" t="s">
+        <v>1008</v>
+      </c>
+      <c r="C216" t="s">
+        <v>1009</v>
+      </c>
+      <c r="D216" t="s">
+        <v>1010</v>
+      </c>
+      <c r="E216" t="s">
         <v>1011</v>
       </c>
-      <c r="B216" t="s">
-        <v>1012</v>
-      </c>
-      <c r="C216" t="s">
-        <v>1013</v>
-      </c>
-      <c r="D216" t="s">
-        <v>1014</v>
-      </c>
-      <c r="E216" t="s">
-        <v>1015</v>
-      </c>
       <c r="F216" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="H216">
         <f t="shared" si="15"/>
@@ -11310,22 +11313,22 @@
     </row>
     <row r="217" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>1016</v>
+        <v>1012</v>
       </c>
       <c r="B217" t="s">
-        <v>1017</v>
+        <v>1013</v>
       </c>
       <c r="C217" t="s">
-        <v>956</v>
+        <v>952</v>
       </c>
       <c r="D217" t="s">
-        <v>1018</v>
+        <v>1014</v>
       </c>
       <c r="E217" t="s">
-        <v>1019</v>
+        <v>1015</v>
       </c>
       <c r="F217" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="H217">
         <f t="shared" si="15"/>
@@ -11342,22 +11345,22 @@
     </row>
     <row r="218" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="B218" t="s">
-        <v>1020</v>
+        <v>1016</v>
       </c>
       <c r="C218" t="s">
-        <v>1021</v>
+        <v>1017</v>
       </c>
       <c r="D218" t="s">
-        <v>1022</v>
+        <v>1018</v>
       </c>
       <c r="E218" t="s">
-        <v>1023</v>
+        <v>1019</v>
       </c>
       <c r="F218" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="H218">
         <f t="shared" si="15"/>
@@ -11377,19 +11380,19 @@
         <v>64</v>
       </c>
       <c r="B219" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="C219" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="D219" t="s">
-        <v>1025</v>
+        <v>1021</v>
       </c>
       <c r="E219" t="s">
-        <v>1026</v>
+        <v>1022</v>
       </c>
       <c r="F219" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="H219">
         <f t="shared" si="15"/>
@@ -11406,22 +11409,22 @@
     </row>
     <row r="220" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
+        <v>1026</v>
+      </c>
+      <c r="B220" t="s">
+        <v>1027</v>
+      </c>
+      <c r="C220" t="s">
+        <v>1028</v>
+      </c>
+      <c r="D220" t="s">
+        <v>1029</v>
+      </c>
+      <c r="E220" t="s">
         <v>1030</v>
       </c>
-      <c r="B220" t="s">
-        <v>1031</v>
-      </c>
-      <c r="C220" t="s">
-        <v>1032</v>
-      </c>
-      <c r="D220" t="s">
-        <v>1033</v>
-      </c>
-      <c r="E220" t="s">
-        <v>1034</v>
-      </c>
       <c r="F220" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="H220">
         <f t="shared" si="15"/>
@@ -11438,22 +11441,22 @@
     </row>
     <row r="221" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B221" t="s">
+        <v>1032</v>
+      </c>
+      <c r="C221" t="s">
+        <v>1033</v>
+      </c>
+      <c r="D221" t="s">
+        <v>1034</v>
+      </c>
+      <c r="E221" t="s">
         <v>1035</v>
       </c>
-      <c r="B221" t="s">
-        <v>1036</v>
-      </c>
-      <c r="C221" t="s">
-        <v>1037</v>
-      </c>
-      <c r="D221" t="s">
-        <v>1038</v>
-      </c>
-      <c r="E221" t="s">
-        <v>1039</v>
-      </c>
       <c r="F221" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="H221">
         <f t="shared" si="15"/>
@@ -11473,19 +11476,19 @@
         <v>14</v>
       </c>
       <c r="B222" t="s">
-        <v>1040</v>
+        <v>1036</v>
       </c>
       <c r="C222" t="s">
-        <v>1041</v>
+        <v>1037</v>
       </c>
       <c r="D222" t="s">
-        <v>1042</v>
+        <v>1038</v>
       </c>
       <c r="E222" t="s">
-        <v>818</v>
+        <v>814</v>
       </c>
       <c r="F222" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="H222">
         <f t="shared" si="15"/>

--- a/code/shabdakala/resource/sbwords.xlsx
+++ b/code/shabdakala/resource/sbwords.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hrishinene/shabdak_github/sbbd/shabdakala/code/shabdakala/resource/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E61C43C-072A-4245-A288-61F46AAE511D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{619C52C7-88D2-EC41-9FAA-7CD2A3FC7DEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{9F74AEE5-EB85-4044-AC84-8761A591B5C1}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1425" uniqueCount="1046">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1425" uniqueCount="1045">
   <si>
     <t>word0</t>
   </si>
@@ -1463,24 +1463,12 @@
     <t>फुले</t>
   </si>
   <si>
-    <t>लागु</t>
-  </si>
-  <si>
     <t>जुन्या मराठी चित्रपटातल्या अभिनेत्यांची आडनावे</t>
   </si>
   <si>
-    <t>स्क्रीन</t>
-  </si>
-  <si>
     <t>खिडकी</t>
   </si>
   <si>
-    <t>भिंगं</t>
-  </si>
-  <si>
-    <t>बाटली</t>
-  </si>
-  <si>
     <t>काचेच्या वस्तु</t>
   </si>
   <si>
@@ -1502,15 +1490,9 @@
     <t>तिरंगा</t>
   </si>
   <si>
-    <t>फडकणे</t>
-  </si>
-  <si>
     <t>स्तंभ</t>
   </si>
   <si>
-    <t>वंदना</t>
-  </si>
-  <si>
     <t>झेंड्या बाबत</t>
   </si>
   <si>
@@ -3171,6 +3153,21 @@
   </si>
   <si>
     <t>अडीच</t>
+  </si>
+  <si>
+    <t>लागू</t>
+  </si>
+  <si>
+    <t>दौत</t>
+  </si>
+  <si>
+    <t>पेला</t>
+  </si>
+  <si>
+    <t>फडकवणे</t>
+  </si>
+  <si>
+    <t>मानवंदना</t>
   </si>
 </sst>
 </file>
@@ -4097,8 +4094,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEA1707B-2FB7-B84C-9F84-E9F074F3056C}">
   <dimension ref="A1:L222"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="108" zoomScaleNormal="108" workbookViewId="0">
-      <selection activeCell="E87" sqref="E87"/>
+    <sheetView tabSelected="1" topLeftCell="A72" zoomScale="108" zoomScaleNormal="108" workbookViewId="0">
+      <selection activeCell="A93" sqref="A93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4186,7 +4183,7 @@
       </c>
       <c r="L2" s="6">
         <f ca="1">TODAY()</f>
-        <v>45651</v>
+        <v>45652</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -4981,7 +4978,7 @@
         <v>370</v>
       </c>
       <c r="F25" t="s">
-        <v>634</v>
+        <v>628</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>185</v>
@@ -5086,7 +5083,7 @@
         <v>426</v>
       </c>
       <c r="F28" t="s">
-        <v>634</v>
+        <v>628</v>
       </c>
       <c r="G28" s="1" t="s">
         <v>432</v>
@@ -5211,22 +5208,22 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="B32" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="C32" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
       <c r="D32" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="E32" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
       <c r="F32" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
       <c r="H32">
         <f t="shared" si="7"/>
@@ -5243,22 +5240,22 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
       <c r="B33" t="s">
         <v>371</v>
       </c>
       <c r="C33" t="s">
-        <v>628</v>
+        <v>622</v>
       </c>
       <c r="D33" t="s">
         <v>228</v>
       </c>
       <c r="E33" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
       <c r="F33" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
       <c r="H33">
         <f t="shared" si="7"/>
@@ -5275,22 +5272,22 @@
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="B34" t="s">
-        <v>629</v>
+        <v>623</v>
       </c>
       <c r="C34" t="s">
-        <v>615</v>
+        <v>609</v>
       </c>
       <c r="D34" t="s">
         <v>48</v>
       </c>
       <c r="E34" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="F34" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
       <c r="H34">
         <f t="shared" si="7"/>
@@ -5354,7 +5351,7 @@
         <v>33</v>
       </c>
       <c r="E36" t="s">
-        <v>630</v>
+        <v>624</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>339</v>
@@ -5389,7 +5386,7 @@
         <v>111</v>
       </c>
       <c r="E37" t="s">
-        <v>631</v>
+        <v>625</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>85</v>
@@ -5412,22 +5409,22 @@
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>632</v>
+        <v>626</v>
       </c>
       <c r="B38" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="C38" t="s">
-        <v>635</v>
+        <v>629</v>
       </c>
       <c r="D38" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="E38" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="F38" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
       <c r="H38">
         <f t="shared" si="7"/>
@@ -5444,22 +5441,22 @@
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="B39" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="C39" t="s">
         <v>7</v>
       </c>
       <c r="D39" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="E39" t="s">
-        <v>625</v>
+        <v>619</v>
       </c>
       <c r="F39" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
       <c r="H39">
         <f t="shared" si="7"/>
@@ -5546,22 +5543,22 @@
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>576</v>
+        <v>570</v>
       </c>
       <c r="B42" t="s">
-        <v>577</v>
+        <v>571</v>
       </c>
       <c r="C42" t="s">
-        <v>633</v>
+        <v>627</v>
       </c>
       <c r="D42" t="s">
-        <v>578</v>
+        <v>572</v>
       </c>
       <c r="E42" t="s">
-        <v>579</v>
+        <v>573</v>
       </c>
       <c r="F42" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
       <c r="H42">
         <f t="shared" si="7"/>
@@ -5578,22 +5575,22 @@
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>588</v>
+        <v>582</v>
       </c>
       <c r="B43" t="s">
-        <v>589</v>
+        <v>583</v>
       </c>
       <c r="C43" t="s">
-        <v>590</v>
+        <v>584</v>
       </c>
       <c r="D43" t="s">
-        <v>591</v>
+        <v>585</v>
       </c>
       <c r="E43" t="s">
-        <v>592</v>
+        <v>586</v>
       </c>
       <c r="F43" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
       <c r="H43">
         <f t="shared" si="7"/>
@@ -5625,7 +5622,7 @@
         <v>378</v>
       </c>
       <c r="F44" t="s">
-        <v>634</v>
+        <v>628</v>
       </c>
       <c r="G44" s="1" t="s">
         <v>275</v>
@@ -5680,22 +5677,22 @@
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="B46" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="C46" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
       <c r="D46" t="s">
-        <v>636</v>
+        <v>630</v>
       </c>
       <c r="E46" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="F46" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
       <c r="H46">
         <f t="shared" si="7"/>
@@ -5715,19 +5712,19 @@
         <v>228</v>
       </c>
       <c r="B47" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="C47" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="D47" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="E47" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="F47" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
       <c r="H47">
         <f t="shared" si="7"/>
@@ -5744,22 +5741,22 @@
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="B48" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
       <c r="C48" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
       <c r="D48" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="E48" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="F48" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
       <c r="H48">
         <f t="shared" si="7"/>
@@ -5826,7 +5823,7 @@
         <v>416</v>
       </c>
       <c r="F50" t="s">
-        <v>634</v>
+        <v>628</v>
       </c>
       <c r="G50" s="1" t="s">
         <v>275</v>
@@ -5852,7 +5849,7 @@
         <v>120</v>
       </c>
       <c r="C51" t="s">
-        <v>637</v>
+        <v>631</v>
       </c>
       <c r="D51" t="s">
         <v>121</v>
@@ -5881,7 +5878,7 @@
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>638</v>
+        <v>632</v>
       </c>
       <c r="B52" t="s">
         <v>36</v>
@@ -5954,7 +5951,7 @@
         <v>212</v>
       </c>
       <c r="B54" t="s">
-        <v>639</v>
+        <v>633</v>
       </c>
       <c r="C54" t="s">
         <v>213</v>
@@ -6001,7 +5998,7 @@
         <v>433</v>
       </c>
       <c r="F55" t="s">
-        <v>634</v>
+        <v>628</v>
       </c>
       <c r="G55" s="1" t="s">
         <v>275</v>
@@ -6024,19 +6021,19 @@
         <v>233</v>
       </c>
       <c r="B56" t="s">
-        <v>652</v>
+        <v>646</v>
       </c>
       <c r="C56" t="s">
-        <v>619</v>
+        <v>613</v>
       </c>
       <c r="D56" t="s">
-        <v>620</v>
+        <v>614</v>
       </c>
       <c r="E56" t="s">
-        <v>653</v>
+        <v>647</v>
       </c>
       <c r="F56" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
       <c r="H56">
         <f t="shared" si="7"/>
@@ -6059,7 +6056,7 @@
         <v>232</v>
       </c>
       <c r="C57" t="s">
-        <v>651</v>
+        <v>645</v>
       </c>
       <c r="D57" t="s">
         <v>234</v>
@@ -6088,19 +6085,19 @@
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>645</v>
+        <v>639</v>
       </c>
       <c r="B58" t="s">
-        <v>646</v>
+        <v>640</v>
       </c>
       <c r="C58" t="s">
-        <v>647</v>
+        <v>641</v>
       </c>
       <c r="D58" t="s">
-        <v>648</v>
+        <v>642</v>
       </c>
       <c r="E58" t="s">
-        <v>649</v>
+        <v>643</v>
       </c>
       <c r="F58" t="s">
         <v>444</v>
@@ -6132,10 +6129,10 @@
         <v>467</v>
       </c>
       <c r="E59" t="s">
-        <v>654</v>
+        <v>648</v>
       </c>
       <c r="F59" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
       <c r="H59">
         <f t="shared" si="7"/>
@@ -6152,22 +6149,22 @@
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c r="B60" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="C60" t="s">
         <v>468</v>
       </c>
       <c r="D60" t="s">
-        <v>657</v>
+        <v>651</v>
       </c>
       <c r="E60" t="s">
-        <v>658</v>
+        <v>652</v>
       </c>
       <c r="F60" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
       <c r="H60">
         <f t="shared" ref="H60:H123" si="9">INT(J60/3)</f>
@@ -6184,7 +6181,7 @@
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>659</v>
+        <v>653</v>
       </c>
       <c r="B61" t="s">
         <v>469</v>
@@ -6199,7 +6196,7 @@
         <v>472</v>
       </c>
       <c r="F61" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
       <c r="H61">
         <f t="shared" si="9"/>
@@ -6216,22 +6213,22 @@
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>1023</v>
+        <v>1017</v>
       </c>
       <c r="B62" t="s">
-        <v>1024</v>
+        <v>1018</v>
       </c>
       <c r="C62" t="s">
-        <v>856</v>
+        <v>850</v>
       </c>
       <c r="D62" t="s">
-        <v>1025</v>
+        <v>1019</v>
       </c>
       <c r="E62" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="F62" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
       <c r="H62">
         <f t="shared" si="9"/>
@@ -6248,19 +6245,19 @@
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>643</v>
+        <v>637</v>
       </c>
       <c r="B63" t="s">
-        <v>640</v>
+        <v>634</v>
       </c>
       <c r="C63" t="s">
-        <v>641</v>
+        <v>635</v>
       </c>
       <c r="D63" t="s">
-        <v>642</v>
+        <v>636</v>
       </c>
       <c r="E63" t="s">
-        <v>644</v>
+        <v>638</v>
       </c>
       <c r="F63" s="1" t="s">
         <v>444</v>
@@ -6296,7 +6293,7 @@
         <v>375</v>
       </c>
       <c r="F64" t="s">
-        <v>634</v>
+        <v>628</v>
       </c>
       <c r="G64" s="1" t="s">
         <v>275</v>
@@ -6436,7 +6433,7 @@
         <v>421</v>
       </c>
       <c r="F68" t="s">
-        <v>634</v>
+        <v>628</v>
       </c>
       <c r="G68" s="1" t="s">
         <v>275</v>
@@ -6471,7 +6468,7 @@
         <v>408</v>
       </c>
       <c r="F69" t="s">
-        <v>634</v>
+        <v>628</v>
       </c>
       <c r="G69" s="1" t="s">
         <v>431</v>
@@ -6503,10 +6500,10 @@
         <v>461</v>
       </c>
       <c r="E70" t="s">
-        <v>1039</v>
+        <v>1033</v>
       </c>
       <c r="F70" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
       <c r="H70">
         <f t="shared" si="9"/>
@@ -6561,19 +6558,19 @@
         <v>213</v>
       </c>
       <c r="B72" t="s">
-        <v>580</v>
+        <v>574</v>
       </c>
       <c r="C72" t="s">
-        <v>581</v>
+        <v>575</v>
       </c>
       <c r="D72" t="s">
-        <v>582</v>
+        <v>576</v>
       </c>
       <c r="E72" t="s">
-        <v>614</v>
+        <v>608</v>
       </c>
       <c r="F72" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
       <c r="H72">
         <f t="shared" si="9"/>
@@ -6590,22 +6587,22 @@
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>583</v>
+        <v>577</v>
       </c>
       <c r="B73" t="s">
-        <v>584</v>
+        <v>578</v>
       </c>
       <c r="C73" t="s">
-        <v>585</v>
+        <v>579</v>
       </c>
       <c r="D73" t="s">
-        <v>586</v>
+        <v>580</v>
       </c>
       <c r="E73" t="s">
-        <v>587</v>
+        <v>581</v>
       </c>
       <c r="F73" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
       <c r="H73">
         <f t="shared" si="9"/>
@@ -6622,22 +6619,22 @@
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>839</v>
+        <v>833</v>
       </c>
       <c r="B74" t="s">
-        <v>840</v>
+        <v>834</v>
       </c>
       <c r="C74" t="s">
-        <v>841</v>
+        <v>835</v>
       </c>
       <c r="D74" t="s">
-        <v>842</v>
+        <v>836</v>
       </c>
       <c r="E74" t="s">
-        <v>843</v>
+        <v>837</v>
       </c>
       <c r="F74" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
       <c r="H74">
         <f t="shared" si="9"/>
@@ -6669,7 +6666,7 @@
         <v>427</v>
       </c>
       <c r="F75" t="s">
-        <v>634</v>
+        <v>628</v>
       </c>
       <c r="G75" s="1" t="s">
         <v>275</v>
@@ -6794,22 +6791,22 @@
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="B79" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="C79" t="s">
-        <v>621</v>
+        <v>615</v>
       </c>
       <c r="D79" t="s">
-        <v>622</v>
+        <v>616</v>
       </c>
       <c r="E79" t="s">
-        <v>623</v>
+        <v>617</v>
       </c>
       <c r="F79" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
       <c r="H79">
         <f t="shared" si="9"/>
@@ -6826,22 +6823,22 @@
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="B80" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="C80" t="s">
         <v>302</v>
       </c>
       <c r="D80" t="s">
-        <v>624</v>
+        <v>618</v>
       </c>
       <c r="E80" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="F80" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
       <c r="H80">
         <f t="shared" si="9"/>
@@ -6896,13 +6893,13 @@
         <v>48</v>
       </c>
       <c r="B82" t="s">
-        <v>794</v>
+        <v>788</v>
       </c>
       <c r="C82" t="s">
         <v>282</v>
       </c>
       <c r="D82" t="s">
-        <v>1040</v>
+        <v>1034</v>
       </c>
       <c r="E82" t="s">
         <v>316</v>
@@ -6934,7 +6931,7 @@
         <v>457</v>
       </c>
       <c r="C83" t="s">
-        <v>1042</v>
+        <v>1036</v>
       </c>
       <c r="D83" t="s">
         <v>458</v>
@@ -6943,7 +6940,7 @@
         <v>459</v>
       </c>
       <c r="F83" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
       <c r="H83">
         <f t="shared" si="9"/>
@@ -6960,22 +6957,22 @@
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>1045</v>
+        <v>1039</v>
       </c>
       <c r="B84" t="s">
-        <v>1044</v>
+        <v>1038</v>
       </c>
       <c r="C84" t="s">
-        <v>1041</v>
+        <v>1035</v>
       </c>
       <c r="D84" t="s">
-        <v>1043</v>
+        <v>1037</v>
       </c>
       <c r="E84" t="s">
-        <v>1039</v>
+        <v>1033</v>
       </c>
       <c r="F84" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
       <c r="H84">
         <f t="shared" si="9"/>
@@ -7007,7 +7004,7 @@
         <v>391</v>
       </c>
       <c r="F85" t="s">
-        <v>634</v>
+        <v>628</v>
       </c>
       <c r="G85" s="1" t="s">
         <v>428</v>
@@ -7071,13 +7068,13 @@
         <v>475</v>
       </c>
       <c r="D87" t="s">
+        <v>1040</v>
+      </c>
+      <c r="E87" t="s">
         <v>476</v>
       </c>
-      <c r="E87" t="s">
-        <v>477</v>
-      </c>
       <c r="F87" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
       <c r="H87">
         <f t="shared" si="9"/>
@@ -7094,22 +7091,22 @@
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
+        <v>1042</v>
+      </c>
+      <c r="B88" t="s">
+        <v>477</v>
+      </c>
+      <c r="C88" t="s">
+        <v>675</v>
+      </c>
+      <c r="D88" t="s">
+        <v>1041</v>
+      </c>
+      <c r="E88" t="s">
         <v>478</v>
       </c>
-      <c r="B88" t="s">
-        <v>479</v>
-      </c>
-      <c r="C88" t="s">
-        <v>480</v>
-      </c>
-      <c r="D88" t="s">
-        <v>481</v>
-      </c>
-      <c r="E88" t="s">
-        <v>482</v>
-      </c>
       <c r="F88" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
       <c r="H88">
         <f t="shared" si="9"/>
@@ -7196,22 +7193,22 @@
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="B91" t="s">
-        <v>489</v>
+        <v>1043</v>
       </c>
       <c r="C91" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="D91" t="s">
-        <v>491</v>
+        <v>1044</v>
       </c>
       <c r="E91" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="F91" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
       <c r="H91">
         <f t="shared" si="9"/>
@@ -7228,22 +7225,22 @@
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="B92" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="C92" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="D92" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="E92" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="F92" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
       <c r="H92">
         <f t="shared" si="9"/>
@@ -7260,22 +7257,22 @@
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="B93" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="C93" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="D93" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="E93" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="F93" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
       <c r="H93">
         <f t="shared" si="9"/>
@@ -7397,22 +7394,22 @@
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="B97" t="s">
-        <v>568</v>
+        <v>562</v>
       </c>
       <c r="C97" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
       <c r="D97" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="E97" t="s">
         <v>162</v>
       </c>
       <c r="F97" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
       <c r="H97">
         <f t="shared" si="9"/>
@@ -7432,19 +7429,19 @@
         <v>162</v>
       </c>
       <c r="B98" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="C98" t="s">
-        <v>569</v>
+        <v>563</v>
       </c>
       <c r="D98" t="s">
-        <v>570</v>
+        <v>564</v>
       </c>
       <c r="E98" t="s">
-        <v>571</v>
+        <v>565</v>
       </c>
       <c r="F98" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
       <c r="H98">
         <f t="shared" si="9"/>
@@ -7461,22 +7458,22 @@
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>572</v>
+        <v>566</v>
       </c>
       <c r="B99" t="s">
-        <v>573</v>
+        <v>567</v>
       </c>
       <c r="C99" t="s">
-        <v>574</v>
+        <v>568</v>
       </c>
       <c r="D99" t="s">
         <v>151</v>
       </c>
       <c r="E99" t="s">
-        <v>575</v>
+        <v>569</v>
       </c>
       <c r="F99" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
       <c r="H99">
         <f t="shared" si="9"/>
@@ -7508,7 +7505,7 @@
         <v>397</v>
       </c>
       <c r="F100" t="s">
-        <v>634</v>
+        <v>628</v>
       </c>
       <c r="G100" s="1" t="s">
         <v>275</v>
@@ -7601,7 +7598,7 @@
         <v>411</v>
       </c>
       <c r="B103" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="C103" t="s">
         <v>410</v>
@@ -7610,10 +7607,10 @@
         <v>412</v>
       </c>
       <c r="E103" t="s">
-        <v>536</v>
+        <v>530</v>
       </c>
       <c r="F103" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
       <c r="H103">
         <f t="shared" si="9"/>
@@ -7630,22 +7627,22 @@
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>537</v>
+        <v>531</v>
       </c>
       <c r="B104" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="C104" t="s">
-        <v>539</v>
+        <v>533</v>
       </c>
       <c r="D104" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="E104" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
       <c r="F104" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
       <c r="H104">
         <f t="shared" si="9"/>
@@ -7668,16 +7665,16 @@
         <v>392</v>
       </c>
       <c r="C105" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
       <c r="D105" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
       <c r="E105" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
       <c r="F105" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
       <c r="H105">
         <f t="shared" si="9"/>
@@ -7694,22 +7691,22 @@
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
       <c r="B106" t="s">
-        <v>546</v>
+        <v>540</v>
       </c>
       <c r="C106" t="s">
-        <v>547</v>
+        <v>541</v>
       </c>
       <c r="D106" t="s">
-        <v>548</v>
+        <v>542</v>
       </c>
       <c r="E106" t="s">
-        <v>549</v>
+        <v>543</v>
       </c>
       <c r="F106" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
       <c r="H106">
         <f t="shared" si="9"/>
@@ -7726,22 +7723,22 @@
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>550</v>
+        <v>544</v>
       </c>
       <c r="B107" t="s">
-        <v>551</v>
+        <v>545</v>
       </c>
       <c r="C107" t="s">
-        <v>552</v>
+        <v>546</v>
       </c>
       <c r="D107" t="s">
-        <v>553</v>
+        <v>547</v>
       </c>
       <c r="E107" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="F107" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
       <c r="H107">
         <f t="shared" si="9"/>
@@ -7898,22 +7895,22 @@
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>603</v>
+        <v>597</v>
       </c>
       <c r="B112" t="s">
-        <v>604</v>
+        <v>598</v>
       </c>
       <c r="C112" t="s">
-        <v>605</v>
+        <v>599</v>
       </c>
       <c r="D112" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="E112" t="s">
+        <v>601</v>
+      </c>
+      <c r="F112" t="s">
         <v>607</v>
-      </c>
-      <c r="F112" t="s">
-        <v>613</v>
       </c>
       <c r="H112">
         <f t="shared" si="9"/>
@@ -7930,22 +7927,22 @@
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="B113" t="s">
         <v>463</v>
       </c>
       <c r="C113" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="D113" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="E113" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
       <c r="F113" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
       <c r="H113">
         <f t="shared" si="9"/>
@@ -7962,22 +7959,22 @@
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>608</v>
+        <v>602</v>
       </c>
       <c r="B114" t="s">
-        <v>609</v>
+        <v>603</v>
       </c>
       <c r="C114" t="s">
-        <v>610</v>
+        <v>604</v>
       </c>
       <c r="D114" t="s">
-        <v>611</v>
+        <v>605</v>
       </c>
       <c r="E114" t="s">
-        <v>612</v>
+        <v>606</v>
       </c>
       <c r="F114" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
       <c r="H114">
         <f t="shared" si="9"/>
@@ -8009,7 +8006,7 @@
         <v>424</v>
       </c>
       <c r="F115" t="s">
-        <v>634</v>
+        <v>628</v>
       </c>
       <c r="G115" s="1" t="s">
         <v>87</v>
@@ -8029,22 +8026,22 @@
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
       <c r="B116" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
       <c r="C116" t="s">
         <v>412</v>
       </c>
       <c r="D116" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
       <c r="E116" t="s">
-        <v>627</v>
+        <v>621</v>
       </c>
       <c r="F116" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
       <c r="H116">
         <f t="shared" si="9"/>
@@ -8061,22 +8058,22 @@
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
       <c r="B117" t="s">
-        <v>559</v>
+        <v>553</v>
       </c>
       <c r="C117" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
       <c r="D117" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="E117" t="s">
-        <v>562</v>
+        <v>556</v>
       </c>
       <c r="F117" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
       <c r="H117">
         <f t="shared" si="9"/>
@@ -8093,22 +8090,22 @@
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>563</v>
+        <v>557</v>
       </c>
       <c r="B118" t="s">
-        <v>564</v>
+        <v>558</v>
       </c>
       <c r="C118" t="s">
-        <v>565</v>
+        <v>559</v>
       </c>
       <c r="D118" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="E118" t="s">
-        <v>626</v>
+        <v>620</v>
       </c>
       <c r="F118" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
       <c r="H118">
         <f t="shared" si="9"/>
@@ -8230,22 +8227,22 @@
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>593</v>
+        <v>587</v>
       </c>
       <c r="B122" t="s">
-        <v>594</v>
+        <v>588</v>
       </c>
       <c r="C122" t="s">
-        <v>595</v>
+        <v>589</v>
       </c>
       <c r="D122" t="s">
-        <v>596</v>
+        <v>590</v>
       </c>
       <c r="E122" t="s">
-        <v>597</v>
+        <v>591</v>
       </c>
       <c r="F122" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
       <c r="H122">
         <f t="shared" si="9"/>
@@ -8297,7 +8294,7 @@
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>634</v>
+        <v>628</v>
       </c>
       <c r="B124" t="s">
         <v>425</v>
@@ -8312,7 +8309,7 @@
         <v>430</v>
       </c>
       <c r="F124" t="s">
-        <v>634</v>
+        <v>628</v>
       </c>
       <c r="G124" s="1" t="s">
         <v>429</v>
@@ -8402,22 +8399,22 @@
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>598</v>
+        <v>592</v>
       </c>
       <c r="B127" t="s">
-        <v>599</v>
+        <v>593</v>
       </c>
       <c r="C127" t="s">
-        <v>600</v>
+        <v>594</v>
       </c>
       <c r="D127" t="s">
-        <v>601</v>
+        <v>595</v>
       </c>
       <c r="E127" t="s">
-        <v>602</v>
+        <v>596</v>
       </c>
       <c r="F127" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
       <c r="H127">
         <f t="shared" si="12"/>
@@ -8749,22 +8746,22 @@
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>616</v>
+        <v>610</v>
       </c>
       <c r="B137" t="s">
         <v>232</v>
       </c>
       <c r="C137" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D137" t="s">
         <v>231</v>
       </c>
       <c r="E137" t="s">
-        <v>618</v>
+        <v>612</v>
       </c>
       <c r="F137" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
       <c r="H137">
         <f t="shared" si="12"/>
@@ -8793,7 +8790,7 @@
         <v>43</v>
       </c>
       <c r="E138" t="s">
-        <v>650</v>
+        <v>644</v>
       </c>
       <c r="F138" s="1" t="s">
         <v>339</v>
@@ -8816,22 +8813,22 @@
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>675</v>
+        <v>669</v>
       </c>
       <c r="B139" t="s">
-        <v>676</v>
+        <v>670</v>
       </c>
       <c r="C139" t="s">
-        <v>677</v>
+        <v>671</v>
       </c>
       <c r="D139" t="s">
-        <v>678</v>
+        <v>672</v>
       </c>
       <c r="E139" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="F139" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
       <c r="G139" s="1"/>
       <c r="H139">
@@ -8849,22 +8846,22 @@
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>660</v>
+        <v>654</v>
       </c>
       <c r="B140" t="s">
-        <v>661</v>
+        <v>655</v>
       </c>
       <c r="C140" t="s">
-        <v>662</v>
+        <v>656</v>
       </c>
       <c r="D140" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
       <c r="E140" t="s">
-        <v>664</v>
+        <v>658</v>
       </c>
       <c r="F140" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
       <c r="H140">
         <f t="shared" si="12"/>
@@ -8881,22 +8878,22 @@
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>665</v>
+        <v>659</v>
       </c>
       <c r="B141" t="s">
-        <v>666</v>
+        <v>660</v>
       </c>
       <c r="C141" t="s">
-        <v>667</v>
+        <v>661</v>
       </c>
       <c r="D141" t="s">
-        <v>668</v>
+        <v>662</v>
       </c>
       <c r="E141" t="s">
-        <v>669</v>
+        <v>663</v>
       </c>
       <c r="F141" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
       <c r="H141">
         <f t="shared" si="12"/>
@@ -8913,22 +8910,22 @@
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>670</v>
+        <v>664</v>
       </c>
       <c r="B142" t="s">
-        <v>671</v>
+        <v>665</v>
       </c>
       <c r="C142" t="s">
-        <v>672</v>
+        <v>666</v>
       </c>
       <c r="D142" t="s">
-        <v>673</v>
+        <v>667</v>
       </c>
       <c r="E142" t="s">
-        <v>674</v>
+        <v>668</v>
       </c>
       <c r="F142" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
       <c r="H142">
         <f t="shared" si="12"/>
@@ -8945,22 +8942,22 @@
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>680</v>
+        <v>674</v>
       </c>
       <c r="B143" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="C143" t="s">
-        <v>682</v>
+        <v>676</v>
       </c>
       <c r="D143" t="s">
-        <v>683</v>
+        <v>677</v>
       </c>
       <c r="E143" t="s">
-        <v>684</v>
+        <v>678</v>
       </c>
       <c r="F143" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
       <c r="H143">
         <f t="shared" si="12"/>
@@ -8977,22 +8974,22 @@
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>685</v>
+        <v>679</v>
       </c>
       <c r="B144" t="s">
         <v>228</v>
       </c>
       <c r="C144" t="s">
-        <v>686</v>
+        <v>680</v>
       </c>
       <c r="D144" t="s">
-        <v>687</v>
+        <v>681</v>
       </c>
       <c r="E144" t="s">
-        <v>688</v>
+        <v>682</v>
       </c>
       <c r="F144" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
       <c r="H144">
         <f t="shared" si="12"/>
@@ -9009,22 +9006,22 @@
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>689</v>
+        <v>683</v>
       </c>
       <c r="B145" t="s">
-        <v>690</v>
+        <v>684</v>
       </c>
       <c r="C145" t="s">
-        <v>691</v>
+        <v>685</v>
       </c>
       <c r="D145" t="s">
-        <v>692</v>
+        <v>686</v>
       </c>
       <c r="E145" t="s">
-        <v>693</v>
+        <v>687</v>
       </c>
       <c r="F145" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
       <c r="H145">
         <f t="shared" si="12"/>
@@ -9041,22 +9038,22 @@
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>694</v>
+        <v>688</v>
       </c>
       <c r="B146" t="s">
-        <v>695</v>
+        <v>689</v>
       </c>
       <c r="C146" t="s">
-        <v>696</v>
+        <v>690</v>
       </c>
       <c r="D146" t="s">
-        <v>697</v>
+        <v>691</v>
       </c>
       <c r="E146" t="s">
-        <v>698</v>
+        <v>692</v>
       </c>
       <c r="F146" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
       <c r="H146">
         <f t="shared" si="12"/>
@@ -9073,22 +9070,22 @@
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>699</v>
+        <v>693</v>
       </c>
       <c r="B147" t="s">
-        <v>633</v>
+        <v>627</v>
       </c>
       <c r="C147" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
       <c r="D147" t="s">
-        <v>701</v>
+        <v>695</v>
       </c>
       <c r="E147" t="s">
-        <v>702</v>
+        <v>696</v>
       </c>
       <c r="F147" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
       <c r="H147">
         <f t="shared" si="12"/>
@@ -9105,22 +9102,22 @@
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>703</v>
+        <v>697</v>
       </c>
       <c r="B148" t="s">
-        <v>704</v>
+        <v>698</v>
       </c>
       <c r="C148" t="s">
-        <v>705</v>
+        <v>699</v>
       </c>
       <c r="D148" t="s">
-        <v>706</v>
+        <v>700</v>
       </c>
       <c r="E148" t="s">
-        <v>707</v>
+        <v>701</v>
       </c>
       <c r="F148" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
       <c r="H148">
         <f t="shared" si="12"/>
@@ -9137,22 +9134,22 @@
     </row>
     <row r="149" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>708</v>
+        <v>702</v>
       </c>
       <c r="B149" t="s">
-        <v>709</v>
+        <v>703</v>
       </c>
       <c r="C149" t="s">
-        <v>710</v>
+        <v>704</v>
       </c>
       <c r="D149" t="s">
-        <v>711</v>
+        <v>705</v>
       </c>
       <c r="E149" t="s">
-        <v>712</v>
+        <v>706</v>
       </c>
       <c r="F149" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
       <c r="H149">
         <f t="shared" si="12"/>
@@ -9169,22 +9166,22 @@
     </row>
     <row r="150" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>713</v>
+        <v>707</v>
       </c>
       <c r="B150" t="s">
-        <v>714</v>
+        <v>708</v>
       </c>
       <c r="C150" t="s">
-        <v>715</v>
+        <v>709</v>
       </c>
       <c r="D150" t="s">
-        <v>716</v>
+        <v>710</v>
       </c>
       <c r="E150" t="s">
-        <v>717</v>
+        <v>711</v>
       </c>
       <c r="F150" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
       <c r="H150">
         <f t="shared" si="12"/>
@@ -9201,22 +9198,22 @@
     </row>
     <row r="151" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>718</v>
+        <v>712</v>
       </c>
       <c r="B151" t="s">
-        <v>719</v>
+        <v>713</v>
       </c>
       <c r="C151" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
       <c r="D151" t="s">
-        <v>721</v>
+        <v>715</v>
       </c>
       <c r="E151" t="s">
-        <v>722</v>
+        <v>716</v>
       </c>
       <c r="F151" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
       <c r="H151">
         <f t="shared" si="12"/>
@@ -9233,22 +9230,22 @@
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>723</v>
+        <v>717</v>
       </c>
       <c r="B152" t="s">
-        <v>724</v>
+        <v>718</v>
       </c>
       <c r="C152" t="s">
-        <v>725</v>
+        <v>719</v>
       </c>
       <c r="D152" t="s">
-        <v>726</v>
+        <v>720</v>
       </c>
       <c r="E152" t="s">
-        <v>727</v>
+        <v>721</v>
       </c>
       <c r="F152" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
       <c r="H152">
         <f t="shared" si="12"/>
@@ -9265,22 +9262,22 @@
     </row>
     <row r="153" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>728</v>
+        <v>722</v>
       </c>
       <c r="B153" t="s">
-        <v>729</v>
+        <v>723</v>
       </c>
       <c r="C153" t="s">
-        <v>730</v>
+        <v>724</v>
       </c>
       <c r="D153" t="s">
-        <v>731</v>
+        <v>725</v>
       </c>
       <c r="E153" t="s">
         <v>246</v>
       </c>
       <c r="F153" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
       <c r="H153">
         <f t="shared" si="12"/>
@@ -9297,22 +9294,22 @@
     </row>
     <row r="154" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>732</v>
+        <v>726</v>
       </c>
       <c r="B154" t="s">
-        <v>733</v>
+        <v>727</v>
       </c>
       <c r="C154" t="s">
-        <v>589</v>
+        <v>583</v>
       </c>
       <c r="D154" t="s">
-        <v>734</v>
+        <v>728</v>
       </c>
       <c r="E154" t="s">
-        <v>735</v>
+        <v>729</v>
       </c>
       <c r="F154" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
       <c r="H154">
         <f t="shared" si="12"/>
@@ -9329,22 +9326,22 @@
     </row>
     <row r="155" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>736</v>
+        <v>730</v>
       </c>
       <c r="B155" t="s">
-        <v>737</v>
+        <v>731</v>
       </c>
       <c r="C155" t="s">
-        <v>738</v>
+        <v>732</v>
       </c>
       <c r="D155" t="s">
-        <v>739</v>
+        <v>733</v>
       </c>
       <c r="E155" t="s">
-        <v>740</v>
+        <v>734</v>
       </c>
       <c r="F155" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
       <c r="H155">
         <f t="shared" si="12"/>
@@ -9361,22 +9358,22 @@
     </row>
     <row r="156" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>741</v>
+        <v>735</v>
       </c>
       <c r="B156" t="s">
-        <v>742</v>
+        <v>736</v>
       </c>
       <c r="C156" t="s">
-        <v>743</v>
+        <v>737</v>
       </c>
       <c r="D156" t="s">
-        <v>744</v>
+        <v>738</v>
       </c>
       <c r="E156" t="s">
-        <v>745</v>
+        <v>739</v>
       </c>
       <c r="F156" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
       <c r="H156">
         <f t="shared" si="12"/>
@@ -9393,22 +9390,22 @@
     </row>
     <row r="157" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>746</v>
+        <v>740</v>
       </c>
       <c r="B157" t="s">
-        <v>747</v>
+        <v>741</v>
       </c>
       <c r="C157" t="s">
-        <v>748</v>
+        <v>742</v>
       </c>
       <c r="D157" t="s">
-        <v>749</v>
+        <v>743</v>
       </c>
       <c r="E157" t="s">
-        <v>750</v>
+        <v>744</v>
       </c>
       <c r="F157" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
       <c r="H157">
         <f t="shared" si="12"/>
@@ -9425,22 +9422,22 @@
     </row>
     <row r="158" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>751</v>
+        <v>745</v>
       </c>
       <c r="B158" t="s">
-        <v>752</v>
+        <v>746</v>
       </c>
       <c r="C158" t="s">
-        <v>753</v>
+        <v>747</v>
       </c>
       <c r="D158" t="s">
-        <v>754</v>
+        <v>748</v>
       </c>
       <c r="E158" t="s">
-        <v>755</v>
+        <v>749</v>
       </c>
       <c r="F158" t="s">
-        <v>634</v>
+        <v>628</v>
       </c>
       <c r="H158">
         <f t="shared" si="12"/>
@@ -9457,22 +9454,22 @@
     </row>
     <row r="159" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>756</v>
+        <v>750</v>
       </c>
       <c r="B159" t="s">
-        <v>757</v>
+        <v>751</v>
       </c>
       <c r="C159" t="s">
-        <v>758</v>
+        <v>752</v>
       </c>
       <c r="D159" t="s">
-        <v>759</v>
+        <v>753</v>
       </c>
       <c r="E159" t="s">
-        <v>755</v>
+        <v>749</v>
       </c>
       <c r="F159" t="s">
-        <v>634</v>
+        <v>628</v>
       </c>
       <c r="H159">
         <f t="shared" si="12"/>
@@ -9489,22 +9486,22 @@
     </row>
     <row r="160" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>760</v>
+        <v>754</v>
       </c>
       <c r="B160" t="s">
-        <v>761</v>
+        <v>755</v>
       </c>
       <c r="C160" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="D160" t="s">
-        <v>763</v>
+        <v>757</v>
       </c>
       <c r="E160" t="s">
-        <v>764</v>
+        <v>758</v>
       </c>
       <c r="F160" t="s">
-        <v>634</v>
+        <v>628</v>
       </c>
       <c r="H160">
         <f t="shared" si="12"/>
@@ -9521,22 +9518,22 @@
     </row>
     <row r="161" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>765</v>
+        <v>759</v>
       </c>
       <c r="B161" t="s">
-        <v>766</v>
+        <v>760</v>
       </c>
       <c r="C161" t="s">
-        <v>767</v>
+        <v>761</v>
       </c>
       <c r="D161" t="s">
-        <v>768</v>
+        <v>762</v>
       </c>
       <c r="E161" t="s">
-        <v>769</v>
+        <v>763</v>
       </c>
       <c r="F161" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
       <c r="H161">
         <f t="shared" si="12"/>
@@ -9553,22 +9550,22 @@
     </row>
     <row r="162" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>770</v>
+        <v>764</v>
       </c>
       <c r="B162" t="s">
-        <v>771</v>
+        <v>765</v>
       </c>
       <c r="C162" t="s">
-        <v>772</v>
+        <v>766</v>
       </c>
       <c r="D162" t="s">
-        <v>773</v>
+        <v>767</v>
       </c>
       <c r="E162" t="s">
-        <v>774</v>
+        <v>768</v>
       </c>
       <c r="F162" t="s">
-        <v>634</v>
+        <v>628</v>
       </c>
       <c r="H162">
         <f t="shared" si="12"/>
@@ -9585,22 +9582,22 @@
     </row>
     <row r="163" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>775</v>
+        <v>769</v>
       </c>
       <c r="B163" t="s">
-        <v>776</v>
+        <v>770</v>
       </c>
       <c r="C163" t="s">
         <v>291</v>
       </c>
       <c r="D163" t="s">
-        <v>777</v>
+        <v>771</v>
       </c>
       <c r="E163" t="s">
-        <v>778</v>
+        <v>772</v>
       </c>
       <c r="F163" t="s">
-        <v>634</v>
+        <v>628</v>
       </c>
       <c r="H163">
         <f t="shared" si="12"/>
@@ -9617,22 +9614,22 @@
     </row>
     <row r="164" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>760</v>
+        <v>754</v>
       </c>
       <c r="B164" t="s">
-        <v>761</v>
+        <v>755</v>
       </c>
       <c r="C164" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="D164" t="s">
-        <v>763</v>
+        <v>757</v>
       </c>
       <c r="E164" t="s">
-        <v>764</v>
+        <v>758</v>
       </c>
       <c r="F164" t="s">
-        <v>634</v>
+        <v>628</v>
       </c>
       <c r="H164">
         <f t="shared" si="12"/>
@@ -9649,22 +9646,22 @@
     </row>
     <row r="165" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>779</v>
+        <v>773</v>
       </c>
       <c r="B165" t="s">
-        <v>780</v>
+        <v>774</v>
       </c>
       <c r="C165" t="s">
-        <v>781</v>
+        <v>775</v>
       </c>
       <c r="D165" t="s">
-        <v>782</v>
+        <v>776</v>
       </c>
       <c r="E165" t="s">
-        <v>783</v>
+        <v>777</v>
       </c>
       <c r="F165" t="s">
-        <v>634</v>
+        <v>628</v>
       </c>
       <c r="H165">
         <f t="shared" si="12"/>
@@ -9681,22 +9678,22 @@
     </row>
     <row r="166" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
       <c r="B166" t="s">
-        <v>784</v>
+        <v>778</v>
       </c>
       <c r="C166" t="s">
-        <v>785</v>
+        <v>779</v>
       </c>
       <c r="D166" t="s">
-        <v>786</v>
+        <v>780</v>
       </c>
       <c r="E166" t="s">
-        <v>787</v>
+        <v>781</v>
       </c>
       <c r="F166" t="s">
-        <v>634</v>
+        <v>628</v>
       </c>
       <c r="H166">
         <f t="shared" si="12"/>
@@ -9713,22 +9710,22 @@
     </row>
     <row r="167" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="B167" t="s">
-        <v>789</v>
+        <v>783</v>
       </c>
       <c r="C167" t="s">
-        <v>790</v>
+        <v>784</v>
       </c>
       <c r="D167" t="s">
-        <v>791</v>
+        <v>785</v>
       </c>
       <c r="E167" t="s">
-        <v>792</v>
+        <v>786</v>
       </c>
       <c r="F167" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
       <c r="H167">
         <f t="shared" si="12"/>
@@ -9745,22 +9742,22 @@
     </row>
     <row r="168" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="B168" t="s">
-        <v>794</v>
+        <v>788</v>
       </c>
       <c r="C168" t="s">
-        <v>795</v>
+        <v>789</v>
       </c>
       <c r="D168" t="s">
-        <v>796</v>
+        <v>790</v>
       </c>
       <c r="E168" t="s">
-        <v>797</v>
+        <v>791</v>
       </c>
       <c r="F168" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
       <c r="H168">
         <f t="shared" si="12"/>
@@ -9777,22 +9774,22 @@
     </row>
     <row r="169" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>798</v>
+        <v>792</v>
       </c>
       <c r="B169" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="C169" t="s">
-        <v>799</v>
+        <v>793</v>
       </c>
       <c r="D169" t="s">
-        <v>800</v>
+        <v>794</v>
       </c>
       <c r="E169" t="s">
-        <v>801</v>
+        <v>795</v>
       </c>
       <c r="F169" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
       <c r="H169">
         <f t="shared" si="12"/>
@@ -9809,22 +9806,22 @@
     </row>
     <row r="170" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>802</v>
+        <v>796</v>
       </c>
       <c r="B170" t="s">
-        <v>803</v>
+        <v>797</v>
       </c>
       <c r="C170" t="s">
-        <v>804</v>
+        <v>798</v>
       </c>
       <c r="D170" t="s">
-        <v>805</v>
+        <v>799</v>
       </c>
       <c r="E170" t="s">
-        <v>806</v>
+        <v>800</v>
       </c>
       <c r="F170" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
       <c r="H170">
         <f t="shared" si="12"/>
@@ -9841,22 +9838,22 @@
     </row>
     <row r="171" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>807</v>
+        <v>801</v>
       </c>
       <c r="B171" t="s">
-        <v>808</v>
+        <v>802</v>
       </c>
       <c r="C171" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
       <c r="D171" t="s">
-        <v>810</v>
+        <v>804</v>
       </c>
       <c r="E171" t="s">
-        <v>811</v>
+        <v>805</v>
       </c>
       <c r="F171" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
       <c r="H171">
         <f t="shared" si="12"/>
@@ -9876,19 +9873,19 @@
         <v>404</v>
       </c>
       <c r="B172" t="s">
-        <v>812</v>
+        <v>806</v>
       </c>
       <c r="C172" t="s">
-        <v>813</v>
+        <v>807</v>
       </c>
       <c r="D172" t="s">
-        <v>814</v>
+        <v>808</v>
       </c>
       <c r="E172" t="s">
         <v>103</v>
       </c>
       <c r="F172" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
       <c r="H172">
         <f t="shared" si="12"/>
@@ -9905,22 +9902,22 @@
     </row>
     <row r="173" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>815</v>
+        <v>809</v>
       </c>
       <c r="B173" t="s">
-        <v>816</v>
+        <v>810</v>
       </c>
       <c r="C173" t="s">
-        <v>817</v>
+        <v>811</v>
       </c>
       <c r="D173" t="s">
-        <v>818</v>
+        <v>812</v>
       </c>
       <c r="E173" t="s">
-        <v>819</v>
+        <v>813</v>
       </c>
       <c r="F173" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
       <c r="H173">
         <f t="shared" si="12"/>
@@ -9937,22 +9934,22 @@
     </row>
     <row r="174" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>820</v>
+        <v>814</v>
       </c>
       <c r="B174" t="s">
-        <v>821</v>
+        <v>815</v>
       </c>
       <c r="C174" t="s">
-        <v>822</v>
+        <v>816</v>
       </c>
       <c r="D174" t="s">
-        <v>823</v>
+        <v>817</v>
       </c>
       <c r="E174" t="s">
-        <v>824</v>
+        <v>818</v>
       </c>
       <c r="F174" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
       <c r="H174">
         <f t="shared" si="12"/>
@@ -9969,22 +9966,22 @@
     </row>
     <row r="175" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>825</v>
+        <v>819</v>
       </c>
       <c r="B175" t="s">
-        <v>826</v>
+        <v>820</v>
       </c>
       <c r="C175" t="s">
-        <v>827</v>
+        <v>821</v>
       </c>
       <c r="D175" t="s">
-        <v>828</v>
+        <v>822</v>
       </c>
       <c r="E175" t="s">
-        <v>829</v>
+        <v>823</v>
       </c>
       <c r="F175" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
       <c r="H175">
         <f t="shared" si="12"/>
@@ -10001,22 +9998,22 @@
     </row>
     <row r="176" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>830</v>
+        <v>824</v>
       </c>
       <c r="B176" t="s">
         <v>299</v>
       </c>
       <c r="C176" t="s">
-        <v>831</v>
+        <v>825</v>
       </c>
       <c r="D176" t="s">
-        <v>832</v>
+        <v>826</v>
       </c>
       <c r="E176" t="s">
-        <v>833</v>
+        <v>827</v>
       </c>
       <c r="F176" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
       <c r="H176">
         <f t="shared" si="12"/>
@@ -10033,22 +10030,22 @@
     </row>
     <row r="177" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>834</v>
+        <v>828</v>
       </c>
       <c r="B177" t="s">
-        <v>835</v>
+        <v>829</v>
       </c>
       <c r="C177" t="s">
-        <v>836</v>
+        <v>830</v>
       </c>
       <c r="D177" t="s">
-        <v>837</v>
+        <v>831</v>
       </c>
       <c r="E177" t="s">
-        <v>838</v>
+        <v>832</v>
       </c>
       <c r="F177" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
       <c r="H177">
         <f t="shared" si="12"/>
@@ -10065,22 +10062,22 @@
     </row>
     <row r="178" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
       <c r="B178" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="C178" t="s">
-        <v>845</v>
+        <v>839</v>
       </c>
       <c r="D178" t="s">
-        <v>846</v>
+        <v>840</v>
       </c>
       <c r="E178" t="s">
-        <v>847</v>
+        <v>841</v>
       </c>
       <c r="F178" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
       <c r="H178">
         <f t="shared" si="12"/>
@@ -10097,22 +10094,22 @@
     </row>
     <row r="179" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>848</v>
+        <v>842</v>
       </c>
       <c r="B179" t="s">
-        <v>849</v>
+        <v>843</v>
       </c>
       <c r="C179" t="s">
-        <v>850</v>
+        <v>844</v>
       </c>
       <c r="D179" t="s">
-        <v>851</v>
+        <v>845</v>
       </c>
       <c r="E179" t="s">
-        <v>852</v>
+        <v>846</v>
       </c>
       <c r="F179" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
       <c r="H179">
         <f t="shared" si="12"/>
@@ -10129,22 +10126,22 @@
     </row>
     <row r="180" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="B180" t="s">
-        <v>854</v>
+        <v>848</v>
       </c>
       <c r="C180" t="s">
-        <v>855</v>
+        <v>849</v>
       </c>
       <c r="D180" t="s">
-        <v>856</v>
+        <v>850</v>
       </c>
       <c r="E180" t="s">
-        <v>857</v>
+        <v>851</v>
       </c>
       <c r="F180" t="s">
-        <v>634</v>
+        <v>628</v>
       </c>
       <c r="H180">
         <f t="shared" si="12"/>
@@ -10161,22 +10158,22 @@
     </row>
     <row r="181" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>858</v>
+        <v>852</v>
       </c>
       <c r="B181" t="s">
-        <v>859</v>
+        <v>853</v>
       </c>
       <c r="C181" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
       <c r="D181" t="s">
-        <v>861</v>
+        <v>855</v>
       </c>
       <c r="E181" t="s">
-        <v>862</v>
+        <v>856</v>
       </c>
       <c r="F181" t="s">
-        <v>634</v>
+        <v>628</v>
       </c>
       <c r="H181">
         <f t="shared" si="12"/>
@@ -10193,22 +10190,22 @@
     </row>
     <row r="182" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>756</v>
+        <v>750</v>
       </c>
       <c r="B182" t="s">
-        <v>757</v>
+        <v>751</v>
       </c>
       <c r="C182" t="s">
-        <v>758</v>
+        <v>752</v>
       </c>
       <c r="D182" t="s">
-        <v>759</v>
+        <v>753</v>
       </c>
       <c r="E182" t="s">
-        <v>755</v>
+        <v>749</v>
       </c>
       <c r="F182" t="s">
-        <v>634</v>
+        <v>628</v>
       </c>
       <c r="H182">
         <f t="shared" si="12"/>
@@ -10225,22 +10222,22 @@
     </row>
     <row r="183" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>863</v>
+        <v>857</v>
       </c>
       <c r="B183" t="s">
-        <v>864</v>
+        <v>858</v>
       </c>
       <c r="C183" t="s">
-        <v>865</v>
+        <v>859</v>
       </c>
       <c r="D183" t="s">
-        <v>866</v>
+        <v>860</v>
       </c>
       <c r="E183" t="s">
-        <v>867</v>
+        <v>861</v>
       </c>
       <c r="F183" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
       <c r="H183">
         <f t="shared" si="12"/>
@@ -10257,22 +10254,22 @@
     </row>
     <row r="184" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>868</v>
+        <v>862</v>
       </c>
       <c r="B184" t="s">
-        <v>869</v>
+        <v>863</v>
       </c>
       <c r="C184" t="s">
-        <v>870</v>
+        <v>864</v>
       </c>
       <c r="D184" t="s">
-        <v>871</v>
+        <v>865</v>
       </c>
       <c r="E184" t="s">
-        <v>872</v>
+        <v>866</v>
       </c>
       <c r="F184" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
       <c r="H184">
         <f t="shared" si="12"/>
@@ -10289,22 +10286,22 @@
     </row>
     <row r="185" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>873</v>
+        <v>867</v>
       </c>
       <c r="B185" t="s">
-        <v>874</v>
+        <v>868</v>
       </c>
       <c r="C185" t="s">
-        <v>875</v>
+        <v>869</v>
       </c>
       <c r="D185" t="s">
-        <v>876</v>
+        <v>870</v>
       </c>
       <c r="E185" t="s">
-        <v>877</v>
+        <v>871</v>
       </c>
       <c r="F185" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
       <c r="H185">
         <f t="shared" si="12"/>
@@ -10321,22 +10318,22 @@
     </row>
     <row r="186" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>878</v>
+        <v>872</v>
       </c>
       <c r="B186" t="s">
-        <v>879</v>
+        <v>873</v>
       </c>
       <c r="C186" t="s">
-        <v>880</v>
+        <v>874</v>
       </c>
       <c r="D186" t="s">
-        <v>881</v>
+        <v>875</v>
       </c>
       <c r="E186" t="s">
-        <v>882</v>
+        <v>876</v>
       </c>
       <c r="F186" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
       <c r="H186">
         <f t="shared" si="12"/>
@@ -10353,22 +10350,22 @@
     </row>
     <row r="187" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>883</v>
+        <v>877</v>
       </c>
       <c r="B187" t="s">
-        <v>884</v>
+        <v>878</v>
       </c>
       <c r="C187" t="s">
-        <v>885</v>
+        <v>879</v>
       </c>
       <c r="D187" t="s">
-        <v>886</v>
+        <v>880</v>
       </c>
       <c r="E187" t="s">
-        <v>887</v>
+        <v>881</v>
       </c>
       <c r="F187" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
       <c r="H187">
         <f t="shared" si="12"/>
@@ -10385,22 +10382,22 @@
     </row>
     <row r="188" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>888</v>
+        <v>882</v>
       </c>
       <c r="B188" t="s">
-        <v>889</v>
+        <v>883</v>
       </c>
       <c r="C188" t="s">
-        <v>890</v>
+        <v>884</v>
       </c>
       <c r="D188" t="s">
-        <v>891</v>
+        <v>885</v>
       </c>
       <c r="E188" t="s">
-        <v>892</v>
+        <v>886</v>
       </c>
       <c r="F188" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
       <c r="H188">
         <f t="shared" ref="H188:H222" si="15">INT(J188/3)</f>
@@ -10417,22 +10414,22 @@
     </row>
     <row r="189" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>893</v>
+        <v>887</v>
       </c>
       <c r="B189" t="s">
         <v>169</v>
       </c>
       <c r="C189" t="s">
-        <v>894</v>
+        <v>888</v>
       </c>
       <c r="D189" t="s">
-        <v>895</v>
+        <v>889</v>
       </c>
       <c r="E189" t="s">
-        <v>896</v>
+        <v>890</v>
       </c>
       <c r="F189" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
       <c r="H189">
         <f t="shared" si="15"/>
@@ -10449,22 +10446,22 @@
     </row>
     <row r="190" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>897</v>
+        <v>891</v>
       </c>
       <c r="B190" t="s">
-        <v>898</v>
+        <v>892</v>
       </c>
       <c r="C190" t="s">
-        <v>899</v>
+        <v>893</v>
       </c>
       <c r="D190" t="s">
-        <v>900</v>
+        <v>894</v>
       </c>
       <c r="E190" t="s">
-        <v>901</v>
+        <v>895</v>
       </c>
       <c r="F190" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
       <c r="H190">
         <f t="shared" si="15"/>
@@ -10481,22 +10478,22 @@
     </row>
     <row r="191" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>686</v>
+        <v>680</v>
       </c>
       <c r="B191" t="s">
-        <v>902</v>
+        <v>896</v>
       </c>
       <c r="C191" t="s">
-        <v>550</v>
+        <v>544</v>
       </c>
       <c r="D191" t="s">
-        <v>903</v>
+        <v>897</v>
       </c>
       <c r="E191" t="s">
-        <v>904</v>
+        <v>898</v>
       </c>
       <c r="F191" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
       <c r="H191">
         <f t="shared" si="15"/>
@@ -10513,22 +10510,22 @@
     </row>
     <row r="192" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>751</v>
+        <v>745</v>
       </c>
       <c r="B192" t="s">
-        <v>752</v>
+        <v>746</v>
       </c>
       <c r="C192" t="s">
-        <v>753</v>
+        <v>747</v>
       </c>
       <c r="D192" t="s">
-        <v>754</v>
+        <v>748</v>
       </c>
       <c r="E192" t="s">
-        <v>755</v>
+        <v>749</v>
       </c>
       <c r="F192" t="s">
-        <v>634</v>
+        <v>628</v>
       </c>
       <c r="H192">
         <f t="shared" si="15"/>
@@ -10545,22 +10542,22 @@
     </row>
     <row r="193" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>905</v>
+        <v>899</v>
       </c>
       <c r="B193" t="s">
-        <v>906</v>
+        <v>900</v>
       </c>
       <c r="C193" t="s">
-        <v>907</v>
+        <v>901</v>
       </c>
       <c r="D193" t="s">
-        <v>908</v>
+        <v>902</v>
       </c>
       <c r="E193" t="s">
-        <v>909</v>
+        <v>903</v>
       </c>
       <c r="F193" t="s">
-        <v>634</v>
+        <v>628</v>
       </c>
       <c r="H193">
         <f t="shared" si="15"/>
@@ -10577,22 +10574,22 @@
     </row>
     <row r="194" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>910</v>
+        <v>904</v>
       </c>
       <c r="B194" t="s">
-        <v>911</v>
+        <v>905</v>
       </c>
       <c r="C194" t="s">
-        <v>912</v>
+        <v>906</v>
       </c>
       <c r="D194" t="s">
-        <v>913</v>
+        <v>907</v>
       </c>
       <c r="E194" t="s">
-        <v>914</v>
+        <v>908</v>
       </c>
       <c r="F194" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
       <c r="H194">
         <f t="shared" si="15"/>
@@ -10609,22 +10606,22 @@
     </row>
     <row r="195" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>915</v>
+        <v>909</v>
       </c>
       <c r="B195" t="s">
-        <v>901</v>
+        <v>895</v>
       </c>
       <c r="C195" t="s">
-        <v>916</v>
+        <v>910</v>
       </c>
       <c r="D195" t="s">
-        <v>917</v>
+        <v>911</v>
       </c>
       <c r="E195" t="s">
-        <v>918</v>
+        <v>912</v>
       </c>
       <c r="F195" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
       <c r="H195">
         <f t="shared" si="15"/>
@@ -10641,22 +10638,22 @@
     </row>
     <row r="196" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>919</v>
+        <v>913</v>
       </c>
       <c r="B196" t="s">
-        <v>920</v>
+        <v>914</v>
       </c>
       <c r="C196" t="s">
-        <v>921</v>
+        <v>915</v>
       </c>
       <c r="D196" t="s">
-        <v>922</v>
+        <v>916</v>
       </c>
       <c r="E196" t="s">
-        <v>923</v>
+        <v>917</v>
       </c>
       <c r="F196" t="s">
-        <v>634</v>
+        <v>628</v>
       </c>
       <c r="H196">
         <f t="shared" si="15"/>
@@ -10673,22 +10670,22 @@
     </row>
     <row r="197" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>924</v>
+        <v>918</v>
       </c>
       <c r="B197" t="s">
-        <v>925</v>
+        <v>919</v>
       </c>
       <c r="C197" t="s">
-        <v>926</v>
+        <v>920</v>
       </c>
       <c r="D197" t="s">
-        <v>927</v>
+        <v>921</v>
       </c>
       <c r="E197" t="s">
-        <v>928</v>
+        <v>922</v>
       </c>
       <c r="F197" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
       <c r="H197">
         <f t="shared" si="15"/>
@@ -10705,22 +10702,22 @@
     </row>
     <row r="198" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>875</v>
+        <v>869</v>
       </c>
       <c r="B198" t="s">
-        <v>929</v>
+        <v>923</v>
       </c>
       <c r="C198" t="s">
-        <v>930</v>
+        <v>924</v>
       </c>
       <c r="D198" t="s">
-        <v>931</v>
+        <v>925</v>
       </c>
       <c r="E198" t="s">
-        <v>932</v>
+        <v>926</v>
       </c>
       <c r="F198" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
       <c r="H198">
         <f t="shared" si="15"/>
@@ -10737,22 +10734,22 @@
     </row>
     <row r="199" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>818</v>
+        <v>812</v>
       </c>
       <c r="B199" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="C199" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="D199" t="s">
-        <v>933</v>
+        <v>927</v>
       </c>
       <c r="E199" t="s">
-        <v>934</v>
+        <v>928</v>
       </c>
       <c r="F199" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
       <c r="H199">
         <f t="shared" si="15"/>
@@ -10769,22 +10766,22 @@
     </row>
     <row r="200" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>935</v>
+        <v>929</v>
       </c>
       <c r="B200" t="s">
-        <v>936</v>
+        <v>930</v>
       </c>
       <c r="C200" t="s">
-        <v>937</v>
+        <v>931</v>
       </c>
       <c r="D200" t="s">
-        <v>938</v>
+        <v>932</v>
       </c>
       <c r="E200" t="s">
-        <v>939</v>
+        <v>933</v>
       </c>
       <c r="F200" t="s">
-        <v>634</v>
+        <v>628</v>
       </c>
       <c r="H200">
         <f t="shared" si="15"/>
@@ -10801,22 +10798,22 @@
     </row>
     <row r="201" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>940</v>
+        <v>934</v>
       </c>
       <c r="B201" t="s">
-        <v>941</v>
+        <v>935</v>
       </c>
       <c r="C201" t="s">
-        <v>942</v>
+        <v>936</v>
       </c>
       <c r="D201" t="s">
-        <v>943</v>
+        <v>937</v>
       </c>
       <c r="E201" t="s">
-        <v>944</v>
+        <v>938</v>
       </c>
       <c r="F201" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
       <c r="H201">
         <f t="shared" si="15"/>
@@ -10833,22 +10830,22 @@
     </row>
     <row r="202" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>945</v>
+        <v>939</v>
       </c>
       <c r="B202" t="s">
-        <v>946</v>
+        <v>940</v>
       </c>
       <c r="C202" t="s">
-        <v>947</v>
+        <v>941</v>
       </c>
       <c r="D202" t="s">
-        <v>948</v>
+        <v>942</v>
       </c>
       <c r="E202" t="s">
-        <v>949</v>
+        <v>943</v>
       </c>
       <c r="F202" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
       <c r="H202">
         <f t="shared" si="15"/>
@@ -10868,19 +10865,19 @@
         <v>371</v>
       </c>
       <c r="B203" t="s">
-        <v>950</v>
+        <v>944</v>
       </c>
       <c r="C203" t="s">
-        <v>951</v>
+        <v>945</v>
       </c>
       <c r="D203" t="s">
-        <v>952</v>
+        <v>946</v>
       </c>
       <c r="E203" t="s">
-        <v>953</v>
+        <v>947</v>
       </c>
       <c r="F203" t="s">
-        <v>634</v>
+        <v>628</v>
       </c>
       <c r="H203">
         <f t="shared" si="15"/>
@@ -10897,22 +10894,22 @@
     </row>
     <row r="204" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>954</v>
+        <v>948</v>
       </c>
       <c r="B204" t="s">
-        <v>955</v>
+        <v>949</v>
       </c>
       <c r="C204" t="s">
-        <v>956</v>
+        <v>950</v>
       </c>
       <c r="D204" t="s">
-        <v>957</v>
+        <v>951</v>
       </c>
       <c r="E204" t="s">
-        <v>958</v>
+        <v>952</v>
       </c>
       <c r="F204" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
       <c r="H204">
         <f t="shared" si="15"/>
@@ -10929,22 +10926,22 @@
     </row>
     <row r="205" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>959</v>
+        <v>953</v>
       </c>
       <c r="B205" t="s">
-        <v>960</v>
+        <v>954</v>
       </c>
       <c r="C205" t="s">
-        <v>961</v>
+        <v>955</v>
       </c>
       <c r="D205" t="s">
-        <v>962</v>
+        <v>956</v>
       </c>
       <c r="E205" t="s">
-        <v>963</v>
+        <v>957</v>
       </c>
       <c r="F205" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
       <c r="H205">
         <f t="shared" si="15"/>
@@ -10961,22 +10958,22 @@
     </row>
     <row r="206" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>964</v>
+        <v>958</v>
       </c>
       <c r="B206" t="s">
-        <v>921</v>
+        <v>915</v>
       </c>
       <c r="C206" t="s">
-        <v>965</v>
+        <v>959</v>
       </c>
       <c r="D206" t="s">
-        <v>966</v>
+        <v>960</v>
       </c>
       <c r="E206" t="s">
-        <v>967</v>
+        <v>961</v>
       </c>
       <c r="F206" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
       <c r="H206">
         <f t="shared" si="15"/>
@@ -10993,22 +10990,22 @@
     </row>
     <row r="207" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>968</v>
+        <v>962</v>
       </c>
       <c r="B207" t="s">
-        <v>969</v>
+        <v>963</v>
       </c>
       <c r="C207" t="s">
         <v>392</v>
       </c>
       <c r="D207" t="s">
-        <v>970</v>
+        <v>964</v>
       </c>
       <c r="E207" t="s">
-        <v>971</v>
+        <v>965</v>
       </c>
       <c r="F207" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
       <c r="H207">
         <f t="shared" si="15"/>
@@ -11025,22 +11022,22 @@
     </row>
     <row r="208" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>972</v>
+        <v>966</v>
       </c>
       <c r="B208" t="s">
-        <v>973</v>
+        <v>967</v>
       </c>
       <c r="C208" t="s">
-        <v>974</v>
+        <v>968</v>
       </c>
       <c r="D208" t="s">
-        <v>975</v>
+        <v>969</v>
       </c>
       <c r="E208" t="s">
-        <v>976</v>
+        <v>970</v>
       </c>
       <c r="F208" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
       <c r="H208">
         <f t="shared" si="15"/>
@@ -11057,22 +11054,22 @@
     </row>
     <row r="209" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>730</v>
+        <v>724</v>
       </c>
       <c r="B209" t="s">
-        <v>977</v>
+        <v>971</v>
       </c>
       <c r="C209" t="s">
-        <v>978</v>
+        <v>972</v>
       </c>
       <c r="D209" t="s">
-        <v>979</v>
+        <v>973</v>
       </c>
       <c r="E209" t="s">
-        <v>980</v>
+        <v>974</v>
       </c>
       <c r="F209" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
       <c r="H209">
         <f t="shared" si="15"/>
@@ -11089,22 +11086,22 @@
     </row>
     <row r="210" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
-        <v>981</v>
+        <v>975</v>
       </c>
       <c r="B210" t="s">
-        <v>982</v>
+        <v>976</v>
       </c>
       <c r="C210" t="s">
-        <v>983</v>
+        <v>977</v>
       </c>
       <c r="D210" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="E210" t="s">
-        <v>984</v>
+        <v>978</v>
       </c>
       <c r="F210" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
       <c r="H210">
         <f t="shared" si="15"/>
@@ -11121,22 +11118,22 @@
     </row>
     <row r="211" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>985</v>
+        <v>979</v>
       </c>
       <c r="B211" t="s">
-        <v>986</v>
+        <v>980</v>
       </c>
       <c r="C211" t="s">
-        <v>987</v>
+        <v>981</v>
       </c>
       <c r="D211" t="s">
         <v>456</v>
       </c>
       <c r="E211" t="s">
-        <v>988</v>
+        <v>982</v>
       </c>
       <c r="F211" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
       <c r="H211">
         <f t="shared" si="15"/>
@@ -11153,22 +11150,22 @@
     </row>
     <row r="212" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>989</v>
+        <v>983</v>
       </c>
       <c r="B212" t="s">
         <v>78</v>
       </c>
       <c r="C212" t="s">
-        <v>990</v>
+        <v>984</v>
       </c>
       <c r="D212" t="s">
-        <v>991</v>
+        <v>985</v>
       </c>
       <c r="E212" t="s">
-        <v>992</v>
+        <v>986</v>
       </c>
       <c r="F212" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
       <c r="H212">
         <f t="shared" si="15"/>
@@ -11185,22 +11182,22 @@
     </row>
     <row r="213" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
-        <v>993</v>
+        <v>987</v>
       </c>
       <c r="B213" t="s">
-        <v>994</v>
+        <v>988</v>
       </c>
       <c r="C213" t="s">
-        <v>995</v>
+        <v>989</v>
       </c>
       <c r="D213" t="s">
-        <v>996</v>
+        <v>990</v>
       </c>
       <c r="E213" t="s">
-        <v>997</v>
+        <v>991</v>
       </c>
       <c r="F213" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
       <c r="H213">
         <f t="shared" si="15"/>
@@ -11217,22 +11214,22 @@
     </row>
     <row r="214" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>998</v>
+        <v>992</v>
       </c>
       <c r="B214" t="s">
-        <v>999</v>
+        <v>993</v>
       </c>
       <c r="C214" t="s">
-        <v>1000</v>
+        <v>994</v>
       </c>
       <c r="D214" t="s">
-        <v>1001</v>
+        <v>995</v>
       </c>
       <c r="E214" t="s">
-        <v>1002</v>
+        <v>996</v>
       </c>
       <c r="F214" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
       <c r="H214">
         <f t="shared" si="15"/>
@@ -11249,22 +11246,22 @@
     </row>
     <row r="215" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
       <c r="B215" t="s">
-        <v>1003</v>
+        <v>997</v>
       </c>
       <c r="C215" t="s">
-        <v>1004</v>
+        <v>998</v>
       </c>
       <c r="D215" t="s">
-        <v>1005</v>
+        <v>999</v>
       </c>
       <c r="E215" t="s">
-        <v>1006</v>
+        <v>1000</v>
       </c>
       <c r="F215" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
       <c r="H215">
         <f t="shared" si="15"/>
@@ -11281,22 +11278,22 @@
     </row>
     <row r="216" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>1007</v>
+        <v>1001</v>
       </c>
       <c r="B216" t="s">
-        <v>1008</v>
+        <v>1002</v>
       </c>
       <c r="C216" t="s">
-        <v>1009</v>
+        <v>1003</v>
       </c>
       <c r="D216" t="s">
-        <v>1010</v>
+        <v>1004</v>
       </c>
       <c r="E216" t="s">
-        <v>1011</v>
+        <v>1005</v>
       </c>
       <c r="F216" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
       <c r="H216">
         <f t="shared" si="15"/>
@@ -11313,22 +11310,22 @@
     </row>
     <row r="217" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>1012</v>
+        <v>1006</v>
       </c>
       <c r="B217" t="s">
-        <v>1013</v>
+        <v>1007</v>
       </c>
       <c r="C217" t="s">
-        <v>952</v>
+        <v>946</v>
       </c>
       <c r="D217" t="s">
-        <v>1014</v>
+        <v>1008</v>
       </c>
       <c r="E217" t="s">
-        <v>1015</v>
+        <v>1009</v>
       </c>
       <c r="F217" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
       <c r="H217">
         <f t="shared" si="15"/>
@@ -11345,22 +11342,22 @@
     </row>
     <row r="218" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
-        <v>729</v>
+        <v>723</v>
       </c>
       <c r="B218" t="s">
-        <v>1016</v>
+        <v>1010</v>
       </c>
       <c r="C218" t="s">
-        <v>1017</v>
+        <v>1011</v>
       </c>
       <c r="D218" t="s">
-        <v>1018</v>
+        <v>1012</v>
       </c>
       <c r="E218" t="s">
-        <v>1019</v>
+        <v>1013</v>
       </c>
       <c r="F218" t="s">
-        <v>634</v>
+        <v>628</v>
       </c>
       <c r="H218">
         <f t="shared" si="15"/>
@@ -11383,16 +11380,16 @@
         <v>475</v>
       </c>
       <c r="C219" t="s">
-        <v>1020</v>
+        <v>1014</v>
       </c>
       <c r="D219" t="s">
-        <v>1021</v>
+        <v>1015</v>
       </c>
       <c r="E219" t="s">
-        <v>1022</v>
+        <v>1016</v>
       </c>
       <c r="F219" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
       <c r="H219">
         <f t="shared" si="15"/>
@@ -11409,22 +11406,22 @@
     </row>
     <row r="220" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
-        <v>1026</v>
+        <v>1020</v>
       </c>
       <c r="B220" t="s">
-        <v>1027</v>
+        <v>1021</v>
       </c>
       <c r="C220" t="s">
-        <v>1028</v>
+        <v>1022</v>
       </c>
       <c r="D220" t="s">
-        <v>1029</v>
+        <v>1023</v>
       </c>
       <c r="E220" t="s">
-        <v>1030</v>
+        <v>1024</v>
       </c>
       <c r="F220" t="s">
-        <v>634</v>
+        <v>628</v>
       </c>
       <c r="H220">
         <f t="shared" si="15"/>
@@ -11441,22 +11438,22 @@
     </row>
     <row r="221" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
-        <v>1031</v>
+        <v>1025</v>
       </c>
       <c r="B221" t="s">
-        <v>1032</v>
+        <v>1026</v>
       </c>
       <c r="C221" t="s">
-        <v>1033</v>
+        <v>1027</v>
       </c>
       <c r="D221" t="s">
-        <v>1034</v>
+        <v>1028</v>
       </c>
       <c r="E221" t="s">
-        <v>1035</v>
+        <v>1029</v>
       </c>
       <c r="F221" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
       <c r="H221">
         <f t="shared" si="15"/>
@@ -11476,19 +11473,19 @@
         <v>14</v>
       </c>
       <c r="B222" t="s">
-        <v>1036</v>
+        <v>1030</v>
       </c>
       <c r="C222" t="s">
-        <v>1037</v>
+        <v>1031</v>
       </c>
       <c r="D222" t="s">
-        <v>1038</v>
+        <v>1032</v>
       </c>
       <c r="E222" t="s">
-        <v>814</v>
+        <v>808</v>
       </c>
       <c r="F222" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
       <c r="H222">
         <f t="shared" si="15"/>

--- a/code/shabdakala/resource/sbwords.xlsx
+++ b/code/shabdakala/resource/sbwords.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hrishinene/shabdak_github/sbbd/shabdakala/code/shabdakala/resource/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{619C52C7-88D2-EC41-9FAA-7CD2A3FC7DEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{842A0073-2CA2-FD4D-9C42-11B47A289C10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{9F74AEE5-EB85-4044-AC84-8761A591B5C1}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1425" uniqueCount="1045">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1425" uniqueCount="1044">
   <si>
     <t>word0</t>
   </si>
@@ -938,9 +938,6 @@
     <t>उथळ</t>
   </si>
   <si>
-    <t>पाण्याला</t>
-  </si>
-  <si>
     <t>खळखळाट</t>
   </si>
   <si>
@@ -1721,9 +1718,6 @@
     <t>वरूण</t>
   </si>
   <si>
-    <t>कोसळणे</t>
-  </si>
-  <si>
     <t>उल्का</t>
   </si>
   <si>
@@ -1736,9 +1730,6 @@
     <t>क्वार्टझ</t>
   </si>
   <si>
-    <t>स्विस</t>
-  </si>
-  <si>
     <t>पट्टा</t>
   </si>
   <si>
@@ -3168,6 +3159,12 @@
   </si>
   <si>
     <t>मानवंदना</t>
+  </si>
+  <si>
+    <t>धो धो</t>
+  </si>
+  <si>
+    <t>टायटन</t>
   </si>
 </sst>
 </file>
@@ -4094,8 +4091,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEA1707B-2FB7-B84C-9F84-E9F074F3056C}">
   <dimension ref="A1:L222"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A72" zoomScale="108" zoomScaleNormal="108" workbookViewId="0">
-      <selection activeCell="A93" sqref="A93"/>
+    <sheetView tabSelected="1" topLeftCell="A95" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D103" sqref="D103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4136,13 +4133,13 @@
         <v>6</v>
       </c>
       <c r="H1" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="I1" s="5" t="s">
         <v>340</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>341</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>342</v>
       </c>
       <c r="L1" s="4">
         <v>45625</v>
@@ -4183,7 +4180,7 @@
       </c>
       <c r="L2" s="6">
         <f ca="1">TODAY()</f>
-        <v>45652</v>
+        <v>45653</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -4368,22 +4365,22 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>332</v>
+      </c>
+      <c r="B8" t="s">
         <v>333</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>334</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>335</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>336</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>337</v>
-      </c>
-      <c r="F8" t="s">
-        <v>338</v>
       </c>
       <c r="G8" t="s">
         <v>87</v>
@@ -4403,22 +4400,22 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>322</v>
+      </c>
+      <c r="B9" t="s">
         <v>323</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>324</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>325</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>326</v>
       </c>
-      <c r="E9" t="s">
-        <v>327</v>
-      </c>
       <c r="F9" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="G9" t="s">
         <v>87</v>
@@ -4438,22 +4435,22 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>327</v>
+      </c>
+      <c r="B10" t="s">
         <v>328</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>329</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>330</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>331</v>
       </c>
-      <c r="E10" t="s">
-        <v>332</v>
-      </c>
       <c r="F10" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="G10" t="s">
         <v>87</v>
@@ -4473,22 +4470,22 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B11" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C11" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D11" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E11" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>139</v>
@@ -4508,19 +4505,19 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
+        <v>346</v>
+      </c>
+      <c r="B12" t="s">
         <v>347</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
+        <v>354</v>
+      </c>
+      <c r="D12" t="s">
         <v>348</v>
       </c>
-      <c r="C12" t="s">
-        <v>355</v>
-      </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>349</v>
-      </c>
-      <c r="E12" t="s">
-        <v>350</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>85</v>
@@ -4543,22 +4540,22 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B13" t="s">
         <v>226</v>
       </c>
       <c r="C13" t="s">
+        <v>351</v>
+      </c>
+      <c r="D13" t="s">
         <v>352</v>
       </c>
-      <c r="D13" t="s">
-        <v>353</v>
-      </c>
       <c r="E13" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>140</v>
@@ -4593,7 +4590,7 @@
         <v>132</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>87</v>
@@ -4695,10 +4692,10 @@
         <v>42</v>
       </c>
       <c r="E17" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>45</v>
@@ -4718,7 +4715,7 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B18" t="s">
         <v>116</v>
@@ -4768,7 +4765,7 @@
         <v>13</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>8</v>
@@ -4826,7 +4823,7 @@
         <v>98</v>
       </c>
       <c r="B21" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C21" t="s">
         <v>100</v>
@@ -4908,7 +4905,7 @@
         <v>41</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="G23" s="1" t="s">
         <v>8</v>
@@ -4943,7 +4940,7 @@
         <v>35</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="G24" s="1" t="s">
         <v>44</v>
@@ -4963,22 +4960,22 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
+        <v>365</v>
+      </c>
+      <c r="B25" t="s">
         <v>366</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C25" t="s">
         <v>367</v>
       </c>
-      <c r="C25" t="s">
+      <c r="D25" t="s">
         <v>368</v>
       </c>
-      <c r="D25" t="s">
+      <c r="E25" t="s">
         <v>369</v>
       </c>
-      <c r="E25" t="s">
-        <v>370</v>
-      </c>
       <c r="F25" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>185</v>
@@ -5068,25 +5065,25 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
+        <v>408</v>
+      </c>
+      <c r="B28" t="s">
         <v>409</v>
       </c>
-      <c r="B28" t="s">
+      <c r="C28" t="s">
         <v>410</v>
       </c>
-      <c r="C28" t="s">
+      <c r="D28" t="s">
         <v>411</v>
       </c>
-      <c r="D28" t="s">
-        <v>412</v>
-      </c>
       <c r="E28" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F28" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="H28">
         <f t="shared" si="7"/>
@@ -5208,22 +5205,22 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
+        <v>499</v>
+      </c>
+      <c r="B32" t="s">
         <v>500</v>
       </c>
-      <c r="B32" t="s">
+      <c r="C32" t="s">
         <v>501</v>
       </c>
-      <c r="C32" t="s">
+      <c r="D32" t="s">
         <v>502</v>
       </c>
-      <c r="D32" t="s">
+      <c r="E32" t="s">
         <v>503</v>
       </c>
-      <c r="E32" t="s">
-        <v>504</v>
-      </c>
       <c r="F32" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="H32">
         <f t="shared" si="7"/>
@@ -5240,22 +5237,22 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B33" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C33" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="D33" t="s">
         <v>228</v>
       </c>
       <c r="E33" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="F33" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="H33">
         <f t="shared" si="7"/>
@@ -5272,22 +5269,22 @@
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B34" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="C34" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="D34" t="s">
         <v>48</v>
       </c>
       <c r="E34" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="F34" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="H34">
         <f t="shared" si="7"/>
@@ -5316,7 +5313,7 @@
         <v>63</v>
       </c>
       <c r="E35" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>85</v>
@@ -5351,10 +5348,10 @@
         <v>33</v>
       </c>
       <c r="E36" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="G36" s="1" t="s">
         <v>8</v>
@@ -5386,7 +5383,7 @@
         <v>111</v>
       </c>
       <c r="E37" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>85</v>
@@ -5409,22 +5406,22 @@
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
+        <v>623</v>
+      </c>
+      <c r="B38" t="s">
+        <v>496</v>
+      </c>
+      <c r="C38" t="s">
         <v>626</v>
       </c>
-      <c r="B38" t="s">
+      <c r="D38" t="s">
         <v>497</v>
       </c>
-      <c r="C38" t="s">
-        <v>629</v>
-      </c>
-      <c r="D38" t="s">
+      <c r="E38" t="s">
         <v>498</v>
       </c>
-      <c r="E38" t="s">
-        <v>499</v>
-      </c>
       <c r="F38" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="H38">
         <f t="shared" si="7"/>
@@ -5441,22 +5438,22 @@
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
+        <v>508</v>
+      </c>
+      <c r="B39" t="s">
         <v>509</v>
-      </c>
-      <c r="B39" t="s">
-        <v>510</v>
       </c>
       <c r="C39" t="s">
         <v>7</v>
       </c>
       <c r="D39" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="E39" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="F39" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="H39">
         <f t="shared" si="7"/>
@@ -5543,22 +5540,22 @@
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
+        <v>567</v>
+      </c>
+      <c r="B42" t="s">
+        <v>568</v>
+      </c>
+      <c r="C42" t="s">
+        <v>624</v>
+      </c>
+      <c r="D42" t="s">
+        <v>569</v>
+      </c>
+      <c r="E42" t="s">
         <v>570</v>
       </c>
-      <c r="B42" t="s">
-        <v>571</v>
-      </c>
-      <c r="C42" t="s">
-        <v>627</v>
-      </c>
-      <c r="D42" t="s">
-        <v>572</v>
-      </c>
-      <c r="E42" t="s">
-        <v>573</v>
-      </c>
       <c r="F42" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="H42">
         <f t="shared" si="7"/>
@@ -5575,22 +5572,22 @@
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
+        <v>579</v>
+      </c>
+      <c r="B43" t="s">
+        <v>580</v>
+      </c>
+      <c r="C43" t="s">
+        <v>581</v>
+      </c>
+      <c r="D43" t="s">
         <v>582</v>
       </c>
-      <c r="B43" t="s">
+      <c r="E43" t="s">
         <v>583</v>
       </c>
-      <c r="C43" t="s">
-        <v>584</v>
-      </c>
-      <c r="D43" t="s">
-        <v>585</v>
-      </c>
-      <c r="E43" t="s">
-        <v>586</v>
-      </c>
       <c r="F43" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="H43">
         <f t="shared" si="7"/>
@@ -5607,22 +5604,22 @@
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B44" t="s">
+        <v>375</v>
+      </c>
+      <c r="C44" t="s">
         <v>376</v>
       </c>
-      <c r="C44" t="s">
+      <c r="D44" t="s">
+        <v>421</v>
+      </c>
+      <c r="E44" t="s">
         <v>377</v>
       </c>
-      <c r="D44" t="s">
-        <v>422</v>
-      </c>
-      <c r="E44" t="s">
-        <v>378</v>
-      </c>
       <c r="F44" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="G44" s="1" t="s">
         <v>275</v>
@@ -5677,22 +5674,22 @@
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
+        <v>515</v>
+      </c>
+      <c r="B46" t="s">
         <v>516</v>
       </c>
-      <c r="B46" t="s">
+      <c r="C46" t="s">
         <v>517</v>
       </c>
-      <c r="C46" t="s">
+      <c r="D46" t="s">
+        <v>627</v>
+      </c>
+      <c r="E46" t="s">
         <v>518</v>
       </c>
-      <c r="D46" t="s">
-        <v>630</v>
-      </c>
-      <c r="E46" t="s">
-        <v>519</v>
-      </c>
       <c r="F46" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="H46">
         <f t="shared" si="7"/>
@@ -5712,19 +5709,19 @@
         <v>228</v>
       </c>
       <c r="B47" t="s">
+        <v>519</v>
+      </c>
+      <c r="C47" t="s">
         <v>520</v>
       </c>
-      <c r="C47" t="s">
+      <c r="D47" t="s">
         <v>521</v>
       </c>
-      <c r="D47" t="s">
+      <c r="E47" t="s">
         <v>522</v>
       </c>
-      <c r="E47" t="s">
-        <v>523</v>
-      </c>
       <c r="F47" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="H47">
         <f t="shared" si="7"/>
@@ -5741,22 +5738,22 @@
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
+        <v>523</v>
+      </c>
+      <c r="B48" t="s">
         <v>524</v>
       </c>
-      <c r="B48" t="s">
+      <c r="C48" t="s">
         <v>525</v>
       </c>
-      <c r="C48" t="s">
+      <c r="D48" t="s">
         <v>526</v>
       </c>
-      <c r="D48" t="s">
+      <c r="E48" t="s">
         <v>527</v>
       </c>
-      <c r="E48" t="s">
-        <v>528</v>
-      </c>
       <c r="F48" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="H48">
         <f t="shared" si="7"/>
@@ -5808,22 +5805,22 @@
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
+        <v>412</v>
+      </c>
+      <c r="B50" t="s">
         <v>413</v>
       </c>
-      <c r="B50" t="s">
+      <c r="C50" t="s">
         <v>414</v>
       </c>
-      <c r="C50" t="s">
+      <c r="D50" t="s">
+        <v>372</v>
+      </c>
+      <c r="E50" t="s">
         <v>415</v>
       </c>
-      <c r="D50" t="s">
-        <v>373</v>
-      </c>
-      <c r="E50" t="s">
-        <v>416</v>
-      </c>
       <c r="F50" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="G50" s="1" t="s">
         <v>275</v>
@@ -5849,7 +5846,7 @@
         <v>120</v>
       </c>
       <c r="C51" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="D51" t="s">
         <v>121</v>
@@ -5858,7 +5855,7 @@
         <v>122</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="G51" s="1" t="s">
         <v>142</v>
@@ -5878,7 +5875,7 @@
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="B52" t="s">
         <v>36</v>
@@ -5893,7 +5890,7 @@
         <v>39</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="G52" s="1" t="s">
         <v>8</v>
@@ -5951,7 +5948,7 @@
         <v>212</v>
       </c>
       <c r="B54" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="C54" t="s">
         <v>213</v>
@@ -5983,22 +5980,22 @@
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
+        <v>378</v>
+      </c>
+      <c r="B55" t="s">
         <v>379</v>
       </c>
-      <c r="B55" t="s">
+      <c r="C55" t="s">
         <v>380</v>
       </c>
-      <c r="C55" t="s">
+      <c r="D55" t="s">
         <v>381</v>
       </c>
-      <c r="D55" t="s">
-        <v>382</v>
-      </c>
       <c r="E55" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="F55" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="G55" s="1" t="s">
         <v>275</v>
@@ -6021,19 +6018,19 @@
         <v>233</v>
       </c>
       <c r="B56" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="C56" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="D56" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="E56" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="F56" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="H56">
         <f t="shared" si="7"/>
@@ -6056,7 +6053,7 @@
         <v>232</v>
       </c>
       <c r="C57" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="D57" t="s">
         <v>234</v>
@@ -6085,22 +6082,22 @@
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
+        <v>636</v>
+      </c>
+      <c r="B58" t="s">
+        <v>637</v>
+      </c>
+      <c r="C58" t="s">
+        <v>638</v>
+      </c>
+      <c r="D58" t="s">
         <v>639</v>
       </c>
-      <c r="B58" t="s">
+      <c r="E58" t="s">
         <v>640</v>
       </c>
-      <c r="C58" t="s">
-        <v>641</v>
-      </c>
-      <c r="D58" t="s">
-        <v>642</v>
-      </c>
-      <c r="E58" t="s">
-        <v>643</v>
-      </c>
       <c r="F58" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="H58">
         <f t="shared" si="7"/>
@@ -6117,22 +6114,22 @@
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
+        <v>463</v>
+      </c>
+      <c r="B59" t="s">
         <v>464</v>
       </c>
-      <c r="B59" t="s">
+      <c r="C59" t="s">
         <v>465</v>
       </c>
-      <c r="C59" t="s">
+      <c r="D59" t="s">
         <v>466</v>
       </c>
-      <c r="D59" t="s">
-        <v>467</v>
-      </c>
       <c r="E59" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="F59" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="H59">
         <f t="shared" si="7"/>
@@ -6149,22 +6146,22 @@
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
+        <v>646</v>
+      </c>
+      <c r="B60" t="s">
+        <v>647</v>
+      </c>
+      <c r="C60" t="s">
+        <v>467</v>
+      </c>
+      <c r="D60" t="s">
+        <v>648</v>
+      </c>
+      <c r="E60" t="s">
         <v>649</v>
       </c>
-      <c r="B60" t="s">
-        <v>650</v>
-      </c>
-      <c r="C60" t="s">
-        <v>468</v>
-      </c>
-      <c r="D60" t="s">
-        <v>651</v>
-      </c>
-      <c r="E60" t="s">
-        <v>652</v>
-      </c>
       <c r="F60" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="H60">
         <f t="shared" ref="H60:H123" si="9">INT(J60/3)</f>
@@ -6181,22 +6178,22 @@
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="B61" t="s">
+        <v>468</v>
+      </c>
+      <c r="C61" t="s">
         <v>469</v>
       </c>
-      <c r="C61" t="s">
+      <c r="D61" t="s">
         <v>470</v>
       </c>
-      <c r="D61" t="s">
+      <c r="E61" t="s">
         <v>471</v>
       </c>
-      <c r="E61" t="s">
-        <v>472</v>
-      </c>
       <c r="F61" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="H61">
         <f t="shared" si="9"/>
@@ -6213,22 +6210,22 @@
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>1017</v>
+        <v>1014</v>
       </c>
       <c r="B62" t="s">
-        <v>1018</v>
+        <v>1015</v>
       </c>
       <c r="C62" t="s">
-        <v>850</v>
+        <v>847</v>
       </c>
       <c r="D62" t="s">
-        <v>1019</v>
+        <v>1016</v>
       </c>
       <c r="E62" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="F62" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="H62">
         <f t="shared" si="9"/>
@@ -6245,22 +6242,22 @@
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="B63" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="C63" t="s">
+        <v>632</v>
+      </c>
+      <c r="D63" t="s">
+        <v>633</v>
+      </c>
+      <c r="E63" t="s">
         <v>635</v>
       </c>
-      <c r="D63" t="s">
-        <v>636</v>
-      </c>
-      <c r="E63" t="s">
-        <v>638</v>
-      </c>
       <c r="F63" s="1" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="G63" s="1"/>
       <c r="H63">
@@ -6278,22 +6275,22 @@
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
+        <v>370</v>
+      </c>
+      <c r="B64" t="s">
         <v>371</v>
       </c>
-      <c r="B64" t="s">
+      <c r="C64" t="s">
         <v>372</v>
       </c>
-      <c r="C64" t="s">
+      <c r="D64" t="s">
         <v>373</v>
       </c>
-      <c r="D64" t="s">
+      <c r="E64" t="s">
         <v>374</v>
       </c>
-      <c r="E64" t="s">
-        <v>375</v>
-      </c>
       <c r="F64" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="G64" s="1" t="s">
         <v>275</v>
@@ -6348,22 +6345,22 @@
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
+        <v>307</v>
+      </c>
+      <c r="B66" t="s">
         <v>308</v>
       </c>
-      <c r="B66" t="s">
+      <c r="C66" t="s">
         <v>309</v>
       </c>
-      <c r="C66" t="s">
+      <c r="D66" t="s">
         <v>310</v>
       </c>
-      <c r="D66" t="s">
-        <v>311</v>
-      </c>
       <c r="E66" t="s">
+        <v>315</v>
+      </c>
+      <c r="F66" t="s">
         <v>316</v>
-      </c>
-      <c r="F66" t="s">
-        <v>317</v>
       </c>
       <c r="G66" s="1" t="s">
         <v>138</v>
@@ -6418,22 +6415,22 @@
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
+        <v>382</v>
+      </c>
+      <c r="B68" t="s">
         <v>383</v>
       </c>
-      <c r="B68" t="s">
+      <c r="C68" t="s">
         <v>384</v>
       </c>
-      <c r="C68" t="s">
+      <c r="D68" t="s">
         <v>385</v>
       </c>
-      <c r="D68" t="s">
-        <v>386</v>
-      </c>
       <c r="E68" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F68" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="G68" s="1" t="s">
         <v>275</v>
@@ -6453,25 +6450,25 @@
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
+        <v>403</v>
+      </c>
+      <c r="B69" t="s">
         <v>404</v>
       </c>
-      <c r="B69" t="s">
+      <c r="C69" t="s">
         <v>405</v>
       </c>
-      <c r="C69" t="s">
+      <c r="D69" t="s">
         <v>406</v>
       </c>
-      <c r="D69" t="s">
+      <c r="E69" t="s">
         <v>407</v>
       </c>
-      <c r="E69" t="s">
-        <v>408</v>
-      </c>
       <c r="F69" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="H69">
         <f t="shared" si="9"/>
@@ -6488,22 +6485,22 @@
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B70" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C70" t="s">
         <v>210</v>
       </c>
       <c r="D70" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E70" t="s">
-        <v>1033</v>
+        <v>1030</v>
       </c>
       <c r="F70" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="H70">
         <f t="shared" si="9"/>
@@ -6558,19 +6555,19 @@
         <v>213</v>
       </c>
       <c r="B72" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="C72" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="D72" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="E72" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="F72" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="H72">
         <f t="shared" si="9"/>
@@ -6587,22 +6584,22 @@
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
+        <v>574</v>
+      </c>
+      <c r="B73" t="s">
+        <v>575</v>
+      </c>
+      <c r="C73" t="s">
+        <v>576</v>
+      </c>
+      <c r="D73" t="s">
         <v>577</v>
       </c>
-      <c r="B73" t="s">
+      <c r="E73" t="s">
         <v>578</v>
       </c>
-      <c r="C73" t="s">
-        <v>579</v>
-      </c>
-      <c r="D73" t="s">
-        <v>580</v>
-      </c>
-      <c r="E73" t="s">
-        <v>581</v>
-      </c>
       <c r="F73" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="H73">
         <f t="shared" si="9"/>
@@ -6619,22 +6616,22 @@
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
+        <v>830</v>
+      </c>
+      <c r="B74" t="s">
+        <v>831</v>
+      </c>
+      <c r="C74" t="s">
+        <v>832</v>
+      </c>
+      <c r="D74" t="s">
         <v>833</v>
       </c>
-      <c r="B74" t="s">
+      <c r="E74" t="s">
         <v>834</v>
       </c>
-      <c r="C74" t="s">
-        <v>835</v>
-      </c>
-      <c r="D74" t="s">
-        <v>836</v>
-      </c>
-      <c r="E74" t="s">
-        <v>837</v>
-      </c>
       <c r="F74" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="H74">
         <f t="shared" si="9"/>
@@ -6651,22 +6648,22 @@
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
+        <v>416</v>
+      </c>
+      <c r="B75" t="s">
         <v>417</v>
       </c>
-      <c r="B75" t="s">
+      <c r="C75" t="s">
         <v>418</v>
       </c>
-      <c r="C75" t="s">
+      <c r="D75" t="s">
         <v>419</v>
       </c>
-      <c r="D75" t="s">
-        <v>420</v>
-      </c>
       <c r="E75" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="F75" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="G75" s="1" t="s">
         <v>275</v>
@@ -6698,10 +6695,10 @@
         <v>281</v>
       </c>
       <c r="E76" t="s">
+        <v>315</v>
+      </c>
+      <c r="F76" t="s">
         <v>316</v>
-      </c>
-      <c r="F76" t="s">
-        <v>317</v>
       </c>
       <c r="G76" s="1" t="s">
         <v>138</v>
@@ -6736,7 +6733,7 @@
         <v>295</v>
       </c>
       <c r="F77" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="G77" s="1" t="s">
         <v>45</v>
@@ -6768,10 +6765,10 @@
         <v>290</v>
       </c>
       <c r="E78" t="s">
+        <v>315</v>
+      </c>
+      <c r="F78" t="s">
         <v>316</v>
-      </c>
-      <c r="F78" t="s">
-        <v>317</v>
       </c>
       <c r="G78" s="1" t="s">
         <v>138</v>
@@ -6791,22 +6788,22 @@
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
+        <v>478</v>
+      </c>
+      <c r="B79" t="s">
         <v>479</v>
       </c>
-      <c r="B79" t="s">
-        <v>480</v>
-      </c>
       <c r="C79" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="D79" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="E79" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="F79" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="H79">
         <f t="shared" si="9"/>
@@ -6823,22 +6820,22 @@
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
+        <v>480</v>
+      </c>
+      <c r="B80" t="s">
         <v>481</v>
       </c>
-      <c r="B80" t="s">
+      <c r="C80" t="s">
+        <v>301</v>
+      </c>
+      <c r="D80" t="s">
+        <v>615</v>
+      </c>
+      <c r="E80" t="s">
         <v>482</v>
       </c>
-      <c r="C80" t="s">
-        <v>302</v>
-      </c>
-      <c r="D80" t="s">
-        <v>618</v>
-      </c>
-      <c r="E80" t="s">
-        <v>483</v>
-      </c>
       <c r="F80" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="H80">
         <f t="shared" si="9"/>
@@ -6855,22 +6852,22 @@
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
+        <v>317</v>
+      </c>
+      <c r="B81" t="s">
         <v>318</v>
       </c>
-      <c r="B81" t="s">
+      <c r="C81" t="s">
         <v>319</v>
       </c>
-      <c r="C81" t="s">
+      <c r="D81" t="s">
         <v>320</v>
       </c>
-      <c r="D81" t="s">
+      <c r="E81" t="s">
         <v>321</v>
       </c>
-      <c r="E81" t="s">
-        <v>322</v>
-      </c>
       <c r="F81" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="G81" s="1" t="s">
         <v>138</v>
@@ -6893,19 +6890,19 @@
         <v>48</v>
       </c>
       <c r="B82" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
       <c r="C82" t="s">
         <v>282</v>
       </c>
       <c r="D82" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
       <c r="E82" t="s">
+        <v>315</v>
+      </c>
+      <c r="F82" t="s">
         <v>316</v>
-      </c>
-      <c r="F82" t="s">
-        <v>317</v>
       </c>
       <c r="G82" s="1" t="s">
         <v>138</v>
@@ -6925,22 +6922,22 @@
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
+        <v>455</v>
+      </c>
+      <c r="B83" t="s">
         <v>456</v>
       </c>
-      <c r="B83" t="s">
+      <c r="C83" t="s">
+        <v>1033</v>
+      </c>
+      <c r="D83" t="s">
         <v>457</v>
       </c>
-      <c r="C83" t="s">
-        <v>1036</v>
-      </c>
-      <c r="D83" t="s">
+      <c r="E83" t="s">
         <v>458</v>
       </c>
-      <c r="E83" t="s">
-        <v>459</v>
-      </c>
       <c r="F83" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="H83">
         <f t="shared" si="9"/>
@@ -6957,22 +6954,22 @@
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>1039</v>
+        <v>1036</v>
       </c>
       <c r="B84" t="s">
-        <v>1038</v>
+        <v>1035</v>
       </c>
       <c r="C84" t="s">
-        <v>1035</v>
+        <v>1032</v>
       </c>
       <c r="D84" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
       <c r="E84" t="s">
-        <v>1033</v>
+        <v>1030</v>
       </c>
       <c r="F84" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="H84">
         <f t="shared" si="9"/>
@@ -6989,25 +6986,25 @@
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
+        <v>386</v>
+      </c>
+      <c r="B85" t="s">
         <v>387</v>
       </c>
-      <c r="B85" t="s">
+      <c r="C85" t="s">
         <v>388</v>
       </c>
-      <c r="C85" t="s">
+      <c r="D85" t="s">
         <v>389</v>
       </c>
-      <c r="D85" t="s">
+      <c r="E85" t="s">
         <v>390</v>
       </c>
-      <c r="E85" t="s">
-        <v>391</v>
-      </c>
       <c r="F85" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="H85">
         <f t="shared" si="9"/>
@@ -7059,22 +7056,22 @@
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
+        <v>472</v>
+      </c>
+      <c r="B87" t="s">
         <v>473</v>
       </c>
-      <c r="B87" t="s">
+      <c r="C87" t="s">
         <v>474</v>
       </c>
-      <c r="C87" t="s">
+      <c r="D87" t="s">
+        <v>1037</v>
+      </c>
+      <c r="E87" t="s">
         <v>475</v>
       </c>
-      <c r="D87" t="s">
-        <v>1040</v>
-      </c>
-      <c r="E87" t="s">
-        <v>476</v>
-      </c>
       <c r="F87" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="H87">
         <f t="shared" si="9"/>
@@ -7091,22 +7088,22 @@
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>1042</v>
+        <v>1039</v>
       </c>
       <c r="B88" t="s">
+        <v>476</v>
+      </c>
+      <c r="C88" t="s">
+        <v>672</v>
+      </c>
+      <c r="D88" t="s">
+        <v>1038</v>
+      </c>
+      <c r="E88" t="s">
         <v>477</v>
       </c>
-      <c r="C88" t="s">
-        <v>675</v>
-      </c>
-      <c r="D88" t="s">
-        <v>1041</v>
-      </c>
-      <c r="E88" t="s">
-        <v>478</v>
-      </c>
       <c r="F88" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="H88">
         <f t="shared" si="9"/>
@@ -7123,22 +7120,22 @@
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
+        <v>311</v>
+      </c>
+      <c r="B89" t="s">
         <v>312</v>
       </c>
-      <c r="B89" t="s">
+      <c r="C89" t="s">
         <v>313</v>
       </c>
-      <c r="C89" t="s">
+      <c r="D89" t="s">
         <v>314</v>
       </c>
-      <c r="D89" t="s">
+      <c r="E89" t="s">
         <v>315</v>
       </c>
-      <c r="E89" t="s">
+      <c r="F89" t="s">
         <v>316</v>
-      </c>
-      <c r="F89" t="s">
-        <v>317</v>
       </c>
       <c r="G89" s="1" t="s">
         <v>138</v>
@@ -7193,22 +7190,22 @@
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
+        <v>483</v>
+      </c>
+      <c r="B91" t="s">
+        <v>1040</v>
+      </c>
+      <c r="C91" t="s">
         <v>484</v>
       </c>
-      <c r="B91" t="s">
-        <v>1043</v>
-      </c>
-      <c r="C91" t="s">
+      <c r="D91" t="s">
+        <v>1041</v>
+      </c>
+      <c r="E91" t="s">
         <v>485</v>
       </c>
-      <c r="D91" t="s">
-        <v>1044</v>
-      </c>
-      <c r="E91" t="s">
-        <v>486</v>
-      </c>
       <c r="F91" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="H91">
         <f t="shared" si="9"/>
@@ -7225,22 +7222,22 @@
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
+        <v>486</v>
+      </c>
+      <c r="B92" t="s">
         <v>487</v>
       </c>
-      <c r="B92" t="s">
+      <c r="C92" t="s">
         <v>488</v>
       </c>
-      <c r="C92" t="s">
+      <c r="D92" t="s">
         <v>489</v>
       </c>
-      <c r="D92" t="s">
+      <c r="E92" t="s">
         <v>490</v>
       </c>
-      <c r="E92" t="s">
-        <v>491</v>
-      </c>
       <c r="F92" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="H92">
         <f t="shared" si="9"/>
@@ -7257,22 +7254,22 @@
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
+        <v>491</v>
+      </c>
+      <c r="B93" t="s">
         <v>492</v>
       </c>
-      <c r="B93" t="s">
+      <c r="C93" t="s">
         <v>493</v>
       </c>
-      <c r="C93" t="s">
+      <c r="D93" t="s">
         <v>494</v>
       </c>
-      <c r="D93" t="s">
+      <c r="E93" t="s">
         <v>495</v>
       </c>
-      <c r="E93" t="s">
-        <v>496</v>
-      </c>
       <c r="F93" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="H93">
         <f t="shared" si="9"/>
@@ -7362,19 +7359,19 @@
         <v>300</v>
       </c>
       <c r="B96" t="s">
+        <v>228</v>
+      </c>
+      <c r="C96" t="s">
         <v>301</v>
       </c>
-      <c r="C96" t="s">
+      <c r="D96" t="s">
         <v>302</v>
       </c>
-      <c r="D96" t="s">
-        <v>303</v>
-      </c>
       <c r="E96" t="s">
+        <v>315</v>
+      </c>
+      <c r="F96" t="s">
         <v>316</v>
-      </c>
-      <c r="F96" t="s">
-        <v>317</v>
       </c>
       <c r="G96" s="1" t="s">
         <v>138</v>
@@ -7394,22 +7391,22 @@
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B97" t="s">
-        <v>562</v>
+        <v>1042</v>
       </c>
       <c r="C97" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="D97" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E97" t="s">
         <v>162</v>
       </c>
       <c r="F97" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="H97">
         <f t="shared" si="9"/>
@@ -7429,19 +7426,19 @@
         <v>162</v>
       </c>
       <c r="B98" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C98" t="s">
+        <v>561</v>
+      </c>
+      <c r="D98" t="s">
+        <v>562</v>
+      </c>
+      <c r="E98" t="s">
         <v>563</v>
       </c>
-      <c r="D98" t="s">
-        <v>564</v>
-      </c>
-      <c r="E98" t="s">
-        <v>565</v>
-      </c>
       <c r="F98" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="H98">
         <f t="shared" si="9"/>
@@ -7458,22 +7455,22 @@
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="B99" t="s">
-        <v>567</v>
+        <v>1043</v>
       </c>
       <c r="C99" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="D99" t="s">
         <v>151</v>
       </c>
       <c r="E99" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="F99" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="H99">
         <f t="shared" si="9"/>
@@ -7490,22 +7487,22 @@
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
+        <v>392</v>
+      </c>
+      <c r="B100" t="s">
         <v>393</v>
       </c>
-      <c r="B100" t="s">
+      <c r="C100" t="s">
         <v>394</v>
       </c>
-      <c r="C100" t="s">
+      <c r="D100" t="s">
         <v>395</v>
       </c>
-      <c r="D100" t="s">
+      <c r="E100" t="s">
         <v>396</v>
       </c>
-      <c r="E100" t="s">
-        <v>397</v>
-      </c>
       <c r="F100" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="G100" s="1" t="s">
         <v>275</v>
@@ -7540,7 +7537,7 @@
         <v>30</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="G101" s="1" t="s">
         <v>46</v>
@@ -7569,7 +7566,7 @@
         <v>66</v>
       </c>
       <c r="D102" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E102" t="s">
         <v>67</v>
@@ -7595,22 +7592,22 @@
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
+        <v>410</v>
+      </c>
+      <c r="B103" t="s">
+        <v>528</v>
+      </c>
+      <c r="C103" t="s">
+        <v>409</v>
+      </c>
+      <c r="D103" t="s">
         <v>411</v>
       </c>
-      <c r="B103" t="s">
+      <c r="E103" t="s">
         <v>529</v>
       </c>
-      <c r="C103" t="s">
-        <v>410</v>
-      </c>
-      <c r="D103" t="s">
-        <v>412</v>
-      </c>
-      <c r="E103" t="s">
-        <v>530</v>
-      </c>
       <c r="F103" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="H103">
         <f t="shared" si="9"/>
@@ -7627,22 +7624,22 @@
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
+        <v>530</v>
+      </c>
+      <c r="B104" t="s">
         <v>531</v>
       </c>
-      <c r="B104" t="s">
+      <c r="C104" t="s">
         <v>532</v>
       </c>
-      <c r="C104" t="s">
+      <c r="D104" t="s">
         <v>533</v>
       </c>
-      <c r="D104" t="s">
+      <c r="E104" t="s">
         <v>534</v>
       </c>
-      <c r="E104" t="s">
-        <v>535</v>
-      </c>
       <c r="F104" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="H104">
         <f t="shared" si="9"/>
@@ -7659,22 +7656,22 @@
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B105" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C105" t="s">
+        <v>535</v>
+      </c>
+      <c r="D105" t="s">
         <v>536</v>
       </c>
-      <c r="D105" t="s">
+      <c r="E105" t="s">
         <v>537</v>
       </c>
-      <c r="E105" t="s">
-        <v>538</v>
-      </c>
       <c r="F105" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="H105">
         <f t="shared" si="9"/>
@@ -7691,22 +7688,22 @@
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
+        <v>538</v>
+      </c>
+      <c r="B106" t="s">
         <v>539</v>
       </c>
-      <c r="B106" t="s">
+      <c r="C106" t="s">
         <v>540</v>
       </c>
-      <c r="C106" t="s">
+      <c r="D106" t="s">
         <v>541</v>
       </c>
-      <c r="D106" t="s">
+      <c r="E106" t="s">
         <v>542</v>
       </c>
-      <c r="E106" t="s">
-        <v>543</v>
-      </c>
       <c r="F106" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="H106">
         <f t="shared" si="9"/>
@@ -7723,22 +7720,22 @@
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
+        <v>543</v>
+      </c>
+      <c r="B107" t="s">
         <v>544</v>
       </c>
-      <c r="B107" t="s">
+      <c r="C107" t="s">
         <v>545</v>
       </c>
-      <c r="C107" t="s">
+      <c r="D107" t="s">
         <v>546</v>
       </c>
-      <c r="D107" t="s">
+      <c r="E107" t="s">
         <v>547</v>
       </c>
-      <c r="E107" t="s">
-        <v>548</v>
-      </c>
       <c r="F107" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="H107">
         <f t="shared" si="9"/>
@@ -7895,22 +7892,22 @@
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
+        <v>594</v>
+      </c>
+      <c r="B112" t="s">
+        <v>595</v>
+      </c>
+      <c r="C112" t="s">
+        <v>596</v>
+      </c>
+      <c r="D112" t="s">
         <v>597</v>
       </c>
-      <c r="B112" t="s">
+      <c r="E112" t="s">
         <v>598</v>
       </c>
-      <c r="C112" t="s">
-        <v>599</v>
-      </c>
-      <c r="D112" t="s">
-        <v>600</v>
-      </c>
-      <c r="E112" t="s">
-        <v>601</v>
-      </c>
       <c r="F112" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="H112">
         <f t="shared" si="9"/>
@@ -7927,22 +7924,22 @@
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
+        <v>511</v>
+      </c>
+      <c r="B113" t="s">
+        <v>462</v>
+      </c>
+      <c r="C113" t="s">
         <v>512</v>
       </c>
-      <c r="B113" t="s">
-        <v>463</v>
-      </c>
-      <c r="C113" t="s">
+      <c r="D113" t="s">
         <v>513</v>
       </c>
-      <c r="D113" t="s">
+      <c r="E113" t="s">
         <v>514</v>
       </c>
-      <c r="E113" t="s">
-        <v>515</v>
-      </c>
       <c r="F113" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="H113">
         <f t="shared" si="9"/>
@@ -7959,22 +7956,22 @@
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
+        <v>599</v>
+      </c>
+      <c r="B114" t="s">
+        <v>600</v>
+      </c>
+      <c r="C114" t="s">
+        <v>601</v>
+      </c>
+      <c r="D114" t="s">
         <v>602</v>
       </c>
-      <c r="B114" t="s">
+      <c r="E114" t="s">
         <v>603</v>
       </c>
-      <c r="C114" t="s">
+      <c r="F114" t="s">
         <v>604</v>
-      </c>
-      <c r="D114" t="s">
-        <v>605</v>
-      </c>
-      <c r="E114" t="s">
-        <v>606</v>
-      </c>
-      <c r="F114" t="s">
-        <v>607</v>
       </c>
       <c r="H114">
         <f t="shared" si="9"/>
@@ -7991,22 +7988,22 @@
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
+        <v>397</v>
+      </c>
+      <c r="B115" t="s">
         <v>398</v>
       </c>
-      <c r="B115" t="s">
+      <c r="C115" t="s">
         <v>399</v>
       </c>
-      <c r="C115" t="s">
+      <c r="D115" t="s">
         <v>400</v>
       </c>
-      <c r="D115" t="s">
-        <v>401</v>
-      </c>
       <c r="E115" s="7" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="F115" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="G115" s="1" t="s">
         <v>87</v>
@@ -8026,22 +8023,22 @@
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
+        <v>548</v>
+      </c>
+      <c r="B116" t="s">
         <v>549</v>
       </c>
-      <c r="B116" t="s">
+      <c r="C116" t="s">
+        <v>411</v>
+      </c>
+      <c r="D116" t="s">
         <v>550</v>
       </c>
-      <c r="C116" t="s">
-        <v>412</v>
-      </c>
-      <c r="D116" t="s">
-        <v>551</v>
-      </c>
       <c r="E116" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="F116" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="H116">
         <f t="shared" si="9"/>
@@ -8058,22 +8055,22 @@
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
+        <v>551</v>
+      </c>
+      <c r="B117" t="s">
         <v>552</v>
       </c>
-      <c r="B117" t="s">
+      <c r="C117" t="s">
         <v>553</v>
       </c>
-      <c r="C117" t="s">
+      <c r="D117" t="s">
         <v>554</v>
       </c>
-      <c r="D117" t="s">
+      <c r="E117" t="s">
         <v>555</v>
       </c>
-      <c r="E117" t="s">
-        <v>556</v>
-      </c>
       <c r="F117" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="H117">
         <f t="shared" si="9"/>
@@ -8090,22 +8087,22 @@
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
+        <v>556</v>
+      </c>
+      <c r="B118" t="s">
         <v>557</v>
       </c>
-      <c r="B118" t="s">
+      <c r="C118" t="s">
         <v>558</v>
       </c>
-      <c r="C118" t="s">
+      <c r="D118" t="s">
         <v>559</v>
       </c>
-      <c r="D118" t="s">
-        <v>560</v>
-      </c>
       <c r="E118" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="F118" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="H118">
         <f t="shared" si="9"/>
@@ -8192,22 +8189,22 @@
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
+        <v>303</v>
+      </c>
+      <c r="B121" t="s">
         <v>304</v>
       </c>
-      <c r="B121" t="s">
+      <c r="C121" t="s">
         <v>305</v>
       </c>
-      <c r="C121" t="s">
+      <c r="D121" t="s">
         <v>306</v>
       </c>
-      <c r="D121" t="s">
-        <v>307</v>
-      </c>
       <c r="E121" t="s">
+        <v>315</v>
+      </c>
+      <c r="F121" t="s">
         <v>316</v>
-      </c>
-      <c r="F121" t="s">
-        <v>317</v>
       </c>
       <c r="G121" s="1" t="s">
         <v>138</v>
@@ -8227,22 +8224,22 @@
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
+        <v>584</v>
+      </c>
+      <c r="B122" t="s">
+        <v>585</v>
+      </c>
+      <c r="C122" t="s">
+        <v>586</v>
+      </c>
+      <c r="D122" t="s">
         <v>587</v>
       </c>
-      <c r="B122" t="s">
+      <c r="E122" t="s">
         <v>588</v>
       </c>
-      <c r="C122" t="s">
-        <v>589</v>
-      </c>
-      <c r="D122" t="s">
-        <v>590</v>
-      </c>
-      <c r="E122" t="s">
-        <v>591</v>
-      </c>
       <c r="F122" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="H122">
         <f t="shared" si="9"/>
@@ -8259,10 +8256,10 @@
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
+        <v>358</v>
+      </c>
+      <c r="B123" t="s">
         <v>359</v>
-      </c>
-      <c r="B123" t="s">
-        <v>360</v>
       </c>
       <c r="C123" t="s">
         <v>283</v>
@@ -8271,10 +8268,10 @@
         <v>284</v>
       </c>
       <c r="E123" t="s">
+        <v>315</v>
+      </c>
+      <c r="F123" t="s">
         <v>316</v>
-      </c>
-      <c r="F123" t="s">
-        <v>317</v>
       </c>
       <c r="G123" s="1" t="s">
         <v>138</v>
@@ -8294,25 +8291,25 @@
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="B124" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C124" t="s">
+        <v>401</v>
+      </c>
+      <c r="D124" t="s">
         <v>402</v>
       </c>
-      <c r="D124" t="s">
-        <v>403</v>
-      </c>
       <c r="E124" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="F124" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="G124" s="1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="H124">
         <f t="shared" ref="H124:H187" si="12">INT(J124/3)</f>
@@ -8399,22 +8396,22 @@
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
+        <v>589</v>
+      </c>
+      <c r="B127" t="s">
+        <v>590</v>
+      </c>
+      <c r="C127" t="s">
+        <v>591</v>
+      </c>
+      <c r="D127" t="s">
         <v>592</v>
       </c>
-      <c r="B127" t="s">
+      <c r="E127" t="s">
         <v>593</v>
       </c>
-      <c r="C127" t="s">
-        <v>594</v>
-      </c>
-      <c r="D127" t="s">
-        <v>595</v>
-      </c>
-      <c r="E127" t="s">
-        <v>596</v>
-      </c>
       <c r="F127" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="H127">
         <f t="shared" si="12"/>
@@ -8434,19 +8431,19 @@
         <v>285</v>
       </c>
       <c r="B128" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C128" t="s">
         <v>286</v>
       </c>
       <c r="D128" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E128" t="s">
+        <v>315</v>
+      </c>
+      <c r="F128" t="s">
         <v>316</v>
-      </c>
-      <c r="F128" t="s">
-        <v>317</v>
       </c>
       <c r="G128" s="1" t="s">
         <v>138</v>
@@ -8478,10 +8475,10 @@
         <v>299</v>
       </c>
       <c r="E129" t="s">
+        <v>315</v>
+      </c>
+      <c r="F129" t="s">
         <v>316</v>
-      </c>
-      <c r="F129" t="s">
-        <v>317</v>
       </c>
       <c r="G129" s="1" t="s">
         <v>138</v>
@@ -8606,22 +8603,22 @@
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
+        <v>433</v>
+      </c>
+      <c r="B133" t="s">
         <v>434</v>
       </c>
-      <c r="B133" t="s">
+      <c r="C133" t="s">
         <v>435</v>
       </c>
-      <c r="C133" t="s">
+      <c r="D133" t="s">
         <v>436</v>
       </c>
-      <c r="D133" t="s">
+      <c r="E133" t="s">
         <v>437</v>
       </c>
-      <c r="E133" t="s">
+      <c r="F133" s="1" t="s">
         <v>438</v>
-      </c>
-      <c r="F133" s="1" t="s">
-        <v>439</v>
       </c>
       <c r="G133" s="1" t="s">
         <v>186</v>
@@ -8644,19 +8641,19 @@
         <v>198</v>
       </c>
       <c r="B134" t="s">
+        <v>439</v>
+      </c>
+      <c r="C134" t="s">
         <v>440</v>
       </c>
-      <c r="C134" t="s">
+      <c r="D134" t="s">
         <v>441</v>
       </c>
-      <c r="D134" t="s">
+      <c r="E134" t="s">
         <v>442</v>
       </c>
-      <c r="E134" t="s">
+      <c r="F134" t="s">
         <v>443</v>
-      </c>
-      <c r="F134" t="s">
-        <v>444</v>
       </c>
       <c r="G134" s="1" t="s">
         <v>138</v>
@@ -8676,25 +8673,25 @@
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
+        <v>444</v>
+      </c>
+      <c r="B135" t="s">
         <v>445</v>
       </c>
-      <c r="B135" t="s">
+      <c r="C135" t="s">
         <v>446</v>
       </c>
-      <c r="C135" t="s">
+      <c r="D135" t="s">
         <v>447</v>
       </c>
-      <c r="D135" t="s">
+      <c r="E135" t="s">
         <v>448</v>
       </c>
-      <c r="E135" t="s">
-        <v>449</v>
-      </c>
       <c r="F135" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="G135" s="1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="H135">
         <f t="shared" si="12"/>
@@ -8711,25 +8708,25 @@
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
+        <v>449</v>
+      </c>
+      <c r="B136" t="s">
         <v>450</v>
       </c>
-      <c r="B136" t="s">
+      <c r="C136" t="s">
         <v>451</v>
       </c>
-      <c r="C136" t="s">
+      <c r="D136" t="s">
         <v>452</v>
       </c>
-      <c r="D136" t="s">
+      <c r="E136" t="s">
         <v>453</v>
       </c>
-      <c r="E136" t="s">
+      <c r="F136" t="s">
+        <v>438</v>
+      </c>
+      <c r="G136" s="1" t="s">
         <v>454</v>
-      </c>
-      <c r="F136" t="s">
-        <v>439</v>
-      </c>
-      <c r="G136" s="1" t="s">
-        <v>455</v>
       </c>
       <c r="H136">
         <f t="shared" si="12"/>
@@ -8746,22 +8743,22 @@
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="B137" t="s">
         <v>232</v>
       </c>
       <c r="C137" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="D137" t="s">
         <v>231</v>
       </c>
       <c r="E137" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="F137" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="H137">
         <f t="shared" si="12"/>
@@ -8790,10 +8787,10 @@
         <v>43</v>
       </c>
       <c r="E138" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="G138" s="1" t="s">
         <v>47</v>
@@ -8813,22 +8810,22 @@
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
+        <v>666</v>
+      </c>
+      <c r="B139" t="s">
+        <v>667</v>
+      </c>
+      <c r="C139" t="s">
+        <v>668</v>
+      </c>
+      <c r="D139" t="s">
         <v>669</v>
       </c>
-      <c r="B139" t="s">
+      <c r="E139" t="s">
         <v>670</v>
       </c>
-      <c r="C139" t="s">
-        <v>671</v>
-      </c>
-      <c r="D139" t="s">
-        <v>672</v>
-      </c>
-      <c r="E139" t="s">
-        <v>673</v>
-      </c>
       <c r="F139" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="G139" s="1"/>
       <c r="H139">
@@ -8846,22 +8843,22 @@
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
+        <v>651</v>
+      </c>
+      <c r="B140" t="s">
+        <v>652</v>
+      </c>
+      <c r="C140" t="s">
+        <v>653</v>
+      </c>
+      <c r="D140" t="s">
         <v>654</v>
       </c>
-      <c r="B140" t="s">
+      <c r="E140" t="s">
         <v>655</v>
       </c>
-      <c r="C140" t="s">
-        <v>656</v>
-      </c>
-      <c r="D140" t="s">
-        <v>657</v>
-      </c>
-      <c r="E140" t="s">
-        <v>658</v>
-      </c>
       <c r="F140" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="H140">
         <f t="shared" si="12"/>
@@ -8878,22 +8875,22 @@
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
+        <v>656</v>
+      </c>
+      <c r="B141" t="s">
+        <v>657</v>
+      </c>
+      <c r="C141" t="s">
+        <v>658</v>
+      </c>
+      <c r="D141" t="s">
         <v>659</v>
       </c>
-      <c r="B141" t="s">
+      <c r="E141" t="s">
         <v>660</v>
       </c>
-      <c r="C141" t="s">
-        <v>661</v>
-      </c>
-      <c r="D141" t="s">
-        <v>662</v>
-      </c>
-      <c r="E141" t="s">
-        <v>663</v>
-      </c>
       <c r="F141" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="H141">
         <f t="shared" si="12"/>
@@ -8910,22 +8907,22 @@
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
+        <v>661</v>
+      </c>
+      <c r="B142" t="s">
+        <v>662</v>
+      </c>
+      <c r="C142" t="s">
+        <v>663</v>
+      </c>
+      <c r="D142" t="s">
         <v>664</v>
       </c>
-      <c r="B142" t="s">
+      <c r="E142" t="s">
         <v>665</v>
       </c>
-      <c r="C142" t="s">
-        <v>666</v>
-      </c>
-      <c r="D142" t="s">
-        <v>667</v>
-      </c>
-      <c r="E142" t="s">
-        <v>668</v>
-      </c>
       <c r="F142" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="H142">
         <f t="shared" si="12"/>
@@ -8942,22 +8939,22 @@
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
+        <v>671</v>
+      </c>
+      <c r="B143" t="s">
+        <v>672</v>
+      </c>
+      <c r="C143" t="s">
+        <v>673</v>
+      </c>
+      <c r="D143" t="s">
         <v>674</v>
       </c>
-      <c r="B143" t="s">
+      <c r="E143" t="s">
         <v>675</v>
       </c>
-      <c r="C143" t="s">
-        <v>676</v>
-      </c>
-      <c r="D143" t="s">
-        <v>677</v>
-      </c>
-      <c r="E143" t="s">
-        <v>678</v>
-      </c>
       <c r="F143" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="H143">
         <f t="shared" si="12"/>
@@ -8974,22 +8971,22 @@
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="B144" t="s">
         <v>228</v>
       </c>
       <c r="C144" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="D144" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="E144" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="F144" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="H144">
         <f t="shared" si="12"/>
@@ -9006,22 +9003,22 @@
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
+        <v>680</v>
+      </c>
+      <c r="B145" t="s">
+        <v>681</v>
+      </c>
+      <c r="C145" t="s">
+        <v>682</v>
+      </c>
+      <c r="D145" t="s">
         <v>683</v>
       </c>
-      <c r="B145" t="s">
+      <c r="E145" t="s">
         <v>684</v>
       </c>
-      <c r="C145" t="s">
-        <v>685</v>
-      </c>
-      <c r="D145" t="s">
-        <v>686</v>
-      </c>
-      <c r="E145" t="s">
-        <v>687</v>
-      </c>
       <c r="F145" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="H145">
         <f t="shared" si="12"/>
@@ -9038,22 +9035,22 @@
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
+        <v>685</v>
+      </c>
+      <c r="B146" t="s">
+        <v>686</v>
+      </c>
+      <c r="C146" t="s">
+        <v>687</v>
+      </c>
+      <c r="D146" t="s">
         <v>688</v>
       </c>
-      <c r="B146" t="s">
+      <c r="E146" t="s">
         <v>689</v>
       </c>
-      <c r="C146" t="s">
-        <v>690</v>
-      </c>
-      <c r="D146" t="s">
-        <v>691</v>
-      </c>
-      <c r="E146" t="s">
-        <v>692</v>
-      </c>
       <c r="F146" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="H146">
         <f t="shared" si="12"/>
@@ -9070,22 +9067,22 @@
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
+        <v>690</v>
+      </c>
+      <c r="B147" t="s">
+        <v>624</v>
+      </c>
+      <c r="C147" t="s">
+        <v>691</v>
+      </c>
+      <c r="D147" t="s">
+        <v>692</v>
+      </c>
+      <c r="E147" t="s">
         <v>693</v>
       </c>
-      <c r="B147" t="s">
-        <v>627</v>
-      </c>
-      <c r="C147" t="s">
-        <v>694</v>
-      </c>
-      <c r="D147" t="s">
-        <v>695</v>
-      </c>
-      <c r="E147" t="s">
-        <v>696</v>
-      </c>
       <c r="F147" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="H147">
         <f t="shared" si="12"/>
@@ -9102,22 +9099,22 @@
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
+        <v>694</v>
+      </c>
+      <c r="B148" t="s">
+        <v>695</v>
+      </c>
+      <c r="C148" t="s">
+        <v>696</v>
+      </c>
+      <c r="D148" t="s">
         <v>697</v>
       </c>
-      <c r="B148" t="s">
+      <c r="E148" t="s">
         <v>698</v>
       </c>
-      <c r="C148" t="s">
-        <v>699</v>
-      </c>
-      <c r="D148" t="s">
-        <v>700</v>
-      </c>
-      <c r="E148" t="s">
-        <v>701</v>
-      </c>
       <c r="F148" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="H148">
         <f t="shared" si="12"/>
@@ -9134,22 +9131,22 @@
     </row>
     <row r="149" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
+        <v>699</v>
+      </c>
+      <c r="B149" t="s">
+        <v>700</v>
+      </c>
+      <c r="C149" t="s">
+        <v>701</v>
+      </c>
+      <c r="D149" t="s">
         <v>702</v>
       </c>
-      <c r="B149" t="s">
+      <c r="E149" t="s">
         <v>703</v>
       </c>
-      <c r="C149" t="s">
-        <v>704</v>
-      </c>
-      <c r="D149" t="s">
-        <v>705</v>
-      </c>
-      <c r="E149" t="s">
-        <v>706</v>
-      </c>
       <c r="F149" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="H149">
         <f t="shared" si="12"/>
@@ -9166,22 +9163,22 @@
     </row>
     <row r="150" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
+        <v>704</v>
+      </c>
+      <c r="B150" t="s">
+        <v>705</v>
+      </c>
+      <c r="C150" t="s">
+        <v>706</v>
+      </c>
+      <c r="D150" t="s">
         <v>707</v>
       </c>
-      <c r="B150" t="s">
+      <c r="E150" t="s">
         <v>708</v>
       </c>
-      <c r="C150" t="s">
-        <v>709</v>
-      </c>
-      <c r="D150" t="s">
-        <v>710</v>
-      </c>
-      <c r="E150" t="s">
-        <v>711</v>
-      </c>
       <c r="F150" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="H150">
         <f t="shared" si="12"/>
@@ -9198,22 +9195,22 @@
     </row>
     <row r="151" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
+        <v>709</v>
+      </c>
+      <c r="B151" t="s">
+        <v>710</v>
+      </c>
+      <c r="C151" t="s">
+        <v>711</v>
+      </c>
+      <c r="D151" t="s">
         <v>712</v>
       </c>
-      <c r="B151" t="s">
+      <c r="E151" t="s">
         <v>713</v>
       </c>
-      <c r="C151" t="s">
-        <v>714</v>
-      </c>
-      <c r="D151" t="s">
-        <v>715</v>
-      </c>
-      <c r="E151" t="s">
-        <v>716</v>
-      </c>
       <c r="F151" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="H151">
         <f t="shared" si="12"/>
@@ -9230,22 +9227,22 @@
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
+        <v>714</v>
+      </c>
+      <c r="B152" t="s">
+        <v>715</v>
+      </c>
+      <c r="C152" t="s">
+        <v>716</v>
+      </c>
+      <c r="D152" t="s">
         <v>717</v>
       </c>
-      <c r="B152" t="s">
+      <c r="E152" t="s">
         <v>718</v>
       </c>
-      <c r="C152" t="s">
-        <v>719</v>
-      </c>
-      <c r="D152" t="s">
-        <v>720</v>
-      </c>
-      <c r="E152" t="s">
-        <v>721</v>
-      </c>
       <c r="F152" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="H152">
         <f t="shared" si="12"/>
@@ -9262,22 +9259,22 @@
     </row>
     <row r="153" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
+        <v>719</v>
+      </c>
+      <c r="B153" t="s">
+        <v>720</v>
+      </c>
+      <c r="C153" t="s">
+        <v>721</v>
+      </c>
+      <c r="D153" t="s">
         <v>722</v>
-      </c>
-      <c r="B153" t="s">
-        <v>723</v>
-      </c>
-      <c r="C153" t="s">
-        <v>724</v>
-      </c>
-      <c r="D153" t="s">
-        <v>725</v>
       </c>
       <c r="E153" t="s">
         <v>246</v>
       </c>
       <c r="F153" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="H153">
         <f t="shared" si="12"/>
@@ -9294,22 +9291,22 @@
     </row>
     <row r="154" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
+        <v>723</v>
+      </c>
+      <c r="B154" t="s">
+        <v>724</v>
+      </c>
+      <c r="C154" t="s">
+        <v>580</v>
+      </c>
+      <c r="D154" t="s">
+        <v>725</v>
+      </c>
+      <c r="E154" t="s">
         <v>726</v>
       </c>
-      <c r="B154" t="s">
-        <v>727</v>
-      </c>
-      <c r="C154" t="s">
-        <v>583</v>
-      </c>
-      <c r="D154" t="s">
-        <v>728</v>
-      </c>
-      <c r="E154" t="s">
-        <v>729</v>
-      </c>
       <c r="F154" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="H154">
         <f t="shared" si="12"/>
@@ -9326,22 +9323,22 @@
     </row>
     <row r="155" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
+        <v>727</v>
+      </c>
+      <c r="B155" t="s">
+        <v>728</v>
+      </c>
+      <c r="C155" t="s">
+        <v>729</v>
+      </c>
+      <c r="D155" t="s">
         <v>730</v>
       </c>
-      <c r="B155" t="s">
+      <c r="E155" t="s">
         <v>731</v>
       </c>
-      <c r="C155" t="s">
-        <v>732</v>
-      </c>
-      <c r="D155" t="s">
-        <v>733</v>
-      </c>
-      <c r="E155" t="s">
-        <v>734</v>
-      </c>
       <c r="F155" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="H155">
         <f t="shared" si="12"/>
@@ -9358,22 +9355,22 @@
     </row>
     <row r="156" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
+        <v>732</v>
+      </c>
+      <c r="B156" t="s">
+        <v>733</v>
+      </c>
+      <c r="C156" t="s">
+        <v>734</v>
+      </c>
+      <c r="D156" t="s">
         <v>735</v>
       </c>
-      <c r="B156" t="s">
+      <c r="E156" t="s">
         <v>736</v>
       </c>
-      <c r="C156" t="s">
-        <v>737</v>
-      </c>
-      <c r="D156" t="s">
-        <v>738</v>
-      </c>
-      <c r="E156" t="s">
-        <v>739</v>
-      </c>
       <c r="F156" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="H156">
         <f t="shared" si="12"/>
@@ -9390,22 +9387,22 @@
     </row>
     <row r="157" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
+        <v>737</v>
+      </c>
+      <c r="B157" t="s">
+        <v>738</v>
+      </c>
+      <c r="C157" t="s">
+        <v>739</v>
+      </c>
+      <c r="D157" t="s">
         <v>740</v>
       </c>
-      <c r="B157" t="s">
+      <c r="E157" t="s">
         <v>741</v>
       </c>
-      <c r="C157" t="s">
-        <v>742</v>
-      </c>
-      <c r="D157" t="s">
-        <v>743</v>
-      </c>
-      <c r="E157" t="s">
-        <v>744</v>
-      </c>
       <c r="F157" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="H157">
         <f t="shared" si="12"/>
@@ -9422,22 +9419,22 @@
     </row>
     <row r="158" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
+        <v>742</v>
+      </c>
+      <c r="B158" t="s">
+        <v>743</v>
+      </c>
+      <c r="C158" t="s">
+        <v>744</v>
+      </c>
+      <c r="D158" t="s">
         <v>745</v>
       </c>
-      <c r="B158" t="s">
+      <c r="E158" t="s">
         <v>746</v>
       </c>
-      <c r="C158" t="s">
-        <v>747</v>
-      </c>
-      <c r="D158" t="s">
-        <v>748</v>
-      </c>
-      <c r="E158" t="s">
-        <v>749</v>
-      </c>
       <c r="F158" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="H158">
         <f t="shared" si="12"/>
@@ -9454,22 +9451,22 @@
     </row>
     <row r="159" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
+        <v>747</v>
+      </c>
+      <c r="B159" t="s">
+        <v>748</v>
+      </c>
+      <c r="C159" t="s">
+        <v>749</v>
+      </c>
+      <c r="D159" t="s">
         <v>750</v>
       </c>
-      <c r="B159" t="s">
-        <v>751</v>
-      </c>
-      <c r="C159" t="s">
-        <v>752</v>
-      </c>
-      <c r="D159" t="s">
-        <v>753</v>
-      </c>
       <c r="E159" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="F159" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="H159">
         <f t="shared" si="12"/>
@@ -9486,22 +9483,22 @@
     </row>
     <row r="160" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
+        <v>751</v>
+      </c>
+      <c r="B160" t="s">
+        <v>752</v>
+      </c>
+      <c r="C160" t="s">
+        <v>753</v>
+      </c>
+      <c r="D160" t="s">
         <v>754</v>
       </c>
-      <c r="B160" t="s">
+      <c r="E160" t="s">
         <v>755</v>
       </c>
-      <c r="C160" t="s">
-        <v>756</v>
-      </c>
-      <c r="D160" t="s">
-        <v>757</v>
-      </c>
-      <c r="E160" t="s">
-        <v>758</v>
-      </c>
       <c r="F160" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="H160">
         <f t="shared" si="12"/>
@@ -9518,22 +9515,22 @@
     </row>
     <row r="161" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
+        <v>756</v>
+      </c>
+      <c r="B161" t="s">
+        <v>757</v>
+      </c>
+      <c r="C161" t="s">
+        <v>758</v>
+      </c>
+      <c r="D161" t="s">
         <v>759</v>
       </c>
-      <c r="B161" t="s">
+      <c r="E161" t="s">
         <v>760</v>
       </c>
-      <c r="C161" t="s">
-        <v>761</v>
-      </c>
-      <c r="D161" t="s">
-        <v>762</v>
-      </c>
-      <c r="E161" t="s">
-        <v>763</v>
-      </c>
       <c r="F161" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="H161">
         <f t="shared" si="12"/>
@@ -9550,22 +9547,22 @@
     </row>
     <row r="162" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
+        <v>761</v>
+      </c>
+      <c r="B162" t="s">
+        <v>762</v>
+      </c>
+      <c r="C162" t="s">
+        <v>763</v>
+      </c>
+      <c r="D162" t="s">
         <v>764</v>
       </c>
-      <c r="B162" t="s">
+      <c r="E162" t="s">
         <v>765</v>
       </c>
-      <c r="C162" t="s">
-        <v>766</v>
-      </c>
-      <c r="D162" t="s">
-        <v>767</v>
-      </c>
-      <c r="E162" t="s">
-        <v>768</v>
-      </c>
       <c r="F162" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="H162">
         <f t="shared" si="12"/>
@@ -9582,22 +9579,22 @@
     </row>
     <row r="163" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
       <c r="B163" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="C163" t="s">
         <v>291</v>
       </c>
       <c r="D163" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="E163" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
       <c r="F163" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="H163">
         <f t="shared" si="12"/>
@@ -9614,22 +9611,22 @@
     </row>
     <row r="164" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
+        <v>751</v>
+      </c>
+      <c r="B164" t="s">
+        <v>752</v>
+      </c>
+      <c r="C164" t="s">
+        <v>753</v>
+      </c>
+      <c r="D164" t="s">
         <v>754</v>
       </c>
-      <c r="B164" t="s">
+      <c r="E164" t="s">
         <v>755</v>
       </c>
-      <c r="C164" t="s">
-        <v>756</v>
-      </c>
-      <c r="D164" t="s">
-        <v>757</v>
-      </c>
-      <c r="E164" t="s">
-        <v>758</v>
-      </c>
       <c r="F164" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="H164">
         <f t="shared" si="12"/>
@@ -9646,22 +9643,22 @@
     </row>
     <row r="165" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
+        <v>770</v>
+      </c>
+      <c r="B165" t="s">
+        <v>771</v>
+      </c>
+      <c r="C165" t="s">
+        <v>772</v>
+      </c>
+      <c r="D165" t="s">
         <v>773</v>
       </c>
-      <c r="B165" t="s">
+      <c r="E165" t="s">
         <v>774</v>
       </c>
-      <c r="C165" t="s">
-        <v>775</v>
-      </c>
-      <c r="D165" t="s">
-        <v>776</v>
-      </c>
-      <c r="E165" t="s">
-        <v>777</v>
-      </c>
       <c r="F165" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="H165">
         <f t="shared" si="12"/>
@@ -9678,22 +9675,22 @@
     </row>
     <row r="166" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B166" t="s">
+        <v>775</v>
+      </c>
+      <c r="C166" t="s">
+        <v>776</v>
+      </c>
+      <c r="D166" t="s">
+        <v>777</v>
+      </c>
+      <c r="E166" t="s">
         <v>778</v>
       </c>
-      <c r="C166" t="s">
-        <v>779</v>
-      </c>
-      <c r="D166" t="s">
-        <v>780</v>
-      </c>
-      <c r="E166" t="s">
-        <v>781</v>
-      </c>
       <c r="F166" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="H166">
         <f t="shared" si="12"/>
@@ -9710,22 +9707,22 @@
     </row>
     <row r="167" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
+        <v>779</v>
+      </c>
+      <c r="B167" t="s">
+        <v>780</v>
+      </c>
+      <c r="C167" t="s">
+        <v>781</v>
+      </c>
+      <c r="D167" t="s">
         <v>782</v>
       </c>
-      <c r="B167" t="s">
+      <c r="E167" t="s">
         <v>783</v>
       </c>
-      <c r="C167" t="s">
-        <v>784</v>
-      </c>
-      <c r="D167" t="s">
-        <v>785</v>
-      </c>
-      <c r="E167" t="s">
-        <v>786</v>
-      </c>
       <c r="F167" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="H167">
         <f t="shared" si="12"/>
@@ -9742,22 +9739,22 @@
     </row>
     <row r="168" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
+        <v>784</v>
+      </c>
+      <c r="B168" t="s">
+        <v>785</v>
+      </c>
+      <c r="C168" t="s">
+        <v>786</v>
+      </c>
+      <c r="D168" t="s">
         <v>787</v>
       </c>
-      <c r="B168" t="s">
+      <c r="E168" t="s">
         <v>788</v>
       </c>
-      <c r="C168" t="s">
-        <v>789</v>
-      </c>
-      <c r="D168" t="s">
-        <v>790</v>
-      </c>
-      <c r="E168" t="s">
-        <v>791</v>
-      </c>
       <c r="F168" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="H168">
         <f t="shared" si="12"/>
@@ -9774,22 +9771,22 @@
     </row>
     <row r="169" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
+        <v>789</v>
+      </c>
+      <c r="B169" t="s">
+        <v>512</v>
+      </c>
+      <c r="C169" t="s">
+        <v>790</v>
+      </c>
+      <c r="D169" t="s">
+        <v>791</v>
+      </c>
+      <c r="E169" t="s">
         <v>792</v>
       </c>
-      <c r="B169" t="s">
-        <v>513</v>
-      </c>
-      <c r="C169" t="s">
-        <v>793</v>
-      </c>
-      <c r="D169" t="s">
-        <v>794</v>
-      </c>
-      <c r="E169" t="s">
-        <v>795</v>
-      </c>
       <c r="F169" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="H169">
         <f t="shared" si="12"/>
@@ -9806,22 +9803,22 @@
     </row>
     <row r="170" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
+        <v>793</v>
+      </c>
+      <c r="B170" t="s">
+        <v>794</v>
+      </c>
+      <c r="C170" t="s">
+        <v>795</v>
+      </c>
+      <c r="D170" t="s">
         <v>796</v>
       </c>
-      <c r="B170" t="s">
+      <c r="E170" t="s">
         <v>797</v>
       </c>
-      <c r="C170" t="s">
-        <v>798</v>
-      </c>
-      <c r="D170" t="s">
-        <v>799</v>
-      </c>
-      <c r="E170" t="s">
-        <v>800</v>
-      </c>
       <c r="F170" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="H170">
         <f t="shared" si="12"/>
@@ -9838,22 +9835,22 @@
     </row>
     <row r="171" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
+        <v>798</v>
+      </c>
+      <c r="B171" t="s">
+        <v>799</v>
+      </c>
+      <c r="C171" t="s">
+        <v>800</v>
+      </c>
+      <c r="D171" t="s">
         <v>801</v>
       </c>
-      <c r="B171" t="s">
+      <c r="E171" t="s">
         <v>802</v>
       </c>
-      <c r="C171" t="s">
-        <v>803</v>
-      </c>
-      <c r="D171" t="s">
-        <v>804</v>
-      </c>
-      <c r="E171" t="s">
-        <v>805</v>
-      </c>
       <c r="F171" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="H171">
         <f t="shared" si="12"/>
@@ -9870,22 +9867,22 @@
     </row>
     <row r="172" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B172" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="C172" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="D172" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
       <c r="E172" t="s">
         <v>103</v>
       </c>
       <c r="F172" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="H172">
         <f t="shared" si="12"/>
@@ -9902,22 +9899,22 @@
     </row>
     <row r="173" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
+        <v>806</v>
+      </c>
+      <c r="B173" t="s">
+        <v>807</v>
+      </c>
+      <c r="C173" t="s">
+        <v>808</v>
+      </c>
+      <c r="D173" t="s">
         <v>809</v>
       </c>
-      <c r="B173" t="s">
+      <c r="E173" t="s">
         <v>810</v>
       </c>
-      <c r="C173" t="s">
-        <v>811</v>
-      </c>
-      <c r="D173" t="s">
-        <v>812</v>
-      </c>
-      <c r="E173" t="s">
-        <v>813</v>
-      </c>
       <c r="F173" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="H173">
         <f t="shared" si="12"/>
@@ -9934,22 +9931,22 @@
     </row>
     <row r="174" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
+        <v>811</v>
+      </c>
+      <c r="B174" t="s">
+        <v>812</v>
+      </c>
+      <c r="C174" t="s">
+        <v>813</v>
+      </c>
+      <c r="D174" t="s">
         <v>814</v>
       </c>
-      <c r="B174" t="s">
+      <c r="E174" t="s">
         <v>815</v>
       </c>
-      <c r="C174" t="s">
-        <v>816</v>
-      </c>
-      <c r="D174" t="s">
-        <v>817</v>
-      </c>
-      <c r="E174" t="s">
-        <v>818</v>
-      </c>
       <c r="F174" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="H174">
         <f t="shared" si="12"/>
@@ -9966,22 +9963,22 @@
     </row>
     <row r="175" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
+        <v>816</v>
+      </c>
+      <c r="B175" t="s">
+        <v>817</v>
+      </c>
+      <c r="C175" t="s">
+        <v>818</v>
+      </c>
+      <c r="D175" t="s">
         <v>819</v>
       </c>
-      <c r="B175" t="s">
+      <c r="E175" t="s">
         <v>820</v>
       </c>
-      <c r="C175" t="s">
-        <v>821</v>
-      </c>
-      <c r="D175" t="s">
-        <v>822</v>
-      </c>
-      <c r="E175" t="s">
-        <v>823</v>
-      </c>
       <c r="F175" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="H175">
         <f t="shared" si="12"/>
@@ -9998,22 +9995,22 @@
     </row>
     <row r="176" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="B176" t="s">
         <v>299</v>
       </c>
       <c r="C176" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
       <c r="D176" t="s">
-        <v>826</v>
+        <v>823</v>
       </c>
       <c r="E176" t="s">
-        <v>827</v>
+        <v>824</v>
       </c>
       <c r="F176" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="H176">
         <f t="shared" si="12"/>
@@ -10030,22 +10027,22 @@
     </row>
     <row r="177" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
+        <v>825</v>
+      </c>
+      <c r="B177" t="s">
+        <v>826</v>
+      </c>
+      <c r="C177" t="s">
+        <v>827</v>
+      </c>
+      <c r="D177" t="s">
         <v>828</v>
       </c>
-      <c r="B177" t="s">
+      <c r="E177" t="s">
         <v>829</v>
       </c>
-      <c r="C177" t="s">
-        <v>830</v>
-      </c>
-      <c r="D177" t="s">
-        <v>831</v>
-      </c>
-      <c r="E177" t="s">
-        <v>832</v>
-      </c>
       <c r="F177" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="H177">
         <f t="shared" si="12"/>
@@ -10062,22 +10059,22 @@
     </row>
     <row r="178" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
+        <v>835</v>
+      </c>
+      <c r="B178" t="s">
+        <v>516</v>
+      </c>
+      <c r="C178" t="s">
+        <v>836</v>
+      </c>
+      <c r="D178" t="s">
+        <v>837</v>
+      </c>
+      <c r="E178" t="s">
         <v>838</v>
       </c>
-      <c r="B178" t="s">
-        <v>517</v>
-      </c>
-      <c r="C178" t="s">
-        <v>839</v>
-      </c>
-      <c r="D178" t="s">
-        <v>840</v>
-      </c>
-      <c r="E178" t="s">
-        <v>841</v>
-      </c>
       <c r="F178" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="H178">
         <f t="shared" si="12"/>
@@ -10094,22 +10091,22 @@
     </row>
     <row r="179" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
+        <v>839</v>
+      </c>
+      <c r="B179" t="s">
+        <v>840</v>
+      </c>
+      <c r="C179" t="s">
+        <v>841</v>
+      </c>
+      <c r="D179" t="s">
         <v>842</v>
       </c>
-      <c r="B179" t="s">
+      <c r="E179" t="s">
         <v>843</v>
       </c>
-      <c r="C179" t="s">
-        <v>844</v>
-      </c>
-      <c r="D179" t="s">
-        <v>845</v>
-      </c>
-      <c r="E179" t="s">
-        <v>846</v>
-      </c>
       <c r="F179" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="H179">
         <f t="shared" si="12"/>
@@ -10126,22 +10123,22 @@
     </row>
     <row r="180" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
+        <v>844</v>
+      </c>
+      <c r="B180" t="s">
+        <v>845</v>
+      </c>
+      <c r="C180" t="s">
+        <v>846</v>
+      </c>
+      <c r="D180" t="s">
         <v>847</v>
       </c>
-      <c r="B180" t="s">
+      <c r="E180" t="s">
         <v>848</v>
       </c>
-      <c r="C180" t="s">
-        <v>849</v>
-      </c>
-      <c r="D180" t="s">
-        <v>850</v>
-      </c>
-      <c r="E180" t="s">
-        <v>851</v>
-      </c>
       <c r="F180" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="H180">
         <f t="shared" si="12"/>
@@ -10158,22 +10155,22 @@
     </row>
     <row r="181" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
+        <v>849</v>
+      </c>
+      <c r="B181" t="s">
+        <v>850</v>
+      </c>
+      <c r="C181" t="s">
+        <v>851</v>
+      </c>
+      <c r="D181" t="s">
         <v>852</v>
       </c>
-      <c r="B181" t="s">
+      <c r="E181" t="s">
         <v>853</v>
       </c>
-      <c r="C181" t="s">
-        <v>854</v>
-      </c>
-      <c r="D181" t="s">
-        <v>855</v>
-      </c>
-      <c r="E181" t="s">
-        <v>856</v>
-      </c>
       <c r="F181" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="H181">
         <f t="shared" si="12"/>
@@ -10190,22 +10187,22 @@
     </row>
     <row r="182" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
+        <v>747</v>
+      </c>
+      <c r="B182" t="s">
+        <v>748</v>
+      </c>
+      <c r="C182" t="s">
+        <v>749</v>
+      </c>
+      <c r="D182" t="s">
         <v>750</v>
       </c>
-      <c r="B182" t="s">
-        <v>751</v>
-      </c>
-      <c r="C182" t="s">
-        <v>752</v>
-      </c>
-      <c r="D182" t="s">
-        <v>753</v>
-      </c>
       <c r="E182" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="F182" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="H182">
         <f t="shared" si="12"/>
@@ -10222,22 +10219,22 @@
     </row>
     <row r="183" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
+        <v>854</v>
+      </c>
+      <c r="B183" t="s">
+        <v>855</v>
+      </c>
+      <c r="C183" t="s">
+        <v>856</v>
+      </c>
+      <c r="D183" t="s">
         <v>857</v>
       </c>
-      <c r="B183" t="s">
+      <c r="E183" t="s">
         <v>858</v>
       </c>
-      <c r="C183" t="s">
-        <v>859</v>
-      </c>
-      <c r="D183" t="s">
-        <v>860</v>
-      </c>
-      <c r="E183" t="s">
-        <v>861</v>
-      </c>
       <c r="F183" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="H183">
         <f t="shared" si="12"/>
@@ -10254,22 +10251,22 @@
     </row>
     <row r="184" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
+        <v>859</v>
+      </c>
+      <c r="B184" t="s">
+        <v>860</v>
+      </c>
+      <c r="C184" t="s">
+        <v>861</v>
+      </c>
+      <c r="D184" t="s">
         <v>862</v>
       </c>
-      <c r="B184" t="s">
+      <c r="E184" t="s">
         <v>863</v>
       </c>
-      <c r="C184" t="s">
-        <v>864</v>
-      </c>
-      <c r="D184" t="s">
-        <v>865</v>
-      </c>
-      <c r="E184" t="s">
-        <v>866</v>
-      </c>
       <c r="F184" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="H184">
         <f t="shared" si="12"/>
@@ -10286,22 +10283,22 @@
     </row>
     <row r="185" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
+        <v>864</v>
+      </c>
+      <c r="B185" t="s">
+        <v>865</v>
+      </c>
+      <c r="C185" t="s">
+        <v>866</v>
+      </c>
+      <c r="D185" t="s">
         <v>867</v>
       </c>
-      <c r="B185" t="s">
+      <c r="E185" t="s">
         <v>868</v>
       </c>
-      <c r="C185" t="s">
-        <v>869</v>
-      </c>
-      <c r="D185" t="s">
-        <v>870</v>
-      </c>
-      <c r="E185" t="s">
-        <v>871</v>
-      </c>
       <c r="F185" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="H185">
         <f t="shared" si="12"/>
@@ -10318,22 +10315,22 @@
     </row>
     <row r="186" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
+        <v>869</v>
+      </c>
+      <c r="B186" t="s">
+        <v>870</v>
+      </c>
+      <c r="C186" t="s">
+        <v>871</v>
+      </c>
+      <c r="D186" t="s">
         <v>872</v>
       </c>
-      <c r="B186" t="s">
+      <c r="E186" t="s">
         <v>873</v>
       </c>
-      <c r="C186" t="s">
-        <v>874</v>
-      </c>
-      <c r="D186" t="s">
-        <v>875</v>
-      </c>
-      <c r="E186" t="s">
-        <v>876</v>
-      </c>
       <c r="F186" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="H186">
         <f t="shared" si="12"/>
@@ -10350,22 +10347,22 @@
     </row>
     <row r="187" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
+        <v>874</v>
+      </c>
+      <c r="B187" t="s">
+        <v>875</v>
+      </c>
+      <c r="C187" t="s">
+        <v>876</v>
+      </c>
+      <c r="D187" t="s">
         <v>877</v>
       </c>
-      <c r="B187" t="s">
+      <c r="E187" t="s">
         <v>878</v>
       </c>
-      <c r="C187" t="s">
-        <v>879</v>
-      </c>
-      <c r="D187" t="s">
-        <v>880</v>
-      </c>
-      <c r="E187" t="s">
-        <v>881</v>
-      </c>
       <c r="F187" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="H187">
         <f t="shared" si="12"/>
@@ -10382,22 +10379,22 @@
     </row>
     <row r="188" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
+        <v>879</v>
+      </c>
+      <c r="B188" t="s">
+        <v>880</v>
+      </c>
+      <c r="C188" t="s">
+        <v>881</v>
+      </c>
+      <c r="D188" t="s">
         <v>882</v>
       </c>
-      <c r="B188" t="s">
+      <c r="E188" t="s">
         <v>883</v>
       </c>
-      <c r="C188" t="s">
-        <v>884</v>
-      </c>
-      <c r="D188" t="s">
-        <v>885</v>
-      </c>
-      <c r="E188" t="s">
-        <v>886</v>
-      </c>
       <c r="F188" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="H188">
         <f t="shared" ref="H188:H222" si="15">INT(J188/3)</f>
@@ -10414,22 +10411,22 @@
     </row>
     <row r="189" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
       <c r="B189" t="s">
         <v>169</v>
       </c>
       <c r="C189" t="s">
-        <v>888</v>
+        <v>885</v>
       </c>
       <c r="D189" t="s">
-        <v>889</v>
+        <v>886</v>
       </c>
       <c r="E189" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="F189" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="H189">
         <f t="shared" si="15"/>
@@ -10446,22 +10443,22 @@
     </row>
     <row r="190" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
+        <v>888</v>
+      </c>
+      <c r="B190" t="s">
+        <v>889</v>
+      </c>
+      <c r="C190" t="s">
+        <v>890</v>
+      </c>
+      <c r="D190" t="s">
         <v>891</v>
       </c>
-      <c r="B190" t="s">
+      <c r="E190" t="s">
         <v>892</v>
       </c>
-      <c r="C190" t="s">
-        <v>893</v>
-      </c>
-      <c r="D190" t="s">
-        <v>894</v>
-      </c>
-      <c r="E190" t="s">
-        <v>895</v>
-      </c>
       <c r="F190" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="H190">
         <f t="shared" si="15"/>
@@ -10478,22 +10475,22 @@
     </row>
     <row r="191" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="B191" t="s">
-        <v>896</v>
+        <v>893</v>
       </c>
       <c r="C191" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D191" t="s">
-        <v>897</v>
+        <v>894</v>
       </c>
       <c r="E191" t="s">
-        <v>898</v>
+        <v>895</v>
       </c>
       <c r="F191" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="H191">
         <f t="shared" si="15"/>
@@ -10510,22 +10507,22 @@
     </row>
     <row r="192" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
+        <v>742</v>
+      </c>
+      <c r="B192" t="s">
+        <v>743</v>
+      </c>
+      <c r="C192" t="s">
+        <v>744</v>
+      </c>
+      <c r="D192" t="s">
         <v>745</v>
       </c>
-      <c r="B192" t="s">
+      <c r="E192" t="s">
         <v>746</v>
       </c>
-      <c r="C192" t="s">
-        <v>747</v>
-      </c>
-      <c r="D192" t="s">
-        <v>748</v>
-      </c>
-      <c r="E192" t="s">
-        <v>749</v>
-      </c>
       <c r="F192" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="H192">
         <f t="shared" si="15"/>
@@ -10542,22 +10539,22 @@
     </row>
     <row r="193" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
+        <v>896</v>
+      </c>
+      <c r="B193" t="s">
+        <v>897</v>
+      </c>
+      <c r="C193" t="s">
+        <v>898</v>
+      </c>
+      <c r="D193" t="s">
         <v>899</v>
       </c>
-      <c r="B193" t="s">
+      <c r="E193" t="s">
         <v>900</v>
       </c>
-      <c r="C193" t="s">
-        <v>901</v>
-      </c>
-      <c r="D193" t="s">
-        <v>902</v>
-      </c>
-      <c r="E193" t="s">
-        <v>903</v>
-      </c>
       <c r="F193" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="H193">
         <f t="shared" si="15"/>
@@ -10574,22 +10571,22 @@
     </row>
     <row r="194" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
+        <v>901</v>
+      </c>
+      <c r="B194" t="s">
+        <v>902</v>
+      </c>
+      <c r="C194" t="s">
+        <v>903</v>
+      </c>
+      <c r="D194" t="s">
         <v>904</v>
       </c>
-      <c r="B194" t="s">
+      <c r="E194" t="s">
         <v>905</v>
       </c>
-      <c r="C194" t="s">
-        <v>906</v>
-      </c>
-      <c r="D194" t="s">
-        <v>907</v>
-      </c>
-      <c r="E194" t="s">
-        <v>908</v>
-      </c>
       <c r="F194" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="H194">
         <f t="shared" si="15"/>
@@ -10606,22 +10603,22 @@
     </row>
     <row r="195" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
+        <v>906</v>
+      </c>
+      <c r="B195" t="s">
+        <v>892</v>
+      </c>
+      <c r="C195" t="s">
+        <v>907</v>
+      </c>
+      <c r="D195" t="s">
+        <v>908</v>
+      </c>
+      <c r="E195" t="s">
         <v>909</v>
       </c>
-      <c r="B195" t="s">
-        <v>895</v>
-      </c>
-      <c r="C195" t="s">
-        <v>910</v>
-      </c>
-      <c r="D195" t="s">
-        <v>911</v>
-      </c>
-      <c r="E195" t="s">
-        <v>912</v>
-      </c>
       <c r="F195" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="H195">
         <f t="shared" si="15"/>
@@ -10638,22 +10635,22 @@
     </row>
     <row r="196" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
+        <v>910</v>
+      </c>
+      <c r="B196" t="s">
+        <v>911</v>
+      </c>
+      <c r="C196" t="s">
+        <v>912</v>
+      </c>
+      <c r="D196" t="s">
         <v>913</v>
       </c>
-      <c r="B196" t="s">
+      <c r="E196" t="s">
         <v>914</v>
       </c>
-      <c r="C196" t="s">
-        <v>915</v>
-      </c>
-      <c r="D196" t="s">
-        <v>916</v>
-      </c>
-      <c r="E196" t="s">
-        <v>917</v>
-      </c>
       <c r="F196" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="H196">
         <f t="shared" si="15"/>
@@ -10670,22 +10667,22 @@
     </row>
     <row r="197" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
+        <v>915</v>
+      </c>
+      <c r="B197" t="s">
+        <v>916</v>
+      </c>
+      <c r="C197" t="s">
+        <v>917</v>
+      </c>
+      <c r="D197" t="s">
         <v>918</v>
       </c>
-      <c r="B197" t="s">
+      <c r="E197" t="s">
         <v>919</v>
       </c>
-      <c r="C197" t="s">
-        <v>920</v>
-      </c>
-      <c r="D197" t="s">
-        <v>921</v>
-      </c>
-      <c r="E197" t="s">
-        <v>922</v>
-      </c>
       <c r="F197" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="H197">
         <f t="shared" si="15"/>
@@ -10702,22 +10699,22 @@
     </row>
     <row r="198" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
       <c r="B198" t="s">
+        <v>920</v>
+      </c>
+      <c r="C198" t="s">
+        <v>921</v>
+      </c>
+      <c r="D198" t="s">
+        <v>922</v>
+      </c>
+      <c r="E198" t="s">
         <v>923</v>
       </c>
-      <c r="C198" t="s">
-        <v>924</v>
-      </c>
-      <c r="D198" t="s">
-        <v>925</v>
-      </c>
-      <c r="E198" t="s">
-        <v>926</v>
-      </c>
       <c r="F198" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="H198">
         <f t="shared" si="15"/>
@@ -10734,22 +10731,22 @@
     </row>
     <row r="199" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
       <c r="B199" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C199" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D199" t="s">
-        <v>927</v>
+        <v>924</v>
       </c>
       <c r="E199" t="s">
-        <v>928</v>
+        <v>925</v>
       </c>
       <c r="F199" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="H199">
         <f t="shared" si="15"/>
@@ -10766,22 +10763,22 @@
     </row>
     <row r="200" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
+        <v>926</v>
+      </c>
+      <c r="B200" t="s">
+        <v>927</v>
+      </c>
+      <c r="C200" t="s">
+        <v>928</v>
+      </c>
+      <c r="D200" t="s">
         <v>929</v>
       </c>
-      <c r="B200" t="s">
+      <c r="E200" t="s">
         <v>930</v>
       </c>
-      <c r="C200" t="s">
-        <v>931</v>
-      </c>
-      <c r="D200" t="s">
-        <v>932</v>
-      </c>
-      <c r="E200" t="s">
-        <v>933</v>
-      </c>
       <c r="F200" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="H200">
         <f t="shared" si="15"/>
@@ -10798,22 +10795,22 @@
     </row>
     <row r="201" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
+        <v>931</v>
+      </c>
+      <c r="B201" t="s">
+        <v>932</v>
+      </c>
+      <c r="C201" t="s">
+        <v>933</v>
+      </c>
+      <c r="D201" t="s">
         <v>934</v>
       </c>
-      <c r="B201" t="s">
+      <c r="E201" t="s">
         <v>935</v>
       </c>
-      <c r="C201" t="s">
-        <v>936</v>
-      </c>
-      <c r="D201" t="s">
-        <v>937</v>
-      </c>
-      <c r="E201" t="s">
-        <v>938</v>
-      </c>
       <c r="F201" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="H201">
         <f t="shared" si="15"/>
@@ -10830,22 +10827,22 @@
     </row>
     <row r="202" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
+        <v>936</v>
+      </c>
+      <c r="B202" t="s">
+        <v>937</v>
+      </c>
+      <c r="C202" t="s">
+        <v>938</v>
+      </c>
+      <c r="D202" t="s">
         <v>939</v>
       </c>
-      <c r="B202" t="s">
+      <c r="E202" t="s">
         <v>940</v>
       </c>
-      <c r="C202" t="s">
-        <v>941</v>
-      </c>
-      <c r="D202" t="s">
-        <v>942</v>
-      </c>
-      <c r="E202" t="s">
-        <v>943</v>
-      </c>
       <c r="F202" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="H202">
         <f t="shared" si="15"/>
@@ -10862,22 +10859,22 @@
     </row>
     <row r="203" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B203" t="s">
+        <v>941</v>
+      </c>
+      <c r="C203" t="s">
+        <v>942</v>
+      </c>
+      <c r="D203" t="s">
+        <v>943</v>
+      </c>
+      <c r="E203" t="s">
         <v>944</v>
       </c>
-      <c r="C203" t="s">
-        <v>945</v>
-      </c>
-      <c r="D203" t="s">
-        <v>946</v>
-      </c>
-      <c r="E203" t="s">
-        <v>947</v>
-      </c>
       <c r="F203" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="H203">
         <f t="shared" si="15"/>
@@ -10894,22 +10891,22 @@
     </row>
     <row r="204" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
+        <v>945</v>
+      </c>
+      <c r="B204" t="s">
+        <v>946</v>
+      </c>
+      <c r="C204" t="s">
+        <v>947</v>
+      </c>
+      <c r="D204" t="s">
         <v>948</v>
       </c>
-      <c r="B204" t="s">
+      <c r="E204" t="s">
         <v>949</v>
       </c>
-      <c r="C204" t="s">
-        <v>950</v>
-      </c>
-      <c r="D204" t="s">
-        <v>951</v>
-      </c>
-      <c r="E204" t="s">
-        <v>952</v>
-      </c>
       <c r="F204" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="H204">
         <f t="shared" si="15"/>
@@ -10926,22 +10923,22 @@
     </row>
     <row r="205" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
+        <v>950</v>
+      </c>
+      <c r="B205" t="s">
+        <v>951</v>
+      </c>
+      <c r="C205" t="s">
+        <v>952</v>
+      </c>
+      <c r="D205" t="s">
         <v>953</v>
       </c>
-      <c r="B205" t="s">
+      <c r="E205" t="s">
         <v>954</v>
       </c>
-      <c r="C205" t="s">
-        <v>955</v>
-      </c>
-      <c r="D205" t="s">
-        <v>956</v>
-      </c>
-      <c r="E205" t="s">
-        <v>957</v>
-      </c>
       <c r="F205" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="H205">
         <f t="shared" si="15"/>
@@ -10958,22 +10955,22 @@
     </row>
     <row r="206" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
+        <v>955</v>
+      </c>
+      <c r="B206" t="s">
+        <v>912</v>
+      </c>
+      <c r="C206" t="s">
+        <v>956</v>
+      </c>
+      <c r="D206" t="s">
+        <v>957</v>
+      </c>
+      <c r="E206" t="s">
         <v>958</v>
       </c>
-      <c r="B206" t="s">
-        <v>915</v>
-      </c>
-      <c r="C206" t="s">
-        <v>959</v>
-      </c>
-      <c r="D206" t="s">
-        <v>960</v>
-      </c>
-      <c r="E206" t="s">
-        <v>961</v>
-      </c>
       <c r="F206" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="H206">
         <f t="shared" si="15"/>
@@ -10990,22 +10987,22 @@
     </row>
     <row r="207" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
+        <v>959</v>
+      </c>
+      <c r="B207" t="s">
+        <v>960</v>
+      </c>
+      <c r="C207" t="s">
+        <v>391</v>
+      </c>
+      <c r="D207" t="s">
+        <v>961</v>
+      </c>
+      <c r="E207" t="s">
         <v>962</v>
       </c>
-      <c r="B207" t="s">
-        <v>963</v>
-      </c>
-      <c r="C207" t="s">
-        <v>392</v>
-      </c>
-      <c r="D207" t="s">
-        <v>964</v>
-      </c>
-      <c r="E207" t="s">
-        <v>965</v>
-      </c>
       <c r="F207" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="H207">
         <f t="shared" si="15"/>
@@ -11022,22 +11019,22 @@
     </row>
     <row r="208" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
+        <v>963</v>
+      </c>
+      <c r="B208" t="s">
+        <v>964</v>
+      </c>
+      <c r="C208" t="s">
+        <v>965</v>
+      </c>
+      <c r="D208" t="s">
         <v>966</v>
       </c>
-      <c r="B208" t="s">
+      <c r="E208" t="s">
         <v>967</v>
       </c>
-      <c r="C208" t="s">
-        <v>968</v>
-      </c>
-      <c r="D208" t="s">
-        <v>969</v>
-      </c>
-      <c r="E208" t="s">
-        <v>970</v>
-      </c>
       <c r="F208" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="H208">
         <f t="shared" si="15"/>
@@ -11054,22 +11051,22 @@
     </row>
     <row r="209" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="B209" t="s">
+        <v>968</v>
+      </c>
+      <c r="C209" t="s">
+        <v>969</v>
+      </c>
+      <c r="D209" t="s">
+        <v>970</v>
+      </c>
+      <c r="E209" t="s">
         <v>971</v>
       </c>
-      <c r="C209" t="s">
-        <v>972</v>
-      </c>
-      <c r="D209" t="s">
-        <v>973</v>
-      </c>
-      <c r="E209" t="s">
-        <v>974</v>
-      </c>
       <c r="F209" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="H209">
         <f t="shared" si="15"/>
@@ -11086,22 +11083,22 @@
     </row>
     <row r="210" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
+        <v>972</v>
+      </c>
+      <c r="B210" t="s">
+        <v>973</v>
+      </c>
+      <c r="C210" t="s">
+        <v>974</v>
+      </c>
+      <c r="D210" t="s">
+        <v>784</v>
+      </c>
+      <c r="E210" t="s">
         <v>975</v>
       </c>
-      <c r="B210" t="s">
-        <v>976</v>
-      </c>
-      <c r="C210" t="s">
-        <v>977</v>
-      </c>
-      <c r="D210" t="s">
-        <v>787</v>
-      </c>
-      <c r="E210" t="s">
-        <v>978</v>
-      </c>
       <c r="F210" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="H210">
         <f t="shared" si="15"/>
@@ -11118,22 +11115,22 @@
     </row>
     <row r="211" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
+        <v>976</v>
+      </c>
+      <c r="B211" t="s">
+        <v>977</v>
+      </c>
+      <c r="C211" t="s">
+        <v>978</v>
+      </c>
+      <c r="D211" t="s">
+        <v>455</v>
+      </c>
+      <c r="E211" t="s">
         <v>979</v>
       </c>
-      <c r="B211" t="s">
-        <v>980</v>
-      </c>
-      <c r="C211" t="s">
-        <v>981</v>
-      </c>
-      <c r="D211" t="s">
-        <v>456</v>
-      </c>
-      <c r="E211" t="s">
-        <v>982</v>
-      </c>
       <c r="F211" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="H211">
         <f t="shared" si="15"/>
@@ -11150,22 +11147,22 @@
     </row>
     <row r="212" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>983</v>
+        <v>980</v>
       </c>
       <c r="B212" t="s">
         <v>78</v>
       </c>
       <c r="C212" t="s">
-        <v>984</v>
+        <v>981</v>
       </c>
       <c r="D212" t="s">
-        <v>985</v>
+        <v>982</v>
       </c>
       <c r="E212" t="s">
-        <v>986</v>
+        <v>983</v>
       </c>
       <c r="F212" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="H212">
         <f t="shared" si="15"/>
@@ -11182,22 +11179,22 @@
     </row>
     <row r="213" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
+        <v>984</v>
+      </c>
+      <c r="B213" t="s">
+        <v>985</v>
+      </c>
+      <c r="C213" t="s">
+        <v>986</v>
+      </c>
+      <c r="D213" t="s">
         <v>987</v>
       </c>
-      <c r="B213" t="s">
+      <c r="E213" t="s">
         <v>988</v>
       </c>
-      <c r="C213" t="s">
-        <v>989</v>
-      </c>
-      <c r="D213" t="s">
-        <v>990</v>
-      </c>
-      <c r="E213" t="s">
-        <v>991</v>
-      </c>
       <c r="F213" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="H213">
         <f t="shared" si="15"/>
@@ -11214,22 +11211,22 @@
     </row>
     <row r="214" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
+        <v>989</v>
+      </c>
+      <c r="B214" t="s">
+        <v>990</v>
+      </c>
+      <c r="C214" t="s">
+        <v>991</v>
+      </c>
+      <c r="D214" t="s">
         <v>992</v>
       </c>
-      <c r="B214" t="s">
+      <c r="E214" t="s">
         <v>993</v>
       </c>
-      <c r="C214" t="s">
-        <v>994</v>
-      </c>
-      <c r="D214" t="s">
-        <v>995</v>
-      </c>
-      <c r="E214" t="s">
-        <v>996</v>
-      </c>
       <c r="F214" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="H214">
         <f t="shared" si="15"/>
@@ -11246,22 +11243,22 @@
     </row>
     <row r="215" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B215" t="s">
+        <v>994</v>
+      </c>
+      <c r="C215" t="s">
+        <v>995</v>
+      </c>
+      <c r="D215" t="s">
+        <v>996</v>
+      </c>
+      <c r="E215" t="s">
         <v>997</v>
       </c>
-      <c r="C215" t="s">
-        <v>998</v>
-      </c>
-      <c r="D215" t="s">
-        <v>999</v>
-      </c>
-      <c r="E215" t="s">
-        <v>1000</v>
-      </c>
       <c r="F215" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="H215">
         <f t="shared" si="15"/>
@@ -11278,22 +11275,22 @@
     </row>
     <row r="216" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
+        <v>998</v>
+      </c>
+      <c r="B216" t="s">
+        <v>999</v>
+      </c>
+      <c r="C216" t="s">
+        <v>1000</v>
+      </c>
+      <c r="D216" t="s">
         <v>1001</v>
       </c>
-      <c r="B216" t="s">
+      <c r="E216" t="s">
         <v>1002</v>
       </c>
-      <c r="C216" t="s">
-        <v>1003</v>
-      </c>
-      <c r="D216" t="s">
-        <v>1004</v>
-      </c>
-      <c r="E216" t="s">
-        <v>1005</v>
-      </c>
       <c r="F216" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="H216">
         <f t="shared" si="15"/>
@@ -11310,22 +11307,22 @@
     </row>
     <row r="217" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
+        <v>1003</v>
+      </c>
+      <c r="B217" t="s">
+        <v>1004</v>
+      </c>
+      <c r="C217" t="s">
+        <v>943</v>
+      </c>
+      <c r="D217" t="s">
+        <v>1005</v>
+      </c>
+      <c r="E217" t="s">
         <v>1006</v>
       </c>
-      <c r="B217" t="s">
-        <v>1007</v>
-      </c>
-      <c r="C217" t="s">
-        <v>946</v>
-      </c>
-      <c r="D217" t="s">
-        <v>1008</v>
-      </c>
-      <c r="E217" t="s">
-        <v>1009</v>
-      </c>
       <c r="F217" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="H217">
         <f t="shared" si="15"/>
@@ -11342,22 +11339,22 @@
     </row>
     <row r="218" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="B218" t="s">
+        <v>1007</v>
+      </c>
+      <c r="C218" t="s">
+        <v>1008</v>
+      </c>
+      <c r="D218" t="s">
+        <v>1009</v>
+      </c>
+      <c r="E218" t="s">
         <v>1010</v>
       </c>
-      <c r="C218" t="s">
-        <v>1011</v>
-      </c>
-      <c r="D218" t="s">
-        <v>1012</v>
-      </c>
-      <c r="E218" t="s">
-        <v>1013</v>
-      </c>
       <c r="F218" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="H218">
         <f t="shared" si="15"/>
@@ -11377,19 +11374,19 @@
         <v>64</v>
       </c>
       <c r="B219" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C219" t="s">
-        <v>1014</v>
+        <v>1011</v>
       </c>
       <c r="D219" t="s">
-        <v>1015</v>
+        <v>1012</v>
       </c>
       <c r="E219" t="s">
-        <v>1016</v>
+        <v>1013</v>
       </c>
       <c r="F219" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="H219">
         <f t="shared" si="15"/>
@@ -11406,22 +11403,22 @@
     </row>
     <row r="220" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
+        <v>1017</v>
+      </c>
+      <c r="B220" t="s">
+        <v>1018</v>
+      </c>
+      <c r="C220" t="s">
+        <v>1019</v>
+      </c>
+      <c r="D220" t="s">
         <v>1020</v>
       </c>
-      <c r="B220" t="s">
+      <c r="E220" t="s">
         <v>1021</v>
       </c>
-      <c r="C220" t="s">
-        <v>1022</v>
-      </c>
-      <c r="D220" t="s">
-        <v>1023</v>
-      </c>
-      <c r="E220" t="s">
-        <v>1024</v>
-      </c>
       <c r="F220" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="H220">
         <f t="shared" si="15"/>
@@ -11438,22 +11435,22 @@
     </row>
     <row r="221" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
+        <v>1022</v>
+      </c>
+      <c r="B221" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C221" t="s">
+        <v>1024</v>
+      </c>
+      <c r="D221" t="s">
         <v>1025</v>
       </c>
-      <c r="B221" t="s">
+      <c r="E221" t="s">
         <v>1026</v>
       </c>
-      <c r="C221" t="s">
-        <v>1027</v>
-      </c>
-      <c r="D221" t="s">
-        <v>1028</v>
-      </c>
-      <c r="E221" t="s">
-        <v>1029</v>
-      </c>
       <c r="F221" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="H221">
         <f t="shared" si="15"/>
@@ -11473,19 +11470,19 @@
         <v>14</v>
       </c>
       <c r="B222" t="s">
-        <v>1030</v>
+        <v>1027</v>
       </c>
       <c r="C222" t="s">
-        <v>1031</v>
+        <v>1028</v>
       </c>
       <c r="D222" t="s">
-        <v>1032</v>
+        <v>1029</v>
       </c>
       <c r="E222" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
       <c r="F222" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="H222">
         <f t="shared" si="15"/>

--- a/code/shabdakala/resource/sbwords.xlsx
+++ b/code/shabdakala/resource/sbwords.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hrishinene/shabdak_github/sbbd/shabdakala/code/shabdakala/resource/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{842A0073-2CA2-FD4D-9C42-11B47A289C10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3499A6A4-2688-7741-AFA2-D63617950E7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{9F74AEE5-EB85-4044-AC84-8761A591B5C1}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1425" uniqueCount="1044">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1425" uniqueCount="1048">
   <si>
     <t>word0</t>
   </si>
@@ -1700,18 +1700,12 @@
     <t>तरस</t>
   </si>
   <si>
-    <t>आफ्रिकेतले प्राणी</t>
-  </si>
-  <si>
     <t>मगर</t>
   </si>
   <si>
     <t>कासव</t>
   </si>
   <si>
-    <t>हिप्पो</t>
-  </si>
-  <si>
     <t>बेडूक</t>
   </si>
   <si>
@@ -1802,9 +1796,6 @@
     <t>दिवाळी</t>
   </si>
   <si>
-    <t>चातुर्दशी</t>
-  </si>
-  <si>
     <t>बिज</t>
   </si>
   <si>
@@ -1814,9 +1805,6 @@
     <t>पूजन</t>
   </si>
   <si>
-    <t>दिवाळीच्या दिवसांचे दुसरे शब्द</t>
-  </si>
-  <si>
     <t>सकाळ</t>
   </si>
   <si>
@@ -1889,9 +1877,6 @@
     <t>उभयचर प्राणी</t>
   </si>
   <si>
-    <t>रामायणातील प्राणी</t>
-  </si>
-  <si>
     <t>खोडी</t>
   </si>
   <si>
@@ -2243,9 +2228,6 @@
     <t>मॅराथॉन</t>
   </si>
   <si>
-    <t>26 (post this after Jan 1 !!)</t>
-  </si>
-  <si>
     <t>ॲटलास</t>
   </si>
   <si>
@@ -2375,9 +2357,6 @@
     <t>बांधवगड</t>
   </si>
   <si>
-    <t>काॅर्बेट</t>
-  </si>
-  <si>
     <t>पेरियार</t>
   </si>
   <si>
@@ -3165,6 +3144,39 @@
   </si>
   <si>
     <t>टायटन</t>
+  </si>
+  <si>
+    <t>गिधाड</t>
+  </si>
+  <si>
+    <t>रामायणात उल्लेख असलेले  प्राणी</t>
+  </si>
+  <si>
+    <t>पाणघोडा</t>
+  </si>
+  <si>
+    <t>आफ्रिकेत आढळणारे प्राणी</t>
+  </si>
+  <si>
+    <t>केदार</t>
+  </si>
+  <si>
+    <t>मासळी</t>
+  </si>
+  <si>
+    <t>चतुर्दशी</t>
+  </si>
+  <si>
+    <t>दिवाळीच्या दिवसांचे दुसरे शब्द प्रत्यय</t>
+  </si>
+  <si>
+    <t xml:space="preserve">संख्या लपलेले शब्द  </t>
+  </si>
+  <si>
+    <t>कॉर्बेट</t>
+  </si>
+  <si>
+    <t xml:space="preserve">२६ (सव्वीस)  - चित्रपट, वर्ष, मैल वगैरे </t>
   </si>
 </sst>
 </file>
@@ -4091,15 +4103,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEA1707B-2FB7-B84C-9F84-E9F074F3056C}">
   <dimension ref="A1:L222"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A95" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D103" sqref="D103"/>
+    <sheetView tabSelected="1" topLeftCell="A136" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E156" sqref="E156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="18.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.83203125" customWidth="1"/>
     <col min="4" max="4" width="14.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="41.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.5" bestFit="1" customWidth="1"/>
@@ -4180,7 +4192,7 @@
       </c>
       <c r="L2" s="6">
         <f ca="1">TODAY()</f>
-        <v>45653</v>
+        <v>45662</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -4975,7 +4987,7 @@
         <v>369</v>
       </c>
       <c r="F25" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>185</v>
@@ -5080,7 +5092,7 @@
         <v>425</v>
       </c>
       <c r="F28" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
       <c r="G28" s="1" t="s">
         <v>431</v>
@@ -5220,7 +5232,7 @@
         <v>503</v>
       </c>
       <c r="F32" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="H32">
         <f t="shared" si="7"/>
@@ -5243,7 +5255,7 @@
         <v>370</v>
       </c>
       <c r="C33" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
       <c r="D33" t="s">
         <v>228</v>
@@ -5252,7 +5264,7 @@
         <v>505</v>
       </c>
       <c r="F33" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="H33">
         <f t="shared" si="7"/>
@@ -5272,10 +5284,10 @@
         <v>506</v>
       </c>
       <c r="B34" t="s">
-        <v>620</v>
+        <v>615</v>
       </c>
       <c r="C34" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="D34" t="s">
         <v>48</v>
@@ -5284,7 +5296,7 @@
         <v>507</v>
       </c>
       <c r="F34" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="H34">
         <f t="shared" si="7"/>
@@ -5348,7 +5360,7 @@
         <v>33</v>
       </c>
       <c r="E36" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>338</v>
@@ -5383,7 +5395,7 @@
         <v>111</v>
       </c>
       <c r="E37" t="s">
-        <v>622</v>
+        <v>617</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>85</v>
@@ -5406,13 +5418,13 @@
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>623</v>
+        <v>618</v>
       </c>
       <c r="B38" t="s">
         <v>496</v>
       </c>
       <c r="C38" t="s">
-        <v>626</v>
+        <v>621</v>
       </c>
       <c r="D38" t="s">
         <v>497</v>
@@ -5421,7 +5433,7 @@
         <v>498</v>
       </c>
       <c r="F38" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="H38">
         <f t="shared" si="7"/>
@@ -5450,10 +5462,10 @@
         <v>510</v>
       </c>
       <c r="E39" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="F39" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="H39">
         <f t="shared" si="7"/>
@@ -5540,22 +5552,22 @@
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
+        <v>565</v>
+      </c>
+      <c r="B42" t="s">
+        <v>566</v>
+      </c>
+      <c r="C42" t="s">
+        <v>619</v>
+      </c>
+      <c r="D42" t="s">
         <v>567</v>
       </c>
-      <c r="B42" t="s">
+      <c r="E42" t="s">
         <v>568</v>
       </c>
-      <c r="C42" t="s">
-        <v>624</v>
-      </c>
-      <c r="D42" t="s">
-        <v>569</v>
-      </c>
-      <c r="E42" t="s">
-        <v>570</v>
-      </c>
       <c r="F42" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="H42">
         <f t="shared" si="7"/>
@@ -5572,22 +5584,22 @@
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
+        <v>577</v>
+      </c>
+      <c r="B43" t="s">
+        <v>578</v>
+      </c>
+      <c r="C43" t="s">
         <v>579</v>
       </c>
-      <c r="B43" t="s">
+      <c r="D43" t="s">
         <v>580</v>
       </c>
-      <c r="C43" t="s">
+      <c r="E43" t="s">
         <v>581</v>
       </c>
-      <c r="D43" t="s">
-        <v>582</v>
-      </c>
-      <c r="E43" t="s">
-        <v>583</v>
-      </c>
       <c r="F43" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="H43">
         <f t="shared" si="7"/>
@@ -5619,7 +5631,7 @@
         <v>377</v>
       </c>
       <c r="F44" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
       <c r="G44" s="1" t="s">
         <v>275</v>
@@ -5683,13 +5695,13 @@
         <v>517</v>
       </c>
       <c r="D46" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="E46" t="s">
         <v>518</v>
       </c>
       <c r="F46" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="H46">
         <f t="shared" si="7"/>
@@ -5721,7 +5733,7 @@
         <v>522</v>
       </c>
       <c r="F47" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="H47">
         <f t="shared" si="7"/>
@@ -5753,7 +5765,7 @@
         <v>527</v>
       </c>
       <c r="F48" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="H48">
         <f t="shared" si="7"/>
@@ -5820,7 +5832,7 @@
         <v>415</v>
       </c>
       <c r="F50" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
       <c r="G50" s="1" t="s">
         <v>275</v>
@@ -5846,7 +5858,7 @@
         <v>120</v>
       </c>
       <c r="C51" t="s">
-        <v>628</v>
+        <v>623</v>
       </c>
       <c r="D51" t="s">
         <v>121</v>
@@ -5875,7 +5887,7 @@
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>629</v>
+        <v>624</v>
       </c>
       <c r="B52" t="s">
         <v>36</v>
@@ -5948,7 +5960,7 @@
         <v>212</v>
       </c>
       <c r="B54" t="s">
-        <v>630</v>
+        <v>625</v>
       </c>
       <c r="C54" t="s">
         <v>213</v>
@@ -5995,7 +6007,7 @@
         <v>432</v>
       </c>
       <c r="F55" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
       <c r="G55" s="1" t="s">
         <v>275</v>
@@ -6018,19 +6030,19 @@
         <v>233</v>
       </c>
       <c r="B56" t="s">
-        <v>643</v>
+        <v>638</v>
       </c>
       <c r="C56" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="D56" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="E56" t="s">
-        <v>644</v>
+        <v>639</v>
       </c>
       <c r="F56" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="H56">
         <f t="shared" si="7"/>
@@ -6053,7 +6065,7 @@
         <v>232</v>
       </c>
       <c r="C57" t="s">
-        <v>642</v>
+        <v>637</v>
       </c>
       <c r="D57" t="s">
         <v>234</v>
@@ -6082,19 +6094,19 @@
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>636</v>
+        <v>631</v>
       </c>
       <c r="B58" t="s">
-        <v>637</v>
+        <v>632</v>
       </c>
       <c r="C58" t="s">
-        <v>638</v>
+        <v>633</v>
       </c>
       <c r="D58" t="s">
-        <v>639</v>
+        <v>634</v>
       </c>
       <c r="E58" t="s">
-        <v>640</v>
+        <v>635</v>
       </c>
       <c r="F58" t="s">
         <v>443</v>
@@ -6126,10 +6138,10 @@
         <v>466</v>
       </c>
       <c r="E59" t="s">
-        <v>645</v>
+        <v>640</v>
       </c>
       <c r="F59" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="H59">
         <f t="shared" si="7"/>
@@ -6146,22 +6158,22 @@
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>646</v>
+        <v>641</v>
       </c>
       <c r="B60" t="s">
-        <v>647</v>
+        <v>642</v>
       </c>
       <c r="C60" t="s">
         <v>467</v>
       </c>
       <c r="D60" t="s">
-        <v>648</v>
+        <v>643</v>
       </c>
       <c r="E60" t="s">
-        <v>649</v>
+        <v>644</v>
       </c>
       <c r="F60" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="H60">
         <f t="shared" ref="H60:H123" si="9">INT(J60/3)</f>
@@ -6178,7 +6190,7 @@
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>650</v>
+        <v>645</v>
       </c>
       <c r="B61" t="s">
         <v>468</v>
@@ -6193,7 +6205,7 @@
         <v>471</v>
       </c>
       <c r="F61" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="H61">
         <f t="shared" si="9"/>
@@ -6210,22 +6222,22 @@
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>1014</v>
+        <v>1007</v>
       </c>
       <c r="B62" t="s">
-        <v>1015</v>
+        <v>1008</v>
       </c>
       <c r="C62" t="s">
-        <v>847</v>
+        <v>840</v>
       </c>
       <c r="D62" t="s">
-        <v>1016</v>
+        <v>1009</v>
       </c>
       <c r="E62" t="s">
         <v>497</v>
       </c>
       <c r="F62" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="H62">
         <f t="shared" si="9"/>
@@ -6242,19 +6254,19 @@
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
       <c r="B63" t="s">
-        <v>631</v>
+        <v>626</v>
       </c>
       <c r="C63" t="s">
-        <v>632</v>
+        <v>627</v>
       </c>
       <c r="D63" t="s">
-        <v>633</v>
+        <v>628</v>
       </c>
       <c r="E63" t="s">
-        <v>635</v>
+        <v>630</v>
       </c>
       <c r="F63" s="1" t="s">
         <v>443</v>
@@ -6290,7 +6302,7 @@
         <v>374</v>
       </c>
       <c r="F64" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
       <c r="G64" s="1" t="s">
         <v>275</v>
@@ -6430,7 +6442,7 @@
         <v>420</v>
       </c>
       <c r="F68" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
       <c r="G68" s="1" t="s">
         <v>275</v>
@@ -6465,7 +6477,7 @@
         <v>407</v>
       </c>
       <c r="F69" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
       <c r="G69" s="1" t="s">
         <v>430</v>
@@ -6497,10 +6509,10 @@
         <v>460</v>
       </c>
       <c r="E70" t="s">
-        <v>1030</v>
+        <v>1023</v>
       </c>
       <c r="F70" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="H70">
         <f t="shared" si="9"/>
@@ -6555,19 +6567,19 @@
         <v>213</v>
       </c>
       <c r="B72" t="s">
+        <v>569</v>
+      </c>
+      <c r="C72" t="s">
+        <v>570</v>
+      </c>
+      <c r="D72" t="s">
         <v>571</v>
       </c>
-      <c r="C72" t="s">
-        <v>572</v>
-      </c>
-      <c r="D72" t="s">
-        <v>573</v>
-      </c>
       <c r="E72" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="F72" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="H72">
         <f t="shared" si="9"/>
@@ -6584,22 +6596,22 @@
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
+        <v>572</v>
+      </c>
+      <c r="B73" t="s">
+        <v>573</v>
+      </c>
+      <c r="C73" t="s">
         <v>574</v>
       </c>
-      <c r="B73" t="s">
+      <c r="D73" t="s">
         <v>575</v>
       </c>
-      <c r="C73" t="s">
+      <c r="E73" t="s">
         <v>576</v>
       </c>
-      <c r="D73" t="s">
-        <v>577</v>
-      </c>
-      <c r="E73" t="s">
-        <v>578</v>
-      </c>
       <c r="F73" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="H73">
         <f t="shared" si="9"/>
@@ -6616,22 +6628,22 @@
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>830</v>
+        <v>823</v>
       </c>
       <c r="B74" t="s">
-        <v>831</v>
+        <v>824</v>
       </c>
       <c r="C74" t="s">
-        <v>832</v>
+        <v>825</v>
       </c>
       <c r="D74" t="s">
-        <v>833</v>
+        <v>826</v>
       </c>
       <c r="E74" t="s">
-        <v>834</v>
+        <v>827</v>
       </c>
       <c r="F74" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="H74">
         <f t="shared" si="9"/>
@@ -6663,7 +6675,7 @@
         <v>426</v>
       </c>
       <c r="F75" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
       <c r="G75" s="1" t="s">
         <v>275</v>
@@ -6794,16 +6806,16 @@
         <v>479</v>
       </c>
       <c r="C79" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="D79" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="E79" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="F79" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="H79">
         <f t="shared" si="9"/>
@@ -6829,13 +6841,13 @@
         <v>301</v>
       </c>
       <c r="D80" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="E80" t="s">
         <v>482</v>
       </c>
       <c r="F80" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="H80">
         <f t="shared" si="9"/>
@@ -6890,13 +6902,13 @@
         <v>48</v>
       </c>
       <c r="B82" t="s">
-        <v>785</v>
+        <v>778</v>
       </c>
       <c r="C82" t="s">
         <v>282</v>
       </c>
       <c r="D82" t="s">
-        <v>1031</v>
+        <v>1024</v>
       </c>
       <c r="E82" t="s">
         <v>315</v>
@@ -6928,7 +6940,7 @@
         <v>456</v>
       </c>
       <c r="C83" t="s">
-        <v>1033</v>
+        <v>1026</v>
       </c>
       <c r="D83" t="s">
         <v>457</v>
@@ -6937,7 +6949,7 @@
         <v>458</v>
       </c>
       <c r="F83" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="H83">
         <f t="shared" si="9"/>
@@ -6954,22 +6966,22 @@
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>1036</v>
+        <v>1029</v>
       </c>
       <c r="B84" t="s">
-        <v>1035</v>
+        <v>1028</v>
       </c>
       <c r="C84" t="s">
-        <v>1032</v>
+        <v>1025</v>
       </c>
       <c r="D84" t="s">
-        <v>1034</v>
+        <v>1027</v>
       </c>
       <c r="E84" t="s">
-        <v>1030</v>
+        <v>1023</v>
       </c>
       <c r="F84" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="H84">
         <f t="shared" si="9"/>
@@ -7001,7 +7013,7 @@
         <v>390</v>
       </c>
       <c r="F85" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
       <c r="G85" s="1" t="s">
         <v>427</v>
@@ -7065,13 +7077,13 @@
         <v>474</v>
       </c>
       <c r="D87" t="s">
-        <v>1037</v>
+        <v>1030</v>
       </c>
       <c r="E87" t="s">
         <v>475</v>
       </c>
       <c r="F87" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="H87">
         <f t="shared" si="9"/>
@@ -7088,22 +7100,22 @@
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>1039</v>
+        <v>1032</v>
       </c>
       <c r="B88" t="s">
         <v>476</v>
       </c>
       <c r="C88" t="s">
-        <v>672</v>
+        <v>667</v>
       </c>
       <c r="D88" t="s">
-        <v>1038</v>
+        <v>1031</v>
       </c>
       <c r="E88" t="s">
         <v>477</v>
       </c>
       <c r="F88" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="H88">
         <f t="shared" si="9"/>
@@ -7193,19 +7205,19 @@
         <v>483</v>
       </c>
       <c r="B91" t="s">
-        <v>1040</v>
+        <v>1033</v>
       </c>
       <c r="C91" t="s">
         <v>484</v>
       </c>
       <c r="D91" t="s">
-        <v>1041</v>
+        <v>1034</v>
       </c>
       <c r="E91" t="s">
         <v>485</v>
       </c>
       <c r="F91" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="H91">
         <f t="shared" si="9"/>
@@ -7237,7 +7249,7 @@
         <v>490</v>
       </c>
       <c r="F92" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="H92">
         <f t="shared" si="9"/>
@@ -7269,7 +7281,7 @@
         <v>495</v>
       </c>
       <c r="F93" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="H93">
         <f t="shared" si="9"/>
@@ -7391,10 +7403,10 @@
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="B97" t="s">
-        <v>1042</v>
+        <v>1035</v>
       </c>
       <c r="C97" t="s">
         <v>535</v>
@@ -7406,7 +7418,7 @@
         <v>162</v>
       </c>
       <c r="F97" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="H97">
         <f t="shared" si="9"/>
@@ -7429,16 +7441,16 @@
         <v>516</v>
       </c>
       <c r="C98" t="s">
+        <v>559</v>
+      </c>
+      <c r="D98" t="s">
+        <v>560</v>
+      </c>
+      <c r="E98" t="s">
         <v>561</v>
       </c>
-      <c r="D98" t="s">
-        <v>562</v>
-      </c>
-      <c r="E98" t="s">
-        <v>563</v>
-      </c>
       <c r="F98" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="H98">
         <f t="shared" si="9"/>
@@ -7455,22 +7467,22 @@
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B99" t="s">
-        <v>1043</v>
+        <v>1036</v>
       </c>
       <c r="C99" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="D99" t="s">
         <v>151</v>
       </c>
       <c r="E99" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="F99" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="H99">
         <f t="shared" si="9"/>
@@ -7502,7 +7514,7 @@
         <v>396</v>
       </c>
       <c r="F100" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
       <c r="G100" s="1" t="s">
         <v>275</v>
@@ -7607,7 +7619,7 @@
         <v>529</v>
       </c>
       <c r="F103" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="H103">
         <f t="shared" si="9"/>
@@ -7639,7 +7651,7 @@
         <v>534</v>
       </c>
       <c r="F104" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="H104">
         <f t="shared" si="9"/>
@@ -7671,7 +7683,7 @@
         <v>537</v>
       </c>
       <c r="F105" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="H105">
         <f t="shared" si="9"/>
@@ -7703,7 +7715,7 @@
         <v>542</v>
       </c>
       <c r="F106" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="H106">
         <f t="shared" si="9"/>
@@ -7735,7 +7747,7 @@
         <v>547</v>
       </c>
       <c r="F107" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="H107">
         <f t="shared" si="9"/>
@@ -7892,22 +7904,22 @@
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
+        <v>590</v>
+      </c>
+      <c r="B112" t="s">
+        <v>591</v>
+      </c>
+      <c r="C112" t="s">
+        <v>592</v>
+      </c>
+      <c r="D112" t="s">
+        <v>593</v>
+      </c>
+      <c r="E112" t="s">
         <v>594</v>
       </c>
-      <c r="B112" t="s">
-        <v>595</v>
-      </c>
-      <c r="C112" t="s">
-        <v>596</v>
-      </c>
-      <c r="D112" t="s">
-        <v>597</v>
-      </c>
-      <c r="E112" t="s">
-        <v>598</v>
-      </c>
       <c r="F112" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="H112">
         <f t="shared" si="9"/>
@@ -7939,7 +7951,7 @@
         <v>514</v>
       </c>
       <c r="F113" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="H113">
         <f t="shared" si="9"/>
@@ -7956,22 +7968,22 @@
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
+        <v>595</v>
+      </c>
+      <c r="B114" t="s">
+        <v>596</v>
+      </c>
+      <c r="C114" t="s">
+        <v>597</v>
+      </c>
+      <c r="D114" t="s">
+        <v>598</v>
+      </c>
+      <c r="E114" t="s">
         <v>599</v>
       </c>
-      <c r="B114" t="s">
+      <c r="F114" t="s">
         <v>600</v>
-      </c>
-      <c r="C114" t="s">
-        <v>601</v>
-      </c>
-      <c r="D114" t="s">
-        <v>602</v>
-      </c>
-      <c r="E114" t="s">
-        <v>603</v>
-      </c>
-      <c r="F114" t="s">
-        <v>604</v>
       </c>
       <c r="H114">
         <f t="shared" si="9"/>
@@ -8003,7 +8015,7 @@
         <v>423</v>
       </c>
       <c r="F115" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
       <c r="G115" s="1" t="s">
         <v>87</v>
@@ -8029,16 +8041,16 @@
         <v>549</v>
       </c>
       <c r="C116" t="s">
-        <v>411</v>
+        <v>1037</v>
       </c>
       <c r="D116" t="s">
         <v>550</v>
       </c>
       <c r="E116" t="s">
-        <v>618</v>
+        <v>1038</v>
       </c>
       <c r="F116" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="H116">
         <f t="shared" si="9"/>
@@ -8067,10 +8079,10 @@
         <v>554</v>
       </c>
       <c r="E117" t="s">
-        <v>555</v>
+        <v>1040</v>
       </c>
       <c r="F117" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="H117">
         <f t="shared" si="9"/>
@@ -8087,22 +8099,22 @@
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
+        <v>555</v>
+      </c>
+      <c r="B118" t="s">
         <v>556</v>
       </c>
-      <c r="B118" t="s">
+      <c r="C118" t="s">
+        <v>1039</v>
+      </c>
+      <c r="D118" t="s">
         <v>557</v>
       </c>
-      <c r="C118" t="s">
-        <v>558</v>
-      </c>
-      <c r="D118" t="s">
-        <v>559</v>
-      </c>
       <c r="E118" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="F118" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="H118">
         <f t="shared" si="9"/>
@@ -8224,22 +8236,22 @@
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
+        <v>582</v>
+      </c>
+      <c r="B122" t="s">
+        <v>583</v>
+      </c>
+      <c r="C122" t="s">
         <v>584</v>
       </c>
-      <c r="B122" t="s">
+      <c r="D122" t="s">
         <v>585</v>
       </c>
-      <c r="C122" t="s">
+      <c r="E122" t="s">
         <v>586</v>
       </c>
-      <c r="D122" t="s">
-        <v>587</v>
-      </c>
-      <c r="E122" t="s">
-        <v>588</v>
-      </c>
       <c r="F122" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="H122">
         <f t="shared" si="9"/>
@@ -8291,7 +8303,7 @@
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>625</v>
+        <v>1041</v>
       </c>
       <c r="B124" t="s">
         <v>424</v>
@@ -8306,7 +8318,7 @@
         <v>429</v>
       </c>
       <c r="F124" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
       <c r="G124" s="1" t="s">
         <v>428</v>
@@ -8370,7 +8382,7 @@
         <v>242</v>
       </c>
       <c r="D126" t="s">
-        <v>243</v>
+        <v>1042</v>
       </c>
       <c r="E126" t="s">
         <v>244</v>
@@ -8396,22 +8408,22 @@
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
+        <v>1043</v>
+      </c>
+      <c r="B127" t="s">
+        <v>587</v>
+      </c>
+      <c r="C127" t="s">
+        <v>588</v>
+      </c>
+      <c r="D127" t="s">
         <v>589</v>
       </c>
-      <c r="B127" t="s">
-        <v>590</v>
-      </c>
-      <c r="C127" t="s">
-        <v>591</v>
-      </c>
-      <c r="D127" t="s">
-        <v>592</v>
-      </c>
       <c r="E127" t="s">
-        <v>593</v>
+        <v>1044</v>
       </c>
       <c r="F127" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="H127">
         <f t="shared" si="12"/>
@@ -8743,22 +8755,22 @@
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="B137" t="s">
         <v>232</v>
       </c>
       <c r="C137" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="D137" t="s">
         <v>231</v>
       </c>
       <c r="E137" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="F137" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="H137">
         <f t="shared" si="12"/>
@@ -8787,7 +8799,7 @@
         <v>43</v>
       </c>
       <c r="E138" t="s">
-        <v>641</v>
+        <v>636</v>
       </c>
       <c r="F138" s="1" t="s">
         <v>338</v>
@@ -8810,22 +8822,22 @@
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="B139" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
       <c r="C139" t="s">
-        <v>668</v>
+        <v>663</v>
       </c>
       <c r="D139" t="s">
-        <v>669</v>
+        <v>664</v>
       </c>
       <c r="E139" t="s">
-        <v>670</v>
+        <v>665</v>
       </c>
       <c r="F139" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="G139" s="1"/>
       <c r="H139">
@@ -8843,22 +8855,22 @@
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="B140" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="C140" t="s">
-        <v>653</v>
+        <v>648</v>
       </c>
       <c r="D140" t="s">
-        <v>654</v>
+        <v>649</v>
       </c>
       <c r="E140" t="s">
-        <v>655</v>
+        <v>650</v>
       </c>
       <c r="F140" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="H140">
         <f t="shared" si="12"/>
@@ -8875,22 +8887,22 @@
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
       <c r="B141" t="s">
-        <v>657</v>
+        <v>652</v>
       </c>
       <c r="C141" t="s">
-        <v>658</v>
+        <v>653</v>
       </c>
       <c r="D141" t="s">
-        <v>659</v>
+        <v>654</v>
       </c>
       <c r="E141" t="s">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="F141" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="H141">
         <f t="shared" si="12"/>
@@ -8907,22 +8919,22 @@
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>661</v>
+        <v>656</v>
       </c>
       <c r="B142" t="s">
-        <v>662</v>
+        <v>657</v>
       </c>
       <c r="C142" t="s">
-        <v>663</v>
+        <v>658</v>
       </c>
       <c r="D142" t="s">
-        <v>664</v>
+        <v>659</v>
       </c>
       <c r="E142" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="F142" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="H142">
         <f t="shared" si="12"/>
@@ -8939,22 +8951,22 @@
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>671</v>
+        <v>666</v>
       </c>
       <c r="B143" t="s">
-        <v>672</v>
+        <v>667</v>
       </c>
       <c r="C143" t="s">
-        <v>673</v>
+        <v>668</v>
       </c>
       <c r="D143" t="s">
-        <v>674</v>
+        <v>669</v>
       </c>
       <c r="E143" t="s">
-        <v>675</v>
+        <v>670</v>
       </c>
       <c r="F143" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="H143">
         <f t="shared" si="12"/>
@@ -8971,22 +8983,22 @@
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>676</v>
+        <v>671</v>
       </c>
       <c r="B144" t="s">
         <v>228</v>
       </c>
       <c r="C144" t="s">
-        <v>677</v>
+        <v>672</v>
       </c>
       <c r="D144" t="s">
-        <v>678</v>
+        <v>673</v>
       </c>
       <c r="E144" t="s">
-        <v>679</v>
+        <v>674</v>
       </c>
       <c r="F144" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="H144">
         <f t="shared" si="12"/>
@@ -9003,22 +9015,22 @@
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>680</v>
+        <v>675</v>
       </c>
       <c r="B145" t="s">
-        <v>681</v>
+        <v>676</v>
       </c>
       <c r="C145" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="D145" t="s">
-        <v>683</v>
+        <v>678</v>
       </c>
       <c r="E145" t="s">
-        <v>684</v>
+        <v>679</v>
       </c>
       <c r="F145" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="H145">
         <f t="shared" si="12"/>
@@ -9035,22 +9047,22 @@
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>685</v>
+        <v>680</v>
       </c>
       <c r="B146" t="s">
-        <v>686</v>
+        <v>681</v>
       </c>
       <c r="C146" t="s">
-        <v>687</v>
+        <v>682</v>
       </c>
       <c r="D146" t="s">
-        <v>688</v>
+        <v>683</v>
       </c>
       <c r="E146" t="s">
-        <v>689</v>
+        <v>684</v>
       </c>
       <c r="F146" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="H146">
         <f t="shared" si="12"/>
@@ -9067,22 +9079,22 @@
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>690</v>
+        <v>685</v>
       </c>
       <c r="B147" t="s">
-        <v>624</v>
+        <v>619</v>
       </c>
       <c r="C147" t="s">
-        <v>691</v>
+        <v>686</v>
       </c>
       <c r="D147" t="s">
-        <v>692</v>
+        <v>687</v>
       </c>
       <c r="E147" t="s">
-        <v>693</v>
+        <v>688</v>
       </c>
       <c r="F147" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="H147">
         <f t="shared" si="12"/>
@@ -9099,22 +9111,22 @@
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>694</v>
+        <v>689</v>
       </c>
       <c r="B148" t="s">
-        <v>695</v>
+        <v>690</v>
       </c>
       <c r="C148" t="s">
-        <v>696</v>
+        <v>691</v>
       </c>
       <c r="D148" t="s">
-        <v>697</v>
+        <v>692</v>
       </c>
       <c r="E148" t="s">
-        <v>698</v>
+        <v>693</v>
       </c>
       <c r="F148" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="H148">
         <f t="shared" si="12"/>
@@ -9131,22 +9143,22 @@
     </row>
     <row r="149" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
       <c r="B149" t="s">
-        <v>700</v>
+        <v>695</v>
       </c>
       <c r="C149" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
       <c r="D149" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="E149" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
       <c r="F149" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="H149">
         <f t="shared" si="12"/>
@@ -9163,22 +9175,22 @@
     </row>
     <row r="150" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>704</v>
+        <v>699</v>
       </c>
       <c r="B150" t="s">
-        <v>705</v>
+        <v>700</v>
       </c>
       <c r="C150" t="s">
-        <v>706</v>
+        <v>701</v>
       </c>
       <c r="D150" t="s">
-        <v>707</v>
+        <v>702</v>
       </c>
       <c r="E150" t="s">
-        <v>708</v>
+        <v>703</v>
       </c>
       <c r="F150" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="H150">
         <f t="shared" si="12"/>
@@ -9195,22 +9207,22 @@
     </row>
     <row r="151" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>709</v>
+        <v>704</v>
       </c>
       <c r="B151" t="s">
-        <v>710</v>
+        <v>705</v>
       </c>
       <c r="C151" t="s">
-        <v>711</v>
+        <v>706</v>
       </c>
       <c r="D151" t="s">
-        <v>712</v>
+        <v>707</v>
       </c>
       <c r="E151" t="s">
-        <v>713</v>
+        <v>708</v>
       </c>
       <c r="F151" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="H151">
         <f t="shared" si="12"/>
@@ -9227,22 +9239,22 @@
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>714</v>
+        <v>709</v>
       </c>
       <c r="B152" t="s">
-        <v>715</v>
+        <v>710</v>
       </c>
       <c r="C152" t="s">
-        <v>716</v>
+        <v>711</v>
       </c>
       <c r="D152" t="s">
-        <v>717</v>
+        <v>712</v>
       </c>
       <c r="E152" t="s">
-        <v>718</v>
+        <v>713</v>
       </c>
       <c r="F152" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="H152">
         <f t="shared" si="12"/>
@@ -9259,22 +9271,22 @@
     </row>
     <row r="153" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>719</v>
+        <v>714</v>
       </c>
       <c r="B153" t="s">
-        <v>720</v>
+        <v>715</v>
       </c>
       <c r="C153" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="D153" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="E153" t="s">
         <v>246</v>
       </c>
       <c r="F153" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="H153">
         <f t="shared" si="12"/>
@@ -9291,22 +9303,22 @@
     </row>
     <row r="154" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
       <c r="B154" t="s">
-        <v>724</v>
+        <v>719</v>
       </c>
       <c r="C154" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="D154" t="s">
-        <v>725</v>
+        <v>720</v>
       </c>
       <c r="E154" t="s">
-        <v>726</v>
+        <v>721</v>
       </c>
       <c r="F154" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="H154">
         <f t="shared" si="12"/>
@@ -9323,22 +9335,22 @@
     </row>
     <row r="155" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>727</v>
+        <v>722</v>
       </c>
       <c r="B155" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="C155" t="s">
-        <v>729</v>
+        <v>724</v>
       </c>
       <c r="D155" t="s">
-        <v>730</v>
+        <v>725</v>
       </c>
       <c r="E155" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="F155" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="H155">
         <f t="shared" si="12"/>
@@ -9355,22 +9367,22 @@
     </row>
     <row r="156" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>732</v>
+        <v>727</v>
       </c>
       <c r="B156" t="s">
-        <v>733</v>
+        <v>728</v>
       </c>
       <c r="C156" t="s">
-        <v>734</v>
+        <v>729</v>
       </c>
       <c r="D156" t="s">
-        <v>735</v>
+        <v>730</v>
       </c>
       <c r="E156" t="s">
-        <v>736</v>
+        <v>1047</v>
       </c>
       <c r="F156" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="H156">
         <f t="shared" si="12"/>
@@ -9387,22 +9399,22 @@
     </row>
     <row r="157" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>737</v>
+        <v>731</v>
       </c>
       <c r="B157" t="s">
-        <v>738</v>
+        <v>732</v>
       </c>
       <c r="C157" t="s">
-        <v>739</v>
+        <v>733</v>
       </c>
       <c r="D157" t="s">
-        <v>740</v>
+        <v>734</v>
       </c>
       <c r="E157" t="s">
-        <v>741</v>
+        <v>735</v>
       </c>
       <c r="F157" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="H157">
         <f t="shared" si="12"/>
@@ -9419,22 +9431,22 @@
     </row>
     <row r="158" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>742</v>
+        <v>736</v>
       </c>
       <c r="B158" t="s">
-        <v>743</v>
+        <v>737</v>
       </c>
       <c r="C158" t="s">
-        <v>744</v>
+        <v>738</v>
       </c>
       <c r="D158" t="s">
-        <v>745</v>
+        <v>739</v>
       </c>
       <c r="E158" t="s">
-        <v>746</v>
+        <v>740</v>
       </c>
       <c r="F158" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
       <c r="H158">
         <f t="shared" si="12"/>
@@ -9451,22 +9463,22 @@
     </row>
     <row r="159" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>747</v>
+        <v>741</v>
       </c>
       <c r="B159" t="s">
-        <v>748</v>
+        <v>742</v>
       </c>
       <c r="C159" t="s">
-        <v>749</v>
+        <v>743</v>
       </c>
       <c r="D159" t="s">
-        <v>750</v>
+        <v>744</v>
       </c>
       <c r="E159" t="s">
-        <v>746</v>
+        <v>740</v>
       </c>
       <c r="F159" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
       <c r="H159">
         <f t="shared" si="12"/>
@@ -9483,22 +9495,22 @@
     </row>
     <row r="160" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>751</v>
+        <v>745</v>
       </c>
       <c r="B160" t="s">
-        <v>752</v>
+        <v>746</v>
       </c>
       <c r="C160" t="s">
-        <v>753</v>
+        <v>747</v>
       </c>
       <c r="D160" t="s">
-        <v>754</v>
+        <v>748</v>
       </c>
       <c r="E160" t="s">
-        <v>755</v>
+        <v>749</v>
       </c>
       <c r="F160" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
       <c r="H160">
         <f t="shared" si="12"/>
@@ -9515,22 +9527,22 @@
     </row>
     <row r="161" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>756</v>
+        <v>750</v>
       </c>
       <c r="B161" t="s">
-        <v>757</v>
+        <v>751</v>
       </c>
       <c r="C161" t="s">
-        <v>758</v>
+        <v>752</v>
       </c>
       <c r="D161" t="s">
-        <v>759</v>
+        <v>753</v>
       </c>
       <c r="E161" t="s">
-        <v>760</v>
+        <v>754</v>
       </c>
       <c r="F161" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="H161">
         <f t="shared" si="12"/>
@@ -9547,22 +9559,22 @@
     </row>
     <row r="162" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>761</v>
+        <v>755</v>
       </c>
       <c r="B162" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="C162" t="s">
-        <v>763</v>
+        <v>757</v>
       </c>
       <c r="D162" t="s">
-        <v>764</v>
+        <v>758</v>
       </c>
       <c r="E162" t="s">
-        <v>765</v>
+        <v>759</v>
       </c>
       <c r="F162" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
       <c r="H162">
         <f t="shared" si="12"/>
@@ -9579,22 +9591,22 @@
     </row>
     <row r="163" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>766</v>
+        <v>760</v>
       </c>
       <c r="B163" t="s">
-        <v>767</v>
+        <v>761</v>
       </c>
       <c r="C163" t="s">
         <v>291</v>
       </c>
       <c r="D163" t="s">
-        <v>768</v>
+        <v>762</v>
       </c>
       <c r="E163" t="s">
-        <v>769</v>
+        <v>763</v>
       </c>
       <c r="F163" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
       <c r="H163">
         <f t="shared" si="12"/>
@@ -9611,22 +9623,22 @@
     </row>
     <row r="164" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>751</v>
+        <v>745</v>
       </c>
       <c r="B164" t="s">
-        <v>752</v>
+        <v>746</v>
       </c>
       <c r="C164" t="s">
-        <v>753</v>
+        <v>747</v>
       </c>
       <c r="D164" t="s">
-        <v>754</v>
+        <v>748</v>
       </c>
       <c r="E164" t="s">
-        <v>755</v>
+        <v>1045</v>
       </c>
       <c r="F164" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
       <c r="H164">
         <f t="shared" si="12"/>
@@ -9643,22 +9655,22 @@
     </row>
     <row r="165" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>770</v>
+        <v>764</v>
       </c>
       <c r="B165" t="s">
-        <v>771</v>
+        <v>765</v>
       </c>
       <c r="C165" t="s">
-        <v>772</v>
+        <v>766</v>
       </c>
       <c r="D165" t="s">
-        <v>773</v>
+        <v>767</v>
       </c>
       <c r="E165" t="s">
-        <v>774</v>
+        <v>768</v>
       </c>
       <c r="F165" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
       <c r="H165">
         <f t="shared" si="12"/>
@@ -9678,19 +9690,19 @@
         <v>536</v>
       </c>
       <c r="B166" t="s">
-        <v>775</v>
+        <v>769</v>
       </c>
       <c r="C166" t="s">
-        <v>776</v>
+        <v>770</v>
       </c>
       <c r="D166" t="s">
-        <v>777</v>
+        <v>771</v>
       </c>
       <c r="E166" t="s">
-        <v>778</v>
+        <v>772</v>
       </c>
       <c r="F166" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
       <c r="H166">
         <f t="shared" si="12"/>
@@ -9707,22 +9719,22 @@
     </row>
     <row r="167" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>779</v>
+        <v>773</v>
       </c>
       <c r="B167" t="s">
-        <v>780</v>
+        <v>1046</v>
       </c>
       <c r="C167" t="s">
-        <v>781</v>
+        <v>774</v>
       </c>
       <c r="D167" t="s">
-        <v>782</v>
+        <v>775</v>
       </c>
       <c r="E167" t="s">
-        <v>783</v>
+        <v>776</v>
       </c>
       <c r="F167" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="H167">
         <f t="shared" si="12"/>
@@ -9739,22 +9751,22 @@
     </row>
     <row r="168" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>784</v>
+        <v>777</v>
       </c>
       <c r="B168" t="s">
-        <v>785</v>
+        <v>778</v>
       </c>
       <c r="C168" t="s">
-        <v>786</v>
+        <v>779</v>
       </c>
       <c r="D168" t="s">
-        <v>787</v>
+        <v>780</v>
       </c>
       <c r="E168" t="s">
-        <v>788</v>
+        <v>781</v>
       </c>
       <c r="F168" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="H168">
         <f t="shared" si="12"/>
@@ -9771,22 +9783,22 @@
     </row>
     <row r="169" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>789</v>
+        <v>782</v>
       </c>
       <c r="B169" t="s">
         <v>512</v>
       </c>
       <c r="C169" t="s">
-        <v>790</v>
+        <v>783</v>
       </c>
       <c r="D169" t="s">
-        <v>791</v>
+        <v>784</v>
       </c>
       <c r="E169" t="s">
-        <v>792</v>
+        <v>785</v>
       </c>
       <c r="F169" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="H169">
         <f t="shared" si="12"/>
@@ -9803,22 +9815,22 @@
     </row>
     <row r="170" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>793</v>
+        <v>786</v>
       </c>
       <c r="B170" t="s">
-        <v>794</v>
+        <v>787</v>
       </c>
       <c r="C170" t="s">
-        <v>795</v>
+        <v>788</v>
       </c>
       <c r="D170" t="s">
-        <v>796</v>
+        <v>789</v>
       </c>
       <c r="E170" t="s">
-        <v>797</v>
+        <v>790</v>
       </c>
       <c r="F170" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="H170">
         <f t="shared" si="12"/>
@@ -9835,22 +9847,22 @@
     </row>
     <row r="171" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>798</v>
+        <v>791</v>
       </c>
       <c r="B171" t="s">
-        <v>799</v>
+        <v>792</v>
       </c>
       <c r="C171" t="s">
-        <v>800</v>
+        <v>793</v>
       </c>
       <c r="D171" t="s">
-        <v>801</v>
+        <v>794</v>
       </c>
       <c r="E171" t="s">
-        <v>802</v>
+        <v>795</v>
       </c>
       <c r="F171" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="H171">
         <f t="shared" si="12"/>
@@ -9870,19 +9882,19 @@
         <v>403</v>
       </c>
       <c r="B172" t="s">
-        <v>803</v>
+        <v>796</v>
       </c>
       <c r="C172" t="s">
-        <v>804</v>
+        <v>797</v>
       </c>
       <c r="D172" t="s">
-        <v>805</v>
+        <v>798</v>
       </c>
       <c r="E172" t="s">
         <v>103</v>
       </c>
       <c r="F172" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="H172">
         <f t="shared" si="12"/>
@@ -9899,22 +9911,22 @@
     </row>
     <row r="173" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>806</v>
+        <v>799</v>
       </c>
       <c r="B173" t="s">
-        <v>807</v>
+        <v>800</v>
       </c>
       <c r="C173" t="s">
-        <v>808</v>
+        <v>801</v>
       </c>
       <c r="D173" t="s">
-        <v>809</v>
+        <v>802</v>
       </c>
       <c r="E173" t="s">
-        <v>810</v>
+        <v>803</v>
       </c>
       <c r="F173" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="H173">
         <f t="shared" si="12"/>
@@ -9931,22 +9943,22 @@
     </row>
     <row r="174" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>811</v>
+        <v>804</v>
       </c>
       <c r="B174" t="s">
-        <v>812</v>
+        <v>805</v>
       </c>
       <c r="C174" t="s">
-        <v>813</v>
+        <v>806</v>
       </c>
       <c r="D174" t="s">
-        <v>814</v>
+        <v>807</v>
       </c>
       <c r="E174" t="s">
-        <v>815</v>
+        <v>808</v>
       </c>
       <c r="F174" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="H174">
         <f t="shared" si="12"/>
@@ -9963,22 +9975,22 @@
     </row>
     <row r="175" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>816</v>
+        <v>809</v>
       </c>
       <c r="B175" t="s">
-        <v>817</v>
+        <v>810</v>
       </c>
       <c r="C175" t="s">
-        <v>818</v>
+        <v>811</v>
       </c>
       <c r="D175" t="s">
-        <v>819</v>
+        <v>812</v>
       </c>
       <c r="E175" t="s">
-        <v>820</v>
+        <v>813</v>
       </c>
       <c r="F175" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="H175">
         <f t="shared" si="12"/>
@@ -9995,22 +10007,22 @@
     </row>
     <row r="176" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>821</v>
+        <v>814</v>
       </c>
       <c r="B176" t="s">
         <v>299</v>
       </c>
       <c r="C176" t="s">
-        <v>822</v>
+        <v>815</v>
       </c>
       <c r="D176" t="s">
-        <v>823</v>
+        <v>816</v>
       </c>
       <c r="E176" t="s">
-        <v>824</v>
+        <v>817</v>
       </c>
       <c r="F176" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="H176">
         <f t="shared" si="12"/>
@@ -10027,22 +10039,22 @@
     </row>
     <row r="177" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>825</v>
+        <v>818</v>
       </c>
       <c r="B177" t="s">
-        <v>826</v>
+        <v>819</v>
       </c>
       <c r="C177" t="s">
-        <v>827</v>
+        <v>820</v>
       </c>
       <c r="D177" t="s">
-        <v>828</v>
+        <v>821</v>
       </c>
       <c r="E177" t="s">
-        <v>829</v>
+        <v>822</v>
       </c>
       <c r="F177" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="H177">
         <f t="shared" si="12"/>
@@ -10059,22 +10071,22 @@
     </row>
     <row r="178" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>835</v>
+        <v>828</v>
       </c>
       <c r="B178" t="s">
         <v>516</v>
       </c>
       <c r="C178" t="s">
-        <v>836</v>
+        <v>829</v>
       </c>
       <c r="D178" t="s">
-        <v>837</v>
+        <v>830</v>
       </c>
       <c r="E178" t="s">
-        <v>838</v>
+        <v>831</v>
       </c>
       <c r="F178" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="H178">
         <f t="shared" si="12"/>
@@ -10091,22 +10103,22 @@
     </row>
     <row r="179" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>839</v>
+        <v>832</v>
       </c>
       <c r="B179" t="s">
-        <v>840</v>
+        <v>833</v>
       </c>
       <c r="C179" t="s">
-        <v>841</v>
+        <v>834</v>
       </c>
       <c r="D179" t="s">
-        <v>842</v>
+        <v>835</v>
       </c>
       <c r="E179" t="s">
-        <v>843</v>
+        <v>836</v>
       </c>
       <c r="F179" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="H179">
         <f t="shared" si="12"/>
@@ -10123,22 +10135,22 @@
     </row>
     <row r="180" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>844</v>
+        <v>837</v>
       </c>
       <c r="B180" t="s">
-        <v>845</v>
+        <v>838</v>
       </c>
       <c r="C180" t="s">
-        <v>846</v>
+        <v>839</v>
       </c>
       <c r="D180" t="s">
-        <v>847</v>
+        <v>840</v>
       </c>
       <c r="E180" t="s">
-        <v>848</v>
+        <v>841</v>
       </c>
       <c r="F180" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
       <c r="H180">
         <f t="shared" si="12"/>
@@ -10155,22 +10167,22 @@
     </row>
     <row r="181" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>849</v>
+        <v>842</v>
       </c>
       <c r="B181" t="s">
-        <v>850</v>
+        <v>843</v>
       </c>
       <c r="C181" t="s">
-        <v>851</v>
+        <v>844</v>
       </c>
       <c r="D181" t="s">
-        <v>852</v>
+        <v>845</v>
       </c>
       <c r="E181" t="s">
-        <v>853</v>
+        <v>846</v>
       </c>
       <c r="F181" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
       <c r="H181">
         <f t="shared" si="12"/>
@@ -10187,22 +10199,22 @@
     </row>
     <row r="182" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>747</v>
+        <v>741</v>
       </c>
       <c r="B182" t="s">
-        <v>748</v>
+        <v>742</v>
       </c>
       <c r="C182" t="s">
-        <v>749</v>
+        <v>743</v>
       </c>
       <c r="D182" t="s">
-        <v>750</v>
+        <v>744</v>
       </c>
       <c r="E182" t="s">
-        <v>746</v>
+        <v>740</v>
       </c>
       <c r="F182" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
       <c r="H182">
         <f t="shared" si="12"/>
@@ -10219,22 +10231,22 @@
     </row>
     <row r="183" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>854</v>
+        <v>847</v>
       </c>
       <c r="B183" t="s">
-        <v>855</v>
+        <v>848</v>
       </c>
       <c r="C183" t="s">
-        <v>856</v>
+        <v>849</v>
       </c>
       <c r="D183" t="s">
-        <v>857</v>
+        <v>850</v>
       </c>
       <c r="E183" t="s">
-        <v>858</v>
+        <v>851</v>
       </c>
       <c r="F183" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="H183">
         <f t="shared" si="12"/>
@@ -10251,22 +10263,22 @@
     </row>
     <row r="184" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>859</v>
+        <v>852</v>
       </c>
       <c r="B184" t="s">
-        <v>860</v>
+        <v>853</v>
       </c>
       <c r="C184" t="s">
-        <v>861</v>
+        <v>854</v>
       </c>
       <c r="D184" t="s">
-        <v>862</v>
+        <v>855</v>
       </c>
       <c r="E184" t="s">
-        <v>863</v>
+        <v>856</v>
       </c>
       <c r="F184" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="H184">
         <f t="shared" si="12"/>
@@ -10283,22 +10295,22 @@
     </row>
     <row r="185" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>864</v>
+        <v>857</v>
       </c>
       <c r="B185" t="s">
-        <v>865</v>
+        <v>858</v>
       </c>
       <c r="C185" t="s">
-        <v>866</v>
+        <v>859</v>
       </c>
       <c r="D185" t="s">
-        <v>867</v>
+        <v>860</v>
       </c>
       <c r="E185" t="s">
-        <v>868</v>
+        <v>861</v>
       </c>
       <c r="F185" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="H185">
         <f t="shared" si="12"/>
@@ -10315,22 +10327,22 @@
     </row>
     <row r="186" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>869</v>
+        <v>862</v>
       </c>
       <c r="B186" t="s">
-        <v>870</v>
+        <v>863</v>
       </c>
       <c r="C186" t="s">
-        <v>871</v>
+        <v>864</v>
       </c>
       <c r="D186" t="s">
-        <v>872</v>
+        <v>865</v>
       </c>
       <c r="E186" t="s">
-        <v>873</v>
+        <v>866</v>
       </c>
       <c r="F186" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="H186">
         <f t="shared" si="12"/>
@@ -10347,22 +10359,22 @@
     </row>
     <row r="187" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>874</v>
+        <v>867</v>
       </c>
       <c r="B187" t="s">
-        <v>875</v>
+        <v>868</v>
       </c>
       <c r="C187" t="s">
-        <v>876</v>
+        <v>869</v>
       </c>
       <c r="D187" t="s">
-        <v>877</v>
+        <v>870</v>
       </c>
       <c r="E187" t="s">
-        <v>878</v>
+        <v>871</v>
       </c>
       <c r="F187" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="H187">
         <f t="shared" si="12"/>
@@ -10379,22 +10391,22 @@
     </row>
     <row r="188" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>879</v>
+        <v>872</v>
       </c>
       <c r="B188" t="s">
-        <v>880</v>
+        <v>873</v>
       </c>
       <c r="C188" t="s">
-        <v>881</v>
+        <v>874</v>
       </c>
       <c r="D188" t="s">
-        <v>882</v>
+        <v>875</v>
       </c>
       <c r="E188" t="s">
-        <v>883</v>
+        <v>876</v>
       </c>
       <c r="F188" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="H188">
         <f t="shared" ref="H188:H222" si="15">INT(J188/3)</f>
@@ -10411,22 +10423,22 @@
     </row>
     <row r="189" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>884</v>
+        <v>877</v>
       </c>
       <c r="B189" t="s">
         <v>169</v>
       </c>
       <c r="C189" t="s">
-        <v>885</v>
+        <v>878</v>
       </c>
       <c r="D189" t="s">
-        <v>886</v>
+        <v>879</v>
       </c>
       <c r="E189" t="s">
-        <v>887</v>
+        <v>880</v>
       </c>
       <c r="F189" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="H189">
         <f t="shared" si="15"/>
@@ -10443,22 +10455,22 @@
     </row>
     <row r="190" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>888</v>
+        <v>881</v>
       </c>
       <c r="B190" t="s">
-        <v>889</v>
+        <v>882</v>
       </c>
       <c r="C190" t="s">
-        <v>890</v>
+        <v>883</v>
       </c>
       <c r="D190" t="s">
-        <v>891</v>
+        <v>884</v>
       </c>
       <c r="E190" t="s">
-        <v>892</v>
+        <v>885</v>
       </c>
       <c r="F190" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="H190">
         <f t="shared" si="15"/>
@@ -10475,22 +10487,22 @@
     </row>
     <row r="191" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>677</v>
+        <v>672</v>
       </c>
       <c r="B191" t="s">
-        <v>893</v>
+        <v>886</v>
       </c>
       <c r="C191" t="s">
         <v>543</v>
       </c>
       <c r="D191" t="s">
-        <v>894</v>
+        <v>887</v>
       </c>
       <c r="E191" t="s">
-        <v>895</v>
+        <v>888</v>
       </c>
       <c r="F191" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="H191">
         <f t="shared" si="15"/>
@@ -10507,22 +10519,22 @@
     </row>
     <row r="192" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>742</v>
+        <v>736</v>
       </c>
       <c r="B192" t="s">
-        <v>743</v>
+        <v>737</v>
       </c>
       <c r="C192" t="s">
-        <v>744</v>
+        <v>738</v>
       </c>
       <c r="D192" t="s">
-        <v>745</v>
+        <v>739</v>
       </c>
       <c r="E192" t="s">
-        <v>746</v>
+        <v>740</v>
       </c>
       <c r="F192" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
       <c r="H192">
         <f t="shared" si="15"/>
@@ -10539,22 +10551,22 @@
     </row>
     <row r="193" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>896</v>
+        <v>889</v>
       </c>
       <c r="B193" t="s">
-        <v>897</v>
+        <v>890</v>
       </c>
       <c r="C193" t="s">
-        <v>898</v>
+        <v>891</v>
       </c>
       <c r="D193" t="s">
-        <v>899</v>
+        <v>892</v>
       </c>
       <c r="E193" t="s">
-        <v>900</v>
+        <v>893</v>
       </c>
       <c r="F193" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
       <c r="H193">
         <f t="shared" si="15"/>
@@ -10571,22 +10583,22 @@
     </row>
     <row r="194" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>901</v>
+        <v>894</v>
       </c>
       <c r="B194" t="s">
-        <v>902</v>
+        <v>895</v>
       </c>
       <c r="C194" t="s">
-        <v>903</v>
+        <v>896</v>
       </c>
       <c r="D194" t="s">
-        <v>904</v>
+        <v>897</v>
       </c>
       <c r="E194" t="s">
-        <v>905</v>
+        <v>898</v>
       </c>
       <c r="F194" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="H194">
         <f t="shared" si="15"/>
@@ -10603,22 +10615,22 @@
     </row>
     <row r="195" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>906</v>
+        <v>899</v>
       </c>
       <c r="B195" t="s">
-        <v>892</v>
+        <v>885</v>
       </c>
       <c r="C195" t="s">
-        <v>907</v>
+        <v>900</v>
       </c>
       <c r="D195" t="s">
-        <v>908</v>
+        <v>901</v>
       </c>
       <c r="E195" t="s">
-        <v>909</v>
+        <v>902</v>
       </c>
       <c r="F195" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="H195">
         <f t="shared" si="15"/>
@@ -10635,22 +10647,22 @@
     </row>
     <row r="196" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>910</v>
+        <v>903</v>
       </c>
       <c r="B196" t="s">
-        <v>911</v>
+        <v>904</v>
       </c>
       <c r="C196" t="s">
-        <v>912</v>
+        <v>905</v>
       </c>
       <c r="D196" t="s">
-        <v>913</v>
+        <v>906</v>
       </c>
       <c r="E196" t="s">
-        <v>914</v>
+        <v>907</v>
       </c>
       <c r="F196" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
       <c r="H196">
         <f t="shared" si="15"/>
@@ -10667,22 +10679,22 @@
     </row>
     <row r="197" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>915</v>
+        <v>908</v>
       </c>
       <c r="B197" t="s">
-        <v>916</v>
+        <v>909</v>
       </c>
       <c r="C197" t="s">
-        <v>917</v>
+        <v>910</v>
       </c>
       <c r="D197" t="s">
-        <v>918</v>
+        <v>911</v>
       </c>
       <c r="E197" t="s">
-        <v>919</v>
+        <v>912</v>
       </c>
       <c r="F197" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="H197">
         <f t="shared" si="15"/>
@@ -10699,22 +10711,22 @@
     </row>
     <row r="198" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>866</v>
+        <v>859</v>
       </c>
       <c r="B198" t="s">
-        <v>920</v>
+        <v>913</v>
       </c>
       <c r="C198" t="s">
-        <v>921</v>
+        <v>914</v>
       </c>
       <c r="D198" t="s">
-        <v>922</v>
+        <v>915</v>
       </c>
       <c r="E198" t="s">
-        <v>923</v>
+        <v>916</v>
       </c>
       <c r="F198" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="H198">
         <f t="shared" si="15"/>
@@ -10731,7 +10743,7 @@
     </row>
     <row r="199" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>809</v>
+        <v>802</v>
       </c>
       <c r="B199" t="s">
         <v>480</v>
@@ -10740,13 +10752,13 @@
         <v>487</v>
       </c>
       <c r="D199" t="s">
-        <v>924</v>
+        <v>917</v>
       </c>
       <c r="E199" t="s">
-        <v>925</v>
+        <v>918</v>
       </c>
       <c r="F199" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="H199">
         <f t="shared" si="15"/>
@@ -10763,22 +10775,22 @@
     </row>
     <row r="200" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>926</v>
+        <v>919</v>
       </c>
       <c r="B200" t="s">
-        <v>927</v>
+        <v>920</v>
       </c>
       <c r="C200" t="s">
-        <v>928</v>
+        <v>921</v>
       </c>
       <c r="D200" t="s">
-        <v>929</v>
+        <v>922</v>
       </c>
       <c r="E200" t="s">
-        <v>930</v>
+        <v>923</v>
       </c>
       <c r="F200" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
       <c r="H200">
         <f t="shared" si="15"/>
@@ -10795,22 +10807,22 @@
     </row>
     <row r="201" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>931</v>
+        <v>924</v>
       </c>
       <c r="B201" t="s">
-        <v>932</v>
+        <v>925</v>
       </c>
       <c r="C201" t="s">
-        <v>933</v>
+        <v>926</v>
       </c>
       <c r="D201" t="s">
-        <v>934</v>
+        <v>927</v>
       </c>
       <c r="E201" t="s">
-        <v>935</v>
+        <v>928</v>
       </c>
       <c r="F201" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="H201">
         <f t="shared" si="15"/>
@@ -10827,22 +10839,22 @@
     </row>
     <row r="202" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>936</v>
+        <v>929</v>
       </c>
       <c r="B202" t="s">
-        <v>937</v>
+        <v>930</v>
       </c>
       <c r="C202" t="s">
-        <v>938</v>
+        <v>931</v>
       </c>
       <c r="D202" t="s">
-        <v>939</v>
+        <v>932</v>
       </c>
       <c r="E202" t="s">
-        <v>940</v>
+        <v>933</v>
       </c>
       <c r="F202" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="H202">
         <f t="shared" si="15"/>
@@ -10862,19 +10874,19 @@
         <v>370</v>
       </c>
       <c r="B203" t="s">
-        <v>941</v>
+        <v>934</v>
       </c>
       <c r="C203" t="s">
-        <v>942</v>
+        <v>935</v>
       </c>
       <c r="D203" t="s">
-        <v>943</v>
+        <v>936</v>
       </c>
       <c r="E203" t="s">
-        <v>944</v>
+        <v>937</v>
       </c>
       <c r="F203" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
       <c r="H203">
         <f t="shared" si="15"/>
@@ -10891,22 +10903,22 @@
     </row>
     <row r="204" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>945</v>
+        <v>938</v>
       </c>
       <c r="B204" t="s">
-        <v>946</v>
+        <v>939</v>
       </c>
       <c r="C204" t="s">
-        <v>947</v>
+        <v>940</v>
       </c>
       <c r="D204" t="s">
-        <v>948</v>
+        <v>941</v>
       </c>
       <c r="E204" t="s">
-        <v>949</v>
+        <v>942</v>
       </c>
       <c r="F204" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="H204">
         <f t="shared" si="15"/>
@@ -10923,22 +10935,22 @@
     </row>
     <row r="205" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>950</v>
+        <v>943</v>
       </c>
       <c r="B205" t="s">
-        <v>951</v>
+        <v>944</v>
       </c>
       <c r="C205" t="s">
-        <v>952</v>
+        <v>945</v>
       </c>
       <c r="D205" t="s">
-        <v>953</v>
+        <v>946</v>
       </c>
       <c r="E205" t="s">
-        <v>954</v>
+        <v>947</v>
       </c>
       <c r="F205" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="H205">
         <f t="shared" si="15"/>
@@ -10955,22 +10967,22 @@
     </row>
     <row r="206" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>955</v>
+        <v>948</v>
       </c>
       <c r="B206" t="s">
-        <v>912</v>
+        <v>905</v>
       </c>
       <c r="C206" t="s">
-        <v>956</v>
+        <v>949</v>
       </c>
       <c r="D206" t="s">
-        <v>957</v>
+        <v>950</v>
       </c>
       <c r="E206" t="s">
-        <v>958</v>
+        <v>951</v>
       </c>
       <c r="F206" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="H206">
         <f t="shared" si="15"/>
@@ -10987,22 +10999,22 @@
     </row>
     <row r="207" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>959</v>
+        <v>952</v>
       </c>
       <c r="B207" t="s">
-        <v>960</v>
+        <v>953</v>
       </c>
       <c r="C207" t="s">
         <v>391</v>
       </c>
       <c r="D207" t="s">
-        <v>961</v>
+        <v>954</v>
       </c>
       <c r="E207" t="s">
-        <v>962</v>
+        <v>955</v>
       </c>
       <c r="F207" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="H207">
         <f t="shared" si="15"/>
@@ -11019,22 +11031,22 @@
     </row>
     <row r="208" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>963</v>
+        <v>956</v>
       </c>
       <c r="B208" t="s">
-        <v>964</v>
+        <v>957</v>
       </c>
       <c r="C208" t="s">
-        <v>965</v>
+        <v>958</v>
       </c>
       <c r="D208" t="s">
-        <v>966</v>
+        <v>959</v>
       </c>
       <c r="E208" t="s">
-        <v>967</v>
+        <v>960</v>
       </c>
       <c r="F208" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="H208">
         <f t="shared" si="15"/>
@@ -11051,22 +11063,22 @@
     </row>
     <row r="209" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="B209" t="s">
-        <v>968</v>
+        <v>961</v>
       </c>
       <c r="C209" t="s">
-        <v>969</v>
+        <v>962</v>
       </c>
       <c r="D209" t="s">
-        <v>970</v>
+        <v>963</v>
       </c>
       <c r="E209" t="s">
-        <v>971</v>
+        <v>964</v>
       </c>
       <c r="F209" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="H209">
         <f t="shared" si="15"/>
@@ -11083,22 +11095,22 @@
     </row>
     <row r="210" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
-        <v>972</v>
+        <v>965</v>
       </c>
       <c r="B210" t="s">
-        <v>973</v>
+        <v>966</v>
       </c>
       <c r="C210" t="s">
-        <v>974</v>
+        <v>967</v>
       </c>
       <c r="D210" t="s">
-        <v>784</v>
+        <v>777</v>
       </c>
       <c r="E210" t="s">
-        <v>975</v>
+        <v>968</v>
       </c>
       <c r="F210" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="H210">
         <f t="shared" si="15"/>
@@ -11115,22 +11127,22 @@
     </row>
     <row r="211" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>976</v>
+        <v>969</v>
       </c>
       <c r="B211" t="s">
-        <v>977</v>
+        <v>970</v>
       </c>
       <c r="C211" t="s">
-        <v>978</v>
+        <v>971</v>
       </c>
       <c r="D211" t="s">
         <v>455</v>
       </c>
       <c r="E211" t="s">
-        <v>979</v>
+        <v>972</v>
       </c>
       <c r="F211" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="H211">
         <f t="shared" si="15"/>
@@ -11147,22 +11159,22 @@
     </row>
     <row r="212" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>980</v>
+        <v>973</v>
       </c>
       <c r="B212" t="s">
         <v>78</v>
       </c>
       <c r="C212" t="s">
-        <v>981</v>
+        <v>974</v>
       </c>
       <c r="D212" t="s">
-        <v>982</v>
+        <v>975</v>
       </c>
       <c r="E212" t="s">
-        <v>983</v>
+        <v>976</v>
       </c>
       <c r="F212" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="H212">
         <f t="shared" si="15"/>
@@ -11179,22 +11191,22 @@
     </row>
     <row r="213" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
-        <v>984</v>
+        <v>977</v>
       </c>
       <c r="B213" t="s">
-        <v>985</v>
+        <v>978</v>
       </c>
       <c r="C213" t="s">
-        <v>986</v>
+        <v>979</v>
       </c>
       <c r="D213" t="s">
-        <v>987</v>
+        <v>980</v>
       </c>
       <c r="E213" t="s">
-        <v>988</v>
+        <v>981</v>
       </c>
       <c r="F213" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="H213">
         <f t="shared" si="15"/>
@@ -11211,22 +11223,22 @@
     </row>
     <row r="214" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>989</v>
+        <v>982</v>
       </c>
       <c r="B214" t="s">
-        <v>990</v>
+        <v>983</v>
       </c>
       <c r="C214" t="s">
-        <v>991</v>
+        <v>984</v>
       </c>
       <c r="D214" t="s">
-        <v>992</v>
+        <v>985</v>
       </c>
       <c r="E214" t="s">
-        <v>993</v>
+        <v>986</v>
       </c>
       <c r="F214" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="H214">
         <f t="shared" si="15"/>
@@ -11246,19 +11258,19 @@
         <v>548</v>
       </c>
       <c r="B215" t="s">
-        <v>994</v>
+        <v>987</v>
       </c>
       <c r="C215" t="s">
-        <v>995</v>
+        <v>988</v>
       </c>
       <c r="D215" t="s">
-        <v>996</v>
+        <v>989</v>
       </c>
       <c r="E215" t="s">
-        <v>997</v>
+        <v>990</v>
       </c>
       <c r="F215" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="H215">
         <f t="shared" si="15"/>
@@ -11275,22 +11287,22 @@
     </row>
     <row r="216" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>998</v>
+        <v>991</v>
       </c>
       <c r="B216" t="s">
-        <v>999</v>
+        <v>992</v>
       </c>
       <c r="C216" t="s">
-        <v>1000</v>
+        <v>993</v>
       </c>
       <c r="D216" t="s">
-        <v>1001</v>
+        <v>994</v>
       </c>
       <c r="E216" t="s">
-        <v>1002</v>
+        <v>995</v>
       </c>
       <c r="F216" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="H216">
         <f t="shared" si="15"/>
@@ -11307,22 +11319,22 @@
     </row>
     <row r="217" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>1003</v>
+        <v>996</v>
       </c>
       <c r="B217" t="s">
-        <v>1004</v>
+        <v>997</v>
       </c>
       <c r="C217" t="s">
-        <v>943</v>
+        <v>936</v>
       </c>
       <c r="D217" t="s">
-        <v>1005</v>
+        <v>998</v>
       </c>
       <c r="E217" t="s">
-        <v>1006</v>
+        <v>999</v>
       </c>
       <c r="F217" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="H217">
         <f t="shared" si="15"/>
@@ -11339,22 +11351,22 @@
     </row>
     <row r="218" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
-        <v>720</v>
+        <v>715</v>
       </c>
       <c r="B218" t="s">
-        <v>1007</v>
+        <v>1000</v>
       </c>
       <c r="C218" t="s">
-        <v>1008</v>
+        <v>1001</v>
       </c>
       <c r="D218" t="s">
-        <v>1009</v>
+        <v>1002</v>
       </c>
       <c r="E218" t="s">
-        <v>1010</v>
+        <v>1003</v>
       </c>
       <c r="F218" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
       <c r="H218">
         <f t="shared" si="15"/>
@@ -11377,16 +11389,16 @@
         <v>474</v>
       </c>
       <c r="C219" t="s">
-        <v>1011</v>
+        <v>1004</v>
       </c>
       <c r="D219" t="s">
-        <v>1012</v>
+        <v>1005</v>
       </c>
       <c r="E219" t="s">
-        <v>1013</v>
+        <v>1006</v>
       </c>
       <c r="F219" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="H219">
         <f t="shared" si="15"/>
@@ -11403,22 +11415,22 @@
     </row>
     <row r="220" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
-        <v>1017</v>
+        <v>1010</v>
       </c>
       <c r="B220" t="s">
-        <v>1018</v>
+        <v>1011</v>
       </c>
       <c r="C220" t="s">
-        <v>1019</v>
+        <v>1012</v>
       </c>
       <c r="D220" t="s">
-        <v>1020</v>
+        <v>1013</v>
       </c>
       <c r="E220" t="s">
-        <v>1021</v>
+        <v>1014</v>
       </c>
       <c r="F220" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
       <c r="H220">
         <f t="shared" si="15"/>
@@ -11435,22 +11447,22 @@
     </row>
     <row r="221" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
-        <v>1022</v>
+        <v>1015</v>
       </c>
       <c r="B221" t="s">
-        <v>1023</v>
+        <v>1016</v>
       </c>
       <c r="C221" t="s">
-        <v>1024</v>
+        <v>1017</v>
       </c>
       <c r="D221" t="s">
-        <v>1025</v>
+        <v>1018</v>
       </c>
       <c r="E221" t="s">
-        <v>1026</v>
+        <v>1019</v>
       </c>
       <c r="F221" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="H221">
         <f t="shared" si="15"/>
@@ -11470,19 +11482,19 @@
         <v>14</v>
       </c>
       <c r="B222" t="s">
-        <v>1027</v>
+        <v>1020</v>
       </c>
       <c r="C222" t="s">
-        <v>1028</v>
+        <v>1021</v>
       </c>
       <c r="D222" t="s">
-        <v>1029</v>
+        <v>1022</v>
       </c>
       <c r="E222" t="s">
-        <v>805</v>
+        <v>798</v>
       </c>
       <c r="F222" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="H222">
         <f t="shared" si="15"/>

--- a/code/shabdakala/resource/sbwords.xlsx
+++ b/code/shabdakala/resource/sbwords.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hrishinene/shabdak_github/sbbd/shabdakala/code/shabdakala/resource/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3499A6A4-2688-7741-AFA2-D63617950E7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{054DF97B-E403-1548-B02A-9B2B857E0788}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{9F74AEE5-EB85-4044-AC84-8761A591B5C1}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1425" uniqueCount="1048">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1425" uniqueCount="1047">
   <si>
     <t>word0</t>
   </si>
@@ -764,9 +764,6 @@
     <t>होडी</t>
   </si>
   <si>
-    <t>वादळ</t>
-  </si>
-  <si>
     <t xml:space="preserve">कोळ्याच्या जीवनाशी संबंधित </t>
   </si>
   <si>
@@ -818,18 +815,12 @@
     <t xml:space="preserve"> वाळवंट </t>
   </si>
   <si>
-    <t>तापमापक</t>
-  </si>
-  <si>
     <t>तापमान</t>
   </si>
   <si>
     <t xml:space="preserve"> अतिवृष्टी</t>
   </si>
   <si>
-    <t xml:space="preserve"> हवामानखात्याशी संबंधित  </t>
-  </si>
-  <si>
     <t>कोन</t>
   </si>
   <si>
@@ -3177,6 +3168,12 @@
   </si>
   <si>
     <t xml:space="preserve">२६ (सव्वीस)  - चित्रपट, वर्ष, मैल वगैरे </t>
+  </si>
+  <si>
+    <t>चक्रीवादळ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">हवामानशास्त्र वेधशाळा आदींशी  संबंधित </t>
   </si>
 </sst>
 </file>
@@ -4103,8 +4100,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEA1707B-2FB7-B84C-9F84-E9F074F3056C}">
   <dimension ref="A1:L222"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A136" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E156" sqref="E156"/>
+    <sheetView tabSelected="1" topLeftCell="A79" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E126" sqref="E126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4113,7 +4110,7 @@
     <col min="2" max="2" width="16.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.83203125" customWidth="1"/>
     <col min="4" max="4" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="41.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="51" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.83203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="4" bestFit="1" customWidth="1"/>
@@ -4145,13 +4142,13 @@
         <v>6</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="L1" s="4">
         <v>45625</v>
@@ -4192,7 +4189,7 @@
       </c>
       <c r="L2" s="6">
         <f ca="1">TODAY()</f>
-        <v>45662</v>
+        <v>45665</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -4269,19 +4266,19 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>255</v>
+      </c>
+      <c r="B5" t="s">
         <v>256</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>257</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>258</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>259</v>
-      </c>
-      <c r="E5" t="s">
-        <v>260</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>85</v>
@@ -4377,22 +4374,22 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>329</v>
+      </c>
+      <c r="B8" t="s">
+        <v>330</v>
+      </c>
+      <c r="C8" t="s">
+        <v>331</v>
+      </c>
+      <c r="D8" t="s">
         <v>332</v>
       </c>
-      <c r="B8" t="s">
+      <c r="E8" t="s">
         <v>333</v>
       </c>
-      <c r="C8" t="s">
+      <c r="F8" t="s">
         <v>334</v>
-      </c>
-      <c r="D8" t="s">
-        <v>335</v>
-      </c>
-      <c r="E8" t="s">
-        <v>336</v>
-      </c>
-      <c r="F8" t="s">
-        <v>337</v>
       </c>
       <c r="G8" t="s">
         <v>87</v>
@@ -4412,22 +4409,22 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>319</v>
+      </c>
+      <c r="B9" t="s">
+        <v>320</v>
+      </c>
+      <c r="C9" t="s">
+        <v>321</v>
+      </c>
+      <c r="D9" t="s">
         <v>322</v>
       </c>
-      <c r="B9" t="s">
+      <c r="E9" t="s">
         <v>323</v>
       </c>
-      <c r="C9" t="s">
-        <v>324</v>
-      </c>
-      <c r="D9" t="s">
-        <v>325</v>
-      </c>
-      <c r="E9" t="s">
-        <v>326</v>
-      </c>
       <c r="F9" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="G9" t="s">
         <v>87</v>
@@ -4447,22 +4444,22 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>324</v>
+      </c>
+      <c r="B10" t="s">
+        <v>325</v>
+      </c>
+      <c r="C10" t="s">
+        <v>326</v>
+      </c>
+      <c r="D10" t="s">
         <v>327</v>
       </c>
-      <c r="B10" t="s">
+      <c r="E10" t="s">
         <v>328</v>
       </c>
-      <c r="C10" t="s">
-        <v>329</v>
-      </c>
-      <c r="D10" t="s">
-        <v>330</v>
-      </c>
-      <c r="E10" t="s">
-        <v>331</v>
-      </c>
       <c r="F10" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="G10" t="s">
         <v>87</v>
@@ -4482,22 +4479,22 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="B11" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="C11" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="D11" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="E11" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>139</v>
@@ -4517,19 +4514,19 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
+        <v>343</v>
+      </c>
+      <c r="B12" t="s">
+        <v>344</v>
+      </c>
+      <c r="C12" t="s">
+        <v>351</v>
+      </c>
+      <c r="D12" t="s">
+        <v>345</v>
+      </c>
+      <c r="E12" t="s">
         <v>346</v>
-      </c>
-      <c r="B12" t="s">
-        <v>347</v>
-      </c>
-      <c r="C12" t="s">
-        <v>354</v>
-      </c>
-      <c r="D12" t="s">
-        <v>348</v>
-      </c>
-      <c r="E12" t="s">
-        <v>349</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>85</v>
@@ -4552,22 +4549,22 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="B13" t="s">
         <v>226</v>
       </c>
       <c r="C13" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="D13" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="E13" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>140</v>
@@ -4602,7 +4599,7 @@
         <v>132</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>87</v>
@@ -4704,10 +4701,10 @@
         <v>42</v>
       </c>
       <c r="E17" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>45</v>
@@ -4727,7 +4724,7 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="B18" t="s">
         <v>116</v>
@@ -4777,7 +4774,7 @@
         <v>13</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>8</v>
@@ -4835,7 +4832,7 @@
         <v>98</v>
       </c>
       <c r="B21" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="C21" t="s">
         <v>100</v>
@@ -4917,7 +4914,7 @@
         <v>41</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="G23" s="1" t="s">
         <v>8</v>
@@ -4952,7 +4949,7 @@
         <v>35</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="G24" s="1" t="s">
         <v>44</v>
@@ -4972,22 +4969,22 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
+        <v>362</v>
+      </c>
+      <c r="B25" t="s">
+        <v>363</v>
+      </c>
+      <c r="C25" t="s">
+        <v>364</v>
+      </c>
+      <c r="D25" t="s">
         <v>365</v>
       </c>
-      <c r="B25" t="s">
+      <c r="E25" t="s">
         <v>366</v>
       </c>
-      <c r="C25" t="s">
-        <v>367</v>
-      </c>
-      <c r="D25" t="s">
-        <v>368</v>
-      </c>
-      <c r="E25" t="s">
-        <v>369</v>
-      </c>
       <c r="F25" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>185</v>
@@ -5042,19 +5039,19 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
+        <v>250</v>
+      </c>
+      <c r="B27" t="s">
         <v>251</v>
       </c>
-      <c r="B27" t="s">
+      <c r="C27" t="s">
         <v>252</v>
       </c>
-      <c r="C27" t="s">
+      <c r="D27" t="s">
         <v>253</v>
       </c>
-      <c r="D27" t="s">
+      <c r="E27" t="s">
         <v>254</v>
-      </c>
-      <c r="E27" t="s">
-        <v>255</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>85</v>
@@ -5077,25 +5074,25 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
+        <v>405</v>
+      </c>
+      <c r="B28" t="s">
+        <v>406</v>
+      </c>
+      <c r="C28" t="s">
+        <v>407</v>
+      </c>
+      <c r="D28" t="s">
         <v>408</v>
       </c>
-      <c r="B28" t="s">
-        <v>409</v>
-      </c>
-      <c r="C28" t="s">
-        <v>410</v>
-      </c>
-      <c r="D28" t="s">
-        <v>411</v>
-      </c>
       <c r="E28" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="F28" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="H28">
         <f t="shared" si="7"/>
@@ -5182,19 +5179,19 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
+        <v>262</v>
+      </c>
+      <c r="B31" t="s">
+        <v>263</v>
+      </c>
+      <c r="C31" t="s">
+        <v>264</v>
+      </c>
+      <c r="D31" t="s">
         <v>265</v>
       </c>
-      <c r="B31" t="s">
+      <c r="E31" t="s">
         <v>266</v>
-      </c>
-      <c r="C31" t="s">
-        <v>267</v>
-      </c>
-      <c r="D31" t="s">
-        <v>268</v>
-      </c>
-      <c r="E31" t="s">
-        <v>269</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>85</v>
@@ -5217,22 +5214,22 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
+        <v>496</v>
+      </c>
+      <c r="B32" t="s">
+        <v>497</v>
+      </c>
+      <c r="C32" t="s">
+        <v>498</v>
+      </c>
+      <c r="D32" t="s">
         <v>499</v>
       </c>
-      <c r="B32" t="s">
+      <c r="E32" t="s">
         <v>500</v>
       </c>
-      <c r="C32" t="s">
-        <v>501</v>
-      </c>
-      <c r="D32" t="s">
-        <v>502</v>
-      </c>
-      <c r="E32" t="s">
-        <v>503</v>
-      </c>
       <c r="F32" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="H32">
         <f t="shared" si="7"/>
@@ -5249,22 +5246,22 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="B33" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="C33" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="D33" t="s">
         <v>228</v>
       </c>
       <c r="E33" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="F33" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="H33">
         <f t="shared" si="7"/>
@@ -5281,22 +5278,22 @@
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="B34" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="C34" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="D34" t="s">
         <v>48</v>
       </c>
       <c r="E34" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="F34" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="H34">
         <f t="shared" si="7"/>
@@ -5325,7 +5322,7 @@
         <v>63</v>
       </c>
       <c r="E35" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>85</v>
@@ -5360,10 +5357,10 @@
         <v>33</v>
       </c>
       <c r="E36" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="G36" s="1" t="s">
         <v>8</v>
@@ -5395,7 +5392,7 @@
         <v>111</v>
       </c>
       <c r="E37" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>85</v>
@@ -5418,22 +5415,22 @@
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
+        <v>615</v>
+      </c>
+      <c r="B38" t="s">
+        <v>493</v>
+      </c>
+      <c r="C38" t="s">
         <v>618</v>
       </c>
-      <c r="B38" t="s">
-        <v>496</v>
-      </c>
-      <c r="C38" t="s">
-        <v>621</v>
-      </c>
       <c r="D38" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="E38" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="F38" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="H38">
         <f t="shared" si="7"/>
@@ -5450,22 +5447,22 @@
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="B39" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="C39" t="s">
         <v>7</v>
       </c>
       <c r="D39" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="E39" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="F39" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="H39">
         <f t="shared" si="7"/>
@@ -5497,7 +5494,7 @@
         <v>207</v>
       </c>
       <c r="F40" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G40" s="1" t="s">
         <v>143</v>
@@ -5552,22 +5549,22 @@
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
+        <v>562</v>
+      </c>
+      <c r="B42" t="s">
+        <v>563</v>
+      </c>
+      <c r="C42" t="s">
+        <v>616</v>
+      </c>
+      <c r="D42" t="s">
+        <v>564</v>
+      </c>
+      <c r="E42" t="s">
         <v>565</v>
       </c>
-      <c r="B42" t="s">
-        <v>566</v>
-      </c>
-      <c r="C42" t="s">
-        <v>619</v>
-      </c>
-      <c r="D42" t="s">
-        <v>567</v>
-      </c>
-      <c r="E42" t="s">
-        <v>568</v>
-      </c>
       <c r="F42" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="H42">
         <f t="shared" si="7"/>
@@ -5584,22 +5581,22 @@
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
+        <v>574</v>
+      </c>
+      <c r="B43" t="s">
+        <v>575</v>
+      </c>
+      <c r="C43" t="s">
+        <v>576</v>
+      </c>
+      <c r="D43" t="s">
         <v>577</v>
       </c>
-      <c r="B43" t="s">
+      <c r="E43" t="s">
         <v>578</v>
       </c>
-      <c r="C43" t="s">
-        <v>579</v>
-      </c>
-      <c r="D43" t="s">
-        <v>580</v>
-      </c>
-      <c r="E43" t="s">
-        <v>581</v>
-      </c>
       <c r="F43" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="H43">
         <f t="shared" si="7"/>
@@ -5616,25 +5613,25 @@
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="B44" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="C44" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="D44" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="E44" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="F44" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="H44">
         <f t="shared" si="7"/>
@@ -5666,7 +5663,7 @@
         <v>197</v>
       </c>
       <c r="F45" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G45" s="1" t="s">
         <v>45</v>
@@ -5686,22 +5683,22 @@
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
+        <v>512</v>
+      </c>
+      <c r="B46" t="s">
+        <v>513</v>
+      </c>
+      <c r="C46" t="s">
+        <v>514</v>
+      </c>
+      <c r="D46" t="s">
+        <v>619</v>
+      </c>
+      <c r="E46" t="s">
         <v>515</v>
       </c>
-      <c r="B46" t="s">
-        <v>516</v>
-      </c>
-      <c r="C46" t="s">
-        <v>517</v>
-      </c>
-      <c r="D46" t="s">
-        <v>622</v>
-      </c>
-      <c r="E46" t="s">
-        <v>518</v>
-      </c>
       <c r="F46" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="H46">
         <f t="shared" si="7"/>
@@ -5721,19 +5718,19 @@
         <v>228</v>
       </c>
       <c r="B47" t="s">
+        <v>516</v>
+      </c>
+      <c r="C47" t="s">
+        <v>517</v>
+      </c>
+      <c r="D47" t="s">
+        <v>518</v>
+      </c>
+      <c r="E47" t="s">
         <v>519</v>
       </c>
-      <c r="C47" t="s">
-        <v>520</v>
-      </c>
-      <c r="D47" t="s">
-        <v>521</v>
-      </c>
-      <c r="E47" t="s">
-        <v>522</v>
-      </c>
       <c r="F47" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="H47">
         <f t="shared" si="7"/>
@@ -5750,22 +5747,22 @@
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
+        <v>520</v>
+      </c>
+      <c r="B48" t="s">
+        <v>521</v>
+      </c>
+      <c r="C48" t="s">
+        <v>522</v>
+      </c>
+      <c r="D48" t="s">
         <v>523</v>
       </c>
-      <c r="B48" t="s">
+      <c r="E48" t="s">
         <v>524</v>
       </c>
-      <c r="C48" t="s">
-        <v>525</v>
-      </c>
-      <c r="D48" t="s">
-        <v>526</v>
-      </c>
-      <c r="E48" t="s">
-        <v>527</v>
-      </c>
       <c r="F48" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="H48">
         <f t="shared" si="7"/>
@@ -5797,7 +5794,7 @@
         <v>192</v>
       </c>
       <c r="F49" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G49" s="1" t="s">
         <v>87</v>
@@ -5817,25 +5814,25 @@
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
+        <v>409</v>
+      </c>
+      <c r="B50" t="s">
+        <v>410</v>
+      </c>
+      <c r="C50" t="s">
+        <v>411</v>
+      </c>
+      <c r="D50" t="s">
+        <v>369</v>
+      </c>
+      <c r="E50" t="s">
         <v>412</v>
       </c>
-      <c r="B50" t="s">
-        <v>413</v>
-      </c>
-      <c r="C50" t="s">
-        <v>414</v>
-      </c>
-      <c r="D50" t="s">
-        <v>372</v>
-      </c>
-      <c r="E50" t="s">
-        <v>415</v>
-      </c>
       <c r="F50" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="H50">
         <f t="shared" si="7"/>
@@ -5858,7 +5855,7 @@
         <v>120</v>
       </c>
       <c r="C51" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="D51" t="s">
         <v>121</v>
@@ -5867,7 +5864,7 @@
         <v>122</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="G51" s="1" t="s">
         <v>142</v>
@@ -5887,7 +5884,7 @@
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="B52" t="s">
         <v>36</v>
@@ -5902,7 +5899,7 @@
         <v>39</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="G52" s="1" t="s">
         <v>8</v>
@@ -5960,7 +5957,7 @@
         <v>212</v>
       </c>
       <c r="B54" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="C54" t="s">
         <v>213</v>
@@ -5972,10 +5969,10 @@
         <v>215</v>
       </c>
       <c r="F54" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="H54">
         <f t="shared" si="7"/>
@@ -5992,25 +5989,25 @@
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
+        <v>375</v>
+      </c>
+      <c r="B55" t="s">
+        <v>376</v>
+      </c>
+      <c r="C55" t="s">
+        <v>377</v>
+      </c>
+      <c r="D55" t="s">
         <v>378</v>
       </c>
-      <c r="B55" t="s">
-        <v>379</v>
-      </c>
-      <c r="C55" t="s">
-        <v>380</v>
-      </c>
-      <c r="D55" t="s">
-        <v>381</v>
-      </c>
       <c r="E55" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="F55" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="H55">
         <f t="shared" si="7"/>
@@ -6030,19 +6027,19 @@
         <v>233</v>
       </c>
       <c r="B56" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="C56" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="D56" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="E56" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="F56" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="H56">
         <f t="shared" si="7"/>
@@ -6065,7 +6062,7 @@
         <v>232</v>
       </c>
       <c r="C57" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="D57" t="s">
         <v>234</v>
@@ -6074,7 +6071,7 @@
         <v>235</v>
       </c>
       <c r="F57" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G57" s="1" t="s">
         <v>139</v>
@@ -6094,22 +6091,22 @@
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
+        <v>628</v>
+      </c>
+      <c r="B58" t="s">
+        <v>629</v>
+      </c>
+      <c r="C58" t="s">
+        <v>630</v>
+      </c>
+      <c r="D58" t="s">
         <v>631</v>
       </c>
-      <c r="B58" t="s">
+      <c r="E58" t="s">
         <v>632</v>
       </c>
-      <c r="C58" t="s">
-        <v>633</v>
-      </c>
-      <c r="D58" t="s">
-        <v>634</v>
-      </c>
-      <c r="E58" t="s">
-        <v>635</v>
-      </c>
       <c r="F58" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="H58">
         <f t="shared" si="7"/>
@@ -6126,22 +6123,22 @@
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
+        <v>460</v>
+      </c>
+      <c r="B59" t="s">
+        <v>461</v>
+      </c>
+      <c r="C59" t="s">
+        <v>462</v>
+      </c>
+      <c r="D59" t="s">
         <v>463</v>
       </c>
-      <c r="B59" t="s">
-        <v>464</v>
-      </c>
-      <c r="C59" t="s">
-        <v>465</v>
-      </c>
-      <c r="D59" t="s">
-        <v>466</v>
-      </c>
       <c r="E59" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="F59" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="H59">
         <f t="shared" si="7"/>
@@ -6158,22 +6155,22 @@
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
+        <v>638</v>
+      </c>
+      <c r="B60" t="s">
+        <v>639</v>
+      </c>
+      <c r="C60" t="s">
+        <v>464</v>
+      </c>
+      <c r="D60" t="s">
+        <v>640</v>
+      </c>
+      <c r="E60" t="s">
         <v>641</v>
       </c>
-      <c r="B60" t="s">
-        <v>642</v>
-      </c>
-      <c r="C60" t="s">
-        <v>467</v>
-      </c>
-      <c r="D60" t="s">
-        <v>643</v>
-      </c>
-      <c r="E60" t="s">
-        <v>644</v>
-      </c>
       <c r="F60" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="H60">
         <f t="shared" ref="H60:H123" si="9">INT(J60/3)</f>
@@ -6190,22 +6187,22 @@
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="B61" t="s">
+        <v>465</v>
+      </c>
+      <c r="C61" t="s">
+        <v>466</v>
+      </c>
+      <c r="D61" t="s">
+        <v>467</v>
+      </c>
+      <c r="E61" t="s">
         <v>468</v>
       </c>
-      <c r="C61" t="s">
-        <v>469</v>
-      </c>
-      <c r="D61" t="s">
-        <v>470</v>
-      </c>
-      <c r="E61" t="s">
-        <v>471</v>
-      </c>
       <c r="F61" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="H61">
         <f t="shared" si="9"/>
@@ -6222,22 +6219,22 @@
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>1007</v>
+        <v>1004</v>
       </c>
       <c r="B62" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="C62" t="s">
-        <v>840</v>
+        <v>837</v>
       </c>
       <c r="D62" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="E62" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="F62" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="H62">
         <f t="shared" si="9"/>
@@ -6254,22 +6251,22 @@
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="B63" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="C63" t="s">
+        <v>624</v>
+      </c>
+      <c r="D63" t="s">
+        <v>625</v>
+      </c>
+      <c r="E63" t="s">
         <v>627</v>
       </c>
-      <c r="D63" t="s">
-        <v>628</v>
-      </c>
-      <c r="E63" t="s">
-        <v>630</v>
-      </c>
       <c r="F63" s="1" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="G63" s="1"/>
       <c r="H63">
@@ -6287,25 +6284,25 @@
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
+        <v>367</v>
+      </c>
+      <c r="B64" t="s">
+        <v>368</v>
+      </c>
+      <c r="C64" t="s">
+        <v>369</v>
+      </c>
+      <c r="D64" t="s">
         <v>370</v>
       </c>
-      <c r="B64" t="s">
+      <c r="E64" t="s">
         <v>371</v>
       </c>
-      <c r="C64" t="s">
-        <v>372</v>
-      </c>
-      <c r="D64" t="s">
-        <v>373</v>
-      </c>
-      <c r="E64" t="s">
-        <v>374</v>
-      </c>
       <c r="F64" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="H64">
         <f t="shared" si="9"/>
@@ -6337,10 +6334,10 @@
         <v>211</v>
       </c>
       <c r="F65" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="H65">
         <f t="shared" si="9"/>
@@ -6357,22 +6354,22 @@
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
+        <v>304</v>
+      </c>
+      <c r="B66" t="s">
+        <v>305</v>
+      </c>
+      <c r="C66" t="s">
+        <v>306</v>
+      </c>
+      <c r="D66" t="s">
         <v>307</v>
       </c>
-      <c r="B66" t="s">
-        <v>308</v>
-      </c>
-      <c r="C66" t="s">
-        <v>309</v>
-      </c>
-      <c r="D66" t="s">
-        <v>310</v>
-      </c>
       <c r="E66" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="F66" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="G66" s="1" t="s">
         <v>138</v>
@@ -6427,25 +6424,25 @@
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
+        <v>379</v>
+      </c>
+      <c r="B68" t="s">
+        <v>380</v>
+      </c>
+      <c r="C68" t="s">
+        <v>381</v>
+      </c>
+      <c r="D68" t="s">
         <v>382</v>
       </c>
-      <c r="B68" t="s">
-        <v>383</v>
-      </c>
-      <c r="C68" t="s">
-        <v>384</v>
-      </c>
-      <c r="D68" t="s">
-        <v>385</v>
-      </c>
       <c r="E68" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="F68" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="H68">
         <f t="shared" si="9"/>
@@ -6462,25 +6459,25 @@
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
+        <v>400</v>
+      </c>
+      <c r="B69" t="s">
+        <v>401</v>
+      </c>
+      <c r="C69" t="s">
+        <v>402</v>
+      </c>
+      <c r="D69" t="s">
         <v>403</v>
       </c>
-      <c r="B69" t="s">
+      <c r="E69" t="s">
         <v>404</v>
       </c>
-      <c r="C69" t="s">
-        <v>405</v>
-      </c>
-      <c r="D69" t="s">
-        <v>406</v>
-      </c>
-      <c r="E69" t="s">
-        <v>407</v>
-      </c>
       <c r="F69" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="H69">
         <f t="shared" si="9"/>
@@ -6497,22 +6494,22 @@
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="B70" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="C70" t="s">
         <v>210</v>
       </c>
       <c r="D70" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="E70" t="s">
-        <v>1023</v>
+        <v>1020</v>
       </c>
       <c r="F70" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="H70">
         <f t="shared" si="9"/>
@@ -6529,22 +6526,22 @@
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
+        <v>244</v>
+      </c>
+      <c r="B71" t="s">
         <v>245</v>
       </c>
-      <c r="B71" t="s">
+      <c r="C71" t="s">
         <v>246</v>
       </c>
-      <c r="C71" t="s">
+      <c r="D71" t="s">
         <v>247</v>
       </c>
-      <c r="D71" t="s">
+      <c r="E71" t="s">
         <v>248</v>
       </c>
-      <c r="E71" t="s">
+      <c r="F71" t="s">
         <v>249</v>
-      </c>
-      <c r="F71" t="s">
-        <v>250</v>
       </c>
       <c r="G71" s="1" t="s">
         <v>141</v>
@@ -6567,19 +6564,19 @@
         <v>213</v>
       </c>
       <c r="B72" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="C72" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="D72" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="E72" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="F72" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="H72">
         <f t="shared" si="9"/>
@@ -6596,22 +6593,22 @@
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
+        <v>569</v>
+      </c>
+      <c r="B73" t="s">
+        <v>570</v>
+      </c>
+      <c r="C73" t="s">
+        <v>571</v>
+      </c>
+      <c r="D73" t="s">
         <v>572</v>
       </c>
-      <c r="B73" t="s">
+      <c r="E73" t="s">
         <v>573</v>
       </c>
-      <c r="C73" t="s">
-        <v>574</v>
-      </c>
-      <c r="D73" t="s">
-        <v>575</v>
-      </c>
-      <c r="E73" t="s">
-        <v>576</v>
-      </c>
       <c r="F73" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="H73">
         <f t="shared" si="9"/>
@@ -6628,22 +6625,22 @@
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
+        <v>820</v>
+      </c>
+      <c r="B74" t="s">
+        <v>821</v>
+      </c>
+      <c r="C74" t="s">
+        <v>822</v>
+      </c>
+      <c r="D74" t="s">
         <v>823</v>
       </c>
-      <c r="B74" t="s">
+      <c r="E74" t="s">
         <v>824</v>
       </c>
-      <c r="C74" t="s">
-        <v>825</v>
-      </c>
-      <c r="D74" t="s">
-        <v>826</v>
-      </c>
-      <c r="E74" t="s">
-        <v>827</v>
-      </c>
       <c r="F74" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="H74">
         <f t="shared" si="9"/>
@@ -6660,25 +6657,25 @@
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
+        <v>413</v>
+      </c>
+      <c r="B75" t="s">
+        <v>414</v>
+      </c>
+      <c r="C75" t="s">
+        <v>415</v>
+      </c>
+      <c r="D75" t="s">
         <v>416</v>
       </c>
-      <c r="B75" t="s">
-        <v>417</v>
-      </c>
-      <c r="C75" t="s">
-        <v>418</v>
-      </c>
-      <c r="D75" t="s">
-        <v>419</v>
-      </c>
       <c r="E75" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="F75" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="H75">
         <f t="shared" si="9"/>
@@ -6695,22 +6692,22 @@
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
+        <v>275</v>
+      </c>
+      <c r="B76" t="s">
+        <v>276</v>
+      </c>
+      <c r="C76" t="s">
+        <v>277</v>
+      </c>
+      <c r="D76" t="s">
         <v>278</v>
       </c>
-      <c r="B76" t="s">
-        <v>279</v>
-      </c>
-      <c r="C76" t="s">
-        <v>280</v>
-      </c>
-      <c r="D76" t="s">
-        <v>281</v>
-      </c>
       <c r="E76" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="F76" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="G76" s="1" t="s">
         <v>138</v>
@@ -6730,22 +6727,22 @@
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
+        <v>288</v>
+      </c>
+      <c r="B77" t="s">
+        <v>289</v>
+      </c>
+      <c r="C77" t="s">
+        <v>290</v>
+      </c>
+      <c r="D77" t="s">
         <v>291</v>
       </c>
-      <c r="B77" t="s">
+      <c r="E77" t="s">
         <v>292</v>
       </c>
-      <c r="C77" t="s">
-        <v>293</v>
-      </c>
-      <c r="D77" t="s">
-        <v>294</v>
-      </c>
-      <c r="E77" t="s">
-        <v>295</v>
-      </c>
       <c r="F77" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="G77" s="1" t="s">
         <v>45</v>
@@ -6765,22 +6762,22 @@
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
+        <v>284</v>
+      </c>
+      <c r="B78" t="s">
+        <v>285</v>
+      </c>
+      <c r="C78" t="s">
+        <v>286</v>
+      </c>
+      <c r="D78" t="s">
         <v>287</v>
       </c>
-      <c r="B78" t="s">
-        <v>288</v>
-      </c>
-      <c r="C78" t="s">
-        <v>289</v>
-      </c>
-      <c r="D78" t="s">
-        <v>290</v>
-      </c>
       <c r="E78" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="F78" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="G78" s="1" t="s">
         <v>138</v>
@@ -6800,22 +6797,22 @@
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="B79" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="C79" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="D79" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="E79" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="F79" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="H79">
         <f t="shared" si="9"/>
@@ -6832,22 +6829,22 @@
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="B80" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="C80" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="D80" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="E80" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="F80" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="H80">
         <f t="shared" si="9"/>
@@ -6864,22 +6861,22 @@
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
+        <v>314</v>
+      </c>
+      <c r="B81" t="s">
+        <v>315</v>
+      </c>
+      <c r="C81" t="s">
+        <v>316</v>
+      </c>
+      <c r="D81" t="s">
         <v>317</v>
       </c>
-      <c r="B81" t="s">
+      <c r="E81" t="s">
         <v>318</v>
       </c>
-      <c r="C81" t="s">
-        <v>319</v>
-      </c>
-      <c r="D81" t="s">
-        <v>320</v>
-      </c>
-      <c r="E81" t="s">
-        <v>321</v>
-      </c>
       <c r="F81" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="G81" s="1" t="s">
         <v>138</v>
@@ -6902,19 +6899,19 @@
         <v>48</v>
       </c>
       <c r="B82" t="s">
-        <v>778</v>
+        <v>775</v>
       </c>
       <c r="C82" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="D82" t="s">
-        <v>1024</v>
+        <v>1021</v>
       </c>
       <c r="E82" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="F82" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="G82" s="1" t="s">
         <v>138</v>
@@ -6934,22 +6931,22 @@
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
+        <v>452</v>
+      </c>
+      <c r="B83" t="s">
+        <v>453</v>
+      </c>
+      <c r="C83" t="s">
+        <v>1023</v>
+      </c>
+      <c r="D83" t="s">
+        <v>454</v>
+      </c>
+      <c r="E83" t="s">
         <v>455</v>
       </c>
-      <c r="B83" t="s">
-        <v>456</v>
-      </c>
-      <c r="C83" t="s">
-        <v>1026</v>
-      </c>
-      <c r="D83" t="s">
-        <v>457</v>
-      </c>
-      <c r="E83" t="s">
-        <v>458</v>
-      </c>
       <c r="F83" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="H83">
         <f t="shared" si="9"/>
@@ -6966,22 +6963,22 @@
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>1029</v>
+        <v>1026</v>
       </c>
       <c r="B84" t="s">
-        <v>1028</v>
+        <v>1025</v>
       </c>
       <c r="C84" t="s">
-        <v>1025</v>
+        <v>1022</v>
       </c>
       <c r="D84" t="s">
-        <v>1027</v>
+        <v>1024</v>
       </c>
       <c r="E84" t="s">
-        <v>1023</v>
+        <v>1020</v>
       </c>
       <c r="F84" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="H84">
         <f t="shared" si="9"/>
@@ -6998,25 +6995,25 @@
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
+        <v>383</v>
+      </c>
+      <c r="B85" t="s">
+        <v>384</v>
+      </c>
+      <c r="C85" t="s">
+        <v>385</v>
+      </c>
+      <c r="D85" t="s">
         <v>386</v>
       </c>
-      <c r="B85" t="s">
+      <c r="E85" t="s">
         <v>387</v>
       </c>
-      <c r="C85" t="s">
-        <v>388</v>
-      </c>
-      <c r="D85" t="s">
-        <v>389</v>
-      </c>
-      <c r="E85" t="s">
-        <v>390</v>
-      </c>
       <c r="F85" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="H85">
         <f t="shared" si="9"/>
@@ -7048,7 +7045,7 @@
         <v>225</v>
       </c>
       <c r="F86" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G86" s="1" t="s">
         <v>138</v>
@@ -7068,22 +7065,22 @@
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
+        <v>469</v>
+      </c>
+      <c r="B87" t="s">
+        <v>470</v>
+      </c>
+      <c r="C87" t="s">
+        <v>471</v>
+      </c>
+      <c r="D87" t="s">
+        <v>1027</v>
+      </c>
+      <c r="E87" t="s">
         <v>472</v>
       </c>
-      <c r="B87" t="s">
-        <v>473</v>
-      </c>
-      <c r="C87" t="s">
-        <v>474</v>
-      </c>
-      <c r="D87" t="s">
-        <v>1030</v>
-      </c>
-      <c r="E87" t="s">
-        <v>475</v>
-      </c>
       <c r="F87" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="H87">
         <f t="shared" si="9"/>
@@ -7100,22 +7097,22 @@
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>1032</v>
+        <v>1029</v>
       </c>
       <c r="B88" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="C88" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="D88" t="s">
-        <v>1031</v>
+        <v>1028</v>
       </c>
       <c r="E88" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="F88" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="H88">
         <f t="shared" si="9"/>
@@ -7132,22 +7129,22 @@
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
+        <v>308</v>
+      </c>
+      <c r="B89" t="s">
+        <v>309</v>
+      </c>
+      <c r="C89" t="s">
+        <v>310</v>
+      </c>
+      <c r="D89" t="s">
         <v>311</v>
       </c>
-      <c r="B89" t="s">
+      <c r="E89" t="s">
         <v>312</v>
       </c>
-      <c r="C89" t="s">
+      <c r="F89" t="s">
         <v>313</v>
-      </c>
-      <c r="D89" t="s">
-        <v>314</v>
-      </c>
-      <c r="E89" t="s">
-        <v>315</v>
-      </c>
-      <c r="F89" t="s">
-        <v>316</v>
       </c>
       <c r="G89" s="1" t="s">
         <v>138</v>
@@ -7202,22 +7199,22 @@
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="B91" t="s">
-        <v>1033</v>
+        <v>1030</v>
       </c>
       <c r="C91" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="D91" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
       <c r="E91" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="F91" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="H91">
         <f t="shared" si="9"/>
@@ -7234,22 +7231,22 @@
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
+        <v>483</v>
+      </c>
+      <c r="B92" t="s">
+        <v>484</v>
+      </c>
+      <c r="C92" t="s">
+        <v>485</v>
+      </c>
+      <c r="D92" t="s">
         <v>486</v>
       </c>
-      <c r="B92" t="s">
+      <c r="E92" t="s">
         <v>487</v>
       </c>
-      <c r="C92" t="s">
-        <v>488</v>
-      </c>
-      <c r="D92" t="s">
-        <v>489</v>
-      </c>
-      <c r="E92" t="s">
-        <v>490</v>
-      </c>
       <c r="F92" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="H92">
         <f t="shared" si="9"/>
@@ -7266,22 +7263,22 @@
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
+        <v>488</v>
+      </c>
+      <c r="B93" t="s">
+        <v>489</v>
+      </c>
+      <c r="C93" t="s">
+        <v>490</v>
+      </c>
+      <c r="D93" t="s">
         <v>491</v>
       </c>
-      <c r="B93" t="s">
+      <c r="E93" t="s">
         <v>492</v>
       </c>
-      <c r="C93" t="s">
-        <v>493</v>
-      </c>
-      <c r="D93" t="s">
-        <v>494</v>
-      </c>
-      <c r="E93" t="s">
-        <v>495</v>
-      </c>
       <c r="F93" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="H93">
         <f t="shared" si="9"/>
@@ -7348,7 +7345,7 @@
         <v>202</v>
       </c>
       <c r="F95" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G95" s="1" t="s">
         <v>138</v>
@@ -7368,22 +7365,22 @@
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="B96" t="s">
         <v>228</v>
       </c>
       <c r="C96" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="D96" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="E96" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="F96" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="G96" s="1" t="s">
         <v>138</v>
@@ -7403,22 +7400,22 @@
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="B97" t="s">
-        <v>1035</v>
+        <v>1032</v>
       </c>
       <c r="C97" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="D97" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="E97" t="s">
         <v>162</v>
       </c>
       <c r="F97" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="H97">
         <f t="shared" si="9"/>
@@ -7438,19 +7435,19 @@
         <v>162</v>
       </c>
       <c r="B98" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="C98" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="D98" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="E98" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="F98" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="H98">
         <f t="shared" si="9"/>
@@ -7467,22 +7464,22 @@
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="B99" t="s">
-        <v>1036</v>
+        <v>1033</v>
       </c>
       <c r="C99" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="D99" t="s">
         <v>151</v>
       </c>
       <c r="E99" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="F99" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="H99">
         <f t="shared" si="9"/>
@@ -7499,25 +7496,25 @@
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
+        <v>389</v>
+      </c>
+      <c r="B100" t="s">
+        <v>390</v>
+      </c>
+      <c r="C100" t="s">
+        <v>391</v>
+      </c>
+      <c r="D100" t="s">
         <v>392</v>
       </c>
-      <c r="B100" t="s">
+      <c r="E100" t="s">
         <v>393</v>
       </c>
-      <c r="C100" t="s">
-        <v>394</v>
-      </c>
-      <c r="D100" t="s">
-        <v>395</v>
-      </c>
-      <c r="E100" t="s">
-        <v>396</v>
-      </c>
       <c r="F100" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="H100">
         <f t="shared" si="9"/>
@@ -7549,7 +7546,7 @@
         <v>30</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="G101" s="1" t="s">
         <v>46</v>
@@ -7578,7 +7575,7 @@
         <v>66</v>
       </c>
       <c r="D102" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="E102" t="s">
         <v>67</v>
@@ -7604,22 +7601,22 @@
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="B103" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="C103" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="D103" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="E103" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="F103" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="H103">
         <f t="shared" si="9"/>
@@ -7636,22 +7633,22 @@
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
+        <v>527</v>
+      </c>
+      <c r="B104" t="s">
+        <v>528</v>
+      </c>
+      <c r="C104" t="s">
+        <v>529</v>
+      </c>
+      <c r="D104" t="s">
         <v>530</v>
       </c>
-      <c r="B104" t="s">
+      <c r="E104" t="s">
         <v>531</v>
       </c>
-      <c r="C104" t="s">
-        <v>532</v>
-      </c>
-      <c r="D104" t="s">
-        <v>533</v>
-      </c>
-      <c r="E104" t="s">
-        <v>534</v>
-      </c>
       <c r="F104" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="H104">
         <f t="shared" si="9"/>
@@ -7668,22 +7665,22 @@
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="B105" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="C105" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="D105" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="E105" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="F105" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="H105">
         <f t="shared" si="9"/>
@@ -7700,22 +7697,22 @@
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
+        <v>535</v>
+      </c>
+      <c r="B106" t="s">
+        <v>536</v>
+      </c>
+      <c r="C106" t="s">
+        <v>537</v>
+      </c>
+      <c r="D106" t="s">
         <v>538</v>
       </c>
-      <c r="B106" t="s">
+      <c r="E106" t="s">
         <v>539</v>
       </c>
-      <c r="C106" t="s">
-        <v>540</v>
-      </c>
-      <c r="D106" t="s">
-        <v>541</v>
-      </c>
-      <c r="E106" t="s">
-        <v>542</v>
-      </c>
       <c r="F106" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="H106">
         <f t="shared" si="9"/>
@@ -7732,22 +7729,22 @@
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
+        <v>540</v>
+      </c>
+      <c r="B107" t="s">
+        <v>541</v>
+      </c>
+      <c r="C107" t="s">
+        <v>542</v>
+      </c>
+      <c r="D107" t="s">
         <v>543</v>
       </c>
-      <c r="B107" t="s">
+      <c r="E107" t="s">
         <v>544</v>
       </c>
-      <c r="C107" t="s">
-        <v>545</v>
-      </c>
-      <c r="D107" t="s">
-        <v>546</v>
-      </c>
-      <c r="E107" t="s">
-        <v>547</v>
-      </c>
       <c r="F107" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="H107">
         <f t="shared" si="9"/>
@@ -7849,10 +7846,10 @@
         <v>230</v>
       </c>
       <c r="F110" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="H110">
         <f t="shared" si="9"/>
@@ -7904,22 +7901,22 @@
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
+        <v>587</v>
+      </c>
+      <c r="B112" t="s">
+        <v>588</v>
+      </c>
+      <c r="C112" t="s">
+        <v>589</v>
+      </c>
+      <c r="D112" t="s">
         <v>590</v>
       </c>
-      <c r="B112" t="s">
+      <c r="E112" t="s">
         <v>591</v>
       </c>
-      <c r="C112" t="s">
-        <v>592</v>
-      </c>
-      <c r="D112" t="s">
-        <v>593</v>
-      </c>
-      <c r="E112" t="s">
-        <v>594</v>
-      </c>
       <c r="F112" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="H112">
         <f t="shared" si="9"/>
@@ -7936,22 +7933,22 @@
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
+        <v>508</v>
+      </c>
+      <c r="B113" t="s">
+        <v>459</v>
+      </c>
+      <c r="C113" t="s">
+        <v>509</v>
+      </c>
+      <c r="D113" t="s">
+        <v>510</v>
+      </c>
+      <c r="E113" t="s">
         <v>511</v>
       </c>
-      <c r="B113" t="s">
-        <v>462</v>
-      </c>
-      <c r="C113" t="s">
-        <v>512</v>
-      </c>
-      <c r="D113" t="s">
-        <v>513</v>
-      </c>
-      <c r="E113" t="s">
-        <v>514</v>
-      </c>
       <c r="F113" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="H113">
         <f t="shared" si="9"/>
@@ -7968,22 +7965,22 @@
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
+        <v>592</v>
+      </c>
+      <c r="B114" t="s">
+        <v>593</v>
+      </c>
+      <c r="C114" t="s">
+        <v>594</v>
+      </c>
+      <c r="D114" t="s">
         <v>595</v>
       </c>
-      <c r="B114" t="s">
+      <c r="E114" t="s">
         <v>596</v>
       </c>
-      <c r="C114" t="s">
+      <c r="F114" t="s">
         <v>597</v>
-      </c>
-      <c r="D114" t="s">
-        <v>598</v>
-      </c>
-      <c r="E114" t="s">
-        <v>599</v>
-      </c>
-      <c r="F114" t="s">
-        <v>600</v>
       </c>
       <c r="H114">
         <f t="shared" si="9"/>
@@ -8000,22 +7997,22 @@
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
+        <v>394</v>
+      </c>
+      <c r="B115" t="s">
+        <v>395</v>
+      </c>
+      <c r="C115" t="s">
+        <v>396</v>
+      </c>
+      <c r="D115" t="s">
         <v>397</v>
       </c>
-      <c r="B115" t="s">
-        <v>398</v>
-      </c>
-      <c r="C115" t="s">
-        <v>399</v>
-      </c>
-      <c r="D115" t="s">
-        <v>400</v>
-      </c>
       <c r="E115" s="7" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="F115" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="G115" s="1" t="s">
         <v>87</v>
@@ -8035,22 +8032,22 @@
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="B116" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="C116" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
       <c r="D116" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="E116" t="s">
-        <v>1038</v>
+        <v>1035</v>
       </c>
       <c r="F116" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="H116">
         <f t="shared" si="9"/>
@@ -8067,22 +8064,22 @@
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
+        <v>548</v>
+      </c>
+      <c r="B117" t="s">
+        <v>549</v>
+      </c>
+      <c r="C117" t="s">
+        <v>550</v>
+      </c>
+      <c r="D117" t="s">
         <v>551</v>
       </c>
-      <c r="B117" t="s">
-        <v>552</v>
-      </c>
-      <c r="C117" t="s">
-        <v>553</v>
-      </c>
-      <c r="D117" t="s">
-        <v>554</v>
-      </c>
       <c r="E117" t="s">
-        <v>1040</v>
+        <v>1037</v>
       </c>
       <c r="F117" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="H117">
         <f t="shared" si="9"/>
@@ -8099,22 +8096,22 @@
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="B118" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="C118" t="s">
-        <v>1039</v>
+        <v>1036</v>
       </c>
       <c r="D118" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="E118" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="F118" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="H118">
         <f t="shared" si="9"/>
@@ -8131,19 +8128,19 @@
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
+        <v>267</v>
+      </c>
+      <c r="B119" t="s">
+        <v>268</v>
+      </c>
+      <c r="C119" t="s">
+        <v>269</v>
+      </c>
+      <c r="D119" t="s">
         <v>270</v>
       </c>
-      <c r="B119" t="s">
+      <c r="E119" t="s">
         <v>271</v>
-      </c>
-      <c r="C119" t="s">
-        <v>272</v>
-      </c>
-      <c r="D119" t="s">
-        <v>273</v>
-      </c>
-      <c r="E119" t="s">
-        <v>274</v>
       </c>
       <c r="F119" s="1" t="s">
         <v>85</v>
@@ -8181,7 +8178,7 @@
         <v>240</v>
       </c>
       <c r="F120" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G120" s="1" t="s">
         <v>8</v>
@@ -8201,22 +8198,22 @@
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
+        <v>300</v>
+      </c>
+      <c r="B121" t="s">
+        <v>301</v>
+      </c>
+      <c r="C121" t="s">
+        <v>302</v>
+      </c>
+      <c r="D121" t="s">
         <v>303</v>
       </c>
-      <c r="B121" t="s">
-        <v>304</v>
-      </c>
-      <c r="C121" t="s">
-        <v>305</v>
-      </c>
-      <c r="D121" t="s">
-        <v>306</v>
-      </c>
       <c r="E121" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="F121" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="G121" s="1" t="s">
         <v>138</v>
@@ -8236,22 +8233,22 @@
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
+        <v>579</v>
+      </c>
+      <c r="B122" t="s">
+        <v>580</v>
+      </c>
+      <c r="C122" t="s">
+        <v>581</v>
+      </c>
+      <c r="D122" t="s">
         <v>582</v>
       </c>
-      <c r="B122" t="s">
+      <c r="E122" t="s">
         <v>583</v>
       </c>
-      <c r="C122" t="s">
-        <v>584</v>
-      </c>
-      <c r="D122" t="s">
-        <v>585</v>
-      </c>
-      <c r="E122" t="s">
-        <v>586</v>
-      </c>
       <c r="F122" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="H122">
         <f t="shared" si="9"/>
@@ -8268,22 +8265,22 @@
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="B123" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="C123" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="D123" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="E123" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="F123" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="G123" s="1" t="s">
         <v>138</v>
@@ -8303,25 +8300,25 @@
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>1041</v>
+        <v>1038</v>
       </c>
       <c r="B124" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="C124" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="D124" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="E124" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="F124" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="G124" s="1" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="H124">
         <f t="shared" ref="H124:H187" si="12">INT(J124/3)</f>
@@ -8338,19 +8335,19 @@
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
+        <v>514</v>
+      </c>
+      <c r="B125" t="s">
+        <v>260</v>
+      </c>
+      <c r="C125" t="s">
         <v>261</v>
       </c>
-      <c r="B125" t="s">
-        <v>262</v>
-      </c>
-      <c r="C125" t="s">
-        <v>263</v>
-      </c>
       <c r="D125" t="s">
-        <v>243</v>
+        <v>1045</v>
       </c>
       <c r="E125" t="s">
-        <v>264</v>
+        <v>1046</v>
       </c>
       <c r="F125" s="1" t="s">
         <v>85</v>
@@ -8382,13 +8379,13 @@
         <v>242</v>
       </c>
       <c r="D126" t="s">
-        <v>1042</v>
+        <v>1039</v>
       </c>
       <c r="E126" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F126" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G126" s="1" t="s">
         <v>141</v>
@@ -8408,22 +8405,22 @@
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>1043</v>
+        <v>1040</v>
       </c>
       <c r="B127" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="C127" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="D127" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="E127" t="s">
-        <v>1044</v>
+        <v>1041</v>
       </c>
       <c r="F127" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="H127">
         <f t="shared" si="12"/>
@@ -8440,22 +8437,22 @@
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="B128" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C128" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="D128" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="E128" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="F128" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="G128" s="1" t="s">
         <v>138</v>
@@ -8475,22 +8472,22 @@
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
+        <v>293</v>
+      </c>
+      <c r="B129" t="s">
+        <v>294</v>
+      </c>
+      <c r="C129" t="s">
+        <v>295</v>
+      </c>
+      <c r="D129" t="s">
         <v>296</v>
       </c>
-      <c r="B129" t="s">
-        <v>297</v>
-      </c>
-      <c r="C129" t="s">
-        <v>298</v>
-      </c>
-      <c r="D129" t="s">
-        <v>299</v>
-      </c>
       <c r="E129" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="F129" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="G129" s="1" t="s">
         <v>138</v>
@@ -8525,7 +8522,7 @@
         <v>220</v>
       </c>
       <c r="F130" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G130" s="1" t="s">
         <v>8</v>
@@ -8615,22 +8612,22 @@
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
+        <v>430</v>
+      </c>
+      <c r="B133" t="s">
+        <v>431</v>
+      </c>
+      <c r="C133" t="s">
+        <v>432</v>
+      </c>
+      <c r="D133" t="s">
         <v>433</v>
       </c>
-      <c r="B133" t="s">
+      <c r="E133" t="s">
         <v>434</v>
       </c>
-      <c r="C133" t="s">
+      <c r="F133" s="1" t="s">
         <v>435</v>
-      </c>
-      <c r="D133" t="s">
-        <v>436</v>
-      </c>
-      <c r="E133" t="s">
-        <v>437</v>
-      </c>
-      <c r="F133" s="1" t="s">
-        <v>438</v>
       </c>
       <c r="G133" s="1" t="s">
         <v>186</v>
@@ -8653,19 +8650,19 @@
         <v>198</v>
       </c>
       <c r="B134" t="s">
+        <v>436</v>
+      </c>
+      <c r="C134" t="s">
+        <v>437</v>
+      </c>
+      <c r="D134" t="s">
+        <v>438</v>
+      </c>
+      <c r="E134" t="s">
         <v>439</v>
       </c>
-      <c r="C134" t="s">
+      <c r="F134" t="s">
         <v>440</v>
-      </c>
-      <c r="D134" t="s">
-        <v>441</v>
-      </c>
-      <c r="E134" t="s">
-        <v>442</v>
-      </c>
-      <c r="F134" t="s">
-        <v>443</v>
       </c>
       <c r="G134" s="1" t="s">
         <v>138</v>
@@ -8685,25 +8682,25 @@
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
+        <v>441</v>
+      </c>
+      <c r="B135" t="s">
+        <v>442</v>
+      </c>
+      <c r="C135" t="s">
+        <v>443</v>
+      </c>
+      <c r="D135" t="s">
         <v>444</v>
       </c>
-      <c r="B135" t="s">
+      <c r="E135" t="s">
         <v>445</v>
       </c>
-      <c r="C135" t="s">
-        <v>446</v>
-      </c>
-      <c r="D135" t="s">
-        <v>447</v>
-      </c>
-      <c r="E135" t="s">
-        <v>448</v>
-      </c>
       <c r="F135" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="G135" s="1" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="H135">
         <f t="shared" si="12"/>
@@ -8720,25 +8717,25 @@
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
+        <v>446</v>
+      </c>
+      <c r="B136" t="s">
+        <v>447</v>
+      </c>
+      <c r="C136" t="s">
+        <v>448</v>
+      </c>
+      <c r="D136" t="s">
         <v>449</v>
       </c>
-      <c r="B136" t="s">
+      <c r="E136" t="s">
         <v>450</v>
       </c>
-      <c r="C136" t="s">
+      <c r="F136" t="s">
+        <v>435</v>
+      </c>
+      <c r="G136" s="1" t="s">
         <v>451</v>
-      </c>
-      <c r="D136" t="s">
-        <v>452</v>
-      </c>
-      <c r="E136" t="s">
-        <v>453</v>
-      </c>
-      <c r="F136" t="s">
-        <v>438</v>
-      </c>
-      <c r="G136" s="1" t="s">
-        <v>454</v>
       </c>
       <c r="H136">
         <f t="shared" si="12"/>
@@ -8755,22 +8752,22 @@
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="B137" t="s">
         <v>232</v>
       </c>
       <c r="C137" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="D137" t="s">
         <v>231</v>
       </c>
       <c r="E137" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="F137" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="H137">
         <f t="shared" si="12"/>
@@ -8799,10 +8796,10 @@
         <v>43</v>
       </c>
       <c r="E138" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="G138" s="1" t="s">
         <v>47</v>
@@ -8822,22 +8819,22 @@
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
+        <v>658</v>
+      </c>
+      <c r="B139" t="s">
+        <v>659</v>
+      </c>
+      <c r="C139" t="s">
+        <v>660</v>
+      </c>
+      <c r="D139" t="s">
         <v>661</v>
       </c>
-      <c r="B139" t="s">
+      <c r="E139" t="s">
         <v>662</v>
       </c>
-      <c r="C139" t="s">
-        <v>663</v>
-      </c>
-      <c r="D139" t="s">
-        <v>664</v>
-      </c>
-      <c r="E139" t="s">
-        <v>665</v>
-      </c>
       <c r="F139" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="G139" s="1"/>
       <c r="H139">
@@ -8855,22 +8852,22 @@
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
+        <v>643</v>
+      </c>
+      <c r="B140" t="s">
+        <v>644</v>
+      </c>
+      <c r="C140" t="s">
+        <v>645</v>
+      </c>
+      <c r="D140" t="s">
         <v>646</v>
       </c>
-      <c r="B140" t="s">
+      <c r="E140" t="s">
         <v>647</v>
       </c>
-      <c r="C140" t="s">
-        <v>648</v>
-      </c>
-      <c r="D140" t="s">
-        <v>649</v>
-      </c>
-      <c r="E140" t="s">
-        <v>650</v>
-      </c>
       <c r="F140" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="H140">
         <f t="shared" si="12"/>
@@ -8887,22 +8884,22 @@
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
+        <v>648</v>
+      </c>
+      <c r="B141" t="s">
+        <v>649</v>
+      </c>
+      <c r="C141" t="s">
+        <v>650</v>
+      </c>
+      <c r="D141" t="s">
         <v>651</v>
       </c>
-      <c r="B141" t="s">
+      <c r="E141" t="s">
         <v>652</v>
       </c>
-      <c r="C141" t="s">
-        <v>653</v>
-      </c>
-      <c r="D141" t="s">
-        <v>654</v>
-      </c>
-      <c r="E141" t="s">
-        <v>655</v>
-      </c>
       <c r="F141" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="H141">
         <f t="shared" si="12"/>
@@ -8919,22 +8916,22 @@
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
+        <v>653</v>
+      </c>
+      <c r="B142" t="s">
+        <v>654</v>
+      </c>
+      <c r="C142" t="s">
+        <v>655</v>
+      </c>
+      <c r="D142" t="s">
         <v>656</v>
       </c>
-      <c r="B142" t="s">
+      <c r="E142" t="s">
         <v>657</v>
       </c>
-      <c r="C142" t="s">
-        <v>658</v>
-      </c>
-      <c r="D142" t="s">
-        <v>659</v>
-      </c>
-      <c r="E142" t="s">
-        <v>660</v>
-      </c>
       <c r="F142" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="H142">
         <f t="shared" si="12"/>
@@ -8951,22 +8948,22 @@
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
+        <v>663</v>
+      </c>
+      <c r="B143" t="s">
+        <v>664</v>
+      </c>
+      <c r="C143" t="s">
+        <v>665</v>
+      </c>
+      <c r="D143" t="s">
         <v>666</v>
       </c>
-      <c r="B143" t="s">
+      <c r="E143" t="s">
         <v>667</v>
       </c>
-      <c r="C143" t="s">
-        <v>668</v>
-      </c>
-      <c r="D143" t="s">
-        <v>669</v>
-      </c>
-      <c r="E143" t="s">
-        <v>670</v>
-      </c>
       <c r="F143" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="H143">
         <f t="shared" si="12"/>
@@ -8983,22 +8980,22 @@
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="B144" t="s">
         <v>228</v>
       </c>
       <c r="C144" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="D144" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="E144" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="F144" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="H144">
         <f t="shared" si="12"/>
@@ -9015,22 +9012,22 @@
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
+        <v>672</v>
+      </c>
+      <c r="B145" t="s">
+        <v>673</v>
+      </c>
+      <c r="C145" t="s">
+        <v>674</v>
+      </c>
+      <c r="D145" t="s">
         <v>675</v>
       </c>
-      <c r="B145" t="s">
+      <c r="E145" t="s">
         <v>676</v>
       </c>
-      <c r="C145" t="s">
-        <v>677</v>
-      </c>
-      <c r="D145" t="s">
-        <v>678</v>
-      </c>
-      <c r="E145" t="s">
-        <v>679</v>
-      </c>
       <c r="F145" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="H145">
         <f t="shared" si="12"/>
@@ -9047,22 +9044,22 @@
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
+        <v>677</v>
+      </c>
+      <c r="B146" t="s">
+        <v>678</v>
+      </c>
+      <c r="C146" t="s">
+        <v>679</v>
+      </c>
+      <c r="D146" t="s">
         <v>680</v>
       </c>
-      <c r="B146" t="s">
+      <c r="E146" t="s">
         <v>681</v>
       </c>
-      <c r="C146" t="s">
-        <v>682</v>
-      </c>
-      <c r="D146" t="s">
-        <v>683</v>
-      </c>
-      <c r="E146" t="s">
-        <v>684</v>
-      </c>
       <c r="F146" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="H146">
         <f t="shared" si="12"/>
@@ -9079,22 +9076,22 @@
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
+        <v>682</v>
+      </c>
+      <c r="B147" t="s">
+        <v>616</v>
+      </c>
+      <c r="C147" t="s">
+        <v>683</v>
+      </c>
+      <c r="D147" t="s">
+        <v>684</v>
+      </c>
+      <c r="E147" t="s">
         <v>685</v>
       </c>
-      <c r="B147" t="s">
-        <v>619</v>
-      </c>
-      <c r="C147" t="s">
-        <v>686</v>
-      </c>
-      <c r="D147" t="s">
-        <v>687</v>
-      </c>
-      <c r="E147" t="s">
-        <v>688</v>
-      </c>
       <c r="F147" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="H147">
         <f t="shared" si="12"/>
@@ -9111,22 +9108,22 @@
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
+        <v>686</v>
+      </c>
+      <c r="B148" t="s">
+        <v>687</v>
+      </c>
+      <c r="C148" t="s">
+        <v>688</v>
+      </c>
+      <c r="D148" t="s">
         <v>689</v>
       </c>
-      <c r="B148" t="s">
+      <c r="E148" t="s">
         <v>690</v>
       </c>
-      <c r="C148" t="s">
-        <v>691</v>
-      </c>
-      <c r="D148" t="s">
-        <v>692</v>
-      </c>
-      <c r="E148" t="s">
-        <v>693</v>
-      </c>
       <c r="F148" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="H148">
         <f t="shared" si="12"/>
@@ -9143,22 +9140,22 @@
     </row>
     <row r="149" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
+        <v>691</v>
+      </c>
+      <c r="B149" t="s">
+        <v>692</v>
+      </c>
+      <c r="C149" t="s">
+        <v>693</v>
+      </c>
+      <c r="D149" t="s">
         <v>694</v>
       </c>
-      <c r="B149" t="s">
+      <c r="E149" t="s">
         <v>695</v>
       </c>
-      <c r="C149" t="s">
-        <v>696</v>
-      </c>
-      <c r="D149" t="s">
-        <v>697</v>
-      </c>
-      <c r="E149" t="s">
-        <v>698</v>
-      </c>
       <c r="F149" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="H149">
         <f t="shared" si="12"/>
@@ -9175,22 +9172,22 @@
     </row>
     <row r="150" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
+        <v>696</v>
+      </c>
+      <c r="B150" t="s">
+        <v>697</v>
+      </c>
+      <c r="C150" t="s">
+        <v>698</v>
+      </c>
+      <c r="D150" t="s">
         <v>699</v>
       </c>
-      <c r="B150" t="s">
+      <c r="E150" t="s">
         <v>700</v>
       </c>
-      <c r="C150" t="s">
-        <v>701</v>
-      </c>
-      <c r="D150" t="s">
-        <v>702</v>
-      </c>
-      <c r="E150" t="s">
-        <v>703</v>
-      </c>
       <c r="F150" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="H150">
         <f t="shared" si="12"/>
@@ -9207,22 +9204,22 @@
     </row>
     <row r="151" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
+        <v>701</v>
+      </c>
+      <c r="B151" t="s">
+        <v>702</v>
+      </c>
+      <c r="C151" t="s">
+        <v>703</v>
+      </c>
+      <c r="D151" t="s">
         <v>704</v>
       </c>
-      <c r="B151" t="s">
+      <c r="E151" t="s">
         <v>705</v>
       </c>
-      <c r="C151" t="s">
-        <v>706</v>
-      </c>
-      <c r="D151" t="s">
-        <v>707</v>
-      </c>
-      <c r="E151" t="s">
-        <v>708</v>
-      </c>
       <c r="F151" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="H151">
         <f t="shared" si="12"/>
@@ -9239,22 +9236,22 @@
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
+        <v>706</v>
+      </c>
+      <c r="B152" t="s">
+        <v>707</v>
+      </c>
+      <c r="C152" t="s">
+        <v>708</v>
+      </c>
+      <c r="D152" t="s">
         <v>709</v>
       </c>
-      <c r="B152" t="s">
+      <c r="E152" t="s">
         <v>710</v>
       </c>
-      <c r="C152" t="s">
-        <v>711</v>
-      </c>
-      <c r="D152" t="s">
-        <v>712</v>
-      </c>
-      <c r="E152" t="s">
-        <v>713</v>
-      </c>
       <c r="F152" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="H152">
         <f t="shared" si="12"/>
@@ -9271,22 +9268,22 @@
     </row>
     <row r="153" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
+        <v>711</v>
+      </c>
+      <c r="B153" t="s">
+        <v>712</v>
+      </c>
+      <c r="C153" t="s">
+        <v>713</v>
+      </c>
+      <c r="D153" t="s">
         <v>714</v>
       </c>
-      <c r="B153" t="s">
-        <v>715</v>
-      </c>
-      <c r="C153" t="s">
-        <v>716</v>
-      </c>
-      <c r="D153" t="s">
-        <v>717</v>
-      </c>
       <c r="E153" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F153" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="H153">
         <f t="shared" si="12"/>
@@ -9303,22 +9300,22 @@
     </row>
     <row r="154" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
+        <v>715</v>
+      </c>
+      <c r="B154" t="s">
+        <v>716</v>
+      </c>
+      <c r="C154" t="s">
+        <v>575</v>
+      </c>
+      <c r="D154" t="s">
+        <v>717</v>
+      </c>
+      <c r="E154" t="s">
         <v>718</v>
       </c>
-      <c r="B154" t="s">
-        <v>719</v>
-      </c>
-      <c r="C154" t="s">
-        <v>578</v>
-      </c>
-      <c r="D154" t="s">
-        <v>720</v>
-      </c>
-      <c r="E154" t="s">
-        <v>721</v>
-      </c>
       <c r="F154" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="H154">
         <f t="shared" si="12"/>
@@ -9335,22 +9332,22 @@
     </row>
     <row r="155" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
+        <v>719</v>
+      </c>
+      <c r="B155" t="s">
+        <v>720</v>
+      </c>
+      <c r="C155" t="s">
+        <v>721</v>
+      </c>
+      <c r="D155" t="s">
         <v>722</v>
       </c>
-      <c r="B155" t="s">
+      <c r="E155" t="s">
         <v>723</v>
       </c>
-      <c r="C155" t="s">
-        <v>724</v>
-      </c>
-      <c r="D155" t="s">
-        <v>725</v>
-      </c>
-      <c r="E155" t="s">
-        <v>726</v>
-      </c>
       <c r="F155" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="H155">
         <f t="shared" si="12"/>
@@ -9367,22 +9364,22 @@
     </row>
     <row r="156" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
+        <v>724</v>
+      </c>
+      <c r="B156" t="s">
+        <v>725</v>
+      </c>
+      <c r="C156" t="s">
+        <v>726</v>
+      </c>
+      <c r="D156" t="s">
         <v>727</v>
       </c>
-      <c r="B156" t="s">
-        <v>728</v>
-      </c>
-      <c r="C156" t="s">
-        <v>729</v>
-      </c>
-      <c r="D156" t="s">
-        <v>730</v>
-      </c>
       <c r="E156" t="s">
-        <v>1047</v>
+        <v>1044</v>
       </c>
       <c r="F156" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="H156">
         <f t="shared" si="12"/>
@@ -9399,22 +9396,22 @@
     </row>
     <row r="157" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
+        <v>728</v>
+      </c>
+      <c r="B157" t="s">
+        <v>729</v>
+      </c>
+      <c r="C157" t="s">
+        <v>730</v>
+      </c>
+      <c r="D157" t="s">
         <v>731</v>
       </c>
-      <c r="B157" t="s">
+      <c r="E157" t="s">
         <v>732</v>
       </c>
-      <c r="C157" t="s">
-        <v>733</v>
-      </c>
-      <c r="D157" t="s">
-        <v>734</v>
-      </c>
-      <c r="E157" t="s">
-        <v>735</v>
-      </c>
       <c r="F157" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="H157">
         <f t="shared" si="12"/>
@@ -9431,22 +9428,22 @@
     </row>
     <row r="158" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
+        <v>733</v>
+      </c>
+      <c r="B158" t="s">
+        <v>734</v>
+      </c>
+      <c r="C158" t="s">
+        <v>735</v>
+      </c>
+      <c r="D158" t="s">
         <v>736</v>
       </c>
-      <c r="B158" t="s">
+      <c r="E158" t="s">
         <v>737</v>
       </c>
-      <c r="C158" t="s">
-        <v>738</v>
-      </c>
-      <c r="D158" t="s">
-        <v>739</v>
-      </c>
-      <c r="E158" t="s">
-        <v>740</v>
-      </c>
       <c r="F158" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="H158">
         <f t="shared" si="12"/>
@@ -9463,22 +9460,22 @@
     </row>
     <row r="159" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
+        <v>738</v>
+      </c>
+      <c r="B159" t="s">
+        <v>739</v>
+      </c>
+      <c r="C159" t="s">
+        <v>740</v>
+      </c>
+      <c r="D159" t="s">
         <v>741</v>
       </c>
-      <c r="B159" t="s">
-        <v>742</v>
-      </c>
-      <c r="C159" t="s">
-        <v>743</v>
-      </c>
-      <c r="D159" t="s">
-        <v>744</v>
-      </c>
       <c r="E159" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="F159" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="H159">
         <f t="shared" si="12"/>
@@ -9495,22 +9492,22 @@
     </row>
     <row r="160" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
+        <v>742</v>
+      </c>
+      <c r="B160" t="s">
+        <v>743</v>
+      </c>
+      <c r="C160" t="s">
+        <v>744</v>
+      </c>
+      <c r="D160" t="s">
         <v>745</v>
       </c>
-      <c r="B160" t="s">
+      <c r="E160" t="s">
         <v>746</v>
       </c>
-      <c r="C160" t="s">
-        <v>747</v>
-      </c>
-      <c r="D160" t="s">
-        <v>748</v>
-      </c>
-      <c r="E160" t="s">
-        <v>749</v>
-      </c>
       <c r="F160" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="H160">
         <f t="shared" si="12"/>
@@ -9527,22 +9524,22 @@
     </row>
     <row r="161" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
+        <v>747</v>
+      </c>
+      <c r="B161" t="s">
+        <v>748</v>
+      </c>
+      <c r="C161" t="s">
+        <v>749</v>
+      </c>
+      <c r="D161" t="s">
         <v>750</v>
       </c>
-      <c r="B161" t="s">
+      <c r="E161" t="s">
         <v>751</v>
       </c>
-      <c r="C161" t="s">
-        <v>752</v>
-      </c>
-      <c r="D161" t="s">
-        <v>753</v>
-      </c>
-      <c r="E161" t="s">
-        <v>754</v>
-      </c>
       <c r="F161" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="H161">
         <f t="shared" si="12"/>
@@ -9559,22 +9556,22 @@
     </row>
     <row r="162" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
+        <v>752</v>
+      </c>
+      <c r="B162" t="s">
+        <v>753</v>
+      </c>
+      <c r="C162" t="s">
+        <v>754</v>
+      </c>
+      <c r="D162" t="s">
         <v>755</v>
       </c>
-      <c r="B162" t="s">
+      <c r="E162" t="s">
         <v>756</v>
       </c>
-      <c r="C162" t="s">
-        <v>757</v>
-      </c>
-      <c r="D162" t="s">
-        <v>758</v>
-      </c>
-      <c r="E162" t="s">
-        <v>759</v>
-      </c>
       <c r="F162" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="H162">
         <f t="shared" si="12"/>
@@ -9591,22 +9588,22 @@
     </row>
     <row r="163" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
+        <v>757</v>
+      </c>
+      <c r="B163" t="s">
+        <v>758</v>
+      </c>
+      <c r="C163" t="s">
+        <v>288</v>
+      </c>
+      <c r="D163" t="s">
+        <v>759</v>
+      </c>
+      <c r="E163" t="s">
         <v>760</v>
       </c>
-      <c r="B163" t="s">
-        <v>761</v>
-      </c>
-      <c r="C163" t="s">
-        <v>291</v>
-      </c>
-      <c r="D163" t="s">
-        <v>762</v>
-      </c>
-      <c r="E163" t="s">
-        <v>763</v>
-      </c>
       <c r="F163" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="H163">
         <f t="shared" si="12"/>
@@ -9623,22 +9620,22 @@
     </row>
     <row r="164" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
+        <v>742</v>
+      </c>
+      <c r="B164" t="s">
+        <v>743</v>
+      </c>
+      <c r="C164" t="s">
+        <v>744</v>
+      </c>
+      <c r="D164" t="s">
         <v>745</v>
       </c>
-      <c r="B164" t="s">
-        <v>746</v>
-      </c>
-      <c r="C164" t="s">
-        <v>747</v>
-      </c>
-      <c r="D164" t="s">
-        <v>748</v>
-      </c>
       <c r="E164" t="s">
-        <v>1045</v>
+        <v>1042</v>
       </c>
       <c r="F164" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="H164">
         <f t="shared" si="12"/>
@@ -9655,22 +9652,22 @@
     </row>
     <row r="165" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
+        <v>761</v>
+      </c>
+      <c r="B165" t="s">
+        <v>762</v>
+      </c>
+      <c r="C165" t="s">
+        <v>763</v>
+      </c>
+      <c r="D165" t="s">
         <v>764</v>
       </c>
-      <c r="B165" t="s">
+      <c r="E165" t="s">
         <v>765</v>
       </c>
-      <c r="C165" t="s">
-        <v>766</v>
-      </c>
-      <c r="D165" t="s">
-        <v>767</v>
-      </c>
-      <c r="E165" t="s">
-        <v>768</v>
-      </c>
       <c r="F165" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="H165">
         <f t="shared" si="12"/>
@@ -9687,22 +9684,22 @@
     </row>
     <row r="166" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="B166" t="s">
+        <v>766</v>
+      </c>
+      <c r="C166" t="s">
+        <v>767</v>
+      </c>
+      <c r="D166" t="s">
+        <v>768</v>
+      </c>
+      <c r="E166" t="s">
         <v>769</v>
       </c>
-      <c r="C166" t="s">
-        <v>770</v>
-      </c>
-      <c r="D166" t="s">
-        <v>771</v>
-      </c>
-      <c r="E166" t="s">
-        <v>772</v>
-      </c>
       <c r="F166" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="H166">
         <f t="shared" si="12"/>
@@ -9719,22 +9716,22 @@
     </row>
     <row r="167" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
+        <v>770</v>
+      </c>
+      <c r="B167" t="s">
+        <v>1043</v>
+      </c>
+      <c r="C167" t="s">
+        <v>771</v>
+      </c>
+      <c r="D167" t="s">
+        <v>772</v>
+      </c>
+      <c r="E167" t="s">
         <v>773</v>
       </c>
-      <c r="B167" t="s">
-        <v>1046</v>
-      </c>
-      <c r="C167" t="s">
-        <v>774</v>
-      </c>
-      <c r="D167" t="s">
-        <v>775</v>
-      </c>
-      <c r="E167" t="s">
-        <v>776</v>
-      </c>
       <c r="F167" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="H167">
         <f t="shared" si="12"/>
@@ -9751,22 +9748,22 @@
     </row>
     <row r="168" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
+        <v>774</v>
+      </c>
+      <c r="B168" t="s">
+        <v>775</v>
+      </c>
+      <c r="C168" t="s">
+        <v>776</v>
+      </c>
+      <c r="D168" t="s">
         <v>777</v>
       </c>
-      <c r="B168" t="s">
+      <c r="E168" t="s">
         <v>778</v>
       </c>
-      <c r="C168" t="s">
-        <v>779</v>
-      </c>
-      <c r="D168" t="s">
-        <v>780</v>
-      </c>
-      <c r="E168" t="s">
-        <v>781</v>
-      </c>
       <c r="F168" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="H168">
         <f t="shared" si="12"/>
@@ -9783,22 +9780,22 @@
     </row>
     <row r="169" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
+        <v>779</v>
+      </c>
+      <c r="B169" t="s">
+        <v>509</v>
+      </c>
+      <c r="C169" t="s">
+        <v>780</v>
+      </c>
+      <c r="D169" t="s">
+        <v>781</v>
+      </c>
+      <c r="E169" t="s">
         <v>782</v>
       </c>
-      <c r="B169" t="s">
-        <v>512</v>
-      </c>
-      <c r="C169" t="s">
-        <v>783</v>
-      </c>
-      <c r="D169" t="s">
-        <v>784</v>
-      </c>
-      <c r="E169" t="s">
-        <v>785</v>
-      </c>
       <c r="F169" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="H169">
         <f t="shared" si="12"/>
@@ -9815,22 +9812,22 @@
     </row>
     <row r="170" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
+        <v>783</v>
+      </c>
+      <c r="B170" t="s">
+        <v>784</v>
+      </c>
+      <c r="C170" t="s">
+        <v>785</v>
+      </c>
+      <c r="D170" t="s">
         <v>786</v>
       </c>
-      <c r="B170" t="s">
+      <c r="E170" t="s">
         <v>787</v>
       </c>
-      <c r="C170" t="s">
-        <v>788</v>
-      </c>
-      <c r="D170" t="s">
-        <v>789</v>
-      </c>
-      <c r="E170" t="s">
-        <v>790</v>
-      </c>
       <c r="F170" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="H170">
         <f t="shared" si="12"/>
@@ -9847,22 +9844,22 @@
     </row>
     <row r="171" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
+        <v>788</v>
+      </c>
+      <c r="B171" t="s">
+        <v>789</v>
+      </c>
+      <c r="C171" t="s">
+        <v>790</v>
+      </c>
+      <c r="D171" t="s">
         <v>791</v>
       </c>
-      <c r="B171" t="s">
+      <c r="E171" t="s">
         <v>792</v>
       </c>
-      <c r="C171" t="s">
-        <v>793</v>
-      </c>
-      <c r="D171" t="s">
-        <v>794</v>
-      </c>
-      <c r="E171" t="s">
-        <v>795</v>
-      </c>
       <c r="F171" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="H171">
         <f t="shared" si="12"/>
@@ -9879,22 +9876,22 @@
     </row>
     <row r="172" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="B172" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
       <c r="C172" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
       <c r="D172" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="E172" t="s">
         <v>103</v>
       </c>
       <c r="F172" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="H172">
         <f t="shared" si="12"/>
@@ -9911,22 +9908,22 @@
     </row>
     <row r="173" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
+        <v>796</v>
+      </c>
+      <c r="B173" t="s">
+        <v>797</v>
+      </c>
+      <c r="C173" t="s">
+        <v>798</v>
+      </c>
+      <c r="D173" t="s">
         <v>799</v>
       </c>
-      <c r="B173" t="s">
+      <c r="E173" t="s">
         <v>800</v>
       </c>
-      <c r="C173" t="s">
-        <v>801</v>
-      </c>
-      <c r="D173" t="s">
-        <v>802</v>
-      </c>
-      <c r="E173" t="s">
-        <v>803</v>
-      </c>
       <c r="F173" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="H173">
         <f t="shared" si="12"/>
@@ -9943,22 +9940,22 @@
     </row>
     <row r="174" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
+        <v>801</v>
+      </c>
+      <c r="B174" t="s">
+        <v>802</v>
+      </c>
+      <c r="C174" t="s">
+        <v>803</v>
+      </c>
+      <c r="D174" t="s">
         <v>804</v>
       </c>
-      <c r="B174" t="s">
+      <c r="E174" t="s">
         <v>805</v>
       </c>
-      <c r="C174" t="s">
-        <v>806</v>
-      </c>
-      <c r="D174" t="s">
-        <v>807</v>
-      </c>
-      <c r="E174" t="s">
-        <v>808</v>
-      </c>
       <c r="F174" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="H174">
         <f t="shared" si="12"/>
@@ -9975,22 +9972,22 @@
     </row>
     <row r="175" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
+        <v>806</v>
+      </c>
+      <c r="B175" t="s">
+        <v>807</v>
+      </c>
+      <c r="C175" t="s">
+        <v>808</v>
+      </c>
+      <c r="D175" t="s">
         <v>809</v>
       </c>
-      <c r="B175" t="s">
+      <c r="E175" t="s">
         <v>810</v>
       </c>
-      <c r="C175" t="s">
-        <v>811</v>
-      </c>
-      <c r="D175" t="s">
-        <v>812</v>
-      </c>
-      <c r="E175" t="s">
-        <v>813</v>
-      </c>
       <c r="F175" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="H175">
         <f t="shared" si="12"/>
@@ -10007,22 +10004,22 @@
     </row>
     <row r="176" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
+        <v>811</v>
+      </c>
+      <c r="B176" t="s">
+        <v>296</v>
+      </c>
+      <c r="C176" t="s">
+        <v>812</v>
+      </c>
+      <c r="D176" t="s">
+        <v>813</v>
+      </c>
+      <c r="E176" t="s">
         <v>814</v>
       </c>
-      <c r="B176" t="s">
-        <v>299</v>
-      </c>
-      <c r="C176" t="s">
-        <v>815</v>
-      </c>
-      <c r="D176" t="s">
-        <v>816</v>
-      </c>
-      <c r="E176" t="s">
-        <v>817</v>
-      </c>
       <c r="F176" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="H176">
         <f t="shared" si="12"/>
@@ -10039,22 +10036,22 @@
     </row>
     <row r="177" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
+        <v>815</v>
+      </c>
+      <c r="B177" t="s">
+        <v>816</v>
+      </c>
+      <c r="C177" t="s">
+        <v>817</v>
+      </c>
+      <c r="D177" t="s">
         <v>818</v>
       </c>
-      <c r="B177" t="s">
+      <c r="E177" t="s">
         <v>819</v>
       </c>
-      <c r="C177" t="s">
-        <v>820</v>
-      </c>
-      <c r="D177" t="s">
-        <v>821</v>
-      </c>
-      <c r="E177" t="s">
-        <v>822</v>
-      </c>
       <c r="F177" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="H177">
         <f t="shared" si="12"/>
@@ -10071,22 +10068,22 @@
     </row>
     <row r="178" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
+        <v>825</v>
+      </c>
+      <c r="B178" t="s">
+        <v>513</v>
+      </c>
+      <c r="C178" t="s">
+        <v>826</v>
+      </c>
+      <c r="D178" t="s">
+        <v>827</v>
+      </c>
+      <c r="E178" t="s">
         <v>828</v>
       </c>
-      <c r="B178" t="s">
-        <v>516</v>
-      </c>
-      <c r="C178" t="s">
-        <v>829</v>
-      </c>
-      <c r="D178" t="s">
-        <v>830</v>
-      </c>
-      <c r="E178" t="s">
-        <v>831</v>
-      </c>
       <c r="F178" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="H178">
         <f t="shared" si="12"/>
@@ -10103,22 +10100,22 @@
     </row>
     <row r="179" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
+        <v>829</v>
+      </c>
+      <c r="B179" t="s">
+        <v>830</v>
+      </c>
+      <c r="C179" t="s">
+        <v>831</v>
+      </c>
+      <c r="D179" t="s">
         <v>832</v>
       </c>
-      <c r="B179" t="s">
+      <c r="E179" t="s">
         <v>833</v>
       </c>
-      <c r="C179" t="s">
-        <v>834</v>
-      </c>
-      <c r="D179" t="s">
-        <v>835</v>
-      </c>
-      <c r="E179" t="s">
-        <v>836</v>
-      </c>
       <c r="F179" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="H179">
         <f t="shared" si="12"/>
@@ -10135,22 +10132,22 @@
     </row>
     <row r="180" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
+        <v>834</v>
+      </c>
+      <c r="B180" t="s">
+        <v>835</v>
+      </c>
+      <c r="C180" t="s">
+        <v>836</v>
+      </c>
+      <c r="D180" t="s">
         <v>837</v>
       </c>
-      <c r="B180" t="s">
+      <c r="E180" t="s">
         <v>838</v>
       </c>
-      <c r="C180" t="s">
-        <v>839</v>
-      </c>
-      <c r="D180" t="s">
-        <v>840</v>
-      </c>
-      <c r="E180" t="s">
-        <v>841</v>
-      </c>
       <c r="F180" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="H180">
         <f t="shared" si="12"/>
@@ -10167,22 +10164,22 @@
     </row>
     <row r="181" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
+        <v>839</v>
+      </c>
+      <c r="B181" t="s">
+        <v>840</v>
+      </c>
+      <c r="C181" t="s">
+        <v>841</v>
+      </c>
+      <c r="D181" t="s">
         <v>842</v>
       </c>
-      <c r="B181" t="s">
+      <c r="E181" t="s">
         <v>843</v>
       </c>
-      <c r="C181" t="s">
-        <v>844</v>
-      </c>
-      <c r="D181" t="s">
-        <v>845</v>
-      </c>
-      <c r="E181" t="s">
-        <v>846</v>
-      </c>
       <c r="F181" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="H181">
         <f t="shared" si="12"/>
@@ -10199,22 +10196,22 @@
     </row>
     <row r="182" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
+        <v>738</v>
+      </c>
+      <c r="B182" t="s">
+        <v>739</v>
+      </c>
+      <c r="C182" t="s">
+        <v>740</v>
+      </c>
+      <c r="D182" t="s">
         <v>741</v>
       </c>
-      <c r="B182" t="s">
-        <v>742</v>
-      </c>
-      <c r="C182" t="s">
-        <v>743</v>
-      </c>
-      <c r="D182" t="s">
-        <v>744</v>
-      </c>
       <c r="E182" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="F182" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="H182">
         <f t="shared" si="12"/>
@@ -10231,22 +10228,22 @@
     </row>
     <row r="183" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
+        <v>844</v>
+      </c>
+      <c r="B183" t="s">
+        <v>845</v>
+      </c>
+      <c r="C183" t="s">
+        <v>846</v>
+      </c>
+      <c r="D183" t="s">
         <v>847</v>
       </c>
-      <c r="B183" t="s">
+      <c r="E183" t="s">
         <v>848</v>
       </c>
-      <c r="C183" t="s">
-        <v>849</v>
-      </c>
-      <c r="D183" t="s">
-        <v>850</v>
-      </c>
-      <c r="E183" t="s">
-        <v>851</v>
-      </c>
       <c r="F183" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="H183">
         <f t="shared" si="12"/>
@@ -10263,22 +10260,22 @@
     </row>
     <row r="184" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
+        <v>849</v>
+      </c>
+      <c r="B184" t="s">
+        <v>850</v>
+      </c>
+      <c r="C184" t="s">
+        <v>851</v>
+      </c>
+      <c r="D184" t="s">
         <v>852</v>
       </c>
-      <c r="B184" t="s">
+      <c r="E184" t="s">
         <v>853</v>
       </c>
-      <c r="C184" t="s">
-        <v>854</v>
-      </c>
-      <c r="D184" t="s">
-        <v>855</v>
-      </c>
-      <c r="E184" t="s">
-        <v>856</v>
-      </c>
       <c r="F184" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="H184">
         <f t="shared" si="12"/>
@@ -10295,22 +10292,22 @@
     </row>
     <row r="185" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
+        <v>854</v>
+      </c>
+      <c r="B185" t="s">
+        <v>855</v>
+      </c>
+      <c r="C185" t="s">
+        <v>856</v>
+      </c>
+      <c r="D185" t="s">
         <v>857</v>
       </c>
-      <c r="B185" t="s">
+      <c r="E185" t="s">
         <v>858</v>
       </c>
-      <c r="C185" t="s">
-        <v>859</v>
-      </c>
-      <c r="D185" t="s">
-        <v>860</v>
-      </c>
-      <c r="E185" t="s">
-        <v>861</v>
-      </c>
       <c r="F185" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="H185">
         <f t="shared" si="12"/>
@@ -10327,22 +10324,22 @@
     </row>
     <row r="186" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
+        <v>859</v>
+      </c>
+      <c r="B186" t="s">
+        <v>860</v>
+      </c>
+      <c r="C186" t="s">
+        <v>861</v>
+      </c>
+      <c r="D186" t="s">
         <v>862</v>
       </c>
-      <c r="B186" t="s">
+      <c r="E186" t="s">
         <v>863</v>
       </c>
-      <c r="C186" t="s">
-        <v>864</v>
-      </c>
-      <c r="D186" t="s">
-        <v>865</v>
-      </c>
-      <c r="E186" t="s">
-        <v>866</v>
-      </c>
       <c r="F186" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="H186">
         <f t="shared" si="12"/>
@@ -10359,22 +10356,22 @@
     </row>
     <row r="187" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
+        <v>864</v>
+      </c>
+      <c r="B187" t="s">
+        <v>865</v>
+      </c>
+      <c r="C187" t="s">
+        <v>866</v>
+      </c>
+      <c r="D187" t="s">
         <v>867</v>
       </c>
-      <c r="B187" t="s">
+      <c r="E187" t="s">
         <v>868</v>
       </c>
-      <c r="C187" t="s">
-        <v>869</v>
-      </c>
-      <c r="D187" t="s">
-        <v>870</v>
-      </c>
-      <c r="E187" t="s">
-        <v>871</v>
-      </c>
       <c r="F187" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="H187">
         <f t="shared" si="12"/>
@@ -10391,22 +10388,22 @@
     </row>
     <row r="188" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
+        <v>869</v>
+      </c>
+      <c r="B188" t="s">
+        <v>870</v>
+      </c>
+      <c r="C188" t="s">
+        <v>871</v>
+      </c>
+      <c r="D188" t="s">
         <v>872</v>
       </c>
-      <c r="B188" t="s">
+      <c r="E188" t="s">
         <v>873</v>
       </c>
-      <c r="C188" t="s">
-        <v>874</v>
-      </c>
-      <c r="D188" t="s">
-        <v>875</v>
-      </c>
-      <c r="E188" t="s">
-        <v>876</v>
-      </c>
       <c r="F188" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="H188">
         <f t="shared" ref="H188:H222" si="15">INT(J188/3)</f>
@@ -10423,22 +10420,22 @@
     </row>
     <row r="189" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="B189" t="s">
         <v>169</v>
       </c>
       <c r="C189" t="s">
-        <v>878</v>
+        <v>875</v>
       </c>
       <c r="D189" t="s">
-        <v>879</v>
+        <v>876</v>
       </c>
       <c r="E189" t="s">
-        <v>880</v>
+        <v>877</v>
       </c>
       <c r="F189" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="H189">
         <f t="shared" si="15"/>
@@ -10455,22 +10452,22 @@
     </row>
     <row r="190" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
+        <v>878</v>
+      </c>
+      <c r="B190" t="s">
+        <v>879</v>
+      </c>
+      <c r="C190" t="s">
+        <v>880</v>
+      </c>
+      <c r="D190" t="s">
         <v>881</v>
       </c>
-      <c r="B190" t="s">
+      <c r="E190" t="s">
         <v>882</v>
       </c>
-      <c r="C190" t="s">
-        <v>883</v>
-      </c>
-      <c r="D190" t="s">
-        <v>884</v>
-      </c>
-      <c r="E190" t="s">
-        <v>885</v>
-      </c>
       <c r="F190" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="H190">
         <f t="shared" si="15"/>
@@ -10487,22 +10484,22 @@
     </row>
     <row r="191" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="B191" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
       <c r="C191" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="D191" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
       <c r="E191" t="s">
-        <v>888</v>
+        <v>885</v>
       </c>
       <c r="F191" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="H191">
         <f t="shared" si="15"/>
@@ -10519,22 +10516,22 @@
     </row>
     <row r="192" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
+        <v>733</v>
+      </c>
+      <c r="B192" t="s">
+        <v>734</v>
+      </c>
+      <c r="C192" t="s">
+        <v>735</v>
+      </c>
+      <c r="D192" t="s">
         <v>736</v>
       </c>
-      <c r="B192" t="s">
+      <c r="E192" t="s">
         <v>737</v>
       </c>
-      <c r="C192" t="s">
-        <v>738</v>
-      </c>
-      <c r="D192" t="s">
-        <v>739</v>
-      </c>
-      <c r="E192" t="s">
-        <v>740</v>
-      </c>
       <c r="F192" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="H192">
         <f t="shared" si="15"/>
@@ -10551,22 +10548,22 @@
     </row>
     <row r="193" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
+        <v>886</v>
+      </c>
+      <c r="B193" t="s">
+        <v>887</v>
+      </c>
+      <c r="C193" t="s">
+        <v>888</v>
+      </c>
+      <c r="D193" t="s">
         <v>889</v>
       </c>
-      <c r="B193" t="s">
+      <c r="E193" t="s">
         <v>890</v>
       </c>
-      <c r="C193" t="s">
-        <v>891</v>
-      </c>
-      <c r="D193" t="s">
-        <v>892</v>
-      </c>
-      <c r="E193" t="s">
-        <v>893</v>
-      </c>
       <c r="F193" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="H193">
         <f t="shared" si="15"/>
@@ -10583,22 +10580,22 @@
     </row>
     <row r="194" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
+        <v>891</v>
+      </c>
+      <c r="B194" t="s">
+        <v>892</v>
+      </c>
+      <c r="C194" t="s">
+        <v>893</v>
+      </c>
+      <c r="D194" t="s">
         <v>894</v>
       </c>
-      <c r="B194" t="s">
+      <c r="E194" t="s">
         <v>895</v>
       </c>
-      <c r="C194" t="s">
-        <v>896</v>
-      </c>
-      <c r="D194" t="s">
-        <v>897</v>
-      </c>
-      <c r="E194" t="s">
-        <v>898</v>
-      </c>
       <c r="F194" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="H194">
         <f t="shared" si="15"/>
@@ -10615,22 +10612,22 @@
     </row>
     <row r="195" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
+        <v>896</v>
+      </c>
+      <c r="B195" t="s">
+        <v>882</v>
+      </c>
+      <c r="C195" t="s">
+        <v>897</v>
+      </c>
+      <c r="D195" t="s">
+        <v>898</v>
+      </c>
+      <c r="E195" t="s">
         <v>899</v>
       </c>
-      <c r="B195" t="s">
-        <v>885</v>
-      </c>
-      <c r="C195" t="s">
-        <v>900</v>
-      </c>
-      <c r="D195" t="s">
-        <v>901</v>
-      </c>
-      <c r="E195" t="s">
-        <v>902</v>
-      </c>
       <c r="F195" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="H195">
         <f t="shared" si="15"/>
@@ -10647,22 +10644,22 @@
     </row>
     <row r="196" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
+        <v>900</v>
+      </c>
+      <c r="B196" t="s">
+        <v>901</v>
+      </c>
+      <c r="C196" t="s">
+        <v>902</v>
+      </c>
+      <c r="D196" t="s">
         <v>903</v>
       </c>
-      <c r="B196" t="s">
+      <c r="E196" t="s">
         <v>904</v>
       </c>
-      <c r="C196" t="s">
-        <v>905</v>
-      </c>
-      <c r="D196" t="s">
-        <v>906</v>
-      </c>
-      <c r="E196" t="s">
-        <v>907</v>
-      </c>
       <c r="F196" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="H196">
         <f t="shared" si="15"/>
@@ -10679,22 +10676,22 @@
     </row>
     <row r="197" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
+        <v>905</v>
+      </c>
+      <c r="B197" t="s">
+        <v>906</v>
+      </c>
+      <c r="C197" t="s">
+        <v>907</v>
+      </c>
+      <c r="D197" t="s">
         <v>908</v>
       </c>
-      <c r="B197" t="s">
+      <c r="E197" t="s">
         <v>909</v>
       </c>
-      <c r="C197" t="s">
-        <v>910</v>
-      </c>
-      <c r="D197" t="s">
-        <v>911</v>
-      </c>
-      <c r="E197" t="s">
-        <v>912</v>
-      </c>
       <c r="F197" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="H197">
         <f t="shared" si="15"/>
@@ -10711,22 +10708,22 @@
     </row>
     <row r="198" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
       <c r="B198" t="s">
+        <v>910</v>
+      </c>
+      <c r="C198" t="s">
+        <v>911</v>
+      </c>
+      <c r="D198" t="s">
+        <v>912</v>
+      </c>
+      <c r="E198" t="s">
         <v>913</v>
       </c>
-      <c r="C198" t="s">
-        <v>914</v>
-      </c>
-      <c r="D198" t="s">
-        <v>915</v>
-      </c>
-      <c r="E198" t="s">
-        <v>916</v>
-      </c>
       <c r="F198" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="H198">
         <f t="shared" si="15"/>
@@ -10743,22 +10740,22 @@
     </row>
     <row r="199" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
       <c r="B199" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="C199" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="D199" t="s">
-        <v>917</v>
+        <v>914</v>
       </c>
       <c r="E199" t="s">
-        <v>918</v>
+        <v>915</v>
       </c>
       <c r="F199" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="H199">
         <f t="shared" si="15"/>
@@ -10775,22 +10772,22 @@
     </row>
     <row r="200" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
+        <v>916</v>
+      </c>
+      <c r="B200" t="s">
+        <v>917</v>
+      </c>
+      <c r="C200" t="s">
+        <v>918</v>
+      </c>
+      <c r="D200" t="s">
         <v>919</v>
       </c>
-      <c r="B200" t="s">
+      <c r="E200" t="s">
         <v>920</v>
       </c>
-      <c r="C200" t="s">
-        <v>921</v>
-      </c>
-      <c r="D200" t="s">
-        <v>922</v>
-      </c>
-      <c r="E200" t="s">
-        <v>923</v>
-      </c>
       <c r="F200" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="H200">
         <f t="shared" si="15"/>
@@ -10807,22 +10804,22 @@
     </row>
     <row r="201" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
+        <v>921</v>
+      </c>
+      <c r="B201" t="s">
+        <v>922</v>
+      </c>
+      <c r="C201" t="s">
+        <v>923</v>
+      </c>
+      <c r="D201" t="s">
         <v>924</v>
       </c>
-      <c r="B201" t="s">
+      <c r="E201" t="s">
         <v>925</v>
       </c>
-      <c r="C201" t="s">
-        <v>926</v>
-      </c>
-      <c r="D201" t="s">
-        <v>927</v>
-      </c>
-      <c r="E201" t="s">
-        <v>928</v>
-      </c>
       <c r="F201" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="H201">
         <f t="shared" si="15"/>
@@ -10839,22 +10836,22 @@
     </row>
     <row r="202" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
+        <v>926</v>
+      </c>
+      <c r="B202" t="s">
+        <v>927</v>
+      </c>
+      <c r="C202" t="s">
+        <v>928</v>
+      </c>
+      <c r="D202" t="s">
         <v>929</v>
       </c>
-      <c r="B202" t="s">
+      <c r="E202" t="s">
         <v>930</v>
       </c>
-      <c r="C202" t="s">
-        <v>931</v>
-      </c>
-      <c r="D202" t="s">
-        <v>932</v>
-      </c>
-      <c r="E202" t="s">
-        <v>933</v>
-      </c>
       <c r="F202" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="H202">
         <f t="shared" si="15"/>
@@ -10871,22 +10868,22 @@
     </row>
     <row r="203" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="B203" t="s">
+        <v>931</v>
+      </c>
+      <c r="C203" t="s">
+        <v>932</v>
+      </c>
+      <c r="D203" t="s">
+        <v>933</v>
+      </c>
+      <c r="E203" t="s">
         <v>934</v>
       </c>
-      <c r="C203" t="s">
-        <v>935</v>
-      </c>
-      <c r="D203" t="s">
-        <v>936</v>
-      </c>
-      <c r="E203" t="s">
-        <v>937</v>
-      </c>
       <c r="F203" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="H203">
         <f t="shared" si="15"/>
@@ -10903,22 +10900,22 @@
     </row>
     <row r="204" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
+        <v>935</v>
+      </c>
+      <c r="B204" t="s">
+        <v>936</v>
+      </c>
+      <c r="C204" t="s">
+        <v>937</v>
+      </c>
+      <c r="D204" t="s">
         <v>938</v>
       </c>
-      <c r="B204" t="s">
+      <c r="E204" t="s">
         <v>939</v>
       </c>
-      <c r="C204" t="s">
-        <v>940</v>
-      </c>
-      <c r="D204" t="s">
-        <v>941</v>
-      </c>
-      <c r="E204" t="s">
-        <v>942</v>
-      </c>
       <c r="F204" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="H204">
         <f t="shared" si="15"/>
@@ -10935,22 +10932,22 @@
     </row>
     <row r="205" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
+        <v>940</v>
+      </c>
+      <c r="B205" t="s">
+        <v>941</v>
+      </c>
+      <c r="C205" t="s">
+        <v>942</v>
+      </c>
+      <c r="D205" t="s">
         <v>943</v>
       </c>
-      <c r="B205" t="s">
+      <c r="E205" t="s">
         <v>944</v>
       </c>
-      <c r="C205" t="s">
-        <v>945</v>
-      </c>
-      <c r="D205" t="s">
-        <v>946</v>
-      </c>
-      <c r="E205" t="s">
-        <v>947</v>
-      </c>
       <c r="F205" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="H205">
         <f t="shared" si="15"/>
@@ -10967,22 +10964,22 @@
     </row>
     <row r="206" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
+        <v>945</v>
+      </c>
+      <c r="B206" t="s">
+        <v>902</v>
+      </c>
+      <c r="C206" t="s">
+        <v>946</v>
+      </c>
+      <c r="D206" t="s">
+        <v>947</v>
+      </c>
+      <c r="E206" t="s">
         <v>948</v>
       </c>
-      <c r="B206" t="s">
-        <v>905</v>
-      </c>
-      <c r="C206" t="s">
-        <v>949</v>
-      </c>
-      <c r="D206" t="s">
-        <v>950</v>
-      </c>
-      <c r="E206" t="s">
-        <v>951</v>
-      </c>
       <c r="F206" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="H206">
         <f t="shared" si="15"/>
@@ -10999,22 +10996,22 @@
     </row>
     <row r="207" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
+        <v>949</v>
+      </c>
+      <c r="B207" t="s">
+        <v>950</v>
+      </c>
+      <c r="C207" t="s">
+        <v>388</v>
+      </c>
+      <c r="D207" t="s">
+        <v>951</v>
+      </c>
+      <c r="E207" t="s">
         <v>952</v>
       </c>
-      <c r="B207" t="s">
-        <v>953</v>
-      </c>
-      <c r="C207" t="s">
-        <v>391</v>
-      </c>
-      <c r="D207" t="s">
-        <v>954</v>
-      </c>
-      <c r="E207" t="s">
-        <v>955</v>
-      </c>
       <c r="F207" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="H207">
         <f t="shared" si="15"/>
@@ -11031,22 +11028,22 @@
     </row>
     <row r="208" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
+        <v>953</v>
+      </c>
+      <c r="B208" t="s">
+        <v>954</v>
+      </c>
+      <c r="C208" t="s">
+        <v>955</v>
+      </c>
+      <c r="D208" t="s">
         <v>956</v>
       </c>
-      <c r="B208" t="s">
+      <c r="E208" t="s">
         <v>957</v>
       </c>
-      <c r="C208" t="s">
-        <v>958</v>
-      </c>
-      <c r="D208" t="s">
-        <v>959</v>
-      </c>
-      <c r="E208" t="s">
-        <v>960</v>
-      </c>
       <c r="F208" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="H208">
         <f t="shared" si="15"/>
@@ -11063,22 +11060,22 @@
     </row>
     <row r="209" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="B209" t="s">
+        <v>958</v>
+      </c>
+      <c r="C209" t="s">
+        <v>959</v>
+      </c>
+      <c r="D209" t="s">
+        <v>960</v>
+      </c>
+      <c r="E209" t="s">
         <v>961</v>
       </c>
-      <c r="C209" t="s">
-        <v>962</v>
-      </c>
-      <c r="D209" t="s">
-        <v>963</v>
-      </c>
-      <c r="E209" t="s">
-        <v>964</v>
-      </c>
       <c r="F209" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="H209">
         <f t="shared" si="15"/>
@@ -11095,22 +11092,22 @@
     </row>
     <row r="210" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
+        <v>962</v>
+      </c>
+      <c r="B210" t="s">
+        <v>963</v>
+      </c>
+      <c r="C210" t="s">
+        <v>964</v>
+      </c>
+      <c r="D210" t="s">
+        <v>774</v>
+      </c>
+      <c r="E210" t="s">
         <v>965</v>
       </c>
-      <c r="B210" t="s">
-        <v>966</v>
-      </c>
-      <c r="C210" t="s">
-        <v>967</v>
-      </c>
-      <c r="D210" t="s">
-        <v>777</v>
-      </c>
-      <c r="E210" t="s">
-        <v>968</v>
-      </c>
       <c r="F210" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="H210">
         <f t="shared" si="15"/>
@@ -11127,22 +11124,22 @@
     </row>
     <row r="211" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
+        <v>966</v>
+      </c>
+      <c r="B211" t="s">
+        <v>967</v>
+      </c>
+      <c r="C211" t="s">
+        <v>968</v>
+      </c>
+      <c r="D211" t="s">
+        <v>452</v>
+      </c>
+      <c r="E211" t="s">
         <v>969</v>
       </c>
-      <c r="B211" t="s">
-        <v>970</v>
-      </c>
-      <c r="C211" t="s">
-        <v>971</v>
-      </c>
-      <c r="D211" t="s">
-        <v>455</v>
-      </c>
-      <c r="E211" t="s">
-        <v>972</v>
-      </c>
       <c r="F211" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="H211">
         <f t="shared" si="15"/>
@@ -11159,22 +11156,22 @@
     </row>
     <row r="212" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>973</v>
+        <v>970</v>
       </c>
       <c r="B212" t="s">
         <v>78</v>
       </c>
       <c r="C212" t="s">
-        <v>974</v>
+        <v>971</v>
       </c>
       <c r="D212" t="s">
-        <v>975</v>
+        <v>972</v>
       </c>
       <c r="E212" t="s">
-        <v>976</v>
+        <v>973</v>
       </c>
       <c r="F212" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="H212">
         <f t="shared" si="15"/>
@@ -11191,22 +11188,22 @@
     </row>
     <row r="213" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
+        <v>974</v>
+      </c>
+      <c r="B213" t="s">
+        <v>975</v>
+      </c>
+      <c r="C213" t="s">
+        <v>976</v>
+      </c>
+      <c r="D213" t="s">
         <v>977</v>
       </c>
-      <c r="B213" t="s">
+      <c r="E213" t="s">
         <v>978</v>
       </c>
-      <c r="C213" t="s">
-        <v>979</v>
-      </c>
-      <c r="D213" t="s">
-        <v>980</v>
-      </c>
-      <c r="E213" t="s">
-        <v>981</v>
-      </c>
       <c r="F213" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="H213">
         <f t="shared" si="15"/>
@@ -11223,22 +11220,22 @@
     </row>
     <row r="214" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
+        <v>979</v>
+      </c>
+      <c r="B214" t="s">
+        <v>980</v>
+      </c>
+      <c r="C214" t="s">
+        <v>981</v>
+      </c>
+      <c r="D214" t="s">
         <v>982</v>
       </c>
-      <c r="B214" t="s">
+      <c r="E214" t="s">
         <v>983</v>
       </c>
-      <c r="C214" t="s">
-        <v>984</v>
-      </c>
-      <c r="D214" t="s">
-        <v>985</v>
-      </c>
-      <c r="E214" t="s">
-        <v>986</v>
-      </c>
       <c r="F214" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="H214">
         <f t="shared" si="15"/>
@@ -11255,22 +11252,22 @@
     </row>
     <row r="215" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="B215" t="s">
+        <v>984</v>
+      </c>
+      <c r="C215" t="s">
+        <v>985</v>
+      </c>
+      <c r="D215" t="s">
+        <v>986</v>
+      </c>
+      <c r="E215" t="s">
         <v>987</v>
       </c>
-      <c r="C215" t="s">
-        <v>988</v>
-      </c>
-      <c r="D215" t="s">
-        <v>989</v>
-      </c>
-      <c r="E215" t="s">
-        <v>990</v>
-      </c>
       <c r="F215" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="H215">
         <f t="shared" si="15"/>
@@ -11287,22 +11284,22 @@
     </row>
     <row r="216" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
+        <v>988</v>
+      </c>
+      <c r="B216" t="s">
+        <v>989</v>
+      </c>
+      <c r="C216" t="s">
+        <v>990</v>
+      </c>
+      <c r="D216" t="s">
         <v>991</v>
       </c>
-      <c r="B216" t="s">
+      <c r="E216" t="s">
         <v>992</v>
       </c>
-      <c r="C216" t="s">
-        <v>993</v>
-      </c>
-      <c r="D216" t="s">
-        <v>994</v>
-      </c>
-      <c r="E216" t="s">
-        <v>995</v>
-      </c>
       <c r="F216" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="H216">
         <f t="shared" si="15"/>
@@ -11319,22 +11316,22 @@
     </row>
     <row r="217" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
+        <v>993</v>
+      </c>
+      <c r="B217" t="s">
+        <v>994</v>
+      </c>
+      <c r="C217" t="s">
+        <v>933</v>
+      </c>
+      <c r="D217" t="s">
+        <v>995</v>
+      </c>
+      <c r="E217" t="s">
         <v>996</v>
       </c>
-      <c r="B217" t="s">
-        <v>997</v>
-      </c>
-      <c r="C217" t="s">
-        <v>936</v>
-      </c>
-      <c r="D217" t="s">
-        <v>998</v>
-      </c>
-      <c r="E217" t="s">
-        <v>999</v>
-      </c>
       <c r="F217" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="H217">
         <f t="shared" si="15"/>
@@ -11351,22 +11348,22 @@
     </row>
     <row r="218" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="B218" t="s">
+        <v>997</v>
+      </c>
+      <c r="C218" t="s">
+        <v>998</v>
+      </c>
+      <c r="D218" t="s">
+        <v>999</v>
+      </c>
+      <c r="E218" t="s">
         <v>1000</v>
       </c>
-      <c r="C218" t="s">
-        <v>1001</v>
-      </c>
-      <c r="D218" t="s">
-        <v>1002</v>
-      </c>
-      <c r="E218" t="s">
-        <v>1003</v>
-      </c>
       <c r="F218" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="H218">
         <f t="shared" si="15"/>
@@ -11386,19 +11383,19 @@
         <v>64</v>
       </c>
       <c r="B219" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="C219" t="s">
-        <v>1004</v>
+        <v>1001</v>
       </c>
       <c r="D219" t="s">
-        <v>1005</v>
+        <v>1002</v>
       </c>
       <c r="E219" t="s">
-        <v>1006</v>
+        <v>1003</v>
       </c>
       <c r="F219" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="H219">
         <f t="shared" si="15"/>
@@ -11415,22 +11412,22 @@
     </row>
     <row r="220" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
+        <v>1007</v>
+      </c>
+      <c r="B220" t="s">
+        <v>1008</v>
+      </c>
+      <c r="C220" t="s">
+        <v>1009</v>
+      </c>
+      <c r="D220" t="s">
         <v>1010</v>
       </c>
-      <c r="B220" t="s">
+      <c r="E220" t="s">
         <v>1011</v>
       </c>
-      <c r="C220" t="s">
-        <v>1012</v>
-      </c>
-      <c r="D220" t="s">
-        <v>1013</v>
-      </c>
-      <c r="E220" t="s">
-        <v>1014</v>
-      </c>
       <c r="F220" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="H220">
         <f t="shared" si="15"/>
@@ -11447,22 +11444,22 @@
     </row>
     <row r="221" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
+        <v>1012</v>
+      </c>
+      <c r="B221" t="s">
+        <v>1013</v>
+      </c>
+      <c r="C221" t="s">
+        <v>1014</v>
+      </c>
+      <c r="D221" t="s">
         <v>1015</v>
       </c>
-      <c r="B221" t="s">
+      <c r="E221" t="s">
         <v>1016</v>
       </c>
-      <c r="C221" t="s">
-        <v>1017</v>
-      </c>
-      <c r="D221" t="s">
-        <v>1018</v>
-      </c>
-      <c r="E221" t="s">
-        <v>1019</v>
-      </c>
       <c r="F221" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="H221">
         <f t="shared" si="15"/>
@@ -11482,19 +11479,19 @@
         <v>14</v>
       </c>
       <c r="B222" t="s">
-        <v>1020</v>
+        <v>1017</v>
       </c>
       <c r="C222" t="s">
-        <v>1021</v>
+        <v>1018</v>
       </c>
       <c r="D222" t="s">
-        <v>1022</v>
+        <v>1019</v>
       </c>
       <c r="E222" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="F222" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="H222">
         <f t="shared" si="15"/>

--- a/code/shabdakala/resource/sbwords.xlsx
+++ b/code/shabdakala/resource/sbwords.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hrishinene/shabdak_github/sbbd/shabdakala/code/shabdakala/resource/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{054DF97B-E403-1548-B02A-9B2B857E0788}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B9190CD-64B2-E645-996E-E599FCCFF240}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{9F74AEE5-EB85-4044-AC84-8761A591B5C1}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1425" uniqueCount="1047">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1425" uniqueCount="1048">
   <si>
     <t>word0</t>
   </si>
@@ -3174,6 +3174,9 @@
   </si>
   <si>
     <t xml:space="preserve">हवामानशास्त्र वेधशाळा आदींशी  संबंधित </t>
+  </si>
+  <si>
+    <t xml:space="preserve">एका मराठी म्हणीतील शब्द </t>
   </si>
 </sst>
 </file>
@@ -4100,8 +4103,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEA1707B-2FB7-B84C-9F84-E9F074F3056C}">
   <dimension ref="A1:L222"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E126" sqref="E126"/>
+    <sheetView tabSelected="1" topLeftCell="A115" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E128" sqref="E128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4189,7 +4192,7 @@
       </c>
       <c r="L2" s="6">
         <f ca="1">TODAY()</f>
-        <v>45665</v>
+        <v>45667</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -8449,7 +8452,7 @@
         <v>358</v>
       </c>
       <c r="E128" t="s">
-        <v>312</v>
+        <v>1047</v>
       </c>
       <c r="F128" t="s">
         <v>313</v>

--- a/code/shabdakala/resource/sbwords.xlsx
+++ b/code/shabdakala/resource/sbwords.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hrishinene/shabdak_github/sbbd/shabdakala/code/shabdakala/resource/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B9190CD-64B2-E645-996E-E599FCCFF240}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F1D1DDE-1C6E-6942-9C17-6EDC25DF4776}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{9F74AEE5-EB85-4044-AC84-8761A591B5C1}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1425" uniqueCount="1048">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1419" uniqueCount="1048">
   <si>
     <t>word0</t>
   </si>
@@ -2033,12 +2033,6 @@
     <t>गारगोट्या</t>
   </si>
   <si>
-    <t>घर्षण</t>
-  </si>
-  <si>
-    <t>ज्या गोष्टींनी आग लावता येते</t>
-  </si>
-  <si>
     <t>घोंगडं</t>
   </si>
   <si>
@@ -2054,24 +2048,12 @@
     <t>स्वयंपाक</t>
   </si>
   <si>
-    <t>समयी</t>
-  </si>
-  <si>
-    <t>इंजीन</t>
-  </si>
-  <si>
-    <t>रॉकेट</t>
-  </si>
-  <si>
     <t>अग्नीचे ऊपयोग</t>
   </si>
   <si>
     <t>उद्घाटनाची रिबिन</t>
   </si>
   <si>
-    <t>कलिंगड</t>
-  </si>
-  <si>
     <t>भाताचं पिक</t>
   </si>
   <si>
@@ -2093,18 +2075,9 @@
     <t>ज्या गोष्टी कापतात</t>
   </si>
   <si>
-    <t>सर्जन</t>
-  </si>
-  <si>
     <t>शिंपी</t>
   </si>
   <si>
-    <t>न्हावी</t>
-  </si>
-  <si>
-    <t>शेफ</t>
-  </si>
-  <si>
     <t>ज्यांच्या व्यवसायांत कापावे लागते</t>
   </si>
   <si>
@@ -2120,9 +2093,6 @@
     <t>नाडी</t>
   </si>
   <si>
-    <t>गाठ घालून बांध्याच्या गोष्टी</t>
-  </si>
-  <si>
     <t>हार</t>
   </si>
   <si>
@@ -2135,9 +2105,6 @@
     <t>बांगडी</t>
   </si>
   <si>
-    <t>लुप</t>
-  </si>
-  <si>
     <t>चष्मा</t>
   </si>
   <si>
@@ -2165,9 +2132,6 @@
     <t>पेंगविन</t>
   </si>
   <si>
-    <t>Antarctica</t>
-  </si>
-  <si>
     <t>व्याध</t>
   </si>
   <si>
@@ -2204,9 +2168,6 @@
     <t>सोहळा</t>
   </si>
   <si>
-    <t>सेलिब्रेशन</t>
-  </si>
-  <si>
     <t>स्पेशल</t>
   </si>
   <si>
@@ -2273,9 +2234,6 @@
     <t>कासावीस</t>
   </si>
   <si>
-    <t>"संख्याशाली" शब्द!</t>
-  </si>
-  <si>
     <t>टाचणी</t>
   </si>
   <si>
@@ -2285,9 +2243,6 @@
     <t>सरळ नाक</t>
   </si>
   <si>
-    <t>स्कृ</t>
-  </si>
-  <si>
     <t>टोकदार गोष्टी</t>
   </si>
   <si>
@@ -2306,9 +2261,6 @@
     <t>अजरामर "पसायदाना"तले शब्द</t>
   </si>
   <si>
-    <t>देव/हिम</t>
-  </si>
-  <si>
     <t>कार्य</t>
   </si>
   <si>
@@ -3161,9 +3113,6 @@
     <t>दिवाळीच्या दिवसांचे दुसरे शब्द प्रत्यय</t>
   </si>
   <si>
-    <t xml:space="preserve">संख्या लपलेले शब्द  </t>
-  </si>
-  <si>
     <t>कॉर्बेट</t>
   </si>
   <si>
@@ -3177,6 +3126,57 @@
   </si>
   <si>
     <t xml:space="preserve">एका मराठी म्हणीतील शब्द </t>
+  </si>
+  <si>
+    <t>समई</t>
+  </si>
+  <si>
+    <t>लायटर</t>
+  </si>
+  <si>
+    <t>शेकोटी</t>
+  </si>
+  <si>
+    <t>ज्या गोष्टींनी आग पेटवता येते</t>
+  </si>
+  <si>
+    <t>शल्यविशारद</t>
+  </si>
+  <si>
+    <t>स्वयंपाकी</t>
+  </si>
+  <si>
+    <t>विळी</t>
+  </si>
+  <si>
+    <t>पाकीटमार</t>
+  </si>
+  <si>
+    <t>पगार</t>
+  </si>
+  <si>
+    <t>गाठ घालून बांधण्याच्या गोष्टी</t>
+  </si>
+  <si>
+    <t>लूप / नेढे</t>
+  </si>
+  <si>
+    <t>अंटार्क्टिका</t>
+  </si>
+  <si>
+    <t>सेलिब्रेशन, समारंभ, साजरा करणे</t>
+  </si>
+  <si>
+    <t>Palindromes (विलोमपदॆ)</t>
+  </si>
+  <si>
+    <t>खिळा</t>
+  </si>
+  <si>
+    <t>"संख्याशाली" शब्द (शब्दांत एक संख्या लपलेली )</t>
+  </si>
+  <si>
+    <t>हिम</t>
   </si>
 </sst>
 </file>
@@ -4101,10 +4101,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEA1707B-2FB7-B84C-9F84-E9F074F3056C}">
-  <dimension ref="A1:L222"/>
+  <dimension ref="A1:L221"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A115" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E128" sqref="E128"/>
+    <sheetView tabSelected="1" topLeftCell="A134" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I212" sqref="I212"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4192,7 +4192,7 @@
       </c>
       <c r="L2" s="6">
         <f ca="1">TODAY()</f>
-        <v>45667</v>
+        <v>45671</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -6222,16 +6222,16 @@
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>1004</v>
+        <v>988</v>
       </c>
       <c r="B62" t="s">
-        <v>1005</v>
+        <v>989</v>
       </c>
       <c r="C62" t="s">
-        <v>837</v>
+        <v>821</v>
       </c>
       <c r="D62" t="s">
-        <v>1006</v>
+        <v>990</v>
       </c>
       <c r="E62" t="s">
         <v>494</v>
@@ -6509,7 +6509,7 @@
         <v>457</v>
       </c>
       <c r="E70" t="s">
-        <v>1020</v>
+        <v>1004</v>
       </c>
       <c r="F70" t="s">
         <v>597</v>
@@ -6628,19 +6628,19 @@
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>820</v>
+        <v>804</v>
       </c>
       <c r="B74" t="s">
-        <v>821</v>
+        <v>805</v>
       </c>
       <c r="C74" t="s">
-        <v>822</v>
+        <v>806</v>
       </c>
       <c r="D74" t="s">
-        <v>823</v>
+        <v>807</v>
       </c>
       <c r="E74" t="s">
-        <v>824</v>
+        <v>808</v>
       </c>
       <c r="F74" t="s">
         <v>597</v>
@@ -6902,13 +6902,13 @@
         <v>48</v>
       </c>
       <c r="B82" t="s">
-        <v>775</v>
+        <v>759</v>
       </c>
       <c r="C82" t="s">
         <v>279</v>
       </c>
       <c r="D82" t="s">
-        <v>1021</v>
+        <v>1005</v>
       </c>
       <c r="E82" t="s">
         <v>312</v>
@@ -6940,7 +6940,7 @@
         <v>453</v>
       </c>
       <c r="C83" t="s">
-        <v>1023</v>
+        <v>1007</v>
       </c>
       <c r="D83" t="s">
         <v>454</v>
@@ -6966,19 +6966,19 @@
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>1026</v>
+        <v>1010</v>
       </c>
       <c r="B84" t="s">
-        <v>1025</v>
+        <v>1009</v>
       </c>
       <c r="C84" t="s">
-        <v>1022</v>
+        <v>1006</v>
       </c>
       <c r="D84" t="s">
-        <v>1024</v>
+        <v>1008</v>
       </c>
       <c r="E84" t="s">
-        <v>1020</v>
+        <v>1004</v>
       </c>
       <c r="F84" t="s">
         <v>597</v>
@@ -7077,7 +7077,7 @@
         <v>471</v>
       </c>
       <c r="D87" t="s">
-        <v>1027</v>
+        <v>1011</v>
       </c>
       <c r="E87" t="s">
         <v>472</v>
@@ -7100,7 +7100,7 @@
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>1029</v>
+        <v>1013</v>
       </c>
       <c r="B88" t="s">
         <v>473</v>
@@ -7109,7 +7109,7 @@
         <v>664</v>
       </c>
       <c r="D88" t="s">
-        <v>1028</v>
+        <v>1012</v>
       </c>
       <c r="E88" t="s">
         <v>474</v>
@@ -7205,13 +7205,13 @@
         <v>480</v>
       </c>
       <c r="B91" t="s">
-        <v>1030</v>
+        <v>1014</v>
       </c>
       <c r="C91" t="s">
         <v>481</v>
       </c>
       <c r="D91" t="s">
-        <v>1031</v>
+        <v>1015</v>
       </c>
       <c r="E91" t="s">
         <v>482</v>
@@ -7406,7 +7406,7 @@
         <v>555</v>
       </c>
       <c r="B97" t="s">
-        <v>1032</v>
+        <v>1016</v>
       </c>
       <c r="C97" t="s">
         <v>532</v>
@@ -7470,7 +7470,7 @@
         <v>559</v>
       </c>
       <c r="B99" t="s">
-        <v>1033</v>
+        <v>1017</v>
       </c>
       <c r="C99" t="s">
         <v>560</v>
@@ -8041,13 +8041,13 @@
         <v>546</v>
       </c>
       <c r="C116" t="s">
-        <v>1034</v>
+        <v>1018</v>
       </c>
       <c r="D116" t="s">
         <v>547</v>
       </c>
       <c r="E116" t="s">
-        <v>1035</v>
+        <v>1019</v>
       </c>
       <c r="F116" t="s">
         <v>597</v>
@@ -8079,7 +8079,7 @@
         <v>551</v>
       </c>
       <c r="E117" t="s">
-        <v>1037</v>
+        <v>1021</v>
       </c>
       <c r="F117" t="s">
         <v>597</v>
@@ -8105,7 +8105,7 @@
         <v>553</v>
       </c>
       <c r="C118" t="s">
-        <v>1036</v>
+        <v>1020</v>
       </c>
       <c r="D118" t="s">
         <v>554</v>
@@ -8303,7 +8303,7 @@
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>1038</v>
+        <v>1022</v>
       </c>
       <c r="B124" t="s">
         <v>421</v>
@@ -8324,11 +8324,11 @@
         <v>425</v>
       </c>
       <c r="H124">
-        <f t="shared" ref="H124:H187" si="12">INT(J124/3)</f>
+        <f t="shared" ref="H124:H142" si="12">INT(J124/3)</f>
         <v>40</v>
       </c>
       <c r="I124" s="3">
-        <f t="shared" ref="I124:I187" si="13">$L$1+H124</f>
+        <f t="shared" ref="I124:I142" si="13">$L$1+H124</f>
         <v>45665</v>
       </c>
       <c r="J124">
@@ -8347,10 +8347,10 @@
         <v>261</v>
       </c>
       <c r="D125" t="s">
-        <v>1045</v>
+        <v>1028</v>
       </c>
       <c r="E125" t="s">
-        <v>1046</v>
+        <v>1029</v>
       </c>
       <c r="F125" s="1" t="s">
         <v>85</v>
@@ -8382,7 +8382,7 @@
         <v>242</v>
       </c>
       <c r="D126" t="s">
-        <v>1039</v>
+        <v>1023</v>
       </c>
       <c r="E126" t="s">
         <v>243</v>
@@ -8408,7 +8408,7 @@
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>1040</v>
+        <v>1024</v>
       </c>
       <c r="B127" t="s">
         <v>584</v>
@@ -8420,7 +8420,7 @@
         <v>586</v>
       </c>
       <c r="E127" t="s">
-        <v>1041</v>
+        <v>1025</v>
       </c>
       <c r="F127" t="s">
         <v>597</v>
@@ -8452,7 +8452,7 @@
         <v>358</v>
       </c>
       <c r="E128" t="s">
-        <v>1047</v>
+        <v>1030</v>
       </c>
       <c r="F128" t="s">
         <v>313</v>
@@ -8960,20 +8960,20 @@
         <v>665</v>
       </c>
       <c r="D143" t="s">
-        <v>666</v>
+        <v>1032</v>
       </c>
       <c r="E143" t="s">
-        <v>667</v>
+        <v>1034</v>
       </c>
       <c r="F143" t="s">
         <v>597</v>
       </c>
       <c r="H143">
-        <f t="shared" si="12"/>
+        <f t="shared" ref="H143:H205" si="14">INT(J143/3)</f>
         <v>47</v>
       </c>
       <c r="I143" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" ref="I143:I205" si="15">$L$1+H143</f>
         <v>45672</v>
       </c>
       <c r="J143">
@@ -8983,29 +8983,29 @@
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="B144" t="s">
         <v>228</v>
       </c>
       <c r="C144" t="s">
+        <v>667</v>
+      </c>
+      <c r="D144" t="s">
+        <v>668</v>
+      </c>
+      <c r="E144" t="s">
         <v>669</v>
-      </c>
-      <c r="D144" t="s">
-        <v>670</v>
-      </c>
-      <c r="E144" t="s">
-        <v>671</v>
       </c>
       <c r="F144" t="s">
         <v>597</v>
       </c>
       <c r="H144">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>47</v>
       </c>
       <c r="I144" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>45672</v>
       </c>
       <c r="J144">
@@ -9015,29 +9015,29 @@
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="B145" t="s">
-        <v>673</v>
+        <v>1031</v>
       </c>
       <c r="C145" t="s">
-        <v>674</v>
+        <v>544</v>
       </c>
       <c r="D145" t="s">
-        <v>675</v>
+        <v>1033</v>
       </c>
       <c r="E145" t="s">
-        <v>676</v>
+        <v>671</v>
       </c>
       <c r="F145" t="s">
         <v>597</v>
       </c>
       <c r="H145">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>47</v>
       </c>
       <c r="I145" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>45672</v>
       </c>
       <c r="J145">
@@ -9047,29 +9047,29 @@
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>677</v>
+        <v>672</v>
       </c>
       <c r="B146" t="s">
-        <v>678</v>
+        <v>1039</v>
       </c>
       <c r="C146" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="D146" t="s">
-        <v>680</v>
+        <v>674</v>
       </c>
       <c r="E146" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="F146" t="s">
         <v>597</v>
       </c>
       <c r="H146">
-        <f t="shared" si="12"/>
+        <f t="shared" ref="H146:H209" si="16">INT(J146/3)</f>
         <v>48</v>
       </c>
       <c r="I146" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" ref="I146:I209" si="17">$L$1+H146</f>
         <v>45673</v>
       </c>
       <c r="J146">
@@ -9079,29 +9079,29 @@
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>682</v>
+        <v>676</v>
       </c>
       <c r="B147" t="s">
-        <v>616</v>
+        <v>1037</v>
       </c>
       <c r="C147" t="s">
-        <v>683</v>
+        <v>677</v>
       </c>
       <c r="D147" t="s">
-        <v>684</v>
+        <v>678</v>
       </c>
       <c r="E147" t="s">
-        <v>685</v>
+        <v>679</v>
       </c>
       <c r="F147" t="s">
         <v>597</v>
       </c>
       <c r="H147">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>48</v>
       </c>
       <c r="I147" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>45673</v>
       </c>
       <c r="J147">
@@ -9111,29 +9111,29 @@
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>686</v>
+        <v>1035</v>
       </c>
       <c r="B148" t="s">
-        <v>687</v>
+        <v>680</v>
       </c>
       <c r="C148" t="s">
-        <v>688</v>
+        <v>1038</v>
       </c>
       <c r="D148" t="s">
-        <v>689</v>
+        <v>1036</v>
       </c>
       <c r="E148" t="s">
-        <v>690</v>
+        <v>681</v>
       </c>
       <c r="F148" t="s">
         <v>597</v>
       </c>
       <c r="H148">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>48</v>
       </c>
       <c r="I148" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>45673</v>
       </c>
       <c r="J148">
@@ -9143,29 +9143,29 @@
     </row>
     <row r="149" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>691</v>
+        <v>682</v>
       </c>
       <c r="B149" t="s">
-        <v>692</v>
+        <v>683</v>
       </c>
       <c r="C149" t="s">
-        <v>693</v>
+        <v>684</v>
       </c>
       <c r="D149" t="s">
-        <v>694</v>
+        <v>685</v>
       </c>
       <c r="E149" t="s">
-        <v>695</v>
+        <v>1040</v>
       </c>
       <c r="F149" t="s">
         <v>597</v>
       </c>
       <c r="H149">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>49</v>
       </c>
       <c r="I149" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>45674</v>
       </c>
       <c r="J149">
@@ -9175,29 +9175,29 @@
     </row>
     <row r="150" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>696</v>
+        <v>686</v>
       </c>
       <c r="B150" t="s">
-        <v>697</v>
+        <v>687</v>
       </c>
       <c r="C150" t="s">
-        <v>698</v>
+        <v>688</v>
       </c>
       <c r="D150" t="s">
-        <v>699</v>
+        <v>689</v>
       </c>
       <c r="E150" t="s">
-        <v>700</v>
+        <v>1041</v>
       </c>
       <c r="F150" t="s">
         <v>597</v>
       </c>
       <c r="H150">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>49</v>
       </c>
       <c r="I150" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>45674</v>
       </c>
       <c r="J150">
@@ -9207,29 +9207,29 @@
     </row>
     <row r="151" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>701</v>
+        <v>690</v>
       </c>
       <c r="B151" t="s">
-        <v>702</v>
+        <v>691</v>
       </c>
       <c r="C151" t="s">
-        <v>703</v>
+        <v>692</v>
       </c>
       <c r="D151" t="s">
-        <v>704</v>
+        <v>693</v>
       </c>
       <c r="E151" t="s">
-        <v>705</v>
+        <v>694</v>
       </c>
       <c r="F151" t="s">
         <v>597</v>
       </c>
       <c r="H151">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>49</v>
       </c>
       <c r="I151" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>45674</v>
       </c>
       <c r="J151">
@@ -9239,29 +9239,29 @@
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>706</v>
+        <v>695</v>
       </c>
       <c r="B152" t="s">
-        <v>707</v>
+        <v>696</v>
       </c>
       <c r="C152" t="s">
-        <v>708</v>
+        <v>697</v>
       </c>
       <c r="D152" t="s">
-        <v>709</v>
+        <v>698</v>
       </c>
       <c r="E152" t="s">
-        <v>710</v>
+        <v>1042</v>
       </c>
       <c r="F152" t="s">
         <v>597</v>
       </c>
       <c r="H152">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>50</v>
       </c>
       <c r="I152" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>45675</v>
       </c>
       <c r="J152">
@@ -9271,16 +9271,16 @@
     </row>
     <row r="153" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>711</v>
+        <v>699</v>
       </c>
       <c r="B153" t="s">
-        <v>712</v>
+        <v>700</v>
       </c>
       <c r="C153" t="s">
-        <v>713</v>
+        <v>701</v>
       </c>
       <c r="D153" t="s">
-        <v>714</v>
+        <v>702</v>
       </c>
       <c r="E153" t="s">
         <v>245</v>
@@ -9289,11 +9289,11 @@
         <v>597</v>
       </c>
       <c r="H153">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>50</v>
       </c>
       <c r="I153" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>45675</v>
       </c>
       <c r="J153">
@@ -9303,29 +9303,29 @@
     </row>
     <row r="154" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>715</v>
+        <v>703</v>
       </c>
       <c r="B154" t="s">
-        <v>716</v>
+        <v>704</v>
       </c>
       <c r="C154" t="s">
         <v>575</v>
       </c>
       <c r="D154" t="s">
-        <v>717</v>
+        <v>705</v>
       </c>
       <c r="E154" t="s">
-        <v>718</v>
+        <v>706</v>
       </c>
       <c r="F154" t="s">
         <v>597</v>
       </c>
       <c r="H154">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>50</v>
       </c>
       <c r="I154" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>45675</v>
       </c>
       <c r="J154">
@@ -9335,29 +9335,29 @@
     </row>
     <row r="155" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>719</v>
+        <v>707</v>
       </c>
       <c r="B155" t="s">
-        <v>720</v>
+        <v>708</v>
       </c>
       <c r="C155" t="s">
-        <v>721</v>
+        <v>709</v>
       </c>
       <c r="D155" t="s">
-        <v>722</v>
+        <v>710</v>
       </c>
       <c r="E155" t="s">
-        <v>723</v>
+        <v>1043</v>
       </c>
       <c r="F155" t="s">
         <v>597</v>
       </c>
       <c r="H155">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>51</v>
       </c>
       <c r="I155" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>45676</v>
       </c>
       <c r="J155">
@@ -9367,29 +9367,29 @@
     </row>
     <row r="156" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>724</v>
+        <v>711</v>
       </c>
       <c r="B156" t="s">
-        <v>725</v>
+        <v>712</v>
       </c>
       <c r="C156" t="s">
-        <v>726</v>
+        <v>713</v>
       </c>
       <c r="D156" t="s">
-        <v>727</v>
+        <v>714</v>
       </c>
       <c r="E156" t="s">
-        <v>1044</v>
+        <v>1027</v>
       </c>
       <c r="F156" t="s">
         <v>597</v>
       </c>
       <c r="H156">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>51</v>
       </c>
       <c r="I156" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>45676</v>
       </c>
       <c r="J156">
@@ -9399,29 +9399,29 @@
     </row>
     <row r="157" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>728</v>
+        <v>715</v>
       </c>
       <c r="B157" t="s">
-        <v>729</v>
+        <v>716</v>
       </c>
       <c r="C157" t="s">
-        <v>730</v>
+        <v>717</v>
       </c>
       <c r="D157" t="s">
-        <v>731</v>
+        <v>718</v>
       </c>
       <c r="E157" t="s">
-        <v>732</v>
+        <v>719</v>
       </c>
       <c r="F157" t="s">
         <v>597</v>
       </c>
       <c r="H157">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>51</v>
       </c>
       <c r="I157" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>45676</v>
       </c>
       <c r="J157">
@@ -9431,2082 +9431,2050 @@
     </row>
     <row r="158" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>733</v>
+        <v>720</v>
       </c>
       <c r="B158" t="s">
-        <v>734</v>
+        <v>721</v>
       </c>
       <c r="C158" t="s">
-        <v>735</v>
+        <v>722</v>
       </c>
       <c r="D158" t="s">
-        <v>736</v>
+        <v>723</v>
       </c>
       <c r="E158" t="s">
-        <v>737</v>
+        <v>1044</v>
       </c>
       <c r="F158" t="s">
         <v>617</v>
       </c>
       <c r="H158">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>52</v>
       </c>
       <c r="I158" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>45677</v>
       </c>
       <c r="J158">
-        <f t="shared" ref="J158:J221" si="14">J157+1</f>
+        <f t="shared" ref="J158:J221" si="18">J157+1</f>
         <v>156</v>
       </c>
     </row>
     <row r="159" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>738</v>
+        <v>729</v>
       </c>
       <c r="B159" t="s">
-        <v>739</v>
+        <v>730</v>
       </c>
       <c r="C159" t="s">
-        <v>740</v>
+        <v>731</v>
       </c>
       <c r="D159" t="s">
-        <v>741</v>
+        <v>732</v>
       </c>
       <c r="E159" t="s">
-        <v>737</v>
+        <v>1046</v>
       </c>
       <c r="F159" t="s">
         <v>617</v>
       </c>
       <c r="H159">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>52</v>
       </c>
       <c r="I159" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>45677</v>
       </c>
       <c r="J159">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>157</v>
       </c>
     </row>
     <row r="160" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>742</v>
+        <v>733</v>
       </c>
       <c r="B160" t="s">
-        <v>743</v>
+        <v>734</v>
       </c>
       <c r="C160" t="s">
-        <v>744</v>
+        <v>735</v>
       </c>
       <c r="D160" t="s">
-        <v>745</v>
+        <v>1045</v>
       </c>
       <c r="E160" t="s">
-        <v>746</v>
+        <v>736</v>
       </c>
       <c r="F160" t="s">
-        <v>617</v>
+        <v>597</v>
       </c>
       <c r="H160">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>52</v>
       </c>
       <c r="I160" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>45677</v>
       </c>
       <c r="J160">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>158</v>
       </c>
     </row>
     <row r="161" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>747</v>
+        <v>737</v>
       </c>
       <c r="B161" t="s">
-        <v>748</v>
+        <v>738</v>
       </c>
       <c r="C161" t="s">
-        <v>749</v>
+        <v>739</v>
       </c>
       <c r="D161" t="s">
-        <v>750</v>
+        <v>740</v>
       </c>
       <c r="E161" t="s">
-        <v>751</v>
+        <v>741</v>
       </c>
       <c r="F161" t="s">
-        <v>597</v>
+        <v>617</v>
       </c>
       <c r="H161">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>53</v>
       </c>
       <c r="I161" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>45678</v>
       </c>
       <c r="J161">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>159</v>
       </c>
     </row>
     <row r="162" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>752</v>
+        <v>1047</v>
       </c>
       <c r="B162" t="s">
-        <v>753</v>
+        <v>742</v>
       </c>
       <c r="C162" t="s">
-        <v>754</v>
+        <v>288</v>
       </c>
       <c r="D162" t="s">
-        <v>755</v>
+        <v>743</v>
       </c>
       <c r="E162" t="s">
-        <v>756</v>
+        <v>744</v>
       </c>
       <c r="F162" t="s">
         <v>617</v>
       </c>
       <c r="H162">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>53</v>
       </c>
       <c r="I162" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>45678</v>
       </c>
       <c r="J162">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>160</v>
       </c>
     </row>
     <row r="163" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>757</v>
+        <v>745</v>
       </c>
       <c r="B163" t="s">
-        <v>758</v>
+        <v>746</v>
       </c>
       <c r="C163" t="s">
-        <v>288</v>
+        <v>747</v>
       </c>
       <c r="D163" t="s">
-        <v>759</v>
+        <v>748</v>
       </c>
       <c r="E163" t="s">
-        <v>760</v>
+        <v>749</v>
       </c>
       <c r="F163" t="s">
         <v>617</v>
       </c>
       <c r="H163">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>53</v>
       </c>
       <c r="I163" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>45678</v>
       </c>
       <c r="J163">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>161</v>
       </c>
     </row>
     <row r="164" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>742</v>
+        <v>725</v>
       </c>
       <c r="B164" t="s">
-        <v>743</v>
+        <v>726</v>
       </c>
       <c r="C164" t="s">
-        <v>744</v>
+        <v>727</v>
       </c>
       <c r="D164" t="s">
-        <v>745</v>
+        <v>728</v>
       </c>
       <c r="E164" t="s">
-        <v>1042</v>
+        <v>724</v>
       </c>
       <c r="F164" t="s">
         <v>617</v>
       </c>
       <c r="H164">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>54</v>
       </c>
       <c r="I164" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>45679</v>
       </c>
       <c r="J164">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>162</v>
       </c>
     </row>
     <row r="165" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>761</v>
+        <v>533</v>
       </c>
       <c r="B165" t="s">
-        <v>762</v>
+        <v>750</v>
       </c>
       <c r="C165" t="s">
-        <v>763</v>
+        <v>751</v>
       </c>
       <c r="D165" t="s">
-        <v>764</v>
+        <v>752</v>
       </c>
       <c r="E165" t="s">
-        <v>765</v>
+        <v>753</v>
       </c>
       <c r="F165" t="s">
         <v>617</v>
       </c>
       <c r="H165">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>54</v>
       </c>
       <c r="I165" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>45679</v>
       </c>
       <c r="J165">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>163</v>
       </c>
     </row>
     <row r="166" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>533</v>
+        <v>754</v>
       </c>
       <c r="B166" t="s">
-        <v>766</v>
+        <v>1026</v>
       </c>
       <c r="C166" t="s">
-        <v>767</v>
+        <v>755</v>
       </c>
       <c r="D166" t="s">
-        <v>768</v>
+        <v>756</v>
       </c>
       <c r="E166" t="s">
-        <v>769</v>
+        <v>757</v>
       </c>
       <c r="F166" t="s">
-        <v>617</v>
+        <v>597</v>
       </c>
       <c r="H166">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>54</v>
       </c>
       <c r="I166" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>45679</v>
       </c>
       <c r="J166">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>164</v>
       </c>
     </row>
     <row r="167" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>770</v>
+        <v>758</v>
       </c>
       <c r="B167" t="s">
-        <v>1043</v>
+        <v>759</v>
       </c>
       <c r="C167" t="s">
-        <v>771</v>
+        <v>760</v>
       </c>
       <c r="D167" t="s">
-        <v>772</v>
+        <v>761</v>
       </c>
       <c r="E167" t="s">
-        <v>773</v>
+        <v>762</v>
       </c>
       <c r="F167" t="s">
         <v>597</v>
       </c>
       <c r="H167">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>55</v>
       </c>
       <c r="I167" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>45680</v>
       </c>
       <c r="J167">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>165</v>
       </c>
     </row>
     <row r="168" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>774</v>
+        <v>763</v>
       </c>
       <c r="B168" t="s">
-        <v>775</v>
+        <v>509</v>
       </c>
       <c r="C168" t="s">
-        <v>776</v>
+        <v>764</v>
       </c>
       <c r="D168" t="s">
-        <v>777</v>
+        <v>765</v>
       </c>
       <c r="E168" t="s">
-        <v>778</v>
+        <v>766</v>
       </c>
       <c r="F168" t="s">
         <v>597</v>
       </c>
       <c r="H168">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>55</v>
       </c>
       <c r="I168" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>45680</v>
       </c>
       <c r="J168">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>166</v>
       </c>
     </row>
     <row r="169" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>779</v>
+        <v>767</v>
       </c>
       <c r="B169" t="s">
-        <v>509</v>
+        <v>768</v>
       </c>
       <c r="C169" t="s">
-        <v>780</v>
+        <v>769</v>
       </c>
       <c r="D169" t="s">
-        <v>781</v>
+        <v>770</v>
       </c>
       <c r="E169" t="s">
-        <v>782</v>
+        <v>771</v>
       </c>
       <c r="F169" t="s">
         <v>597</v>
       </c>
       <c r="H169">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>55</v>
       </c>
       <c r="I169" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>45680</v>
       </c>
       <c r="J169">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>167</v>
       </c>
     </row>
     <row r="170" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>783</v>
+        <v>772</v>
       </c>
       <c r="B170" t="s">
-        <v>784</v>
+        <v>773</v>
       </c>
       <c r="C170" t="s">
-        <v>785</v>
+        <v>774</v>
       </c>
       <c r="D170" t="s">
-        <v>786</v>
+        <v>775</v>
       </c>
       <c r="E170" t="s">
-        <v>787</v>
+        <v>776</v>
       </c>
       <c r="F170" t="s">
         <v>597</v>
       </c>
       <c r="H170">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>56</v>
       </c>
       <c r="I170" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>45681</v>
       </c>
       <c r="J170">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>168</v>
       </c>
     </row>
     <row r="171" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>788</v>
+        <v>400</v>
       </c>
       <c r="B171" t="s">
-        <v>789</v>
+        <v>777</v>
       </c>
       <c r="C171" t="s">
-        <v>790</v>
+        <v>778</v>
       </c>
       <c r="D171" t="s">
-        <v>791</v>
+        <v>779</v>
       </c>
       <c r="E171" t="s">
-        <v>792</v>
+        <v>103</v>
       </c>
       <c r="F171" t="s">
         <v>597</v>
       </c>
       <c r="H171">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>56</v>
       </c>
       <c r="I171" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>45681</v>
       </c>
       <c r="J171">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>169</v>
       </c>
     </row>
     <row r="172" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>400</v>
+        <v>780</v>
       </c>
       <c r="B172" t="s">
-        <v>793</v>
+        <v>781</v>
       </c>
       <c r="C172" t="s">
-        <v>794</v>
+        <v>782</v>
       </c>
       <c r="D172" t="s">
-        <v>795</v>
+        <v>783</v>
       </c>
       <c r="E172" t="s">
-        <v>103</v>
+        <v>784</v>
       </c>
       <c r="F172" t="s">
         <v>597</v>
       </c>
       <c r="H172">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>56</v>
       </c>
       <c r="I172" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>45681</v>
       </c>
       <c r="J172">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>170</v>
       </c>
     </row>
     <row r="173" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>796</v>
+        <v>785</v>
       </c>
       <c r="B173" t="s">
-        <v>797</v>
+        <v>786</v>
       </c>
       <c r="C173" t="s">
-        <v>798</v>
+        <v>787</v>
       </c>
       <c r="D173" t="s">
-        <v>799</v>
+        <v>788</v>
       </c>
       <c r="E173" t="s">
-        <v>800</v>
+        <v>789</v>
       </c>
       <c r="F173" t="s">
         <v>597</v>
       </c>
       <c r="H173">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>57</v>
       </c>
       <c r="I173" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>45682</v>
       </c>
       <c r="J173">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>171</v>
       </c>
     </row>
     <row r="174" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>801</v>
+        <v>790</v>
       </c>
       <c r="B174" t="s">
-        <v>802</v>
+        <v>791</v>
       </c>
       <c r="C174" t="s">
-        <v>803</v>
+        <v>792</v>
       </c>
       <c r="D174" t="s">
-        <v>804</v>
+        <v>793</v>
       </c>
       <c r="E174" t="s">
-        <v>805</v>
+        <v>794</v>
       </c>
       <c r="F174" t="s">
         <v>597</v>
       </c>
       <c r="H174">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>57</v>
       </c>
       <c r="I174" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>45682</v>
       </c>
       <c r="J174">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>172</v>
       </c>
     </row>
     <row r="175" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>806</v>
+        <v>795</v>
       </c>
       <c r="B175" t="s">
-        <v>807</v>
+        <v>296</v>
       </c>
       <c r="C175" t="s">
-        <v>808</v>
+        <v>796</v>
       </c>
       <c r="D175" t="s">
-        <v>809</v>
+        <v>797</v>
       </c>
       <c r="E175" t="s">
-        <v>810</v>
+        <v>798</v>
       </c>
       <c r="F175" t="s">
         <v>597</v>
       </c>
       <c r="H175">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>57</v>
       </c>
       <c r="I175" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>45682</v>
       </c>
       <c r="J175">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>173</v>
       </c>
     </row>
     <row r="176" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>811</v>
+        <v>799</v>
       </c>
       <c r="B176" t="s">
-        <v>296</v>
+        <v>800</v>
       </c>
       <c r="C176" t="s">
-        <v>812</v>
+        <v>801</v>
       </c>
       <c r="D176" t="s">
-        <v>813</v>
+        <v>802</v>
       </c>
       <c r="E176" t="s">
-        <v>814</v>
+        <v>803</v>
       </c>
       <c r="F176" t="s">
         <v>597</v>
       </c>
       <c r="H176">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>58</v>
       </c>
       <c r="I176" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>45683</v>
       </c>
       <c r="J176">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>174</v>
       </c>
     </row>
     <row r="177" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>815</v>
+        <v>809</v>
       </c>
       <c r="B177" t="s">
-        <v>816</v>
+        <v>513</v>
       </c>
       <c r="C177" t="s">
-        <v>817</v>
+        <v>810</v>
       </c>
       <c r="D177" t="s">
-        <v>818</v>
+        <v>811</v>
       </c>
       <c r="E177" t="s">
-        <v>819</v>
+        <v>812</v>
       </c>
       <c r="F177" t="s">
         <v>597</v>
       </c>
       <c r="H177">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>58</v>
       </c>
       <c r="I177" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>45683</v>
       </c>
       <c r="J177">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>175</v>
       </c>
     </row>
     <row r="178" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>825</v>
+        <v>813</v>
       </c>
       <c r="B178" t="s">
-        <v>513</v>
+        <v>814</v>
       </c>
       <c r="C178" t="s">
-        <v>826</v>
+        <v>815</v>
       </c>
       <c r="D178" t="s">
-        <v>827</v>
+        <v>816</v>
       </c>
       <c r="E178" t="s">
-        <v>828</v>
+        <v>817</v>
       </c>
       <c r="F178" t="s">
         <v>597</v>
       </c>
       <c r="H178">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>58</v>
       </c>
       <c r="I178" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>45683</v>
       </c>
       <c r="J178">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>176</v>
       </c>
     </row>
     <row r="179" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>829</v>
+        <v>818</v>
       </c>
       <c r="B179" t="s">
-        <v>830</v>
+        <v>819</v>
       </c>
       <c r="C179" t="s">
-        <v>831</v>
+        <v>820</v>
       </c>
       <c r="D179" t="s">
-        <v>832</v>
+        <v>821</v>
       </c>
       <c r="E179" t="s">
-        <v>833</v>
+        <v>822</v>
       </c>
       <c r="F179" t="s">
-        <v>597</v>
+        <v>617</v>
       </c>
       <c r="H179">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>59</v>
       </c>
       <c r="I179" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>45684</v>
       </c>
       <c r="J179">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>177</v>
       </c>
     </row>
     <row r="180" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>834</v>
+        <v>823</v>
       </c>
       <c r="B180" t="s">
-        <v>835</v>
+        <v>824</v>
       </c>
       <c r="C180" t="s">
-        <v>836</v>
+        <v>825</v>
       </c>
       <c r="D180" t="s">
-        <v>837</v>
+        <v>826</v>
       </c>
       <c r="E180" t="s">
-        <v>838</v>
+        <v>827</v>
       </c>
       <c r="F180" t="s">
         <v>617</v>
       </c>
       <c r="H180">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>59</v>
       </c>
       <c r="I180" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>45684</v>
       </c>
       <c r="J180">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>178</v>
       </c>
     </row>
     <row r="181" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>839</v>
+        <v>725</v>
       </c>
       <c r="B181" t="s">
-        <v>840</v>
+        <v>726</v>
       </c>
       <c r="C181" t="s">
-        <v>841</v>
+        <v>727</v>
       </c>
       <c r="D181" t="s">
-        <v>842</v>
+        <v>728</v>
       </c>
       <c r="E181" t="s">
-        <v>843</v>
+        <v>724</v>
       </c>
       <c r="F181" t="s">
         <v>617</v>
       </c>
       <c r="H181">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>59</v>
       </c>
       <c r="I181" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>45684</v>
       </c>
       <c r="J181">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>179</v>
       </c>
     </row>
     <row r="182" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>738</v>
+        <v>828</v>
       </c>
       <c r="B182" t="s">
-        <v>739</v>
+        <v>829</v>
       </c>
       <c r="C182" t="s">
-        <v>740</v>
+        <v>830</v>
       </c>
       <c r="D182" t="s">
-        <v>741</v>
+        <v>831</v>
       </c>
       <c r="E182" t="s">
-        <v>737</v>
+        <v>832</v>
       </c>
       <c r="F182" t="s">
-        <v>617</v>
+        <v>597</v>
       </c>
       <c r="H182">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>60</v>
       </c>
       <c r="I182" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>45685</v>
       </c>
       <c r="J182">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>180</v>
       </c>
     </row>
     <row r="183" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>844</v>
+        <v>833</v>
       </c>
       <c r="B183" t="s">
-        <v>845</v>
+        <v>834</v>
       </c>
       <c r="C183" t="s">
-        <v>846</v>
+        <v>835</v>
       </c>
       <c r="D183" t="s">
-        <v>847</v>
+        <v>836</v>
       </c>
       <c r="E183" t="s">
-        <v>848</v>
+        <v>837</v>
       </c>
       <c r="F183" t="s">
         <v>597</v>
       </c>
       <c r="H183">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>60</v>
       </c>
       <c r="I183" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>45685</v>
       </c>
       <c r="J183">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>181</v>
       </c>
     </row>
     <row r="184" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>849</v>
+        <v>838</v>
       </c>
       <c r="B184" t="s">
-        <v>850</v>
+        <v>839</v>
       </c>
       <c r="C184" t="s">
-        <v>851</v>
+        <v>840</v>
       </c>
       <c r="D184" t="s">
-        <v>852</v>
+        <v>841</v>
       </c>
       <c r="E184" t="s">
-        <v>853</v>
+        <v>842</v>
       </c>
       <c r="F184" t="s">
         <v>597</v>
       </c>
       <c r="H184">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>60</v>
       </c>
       <c r="I184" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>45685</v>
       </c>
       <c r="J184">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>182</v>
       </c>
     </row>
     <row r="185" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>854</v>
+        <v>843</v>
       </c>
       <c r="B185" t="s">
-        <v>855</v>
+        <v>844</v>
       </c>
       <c r="C185" t="s">
-        <v>856</v>
+        <v>845</v>
       </c>
       <c r="D185" t="s">
-        <v>857</v>
+        <v>846</v>
       </c>
       <c r="E185" t="s">
-        <v>858</v>
+        <v>847</v>
       </c>
       <c r="F185" t="s">
         <v>597</v>
       </c>
       <c r="H185">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>61</v>
       </c>
       <c r="I185" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>45686</v>
       </c>
       <c r="J185">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>183</v>
       </c>
     </row>
     <row r="186" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>859</v>
+        <v>848</v>
       </c>
       <c r="B186" t="s">
-        <v>860</v>
+        <v>849</v>
       </c>
       <c r="C186" t="s">
-        <v>861</v>
+        <v>850</v>
       </c>
       <c r="D186" t="s">
-        <v>862</v>
+        <v>851</v>
       </c>
       <c r="E186" t="s">
-        <v>863</v>
+        <v>852</v>
       </c>
       <c r="F186" t="s">
         <v>597</v>
       </c>
       <c r="H186">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>61</v>
       </c>
       <c r="I186" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>45686</v>
       </c>
       <c r="J186">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>184</v>
       </c>
     </row>
     <row r="187" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>864</v>
+        <v>853</v>
       </c>
       <c r="B187" t="s">
-        <v>865</v>
+        <v>854</v>
       </c>
       <c r="C187" t="s">
-        <v>866</v>
+        <v>855</v>
       </c>
       <c r="D187" t="s">
-        <v>867</v>
+        <v>856</v>
       </c>
       <c r="E187" t="s">
-        <v>868</v>
+        <v>857</v>
       </c>
       <c r="F187" t="s">
         <v>597</v>
       </c>
       <c r="H187">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>61</v>
       </c>
       <c r="I187" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>45686</v>
       </c>
       <c r="J187">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>185</v>
       </c>
     </row>
     <row r="188" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>869</v>
+        <v>858</v>
       </c>
       <c r="B188" t="s">
-        <v>870</v>
+        <v>169</v>
       </c>
       <c r="C188" t="s">
-        <v>871</v>
+        <v>859</v>
       </c>
       <c r="D188" t="s">
-        <v>872</v>
+        <v>860</v>
       </c>
       <c r="E188" t="s">
-        <v>873</v>
+        <v>861</v>
       </c>
       <c r="F188" t="s">
         <v>597</v>
       </c>
       <c r="H188">
-        <f t="shared" ref="H188:H222" si="15">INT(J188/3)</f>
+        <f t="shared" si="16"/>
         <v>62</v>
       </c>
       <c r="I188" s="3">
-        <f t="shared" ref="I188:I222" si="16">$L$1+H188</f>
+        <f t="shared" si="17"/>
         <v>45687</v>
       </c>
       <c r="J188">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>186</v>
       </c>
     </row>
     <row r="189" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>874</v>
+        <v>862</v>
       </c>
       <c r="B189" t="s">
-        <v>169</v>
+        <v>863</v>
       </c>
       <c r="C189" t="s">
-        <v>875</v>
+        <v>864</v>
       </c>
       <c r="D189" t="s">
-        <v>876</v>
+        <v>865</v>
       </c>
       <c r="E189" t="s">
-        <v>877</v>
+        <v>866</v>
       </c>
       <c r="F189" t="s">
         <v>597</v>
       </c>
       <c r="H189">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>62</v>
       </c>
       <c r="I189" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>45687</v>
       </c>
       <c r="J189">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>187</v>
       </c>
     </row>
     <row r="190" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>878</v>
+        <v>667</v>
       </c>
       <c r="B190" t="s">
-        <v>879</v>
+        <v>867</v>
       </c>
       <c r="C190" t="s">
-        <v>880</v>
+        <v>540</v>
       </c>
       <c r="D190" t="s">
-        <v>881</v>
+        <v>868</v>
       </c>
       <c r="E190" t="s">
-        <v>882</v>
+        <v>869</v>
       </c>
       <c r="F190" t="s">
         <v>597</v>
       </c>
       <c r="H190">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>62</v>
       </c>
       <c r="I190" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>45687</v>
       </c>
       <c r="J190">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>188</v>
       </c>
     </row>
     <row r="191" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>669</v>
+        <v>720</v>
       </c>
       <c r="B191" t="s">
-        <v>883</v>
+        <v>721</v>
       </c>
       <c r="C191" t="s">
-        <v>540</v>
+        <v>722</v>
       </c>
       <c r="D191" t="s">
-        <v>884</v>
+        <v>723</v>
       </c>
       <c r="E191" t="s">
-        <v>885</v>
+        <v>724</v>
       </c>
       <c r="F191" t="s">
-        <v>597</v>
+        <v>617</v>
       </c>
       <c r="H191">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>63</v>
       </c>
       <c r="I191" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>45688</v>
       </c>
       <c r="J191">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>189</v>
       </c>
     </row>
     <row r="192" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>733</v>
+        <v>870</v>
       </c>
       <c r="B192" t="s">
-        <v>734</v>
+        <v>871</v>
       </c>
       <c r="C192" t="s">
-        <v>735</v>
+        <v>872</v>
       </c>
       <c r="D192" t="s">
-        <v>736</v>
+        <v>873</v>
       </c>
       <c r="E192" t="s">
-        <v>737</v>
+        <v>874</v>
       </c>
       <c r="F192" t="s">
         <v>617</v>
       </c>
       <c r="H192">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>63</v>
       </c>
       <c r="I192" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>45688</v>
       </c>
       <c r="J192">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>190</v>
       </c>
     </row>
     <row r="193" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>886</v>
+        <v>875</v>
       </c>
       <c r="B193" t="s">
-        <v>887</v>
+        <v>876</v>
       </c>
       <c r="C193" t="s">
-        <v>888</v>
+        <v>877</v>
       </c>
       <c r="D193" t="s">
-        <v>889</v>
+        <v>878</v>
       </c>
       <c r="E193" t="s">
-        <v>890</v>
+        <v>879</v>
       </c>
       <c r="F193" t="s">
-        <v>617</v>
+        <v>597</v>
       </c>
       <c r="H193">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>63</v>
       </c>
       <c r="I193" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>45688</v>
       </c>
       <c r="J193">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>191</v>
       </c>
     </row>
     <row r="194" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>891</v>
+        <v>880</v>
       </c>
       <c r="B194" t="s">
-        <v>892</v>
+        <v>866</v>
       </c>
       <c r="C194" t="s">
-        <v>893</v>
+        <v>881</v>
       </c>
       <c r="D194" t="s">
-        <v>894</v>
+        <v>882</v>
       </c>
       <c r="E194" t="s">
-        <v>895</v>
+        <v>883</v>
       </c>
       <c r="F194" t="s">
         <v>597</v>
       </c>
       <c r="H194">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>64</v>
       </c>
       <c r="I194" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>45689</v>
       </c>
       <c r="J194">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>192</v>
       </c>
     </row>
     <row r="195" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>896</v>
+        <v>884</v>
       </c>
       <c r="B195" t="s">
-        <v>882</v>
+        <v>885</v>
       </c>
       <c r="C195" t="s">
-        <v>897</v>
+        <v>886</v>
       </c>
       <c r="D195" t="s">
-        <v>898</v>
+        <v>887</v>
       </c>
       <c r="E195" t="s">
-        <v>899</v>
+        <v>888</v>
       </c>
       <c r="F195" t="s">
-        <v>597</v>
+        <v>617</v>
       </c>
       <c r="H195">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>64</v>
       </c>
       <c r="I195" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>45689</v>
       </c>
       <c r="J195">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>193</v>
       </c>
     </row>
     <row r="196" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>900</v>
+        <v>889</v>
       </c>
       <c r="B196" t="s">
-        <v>901</v>
+        <v>890</v>
       </c>
       <c r="C196" t="s">
-        <v>902</v>
+        <v>891</v>
       </c>
       <c r="D196" t="s">
-        <v>903</v>
+        <v>892</v>
       </c>
       <c r="E196" t="s">
-        <v>904</v>
+        <v>893</v>
       </c>
       <c r="F196" t="s">
-        <v>617</v>
+        <v>597</v>
       </c>
       <c r="H196">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>64</v>
       </c>
       <c r="I196" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>45689</v>
       </c>
       <c r="J196">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>194</v>
       </c>
     </row>
     <row r="197" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>905</v>
+        <v>840</v>
       </c>
       <c r="B197" t="s">
-        <v>906</v>
+        <v>894</v>
       </c>
       <c r="C197" t="s">
-        <v>907</v>
+        <v>895</v>
       </c>
       <c r="D197" t="s">
-        <v>908</v>
+        <v>896</v>
       </c>
       <c r="E197" t="s">
-        <v>909</v>
+        <v>897</v>
       </c>
       <c r="F197" t="s">
         <v>597</v>
       </c>
       <c r="H197">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>65</v>
       </c>
       <c r="I197" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>45690</v>
       </c>
       <c r="J197">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>195</v>
       </c>
     </row>
     <row r="198" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>856</v>
+        <v>783</v>
       </c>
       <c r="B198" t="s">
-        <v>910</v>
+        <v>477</v>
       </c>
       <c r="C198" t="s">
-        <v>911</v>
+        <v>484</v>
       </c>
       <c r="D198" t="s">
-        <v>912</v>
+        <v>898</v>
       </c>
       <c r="E198" t="s">
-        <v>913</v>
+        <v>899</v>
       </c>
       <c r="F198" t="s">
         <v>597</v>
       </c>
       <c r="H198">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>65</v>
       </c>
       <c r="I198" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>45690</v>
       </c>
       <c r="J198">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>196</v>
       </c>
     </row>
     <row r="199" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>799</v>
+        <v>900</v>
       </c>
       <c r="B199" t="s">
-        <v>477</v>
+        <v>901</v>
       </c>
       <c r="C199" t="s">
-        <v>484</v>
+        <v>902</v>
       </c>
       <c r="D199" t="s">
-        <v>914</v>
+        <v>903</v>
       </c>
       <c r="E199" t="s">
-        <v>915</v>
+        <v>904</v>
       </c>
       <c r="F199" t="s">
-        <v>597</v>
+        <v>617</v>
       </c>
       <c r="H199">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>65</v>
       </c>
       <c r="I199" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>45690</v>
       </c>
       <c r="J199">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>197</v>
       </c>
     </row>
     <row r="200" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>916</v>
+        <v>905</v>
       </c>
       <c r="B200" t="s">
-        <v>917</v>
+        <v>906</v>
       </c>
       <c r="C200" t="s">
-        <v>918</v>
+        <v>907</v>
       </c>
       <c r="D200" t="s">
-        <v>919</v>
+        <v>908</v>
       </c>
       <c r="E200" t="s">
-        <v>920</v>
+        <v>909</v>
       </c>
       <c r="F200" t="s">
-        <v>617</v>
+        <v>597</v>
       </c>
       <c r="H200">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>66</v>
       </c>
       <c r="I200" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>45691</v>
       </c>
       <c r="J200">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>198</v>
       </c>
     </row>
     <row r="201" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>921</v>
+        <v>910</v>
       </c>
       <c r="B201" t="s">
-        <v>922</v>
+        <v>911</v>
       </c>
       <c r="C201" t="s">
-        <v>923</v>
+        <v>912</v>
       </c>
       <c r="D201" t="s">
-        <v>924</v>
+        <v>913</v>
       </c>
       <c r="E201" t="s">
-        <v>925</v>
+        <v>914</v>
       </c>
       <c r="F201" t="s">
         <v>597</v>
       </c>
       <c r="H201">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>66</v>
       </c>
       <c r="I201" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>45691</v>
       </c>
       <c r="J201">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>199</v>
       </c>
     </row>
     <row r="202" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>926</v>
+        <v>367</v>
       </c>
       <c r="B202" t="s">
-        <v>927</v>
+        <v>915</v>
       </c>
       <c r="C202" t="s">
-        <v>928</v>
+        <v>916</v>
       </c>
       <c r="D202" t="s">
-        <v>929</v>
+        <v>917</v>
       </c>
       <c r="E202" t="s">
-        <v>930</v>
+        <v>918</v>
       </c>
       <c r="F202" t="s">
-        <v>597</v>
+        <v>617</v>
       </c>
       <c r="H202">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>66</v>
       </c>
       <c r="I202" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>45691</v>
       </c>
       <c r="J202">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>200</v>
       </c>
     </row>
     <row r="203" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>367</v>
+        <v>919</v>
       </c>
       <c r="B203" t="s">
-        <v>931</v>
+        <v>920</v>
       </c>
       <c r="C203" t="s">
-        <v>932</v>
+        <v>921</v>
       </c>
       <c r="D203" t="s">
-        <v>933</v>
+        <v>922</v>
       </c>
       <c r="E203" t="s">
-        <v>934</v>
+        <v>923</v>
       </c>
       <c r="F203" t="s">
-        <v>617</v>
+        <v>597</v>
       </c>
       <c r="H203">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>67</v>
       </c>
       <c r="I203" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>45692</v>
       </c>
       <c r="J203">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>201</v>
       </c>
     </row>
     <row r="204" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>935</v>
+        <v>924</v>
       </c>
       <c r="B204" t="s">
-        <v>936</v>
+        <v>925</v>
       </c>
       <c r="C204" t="s">
-        <v>937</v>
+        <v>926</v>
       </c>
       <c r="D204" t="s">
-        <v>938</v>
+        <v>927</v>
       </c>
       <c r="E204" t="s">
-        <v>939</v>
+        <v>928</v>
       </c>
       <c r="F204" t="s">
         <v>597</v>
       </c>
       <c r="H204">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>67</v>
       </c>
       <c r="I204" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>45692</v>
       </c>
       <c r="J204">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>202</v>
       </c>
     </row>
     <row r="205" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>940</v>
+        <v>929</v>
       </c>
       <c r="B205" t="s">
-        <v>941</v>
+        <v>886</v>
       </c>
       <c r="C205" t="s">
-        <v>942</v>
+        <v>930</v>
       </c>
       <c r="D205" t="s">
-        <v>943</v>
+        <v>931</v>
       </c>
       <c r="E205" t="s">
-        <v>944</v>
+        <v>932</v>
       </c>
       <c r="F205" t="s">
         <v>597</v>
       </c>
       <c r="H205">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>67</v>
       </c>
       <c r="I205" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>45692</v>
       </c>
       <c r="J205">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>203</v>
       </c>
     </row>
     <row r="206" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>945</v>
+        <v>933</v>
       </c>
       <c r="B206" t="s">
-        <v>902</v>
+        <v>934</v>
       </c>
       <c r="C206" t="s">
-        <v>946</v>
+        <v>388</v>
       </c>
       <c r="D206" t="s">
-        <v>947</v>
+        <v>935</v>
       </c>
       <c r="E206" t="s">
-        <v>948</v>
+        <v>936</v>
       </c>
       <c r="F206" t="s">
         <v>597</v>
       </c>
       <c r="H206">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>68</v>
       </c>
       <c r="I206" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>45693</v>
       </c>
       <c r="J206">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>204</v>
       </c>
     </row>
     <row r="207" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>949</v>
+        <v>937</v>
       </c>
       <c r="B207" t="s">
-        <v>950</v>
+        <v>938</v>
       </c>
       <c r="C207" t="s">
-        <v>388</v>
+        <v>939</v>
       </c>
       <c r="D207" t="s">
-        <v>951</v>
+        <v>940</v>
       </c>
       <c r="E207" t="s">
-        <v>952</v>
+        <v>941</v>
       </c>
       <c r="F207" t="s">
         <v>597</v>
       </c>
       <c r="H207">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>68</v>
       </c>
       <c r="I207" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>45693</v>
       </c>
       <c r="J207">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>205</v>
       </c>
     </row>
     <row r="208" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>953</v>
+        <v>701</v>
       </c>
       <c r="B208" t="s">
-        <v>954</v>
+        <v>942</v>
       </c>
       <c r="C208" t="s">
-        <v>955</v>
+        <v>943</v>
       </c>
       <c r="D208" t="s">
-        <v>956</v>
+        <v>944</v>
       </c>
       <c r="E208" t="s">
-        <v>957</v>
+        <v>945</v>
       </c>
       <c r="F208" t="s">
         <v>597</v>
       </c>
       <c r="H208">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>68</v>
       </c>
       <c r="I208" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>45693</v>
       </c>
       <c r="J208">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>206</v>
       </c>
     </row>
     <row r="209" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>713</v>
+        <v>946</v>
       </c>
       <c r="B209" t="s">
-        <v>958</v>
+        <v>947</v>
       </c>
       <c r="C209" t="s">
-        <v>959</v>
+        <v>948</v>
       </c>
       <c r="D209" t="s">
-        <v>960</v>
+        <v>758</v>
       </c>
       <c r="E209" t="s">
-        <v>961</v>
+        <v>949</v>
       </c>
       <c r="F209" t="s">
         <v>597</v>
       </c>
       <c r="H209">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>69</v>
       </c>
       <c r="I209" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>45694</v>
       </c>
       <c r="J209">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>207</v>
       </c>
     </row>
     <row r="210" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
-        <v>962</v>
+        <v>950</v>
       </c>
       <c r="B210" t="s">
-        <v>963</v>
+        <v>951</v>
       </c>
       <c r="C210" t="s">
-        <v>964</v>
+        <v>952</v>
       </c>
       <c r="D210" t="s">
-        <v>774</v>
+        <v>452</v>
       </c>
       <c r="E210" t="s">
-        <v>965</v>
+        <v>953</v>
       </c>
       <c r="F210" t="s">
         <v>597</v>
       </c>
       <c r="H210">
-        <f t="shared" si="15"/>
+        <f t="shared" ref="H210:H221" si="19">INT(J210/3)</f>
         <v>69</v>
       </c>
       <c r="I210" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" ref="I210:I221" si="20">$L$1+H210</f>
         <v>45694</v>
       </c>
       <c r="J210">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>208</v>
       </c>
     </row>
     <row r="211" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>966</v>
+        <v>954</v>
       </c>
       <c r="B211" t="s">
-        <v>967</v>
+        <v>78</v>
       </c>
       <c r="C211" t="s">
-        <v>968</v>
+        <v>955</v>
       </c>
       <c r="D211" t="s">
-        <v>452</v>
+        <v>956</v>
       </c>
       <c r="E211" t="s">
-        <v>969</v>
+        <v>957</v>
       </c>
       <c r="F211" t="s">
         <v>597</v>
       </c>
       <c r="H211">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>69</v>
       </c>
       <c r="I211" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>45694</v>
       </c>
       <c r="J211">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>209</v>
       </c>
     </row>
     <row r="212" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>970</v>
+        <v>958</v>
       </c>
       <c r="B212" t="s">
-        <v>78</v>
+        <v>959</v>
       </c>
       <c r="C212" t="s">
-        <v>971</v>
+        <v>960</v>
       </c>
       <c r="D212" t="s">
-        <v>972</v>
+        <v>961</v>
       </c>
       <c r="E212" t="s">
-        <v>973</v>
+        <v>962</v>
       </c>
       <c r="F212" t="s">
         <v>597</v>
       </c>
       <c r="H212">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>70</v>
       </c>
       <c r="I212" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>45695</v>
       </c>
       <c r="J212">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>210</v>
       </c>
     </row>
     <row r="213" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
-        <v>974</v>
+        <v>963</v>
       </c>
       <c r="B213" t="s">
-        <v>975</v>
+        <v>964</v>
       </c>
       <c r="C213" t="s">
-        <v>976</v>
+        <v>965</v>
       </c>
       <c r="D213" t="s">
-        <v>977</v>
+        <v>966</v>
       </c>
       <c r="E213" t="s">
-        <v>978</v>
+        <v>967</v>
       </c>
       <c r="F213" t="s">
         <v>597</v>
       </c>
       <c r="H213">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>70</v>
       </c>
       <c r="I213" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>45695</v>
       </c>
       <c r="J213">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>211</v>
       </c>
     </row>
     <row r="214" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>979</v>
+        <v>545</v>
       </c>
       <c r="B214" t="s">
-        <v>980</v>
+        <v>968</v>
       </c>
       <c r="C214" t="s">
-        <v>981</v>
+        <v>969</v>
       </c>
       <c r="D214" t="s">
-        <v>982</v>
+        <v>970</v>
       </c>
       <c r="E214" t="s">
-        <v>983</v>
+        <v>971</v>
       </c>
       <c r="F214" t="s">
         <v>597</v>
       </c>
       <c r="H214">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>70</v>
       </c>
       <c r="I214" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>45695</v>
       </c>
       <c r="J214">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>212</v>
       </c>
     </row>
     <row r="215" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>545</v>
+        <v>972</v>
       </c>
       <c r="B215" t="s">
-        <v>984</v>
+        <v>973</v>
       </c>
       <c r="C215" t="s">
-        <v>985</v>
+        <v>974</v>
       </c>
       <c r="D215" t="s">
-        <v>986</v>
+        <v>975</v>
       </c>
       <c r="E215" t="s">
-        <v>987</v>
+        <v>976</v>
       </c>
       <c r="F215" t="s">
         <v>597</v>
       </c>
       <c r="H215">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>71</v>
       </c>
       <c r="I215" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>45696</v>
       </c>
       <c r="J215">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>213</v>
       </c>
     </row>
     <row r="216" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>988</v>
+        <v>977</v>
       </c>
       <c r="B216" t="s">
-        <v>989</v>
+        <v>978</v>
       </c>
       <c r="C216" t="s">
-        <v>990</v>
+        <v>917</v>
       </c>
       <c r="D216" t="s">
-        <v>991</v>
+        <v>979</v>
       </c>
       <c r="E216" t="s">
-        <v>992</v>
+        <v>980</v>
       </c>
       <c r="F216" t="s">
         <v>597</v>
       </c>
       <c r="H216">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>71</v>
       </c>
       <c r="I216" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>45696</v>
       </c>
       <c r="J216">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>214</v>
       </c>
     </row>
     <row r="217" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>993</v>
+        <v>700</v>
       </c>
       <c r="B217" t="s">
-        <v>994</v>
+        <v>981</v>
       </c>
       <c r="C217" t="s">
-        <v>933</v>
+        <v>982</v>
       </c>
       <c r="D217" t="s">
-        <v>995</v>
+        <v>983</v>
       </c>
       <c r="E217" t="s">
-        <v>996</v>
+        <v>984</v>
       </c>
       <c r="F217" t="s">
-        <v>597</v>
+        <v>617</v>
       </c>
       <c r="H217">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>71</v>
       </c>
       <c r="I217" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>45696</v>
       </c>
       <c r="J217">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>215</v>
       </c>
     </row>
     <row r="218" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
-        <v>712</v>
+        <v>64</v>
       </c>
       <c r="B218" t="s">
-        <v>997</v>
+        <v>471</v>
       </c>
       <c r="C218" t="s">
-        <v>998</v>
+        <v>985</v>
       </c>
       <c r="D218" t="s">
-        <v>999</v>
+        <v>986</v>
       </c>
       <c r="E218" t="s">
-        <v>1000</v>
+        <v>987</v>
       </c>
       <c r="F218" t="s">
-        <v>617</v>
+        <v>597</v>
       </c>
       <c r="H218">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>72</v>
       </c>
       <c r="I218" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>45697</v>
       </c>
       <c r="J218">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>216</v>
       </c>
     </row>
     <row r="219" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
-        <v>64</v>
+        <v>991</v>
       </c>
       <c r="B219" t="s">
-        <v>471</v>
+        <v>992</v>
       </c>
       <c r="C219" t="s">
-        <v>1001</v>
+        <v>993</v>
       </c>
       <c r="D219" t="s">
-        <v>1002</v>
+        <v>994</v>
       </c>
       <c r="E219" t="s">
-        <v>1003</v>
+        <v>995</v>
       </c>
       <c r="F219" t="s">
-        <v>597</v>
+        <v>617</v>
       </c>
       <c r="H219">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>72</v>
       </c>
       <c r="I219" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>45697</v>
       </c>
       <c r="J219">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>217</v>
       </c>
     </row>
     <row r="220" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
-        <v>1007</v>
+        <v>996</v>
       </c>
       <c r="B220" t="s">
-        <v>1008</v>
+        <v>997</v>
       </c>
       <c r="C220" t="s">
-        <v>1009</v>
+        <v>998</v>
       </c>
       <c r="D220" t="s">
-        <v>1010</v>
+        <v>999</v>
       </c>
       <c r="E220" t="s">
-        <v>1011</v>
+        <v>1000</v>
       </c>
       <c r="F220" t="s">
-        <v>617</v>
+        <v>597</v>
       </c>
       <c r="H220">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>72</v>
       </c>
       <c r="I220" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>45697</v>
       </c>
       <c r="J220">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>218</v>
       </c>
     </row>
     <row r="221" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
-        <v>1012</v>
+        <v>14</v>
       </c>
       <c r="B221" t="s">
-        <v>1013</v>
+        <v>1001</v>
       </c>
       <c r="C221" t="s">
-        <v>1014</v>
+        <v>1002</v>
       </c>
       <c r="D221" t="s">
-        <v>1015</v>
+        <v>1003</v>
       </c>
       <c r="E221" t="s">
-        <v>1016</v>
+        <v>779</v>
       </c>
       <c r="F221" t="s">
         <v>597</v>
       </c>
       <c r="H221">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>73</v>
       </c>
       <c r="I221" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>45698</v>
       </c>
       <c r="J221">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>219</v>
-      </c>
-    </row>
-    <row r="222" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A222" t="s">
-        <v>14</v>
-      </c>
-      <c r="B222" t="s">
-        <v>1017</v>
-      </c>
-      <c r="C222" t="s">
-        <v>1018</v>
-      </c>
-      <c r="D222" t="s">
-        <v>1019</v>
-      </c>
-      <c r="E222" t="s">
-        <v>795</v>
-      </c>
-      <c r="F222" t="s">
-        <v>597</v>
-      </c>
-      <c r="H222">
-        <f t="shared" si="15"/>
-        <v>73</v>
-      </c>
-      <c r="I222" s="3">
-        <f t="shared" si="16"/>
-        <v>45698</v>
-      </c>
-      <c r="J222">
-        <f t="shared" ref="J222" si="17">J221+1</f>
-        <v>220</v>
       </c>
     </row>
   </sheetData>

--- a/code/shabdakala/resource/sbwords.xlsx
+++ b/code/shabdakala/resource/sbwords.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hrishinene/shabdak_github/sbbd/shabdakala/code/shabdakala/resource/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F1D1DDE-1C6E-6942-9C17-6EDC25DF4776}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B32E1137-6A2D-504D-A440-1FDE18598F20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{9F74AEE5-EB85-4044-AC84-8761A591B5C1}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1419" uniqueCount="1048">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1413" uniqueCount="1048">
   <si>
     <t>word0</t>
   </si>
@@ -2438,12 +2438,6 @@
     <t>जंतुनाशक</t>
   </si>
   <si>
-    <t>विद्रावक</t>
-  </si>
-  <si>
-    <t>ज्वलंत</t>
-  </si>
-  <si>
     <t>अल्कोहोल</t>
   </si>
   <si>
@@ -2468,9 +2462,6 @@
     <t>सायरन</t>
   </si>
   <si>
-    <t>फटका</t>
-  </si>
-  <si>
     <t>मोठा आवाज करणार्‍या गोष्टी</t>
   </si>
   <si>
@@ -2483,9 +2474,6 @@
     <t>करवंटी</t>
   </si>
   <si>
-    <t>कोयर</t>
-  </si>
-  <si>
     <t>नारळाच्या झाडापासून बनवलेल्या गोष्टी</t>
   </si>
   <si>
@@ -2531,9 +2519,6 @@
     <t>तुडुंब</t>
   </si>
   <si>
-    <t>अति</t>
-  </si>
-  <si>
     <t>डॉन</t>
   </si>
   <si>
@@ -3177,6 +3162,21 @@
   </si>
   <si>
     <t>हिम</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ज्वलनशील </t>
+  </si>
+  <si>
+    <t>व्यसन</t>
+  </si>
+  <si>
+    <t>फटाका</t>
+  </si>
+  <si>
+    <t>कॉयर</t>
+  </si>
+  <si>
+    <t xml:space="preserve">अती, खूप जास्त   </t>
   </si>
 </sst>
 </file>
@@ -4101,10 +4101,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEA1707B-2FB7-B84C-9F84-E9F074F3056C}">
-  <dimension ref="A1:L221"/>
+  <dimension ref="A1:L220"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A134" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I212" sqref="I212"/>
+    <sheetView tabSelected="1" topLeftCell="A153" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H179" sqref="H179:J220"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4192,7 +4192,7 @@
       </c>
       <c r="L2" s="6">
         <f ca="1">TODAY()</f>
-        <v>45671</v>
+        <v>45682</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -6222,16 +6222,16 @@
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>988</v>
+        <v>983</v>
       </c>
       <c r="B62" t="s">
-        <v>989</v>
+        <v>984</v>
       </c>
       <c r="C62" t="s">
-        <v>821</v>
+        <v>817</v>
       </c>
       <c r="D62" t="s">
-        <v>990</v>
+        <v>985</v>
       </c>
       <c r="E62" t="s">
         <v>494</v>
@@ -6509,7 +6509,7 @@
         <v>457</v>
       </c>
       <c r="E70" t="s">
-        <v>1004</v>
+        <v>999</v>
       </c>
       <c r="F70" t="s">
         <v>597</v>
@@ -6628,19 +6628,19 @@
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
+        <v>802</v>
+      </c>
+      <c r="B74" t="s">
+        <v>803</v>
+      </c>
+      <c r="C74" t="s">
         <v>804</v>
       </c>
-      <c r="B74" t="s">
+      <c r="D74" t="s">
         <v>805</v>
       </c>
-      <c r="C74" t="s">
+      <c r="E74" t="s">
         <v>806</v>
-      </c>
-      <c r="D74" t="s">
-        <v>807</v>
-      </c>
-      <c r="E74" t="s">
-        <v>808</v>
       </c>
       <c r="F74" t="s">
         <v>597</v>
@@ -6908,7 +6908,7 @@
         <v>279</v>
       </c>
       <c r="D82" t="s">
-        <v>1005</v>
+        <v>1000</v>
       </c>
       <c r="E82" t="s">
         <v>312</v>
@@ -6940,7 +6940,7 @@
         <v>453</v>
       </c>
       <c r="C83" t="s">
-        <v>1007</v>
+        <v>1002</v>
       </c>
       <c r="D83" t="s">
         <v>454</v>
@@ -6966,19 +6966,19 @@
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>1010</v>
+        <v>1005</v>
       </c>
       <c r="B84" t="s">
-        <v>1009</v>
+        <v>1004</v>
       </c>
       <c r="C84" t="s">
-        <v>1006</v>
+        <v>1001</v>
       </c>
       <c r="D84" t="s">
-        <v>1008</v>
+        <v>1003</v>
       </c>
       <c r="E84" t="s">
-        <v>1004</v>
+        <v>999</v>
       </c>
       <c r="F84" t="s">
         <v>597</v>
@@ -7077,7 +7077,7 @@
         <v>471</v>
       </c>
       <c r="D87" t="s">
-        <v>1011</v>
+        <v>1006</v>
       </c>
       <c r="E87" t="s">
         <v>472</v>
@@ -7100,7 +7100,7 @@
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>1013</v>
+        <v>1008</v>
       </c>
       <c r="B88" t="s">
         <v>473</v>
@@ -7109,7 +7109,7 @@
         <v>664</v>
       </c>
       <c r="D88" t="s">
-        <v>1012</v>
+        <v>1007</v>
       </c>
       <c r="E88" t="s">
         <v>474</v>
@@ -7205,13 +7205,13 @@
         <v>480</v>
       </c>
       <c r="B91" t="s">
-        <v>1014</v>
+        <v>1009</v>
       </c>
       <c r="C91" t="s">
         <v>481</v>
       </c>
       <c r="D91" t="s">
-        <v>1015</v>
+        <v>1010</v>
       </c>
       <c r="E91" t="s">
         <v>482</v>
@@ -7406,7 +7406,7 @@
         <v>555</v>
       </c>
       <c r="B97" t="s">
-        <v>1016</v>
+        <v>1011</v>
       </c>
       <c r="C97" t="s">
         <v>532</v>
@@ -7470,7 +7470,7 @@
         <v>559</v>
       </c>
       <c r="B99" t="s">
-        <v>1017</v>
+        <v>1012</v>
       </c>
       <c r="C99" t="s">
         <v>560</v>
@@ -8041,13 +8041,13 @@
         <v>546</v>
       </c>
       <c r="C116" t="s">
-        <v>1018</v>
+        <v>1013</v>
       </c>
       <c r="D116" t="s">
         <v>547</v>
       </c>
       <c r="E116" t="s">
-        <v>1019</v>
+        <v>1014</v>
       </c>
       <c r="F116" t="s">
         <v>597</v>
@@ -8079,7 +8079,7 @@
         <v>551</v>
       </c>
       <c r="E117" t="s">
-        <v>1021</v>
+        <v>1016</v>
       </c>
       <c r="F117" t="s">
         <v>597</v>
@@ -8105,7 +8105,7 @@
         <v>553</v>
       </c>
       <c r="C118" t="s">
-        <v>1020</v>
+        <v>1015</v>
       </c>
       <c r="D118" t="s">
         <v>554</v>
@@ -8303,7 +8303,7 @@
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>1022</v>
+        <v>1017</v>
       </c>
       <c r="B124" t="s">
         <v>421</v>
@@ -8347,10 +8347,10 @@
         <v>261</v>
       </c>
       <c r="D125" t="s">
-        <v>1028</v>
+        <v>1023</v>
       </c>
       <c r="E125" t="s">
-        <v>1029</v>
+        <v>1024</v>
       </c>
       <c r="F125" s="1" t="s">
         <v>85</v>
@@ -8382,7 +8382,7 @@
         <v>242</v>
       </c>
       <c r="D126" t="s">
-        <v>1023</v>
+        <v>1018</v>
       </c>
       <c r="E126" t="s">
         <v>243</v>
@@ -8408,7 +8408,7 @@
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>1024</v>
+        <v>1019</v>
       </c>
       <c r="B127" t="s">
         <v>584</v>
@@ -8420,7 +8420,7 @@
         <v>586</v>
       </c>
       <c r="E127" t="s">
-        <v>1025</v>
+        <v>1020</v>
       </c>
       <c r="F127" t="s">
         <v>597</v>
@@ -8452,7 +8452,7 @@
         <v>358</v>
       </c>
       <c r="E128" t="s">
-        <v>1030</v>
+        <v>1025</v>
       </c>
       <c r="F128" t="s">
         <v>313</v>
@@ -8960,20 +8960,20 @@
         <v>665</v>
       </c>
       <c r="D143" t="s">
-        <v>1032</v>
+        <v>1027</v>
       </c>
       <c r="E143" t="s">
-        <v>1034</v>
+        <v>1029</v>
       </c>
       <c r="F143" t="s">
         <v>597</v>
       </c>
       <c r="H143">
-        <f t="shared" ref="H143:H205" si="14">INT(J143/3)</f>
+        <f t="shared" ref="H143:H145" si="14">INT(J143/3)</f>
         <v>47</v>
       </c>
       <c r="I143" s="3">
-        <f t="shared" ref="I143:I205" si="15">$L$1+H143</f>
+        <f t="shared" ref="I143:I145" si="15">$L$1+H143</f>
         <v>45672</v>
       </c>
       <c r="J143">
@@ -9018,13 +9018,13 @@
         <v>670</v>
       </c>
       <c r="B145" t="s">
-        <v>1031</v>
+        <v>1026</v>
       </c>
       <c r="C145" t="s">
         <v>544</v>
       </c>
       <c r="D145" t="s">
-        <v>1033</v>
+        <v>1028</v>
       </c>
       <c r="E145" t="s">
         <v>671</v>
@@ -9050,7 +9050,7 @@
         <v>672</v>
       </c>
       <c r="B146" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="C146" t="s">
         <v>673</v>
@@ -9065,11 +9065,11 @@
         <v>597</v>
       </c>
       <c r="H146">
-        <f t="shared" ref="H146:H209" si="16">INT(J146/3)</f>
+        <f t="shared" ref="H146:H208" si="16">INT(J146/3)</f>
         <v>48</v>
       </c>
       <c r="I146" s="3">
-        <f t="shared" ref="I146:I209" si="17">$L$1+H146</f>
+        <f t="shared" ref="I146:I208" si="17">$L$1+H146</f>
         <v>45673</v>
       </c>
       <c r="J146">
@@ -9082,7 +9082,7 @@
         <v>676</v>
       </c>
       <c r="B147" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="C147" t="s">
         <v>677</v>
@@ -9111,16 +9111,16 @@
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>1035</v>
+        <v>1030</v>
       </c>
       <c r="B148" t="s">
         <v>680</v>
       </c>
       <c r="C148" t="s">
-        <v>1038</v>
+        <v>1033</v>
       </c>
       <c r="D148" t="s">
-        <v>1036</v>
+        <v>1031</v>
       </c>
       <c r="E148" t="s">
         <v>681</v>
@@ -9155,7 +9155,7 @@
         <v>685</v>
       </c>
       <c r="E149" t="s">
-        <v>1040</v>
+        <v>1035</v>
       </c>
       <c r="F149" t="s">
         <v>597</v>
@@ -9187,7 +9187,7 @@
         <v>689</v>
       </c>
       <c r="E150" t="s">
-        <v>1041</v>
+        <v>1036</v>
       </c>
       <c r="F150" t="s">
         <v>597</v>
@@ -9251,7 +9251,7 @@
         <v>698</v>
       </c>
       <c r="E152" t="s">
-        <v>1042</v>
+        <v>1037</v>
       </c>
       <c r="F152" t="s">
         <v>597</v>
@@ -9347,7 +9347,7 @@
         <v>710</v>
       </c>
       <c r="E155" t="s">
-        <v>1043</v>
+        <v>1038</v>
       </c>
       <c r="F155" t="s">
         <v>597</v>
@@ -9379,7 +9379,7 @@
         <v>714</v>
       </c>
       <c r="E156" t="s">
-        <v>1027</v>
+        <v>1022</v>
       </c>
       <c r="F156" t="s">
         <v>597</v>
@@ -9443,7 +9443,7 @@
         <v>723</v>
       </c>
       <c r="E158" t="s">
-        <v>1044</v>
+        <v>1039</v>
       </c>
       <c r="F158" t="s">
         <v>617</v>
@@ -9457,7 +9457,7 @@
         <v>45677</v>
       </c>
       <c r="J158">
-        <f t="shared" ref="J158:J221" si="18">J157+1</f>
+        <f t="shared" ref="J158:J220" si="18">J157+1</f>
         <v>156</v>
       </c>
     </row>
@@ -9475,7 +9475,7 @@
         <v>732</v>
       </c>
       <c r="E159" t="s">
-        <v>1046</v>
+        <v>1041</v>
       </c>
       <c r="F159" t="s">
         <v>617</v>
@@ -9504,7 +9504,7 @@
         <v>735</v>
       </c>
       <c r="D160" t="s">
-        <v>1045</v>
+        <v>1040</v>
       </c>
       <c r="E160" t="s">
         <v>736</v>
@@ -9559,7 +9559,7 @@
     </row>
     <row r="162" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>1047</v>
+        <v>1042</v>
       </c>
       <c r="B162" t="s">
         <v>742</v>
@@ -9690,7 +9690,7 @@
         <v>754</v>
       </c>
       <c r="B166" t="s">
-        <v>1026</v>
+        <v>1021</v>
       </c>
       <c r="C166" t="s">
         <v>755</v>
@@ -10013,13 +10013,13 @@
         <v>800</v>
       </c>
       <c r="C176" t="s">
+        <v>1044</v>
+      </c>
+      <c r="D176" t="s">
+        <v>1043</v>
+      </c>
+      <c r="E176" t="s">
         <v>801</v>
-      </c>
-      <c r="D176" t="s">
-        <v>802</v>
-      </c>
-      <c r="E176" t="s">
-        <v>803</v>
       </c>
       <c r="F176" t="s">
         <v>597</v>
@@ -10039,19 +10039,19 @@
     </row>
     <row r="177" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="B177" t="s">
         <v>513</v>
       </c>
       <c r="C177" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="D177" t="s">
-        <v>811</v>
+        <v>1045</v>
       </c>
       <c r="E177" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
       <c r="F177" t="s">
         <v>597</v>
@@ -10071,19 +10071,19 @@
     </row>
     <row r="178" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
+        <v>810</v>
+      </c>
+      <c r="B178" t="s">
+        <v>811</v>
+      </c>
+      <c r="C178" t="s">
+        <v>812</v>
+      </c>
+      <c r="D178" t="s">
+        <v>1046</v>
+      </c>
+      <c r="E178" t="s">
         <v>813</v>
-      </c>
-      <c r="B178" t="s">
-        <v>814</v>
-      </c>
-      <c r="C178" t="s">
-        <v>815</v>
-      </c>
-      <c r="D178" t="s">
-        <v>816</v>
-      </c>
-      <c r="E178" t="s">
-        <v>817</v>
       </c>
       <c r="F178" t="s">
         <v>597</v>
@@ -10103,19 +10103,19 @@
     </row>
     <row r="179" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
+        <v>814</v>
+      </c>
+      <c r="B179" t="s">
+        <v>815</v>
+      </c>
+      <c r="C179" t="s">
+        <v>816</v>
+      </c>
+      <c r="D179" t="s">
+        <v>817</v>
+      </c>
+      <c r="E179" t="s">
         <v>818</v>
-      </c>
-      <c r="B179" t="s">
-        <v>819</v>
-      </c>
-      <c r="C179" t="s">
-        <v>820</v>
-      </c>
-      <c r="D179" t="s">
-        <v>821</v>
-      </c>
-      <c r="E179" t="s">
-        <v>822</v>
       </c>
       <c r="F179" t="s">
         <v>617</v>
@@ -10135,29 +10135,29 @@
     </row>
     <row r="180" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
+        <v>819</v>
+      </c>
+      <c r="B180" t="s">
+        <v>820</v>
+      </c>
+      <c r="C180" t="s">
+        <v>821</v>
+      </c>
+      <c r="D180" t="s">
+        <v>822</v>
+      </c>
+      <c r="E180" t="s">
         <v>823</v>
-      </c>
-      <c r="B180" t="s">
-        <v>824</v>
-      </c>
-      <c r="C180" t="s">
-        <v>825</v>
-      </c>
-      <c r="D180" t="s">
-        <v>826</v>
-      </c>
-      <c r="E180" t="s">
-        <v>827</v>
       </c>
       <c r="F180" t="s">
         <v>617</v>
       </c>
       <c r="H180">
-        <f t="shared" si="16"/>
+        <f t="shared" ref="H180:H220" si="19">INT(J180/3)</f>
         <v>59</v>
       </c>
       <c r="I180" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" ref="I180:I220" si="20">$L$1+H180</f>
         <v>45684</v>
       </c>
       <c r="J180">
@@ -10167,29 +10167,29 @@
     </row>
     <row r="181" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>725</v>
+        <v>824</v>
       </c>
       <c r="B181" t="s">
-        <v>726</v>
+        <v>825</v>
       </c>
       <c r="C181" t="s">
-        <v>727</v>
+        <v>826</v>
       </c>
       <c r="D181" t="s">
-        <v>728</v>
+        <v>827</v>
       </c>
       <c r="E181" t="s">
-        <v>724</v>
+        <v>1047</v>
       </c>
       <c r="F181" t="s">
-        <v>617</v>
+        <v>597</v>
       </c>
       <c r="H181">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>59</v>
       </c>
       <c r="I181" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>45684</v>
       </c>
       <c r="J181">
@@ -10217,11 +10217,11 @@
         <v>597</v>
       </c>
       <c r="H182">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>60</v>
       </c>
       <c r="I182" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>45685</v>
       </c>
       <c r="J182">
@@ -10249,11 +10249,11 @@
         <v>597</v>
       </c>
       <c r="H183">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>60</v>
       </c>
       <c r="I183" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>45685</v>
       </c>
       <c r="J183">
@@ -10281,11 +10281,11 @@
         <v>597</v>
       </c>
       <c r="H184">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>60</v>
       </c>
       <c r="I184" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>45685</v>
       </c>
       <c r="J184">
@@ -10313,11 +10313,11 @@
         <v>597</v>
       </c>
       <c r="H185">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>61</v>
       </c>
       <c r="I185" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>45686</v>
       </c>
       <c r="J185">
@@ -10345,11 +10345,11 @@
         <v>597</v>
       </c>
       <c r="H186">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>61</v>
       </c>
       <c r="I186" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>45686</v>
       </c>
       <c r="J186">
@@ -10362,26 +10362,26 @@
         <v>853</v>
       </c>
       <c r="B187" t="s">
+        <v>169</v>
+      </c>
+      <c r="C187" t="s">
         <v>854</v>
       </c>
-      <c r="C187" t="s">
+      <c r="D187" t="s">
         <v>855</v>
       </c>
-      <c r="D187" t="s">
+      <c r="E187" t="s">
         <v>856</v>
-      </c>
-      <c r="E187" t="s">
-        <v>857</v>
       </c>
       <c r="F187" t="s">
         <v>597</v>
       </c>
       <c r="H187">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>61</v>
       </c>
       <c r="I187" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>45686</v>
       </c>
       <c r="J187">
@@ -10391,10 +10391,10 @@
     </row>
     <row r="188" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
+        <v>857</v>
+      </c>
+      <c r="B188" t="s">
         <v>858</v>
-      </c>
-      <c r="B188" t="s">
-        <v>169</v>
       </c>
       <c r="C188" t="s">
         <v>859</v>
@@ -10409,11 +10409,11 @@
         <v>597</v>
       </c>
       <c r="H188">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>62</v>
       </c>
       <c r="I188" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>45687</v>
       </c>
       <c r="J188">
@@ -10423,29 +10423,29 @@
     </row>
     <row r="189" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
+        <v>667</v>
+      </c>
+      <c r="B189" t="s">
         <v>862</v>
       </c>
-      <c r="B189" t="s">
+      <c r="C189" t="s">
+        <v>540</v>
+      </c>
+      <c r="D189" t="s">
         <v>863</v>
       </c>
-      <c r="C189" t="s">
+      <c r="E189" t="s">
         <v>864</v>
-      </c>
-      <c r="D189" t="s">
-        <v>865</v>
-      </c>
-      <c r="E189" t="s">
-        <v>866</v>
       </c>
       <c r="F189" t="s">
         <v>597</v>
       </c>
       <c r="H189">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>62</v>
       </c>
       <c r="I189" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>45687</v>
       </c>
       <c r="J189">
@@ -10455,29 +10455,29 @@
     </row>
     <row r="190" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>667</v>
+        <v>720</v>
       </c>
       <c r="B190" t="s">
-        <v>867</v>
+        <v>721</v>
       </c>
       <c r="C190" t="s">
-        <v>540</v>
+        <v>722</v>
       </c>
       <c r="D190" t="s">
-        <v>868</v>
+        <v>723</v>
       </c>
       <c r="E190" t="s">
-        <v>869</v>
+        <v>724</v>
       </c>
       <c r="F190" t="s">
-        <v>597</v>
+        <v>617</v>
       </c>
       <c r="H190">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>62</v>
       </c>
       <c r="I190" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>45687</v>
       </c>
       <c r="J190">
@@ -10487,29 +10487,29 @@
     </row>
     <row r="191" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>720</v>
+        <v>865</v>
       </c>
       <c r="B191" t="s">
-        <v>721</v>
+        <v>866</v>
       </c>
       <c r="C191" t="s">
-        <v>722</v>
+        <v>867</v>
       </c>
       <c r="D191" t="s">
-        <v>723</v>
+        <v>868</v>
       </c>
       <c r="E191" t="s">
-        <v>724</v>
+        <v>869</v>
       </c>
       <c r="F191" t="s">
         <v>617</v>
       </c>
       <c r="H191">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>63</v>
       </c>
       <c r="I191" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>45688</v>
       </c>
       <c r="J191">
@@ -10534,14 +10534,14 @@
         <v>874</v>
       </c>
       <c r="F192" t="s">
-        <v>617</v>
+        <v>597</v>
       </c>
       <c r="H192">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>63</v>
       </c>
       <c r="I192" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>45688</v>
       </c>
       <c r="J192">
@@ -10554,26 +10554,26 @@
         <v>875</v>
       </c>
       <c r="B193" t="s">
+        <v>861</v>
+      </c>
+      <c r="C193" t="s">
         <v>876</v>
       </c>
-      <c r="C193" t="s">
+      <c r="D193" t="s">
         <v>877</v>
       </c>
-      <c r="D193" t="s">
+      <c r="E193" t="s">
         <v>878</v>
-      </c>
-      <c r="E193" t="s">
-        <v>879</v>
       </c>
       <c r="F193" t="s">
         <v>597</v>
       </c>
       <c r="H193">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>63</v>
       </c>
       <c r="I193" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>45688</v>
       </c>
       <c r="J193">
@@ -10583,10 +10583,10 @@
     </row>
     <row r="194" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
+        <v>879</v>
+      </c>
+      <c r="B194" t="s">
         <v>880</v>
-      </c>
-      <c r="B194" t="s">
-        <v>866</v>
       </c>
       <c r="C194" t="s">
         <v>881</v>
@@ -10598,14 +10598,14 @@
         <v>883</v>
       </c>
       <c r="F194" t="s">
-        <v>597</v>
+        <v>617</v>
       </c>
       <c r="H194">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>64</v>
       </c>
       <c r="I194" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>45689</v>
       </c>
       <c r="J194">
@@ -10630,14 +10630,14 @@
         <v>888</v>
       </c>
       <c r="F195" t="s">
-        <v>617</v>
+        <v>597</v>
       </c>
       <c r="H195">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>64</v>
       </c>
       <c r="I195" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>45689</v>
       </c>
       <c r="J195">
@@ -10647,29 +10647,29 @@
     </row>
     <row r="196" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
+        <v>835</v>
+      </c>
+      <c r="B196" t="s">
         <v>889</v>
       </c>
-      <c r="B196" t="s">
+      <c r="C196" t="s">
         <v>890</v>
       </c>
-      <c r="C196" t="s">
+      <c r="D196" t="s">
         <v>891</v>
       </c>
-      <c r="D196" t="s">
+      <c r="E196" t="s">
         <v>892</v>
-      </c>
-      <c r="E196" t="s">
-        <v>893</v>
       </c>
       <c r="F196" t="s">
         <v>597</v>
       </c>
       <c r="H196">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>64</v>
       </c>
       <c r="I196" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>45689</v>
       </c>
       <c r="J196">
@@ -10679,29 +10679,29 @@
     </row>
     <row r="197" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>840</v>
+        <v>783</v>
       </c>
       <c r="B197" t="s">
+        <v>477</v>
+      </c>
+      <c r="C197" t="s">
+        <v>484</v>
+      </c>
+      <c r="D197" t="s">
+        <v>893</v>
+      </c>
+      <c r="E197" t="s">
         <v>894</v>
-      </c>
-      <c r="C197" t="s">
-        <v>895</v>
-      </c>
-      <c r="D197" t="s">
-        <v>896</v>
-      </c>
-      <c r="E197" t="s">
-        <v>897</v>
       </c>
       <c r="F197" t="s">
         <v>597</v>
       </c>
       <c r="H197">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>65</v>
       </c>
       <c r="I197" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>45690</v>
       </c>
       <c r="J197">
@@ -10711,13 +10711,13 @@
     </row>
     <row r="198" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>783</v>
+        <v>895</v>
       </c>
       <c r="B198" t="s">
-        <v>477</v>
+        <v>896</v>
       </c>
       <c r="C198" t="s">
-        <v>484</v>
+        <v>897</v>
       </c>
       <c r="D198" t="s">
         <v>898</v>
@@ -10726,14 +10726,14 @@
         <v>899</v>
       </c>
       <c r="F198" t="s">
-        <v>597</v>
+        <v>617</v>
       </c>
       <c r="H198">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>65</v>
       </c>
       <c r="I198" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>45690</v>
       </c>
       <c r="J198">
@@ -10758,14 +10758,14 @@
         <v>904</v>
       </c>
       <c r="F199" t="s">
-        <v>617</v>
+        <v>597</v>
       </c>
       <c r="H199">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>65</v>
       </c>
       <c r="I199" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>45690</v>
       </c>
       <c r="J199">
@@ -10793,11 +10793,11 @@
         <v>597</v>
       </c>
       <c r="H200">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>66</v>
       </c>
       <c r="I200" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>45691</v>
       </c>
       <c r="J200">
@@ -10807,29 +10807,29 @@
     </row>
     <row r="201" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
+        <v>367</v>
+      </c>
+      <c r="B201" t="s">
         <v>910</v>
       </c>
-      <c r="B201" t="s">
+      <c r="C201" t="s">
         <v>911</v>
       </c>
-      <c r="C201" t="s">
+      <c r="D201" t="s">
         <v>912</v>
       </c>
-      <c r="D201" t="s">
+      <c r="E201" t="s">
         <v>913</v>
       </c>
-      <c r="E201" t="s">
-        <v>914</v>
-      </c>
       <c r="F201" t="s">
-        <v>597</v>
+        <v>617</v>
       </c>
       <c r="H201">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>66</v>
       </c>
       <c r="I201" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>45691</v>
       </c>
       <c r="J201">
@@ -10839,7 +10839,7 @@
     </row>
     <row r="202" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>367</v>
+        <v>914</v>
       </c>
       <c r="B202" t="s">
         <v>915</v>
@@ -10854,14 +10854,14 @@
         <v>918</v>
       </c>
       <c r="F202" t="s">
-        <v>617</v>
+        <v>597</v>
       </c>
       <c r="H202">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>66</v>
       </c>
       <c r="I202" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>45691</v>
       </c>
       <c r="J202">
@@ -10889,11 +10889,11 @@
         <v>597</v>
       </c>
       <c r="H203">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>67</v>
       </c>
       <c r="I203" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>45692</v>
       </c>
       <c r="J203">
@@ -10906,26 +10906,26 @@
         <v>924</v>
       </c>
       <c r="B204" t="s">
+        <v>881</v>
+      </c>
+      <c r="C204" t="s">
         <v>925</v>
       </c>
-      <c r="C204" t="s">
+      <c r="D204" t="s">
         <v>926</v>
       </c>
-      <c r="D204" t="s">
+      <c r="E204" t="s">
         <v>927</v>
-      </c>
-      <c r="E204" t="s">
-        <v>928</v>
       </c>
       <c r="F204" t="s">
         <v>597</v>
       </c>
       <c r="H204">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>67</v>
       </c>
       <c r="I204" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>45692</v>
       </c>
       <c r="J204">
@@ -10935,29 +10935,29 @@
     </row>
     <row r="205" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
+        <v>928</v>
+      </c>
+      <c r="B205" t="s">
         <v>929</v>
       </c>
-      <c r="B205" t="s">
-        <v>886</v>
-      </c>
       <c r="C205" t="s">
+        <v>388</v>
+      </c>
+      <c r="D205" t="s">
         <v>930</v>
       </c>
-      <c r="D205" t="s">
+      <c r="E205" t="s">
         <v>931</v>
-      </c>
-      <c r="E205" t="s">
-        <v>932</v>
       </c>
       <c r="F205" t="s">
         <v>597</v>
       </c>
       <c r="H205">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>67</v>
       </c>
       <c r="I205" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>45692</v>
       </c>
       <c r="J205">
@@ -10967,13 +10967,13 @@
     </row>
     <row r="206" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
+        <v>932</v>
+      </c>
+      <c r="B206" t="s">
         <v>933</v>
       </c>
-      <c r="B206" t="s">
+      <c r="C206" t="s">
         <v>934</v>
-      </c>
-      <c r="C206" t="s">
-        <v>388</v>
       </c>
       <c r="D206" t="s">
         <v>935</v>
@@ -10985,11 +10985,11 @@
         <v>597</v>
       </c>
       <c r="H206">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>68</v>
       </c>
       <c r="I206" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>45693</v>
       </c>
       <c r="J206">
@@ -10999,29 +10999,29 @@
     </row>
     <row r="207" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
+        <v>701</v>
+      </c>
+      <c r="B207" t="s">
         <v>937</v>
       </c>
-      <c r="B207" t="s">
+      <c r="C207" t="s">
         <v>938</v>
       </c>
-      <c r="C207" t="s">
+      <c r="D207" t="s">
         <v>939</v>
       </c>
-      <c r="D207" t="s">
+      <c r="E207" t="s">
         <v>940</v>
-      </c>
-      <c r="E207" t="s">
-        <v>941</v>
       </c>
       <c r="F207" t="s">
         <v>597</v>
       </c>
       <c r="H207">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>68</v>
       </c>
       <c r="I207" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>45693</v>
       </c>
       <c r="J207">
@@ -11031,7 +11031,7 @@
     </row>
     <row r="208" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>701</v>
+        <v>941</v>
       </c>
       <c r="B208" t="s">
         <v>942</v>
@@ -11040,20 +11040,20 @@
         <v>943</v>
       </c>
       <c r="D208" t="s">
+        <v>758</v>
+      </c>
+      <c r="E208" t="s">
         <v>944</v>
-      </c>
-      <c r="E208" t="s">
-        <v>945</v>
       </c>
       <c r="F208" t="s">
         <v>597</v>
       </c>
       <c r="H208">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>68</v>
       </c>
       <c r="I208" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>45693</v>
       </c>
       <c r="J208">
@@ -11063,29 +11063,29 @@
     </row>
     <row r="209" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
+        <v>945</v>
+      </c>
+      <c r="B209" t="s">
         <v>946</v>
       </c>
-      <c r="B209" t="s">
+      <c r="C209" t="s">
         <v>947</v>
       </c>
-      <c r="C209" t="s">
+      <c r="D209" t="s">
+        <v>452</v>
+      </c>
+      <c r="E209" t="s">
         <v>948</v>
-      </c>
-      <c r="D209" t="s">
-        <v>758</v>
-      </c>
-      <c r="E209" t="s">
-        <v>949</v>
       </c>
       <c r="F209" t="s">
         <v>597</v>
       </c>
       <c r="H209">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>69</v>
       </c>
       <c r="I209" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>45694</v>
       </c>
       <c r="J209">
@@ -11095,29 +11095,29 @@
     </row>
     <row r="210" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
+        <v>949</v>
+      </c>
+      <c r="B210" t="s">
+        <v>78</v>
+      </c>
+      <c r="C210" t="s">
         <v>950</v>
       </c>
-      <c r="B210" t="s">
+      <c r="D210" t="s">
         <v>951</v>
       </c>
-      <c r="C210" t="s">
+      <c r="E210" t="s">
         <v>952</v>
-      </c>
-      <c r="D210" t="s">
-        <v>452</v>
-      </c>
-      <c r="E210" t="s">
-        <v>953</v>
       </c>
       <c r="F210" t="s">
         <v>597</v>
       </c>
       <c r="H210">
-        <f t="shared" ref="H210:H221" si="19">INT(J210/3)</f>
+        <f t="shared" si="19"/>
         <v>69</v>
       </c>
       <c r="I210" s="3">
-        <f t="shared" ref="I210:I221" si="20">$L$1+H210</f>
+        <f t="shared" si="20"/>
         <v>45694</v>
       </c>
       <c r="J210">
@@ -11127,10 +11127,10 @@
     </row>
     <row r="211" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
+        <v>953</v>
+      </c>
+      <c r="B211" t="s">
         <v>954</v>
-      </c>
-      <c r="B211" t="s">
-        <v>78</v>
       </c>
       <c r="C211" t="s">
         <v>955</v>
@@ -11191,19 +11191,19 @@
     </row>
     <row r="213" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
+        <v>545</v>
+      </c>
+      <c r="B213" t="s">
         <v>963</v>
       </c>
-      <c r="B213" t="s">
+      <c r="C213" t="s">
         <v>964</v>
       </c>
-      <c r="C213" t="s">
+      <c r="D213" t="s">
         <v>965</v>
       </c>
-      <c r="D213" t="s">
+      <c r="E213" t="s">
         <v>966</v>
-      </c>
-      <c r="E213" t="s">
-        <v>967</v>
       </c>
       <c r="F213" t="s">
         <v>597</v>
@@ -11223,7 +11223,7 @@
     </row>
     <row r="214" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>545</v>
+        <v>967</v>
       </c>
       <c r="B214" t="s">
         <v>968</v>
@@ -11261,13 +11261,13 @@
         <v>973</v>
       </c>
       <c r="C215" t="s">
+        <v>912</v>
+      </c>
+      <c r="D215" t="s">
         <v>974</v>
       </c>
-      <c r="D215" t="s">
+      <c r="E215" t="s">
         <v>975</v>
-      </c>
-      <c r="E215" t="s">
-        <v>976</v>
       </c>
       <c r="F215" t="s">
         <v>597</v>
@@ -11287,22 +11287,22 @@
     </row>
     <row r="216" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
+        <v>700</v>
+      </c>
+      <c r="B216" t="s">
+        <v>976</v>
+      </c>
+      <c r="C216" t="s">
         <v>977</v>
       </c>
-      <c r="B216" t="s">
+      <c r="D216" t="s">
         <v>978</v>
       </c>
-      <c r="C216" t="s">
-        <v>917</v>
-      </c>
-      <c r="D216" t="s">
+      <c r="E216" t="s">
         <v>979</v>
       </c>
-      <c r="E216" t="s">
-        <v>980</v>
-      </c>
       <c r="F216" t="s">
-        <v>597</v>
+        <v>617</v>
       </c>
       <c r="H216">
         <f t="shared" si="19"/>
@@ -11319,22 +11319,22 @@
     </row>
     <row r="217" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>700</v>
+        <v>64</v>
       </c>
       <c r="B217" t="s">
+        <v>471</v>
+      </c>
+      <c r="C217" t="s">
+        <v>980</v>
+      </c>
+      <c r="D217" t="s">
         <v>981</v>
       </c>
-      <c r="C217" t="s">
+      <c r="E217" t="s">
         <v>982</v>
       </c>
-      <c r="D217" t="s">
-        <v>983</v>
-      </c>
-      <c r="E217" t="s">
-        <v>984</v>
-      </c>
       <c r="F217" t="s">
-        <v>617</v>
+        <v>597</v>
       </c>
       <c r="H217">
         <f t="shared" si="19"/>
@@ -11351,22 +11351,22 @@
     </row>
     <row r="218" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
-        <v>64</v>
+        <v>986</v>
       </c>
       <c r="B218" t="s">
-        <v>471</v>
+        <v>987</v>
       </c>
       <c r="C218" t="s">
-        <v>985</v>
+        <v>988</v>
       </c>
       <c r="D218" t="s">
-        <v>986</v>
+        <v>989</v>
       </c>
       <c r="E218" t="s">
-        <v>987</v>
+        <v>990</v>
       </c>
       <c r="F218" t="s">
-        <v>597</v>
+        <v>617</v>
       </c>
       <c r="H218">
         <f t="shared" si="19"/>
@@ -11398,7 +11398,7 @@
         <v>995</v>
       </c>
       <c r="F219" t="s">
-        <v>617</v>
+        <v>597</v>
       </c>
       <c r="H219">
         <f t="shared" si="19"/>
@@ -11415,19 +11415,19 @@
     </row>
     <row r="220" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
+        <v>14</v>
+      </c>
+      <c r="B220" t="s">
         <v>996</v>
       </c>
-      <c r="B220" t="s">
+      <c r="C220" t="s">
         <v>997</v>
       </c>
-      <c r="C220" t="s">
+      <c r="D220" t="s">
         <v>998</v>
       </c>
-      <c r="D220" t="s">
-        <v>999</v>
-      </c>
       <c r="E220" t="s">
-        <v>1000</v>
+        <v>779</v>
       </c>
       <c r="F220" t="s">
         <v>597</v>
@@ -11443,38 +11443,6 @@
       <c r="J220">
         <f t="shared" si="18"/>
         <v>218</v>
-      </c>
-    </row>
-    <row r="221" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A221" t="s">
-        <v>14</v>
-      </c>
-      <c r="B221" t="s">
-        <v>1001</v>
-      </c>
-      <c r="C221" t="s">
-        <v>1002</v>
-      </c>
-      <c r="D221" t="s">
-        <v>1003</v>
-      </c>
-      <c r="E221" t="s">
-        <v>779</v>
-      </c>
-      <c r="F221" t="s">
-        <v>597</v>
-      </c>
-      <c r="H221">
-        <f t="shared" si="19"/>
-        <v>73</v>
-      </c>
-      <c r="I221" s="3">
-        <f t="shared" si="20"/>
-        <v>45698</v>
-      </c>
-      <c r="J221">
-        <f t="shared" si="18"/>
-        <v>219</v>
       </c>
     </row>
   </sheetData>

--- a/code/shabdakala/resource/sbwords.xlsx
+++ b/code/shabdakala/resource/sbwords.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10119"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hrishinene/Library/CloudStorage/OneDrive-Personal/backup/lifeboat/OD/work/jobs/2025_01_26/shabdabandha_sovani/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hrishinene/shabdak_github/sbbd/shabdakala/code/shabdakala/resource/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE8DD93E-06EC-044D-88E4-A410EDFE46BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E86C5C8C-9D21-CF41-9DCC-8450D140F940}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{9F74AEE5-EB85-4044-AC84-8761A591B5C1}"/>
+    <workbookView xWindow="0" yWindow="720" windowWidth="33840" windowHeight="20140" xr2:uid="{9F74AEE5-EB85-4044-AC84-8761A591B5C1}"/>
   </bookViews>
   <sheets>
     <sheet name="sbwords" sheetId="1" r:id="rId1"/>
@@ -3353,9 +3353,6 @@
     <t xml:space="preserve">कुंपण </t>
   </si>
   <si>
-    <t>मार्जिन</t>
-  </si>
-  <si>
     <t xml:space="preserve">एखाद्या गोष्टीच्या बाजूने असलेल्या गोष्टी </t>
   </si>
   <si>
@@ -3365,15 +3362,9 @@
     <t>नखं</t>
   </si>
   <si>
-    <t>एंट्रोपी</t>
-  </si>
-  <si>
     <t xml:space="preserve">केस </t>
   </si>
   <si>
-    <t xml:space="preserve">कायम वाढत्या गोष्टी </t>
-  </si>
-  <si>
     <t xml:space="preserve">बटाटा </t>
   </si>
   <si>
@@ -3410,9 +3401,6 @@
     <t>टोपी</t>
   </si>
   <si>
-    <t>डोक्यावर घठेवता येणार्या गोष्टी</t>
-  </si>
-  <si>
     <t>चिंब</t>
   </si>
   <si>
@@ -3428,9 +3416,6 @@
     <t>बिंब</t>
   </si>
   <si>
-    <t>शीतल प्रकाश</t>
-  </si>
-  <si>
     <t>रोमँटिक</t>
   </si>
   <si>
@@ -3458,12 +3443,6 @@
     <t>तंबाखू</t>
   </si>
   <si>
-    <t>ओपिऑइड</t>
-  </si>
-  <si>
-    <t>कंपल्सिव शाॅपिंग</t>
-  </si>
-  <si>
     <t>व्यसने</t>
   </si>
   <si>
@@ -3473,30 +3452,12 @@
     <t>कर्ज</t>
   </si>
   <si>
-    <t xml:space="preserve">घाण ठेव </t>
-  </si>
-  <si>
-    <t>एंजल ईन्व्हेस्टमेंट</t>
-  </si>
-  <si>
     <t>भांडवल उभं करण्याची साधने</t>
   </si>
   <si>
-    <t>मार्केटिंग</t>
-  </si>
-  <si>
-    <t>सेल्स</t>
-  </si>
-  <si>
     <t>आयटी</t>
   </si>
   <si>
-    <t>फायनांस</t>
-  </si>
-  <si>
-    <t>कंपनीतील डिपार्टमेंटस्</t>
-  </si>
-  <si>
     <t>काटकोन</t>
   </si>
   <si>
@@ -3587,9 +3548,6 @@
     <t>मीराबाई</t>
   </si>
   <si>
-    <t>भारतीय फिमेल ऑलिंपिक मेडॅलिस्ट</t>
-  </si>
-  <si>
     <t>अल्का</t>
   </si>
   <si>
@@ -3602,9 +3560,6 @@
     <t>अनुराधा</t>
   </si>
   <si>
-    <t>हिंदी गायीका</t>
-  </si>
-  <si>
     <t>अहिल्या</t>
   </si>
   <si>
@@ -3617,9 +3572,6 @@
     <t>शूर ऐतिहासिक राण्या</t>
   </si>
   <si>
-    <t>राधा</t>
-  </si>
-  <si>
     <t>भद्रा</t>
   </si>
   <si>
@@ -3638,15 +3590,9 @@
     <t>ललिता</t>
   </si>
   <si>
-    <t>सुष्मा</t>
-  </si>
-  <si>
     <t>स्त्री राजकारणी</t>
   </si>
   <si>
-    <t>आषा</t>
-  </si>
-  <si>
     <t>शर्मिला</t>
   </si>
   <si>
@@ -3740,9 +3686,6 @@
     <t>श्रवण</t>
   </si>
   <si>
-    <t>र्स्पश</t>
-  </si>
-  <si>
     <t>चव</t>
   </si>
   <si>
@@ -3797,12 +3740,6 @@
     <t>जातं</t>
   </si>
   <si>
-    <t>स्टियरींग व्हिल</t>
-  </si>
-  <si>
-    <t>र्ककटक</t>
-  </si>
-  <si>
     <t>हाताने गोल फिरवलेल्या गोष्टी</t>
   </si>
   <si>
@@ -3812,9 +3749,6 @@
     <t>गायन</t>
   </si>
   <si>
-    <t>थायराॅइड</t>
-  </si>
-  <si>
     <t xml:space="preserve">मंगळसूत्र </t>
   </si>
   <si>
@@ -3833,15 +3767,6 @@
     <t xml:space="preserve">मधुचंद्र </t>
   </si>
   <si>
-    <t>बोडण</t>
-  </si>
-  <si>
-    <t>रिसेप्शन</t>
-  </si>
-  <si>
-    <t>इंस्टाग्राम रील</t>
-  </si>
-  <si>
     <t>लग्न कार्या नंतर करायच्या गोष्टी</t>
   </si>
   <si>
@@ -5670,6 +5595,81 @@
   </si>
   <si>
     <t>लग्गी</t>
+  </si>
+  <si>
+    <t>समास/मार्जिन</t>
+  </si>
+  <si>
+    <t>लोकसंख्या</t>
+  </si>
+  <si>
+    <t xml:space="preserve">कायम वाढणाऱ्या गोष्टी </t>
+  </si>
+  <si>
+    <t xml:space="preserve">डोक्यावर ठेवता येणाऱ्या गोष्टी  </t>
+  </si>
+  <si>
+    <t>रील</t>
+  </si>
+  <si>
+    <t>खरेदी</t>
+  </si>
+  <si>
+    <t>गहाण ठेव</t>
+  </si>
+  <si>
+    <t>वेठबिगारी</t>
+  </si>
+  <si>
+    <t xml:space="preserve">भारतीय ऑलिंपिक पदक विजेत्या स्त्रिया </t>
+  </si>
+  <si>
+    <t xml:space="preserve">हिंदी गायिका </t>
+  </si>
+  <si>
+    <t>होळी</t>
+  </si>
+  <si>
+    <t>विपणन</t>
+  </si>
+  <si>
+    <t>विक्री</t>
+  </si>
+  <si>
+    <t>वित्त</t>
+  </si>
+  <si>
+    <t>कंपनीतील विभाग (डिपार्टमेंटस्)</t>
+  </si>
+  <si>
+    <t>सत्यभामा</t>
+  </si>
+  <si>
+    <t>सुषमा</t>
+  </si>
+  <si>
+    <t>आशा</t>
+  </si>
+  <si>
+    <t>स्पर्श</t>
+  </si>
+  <si>
+    <t xml:space="preserve">सुकाणू </t>
+  </si>
+  <si>
+    <t>फुलबाजी</t>
+  </si>
+  <si>
+    <t>थायरॉईड</t>
+  </si>
+  <si>
+    <t>स्वागत समारंभ</t>
+  </si>
+  <si>
+    <t>हुश्श्य</t>
+  </si>
+  <si>
+    <t>निरोप</t>
   </si>
 </sst>
 </file>
@@ -6596,8 +6596,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEA1707B-2FB7-B84C-9F84-E9F074F3056C}">
   <dimension ref="A1:L402"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A170" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D409" sqref="D409"/>
+    <sheetView tabSelected="1" topLeftCell="A202" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B235" sqref="B235"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6685,7 +6685,7 @@
       </c>
       <c r="L2" s="6">
         <f ca="1">TODAY()</f>
-        <v>45683</v>
+        <v>45689</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -11950,7 +11950,7 @@
         <v>45677</v>
       </c>
       <c r="J158">
-        <f t="shared" ref="J158:J397" si="18">J157+1</f>
+        <f t="shared" ref="J158:J352" si="18">J157+1</f>
         <v>156</v>
       </c>
     </row>
@@ -12646,11 +12646,11 @@
         <v>617</v>
       </c>
       <c r="H180">
-        <f t="shared" ref="H180:H397" si="19">INT(J180/3)</f>
+        <f t="shared" ref="H180:H182" si="19">INT(J180/3)</f>
         <v>59</v>
       </c>
       <c r="I180" s="3">
-        <f t="shared" ref="I180:I397" si="20">$L$1+H180</f>
+        <f t="shared" ref="I180:I182" si="20">$L$1+H180</f>
         <v>45684</v>
       </c>
       <c r="J180">
@@ -12724,7 +12724,7 @@
     </row>
     <row r="183" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>1843</v>
+        <v>1818</v>
       </c>
       <c r="B183" t="s">
         <v>833</v>
@@ -12788,7 +12788,7 @@
     </row>
     <row r="185" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>1845</v>
+        <v>1820</v>
       </c>
       <c r="B185" t="s">
         <v>1047</v>
@@ -12800,7 +12800,7 @@
         <v>1049</v>
       </c>
       <c r="E185" t="s">
-        <v>1846</v>
+        <v>1821</v>
       </c>
       <c r="F185" t="s">
         <v>597</v>
@@ -12832,7 +12832,7 @@
         <v>1053</v>
       </c>
       <c r="E186" t="s">
-        <v>1844</v>
+        <v>1819</v>
       </c>
       <c r="F186" t="s">
         <v>597</v>
@@ -12896,7 +12896,7 @@
         <v>1061</v>
       </c>
       <c r="E188" t="s">
-        <v>1847</v>
+        <v>1822</v>
       </c>
       <c r="F188" t="s">
         <v>597</v>
@@ -12928,7 +12928,7 @@
         <v>1065</v>
       </c>
       <c r="E189" t="s">
-        <v>1848</v>
+        <v>1823</v>
       </c>
       <c r="F189" t="s">
         <v>597</v>
@@ -12960,7 +12960,7 @@
         <v>1069</v>
       </c>
       <c r="E190" t="s">
-        <v>1849</v>
+        <v>1824</v>
       </c>
       <c r="F190" t="s">
         <v>597</v>
@@ -13213,10 +13213,10 @@
         <v>1105</v>
       </c>
       <c r="D198" t="s">
+        <v>1854</v>
+      </c>
+      <c r="E198" t="s">
         <v>1106</v>
-      </c>
-      <c r="E198" t="s">
-        <v>1107</v>
       </c>
       <c r="F198" t="s">
         <v>597</v>
@@ -13236,19 +13236,19 @@
     </row>
     <row r="199" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
+        <v>1107</v>
+      </c>
+      <c r="B199" t="s">
         <v>1108</v>
       </c>
-      <c r="B199" t="s">
+      <c r="C199" t="s">
+        <v>1855</v>
+      </c>
+      <c r="D199" t="s">
         <v>1109</v>
       </c>
-      <c r="C199" t="s">
-        <v>1110</v>
-      </c>
-      <c r="D199" t="s">
-        <v>1111</v>
-      </c>
       <c r="E199" t="s">
-        <v>1112</v>
+        <v>1856</v>
       </c>
       <c r="F199" t="s">
         <v>597</v>
@@ -13268,19 +13268,19 @@
     </row>
     <row r="200" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
+        <v>1110</v>
+      </c>
+      <c r="B200" t="s">
+        <v>1111</v>
+      </c>
+      <c r="C200" t="s">
+        <v>1112</v>
+      </c>
+      <c r="D200" t="s">
         <v>1113</v>
       </c>
-      <c r="B200" t="s">
+      <c r="E200" t="s">
         <v>1114</v>
-      </c>
-      <c r="C200" t="s">
-        <v>1115</v>
-      </c>
-      <c r="D200" t="s">
-        <v>1116</v>
-      </c>
-      <c r="E200" t="s">
-        <v>1117</v>
       </c>
       <c r="F200" t="s">
         <v>597</v>
@@ -13300,10 +13300,10 @@
     </row>
     <row r="201" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>1118</v>
+        <v>1115</v>
       </c>
       <c r="B201" t="s">
-        <v>1119</v>
+        <v>1116</v>
       </c>
       <c r="C201" t="s">
         <v>200</v>
@@ -13312,7 +13312,7 @@
         <v>198</v>
       </c>
       <c r="E201" t="s">
-        <v>1120</v>
+        <v>1117</v>
       </c>
       <c r="F201" t="s">
         <v>597</v>
@@ -13332,19 +13332,19 @@
     </row>
     <row r="202" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
+        <v>1118</v>
+      </c>
+      <c r="B202" t="s">
+        <v>1119</v>
+      </c>
+      <c r="C202" t="s">
+        <v>1120</v>
+      </c>
+      <c r="D202" t="s">
         <v>1121</v>
       </c>
-      <c r="B202" t="s">
-        <v>1122</v>
-      </c>
-      <c r="C202" t="s">
-        <v>1123</v>
-      </c>
-      <c r="D202" t="s">
-        <v>1124</v>
-      </c>
       <c r="E202" t="s">
-        <v>1125</v>
+        <v>1857</v>
       </c>
       <c r="F202" t="s">
         <v>597</v>
@@ -13364,16 +13364,16 @@
     </row>
     <row r="203" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>1126</v>
+        <v>1122</v>
       </c>
       <c r="B203" t="s">
-        <v>1127</v>
+        <v>1123</v>
       </c>
       <c r="C203" t="s">
-        <v>1128</v>
+        <v>1124</v>
       </c>
       <c r="D203" t="s">
-        <v>1129</v>
+        <v>1125</v>
       </c>
       <c r="E203" t="s">
         <v>162</v>
@@ -13396,19 +13396,19 @@
     </row>
     <row r="204" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>1130</v>
+        <v>1126</v>
       </c>
       <c r="B204" t="s">
-        <v>1131</v>
+        <v>1864</v>
       </c>
       <c r="C204" t="s">
         <v>778</v>
       </c>
       <c r="D204" t="s">
-        <v>1132</v>
+        <v>1127</v>
       </c>
       <c r="E204" t="s">
-        <v>1133</v>
+        <v>1128</v>
       </c>
       <c r="F204" t="s">
         <v>597</v>
@@ -13428,19 +13428,19 @@
     </row>
     <row r="205" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>1134</v>
+        <v>1129</v>
       </c>
       <c r="B205" t="s">
-        <v>1135</v>
+        <v>1130</v>
       </c>
       <c r="C205" t="s">
-        <v>1136</v>
+        <v>1131</v>
       </c>
       <c r="D205" t="s">
-        <v>1137</v>
+        <v>1132</v>
       </c>
       <c r="E205" t="s">
-        <v>1138</v>
+        <v>1133</v>
       </c>
       <c r="F205" t="s">
         <v>597</v>
@@ -13460,19 +13460,19 @@
     </row>
     <row r="206" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>1139</v>
+        <v>1134</v>
       </c>
       <c r="B206" t="s">
-        <v>1140</v>
+        <v>1135</v>
       </c>
       <c r="C206" t="s">
-        <v>1141</v>
+        <v>1858</v>
       </c>
       <c r="D206" t="s">
-        <v>1142</v>
+        <v>1859</v>
       </c>
       <c r="E206" t="s">
-        <v>1143</v>
+        <v>1136</v>
       </c>
       <c r="F206" t="s">
         <v>597</v>
@@ -13492,19 +13492,19 @@
     </row>
     <row r="207" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>1144</v>
+        <v>1137</v>
       </c>
       <c r="B207" t="s">
-        <v>1145</v>
+        <v>1138</v>
       </c>
       <c r="C207" t="s">
-        <v>1146</v>
+        <v>1860</v>
       </c>
       <c r="D207" t="s">
-        <v>1147</v>
+        <v>1861</v>
       </c>
       <c r="E207" t="s">
-        <v>1148</v>
+        <v>1139</v>
       </c>
       <c r="F207" t="s">
         <v>597</v>
@@ -13524,19 +13524,19 @@
     </row>
     <row r="208" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>1149</v>
+        <v>1865</v>
       </c>
       <c r="B208" t="s">
-        <v>1150</v>
+        <v>1866</v>
       </c>
       <c r="C208" t="s">
-        <v>1151</v>
+        <v>1140</v>
       </c>
       <c r="D208" t="s">
-        <v>1152</v>
+        <v>1867</v>
       </c>
       <c r="E208" t="s">
-        <v>1153</v>
+        <v>1868</v>
       </c>
       <c r="F208" t="s">
         <v>597</v>
@@ -13556,19 +13556,19 @@
     </row>
     <row r="209" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>1154</v>
+        <v>1141</v>
       </c>
       <c r="B209" t="s">
-        <v>1155</v>
+        <v>1142</v>
       </c>
       <c r="C209" t="s">
-        <v>1156</v>
+        <v>1143</v>
       </c>
       <c r="D209" t="s">
-        <v>1157</v>
+        <v>1144</v>
       </c>
       <c r="E209" t="s">
-        <v>1850</v>
+        <v>1825</v>
       </c>
       <c r="F209" t="s">
         <v>597</v>
@@ -13588,19 +13588,19 @@
     </row>
     <row r="210" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
-        <v>1158</v>
+        <v>1145</v>
       </c>
       <c r="B210" t="s">
-        <v>1159</v>
+        <v>1146</v>
       </c>
       <c r="C210" t="s">
-        <v>1160</v>
+        <v>1147</v>
       </c>
       <c r="D210" t="s">
-        <v>1161</v>
+        <v>1148</v>
       </c>
       <c r="E210" t="s">
-        <v>1162</v>
+        <v>1149</v>
       </c>
       <c r="F210" t="s">
         <v>597</v>
@@ -13620,19 +13620,19 @@
     </row>
     <row r="211" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>1163</v>
+        <v>1150</v>
       </c>
       <c r="B211" t="s">
-        <v>1852</v>
+        <v>1827</v>
       </c>
       <c r="C211" t="s">
-        <v>1164</v>
+        <v>1151</v>
       </c>
       <c r="D211" t="s">
-        <v>1851</v>
+        <v>1826</v>
       </c>
       <c r="E211" t="s">
-        <v>1165</v>
+        <v>1152</v>
       </c>
       <c r="F211" t="s">
         <v>597</v>
@@ -13652,16 +13652,16 @@
     </row>
     <row r="212" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>1166</v>
+        <v>1153</v>
       </c>
       <c r="B212" t="s">
-        <v>1167</v>
+        <v>1154</v>
       </c>
       <c r="C212" t="s">
-        <v>1168</v>
+        <v>1155</v>
       </c>
       <c r="D212" t="s">
-        <v>1169</v>
+        <v>1156</v>
       </c>
       <c r="E212" t="s">
         <v>64</v>
@@ -13684,19 +13684,19 @@
     </row>
     <row r="213" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
-        <v>1170</v>
+        <v>1157</v>
       </c>
       <c r="B213" t="s">
-        <v>1171</v>
+        <v>1158</v>
       </c>
       <c r="C213" t="s">
-        <v>1172</v>
+        <v>1159</v>
       </c>
       <c r="D213" t="s">
-        <v>1173</v>
+        <v>1160</v>
       </c>
       <c r="E213" t="s">
-        <v>1174</v>
+        <v>1161</v>
       </c>
       <c r="F213" t="s">
         <v>597</v>
@@ -13716,19 +13716,19 @@
     </row>
     <row r="214" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>1175</v>
+        <v>1162</v>
       </c>
       <c r="B214" t="s">
-        <v>1176</v>
+        <v>1163</v>
       </c>
       <c r="C214" t="s">
-        <v>1177</v>
+        <v>1164</v>
       </c>
       <c r="D214" t="s">
-        <v>1178</v>
+        <v>1165</v>
       </c>
       <c r="E214" t="s">
-        <v>1179</v>
+        <v>1166</v>
       </c>
       <c r="F214" t="s">
         <v>597</v>
@@ -13748,19 +13748,19 @@
     </row>
     <row r="215" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>1180</v>
+        <v>1167</v>
       </c>
       <c r="B215" t="s">
-        <v>1181</v>
+        <v>1168</v>
       </c>
       <c r="C215" t="s">
-        <v>1182</v>
+        <v>1169</v>
       </c>
       <c r="D215" t="s">
-        <v>1183</v>
+        <v>1170</v>
       </c>
       <c r="E215" t="s">
-        <v>1184</v>
+        <v>1862</v>
       </c>
       <c r="F215" t="s">
         <v>597</v>
@@ -13780,19 +13780,19 @@
     </row>
     <row r="216" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>1185</v>
+        <v>1171</v>
       </c>
       <c r="B216" t="s">
-        <v>1186</v>
+        <v>1172</v>
       </c>
       <c r="C216" t="s">
-        <v>1187</v>
+        <v>1173</v>
       </c>
       <c r="D216" t="s">
-        <v>1188</v>
+        <v>1174</v>
       </c>
       <c r="E216" t="s">
-        <v>1189</v>
+        <v>1863</v>
       </c>
       <c r="F216" t="s">
         <v>597</v>
@@ -13815,16 +13815,16 @@
         <v>582</v>
       </c>
       <c r="B217" t="s">
-        <v>1190</v>
+        <v>1175</v>
       </c>
       <c r="C217" t="s">
-        <v>1191</v>
+        <v>1176</v>
       </c>
       <c r="D217" t="s">
-        <v>1192</v>
+        <v>1177</v>
       </c>
       <c r="E217" t="s">
-        <v>1193</v>
+        <v>1178</v>
       </c>
       <c r="F217" t="s">
         <v>597</v>
@@ -13844,19 +13844,19 @@
     </row>
     <row r="218" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
-        <v>1194</v>
+        <v>1869</v>
       </c>
       <c r="B218" t="s">
-        <v>1195</v>
+        <v>1179</v>
       </c>
       <c r="C218" t="s">
-        <v>1196</v>
+        <v>1180</v>
       </c>
       <c r="D218" t="s">
-        <v>1197</v>
+        <v>1181</v>
       </c>
       <c r="E218" t="s">
-        <v>1198</v>
+        <v>1182</v>
       </c>
       <c r="F218" t="s">
         <v>597</v>
@@ -13876,19 +13876,19 @@
     </row>
     <row r="219" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
-        <v>1199</v>
+        <v>1183</v>
       </c>
       <c r="B219" t="s">
-        <v>1200</v>
+        <v>1184</v>
       </c>
       <c r="C219" t="s">
         <v>32</v>
       </c>
       <c r="D219" t="s">
-        <v>1201</v>
+        <v>1870</v>
       </c>
       <c r="E219" t="s">
-        <v>1202</v>
+        <v>1185</v>
       </c>
       <c r="F219" t="s">
         <v>597</v>
@@ -13908,19 +13908,19 @@
     </row>
     <row r="220" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
-        <v>1203</v>
+        <v>1871</v>
       </c>
       <c r="B220" t="s">
-        <v>1204</v>
+        <v>1186</v>
       </c>
       <c r="C220" t="s">
-        <v>1205</v>
+        <v>1187</v>
       </c>
       <c r="D220" t="s">
-        <v>1206</v>
+        <v>1188</v>
       </c>
       <c r="E220" t="s">
-        <v>1207</v>
+        <v>1189</v>
       </c>
       <c r="F220" t="s">
         <v>597</v>
@@ -13940,19 +13940,19 @@
     </row>
     <row r="221" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
-        <v>1208</v>
+        <v>1190</v>
       </c>
       <c r="B221" t="s">
-        <v>1209</v>
+        <v>1191</v>
       </c>
       <c r="C221" t="s">
-        <v>1210</v>
+        <v>1192</v>
       </c>
       <c r="D221" t="s">
-        <v>1211</v>
+        <v>1193</v>
       </c>
       <c r="E221" t="s">
-        <v>1853</v>
+        <v>1828</v>
       </c>
       <c r="F221" t="s">
         <v>597</v>
@@ -13972,19 +13972,19 @@
     </row>
     <row r="222" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
-        <v>1212</v>
+        <v>1194</v>
       </c>
       <c r="B222" t="s">
-        <v>1213</v>
+        <v>1195</v>
       </c>
       <c r="C222" t="s">
-        <v>1856</v>
+        <v>1831</v>
       </c>
       <c r="D222" t="s">
-        <v>1857</v>
+        <v>1832</v>
       </c>
       <c r="E222" t="s">
-        <v>1214</v>
+        <v>1196</v>
       </c>
       <c r="F222" t="s">
         <v>597</v>
@@ -14004,19 +14004,19 @@
     </row>
     <row r="223" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
-        <v>1855</v>
+        <v>1830</v>
       </c>
       <c r="B223" t="s">
-        <v>1215</v>
+        <v>1197</v>
       </c>
       <c r="C223" t="s">
         <v>403</v>
       </c>
       <c r="D223" t="s">
-        <v>1216</v>
+        <v>1198</v>
       </c>
       <c r="E223" t="s">
-        <v>1854</v>
+        <v>1829</v>
       </c>
       <c r="F223" t="s">
         <v>597</v>
@@ -14039,13 +14039,13 @@
         <v>722</v>
       </c>
       <c r="B224" t="s">
-        <v>1217</v>
+        <v>1199</v>
       </c>
       <c r="C224" t="s">
         <v>721</v>
       </c>
       <c r="D224" t="s">
-        <v>1218</v>
+        <v>1200</v>
       </c>
       <c r="E224" t="s">
         <v>1038</v>
@@ -14068,19 +14068,19 @@
     </row>
     <row r="225" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
-        <v>1219</v>
+        <v>1201</v>
       </c>
       <c r="B225" t="s">
         <v>785</v>
       </c>
       <c r="C225" t="s">
-        <v>1220</v>
+        <v>1202</v>
       </c>
       <c r="D225" t="s">
-        <v>1221</v>
+        <v>1203</v>
       </c>
       <c r="E225" t="s">
-        <v>1222</v>
+        <v>1204</v>
       </c>
       <c r="F225" t="s">
         <v>597</v>
@@ -14100,19 +14100,19 @@
     </row>
     <row r="226" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
-        <v>1223</v>
+        <v>1205</v>
       </c>
       <c r="B226" t="s">
-        <v>1224</v>
+        <v>1206</v>
       </c>
       <c r="C226" t="s">
-        <v>1225</v>
+        <v>1207</v>
       </c>
       <c r="D226" t="s">
-        <v>1226</v>
+        <v>1208</v>
       </c>
       <c r="E226" t="s">
-        <v>1227</v>
+        <v>1209</v>
       </c>
       <c r="F226" t="s">
         <v>597</v>
@@ -14132,19 +14132,19 @@
     </row>
     <row r="227" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
-        <v>1228</v>
+        <v>1210</v>
       </c>
       <c r="B227" t="s">
-        <v>1229</v>
+        <v>1211</v>
       </c>
       <c r="C227" t="s">
-        <v>1230</v>
+        <v>1212</v>
       </c>
       <c r="D227" t="s">
-        <v>1231</v>
+        <v>1213</v>
       </c>
       <c r="E227" t="s">
-        <v>1232</v>
+        <v>1214</v>
       </c>
       <c r="F227" t="s">
         <v>597</v>
@@ -14164,19 +14164,19 @@
     </row>
     <row r="228" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
-        <v>1233</v>
+        <v>1215</v>
       </c>
       <c r="B228" t="s">
-        <v>1234</v>
+        <v>1216</v>
       </c>
       <c r="C228" t="s">
-        <v>1235</v>
+        <v>1872</v>
       </c>
       <c r="D228" t="s">
-        <v>1236</v>
+        <v>1217</v>
       </c>
       <c r="E228" t="s">
-        <v>1237</v>
+        <v>1218</v>
       </c>
       <c r="F228" t="s">
         <v>597</v>
@@ -14196,19 +14196,19 @@
     </row>
     <row r="229" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
-        <v>1238</v>
+        <v>1219</v>
       </c>
       <c r="B229" t="s">
-        <v>1239</v>
+        <v>1220</v>
       </c>
       <c r="C229" t="s">
-        <v>1240</v>
+        <v>1221</v>
       </c>
       <c r="D229" t="s">
-        <v>1241</v>
+        <v>1222</v>
       </c>
       <c r="E229" t="s">
-        <v>1242</v>
+        <v>1223</v>
       </c>
       <c r="F229" t="s">
         <v>597</v>
@@ -14228,19 +14228,19 @@
     </row>
     <row r="230" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
-        <v>1243</v>
+        <v>1224</v>
       </c>
       <c r="B230" t="s">
-        <v>1244</v>
+        <v>1225</v>
       </c>
       <c r="C230" t="s">
-        <v>1245</v>
+        <v>1226</v>
       </c>
       <c r="D230" t="s">
-        <v>1246</v>
+        <v>1227</v>
       </c>
       <c r="E230" t="s">
-        <v>1247</v>
+        <v>1228</v>
       </c>
       <c r="F230" t="s">
         <v>597</v>
@@ -14260,19 +14260,19 @@
     </row>
     <row r="231" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
-        <v>1248</v>
+        <v>1229</v>
       </c>
       <c r="B231" t="s">
-        <v>1249</v>
+        <v>1230</v>
       </c>
       <c r="C231" t="s">
-        <v>1250</v>
+        <v>1231</v>
       </c>
       <c r="D231" t="s">
-        <v>1251</v>
+        <v>1232</v>
       </c>
       <c r="E231" t="s">
-        <v>1252</v>
+        <v>1233</v>
       </c>
       <c r="F231" t="s">
         <v>597</v>
@@ -14292,19 +14292,19 @@
     </row>
     <row r="232" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
-        <v>692</v>
+        <v>1874</v>
       </c>
       <c r="B232" t="s">
-        <v>1253</v>
+        <v>1234</v>
       </c>
       <c r="C232" t="s">
-        <v>1254</v>
+        <v>1873</v>
       </c>
       <c r="D232" t="s">
-        <v>1255</v>
+        <v>438</v>
       </c>
       <c r="E232" t="s">
-        <v>1256</v>
+        <v>1235</v>
       </c>
       <c r="F232" t="s">
         <v>597</v>
@@ -14324,19 +14324,19 @@
     </row>
     <row r="233" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
-        <v>1257</v>
+        <v>1236</v>
       </c>
       <c r="B233" t="s">
-        <v>1258</v>
+        <v>1237</v>
       </c>
       <c r="C233" t="s">
-        <v>1259</v>
+        <v>1875</v>
       </c>
       <c r="D233" t="s">
-        <v>1260</v>
+        <v>1238</v>
       </c>
       <c r="E233" t="s">
-        <v>1261</v>
+        <v>1239</v>
       </c>
       <c r="F233" t="s">
         <v>597</v>
@@ -14356,19 +14356,19 @@
     </row>
     <row r="234" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
-        <v>1262</v>
+        <v>1240</v>
       </c>
       <c r="B234" t="s">
         <v>947</v>
       </c>
       <c r="C234" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="D234" t="s">
-        <v>1263</v>
+        <v>1241</v>
       </c>
       <c r="E234" t="s">
-        <v>1264</v>
+        <v>1242</v>
       </c>
       <c r="F234" t="s">
         <v>597</v>
@@ -14388,19 +14388,19 @@
     </row>
     <row r="235" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
-        <v>1265</v>
+        <v>1243</v>
       </c>
       <c r="B235" t="s">
-        <v>1266</v>
+        <v>1878</v>
       </c>
       <c r="C235" t="s">
-        <v>1267</v>
+        <v>1876</v>
       </c>
       <c r="D235" t="s">
-        <v>1268</v>
+        <v>1877</v>
       </c>
       <c r="E235" t="s">
-        <v>1269</v>
+        <v>1244</v>
       </c>
       <c r="F235" t="s">
         <v>597</v>
@@ -14420,19 +14420,19 @@
     </row>
     <row r="236" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
-        <v>1270</v>
+        <v>1245</v>
       </c>
       <c r="B236" t="s">
-        <v>1271</v>
+        <v>1246</v>
       </c>
       <c r="C236" t="s">
-        <v>1272</v>
+        <v>1247</v>
       </c>
       <c r="D236" t="s">
-        <v>1273</v>
+        <v>1248</v>
       </c>
       <c r="E236" t="s">
-        <v>1274</v>
+        <v>1249</v>
       </c>
       <c r="F236" t="s">
         <v>597</v>
@@ -14452,19 +14452,19 @@
     </row>
     <row r="237" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
-        <v>1275</v>
+        <v>1250</v>
       </c>
       <c r="B237" t="s">
-        <v>1276</v>
+        <v>1251</v>
       </c>
       <c r="C237" t="s">
-        <v>1277</v>
+        <v>1252</v>
       </c>
       <c r="D237" t="s">
-        <v>1278</v>
+        <v>1253</v>
       </c>
       <c r="E237" t="s">
-        <v>1279</v>
+        <v>1254</v>
       </c>
       <c r="F237" t="s">
         <v>597</v>
@@ -14484,19 +14484,19 @@
     </row>
     <row r="238" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
-        <v>1280</v>
+        <v>1255</v>
       </c>
       <c r="B238" t="s">
-        <v>1281</v>
+        <v>1256</v>
       </c>
       <c r="C238" t="s">
-        <v>1282</v>
+        <v>1257</v>
       </c>
       <c r="D238" t="s">
-        <v>1283</v>
+        <v>1258</v>
       </c>
       <c r="E238" t="s">
-        <v>1284</v>
+        <v>1259</v>
       </c>
       <c r="F238" t="s">
         <v>597</v>
@@ -14516,19 +14516,19 @@
     </row>
     <row r="239" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
-        <v>1285</v>
+        <v>1260</v>
       </c>
       <c r="B239" t="s">
-        <v>1286</v>
+        <v>1261</v>
       </c>
       <c r="C239" t="s">
-        <v>1287</v>
+        <v>1262</v>
       </c>
       <c r="D239" t="s">
-        <v>1288</v>
+        <v>1263</v>
       </c>
       <c r="E239" t="s">
-        <v>1289</v>
+        <v>1264</v>
       </c>
       <c r="F239" t="s">
         <v>597</v>
@@ -14548,19 +14548,19 @@
     </row>
     <row r="240" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
-        <v>1290</v>
+        <v>1265</v>
       </c>
       <c r="B240" t="s">
-        <v>1291</v>
+        <v>1266</v>
       </c>
       <c r="C240" t="s">
-        <v>1292</v>
+        <v>1267</v>
       </c>
       <c r="D240" t="s">
-        <v>1293</v>
+        <v>1268</v>
       </c>
       <c r="E240" t="s">
-        <v>1294</v>
+        <v>1269</v>
       </c>
       <c r="F240" t="s">
         <v>597</v>
@@ -14583,16 +14583,16 @@
         <v>779</v>
       </c>
       <c r="B241" t="s">
-        <v>1295</v>
+        <v>1270</v>
       </c>
       <c r="C241" t="s">
         <v>517</v>
       </c>
       <c r="D241" t="s">
-        <v>1296</v>
+        <v>1271</v>
       </c>
       <c r="E241" t="s">
-        <v>1297</v>
+        <v>1272</v>
       </c>
       <c r="F241" t="s">
         <v>597</v>
@@ -14612,19 +14612,19 @@
     </row>
     <row r="242" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
-        <v>1298</v>
+        <v>1273</v>
       </c>
       <c r="B242" t="s">
-        <v>1299</v>
+        <v>1274</v>
       </c>
       <c r="C242" t="s">
-        <v>1300</v>
+        <v>1275</v>
       </c>
       <c r="D242" t="s">
-        <v>1301</v>
+        <v>1276</v>
       </c>
       <c r="E242" t="s">
-        <v>1302</v>
+        <v>1277</v>
       </c>
       <c r="F242" t="s">
         <v>597</v>
@@ -14644,19 +14644,19 @@
     </row>
     <row r="243" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
-        <v>1303</v>
+        <v>1278</v>
       </c>
       <c r="B243" t="s">
         <v>962</v>
       </c>
       <c r="C243" t="s">
-        <v>1304</v>
+        <v>1279</v>
       </c>
       <c r="D243" t="s">
-        <v>1251</v>
+        <v>1232</v>
       </c>
       <c r="E243" t="s">
-        <v>1305</v>
+        <v>1280</v>
       </c>
       <c r="F243" t="s">
         <v>597</v>
@@ -14679,16 +14679,16 @@
         <v>879</v>
       </c>
       <c r="B244" t="s">
-        <v>1306</v>
+        <v>1281</v>
       </c>
       <c r="C244" t="s">
         <v>848</v>
       </c>
       <c r="D244" t="s">
-        <v>1307</v>
+        <v>1282</v>
       </c>
       <c r="E244" t="s">
-        <v>1308</v>
+        <v>1283</v>
       </c>
       <c r="F244" t="s">
         <v>597</v>
@@ -14708,19 +14708,19 @@
     </row>
     <row r="245" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
-        <v>1309</v>
+        <v>1284</v>
       </c>
       <c r="B245" t="s">
-        <v>1310</v>
+        <v>1285</v>
       </c>
       <c r="C245" t="s">
-        <v>1311</v>
+        <v>1286</v>
       </c>
       <c r="D245" t="s">
-        <v>1312</v>
+        <v>1287</v>
       </c>
       <c r="E245" t="s">
-        <v>1313</v>
+        <v>1288</v>
       </c>
       <c r="F245" t="s">
         <v>597</v>
@@ -14740,19 +14740,19 @@
     </row>
     <row r="246" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
-        <v>1314</v>
+        <v>1289</v>
       </c>
       <c r="B246" t="s">
-        <v>1315</v>
+        <v>1290</v>
       </c>
       <c r="C246" t="s">
-        <v>1316</v>
+        <v>1291</v>
       </c>
       <c r="D246" t="s">
-        <v>1317</v>
+        <v>1292</v>
       </c>
       <c r="E246" t="s">
-        <v>1318</v>
+        <v>1293</v>
       </c>
       <c r="F246" t="s">
         <v>597</v>
@@ -14772,19 +14772,19 @@
     </row>
     <row r="247" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
-        <v>1319</v>
+        <v>1294</v>
       </c>
       <c r="B247" t="s">
-        <v>1320</v>
+        <v>1295</v>
       </c>
       <c r="C247" t="s">
-        <v>1321</v>
+        <v>1296</v>
       </c>
       <c r="D247" t="s">
-        <v>1322</v>
+        <v>1297</v>
       </c>
       <c r="E247" t="s">
-        <v>1323</v>
+        <v>1298</v>
       </c>
       <c r="F247" t="s">
         <v>597</v>
@@ -14804,19 +14804,19 @@
     </row>
     <row r="248" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
-        <v>1324</v>
+        <v>1299</v>
       </c>
       <c r="B248" t="s">
-        <v>1325</v>
+        <v>1300</v>
       </c>
       <c r="C248" t="s">
-        <v>1326</v>
+        <v>1301</v>
       </c>
       <c r="D248" t="s">
-        <v>1327</v>
+        <v>1302</v>
       </c>
       <c r="E248" t="s">
-        <v>1328</v>
+        <v>1303</v>
       </c>
       <c r="F248" t="s">
         <v>597</v>
@@ -14836,19 +14836,19 @@
     </row>
     <row r="249" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
-        <v>1329</v>
+        <v>1304</v>
       </c>
       <c r="B249" t="s">
-        <v>1330</v>
+        <v>1305</v>
       </c>
       <c r="C249" t="s">
-        <v>1331</v>
+        <v>1306</v>
       </c>
       <c r="D249" t="s">
         <v>642</v>
       </c>
       <c r="E249" t="s">
-        <v>1332</v>
+        <v>1307</v>
       </c>
       <c r="F249" t="s">
         <v>597</v>
@@ -14868,19 +14868,19 @@
     </row>
     <row r="250" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
-        <v>1333</v>
+        <v>1308</v>
       </c>
       <c r="B250" t="s">
-        <v>1334</v>
+        <v>1309</v>
       </c>
       <c r="C250" t="s">
-        <v>1335</v>
+        <v>1310</v>
       </c>
       <c r="D250" t="s">
-        <v>1336</v>
+        <v>1311</v>
       </c>
       <c r="E250" t="s">
-        <v>1337</v>
+        <v>1312</v>
       </c>
       <c r="F250" t="s">
         <v>597</v>
@@ -14900,19 +14900,19 @@
     </row>
     <row r="251" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
-        <v>1338</v>
+        <v>1313</v>
       </c>
       <c r="B251" t="s">
-        <v>1339</v>
+        <v>1314</v>
       </c>
       <c r="C251" t="s">
-        <v>1340</v>
+        <v>1315</v>
       </c>
       <c r="D251" t="s">
-        <v>1341</v>
+        <v>1316</v>
       </c>
       <c r="E251" t="s">
-        <v>1342</v>
+        <v>1317</v>
       </c>
       <c r="F251" t="s">
         <v>597</v>
@@ -14932,19 +14932,19 @@
     </row>
     <row r="252" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
-        <v>1343</v>
+        <v>1318</v>
       </c>
       <c r="B252" t="s">
-        <v>1344</v>
+        <v>1319</v>
       </c>
       <c r="C252" t="s">
-        <v>1345</v>
+        <v>1320</v>
       </c>
       <c r="D252" t="s">
-        <v>1346</v>
+        <v>1321</v>
       </c>
       <c r="E252" t="s">
-        <v>1347</v>
+        <v>1322</v>
       </c>
       <c r="F252" t="s">
         <v>597</v>
@@ -14964,19 +14964,19 @@
     </row>
     <row r="253" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
-        <v>1348</v>
+        <v>1323</v>
       </c>
       <c r="B253" t="s">
-        <v>1349</v>
+        <v>1324</v>
       </c>
       <c r="C253" t="s">
-        <v>1350</v>
+        <v>1325</v>
       </c>
       <c r="D253" t="s">
-        <v>1351</v>
+        <v>1326</v>
       </c>
       <c r="E253" t="s">
-        <v>1352</v>
+        <v>1327</v>
       </c>
       <c r="F253" t="s">
         <v>597</v>
@@ -14996,19 +14996,19 @@
     </row>
     <row r="254" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
-        <v>1353</v>
+        <v>1328</v>
       </c>
       <c r="B254" t="s">
-        <v>1354</v>
+        <v>1329</v>
       </c>
       <c r="C254" t="s">
-        <v>1355</v>
+        <v>1330</v>
       </c>
       <c r="D254" t="s">
-        <v>1356</v>
+        <v>1331</v>
       </c>
       <c r="E254" t="s">
-        <v>1357</v>
+        <v>1332</v>
       </c>
       <c r="F254" t="s">
         <v>597</v>
@@ -15028,19 +15028,19 @@
     </row>
     <row r="255" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
-        <v>1358</v>
+        <v>1333</v>
       </c>
       <c r="B255" t="s">
-        <v>1359</v>
+        <v>1334</v>
       </c>
       <c r="C255" t="s">
-        <v>1360</v>
+        <v>1335</v>
       </c>
       <c r="D255" t="s">
-        <v>1361</v>
+        <v>1336</v>
       </c>
       <c r="E255" t="s">
-        <v>1362</v>
+        <v>1337</v>
       </c>
       <c r="F255" t="s">
         <v>597</v>
@@ -15060,19 +15060,19 @@
     </row>
     <row r="256" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
-        <v>1363</v>
+        <v>1338</v>
       </c>
       <c r="B256" t="s">
-        <v>1364</v>
+        <v>1339</v>
       </c>
       <c r="C256" t="s">
-        <v>1365</v>
+        <v>1340</v>
       </c>
       <c r="D256" t="s">
-        <v>1366</v>
+        <v>1341</v>
       </c>
       <c r="E256" t="s">
-        <v>1367</v>
+        <v>1342</v>
       </c>
       <c r="F256" t="s">
         <v>597</v>
@@ -15092,19 +15092,19 @@
     </row>
     <row r="257" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
-        <v>1368</v>
+        <v>1343</v>
       </c>
       <c r="B257" t="s">
         <v>533</v>
       </c>
       <c r="C257" t="s">
-        <v>1369</v>
+        <v>1344</v>
       </c>
       <c r="D257" t="s">
-        <v>1370</v>
+        <v>1345</v>
       </c>
       <c r="E257" t="s">
-        <v>1371</v>
+        <v>1346</v>
       </c>
       <c r="F257" t="s">
         <v>597</v>
@@ -15124,19 +15124,19 @@
     </row>
     <row r="258" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
-        <v>1372</v>
+        <v>1347</v>
       </c>
       <c r="B258" t="s">
-        <v>1373</v>
+        <v>1348</v>
       </c>
       <c r="C258" t="s">
-        <v>1374</v>
+        <v>1349</v>
       </c>
       <c r="D258" t="s">
         <v>64</v>
       </c>
       <c r="E258" t="s">
-        <v>1375</v>
+        <v>1350</v>
       </c>
       <c r="F258" t="s">
         <v>597</v>
@@ -15156,19 +15156,19 @@
     </row>
     <row r="259" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
-        <v>1376</v>
+        <v>1351</v>
       </c>
       <c r="B259" t="s">
-        <v>1377</v>
+        <v>1352</v>
       </c>
       <c r="C259" t="s">
-        <v>1378</v>
+        <v>1353</v>
       </c>
       <c r="D259" t="s">
-        <v>1379</v>
+        <v>1354</v>
       </c>
       <c r="E259" t="s">
-        <v>1380</v>
+        <v>1355</v>
       </c>
       <c r="F259" t="s">
         <v>597</v>
@@ -15188,19 +15188,19 @@
     </row>
     <row r="260" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
-        <v>1381</v>
+        <v>1356</v>
       </c>
       <c r="B260" t="s">
-        <v>1382</v>
+        <v>1357</v>
       </c>
       <c r="C260" t="s">
-        <v>1383</v>
+        <v>1358</v>
       </c>
       <c r="D260" t="s">
-        <v>1384</v>
+        <v>1359</v>
       </c>
       <c r="E260" t="s">
-        <v>1385</v>
+        <v>1360</v>
       </c>
       <c r="F260" t="s">
         <v>597</v>
@@ -15220,19 +15220,19 @@
     </row>
     <row r="261" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
-        <v>1386</v>
+        <v>1361</v>
       </c>
       <c r="B261" t="s">
-        <v>1387</v>
+        <v>1362</v>
       </c>
       <c r="C261" t="s">
-        <v>1388</v>
+        <v>1363</v>
       </c>
       <c r="D261" t="s">
-        <v>1389</v>
+        <v>1364</v>
       </c>
       <c r="E261" t="s">
-        <v>1390</v>
+        <v>1365</v>
       </c>
       <c r="F261" t="s">
         <v>597</v>
@@ -15252,19 +15252,19 @@
     </row>
     <row r="262" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
-        <v>1391</v>
+        <v>1366</v>
       </c>
       <c r="B262" t="s">
-        <v>1392</v>
+        <v>1367</v>
       </c>
       <c r="C262" t="s">
-        <v>1393</v>
+        <v>1368</v>
       </c>
       <c r="D262" t="s">
-        <v>1394</v>
+        <v>1369</v>
       </c>
       <c r="E262" t="s">
-        <v>1395</v>
+        <v>1370</v>
       </c>
       <c r="F262" t="s">
         <v>597</v>
@@ -15284,19 +15284,19 @@
     </row>
     <row r="263" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
-        <v>1396</v>
+        <v>1371</v>
       </c>
       <c r="B263" t="s">
-        <v>1397</v>
+        <v>1372</v>
       </c>
       <c r="C263" t="s">
-        <v>1398</v>
+        <v>1373</v>
       </c>
       <c r="D263" t="s">
-        <v>1399</v>
+        <v>1374</v>
       </c>
       <c r="E263" t="s">
-        <v>1400</v>
+        <v>1375</v>
       </c>
       <c r="F263" t="s">
         <v>597</v>
@@ -15319,16 +15319,16 @@
         <v>539</v>
       </c>
       <c r="B264" t="s">
-        <v>1401</v>
+        <v>1376</v>
       </c>
       <c r="C264" t="s">
-        <v>1402</v>
+        <v>1377</v>
       </c>
       <c r="D264" t="s">
-        <v>1403</v>
+        <v>1378</v>
       </c>
       <c r="E264" t="s">
-        <v>1404</v>
+        <v>1379</v>
       </c>
       <c r="F264" t="s">
         <v>597</v>
@@ -15348,19 +15348,19 @@
     </row>
     <row r="265" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
-        <v>1405</v>
+        <v>1380</v>
       </c>
       <c r="B265" t="s">
-        <v>1406</v>
+        <v>1381</v>
       </c>
       <c r="C265" t="s">
-        <v>1407</v>
+        <v>1382</v>
       </c>
       <c r="D265" t="s">
-        <v>1408</v>
+        <v>1383</v>
       </c>
       <c r="E265" t="s">
-        <v>1409</v>
+        <v>1384</v>
       </c>
       <c r="F265" t="s">
         <v>597</v>
@@ -15380,19 +15380,19 @@
     </row>
     <row r="266" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
-        <v>1410</v>
+        <v>1385</v>
       </c>
       <c r="B266" t="s">
-        <v>1411</v>
+        <v>1386</v>
       </c>
       <c r="C266" t="s">
-        <v>1412</v>
+        <v>1387</v>
       </c>
       <c r="D266" t="s">
-        <v>1413</v>
+        <v>1388</v>
       </c>
       <c r="E266" t="s">
-        <v>1414</v>
+        <v>1389</v>
       </c>
       <c r="F266" t="s">
         <v>597</v>
@@ -15415,16 +15415,16 @@
         <v>786</v>
       </c>
       <c r="B267" t="s">
-        <v>1415</v>
+        <v>1390</v>
       </c>
       <c r="C267" t="s">
-        <v>1416</v>
+        <v>1391</v>
       </c>
       <c r="D267" t="s">
-        <v>1417</v>
+        <v>1392</v>
       </c>
       <c r="E267" t="s">
-        <v>1418</v>
+        <v>1393</v>
       </c>
       <c r="F267" t="s">
         <v>597</v>
@@ -15444,7 +15444,7 @@
     </row>
     <row r="268" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
-        <v>1419</v>
+        <v>1394</v>
       </c>
       <c r="B268" t="s">
         <v>517</v>
@@ -15453,10 +15453,10 @@
         <v>880</v>
       </c>
       <c r="D268" t="s">
-        <v>1420</v>
+        <v>1395</v>
       </c>
       <c r="E268" t="s">
-        <v>1421</v>
+        <v>1396</v>
       </c>
       <c r="F268" t="s">
         <v>597</v>
@@ -15479,16 +15479,16 @@
         <v>406</v>
       </c>
       <c r="B269" t="s">
-        <v>1422</v>
+        <v>1397</v>
       </c>
       <c r="C269" t="s">
-        <v>1423</v>
+        <v>1398</v>
       </c>
       <c r="D269" t="s">
-        <v>1220</v>
+        <v>1202</v>
       </c>
       <c r="E269" t="s">
-        <v>1424</v>
+        <v>1399</v>
       </c>
       <c r="F269" t="s">
         <v>597</v>
@@ -15508,19 +15508,19 @@
     </row>
     <row r="270" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
-        <v>1425</v>
+        <v>1400</v>
       </c>
       <c r="B270" t="s">
-        <v>1426</v>
+        <v>1401</v>
       </c>
       <c r="C270" t="s">
-        <v>1427</v>
+        <v>1402</v>
       </c>
       <c r="D270" t="s">
-        <v>1428</v>
+        <v>1403</v>
       </c>
       <c r="E270" t="s">
-        <v>1429</v>
+        <v>1404</v>
       </c>
       <c r="F270" t="s">
         <v>597</v>
@@ -15543,16 +15543,16 @@
         <v>925</v>
       </c>
       <c r="B271" t="s">
-        <v>1430</v>
+        <v>1405</v>
       </c>
       <c r="C271" t="s">
-        <v>1431</v>
+        <v>1406</v>
       </c>
       <c r="D271" t="s">
-        <v>1432</v>
+        <v>1407</v>
       </c>
       <c r="E271" t="s">
-        <v>1433</v>
+        <v>1408</v>
       </c>
       <c r="F271" t="s">
         <v>597</v>
@@ -15572,19 +15572,19 @@
     </row>
     <row r="272" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
-        <v>1434</v>
+        <v>1409</v>
       </c>
       <c r="B272" t="s">
-        <v>1435</v>
+        <v>1410</v>
       </c>
       <c r="C272" t="s">
         <v>181</v>
       </c>
       <c r="D272" t="s">
-        <v>1436</v>
+        <v>1411</v>
       </c>
       <c r="E272" t="s">
-        <v>1437</v>
+        <v>1412</v>
       </c>
       <c r="F272" t="s">
         <v>597</v>
@@ -15604,19 +15604,19 @@
     </row>
     <row r="273" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
-        <v>1438</v>
+        <v>1413</v>
       </c>
       <c r="B273" t="s">
-        <v>1439</v>
+        <v>1414</v>
       </c>
       <c r="C273" t="s">
         <v>900</v>
       </c>
       <c r="D273" t="s">
-        <v>1440</v>
+        <v>1415</v>
       </c>
       <c r="E273" t="s">
-        <v>1441</v>
+        <v>1416</v>
       </c>
       <c r="F273" t="s">
         <v>597</v>
@@ -15636,19 +15636,19 @@
     </row>
     <row r="274" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
-        <v>1442</v>
+        <v>1417</v>
       </c>
       <c r="B274" t="s">
-        <v>1443</v>
+        <v>1418</v>
       </c>
       <c r="C274" t="s">
-        <v>1444</v>
+        <v>1419</v>
       </c>
       <c r="D274" t="s">
-        <v>1445</v>
+        <v>1420</v>
       </c>
       <c r="E274" t="s">
-        <v>1446</v>
+        <v>1421</v>
       </c>
       <c r="F274" t="s">
         <v>597</v>
@@ -15668,19 +15668,19 @@
     </row>
     <row r="275" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
-        <v>1447</v>
+        <v>1422</v>
       </c>
       <c r="B275" t="s">
-        <v>1448</v>
+        <v>1423</v>
       </c>
       <c r="C275" t="s">
-        <v>1449</v>
+        <v>1424</v>
       </c>
       <c r="D275" t="s">
-        <v>1450</v>
+        <v>1425</v>
       </c>
       <c r="E275" t="s">
-        <v>1451</v>
+        <v>1426</v>
       </c>
       <c r="F275" t="s">
         <v>597</v>
@@ -15700,19 +15700,19 @@
     </row>
     <row r="276" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
-        <v>1452</v>
+        <v>1427</v>
       </c>
       <c r="B276" t="s">
-        <v>1453</v>
+        <v>1428</v>
       </c>
       <c r="C276" t="s">
-        <v>1454</v>
+        <v>1429</v>
       </c>
       <c r="D276" t="s">
-        <v>1455</v>
+        <v>1430</v>
       </c>
       <c r="E276" t="s">
-        <v>1456</v>
+        <v>1431</v>
       </c>
       <c r="F276" t="s">
         <v>597</v>
@@ -15732,19 +15732,19 @@
     </row>
     <row r="277" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
-        <v>1457</v>
+        <v>1432</v>
       </c>
       <c r="B277" t="s">
-        <v>1458</v>
+        <v>1433</v>
       </c>
       <c r="C277" t="s">
-        <v>1459</v>
+        <v>1434</v>
       </c>
       <c r="D277" t="s">
-        <v>1460</v>
+        <v>1435</v>
       </c>
       <c r="E277" t="s">
-        <v>1461</v>
+        <v>1436</v>
       </c>
       <c r="F277" t="s">
         <v>597</v>
@@ -15764,19 +15764,19 @@
     </row>
     <row r="278" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
-        <v>1462</v>
+        <v>1437</v>
       </c>
       <c r="B278" t="s">
-        <v>1463</v>
+        <v>1438</v>
       </c>
       <c r="C278" t="s">
-        <v>1464</v>
+        <v>1439</v>
       </c>
       <c r="D278" t="s">
-        <v>1465</v>
+        <v>1440</v>
       </c>
       <c r="E278" t="s">
-        <v>1466</v>
+        <v>1441</v>
       </c>
       <c r="F278" t="s">
         <v>597</v>
@@ -15796,19 +15796,19 @@
     </row>
     <row r="279" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
-        <v>1467</v>
+        <v>1442</v>
       </c>
       <c r="B279" t="s">
-        <v>1468</v>
+        <v>1443</v>
       </c>
       <c r="C279" t="s">
-        <v>1469</v>
+        <v>1444</v>
       </c>
       <c r="D279" t="s">
-        <v>1470</v>
+        <v>1445</v>
       </c>
       <c r="E279" t="s">
-        <v>1471</v>
+        <v>1446</v>
       </c>
       <c r="F279" t="s">
         <v>597</v>
@@ -15828,19 +15828,19 @@
     </row>
     <row r="280" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
-        <v>1476</v>
+        <v>1451</v>
       </c>
       <c r="B280" t="s">
-        <v>1477</v>
+        <v>1452</v>
       </c>
       <c r="C280" t="s">
-        <v>1478</v>
+        <v>1453</v>
       </c>
       <c r="D280" t="s">
-        <v>1479</v>
+        <v>1454</v>
       </c>
       <c r="E280" t="s">
-        <v>1480</v>
+        <v>1455</v>
       </c>
       <c r="F280" t="s">
         <v>597</v>
@@ -15860,19 +15860,19 @@
     </row>
     <row r="281" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
-        <v>1481</v>
+        <v>1456</v>
       </c>
       <c r="B281" t="s">
-        <v>1482</v>
+        <v>1457</v>
       </c>
       <c r="C281" t="s">
-        <v>1483</v>
+        <v>1458</v>
       </c>
       <c r="D281" t="s">
-        <v>1484</v>
+        <v>1459</v>
       </c>
       <c r="E281" t="s">
-        <v>1485</v>
+        <v>1460</v>
       </c>
       <c r="F281" t="s">
         <v>597</v>
@@ -15892,19 +15892,19 @@
     </row>
     <row r="282" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
-        <v>1486</v>
+        <v>1461</v>
       </c>
       <c r="B282" t="s">
-        <v>1487</v>
+        <v>1462</v>
       </c>
       <c r="C282" t="s">
-        <v>1488</v>
+        <v>1463</v>
       </c>
       <c r="D282" t="s">
-        <v>1489</v>
+        <v>1464</v>
       </c>
       <c r="E282" t="s">
-        <v>1490</v>
+        <v>1465</v>
       </c>
       <c r="F282" t="s">
         <v>597</v>
@@ -15924,19 +15924,19 @@
     </row>
     <row r="283" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
-        <v>1491</v>
+        <v>1466</v>
       </c>
       <c r="B283" t="s">
-        <v>1492</v>
+        <v>1467</v>
       </c>
       <c r="C283" t="s">
-        <v>1493</v>
+        <v>1468</v>
       </c>
       <c r="D283" t="s">
-        <v>1494</v>
+        <v>1469</v>
       </c>
       <c r="E283" t="s">
-        <v>1495</v>
+        <v>1470</v>
       </c>
       <c r="F283" t="s">
         <v>597</v>
@@ -15956,19 +15956,19 @@
     </row>
     <row r="284" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
-        <v>1496</v>
+        <v>1471</v>
       </c>
       <c r="B284" t="s">
-        <v>1497</v>
+        <v>1472</v>
       </c>
       <c r="C284" t="s">
-        <v>1498</v>
+        <v>1473</v>
       </c>
       <c r="D284" t="s">
-        <v>1170</v>
+        <v>1157</v>
       </c>
       <c r="E284" t="s">
-        <v>1499</v>
+        <v>1474</v>
       </c>
       <c r="F284" t="s">
         <v>597</v>
@@ -15988,19 +15988,19 @@
     </row>
     <row r="285" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
-        <v>1500</v>
+        <v>1475</v>
       </c>
       <c r="B285" t="s">
-        <v>1472</v>
+        <v>1447</v>
       </c>
       <c r="C285" t="s">
-        <v>1473</v>
+        <v>1448</v>
       </c>
       <c r="D285" t="s">
-        <v>1474</v>
+        <v>1449</v>
       </c>
       <c r="E285" t="s">
-        <v>1475</v>
+        <v>1450</v>
       </c>
       <c r="F285" t="s">
         <v>597</v>
@@ -16023,16 +16023,16 @@
         <v>533</v>
       </c>
       <c r="B286" t="s">
-        <v>1501</v>
+        <v>1476</v>
       </c>
       <c r="C286" t="s">
-        <v>1502</v>
+        <v>1477</v>
       </c>
       <c r="D286" t="s">
-        <v>1503</v>
+        <v>1478</v>
       </c>
       <c r="E286" t="s">
-        <v>1504</v>
+        <v>1479</v>
       </c>
       <c r="F286" t="s">
         <v>597</v>
@@ -16052,19 +16052,19 @@
     </row>
     <row r="287" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
-        <v>1505</v>
+        <v>1480</v>
       </c>
       <c r="B287" t="s">
-        <v>1506</v>
+        <v>1481</v>
       </c>
       <c r="C287" t="s">
-        <v>1507</v>
+        <v>1482</v>
       </c>
       <c r="D287" t="s">
-        <v>1508</v>
+        <v>1483</v>
       </c>
       <c r="E287" t="s">
-        <v>1509</v>
+        <v>1484</v>
       </c>
       <c r="F287" t="s">
         <v>597</v>
@@ -16087,16 +16087,16 @@
         <v>208</v>
       </c>
       <c r="B288" t="s">
-        <v>1510</v>
+        <v>1485</v>
       </c>
       <c r="C288" t="s">
-        <v>1511</v>
+        <v>1486</v>
       </c>
       <c r="D288" t="s">
-        <v>1512</v>
+        <v>1487</v>
       </c>
       <c r="E288" t="s">
-        <v>1513</v>
+        <v>1488</v>
       </c>
       <c r="F288" t="s">
         <v>597</v>
@@ -16119,16 +16119,16 @@
         <v>210</v>
       </c>
       <c r="B289" t="s">
-        <v>1514</v>
+        <v>1489</v>
       </c>
       <c r="C289" t="s">
-        <v>1515</v>
+        <v>1490</v>
       </c>
       <c r="D289" t="s">
-        <v>1516</v>
+        <v>1491</v>
       </c>
       <c r="E289" t="s">
-        <v>1517</v>
+        <v>1492</v>
       </c>
       <c r="F289" t="s">
         <v>597</v>
@@ -16148,19 +16148,19 @@
     </row>
     <row r="290" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
-        <v>1518</v>
+        <v>1493</v>
       </c>
       <c r="B290" t="s">
         <v>857</v>
       </c>
       <c r="C290" t="s">
-        <v>1519</v>
+        <v>1494</v>
       </c>
       <c r="D290" t="s">
-        <v>1520</v>
+        <v>1495</v>
       </c>
       <c r="E290" t="s">
-        <v>1521</v>
+        <v>1496</v>
       </c>
       <c r="F290" t="s">
         <v>597</v>
@@ -16180,19 +16180,19 @@
     </row>
     <row r="291" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
-        <v>1522</v>
+        <v>1497</v>
       </c>
       <c r="B291" t="s">
-        <v>1523</v>
+        <v>1498</v>
       </c>
       <c r="C291" t="s">
-        <v>1524</v>
+        <v>1499</v>
       </c>
       <c r="D291" t="s">
-        <v>1525</v>
+        <v>1500</v>
       </c>
       <c r="E291" t="s">
-        <v>1526</v>
+        <v>1501</v>
       </c>
       <c r="F291" t="s">
         <v>597</v>
@@ -16212,19 +16212,19 @@
     </row>
     <row r="292" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
-        <v>1527</v>
+        <v>1502</v>
       </c>
       <c r="B292" t="s">
-        <v>1528</v>
+        <v>1503</v>
       </c>
       <c r="C292" t="s">
-        <v>1296</v>
+        <v>1271</v>
       </c>
       <c r="D292" t="s">
-        <v>1529</v>
+        <v>1504</v>
       </c>
       <c r="E292" t="s">
-        <v>1530</v>
+        <v>1505</v>
       </c>
       <c r="F292" t="s">
         <v>597</v>
@@ -16244,19 +16244,19 @@
     </row>
     <row r="293" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
-        <v>1531</v>
+        <v>1506</v>
       </c>
       <c r="B293" t="s">
-        <v>1532</v>
+        <v>1507</v>
       </c>
       <c r="C293" t="s">
-        <v>1533</v>
+        <v>1508</v>
       </c>
       <c r="D293" t="s">
-        <v>1534</v>
+        <v>1509</v>
       </c>
       <c r="E293" t="s">
-        <v>1535</v>
+        <v>1510</v>
       </c>
       <c r="F293" t="s">
         <v>597</v>
@@ -16276,19 +16276,19 @@
     </row>
     <row r="294" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
-        <v>1536</v>
+        <v>1511</v>
       </c>
       <c r="B294" t="s">
-        <v>1537</v>
+        <v>1512</v>
       </c>
       <c r="C294" t="s">
-        <v>1538</v>
+        <v>1513</v>
       </c>
       <c r="D294" t="s">
-        <v>1539</v>
+        <v>1514</v>
       </c>
       <c r="E294" t="s">
-        <v>1540</v>
+        <v>1515</v>
       </c>
       <c r="F294" t="s">
         <v>597</v>
@@ -16308,19 +16308,19 @@
     </row>
     <row r="295" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
-        <v>1541</v>
+        <v>1516</v>
       </c>
       <c r="B295" t="s">
-        <v>1542</v>
+        <v>1517</v>
       </c>
       <c r="C295" t="s">
-        <v>1543</v>
+        <v>1518</v>
       </c>
       <c r="D295" t="s">
-        <v>1544</v>
+        <v>1519</v>
       </c>
       <c r="E295" t="s">
-        <v>1545</v>
+        <v>1520</v>
       </c>
       <c r="F295" t="s">
         <v>597</v>
@@ -16340,19 +16340,19 @@
     </row>
     <row r="296" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
-        <v>1546</v>
+        <v>1521</v>
       </c>
       <c r="B296" t="s">
-        <v>1547</v>
+        <v>1522</v>
       </c>
       <c r="C296" t="s">
-        <v>1548</v>
+        <v>1523</v>
       </c>
       <c r="D296" t="s">
-        <v>1549</v>
+        <v>1524</v>
       </c>
       <c r="E296" t="s">
-        <v>1550</v>
+        <v>1525</v>
       </c>
       <c r="F296" t="s">
         <v>597</v>
@@ -16372,19 +16372,19 @@
     </row>
     <row r="297" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
-        <v>1551</v>
+        <v>1526</v>
       </c>
       <c r="B297" t="s">
-        <v>1307</v>
+        <v>1282</v>
       </c>
       <c r="C297" t="s">
-        <v>1552</v>
+        <v>1527</v>
       </c>
       <c r="D297" t="s">
-        <v>1553</v>
+        <v>1528</v>
       </c>
       <c r="E297" t="s">
-        <v>1554</v>
+        <v>1529</v>
       </c>
       <c r="F297" t="s">
         <v>597</v>
@@ -16404,19 +16404,19 @@
     </row>
     <row r="298" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
-        <v>1555</v>
+        <v>1530</v>
       </c>
       <c r="B298" t="s">
-        <v>1556</v>
+        <v>1531</v>
       </c>
       <c r="C298" t="s">
-        <v>1557</v>
+        <v>1532</v>
       </c>
       <c r="D298" t="s">
-        <v>1558</v>
+        <v>1533</v>
       </c>
       <c r="E298" t="s">
-        <v>1559</v>
+        <v>1534</v>
       </c>
       <c r="F298" t="s">
         <v>597</v>
@@ -16436,19 +16436,19 @@
     </row>
     <row r="299" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
-        <v>1560</v>
+        <v>1535</v>
       </c>
       <c r="B299" t="s">
-        <v>1561</v>
+        <v>1536</v>
       </c>
       <c r="C299" t="s">
-        <v>1562</v>
+        <v>1537</v>
       </c>
       <c r="D299" t="s">
-        <v>1563</v>
+        <v>1538</v>
       </c>
       <c r="E299" t="s">
-        <v>1564</v>
+        <v>1539</v>
       </c>
       <c r="F299" t="s">
         <v>597</v>
@@ -16468,19 +16468,19 @@
     </row>
     <row r="300" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
-        <v>1565</v>
+        <v>1540</v>
       </c>
       <c r="B300" t="s">
-        <v>1566</v>
+        <v>1541</v>
       </c>
       <c r="C300" t="s">
-        <v>1567</v>
+        <v>1542</v>
       </c>
       <c r="D300" t="s">
-        <v>1568</v>
+        <v>1543</v>
       </c>
       <c r="E300" t="s">
-        <v>1569</v>
+        <v>1544</v>
       </c>
       <c r="F300" t="s">
         <v>597</v>
@@ -16500,19 +16500,19 @@
     </row>
     <row r="301" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
-        <v>1570</v>
+        <v>1545</v>
       </c>
       <c r="B301" t="s">
-        <v>1571</v>
+        <v>1546</v>
       </c>
       <c r="C301" t="s">
-        <v>1572</v>
+        <v>1547</v>
       </c>
       <c r="D301" t="s">
-        <v>1573</v>
+        <v>1548</v>
       </c>
       <c r="E301" t="s">
-        <v>1574</v>
+        <v>1549</v>
       </c>
       <c r="F301" t="s">
         <v>597</v>
@@ -16532,19 +16532,19 @@
     </row>
     <row r="302" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
-        <v>1575</v>
+        <v>1550</v>
       </c>
       <c r="B302" t="s">
-        <v>1576</v>
+        <v>1551</v>
       </c>
       <c r="C302" t="s">
-        <v>1577</v>
+        <v>1552</v>
       </c>
       <c r="D302" t="s">
-        <v>1114</v>
+        <v>1111</v>
       </c>
       <c r="E302" t="s">
-        <v>1578</v>
+        <v>1553</v>
       </c>
       <c r="F302" t="s">
         <v>597</v>
@@ -16564,19 +16564,19 @@
     </row>
     <row r="303" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
-        <v>1579</v>
+        <v>1554</v>
       </c>
       <c r="B303" t="s">
-        <v>1113</v>
+        <v>1110</v>
       </c>
       <c r="C303" t="s">
-        <v>1580</v>
+        <v>1555</v>
       </c>
       <c r="D303" t="s">
-        <v>1581</v>
+        <v>1556</v>
       </c>
       <c r="E303" t="s">
-        <v>1582</v>
+        <v>1557</v>
       </c>
       <c r="F303" t="s">
         <v>597</v>
@@ -16596,19 +16596,19 @@
     </row>
     <row r="304" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
-        <v>1583</v>
+        <v>1558</v>
       </c>
       <c r="B304" t="s">
         <v>218</v>
       </c>
       <c r="C304" t="s">
-        <v>1584</v>
+        <v>1559</v>
       </c>
       <c r="D304" t="s">
-        <v>1585</v>
+        <v>1560</v>
       </c>
       <c r="E304" t="s">
-        <v>1586</v>
+        <v>1561</v>
       </c>
       <c r="F304" t="s">
         <v>597</v>
@@ -16628,19 +16628,19 @@
     </row>
     <row r="305" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
-        <v>1587</v>
+        <v>1562</v>
       </c>
       <c r="B305" t="s">
-        <v>1588</v>
+        <v>1563</v>
       </c>
       <c r="C305" t="s">
-        <v>1589</v>
+        <v>1564</v>
       </c>
       <c r="D305" t="s">
-        <v>1590</v>
+        <v>1565</v>
       </c>
       <c r="E305" t="s">
-        <v>1591</v>
+        <v>1566</v>
       </c>
       <c r="F305" t="s">
         <v>597</v>
@@ -16660,19 +16660,19 @@
     </row>
     <row r="306" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
-        <v>1592</v>
+        <v>1567</v>
       </c>
       <c r="B306" t="s">
-        <v>1593</v>
+        <v>1568</v>
       </c>
       <c r="C306" t="s">
-        <v>1594</v>
+        <v>1569</v>
       </c>
       <c r="D306" t="s">
-        <v>1595</v>
+        <v>1570</v>
       </c>
       <c r="E306" t="s">
-        <v>1596</v>
+        <v>1571</v>
       </c>
       <c r="F306" t="s">
         <v>597</v>
@@ -16692,19 +16692,19 @@
     </row>
     <row r="307" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
-        <v>1597</v>
+        <v>1572</v>
       </c>
       <c r="B307" t="s">
         <v>973</v>
       </c>
       <c r="C307" t="s">
-        <v>1598</v>
+        <v>1573</v>
       </c>
       <c r="D307" t="s">
-        <v>1599</v>
+        <v>1574</v>
       </c>
       <c r="E307" t="s">
-        <v>1600</v>
+        <v>1575</v>
       </c>
       <c r="F307" t="s">
         <v>597</v>
@@ -16724,19 +16724,19 @@
     </row>
     <row r="308" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
-        <v>1601</v>
+        <v>1576</v>
       </c>
       <c r="B308" t="s">
-        <v>1602</v>
+        <v>1577</v>
       </c>
       <c r="C308" t="s">
-        <v>1460</v>
+        <v>1435</v>
       </c>
       <c r="D308" t="s">
-        <v>1603</v>
+        <v>1578</v>
       </c>
       <c r="E308" t="s">
-        <v>1604</v>
+        <v>1579</v>
       </c>
       <c r="F308" t="s">
         <v>597</v>
@@ -16756,19 +16756,19 @@
     </row>
     <row r="309" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
-        <v>1605</v>
+        <v>1580</v>
       </c>
       <c r="B309" t="s">
-        <v>1606</v>
+        <v>1581</v>
       </c>
       <c r="C309" t="s">
-        <v>1607</v>
+        <v>1582</v>
       </c>
       <c r="D309" t="s">
-        <v>1608</v>
+        <v>1583</v>
       </c>
       <c r="E309" t="s">
-        <v>1609</v>
+        <v>1584</v>
       </c>
       <c r="F309" t="s">
         <v>597</v>
@@ -16788,19 +16788,19 @@
     </row>
     <row r="310" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
-        <v>1610</v>
+        <v>1585</v>
       </c>
       <c r="B310" t="s">
-        <v>1611</v>
+        <v>1586</v>
       </c>
       <c r="C310" t="s">
-        <v>1612</v>
+        <v>1587</v>
       </c>
       <c r="D310" t="s">
-        <v>1613</v>
+        <v>1588</v>
       </c>
       <c r="E310" t="s">
-        <v>1614</v>
+        <v>1589</v>
       </c>
       <c r="F310" t="s">
         <v>597</v>
@@ -16820,29 +16820,29 @@
     </row>
     <row r="311" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
-        <v>1615</v>
+        <v>1590</v>
       </c>
       <c r="B311" t="s">
-        <v>1616</v>
+        <v>1591</v>
       </c>
       <c r="C311" t="s">
-        <v>1617</v>
+        <v>1592</v>
       </c>
       <c r="D311" t="s">
-        <v>1618</v>
+        <v>1593</v>
       </c>
       <c r="E311" t="s">
-        <v>1619</v>
+        <v>1594</v>
       </c>
       <c r="F311" t="s">
         <v>597</v>
       </c>
       <c r="H311">
-        <f t="shared" ref="H311:H361" si="25">INT(J311/3)</f>
+        <f t="shared" ref="H311:H338" si="25">INT(J311/3)</f>
         <v>103</v>
       </c>
       <c r="I311" s="3">
-        <f t="shared" ref="I311:I361" si="26">$L$1+H311</f>
+        <f t="shared" ref="I311:I338" si="26">$L$1+H311</f>
         <v>45728</v>
       </c>
       <c r="J311">
@@ -16852,19 +16852,19 @@
     </row>
     <row r="312" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
-        <v>1620</v>
+        <v>1595</v>
       </c>
       <c r="B312" t="s">
-        <v>1621</v>
+        <v>1596</v>
       </c>
       <c r="C312" t="s">
-        <v>1622</v>
+        <v>1597</v>
       </c>
       <c r="D312" t="s">
-        <v>1623</v>
+        <v>1598</v>
       </c>
       <c r="E312" t="s">
-        <v>1624</v>
+        <v>1599</v>
       </c>
       <c r="F312" t="s">
         <v>597</v>
@@ -16884,19 +16884,19 @@
     </row>
     <row r="313" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
-        <v>1625</v>
+        <v>1600</v>
       </c>
       <c r="B313" t="s">
-        <v>1626</v>
+        <v>1601</v>
       </c>
       <c r="C313" t="s">
-        <v>1627</v>
+        <v>1602</v>
       </c>
       <c r="D313" t="s">
-        <v>1628</v>
+        <v>1603</v>
       </c>
       <c r="E313" t="s">
-        <v>1629</v>
+        <v>1604</v>
       </c>
       <c r="F313" t="s">
         <v>597</v>
@@ -16919,16 +16919,16 @@
         <v>574</v>
       </c>
       <c r="B314" t="s">
-        <v>1630</v>
+        <v>1605</v>
       </c>
       <c r="C314" t="s">
-        <v>1631</v>
+        <v>1606</v>
       </c>
       <c r="D314" t="s">
-        <v>1632</v>
+        <v>1607</v>
       </c>
       <c r="E314" t="s">
-        <v>1633</v>
+        <v>1608</v>
       </c>
       <c r="F314" t="s">
         <v>597</v>
@@ -16948,19 +16948,19 @@
     </row>
     <row r="315" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
-        <v>1634</v>
+        <v>1609</v>
       </c>
       <c r="B315" t="s">
-        <v>1635</v>
+        <v>1610</v>
       </c>
       <c r="C315" t="s">
-        <v>1636</v>
+        <v>1611</v>
       </c>
       <c r="D315" t="s">
-        <v>1637</v>
+        <v>1612</v>
       </c>
       <c r="E315" t="s">
-        <v>1638</v>
+        <v>1613</v>
       </c>
       <c r="F315" t="s">
         <v>597</v>
@@ -16980,19 +16980,19 @@
     </row>
     <row r="316" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
-        <v>1639</v>
+        <v>1614</v>
       </c>
       <c r="B316" t="s">
-        <v>1640</v>
+        <v>1615</v>
       </c>
       <c r="C316" t="s">
-        <v>1641</v>
+        <v>1616</v>
       </c>
       <c r="D316" t="s">
-        <v>1642</v>
+        <v>1617</v>
       </c>
       <c r="E316" t="s">
-        <v>1643</v>
+        <v>1618</v>
       </c>
       <c r="F316" t="s">
         <v>597</v>
@@ -17012,19 +17012,19 @@
     </row>
     <row r="317" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
-        <v>1644</v>
+        <v>1619</v>
       </c>
       <c r="B317" t="s">
-        <v>1645</v>
+        <v>1620</v>
       </c>
       <c r="C317" t="s">
-        <v>1646</v>
+        <v>1621</v>
       </c>
       <c r="D317" t="s">
-        <v>1647</v>
+        <v>1622</v>
       </c>
       <c r="E317" t="s">
-        <v>1648</v>
+        <v>1623</v>
       </c>
       <c r="F317" t="s">
         <v>597</v>
@@ -17044,19 +17044,19 @@
     </row>
     <row r="318" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
-        <v>1649</v>
+        <v>1624</v>
       </c>
       <c r="B318" t="s">
         <v>676</v>
       </c>
       <c r="C318" t="s">
-        <v>1650</v>
+        <v>1625</v>
       </c>
       <c r="D318" t="s">
-        <v>1651</v>
+        <v>1626</v>
       </c>
       <c r="E318" t="s">
-        <v>1652</v>
+        <v>1627</v>
       </c>
       <c r="F318" t="s">
         <v>597</v>
@@ -17079,16 +17079,16 @@
         <v>779</v>
       </c>
       <c r="B319" t="s">
-        <v>1653</v>
+        <v>1628</v>
       </c>
       <c r="C319" t="s">
-        <v>1654</v>
+        <v>1629</v>
       </c>
       <c r="D319" t="s">
-        <v>1655</v>
+        <v>1630</v>
       </c>
       <c r="E319" t="s">
-        <v>1656</v>
+        <v>1631</v>
       </c>
       <c r="F319" t="s">
         <v>597</v>
@@ -17108,19 +17108,19 @@
     </row>
     <row r="320" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
-        <v>1657</v>
+        <v>1632</v>
       </c>
       <c r="B320" t="s">
-        <v>1658</v>
+        <v>1633</v>
       </c>
       <c r="C320" t="s">
-        <v>1659</v>
+        <v>1634</v>
       </c>
       <c r="D320" t="s">
-        <v>1660</v>
+        <v>1635</v>
       </c>
       <c r="E320" t="s">
-        <v>1661</v>
+        <v>1636</v>
       </c>
       <c r="F320" t="s">
         <v>597</v>
@@ -17140,16 +17140,16 @@
     </row>
     <row r="321" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
-        <v>1662</v>
+        <v>1637</v>
       </c>
       <c r="B321" t="s">
-        <v>1663</v>
+        <v>1638</v>
       </c>
       <c r="C321" t="s">
-        <v>1448</v>
+        <v>1423</v>
       </c>
       <c r="D321" t="s">
-        <v>1664</v>
+        <v>1639</v>
       </c>
       <c r="E321" t="s">
         <v>1060</v>
@@ -17172,19 +17172,19 @@
     </row>
     <row r="322" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
-        <v>1665</v>
+        <v>1640</v>
       </c>
       <c r="B322" t="s">
-        <v>1666</v>
+        <v>1641</v>
       </c>
       <c r="C322" t="s">
-        <v>1667</v>
+        <v>1642</v>
       </c>
       <c r="D322" t="s">
-        <v>1668</v>
+        <v>1643</v>
       </c>
       <c r="E322" t="s">
-        <v>1669</v>
+        <v>1644</v>
       </c>
       <c r="F322" t="s">
         <v>597</v>
@@ -17204,19 +17204,19 @@
     </row>
     <row r="323" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
-        <v>1670</v>
+        <v>1645</v>
       </c>
       <c r="B323" t="s">
-        <v>1671</v>
+        <v>1646</v>
       </c>
       <c r="C323" t="s">
-        <v>1672</v>
+        <v>1647</v>
       </c>
       <c r="D323" t="s">
-        <v>1673</v>
+        <v>1648</v>
       </c>
       <c r="E323" t="s">
-        <v>1674</v>
+        <v>1649</v>
       </c>
       <c r="F323" t="s">
         <v>597</v>
@@ -17236,19 +17236,19 @@
     </row>
     <row r="324" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
-        <v>1675</v>
+        <v>1650</v>
       </c>
       <c r="B324" t="s">
-        <v>1676</v>
+        <v>1651</v>
       </c>
       <c r="C324" t="s">
-        <v>1677</v>
+        <v>1652</v>
       </c>
       <c r="D324" t="s">
-        <v>1678</v>
+        <v>1653</v>
       </c>
       <c r="E324" t="s">
-        <v>1679</v>
+        <v>1654</v>
       </c>
       <c r="F324" t="s">
         <v>597</v>
@@ -17268,19 +17268,19 @@
     </row>
     <row r="325" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
-        <v>1680</v>
+        <v>1655</v>
       </c>
       <c r="B325" t="s">
-        <v>1681</v>
+        <v>1656</v>
       </c>
       <c r="C325" t="s">
-        <v>1682</v>
+        <v>1657</v>
       </c>
       <c r="D325" t="s">
-        <v>1683</v>
+        <v>1658</v>
       </c>
       <c r="E325" t="s">
-        <v>1684</v>
+        <v>1659</v>
       </c>
       <c r="F325" t="s">
         <v>597</v>
@@ -17300,19 +17300,19 @@
     </row>
     <row r="326" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
-        <v>1685</v>
+        <v>1660</v>
       </c>
       <c r="B326" t="s">
-        <v>1122</v>
+        <v>1119</v>
       </c>
       <c r="C326" t="s">
-        <v>1686</v>
+        <v>1661</v>
       </c>
       <c r="D326" t="s">
-        <v>1687</v>
+        <v>1662</v>
       </c>
       <c r="E326" t="s">
-        <v>1688</v>
+        <v>1663</v>
       </c>
       <c r="F326" t="s">
         <v>597</v>
@@ -17332,19 +17332,19 @@
     </row>
     <row r="327" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
-        <v>1689</v>
+        <v>1664</v>
       </c>
       <c r="B327" t="s">
         <v>308</v>
       </c>
       <c r="C327" t="s">
-        <v>1690</v>
+        <v>1665</v>
       </c>
       <c r="D327" t="s">
-        <v>1691</v>
+        <v>1666</v>
       </c>
       <c r="E327" t="s">
-        <v>1692</v>
+        <v>1667</v>
       </c>
       <c r="F327" t="s">
         <v>597</v>
@@ -17364,19 +17364,19 @@
     </row>
     <row r="328" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
-        <v>1693</v>
+        <v>1668</v>
       </c>
       <c r="B328" t="s">
-        <v>1694</v>
+        <v>1669</v>
       </c>
       <c r="C328" t="s">
-        <v>1695</v>
+        <v>1670</v>
       </c>
       <c r="D328" t="s">
-        <v>1696</v>
+        <v>1671</v>
       </c>
       <c r="E328" t="s">
-        <v>1697</v>
+        <v>1672</v>
       </c>
       <c r="F328" t="s">
         <v>597</v>
@@ -17396,19 +17396,19 @@
     </row>
     <row r="329" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
-        <v>1698</v>
+        <v>1673</v>
       </c>
       <c r="B329" t="s">
-        <v>1280</v>
+        <v>1255</v>
       </c>
       <c r="C329" t="s">
         <v>367</v>
       </c>
       <c r="D329" t="s">
-        <v>1699</v>
+        <v>1674</v>
       </c>
       <c r="E329" t="s">
-        <v>1700</v>
+        <v>1675</v>
       </c>
       <c r="F329" t="s">
         <v>597</v>
@@ -17428,19 +17428,19 @@
     </row>
     <row r="330" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
-        <v>1701</v>
+        <v>1676</v>
       </c>
       <c r="B330" t="s">
-        <v>1702</v>
+        <v>1677</v>
       </c>
       <c r="C330" t="s">
-        <v>1703</v>
+        <v>1678</v>
       </c>
       <c r="D330" t="s">
         <v>925</v>
       </c>
       <c r="E330" t="s">
-        <v>1704</v>
+        <v>1679</v>
       </c>
       <c r="F330" t="s">
         <v>597</v>
@@ -17460,19 +17460,19 @@
     </row>
     <row r="331" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
-        <v>1705</v>
+        <v>1680</v>
       </c>
       <c r="B331" t="s">
-        <v>1706</v>
+        <v>1681</v>
       </c>
       <c r="C331" t="s">
         <v>227</v>
       </c>
       <c r="D331" t="s">
-        <v>1707</v>
+        <v>1682</v>
       </c>
       <c r="E331" t="s">
-        <v>1708</v>
+        <v>1683</v>
       </c>
       <c r="F331" t="s">
         <v>597</v>
@@ -17492,16 +17492,16 @@
     </row>
     <row r="332" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
-        <v>1462</v>
+        <v>1437</v>
       </c>
       <c r="B332" t="s">
-        <v>1709</v>
+        <v>1684</v>
       </c>
       <c r="C332" t="s">
-        <v>1710</v>
+        <v>1685</v>
       </c>
       <c r="E332" t="s">
-        <v>1711</v>
+        <v>1686</v>
       </c>
       <c r="F332" t="s">
         <v>597</v>
@@ -17521,19 +17521,19 @@
     </row>
     <row r="333" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
-        <v>1712</v>
+        <v>1687</v>
       </c>
       <c r="B333" t="s">
-        <v>1713</v>
+        <v>1688</v>
       </c>
       <c r="C333" t="s">
-        <v>1714</v>
+        <v>1689</v>
       </c>
       <c r="D333" t="s">
-        <v>1715</v>
+        <v>1690</v>
       </c>
       <c r="E333" t="s">
-        <v>1716</v>
+        <v>1691</v>
       </c>
       <c r="F333" t="s">
         <v>597</v>
@@ -17553,19 +17553,19 @@
     </row>
     <row r="334" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
-        <v>1717</v>
+        <v>1692</v>
       </c>
       <c r="B334" t="s">
-        <v>1718</v>
+        <v>1693</v>
       </c>
       <c r="C334" t="s">
         <v>228</v>
       </c>
       <c r="D334" t="s">
-        <v>1719</v>
+        <v>1694</v>
       </c>
       <c r="E334" t="s">
-        <v>1720</v>
+        <v>1695</v>
       </c>
       <c r="F334" t="s">
         <v>597</v>
@@ -17585,19 +17585,19 @@
     </row>
     <row r="335" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
-        <v>1721</v>
+        <v>1696</v>
       </c>
       <c r="B335" t="s">
-        <v>1722</v>
+        <v>1697</v>
       </c>
       <c r="C335" t="s">
-        <v>1723</v>
+        <v>1698</v>
       </c>
       <c r="D335" t="s">
-        <v>1724</v>
+        <v>1699</v>
       </c>
       <c r="E335" t="s">
-        <v>1725</v>
+        <v>1700</v>
       </c>
       <c r="F335" t="s">
         <v>597</v>
@@ -17617,19 +17617,19 @@
     </row>
     <row r="336" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
-        <v>1726</v>
+        <v>1701</v>
       </c>
       <c r="B336" t="s">
-        <v>1727</v>
+        <v>1702</v>
       </c>
       <c r="C336" t="s">
-        <v>1728</v>
+        <v>1703</v>
       </c>
       <c r="D336" t="s">
-        <v>1729</v>
+        <v>1704</v>
       </c>
       <c r="E336" t="s">
-        <v>1730</v>
+        <v>1705</v>
       </c>
       <c r="F336" t="s">
         <v>597</v>
@@ -17649,19 +17649,19 @@
     </row>
     <row r="337" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
-        <v>1731</v>
+        <v>1706</v>
       </c>
       <c r="B337" t="s">
-        <v>1732</v>
+        <v>1707</v>
       </c>
       <c r="C337" t="s">
         <v>689</v>
       </c>
       <c r="D337" t="s">
-        <v>1733</v>
+        <v>1708</v>
       </c>
       <c r="E337" t="s">
-        <v>1734</v>
+        <v>1709</v>
       </c>
       <c r="F337" t="s">
         <v>597</v>
@@ -17681,19 +17681,19 @@
     </row>
     <row r="338" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
-        <v>1735</v>
+        <v>1710</v>
       </c>
       <c r="B338" t="s">
-        <v>1736</v>
+        <v>1711</v>
       </c>
       <c r="C338" t="s">
-        <v>1737</v>
+        <v>1712</v>
       </c>
       <c r="D338" t="s">
-        <v>1738</v>
+        <v>1713</v>
       </c>
       <c r="E338" t="s">
-        <v>1739</v>
+        <v>1714</v>
       </c>
       <c r="F338" t="s">
         <v>597</v>
@@ -17713,29 +17713,29 @@
     </row>
     <row r="339" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
-        <v>1740</v>
+        <v>1715</v>
       </c>
       <c r="B339" t="s">
-        <v>1741</v>
+        <v>1716</v>
       </c>
       <c r="C339" t="s">
-        <v>1742</v>
+        <v>1717</v>
       </c>
       <c r="D339" t="s">
-        <v>1743</v>
+        <v>1718</v>
       </c>
       <c r="E339" t="s">
-        <v>1744</v>
+        <v>1719</v>
       </c>
       <c r="F339" t="s">
         <v>597</v>
       </c>
       <c r="H339">
-        <f t="shared" ref="H339:H397" si="27">INT(J339/3)</f>
+        <f t="shared" ref="H339:H394" si="27">INT(J339/3)</f>
         <v>112</v>
       </c>
       <c r="I339" s="3">
-        <f t="shared" ref="I339:I397" si="28">$L$1+H339</f>
+        <f t="shared" ref="I339:I394" si="28">$L$1+H339</f>
         <v>45737</v>
       </c>
       <c r="J339">
@@ -17745,19 +17745,19 @@
     </row>
     <row r="340" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
-        <v>1745</v>
+        <v>1720</v>
       </c>
       <c r="B340" t="s">
-        <v>1746</v>
+        <v>1721</v>
       </c>
       <c r="C340" t="s">
-        <v>1747</v>
+        <v>1722</v>
       </c>
       <c r="D340" t="s">
-        <v>1748</v>
+        <v>1723</v>
       </c>
       <c r="E340" t="s">
-        <v>1749</v>
+        <v>1724</v>
       </c>
       <c r="F340" t="s">
         <v>597</v>
@@ -17777,16 +17777,16 @@
     </row>
     <row r="341" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
-        <v>1750</v>
+        <v>1725</v>
       </c>
       <c r="B341" t="s">
-        <v>1751</v>
+        <v>1726</v>
       </c>
       <c r="C341" t="s">
-        <v>1752</v>
+        <v>1727</v>
       </c>
       <c r="D341" t="s">
-        <v>1753</v>
+        <v>1728</v>
       </c>
       <c r="E341" t="s">
         <v>777</v>
@@ -17809,19 +17809,19 @@
     </row>
     <row r="342" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
-        <v>1754</v>
+        <v>1729</v>
       </c>
       <c r="B342" t="s">
-        <v>1755</v>
+        <v>1730</v>
       </c>
       <c r="C342" t="s">
-        <v>1756</v>
+        <v>1731</v>
       </c>
       <c r="D342" t="s">
-        <v>1757</v>
+        <v>1732</v>
       </c>
       <c r="E342" t="s">
-        <v>1758</v>
+        <v>1733</v>
       </c>
       <c r="F342" t="s">
         <v>597</v>
@@ -17841,19 +17841,19 @@
     </row>
     <row r="343" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
-        <v>1759</v>
+        <v>1734</v>
       </c>
       <c r="B343" t="s">
-        <v>1760</v>
+        <v>1735</v>
       </c>
       <c r="C343" t="s">
-        <v>1761</v>
+        <v>1736</v>
       </c>
       <c r="D343" t="s">
-        <v>1417</v>
+        <v>1392</v>
       </c>
       <c r="E343" t="s">
-        <v>1762</v>
+        <v>1737</v>
       </c>
       <c r="F343" t="s">
         <v>597</v>
@@ -17873,19 +17873,19 @@
     </row>
     <row r="344" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
-        <v>1763</v>
+        <v>1738</v>
       </c>
       <c r="B344" t="s">
-        <v>1764</v>
+        <v>1739</v>
       </c>
       <c r="C344" t="s">
-        <v>1765</v>
+        <v>1740</v>
       </c>
       <c r="D344" t="s">
-        <v>1766</v>
+        <v>1741</v>
       </c>
       <c r="E344" t="s">
-        <v>1767</v>
+        <v>1742</v>
       </c>
       <c r="F344" t="s">
         <v>597</v>
@@ -17905,19 +17905,19 @@
     </row>
     <row r="345" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
-        <v>1768</v>
+        <v>1743</v>
       </c>
       <c r="B345" t="s">
-        <v>1769</v>
+        <v>1744</v>
       </c>
       <c r="C345" t="s">
-        <v>1770</v>
+        <v>1745</v>
       </c>
       <c r="D345" t="s">
-        <v>1771</v>
+        <v>1746</v>
       </c>
       <c r="E345" t="s">
-        <v>1772</v>
+        <v>1747</v>
       </c>
       <c r="F345" t="s">
         <v>597</v>
@@ -17937,19 +17937,19 @@
     </row>
     <row r="346" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
-        <v>1773</v>
+        <v>1748</v>
       </c>
       <c r="B346" t="s">
-        <v>1774</v>
+        <v>1749</v>
       </c>
       <c r="C346" t="s">
-        <v>1775</v>
+        <v>1750</v>
       </c>
       <c r="D346" t="s">
-        <v>1776</v>
+        <v>1751</v>
       </c>
       <c r="E346" t="s">
-        <v>1777</v>
+        <v>1752</v>
       </c>
       <c r="F346" t="s">
         <v>597</v>
@@ -17969,19 +17969,19 @@
     </row>
     <row r="347" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
-        <v>1498</v>
+        <v>1473</v>
       </c>
       <c r="B347" t="s">
-        <v>1415</v>
+        <v>1390</v>
       </c>
       <c r="C347" t="s">
-        <v>1778</v>
+        <v>1753</v>
       </c>
       <c r="D347" t="s">
-        <v>1779</v>
+        <v>1754</v>
       </c>
       <c r="E347" t="s">
-        <v>1780</v>
+        <v>1755</v>
       </c>
       <c r="F347" t="s">
         <v>597</v>
@@ -18004,16 +18004,16 @@
         <v>228</v>
       </c>
       <c r="B348" t="s">
-        <v>1781</v>
+        <v>1756</v>
       </c>
       <c r="C348" t="s">
         <v>20</v>
       </c>
       <c r="D348" t="s">
-        <v>1782</v>
+        <v>1757</v>
       </c>
       <c r="E348" t="s">
-        <v>1783</v>
+        <v>1758</v>
       </c>
       <c r="F348" t="s">
         <v>597</v>
@@ -18033,19 +18033,19 @@
     </row>
     <row r="349" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
-        <v>1784</v>
+        <v>1759</v>
       </c>
       <c r="B349" t="s">
-        <v>1785</v>
+        <v>1760</v>
       </c>
       <c r="C349" t="s">
         <v>674</v>
       </c>
       <c r="D349" t="s">
-        <v>1786</v>
+        <v>1761</v>
       </c>
       <c r="E349" t="s">
-        <v>1787</v>
+        <v>1762</v>
       </c>
       <c r="F349" t="s">
         <v>597</v>
@@ -18065,19 +18065,19 @@
     </row>
     <row r="350" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
-        <v>1788</v>
+        <v>1763</v>
       </c>
       <c r="B350" t="s">
-        <v>1789</v>
+        <v>1764</v>
       </c>
       <c r="C350" t="s">
         <v>188</v>
       </c>
       <c r="D350" t="s">
-        <v>1790</v>
+        <v>1765</v>
       </c>
       <c r="E350" t="s">
-        <v>1791</v>
+        <v>1766</v>
       </c>
       <c r="F350" t="s">
         <v>597</v>
@@ -18097,19 +18097,19 @@
     </row>
     <row r="351" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
-        <v>1420</v>
+        <v>1395</v>
       </c>
       <c r="B351" t="s">
         <v>497</v>
       </c>
       <c r="C351" t="s">
-        <v>1792</v>
+        <v>1767</v>
       </c>
       <c r="D351" t="s">
-        <v>1793</v>
+        <v>1768</v>
       </c>
       <c r="E351" t="s">
-        <v>1794</v>
+        <v>1769</v>
       </c>
       <c r="F351" t="s">
         <v>597</v>
@@ -18129,19 +18129,19 @@
     </row>
     <row r="352" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
-        <v>1795</v>
+        <v>1770</v>
       </c>
       <c r="B352" t="s">
-        <v>1796</v>
+        <v>1771</v>
       </c>
       <c r="C352" t="s">
-        <v>1797</v>
+        <v>1772</v>
       </c>
       <c r="D352" t="s">
-        <v>1798</v>
+        <v>1773</v>
       </c>
       <c r="E352" t="s">
-        <v>1799</v>
+        <v>1774</v>
       </c>
       <c r="F352" t="s">
         <v>597</v>
@@ -18161,19 +18161,19 @@
     </row>
     <row r="353" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
-        <v>1800</v>
+        <v>1775</v>
       </c>
       <c r="B353" t="s">
-        <v>1801</v>
+        <v>1776</v>
       </c>
       <c r="C353" t="s">
-        <v>1802</v>
+        <v>1777</v>
       </c>
       <c r="D353" t="s">
-        <v>1803</v>
+        <v>1778</v>
       </c>
       <c r="E353" t="s">
-        <v>1804</v>
+        <v>1779</v>
       </c>
       <c r="F353" t="s">
         <v>597</v>
@@ -18193,19 +18193,19 @@
     </row>
     <row r="354" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
-        <v>1805</v>
+        <v>1780</v>
       </c>
       <c r="B354" t="s">
-        <v>1806</v>
+        <v>1781</v>
       </c>
       <c r="C354" t="s">
-        <v>1807</v>
+        <v>1782</v>
       </c>
       <c r="D354" t="s">
-        <v>1808</v>
+        <v>1783</v>
       </c>
       <c r="E354" t="s">
-        <v>1809</v>
+        <v>1784</v>
       </c>
       <c r="F354" t="s">
         <v>597</v>
@@ -18225,19 +18225,19 @@
     </row>
     <row r="355" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
-        <v>1810</v>
+        <v>1785</v>
       </c>
       <c r="B355" t="s">
-        <v>1811</v>
+        <v>1786</v>
       </c>
       <c r="C355" t="s">
-        <v>1812</v>
+        <v>1787</v>
       </c>
       <c r="D355" t="s">
-        <v>1813</v>
+        <v>1788</v>
       </c>
       <c r="E355" t="s">
-        <v>1814</v>
+        <v>1789</v>
       </c>
       <c r="F355" t="s">
         <v>597</v>
@@ -18257,19 +18257,19 @@
     </row>
     <row r="356" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
-        <v>1815</v>
+        <v>1790</v>
       </c>
       <c r="B356" t="s">
-        <v>1816</v>
+        <v>1791</v>
       </c>
       <c r="C356" t="s">
-        <v>1817</v>
+        <v>1792</v>
       </c>
       <c r="D356" t="s">
-        <v>1818</v>
+        <v>1793</v>
       </c>
       <c r="E356" t="s">
-        <v>1819</v>
+        <v>1794</v>
       </c>
       <c r="F356" t="s">
         <v>597</v>
@@ -18289,19 +18289,19 @@
     </row>
     <row r="357" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
-        <v>1820</v>
+        <v>1795</v>
       </c>
       <c r="B357" t="s">
-        <v>1821</v>
+        <v>1796</v>
       </c>
       <c r="C357" t="s">
-        <v>1822</v>
+        <v>1797</v>
       </c>
       <c r="D357" t="s">
-        <v>1823</v>
+        <v>1798</v>
       </c>
       <c r="E357" t="s">
-        <v>1824</v>
+        <v>1799</v>
       </c>
       <c r="F357" t="s">
         <v>597</v>
@@ -18321,19 +18321,19 @@
     </row>
     <row r="358" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
-        <v>1825</v>
+        <v>1800</v>
       </c>
       <c r="B358" t="s">
-        <v>1826</v>
+        <v>1801</v>
       </c>
       <c r="C358" t="s">
-        <v>1827</v>
+        <v>1802</v>
       </c>
       <c r="D358" t="s">
-        <v>1828</v>
+        <v>1803</v>
       </c>
       <c r="E358" t="s">
-        <v>1829</v>
+        <v>1804</v>
       </c>
       <c r="F358" t="s">
         <v>597</v>
@@ -18353,19 +18353,19 @@
     </row>
     <row r="359" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
-        <v>1707</v>
+        <v>1682</v>
       </c>
       <c r="B359" t="s">
-        <v>1830</v>
+        <v>1805</v>
       </c>
       <c r="C359" t="s">
-        <v>1831</v>
+        <v>1806</v>
       </c>
       <c r="D359" t="s">
-        <v>1832</v>
+        <v>1807</v>
       </c>
       <c r="E359" t="s">
-        <v>1833</v>
+        <v>1808</v>
       </c>
       <c r="F359" t="s">
         <v>597</v>
@@ -18385,19 +18385,19 @@
     </row>
     <row r="360" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
-        <v>1834</v>
+        <v>1809</v>
       </c>
       <c r="B360" t="s">
-        <v>1835</v>
+        <v>1810</v>
       </c>
       <c r="C360" t="s">
-        <v>1836</v>
+        <v>1811</v>
       </c>
       <c r="D360" t="s">
-        <v>1837</v>
+        <v>1812</v>
       </c>
       <c r="E360" t="s">
-        <v>1838</v>
+        <v>1813</v>
       </c>
       <c r="F360" t="s">
         <v>597</v>
@@ -18417,19 +18417,19 @@
     </row>
     <row r="361" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
-        <v>1839</v>
+        <v>1814</v>
       </c>
       <c r="B361" t="s">
-        <v>1840</v>
+        <v>1815</v>
       </c>
       <c r="C361" t="s">
-        <v>1841</v>
+        <v>1816</v>
       </c>
       <c r="D361" t="s">
-        <v>1128</v>
+        <v>1124</v>
       </c>
       <c r="E361" t="s">
-        <v>1842</v>
+        <v>1817</v>
       </c>
       <c r="F361" t="s">
         <v>597</v>
@@ -19601,19 +19601,19 @@
     </row>
     <row r="398" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A398" t="s">
-        <v>1858</v>
+        <v>1833</v>
       </c>
       <c r="B398" t="s">
-        <v>1859</v>
+        <v>1834</v>
       </c>
       <c r="C398" t="s">
-        <v>1860</v>
+        <v>1835</v>
       </c>
       <c r="D398" t="s">
-        <v>1861</v>
+        <v>1836</v>
       </c>
       <c r="E398" t="s">
-        <v>1676</v>
+        <v>1651</v>
       </c>
       <c r="F398" t="s">
         <v>597</v>
@@ -19633,19 +19633,19 @@
     </row>
     <row r="399" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A399" t="s">
-        <v>1862</v>
+        <v>1837</v>
       </c>
       <c r="B399" t="s">
-        <v>1863</v>
+        <v>1838</v>
       </c>
       <c r="C399" t="s">
-        <v>1864</v>
+        <v>1839</v>
       </c>
       <c r="D399" t="s">
-        <v>1865</v>
+        <v>1840</v>
       </c>
       <c r="E399" t="s">
-        <v>1866</v>
+        <v>1841</v>
       </c>
       <c r="F399" t="s">
         <v>597</v>
@@ -19668,16 +19668,16 @@
         <v>577</v>
       </c>
       <c r="B400" t="s">
-        <v>1867</v>
+        <v>1842</v>
       </c>
       <c r="C400" t="s">
-        <v>1878</v>
+        <v>1853</v>
       </c>
       <c r="D400" t="s">
-        <v>1868</v>
+        <v>1843</v>
       </c>
       <c r="E400" t="s">
-        <v>1869</v>
+        <v>1844</v>
       </c>
       <c r="F400" t="s">
         <v>597</v>
@@ -19697,16 +19697,16 @@
     </row>
     <row r="401" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A401" t="s">
-        <v>1870</v>
+        <v>1845</v>
       </c>
       <c r="B401" t="s">
-        <v>1871</v>
+        <v>1846</v>
       </c>
       <c r="C401" t="s">
-        <v>1872</v>
+        <v>1847</v>
       </c>
       <c r="D401" t="s">
-        <v>1873</v>
+        <v>1848</v>
       </c>
       <c r="E401" t="s">
         <v>210</v>
@@ -19729,19 +19729,19 @@
     </row>
     <row r="402" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A402" t="s">
-        <v>1392</v>
+        <v>1367</v>
       </c>
       <c r="B402" t="s">
-        <v>1874</v>
+        <v>1849</v>
       </c>
       <c r="C402" t="s">
-        <v>1875</v>
+        <v>1850</v>
       </c>
       <c r="D402" t="s">
-        <v>1876</v>
+        <v>1851</v>
       </c>
       <c r="E402" t="s">
-        <v>1877</v>
+        <v>1852</v>
       </c>
       <c r="F402" t="s">
         <v>597</v>

--- a/code/shabdakala/resource/sbwords.xlsx
+++ b/code/shabdakala/resource/sbwords.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hrishinene/shabdak_github/sbbd/shabdakala/code/shabdakala/resource/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E86C5C8C-9D21-CF41-9DCC-8450D140F940}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB91DAB9-06C2-AE43-B962-03F42098B4F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="720" windowWidth="33840" windowHeight="20140" xr2:uid="{9F74AEE5-EB85-4044-AC84-8761A591B5C1}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{9F74AEE5-EB85-4044-AC84-8761A591B5C1}"/>
   </bookViews>
   <sheets>
     <sheet name="sbwords" sheetId="1" r:id="rId1"/>
@@ -3770,9 +3770,6 @@
     <t>लग्न कार्या नंतर करायच्या गोष्टी</t>
   </si>
   <si>
-    <t>गोर्कण</t>
-  </si>
-  <si>
     <t>उडुपी</t>
   </si>
   <si>
@@ -3785,9 +3782,6 @@
     <t>कोस्टल कर्नाटक</t>
   </si>
   <si>
-    <t>सालार जंग</t>
-  </si>
-  <si>
     <t>पाक</t>
   </si>
   <si>
@@ -3803,9 +3797,6 @@
     <t>दुध</t>
   </si>
   <si>
-    <t>गौरी</t>
-  </si>
-  <si>
     <t>गवत</t>
   </si>
   <si>
@@ -5670,6 +5661,15 @@
   </si>
   <si>
     <t>निरोप</t>
+  </si>
+  <si>
+    <t>गोकर्ण</t>
+  </si>
+  <si>
+    <t>चामुंडी</t>
+  </si>
+  <si>
+    <t>दूध</t>
   </si>
 </sst>
 </file>
@@ -6596,8 +6596,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEA1707B-2FB7-B84C-9F84-E9F074F3056C}">
   <dimension ref="A1:L402"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A202" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B235" sqref="B235"/>
+    <sheetView tabSelected="1" topLeftCell="A213" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B238" sqref="B238"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6685,7 +6685,7 @@
       </c>
       <c r="L2" s="6">
         <f ca="1">TODAY()</f>
-        <v>45689</v>
+        <v>45703</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -12724,7 +12724,7 @@
     </row>
     <row r="183" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>1818</v>
+        <v>1815</v>
       </c>
       <c r="B183" t="s">
         <v>833</v>
@@ -12788,7 +12788,7 @@
     </row>
     <row r="185" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>1820</v>
+        <v>1817</v>
       </c>
       <c r="B185" t="s">
         <v>1047</v>
@@ -12800,7 +12800,7 @@
         <v>1049</v>
       </c>
       <c r="E185" t="s">
-        <v>1821</v>
+        <v>1818</v>
       </c>
       <c r="F185" t="s">
         <v>597</v>
@@ -12832,7 +12832,7 @@
         <v>1053</v>
       </c>
       <c r="E186" t="s">
-        <v>1819</v>
+        <v>1816</v>
       </c>
       <c r="F186" t="s">
         <v>597</v>
@@ -12896,7 +12896,7 @@
         <v>1061</v>
       </c>
       <c r="E188" t="s">
-        <v>1822</v>
+        <v>1819</v>
       </c>
       <c r="F188" t="s">
         <v>597</v>
@@ -12928,7 +12928,7 @@
         <v>1065</v>
       </c>
       <c r="E189" t="s">
-        <v>1823</v>
+        <v>1820</v>
       </c>
       <c r="F189" t="s">
         <v>597</v>
@@ -12960,7 +12960,7 @@
         <v>1069</v>
       </c>
       <c r="E190" t="s">
-        <v>1824</v>
+        <v>1821</v>
       </c>
       <c r="F190" t="s">
         <v>597</v>
@@ -13213,7 +13213,7 @@
         <v>1105</v>
       </c>
       <c r="D198" t="s">
-        <v>1854</v>
+        <v>1851</v>
       </c>
       <c r="E198" t="s">
         <v>1106</v>
@@ -13242,13 +13242,13 @@
         <v>1108</v>
       </c>
       <c r="C199" t="s">
-        <v>1855</v>
+        <v>1852</v>
       </c>
       <c r="D199" t="s">
         <v>1109</v>
       </c>
       <c r="E199" t="s">
-        <v>1856</v>
+        <v>1853</v>
       </c>
       <c r="F199" t="s">
         <v>597</v>
@@ -13344,7 +13344,7 @@
         <v>1121</v>
       </c>
       <c r="E202" t="s">
-        <v>1857</v>
+        <v>1854</v>
       </c>
       <c r="F202" t="s">
         <v>597</v>
@@ -13399,7 +13399,7 @@
         <v>1126</v>
       </c>
       <c r="B204" t="s">
-        <v>1864</v>
+        <v>1861</v>
       </c>
       <c r="C204" t="s">
         <v>778</v>
@@ -13466,10 +13466,10 @@
         <v>1135</v>
       </c>
       <c r="C206" t="s">
-        <v>1858</v>
+        <v>1855</v>
       </c>
       <c r="D206" t="s">
-        <v>1859</v>
+        <v>1856</v>
       </c>
       <c r="E206" t="s">
         <v>1136</v>
@@ -13498,10 +13498,10 @@
         <v>1138</v>
       </c>
       <c r="C207" t="s">
-        <v>1860</v>
+        <v>1857</v>
       </c>
       <c r="D207" t="s">
-        <v>1861</v>
+        <v>1858</v>
       </c>
       <c r="E207" t="s">
         <v>1139</v>
@@ -13524,19 +13524,19 @@
     </row>
     <row r="208" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>1865</v>
+        <v>1862</v>
       </c>
       <c r="B208" t="s">
-        <v>1866</v>
+        <v>1863</v>
       </c>
       <c r="C208" t="s">
         <v>1140</v>
       </c>
       <c r="D208" t="s">
-        <v>1867</v>
+        <v>1864</v>
       </c>
       <c r="E208" t="s">
-        <v>1868</v>
+        <v>1865</v>
       </c>
       <c r="F208" t="s">
         <v>597</v>
@@ -13568,7 +13568,7 @@
         <v>1144</v>
       </c>
       <c r="E209" t="s">
-        <v>1825</v>
+        <v>1822</v>
       </c>
       <c r="F209" t="s">
         <v>597</v>
@@ -13623,13 +13623,13 @@
         <v>1150</v>
       </c>
       <c r="B211" t="s">
-        <v>1827</v>
+        <v>1824</v>
       </c>
       <c r="C211" t="s">
         <v>1151</v>
       </c>
       <c r="D211" t="s">
-        <v>1826</v>
+        <v>1823</v>
       </c>
       <c r="E211" t="s">
         <v>1152</v>
@@ -13760,7 +13760,7 @@
         <v>1170</v>
       </c>
       <c r="E215" t="s">
-        <v>1862</v>
+        <v>1859</v>
       </c>
       <c r="F215" t="s">
         <v>597</v>
@@ -13792,7 +13792,7 @@
         <v>1174</v>
       </c>
       <c r="E216" t="s">
-        <v>1863</v>
+        <v>1860</v>
       </c>
       <c r="F216" t="s">
         <v>597</v>
@@ -13844,7 +13844,7 @@
     </row>
     <row r="218" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
-        <v>1869</v>
+        <v>1866</v>
       </c>
       <c r="B218" t="s">
         <v>1179</v>
@@ -13885,7 +13885,7 @@
         <v>32</v>
       </c>
       <c r="D219" t="s">
-        <v>1870</v>
+        <v>1867</v>
       </c>
       <c r="E219" t="s">
         <v>1185</v>
@@ -13908,7 +13908,7 @@
     </row>
     <row r="220" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
-        <v>1871</v>
+        <v>1868</v>
       </c>
       <c r="B220" t="s">
         <v>1186</v>
@@ -13952,7 +13952,7 @@
         <v>1193</v>
       </c>
       <c r="E221" t="s">
-        <v>1828</v>
+        <v>1825</v>
       </c>
       <c r="F221" t="s">
         <v>597</v>
@@ -13978,10 +13978,10 @@
         <v>1195</v>
       </c>
       <c r="C222" t="s">
-        <v>1831</v>
+        <v>1828</v>
       </c>
       <c r="D222" t="s">
-        <v>1832</v>
+        <v>1829</v>
       </c>
       <c r="E222" t="s">
         <v>1196</v>
@@ -14004,7 +14004,7 @@
     </row>
     <row r="223" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
-        <v>1830</v>
+        <v>1827</v>
       </c>
       <c r="B223" t="s">
         <v>1197</v>
@@ -14016,7 +14016,7 @@
         <v>1198</v>
       </c>
       <c r="E223" t="s">
-        <v>1829</v>
+        <v>1826</v>
       </c>
       <c r="F223" t="s">
         <v>597</v>
@@ -14170,7 +14170,7 @@
         <v>1216</v>
       </c>
       <c r="C228" t="s">
-        <v>1872</v>
+        <v>1869</v>
       </c>
       <c r="D228" t="s">
         <v>1217</v>
@@ -14292,13 +14292,13 @@
     </row>
     <row r="232" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
-        <v>1874</v>
+        <v>1871</v>
       </c>
       <c r="B232" t="s">
         <v>1234</v>
       </c>
       <c r="C232" t="s">
-        <v>1873</v>
+        <v>1870</v>
       </c>
       <c r="D232" t="s">
         <v>438</v>
@@ -14330,7 +14330,7 @@
         <v>1237</v>
       </c>
       <c r="C233" t="s">
-        <v>1875</v>
+        <v>1872</v>
       </c>
       <c r="D233" t="s">
         <v>1238</v>
@@ -14391,13 +14391,13 @@
         <v>1243</v>
       </c>
       <c r="B235" t="s">
-        <v>1878</v>
+        <v>1875</v>
       </c>
       <c r="C235" t="s">
-        <v>1876</v>
+        <v>1873</v>
       </c>
       <c r="D235" t="s">
-        <v>1877</v>
+        <v>1874</v>
       </c>
       <c r="E235" t="s">
         <v>1244</v>
@@ -14420,19 +14420,19 @@
     </row>
     <row r="236" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
+        <v>1876</v>
+      </c>
+      <c r="B236" t="s">
         <v>1245</v>
       </c>
-      <c r="B236" t="s">
+      <c r="C236" t="s">
         <v>1246</v>
       </c>
-      <c r="C236" t="s">
+      <c r="D236" t="s">
         <v>1247</v>
       </c>
-      <c r="D236" t="s">
+      <c r="E236" t="s">
         <v>1248</v>
-      </c>
-      <c r="E236" t="s">
-        <v>1249</v>
       </c>
       <c r="F236" t="s">
         <v>597</v>
@@ -14452,19 +14452,19 @@
     </row>
     <row r="237" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
+        <v>1877</v>
+      </c>
+      <c r="B237" t="s">
+        <v>1249</v>
+      </c>
+      <c r="C237" t="s">
         <v>1250</v>
       </c>
-      <c r="B237" t="s">
+      <c r="D237" t="s">
         <v>1251</v>
       </c>
-      <c r="C237" t="s">
+      <c r="E237" t="s">
         <v>1252</v>
-      </c>
-      <c r="D237" t="s">
-        <v>1253</v>
-      </c>
-      <c r="E237" t="s">
-        <v>1254</v>
       </c>
       <c r="F237" t="s">
         <v>597</v>
@@ -14484,19 +14484,19 @@
     </row>
     <row r="238" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
+        <v>1878</v>
+      </c>
+      <c r="B238" t="s">
+        <v>316</v>
+      </c>
+      <c r="C238" t="s">
+        <v>1254</v>
+      </c>
+      <c r="D238" t="s">
         <v>1255</v>
       </c>
-      <c r="B238" t="s">
+      <c r="E238" t="s">
         <v>1256</v>
-      </c>
-      <c r="C238" t="s">
-        <v>1257</v>
-      </c>
-      <c r="D238" t="s">
-        <v>1258</v>
-      </c>
-      <c r="E238" t="s">
-        <v>1259</v>
       </c>
       <c r="F238" t="s">
         <v>597</v>
@@ -14516,19 +14516,19 @@
     </row>
     <row r="239" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
+        <v>1257</v>
+      </c>
+      <c r="B239" t="s">
+        <v>1258</v>
+      </c>
+      <c r="C239" t="s">
+        <v>1259</v>
+      </c>
+      <c r="D239" t="s">
         <v>1260</v>
       </c>
-      <c r="B239" t="s">
+      <c r="E239" t="s">
         <v>1261</v>
-      </c>
-      <c r="C239" t="s">
-        <v>1262</v>
-      </c>
-      <c r="D239" t="s">
-        <v>1263</v>
-      </c>
-      <c r="E239" t="s">
-        <v>1264</v>
       </c>
       <c r="F239" t="s">
         <v>597</v>
@@ -14548,19 +14548,19 @@
     </row>
     <row r="240" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
+        <v>1262</v>
+      </c>
+      <c r="B240" t="s">
+        <v>1263</v>
+      </c>
+      <c r="C240" t="s">
+        <v>1264</v>
+      </c>
+      <c r="D240" t="s">
         <v>1265</v>
       </c>
-      <c r="B240" t="s">
+      <c r="E240" t="s">
         <v>1266</v>
-      </c>
-      <c r="C240" t="s">
-        <v>1267</v>
-      </c>
-      <c r="D240" t="s">
-        <v>1268</v>
-      </c>
-      <c r="E240" t="s">
-        <v>1269</v>
       </c>
       <c r="F240" t="s">
         <v>597</v>
@@ -14583,16 +14583,16 @@
         <v>779</v>
       </c>
       <c r="B241" t="s">
-        <v>1270</v>
+        <v>1267</v>
       </c>
       <c r="C241" t="s">
         <v>517</v>
       </c>
       <c r="D241" t="s">
-        <v>1271</v>
+        <v>1268</v>
       </c>
       <c r="E241" t="s">
-        <v>1272</v>
+        <v>1269</v>
       </c>
       <c r="F241" t="s">
         <v>597</v>
@@ -14612,19 +14612,19 @@
     </row>
     <row r="242" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
+        <v>1270</v>
+      </c>
+      <c r="B242" t="s">
+        <v>1271</v>
+      </c>
+      <c r="C242" t="s">
+        <v>1272</v>
+      </c>
+      <c r="D242" t="s">
         <v>1273</v>
       </c>
-      <c r="B242" t="s">
+      <c r="E242" t="s">
         <v>1274</v>
-      </c>
-      <c r="C242" t="s">
-        <v>1275</v>
-      </c>
-      <c r="D242" t="s">
-        <v>1276</v>
-      </c>
-      <c r="E242" t="s">
-        <v>1277</v>
       </c>
       <c r="F242" t="s">
         <v>597</v>
@@ -14644,19 +14644,19 @@
     </row>
     <row r="243" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
-        <v>1278</v>
+        <v>1275</v>
       </c>
       <c r="B243" t="s">
         <v>962</v>
       </c>
       <c r="C243" t="s">
-        <v>1279</v>
+        <v>1276</v>
       </c>
       <c r="D243" t="s">
         <v>1232</v>
       </c>
       <c r="E243" t="s">
-        <v>1280</v>
+        <v>1277</v>
       </c>
       <c r="F243" t="s">
         <v>597</v>
@@ -14679,16 +14679,16 @@
         <v>879</v>
       </c>
       <c r="B244" t="s">
-        <v>1281</v>
+        <v>1278</v>
       </c>
       <c r="C244" t="s">
         <v>848</v>
       </c>
       <c r="D244" t="s">
-        <v>1282</v>
+        <v>1279</v>
       </c>
       <c r="E244" t="s">
-        <v>1283</v>
+        <v>1280</v>
       </c>
       <c r="F244" t="s">
         <v>597</v>
@@ -14708,19 +14708,19 @@
     </row>
     <row r="245" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
+        <v>1281</v>
+      </c>
+      <c r="B245" t="s">
+        <v>1282</v>
+      </c>
+      <c r="C245" t="s">
+        <v>1283</v>
+      </c>
+      <c r="D245" t="s">
         <v>1284</v>
       </c>
-      <c r="B245" t="s">
+      <c r="E245" t="s">
         <v>1285</v>
-      </c>
-      <c r="C245" t="s">
-        <v>1286</v>
-      </c>
-      <c r="D245" t="s">
-        <v>1287</v>
-      </c>
-      <c r="E245" t="s">
-        <v>1288</v>
       </c>
       <c r="F245" t="s">
         <v>597</v>
@@ -14740,19 +14740,19 @@
     </row>
     <row r="246" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
+        <v>1286</v>
+      </c>
+      <c r="B246" t="s">
+        <v>1287</v>
+      </c>
+      <c r="C246" t="s">
+        <v>1288</v>
+      </c>
+      <c r="D246" t="s">
         <v>1289</v>
       </c>
-      <c r="B246" t="s">
+      <c r="E246" t="s">
         <v>1290</v>
-      </c>
-      <c r="C246" t="s">
-        <v>1291</v>
-      </c>
-      <c r="D246" t="s">
-        <v>1292</v>
-      </c>
-      <c r="E246" t="s">
-        <v>1293</v>
       </c>
       <c r="F246" t="s">
         <v>597</v>
@@ -14772,19 +14772,19 @@
     </row>
     <row r="247" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
+        <v>1291</v>
+      </c>
+      <c r="B247" t="s">
+        <v>1292</v>
+      </c>
+      <c r="C247" t="s">
+        <v>1293</v>
+      </c>
+      <c r="D247" t="s">
         <v>1294</v>
       </c>
-      <c r="B247" t="s">
+      <c r="E247" t="s">
         <v>1295</v>
-      </c>
-      <c r="C247" t="s">
-        <v>1296</v>
-      </c>
-      <c r="D247" t="s">
-        <v>1297</v>
-      </c>
-      <c r="E247" t="s">
-        <v>1298</v>
       </c>
       <c r="F247" t="s">
         <v>597</v>
@@ -14804,19 +14804,19 @@
     </row>
     <row r="248" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
+        <v>1296</v>
+      </c>
+      <c r="B248" t="s">
+        <v>1297</v>
+      </c>
+      <c r="C248" t="s">
+        <v>1298</v>
+      </c>
+      <c r="D248" t="s">
         <v>1299</v>
       </c>
-      <c r="B248" t="s">
+      <c r="E248" t="s">
         <v>1300</v>
-      </c>
-      <c r="C248" t="s">
-        <v>1301</v>
-      </c>
-      <c r="D248" t="s">
-        <v>1302</v>
-      </c>
-      <c r="E248" t="s">
-        <v>1303</v>
       </c>
       <c r="F248" t="s">
         <v>597</v>
@@ -14836,19 +14836,19 @@
     </row>
     <row r="249" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
-        <v>1304</v>
+        <v>1301</v>
       </c>
       <c r="B249" t="s">
-        <v>1305</v>
+        <v>1302</v>
       </c>
       <c r="C249" t="s">
-        <v>1306</v>
+        <v>1303</v>
       </c>
       <c r="D249" t="s">
         <v>642</v>
       </c>
       <c r="E249" t="s">
-        <v>1307</v>
+        <v>1304</v>
       </c>
       <c r="F249" t="s">
         <v>597</v>
@@ -14868,19 +14868,19 @@
     </row>
     <row r="250" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
+        <v>1305</v>
+      </c>
+      <c r="B250" t="s">
+        <v>1306</v>
+      </c>
+      <c r="C250" t="s">
+        <v>1307</v>
+      </c>
+      <c r="D250" t="s">
         <v>1308</v>
       </c>
-      <c r="B250" t="s">
+      <c r="E250" t="s">
         <v>1309</v>
-      </c>
-      <c r="C250" t="s">
-        <v>1310</v>
-      </c>
-      <c r="D250" t="s">
-        <v>1311</v>
-      </c>
-      <c r="E250" t="s">
-        <v>1312</v>
       </c>
       <c r="F250" t="s">
         <v>597</v>
@@ -14900,19 +14900,19 @@
     </row>
     <row r="251" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
+        <v>1310</v>
+      </c>
+      <c r="B251" t="s">
+        <v>1311</v>
+      </c>
+      <c r="C251" t="s">
+        <v>1312</v>
+      </c>
+      <c r="D251" t="s">
         <v>1313</v>
       </c>
-      <c r="B251" t="s">
+      <c r="E251" t="s">
         <v>1314</v>
-      </c>
-      <c r="C251" t="s">
-        <v>1315</v>
-      </c>
-      <c r="D251" t="s">
-        <v>1316</v>
-      </c>
-      <c r="E251" t="s">
-        <v>1317</v>
       </c>
       <c r="F251" t="s">
         <v>597</v>
@@ -14932,19 +14932,19 @@
     </row>
     <row r="252" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
+        <v>1315</v>
+      </c>
+      <c r="B252" t="s">
+        <v>1316</v>
+      </c>
+      <c r="C252" t="s">
+        <v>1317</v>
+      </c>
+      <c r="D252" t="s">
         <v>1318</v>
       </c>
-      <c r="B252" t="s">
+      <c r="E252" t="s">
         <v>1319</v>
-      </c>
-      <c r="C252" t="s">
-        <v>1320</v>
-      </c>
-      <c r="D252" t="s">
-        <v>1321</v>
-      </c>
-      <c r="E252" t="s">
-        <v>1322</v>
       </c>
       <c r="F252" t="s">
         <v>597</v>
@@ -14964,19 +14964,19 @@
     </row>
     <row r="253" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
+        <v>1320</v>
+      </c>
+      <c r="B253" t="s">
+        <v>1321</v>
+      </c>
+      <c r="C253" t="s">
+        <v>1322</v>
+      </c>
+      <c r="D253" t="s">
         <v>1323</v>
       </c>
-      <c r="B253" t="s">
+      <c r="E253" t="s">
         <v>1324</v>
-      </c>
-      <c r="C253" t="s">
-        <v>1325</v>
-      </c>
-      <c r="D253" t="s">
-        <v>1326</v>
-      </c>
-      <c r="E253" t="s">
-        <v>1327</v>
       </c>
       <c r="F253" t="s">
         <v>597</v>
@@ -14996,19 +14996,19 @@
     </row>
     <row r="254" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
+        <v>1325</v>
+      </c>
+      <c r="B254" t="s">
+        <v>1326</v>
+      </c>
+      <c r="C254" t="s">
+        <v>1327</v>
+      </c>
+      <c r="D254" t="s">
         <v>1328</v>
       </c>
-      <c r="B254" t="s">
+      <c r="E254" t="s">
         <v>1329</v>
-      </c>
-      <c r="C254" t="s">
-        <v>1330</v>
-      </c>
-      <c r="D254" t="s">
-        <v>1331</v>
-      </c>
-      <c r="E254" t="s">
-        <v>1332</v>
       </c>
       <c r="F254" t="s">
         <v>597</v>
@@ -15028,19 +15028,19 @@
     </row>
     <row r="255" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
+        <v>1330</v>
+      </c>
+      <c r="B255" t="s">
+        <v>1331</v>
+      </c>
+      <c r="C255" t="s">
+        <v>1332</v>
+      </c>
+      <c r="D255" t="s">
         <v>1333</v>
       </c>
-      <c r="B255" t="s">
+      <c r="E255" t="s">
         <v>1334</v>
-      </c>
-      <c r="C255" t="s">
-        <v>1335</v>
-      </c>
-      <c r="D255" t="s">
-        <v>1336</v>
-      </c>
-      <c r="E255" t="s">
-        <v>1337</v>
       </c>
       <c r="F255" t="s">
         <v>597</v>
@@ -15060,19 +15060,19 @@
     </row>
     <row r="256" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
+        <v>1335</v>
+      </c>
+      <c r="B256" t="s">
+        <v>1336</v>
+      </c>
+      <c r="C256" t="s">
+        <v>1337</v>
+      </c>
+      <c r="D256" t="s">
         <v>1338</v>
       </c>
-      <c r="B256" t="s">
+      <c r="E256" t="s">
         <v>1339</v>
-      </c>
-      <c r="C256" t="s">
-        <v>1340</v>
-      </c>
-      <c r="D256" t="s">
-        <v>1341</v>
-      </c>
-      <c r="E256" t="s">
-        <v>1342</v>
       </c>
       <c r="F256" t="s">
         <v>597</v>
@@ -15092,19 +15092,19 @@
     </row>
     <row r="257" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
-        <v>1343</v>
+        <v>1340</v>
       </c>
       <c r="B257" t="s">
         <v>533</v>
       </c>
       <c r="C257" t="s">
-        <v>1344</v>
+        <v>1341</v>
       </c>
       <c r="D257" t="s">
-        <v>1345</v>
+        <v>1342</v>
       </c>
       <c r="E257" t="s">
-        <v>1346</v>
+        <v>1343</v>
       </c>
       <c r="F257" t="s">
         <v>597</v>
@@ -15124,19 +15124,19 @@
     </row>
     <row r="258" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
-        <v>1347</v>
+        <v>1344</v>
       </c>
       <c r="B258" t="s">
-        <v>1348</v>
+        <v>1345</v>
       </c>
       <c r="C258" t="s">
-        <v>1349</v>
+        <v>1346</v>
       </c>
       <c r="D258" t="s">
         <v>64</v>
       </c>
       <c r="E258" t="s">
-        <v>1350</v>
+        <v>1347</v>
       </c>
       <c r="F258" t="s">
         <v>597</v>
@@ -15156,19 +15156,19 @@
     </row>
     <row r="259" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
+        <v>1348</v>
+      </c>
+      <c r="B259" t="s">
+        <v>1349</v>
+      </c>
+      <c r="C259" t="s">
+        <v>1350</v>
+      </c>
+      <c r="D259" t="s">
         <v>1351</v>
       </c>
-      <c r="B259" t="s">
+      <c r="E259" t="s">
         <v>1352</v>
-      </c>
-      <c r="C259" t="s">
-        <v>1353</v>
-      </c>
-      <c r="D259" t="s">
-        <v>1354</v>
-      </c>
-      <c r="E259" t="s">
-        <v>1355</v>
       </c>
       <c r="F259" t="s">
         <v>597</v>
@@ -15188,19 +15188,19 @@
     </row>
     <row r="260" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
+        <v>1353</v>
+      </c>
+      <c r="B260" t="s">
+        <v>1354</v>
+      </c>
+      <c r="C260" t="s">
+        <v>1355</v>
+      </c>
+      <c r="D260" t="s">
         <v>1356</v>
       </c>
-      <c r="B260" t="s">
+      <c r="E260" t="s">
         <v>1357</v>
-      </c>
-      <c r="C260" t="s">
-        <v>1358</v>
-      </c>
-      <c r="D260" t="s">
-        <v>1359</v>
-      </c>
-      <c r="E260" t="s">
-        <v>1360</v>
       </c>
       <c r="F260" t="s">
         <v>597</v>
@@ -15220,19 +15220,19 @@
     </row>
     <row r="261" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
+        <v>1358</v>
+      </c>
+      <c r="B261" t="s">
+        <v>1359</v>
+      </c>
+      <c r="C261" t="s">
+        <v>1360</v>
+      </c>
+      <c r="D261" t="s">
         <v>1361</v>
       </c>
-      <c r="B261" t="s">
+      <c r="E261" t="s">
         <v>1362</v>
-      </c>
-      <c r="C261" t="s">
-        <v>1363</v>
-      </c>
-      <c r="D261" t="s">
-        <v>1364</v>
-      </c>
-      <c r="E261" t="s">
-        <v>1365</v>
       </c>
       <c r="F261" t="s">
         <v>597</v>
@@ -15252,19 +15252,19 @@
     </row>
     <row r="262" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
+        <v>1363</v>
+      </c>
+      <c r="B262" t="s">
+        <v>1364</v>
+      </c>
+      <c r="C262" t="s">
+        <v>1365</v>
+      </c>
+      <c r="D262" t="s">
         <v>1366</v>
       </c>
-      <c r="B262" t="s">
+      <c r="E262" t="s">
         <v>1367</v>
-      </c>
-      <c r="C262" t="s">
-        <v>1368</v>
-      </c>
-      <c r="D262" t="s">
-        <v>1369</v>
-      </c>
-      <c r="E262" t="s">
-        <v>1370</v>
       </c>
       <c r="F262" t="s">
         <v>597</v>
@@ -15284,19 +15284,19 @@
     </row>
     <row r="263" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
+        <v>1368</v>
+      </c>
+      <c r="B263" t="s">
+        <v>1369</v>
+      </c>
+      <c r="C263" t="s">
+        <v>1370</v>
+      </c>
+      <c r="D263" t="s">
         <v>1371</v>
       </c>
-      <c r="B263" t="s">
+      <c r="E263" t="s">
         <v>1372</v>
-      </c>
-      <c r="C263" t="s">
-        <v>1373</v>
-      </c>
-      <c r="D263" t="s">
-        <v>1374</v>
-      </c>
-      <c r="E263" t="s">
-        <v>1375</v>
       </c>
       <c r="F263" t="s">
         <v>597</v>
@@ -15319,16 +15319,16 @@
         <v>539</v>
       </c>
       <c r="B264" t="s">
+        <v>1373</v>
+      </c>
+      <c r="C264" t="s">
+        <v>1374</v>
+      </c>
+      <c r="D264" t="s">
+        <v>1375</v>
+      </c>
+      <c r="E264" t="s">
         <v>1376</v>
-      </c>
-      <c r="C264" t="s">
-        <v>1377</v>
-      </c>
-      <c r="D264" t="s">
-        <v>1378</v>
-      </c>
-      <c r="E264" t="s">
-        <v>1379</v>
       </c>
       <c r="F264" t="s">
         <v>597</v>
@@ -15348,19 +15348,19 @@
     </row>
     <row r="265" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
+        <v>1377</v>
+      </c>
+      <c r="B265" t="s">
+        <v>1378</v>
+      </c>
+      <c r="C265" t="s">
+        <v>1379</v>
+      </c>
+      <c r="D265" t="s">
         <v>1380</v>
       </c>
-      <c r="B265" t="s">
+      <c r="E265" t="s">
         <v>1381</v>
-      </c>
-      <c r="C265" t="s">
-        <v>1382</v>
-      </c>
-      <c r="D265" t="s">
-        <v>1383</v>
-      </c>
-      <c r="E265" t="s">
-        <v>1384</v>
       </c>
       <c r="F265" t="s">
         <v>597</v>
@@ -15380,19 +15380,19 @@
     </row>
     <row r="266" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
+        <v>1382</v>
+      </c>
+      <c r="B266" t="s">
+        <v>1383</v>
+      </c>
+      <c r="C266" t="s">
+        <v>1384</v>
+      </c>
+      <c r="D266" t="s">
         <v>1385</v>
       </c>
-      <c r="B266" t="s">
+      <c r="E266" t="s">
         <v>1386</v>
-      </c>
-      <c r="C266" t="s">
-        <v>1387</v>
-      </c>
-      <c r="D266" t="s">
-        <v>1388</v>
-      </c>
-      <c r="E266" t="s">
-        <v>1389</v>
       </c>
       <c r="F266" t="s">
         <v>597</v>
@@ -15415,16 +15415,16 @@
         <v>786</v>
       </c>
       <c r="B267" t="s">
+        <v>1387</v>
+      </c>
+      <c r="C267" t="s">
+        <v>1388</v>
+      </c>
+      <c r="D267" t="s">
+        <v>1389</v>
+      </c>
+      <c r="E267" t="s">
         <v>1390</v>
-      </c>
-      <c r="C267" t="s">
-        <v>1391</v>
-      </c>
-      <c r="D267" t="s">
-        <v>1392</v>
-      </c>
-      <c r="E267" t="s">
-        <v>1393</v>
       </c>
       <c r="F267" t="s">
         <v>597</v>
@@ -15444,7 +15444,7 @@
     </row>
     <row r="268" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
-        <v>1394</v>
+        <v>1391</v>
       </c>
       <c r="B268" t="s">
         <v>517</v>
@@ -15453,10 +15453,10 @@
         <v>880</v>
       </c>
       <c r="D268" t="s">
-        <v>1395</v>
+        <v>1392</v>
       </c>
       <c r="E268" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="F268" t="s">
         <v>597</v>
@@ -15479,16 +15479,16 @@
         <v>406</v>
       </c>
       <c r="B269" t="s">
-        <v>1397</v>
+        <v>1394</v>
       </c>
       <c r="C269" t="s">
-        <v>1398</v>
+        <v>1395</v>
       </c>
       <c r="D269" t="s">
         <v>1202</v>
       </c>
       <c r="E269" t="s">
-        <v>1399</v>
+        <v>1396</v>
       </c>
       <c r="F269" t="s">
         <v>597</v>
@@ -15508,19 +15508,19 @@
     </row>
     <row r="270" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
+        <v>1397</v>
+      </c>
+      <c r="B270" t="s">
+        <v>1398</v>
+      </c>
+      <c r="C270" t="s">
+        <v>1399</v>
+      </c>
+      <c r="D270" t="s">
         <v>1400</v>
       </c>
-      <c r="B270" t="s">
+      <c r="E270" t="s">
         <v>1401</v>
-      </c>
-      <c r="C270" t="s">
-        <v>1402</v>
-      </c>
-      <c r="D270" t="s">
-        <v>1403</v>
-      </c>
-      <c r="E270" t="s">
-        <v>1404</v>
       </c>
       <c r="F270" t="s">
         <v>597</v>
@@ -15543,16 +15543,16 @@
         <v>925</v>
       </c>
       <c r="B271" t="s">
+        <v>1402</v>
+      </c>
+      <c r="C271" t="s">
+        <v>1403</v>
+      </c>
+      <c r="D271" t="s">
+        <v>1404</v>
+      </c>
+      <c r="E271" t="s">
         <v>1405</v>
-      </c>
-      <c r="C271" t="s">
-        <v>1406</v>
-      </c>
-      <c r="D271" t="s">
-        <v>1407</v>
-      </c>
-      <c r="E271" t="s">
-        <v>1408</v>
       </c>
       <c r="F271" t="s">
         <v>597</v>
@@ -15572,19 +15572,19 @@
     </row>
     <row r="272" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
-        <v>1409</v>
+        <v>1406</v>
       </c>
       <c r="B272" t="s">
-        <v>1410</v>
+        <v>1407</v>
       </c>
       <c r="C272" t="s">
         <v>181</v>
       </c>
       <c r="D272" t="s">
-        <v>1411</v>
+        <v>1408</v>
       </c>
       <c r="E272" t="s">
-        <v>1412</v>
+        <v>1409</v>
       </c>
       <c r="F272" t="s">
         <v>597</v>
@@ -15604,19 +15604,19 @@
     </row>
     <row r="273" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
-        <v>1413</v>
+        <v>1410</v>
       </c>
       <c r="B273" t="s">
-        <v>1414</v>
+        <v>1411</v>
       </c>
       <c r="C273" t="s">
         <v>900</v>
       </c>
       <c r="D273" t="s">
-        <v>1415</v>
+        <v>1412</v>
       </c>
       <c r="E273" t="s">
-        <v>1416</v>
+        <v>1413</v>
       </c>
       <c r="F273" t="s">
         <v>597</v>
@@ -15636,19 +15636,19 @@
     </row>
     <row r="274" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
+        <v>1414</v>
+      </c>
+      <c r="B274" t="s">
+        <v>1415</v>
+      </c>
+      <c r="C274" t="s">
+        <v>1416</v>
+      </c>
+      <c r="D274" t="s">
         <v>1417</v>
       </c>
-      <c r="B274" t="s">
+      <c r="E274" t="s">
         <v>1418</v>
-      </c>
-      <c r="C274" t="s">
-        <v>1419</v>
-      </c>
-      <c r="D274" t="s">
-        <v>1420</v>
-      </c>
-      <c r="E274" t="s">
-        <v>1421</v>
       </c>
       <c r="F274" t="s">
         <v>597</v>
@@ -15668,19 +15668,19 @@
     </row>
     <row r="275" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
+        <v>1419</v>
+      </c>
+      <c r="B275" t="s">
+        <v>1420</v>
+      </c>
+      <c r="C275" t="s">
+        <v>1421</v>
+      </c>
+      <c r="D275" t="s">
         <v>1422</v>
       </c>
-      <c r="B275" t="s">
+      <c r="E275" t="s">
         <v>1423</v>
-      </c>
-      <c r="C275" t="s">
-        <v>1424</v>
-      </c>
-      <c r="D275" t="s">
-        <v>1425</v>
-      </c>
-      <c r="E275" t="s">
-        <v>1426</v>
       </c>
       <c r="F275" t="s">
         <v>597</v>
@@ -15700,19 +15700,19 @@
     </row>
     <row r="276" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
+        <v>1424</v>
+      </c>
+      <c r="B276" t="s">
+        <v>1425</v>
+      </c>
+      <c r="C276" t="s">
+        <v>1426</v>
+      </c>
+      <c r="D276" t="s">
         <v>1427</v>
       </c>
-      <c r="B276" t="s">
+      <c r="E276" t="s">
         <v>1428</v>
-      </c>
-      <c r="C276" t="s">
-        <v>1429</v>
-      </c>
-      <c r="D276" t="s">
-        <v>1430</v>
-      </c>
-      <c r="E276" t="s">
-        <v>1431</v>
       </c>
       <c r="F276" t="s">
         <v>597</v>
@@ -15732,19 +15732,19 @@
     </row>
     <row r="277" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
+        <v>1429</v>
+      </c>
+      <c r="B277" t="s">
+        <v>1430</v>
+      </c>
+      <c r="C277" t="s">
+        <v>1431</v>
+      </c>
+      <c r="D277" t="s">
         <v>1432</v>
       </c>
-      <c r="B277" t="s">
+      <c r="E277" t="s">
         <v>1433</v>
-      </c>
-      <c r="C277" t="s">
-        <v>1434</v>
-      </c>
-      <c r="D277" t="s">
-        <v>1435</v>
-      </c>
-      <c r="E277" t="s">
-        <v>1436</v>
       </c>
       <c r="F277" t="s">
         <v>597</v>
@@ -15764,19 +15764,19 @@
     </row>
     <row r="278" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
+        <v>1434</v>
+      </c>
+      <c r="B278" t="s">
+        <v>1435</v>
+      </c>
+      <c r="C278" t="s">
+        <v>1436</v>
+      </c>
+      <c r="D278" t="s">
         <v>1437</v>
       </c>
-      <c r="B278" t="s">
+      <c r="E278" t="s">
         <v>1438</v>
-      </c>
-      <c r="C278" t="s">
-        <v>1439</v>
-      </c>
-      <c r="D278" t="s">
-        <v>1440</v>
-      </c>
-      <c r="E278" t="s">
-        <v>1441</v>
       </c>
       <c r="F278" t="s">
         <v>597</v>
@@ -15796,19 +15796,19 @@
     </row>
     <row r="279" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
+        <v>1439</v>
+      </c>
+      <c r="B279" t="s">
+        <v>1440</v>
+      </c>
+      <c r="C279" t="s">
+        <v>1441</v>
+      </c>
+      <c r="D279" t="s">
         <v>1442</v>
       </c>
-      <c r="B279" t="s">
+      <c r="E279" t="s">
         <v>1443</v>
-      </c>
-      <c r="C279" t="s">
-        <v>1444</v>
-      </c>
-      <c r="D279" t="s">
-        <v>1445</v>
-      </c>
-      <c r="E279" t="s">
-        <v>1446</v>
       </c>
       <c r="F279" t="s">
         <v>597</v>
@@ -15828,19 +15828,19 @@
     </row>
     <row r="280" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
+        <v>1448</v>
+      </c>
+      <c r="B280" t="s">
+        <v>1449</v>
+      </c>
+      <c r="C280" t="s">
+        <v>1450</v>
+      </c>
+      <c r="D280" t="s">
         <v>1451</v>
       </c>
-      <c r="B280" t="s">
+      <c r="E280" t="s">
         <v>1452</v>
-      </c>
-      <c r="C280" t="s">
-        <v>1453</v>
-      </c>
-      <c r="D280" t="s">
-        <v>1454</v>
-      </c>
-      <c r="E280" t="s">
-        <v>1455</v>
       </c>
       <c r="F280" t="s">
         <v>597</v>
@@ -15860,19 +15860,19 @@
     </row>
     <row r="281" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
+        <v>1453</v>
+      </c>
+      <c r="B281" t="s">
+        <v>1454</v>
+      </c>
+      <c r="C281" t="s">
+        <v>1455</v>
+      </c>
+      <c r="D281" t="s">
         <v>1456</v>
       </c>
-      <c r="B281" t="s">
+      <c r="E281" t="s">
         <v>1457</v>
-      </c>
-      <c r="C281" t="s">
-        <v>1458</v>
-      </c>
-      <c r="D281" t="s">
-        <v>1459</v>
-      </c>
-      <c r="E281" t="s">
-        <v>1460</v>
       </c>
       <c r="F281" t="s">
         <v>597</v>
@@ -15892,19 +15892,19 @@
     </row>
     <row r="282" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
+        <v>1458</v>
+      </c>
+      <c r="B282" t="s">
+        <v>1459</v>
+      </c>
+      <c r="C282" t="s">
+        <v>1460</v>
+      </c>
+      <c r="D282" t="s">
         <v>1461</v>
       </c>
-      <c r="B282" t="s">
+      <c r="E282" t="s">
         <v>1462</v>
-      </c>
-      <c r="C282" t="s">
-        <v>1463</v>
-      </c>
-      <c r="D282" t="s">
-        <v>1464</v>
-      </c>
-      <c r="E282" t="s">
-        <v>1465</v>
       </c>
       <c r="F282" t="s">
         <v>597</v>
@@ -15924,19 +15924,19 @@
     </row>
     <row r="283" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
+        <v>1463</v>
+      </c>
+      <c r="B283" t="s">
+        <v>1464</v>
+      </c>
+      <c r="C283" t="s">
+        <v>1465</v>
+      </c>
+      <c r="D283" t="s">
         <v>1466</v>
       </c>
-      <c r="B283" t="s">
+      <c r="E283" t="s">
         <v>1467</v>
-      </c>
-      <c r="C283" t="s">
-        <v>1468</v>
-      </c>
-      <c r="D283" t="s">
-        <v>1469</v>
-      </c>
-      <c r="E283" t="s">
-        <v>1470</v>
       </c>
       <c r="F283" t="s">
         <v>597</v>
@@ -15956,19 +15956,19 @@
     </row>
     <row r="284" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
-        <v>1471</v>
+        <v>1468</v>
       </c>
       <c r="B284" t="s">
-        <v>1472</v>
+        <v>1469</v>
       </c>
       <c r="C284" t="s">
-        <v>1473</v>
+        <v>1470</v>
       </c>
       <c r="D284" t="s">
         <v>1157</v>
       </c>
       <c r="E284" t="s">
-        <v>1474</v>
+        <v>1471</v>
       </c>
       <c r="F284" t="s">
         <v>597</v>
@@ -15988,19 +15988,19 @@
     </row>
     <row r="285" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
-        <v>1475</v>
+        <v>1472</v>
       </c>
       <c r="B285" t="s">
+        <v>1444</v>
+      </c>
+      <c r="C285" t="s">
+        <v>1445</v>
+      </c>
+      <c r="D285" t="s">
+        <v>1446</v>
+      </c>
+      <c r="E285" t="s">
         <v>1447</v>
-      </c>
-      <c r="C285" t="s">
-        <v>1448</v>
-      </c>
-      <c r="D285" t="s">
-        <v>1449</v>
-      </c>
-      <c r="E285" t="s">
-        <v>1450</v>
       </c>
       <c r="F285" t="s">
         <v>597</v>
@@ -16023,16 +16023,16 @@
         <v>533</v>
       </c>
       <c r="B286" t="s">
+        <v>1473</v>
+      </c>
+      <c r="C286" t="s">
+        <v>1474</v>
+      </c>
+      <c r="D286" t="s">
+        <v>1475</v>
+      </c>
+      <c r="E286" t="s">
         <v>1476</v>
-      </c>
-      <c r="C286" t="s">
-        <v>1477</v>
-      </c>
-      <c r="D286" t="s">
-        <v>1478</v>
-      </c>
-      <c r="E286" t="s">
-        <v>1479</v>
       </c>
       <c r="F286" t="s">
         <v>597</v>
@@ -16052,19 +16052,19 @@
     </row>
     <row r="287" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
+        <v>1477</v>
+      </c>
+      <c r="B287" t="s">
+        <v>1478</v>
+      </c>
+      <c r="C287" t="s">
+        <v>1479</v>
+      </c>
+      <c r="D287" t="s">
         <v>1480</v>
       </c>
-      <c r="B287" t="s">
+      <c r="E287" t="s">
         <v>1481</v>
-      </c>
-      <c r="C287" t="s">
-        <v>1482</v>
-      </c>
-      <c r="D287" t="s">
-        <v>1483</v>
-      </c>
-      <c r="E287" t="s">
-        <v>1484</v>
       </c>
       <c r="F287" t="s">
         <v>597</v>
@@ -16087,16 +16087,16 @@
         <v>208</v>
       </c>
       <c r="B288" t="s">
+        <v>1482</v>
+      </c>
+      <c r="C288" t="s">
+        <v>1483</v>
+      </c>
+      <c r="D288" t="s">
+        <v>1484</v>
+      </c>
+      <c r="E288" t="s">
         <v>1485</v>
-      </c>
-      <c r="C288" t="s">
-        <v>1486</v>
-      </c>
-      <c r="D288" t="s">
-        <v>1487</v>
-      </c>
-      <c r="E288" t="s">
-        <v>1488</v>
       </c>
       <c r="F288" t="s">
         <v>597</v>
@@ -16119,16 +16119,16 @@
         <v>210</v>
       </c>
       <c r="B289" t="s">
+        <v>1486</v>
+      </c>
+      <c r="C289" t="s">
+        <v>1487</v>
+      </c>
+      <c r="D289" t="s">
+        <v>1488</v>
+      </c>
+      <c r="E289" t="s">
         <v>1489</v>
-      </c>
-      <c r="C289" t="s">
-        <v>1490</v>
-      </c>
-      <c r="D289" t="s">
-        <v>1491</v>
-      </c>
-      <c r="E289" t="s">
-        <v>1492</v>
       </c>
       <c r="F289" t="s">
         <v>597</v>
@@ -16148,19 +16148,19 @@
     </row>
     <row r="290" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
-        <v>1493</v>
+        <v>1490</v>
       </c>
       <c r="B290" t="s">
         <v>857</v>
       </c>
       <c r="C290" t="s">
-        <v>1494</v>
+        <v>1491</v>
       </c>
       <c r="D290" t="s">
-        <v>1495</v>
+        <v>1492</v>
       </c>
       <c r="E290" t="s">
-        <v>1496</v>
+        <v>1493</v>
       </c>
       <c r="F290" t="s">
         <v>597</v>
@@ -16180,19 +16180,19 @@
     </row>
     <row r="291" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
+        <v>1494</v>
+      </c>
+      <c r="B291" t="s">
+        <v>1495</v>
+      </c>
+      <c r="C291" t="s">
+        <v>1496</v>
+      </c>
+      <c r="D291" t="s">
         <v>1497</v>
       </c>
-      <c r="B291" t="s">
+      <c r="E291" t="s">
         <v>1498</v>
-      </c>
-      <c r="C291" t="s">
-        <v>1499</v>
-      </c>
-      <c r="D291" t="s">
-        <v>1500</v>
-      </c>
-      <c r="E291" t="s">
-        <v>1501</v>
       </c>
       <c r="F291" t="s">
         <v>597</v>
@@ -16212,19 +16212,19 @@
     </row>
     <row r="292" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
+        <v>1499</v>
+      </c>
+      <c r="B292" t="s">
+        <v>1500</v>
+      </c>
+      <c r="C292" t="s">
+        <v>1268</v>
+      </c>
+      <c r="D292" t="s">
+        <v>1501</v>
+      </c>
+      <c r="E292" t="s">
         <v>1502</v>
-      </c>
-      <c r="B292" t="s">
-        <v>1503</v>
-      </c>
-      <c r="C292" t="s">
-        <v>1271</v>
-      </c>
-      <c r="D292" t="s">
-        <v>1504</v>
-      </c>
-      <c r="E292" t="s">
-        <v>1505</v>
       </c>
       <c r="F292" t="s">
         <v>597</v>
@@ -16244,19 +16244,19 @@
     </row>
     <row r="293" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
+        <v>1503</v>
+      </c>
+      <c r="B293" t="s">
+        <v>1504</v>
+      </c>
+      <c r="C293" t="s">
+        <v>1505</v>
+      </c>
+      <c r="D293" t="s">
         <v>1506</v>
       </c>
-      <c r="B293" t="s">
+      <c r="E293" t="s">
         <v>1507</v>
-      </c>
-      <c r="C293" t="s">
-        <v>1508</v>
-      </c>
-      <c r="D293" t="s">
-        <v>1509</v>
-      </c>
-      <c r="E293" t="s">
-        <v>1510</v>
       </c>
       <c r="F293" t="s">
         <v>597</v>
@@ -16276,19 +16276,19 @@
     </row>
     <row r="294" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
+        <v>1508</v>
+      </c>
+      <c r="B294" t="s">
+        <v>1509</v>
+      </c>
+      <c r="C294" t="s">
+        <v>1510</v>
+      </c>
+      <c r="D294" t="s">
         <v>1511</v>
       </c>
-      <c r="B294" t="s">
+      <c r="E294" t="s">
         <v>1512</v>
-      </c>
-      <c r="C294" t="s">
-        <v>1513</v>
-      </c>
-      <c r="D294" t="s">
-        <v>1514</v>
-      </c>
-      <c r="E294" t="s">
-        <v>1515</v>
       </c>
       <c r="F294" t="s">
         <v>597</v>
@@ -16308,19 +16308,19 @@
     </row>
     <row r="295" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
+        <v>1513</v>
+      </c>
+      <c r="B295" t="s">
+        <v>1514</v>
+      </c>
+      <c r="C295" t="s">
+        <v>1515</v>
+      </c>
+      <c r="D295" t="s">
         <v>1516</v>
       </c>
-      <c r="B295" t="s">
+      <c r="E295" t="s">
         <v>1517</v>
-      </c>
-      <c r="C295" t="s">
-        <v>1518</v>
-      </c>
-      <c r="D295" t="s">
-        <v>1519</v>
-      </c>
-      <c r="E295" t="s">
-        <v>1520</v>
       </c>
       <c r="F295" t="s">
         <v>597</v>
@@ -16340,19 +16340,19 @@
     </row>
     <row r="296" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
+        <v>1518</v>
+      </c>
+      <c r="B296" t="s">
+        <v>1519</v>
+      </c>
+      <c r="C296" t="s">
+        <v>1520</v>
+      </c>
+      <c r="D296" t="s">
         <v>1521</v>
       </c>
-      <c r="B296" t="s">
+      <c r="E296" t="s">
         <v>1522</v>
-      </c>
-      <c r="C296" t="s">
-        <v>1523</v>
-      </c>
-      <c r="D296" t="s">
-        <v>1524</v>
-      </c>
-      <c r="E296" t="s">
-        <v>1525</v>
       </c>
       <c r="F296" t="s">
         <v>597</v>
@@ -16372,19 +16372,19 @@
     </row>
     <row r="297" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
+        <v>1523</v>
+      </c>
+      <c r="B297" t="s">
+        <v>1279</v>
+      </c>
+      <c r="C297" t="s">
+        <v>1524</v>
+      </c>
+      <c r="D297" t="s">
+        <v>1525</v>
+      </c>
+      <c r="E297" t="s">
         <v>1526</v>
-      </c>
-      <c r="B297" t="s">
-        <v>1282</v>
-      </c>
-      <c r="C297" t="s">
-        <v>1527</v>
-      </c>
-      <c r="D297" t="s">
-        <v>1528</v>
-      </c>
-      <c r="E297" t="s">
-        <v>1529</v>
       </c>
       <c r="F297" t="s">
         <v>597</v>
@@ -16404,19 +16404,19 @@
     </row>
     <row r="298" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
+        <v>1527</v>
+      </c>
+      <c r="B298" t="s">
+        <v>1528</v>
+      </c>
+      <c r="C298" t="s">
+        <v>1529</v>
+      </c>
+      <c r="D298" t="s">
         <v>1530</v>
       </c>
-      <c r="B298" t="s">
+      <c r="E298" t="s">
         <v>1531</v>
-      </c>
-      <c r="C298" t="s">
-        <v>1532</v>
-      </c>
-      <c r="D298" t="s">
-        <v>1533</v>
-      </c>
-      <c r="E298" t="s">
-        <v>1534</v>
       </c>
       <c r="F298" t="s">
         <v>597</v>
@@ -16436,19 +16436,19 @@
     </row>
     <row r="299" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
+        <v>1532</v>
+      </c>
+      <c r="B299" t="s">
+        <v>1533</v>
+      </c>
+      <c r="C299" t="s">
+        <v>1534</v>
+      </c>
+      <c r="D299" t="s">
         <v>1535</v>
       </c>
-      <c r="B299" t="s">
+      <c r="E299" t="s">
         <v>1536</v>
-      </c>
-      <c r="C299" t="s">
-        <v>1537</v>
-      </c>
-      <c r="D299" t="s">
-        <v>1538</v>
-      </c>
-      <c r="E299" t="s">
-        <v>1539</v>
       </c>
       <c r="F299" t="s">
         <v>597</v>
@@ -16468,19 +16468,19 @@
     </row>
     <row r="300" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
+        <v>1537</v>
+      </c>
+      <c r="B300" t="s">
+        <v>1538</v>
+      </c>
+      <c r="C300" t="s">
+        <v>1539</v>
+      </c>
+      <c r="D300" t="s">
         <v>1540</v>
       </c>
-      <c r="B300" t="s">
+      <c r="E300" t="s">
         <v>1541</v>
-      </c>
-      <c r="C300" t="s">
-        <v>1542</v>
-      </c>
-      <c r="D300" t="s">
-        <v>1543</v>
-      </c>
-      <c r="E300" t="s">
-        <v>1544</v>
       </c>
       <c r="F300" t="s">
         <v>597</v>
@@ -16500,19 +16500,19 @@
     </row>
     <row r="301" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
+        <v>1542</v>
+      </c>
+      <c r="B301" t="s">
+        <v>1543</v>
+      </c>
+      <c r="C301" t="s">
+        <v>1544</v>
+      </c>
+      <c r="D301" t="s">
         <v>1545</v>
       </c>
-      <c r="B301" t="s">
+      <c r="E301" t="s">
         <v>1546</v>
-      </c>
-      <c r="C301" t="s">
-        <v>1547</v>
-      </c>
-      <c r="D301" t="s">
-        <v>1548</v>
-      </c>
-      <c r="E301" t="s">
-        <v>1549</v>
       </c>
       <c r="F301" t="s">
         <v>597</v>
@@ -16532,19 +16532,19 @@
     </row>
     <row r="302" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
-        <v>1550</v>
+        <v>1547</v>
       </c>
       <c r="B302" t="s">
-        <v>1551</v>
+        <v>1548</v>
       </c>
       <c r="C302" t="s">
-        <v>1552</v>
+        <v>1549</v>
       </c>
       <c r="D302" t="s">
         <v>1111</v>
       </c>
       <c r="E302" t="s">
-        <v>1553</v>
+        <v>1550</v>
       </c>
       <c r="F302" t="s">
         <v>597</v>
@@ -16564,19 +16564,19 @@
     </row>
     <row r="303" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
-        <v>1554</v>
+        <v>1551</v>
       </c>
       <c r="B303" t="s">
         <v>1110</v>
       </c>
       <c r="C303" t="s">
-        <v>1555</v>
+        <v>1552</v>
       </c>
       <c r="D303" t="s">
-        <v>1556</v>
+        <v>1553</v>
       </c>
       <c r="E303" t="s">
-        <v>1557</v>
+        <v>1554</v>
       </c>
       <c r="F303" t="s">
         <v>597</v>
@@ -16596,19 +16596,19 @@
     </row>
     <row r="304" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
-        <v>1558</v>
+        <v>1555</v>
       </c>
       <c r="B304" t="s">
         <v>218</v>
       </c>
       <c r="C304" t="s">
-        <v>1559</v>
+        <v>1556</v>
       </c>
       <c r="D304" t="s">
-        <v>1560</v>
+        <v>1557</v>
       </c>
       <c r="E304" t="s">
-        <v>1561</v>
+        <v>1558</v>
       </c>
       <c r="F304" t="s">
         <v>597</v>
@@ -16628,19 +16628,19 @@
     </row>
     <row r="305" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
+        <v>1559</v>
+      </c>
+      <c r="B305" t="s">
+        <v>1560</v>
+      </c>
+      <c r="C305" t="s">
+        <v>1561</v>
+      </c>
+      <c r="D305" t="s">
         <v>1562</v>
       </c>
-      <c r="B305" t="s">
+      <c r="E305" t="s">
         <v>1563</v>
-      </c>
-      <c r="C305" t="s">
-        <v>1564</v>
-      </c>
-      <c r="D305" t="s">
-        <v>1565</v>
-      </c>
-      <c r="E305" t="s">
-        <v>1566</v>
       </c>
       <c r="F305" t="s">
         <v>597</v>
@@ -16660,19 +16660,19 @@
     </row>
     <row r="306" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
+        <v>1564</v>
+      </c>
+      <c r="B306" t="s">
+        <v>1565</v>
+      </c>
+      <c r="C306" t="s">
+        <v>1566</v>
+      </c>
+      <c r="D306" t="s">
         <v>1567</v>
       </c>
-      <c r="B306" t="s">
+      <c r="E306" t="s">
         <v>1568</v>
-      </c>
-      <c r="C306" t="s">
-        <v>1569</v>
-      </c>
-      <c r="D306" t="s">
-        <v>1570</v>
-      </c>
-      <c r="E306" t="s">
-        <v>1571</v>
       </c>
       <c r="F306" t="s">
         <v>597</v>
@@ -16692,19 +16692,19 @@
     </row>
     <row r="307" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
-        <v>1572</v>
+        <v>1569</v>
       </c>
       <c r="B307" t="s">
         <v>973</v>
       </c>
       <c r="C307" t="s">
-        <v>1573</v>
+        <v>1570</v>
       </c>
       <c r="D307" t="s">
-        <v>1574</v>
+        <v>1571</v>
       </c>
       <c r="E307" t="s">
-        <v>1575</v>
+        <v>1572</v>
       </c>
       <c r="F307" t="s">
         <v>597</v>
@@ -16724,19 +16724,19 @@
     </row>
     <row r="308" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
+        <v>1573</v>
+      </c>
+      <c r="B308" t="s">
+        <v>1574</v>
+      </c>
+      <c r="C308" t="s">
+        <v>1432</v>
+      </c>
+      <c r="D308" t="s">
+        <v>1575</v>
+      </c>
+      <c r="E308" t="s">
         <v>1576</v>
-      </c>
-      <c r="B308" t="s">
-        <v>1577</v>
-      </c>
-      <c r="C308" t="s">
-        <v>1435</v>
-      </c>
-      <c r="D308" t="s">
-        <v>1578</v>
-      </c>
-      <c r="E308" t="s">
-        <v>1579</v>
       </c>
       <c r="F308" t="s">
         <v>597</v>
@@ -16756,19 +16756,19 @@
     </row>
     <row r="309" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
+        <v>1577</v>
+      </c>
+      <c r="B309" t="s">
+        <v>1578</v>
+      </c>
+      <c r="C309" t="s">
+        <v>1579</v>
+      </c>
+      <c r="D309" t="s">
         <v>1580</v>
       </c>
-      <c r="B309" t="s">
+      <c r="E309" t="s">
         <v>1581</v>
-      </c>
-      <c r="C309" t="s">
-        <v>1582</v>
-      </c>
-      <c r="D309" t="s">
-        <v>1583</v>
-      </c>
-      <c r="E309" t="s">
-        <v>1584</v>
       </c>
       <c r="F309" t="s">
         <v>597</v>
@@ -16788,19 +16788,19 @@
     </row>
     <row r="310" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
+        <v>1582</v>
+      </c>
+      <c r="B310" t="s">
+        <v>1583</v>
+      </c>
+      <c r="C310" t="s">
+        <v>1584</v>
+      </c>
+      <c r="D310" t="s">
         <v>1585</v>
       </c>
-      <c r="B310" t="s">
+      <c r="E310" t="s">
         <v>1586</v>
-      </c>
-      <c r="C310" t="s">
-        <v>1587</v>
-      </c>
-      <c r="D310" t="s">
-        <v>1588</v>
-      </c>
-      <c r="E310" t="s">
-        <v>1589</v>
       </c>
       <c r="F310" t="s">
         <v>597</v>
@@ -16820,19 +16820,19 @@
     </row>
     <row r="311" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
+        <v>1587</v>
+      </c>
+      <c r="B311" t="s">
+        <v>1588</v>
+      </c>
+      <c r="C311" t="s">
+        <v>1589</v>
+      </c>
+      <c r="D311" t="s">
         <v>1590</v>
       </c>
-      <c r="B311" t="s">
+      <c r="E311" t="s">
         <v>1591</v>
-      </c>
-      <c r="C311" t="s">
-        <v>1592</v>
-      </c>
-      <c r="D311" t="s">
-        <v>1593</v>
-      </c>
-      <c r="E311" t="s">
-        <v>1594</v>
       </c>
       <c r="F311" t="s">
         <v>597</v>
@@ -16852,19 +16852,19 @@
     </row>
     <row r="312" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
+        <v>1592</v>
+      </c>
+      <c r="B312" t="s">
+        <v>1593</v>
+      </c>
+      <c r="C312" t="s">
+        <v>1594</v>
+      </c>
+      <c r="D312" t="s">
         <v>1595</v>
       </c>
-      <c r="B312" t="s">
+      <c r="E312" t="s">
         <v>1596</v>
-      </c>
-      <c r="C312" t="s">
-        <v>1597</v>
-      </c>
-      <c r="D312" t="s">
-        <v>1598</v>
-      </c>
-      <c r="E312" t="s">
-        <v>1599</v>
       </c>
       <c r="F312" t="s">
         <v>597</v>
@@ -16884,19 +16884,19 @@
     </row>
     <row r="313" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
+        <v>1597</v>
+      </c>
+      <c r="B313" t="s">
+        <v>1598</v>
+      </c>
+      <c r="C313" t="s">
+        <v>1599</v>
+      </c>
+      <c r="D313" t="s">
         <v>1600</v>
       </c>
-      <c r="B313" t="s">
+      <c r="E313" t="s">
         <v>1601</v>
-      </c>
-      <c r="C313" t="s">
-        <v>1602</v>
-      </c>
-      <c r="D313" t="s">
-        <v>1603</v>
-      </c>
-      <c r="E313" t="s">
-        <v>1604</v>
       </c>
       <c r="F313" t="s">
         <v>597</v>
@@ -16919,16 +16919,16 @@
         <v>574</v>
       </c>
       <c r="B314" t="s">
+        <v>1602</v>
+      </c>
+      <c r="C314" t="s">
+        <v>1603</v>
+      </c>
+      <c r="D314" t="s">
+        <v>1604</v>
+      </c>
+      <c r="E314" t="s">
         <v>1605</v>
-      </c>
-      <c r="C314" t="s">
-        <v>1606</v>
-      </c>
-      <c r="D314" t="s">
-        <v>1607</v>
-      </c>
-      <c r="E314" t="s">
-        <v>1608</v>
       </c>
       <c r="F314" t="s">
         <v>597</v>
@@ -16948,19 +16948,19 @@
     </row>
     <row r="315" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
+        <v>1606</v>
+      </c>
+      <c r="B315" t="s">
+        <v>1607</v>
+      </c>
+      <c r="C315" t="s">
+        <v>1608</v>
+      </c>
+      <c r="D315" t="s">
         <v>1609</v>
       </c>
-      <c r="B315" t="s">
+      <c r="E315" t="s">
         <v>1610</v>
-      </c>
-      <c r="C315" t="s">
-        <v>1611</v>
-      </c>
-      <c r="D315" t="s">
-        <v>1612</v>
-      </c>
-      <c r="E315" t="s">
-        <v>1613</v>
       </c>
       <c r="F315" t="s">
         <v>597</v>
@@ -16980,19 +16980,19 @@
     </row>
     <row r="316" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
+        <v>1611</v>
+      </c>
+      <c r="B316" t="s">
+        <v>1612</v>
+      </c>
+      <c r="C316" t="s">
+        <v>1613</v>
+      </c>
+      <c r="D316" t="s">
         <v>1614</v>
       </c>
-      <c r="B316" t="s">
+      <c r="E316" t="s">
         <v>1615</v>
-      </c>
-      <c r="C316" t="s">
-        <v>1616</v>
-      </c>
-      <c r="D316" t="s">
-        <v>1617</v>
-      </c>
-      <c r="E316" t="s">
-        <v>1618</v>
       </c>
       <c r="F316" t="s">
         <v>597</v>
@@ -17012,19 +17012,19 @@
     </row>
     <row r="317" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
+        <v>1616</v>
+      </c>
+      <c r="B317" t="s">
+        <v>1617</v>
+      </c>
+      <c r="C317" t="s">
+        <v>1618</v>
+      </c>
+      <c r="D317" t="s">
         <v>1619</v>
       </c>
-      <c r="B317" t="s">
+      <c r="E317" t="s">
         <v>1620</v>
-      </c>
-      <c r="C317" t="s">
-        <v>1621</v>
-      </c>
-      <c r="D317" t="s">
-        <v>1622</v>
-      </c>
-      <c r="E317" t="s">
-        <v>1623</v>
       </c>
       <c r="F317" t="s">
         <v>597</v>
@@ -17044,19 +17044,19 @@
     </row>
     <row r="318" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
-        <v>1624</v>
+        <v>1621</v>
       </c>
       <c r="B318" t="s">
         <v>676</v>
       </c>
       <c r="C318" t="s">
-        <v>1625</v>
+        <v>1622</v>
       </c>
       <c r="D318" t="s">
-        <v>1626</v>
+        <v>1623</v>
       </c>
       <c r="E318" t="s">
-        <v>1627</v>
+        <v>1624</v>
       </c>
       <c r="F318" t="s">
         <v>597</v>
@@ -17079,16 +17079,16 @@
         <v>779</v>
       </c>
       <c r="B319" t="s">
+        <v>1625</v>
+      </c>
+      <c r="C319" t="s">
+        <v>1626</v>
+      </c>
+      <c r="D319" t="s">
+        <v>1627</v>
+      </c>
+      <c r="E319" t="s">
         <v>1628</v>
-      </c>
-      <c r="C319" t="s">
-        <v>1629</v>
-      </c>
-      <c r="D319" t="s">
-        <v>1630</v>
-      </c>
-      <c r="E319" t="s">
-        <v>1631</v>
       </c>
       <c r="F319" t="s">
         <v>597</v>
@@ -17108,19 +17108,19 @@
     </row>
     <row r="320" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
+        <v>1629</v>
+      </c>
+      <c r="B320" t="s">
+        <v>1630</v>
+      </c>
+      <c r="C320" t="s">
+        <v>1631</v>
+      </c>
+      <c r="D320" t="s">
         <v>1632</v>
       </c>
-      <c r="B320" t="s">
+      <c r="E320" t="s">
         <v>1633</v>
-      </c>
-      <c r="C320" t="s">
-        <v>1634</v>
-      </c>
-      <c r="D320" t="s">
-        <v>1635</v>
-      </c>
-      <c r="E320" t="s">
-        <v>1636</v>
       </c>
       <c r="F320" t="s">
         <v>597</v>
@@ -17140,16 +17140,16 @@
     </row>
     <row r="321" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
-        <v>1637</v>
+        <v>1634</v>
       </c>
       <c r="B321" t="s">
-        <v>1638</v>
+        <v>1635</v>
       </c>
       <c r="C321" t="s">
-        <v>1423</v>
+        <v>1420</v>
       </c>
       <c r="D321" t="s">
-        <v>1639</v>
+        <v>1636</v>
       </c>
       <c r="E321" t="s">
         <v>1060</v>
@@ -17172,19 +17172,19 @@
     </row>
     <row r="322" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
+        <v>1637</v>
+      </c>
+      <c r="B322" t="s">
+        <v>1638</v>
+      </c>
+      <c r="C322" t="s">
+        <v>1639</v>
+      </c>
+      <c r="D322" t="s">
         <v>1640</v>
       </c>
-      <c r="B322" t="s">
+      <c r="E322" t="s">
         <v>1641</v>
-      </c>
-      <c r="C322" t="s">
-        <v>1642</v>
-      </c>
-      <c r="D322" t="s">
-        <v>1643</v>
-      </c>
-      <c r="E322" t="s">
-        <v>1644</v>
       </c>
       <c r="F322" t="s">
         <v>597</v>
@@ -17204,19 +17204,19 @@
     </row>
     <row r="323" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
+        <v>1642</v>
+      </c>
+      <c r="B323" t="s">
+        <v>1643</v>
+      </c>
+      <c r="C323" t="s">
+        <v>1644</v>
+      </c>
+      <c r="D323" t="s">
         <v>1645</v>
       </c>
-      <c r="B323" t="s">
+      <c r="E323" t="s">
         <v>1646</v>
-      </c>
-      <c r="C323" t="s">
-        <v>1647</v>
-      </c>
-      <c r="D323" t="s">
-        <v>1648</v>
-      </c>
-      <c r="E323" t="s">
-        <v>1649</v>
       </c>
       <c r="F323" t="s">
         <v>597</v>
@@ -17236,19 +17236,19 @@
     </row>
     <row r="324" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
+        <v>1647</v>
+      </c>
+      <c r="B324" t="s">
+        <v>1648</v>
+      </c>
+      <c r="C324" t="s">
+        <v>1649</v>
+      </c>
+      <c r="D324" t="s">
         <v>1650</v>
       </c>
-      <c r="B324" t="s">
+      <c r="E324" t="s">
         <v>1651</v>
-      </c>
-      <c r="C324" t="s">
-        <v>1652</v>
-      </c>
-      <c r="D324" t="s">
-        <v>1653</v>
-      </c>
-      <c r="E324" t="s">
-        <v>1654</v>
       </c>
       <c r="F324" t="s">
         <v>597</v>
@@ -17268,19 +17268,19 @@
     </row>
     <row r="325" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
+        <v>1652</v>
+      </c>
+      <c r="B325" t="s">
+        <v>1653</v>
+      </c>
+      <c r="C325" t="s">
+        <v>1654</v>
+      </c>
+      <c r="D325" t="s">
         <v>1655</v>
       </c>
-      <c r="B325" t="s">
+      <c r="E325" t="s">
         <v>1656</v>
-      </c>
-      <c r="C325" t="s">
-        <v>1657</v>
-      </c>
-      <c r="D325" t="s">
-        <v>1658</v>
-      </c>
-      <c r="E325" t="s">
-        <v>1659</v>
       </c>
       <c r="F325" t="s">
         <v>597</v>
@@ -17300,19 +17300,19 @@
     </row>
     <row r="326" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
-        <v>1660</v>
+        <v>1657</v>
       </c>
       <c r="B326" t="s">
         <v>1119</v>
       </c>
       <c r="C326" t="s">
-        <v>1661</v>
+        <v>1658</v>
       </c>
       <c r="D326" t="s">
-        <v>1662</v>
+        <v>1659</v>
       </c>
       <c r="E326" t="s">
-        <v>1663</v>
+        <v>1660</v>
       </c>
       <c r="F326" t="s">
         <v>597</v>
@@ -17332,19 +17332,19 @@
     </row>
     <row r="327" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
-        <v>1664</v>
+        <v>1661</v>
       </c>
       <c r="B327" t="s">
         <v>308</v>
       </c>
       <c r="C327" t="s">
-        <v>1665</v>
+        <v>1662</v>
       </c>
       <c r="D327" t="s">
-        <v>1666</v>
+        <v>1663</v>
       </c>
       <c r="E327" t="s">
-        <v>1667</v>
+        <v>1664</v>
       </c>
       <c r="F327" t="s">
         <v>597</v>
@@ -17364,19 +17364,19 @@
     </row>
     <row r="328" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
+        <v>1665</v>
+      </c>
+      <c r="B328" t="s">
+        <v>1666</v>
+      </c>
+      <c r="C328" t="s">
+        <v>1667</v>
+      </c>
+      <c r="D328" t="s">
         <v>1668</v>
       </c>
-      <c r="B328" t="s">
+      <c r="E328" t="s">
         <v>1669</v>
-      </c>
-      <c r="C328" t="s">
-        <v>1670</v>
-      </c>
-      <c r="D328" t="s">
-        <v>1671</v>
-      </c>
-      <c r="E328" t="s">
-        <v>1672</v>
       </c>
       <c r="F328" t="s">
         <v>597</v>
@@ -17396,19 +17396,19 @@
     </row>
     <row r="329" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
-        <v>1673</v>
+        <v>1670</v>
       </c>
       <c r="B329" t="s">
-        <v>1255</v>
+        <v>1253</v>
       </c>
       <c r="C329" t="s">
         <v>367</v>
       </c>
       <c r="D329" t="s">
-        <v>1674</v>
+        <v>1671</v>
       </c>
       <c r="E329" t="s">
-        <v>1675</v>
+        <v>1672</v>
       </c>
       <c r="F329" t="s">
         <v>597</v>
@@ -17428,19 +17428,19 @@
     </row>
     <row r="330" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
-        <v>1676</v>
+        <v>1673</v>
       </c>
       <c r="B330" t="s">
-        <v>1677</v>
+        <v>1674</v>
       </c>
       <c r="C330" t="s">
-        <v>1678</v>
+        <v>1675</v>
       </c>
       <c r="D330" t="s">
         <v>925</v>
       </c>
       <c r="E330" t="s">
-        <v>1679</v>
+        <v>1676</v>
       </c>
       <c r="F330" t="s">
         <v>597</v>
@@ -17460,19 +17460,19 @@
     </row>
     <row r="331" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
-        <v>1680</v>
+        <v>1677</v>
       </c>
       <c r="B331" t="s">
-        <v>1681</v>
+        <v>1678</v>
       </c>
       <c r="C331" t="s">
         <v>227</v>
       </c>
       <c r="D331" t="s">
-        <v>1682</v>
+        <v>1679</v>
       </c>
       <c r="E331" t="s">
-        <v>1683</v>
+        <v>1680</v>
       </c>
       <c r="F331" t="s">
         <v>597</v>
@@ -17492,16 +17492,16 @@
     </row>
     <row r="332" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
-        <v>1437</v>
+        <v>1434</v>
       </c>
       <c r="B332" t="s">
-        <v>1684</v>
+        <v>1681</v>
       </c>
       <c r="C332" t="s">
-        <v>1685</v>
+        <v>1682</v>
       </c>
       <c r="E332" t="s">
-        <v>1686</v>
+        <v>1683</v>
       </c>
       <c r="F332" t="s">
         <v>597</v>
@@ -17521,19 +17521,19 @@
     </row>
     <row r="333" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
+        <v>1684</v>
+      </c>
+      <c r="B333" t="s">
+        <v>1685</v>
+      </c>
+      <c r="C333" t="s">
+        <v>1686</v>
+      </c>
+      <c r="D333" t="s">
         <v>1687</v>
       </c>
-      <c r="B333" t="s">
+      <c r="E333" t="s">
         <v>1688</v>
-      </c>
-      <c r="C333" t="s">
-        <v>1689</v>
-      </c>
-      <c r="D333" t="s">
-        <v>1690</v>
-      </c>
-      <c r="E333" t="s">
-        <v>1691</v>
       </c>
       <c r="F333" t="s">
         <v>597</v>
@@ -17553,19 +17553,19 @@
     </row>
     <row r="334" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
-        <v>1692</v>
+        <v>1689</v>
       </c>
       <c r="B334" t="s">
-        <v>1693</v>
+        <v>1690</v>
       </c>
       <c r="C334" t="s">
         <v>228</v>
       </c>
       <c r="D334" t="s">
-        <v>1694</v>
+        <v>1691</v>
       </c>
       <c r="E334" t="s">
-        <v>1695</v>
+        <v>1692</v>
       </c>
       <c r="F334" t="s">
         <v>597</v>
@@ -17585,19 +17585,19 @@
     </row>
     <row r="335" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
+        <v>1693</v>
+      </c>
+      <c r="B335" t="s">
+        <v>1694</v>
+      </c>
+      <c r="C335" t="s">
+        <v>1695</v>
+      </c>
+      <c r="D335" t="s">
         <v>1696</v>
       </c>
-      <c r="B335" t="s">
+      <c r="E335" t="s">
         <v>1697</v>
-      </c>
-      <c r="C335" t="s">
-        <v>1698</v>
-      </c>
-      <c r="D335" t="s">
-        <v>1699</v>
-      </c>
-      <c r="E335" t="s">
-        <v>1700</v>
       </c>
       <c r="F335" t="s">
         <v>597</v>
@@ -17617,19 +17617,19 @@
     </row>
     <row r="336" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
+        <v>1698</v>
+      </c>
+      <c r="B336" t="s">
+        <v>1699</v>
+      </c>
+      <c r="C336" t="s">
+        <v>1700</v>
+      </c>
+      <c r="D336" t="s">
         <v>1701</v>
       </c>
-      <c r="B336" t="s">
+      <c r="E336" t="s">
         <v>1702</v>
-      </c>
-      <c r="C336" t="s">
-        <v>1703</v>
-      </c>
-      <c r="D336" t="s">
-        <v>1704</v>
-      </c>
-      <c r="E336" t="s">
-        <v>1705</v>
       </c>
       <c r="F336" t="s">
         <v>597</v>
@@ -17649,19 +17649,19 @@
     </row>
     <row r="337" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
-        <v>1706</v>
+        <v>1703</v>
       </c>
       <c r="B337" t="s">
-        <v>1707</v>
+        <v>1704</v>
       </c>
       <c r="C337" t="s">
         <v>689</v>
       </c>
       <c r="D337" t="s">
-        <v>1708</v>
+        <v>1705</v>
       </c>
       <c r="E337" t="s">
-        <v>1709</v>
+        <v>1706</v>
       </c>
       <c r="F337" t="s">
         <v>597</v>
@@ -17681,19 +17681,19 @@
     </row>
     <row r="338" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
+        <v>1707</v>
+      </c>
+      <c r="B338" t="s">
+        <v>1708</v>
+      </c>
+      <c r="C338" t="s">
+        <v>1709</v>
+      </c>
+      <c r="D338" t="s">
         <v>1710</v>
       </c>
-      <c r="B338" t="s">
+      <c r="E338" t="s">
         <v>1711</v>
-      </c>
-      <c r="C338" t="s">
-        <v>1712</v>
-      </c>
-      <c r="D338" t="s">
-        <v>1713</v>
-      </c>
-      <c r="E338" t="s">
-        <v>1714</v>
       </c>
       <c r="F338" t="s">
         <v>597</v>
@@ -17713,19 +17713,19 @@
     </row>
     <row r="339" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
+        <v>1712</v>
+      </c>
+      <c r="B339" t="s">
+        <v>1713</v>
+      </c>
+      <c r="C339" t="s">
+        <v>1714</v>
+      </c>
+      <c r="D339" t="s">
         <v>1715</v>
       </c>
-      <c r="B339" t="s">
+      <c r="E339" t="s">
         <v>1716</v>
-      </c>
-      <c r="C339" t="s">
-        <v>1717</v>
-      </c>
-      <c r="D339" t="s">
-        <v>1718</v>
-      </c>
-      <c r="E339" t="s">
-        <v>1719</v>
       </c>
       <c r="F339" t="s">
         <v>597</v>
@@ -17745,19 +17745,19 @@
     </row>
     <row r="340" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
+        <v>1717</v>
+      </c>
+      <c r="B340" t="s">
+        <v>1718</v>
+      </c>
+      <c r="C340" t="s">
+        <v>1719</v>
+      </c>
+      <c r="D340" t="s">
         <v>1720</v>
       </c>
-      <c r="B340" t="s">
+      <c r="E340" t="s">
         <v>1721</v>
-      </c>
-      <c r="C340" t="s">
-        <v>1722</v>
-      </c>
-      <c r="D340" t="s">
-        <v>1723</v>
-      </c>
-      <c r="E340" t="s">
-        <v>1724</v>
       </c>
       <c r="F340" t="s">
         <v>597</v>
@@ -17777,16 +17777,16 @@
     </row>
     <row r="341" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
+        <v>1722</v>
+      </c>
+      <c r="B341" t="s">
+        <v>1723</v>
+      </c>
+      <c r="C341" t="s">
+        <v>1724</v>
+      </c>
+      <c r="D341" t="s">
         <v>1725</v>
-      </c>
-      <c r="B341" t="s">
-        <v>1726</v>
-      </c>
-      <c r="C341" t="s">
-        <v>1727</v>
-      </c>
-      <c r="D341" t="s">
-        <v>1728</v>
       </c>
       <c r="E341" t="s">
         <v>777</v>
@@ -17809,19 +17809,19 @@
     </row>
     <row r="342" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
+        <v>1726</v>
+      </c>
+      <c r="B342" t="s">
+        <v>1727</v>
+      </c>
+      <c r="C342" t="s">
+        <v>1728</v>
+      </c>
+      <c r="D342" t="s">
         <v>1729</v>
       </c>
-      <c r="B342" t="s">
+      <c r="E342" t="s">
         <v>1730</v>
-      </c>
-      <c r="C342" t="s">
-        <v>1731</v>
-      </c>
-      <c r="D342" t="s">
-        <v>1732</v>
-      </c>
-      <c r="E342" t="s">
-        <v>1733</v>
       </c>
       <c r="F342" t="s">
         <v>597</v>
@@ -17841,19 +17841,19 @@
     </row>
     <row r="343" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
+        <v>1731</v>
+      </c>
+      <c r="B343" t="s">
+        <v>1732</v>
+      </c>
+      <c r="C343" t="s">
+        <v>1733</v>
+      </c>
+      <c r="D343" t="s">
+        <v>1389</v>
+      </c>
+      <c r="E343" t="s">
         <v>1734</v>
-      </c>
-      <c r="B343" t="s">
-        <v>1735</v>
-      </c>
-      <c r="C343" t="s">
-        <v>1736</v>
-      </c>
-      <c r="D343" t="s">
-        <v>1392</v>
-      </c>
-      <c r="E343" t="s">
-        <v>1737</v>
       </c>
       <c r="F343" t="s">
         <v>597</v>
@@ -17873,19 +17873,19 @@
     </row>
     <row r="344" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
+        <v>1735</v>
+      </c>
+      <c r="B344" t="s">
+        <v>1736</v>
+      </c>
+      <c r="C344" t="s">
+        <v>1737</v>
+      </c>
+      <c r="D344" t="s">
         <v>1738</v>
       </c>
-      <c r="B344" t="s">
+      <c r="E344" t="s">
         <v>1739</v>
-      </c>
-      <c r="C344" t="s">
-        <v>1740</v>
-      </c>
-      <c r="D344" t="s">
-        <v>1741</v>
-      </c>
-      <c r="E344" t="s">
-        <v>1742</v>
       </c>
       <c r="F344" t="s">
         <v>597</v>
@@ -17905,19 +17905,19 @@
     </row>
     <row r="345" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
+        <v>1740</v>
+      </c>
+      <c r="B345" t="s">
+        <v>1741</v>
+      </c>
+      <c r="C345" t="s">
+        <v>1742</v>
+      </c>
+      <c r="D345" t="s">
         <v>1743</v>
       </c>
-      <c r="B345" t="s">
+      <c r="E345" t="s">
         <v>1744</v>
-      </c>
-      <c r="C345" t="s">
-        <v>1745</v>
-      </c>
-      <c r="D345" t="s">
-        <v>1746</v>
-      </c>
-      <c r="E345" t="s">
-        <v>1747</v>
       </c>
       <c r="F345" t="s">
         <v>597</v>
@@ -17937,19 +17937,19 @@
     </row>
     <row r="346" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
+        <v>1745</v>
+      </c>
+      <c r="B346" t="s">
+        <v>1746</v>
+      </c>
+      <c r="C346" t="s">
+        <v>1747</v>
+      </c>
+      <c r="D346" t="s">
         <v>1748</v>
       </c>
-      <c r="B346" t="s">
+      <c r="E346" t="s">
         <v>1749</v>
-      </c>
-      <c r="C346" t="s">
-        <v>1750</v>
-      </c>
-      <c r="D346" t="s">
-        <v>1751</v>
-      </c>
-      <c r="E346" t="s">
-        <v>1752</v>
       </c>
       <c r="F346" t="s">
         <v>597</v>
@@ -17969,19 +17969,19 @@
     </row>
     <row r="347" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
-        <v>1473</v>
+        <v>1470</v>
       </c>
       <c r="B347" t="s">
-        <v>1390</v>
+        <v>1387</v>
       </c>
       <c r="C347" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="D347" t="s">
-        <v>1754</v>
+        <v>1751</v>
       </c>
       <c r="E347" t="s">
-        <v>1755</v>
+        <v>1752</v>
       </c>
       <c r="F347" t="s">
         <v>597</v>
@@ -18004,16 +18004,16 @@
         <v>228</v>
       </c>
       <c r="B348" t="s">
-        <v>1756</v>
+        <v>1753</v>
       </c>
       <c r="C348" t="s">
         <v>20</v>
       </c>
       <c r="D348" t="s">
-        <v>1757</v>
+        <v>1754</v>
       </c>
       <c r="E348" t="s">
-        <v>1758</v>
+        <v>1755</v>
       </c>
       <c r="F348" t="s">
         <v>597</v>
@@ -18033,19 +18033,19 @@
     </row>
     <row r="349" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
-        <v>1759</v>
+        <v>1756</v>
       </c>
       <c r="B349" t="s">
-        <v>1760</v>
+        <v>1757</v>
       </c>
       <c r="C349" t="s">
         <v>674</v>
       </c>
       <c r="D349" t="s">
-        <v>1761</v>
+        <v>1758</v>
       </c>
       <c r="E349" t="s">
-        <v>1762</v>
+        <v>1759</v>
       </c>
       <c r="F349" t="s">
         <v>597</v>
@@ -18065,19 +18065,19 @@
     </row>
     <row r="350" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
-        <v>1763</v>
+        <v>1760</v>
       </c>
       <c r="B350" t="s">
-        <v>1764</v>
+        <v>1761</v>
       </c>
       <c r="C350" t="s">
         <v>188</v>
       </c>
       <c r="D350" t="s">
-        <v>1765</v>
+        <v>1762</v>
       </c>
       <c r="E350" t="s">
-        <v>1766</v>
+        <v>1763</v>
       </c>
       <c r="F350" t="s">
         <v>597</v>
@@ -18097,19 +18097,19 @@
     </row>
     <row r="351" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
-        <v>1395</v>
+        <v>1392</v>
       </c>
       <c r="B351" t="s">
         <v>497</v>
       </c>
       <c r="C351" t="s">
-        <v>1767</v>
+        <v>1764</v>
       </c>
       <c r="D351" t="s">
-        <v>1768</v>
+        <v>1765</v>
       </c>
       <c r="E351" t="s">
-        <v>1769</v>
+        <v>1766</v>
       </c>
       <c r="F351" t="s">
         <v>597</v>
@@ -18129,19 +18129,19 @@
     </row>
     <row r="352" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
+        <v>1767</v>
+      </c>
+      <c r="B352" t="s">
+        <v>1768</v>
+      </c>
+      <c r="C352" t="s">
+        <v>1769</v>
+      </c>
+      <c r="D352" t="s">
         <v>1770</v>
       </c>
-      <c r="B352" t="s">
+      <c r="E352" t="s">
         <v>1771</v>
-      </c>
-      <c r="C352" t="s">
-        <v>1772</v>
-      </c>
-      <c r="D352" t="s">
-        <v>1773</v>
-      </c>
-      <c r="E352" t="s">
-        <v>1774</v>
       </c>
       <c r="F352" t="s">
         <v>597</v>
@@ -18161,19 +18161,19 @@
     </row>
     <row r="353" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
+        <v>1772</v>
+      </c>
+      <c r="B353" t="s">
+        <v>1773</v>
+      </c>
+      <c r="C353" t="s">
+        <v>1774</v>
+      </c>
+      <c r="D353" t="s">
         <v>1775</v>
       </c>
-      <c r="B353" t="s">
+      <c r="E353" t="s">
         <v>1776</v>
-      </c>
-      <c r="C353" t="s">
-        <v>1777</v>
-      </c>
-      <c r="D353" t="s">
-        <v>1778</v>
-      </c>
-      <c r="E353" t="s">
-        <v>1779</v>
       </c>
       <c r="F353" t="s">
         <v>597</v>
@@ -18193,19 +18193,19 @@
     </row>
     <row r="354" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
+        <v>1777</v>
+      </c>
+      <c r="B354" t="s">
+        <v>1778</v>
+      </c>
+      <c r="C354" t="s">
+        <v>1779</v>
+      </c>
+      <c r="D354" t="s">
         <v>1780</v>
       </c>
-      <c r="B354" t="s">
+      <c r="E354" t="s">
         <v>1781</v>
-      </c>
-      <c r="C354" t="s">
-        <v>1782</v>
-      </c>
-      <c r="D354" t="s">
-        <v>1783</v>
-      </c>
-      <c r="E354" t="s">
-        <v>1784</v>
       </c>
       <c r="F354" t="s">
         <v>597</v>
@@ -18225,19 +18225,19 @@
     </row>
     <row r="355" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
+        <v>1782</v>
+      </c>
+      <c r="B355" t="s">
+        <v>1783</v>
+      </c>
+      <c r="C355" t="s">
+        <v>1784</v>
+      </c>
+      <c r="D355" t="s">
         <v>1785</v>
       </c>
-      <c r="B355" t="s">
+      <c r="E355" t="s">
         <v>1786</v>
-      </c>
-      <c r="C355" t="s">
-        <v>1787</v>
-      </c>
-      <c r="D355" t="s">
-        <v>1788</v>
-      </c>
-      <c r="E355" t="s">
-        <v>1789</v>
       </c>
       <c r="F355" t="s">
         <v>597</v>
@@ -18257,19 +18257,19 @@
     </row>
     <row r="356" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
+        <v>1787</v>
+      </c>
+      <c r="B356" t="s">
+        <v>1788</v>
+      </c>
+      <c r="C356" t="s">
+        <v>1789</v>
+      </c>
+      <c r="D356" t="s">
         <v>1790</v>
       </c>
-      <c r="B356" t="s">
+      <c r="E356" t="s">
         <v>1791</v>
-      </c>
-      <c r="C356" t="s">
-        <v>1792</v>
-      </c>
-      <c r="D356" t="s">
-        <v>1793</v>
-      </c>
-      <c r="E356" t="s">
-        <v>1794</v>
       </c>
       <c r="F356" t="s">
         <v>597</v>
@@ -18289,19 +18289,19 @@
     </row>
     <row r="357" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
+        <v>1792</v>
+      </c>
+      <c r="B357" t="s">
+        <v>1793</v>
+      </c>
+      <c r="C357" t="s">
+        <v>1794</v>
+      </c>
+      <c r="D357" t="s">
         <v>1795</v>
       </c>
-      <c r="B357" t="s">
+      <c r="E357" t="s">
         <v>1796</v>
-      </c>
-      <c r="C357" t="s">
-        <v>1797</v>
-      </c>
-      <c r="D357" t="s">
-        <v>1798</v>
-      </c>
-      <c r="E357" t="s">
-        <v>1799</v>
       </c>
       <c r="F357" t="s">
         <v>597</v>
@@ -18321,19 +18321,19 @@
     </row>
     <row r="358" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
+        <v>1797</v>
+      </c>
+      <c r="B358" t="s">
+        <v>1798</v>
+      </c>
+      <c r="C358" t="s">
+        <v>1799</v>
+      </c>
+      <c r="D358" t="s">
         <v>1800</v>
       </c>
-      <c r="B358" t="s">
+      <c r="E358" t="s">
         <v>1801</v>
-      </c>
-      <c r="C358" t="s">
-        <v>1802</v>
-      </c>
-      <c r="D358" t="s">
-        <v>1803</v>
-      </c>
-      <c r="E358" t="s">
-        <v>1804</v>
       </c>
       <c r="F358" t="s">
         <v>597</v>
@@ -18353,19 +18353,19 @@
     </row>
     <row r="359" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
-        <v>1682</v>
+        <v>1679</v>
       </c>
       <c r="B359" t="s">
+        <v>1802</v>
+      </c>
+      <c r="C359" t="s">
+        <v>1803</v>
+      </c>
+      <c r="D359" t="s">
+        <v>1804</v>
+      </c>
+      <c r="E359" t="s">
         <v>1805</v>
-      </c>
-      <c r="C359" t="s">
-        <v>1806</v>
-      </c>
-      <c r="D359" t="s">
-        <v>1807</v>
-      </c>
-      <c r="E359" t="s">
-        <v>1808</v>
       </c>
       <c r="F359" t="s">
         <v>597</v>
@@ -18385,19 +18385,19 @@
     </row>
     <row r="360" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
+        <v>1806</v>
+      </c>
+      <c r="B360" t="s">
+        <v>1807</v>
+      </c>
+      <c r="C360" t="s">
+        <v>1808</v>
+      </c>
+      <c r="D360" t="s">
         <v>1809</v>
       </c>
-      <c r="B360" t="s">
+      <c r="E360" t="s">
         <v>1810</v>
-      </c>
-      <c r="C360" t="s">
-        <v>1811</v>
-      </c>
-      <c r="D360" t="s">
-        <v>1812</v>
-      </c>
-      <c r="E360" t="s">
-        <v>1813</v>
       </c>
       <c r="F360" t="s">
         <v>597</v>
@@ -18417,19 +18417,19 @@
     </row>
     <row r="361" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
-        <v>1814</v>
+        <v>1811</v>
       </c>
       <c r="B361" t="s">
-        <v>1815</v>
+        <v>1812</v>
       </c>
       <c r="C361" t="s">
-        <v>1816</v>
+        <v>1813</v>
       </c>
       <c r="D361" t="s">
         <v>1124</v>
       </c>
       <c r="E361" t="s">
-        <v>1817</v>
+        <v>1814</v>
       </c>
       <c r="F361" t="s">
         <v>597</v>
@@ -19601,19 +19601,19 @@
     </row>
     <row r="398" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A398" t="s">
+        <v>1830</v>
+      </c>
+      <c r="B398" t="s">
+        <v>1831</v>
+      </c>
+      <c r="C398" t="s">
+        <v>1832</v>
+      </c>
+      <c r="D398" t="s">
         <v>1833</v>
       </c>
-      <c r="B398" t="s">
-        <v>1834</v>
-      </c>
-      <c r="C398" t="s">
-        <v>1835</v>
-      </c>
-      <c r="D398" t="s">
-        <v>1836</v>
-      </c>
       <c r="E398" t="s">
-        <v>1651</v>
+        <v>1648</v>
       </c>
       <c r="F398" t="s">
         <v>597</v>
@@ -19633,19 +19633,19 @@
     </row>
     <row r="399" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A399" t="s">
+        <v>1834</v>
+      </c>
+      <c r="B399" t="s">
+        <v>1835</v>
+      </c>
+      <c r="C399" t="s">
+        <v>1836</v>
+      </c>
+      <c r="D399" t="s">
         <v>1837</v>
       </c>
-      <c r="B399" t="s">
+      <c r="E399" t="s">
         <v>1838</v>
-      </c>
-      <c r="C399" t="s">
-        <v>1839</v>
-      </c>
-      <c r="D399" t="s">
-        <v>1840</v>
-      </c>
-      <c r="E399" t="s">
-        <v>1841</v>
       </c>
       <c r="F399" t="s">
         <v>597</v>
@@ -19668,16 +19668,16 @@
         <v>577</v>
       </c>
       <c r="B400" t="s">
-        <v>1842</v>
+        <v>1839</v>
       </c>
       <c r="C400" t="s">
-        <v>1853</v>
+        <v>1850</v>
       </c>
       <c r="D400" t="s">
-        <v>1843</v>
+        <v>1840</v>
       </c>
       <c r="E400" t="s">
-        <v>1844</v>
+        <v>1841</v>
       </c>
       <c r="F400" t="s">
         <v>597</v>
@@ -19697,16 +19697,16 @@
     </row>
     <row r="401" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A401" t="s">
+        <v>1842</v>
+      </c>
+      <c r="B401" t="s">
+        <v>1843</v>
+      </c>
+      <c r="C401" t="s">
+        <v>1844</v>
+      </c>
+      <c r="D401" t="s">
         <v>1845</v>
-      </c>
-      <c r="B401" t="s">
-        <v>1846</v>
-      </c>
-      <c r="C401" t="s">
-        <v>1847</v>
-      </c>
-      <c r="D401" t="s">
-        <v>1848</v>
       </c>
       <c r="E401" t="s">
         <v>210</v>
@@ -19729,19 +19729,19 @@
     </row>
     <row r="402" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A402" t="s">
-        <v>1367</v>
+        <v>1364</v>
       </c>
       <c r="B402" t="s">
+        <v>1846</v>
+      </c>
+      <c r="C402" t="s">
+        <v>1847</v>
+      </c>
+      <c r="D402" t="s">
+        <v>1848</v>
+      </c>
+      <c r="E402" t="s">
         <v>1849</v>
-      </c>
-      <c r="C402" t="s">
-        <v>1850</v>
-      </c>
-      <c r="D402" t="s">
-        <v>1851</v>
-      </c>
-      <c r="E402" t="s">
-        <v>1852</v>
       </c>
       <c r="F402" t="s">
         <v>597</v>

--- a/code/shabdakala/resource/sbwords.xlsx
+++ b/code/shabdakala/resource/sbwords.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10119"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hrishinene/shabdak_github/sbbd/shabdakala/code/shabdakala/resource/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB91DAB9-06C2-AE43-B962-03F42098B4F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C86F26E-054C-A24A-B602-B5F5950AAE35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{9F74AEE5-EB85-4044-AC84-8761A591B5C1}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33740" windowHeight="18800" xr2:uid="{9F74AEE5-EB85-4044-AC84-8761A591B5C1}"/>
   </bookViews>
   <sheets>
     <sheet name="sbwords" sheetId="1" r:id="rId1"/>
@@ -3923,24 +3923,15 @@
     <t>पारसी लोकं</t>
   </si>
   <si>
-    <t>बीडी</t>
-  </si>
-  <si>
     <t>छावा</t>
   </si>
   <si>
-    <t xml:space="preserve">औरंगाबाद </t>
-  </si>
-  <si>
     <t>शिवाजी</t>
   </si>
   <si>
     <t xml:space="preserve">संभाजी संबंधित </t>
   </si>
   <si>
-    <t>वणकुद्रे</t>
-  </si>
-  <si>
     <t>शेळके</t>
   </si>
   <si>
@@ -3950,12 +3941,6 @@
     <t xml:space="preserve">शांता संबंधित </t>
   </si>
   <si>
-    <t>महेष</t>
-  </si>
-  <si>
-    <t>अफ्रीकन</t>
-  </si>
-  <si>
     <t>पैसे</t>
   </si>
   <si>
@@ -5670,6 +5655,21 @@
   </si>
   <si>
     <t>दूध</t>
+  </si>
+  <si>
+    <t>येसूबाई</t>
+  </si>
+  <si>
+    <t>तुळापूर</t>
+  </si>
+  <si>
+    <t>हुबळीकर</t>
+  </si>
+  <si>
+    <t>महेश</t>
+  </si>
+  <si>
+    <t>काजळ</t>
   </si>
 </sst>
 </file>
@@ -6596,8 +6596,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEA1707B-2FB7-B84C-9F84-E9F074F3056C}">
   <dimension ref="A1:L402"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A213" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B238" sqref="B238"/>
+    <sheetView tabSelected="1" topLeftCell="A226" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E250" sqref="E250"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6685,7 +6685,7 @@
       </c>
       <c r="L2" s="6">
         <f ca="1">TODAY()</f>
-        <v>45703</v>
+        <v>45707</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -12724,7 +12724,7 @@
     </row>
     <row r="183" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>1815</v>
+        <v>1810</v>
       </c>
       <c r="B183" t="s">
         <v>833</v>
@@ -12788,7 +12788,7 @@
     </row>
     <row r="185" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>1817</v>
+        <v>1812</v>
       </c>
       <c r="B185" t="s">
         <v>1047</v>
@@ -12800,7 +12800,7 @@
         <v>1049</v>
       </c>
       <c r="E185" t="s">
-        <v>1818</v>
+        <v>1813</v>
       </c>
       <c r="F185" t="s">
         <v>597</v>
@@ -12832,7 +12832,7 @@
         <v>1053</v>
       </c>
       <c r="E186" t="s">
-        <v>1816</v>
+        <v>1811</v>
       </c>
       <c r="F186" t="s">
         <v>597</v>
@@ -12896,7 +12896,7 @@
         <v>1061</v>
       </c>
       <c r="E188" t="s">
-        <v>1819</v>
+        <v>1814</v>
       </c>
       <c r="F188" t="s">
         <v>597</v>
@@ -12928,7 +12928,7 @@
         <v>1065</v>
       </c>
       <c r="E189" t="s">
-        <v>1820</v>
+        <v>1815</v>
       </c>
       <c r="F189" t="s">
         <v>597</v>
@@ -12960,7 +12960,7 @@
         <v>1069</v>
       </c>
       <c r="E190" t="s">
-        <v>1821</v>
+        <v>1816</v>
       </c>
       <c r="F190" t="s">
         <v>597</v>
@@ -13213,7 +13213,7 @@
         <v>1105</v>
       </c>
       <c r="D198" t="s">
-        <v>1851</v>
+        <v>1846</v>
       </c>
       <c r="E198" t="s">
         <v>1106</v>
@@ -13242,13 +13242,13 @@
         <v>1108</v>
       </c>
       <c r="C199" t="s">
-        <v>1852</v>
+        <v>1847</v>
       </c>
       <c r="D199" t="s">
         <v>1109</v>
       </c>
       <c r="E199" t="s">
-        <v>1853</v>
+        <v>1848</v>
       </c>
       <c r="F199" t="s">
         <v>597</v>
@@ -13344,7 +13344,7 @@
         <v>1121</v>
       </c>
       <c r="E202" t="s">
-        <v>1854</v>
+        <v>1849</v>
       </c>
       <c r="F202" t="s">
         <v>597</v>
@@ -13399,7 +13399,7 @@
         <v>1126</v>
       </c>
       <c r="B204" t="s">
-        <v>1861</v>
+        <v>1856</v>
       </c>
       <c r="C204" t="s">
         <v>778</v>
@@ -13466,10 +13466,10 @@
         <v>1135</v>
       </c>
       <c r="C206" t="s">
-        <v>1855</v>
+        <v>1850</v>
       </c>
       <c r="D206" t="s">
-        <v>1856</v>
+        <v>1851</v>
       </c>
       <c r="E206" t="s">
         <v>1136</v>
@@ -13498,10 +13498,10 @@
         <v>1138</v>
       </c>
       <c r="C207" t="s">
-        <v>1857</v>
+        <v>1852</v>
       </c>
       <c r="D207" t="s">
-        <v>1858</v>
+        <v>1853</v>
       </c>
       <c r="E207" t="s">
         <v>1139</v>
@@ -13524,19 +13524,19 @@
     </row>
     <row r="208" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>1862</v>
+        <v>1857</v>
       </c>
       <c r="B208" t="s">
-        <v>1863</v>
+        <v>1858</v>
       </c>
       <c r="C208" t="s">
         <v>1140</v>
       </c>
       <c r="D208" t="s">
-        <v>1864</v>
+        <v>1859</v>
       </c>
       <c r="E208" t="s">
-        <v>1865</v>
+        <v>1860</v>
       </c>
       <c r="F208" t="s">
         <v>597</v>
@@ -13568,7 +13568,7 @@
         <v>1144</v>
       </c>
       <c r="E209" t="s">
-        <v>1822</v>
+        <v>1817</v>
       </c>
       <c r="F209" t="s">
         <v>597</v>
@@ -13623,13 +13623,13 @@
         <v>1150</v>
       </c>
       <c r="B211" t="s">
-        <v>1824</v>
+        <v>1819</v>
       </c>
       <c r="C211" t="s">
         <v>1151</v>
       </c>
       <c r="D211" t="s">
-        <v>1823</v>
+        <v>1818</v>
       </c>
       <c r="E211" t="s">
         <v>1152</v>
@@ -13760,7 +13760,7 @@
         <v>1170</v>
       </c>
       <c r="E215" t="s">
-        <v>1859</v>
+        <v>1854</v>
       </c>
       <c r="F215" t="s">
         <v>597</v>
@@ -13792,7 +13792,7 @@
         <v>1174</v>
       </c>
       <c r="E216" t="s">
-        <v>1860</v>
+        <v>1855</v>
       </c>
       <c r="F216" t="s">
         <v>597</v>
@@ -13844,7 +13844,7 @@
     </row>
     <row r="218" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
-        <v>1866</v>
+        <v>1861</v>
       </c>
       <c r="B218" t="s">
         <v>1179</v>
@@ -13885,7 +13885,7 @@
         <v>32</v>
       </c>
       <c r="D219" t="s">
-        <v>1867</v>
+        <v>1862</v>
       </c>
       <c r="E219" t="s">
         <v>1185</v>
@@ -13908,7 +13908,7 @@
     </row>
     <row r="220" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
-        <v>1868</v>
+        <v>1863</v>
       </c>
       <c r="B220" t="s">
         <v>1186</v>
@@ -13952,7 +13952,7 @@
         <v>1193</v>
       </c>
       <c r="E221" t="s">
-        <v>1825</v>
+        <v>1820</v>
       </c>
       <c r="F221" t="s">
         <v>597</v>
@@ -13978,10 +13978,10 @@
         <v>1195</v>
       </c>
       <c r="C222" t="s">
-        <v>1828</v>
+        <v>1823</v>
       </c>
       <c r="D222" t="s">
-        <v>1829</v>
+        <v>1824</v>
       </c>
       <c r="E222" t="s">
         <v>1196</v>
@@ -14004,7 +14004,7 @@
     </row>
     <row r="223" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
-        <v>1827</v>
+        <v>1822</v>
       </c>
       <c r="B223" t="s">
         <v>1197</v>
@@ -14016,7 +14016,7 @@
         <v>1198</v>
       </c>
       <c r="E223" t="s">
-        <v>1826</v>
+        <v>1821</v>
       </c>
       <c r="F223" t="s">
         <v>597</v>
@@ -14170,7 +14170,7 @@
         <v>1216</v>
       </c>
       <c r="C228" t="s">
-        <v>1869</v>
+        <v>1864</v>
       </c>
       <c r="D228" t="s">
         <v>1217</v>
@@ -14292,13 +14292,13 @@
     </row>
     <row r="232" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
-        <v>1871</v>
+        <v>1866</v>
       </c>
       <c r="B232" t="s">
         <v>1234</v>
       </c>
       <c r="C232" t="s">
-        <v>1870</v>
+        <v>1865</v>
       </c>
       <c r="D232" t="s">
         <v>438</v>
@@ -14330,7 +14330,7 @@
         <v>1237</v>
       </c>
       <c r="C233" t="s">
-        <v>1872</v>
+        <v>1867</v>
       </c>
       <c r="D233" t="s">
         <v>1238</v>
@@ -14391,13 +14391,13 @@
         <v>1243</v>
       </c>
       <c r="B235" t="s">
-        <v>1875</v>
+        <v>1870</v>
       </c>
       <c r="C235" t="s">
-        <v>1873</v>
+        <v>1868</v>
       </c>
       <c r="D235" t="s">
-        <v>1874</v>
+        <v>1869</v>
       </c>
       <c r="E235" t="s">
         <v>1244</v>
@@ -14420,7 +14420,7 @@
     </row>
     <row r="236" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
-        <v>1876</v>
+        <v>1871</v>
       </c>
       <c r="B236" t="s">
         <v>1245</v>
@@ -14452,7 +14452,7 @@
     </row>
     <row r="237" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
-        <v>1877</v>
+        <v>1872</v>
       </c>
       <c r="B237" t="s">
         <v>1249</v>
@@ -14484,7 +14484,7 @@
     </row>
     <row r="238" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
-        <v>1878</v>
+        <v>1873</v>
       </c>
       <c r="B238" t="s">
         <v>316</v>
@@ -14804,19 +14804,19 @@
     </row>
     <row r="248" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
+        <v>1874</v>
+      </c>
+      <c r="B248" t="s">
         <v>1296</v>
       </c>
-      <c r="B248" t="s">
+      <c r="C248" t="s">
+        <v>1875</v>
+      </c>
+      <c r="D248" t="s">
         <v>1297</v>
       </c>
-      <c r="C248" t="s">
+      <c r="E248" t="s">
         <v>1298</v>
-      </c>
-      <c r="D248" t="s">
-        <v>1299</v>
-      </c>
-      <c r="E248" t="s">
-        <v>1300</v>
       </c>
       <c r="F248" t="s">
         <v>597</v>
@@ -14836,19 +14836,19 @@
     </row>
     <row r="249" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
-        <v>1301</v>
+        <v>1876</v>
       </c>
       <c r="B249" t="s">
-        <v>1302</v>
+        <v>1299</v>
       </c>
       <c r="C249" t="s">
-        <v>1303</v>
+        <v>1300</v>
       </c>
       <c r="D249" t="s">
         <v>642</v>
       </c>
       <c r="E249" t="s">
-        <v>1304</v>
+        <v>1301</v>
       </c>
       <c r="F249" t="s">
         <v>597</v>
@@ -14868,19 +14868,19 @@
     </row>
     <row r="250" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
-        <v>1305</v>
+        <v>1877</v>
       </c>
       <c r="B250" t="s">
-        <v>1306</v>
+        <v>1878</v>
       </c>
       <c r="C250" t="s">
-        <v>1307</v>
+        <v>1302</v>
       </c>
       <c r="D250" t="s">
-        <v>1308</v>
+        <v>1303</v>
       </c>
       <c r="E250" t="s">
-        <v>1309</v>
+        <v>1304</v>
       </c>
       <c r="F250" t="s">
         <v>597</v>
@@ -14900,19 +14900,19 @@
     </row>
     <row r="251" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
-        <v>1310</v>
+        <v>1305</v>
       </c>
       <c r="B251" t="s">
-        <v>1311</v>
+        <v>1306</v>
       </c>
       <c r="C251" t="s">
-        <v>1312</v>
+        <v>1307</v>
       </c>
       <c r="D251" t="s">
-        <v>1313</v>
+        <v>1308</v>
       </c>
       <c r="E251" t="s">
-        <v>1314</v>
+        <v>1309</v>
       </c>
       <c r="F251" t="s">
         <v>597</v>
@@ -14932,19 +14932,19 @@
     </row>
     <row r="252" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
-        <v>1315</v>
+        <v>1310</v>
       </c>
       <c r="B252" t="s">
-        <v>1316</v>
+        <v>1311</v>
       </c>
       <c r="C252" t="s">
-        <v>1317</v>
+        <v>1312</v>
       </c>
       <c r="D252" t="s">
-        <v>1318</v>
+        <v>1313</v>
       </c>
       <c r="E252" t="s">
-        <v>1319</v>
+        <v>1314</v>
       </c>
       <c r="F252" t="s">
         <v>597</v>
@@ -14964,19 +14964,19 @@
     </row>
     <row r="253" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
-        <v>1320</v>
+        <v>1315</v>
       </c>
       <c r="B253" t="s">
-        <v>1321</v>
+        <v>1316</v>
       </c>
       <c r="C253" t="s">
-        <v>1322</v>
+        <v>1317</v>
       </c>
       <c r="D253" t="s">
-        <v>1323</v>
+        <v>1318</v>
       </c>
       <c r="E253" t="s">
-        <v>1324</v>
+        <v>1319</v>
       </c>
       <c r="F253" t="s">
         <v>597</v>
@@ -14996,19 +14996,19 @@
     </row>
     <row r="254" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
-        <v>1325</v>
+        <v>1320</v>
       </c>
       <c r="B254" t="s">
-        <v>1326</v>
+        <v>1321</v>
       </c>
       <c r="C254" t="s">
-        <v>1327</v>
+        <v>1322</v>
       </c>
       <c r="D254" t="s">
-        <v>1328</v>
+        <v>1323</v>
       </c>
       <c r="E254" t="s">
-        <v>1329</v>
+        <v>1324</v>
       </c>
       <c r="F254" t="s">
         <v>597</v>
@@ -15028,19 +15028,19 @@
     </row>
     <row r="255" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
-        <v>1330</v>
+        <v>1325</v>
       </c>
       <c r="B255" t="s">
-        <v>1331</v>
+        <v>1326</v>
       </c>
       <c r="C255" t="s">
-        <v>1332</v>
+        <v>1327</v>
       </c>
       <c r="D255" t="s">
-        <v>1333</v>
+        <v>1328</v>
       </c>
       <c r="E255" t="s">
-        <v>1334</v>
+        <v>1329</v>
       </c>
       <c r="F255" t="s">
         <v>597</v>
@@ -15060,19 +15060,19 @@
     </row>
     <row r="256" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
-        <v>1335</v>
+        <v>1330</v>
       </c>
       <c r="B256" t="s">
-        <v>1336</v>
+        <v>1331</v>
       </c>
       <c r="C256" t="s">
-        <v>1337</v>
+        <v>1332</v>
       </c>
       <c r="D256" t="s">
-        <v>1338</v>
+        <v>1333</v>
       </c>
       <c r="E256" t="s">
-        <v>1339</v>
+        <v>1334</v>
       </c>
       <c r="F256" t="s">
         <v>597</v>
@@ -15092,19 +15092,19 @@
     </row>
     <row r="257" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
-        <v>1340</v>
+        <v>1335</v>
       </c>
       <c r="B257" t="s">
         <v>533</v>
       </c>
       <c r="C257" t="s">
-        <v>1341</v>
+        <v>1336</v>
       </c>
       <c r="D257" t="s">
-        <v>1342</v>
+        <v>1337</v>
       </c>
       <c r="E257" t="s">
-        <v>1343</v>
+        <v>1338</v>
       </c>
       <c r="F257" t="s">
         <v>597</v>
@@ -15124,19 +15124,19 @@
     </row>
     <row r="258" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
-        <v>1344</v>
+        <v>1339</v>
       </c>
       <c r="B258" t="s">
-        <v>1345</v>
+        <v>1340</v>
       </c>
       <c r="C258" t="s">
-        <v>1346</v>
+        <v>1341</v>
       </c>
       <c r="D258" t="s">
         <v>64</v>
       </c>
       <c r="E258" t="s">
-        <v>1347</v>
+        <v>1342</v>
       </c>
       <c r="F258" t="s">
         <v>597</v>
@@ -15156,19 +15156,19 @@
     </row>
     <row r="259" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
-        <v>1348</v>
+        <v>1343</v>
       </c>
       <c r="B259" t="s">
-        <v>1349</v>
+        <v>1344</v>
       </c>
       <c r="C259" t="s">
-        <v>1350</v>
+        <v>1345</v>
       </c>
       <c r="D259" t="s">
-        <v>1351</v>
+        <v>1346</v>
       </c>
       <c r="E259" t="s">
-        <v>1352</v>
+        <v>1347</v>
       </c>
       <c r="F259" t="s">
         <v>597</v>
@@ -15188,19 +15188,19 @@
     </row>
     <row r="260" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
-        <v>1353</v>
+        <v>1348</v>
       </c>
       <c r="B260" t="s">
-        <v>1354</v>
+        <v>1349</v>
       </c>
       <c r="C260" t="s">
-        <v>1355</v>
+        <v>1350</v>
       </c>
       <c r="D260" t="s">
-        <v>1356</v>
+        <v>1351</v>
       </c>
       <c r="E260" t="s">
-        <v>1357</v>
+        <v>1352</v>
       </c>
       <c r="F260" t="s">
         <v>597</v>
@@ -15220,19 +15220,19 @@
     </row>
     <row r="261" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
-        <v>1358</v>
+        <v>1353</v>
       </c>
       <c r="B261" t="s">
-        <v>1359</v>
+        <v>1354</v>
       </c>
       <c r="C261" t="s">
-        <v>1360</v>
+        <v>1355</v>
       </c>
       <c r="D261" t="s">
-        <v>1361</v>
+        <v>1356</v>
       </c>
       <c r="E261" t="s">
-        <v>1362</v>
+        <v>1357</v>
       </c>
       <c r="F261" t="s">
         <v>597</v>
@@ -15252,19 +15252,19 @@
     </row>
     <row r="262" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
-        <v>1363</v>
+        <v>1358</v>
       </c>
       <c r="B262" t="s">
-        <v>1364</v>
+        <v>1359</v>
       </c>
       <c r="C262" t="s">
-        <v>1365</v>
+        <v>1360</v>
       </c>
       <c r="D262" t="s">
-        <v>1366</v>
+        <v>1361</v>
       </c>
       <c r="E262" t="s">
-        <v>1367</v>
+        <v>1362</v>
       </c>
       <c r="F262" t="s">
         <v>597</v>
@@ -15284,19 +15284,19 @@
     </row>
     <row r="263" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
-        <v>1368</v>
+        <v>1363</v>
       </c>
       <c r="B263" t="s">
-        <v>1369</v>
+        <v>1364</v>
       </c>
       <c r="C263" t="s">
-        <v>1370</v>
+        <v>1365</v>
       </c>
       <c r="D263" t="s">
-        <v>1371</v>
+        <v>1366</v>
       </c>
       <c r="E263" t="s">
-        <v>1372</v>
+        <v>1367</v>
       </c>
       <c r="F263" t="s">
         <v>597</v>
@@ -15319,16 +15319,16 @@
         <v>539</v>
       </c>
       <c r="B264" t="s">
-        <v>1373</v>
+        <v>1368</v>
       </c>
       <c r="C264" t="s">
-        <v>1374</v>
+        <v>1369</v>
       </c>
       <c r="D264" t="s">
-        <v>1375</v>
+        <v>1370</v>
       </c>
       <c r="E264" t="s">
-        <v>1376</v>
+        <v>1371</v>
       </c>
       <c r="F264" t="s">
         <v>597</v>
@@ -15348,19 +15348,19 @@
     </row>
     <row r="265" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
-        <v>1377</v>
+        <v>1372</v>
       </c>
       <c r="B265" t="s">
-        <v>1378</v>
+        <v>1373</v>
       </c>
       <c r="C265" t="s">
-        <v>1379</v>
+        <v>1374</v>
       </c>
       <c r="D265" t="s">
-        <v>1380</v>
+        <v>1375</v>
       </c>
       <c r="E265" t="s">
-        <v>1381</v>
+        <v>1376</v>
       </c>
       <c r="F265" t="s">
         <v>597</v>
@@ -15380,19 +15380,19 @@
     </row>
     <row r="266" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
-        <v>1382</v>
+        <v>1377</v>
       </c>
       <c r="B266" t="s">
-        <v>1383</v>
+        <v>1378</v>
       </c>
       <c r="C266" t="s">
-        <v>1384</v>
+        <v>1379</v>
       </c>
       <c r="D266" t="s">
-        <v>1385</v>
+        <v>1380</v>
       </c>
       <c r="E266" t="s">
-        <v>1386</v>
+        <v>1381</v>
       </c>
       <c r="F266" t="s">
         <v>597</v>
@@ -15415,16 +15415,16 @@
         <v>786</v>
       </c>
       <c r="B267" t="s">
-        <v>1387</v>
+        <v>1382</v>
       </c>
       <c r="C267" t="s">
-        <v>1388</v>
+        <v>1383</v>
       </c>
       <c r="D267" t="s">
-        <v>1389</v>
+        <v>1384</v>
       </c>
       <c r="E267" t="s">
-        <v>1390</v>
+        <v>1385</v>
       </c>
       <c r="F267" t="s">
         <v>597</v>
@@ -15444,7 +15444,7 @@
     </row>
     <row r="268" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
-        <v>1391</v>
+        <v>1386</v>
       </c>
       <c r="B268" t="s">
         <v>517</v>
@@ -15453,10 +15453,10 @@
         <v>880</v>
       </c>
       <c r="D268" t="s">
-        <v>1392</v>
+        <v>1387</v>
       </c>
       <c r="E268" t="s">
-        <v>1393</v>
+        <v>1388</v>
       </c>
       <c r="F268" t="s">
         <v>597</v>
@@ -15479,16 +15479,16 @@
         <v>406</v>
       </c>
       <c r="B269" t="s">
-        <v>1394</v>
+        <v>1389</v>
       </c>
       <c r="C269" t="s">
-        <v>1395</v>
+        <v>1390</v>
       </c>
       <c r="D269" t="s">
         <v>1202</v>
       </c>
       <c r="E269" t="s">
-        <v>1396</v>
+        <v>1391</v>
       </c>
       <c r="F269" t="s">
         <v>597</v>
@@ -15508,19 +15508,19 @@
     </row>
     <row r="270" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
-        <v>1397</v>
+        <v>1392</v>
       </c>
       <c r="B270" t="s">
-        <v>1398</v>
+        <v>1393</v>
       </c>
       <c r="C270" t="s">
-        <v>1399</v>
+        <v>1394</v>
       </c>
       <c r="D270" t="s">
-        <v>1400</v>
+        <v>1395</v>
       </c>
       <c r="E270" t="s">
-        <v>1401</v>
+        <v>1396</v>
       </c>
       <c r="F270" t="s">
         <v>597</v>
@@ -15543,16 +15543,16 @@
         <v>925</v>
       </c>
       <c r="B271" t="s">
-        <v>1402</v>
+        <v>1397</v>
       </c>
       <c r="C271" t="s">
-        <v>1403</v>
+        <v>1398</v>
       </c>
       <c r="D271" t="s">
-        <v>1404</v>
+        <v>1399</v>
       </c>
       <c r="E271" t="s">
-        <v>1405</v>
+        <v>1400</v>
       </c>
       <c r="F271" t="s">
         <v>597</v>
@@ -15572,19 +15572,19 @@
     </row>
     <row r="272" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
-        <v>1406</v>
+        <v>1401</v>
       </c>
       <c r="B272" t="s">
-        <v>1407</v>
+        <v>1402</v>
       </c>
       <c r="C272" t="s">
         <v>181</v>
       </c>
       <c r="D272" t="s">
-        <v>1408</v>
+        <v>1403</v>
       </c>
       <c r="E272" t="s">
-        <v>1409</v>
+        <v>1404</v>
       </c>
       <c r="F272" t="s">
         <v>597</v>
@@ -15604,19 +15604,19 @@
     </row>
     <row r="273" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
-        <v>1410</v>
+        <v>1405</v>
       </c>
       <c r="B273" t="s">
-        <v>1411</v>
+        <v>1406</v>
       </c>
       <c r="C273" t="s">
         <v>900</v>
       </c>
       <c r="D273" t="s">
-        <v>1412</v>
+        <v>1407</v>
       </c>
       <c r="E273" t="s">
-        <v>1413</v>
+        <v>1408</v>
       </c>
       <c r="F273" t="s">
         <v>597</v>
@@ -15636,19 +15636,19 @@
     </row>
     <row r="274" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
-        <v>1414</v>
+        <v>1409</v>
       </c>
       <c r="B274" t="s">
-        <v>1415</v>
+        <v>1410</v>
       </c>
       <c r="C274" t="s">
-        <v>1416</v>
+        <v>1411</v>
       </c>
       <c r="D274" t="s">
-        <v>1417</v>
+        <v>1412</v>
       </c>
       <c r="E274" t="s">
-        <v>1418</v>
+        <v>1413</v>
       </c>
       <c r="F274" t="s">
         <v>597</v>
@@ -15668,19 +15668,19 @@
     </row>
     <row r="275" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
-        <v>1419</v>
+        <v>1414</v>
       </c>
       <c r="B275" t="s">
-        <v>1420</v>
+        <v>1415</v>
       </c>
       <c r="C275" t="s">
-        <v>1421</v>
+        <v>1416</v>
       </c>
       <c r="D275" t="s">
-        <v>1422</v>
+        <v>1417</v>
       </c>
       <c r="E275" t="s">
-        <v>1423</v>
+        <v>1418</v>
       </c>
       <c r="F275" t="s">
         <v>597</v>
@@ -15700,19 +15700,19 @@
     </row>
     <row r="276" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
-        <v>1424</v>
+        <v>1419</v>
       </c>
       <c r="B276" t="s">
-        <v>1425</v>
+        <v>1420</v>
       </c>
       <c r="C276" t="s">
-        <v>1426</v>
+        <v>1421</v>
       </c>
       <c r="D276" t="s">
-        <v>1427</v>
+        <v>1422</v>
       </c>
       <c r="E276" t="s">
-        <v>1428</v>
+        <v>1423</v>
       </c>
       <c r="F276" t="s">
         <v>597</v>
@@ -15732,19 +15732,19 @@
     </row>
     <row r="277" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
-        <v>1429</v>
+        <v>1424</v>
       </c>
       <c r="B277" t="s">
-        <v>1430</v>
+        <v>1425</v>
       </c>
       <c r="C277" t="s">
-        <v>1431</v>
+        <v>1426</v>
       </c>
       <c r="D277" t="s">
-        <v>1432</v>
+        <v>1427</v>
       </c>
       <c r="E277" t="s">
-        <v>1433</v>
+        <v>1428</v>
       </c>
       <c r="F277" t="s">
         <v>597</v>
@@ -15764,19 +15764,19 @@
     </row>
     <row r="278" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
-        <v>1434</v>
+        <v>1429</v>
       </c>
       <c r="B278" t="s">
-        <v>1435</v>
+        <v>1430</v>
       </c>
       <c r="C278" t="s">
-        <v>1436</v>
+        <v>1431</v>
       </c>
       <c r="D278" t="s">
-        <v>1437</v>
+        <v>1432</v>
       </c>
       <c r="E278" t="s">
-        <v>1438</v>
+        <v>1433</v>
       </c>
       <c r="F278" t="s">
         <v>597</v>
@@ -15796,19 +15796,19 @@
     </row>
     <row r="279" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
-        <v>1439</v>
+        <v>1434</v>
       </c>
       <c r="B279" t="s">
-        <v>1440</v>
+        <v>1435</v>
       </c>
       <c r="C279" t="s">
-        <v>1441</v>
+        <v>1436</v>
       </c>
       <c r="D279" t="s">
-        <v>1442</v>
+        <v>1437</v>
       </c>
       <c r="E279" t="s">
-        <v>1443</v>
+        <v>1438</v>
       </c>
       <c r="F279" t="s">
         <v>597</v>
@@ -15828,19 +15828,19 @@
     </row>
     <row r="280" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
-        <v>1448</v>
+        <v>1443</v>
       </c>
       <c r="B280" t="s">
-        <v>1449</v>
+        <v>1444</v>
       </c>
       <c r="C280" t="s">
-        <v>1450</v>
+        <v>1445</v>
       </c>
       <c r="D280" t="s">
-        <v>1451</v>
+        <v>1446</v>
       </c>
       <c r="E280" t="s">
-        <v>1452</v>
+        <v>1447</v>
       </c>
       <c r="F280" t="s">
         <v>597</v>
@@ -15860,19 +15860,19 @@
     </row>
     <row r="281" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
-        <v>1453</v>
+        <v>1448</v>
       </c>
       <c r="B281" t="s">
-        <v>1454</v>
+        <v>1449</v>
       </c>
       <c r="C281" t="s">
-        <v>1455</v>
+        <v>1450</v>
       </c>
       <c r="D281" t="s">
-        <v>1456</v>
+        <v>1451</v>
       </c>
       <c r="E281" t="s">
-        <v>1457</v>
+        <v>1452</v>
       </c>
       <c r="F281" t="s">
         <v>597</v>
@@ -15892,19 +15892,19 @@
     </row>
     <row r="282" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
-        <v>1458</v>
+        <v>1453</v>
       </c>
       <c r="B282" t="s">
-        <v>1459</v>
+        <v>1454</v>
       </c>
       <c r="C282" t="s">
-        <v>1460</v>
+        <v>1455</v>
       </c>
       <c r="D282" t="s">
-        <v>1461</v>
+        <v>1456</v>
       </c>
       <c r="E282" t="s">
-        <v>1462</v>
+        <v>1457</v>
       </c>
       <c r="F282" t="s">
         <v>597</v>
@@ -15924,19 +15924,19 @@
     </row>
     <row r="283" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
-        <v>1463</v>
+        <v>1458</v>
       </c>
       <c r="B283" t="s">
-        <v>1464</v>
+        <v>1459</v>
       </c>
       <c r="C283" t="s">
-        <v>1465</v>
+        <v>1460</v>
       </c>
       <c r="D283" t="s">
-        <v>1466</v>
+        <v>1461</v>
       </c>
       <c r="E283" t="s">
-        <v>1467</v>
+        <v>1462</v>
       </c>
       <c r="F283" t="s">
         <v>597</v>
@@ -15956,19 +15956,19 @@
     </row>
     <row r="284" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
-        <v>1468</v>
+        <v>1463</v>
       </c>
       <c r="B284" t="s">
-        <v>1469</v>
+        <v>1464</v>
       </c>
       <c r="C284" t="s">
-        <v>1470</v>
+        <v>1465</v>
       </c>
       <c r="D284" t="s">
         <v>1157</v>
       </c>
       <c r="E284" t="s">
-        <v>1471</v>
+        <v>1466</v>
       </c>
       <c r="F284" t="s">
         <v>597</v>
@@ -15988,19 +15988,19 @@
     </row>
     <row r="285" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
-        <v>1472</v>
+        <v>1467</v>
       </c>
       <c r="B285" t="s">
-        <v>1444</v>
+        <v>1439</v>
       </c>
       <c r="C285" t="s">
-        <v>1445</v>
+        <v>1440</v>
       </c>
       <c r="D285" t="s">
-        <v>1446</v>
+        <v>1441</v>
       </c>
       <c r="E285" t="s">
-        <v>1447</v>
+        <v>1442</v>
       </c>
       <c r="F285" t="s">
         <v>597</v>
@@ -16023,16 +16023,16 @@
         <v>533</v>
       </c>
       <c r="B286" t="s">
-        <v>1473</v>
+        <v>1468</v>
       </c>
       <c r="C286" t="s">
-        <v>1474</v>
+        <v>1469</v>
       </c>
       <c r="D286" t="s">
-        <v>1475</v>
+        <v>1470</v>
       </c>
       <c r="E286" t="s">
-        <v>1476</v>
+        <v>1471</v>
       </c>
       <c r="F286" t="s">
         <v>597</v>
@@ -16052,19 +16052,19 @@
     </row>
     <row r="287" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
-        <v>1477</v>
+        <v>1472</v>
       </c>
       <c r="B287" t="s">
-        <v>1478</v>
+        <v>1473</v>
       </c>
       <c r="C287" t="s">
-        <v>1479</v>
+        <v>1474</v>
       </c>
       <c r="D287" t="s">
-        <v>1480</v>
+        <v>1475</v>
       </c>
       <c r="E287" t="s">
-        <v>1481</v>
+        <v>1476</v>
       </c>
       <c r="F287" t="s">
         <v>597</v>
@@ -16087,16 +16087,16 @@
         <v>208</v>
       </c>
       <c r="B288" t="s">
-        <v>1482</v>
+        <v>1477</v>
       </c>
       <c r="C288" t="s">
-        <v>1483</v>
+        <v>1478</v>
       </c>
       <c r="D288" t="s">
-        <v>1484</v>
+        <v>1479</v>
       </c>
       <c r="E288" t="s">
-        <v>1485</v>
+        <v>1480</v>
       </c>
       <c r="F288" t="s">
         <v>597</v>
@@ -16119,16 +16119,16 @@
         <v>210</v>
       </c>
       <c r="B289" t="s">
-        <v>1486</v>
+        <v>1481</v>
       </c>
       <c r="C289" t="s">
-        <v>1487</v>
+        <v>1482</v>
       </c>
       <c r="D289" t="s">
-        <v>1488</v>
+        <v>1483</v>
       </c>
       <c r="E289" t="s">
-        <v>1489</v>
+        <v>1484</v>
       </c>
       <c r="F289" t="s">
         <v>597</v>
@@ -16148,19 +16148,19 @@
     </row>
     <row r="290" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
-        <v>1490</v>
+        <v>1485</v>
       </c>
       <c r="B290" t="s">
         <v>857</v>
       </c>
       <c r="C290" t="s">
-        <v>1491</v>
+        <v>1486</v>
       </c>
       <c r="D290" t="s">
-        <v>1492</v>
+        <v>1487</v>
       </c>
       <c r="E290" t="s">
-        <v>1493</v>
+        <v>1488</v>
       </c>
       <c r="F290" t="s">
         <v>597</v>
@@ -16180,19 +16180,19 @@
     </row>
     <row r="291" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
-        <v>1494</v>
+        <v>1489</v>
       </c>
       <c r="B291" t="s">
-        <v>1495</v>
+        <v>1490</v>
       </c>
       <c r="C291" t="s">
-        <v>1496</v>
+        <v>1491</v>
       </c>
       <c r="D291" t="s">
-        <v>1497</v>
+        <v>1492</v>
       </c>
       <c r="E291" t="s">
-        <v>1498</v>
+        <v>1493</v>
       </c>
       <c r="F291" t="s">
         <v>597</v>
@@ -16212,19 +16212,19 @@
     </row>
     <row r="292" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
-        <v>1499</v>
+        <v>1494</v>
       </c>
       <c r="B292" t="s">
-        <v>1500</v>
+        <v>1495</v>
       </c>
       <c r="C292" t="s">
         <v>1268</v>
       </c>
       <c r="D292" t="s">
-        <v>1501</v>
+        <v>1496</v>
       </c>
       <c r="E292" t="s">
-        <v>1502</v>
+        <v>1497</v>
       </c>
       <c r="F292" t="s">
         <v>597</v>
@@ -16244,19 +16244,19 @@
     </row>
     <row r="293" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
-        <v>1503</v>
+        <v>1498</v>
       </c>
       <c r="B293" t="s">
-        <v>1504</v>
+        <v>1499</v>
       </c>
       <c r="C293" t="s">
-        <v>1505</v>
+        <v>1500</v>
       </c>
       <c r="D293" t="s">
-        <v>1506</v>
+        <v>1501</v>
       </c>
       <c r="E293" t="s">
-        <v>1507</v>
+        <v>1502</v>
       </c>
       <c r="F293" t="s">
         <v>597</v>
@@ -16276,19 +16276,19 @@
     </row>
     <row r="294" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
-        <v>1508</v>
+        <v>1503</v>
       </c>
       <c r="B294" t="s">
-        <v>1509</v>
+        <v>1504</v>
       </c>
       <c r="C294" t="s">
-        <v>1510</v>
+        <v>1505</v>
       </c>
       <c r="D294" t="s">
-        <v>1511</v>
+        <v>1506</v>
       </c>
       <c r="E294" t="s">
-        <v>1512</v>
+        <v>1507</v>
       </c>
       <c r="F294" t="s">
         <v>597</v>
@@ -16308,19 +16308,19 @@
     </row>
     <row r="295" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
-        <v>1513</v>
+        <v>1508</v>
       </c>
       <c r="B295" t="s">
-        <v>1514</v>
+        <v>1509</v>
       </c>
       <c r="C295" t="s">
-        <v>1515</v>
+        <v>1510</v>
       </c>
       <c r="D295" t="s">
-        <v>1516</v>
+        <v>1511</v>
       </c>
       <c r="E295" t="s">
-        <v>1517</v>
+        <v>1512</v>
       </c>
       <c r="F295" t="s">
         <v>597</v>
@@ -16340,19 +16340,19 @@
     </row>
     <row r="296" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
-        <v>1518</v>
+        <v>1513</v>
       </c>
       <c r="B296" t="s">
-        <v>1519</v>
+        <v>1514</v>
       </c>
       <c r="C296" t="s">
-        <v>1520</v>
+        <v>1515</v>
       </c>
       <c r="D296" t="s">
-        <v>1521</v>
+        <v>1516</v>
       </c>
       <c r="E296" t="s">
-        <v>1522</v>
+        <v>1517</v>
       </c>
       <c r="F296" t="s">
         <v>597</v>
@@ -16372,19 +16372,19 @@
     </row>
     <row r="297" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
-        <v>1523</v>
+        <v>1518</v>
       </c>
       <c r="B297" t="s">
         <v>1279</v>
       </c>
       <c r="C297" t="s">
-        <v>1524</v>
+        <v>1519</v>
       </c>
       <c r="D297" t="s">
-        <v>1525</v>
+        <v>1520</v>
       </c>
       <c r="E297" t="s">
-        <v>1526</v>
+        <v>1521</v>
       </c>
       <c r="F297" t="s">
         <v>597</v>
@@ -16404,19 +16404,19 @@
     </row>
     <row r="298" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
-        <v>1527</v>
+        <v>1522</v>
       </c>
       <c r="B298" t="s">
-        <v>1528</v>
+        <v>1523</v>
       </c>
       <c r="C298" t="s">
-        <v>1529</v>
+        <v>1524</v>
       </c>
       <c r="D298" t="s">
-        <v>1530</v>
+        <v>1525</v>
       </c>
       <c r="E298" t="s">
-        <v>1531</v>
+        <v>1526</v>
       </c>
       <c r="F298" t="s">
         <v>597</v>
@@ -16436,19 +16436,19 @@
     </row>
     <row r="299" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
-        <v>1532</v>
+        <v>1527</v>
       </c>
       <c r="B299" t="s">
-        <v>1533</v>
+        <v>1528</v>
       </c>
       <c r="C299" t="s">
-        <v>1534</v>
+        <v>1529</v>
       </c>
       <c r="D299" t="s">
-        <v>1535</v>
+        <v>1530</v>
       </c>
       <c r="E299" t="s">
-        <v>1536</v>
+        <v>1531</v>
       </c>
       <c r="F299" t="s">
         <v>597</v>
@@ -16468,19 +16468,19 @@
     </row>
     <row r="300" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
-        <v>1537</v>
+        <v>1532</v>
       </c>
       <c r="B300" t="s">
-        <v>1538</v>
+        <v>1533</v>
       </c>
       <c r="C300" t="s">
-        <v>1539</v>
+        <v>1534</v>
       </c>
       <c r="D300" t="s">
-        <v>1540</v>
+        <v>1535</v>
       </c>
       <c r="E300" t="s">
-        <v>1541</v>
+        <v>1536</v>
       </c>
       <c r="F300" t="s">
         <v>597</v>
@@ -16500,19 +16500,19 @@
     </row>
     <row r="301" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
-        <v>1542</v>
+        <v>1537</v>
       </c>
       <c r="B301" t="s">
-        <v>1543</v>
+        <v>1538</v>
       </c>
       <c r="C301" t="s">
-        <v>1544</v>
+        <v>1539</v>
       </c>
       <c r="D301" t="s">
-        <v>1545</v>
+        <v>1540</v>
       </c>
       <c r="E301" t="s">
-        <v>1546</v>
+        <v>1541</v>
       </c>
       <c r="F301" t="s">
         <v>597</v>
@@ -16532,19 +16532,19 @@
     </row>
     <row r="302" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
-        <v>1547</v>
+        <v>1542</v>
       </c>
       <c r="B302" t="s">
-        <v>1548</v>
+        <v>1543</v>
       </c>
       <c r="C302" t="s">
-        <v>1549</v>
+        <v>1544</v>
       </c>
       <c r="D302" t="s">
         <v>1111</v>
       </c>
       <c r="E302" t="s">
-        <v>1550</v>
+        <v>1545</v>
       </c>
       <c r="F302" t="s">
         <v>597</v>
@@ -16564,19 +16564,19 @@
     </row>
     <row r="303" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
-        <v>1551</v>
+        <v>1546</v>
       </c>
       <c r="B303" t="s">
         <v>1110</v>
       </c>
       <c r="C303" t="s">
-        <v>1552</v>
+        <v>1547</v>
       </c>
       <c r="D303" t="s">
-        <v>1553</v>
+        <v>1548</v>
       </c>
       <c r="E303" t="s">
-        <v>1554</v>
+        <v>1549</v>
       </c>
       <c r="F303" t="s">
         <v>597</v>
@@ -16596,19 +16596,19 @@
     </row>
     <row r="304" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
-        <v>1555</v>
+        <v>1550</v>
       </c>
       <c r="B304" t="s">
         <v>218</v>
       </c>
       <c r="C304" t="s">
-        <v>1556</v>
+        <v>1551</v>
       </c>
       <c r="D304" t="s">
-        <v>1557</v>
+        <v>1552</v>
       </c>
       <c r="E304" t="s">
-        <v>1558</v>
+        <v>1553</v>
       </c>
       <c r="F304" t="s">
         <v>597</v>
@@ -16628,19 +16628,19 @@
     </row>
     <row r="305" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
-        <v>1559</v>
+        <v>1554</v>
       </c>
       <c r="B305" t="s">
-        <v>1560</v>
+        <v>1555</v>
       </c>
       <c r="C305" t="s">
-        <v>1561</v>
+        <v>1556</v>
       </c>
       <c r="D305" t="s">
-        <v>1562</v>
+        <v>1557</v>
       </c>
       <c r="E305" t="s">
-        <v>1563</v>
+        <v>1558</v>
       </c>
       <c r="F305" t="s">
         <v>597</v>
@@ -16660,19 +16660,19 @@
     </row>
     <row r="306" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
-        <v>1564</v>
+        <v>1559</v>
       </c>
       <c r="B306" t="s">
-        <v>1565</v>
+        <v>1560</v>
       </c>
       <c r="C306" t="s">
-        <v>1566</v>
+        <v>1561</v>
       </c>
       <c r="D306" t="s">
-        <v>1567</v>
+        <v>1562</v>
       </c>
       <c r="E306" t="s">
-        <v>1568</v>
+        <v>1563</v>
       </c>
       <c r="F306" t="s">
         <v>597</v>
@@ -16692,19 +16692,19 @@
     </row>
     <row r="307" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
-        <v>1569</v>
+        <v>1564</v>
       </c>
       <c r="B307" t="s">
         <v>973</v>
       </c>
       <c r="C307" t="s">
-        <v>1570</v>
+        <v>1565</v>
       </c>
       <c r="D307" t="s">
-        <v>1571</v>
+        <v>1566</v>
       </c>
       <c r="E307" t="s">
-        <v>1572</v>
+        <v>1567</v>
       </c>
       <c r="F307" t="s">
         <v>597</v>
@@ -16724,19 +16724,19 @@
     </row>
     <row r="308" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
-        <v>1573</v>
+        <v>1568</v>
       </c>
       <c r="B308" t="s">
-        <v>1574</v>
+        <v>1569</v>
       </c>
       <c r="C308" t="s">
-        <v>1432</v>
+        <v>1427</v>
       </c>
       <c r="D308" t="s">
-        <v>1575</v>
+        <v>1570</v>
       </c>
       <c r="E308" t="s">
-        <v>1576</v>
+        <v>1571</v>
       </c>
       <c r="F308" t="s">
         <v>597</v>
@@ -16756,19 +16756,19 @@
     </row>
     <row r="309" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
-        <v>1577</v>
+        <v>1572</v>
       </c>
       <c r="B309" t="s">
-        <v>1578</v>
+        <v>1573</v>
       </c>
       <c r="C309" t="s">
-        <v>1579</v>
+        <v>1574</v>
       </c>
       <c r="D309" t="s">
-        <v>1580</v>
+        <v>1575</v>
       </c>
       <c r="E309" t="s">
-        <v>1581</v>
+        <v>1576</v>
       </c>
       <c r="F309" t="s">
         <v>597</v>
@@ -16788,19 +16788,19 @@
     </row>
     <row r="310" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
-        <v>1582</v>
+        <v>1577</v>
       </c>
       <c r="B310" t="s">
-        <v>1583</v>
+        <v>1578</v>
       </c>
       <c r="C310" t="s">
-        <v>1584</v>
+        <v>1579</v>
       </c>
       <c r="D310" t="s">
-        <v>1585</v>
+        <v>1580</v>
       </c>
       <c r="E310" t="s">
-        <v>1586</v>
+        <v>1581</v>
       </c>
       <c r="F310" t="s">
         <v>597</v>
@@ -16820,19 +16820,19 @@
     </row>
     <row r="311" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
-        <v>1587</v>
+        <v>1582</v>
       </c>
       <c r="B311" t="s">
-        <v>1588</v>
+        <v>1583</v>
       </c>
       <c r="C311" t="s">
-        <v>1589</v>
+        <v>1584</v>
       </c>
       <c r="D311" t="s">
-        <v>1590</v>
+        <v>1585</v>
       </c>
       <c r="E311" t="s">
-        <v>1591</v>
+        <v>1586</v>
       </c>
       <c r="F311" t="s">
         <v>597</v>
@@ -16852,19 +16852,19 @@
     </row>
     <row r="312" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
-        <v>1592</v>
+        <v>1587</v>
       </c>
       <c r="B312" t="s">
-        <v>1593</v>
+        <v>1588</v>
       </c>
       <c r="C312" t="s">
-        <v>1594</v>
+        <v>1589</v>
       </c>
       <c r="D312" t="s">
-        <v>1595</v>
+        <v>1590</v>
       </c>
       <c r="E312" t="s">
-        <v>1596</v>
+        <v>1591</v>
       </c>
       <c r="F312" t="s">
         <v>597</v>
@@ -16884,19 +16884,19 @@
     </row>
     <row r="313" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
-        <v>1597</v>
+        <v>1592</v>
       </c>
       <c r="B313" t="s">
-        <v>1598</v>
+        <v>1593</v>
       </c>
       <c r="C313" t="s">
-        <v>1599</v>
+        <v>1594</v>
       </c>
       <c r="D313" t="s">
-        <v>1600</v>
+        <v>1595</v>
       </c>
       <c r="E313" t="s">
-        <v>1601</v>
+        <v>1596</v>
       </c>
       <c r="F313" t="s">
         <v>597</v>
@@ -16919,16 +16919,16 @@
         <v>574</v>
       </c>
       <c r="B314" t="s">
-        <v>1602</v>
+        <v>1597</v>
       </c>
       <c r="C314" t="s">
-        <v>1603</v>
+        <v>1598</v>
       </c>
       <c r="D314" t="s">
-        <v>1604</v>
+        <v>1599</v>
       </c>
       <c r="E314" t="s">
-        <v>1605</v>
+        <v>1600</v>
       </c>
       <c r="F314" t="s">
         <v>597</v>
@@ -16948,19 +16948,19 @@
     </row>
     <row r="315" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
-        <v>1606</v>
+        <v>1601</v>
       </c>
       <c r="B315" t="s">
-        <v>1607</v>
+        <v>1602</v>
       </c>
       <c r="C315" t="s">
-        <v>1608</v>
+        <v>1603</v>
       </c>
       <c r="D315" t="s">
-        <v>1609</v>
+        <v>1604</v>
       </c>
       <c r="E315" t="s">
-        <v>1610</v>
+        <v>1605</v>
       </c>
       <c r="F315" t="s">
         <v>597</v>
@@ -16980,19 +16980,19 @@
     </row>
     <row r="316" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
-        <v>1611</v>
+        <v>1606</v>
       </c>
       <c r="B316" t="s">
-        <v>1612</v>
+        <v>1607</v>
       </c>
       <c r="C316" t="s">
-        <v>1613</v>
+        <v>1608</v>
       </c>
       <c r="D316" t="s">
-        <v>1614</v>
+        <v>1609</v>
       </c>
       <c r="E316" t="s">
-        <v>1615</v>
+        <v>1610</v>
       </c>
       <c r="F316" t="s">
         <v>597</v>
@@ -17012,19 +17012,19 @@
     </row>
     <row r="317" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
-        <v>1616</v>
+        <v>1611</v>
       </c>
       <c r="B317" t="s">
-        <v>1617</v>
+        <v>1612</v>
       </c>
       <c r="C317" t="s">
-        <v>1618</v>
+        <v>1613</v>
       </c>
       <c r="D317" t="s">
-        <v>1619</v>
+        <v>1614</v>
       </c>
       <c r="E317" t="s">
-        <v>1620</v>
+        <v>1615</v>
       </c>
       <c r="F317" t="s">
         <v>597</v>
@@ -17044,19 +17044,19 @@
     </row>
     <row r="318" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
-        <v>1621</v>
+        <v>1616</v>
       </c>
       <c r="B318" t="s">
         <v>676</v>
       </c>
       <c r="C318" t="s">
-        <v>1622</v>
+        <v>1617</v>
       </c>
       <c r="D318" t="s">
-        <v>1623</v>
+        <v>1618</v>
       </c>
       <c r="E318" t="s">
-        <v>1624</v>
+        <v>1619</v>
       </c>
       <c r="F318" t="s">
         <v>597</v>
@@ -17079,16 +17079,16 @@
         <v>779</v>
       </c>
       <c r="B319" t="s">
-        <v>1625</v>
+        <v>1620</v>
       </c>
       <c r="C319" t="s">
-        <v>1626</v>
+        <v>1621</v>
       </c>
       <c r="D319" t="s">
-        <v>1627</v>
+        <v>1622</v>
       </c>
       <c r="E319" t="s">
-        <v>1628</v>
+        <v>1623</v>
       </c>
       <c r="F319" t="s">
         <v>597</v>
@@ -17108,19 +17108,19 @@
     </row>
     <row r="320" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
-        <v>1629</v>
+        <v>1624</v>
       </c>
       <c r="B320" t="s">
-        <v>1630</v>
+        <v>1625</v>
       </c>
       <c r="C320" t="s">
-        <v>1631</v>
+        <v>1626</v>
       </c>
       <c r="D320" t="s">
-        <v>1632</v>
+        <v>1627</v>
       </c>
       <c r="E320" t="s">
-        <v>1633</v>
+        <v>1628</v>
       </c>
       <c r="F320" t="s">
         <v>597</v>
@@ -17140,16 +17140,16 @@
     </row>
     <row r="321" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
-        <v>1634</v>
+        <v>1629</v>
       </c>
       <c r="B321" t="s">
-        <v>1635</v>
+        <v>1630</v>
       </c>
       <c r="C321" t="s">
-        <v>1420</v>
+        <v>1415</v>
       </c>
       <c r="D321" t="s">
-        <v>1636</v>
+        <v>1631</v>
       </c>
       <c r="E321" t="s">
         <v>1060</v>
@@ -17172,19 +17172,19 @@
     </row>
     <row r="322" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
-        <v>1637</v>
+        <v>1632</v>
       </c>
       <c r="B322" t="s">
-        <v>1638</v>
+        <v>1633</v>
       </c>
       <c r="C322" t="s">
-        <v>1639</v>
+        <v>1634</v>
       </c>
       <c r="D322" t="s">
-        <v>1640</v>
+        <v>1635</v>
       </c>
       <c r="E322" t="s">
-        <v>1641</v>
+        <v>1636</v>
       </c>
       <c r="F322" t="s">
         <v>597</v>
@@ -17204,19 +17204,19 @@
     </row>
     <row r="323" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
-        <v>1642</v>
+        <v>1637</v>
       </c>
       <c r="B323" t="s">
-        <v>1643</v>
+        <v>1638</v>
       </c>
       <c r="C323" t="s">
-        <v>1644</v>
+        <v>1639</v>
       </c>
       <c r="D323" t="s">
-        <v>1645</v>
+        <v>1640</v>
       </c>
       <c r="E323" t="s">
-        <v>1646</v>
+        <v>1641</v>
       </c>
       <c r="F323" t="s">
         <v>597</v>
@@ -17236,19 +17236,19 @@
     </row>
     <row r="324" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
-        <v>1647</v>
+        <v>1642</v>
       </c>
       <c r="B324" t="s">
-        <v>1648</v>
+        <v>1643</v>
       </c>
       <c r="C324" t="s">
-        <v>1649</v>
+        <v>1644</v>
       </c>
       <c r="D324" t="s">
-        <v>1650</v>
+        <v>1645</v>
       </c>
       <c r="E324" t="s">
-        <v>1651</v>
+        <v>1646</v>
       </c>
       <c r="F324" t="s">
         <v>597</v>
@@ -17268,19 +17268,19 @@
     </row>
     <row r="325" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
-        <v>1652</v>
+        <v>1647</v>
       </c>
       <c r="B325" t="s">
-        <v>1653</v>
+        <v>1648</v>
       </c>
       <c r="C325" t="s">
-        <v>1654</v>
+        <v>1649</v>
       </c>
       <c r="D325" t="s">
-        <v>1655</v>
+        <v>1650</v>
       </c>
       <c r="E325" t="s">
-        <v>1656</v>
+        <v>1651</v>
       </c>
       <c r="F325" t="s">
         <v>597</v>
@@ -17300,19 +17300,19 @@
     </row>
     <row r="326" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
-        <v>1657</v>
+        <v>1652</v>
       </c>
       <c r="B326" t="s">
         <v>1119</v>
       </c>
       <c r="C326" t="s">
-        <v>1658</v>
+        <v>1653</v>
       </c>
       <c r="D326" t="s">
-        <v>1659</v>
+        <v>1654</v>
       </c>
       <c r="E326" t="s">
-        <v>1660</v>
+        <v>1655</v>
       </c>
       <c r="F326" t="s">
         <v>597</v>
@@ -17332,19 +17332,19 @@
     </row>
     <row r="327" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
-        <v>1661</v>
+        <v>1656</v>
       </c>
       <c r="B327" t="s">
         <v>308</v>
       </c>
       <c r="C327" t="s">
-        <v>1662</v>
+        <v>1657</v>
       </c>
       <c r="D327" t="s">
-        <v>1663</v>
+        <v>1658</v>
       </c>
       <c r="E327" t="s">
-        <v>1664</v>
+        <v>1659</v>
       </c>
       <c r="F327" t="s">
         <v>597</v>
@@ -17364,19 +17364,19 @@
     </row>
     <row r="328" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
-        <v>1665</v>
+        <v>1660</v>
       </c>
       <c r="B328" t="s">
-        <v>1666</v>
+        <v>1661</v>
       </c>
       <c r="C328" t="s">
-        <v>1667</v>
+        <v>1662</v>
       </c>
       <c r="D328" t="s">
-        <v>1668</v>
+        <v>1663</v>
       </c>
       <c r="E328" t="s">
-        <v>1669</v>
+        <v>1664</v>
       </c>
       <c r="F328" t="s">
         <v>597</v>
@@ -17396,7 +17396,7 @@
     </row>
     <row r="329" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
-        <v>1670</v>
+        <v>1665</v>
       </c>
       <c r="B329" t="s">
         <v>1253</v>
@@ -17405,10 +17405,10 @@
         <v>367</v>
       </c>
       <c r="D329" t="s">
-        <v>1671</v>
+        <v>1666</v>
       </c>
       <c r="E329" t="s">
-        <v>1672</v>
+        <v>1667</v>
       </c>
       <c r="F329" t="s">
         <v>597</v>
@@ -17428,19 +17428,19 @@
     </row>
     <row r="330" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
-        <v>1673</v>
+        <v>1668</v>
       </c>
       <c r="B330" t="s">
-        <v>1674</v>
+        <v>1669</v>
       </c>
       <c r="C330" t="s">
-        <v>1675</v>
+        <v>1670</v>
       </c>
       <c r="D330" t="s">
         <v>925</v>
       </c>
       <c r="E330" t="s">
-        <v>1676</v>
+        <v>1671</v>
       </c>
       <c r="F330" t="s">
         <v>597</v>
@@ -17460,19 +17460,19 @@
     </row>
     <row r="331" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
-        <v>1677</v>
+        <v>1672</v>
       </c>
       <c r="B331" t="s">
-        <v>1678</v>
+        <v>1673</v>
       </c>
       <c r="C331" t="s">
         <v>227</v>
       </c>
       <c r="D331" t="s">
-        <v>1679</v>
+        <v>1674</v>
       </c>
       <c r="E331" t="s">
-        <v>1680</v>
+        <v>1675</v>
       </c>
       <c r="F331" t="s">
         <v>597</v>
@@ -17492,16 +17492,16 @@
     </row>
     <row r="332" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
-        <v>1434</v>
+        <v>1429</v>
       </c>
       <c r="B332" t="s">
-        <v>1681</v>
+        <v>1676</v>
       </c>
       <c r="C332" t="s">
-        <v>1682</v>
+        <v>1677</v>
       </c>
       <c r="E332" t="s">
-        <v>1683</v>
+        <v>1678</v>
       </c>
       <c r="F332" t="s">
         <v>597</v>
@@ -17521,19 +17521,19 @@
     </row>
     <row r="333" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
-        <v>1684</v>
+        <v>1679</v>
       </c>
       <c r="B333" t="s">
-        <v>1685</v>
+        <v>1680</v>
       </c>
       <c r="C333" t="s">
-        <v>1686</v>
+        <v>1681</v>
       </c>
       <c r="D333" t="s">
-        <v>1687</v>
+        <v>1682</v>
       </c>
       <c r="E333" t="s">
-        <v>1688</v>
+        <v>1683</v>
       </c>
       <c r="F333" t="s">
         <v>597</v>
@@ -17553,19 +17553,19 @@
     </row>
     <row r="334" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
-        <v>1689</v>
+        <v>1684</v>
       </c>
       <c r="B334" t="s">
-        <v>1690</v>
+        <v>1685</v>
       </c>
       <c r="C334" t="s">
         <v>228</v>
       </c>
       <c r="D334" t="s">
-        <v>1691</v>
+        <v>1686</v>
       </c>
       <c r="E334" t="s">
-        <v>1692</v>
+        <v>1687</v>
       </c>
       <c r="F334" t="s">
         <v>597</v>
@@ -17585,19 +17585,19 @@
     </row>
     <row r="335" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
-        <v>1693</v>
+        <v>1688</v>
       </c>
       <c r="B335" t="s">
-        <v>1694</v>
+        <v>1689</v>
       </c>
       <c r="C335" t="s">
-        <v>1695</v>
+        <v>1690</v>
       </c>
       <c r="D335" t="s">
-        <v>1696</v>
+        <v>1691</v>
       </c>
       <c r="E335" t="s">
-        <v>1697</v>
+        <v>1692</v>
       </c>
       <c r="F335" t="s">
         <v>597</v>
@@ -17617,19 +17617,19 @@
     </row>
     <row r="336" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
-        <v>1698</v>
+        <v>1693</v>
       </c>
       <c r="B336" t="s">
-        <v>1699</v>
+        <v>1694</v>
       </c>
       <c r="C336" t="s">
-        <v>1700</v>
+        <v>1695</v>
       </c>
       <c r="D336" t="s">
-        <v>1701</v>
+        <v>1696</v>
       </c>
       <c r="E336" t="s">
-        <v>1702</v>
+        <v>1697</v>
       </c>
       <c r="F336" t="s">
         <v>597</v>
@@ -17649,19 +17649,19 @@
     </row>
     <row r="337" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
-        <v>1703</v>
+        <v>1698</v>
       </c>
       <c r="B337" t="s">
-        <v>1704</v>
+        <v>1699</v>
       </c>
       <c r="C337" t="s">
         <v>689</v>
       </c>
       <c r="D337" t="s">
-        <v>1705</v>
+        <v>1700</v>
       </c>
       <c r="E337" t="s">
-        <v>1706</v>
+        <v>1701</v>
       </c>
       <c r="F337" t="s">
         <v>597</v>
@@ -17681,19 +17681,19 @@
     </row>
     <row r="338" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
-        <v>1707</v>
+        <v>1702</v>
       </c>
       <c r="B338" t="s">
-        <v>1708</v>
+        <v>1703</v>
       </c>
       <c r="C338" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
       <c r="D338" t="s">
-        <v>1710</v>
+        <v>1705</v>
       </c>
       <c r="E338" t="s">
-        <v>1711</v>
+        <v>1706</v>
       </c>
       <c r="F338" t="s">
         <v>597</v>
@@ -17713,19 +17713,19 @@
     </row>
     <row r="339" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
-        <v>1712</v>
+        <v>1707</v>
       </c>
       <c r="B339" t="s">
-        <v>1713</v>
+        <v>1708</v>
       </c>
       <c r="C339" t="s">
-        <v>1714</v>
+        <v>1709</v>
       </c>
       <c r="D339" t="s">
-        <v>1715</v>
+        <v>1710</v>
       </c>
       <c r="E339" t="s">
-        <v>1716</v>
+        <v>1711</v>
       </c>
       <c r="F339" t="s">
         <v>597</v>
@@ -17745,19 +17745,19 @@
     </row>
     <row r="340" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
-        <v>1717</v>
+        <v>1712</v>
       </c>
       <c r="B340" t="s">
-        <v>1718</v>
+        <v>1713</v>
       </c>
       <c r="C340" t="s">
-        <v>1719</v>
+        <v>1714</v>
       </c>
       <c r="D340" t="s">
-        <v>1720</v>
+        <v>1715</v>
       </c>
       <c r="E340" t="s">
-        <v>1721</v>
+        <v>1716</v>
       </c>
       <c r="F340" t="s">
         <v>597</v>
@@ -17777,16 +17777,16 @@
     </row>
     <row r="341" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
-        <v>1722</v>
+        <v>1717</v>
       </c>
       <c r="B341" t="s">
-        <v>1723</v>
+        <v>1718</v>
       </c>
       <c r="C341" t="s">
-        <v>1724</v>
+        <v>1719</v>
       </c>
       <c r="D341" t="s">
-        <v>1725</v>
+        <v>1720</v>
       </c>
       <c r="E341" t="s">
         <v>777</v>
@@ -17809,19 +17809,19 @@
     </row>
     <row r="342" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
-        <v>1726</v>
+        <v>1721</v>
       </c>
       <c r="B342" t="s">
-        <v>1727</v>
+        <v>1722</v>
       </c>
       <c r="C342" t="s">
-        <v>1728</v>
+        <v>1723</v>
       </c>
       <c r="D342" t="s">
-        <v>1729</v>
+        <v>1724</v>
       </c>
       <c r="E342" t="s">
-        <v>1730</v>
+        <v>1725</v>
       </c>
       <c r="F342" t="s">
         <v>597</v>
@@ -17841,19 +17841,19 @@
     </row>
     <row r="343" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
-        <v>1731</v>
+        <v>1726</v>
       </c>
       <c r="B343" t="s">
-        <v>1732</v>
+        <v>1727</v>
       </c>
       <c r="C343" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
       <c r="D343" t="s">
-        <v>1389</v>
+        <v>1384</v>
       </c>
       <c r="E343" t="s">
-        <v>1734</v>
+        <v>1729</v>
       </c>
       <c r="F343" t="s">
         <v>597</v>
@@ -17873,19 +17873,19 @@
     </row>
     <row r="344" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
-        <v>1735</v>
+        <v>1730</v>
       </c>
       <c r="B344" t="s">
-        <v>1736</v>
+        <v>1731</v>
       </c>
       <c r="C344" t="s">
-        <v>1737</v>
+        <v>1732</v>
       </c>
       <c r="D344" t="s">
-        <v>1738</v>
+        <v>1733</v>
       </c>
       <c r="E344" t="s">
-        <v>1739</v>
+        <v>1734</v>
       </c>
       <c r="F344" t="s">
         <v>597</v>
@@ -17905,19 +17905,19 @@
     </row>
     <row r="345" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
-        <v>1740</v>
+        <v>1735</v>
       </c>
       <c r="B345" t="s">
-        <v>1741</v>
+        <v>1736</v>
       </c>
       <c r="C345" t="s">
-        <v>1742</v>
+        <v>1737</v>
       </c>
       <c r="D345" t="s">
-        <v>1743</v>
+        <v>1738</v>
       </c>
       <c r="E345" t="s">
-        <v>1744</v>
+        <v>1739</v>
       </c>
       <c r="F345" t="s">
         <v>597</v>
@@ -17937,19 +17937,19 @@
     </row>
     <row r="346" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
-        <v>1745</v>
+        <v>1740</v>
       </c>
       <c r="B346" t="s">
-        <v>1746</v>
+        <v>1741</v>
       </c>
       <c r="C346" t="s">
-        <v>1747</v>
+        <v>1742</v>
       </c>
       <c r="D346" t="s">
-        <v>1748</v>
+        <v>1743</v>
       </c>
       <c r="E346" t="s">
-        <v>1749</v>
+        <v>1744</v>
       </c>
       <c r="F346" t="s">
         <v>597</v>
@@ -17969,19 +17969,19 @@
     </row>
     <row r="347" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
-        <v>1470</v>
+        <v>1465</v>
       </c>
       <c r="B347" t="s">
-        <v>1387</v>
+        <v>1382</v>
       </c>
       <c r="C347" t="s">
-        <v>1750</v>
+        <v>1745</v>
       </c>
       <c r="D347" t="s">
-        <v>1751</v>
+        <v>1746</v>
       </c>
       <c r="E347" t="s">
-        <v>1752</v>
+        <v>1747</v>
       </c>
       <c r="F347" t="s">
         <v>597</v>
@@ -18004,16 +18004,16 @@
         <v>228</v>
       </c>
       <c r="B348" t="s">
-        <v>1753</v>
+        <v>1748</v>
       </c>
       <c r="C348" t="s">
         <v>20</v>
       </c>
       <c r="D348" t="s">
-        <v>1754</v>
+        <v>1749</v>
       </c>
       <c r="E348" t="s">
-        <v>1755</v>
+        <v>1750</v>
       </c>
       <c r="F348" t="s">
         <v>597</v>
@@ -18033,19 +18033,19 @@
     </row>
     <row r="349" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
-        <v>1756</v>
+        <v>1751</v>
       </c>
       <c r="B349" t="s">
-        <v>1757</v>
+        <v>1752</v>
       </c>
       <c r="C349" t="s">
         <v>674</v>
       </c>
       <c r="D349" t="s">
-        <v>1758</v>
+        <v>1753</v>
       </c>
       <c r="E349" t="s">
-        <v>1759</v>
+        <v>1754</v>
       </c>
       <c r="F349" t="s">
         <v>597</v>
@@ -18065,19 +18065,19 @@
     </row>
     <row r="350" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
-        <v>1760</v>
+        <v>1755</v>
       </c>
       <c r="B350" t="s">
-        <v>1761</v>
+        <v>1756</v>
       </c>
       <c r="C350" t="s">
         <v>188</v>
       </c>
       <c r="D350" t="s">
-        <v>1762</v>
+        <v>1757</v>
       </c>
       <c r="E350" t="s">
-        <v>1763</v>
+        <v>1758</v>
       </c>
       <c r="F350" t="s">
         <v>597</v>
@@ -18097,19 +18097,19 @@
     </row>
     <row r="351" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
-        <v>1392</v>
+        <v>1387</v>
       </c>
       <c r="B351" t="s">
         <v>497</v>
       </c>
       <c r="C351" t="s">
-        <v>1764</v>
+        <v>1759</v>
       </c>
       <c r="D351" t="s">
-        <v>1765</v>
+        <v>1760</v>
       </c>
       <c r="E351" t="s">
-        <v>1766</v>
+        <v>1761</v>
       </c>
       <c r="F351" t="s">
         <v>597</v>
@@ -18129,19 +18129,19 @@
     </row>
     <row r="352" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
-        <v>1767</v>
+        <v>1762</v>
       </c>
       <c r="B352" t="s">
-        <v>1768</v>
+        <v>1763</v>
       </c>
       <c r="C352" t="s">
-        <v>1769</v>
+        <v>1764</v>
       </c>
       <c r="D352" t="s">
-        <v>1770</v>
+        <v>1765</v>
       </c>
       <c r="E352" t="s">
-        <v>1771</v>
+        <v>1766</v>
       </c>
       <c r="F352" t="s">
         <v>597</v>
@@ -18161,19 +18161,19 @@
     </row>
     <row r="353" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
-        <v>1772</v>
+        <v>1767</v>
       </c>
       <c r="B353" t="s">
-        <v>1773</v>
+        <v>1768</v>
       </c>
       <c r="C353" t="s">
-        <v>1774</v>
+        <v>1769</v>
       </c>
       <c r="D353" t="s">
-        <v>1775</v>
+        <v>1770</v>
       </c>
       <c r="E353" t="s">
-        <v>1776</v>
+        <v>1771</v>
       </c>
       <c r="F353" t="s">
         <v>597</v>
@@ -18193,19 +18193,19 @@
     </row>
     <row r="354" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
-        <v>1777</v>
+        <v>1772</v>
       </c>
       <c r="B354" t="s">
-        <v>1778</v>
+        <v>1773</v>
       </c>
       <c r="C354" t="s">
-        <v>1779</v>
+        <v>1774</v>
       </c>
       <c r="D354" t="s">
-        <v>1780</v>
+        <v>1775</v>
       </c>
       <c r="E354" t="s">
-        <v>1781</v>
+        <v>1776</v>
       </c>
       <c r="F354" t="s">
         <v>597</v>
@@ -18225,19 +18225,19 @@
     </row>
     <row r="355" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
-        <v>1782</v>
+        <v>1777</v>
       </c>
       <c r="B355" t="s">
-        <v>1783</v>
+        <v>1778</v>
       </c>
       <c r="C355" t="s">
-        <v>1784</v>
+        <v>1779</v>
       </c>
       <c r="D355" t="s">
-        <v>1785</v>
+        <v>1780</v>
       </c>
       <c r="E355" t="s">
-        <v>1786</v>
+        <v>1781</v>
       </c>
       <c r="F355" t="s">
         <v>597</v>
@@ -18257,19 +18257,19 @@
     </row>
     <row r="356" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
-        <v>1787</v>
+        <v>1782</v>
       </c>
       <c r="B356" t="s">
-        <v>1788</v>
+        <v>1783</v>
       </c>
       <c r="C356" t="s">
-        <v>1789</v>
+        <v>1784</v>
       </c>
       <c r="D356" t="s">
-        <v>1790</v>
+        <v>1785</v>
       </c>
       <c r="E356" t="s">
-        <v>1791</v>
+        <v>1786</v>
       </c>
       <c r="F356" t="s">
         <v>597</v>
@@ -18289,19 +18289,19 @@
     </row>
     <row r="357" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
-        <v>1792</v>
+        <v>1787</v>
       </c>
       <c r="B357" t="s">
-        <v>1793</v>
+        <v>1788</v>
       </c>
       <c r="C357" t="s">
-        <v>1794</v>
+        <v>1789</v>
       </c>
       <c r="D357" t="s">
-        <v>1795</v>
+        <v>1790</v>
       </c>
       <c r="E357" t="s">
-        <v>1796</v>
+        <v>1791</v>
       </c>
       <c r="F357" t="s">
         <v>597</v>
@@ -18321,19 +18321,19 @@
     </row>
     <row r="358" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
-        <v>1797</v>
+        <v>1792</v>
       </c>
       <c r="B358" t="s">
-        <v>1798</v>
+        <v>1793</v>
       </c>
       <c r="C358" t="s">
-        <v>1799</v>
+        <v>1794</v>
       </c>
       <c r="D358" t="s">
-        <v>1800</v>
+        <v>1795</v>
       </c>
       <c r="E358" t="s">
-        <v>1801</v>
+        <v>1796</v>
       </c>
       <c r="F358" t="s">
         <v>597</v>
@@ -18353,19 +18353,19 @@
     </row>
     <row r="359" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
-        <v>1679</v>
+        <v>1674</v>
       </c>
       <c r="B359" t="s">
-        <v>1802</v>
+        <v>1797</v>
       </c>
       <c r="C359" t="s">
-        <v>1803</v>
+        <v>1798</v>
       </c>
       <c r="D359" t="s">
-        <v>1804</v>
+        <v>1799</v>
       </c>
       <c r="E359" t="s">
-        <v>1805</v>
+        <v>1800</v>
       </c>
       <c r="F359" t="s">
         <v>597</v>
@@ -18385,19 +18385,19 @@
     </row>
     <row r="360" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
-        <v>1806</v>
+        <v>1801</v>
       </c>
       <c r="B360" t="s">
-        <v>1807</v>
+        <v>1802</v>
       </c>
       <c r="C360" t="s">
-        <v>1808</v>
+        <v>1803</v>
       </c>
       <c r="D360" t="s">
-        <v>1809</v>
+        <v>1804</v>
       </c>
       <c r="E360" t="s">
-        <v>1810</v>
+        <v>1805</v>
       </c>
       <c r="F360" t="s">
         <v>597</v>
@@ -18417,19 +18417,19 @@
     </row>
     <row r="361" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
-        <v>1811</v>
+        <v>1806</v>
       </c>
       <c r="B361" t="s">
-        <v>1812</v>
+        <v>1807</v>
       </c>
       <c r="C361" t="s">
-        <v>1813</v>
+        <v>1808</v>
       </c>
       <c r="D361" t="s">
         <v>1124</v>
       </c>
       <c r="E361" t="s">
-        <v>1814</v>
+        <v>1809</v>
       </c>
       <c r="F361" t="s">
         <v>597</v>
@@ -19601,19 +19601,19 @@
     </row>
     <row r="398" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A398" t="s">
-        <v>1830</v>
+        <v>1825</v>
       </c>
       <c r="B398" t="s">
-        <v>1831</v>
+        <v>1826</v>
       </c>
       <c r="C398" t="s">
-        <v>1832</v>
+        <v>1827</v>
       </c>
       <c r="D398" t="s">
-        <v>1833</v>
+        <v>1828</v>
       </c>
       <c r="E398" t="s">
-        <v>1648</v>
+        <v>1643</v>
       </c>
       <c r="F398" t="s">
         <v>597</v>
@@ -19633,19 +19633,19 @@
     </row>
     <row r="399" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A399" t="s">
-        <v>1834</v>
+        <v>1829</v>
       </c>
       <c r="B399" t="s">
-        <v>1835</v>
+        <v>1830</v>
       </c>
       <c r="C399" t="s">
-        <v>1836</v>
+        <v>1831</v>
       </c>
       <c r="D399" t="s">
-        <v>1837</v>
+        <v>1832</v>
       </c>
       <c r="E399" t="s">
-        <v>1838</v>
+        <v>1833</v>
       </c>
       <c r="F399" t="s">
         <v>597</v>
@@ -19668,16 +19668,16 @@
         <v>577</v>
       </c>
       <c r="B400" t="s">
-        <v>1839</v>
+        <v>1834</v>
       </c>
       <c r="C400" t="s">
-        <v>1850</v>
+        <v>1845</v>
       </c>
       <c r="D400" t="s">
-        <v>1840</v>
+        <v>1835</v>
       </c>
       <c r="E400" t="s">
-        <v>1841</v>
+        <v>1836</v>
       </c>
       <c r="F400" t="s">
         <v>597</v>
@@ -19697,16 +19697,16 @@
     </row>
     <row r="401" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A401" t="s">
-        <v>1842</v>
+        <v>1837</v>
       </c>
       <c r="B401" t="s">
-        <v>1843</v>
+        <v>1838</v>
       </c>
       <c r="C401" t="s">
-        <v>1844</v>
+        <v>1839</v>
       </c>
       <c r="D401" t="s">
-        <v>1845</v>
+        <v>1840</v>
       </c>
       <c r="E401" t="s">
         <v>210</v>
@@ -19729,19 +19729,19 @@
     </row>
     <row r="402" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A402" t="s">
-        <v>1364</v>
+        <v>1359</v>
       </c>
       <c r="B402" t="s">
-        <v>1846</v>
+        <v>1841</v>
       </c>
       <c r="C402" t="s">
-        <v>1847</v>
+        <v>1842</v>
       </c>
       <c r="D402" t="s">
-        <v>1848</v>
+        <v>1843</v>
       </c>
       <c r="E402" t="s">
-        <v>1849</v>
+        <v>1844</v>
       </c>
       <c r="F402" t="s">
         <v>597</v>

--- a/code/shabdakala/resource/sbwords.xlsx
+++ b/code/shabdakala/resource/sbwords.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hrishinene/shabdak_github/sbbd/shabdakala/code/shabdakala/resource/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C86F26E-054C-A24A-B602-B5F5950AAE35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F598D391-E8E7-3E49-AB4F-A1048F0C52C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33740" windowHeight="18800" xr2:uid="{9F74AEE5-EB85-4044-AC84-8761A591B5C1}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{9F74AEE5-EB85-4044-AC84-8761A591B5C1}"/>
   </bookViews>
   <sheets>
     <sheet name="sbwords" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2504" uniqueCount="1879">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2690" uniqueCount="2015">
   <si>
     <t>word0</t>
   </si>
@@ -3998,9 +3998,6 @@
     <t>रुद्र</t>
   </si>
   <si>
-    <t>कुंभ</t>
-  </si>
-  <si>
     <t>बच्चन</t>
   </si>
   <si>
@@ -4031,9 +4028,6 @@
     <t>कढिपत्ता</t>
   </si>
   <si>
-    <t>काजू</t>
-  </si>
-  <si>
     <t>दाणे</t>
   </si>
   <si>
@@ -4049,18 +4043,12 @@
     <t>तुलसी</t>
   </si>
   <si>
-    <t>- दास</t>
-  </si>
-  <si>
     <t>गरम तेल</t>
   </si>
   <si>
     <t xml:space="preserve">कृष्ण </t>
   </si>
   <si>
-    <t>अगाशे</t>
-  </si>
-  <si>
     <t>मोहन</t>
   </si>
   <si>
@@ -4097,12 +4085,6 @@
     <t>पदर</t>
   </si>
   <si>
-    <t>बॅकपॅक</t>
-  </si>
-  <si>
-    <t>तिरडी</t>
-  </si>
-  <si>
     <t>झोळी</t>
   </si>
   <si>
@@ -4136,9 +4118,6 @@
     <t>धक्का</t>
   </si>
   <si>
-    <t>बसणार्या गोष्टी</t>
-  </si>
-  <si>
     <t xml:space="preserve">सिंह </t>
   </si>
   <si>
@@ -4151,21 +4130,6 @@
     <t>- गड</t>
   </si>
   <si>
-    <t>बरगंडी</t>
-  </si>
-  <si>
-    <t>पोर्ट</t>
-  </si>
-  <si>
-    <t>शेरी</t>
-  </si>
-  <si>
-    <t>रोज</t>
-  </si>
-  <si>
-    <t xml:space="preserve">वाईनचे प्रकार </t>
-  </si>
-  <si>
     <t>चिंचोका</t>
   </si>
   <si>
@@ -4379,21 +4343,6 @@
     <t>--- रोल</t>
   </si>
   <si>
-    <t>फोबोस</t>
-  </si>
-  <si>
-    <t>आयओ</t>
-  </si>
-  <si>
-    <t>मायमस</t>
-  </si>
-  <si>
-    <t>पॅन्डोरा</t>
-  </si>
-  <si>
-    <t>आपल्या सूर्यमालेतील चंद्रांची नावे</t>
-  </si>
-  <si>
     <t>युतू</t>
   </si>
   <si>
@@ -4559,21 +4508,6 @@
     <t>तार्यांची नावे</t>
   </si>
   <si>
-    <t>व्हेक्टर</t>
-  </si>
-  <si>
-    <t>ग्रु</t>
-  </si>
-  <si>
-    <t>नेफारीयो</t>
-  </si>
-  <si>
-    <t xml:space="preserve">स्टुअर्ट </t>
-  </si>
-  <si>
-    <t>"डेस्पिकेबल मी" सिनेमातील chatacters</t>
-  </si>
-  <si>
     <t xml:space="preserve">दमयंती </t>
   </si>
   <si>
@@ -5670,6 +5604,480 @@
   </si>
   <si>
     <t>काजळ</t>
+  </si>
+  <si>
+    <t>विधी</t>
+  </si>
+  <si>
+    <t>शबनम</t>
+  </si>
+  <si>
+    <t>डोली</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - दास नावाच्या प्रसिद्ध व्यक्ती</t>
+  </si>
+  <si>
+    <t>आगाशे</t>
+  </si>
+  <si>
+    <t>बसणाऱ्या गोष्टी</t>
+  </si>
+  <si>
+    <t>चिवडा</t>
+  </si>
+  <si>
+    <t>लाडू</t>
+  </si>
+  <si>
+    <t>करंजी</t>
+  </si>
+  <si>
+    <t xml:space="preserve">दिवाळीचे पदार्थ </t>
+  </si>
+  <si>
+    <t>शुभचिंतक</t>
+  </si>
+  <si>
+    <t>तिळगुळ</t>
+  </si>
+  <si>
+    <t>काळे कपडे</t>
+  </si>
+  <si>
+    <t>मकर</t>
+  </si>
+  <si>
+    <t xml:space="preserve">संक्रांत </t>
+  </si>
+  <si>
+    <t>स्नेहा</t>
+  </si>
+  <si>
+    <t>पानं</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> छपाई </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> मूल्य</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> मुखपृष्ठ</t>
+  </si>
+  <si>
+    <t>पुस्तक</t>
+  </si>
+  <si>
+    <t xml:space="preserve">शिरीष केळकर </t>
+  </si>
+  <si>
+    <t>हार्मोनियम</t>
+  </si>
+  <si>
+    <t>भाता</t>
+  </si>
+  <si>
+    <t>सूर</t>
+  </si>
+  <si>
+    <t>रीड</t>
+  </si>
+  <si>
+    <t>पुलकेशी</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> हर्षवर्धन</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> समुद्रगुप्त</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ललितादित्य</t>
+  </si>
+  <si>
+    <t>पहिले सहस्रक</t>
+  </si>
+  <si>
+    <t>विकास पाटणकर</t>
+  </si>
+  <si>
+    <t>समीकरण</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> कर्ण</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> कंस</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> सूत्र</t>
+  </si>
+  <si>
+    <t>गणित!</t>
+  </si>
+  <si>
+    <t>उडी</t>
+  </si>
+  <si>
+    <t>सागर</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> जन्मठेप</t>
+  </si>
+  <si>
+    <t>सावरकर</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> मधुवंती</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> मालकंस</t>
+  </si>
+  <si>
+    <t>भूप</t>
+  </si>
+  <si>
+    <t>हिंदुस्थानी संगीत राग</t>
+  </si>
+  <si>
+    <t>नुपुरा डोरले</t>
+  </si>
+  <si>
+    <t>रस</t>
+  </si>
+  <si>
+    <t>चलित</t>
+  </si>
+  <si>
+    <t>पंख</t>
+  </si>
+  <si>
+    <t>पंधरवडा</t>
+  </si>
+  <si>
+    <t>गोडी</t>
+  </si>
+  <si>
+    <t>बाजू</t>
+  </si>
+  <si>
+    <t>वर</t>
+  </si>
+  <si>
+    <t>भू</t>
+  </si>
+  <si>
+    <t>कल</t>
+  </si>
+  <si>
+    <t>रुची</t>
+  </si>
+  <si>
+    <t>संघटना</t>
+  </si>
+  <si>
+    <t>स्वयं __</t>
+  </si>
+  <si>
+    <t>पक्ष चे विविध अर्थ</t>
+  </si>
+  <si>
+    <t>स्वारस्य या अर्थी</t>
+  </si>
+  <si>
+    <t xml:space="preserve">समीर जोशी </t>
+  </si>
+  <si>
+    <t xml:space="preserve">जहाज </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> लाकूड </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> तेल </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> कापूस</t>
+  </si>
+  <si>
+    <t>पाण्यावर तरंगणाऱ्या गोष्टी</t>
+  </si>
+  <si>
+    <t xml:space="preserve">कौशिक कुलकर्णी </t>
+  </si>
+  <si>
+    <t xml:space="preserve">समुद्र </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> हवा </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> रस्ते </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> रूळ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">वाहतूकीचे मार्ग </t>
+  </si>
+  <si>
+    <t xml:space="preserve">रवा </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> साखर </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> तूप </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> काजू</t>
+  </si>
+  <si>
+    <t>शिऱ्याचे घटक</t>
+  </si>
+  <si>
+    <t>कौशिक कुलकर्णी</t>
+  </si>
+  <si>
+    <t>यष्टी</t>
+  </si>
+  <si>
+    <t>झेल</t>
+  </si>
+  <si>
+    <t>कप्तान</t>
+  </si>
+  <si>
+    <t>क्रिकेट मधील संज्ञा</t>
+  </si>
+  <si>
+    <t>बेल</t>
+  </si>
+  <si>
+    <t>तुळस</t>
+  </si>
+  <si>
+    <t>आघाडा</t>
+  </si>
+  <si>
+    <t>दुर्वा</t>
+  </si>
+  <si>
+    <t>देवाला वाहायची पाने</t>
+  </si>
+  <si>
+    <t>शमी</t>
+  </si>
+  <si>
+    <t>विराट</t>
+  </si>
+  <si>
+    <t>यशस्वी</t>
+  </si>
+  <si>
+    <t xml:space="preserve">क्रिकेटपटूंची नावे </t>
+  </si>
+  <si>
+    <t xml:space="preserve">रविकिरण देशपांडे </t>
+  </si>
+  <si>
+    <t>रेवती</t>
+  </si>
+  <si>
+    <t>नक्षत्र</t>
+  </si>
+  <si>
+    <t>कंठ</t>
+  </si>
+  <si>
+    <t>कटी</t>
+  </si>
+  <si>
+    <t>नेत्र</t>
+  </si>
+  <si>
+    <t>अवयव</t>
+  </si>
+  <si>
+    <t>द्रोण</t>
+  </si>
+  <si>
+    <t>कृप</t>
+  </si>
+  <si>
+    <t>महाभारत व्यक्तिरेखा</t>
+  </si>
+  <si>
+    <t>रविकिरण देशपांडे</t>
+  </si>
+  <si>
+    <t>क्रिकेटपटूंची नावे</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> आश्रम</t>
+  </si>
+  <si>
+    <t>परिक्रमा</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> कन्यापूजन</t>
+  </si>
+  <si>
+    <t>नर्मदा  परिक्रमा</t>
+  </si>
+  <si>
+    <t>अनघा अनिल जोशी</t>
+  </si>
+  <si>
+    <t>हिरकणी</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> टकमक</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> छत्रपती</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> राजधानी</t>
+  </si>
+  <si>
+    <t>किल्ले रायगड</t>
+  </si>
+  <si>
+    <t xml:space="preserve">विवेक वासुदेव चितळे </t>
+  </si>
+  <si>
+    <t>पाचू</t>
+  </si>
+  <si>
+    <t>पुष्कराज</t>
+  </si>
+  <si>
+    <t>माणिक</t>
+  </si>
+  <si>
+    <t>नीलम</t>
+  </si>
+  <si>
+    <t>मौल्यवान रत्ने</t>
+  </si>
+  <si>
+    <t>पाखरू</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> बाजी</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> झाडे</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> वडी</t>
+  </si>
+  <si>
+    <t>फूल उपसर्ग असणारे शब्द</t>
+  </si>
+  <si>
+    <t>आहना आगाशे</t>
+  </si>
+  <si>
+    <t>सुमन</t>
+  </si>
+  <si>
+    <t>किशोरी</t>
+  </si>
+  <si>
+    <t>प्रसिद्ध गायिका</t>
+  </si>
+  <si>
+    <t>चेन्नई</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> धाराशिव</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> कोलकता</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> अहिल्यानगर</t>
+  </si>
+  <si>
+    <t>नामांतरीत शहरे</t>
+  </si>
+  <si>
+    <t>दौंड</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> पुरंदर</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> हवेली</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> इंदापूर</t>
+  </si>
+  <si>
+    <t>पुणे जिल्ह्यातील तालुके</t>
+  </si>
+  <si>
+    <t>पाचगणी</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> सप्तशृंगी</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> हजारीबाग</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> सोलापूर</t>
+  </si>
+  <si>
+    <t>नावात अंक असलेली शहरे</t>
+  </si>
+  <si>
+    <t>फडणवीस</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> बावनकुळे</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> सातपुते</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> आठवले</t>
+  </si>
+  <si>
+    <t>नावात अंक असलेली आडनावे</t>
+  </si>
+  <si>
+    <t>अंतुले</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> पवार</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> राणे</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> नाईक</t>
+  </si>
+  <si>
+    <t>महाराष्ट्राचे माजी मुख्यमंत्री</t>
+  </si>
+  <si>
+    <t>ठोसर</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> रेळेकर</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> आंबिले</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> कुलकर्णी</t>
+  </si>
+  <si>
+    <t>महाराष्ट्रातील प्रसिद्ध संतांची आडनावे</t>
   </si>
 </sst>
 </file>
@@ -6242,7 +6650,89 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="10">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -6594,10 +7084,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEA1707B-2FB7-B84C-9F84-E9F074F3056C}">
-  <dimension ref="A1:L402"/>
+  <dimension ref="A1:L433"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A226" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E250" sqref="E250"/>
+    <sheetView tabSelected="1" topLeftCell="A278" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E272" sqref="E272"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6685,7 +7175,7 @@
       </c>
       <c r="L2" s="6">
         <f ca="1">TODAY()</f>
-        <v>45707</v>
+        <v>45708</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -11950,7 +12440,7 @@
         <v>45677</v>
       </c>
       <c r="J158">
-        <f t="shared" ref="J158:J352" si="18">J157+1</f>
+        <f t="shared" ref="J158:J383" si="18">J157+1</f>
         <v>156</v>
       </c>
     </row>
@@ -12724,7 +13214,7 @@
     </row>
     <row r="183" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>1810</v>
+        <v>1788</v>
       </c>
       <c r="B183" t="s">
         <v>833</v>
@@ -12788,7 +13278,7 @@
     </row>
     <row r="185" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>1812</v>
+        <v>1790</v>
       </c>
       <c r="B185" t="s">
         <v>1047</v>
@@ -12800,7 +13290,7 @@
         <v>1049</v>
       </c>
       <c r="E185" t="s">
-        <v>1813</v>
+        <v>1791</v>
       </c>
       <c r="F185" t="s">
         <v>597</v>
@@ -12832,7 +13322,7 @@
         <v>1053</v>
       </c>
       <c r="E186" t="s">
-        <v>1811</v>
+        <v>1789</v>
       </c>
       <c r="F186" t="s">
         <v>597</v>
@@ -12896,7 +13386,7 @@
         <v>1061</v>
       </c>
       <c r="E188" t="s">
-        <v>1814</v>
+        <v>1792</v>
       </c>
       <c r="F188" t="s">
         <v>597</v>
@@ -12928,7 +13418,7 @@
         <v>1065</v>
       </c>
       <c r="E189" t="s">
-        <v>1815</v>
+        <v>1793</v>
       </c>
       <c r="F189" t="s">
         <v>597</v>
@@ -12960,7 +13450,7 @@
         <v>1069</v>
       </c>
       <c r="E190" t="s">
-        <v>1816</v>
+        <v>1794</v>
       </c>
       <c r="F190" t="s">
         <v>597</v>
@@ -13213,7 +13703,7 @@
         <v>1105</v>
       </c>
       <c r="D198" t="s">
-        <v>1846</v>
+        <v>1824</v>
       </c>
       <c r="E198" t="s">
         <v>1106</v>
@@ -13242,13 +13732,13 @@
         <v>1108</v>
       </c>
       <c r="C199" t="s">
-        <v>1847</v>
+        <v>1825</v>
       </c>
       <c r="D199" t="s">
         <v>1109</v>
       </c>
       <c r="E199" t="s">
-        <v>1848</v>
+        <v>1826</v>
       </c>
       <c r="F199" t="s">
         <v>597</v>
@@ -13344,7 +13834,7 @@
         <v>1121</v>
       </c>
       <c r="E202" t="s">
-        <v>1849</v>
+        <v>1827</v>
       </c>
       <c r="F202" t="s">
         <v>597</v>
@@ -13399,7 +13889,7 @@
         <v>1126</v>
       </c>
       <c r="B204" t="s">
-        <v>1856</v>
+        <v>1834</v>
       </c>
       <c r="C204" t="s">
         <v>778</v>
@@ -13466,10 +13956,10 @@
         <v>1135</v>
       </c>
       <c r="C206" t="s">
-        <v>1850</v>
+        <v>1828</v>
       </c>
       <c r="D206" t="s">
-        <v>1851</v>
+        <v>1829</v>
       </c>
       <c r="E206" t="s">
         <v>1136</v>
@@ -13498,10 +13988,10 @@
         <v>1138</v>
       </c>
       <c r="C207" t="s">
-        <v>1852</v>
+        <v>1830</v>
       </c>
       <c r="D207" t="s">
-        <v>1853</v>
+        <v>1831</v>
       </c>
       <c r="E207" t="s">
         <v>1139</v>
@@ -13524,19 +14014,19 @@
     </row>
     <row r="208" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>1857</v>
+        <v>1835</v>
       </c>
       <c r="B208" t="s">
-        <v>1858</v>
+        <v>1836</v>
       </c>
       <c r="C208" t="s">
         <v>1140</v>
       </c>
       <c r="D208" t="s">
-        <v>1859</v>
+        <v>1837</v>
       </c>
       <c r="E208" t="s">
-        <v>1860</v>
+        <v>1838</v>
       </c>
       <c r="F208" t="s">
         <v>597</v>
@@ -13568,7 +14058,7 @@
         <v>1144</v>
       </c>
       <c r="E209" t="s">
-        <v>1817</v>
+        <v>1795</v>
       </c>
       <c r="F209" t="s">
         <v>597</v>
@@ -13623,13 +14113,13 @@
         <v>1150</v>
       </c>
       <c r="B211" t="s">
-        <v>1819</v>
+        <v>1797</v>
       </c>
       <c r="C211" t="s">
         <v>1151</v>
       </c>
       <c r="D211" t="s">
-        <v>1818</v>
+        <v>1796</v>
       </c>
       <c r="E211" t="s">
         <v>1152</v>
@@ -13760,7 +14250,7 @@
         <v>1170</v>
       </c>
       <c r="E215" t="s">
-        <v>1854</v>
+        <v>1832</v>
       </c>
       <c r="F215" t="s">
         <v>597</v>
@@ -13792,7 +14282,7 @@
         <v>1174</v>
       </c>
       <c r="E216" t="s">
-        <v>1855</v>
+        <v>1833</v>
       </c>
       <c r="F216" t="s">
         <v>597</v>
@@ -13844,7 +14334,7 @@
     </row>
     <row r="218" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
-        <v>1861</v>
+        <v>1839</v>
       </c>
       <c r="B218" t="s">
         <v>1179</v>
@@ -13885,7 +14375,7 @@
         <v>32</v>
       </c>
       <c r="D219" t="s">
-        <v>1862</v>
+        <v>1840</v>
       </c>
       <c r="E219" t="s">
         <v>1185</v>
@@ -13908,7 +14398,7 @@
     </row>
     <row r="220" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
-        <v>1863</v>
+        <v>1841</v>
       </c>
       <c r="B220" t="s">
         <v>1186</v>
@@ -13952,7 +14442,7 @@
         <v>1193</v>
       </c>
       <c r="E221" t="s">
-        <v>1820</v>
+        <v>1798</v>
       </c>
       <c r="F221" t="s">
         <v>597</v>
@@ -13978,10 +14468,10 @@
         <v>1195</v>
       </c>
       <c r="C222" t="s">
-        <v>1823</v>
+        <v>1801</v>
       </c>
       <c r="D222" t="s">
-        <v>1824</v>
+        <v>1802</v>
       </c>
       <c r="E222" t="s">
         <v>1196</v>
@@ -14004,7 +14494,7 @@
     </row>
     <row r="223" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
-        <v>1822</v>
+        <v>1800</v>
       </c>
       <c r="B223" t="s">
         <v>1197</v>
@@ -14016,7 +14506,7 @@
         <v>1198</v>
       </c>
       <c r="E223" t="s">
-        <v>1821</v>
+        <v>1799</v>
       </c>
       <c r="F223" t="s">
         <v>597</v>
@@ -14170,7 +14660,7 @@
         <v>1216</v>
       </c>
       <c r="C228" t="s">
-        <v>1864</v>
+        <v>1842</v>
       </c>
       <c r="D228" t="s">
         <v>1217</v>
@@ -14292,13 +14782,13 @@
     </row>
     <row r="232" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
-        <v>1866</v>
+        <v>1844</v>
       </c>
       <c r="B232" t="s">
         <v>1234</v>
       </c>
       <c r="C232" t="s">
-        <v>1865</v>
+        <v>1843</v>
       </c>
       <c r="D232" t="s">
         <v>438</v>
@@ -14330,7 +14820,7 @@
         <v>1237</v>
       </c>
       <c r="C233" t="s">
-        <v>1867</v>
+        <v>1845</v>
       </c>
       <c r="D233" t="s">
         <v>1238</v>
@@ -14391,13 +14881,13 @@
         <v>1243</v>
       </c>
       <c r="B235" t="s">
-        <v>1870</v>
+        <v>1848</v>
       </c>
       <c r="C235" t="s">
-        <v>1868</v>
+        <v>1846</v>
       </c>
       <c r="D235" t="s">
-        <v>1869</v>
+        <v>1847</v>
       </c>
       <c r="E235" t="s">
         <v>1244</v>
@@ -14420,7 +14910,7 @@
     </row>
     <row r="236" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
-        <v>1871</v>
+        <v>1849</v>
       </c>
       <c r="B236" t="s">
         <v>1245</v>
@@ -14452,7 +14942,7 @@
     </row>
     <row r="237" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
-        <v>1872</v>
+        <v>1850</v>
       </c>
       <c r="B237" t="s">
         <v>1249</v>
@@ -14484,7 +14974,7 @@
     </row>
     <row r="238" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
-        <v>1873</v>
+        <v>1851</v>
       </c>
       <c r="B238" t="s">
         <v>316</v>
@@ -14790,11 +15280,11 @@
         <v>597</v>
       </c>
       <c r="H247">
-        <f t="shared" ref="H247:H310" si="23">INT(J247/3)</f>
+        <f t="shared" ref="H247:H340" si="23">INT(J247/3)</f>
         <v>81</v>
       </c>
       <c r="I247" s="3">
-        <f t="shared" ref="I247:I310" si="24">$L$1+H247</f>
+        <f t="shared" ref="I247:I340" si="24">$L$1+H247</f>
         <v>45706</v>
       </c>
       <c r="J247">
@@ -14804,13 +15294,13 @@
     </row>
     <row r="248" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
-        <v>1874</v>
+        <v>1852</v>
       </c>
       <c r="B248" t="s">
         <v>1296</v>
       </c>
       <c r="C248" t="s">
-        <v>1875</v>
+        <v>1853</v>
       </c>
       <c r="D248" t="s">
         <v>1297</v>
@@ -14836,7 +15326,7 @@
     </row>
     <row r="249" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
-        <v>1876</v>
+        <v>1854</v>
       </c>
       <c r="B249" t="s">
         <v>1299</v>
@@ -14868,10 +15358,10 @@
     </row>
     <row r="250" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
-        <v>1877</v>
+        <v>1855</v>
       </c>
       <c r="B250" t="s">
-        <v>1878</v>
+        <v>1856</v>
       </c>
       <c r="C250" t="s">
         <v>1302</v>
@@ -14996,19 +15486,19 @@
     </row>
     <row r="254" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
+        <v>1857</v>
+      </c>
+      <c r="B254" t="s">
         <v>1320</v>
       </c>
-      <c r="B254" t="s">
+      <c r="C254" t="s">
         <v>1321</v>
       </c>
-      <c r="C254" t="s">
+      <c r="D254" t="s">
         <v>1322</v>
       </c>
-      <c r="D254" t="s">
+      <c r="E254" t="s">
         <v>1323</v>
-      </c>
-      <c r="E254" t="s">
-        <v>1324</v>
       </c>
       <c r="F254" t="s">
         <v>597</v>
@@ -15028,29 +15518,29 @@
     </row>
     <row r="255" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
+        <v>1324</v>
+      </c>
+      <c r="B255" t="s">
         <v>1325</v>
       </c>
-      <c r="B255" t="s">
+      <c r="C255" t="s">
         <v>1326</v>
       </c>
-      <c r="C255" t="s">
+      <c r="D255" t="s">
         <v>1327</v>
       </c>
-      <c r="D255" t="s">
+      <c r="E255" t="s">
         <v>1328</v>
       </c>
-      <c r="E255" t="s">
-        <v>1329</v>
-      </c>
       <c r="F255" t="s">
         <v>597</v>
       </c>
       <c r="H255">
-        <f t="shared" si="23"/>
+        <f t="shared" ref="H255:H318" si="25">INT(J255/3)</f>
         <v>84</v>
       </c>
       <c r="I255" s="3">
-        <f t="shared" si="24"/>
+        <f t="shared" ref="I255:I318" si="26">$L$1+H255</f>
         <v>45709</v>
       </c>
       <c r="J255">
@@ -15060,29 +15550,29 @@
     </row>
     <row r="256" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
+        <v>1329</v>
+      </c>
+      <c r="B256" t="s">
         <v>1330</v>
       </c>
-      <c r="B256" t="s">
+      <c r="C256" t="s">
+        <v>926</v>
+      </c>
+      <c r="D256" t="s">
         <v>1331</v>
       </c>
-      <c r="C256" t="s">
+      <c r="E256" t="s">
         <v>1332</v>
       </c>
-      <c r="D256" t="s">
-        <v>1333</v>
-      </c>
-      <c r="E256" t="s">
-        <v>1334</v>
-      </c>
       <c r="F256" t="s">
         <v>597</v>
       </c>
       <c r="H256">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>84</v>
       </c>
       <c r="I256" s="3">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>45709</v>
       </c>
       <c r="J256">
@@ -15092,29 +15582,29 @@
     </row>
     <row r="257" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
-        <v>1335</v>
+        <v>1333</v>
       </c>
       <c r="B257" t="s">
         <v>533</v>
       </c>
       <c r="C257" t="s">
-        <v>1336</v>
+        <v>1334</v>
       </c>
       <c r="D257" t="s">
-        <v>1337</v>
+        <v>1335</v>
       </c>
       <c r="E257" t="s">
-        <v>1338</v>
+        <v>1860</v>
       </c>
       <c r="F257" t="s">
         <v>597</v>
       </c>
       <c r="H257">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>85</v>
       </c>
       <c r="I257" s="3">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>45710</v>
       </c>
       <c r="J257">
@@ -15124,29 +15614,29 @@
     </row>
     <row r="258" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
-        <v>1339</v>
+        <v>1336</v>
       </c>
       <c r="B258" t="s">
-        <v>1340</v>
+        <v>1337</v>
       </c>
       <c r="C258" t="s">
-        <v>1341</v>
+        <v>1861</v>
       </c>
       <c r="D258" t="s">
         <v>64</v>
       </c>
       <c r="E258" t="s">
-        <v>1342</v>
+        <v>1338</v>
       </c>
       <c r="F258" t="s">
         <v>597</v>
       </c>
       <c r="H258">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>85</v>
       </c>
       <c r="I258" s="3">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>45710</v>
       </c>
       <c r="J258">
@@ -15156,29 +15646,29 @@
     </row>
     <row r="259" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
+        <v>1339</v>
+      </c>
+      <c r="B259" t="s">
+        <v>1340</v>
+      </c>
+      <c r="C259" t="s">
+        <v>1341</v>
+      </c>
+      <c r="D259" t="s">
+        <v>1342</v>
+      </c>
+      <c r="E259" t="s">
         <v>1343</v>
       </c>
-      <c r="B259" t="s">
-        <v>1344</v>
-      </c>
-      <c r="C259" t="s">
-        <v>1345</v>
-      </c>
-      <c r="D259" t="s">
-        <v>1346</v>
-      </c>
-      <c r="E259" t="s">
-        <v>1347</v>
-      </c>
       <c r="F259" t="s">
         <v>597</v>
       </c>
       <c r="H259">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>85</v>
       </c>
       <c r="I259" s="3">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>45710</v>
       </c>
       <c r="J259">
@@ -15188,29 +15678,29 @@
     </row>
     <row r="260" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
+        <v>1344</v>
+      </c>
+      <c r="B260" t="s">
+        <v>1345</v>
+      </c>
+      <c r="C260" t="s">
+        <v>1346</v>
+      </c>
+      <c r="D260" t="s">
+        <v>1347</v>
+      </c>
+      <c r="E260" t="s">
         <v>1348</v>
       </c>
-      <c r="B260" t="s">
-        <v>1349</v>
-      </c>
-      <c r="C260" t="s">
-        <v>1350</v>
-      </c>
-      <c r="D260" t="s">
-        <v>1351</v>
-      </c>
-      <c r="E260" t="s">
-        <v>1352</v>
-      </c>
       <c r="F260" t="s">
         <v>597</v>
       </c>
       <c r="H260">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>86</v>
       </c>
       <c r="I260" s="3">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>45711</v>
       </c>
       <c r="J260">
@@ -15220,29 +15710,29 @@
     </row>
     <row r="261" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
-        <v>1353</v>
+        <v>1349</v>
       </c>
       <c r="B261" t="s">
-        <v>1354</v>
+        <v>1858</v>
       </c>
       <c r="C261" t="s">
-        <v>1355</v>
+        <v>1859</v>
       </c>
       <c r="D261" t="s">
-        <v>1356</v>
+        <v>1350</v>
       </c>
       <c r="E261" t="s">
-        <v>1357</v>
+        <v>1351</v>
       </c>
       <c r="F261" t="s">
         <v>597</v>
       </c>
       <c r="H261">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>86</v>
       </c>
       <c r="I261" s="3">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>45711</v>
       </c>
       <c r="J261">
@@ -15252,29 +15742,29 @@
     </row>
     <row r="262" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
-        <v>1358</v>
+        <v>1352</v>
       </c>
       <c r="B262" t="s">
-        <v>1359</v>
+        <v>1353</v>
       </c>
       <c r="C262" t="s">
-        <v>1360</v>
+        <v>1354</v>
       </c>
       <c r="D262" t="s">
-        <v>1361</v>
+        <v>1355</v>
       </c>
       <c r="E262" t="s">
-        <v>1362</v>
+        <v>1356</v>
       </c>
       <c r="F262" t="s">
         <v>597</v>
       </c>
       <c r="H262">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>86</v>
       </c>
       <c r="I262" s="3">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>45711</v>
       </c>
       <c r="J262">
@@ -15284,29 +15774,29 @@
     </row>
     <row r="263" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
-        <v>1363</v>
+        <v>1863</v>
       </c>
       <c r="B263" t="s">
-        <v>1364</v>
+        <v>1864</v>
       </c>
       <c r="C263" t="s">
-        <v>1365</v>
+        <v>573</v>
       </c>
       <c r="D263" t="s">
-        <v>1366</v>
+        <v>1865</v>
       </c>
       <c r="E263" t="s">
-        <v>1367</v>
+        <v>1866</v>
       </c>
       <c r="F263" t="s">
-        <v>597</v>
+        <v>1867</v>
       </c>
       <c r="H263">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>87</v>
       </c>
       <c r="I263" s="3">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>45712</v>
       </c>
       <c r="J263">
@@ -15316,29 +15806,29 @@
     </row>
     <row r="264" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
-        <v>539</v>
+        <v>1868</v>
       </c>
       <c r="B264" t="s">
-        <v>1368</v>
+        <v>1538</v>
       </c>
       <c r="C264" t="s">
-        <v>1369</v>
+        <v>1869</v>
       </c>
       <c r="D264" t="s">
-        <v>1370</v>
+        <v>1870</v>
       </c>
       <c r="E264" t="s">
-        <v>1371</v>
+        <v>1871</v>
       </c>
       <c r="F264" t="s">
-        <v>597</v>
+        <v>1872</v>
       </c>
       <c r="H264">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>87</v>
       </c>
       <c r="I264" s="3">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>45712</v>
       </c>
       <c r="J264">
@@ -15348,29 +15838,29 @@
     </row>
     <row r="265" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
-        <v>1372</v>
+        <v>1873</v>
       </c>
       <c r="B265" t="s">
-        <v>1373</v>
+        <v>1874</v>
       </c>
       <c r="C265" t="s">
-        <v>1374</v>
+        <v>1875</v>
       </c>
       <c r="D265" t="s">
-        <v>1375</v>
+        <v>1876</v>
       </c>
       <c r="E265" t="s">
-        <v>1376</v>
+        <v>1877</v>
       </c>
       <c r="F265" t="s">
-        <v>597</v>
+        <v>1878</v>
       </c>
       <c r="H265">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>87</v>
       </c>
       <c r="I265" s="3">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>45712</v>
       </c>
       <c r="J265">
@@ -15380,29 +15870,29 @@
     </row>
     <row r="266" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
-        <v>1377</v>
+        <v>1883</v>
       </c>
       <c r="B266" t="s">
-        <v>1378</v>
+        <v>1884</v>
       </c>
       <c r="C266" t="s">
-        <v>1379</v>
+        <v>1885</v>
       </c>
       <c r="D266" t="s">
-        <v>1380</v>
+        <v>1886</v>
       </c>
       <c r="E266" t="s">
-        <v>1381</v>
+        <v>1887</v>
       </c>
       <c r="F266" t="s">
-        <v>597</v>
+        <v>1888</v>
       </c>
       <c r="H266">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>88</v>
       </c>
       <c r="I266" s="3">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>45713</v>
       </c>
       <c r="J266">
@@ -15412,29 +15902,29 @@
     </row>
     <row r="267" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
-        <v>786</v>
+        <v>1889</v>
       </c>
       <c r="B267" t="s">
-        <v>1382</v>
+        <v>1890</v>
       </c>
       <c r="C267" t="s">
-        <v>1383</v>
+        <v>1891</v>
       </c>
       <c r="D267" t="s">
-        <v>1384</v>
+        <v>1892</v>
       </c>
       <c r="E267" t="s">
-        <v>1385</v>
+        <v>1893</v>
       </c>
       <c r="F267" t="s">
-        <v>597</v>
+        <v>1902</v>
       </c>
       <c r="H267">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>88</v>
       </c>
       <c r="I267" s="3">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>45713</v>
       </c>
       <c r="J267">
@@ -15444,29 +15934,29 @@
     </row>
     <row r="268" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
-        <v>1386</v>
+        <v>1357</v>
       </c>
       <c r="B268" t="s">
-        <v>517</v>
+        <v>1358</v>
       </c>
       <c r="C268" t="s">
-        <v>880</v>
+        <v>1359</v>
       </c>
       <c r="D268" t="s">
-        <v>1387</v>
+        <v>1360</v>
       </c>
       <c r="E268" t="s">
-        <v>1388</v>
+        <v>1862</v>
       </c>
       <c r="F268" t="s">
         <v>597</v>
       </c>
       <c r="H268">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>88</v>
       </c>
       <c r="I268" s="3">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>45713</v>
       </c>
       <c r="J268">
@@ -15476,29 +15966,29 @@
     </row>
     <row r="269" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
-        <v>406</v>
+        <v>539</v>
       </c>
       <c r="B269" t="s">
-        <v>1389</v>
+        <v>1361</v>
       </c>
       <c r="C269" t="s">
-        <v>1390</v>
+        <v>1362</v>
       </c>
       <c r="D269" t="s">
-        <v>1202</v>
+        <v>1363</v>
       </c>
       <c r="E269" t="s">
-        <v>1391</v>
+        <v>1364</v>
       </c>
       <c r="F269" t="s">
         <v>597</v>
       </c>
       <c r="H269">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>89</v>
       </c>
       <c r="I269" s="3">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>45714</v>
       </c>
       <c r="J269">
@@ -15508,29 +15998,29 @@
     </row>
     <row r="270" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
-        <v>1392</v>
+        <v>1935</v>
       </c>
       <c r="B270" t="s">
-        <v>1393</v>
+        <v>1936</v>
       </c>
       <c r="C270" t="s">
-        <v>1394</v>
+        <v>1937</v>
       </c>
       <c r="D270" t="s">
-        <v>1395</v>
+        <v>1423</v>
       </c>
       <c r="E270" t="s">
-        <v>1396</v>
+        <v>1938</v>
       </c>
       <c r="F270" t="s">
-        <v>597</v>
+        <v>1948</v>
       </c>
       <c r="H270">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>89</v>
       </c>
       <c r="I270" s="3">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>45714</v>
       </c>
       <c r="J270">
@@ -15540,29 +16030,29 @@
     </row>
     <row r="271" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
-        <v>925</v>
+        <v>1944</v>
       </c>
       <c r="B271" t="s">
-        <v>1397</v>
+        <v>71</v>
       </c>
       <c r="C271" t="s">
-        <v>1398</v>
+        <v>1945</v>
       </c>
       <c r="D271" t="s">
-        <v>1399</v>
+        <v>1946</v>
       </c>
       <c r="E271" t="s">
-        <v>1400</v>
+        <v>1947</v>
       </c>
       <c r="F271" t="s">
-        <v>597</v>
+        <v>1948</v>
       </c>
       <c r="H271">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>89</v>
       </c>
       <c r="I271" s="3">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>45714</v>
       </c>
       <c r="J271">
@@ -15572,29 +16062,29 @@
     </row>
     <row r="272" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
-        <v>1401</v>
+        <v>1365</v>
       </c>
       <c r="B272" t="s">
-        <v>1402</v>
+        <v>1366</v>
       </c>
       <c r="C272" t="s">
-        <v>181</v>
+        <v>1367</v>
       </c>
       <c r="D272" t="s">
-        <v>1403</v>
+        <v>1368</v>
       </c>
       <c r="E272" t="s">
-        <v>1404</v>
+        <v>1369</v>
       </c>
       <c r="F272" t="s">
         <v>597</v>
       </c>
       <c r="H272">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>90</v>
       </c>
       <c r="I272" s="3">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>45715</v>
       </c>
       <c r="J272">
@@ -15604,29 +16094,29 @@
     </row>
     <row r="273" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
-        <v>1405</v>
+        <v>1918</v>
       </c>
       <c r="B273" t="s">
-        <v>1406</v>
+        <v>1919</v>
       </c>
       <c r="C273" t="s">
-        <v>900</v>
+        <v>1920</v>
       </c>
       <c r="D273" t="s">
-        <v>1407</v>
+        <v>1921</v>
       </c>
       <c r="E273" t="s">
-        <v>1408</v>
+        <v>1922</v>
       </c>
       <c r="F273" t="s">
-        <v>597</v>
+        <v>1923</v>
       </c>
       <c r="H273">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>90</v>
       </c>
       <c r="I273" s="3">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>45715</v>
       </c>
       <c r="J273">
@@ -15636,29 +16126,29 @@
     </row>
     <row r="274" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
-        <v>1409</v>
+        <v>1939</v>
       </c>
       <c r="B274" t="s">
-        <v>1410</v>
+        <v>1940</v>
       </c>
       <c r="C274" t="s">
-        <v>1411</v>
+        <v>1941</v>
       </c>
       <c r="D274" t="s">
-        <v>1412</v>
+        <v>1942</v>
       </c>
       <c r="E274" t="s">
-        <v>1413</v>
+        <v>1943</v>
       </c>
       <c r="F274" t="s">
-        <v>597</v>
+        <v>1948</v>
       </c>
       <c r="H274">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>90</v>
       </c>
       <c r="I274" s="3">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>45715</v>
       </c>
       <c r="J274">
@@ -15668,29 +16158,29 @@
     </row>
     <row r="275" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
-        <v>1414</v>
+        <v>786</v>
       </c>
       <c r="B275" t="s">
-        <v>1415</v>
+        <v>1370</v>
       </c>
       <c r="C275" t="s">
-        <v>1416</v>
+        <v>1371</v>
       </c>
       <c r="D275" t="s">
-        <v>1417</v>
+        <v>1372</v>
       </c>
       <c r="E275" t="s">
-        <v>1418</v>
+        <v>1373</v>
       </c>
       <c r="F275" t="s">
         <v>597</v>
       </c>
       <c r="H275">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>91</v>
       </c>
       <c r="I275" s="3">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>45716</v>
       </c>
       <c r="J275">
@@ -15700,29 +16190,29 @@
     </row>
     <row r="276" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
-        <v>1419</v>
+        <v>1374</v>
       </c>
       <c r="B276" t="s">
-        <v>1420</v>
+        <v>517</v>
       </c>
       <c r="C276" t="s">
-        <v>1421</v>
+        <v>880</v>
       </c>
       <c r="D276" t="s">
-        <v>1422</v>
+        <v>1375</v>
       </c>
       <c r="E276" t="s">
-        <v>1423</v>
+        <v>1376</v>
       </c>
       <c r="F276" t="s">
         <v>597</v>
       </c>
       <c r="H276">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>91</v>
       </c>
       <c r="I276" s="3">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>45716</v>
       </c>
       <c r="J276">
@@ -15732,29 +16222,29 @@
     </row>
     <row r="277" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
-        <v>1424</v>
+        <v>517</v>
       </c>
       <c r="B277" t="s">
-        <v>1425</v>
+        <v>1880</v>
       </c>
       <c r="C277" t="s">
-        <v>1426</v>
+        <v>1881</v>
       </c>
       <c r="D277" t="s">
-        <v>1427</v>
+        <v>1882</v>
       </c>
       <c r="E277" t="s">
-        <v>1428</v>
+        <v>1879</v>
       </c>
       <c r="F277" t="s">
-        <v>597</v>
+        <v>1878</v>
       </c>
       <c r="H277">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>91</v>
       </c>
       <c r="I277" s="3">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>45716</v>
       </c>
       <c r="J277">
@@ -15764,29 +16254,29 @@
     </row>
     <row r="278" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
-        <v>1429</v>
+        <v>406</v>
       </c>
       <c r="B278" t="s">
-        <v>1430</v>
+        <v>1377</v>
       </c>
       <c r="C278" t="s">
-        <v>1431</v>
+        <v>1378</v>
       </c>
       <c r="D278" t="s">
-        <v>1432</v>
+        <v>1202</v>
       </c>
       <c r="E278" t="s">
-        <v>1433</v>
+        <v>1379</v>
       </c>
       <c r="F278" t="s">
         <v>597</v>
       </c>
       <c r="H278">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>92</v>
       </c>
       <c r="I278" s="3">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>45717</v>
       </c>
       <c r="J278">
@@ -15796,29 +16286,29 @@
     </row>
     <row r="279" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
-        <v>1434</v>
+        <v>1380</v>
       </c>
       <c r="B279" t="s">
-        <v>1435</v>
+        <v>1381</v>
       </c>
       <c r="C279" t="s">
-        <v>1436</v>
+        <v>1382</v>
       </c>
       <c r="D279" t="s">
-        <v>1437</v>
+        <v>1383</v>
       </c>
       <c r="E279" t="s">
-        <v>1438</v>
+        <v>1384</v>
       </c>
       <c r="F279" t="s">
         <v>597</v>
       </c>
       <c r="H279">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>92</v>
       </c>
       <c r="I279" s="3">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>45717</v>
       </c>
       <c r="J279">
@@ -15828,29 +16318,29 @@
     </row>
     <row r="280" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
-        <v>1443</v>
+        <v>1894</v>
       </c>
       <c r="B280" t="s">
-        <v>1444</v>
+        <v>1895</v>
       </c>
       <c r="C280" t="s">
-        <v>1445</v>
+        <v>73</v>
       </c>
       <c r="D280" t="s">
-        <v>1446</v>
+        <v>1896</v>
       </c>
       <c r="E280" t="s">
-        <v>1447</v>
+        <v>1897</v>
       </c>
       <c r="F280" t="s">
-        <v>597</v>
+        <v>1902</v>
       </c>
       <c r="H280">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>92</v>
       </c>
       <c r="I280" s="3">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>45717</v>
       </c>
       <c r="J280">
@@ -15860,29 +16350,29 @@
     </row>
     <row r="281" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
-        <v>1448</v>
+        <v>925</v>
       </c>
       <c r="B281" t="s">
-        <v>1449</v>
+        <v>1385</v>
       </c>
       <c r="C281" t="s">
-        <v>1450</v>
+        <v>1386</v>
       </c>
       <c r="D281" t="s">
-        <v>1451</v>
+        <v>1387</v>
       </c>
       <c r="E281" t="s">
-        <v>1452</v>
+        <v>1388</v>
       </c>
       <c r="F281" t="s">
         <v>597</v>
       </c>
       <c r="H281">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>93</v>
       </c>
       <c r="I281" s="3">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>45718</v>
       </c>
       <c r="J281">
@@ -15892,29 +16382,29 @@
     </row>
     <row r="282" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
-        <v>1453</v>
+        <v>1389</v>
       </c>
       <c r="B282" t="s">
-        <v>1454</v>
+        <v>1390</v>
       </c>
       <c r="C282" t="s">
-        <v>1455</v>
+        <v>181</v>
       </c>
       <c r="D282" t="s">
-        <v>1456</v>
+        <v>1391</v>
       </c>
       <c r="E282" t="s">
-        <v>1457</v>
+        <v>1392</v>
       </c>
       <c r="F282" t="s">
         <v>597</v>
       </c>
       <c r="H282">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>93</v>
       </c>
       <c r="I282" s="3">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>45718</v>
       </c>
       <c r="J282">
@@ -15924,29 +16414,29 @@
     </row>
     <row r="283" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
-        <v>1458</v>
+        <v>1924</v>
       </c>
       <c r="B283" t="s">
-        <v>1459</v>
+        <v>1925</v>
       </c>
       <c r="C283" t="s">
-        <v>1460</v>
+        <v>1926</v>
       </c>
       <c r="D283" t="s">
-        <v>1461</v>
+        <v>1927</v>
       </c>
       <c r="E283" t="s">
-        <v>1462</v>
+        <v>1928</v>
       </c>
       <c r="F283" t="s">
-        <v>597</v>
+        <v>1923</v>
       </c>
       <c r="H283">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>93</v>
       </c>
       <c r="I283" s="3">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>45718</v>
       </c>
       <c r="J283">
@@ -15956,29 +16446,29 @@
     </row>
     <row r="284" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
-        <v>1463</v>
+        <v>402</v>
       </c>
       <c r="B284" t="s">
-        <v>1464</v>
+        <v>401</v>
       </c>
       <c r="C284" t="s">
-        <v>1465</v>
+        <v>547</v>
       </c>
       <c r="D284" t="s">
-        <v>1157</v>
+        <v>1949</v>
       </c>
       <c r="E284" t="s">
-        <v>1466</v>
+        <v>1950</v>
       </c>
       <c r="F284" t="s">
-        <v>597</v>
+        <v>1948</v>
       </c>
       <c r="H284">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>94</v>
       </c>
       <c r="I284" s="3">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>45719</v>
       </c>
       <c r="J284">
@@ -15988,29 +16478,29 @@
     </row>
     <row r="285" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
-        <v>1467</v>
+        <v>1951</v>
       </c>
       <c r="B285" t="s">
-        <v>1439</v>
+        <v>1952</v>
       </c>
       <c r="C285" t="s">
-        <v>1440</v>
+        <v>1953</v>
       </c>
       <c r="D285" t="s">
-        <v>1441</v>
+        <v>1395</v>
       </c>
       <c r="E285" t="s">
-        <v>1442</v>
+        <v>1954</v>
       </c>
       <c r="F285" t="s">
-        <v>597</v>
+        <v>1948</v>
       </c>
       <c r="H285">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>94</v>
       </c>
       <c r="I285" s="3">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>45719</v>
       </c>
       <c r="J285">
@@ -16020,29 +16510,29 @@
     </row>
     <row r="286" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
-        <v>533</v>
+        <v>1955</v>
       </c>
       <c r="B286" t="s">
-        <v>1468</v>
+        <v>1956</v>
       </c>
       <c r="C286" t="s">
-        <v>1469</v>
+        <v>1790</v>
       </c>
       <c r="D286" t="s">
-        <v>1470</v>
+        <v>1279</v>
       </c>
       <c r="E286" t="s">
-        <v>1471</v>
+        <v>1957</v>
       </c>
       <c r="F286" t="s">
-        <v>597</v>
+        <v>1948</v>
       </c>
       <c r="H286">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>94</v>
       </c>
       <c r="I286" s="3">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>45719</v>
       </c>
       <c r="J286">
@@ -16052,29 +16542,29 @@
     </row>
     <row r="287" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
-        <v>1472</v>
+        <v>1393</v>
       </c>
       <c r="B287" t="s">
-        <v>1473</v>
+        <v>1394</v>
       </c>
       <c r="C287" t="s">
-        <v>1474</v>
+        <v>900</v>
       </c>
       <c r="D287" t="s">
-        <v>1475</v>
+        <v>1395</v>
       </c>
       <c r="E287" t="s">
-        <v>1476</v>
+        <v>1396</v>
       </c>
       <c r="F287" t="s">
         <v>597</v>
       </c>
       <c r="H287">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>95</v>
       </c>
       <c r="I287" s="3">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>45720</v>
       </c>
       <c r="J287">
@@ -16084,29 +16574,29 @@
     </row>
     <row r="288" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
-        <v>208</v>
+        <v>1908</v>
       </c>
       <c r="B288" t="s">
-        <v>1477</v>
+        <v>1906</v>
       </c>
       <c r="C288" t="s">
-        <v>1478</v>
+        <v>1913</v>
       </c>
       <c r="D288" t="s">
-        <v>1479</v>
+        <v>1905</v>
       </c>
       <c r="E288" t="s">
-        <v>1480</v>
+        <v>1915</v>
       </c>
       <c r="F288" t="s">
-        <v>597</v>
+        <v>1917</v>
       </c>
       <c r="H288">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>95</v>
       </c>
       <c r="I288" s="3">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>45720</v>
       </c>
       <c r="J288">
@@ -16116,29 +16606,29 @@
     </row>
     <row r="289" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
-        <v>210</v>
+        <v>1397</v>
       </c>
       <c r="B289" t="s">
-        <v>1481</v>
+        <v>1398</v>
       </c>
       <c r="C289" t="s">
-        <v>1482</v>
+        <v>1399</v>
       </c>
       <c r="D289" t="s">
-        <v>1483</v>
+        <v>1400</v>
       </c>
       <c r="E289" t="s">
-        <v>1484</v>
+        <v>1401</v>
       </c>
       <c r="F289" t="s">
         <v>597</v>
       </c>
       <c r="H289">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>95</v>
       </c>
       <c r="I289" s="3">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>45720</v>
       </c>
       <c r="J289">
@@ -16148,29 +16638,29 @@
     </row>
     <row r="290" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
-        <v>1485</v>
+        <v>1935</v>
       </c>
       <c r="B290" t="s">
-        <v>857</v>
+        <v>1936</v>
       </c>
       <c r="C290" t="s">
-        <v>1486</v>
+        <v>1937</v>
       </c>
       <c r="D290" t="s">
-        <v>1487</v>
+        <v>1423</v>
       </c>
       <c r="E290" t="s">
-        <v>1488</v>
+        <v>1938</v>
       </c>
       <c r="F290" t="s">
-        <v>597</v>
+        <v>1958</v>
       </c>
       <c r="H290">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>96</v>
       </c>
       <c r="I290" s="3">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>45721</v>
       </c>
       <c r="J290">
@@ -16180,29 +16670,29 @@
     </row>
     <row r="291" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
-        <v>1489</v>
+        <v>1939</v>
       </c>
       <c r="B291" t="s">
-        <v>1490</v>
+        <v>1940</v>
       </c>
       <c r="C291" t="s">
-        <v>1491</v>
+        <v>1941</v>
       </c>
       <c r="D291" t="s">
-        <v>1492</v>
+        <v>1942</v>
       </c>
       <c r="E291" t="s">
-        <v>1493</v>
+        <v>1943</v>
       </c>
       <c r="F291" t="s">
-        <v>597</v>
+        <v>1958</v>
       </c>
       <c r="H291">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>96</v>
       </c>
       <c r="I291" s="3">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>45721</v>
       </c>
       <c r="J291">
@@ -16212,29 +16702,29 @@
     </row>
     <row r="292" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
-        <v>1494</v>
+        <v>1944</v>
       </c>
       <c r="B292" t="s">
-        <v>1495</v>
+        <v>71</v>
       </c>
       <c r="C292" t="s">
-        <v>1268</v>
+        <v>1945</v>
       </c>
       <c r="D292" t="s">
-        <v>1496</v>
+        <v>1946</v>
       </c>
       <c r="E292" t="s">
-        <v>1497</v>
+        <v>1959</v>
       </c>
       <c r="F292" t="s">
-        <v>597</v>
+        <v>1958</v>
       </c>
       <c r="H292">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>96</v>
       </c>
       <c r="I292" s="3">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>45721</v>
       </c>
       <c r="J292">
@@ -16244,29 +16734,29 @@
     </row>
     <row r="293" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
-        <v>1498</v>
+        <v>438</v>
       </c>
       <c r="B293" t="s">
-        <v>1499</v>
+        <v>1960</v>
       </c>
       <c r="C293" t="s">
-        <v>1500</v>
+        <v>1961</v>
       </c>
       <c r="D293" t="s">
-        <v>1501</v>
+        <v>1962</v>
       </c>
       <c r="E293" t="s">
-        <v>1502</v>
+        <v>1963</v>
       </c>
       <c r="F293" t="s">
-        <v>597</v>
+        <v>1964</v>
       </c>
       <c r="H293">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>97</v>
       </c>
       <c r="I293" s="3">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>45722</v>
       </c>
       <c r="J293">
@@ -16276,29 +16766,29 @@
     </row>
     <row r="294" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
-        <v>1503</v>
+        <v>1402</v>
       </c>
       <c r="B294" t="s">
-        <v>1504</v>
+        <v>1403</v>
       </c>
       <c r="C294" t="s">
-        <v>1505</v>
+        <v>1404</v>
       </c>
       <c r="D294" t="s">
-        <v>1506</v>
+        <v>1405</v>
       </c>
       <c r="E294" t="s">
-        <v>1507</v>
+        <v>1406</v>
       </c>
       <c r="F294" t="s">
         <v>597</v>
       </c>
       <c r="H294">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>97</v>
       </c>
       <c r="I294" s="3">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>45722</v>
       </c>
       <c r="J294">
@@ -16308,29 +16798,29 @@
     </row>
     <row r="295" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
-        <v>1508</v>
+        <v>1407</v>
       </c>
       <c r="B295" t="s">
-        <v>1509</v>
+        <v>1408</v>
       </c>
       <c r="C295" t="s">
-        <v>1510</v>
+        <v>1409</v>
       </c>
       <c r="D295" t="s">
-        <v>1511</v>
+        <v>1410</v>
       </c>
       <c r="E295" t="s">
-        <v>1512</v>
+        <v>1411</v>
       </c>
       <c r="F295" t="s">
         <v>597</v>
       </c>
       <c r="H295">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>97</v>
       </c>
       <c r="I295" s="3">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>45722</v>
       </c>
       <c r="J295">
@@ -16340,29 +16830,29 @@
     </row>
     <row r="296" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
-        <v>1513</v>
+        <v>1412</v>
       </c>
       <c r="B296" t="s">
-        <v>1514</v>
+        <v>1413</v>
       </c>
       <c r="C296" t="s">
-        <v>1515</v>
+        <v>1414</v>
       </c>
       <c r="D296" t="s">
-        <v>1516</v>
+        <v>1415</v>
       </c>
       <c r="E296" t="s">
-        <v>1517</v>
+        <v>1416</v>
       </c>
       <c r="F296" t="s">
         <v>597</v>
       </c>
       <c r="H296">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>98</v>
       </c>
       <c r="I296" s="3">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>45723</v>
       </c>
       <c r="J296">
@@ -16372,29 +16862,29 @@
     </row>
     <row r="297" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
-        <v>1518</v>
+        <v>1016</v>
       </c>
       <c r="B297" t="s">
-        <v>1279</v>
+        <v>1898</v>
       </c>
       <c r="C297" t="s">
-        <v>1519</v>
+        <v>1899</v>
       </c>
       <c r="D297" t="s">
-        <v>1520</v>
+        <v>1900</v>
       </c>
       <c r="E297" t="s">
-        <v>1521</v>
+        <v>1901</v>
       </c>
       <c r="F297" t="s">
-        <v>597</v>
+        <v>1902</v>
       </c>
       <c r="H297">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>98</v>
       </c>
       <c r="I297" s="3">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>45723</v>
       </c>
       <c r="J297">
@@ -16404,29 +16894,29 @@
     </row>
     <row r="298" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
-        <v>1522</v>
+        <v>1417</v>
       </c>
       <c r="B298" t="s">
-        <v>1523</v>
+        <v>1418</v>
       </c>
       <c r="C298" t="s">
-        <v>1524</v>
+        <v>1419</v>
       </c>
       <c r="D298" t="s">
-        <v>1525</v>
+        <v>1420</v>
       </c>
       <c r="E298" t="s">
-        <v>1526</v>
+        <v>1421</v>
       </c>
       <c r="F298" t="s">
         <v>597</v>
       </c>
       <c r="H298">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>98</v>
       </c>
       <c r="I298" s="3">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>45723</v>
       </c>
       <c r="J298">
@@ -16436,29 +16926,29 @@
     </row>
     <row r="299" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
-        <v>1527</v>
+        <v>1909</v>
       </c>
       <c r="B299" t="s">
-        <v>1528</v>
+        <v>1249</v>
       </c>
       <c r="C299" t="s">
-        <v>1529</v>
+        <v>1910</v>
       </c>
       <c r="D299" t="s">
-        <v>1530</v>
+        <v>1904</v>
       </c>
       <c r="E299" t="s">
-        <v>1531</v>
+        <v>1914</v>
       </c>
       <c r="F299" t="s">
-        <v>597</v>
+        <v>1917</v>
       </c>
       <c r="H299">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>99</v>
       </c>
       <c r="I299" s="3">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>45724</v>
       </c>
       <c r="J299">
@@ -16468,29 +16958,29 @@
     </row>
     <row r="300" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
-        <v>1532</v>
+        <v>1422</v>
       </c>
       <c r="B300" t="s">
-        <v>1533</v>
+        <v>1423</v>
       </c>
       <c r="C300" t="s">
-        <v>1534</v>
+        <v>1424</v>
       </c>
       <c r="D300" t="s">
-        <v>1535</v>
+        <v>1425</v>
       </c>
       <c r="E300" t="s">
-        <v>1536</v>
+        <v>1426</v>
       </c>
       <c r="F300" t="s">
         <v>597</v>
       </c>
       <c r="H300">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>99</v>
       </c>
       <c r="I300" s="3">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>45724</v>
       </c>
       <c r="J300">
@@ -16500,29 +16990,29 @@
     </row>
     <row r="301" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
-        <v>1537</v>
+        <v>1431</v>
       </c>
       <c r="B301" t="s">
-        <v>1538</v>
+        <v>1432</v>
       </c>
       <c r="C301" t="s">
-        <v>1539</v>
+        <v>1433</v>
       </c>
       <c r="D301" t="s">
-        <v>1540</v>
+        <v>1434</v>
       </c>
       <c r="E301" t="s">
-        <v>1541</v>
+        <v>1435</v>
       </c>
       <c r="F301" t="s">
         <v>597</v>
       </c>
       <c r="H301">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>99</v>
       </c>
       <c r="I301" s="3">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>45724</v>
       </c>
       <c r="J301">
@@ -16532,29 +17022,29 @@
     </row>
     <row r="302" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
-        <v>1542</v>
+        <v>1929</v>
       </c>
       <c r="B302" t="s">
-        <v>1543</v>
+        <v>1930</v>
       </c>
       <c r="C302" t="s">
-        <v>1544</v>
+        <v>1931</v>
       </c>
       <c r="D302" t="s">
-        <v>1111</v>
+        <v>1932</v>
       </c>
       <c r="E302" t="s">
-        <v>1545</v>
+        <v>1933</v>
       </c>
       <c r="F302" t="s">
-        <v>597</v>
+        <v>1934</v>
       </c>
       <c r="H302">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>100</v>
       </c>
       <c r="I302" s="3">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>45725</v>
       </c>
       <c r="J302">
@@ -16564,29 +17054,29 @@
     </row>
     <row r="303" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
-        <v>1546</v>
+        <v>1436</v>
       </c>
       <c r="B303" t="s">
-        <v>1110</v>
+        <v>1437</v>
       </c>
       <c r="C303" t="s">
-        <v>1547</v>
+        <v>1438</v>
       </c>
       <c r="D303" t="s">
-        <v>1548</v>
+        <v>1439</v>
       </c>
       <c r="E303" t="s">
-        <v>1549</v>
+        <v>1440</v>
       </c>
       <c r="F303" t="s">
         <v>597</v>
       </c>
       <c r="H303">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>100</v>
       </c>
       <c r="I303" s="3">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>45725</v>
       </c>
       <c r="J303">
@@ -16596,29 +17086,29 @@
     </row>
     <row r="304" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
-        <v>1550</v>
+        <v>1903</v>
       </c>
       <c r="B304" t="s">
-        <v>218</v>
+        <v>1907</v>
       </c>
       <c r="C304" t="s">
-        <v>1551</v>
+        <v>1912</v>
       </c>
       <c r="D304" t="s">
-        <v>1552</v>
+        <v>1911</v>
       </c>
       <c r="E304" t="s">
-        <v>1553</v>
+        <v>1916</v>
       </c>
       <c r="F304" t="s">
-        <v>597</v>
+        <v>1917</v>
       </c>
       <c r="H304">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>100</v>
       </c>
       <c r="I304" s="3">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>45725</v>
       </c>
       <c r="J304">
@@ -16628,29 +17118,29 @@
     </row>
     <row r="305" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
-        <v>1554</v>
+        <v>1441</v>
       </c>
       <c r="B305" t="s">
-        <v>1555</v>
+        <v>1442</v>
       </c>
       <c r="C305" t="s">
-        <v>1556</v>
+        <v>1443</v>
       </c>
       <c r="D305" t="s">
-        <v>1557</v>
+        <v>1444</v>
       </c>
       <c r="E305" t="s">
-        <v>1558</v>
+        <v>1445</v>
       </c>
       <c r="F305" t="s">
         <v>597</v>
       </c>
       <c r="H305">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>101</v>
       </c>
       <c r="I305" s="3">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>45726</v>
       </c>
       <c r="J305">
@@ -16660,29 +17150,29 @@
     </row>
     <row r="306" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
-        <v>1559</v>
+        <v>1446</v>
       </c>
       <c r="B306" t="s">
-        <v>1560</v>
+        <v>1447</v>
       </c>
       <c r="C306" t="s">
-        <v>1561</v>
+        <v>1448</v>
       </c>
       <c r="D306" t="s">
-        <v>1562</v>
+        <v>1157</v>
       </c>
       <c r="E306" t="s">
-        <v>1563</v>
+        <v>1449</v>
       </c>
       <c r="F306" t="s">
         <v>597</v>
       </c>
       <c r="H306">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>101</v>
       </c>
       <c r="I306" s="3">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>45726</v>
       </c>
       <c r="J306">
@@ -16692,29 +17182,29 @@
     </row>
     <row r="307" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
-        <v>1564</v>
+        <v>1450</v>
       </c>
       <c r="B307" t="s">
-        <v>973</v>
+        <v>1427</v>
       </c>
       <c r="C307" t="s">
-        <v>1565</v>
+        <v>1428</v>
       </c>
       <c r="D307" t="s">
-        <v>1566</v>
+        <v>1429</v>
       </c>
       <c r="E307" t="s">
-        <v>1567</v>
+        <v>1430</v>
       </c>
       <c r="F307" t="s">
         <v>597</v>
       </c>
       <c r="H307">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>101</v>
       </c>
       <c r="I307" s="3">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>45726</v>
       </c>
       <c r="J307">
@@ -16724,29 +17214,29 @@
     </row>
     <row r="308" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
-        <v>1568</v>
+        <v>1965</v>
       </c>
       <c r="B308" t="s">
-        <v>1569</v>
+        <v>1966</v>
       </c>
       <c r="C308" t="s">
-        <v>1427</v>
+        <v>1967</v>
       </c>
       <c r="D308" t="s">
-        <v>1570</v>
+        <v>1968</v>
       </c>
       <c r="E308" t="s">
-        <v>1571</v>
+        <v>1969</v>
       </c>
       <c r="F308" t="s">
-        <v>597</v>
+        <v>1970</v>
       </c>
       <c r="H308">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>102</v>
       </c>
       <c r="I308" s="3">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>45727</v>
       </c>
       <c r="J308">
@@ -16756,29 +17246,29 @@
     </row>
     <row r="309" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
-        <v>1572</v>
+        <v>1971</v>
       </c>
       <c r="B309" t="s">
-        <v>1573</v>
+        <v>1972</v>
       </c>
       <c r="C309" t="s">
-        <v>1574</v>
+        <v>1973</v>
       </c>
       <c r="D309" t="s">
-        <v>1575</v>
+        <v>1974</v>
       </c>
       <c r="E309" t="s">
-        <v>1576</v>
+        <v>1975</v>
       </c>
       <c r="F309" t="s">
-        <v>597</v>
+        <v>1958</v>
       </c>
       <c r="H309">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>102</v>
       </c>
       <c r="I309" s="3">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>45727</v>
       </c>
       <c r="J309">
@@ -16788,29 +17278,29 @@
     </row>
     <row r="310" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
-        <v>1577</v>
+        <v>1976</v>
       </c>
       <c r="B310" t="s">
-        <v>1578</v>
+        <v>1977</v>
       </c>
       <c r="C310" t="s">
-        <v>1579</v>
+        <v>1978</v>
       </c>
       <c r="D310" t="s">
-        <v>1580</v>
+        <v>1979</v>
       </c>
       <c r="E310" t="s">
-        <v>1581</v>
+        <v>1980</v>
       </c>
       <c r="F310" t="s">
-        <v>597</v>
+        <v>1981</v>
       </c>
       <c r="H310">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>102</v>
       </c>
       <c r="I310" s="3">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>45727</v>
       </c>
       <c r="J310">
@@ -16820,29 +17310,29 @@
     </row>
     <row r="311" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
-        <v>1582</v>
+        <v>31</v>
       </c>
       <c r="B311" t="s">
-        <v>1583</v>
+        <v>1982</v>
       </c>
       <c r="C311" t="s">
-        <v>1584</v>
+        <v>1983</v>
       </c>
       <c r="D311" t="s">
-        <v>1585</v>
+        <v>1841</v>
       </c>
       <c r="E311" t="s">
-        <v>1586</v>
+        <v>1984</v>
       </c>
       <c r="F311" t="s">
-        <v>597</v>
+        <v>1958</v>
       </c>
       <c r="H311">
-        <f t="shared" ref="H311:H338" si="25">INT(J311/3)</f>
+        <f t="shared" si="25"/>
         <v>103</v>
       </c>
       <c r="I311" s="3">
-        <f t="shared" ref="I311:I338" si="26">$L$1+H311</f>
+        <f t="shared" si="26"/>
         <v>45728</v>
       </c>
       <c r="J311">
@@ -16852,22 +17342,22 @@
     </row>
     <row r="312" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
-        <v>1587</v>
+        <v>2005</v>
       </c>
       <c r="B312" t="s">
-        <v>1588</v>
+        <v>2006</v>
       </c>
       <c r="C312" t="s">
-        <v>1589</v>
+        <v>2007</v>
       </c>
       <c r="D312" t="s">
-        <v>1590</v>
+        <v>2008</v>
       </c>
       <c r="E312" t="s">
-        <v>1591</v>
+        <v>2009</v>
       </c>
       <c r="F312" t="s">
-        <v>597</v>
+        <v>1958</v>
       </c>
       <c r="H312">
         <f t="shared" si="25"/>
@@ -16884,22 +17374,22 @@
     </row>
     <row r="313" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
-        <v>1592</v>
+        <v>2010</v>
       </c>
       <c r="B313" t="s">
-        <v>1593</v>
+        <v>2011</v>
       </c>
       <c r="C313" t="s">
-        <v>1594</v>
+        <v>2012</v>
       </c>
       <c r="D313" t="s">
-        <v>1595</v>
+        <v>2013</v>
       </c>
       <c r="E313" t="s">
-        <v>1596</v>
+        <v>2014</v>
       </c>
       <c r="F313" t="s">
-        <v>597</v>
+        <v>1958</v>
       </c>
       <c r="H313">
         <f t="shared" si="25"/>
@@ -16916,19 +17406,19 @@
     </row>
     <row r="314" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
-        <v>574</v>
+        <v>533</v>
       </c>
       <c r="B314" t="s">
-        <v>1597</v>
+        <v>1451</v>
       </c>
       <c r="C314" t="s">
-        <v>1598</v>
+        <v>1452</v>
       </c>
       <c r="D314" t="s">
-        <v>1599</v>
+        <v>1453</v>
       </c>
       <c r="E314" t="s">
-        <v>1600</v>
+        <v>1454</v>
       </c>
       <c r="F314" t="s">
         <v>597</v>
@@ -16948,19 +17438,19 @@
     </row>
     <row r="315" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
-        <v>1601</v>
+        <v>1455</v>
       </c>
       <c r="B315" t="s">
-        <v>1602</v>
+        <v>1456</v>
       </c>
       <c r="C315" t="s">
-        <v>1603</v>
+        <v>1457</v>
       </c>
       <c r="D315" t="s">
-        <v>1604</v>
+        <v>1458</v>
       </c>
       <c r="E315" t="s">
-        <v>1605</v>
+        <v>1459</v>
       </c>
       <c r="F315" t="s">
         <v>597</v>
@@ -16980,19 +17470,19 @@
     </row>
     <row r="316" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
-        <v>1606</v>
+        <v>208</v>
       </c>
       <c r="B316" t="s">
-        <v>1607</v>
+        <v>1460</v>
       </c>
       <c r="C316" t="s">
-        <v>1608</v>
+        <v>1461</v>
       </c>
       <c r="D316" t="s">
-        <v>1609</v>
+        <v>1462</v>
       </c>
       <c r="E316" t="s">
-        <v>1610</v>
+        <v>1463</v>
       </c>
       <c r="F316" t="s">
         <v>597</v>
@@ -17012,19 +17502,19 @@
     </row>
     <row r="317" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
-        <v>1611</v>
+        <v>210</v>
       </c>
       <c r="B317" t="s">
-        <v>1612</v>
+        <v>1464</v>
       </c>
       <c r="C317" t="s">
-        <v>1613</v>
+        <v>1465</v>
       </c>
       <c r="D317" t="s">
-        <v>1614</v>
+        <v>1466</v>
       </c>
       <c r="E317" t="s">
-        <v>1615</v>
+        <v>1467</v>
       </c>
       <c r="F317" t="s">
         <v>597</v>
@@ -17044,19 +17534,19 @@
     </row>
     <row r="318" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
-        <v>1616</v>
+        <v>1468</v>
       </c>
       <c r="B318" t="s">
-        <v>676</v>
+        <v>857</v>
       </c>
       <c r="C318" t="s">
-        <v>1617</v>
+        <v>1469</v>
       </c>
       <c r="D318" t="s">
-        <v>1618</v>
+        <v>1470</v>
       </c>
       <c r="E318" t="s">
-        <v>1619</v>
+        <v>1471</v>
       </c>
       <c r="F318" t="s">
         <v>597</v>
@@ -17076,29 +17566,29 @@
     </row>
     <row r="319" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
-        <v>779</v>
+        <v>1995</v>
       </c>
       <c r="B319" t="s">
-        <v>1620</v>
+        <v>1996</v>
       </c>
       <c r="C319" t="s">
-        <v>1621</v>
+        <v>1997</v>
       </c>
       <c r="D319" t="s">
-        <v>1622</v>
+        <v>1998</v>
       </c>
       <c r="E319" t="s">
-        <v>1623</v>
+        <v>1999</v>
       </c>
       <c r="F319" t="s">
-        <v>597</v>
+        <v>1958</v>
       </c>
       <c r="H319">
-        <f t="shared" si="25"/>
+        <f t="shared" ref="H319:H382" si="27">INT(J319/3)</f>
         <v>105</v>
       </c>
       <c r="I319" s="3">
-        <f t="shared" si="26"/>
+        <f t="shared" ref="I319:I382" si="28">$L$1+H319</f>
         <v>45730</v>
       </c>
       <c r="J319">
@@ -17108,29 +17598,29 @@
     </row>
     <row r="320" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
-        <v>1624</v>
+        <v>1472</v>
       </c>
       <c r="B320" t="s">
-        <v>1625</v>
+        <v>1473</v>
       </c>
       <c r="C320" t="s">
-        <v>1626</v>
+        <v>1474</v>
       </c>
       <c r="D320" t="s">
-        <v>1627</v>
+        <v>1475</v>
       </c>
       <c r="E320" t="s">
-        <v>1628</v>
+        <v>1476</v>
       </c>
       <c r="F320" t="s">
         <v>597</v>
       </c>
       <c r="H320">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>106</v>
       </c>
       <c r="I320" s="3">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>45731</v>
       </c>
       <c r="J320">
@@ -17140,29 +17630,29 @@
     </row>
     <row r="321" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
-        <v>1629</v>
+        <v>1477</v>
       </c>
       <c r="B321" t="s">
-        <v>1630</v>
+        <v>1478</v>
       </c>
       <c r="C321" t="s">
-        <v>1415</v>
+        <v>1268</v>
       </c>
       <c r="D321" t="s">
-        <v>1631</v>
+        <v>1479</v>
       </c>
       <c r="E321" t="s">
-        <v>1060</v>
+        <v>1480</v>
       </c>
       <c r="F321" t="s">
         <v>597</v>
       </c>
       <c r="H321">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>106</v>
       </c>
       <c r="I321" s="3">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>45731</v>
       </c>
       <c r="J321">
@@ -17172,29 +17662,29 @@
     </row>
     <row r="322" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
-        <v>1632</v>
+        <v>1481</v>
       </c>
       <c r="B322" t="s">
-        <v>1633</v>
+        <v>1482</v>
       </c>
       <c r="C322" t="s">
-        <v>1634</v>
+        <v>1483</v>
       </c>
       <c r="D322" t="s">
-        <v>1635</v>
+        <v>1484</v>
       </c>
       <c r="E322" t="s">
-        <v>1636</v>
+        <v>1485</v>
       </c>
       <c r="F322" t="s">
         <v>597</v>
       </c>
       <c r="H322">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>106</v>
       </c>
       <c r="I322" s="3">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>45731</v>
       </c>
       <c r="J322">
@@ -17204,29 +17694,29 @@
     </row>
     <row r="323" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
-        <v>1637</v>
+        <v>1486</v>
       </c>
       <c r="B323" t="s">
-        <v>1638</v>
+        <v>1487</v>
       </c>
       <c r="C323" t="s">
-        <v>1639</v>
+        <v>1488</v>
       </c>
       <c r="D323" t="s">
-        <v>1640</v>
+        <v>1489</v>
       </c>
       <c r="E323" t="s">
-        <v>1641</v>
+        <v>1490</v>
       </c>
       <c r="F323" t="s">
         <v>597</v>
       </c>
       <c r="H323">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>107</v>
       </c>
       <c r="I323" s="3">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>45732</v>
       </c>
       <c r="J323">
@@ -17236,29 +17726,29 @@
     </row>
     <row r="324" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
-        <v>1642</v>
+        <v>1491</v>
       </c>
       <c r="B324" t="s">
-        <v>1643</v>
+        <v>1492</v>
       </c>
       <c r="C324" t="s">
-        <v>1644</v>
+        <v>1493</v>
       </c>
       <c r="D324" t="s">
-        <v>1645</v>
+        <v>1494</v>
       </c>
       <c r="E324" t="s">
-        <v>1646</v>
+        <v>1495</v>
       </c>
       <c r="F324" t="s">
         <v>597</v>
       </c>
       <c r="H324">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>107</v>
       </c>
       <c r="I324" s="3">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>45732</v>
       </c>
       <c r="J324">
@@ -17268,29 +17758,29 @@
     </row>
     <row r="325" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
-        <v>1647</v>
+        <v>1496</v>
       </c>
       <c r="B325" t="s">
-        <v>1648</v>
+        <v>1279</v>
       </c>
       <c r="C325" t="s">
-        <v>1649</v>
+        <v>1497</v>
       </c>
       <c r="D325" t="s">
-        <v>1650</v>
+        <v>1498</v>
       </c>
       <c r="E325" t="s">
-        <v>1651</v>
+        <v>1499</v>
       </c>
       <c r="F325" t="s">
         <v>597</v>
       </c>
       <c r="H325">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>107</v>
       </c>
       <c r="I325" s="3">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>45732</v>
       </c>
       <c r="J325">
@@ -17300,29 +17790,29 @@
     </row>
     <row r="326" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
-        <v>1652</v>
+        <v>1500</v>
       </c>
       <c r="B326" t="s">
-        <v>1119</v>
+        <v>1501</v>
       </c>
       <c r="C326" t="s">
-        <v>1653</v>
+        <v>1502</v>
       </c>
       <c r="D326" t="s">
-        <v>1654</v>
+        <v>1503</v>
       </c>
       <c r="E326" t="s">
-        <v>1655</v>
+        <v>1504</v>
       </c>
       <c r="F326" t="s">
         <v>597</v>
       </c>
       <c r="H326">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>108</v>
       </c>
       <c r="I326" s="3">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>45733</v>
       </c>
       <c r="J326">
@@ -17332,29 +17822,29 @@
     </row>
     <row r="327" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
-        <v>1656</v>
+        <v>1505</v>
       </c>
       <c r="B327" t="s">
-        <v>308</v>
+        <v>1506</v>
       </c>
       <c r="C327" t="s">
-        <v>1657</v>
+        <v>1507</v>
       </c>
       <c r="D327" t="s">
-        <v>1658</v>
+        <v>1508</v>
       </c>
       <c r="E327" t="s">
-        <v>1659</v>
+        <v>1509</v>
       </c>
       <c r="F327" t="s">
         <v>597</v>
       </c>
       <c r="H327">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>108</v>
       </c>
       <c r="I327" s="3">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>45733</v>
       </c>
       <c r="J327">
@@ -17364,400 +17854,403 @@
     </row>
     <row r="328" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
-        <v>1660</v>
+        <v>1510</v>
       </c>
       <c r="B328" t="s">
-        <v>1661</v>
+        <v>1511</v>
       </c>
       <c r="C328" t="s">
-        <v>1662</v>
+        <v>1512</v>
       </c>
       <c r="D328" t="s">
-        <v>1663</v>
+        <v>1513</v>
       </c>
       <c r="E328" t="s">
-        <v>1664</v>
+        <v>1514</v>
       </c>
       <c r="F328" t="s">
         <v>597</v>
       </c>
       <c r="H328">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>108</v>
       </c>
       <c r="I328" s="3">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>45733</v>
       </c>
       <c r="J328">
-        <f t="shared" si="18"/>
+        <f t="shared" ref="J328:J391" si="29">J327+1</f>
         <v>326</v>
       </c>
     </row>
     <row r="329" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
-        <v>1665</v>
+        <v>1515</v>
       </c>
       <c r="B329" t="s">
-        <v>1253</v>
+        <v>1516</v>
       </c>
       <c r="C329" t="s">
-        <v>367</v>
+        <v>1517</v>
       </c>
       <c r="D329" t="s">
-        <v>1666</v>
+        <v>1518</v>
       </c>
       <c r="E329" t="s">
-        <v>1667</v>
+        <v>1519</v>
       </c>
       <c r="F329" t="s">
         <v>597</v>
       </c>
       <c r="H329">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>109</v>
       </c>
       <c r="I329" s="3">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>45734</v>
       </c>
       <c r="J329">
-        <f t="shared" si="18"/>
+        <f t="shared" si="29"/>
         <v>327</v>
       </c>
     </row>
     <row r="330" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
-        <v>1668</v>
+        <v>1520</v>
       </c>
       <c r="B330" t="s">
-        <v>1669</v>
+        <v>1521</v>
       </c>
       <c r="C330" t="s">
-        <v>1670</v>
+        <v>1522</v>
       </c>
       <c r="D330" t="s">
-        <v>925</v>
+        <v>1111</v>
       </c>
       <c r="E330" t="s">
-        <v>1671</v>
+        <v>1523</v>
       </c>
       <c r="F330" t="s">
         <v>597</v>
       </c>
       <c r="H330">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>109</v>
       </c>
       <c r="I330" s="3">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>45734</v>
       </c>
       <c r="J330">
-        <f t="shared" si="18"/>
+        <f t="shared" si="29"/>
         <v>328</v>
       </c>
     </row>
     <row r="331" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
-        <v>1672</v>
+        <v>1990</v>
       </c>
       <c r="B331" t="s">
-        <v>1673</v>
+        <v>1991</v>
       </c>
       <c r="C331" t="s">
-        <v>227</v>
+        <v>1992</v>
       </c>
       <c r="D331" t="s">
-        <v>1674</v>
+        <v>1993</v>
       </c>
       <c r="E331" t="s">
-        <v>1675</v>
+        <v>1994</v>
       </c>
       <c r="F331" t="s">
-        <v>597</v>
+        <v>1958</v>
       </c>
       <c r="H331">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>109</v>
       </c>
       <c r="I331" s="3">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>45734</v>
       </c>
       <c r="J331">
-        <f t="shared" si="18"/>
+        <f t="shared" si="29"/>
         <v>329</v>
       </c>
     </row>
     <row r="332" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
-        <v>1429</v>
+        <v>2000</v>
       </c>
       <c r="B332" t="s">
-        <v>1676</v>
+        <v>2001</v>
       </c>
       <c r="C332" t="s">
-        <v>1677</v>
+        <v>2002</v>
+      </c>
+      <c r="D332" t="s">
+        <v>2003</v>
       </c>
       <c r="E332" t="s">
-        <v>1678</v>
+        <v>2004</v>
       </c>
       <c r="F332" t="s">
-        <v>597</v>
+        <v>1958</v>
       </c>
       <c r="H332">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>110</v>
       </c>
       <c r="I332" s="3">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>45735</v>
       </c>
       <c r="J332">
-        <f t="shared" si="18"/>
+        <f t="shared" si="29"/>
         <v>330</v>
       </c>
     </row>
     <row r="333" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
-        <v>1679</v>
+        <v>1524</v>
       </c>
       <c r="B333" t="s">
-        <v>1680</v>
+        <v>1110</v>
       </c>
       <c r="C333" t="s">
-        <v>1681</v>
+        <v>1525</v>
       </c>
       <c r="D333" t="s">
-        <v>1682</v>
+        <v>1526</v>
       </c>
       <c r="E333" t="s">
-        <v>1683</v>
+        <v>1527</v>
       </c>
       <c r="F333" t="s">
         <v>597</v>
       </c>
       <c r="H333">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>110</v>
       </c>
       <c r="I333" s="3">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>45735</v>
       </c>
       <c r="J333">
-        <f t="shared" si="18"/>
+        <f t="shared" si="29"/>
         <v>331</v>
       </c>
     </row>
     <row r="334" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
-        <v>1684</v>
+        <v>1528</v>
       </c>
       <c r="B334" t="s">
-        <v>1685</v>
+        <v>218</v>
       </c>
       <c r="C334" t="s">
-        <v>228</v>
+        <v>1529</v>
       </c>
       <c r="D334" t="s">
-        <v>1686</v>
+        <v>1530</v>
       </c>
       <c r="E334" t="s">
-        <v>1687</v>
+        <v>1531</v>
       </c>
       <c r="F334" t="s">
         <v>597</v>
       </c>
       <c r="H334">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>110</v>
       </c>
       <c r="I334" s="3">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>45735</v>
       </c>
       <c r="J334">
-        <f t="shared" si="18"/>
+        <f t="shared" si="29"/>
         <v>332</v>
       </c>
     </row>
     <row r="335" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
-        <v>1688</v>
+        <v>1532</v>
       </c>
       <c r="B335" t="s">
-        <v>1689</v>
+        <v>1533</v>
       </c>
       <c r="C335" t="s">
-        <v>1690</v>
+        <v>1534</v>
       </c>
       <c r="D335" t="s">
-        <v>1691</v>
+        <v>1535</v>
       </c>
       <c r="E335" t="s">
-        <v>1692</v>
+        <v>1536</v>
       </c>
       <c r="F335" t="s">
         <v>597</v>
       </c>
       <c r="H335">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>111</v>
       </c>
       <c r="I335" s="3">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>45736</v>
       </c>
       <c r="J335">
-        <f t="shared" si="18"/>
+        <f t="shared" si="29"/>
         <v>333</v>
       </c>
     </row>
     <row r="336" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
-        <v>1693</v>
+        <v>1537</v>
       </c>
       <c r="B336" t="s">
-        <v>1694</v>
+        <v>1538</v>
       </c>
       <c r="C336" t="s">
-        <v>1695</v>
+        <v>1539</v>
       </c>
       <c r="D336" t="s">
-        <v>1696</v>
+        <v>1540</v>
       </c>
       <c r="E336" t="s">
-        <v>1697</v>
+        <v>1541</v>
       </c>
       <c r="F336" t="s">
         <v>597</v>
       </c>
       <c r="H336">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>111</v>
       </c>
       <c r="I336" s="3">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>45736</v>
       </c>
       <c r="J336">
-        <f t="shared" si="18"/>
+        <f t="shared" si="29"/>
         <v>334</v>
       </c>
     </row>
     <row r="337" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
-        <v>1698</v>
+        <v>1542</v>
       </c>
       <c r="B337" t="s">
-        <v>1699</v>
+        <v>973</v>
       </c>
       <c r="C337" t="s">
-        <v>689</v>
+        <v>1543</v>
       </c>
       <c r="D337" t="s">
-        <v>1700</v>
+        <v>1544</v>
       </c>
       <c r="E337" t="s">
-        <v>1701</v>
+        <v>1545</v>
       </c>
       <c r="F337" t="s">
         <v>597</v>
       </c>
       <c r="H337">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>111</v>
       </c>
       <c r="I337" s="3">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>45736</v>
       </c>
       <c r="J337">
-        <f t="shared" si="18"/>
+        <f t="shared" si="29"/>
         <v>335</v>
       </c>
     </row>
     <row r="338" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
-        <v>1702</v>
+        <v>1546</v>
       </c>
       <c r="B338" t="s">
-        <v>1703</v>
+        <v>1547</v>
       </c>
       <c r="C338" t="s">
-        <v>1704</v>
+        <v>1415</v>
       </c>
       <c r="D338" t="s">
-        <v>1705</v>
+        <v>1548</v>
       </c>
       <c r="E338" t="s">
-        <v>1706</v>
+        <v>1549</v>
       </c>
       <c r="F338" t="s">
         <v>597</v>
       </c>
       <c r="H338">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>112</v>
       </c>
       <c r="I338" s="3">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>45737</v>
       </c>
       <c r="J338">
-        <f t="shared" si="18"/>
+        <f t="shared" si="29"/>
         <v>336</v>
       </c>
     </row>
     <row r="339" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
-        <v>1707</v>
+        <v>1550</v>
       </c>
       <c r="B339" t="s">
-        <v>1708</v>
+        <v>1551</v>
       </c>
       <c r="C339" t="s">
-        <v>1709</v>
+        <v>1552</v>
       </c>
       <c r="D339" t="s">
-        <v>1710</v>
+        <v>1553</v>
       </c>
       <c r="E339" t="s">
-        <v>1711</v>
+        <v>1554</v>
       </c>
       <c r="F339" t="s">
         <v>597</v>
       </c>
       <c r="H339">
-        <f t="shared" ref="H339:H394" si="27">INT(J339/3)</f>
+        <f t="shared" si="27"/>
         <v>112</v>
       </c>
       <c r="I339" s="3">
-        <f t="shared" ref="I339:I394" si="28">$L$1+H339</f>
+        <f t="shared" si="28"/>
         <v>45737</v>
       </c>
       <c r="J339">
-        <f t="shared" si="18"/>
+        <f t="shared" si="29"/>
         <v>337</v>
       </c>
     </row>
     <row r="340" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
-        <v>1712</v>
+        <v>1555</v>
       </c>
       <c r="B340" t="s">
-        <v>1713</v>
+        <v>1556</v>
       </c>
       <c r="C340" t="s">
-        <v>1714</v>
+        <v>1557</v>
       </c>
       <c r="D340" t="s">
-        <v>1715</v>
+        <v>1558</v>
       </c>
       <c r="E340" t="s">
-        <v>1716</v>
+        <v>1559</v>
       </c>
       <c r="F340" t="s">
         <v>597</v>
@@ -17771,25 +18264,25 @@
         <v>45737</v>
       </c>
       <c r="J340">
-        <f t="shared" si="18"/>
+        <f t="shared" si="29"/>
         <v>338</v>
       </c>
     </row>
     <row r="341" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
-        <v>1717</v>
+        <v>1560</v>
       </c>
       <c r="B341" t="s">
-        <v>1718</v>
+        <v>1561</v>
       </c>
       <c r="C341" t="s">
-        <v>1719</v>
+        <v>1562</v>
       </c>
       <c r="D341" t="s">
-        <v>1720</v>
+        <v>1563</v>
       </c>
       <c r="E341" t="s">
-        <v>777</v>
+        <v>1564</v>
       </c>
       <c r="F341" t="s">
         <v>597</v>
@@ -17803,25 +18296,25 @@
         <v>45738</v>
       </c>
       <c r="J341">
-        <f t="shared" si="18"/>
+        <f t="shared" si="29"/>
         <v>339</v>
       </c>
     </row>
     <row r="342" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
-        <v>1721</v>
+        <v>1565</v>
       </c>
       <c r="B342" t="s">
-        <v>1722</v>
+        <v>1566</v>
       </c>
       <c r="C342" t="s">
-        <v>1723</v>
+        <v>1567</v>
       </c>
       <c r="D342" t="s">
-        <v>1724</v>
+        <v>1568</v>
       </c>
       <c r="E342" t="s">
-        <v>1725</v>
+        <v>1569</v>
       </c>
       <c r="F342" t="s">
         <v>597</v>
@@ -17835,25 +18328,25 @@
         <v>45738</v>
       </c>
       <c r="J342">
-        <f t="shared" si="18"/>
+        <f t="shared" si="29"/>
         <v>340</v>
       </c>
     </row>
     <row r="343" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
-        <v>1726</v>
+        <v>1570</v>
       </c>
       <c r="B343" t="s">
-        <v>1727</v>
+        <v>1571</v>
       </c>
       <c r="C343" t="s">
-        <v>1728</v>
+        <v>1572</v>
       </c>
       <c r="D343" t="s">
-        <v>1384</v>
+        <v>1573</v>
       </c>
       <c r="E343" t="s">
-        <v>1729</v>
+        <v>1574</v>
       </c>
       <c r="F343" t="s">
         <v>597</v>
@@ -17867,25 +18360,25 @@
         <v>45738</v>
       </c>
       <c r="J343">
-        <f t="shared" si="18"/>
+        <f t="shared" si="29"/>
         <v>341</v>
       </c>
     </row>
     <row r="344" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
-        <v>1730</v>
+        <v>574</v>
       </c>
       <c r="B344" t="s">
-        <v>1731</v>
+        <v>1575</v>
       </c>
       <c r="C344" t="s">
-        <v>1732</v>
+        <v>1576</v>
       </c>
       <c r="D344" t="s">
-        <v>1733</v>
+        <v>1577</v>
       </c>
       <c r="E344" t="s">
-        <v>1734</v>
+        <v>1578</v>
       </c>
       <c r="F344" t="s">
         <v>597</v>
@@ -17899,25 +18392,25 @@
         <v>45739</v>
       </c>
       <c r="J344">
-        <f t="shared" si="18"/>
+        <f t="shared" si="29"/>
         <v>342</v>
       </c>
     </row>
     <row r="345" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
-        <v>1735</v>
+        <v>1579</v>
       </c>
       <c r="B345" t="s">
-        <v>1736</v>
+        <v>1580</v>
       </c>
       <c r="C345" t="s">
-        <v>1737</v>
+        <v>1581</v>
       </c>
       <c r="D345" t="s">
-        <v>1738</v>
+        <v>1582</v>
       </c>
       <c r="E345" t="s">
-        <v>1739</v>
+        <v>1583</v>
       </c>
       <c r="F345" t="s">
         <v>597</v>
@@ -17931,25 +18424,25 @@
         <v>45739</v>
       </c>
       <c r="J345">
-        <f t="shared" si="18"/>
+        <f t="shared" si="29"/>
         <v>343</v>
       </c>
     </row>
     <row r="346" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
-        <v>1740</v>
+        <v>1584</v>
       </c>
       <c r="B346" t="s">
-        <v>1741</v>
+        <v>1585</v>
       </c>
       <c r="C346" t="s">
-        <v>1742</v>
+        <v>1586</v>
       </c>
       <c r="D346" t="s">
-        <v>1743</v>
+        <v>1587</v>
       </c>
       <c r="E346" t="s">
-        <v>1744</v>
+        <v>1588</v>
       </c>
       <c r="F346" t="s">
         <v>597</v>
@@ -17963,25 +18456,25 @@
         <v>45739</v>
       </c>
       <c r="J346">
-        <f t="shared" si="18"/>
+        <f t="shared" si="29"/>
         <v>344</v>
       </c>
     </row>
     <row r="347" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
-        <v>1465</v>
+        <v>1589</v>
       </c>
       <c r="B347" t="s">
-        <v>1382</v>
+        <v>1590</v>
       </c>
       <c r="C347" t="s">
-        <v>1745</v>
+        <v>1591</v>
       </c>
       <c r="D347" t="s">
-        <v>1746</v>
+        <v>1592</v>
       </c>
       <c r="E347" t="s">
-        <v>1747</v>
+        <v>1593</v>
       </c>
       <c r="F347" t="s">
         <v>597</v>
@@ -17995,25 +18488,25 @@
         <v>45740</v>
       </c>
       <c r="J347">
-        <f t="shared" si="18"/>
+        <f t="shared" si="29"/>
         <v>345</v>
       </c>
     </row>
     <row r="348" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
-        <v>228</v>
+        <v>1594</v>
       </c>
       <c r="B348" t="s">
-        <v>1748</v>
+        <v>676</v>
       </c>
       <c r="C348" t="s">
-        <v>20</v>
+        <v>1595</v>
       </c>
       <c r="D348" t="s">
-        <v>1749</v>
+        <v>1596</v>
       </c>
       <c r="E348" t="s">
-        <v>1750</v>
+        <v>1597</v>
       </c>
       <c r="F348" t="s">
         <v>597</v>
@@ -18027,25 +18520,25 @@
         <v>45740</v>
       </c>
       <c r="J348">
-        <f t="shared" si="18"/>
+        <f t="shared" si="29"/>
         <v>346</v>
       </c>
     </row>
     <row r="349" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
-        <v>1751</v>
+        <v>779</v>
       </c>
       <c r="B349" t="s">
-        <v>1752</v>
+        <v>1598</v>
       </c>
       <c r="C349" t="s">
-        <v>674</v>
+        <v>1599</v>
       </c>
       <c r="D349" t="s">
-        <v>1753</v>
+        <v>1600</v>
       </c>
       <c r="E349" t="s">
-        <v>1754</v>
+        <v>1601</v>
       </c>
       <c r="F349" t="s">
         <v>597</v>
@@ -18059,25 +18552,25 @@
         <v>45740</v>
       </c>
       <c r="J349">
-        <f t="shared" si="18"/>
+        <f t="shared" si="29"/>
         <v>347</v>
       </c>
     </row>
     <row r="350" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
-        <v>1755</v>
+        <v>1602</v>
       </c>
       <c r="B350" t="s">
-        <v>1756</v>
+        <v>1603</v>
       </c>
       <c r="C350" t="s">
-        <v>188</v>
+        <v>1604</v>
       </c>
       <c r="D350" t="s">
-        <v>1757</v>
+        <v>1605</v>
       </c>
       <c r="E350" t="s">
-        <v>1758</v>
+        <v>1606</v>
       </c>
       <c r="F350" t="s">
         <v>597</v>
@@ -18091,25 +18584,25 @@
         <v>45741</v>
       </c>
       <c r="J350">
-        <f t="shared" si="18"/>
+        <f t="shared" si="29"/>
         <v>348</v>
       </c>
     </row>
     <row r="351" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
-        <v>1387</v>
+        <v>1607</v>
       </c>
       <c r="B351" t="s">
-        <v>497</v>
+        <v>1608</v>
       </c>
       <c r="C351" t="s">
-        <v>1759</v>
+        <v>1403</v>
       </c>
       <c r="D351" t="s">
-        <v>1760</v>
+        <v>1609</v>
       </c>
       <c r="E351" t="s">
-        <v>1761</v>
+        <v>1060</v>
       </c>
       <c r="F351" t="s">
         <v>597</v>
@@ -18123,25 +18616,25 @@
         <v>45741</v>
       </c>
       <c r="J351">
-        <f t="shared" si="18"/>
+        <f t="shared" si="29"/>
         <v>349</v>
       </c>
     </row>
     <row r="352" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
-        <v>1762</v>
+        <v>1610</v>
       </c>
       <c r="B352" t="s">
-        <v>1763</v>
+        <v>1611</v>
       </c>
       <c r="C352" t="s">
-        <v>1764</v>
+        <v>1612</v>
       </c>
       <c r="D352" t="s">
-        <v>1765</v>
+        <v>1613</v>
       </c>
       <c r="E352" t="s">
-        <v>1766</v>
+        <v>1614</v>
       </c>
       <c r="F352" t="s">
         <v>597</v>
@@ -18155,25 +18648,25 @@
         <v>45741</v>
       </c>
       <c r="J352">
-        <f t="shared" si="18"/>
+        <f t="shared" si="29"/>
         <v>350</v>
       </c>
     </row>
     <row r="353" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
-        <v>1767</v>
+        <v>1615</v>
       </c>
       <c r="B353" t="s">
-        <v>1768</v>
+        <v>1616</v>
       </c>
       <c r="C353" t="s">
-        <v>1769</v>
+        <v>1617</v>
       </c>
       <c r="D353" t="s">
-        <v>1770</v>
+        <v>1618</v>
       </c>
       <c r="E353" t="s">
-        <v>1771</v>
+        <v>1619</v>
       </c>
       <c r="F353" t="s">
         <v>597</v>
@@ -18187,28 +18680,28 @@
         <v>45742</v>
       </c>
       <c r="J353">
-        <f t="shared" ref="J353:J402" si="29">J352+1</f>
+        <f t="shared" si="29"/>
         <v>351</v>
       </c>
     </row>
     <row r="354" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
-        <v>1772</v>
+        <v>1985</v>
       </c>
       <c r="B354" t="s">
-        <v>1773</v>
+        <v>1986</v>
       </c>
       <c r="C354" t="s">
-        <v>1774</v>
+        <v>1987</v>
       </c>
       <c r="D354" t="s">
-        <v>1775</v>
+        <v>1988</v>
       </c>
       <c r="E354" t="s">
-        <v>1776</v>
+        <v>1989</v>
       </c>
       <c r="F354" t="s">
-        <v>597</v>
+        <v>1958</v>
       </c>
       <c r="H354">
         <f t="shared" si="27"/>
@@ -18225,19 +18718,19 @@
     </row>
     <row r="355" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
-        <v>1777</v>
+        <v>1620</v>
       </c>
       <c r="B355" t="s">
-        <v>1778</v>
+        <v>1621</v>
       </c>
       <c r="C355" t="s">
-        <v>1779</v>
+        <v>1622</v>
       </c>
       <c r="D355" t="s">
-        <v>1780</v>
+        <v>1623</v>
       </c>
       <c r="E355" t="s">
-        <v>1781</v>
+        <v>1624</v>
       </c>
       <c r="F355" t="s">
         <v>597</v>
@@ -18257,19 +18750,19 @@
     </row>
     <row r="356" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
-        <v>1782</v>
+        <v>1625</v>
       </c>
       <c r="B356" t="s">
-        <v>1783</v>
+        <v>1626</v>
       </c>
       <c r="C356" t="s">
-        <v>1784</v>
+        <v>1627</v>
       </c>
       <c r="D356" t="s">
-        <v>1785</v>
+        <v>1628</v>
       </c>
       <c r="E356" t="s">
-        <v>1786</v>
+        <v>1629</v>
       </c>
       <c r="F356" t="s">
         <v>597</v>
@@ -18289,19 +18782,19 @@
     </row>
     <row r="357" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
-        <v>1787</v>
+        <v>1630</v>
       </c>
       <c r="B357" t="s">
-        <v>1788</v>
+        <v>1119</v>
       </c>
       <c r="C357" t="s">
-        <v>1789</v>
+        <v>1631</v>
       </c>
       <c r="D357" t="s">
-        <v>1790</v>
+        <v>1632</v>
       </c>
       <c r="E357" t="s">
-        <v>1791</v>
+        <v>1633</v>
       </c>
       <c r="F357" t="s">
         <v>597</v>
@@ -18321,19 +18814,19 @@
     </row>
     <row r="358" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
-        <v>1792</v>
+        <v>1634</v>
       </c>
       <c r="B358" t="s">
-        <v>1793</v>
+        <v>308</v>
       </c>
       <c r="C358" t="s">
-        <v>1794</v>
+        <v>1635</v>
       </c>
       <c r="D358" t="s">
-        <v>1795</v>
+        <v>1636</v>
       </c>
       <c r="E358" t="s">
-        <v>1796</v>
+        <v>1637</v>
       </c>
       <c r="F358" t="s">
         <v>597</v>
@@ -18353,19 +18846,19 @@
     </row>
     <row r="359" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
-        <v>1674</v>
+        <v>1638</v>
       </c>
       <c r="B359" t="s">
-        <v>1797</v>
+        <v>1639</v>
       </c>
       <c r="C359" t="s">
-        <v>1798</v>
+        <v>1640</v>
       </c>
       <c r="D359" t="s">
-        <v>1799</v>
+        <v>1641</v>
       </c>
       <c r="E359" t="s">
-        <v>1800</v>
+        <v>1642</v>
       </c>
       <c r="F359" t="s">
         <v>597</v>
@@ -18385,19 +18878,19 @@
     </row>
     <row r="360" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
-        <v>1801</v>
+        <v>1643</v>
       </c>
       <c r="B360" t="s">
-        <v>1802</v>
+        <v>1253</v>
       </c>
       <c r="C360" t="s">
-        <v>1803</v>
+        <v>367</v>
       </c>
       <c r="D360" t="s">
-        <v>1804</v>
+        <v>1644</v>
       </c>
       <c r="E360" t="s">
-        <v>1805</v>
+        <v>1645</v>
       </c>
       <c r="F360" t="s">
         <v>597</v>
@@ -18417,19 +18910,19 @@
     </row>
     <row r="361" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
-        <v>1806</v>
+        <v>1646</v>
       </c>
       <c r="B361" t="s">
-        <v>1807</v>
+        <v>1647</v>
       </c>
       <c r="C361" t="s">
-        <v>1808</v>
+        <v>1648</v>
       </c>
       <c r="D361" t="s">
-        <v>1124</v>
+        <v>925</v>
       </c>
       <c r="E361" t="s">
-        <v>1809</v>
+        <v>1649</v>
       </c>
       <c r="F361" t="s">
         <v>597</v>
@@ -18449,19 +18942,19 @@
     </row>
     <row r="362" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
-        <v>842</v>
+        <v>1650</v>
       </c>
       <c r="B362" t="s">
-        <v>843</v>
+        <v>1651</v>
       </c>
       <c r="C362" t="s">
-        <v>844</v>
+        <v>227</v>
       </c>
       <c r="D362" t="s">
-        <v>845</v>
+        <v>1652</v>
       </c>
       <c r="E362" t="s">
-        <v>846</v>
+        <v>1653</v>
       </c>
       <c r="F362" t="s">
         <v>597</v>
@@ -18481,19 +18974,16 @@
     </row>
     <row r="363" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
-        <v>847</v>
+        <v>1417</v>
       </c>
       <c r="B363" t="s">
-        <v>848</v>
+        <v>1654</v>
       </c>
       <c r="C363" t="s">
-        <v>849</v>
-      </c>
-      <c r="D363" t="s">
-        <v>850</v>
+        <v>1655</v>
       </c>
       <c r="E363" t="s">
-        <v>851</v>
+        <v>1656</v>
       </c>
       <c r="F363" t="s">
         <v>597</v>
@@ -18513,19 +19003,19 @@
     </row>
     <row r="364" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
-        <v>852</v>
+        <v>1657</v>
       </c>
       <c r="B364" t="s">
-        <v>169</v>
+        <v>1658</v>
       </c>
       <c r="C364" t="s">
-        <v>853</v>
+        <v>1659</v>
       </c>
       <c r="D364" t="s">
-        <v>854</v>
+        <v>1660</v>
       </c>
       <c r="E364" t="s">
-        <v>855</v>
+        <v>1661</v>
       </c>
       <c r="F364" t="s">
         <v>597</v>
@@ -18545,19 +19035,19 @@
     </row>
     <row r="365" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
-        <v>856</v>
+        <v>1662</v>
       </c>
       <c r="B365" t="s">
-        <v>857</v>
+        <v>1663</v>
       </c>
       <c r="C365" t="s">
-        <v>858</v>
+        <v>228</v>
       </c>
       <c r="D365" t="s">
-        <v>859</v>
+        <v>1664</v>
       </c>
       <c r="E365" t="s">
-        <v>860</v>
+        <v>1665</v>
       </c>
       <c r="F365" t="s">
         <v>597</v>
@@ -18577,19 +19067,19 @@
     </row>
     <row r="366" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
-        <v>667</v>
+        <v>1666</v>
       </c>
       <c r="B366" t="s">
-        <v>861</v>
+        <v>1667</v>
       </c>
       <c r="C366" t="s">
-        <v>540</v>
+        <v>1668</v>
       </c>
       <c r="D366" t="s">
-        <v>862</v>
+        <v>1669</v>
       </c>
       <c r="E366" t="s">
-        <v>863</v>
+        <v>1670</v>
       </c>
       <c r="F366" t="s">
         <v>597</v>
@@ -18609,22 +19099,22 @@
     </row>
     <row r="367" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
-        <v>720</v>
+        <v>1671</v>
       </c>
       <c r="B367" t="s">
-        <v>721</v>
+        <v>1672</v>
       </c>
       <c r="C367" t="s">
-        <v>722</v>
+        <v>1673</v>
       </c>
       <c r="D367" t="s">
-        <v>723</v>
+        <v>1674</v>
       </c>
       <c r="E367" t="s">
-        <v>724</v>
+        <v>1675</v>
       </c>
       <c r="F367" t="s">
-        <v>617</v>
+        <v>597</v>
       </c>
       <c r="H367">
         <f t="shared" si="27"/>
@@ -18641,22 +19131,22 @@
     </row>
     <row r="368" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
-        <v>864</v>
+        <v>1676</v>
       </c>
       <c r="B368" t="s">
-        <v>865</v>
+        <v>1677</v>
       </c>
       <c r="C368" t="s">
-        <v>866</v>
+        <v>689</v>
       </c>
       <c r="D368" t="s">
-        <v>867</v>
+        <v>1678</v>
       </c>
       <c r="E368" t="s">
-        <v>868</v>
+        <v>1679</v>
       </c>
       <c r="F368" t="s">
-        <v>617</v>
+        <v>597</v>
       </c>
       <c r="H368">
         <f t="shared" si="27"/>
@@ -18673,19 +19163,19 @@
     </row>
     <row r="369" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
-        <v>869</v>
+        <v>1680</v>
       </c>
       <c r="B369" t="s">
-        <v>870</v>
+        <v>1681</v>
       </c>
       <c r="C369" t="s">
-        <v>871</v>
+        <v>1682</v>
       </c>
       <c r="D369" t="s">
-        <v>872</v>
+        <v>1683</v>
       </c>
       <c r="E369" t="s">
-        <v>873</v>
+        <v>1684</v>
       </c>
       <c r="F369" t="s">
         <v>597</v>
@@ -18705,19 +19195,19 @@
     </row>
     <row r="370" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
-        <v>874</v>
+        <v>1685</v>
       </c>
       <c r="B370" t="s">
-        <v>860</v>
+        <v>1686</v>
       </c>
       <c r="C370" t="s">
-        <v>875</v>
+        <v>1687</v>
       </c>
       <c r="D370" t="s">
-        <v>876</v>
+        <v>1688</v>
       </c>
       <c r="E370" t="s">
-        <v>877</v>
+        <v>1689</v>
       </c>
       <c r="F370" t="s">
         <v>597</v>
@@ -18737,22 +19227,22 @@
     </row>
     <row r="371" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
-        <v>878</v>
+        <v>1690</v>
       </c>
       <c r="B371" t="s">
-        <v>879</v>
+        <v>1691</v>
       </c>
       <c r="C371" t="s">
-        <v>880</v>
+        <v>1692</v>
       </c>
       <c r="D371" t="s">
-        <v>881</v>
+        <v>1693</v>
       </c>
       <c r="E371" t="s">
-        <v>882</v>
+        <v>1694</v>
       </c>
       <c r="F371" t="s">
-        <v>617</v>
+        <v>597</v>
       </c>
       <c r="H371">
         <f t="shared" si="27"/>
@@ -18769,19 +19259,19 @@
     </row>
     <row r="372" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
-        <v>883</v>
+        <v>1695</v>
       </c>
       <c r="B372" t="s">
-        <v>884</